--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Bezugsquellen" sheetId="2" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="Zahnriemenscheiben" sheetId="5" r:id="rId4"/>
     <sheet name="Stepper" sheetId="4" r:id="rId5"/>
     <sheet name="Rotary Encoder" sheetId="6" r:id="rId6"/>
+    <sheet name="BOM" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1354" uniqueCount="575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1486" uniqueCount="624">
   <si>
     <t>Bauteilnummer</t>
   </si>
@@ -1536,9 +1537,6 @@
     <t>57x57x114</t>
   </si>
   <si>
-    <t>175/250</t>
-  </si>
-  <si>
     <t>23HS45-4204S</t>
   </si>
   <si>
@@ -1653,18 +1651,9 @@
     <t>3/2,12</t>
   </si>
   <si>
-    <t>1,1/4,4</t>
-  </si>
-  <si>
-    <t>1,6/6,4</t>
-  </si>
-  <si>
     <t>3/4,24</t>
   </si>
   <si>
-    <t>1,7/6,8</t>
-  </si>
-  <si>
     <t>3,5A</t>
   </si>
   <si>
@@ -1744,17 +1733,180 @@
   </si>
   <si>
     <t>Operational Manual</t>
+  </si>
+  <si>
+    <t>Teilung 2,5</t>
+  </si>
+  <si>
+    <t>Bezugsquellen</t>
+  </si>
+  <si>
+    <t>Dimensionierung Handgelenk</t>
+  </si>
+  <si>
+    <t>Übersetzung Handgelenk</t>
+  </si>
+  <si>
+    <t>Drehmoment Handgelenk Motor</t>
+  </si>
+  <si>
+    <t>Drehmoment Handgelenk</t>
+  </si>
+  <si>
+    <t>Übersetzung Handgelenkdreher</t>
+  </si>
+  <si>
+    <t>Drehmoment Handgelenkdreher</t>
+  </si>
+  <si>
+    <t>Drehmoment Handgelenkdreher Motor</t>
+  </si>
+  <si>
+    <t>Berechnung</t>
+  </si>
+  <si>
+    <t>http://smarthost.maedler.de/maedlertools/maedler.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zahnriemen Schulter </t>
+  </si>
+  <si>
+    <t>[N]</t>
+  </si>
+  <si>
+    <t>[W]</t>
+  </si>
+  <si>
+    <t>Drehzahl</t>
+  </si>
+  <si>
+    <t>Kraft</t>
+  </si>
+  <si>
+    <t>Leistung</t>
+  </si>
+  <si>
+    <t>Zahnriemen Oberarm 1</t>
+  </si>
+  <si>
+    <t>Zahnriemen Oberarm 2</t>
+  </si>
+  <si>
+    <t>Radius</t>
+  </si>
+  <si>
+    <t>[m]</t>
+  </si>
+  <si>
+    <t>[1/s]</t>
+  </si>
+  <si>
+    <t>Zähne</t>
+  </si>
+  <si>
+    <t>Außendurchmesser</t>
+  </si>
+  <si>
+    <t>Wirkdurchmesser</t>
+  </si>
+  <si>
+    <t>Berechnung Zahnriemenscheibe T2,5</t>
+  </si>
+  <si>
+    <t>Tascheinnendurchmesser</t>
+  </si>
+  <si>
+    <t>Winkeleckeinnendurchmesser</t>
+  </si>
+  <si>
+    <t>Artikel</t>
+  </si>
+  <si>
+    <t>Bezug</t>
+  </si>
+  <si>
+    <t>kg</t>
+  </si>
+  <si>
+    <t>Stück</t>
+  </si>
+  <si>
+    <t>Benutzung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schulter </t>
+  </si>
+  <si>
+    <t>Schulter als Axial lager</t>
+  </si>
+  <si>
+    <t>https://www.conrad.de/de/messing-rund-profil-x-l-2-mm-x-500-mm-297224.html</t>
+  </si>
+  <si>
+    <t>Einzelpreis</t>
+  </si>
+  <si>
+    <t>gesamtpreis</t>
+  </si>
+  <si>
+    <t>http://www.kugellager-express.de/nadelhuelse-nadellager-hk-0408-hk0408-4x8x8-mm.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nadelhülse 4x8x8 </t>
+  </si>
+  <si>
+    <t>Messingachse 4mm</t>
+  </si>
+  <si>
+    <t>Axe für Nadelhülse</t>
+  </si>
+  <si>
+    <t>Rillenkugellager DIN 625 SKF - SKF 61818 - 90x115x13</t>
+  </si>
+  <si>
+    <t>https://www.maedler.de/Article/16222000</t>
+  </si>
+  <si>
+    <t>SchulterAntriebeRiemenscheibe</t>
+  </si>
+  <si>
+    <t>Zahnriemenscheibe T5, 20 Zähne</t>
+  </si>
+  <si>
+    <t>http://www.kugellager-express.de/kugellager-zoll-inch-r2-3-175x9-525x3-967-mm.html</t>
+  </si>
+  <si>
+    <t>Rillenkugellager 3.175 x 9.525 x 3.967 mm</t>
+  </si>
+  <si>
+    <t>Schulter Spannrollen</t>
+  </si>
+  <si>
+    <t>Schulter Spannrollen Achsen</t>
+  </si>
+  <si>
+    <t>http://www.amazon.de/L1118-Metric-Schwarz-Sockel-schraube/dp/B00GIES81U/ref=sr_1_2?s=toys&amp;ie=UTF8&amp;qid=1457217378&amp;sr=1-2&amp;keywords=schraube+M4+40mm</t>
+  </si>
+  <si>
+    <t>Schraube M4 x 40mm</t>
+  </si>
+  <si>
+    <t>Berechnung Zahnriemenscheibe T25</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="6">
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.0\ _€_-;\-* #,##0.0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="175" formatCode="_-* #,##0.00\ [$€-407]_-;\-* #,##0.00\ [$€-407]_-;_-* &quot;-&quot;??\ [$€-407]_-;_-@_-"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1785,13 +1937,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1810,12 +1955,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1838,13 +1984,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1854,11 +1993,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Komma" xfId="2" builtinId="3"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Währung" xfId="3" builtinId="4"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1877,20 +2028,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>196667</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>166250</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>347681</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>29309</xdr:rowOff>
+      <xdr:colOff>51954</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>82383</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Grafik 2" descr="Fenster schließen"/>
+        <xdr:cNvPr id="2" name="Grafik 1" descr="Fenster schließen"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1908,8 +2059,114 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="196667" y="722841"/>
+          <a:off x="815340" y="15240"/>
           <a:ext cx="3199014" cy="1347303"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>70135</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Grafik 2" descr="Synchronriemenscheiben/T2.5:Verwandte bildanzeige"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="-845" t="10590" r="18028" b="37847"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="3361975"/>
+          <a:ext cx="5669280" cy="2863565"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>139149</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>46274</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>768627</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>13251</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Grafik 3" descr="Synchronriemenscheiben/Ausführung T5:Verwandte bildanzeige"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect r="23877" b="41795"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="139149" y="7838552"/>
+          <a:ext cx="4605130" cy="2564403"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2280,8 +2537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E30"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28:E30"/>
+    <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2304,7 +2561,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E4" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -2330,188 +2587,123 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="C16" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="E16" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="C17" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="E17" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="E19" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="E21" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E22" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E23" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E24" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E25" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E26" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="C28" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="D28" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="E28" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D29" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="E29" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D30" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="E30" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD63"/>
+  <dimension ref="A3:AD107"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E74" sqref="E74:O74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="38.77734375" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.5546875" customWidth="1"/>
     <col min="11" max="11" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.77734375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E1" s="10" t="s">
-        <v>357</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>358</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>359</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>360</v>
-      </c>
-      <c r="I1" s="10"/>
-      <c r="J1" s="17" t="s">
-        <v>554</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>361</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>362</v>
-      </c>
-      <c r="M1" s="10" t="s">
-        <v>363</v>
-      </c>
-      <c r="N1" s="10" t="s">
-        <v>364</v>
-      </c>
-      <c r="O1" s="10" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E2" s="10" t="s">
-        <v>366</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>367</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>368</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>369</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>340</v>
-      </c>
-      <c r="J2" s="17"/>
-      <c r="K2" s="10" t="s">
-        <v>537</v>
-      </c>
-      <c r="L2" s="10" t="s">
-        <v>370</v>
-      </c>
-      <c r="M2" s="10" t="s">
-        <v>371</v>
-      </c>
-      <c r="N2" s="10" t="s">
-        <v>372</v>
-      </c>
-      <c r="O2" s="10" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>312</v>
       </c>
@@ -2522,7 +2714,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>313</v>
       </c>
@@ -2533,7 +2725,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>317</v>
       </c>
@@ -2544,7 +2736,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>314</v>
       </c>
@@ -2555,65 +2747,66 @@
         <v>315</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>319</v>
       </c>
       <c r="C7">
-        <f>N51+0.2</f>
+        <f>N76+0.2</f>
         <v>0.65</v>
       </c>
       <c r="D7" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>320</v>
       </c>
       <c r="C8">
-        <f>N52+0.2</f>
-        <v>0.43000000000000005</v>
+        <f>N77++N78 +0.1</f>
+        <v>0.31</v>
       </c>
       <c r="D8" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>321</v>
       </c>
       <c r="C9">
-        <v>0.2</v>
+        <f>N78+0.1</f>
+        <v>0.22</v>
       </c>
       <c r="D9" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>329</v>
       </c>
       <c r="C10" s="5">
         <f>C14/C12</f>
-        <v>9.3333333333333339</v>
+        <v>6</v>
       </c>
       <c r="D10" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>339</v>
       </c>
       <c r="C11" s="8">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="D11" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>341</v>
       </c>
@@ -2624,42 +2817,42 @@
         <v>338</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>351</v>
       </c>
       <c r="C13" s="4">
         <f>C12*C11/PI()</f>
-        <v>11.93662073189215</v>
+        <v>23.8732414637843</v>
       </c>
       <c r="D13" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>342</v>
       </c>
       <c r="C14" s="7">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="D14" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>352</v>
       </c>
       <c r="C15" s="4">
         <f>C14*C11/PI()</f>
-        <v>111.40846016432674</v>
+        <v>143.23944878270581</v>
       </c>
       <c r="D15" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>323</v>
       </c>
@@ -2889,670 +3082,1250 @@
         <v>340</v>
       </c>
     </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>577</v>
+      </c>
+      <c r="C36" s="5">
+        <f>C40/C38*(C44/C42)</f>
+        <v>17.361111111111114</v>
+      </c>
+      <c r="D36" t="s">
+        <v>325</v>
+      </c>
+    </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+      <c r="B37" t="s">
+        <v>339</v>
+      </c>
+      <c r="C37">
+        <v>2.5</v>
+      </c>
+      <c r="D37" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>341</v>
+      </c>
+      <c r="C38" s="6">
+        <v>12</v>
+      </c>
+      <c r="D38" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>351</v>
+      </c>
+      <c r="C39" s="4">
+        <f>C38*C37/PI()</f>
+        <v>9.5492965855137211</v>
+      </c>
+      <c r="D39" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>342</v>
+      </c>
+      <c r="C40" s="7">
+        <v>50</v>
+      </c>
+      <c r="D40" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>343</v>
+      </c>
+      <c r="C41" s="4">
+        <v>36</v>
+      </c>
+      <c r="D41" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>344</v>
+      </c>
+      <c r="C42" s="6">
+        <v>12</v>
+      </c>
+      <c r="D42" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>353</v>
+      </c>
+      <c r="C43" s="4">
+        <f>C42*C37/PI()</f>
+        <v>9.5492965855137211</v>
+      </c>
+      <c r="D43" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>345</v>
+      </c>
+      <c r="C44" s="7">
+        <v>50</v>
+      </c>
+      <c r="D44" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>354</v>
+      </c>
+      <c r="C45" s="4">
+        <f>C44*C37/PI()</f>
+        <v>39.788735772973837</v>
+      </c>
+      <c r="D45" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>574</v>
+      </c>
+      <c r="C46" s="5">
+        <f>C50/C48*(C54/C52)</f>
+        <v>11.111111111111112</v>
+      </c>
+      <c r="D46" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>339</v>
+      </c>
+      <c r="C47">
+        <v>2.5</v>
+      </c>
+      <c r="D47" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
+        <v>341</v>
+      </c>
+      <c r="C48" s="6">
+        <v>15</v>
+      </c>
+      <c r="D48" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
+        <v>351</v>
+      </c>
+      <c r="C49" s="4">
+        <f>C48*C47/PI()</f>
+        <v>11.93662073189215</v>
+      </c>
+      <c r="D49" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>342</v>
+      </c>
+      <c r="C50" s="7">
+        <v>50</v>
+      </c>
+      <c r="D50" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
+        <v>343</v>
+      </c>
+      <c r="C51" s="4">
+        <v>36</v>
+      </c>
+      <c r="D51" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
+        <v>344</v>
+      </c>
+      <c r="C52" s="6">
+        <v>15</v>
+      </c>
+      <c r="D52" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
+        <v>353</v>
+      </c>
+      <c r="C53" s="4">
+        <f>C52*C47/PI()</f>
+        <v>11.93662073189215</v>
+      </c>
+      <c r="D53" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
+        <v>345</v>
+      </c>
+      <c r="C54" s="7">
+        <v>50</v>
+      </c>
+      <c r="D54" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
+        <v>354</v>
+      </c>
+      <c r="C55" s="4">
+        <f>C54*C47/PI()</f>
+        <v>39.788735772973837</v>
+      </c>
+      <c r="D55" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
         <v>327</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C57" s="3">
         <v>0.3</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
         <v>334</v>
       </c>
-      <c r="C38">
+      <c r="C58">
         <v>9.81</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D58" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
         <v>332</v>
       </c>
-      <c r="C39">
-        <f>C38/2</f>
+      <c r="C59">
+        <f>C58/2</f>
         <v>4.9050000000000002</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D59" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
         <v>316</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C61" s="2">
         <f>(C3+C4+C5)/2</f>
         <v>450</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D61" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
         <v>318</v>
       </c>
-      <c r="C42" s="4">
-        <f>((C3+C4+C5)*(C7+C8+C9)*(C39))/1000</f>
-        <v>5.6505600000000005</v>
-      </c>
-      <c r="D42" t="s">
+      <c r="C62" s="4">
+        <f>((C3+C4+C5)*(C7+C8+C9)*(C59))/1000</f>
+        <v>5.2091100000000008</v>
+      </c>
+      <c r="D62" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
         <v>336</v>
       </c>
-      <c r="C43" s="4">
-        <f>((C3+C4+C5)*(C7+C8+C9)*(C38+C39))/1000</f>
-        <v>16.95168</v>
-      </c>
-      <c r="D43" t="s">
+      <c r="C63" s="4">
+        <f>((C3+C4+C5)*(C7+C8+C9)*(C58+C59))/1000</f>
+        <v>15.627330000000001</v>
+      </c>
+      <c r="D63" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
         <v>337</v>
       </c>
-      <c r="C44" s="2">
-        <f>((C4+C5)*(C8+C9)*(C38+C39))/1000</f>
-        <v>4.6352250000000002</v>
-      </c>
-      <c r="D44" t="s">
+      <c r="C64" s="2">
+        <f>((C4+C5)*(C8+C9)*(C58+C59))/1000</f>
+        <v>3.8994749999999998</v>
+      </c>
+      <c r="D64" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
+    <row r="65" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>576</v>
+      </c>
+      <c r="C65" s="2">
+        <f>((C5)*(C9+C6)*(C58+C59))/1000</f>
+        <v>1.05948</v>
+      </c>
+      <c r="D65" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="66" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>578</v>
+      </c>
+      <c r="C66" s="2">
+        <f>((C5)*(C9+C6)*(C59))/1000</f>
+        <v>0.35316000000000003</v>
+      </c>
+      <c r="D66" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="67" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
         <v>326</v>
       </c>
-      <c r="C45" s="2">
-        <f>C42/C10</f>
-        <v>0.60541714285714288</v>
-      </c>
-      <c r="D45" t="s">
+      <c r="C67" s="2">
+        <f>C62/C10</f>
+        <v>0.8681850000000001</v>
+      </c>
+      <c r="D67" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
+    <row r="68" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
         <v>335</v>
       </c>
-      <c r="C46" s="2">
-        <f>C43/C16</f>
-        <v>0.67806719999999998</v>
-      </c>
-      <c r="D46" t="s">
+      <c r="C68" s="2">
+        <f>C63/C16</f>
+        <v>0.62509320000000002</v>
+      </c>
+      <c r="D68" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
+    <row r="69" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
         <v>335</v>
       </c>
-      <c r="C47" s="2">
-        <f>C44/C26</f>
-        <v>0.6518285156250001</v>
-      </c>
-      <c r="D47" t="s">
+      <c r="C69" s="2">
+        <f>C64/C26</f>
+        <v>0.54836367187500001</v>
+      </c>
+      <c r="D69" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C48" s="2"/>
-    </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+    <row r="70" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>575</v>
+      </c>
+      <c r="C70" s="2">
+        <f>C65/C46</f>
+        <v>9.5353199999999985E-2</v>
+      </c>
+      <c r="D70" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="71" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>579</v>
+      </c>
+      <c r="C71" s="2">
+        <f>C66/C46</f>
+        <v>3.1784399999999997E-2</v>
+      </c>
+      <c r="D71" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="72" spans="1:30" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C72" s="2"/>
+      <c r="E72" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="F72" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="G72" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="H72" s="10" t="s">
+        <v>360</v>
+      </c>
+      <c r="I72" s="10"/>
+      <c r="J72" s="14" t="s">
+        <v>550</v>
+      </c>
+      <c r="K72" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="L72" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="M72" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="N72" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="O72" s="10" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="73" spans="1:30" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C73" s="2"/>
+      <c r="E73" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="F73" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="G73" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="H73" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="I73" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="J73" s="14"/>
+      <c r="K73" s="10" t="s">
+        <v>536</v>
+      </c>
+      <c r="L73" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="M73" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="N73" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="O73" s="10" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="74" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
         <v>328</v>
       </c>
-      <c r="C49" s="2">
-        <f>C45*(1+C37)</f>
-        <v>0.78704228571428581</v>
-      </c>
-      <c r="D49" t="s">
+      <c r="C74" s="2">
+        <f>C67*(1+C57)</f>
+        <v>1.1286405000000002</v>
+      </c>
+      <c r="D74" t="s">
         <v>322</v>
       </c>
-      <c r="E49" s="11" t="s">
-        <v>471</v>
-      </c>
-      <c r="F49" s="10">
+      <c r="E74" s="11" t="s">
+        <v>474</v>
+      </c>
+      <c r="F74" s="10">
         <v>0.9</v>
       </c>
-      <c r="G49" s="10" t="s">
+      <c r="G74" s="10" t="s">
         <v>375</v>
       </c>
-      <c r="H49" s="10" t="s">
+      <c r="H74" s="10" t="s">
         <v>472</v>
       </c>
-      <c r="I49" s="10" t="s">
-        <v>473</v>
-      </c>
-      <c r="J49" s="13">
+      <c r="I74" s="10" t="s">
+        <v>475</v>
+      </c>
+      <c r="J74" s="14">
         <v>6.35</v>
       </c>
-      <c r="K49" s="14">
-        <v>90</v>
-      </c>
-      <c r="L49" s="10">
-        <v>0.38</v>
-      </c>
-      <c r="M49" s="10" t="s">
+      <c r="K74" s="15">
+        <v>126</v>
+      </c>
+      <c r="L74" s="10">
+        <v>2.8</v>
+      </c>
+      <c r="M74" s="10" t="s">
         <v>378</v>
       </c>
-      <c r="N49" s="10">
+      <c r="N74" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="O74" s="17">
+        <f>K74/N74</f>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="75" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>330</v>
+      </c>
+      <c r="C75" s="2">
+        <f>C68*(1+C57)</f>
+        <v>0.81262116000000006</v>
+      </c>
+      <c r="D75" t="s">
+        <v>322</v>
+      </c>
+      <c r="E75" s="11" t="s">
+        <v>496</v>
+      </c>
+      <c r="F75" s="14">
+        <v>1.8</v>
+      </c>
+      <c r="G75" s="14" t="s">
+        <v>375</v>
+      </c>
+      <c r="H75" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="I75" s="14" t="s">
+        <v>494</v>
+      </c>
+      <c r="J75" s="14">
+        <v>6.35</v>
+      </c>
+      <c r="K75" s="15">
+        <v>189</v>
+      </c>
+      <c r="L75" s="14">
+        <v>2.8</v>
+      </c>
+      <c r="M75" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="N75" s="14">
+        <v>1</v>
+      </c>
+      <c r="O75" s="17">
+        <f>K75/N75</f>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="76" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>331</v>
+      </c>
+      <c r="C76" s="2">
+        <f>C69*(1+C57)</f>
+        <v>0.7128727734375</v>
+      </c>
+      <c r="D76" t="s">
+        <v>322</v>
+      </c>
+      <c r="E76" s="11" t="s">
+        <v>470</v>
+      </c>
+      <c r="F76" s="10">
+        <v>1.8</v>
+      </c>
+      <c r="G76" s="10" t="s">
+        <v>375</v>
+      </c>
+      <c r="H76" s="10" t="s">
+        <v>424</v>
+      </c>
+      <c r="I76" s="10" t="s">
+        <v>468</v>
+      </c>
+      <c r="J76" s="14">
+        <v>5</v>
+      </c>
+      <c r="K76" s="10">
+        <v>65</v>
+      </c>
+      <c r="L76" s="10">
+        <v>2.1</v>
+      </c>
+      <c r="M76" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="N76" s="10">
+        <v>0.45</v>
+      </c>
+      <c r="O76" s="17">
+        <f>K76/N76</f>
+        <v>144.44444444444443</v>
+      </c>
+      <c r="Q76" s="10"/>
+      <c r="R76" s="10"/>
+      <c r="S76" s="10"/>
+      <c r="X76" s="10"/>
+      <c r="Y76" s="10"/>
+      <c r="Z76" s="10"/>
+      <c r="AA76" s="10"/>
+      <c r="AB76" s="10"/>
+      <c r="AC76" s="10"/>
+      <c r="AD76" s="10"/>
+    </row>
+    <row r="77" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>355</v>
+      </c>
+      <c r="C77" s="2">
+        <f>C71*(1+C57)</f>
+        <v>4.1319719999999997E-2</v>
+      </c>
+      <c r="D77" t="s">
+        <v>322</v>
+      </c>
+      <c r="E77" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="F77" s="16">
+        <v>0.9</v>
+      </c>
+      <c r="G77" s="16" t="s">
+        <v>375</v>
+      </c>
+      <c r="H77" s="16" t="s">
+        <v>395</v>
+      </c>
+      <c r="I77" s="16" t="s">
+        <v>398</v>
+      </c>
+      <c r="J77" s="16">
+        <v>5</v>
+      </c>
+      <c r="K77" s="16">
+        <v>5</v>
+      </c>
+      <c r="L77" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="M77" s="16" t="s">
+        <v>378</v>
+      </c>
+      <c r="N77" s="16">
+        <v>0.09</v>
+      </c>
+      <c r="O77" s="17">
+        <f>K77/N77</f>
+        <v>55.555555555555557</v>
+      </c>
+      <c r="P77" s="11"/>
+      <c r="Q77" s="10"/>
+      <c r="R77" s="10"/>
+      <c r="S77" s="10"/>
+      <c r="T77" s="10"/>
+      <c r="U77" s="10"/>
+      <c r="V77" s="10"/>
+      <c r="W77" s="10"/>
+      <c r="X77" s="10"/>
+      <c r="Y77" s="10"/>
+      <c r="Z77" s="10"/>
+      <c r="AA77" s="10"/>
+      <c r="AB77" s="10"/>
+      <c r="AC77" s="10"/>
+      <c r="AD77" s="10"/>
+    </row>
+    <row r="78" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>573</v>
+      </c>
+      <c r="C78" s="2">
+        <f>C70*(1+C57)</f>
+        <v>0.12395915999999998</v>
+      </c>
+      <c r="D78" t="s">
+        <v>322</v>
+      </c>
+      <c r="E78" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="F78" s="16">
+        <v>0.9</v>
+      </c>
+      <c r="G78" s="16" t="s">
+        <v>375</v>
+      </c>
+      <c r="H78" s="16" t="s">
+        <v>412</v>
+      </c>
+      <c r="I78" s="16" t="s">
+        <v>413</v>
+      </c>
+      <c r="J78" s="16">
+        <v>5</v>
+      </c>
+      <c r="K78" s="16">
+        <v>16</v>
+      </c>
+      <c r="L78" s="16">
         <v>0.6</v>
       </c>
-      <c r="O49">
-        <f>K49/N49</f>
-        <v>150</v>
-      </c>
-    </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>330</v>
-      </c>
-      <c r="C50" s="2">
-        <f>C46*(1+C37)</f>
-        <v>0.88148736000000005</v>
-      </c>
-      <c r="D50" t="s">
-        <v>322</v>
-      </c>
-      <c r="E50" s="11" t="s">
-        <v>496</v>
-      </c>
-      <c r="F50" s="17">
+      <c r="M78" s="16" t="s">
+        <v>378</v>
+      </c>
+      <c r="N78" s="16">
+        <v>0.12</v>
+      </c>
+      <c r="O78" s="17">
+        <f>K78/N78</f>
+        <v>133.33333333333334</v>
+      </c>
+      <c r="P78" s="11"/>
+      <c r="Q78" s="14"/>
+      <c r="R78" s="14"/>
+      <c r="S78" s="14"/>
+      <c r="T78" s="14"/>
+      <c r="U78" s="14"/>
+      <c r="V78" s="14"/>
+      <c r="W78" s="14"/>
+      <c r="X78" s="14"/>
+      <c r="Y78" s="14"/>
+      <c r="Z78" s="14"/>
+      <c r="AA78" s="14"/>
+      <c r="AB78" s="14"/>
+      <c r="AC78" s="14"/>
+      <c r="AD78" s="14"/>
+    </row>
+    <row r="79" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="E79" s="11"/>
+      <c r="F79" s="16"/>
+      <c r="G79" s="16"/>
+      <c r="H79" s="16"/>
+      <c r="I79" s="16"/>
+      <c r="J79" s="16"/>
+      <c r="K79" s="16"/>
+      <c r="L79" s="16"/>
+      <c r="M79" s="16"/>
+      <c r="N79" s="16"/>
+      <c r="O79" s="17"/>
+      <c r="P79" s="11"/>
+      <c r="Q79" s="16"/>
+      <c r="R79" s="16"/>
+      <c r="S79" s="16"/>
+      <c r="T79" s="16"/>
+      <c r="U79" s="16"/>
+      <c r="V79" s="16"/>
+      <c r="W79" s="16"/>
+      <c r="X79" s="16"/>
+      <c r="Y79" s="16"/>
+      <c r="Z79" s="16"/>
+      <c r="AA79" s="16"/>
+      <c r="AB79" s="16"/>
+      <c r="AC79" s="16"/>
+      <c r="AD79" s="16"/>
+    </row>
+    <row r="80" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="E80" s="11" t="s">
+        <v>545</v>
+      </c>
+      <c r="F80" s="14">
         <v>1.8</v>
       </c>
-      <c r="G50" s="17" t="s">
+      <c r="G80" s="14" t="s">
         <v>375</v>
       </c>
-      <c r="H50" s="17" t="s">
+      <c r="H80" s="14" t="s">
+        <v>509</v>
+      </c>
+      <c r="I80" s="14" t="s">
+        <v>514</v>
+      </c>
+      <c r="J80" s="14">
+        <v>8</v>
+      </c>
+      <c r="K80" s="14">
+        <v>310</v>
+      </c>
+      <c r="L80" s="14">
+        <v>3.5</v>
+      </c>
+      <c r="M80" s="14" t="s">
+        <v>391</v>
+      </c>
+      <c r="N80" s="14">
+        <v>1.34</v>
+      </c>
+      <c r="O80" s="17">
+        <f t="shared" ref="O80:O86" si="0">K80/N80</f>
+        <v>231.34328358208953</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="E81" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="F81" s="10">
+        <v>1.8</v>
+      </c>
+      <c r="G81" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="H81" s="10" t="s">
         <v>472</v>
       </c>
-      <c r="I50" s="17" t="s">
-        <v>494</v>
-      </c>
-      <c r="J50" s="17">
+      <c r="I81" s="10" t="s">
+        <v>499</v>
+      </c>
+      <c r="J81" s="14">
         <v>6.35</v>
       </c>
-      <c r="K50" s="18">
-        <v>189</v>
-      </c>
-      <c r="L50" s="17">
-        <v>2.8</v>
-      </c>
-      <c r="M50" s="17" t="s">
+      <c r="K81" s="10">
+        <v>200</v>
+      </c>
+      <c r="L81" s="10">
+        <v>2.83</v>
+      </c>
+      <c r="M81" s="10" t="s">
         <v>378</v>
       </c>
-      <c r="N50" s="17">
-        <v>1</v>
-      </c>
-      <c r="O50">
-        <f>K50/N50</f>
-        <v>189</v>
-      </c>
-    </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>331</v>
-      </c>
-      <c r="C51" s="2">
-        <f>C47*(1+C37)</f>
-        <v>0.8473770703125002</v>
-      </c>
-      <c r="D51" t="s">
-        <v>322</v>
-      </c>
-      <c r="E51" s="11" t="s">
-        <v>470</v>
-      </c>
-      <c r="F51" s="10">
-        <v>1.8</v>
-      </c>
-      <c r="G51" s="10" t="s">
-        <v>375</v>
-      </c>
-      <c r="H51" s="10" t="s">
-        <v>424</v>
-      </c>
-      <c r="I51" s="10" t="s">
-        <v>468</v>
-      </c>
-      <c r="J51" s="17">
-        <v>5</v>
-      </c>
-      <c r="K51" s="10">
-        <v>65</v>
-      </c>
-      <c r="L51" s="10">
-        <v>2.1</v>
-      </c>
-      <c r="M51" s="10" t="s">
-        <v>378</v>
-      </c>
-      <c r="N51" s="10">
-        <v>0.45</v>
-      </c>
-      <c r="O51">
-        <f>K51/N51</f>
-        <v>144.44444444444443</v>
-      </c>
-      <c r="Q51" s="10"/>
-      <c r="R51" s="10"/>
-      <c r="S51" s="10"/>
-      <c r="X51" s="10"/>
-      <c r="Y51" s="10"/>
-      <c r="Z51" s="10">
-        <v>2</v>
-      </c>
-      <c r="AA51" s="10">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="AB51" s="10" t="s">
-        <v>378</v>
-      </c>
-      <c r="AC51" s="10">
-        <v>2.6</v>
-      </c>
-      <c r="AD51" s="10">
-        <v>0.28000000000000003</v>
-      </c>
-    </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>355</v>
-      </c>
-      <c r="E52" s="11" t="s">
-        <v>453</v>
-      </c>
-      <c r="F52" s="10">
-        <v>1.8</v>
-      </c>
-      <c r="G52" s="10" t="s">
-        <v>375</v>
-      </c>
-      <c r="H52" s="10" t="s">
-        <v>424</v>
-      </c>
-      <c r="I52" s="10" t="s">
-        <v>449</v>
-      </c>
-      <c r="J52" s="17">
-        <v>5</v>
-      </c>
-      <c r="K52" s="14">
-        <v>26</v>
-      </c>
-      <c r="L52" s="10">
-        <v>0.4</v>
-      </c>
-      <c r="M52" s="10" t="s">
-        <v>378</v>
-      </c>
-      <c r="N52" s="10">
-        <v>0.23</v>
-      </c>
-      <c r="O52">
-        <f>K52/N52</f>
-        <v>113.04347826086956</v>
-      </c>
-      <c r="P52" s="11"/>
-      <c r="Q52" s="10"/>
-      <c r="R52" s="10"/>
-      <c r="S52" s="10"/>
-      <c r="T52" s="10"/>
-      <c r="U52" s="10"/>
-      <c r="V52" s="10"/>
-      <c r="W52" s="10"/>
-      <c r="X52" s="10"/>
-      <c r="Y52" s="10"/>
-      <c r="Z52" s="10">
-        <v>0.4</v>
-      </c>
-      <c r="AA52" s="10">
-        <v>30</v>
-      </c>
-      <c r="AB52" s="10" t="s">
-        <v>378</v>
-      </c>
-      <c r="AC52" s="10">
-        <v>37</v>
-      </c>
-      <c r="AD52" s="10">
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="E53" s="11"/>
-      <c r="F53" s="17"/>
-      <c r="G53" s="17"/>
-      <c r="H53" s="17"/>
-      <c r="I53" s="17"/>
-      <c r="J53" s="17"/>
-      <c r="K53" s="14"/>
-      <c r="L53" s="17"/>
-      <c r="M53" s="17"/>
-      <c r="N53" s="17"/>
-      <c r="P53" s="11"/>
-      <c r="Q53" s="17"/>
-      <c r="R53" s="17"/>
-      <c r="S53" s="17"/>
-      <c r="T53" s="17"/>
-      <c r="U53" s="17"/>
-      <c r="V53" s="17"/>
-      <c r="W53" s="17"/>
-      <c r="X53" s="17"/>
-      <c r="Y53" s="17"/>
-      <c r="Z53" s="17"/>
-      <c r="AA53" s="17"/>
-      <c r="AB53" s="17"/>
-      <c r="AC53" s="17"/>
-      <c r="AD53" s="17"/>
-    </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="E54" s="11" t="s">
-        <v>549</v>
-      </c>
-      <c r="F54" s="17">
-        <v>1.8</v>
-      </c>
-      <c r="G54" s="17" t="s">
-        <v>375</v>
-      </c>
-      <c r="H54" s="17" t="s">
-        <v>510</v>
-      </c>
-      <c r="I54" s="17" t="s">
-        <v>515</v>
-      </c>
-      <c r="J54" s="17">
-        <v>8</v>
-      </c>
-      <c r="K54" s="17">
-        <v>310</v>
-      </c>
-      <c r="L54" s="17">
-        <v>3.5</v>
-      </c>
-      <c r="M54" s="17" t="s">
-        <v>391</v>
-      </c>
-      <c r="N54" s="17">
-        <v>1.34</v>
-      </c>
-      <c r="O54">
-        <f t="shared" ref="O54:O60" si="0">K54/N54</f>
-        <v>231.34328358208953</v>
-      </c>
-    </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="E55" s="11" t="s">
-        <v>497</v>
-      </c>
-      <c r="F55" s="10">
-        <v>1.8</v>
-      </c>
-      <c r="G55" s="10" t="s">
-        <v>498</v>
-      </c>
-      <c r="H55" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="I55" s="10" t="s">
-        <v>499</v>
-      </c>
-      <c r="J55" s="17">
-        <v>6.35</v>
-      </c>
-      <c r="K55" s="10">
-        <v>200</v>
-      </c>
-      <c r="L55" s="10">
-        <v>2.83</v>
-      </c>
-      <c r="M55" s="10" t="s">
-        <v>378</v>
-      </c>
-      <c r="N55" s="10">
+      <c r="N81" s="10">
         <v>1.1299999999999999</v>
       </c>
-      <c r="O55">
+      <c r="O81" s="17">
         <f t="shared" si="0"/>
         <v>176.9911504424779</v>
       </c>
-      <c r="P55" s="10"/>
-      <c r="Q55" s="10"/>
-      <c r="R55" s="10"/>
-      <c r="S55" s="10"/>
-      <c r="T55" s="10"/>
-    </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="E56" s="11" t="s">
+      <c r="P81" s="10"/>
+      <c r="Q81" s="10"/>
+      <c r="R81" s="10"/>
+      <c r="S81" s="10"/>
+      <c r="T81" s="10"/>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="E82" s="11" t="s">
         <v>496</v>
       </c>
-      <c r="F56" s="17">
+      <c r="F82" s="14">
         <v>1.8</v>
       </c>
-      <c r="G56" s="17" t="s">
+      <c r="G82" s="14" t="s">
         <v>375</v>
       </c>
-      <c r="H56" s="17" t="s">
+      <c r="H82" s="14" t="s">
         <v>472</v>
       </c>
-      <c r="I56" s="17" t="s">
+      <c r="I82" s="14" t="s">
         <v>494</v>
       </c>
-      <c r="J56" s="17">
+      <c r="J82" s="14">
         <v>6.35</v>
       </c>
-      <c r="K56" s="18">
+      <c r="K82" s="15">
         <v>189</v>
       </c>
-      <c r="L56" s="17">
+      <c r="L82" s="14">
         <v>2.8</v>
       </c>
-      <c r="M56" s="17" t="s">
+      <c r="M82" s="14" t="s">
         <v>378</v>
       </c>
-      <c r="N56" s="17">
+      <c r="N82" s="14">
         <v>1</v>
       </c>
-      <c r="O56">
+      <c r="O82" s="17">
         <f t="shared" si="0"/>
         <v>189</v>
       </c>
-      <c r="P56" s="17"/>
-      <c r="Q56" s="17"/>
-      <c r="R56" s="17"/>
-      <c r="S56" s="17"/>
-      <c r="T56" s="17"/>
-    </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="E57" s="11" t="s">
-        <v>474</v>
-      </c>
-      <c r="F57" s="10">
+      <c r="P82" s="14"/>
+      <c r="Q82" s="14"/>
+      <c r="R82" s="14"/>
+      <c r="S82" s="14"/>
+      <c r="T82" s="14"/>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="P83" s="10"/>
+      <c r="Q83" s="10"/>
+      <c r="R83" s="10"/>
+      <c r="S83" s="10"/>
+      <c r="T83" s="10"/>
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="E84" s="11" t="s">
+        <v>471</v>
+      </c>
+      <c r="F84" s="14">
         <v>0.9</v>
       </c>
-      <c r="G57" s="10" t="s">
+      <c r="G84" s="14" t="s">
         <v>375</v>
       </c>
-      <c r="H57" s="10" t="s">
+      <c r="H84" s="14" t="s">
         <v>472</v>
       </c>
-      <c r="I57" s="10" t="s">
-        <v>475</v>
-      </c>
-      <c r="J57" s="17">
+      <c r="I84" s="14" t="s">
+        <v>473</v>
+      </c>
+      <c r="J84" s="13">
         <v>6.35</v>
       </c>
-      <c r="K57" s="18">
-        <v>126</v>
-      </c>
-      <c r="L57" s="10">
-        <v>2.8</v>
-      </c>
-      <c r="M57" s="10" t="s">
+      <c r="K84" s="15">
+        <v>90</v>
+      </c>
+      <c r="L84" s="14">
+        <v>0.38</v>
+      </c>
+      <c r="M84" s="14" t="s">
         <v>378</v>
       </c>
-      <c r="N57" s="10">
-        <v>0.7</v>
-      </c>
-      <c r="O57">
-        <f t="shared" si="0"/>
-        <v>180</v>
-      </c>
-      <c r="P57" s="10"/>
-      <c r="Q57" s="10"/>
-      <c r="R57" s="10"/>
-      <c r="S57" s="10"/>
-      <c r="T57" s="10"/>
-    </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="E58" s="11" t="s">
-        <v>471</v>
-      </c>
-      <c r="F58" s="17">
-        <v>0.9</v>
-      </c>
-      <c r="G58" s="17" t="s">
-        <v>375</v>
-      </c>
-      <c r="H58" s="17" t="s">
-        <v>472</v>
-      </c>
-      <c r="I58" s="17" t="s">
-        <v>473</v>
-      </c>
-      <c r="J58" s="13">
-        <v>6.35</v>
-      </c>
-      <c r="K58" s="18">
-        <v>90</v>
-      </c>
-      <c r="L58" s="17">
-        <v>0.38</v>
-      </c>
-      <c r="M58" s="17" t="s">
-        <v>378</v>
-      </c>
-      <c r="N58" s="17">
+      <c r="N84" s="14">
         <v>0.6</v>
       </c>
-      <c r="O58">
+      <c r="O84" s="17">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="P58" s="17"/>
-      <c r="Q58" s="17"/>
-      <c r="R58" s="17"/>
-      <c r="S58" s="17"/>
-      <c r="T58" s="17"/>
-    </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="E59" s="11" t="s">
+      <c r="P84" s="14"/>
+      <c r="Q84" s="14"/>
+      <c r="R84" s="14"/>
+      <c r="S84" s="14"/>
+      <c r="T84" s="14"/>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="E85" s="11" t="s">
         <v>470</v>
       </c>
-      <c r="F59" s="10">
+      <c r="F85" s="10">
         <v>1.8</v>
       </c>
-      <c r="G59" s="10" t="s">
+      <c r="G85" s="10" t="s">
         <v>375</v>
       </c>
-      <c r="H59" s="10" t="s">
+      <c r="H85" s="10" t="s">
         <v>424</v>
       </c>
-      <c r="I59" s="10" t="s">
+      <c r="I85" s="10" t="s">
         <v>468</v>
       </c>
-      <c r="J59" s="17">
+      <c r="J85" s="14">
         <v>5</v>
       </c>
-      <c r="K59" s="18">
+      <c r="K85" s="15">
         <v>65</v>
       </c>
-      <c r="L59" s="10">
+      <c r="L85" s="10">
         <v>2.1</v>
       </c>
-      <c r="M59" s="10" t="s">
+      <c r="M85" s="10" t="s">
         <v>378</v>
       </c>
-      <c r="N59" s="10">
+      <c r="N85" s="10">
         <v>0.45</v>
       </c>
-      <c r="O59">
+      <c r="O85" s="17">
         <f t="shared" si="0"/>
         <v>144.44444444444443</v>
       </c>
     </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="E60" s="11" t="s">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="E86" s="11" t="s">
         <v>460</v>
       </c>
-      <c r="F60" s="10">
+      <c r="F86" s="10">
         <v>1.8</v>
       </c>
-      <c r="G60" s="10" t="s">
+      <c r="G86" s="10" t="s">
         <v>375</v>
       </c>
-      <c r="H60" s="10" t="s">
+      <c r="H86" s="10" t="s">
         <v>424</v>
       </c>
-      <c r="I60" s="10" t="s">
+      <c r="I86" s="10" t="s">
         <v>434</v>
       </c>
-      <c r="J60" s="17">
+      <c r="J86" s="14">
         <v>5</v>
       </c>
-      <c r="K60" s="18">
+      <c r="K86" s="15">
         <v>45</v>
       </c>
-      <c r="L60" s="10">
+      <c r="L86" s="10">
         <v>2</v>
       </c>
-      <c r="M60" s="10" t="s">
+      <c r="M86" s="10" t="s">
         <v>378</v>
       </c>
-      <c r="N60" s="10">
+      <c r="N86" s="10">
         <v>0.31</v>
       </c>
-      <c r="O60">
+      <c r="O86" s="17">
         <f t="shared" si="0"/>
         <v>145.16129032258064</v>
       </c>
     </row>
-    <row r="61" spans="1:30" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="E62" s="9"/>
-    </row>
-    <row r="63" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="E63" s="9"/>
-      <c r="F63" s="16"/>
-      <c r="G63" s="15"/>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="E87" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="F87" s="16">
+        <v>0.9</v>
+      </c>
+      <c r="G87" s="16" t="s">
+        <v>375</v>
+      </c>
+      <c r="H87" s="16" t="s">
+        <v>412</v>
+      </c>
+      <c r="I87" s="16" t="s">
+        <v>413</v>
+      </c>
+      <c r="J87" s="16">
+        <v>5</v>
+      </c>
+      <c r="K87" s="16">
+        <v>16</v>
+      </c>
+      <c r="L87" s="16">
+        <v>0.6</v>
+      </c>
+      <c r="M87" s="16" t="s">
+        <v>378</v>
+      </c>
+      <c r="N87" s="16">
+        <v>0.12</v>
+      </c>
+      <c r="O87" s="17">
+        <f>K87/N87</f>
+        <v>133.33333333333334</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="E88" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="F88" s="16">
+        <v>0.9</v>
+      </c>
+      <c r="G88" s="16" t="s">
+        <v>375</v>
+      </c>
+      <c r="H88" s="16" t="s">
+        <v>395</v>
+      </c>
+      <c r="I88" s="16" t="s">
+        <v>398</v>
+      </c>
+      <c r="J88" s="16">
+        <v>5</v>
+      </c>
+      <c r="K88" s="16">
+        <v>5</v>
+      </c>
+      <c r="L88" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="M88" s="16" t="s">
+        <v>378</v>
+      </c>
+      <c r="N88" s="16">
+        <v>0.09</v>
+      </c>
+      <c r="O88" s="17">
+        <f>K88/N88</f>
+        <v>55.555555555555557</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>585</v>
+      </c>
+      <c r="C92" s="19">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="D92" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>590</v>
+      </c>
+      <c r="C93" s="19">
+        <f>(C15/1000/2)</f>
+        <v>7.1619724391352904E-2</v>
+      </c>
+      <c r="D93" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>586</v>
+      </c>
+      <c r="C94" s="19">
+        <f>C62/C93</f>
+        <v>72.732896478849469</v>
+      </c>
+      <c r="D94" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>587</v>
+      </c>
+      <c r="C95" s="19">
+        <f>(C92)*C94*2*PI()</f>
+        <v>456.99426650452085</v>
+      </c>
+      <c r="D95" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>585</v>
+      </c>
+      <c r="C98" s="20">
+        <v>1</v>
+      </c>
+      <c r="D98" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>590</v>
+      </c>
+      <c r="C99" s="20">
+        <f>(C21/1000/2)</f>
+        <v>3.9788735772973836E-2</v>
+      </c>
+      <c r="D99" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>586</v>
+      </c>
+      <c r="C100" s="20">
+        <f>C63/C99</f>
+        <v>392.75764098578708</v>
+      </c>
+      <c r="D100" t="s">
+        <v>583</v>
+      </c>
+      <c r="E100" s="20"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>587</v>
+      </c>
+      <c r="C101" s="20">
+        <f>(C98)*C100*2*PI()</f>
+        <v>2467.7690391244123</v>
+      </c>
+      <c r="D101" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>585</v>
+      </c>
+      <c r="C104" s="20">
+        <f>60*C18/C20</f>
+        <v>12</v>
+      </c>
+      <c r="D104" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>590</v>
+      </c>
+      <c r="C105" s="20">
+        <f>(C25/1000/2)</f>
+        <v>3.9788735772973836E-2</v>
+      </c>
+      <c r="D105" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>586</v>
+      </c>
+      <c r="C106" s="20">
+        <f>C63/(C20/C18)/C105</f>
+        <v>78.55152819715741</v>
+      </c>
+      <c r="D106" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>587</v>
+      </c>
+      <c r="C107" s="20">
+        <f>(C104/60)*C106*2*PI()</f>
+        <v>98.71076156497648</v>
+      </c>
+      <c r="D107" t="s">
+        <v>584</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E49" r:id="rId1" display="http://www.omc-stepperonline.com/9deg-nema-23-bipolar-121v-038a-09nm1275ozin-23hm200384s-p-24.html"/>
-    <hyperlink ref="E59" r:id="rId2" display="http://www.omc-stepperonline.com/nema-17-bipolar-stepper-motor-65ncm92ozin-21a-17hs242104s-p-21.html"/>
-    <hyperlink ref="E60" r:id="rId3" display="http://www.omc-stepperonline.com/3d-printer-nema-17-stepper-motor-2a-45ncm64ozin-17hs162004s-p-16.html"/>
-    <hyperlink ref="E51" r:id="rId4" display="http://www.omc-stepperonline.com/nema-17-bipolar-stepper-motor-65ncm92ozin-21a-17hs242104s-p-21.html"/>
-    <hyperlink ref="E55" r:id="rId5" display="http://www.omc-stepperonline.com/nema-23-cnc-stepper-motor-283nm400-ozin-40a-23hs334008s-p-70.html"/>
-    <hyperlink ref="E57" r:id="rId6" display="http://www.omc-stepperonline.com/9deg-nema-23-stepper-bipolar-28a-126nm1785ozin-23hm222804s-p-292.html"/>
-    <hyperlink ref="E54" r:id="rId7"/>
-    <hyperlink ref="E58" r:id="rId8" display="http://www.omc-stepperonline.com/9deg-nema-23-bipolar-121v-038a-09nm1275ozin-23hm200384s-p-24.html"/>
-    <hyperlink ref="E56" r:id="rId9" display="http://www.omc-stepperonline.com/nema-23-cnc-stepper-motor-28a-19nm269ozin-23hs302804s-p-25.html"/>
-    <hyperlink ref="E50" r:id="rId10" display="http://www.omc-stepperonline.com/nema-23-cnc-stepper-motor-28a-19nm269ozin-23hs302804s-p-25.html"/>
-    <hyperlink ref="E52" r:id="rId11" display="http://www.omc-stepperonline.com/nema-17-stepper-motor-34mm-12v-04a-26ncm37ozin-17hs130404s-p-166.html"/>
+    <hyperlink ref="E85" r:id="rId1" display="http://www.omc-stepperonline.com/nema-17-bipolar-stepper-motor-65ncm92ozin-21a-17hs242104s-p-21.html"/>
+    <hyperlink ref="E86" r:id="rId2" display="http://www.omc-stepperonline.com/3d-printer-nema-17-stepper-motor-2a-45ncm64ozin-17hs162004s-p-16.html"/>
+    <hyperlink ref="E76" r:id="rId3" display="http://www.omc-stepperonline.com/nema-17-bipolar-stepper-motor-65ncm92ozin-21a-17hs242104s-p-21.html"/>
+    <hyperlink ref="E81" r:id="rId4" display="http://www.omc-stepperonline.com/nema-23-cnc-stepper-motor-283nm400-ozin-40a-23hs334008s-p-70.html"/>
+    <hyperlink ref="E74" r:id="rId5" display="http://www.omc-stepperonline.com/9deg-nema-23-stepper-bipolar-28a-126nm1785ozin-23hm222804s-p-292.html"/>
+    <hyperlink ref="E80" r:id="rId6"/>
+    <hyperlink ref="E84" r:id="rId7" display="http://www.omc-stepperonline.com/9deg-nema-23-bipolar-121v-038a-09nm1275ozin-23hm200384s-p-24.html"/>
+    <hyperlink ref="E82" r:id="rId8" display="http://www.omc-stepperonline.com/nema-23-cnc-stepper-motor-28a-19nm269ozin-23hs302804s-p-25.html"/>
+    <hyperlink ref="E75" r:id="rId9" display="http://www.omc-stepperonline.com/nema-23-cnc-stepper-motor-28a-19nm269ozin-23hs302804s-p-25.html"/>
+    <hyperlink ref="E78" r:id="rId10" display="http://www.omc-stepperonline.com/09-nema-16-bipolar-stepper-06a-16ncm227ozin-16hm100604s-p-97.html"/>
+    <hyperlink ref="E87" r:id="rId11" display="http://www.omc-stepperonline.com/09-nema-16-bipolar-stepper-06a-16ncm227ozin-16hm100604s-p-97.html"/>
+    <hyperlink ref="E88" r:id="rId12" display="http://www.omc-stepperonline.com/09-nema-14-bipolar-stepper-motor-5ncm7ozin-14hm080504s-p-85.html"/>
+    <hyperlink ref="E77" r:id="rId13" display="http://www.omc-stepperonline.com/09-nema-14-bipolar-stepper-motor-5ncm7ozin-14hm080504s-p-85.html"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId12"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId14"/>
 </worksheet>
 </file>
 
@@ -3560,8 +4333,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H111"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="A68" sqref="A68"/>
+    <sheetView topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6017,52 +6790,210 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A39" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>593</v>
+      </c>
+      <c r="C36">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>595</v>
+      </c>
+      <c r="C37" s="2">
+        <f>C36*2.5/PI()</f>
+        <v>143.23944878270581</v>
+      </c>
+      <c r="D37" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>594</v>
+      </c>
+      <c r="C38" s="2">
+        <f>C37*1.0012-0.56</f>
+        <v>142.85133612124505</v>
+      </c>
+      <c r="D38" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>597</v>
+      </c>
+      <c r="C39" s="2">
+        <f>C38-2</f>
+        <v>140.85133612124505</v>
+      </c>
+      <c r="D39" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>598</v>
+      </c>
+      <c r="C40" s="2">
+        <f>C39-2</f>
+        <v>138.85133612124505</v>
+      </c>
+      <c r="D40" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>593</v>
+      </c>
+      <c r="C59">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>595</v>
+      </c>
+      <c r="C60" s="2">
+        <f>C59*2.5/PI()</f>
+        <v>143.23944878270581</v>
+      </c>
+      <c r="D60" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>594</v>
+      </c>
+      <c r="C61" s="2">
+        <f>C60*1.0012-0.56</f>
+        <v>142.85133612124505</v>
+      </c>
+      <c r="D61" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>597</v>
+      </c>
+      <c r="C62" s="2">
+        <f>C61-2</f>
+        <v>140.85133612124505</v>
+      </c>
+      <c r="D62" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>598</v>
+      </c>
+      <c r="C63" s="2">
+        <f>C62-2</f>
+        <v>138.85133612124505</v>
+      </c>
+      <c r="D63" t="s">
+        <v>340</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K103"/>
+  <dimension ref="A1:J103"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="F88" sqref="F88"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="E73" sqref="E73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="11.77734375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.88671875" style="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5546875" style="13"/>
-    <col min="10" max="10" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5546875" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10"/>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
       <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>357</v>
       </c>
@@ -6072,10 +7003,10 @@
       <c r="C4" s="10" t="s">
         <v>359</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="21" t="s">
         <v>360</v>
       </c>
-      <c r="E4" s="19"/>
+      <c r="E4" s="21"/>
       <c r="F4" s="10" t="s">
         <v>361</v>
       </c>
@@ -6086,13 +7017,10 @@
         <v>363</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>364</v>
-      </c>
-      <c r="J4" s="10" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>366</v>
       </c>
@@ -6109,7 +7037,7 @@
         <v>340</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G5" s="10" t="s">
         <v>370</v>
@@ -6118,13 +7046,10 @@
         <v>371</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>372</v>
-      </c>
-      <c r="J5" s="10" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>374</v>
       </c>
@@ -6150,17 +7075,14 @@
         <v>378</v>
       </c>
       <c r="I6" s="10">
-        <v>8</v>
-      </c>
-      <c r="J6" s="10">
         <v>0.05</v>
       </c>
-      <c r="K6">
-        <f t="shared" ref="K6:K37" si="0">F6/J6</f>
+      <c r="J6" s="18">
+        <f t="shared" ref="J6:J37" si="0">F6/I6</f>
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>379</v>
       </c>
@@ -6186,17 +7108,14 @@
         <v>378</v>
       </c>
       <c r="I7" s="10">
-        <v>1.7</v>
-      </c>
-      <c r="J7" s="10">
         <v>0.06</v>
       </c>
-      <c r="K7">
+      <c r="J7" s="18">
         <f t="shared" si="0"/>
         <v>30.000000000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>381</v>
       </c>
@@ -6222,17 +7141,14 @@
         <v>378</v>
       </c>
       <c r="I8" s="10">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="J8" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="K8">
+      <c r="J8" s="18">
         <f t="shared" si="0"/>
         <v>28.571428571428569</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>383</v>
       </c>
@@ -6258,17 +7174,14 @@
         <v>378</v>
       </c>
       <c r="I9" s="10">
-        <v>18</v>
-      </c>
-      <c r="J9" s="10">
         <v>0.08</v>
       </c>
-      <c r="K9">
+      <c r="J9" s="18">
         <f t="shared" si="0"/>
         <v>37.5</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>385</v>
       </c>
@@ -6294,17 +7207,14 @@
         <v>378</v>
       </c>
       <c r="I10" s="10">
-        <v>5.5</v>
-      </c>
-      <c r="J10" s="10">
         <v>0.08</v>
       </c>
-      <c r="K10">
+      <c r="J10" s="18">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>386</v>
       </c>
@@ -6330,17 +7240,14 @@
         <v>378</v>
       </c>
       <c r="I11" s="10">
-        <v>5.5</v>
-      </c>
-      <c r="J11" s="10">
         <v>0.08</v>
       </c>
-      <c r="K11">
+      <c r="J11" s="18">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>387</v>
       </c>
@@ -6354,7 +7261,7 @@
         <v>388</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F12" s="10">
         <v>6</v>
@@ -6366,17 +7273,14 @@
         <v>378</v>
       </c>
       <c r="I12" s="10">
-        <v>4.2</v>
-      </c>
-      <c r="J12" s="10">
         <v>0.11</v>
       </c>
-      <c r="K12">
+      <c r="J12" s="18">
         <f t="shared" si="0"/>
         <v>54.545454545454547</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>389</v>
       </c>
@@ -6390,7 +7294,7 @@
         <v>388</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F13" s="10">
         <v>4.3</v>
@@ -6402,17 +7306,14 @@
         <v>391</v>
       </c>
       <c r="I13" s="10">
-        <v>1</v>
-      </c>
-      <c r="J13" s="10">
         <v>0.11</v>
       </c>
-      <c r="K13">
+      <c r="J13" s="18">
         <f t="shared" si="0"/>
         <v>39.090909090909086</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
         <v>392</v>
       </c>
@@ -6426,7 +7327,7 @@
         <v>388</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="F14" s="10">
         <v>9.5</v>
@@ -6438,17 +7339,14 @@
         <v>378</v>
       </c>
       <c r="I14" s="10">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="J14" s="10">
         <v>0.14000000000000001</v>
       </c>
-      <c r="K14">
+      <c r="J14" s="18">
         <f t="shared" si="0"/>
         <v>67.857142857142847</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
         <v>393</v>
       </c>
@@ -6462,7 +7360,7 @@
         <v>388</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="F15" s="10">
         <v>12</v>
@@ -6474,17 +7372,14 @@
         <v>378</v>
       </c>
       <c r="I15" s="10">
-        <v>5.7</v>
-      </c>
-      <c r="J15" s="10">
         <v>0.2</v>
       </c>
-      <c r="K15">
+      <c r="J15" s="18">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
         <v>394</v>
       </c>
@@ -6498,7 +7393,7 @@
         <v>395</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="F16" s="10">
         <v>7</v>
@@ -6510,17 +7405,14 @@
         <v>378</v>
       </c>
       <c r="I16" s="10">
-        <v>7.5</v>
-      </c>
-      <c r="J16" s="10">
         <v>0.08</v>
       </c>
-      <c r="K16">
+      <c r="J16" s="18">
         <f t="shared" si="0"/>
         <v>87.5</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
         <v>396</v>
       </c>
@@ -6534,7 +7426,7 @@
         <v>395</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="F17" s="10">
         <v>12</v>
@@ -6546,17 +7438,14 @@
         <v>378</v>
       </c>
       <c r="I17" s="10">
-        <v>5</v>
-      </c>
-      <c r="J17" s="10">
         <v>0.13</v>
       </c>
-      <c r="K17">
+      <c r="J17" s="18">
         <f t="shared" si="0"/>
         <v>92.307692307692307</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
         <v>397</v>
       </c>
@@ -6582,17 +7471,14 @@
         <v>378</v>
       </c>
       <c r="I18" s="10">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="J18" s="10">
         <v>0.09</v>
       </c>
-      <c r="K18">
+      <c r="J18" s="18">
         <f t="shared" si="0"/>
         <v>55.555555555555557</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
         <v>399</v>
       </c>
@@ -6618,17 +7504,14 @@
         <v>378</v>
       </c>
       <c r="I19" s="10">
-        <v>24</v>
-      </c>
-      <c r="J19" s="10">
         <v>0.12</v>
       </c>
-      <c r="K19">
+      <c r="J19" s="18">
         <f t="shared" si="0"/>
         <v>91.666666666666671</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
         <v>401</v>
       </c>
@@ -6654,17 +7537,14 @@
         <v>378</v>
       </c>
       <c r="I20" s="10">
-        <v>30</v>
-      </c>
-      <c r="J20" s="10">
         <v>0.12</v>
       </c>
-      <c r="K20">
+      <c r="J20" s="18">
         <f t="shared" si="0"/>
         <v>116.66666666666667</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
         <v>403</v>
       </c>
@@ -6690,17 +7570,14 @@
         <v>378</v>
       </c>
       <c r="I21" s="10">
-        <v>30</v>
-      </c>
-      <c r="J21" s="10">
         <v>0.12</v>
       </c>
-      <c r="K21">
+      <c r="J21" s="18">
         <f t="shared" si="0"/>
         <v>104.16666666666667</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
         <v>404</v>
       </c>
@@ -6726,17 +7603,14 @@
         <v>378</v>
       </c>
       <c r="I22" s="10">
-        <v>17</v>
-      </c>
-      <c r="J22" s="10">
         <v>0.17</v>
       </c>
-      <c r="K22">
+      <c r="J22" s="18">
         <f t="shared" si="0"/>
         <v>58.823529411764703</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
         <v>406</v>
       </c>
@@ -6762,17 +7636,14 @@
         <v>378</v>
       </c>
       <c r="I23" s="10">
-        <v>10</v>
-      </c>
-      <c r="J23" s="10">
         <v>0.17</v>
       </c>
-      <c r="K23">
+      <c r="J23" s="18">
         <f t="shared" si="0"/>
         <v>105.88235294117646</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
         <v>407</v>
       </c>
@@ -6798,17 +7669,14 @@
         <v>378</v>
       </c>
       <c r="I24" s="10">
-        <v>26</v>
-      </c>
-      <c r="J24" s="10">
         <v>0.2</v>
       </c>
-      <c r="K24">
+      <c r="J24" s="18">
         <f t="shared" si="0"/>
         <v>115</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
         <v>409</v>
       </c>
@@ -6834,17 +7702,14 @@
         <v>378</v>
       </c>
       <c r="I25" s="10">
-        <v>3.8</v>
-      </c>
-      <c r="J25" s="10">
         <v>0.35</v>
       </c>
-      <c r="K25">
+      <c r="J25" s="18">
         <f t="shared" si="0"/>
         <v>114.28571428571429</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
         <v>411</v>
       </c>
@@ -6870,17 +7735,14 @@
         <v>378</v>
       </c>
       <c r="I26" s="10">
-        <v>15.5</v>
-      </c>
-      <c r="J26" s="10">
         <v>0.12</v>
       </c>
-      <c r="K26">
+      <c r="J26" s="18">
         <f t="shared" si="0"/>
         <v>133.33333333333334</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
         <v>414</v>
       </c>
@@ -6906,17 +7768,14 @@
         <v>378</v>
       </c>
       <c r="I27" s="10">
-        <v>43</v>
-      </c>
-      <c r="J27" s="10">
         <v>0.18</v>
       </c>
-      <c r="K27">
+      <c r="J27" s="18">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
         <v>416</v>
       </c>
@@ -6942,17 +7801,14 @@
         <v>378</v>
       </c>
       <c r="I28" s="10">
-        <v>110</v>
-      </c>
-      <c r="J28" s="10">
         <v>0.25</v>
       </c>
-      <c r="K28">
+      <c r="J28" s="18">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
         <v>418</v>
       </c>
@@ -6978,17 +7834,14 @@
         <v>378</v>
       </c>
       <c r="I29" s="10">
-        <v>7.5</v>
-      </c>
-      <c r="J29" s="10">
         <v>0.12</v>
       </c>
-      <c r="K29">
+      <c r="J29" s="18">
         <f t="shared" si="0"/>
         <v>66.666666666666671</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
         <v>420</v>
       </c>
@@ -7014,17 +7867,14 @@
         <v>378</v>
       </c>
       <c r="I30" s="10">
-        <v>8.5</v>
-      </c>
-      <c r="J30" s="10">
         <v>0.12</v>
       </c>
-      <c r="K30">
+      <c r="J30" s="18">
         <f t="shared" si="0"/>
         <v>72.5</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
         <v>421</v>
       </c>
@@ -7050,17 +7900,14 @@
         <v>378</v>
       </c>
       <c r="I31" s="10">
-        <v>32</v>
-      </c>
-      <c r="J31" s="10">
         <v>0.18</v>
       </c>
-      <c r="K31">
+      <c r="J31" s="18">
         <f t="shared" si="0"/>
         <v>116.66666666666667</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
         <v>422</v>
       </c>
@@ -7086,17 +7933,14 @@
         <v>378</v>
       </c>
       <c r="I32" s="10">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="J32" s="10">
         <v>0.18</v>
       </c>
-      <c r="K32">
+      <c r="J32" s="18">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="11" t="s">
         <v>423</v>
       </c>
@@ -7122,17 +7966,14 @@
         <v>378</v>
       </c>
       <c r="I33" s="10">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="J33" s="10">
         <v>0.15</v>
       </c>
-      <c r="K33">
+      <c r="J33" s="18">
         <f t="shared" si="0"/>
         <v>73.333333333333343</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="11" t="s">
         <v>426</v>
       </c>
@@ -7158,17 +7999,14 @@
         <v>378</v>
       </c>
       <c r="I34" s="10">
-        <v>144</v>
-      </c>
-      <c r="J34" s="10">
         <v>0.28000000000000003</v>
       </c>
-      <c r="K34">
+      <c r="J34" s="18">
         <f t="shared" si="0"/>
         <v>82.142857142857139</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="11" t="s">
         <v>429</v>
       </c>
@@ -7194,17 +8032,14 @@
         <v>391</v>
       </c>
       <c r="I35" s="10">
-        <v>144</v>
-      </c>
-      <c r="J35" s="10">
         <v>0.28000000000000003</v>
       </c>
-      <c r="K35">
+      <c r="J35" s="18">
         <f t="shared" si="0"/>
         <v>82.142857142857139</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="11" t="s">
         <v>430</v>
       </c>
@@ -7230,17 +8065,14 @@
         <v>378</v>
       </c>
       <c r="I36" s="10">
-        <v>30</v>
-      </c>
-      <c r="J36" s="10">
         <v>0.28000000000000003</v>
       </c>
-      <c r="K36">
+      <c r="J36" s="18">
         <f t="shared" si="0"/>
         <v>92.499999999999986</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="11" t="s">
         <v>432</v>
       </c>
@@ -7266,17 +8098,14 @@
         <v>391</v>
       </c>
       <c r="I37" s="10">
-        <v>30</v>
-      </c>
-      <c r="J37" s="10">
         <v>0.28000000000000003</v>
       </c>
-      <c r="K37">
+      <c r="J37" s="18">
         <f t="shared" si="0"/>
         <v>92.499999999999986</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="11" t="s">
         <v>433</v>
       </c>
@@ -7302,17 +8131,14 @@
         <v>378</v>
       </c>
       <c r="I38" s="10">
-        <v>7.5</v>
-      </c>
-      <c r="J38" s="10">
         <v>0.28000000000000003</v>
       </c>
-      <c r="K38">
-        <f t="shared" ref="K38:K69" si="1">F38/J38</f>
+      <c r="J38" s="18">
+        <f t="shared" ref="J38:J69" si="1">F38/I38</f>
         <v>92.857142857142847</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="11" t="s">
         <v>435</v>
       </c>
@@ -7338,17 +8164,14 @@
         <v>378</v>
       </c>
       <c r="I39" s="10">
-        <v>12</v>
-      </c>
-      <c r="J39" s="10">
         <v>0.28000000000000003</v>
       </c>
-      <c r="K39">
+      <c r="J39" s="18">
         <f t="shared" si="1"/>
         <v>128.57142857142856</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="11" t="s">
         <v>436</v>
       </c>
@@ -7374,17 +8197,14 @@
         <v>378</v>
       </c>
       <c r="I40" s="10">
-        <v>38</v>
-      </c>
-      <c r="J40" s="10">
         <v>0.35</v>
       </c>
-      <c r="K40">
+      <c r="J40" s="18">
         <f t="shared" si="1"/>
         <v>90.571428571428569</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="11" t="s">
         <v>438</v>
       </c>
@@ -7410,17 +8230,14 @@
         <v>391</v>
       </c>
       <c r="I41" s="10">
-        <v>38</v>
-      </c>
-      <c r="J41" s="10">
         <v>0.35</v>
       </c>
-      <c r="K41">
+      <c r="J41" s="18">
         <f t="shared" si="1"/>
         <v>90.571428571428569</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="11" t="s">
         <v>439</v>
       </c>
@@ -7446,17 +8263,14 @@
         <v>378</v>
       </c>
       <c r="I42" s="10">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="J42" s="10">
         <v>0.35</v>
       </c>
-      <c r="K42">
+      <c r="J42" s="18">
         <f t="shared" si="1"/>
         <v>125.71428571428572</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="11" t="s">
         <v>440</v>
       </c>
@@ -7482,17 +8296,14 @@
         <v>378</v>
       </c>
       <c r="I43" s="10">
-        <v>3</v>
-      </c>
-      <c r="J43" s="10">
         <v>0.4</v>
       </c>
-      <c r="K43">
+      <c r="J43" s="18">
         <f t="shared" si="1"/>
         <v>115</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="11" t="s">
         <v>441</v>
       </c>
@@ -7518,17 +8329,14 @@
         <v>378</v>
       </c>
       <c r="I44" s="10">
-        <v>2.8</v>
-      </c>
-      <c r="J44" s="10">
         <v>0.3</v>
       </c>
-      <c r="K44">
+      <c r="J44" s="18">
         <f t="shared" si="1"/>
         <v>53.333333333333336</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="11" t="s">
         <v>443</v>
       </c>
@@ -7554,17 +8362,14 @@
         <v>378</v>
       </c>
       <c r="I45" s="10">
-        <v>5.2</v>
-      </c>
-      <c r="J45" s="10">
         <v>0.3</v>
       </c>
-      <c r="K45">
+      <c r="J45" s="18">
         <f t="shared" si="1"/>
         <v>66.666666666666671</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="11" t="s">
         <v>444</v>
       </c>
@@ -7590,17 +8395,14 @@
         <v>378</v>
       </c>
       <c r="I46" s="10">
-        <v>4.5</v>
-      </c>
-      <c r="J46" s="10">
         <v>0.15</v>
       </c>
-      <c r="K46">
+      <c r="J46" s="18">
         <f t="shared" si="1"/>
         <v>86.666666666666671</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="11" t="s">
         <v>446</v>
       </c>
@@ -7626,17 +8428,14 @@
         <v>378</v>
       </c>
       <c r="I47" s="10">
-        <v>5.5</v>
-      </c>
-      <c r="J47" s="10">
         <v>0.18</v>
       </c>
-      <c r="K47">
+      <c r="J47" s="18">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" s="11" t="s">
         <v>448</v>
       </c>
@@ -7662,17 +8461,14 @@
         <v>378</v>
       </c>
       <c r="I48" s="10">
-        <v>21</v>
-      </c>
-      <c r="J48" s="10">
         <v>0.22</v>
       </c>
-      <c r="K48">
+      <c r="J48" s="18">
         <f t="shared" si="1"/>
         <v>72.727272727272734</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="11" t="s">
         <v>450</v>
       </c>
@@ -7698,17 +8494,14 @@
         <v>378</v>
       </c>
       <c r="I49" s="10">
-        <v>2.5</v>
-      </c>
-      <c r="J49" s="10">
         <v>0.22</v>
       </c>
-      <c r="K49">
+      <c r="J49" s="18">
         <f t="shared" si="1"/>
         <v>72.727272727272734</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="11" t="s">
         <v>451</v>
       </c>
@@ -7734,17 +8527,14 @@
         <v>378</v>
       </c>
       <c r="I50" s="10">
-        <v>2.5</v>
-      </c>
-      <c r="J50" s="10">
         <v>0.22</v>
       </c>
-      <c r="K50">
+      <c r="J50" s="18">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51" s="11" t="s">
         <v>452</v>
       </c>
@@ -7770,17 +8560,14 @@
         <v>391</v>
       </c>
       <c r="I51" s="10">
-        <v>2.5</v>
-      </c>
-      <c r="J51" s="10">
         <v>0.22</v>
       </c>
-      <c r="K51">
+      <c r="J51" s="18">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" s="11" t="s">
         <v>453</v>
       </c>
@@ -7806,17 +8593,14 @@
         <v>378</v>
       </c>
       <c r="I52" s="10">
-        <v>37</v>
-      </c>
-      <c r="J52" s="10">
         <v>0.22</v>
       </c>
-      <c r="K52">
+      <c r="J52" s="18">
         <f t="shared" si="1"/>
         <v>118.18181818181819</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A53" s="11" t="s">
         <v>454</v>
       </c>
@@ -7842,17 +8626,14 @@
         <v>391</v>
       </c>
       <c r="I53" s="10">
-        <v>37</v>
-      </c>
-      <c r="J53" s="10">
         <v>0.22</v>
       </c>
-      <c r="K53">
+      <c r="J53" s="18">
         <f t="shared" si="1"/>
         <v>118.18181818181819</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A54" s="11" t="s">
         <v>455</v>
       </c>
@@ -7878,17 +8659,14 @@
         <v>378</v>
       </c>
       <c r="I54" s="10">
-        <v>30</v>
-      </c>
-      <c r="J54" s="10">
         <v>0.28000000000000003</v>
       </c>
-      <c r="K54">
+      <c r="J54" s="18">
         <f t="shared" si="1"/>
         <v>92.857142857142847</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A55" s="11" t="s">
         <v>456</v>
       </c>
@@ -7914,17 +8692,14 @@
         <v>378</v>
       </c>
       <c r="I55" s="10">
-        <v>10</v>
-      </c>
-      <c r="J55" s="10">
         <v>0.28000000000000003</v>
       </c>
-      <c r="K55">
+      <c r="J55" s="18">
         <f t="shared" si="1"/>
         <v>128.57142857142856</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A56" s="11" t="s">
         <v>457</v>
       </c>
@@ -7950,17 +8725,14 @@
         <v>378</v>
       </c>
       <c r="I56" s="10">
-        <v>3.2</v>
-      </c>
-      <c r="J56" s="10">
         <v>0.28000000000000003</v>
       </c>
-      <c r="K56">
+      <c r="J56" s="18">
         <f t="shared" si="1"/>
         <v>128.57142857142856</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" s="11" t="s">
         <v>458</v>
       </c>
@@ -7986,17 +8758,14 @@
         <v>378</v>
       </c>
       <c r="I57" s="10">
-        <v>58</v>
-      </c>
-      <c r="J57" s="10">
         <v>0.28000000000000003</v>
       </c>
-      <c r="K57">
+      <c r="J57" s="18">
         <f t="shared" si="1"/>
         <v>142.85714285714283</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A58" s="11" t="s">
         <v>459</v>
       </c>
@@ -8022,17 +8791,14 @@
         <v>378</v>
       </c>
       <c r="I58" s="10">
-        <v>90</v>
-      </c>
-      <c r="J58" s="10">
         <v>0.28000000000000003</v>
       </c>
-      <c r="K58">
+      <c r="J58" s="18">
         <f t="shared" si="1"/>
         <v>128.57142857142856</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A59" s="11" t="s">
         <v>460</v>
       </c>
@@ -8058,17 +8824,14 @@
         <v>378</v>
       </c>
       <c r="I59" s="10">
-        <v>2.6</v>
-      </c>
-      <c r="J59" s="10">
         <v>0.28000000000000003</v>
       </c>
-      <c r="K59">
+      <c r="J59" s="18">
         <f t="shared" si="1"/>
         <v>160.71428571428569</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A60" s="11" t="s">
         <v>461</v>
       </c>
@@ -8094,17 +8857,14 @@
         <v>378</v>
       </c>
       <c r="I60" s="10">
-        <v>25</v>
-      </c>
-      <c r="J60" s="10">
         <v>0.35</v>
       </c>
-      <c r="K60">
+      <c r="J60" s="18">
         <f t="shared" si="1"/>
         <v>91.428571428571431</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A61" s="11" t="s">
         <v>463</v>
       </c>
@@ -8130,17 +8890,14 @@
         <v>378</v>
       </c>
       <c r="I61" s="10">
-        <v>11</v>
-      </c>
-      <c r="J61" s="10">
         <v>0.35</v>
       </c>
-      <c r="K61">
+      <c r="J61" s="18">
         <f t="shared" si="1"/>
         <v>125.71428571428572</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A62" s="11" t="s">
         <v>464</v>
       </c>
@@ -8166,17 +8923,14 @@
         <v>391</v>
       </c>
       <c r="I62" s="10">
-        <v>2.8</v>
-      </c>
-      <c r="J62" s="10">
         <v>0.35</v>
       </c>
-      <c r="K62">
+      <c r="J62" s="18">
         <f t="shared" si="1"/>
         <v>125.71428571428572</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A63" s="11" t="s">
         <v>465</v>
       </c>
@@ -8202,17 +8956,14 @@
         <v>378</v>
       </c>
       <c r="I63" s="10">
-        <v>2.8</v>
-      </c>
-      <c r="J63" s="10">
         <v>0.35</v>
       </c>
-      <c r="K63">
+      <c r="J63" s="18">
         <f t="shared" si="1"/>
         <v>125.71428571428572</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A64" s="11" t="s">
         <v>466</v>
       </c>
@@ -8238,17 +8989,14 @@
         <v>378</v>
       </c>
       <c r="I64" s="10">
-        <v>3</v>
-      </c>
-      <c r="J64" s="10">
         <v>0.4</v>
       </c>
-      <c r="K64">
+      <c r="J64" s="18">
         <f t="shared" si="1"/>
         <v>147.5</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A65" s="11" t="s">
         <v>467</v>
       </c>
@@ -8274,17 +9022,14 @@
         <v>378</v>
       </c>
       <c r="I65" s="10">
-        <v>32</v>
-      </c>
-      <c r="J65" s="10">
         <v>0.45</v>
       </c>
-      <c r="K65">
+      <c r="J65" s="18">
         <f t="shared" si="1"/>
         <v>133.33333333333334</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A66" s="11" t="s">
         <v>469</v>
       </c>
@@ -8310,17 +9055,14 @@
         <v>378</v>
       </c>
       <c r="I66" s="10">
-        <v>7</v>
-      </c>
-      <c r="J66" s="10">
         <v>0.45</v>
       </c>
-      <c r="K66">
+      <c r="J66" s="18">
         <f t="shared" si="1"/>
         <v>144.44444444444443</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A67" s="11" t="s">
         <v>470</v>
       </c>
@@ -8346,17 +9088,14 @@
         <v>378</v>
       </c>
       <c r="I67" s="10">
-        <v>3</v>
-      </c>
-      <c r="J67" s="10">
         <v>0.45</v>
       </c>
-      <c r="K67">
+      <c r="J67" s="18">
         <f t="shared" si="1"/>
         <v>144.44444444444443</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A68" s="11" t="s">
         <v>471</v>
       </c>
@@ -8382,17 +9121,14 @@
         <v>378</v>
       </c>
       <c r="I68" s="10">
-        <v>40</v>
-      </c>
-      <c r="J68" s="10">
         <v>0.6</v>
       </c>
-      <c r="K68">
+      <c r="J68" s="18">
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A69" s="11" t="s">
         <v>474</v>
       </c>
@@ -8418,17 +9154,14 @@
         <v>378</v>
       </c>
       <c r="I69" s="10">
-        <v>4.5</v>
-      </c>
-      <c r="J69" s="10">
         <v>0.7</v>
       </c>
-      <c r="K69">
+      <c r="J69" s="18">
         <f t="shared" si="1"/>
         <v>180</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A70" s="11" t="s">
         <v>476</v>
       </c>
@@ -8454,17 +9187,14 @@
         <v>378</v>
       </c>
       <c r="I70" s="10">
-        <v>1.6</v>
-      </c>
-      <c r="J70" s="10">
         <v>0.6</v>
       </c>
-      <c r="K70">
-        <f t="shared" ref="K70:K101" si="2">F70/J70</f>
+      <c r="J70" s="18">
+        <f t="shared" ref="J70:J101" si="2">F70/I70</f>
         <v>116.66666666666667</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A71" s="11" t="s">
         <v>478</v>
       </c>
@@ -8490,17 +9220,14 @@
         <v>378</v>
       </c>
       <c r="I71" s="10">
-        <v>21.7</v>
-      </c>
-      <c r="J71" s="10">
         <v>0.5</v>
       </c>
-      <c r="K71">
+      <c r="J71" s="18">
         <f t="shared" si="2"/>
         <v>120</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A72" s="11" t="s">
         <v>480</v>
       </c>
@@ -8526,17 +9253,14 @@
         <v>378</v>
       </c>
       <c r="I72" s="10">
-        <v>5.4</v>
-      </c>
-      <c r="J72" s="10">
         <v>0.45</v>
       </c>
-      <c r="K72">
+      <c r="J72" s="18">
         <f t="shared" si="2"/>
         <v>86.666666666666671</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A73" s="11" t="s">
         <v>482</v>
       </c>
@@ -8562,17 +9286,14 @@
         <v>378</v>
       </c>
       <c r="I73" s="10">
-        <v>1.4</v>
-      </c>
-      <c r="J73" s="10">
         <v>0.45</v>
       </c>
-      <c r="K73">
+      <c r="J73" s="18">
         <f t="shared" si="2"/>
         <v>122.22222222222221</v>
       </c>
     </row>
-    <row r="74" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A74" s="11" t="s">
         <v>483</v>
       </c>
@@ -8598,17 +9319,14 @@
         <v>391</v>
       </c>
       <c r="I74" s="10">
-        <v>1.4</v>
-      </c>
-      <c r="J74" s="10">
         <v>0.45</v>
       </c>
-      <c r="K74">
+      <c r="J74" s="18">
         <f t="shared" si="2"/>
         <v>122.22222222222221</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A75" s="11" t="s">
         <v>484</v>
       </c>
@@ -8634,17 +9352,14 @@
         <v>378</v>
       </c>
       <c r="I75" s="10">
-        <v>5.5</v>
-      </c>
-      <c r="J75" s="10">
         <v>0.5</v>
       </c>
-      <c r="K75">
+      <c r="J75" s="18">
         <f t="shared" si="2"/>
         <v>120</v>
       </c>
     </row>
-    <row r="76" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A76" s="11" t="s">
         <v>487</v>
       </c>
@@ -8670,17 +9385,14 @@
         <v>378</v>
       </c>
       <c r="I76" s="10">
-        <v>5</v>
-      </c>
-      <c r="J76" s="10">
         <v>0.65</v>
       </c>
-      <c r="K76">
+      <c r="J76" s="18">
         <f t="shared" si="2"/>
         <v>138.46153846153845</v>
       </c>
     </row>
-    <row r="77" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A77" s="11" t="s">
         <v>488</v>
       </c>
@@ -8706,17 +9418,14 @@
         <v>378</v>
       </c>
       <c r="I77" s="10">
-        <v>10</v>
-      </c>
-      <c r="J77" s="10">
         <v>0.7</v>
       </c>
-      <c r="K77">
+      <c r="J77" s="18">
         <f t="shared" si="2"/>
         <v>128.57142857142858</v>
       </c>
     </row>
-    <row r="78" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A78" s="11" t="s">
         <v>489</v>
       </c>
@@ -8742,17 +9451,14 @@
         <v>391</v>
       </c>
       <c r="I78" s="10">
-        <v>40</v>
-      </c>
-      <c r="J78" s="10">
         <v>0.7</v>
       </c>
-      <c r="K78">
+      <c r="J78" s="18">
         <f t="shared" si="2"/>
         <v>182.85714285714286</v>
       </c>
     </row>
-    <row r="79" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A79" s="11" t="s">
         <v>490</v>
       </c>
@@ -8772,23 +9478,20 @@
         <v>126</v>
       </c>
       <c r="G79" s="10" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H79" s="10" t="s">
         <v>391</v>
       </c>
-      <c r="I79" s="10" t="s">
-        <v>544</v>
-      </c>
-      <c r="J79" s="10">
+      <c r="I79" s="10">
         <v>0.7</v>
       </c>
-      <c r="K79">
+      <c r="J79" s="18">
         <f t="shared" si="2"/>
         <v>180</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A80" s="11" t="s">
         <v>491</v>
       </c>
@@ -8814,17 +9517,14 @@
         <v>378</v>
       </c>
       <c r="I80" s="10">
-        <v>13</v>
-      </c>
-      <c r="J80" s="10">
         <v>0.7</v>
       </c>
-      <c r="K80">
+      <c r="J80" s="18">
         <f t="shared" si="2"/>
         <v>165.71428571428572</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A81" s="11" t="s">
         <v>492</v>
       </c>
@@ -8850,17 +9550,14 @@
         <v>378</v>
       </c>
       <c r="I81" s="10">
-        <v>2.5</v>
-      </c>
-      <c r="J81" s="10">
         <v>0.7</v>
       </c>
-      <c r="K81">
+      <c r="J81" s="18">
         <f t="shared" si="2"/>
         <v>180</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A82" s="11" t="s">
         <v>493</v>
       </c>
@@ -8886,17 +9583,14 @@
         <v>378</v>
       </c>
       <c r="I82" s="10">
-        <v>14</v>
-      </c>
-      <c r="J82" s="10">
         <v>1</v>
       </c>
-      <c r="K82">
+      <c r="J82" s="18">
         <f t="shared" si="2"/>
         <v>135</v>
       </c>
     </row>
-    <row r="83" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A83" s="11" t="s">
         <v>495</v>
       </c>
@@ -8916,23 +9610,20 @@
         <v>190</v>
       </c>
       <c r="G83" s="10" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H83" s="10" t="s">
         <v>391</v>
       </c>
-      <c r="I83" s="10" t="s">
-        <v>545</v>
-      </c>
-      <c r="J83" s="10">
+      <c r="I83" s="10">
         <v>1</v>
       </c>
-      <c r="K83">
+      <c r="J83" s="18">
         <f t="shared" si="2"/>
         <v>190</v>
       </c>
     </row>
-    <row r="84" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A84" s="11" t="s">
         <v>496</v>
       </c>
@@ -8958,17 +9649,14 @@
         <v>378</v>
       </c>
       <c r="I84" s="10">
-        <v>5.4</v>
-      </c>
-      <c r="J84" s="10">
         <v>1</v>
       </c>
-      <c r="K84">
+      <c r="J84" s="18">
         <f t="shared" si="2"/>
         <v>189</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A85" s="11" t="s">
         <v>497</v>
       </c>
@@ -8994,17 +9682,14 @@
         <v>378</v>
       </c>
       <c r="I85" s="10">
-        <v>1.8</v>
-      </c>
-      <c r="J85" s="10">
         <v>1.1299999999999999</v>
       </c>
-      <c r="K85">
+      <c r="J85" s="18">
         <f t="shared" si="2"/>
         <v>176.9911504424779</v>
       </c>
     </row>
-    <row r="86" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A86" s="11" t="s">
         <v>500</v>
       </c>
@@ -9030,17 +9715,14 @@
         <v>391</v>
       </c>
       <c r="I86" s="10">
-        <v>1.8</v>
-      </c>
-      <c r="J86" s="10">
         <v>1.1299999999999999</v>
       </c>
-      <c r="K86">
+      <c r="J86" s="18">
         <f t="shared" si="2"/>
         <v>176.9911504424779</v>
       </c>
     </row>
-    <row r="87" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A87" s="11" t="s">
         <v>501</v>
       </c>
@@ -9066,17 +9748,14 @@
         <v>378</v>
       </c>
       <c r="I87" s="10">
-        <v>17</v>
-      </c>
-      <c r="J87" s="10">
         <v>1.25</v>
       </c>
-      <c r="K87">
+      <c r="J87" s="18">
         <f t="shared" si="2"/>
         <v>192</v>
       </c>
     </row>
-    <row r="88" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A88" s="11" t="s">
         <v>503</v>
       </c>
@@ -9092,29 +9771,26 @@
       <c r="E88" s="10" t="s">
         <v>504</v>
       </c>
-      <c r="F88" s="10" t="s">
-        <v>505</v>
+      <c r="F88" s="10">
+        <v>250</v>
       </c>
       <c r="G88" s="10" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="H88" s="10" t="s">
         <v>391</v>
       </c>
-      <c r="I88" s="10" t="s">
-        <v>547</v>
-      </c>
-      <c r="J88" s="10">
+      <c r="I88" s="10">
         <v>1.6</v>
       </c>
-      <c r="K88" t="e">
+      <c r="J88" s="18">
         <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+        <v>156.25</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A89" s="11" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B89" s="10">
         <v>1.8</v>
@@ -9138,19 +9814,16 @@
         <v>378</v>
       </c>
       <c r="I89" s="10">
-        <v>3.8</v>
-      </c>
-      <c r="J89" s="10">
         <v>1.6</v>
       </c>
-      <c r="K89">
+      <c r="J89" s="18">
         <f t="shared" si="2"/>
         <v>175</v>
       </c>
     </row>
-    <row r="90" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A90" s="11" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B90" s="10">
         <v>1.2</v>
@@ -9162,7 +9835,7 @@
         <v>472</v>
       </c>
       <c r="E90" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F90" s="10">
         <v>120</v>
@@ -9174,19 +9847,16 @@
         <v>391</v>
       </c>
       <c r="I90" s="10">
-        <v>1.5</v>
-      </c>
-      <c r="J90" s="10">
         <v>1.1000000000000001</v>
       </c>
-      <c r="K90">
+      <c r="J90" s="18">
         <f t="shared" si="2"/>
         <v>109.09090909090908</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A91" s="11" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B91" s="10">
         <v>1.8</v>
@@ -9195,10 +9865,10 @@
         <v>390</v>
       </c>
       <c r="D91" s="10" t="s">
+        <v>509</v>
+      </c>
+      <c r="E91" s="10" t="s">
         <v>510</v>
-      </c>
-      <c r="E91" s="10" t="s">
-        <v>511</v>
       </c>
       <c r="F91" s="10">
         <v>120</v>
@@ -9210,19 +9880,16 @@
         <v>378</v>
       </c>
       <c r="I91" s="10">
-        <v>3.5</v>
-      </c>
-      <c r="J91" s="10">
         <v>0.77</v>
       </c>
-      <c r="K91">
+      <c r="J91" s="18">
         <f t="shared" si="2"/>
         <v>155.84415584415584</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A92" s="11" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B92" s="10">
         <v>1.8</v>
@@ -9231,10 +9898,10 @@
         <v>485</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E92" s="10" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F92" s="10">
         <v>310</v>
@@ -9246,19 +9913,16 @@
         <v>391</v>
       </c>
       <c r="I92" s="10">
-        <v>12.8</v>
-      </c>
-      <c r="J92" s="10">
         <v>1.34</v>
       </c>
-      <c r="K92">
+      <c r="J92" s="18">
         <f t="shared" si="2"/>
         <v>231.34328358208953</v>
       </c>
     </row>
-    <row r="93" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A93" s="11" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B93" s="10">
         <v>1.8</v>
@@ -9267,10 +9931,10 @@
         <v>375</v>
       </c>
       <c r="D93" s="10" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E93" s="10" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="F93" s="10">
         <v>230</v>
@@ -9282,19 +9946,16 @@
         <v>391</v>
       </c>
       <c r="I93" s="10">
-        <v>3.5</v>
-      </c>
-      <c r="J93" s="10">
         <v>1.34</v>
       </c>
-      <c r="K93">
+      <c r="J93" s="18">
         <f t="shared" si="2"/>
         <v>171.64179104477611</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A94" s="11" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B94" s="10">
         <v>1.8</v>
@@ -9303,10 +9964,10 @@
         <v>390</v>
       </c>
       <c r="D94" s="10" t="s">
+        <v>516</v>
+      </c>
+      <c r="E94" s="10" t="s">
         <v>517</v>
-      </c>
-      <c r="E94" s="10" t="s">
-        <v>518</v>
       </c>
       <c r="F94" s="10">
         <v>220</v>
@@ -9318,19 +9979,16 @@
         <v>391</v>
       </c>
       <c r="I94" s="10">
-        <v>7</v>
-      </c>
-      <c r="J94" s="10">
         <v>1.7</v>
       </c>
-      <c r="K94">
+      <c r="J94" s="18">
         <f t="shared" si="2"/>
         <v>129.41176470588235</v>
       </c>
     </row>
-    <row r="95" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A95" s="11" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B95" s="10">
         <v>1.8</v>
@@ -9339,10 +9997,10 @@
         <v>375</v>
       </c>
       <c r="D95" s="10" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E95" s="10" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F95" s="10">
         <v>340</v>
@@ -9354,19 +10012,16 @@
         <v>378</v>
       </c>
       <c r="I95" s="10">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="J95" s="10">
         <v>1.8</v>
       </c>
-      <c r="K95">
+      <c r="J95" s="18">
         <f t="shared" si="2"/>
         <v>188.88888888888889</v>
       </c>
     </row>
-    <row r="96" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A96" s="11" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B96" s="10">
         <v>1.8</v>
@@ -9375,10 +10030,10 @@
         <v>375</v>
       </c>
       <c r="D96" s="10" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E96" s="10" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F96" s="10">
         <v>450</v>
@@ -9390,19 +10045,16 @@
         <v>378</v>
       </c>
       <c r="I96" s="10">
-        <v>3.5</v>
-      </c>
-      <c r="J96" s="10">
         <v>2.2999999999999998</v>
       </c>
-      <c r="K96">
+      <c r="J96" s="18">
         <f t="shared" si="2"/>
         <v>195.6521739130435</v>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A97" s="11" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B97" s="10">
         <v>1.8</v>
@@ -9411,10 +10063,10 @@
         <v>498</v>
       </c>
       <c r="D97" s="10" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E97" s="10" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="F97" s="10">
         <v>500</v>
@@ -9426,19 +10078,16 @@
         <v>378</v>
       </c>
       <c r="I97" s="10">
-        <v>8</v>
-      </c>
-      <c r="J97" s="10">
         <v>2.8</v>
       </c>
-      <c r="K97">
+      <c r="J97" s="18">
         <f t="shared" si="2"/>
         <v>178.57142857142858</v>
       </c>
     </row>
-    <row r="98" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A98" s="11" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B98" s="10">
         <v>1.8</v>
@@ -9447,10 +10096,10 @@
         <v>375</v>
       </c>
       <c r="D98" s="10" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E98" s="10" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F98" s="10">
         <v>850</v>
@@ -9462,19 +10111,16 @@
         <v>391</v>
       </c>
       <c r="I98" s="10">
-        <v>11</v>
-      </c>
-      <c r="J98" s="10">
         <v>3.6</v>
       </c>
-      <c r="K98">
+      <c r="J98" s="18">
         <f t="shared" si="2"/>
         <v>236.11111111111111</v>
       </c>
     </row>
-    <row r="99" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A99" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B99" s="10">
         <v>1.8</v>
@@ -9483,10 +10129,10 @@
         <v>375</v>
       </c>
       <c r="D99" s="10" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E99" s="10" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F99" s="10">
         <v>1300</v>
@@ -9498,19 +10144,16 @@
         <v>378</v>
       </c>
       <c r="I99" s="10">
-        <v>11</v>
-      </c>
-      <c r="J99" s="10">
         <v>5</v>
       </c>
-      <c r="K99">
+      <c r="J99" s="18">
         <f t="shared" si="2"/>
         <v>260</v>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A100" s="11" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B100" s="10">
         <v>1.2</v>
@@ -9519,10 +10162,10 @@
         <v>442</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E100" s="10" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="F100" s="10">
         <v>450</v>
@@ -9534,19 +10177,16 @@
         <v>378</v>
       </c>
       <c r="I100" s="10">
-        <v>23</v>
-      </c>
-      <c r="J100" s="10">
         <v>2.8</v>
       </c>
-      <c r="K100">
+      <c r="J100" s="18">
         <f t="shared" si="2"/>
         <v>160.71428571428572</v>
       </c>
     </row>
-    <row r="101" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A101" s="11" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B101" s="10">
         <v>1.8</v>
@@ -9555,10 +10195,10 @@
         <v>375</v>
       </c>
       <c r="D101" s="10" t="s">
+        <v>530</v>
+      </c>
+      <c r="E101" s="10" t="s">
         <v>531</v>
-      </c>
-      <c r="E101" s="10" t="s">
-        <v>532</v>
       </c>
       <c r="F101" s="10">
         <v>2200</v>
@@ -9570,19 +10210,16 @@
         <v>378</v>
       </c>
       <c r="I101" s="10">
-        <v>14</v>
-      </c>
-      <c r="J101" s="10">
         <v>10.9</v>
       </c>
-      <c r="K101">
+      <c r="J101" s="18">
         <f t="shared" si="2"/>
         <v>201.83486238532109</v>
       </c>
     </row>
-    <row r="102" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A102" s="11" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B102" s="10">
         <v>1.8</v>
@@ -9591,10 +10228,10 @@
         <v>375</v>
       </c>
       <c r="D102" s="10" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E102" s="10" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="F102" s="10">
         <v>2900</v>
@@ -9606,19 +10243,16 @@
         <v>378</v>
       </c>
       <c r="I102" s="10">
-        <v>22</v>
-      </c>
-      <c r="J102" s="10">
         <v>12</v>
       </c>
-      <c r="K102">
-        <f t="shared" ref="K102:K133" si="3">F102/J102</f>
+      <c r="J102" s="18">
+        <f t="shared" ref="J102:J133" si="3">F102/I102</f>
         <v>241.66666666666666</v>
       </c>
     </row>
-    <row r="103" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A103" s="11" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B103" s="10">
         <v>1.8</v>
@@ -9627,10 +10261,10 @@
         <v>375</v>
       </c>
       <c r="D103" s="10" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E103" s="10" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F103" s="10">
         <v>30</v>
@@ -9642,12 +10276,9 @@
         <v>378</v>
       </c>
       <c r="I103" s="10">
-        <v>11</v>
-      </c>
-      <c r="J103" s="10">
         <v>11.7</v>
       </c>
-      <c r="K103">
+      <c r="J103" s="18">
         <f t="shared" si="3"/>
         <v>2.5641025641025643</v>
       </c>
@@ -9765,7 +10396,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -9773,40 +10404,40 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>562</v>
+      </c>
+      <c r="B1" t="s">
         <v>566</v>
-      </c>
-      <c r="B1" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
     </row>
   </sheetData>
@@ -9816,4 +10447,194 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.77734375" customWidth="1"/>
+    <col min="2" max="2" width="77.21875" customWidth="1"/>
+    <col min="3" max="3" width="24.88671875" customWidth="1"/>
+    <col min="4" max="4" width="25.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>602</v>
+      </c>
+      <c r="B1" t="s">
+        <v>599</v>
+      </c>
+      <c r="C1" t="s">
+        <v>603</v>
+      </c>
+      <c r="D1" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1" t="s">
+        <v>601</v>
+      </c>
+      <c r="F1" t="s">
+        <v>607</v>
+      </c>
+      <c r="G1" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>613</v>
+      </c>
+      <c r="C2" t="s">
+        <v>604</v>
+      </c>
+      <c r="D2" t="s">
+        <v>555</v>
+      </c>
+      <c r="E2">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F2" s="22">
+        <v>26.88</v>
+      </c>
+      <c r="G2" s="22">
+        <f>F2*A2</f>
+        <v>26.88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>616</v>
+      </c>
+      <c r="C3" t="s">
+        <v>615</v>
+      </c>
+      <c r="D3" t="s">
+        <v>614</v>
+      </c>
+      <c r="E3">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="F3" s="22">
+        <v>5.27</v>
+      </c>
+      <c r="G3" s="22">
+        <f>F3*A3</f>
+        <v>5.27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>618</v>
+      </c>
+      <c r="C4" t="s">
+        <v>619</v>
+      </c>
+      <c r="D4" t="s">
+        <v>617</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G4" s="22">
+        <f>F4*A4</f>
+        <v>6.8999999999999995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>622</v>
+      </c>
+      <c r="C5" t="s">
+        <v>620</v>
+      </c>
+      <c r="D5" t="s">
+        <v>621</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <f>G5/10</f>
+        <v>0.251</v>
+      </c>
+      <c r="G5">
+        <v>2.5099999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>610</v>
+      </c>
+      <c r="C8" t="s">
+        <v>605</v>
+      </c>
+      <c r="D8" t="s">
+        <v>609</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" s="22">
+        <v>0.54</v>
+      </c>
+      <c r="G8" s="22">
+        <f>F8*A8</f>
+        <v>12.96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>611</v>
+      </c>
+      <c r="C9" t="s">
+        <v>612</v>
+      </c>
+      <c r="D9" t="s">
+        <v>606</v>
+      </c>
+      <c r="F9" s="23">
+        <v>4.29</v>
+      </c>
+      <c r="G9" s="22">
+        <f>F9*A9</f>
+        <v>4.29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Bezugsquellen" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1486" uniqueCount="624">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1538" uniqueCount="661">
   <si>
     <t>Bauteilnummer</t>
   </si>
@@ -1138,9 +1138,6 @@
     <t>[S/D]</t>
   </si>
   <si>
-    <t>[mH]</t>
-  </si>
-  <si>
     <t>[Kg]</t>
   </si>
   <si>
@@ -1867,9 +1864,6 @@
     <t>https://www.maedler.de/Article/16222000</t>
   </si>
   <si>
-    <t>SchulterAntriebeRiemenscheibe</t>
-  </si>
-  <si>
     <t>Zahnriemenscheibe T5, 20 Zähne</t>
   </si>
   <si>
@@ -1892,6 +1886,123 @@
   </si>
   <si>
     <t>Berechnung Zahnriemenscheibe T25</t>
+  </si>
+  <si>
+    <t>Schulter Antrieb Riemenscheibe</t>
+  </si>
+  <si>
+    <t>Schulter Motor</t>
+  </si>
+  <si>
+    <t>Motor Nema 23 57x57x56</t>
+  </si>
+  <si>
+    <t>Motor Nema 24 60x60x87</t>
+  </si>
+  <si>
+    <t>Oberarm Motor</t>
+  </si>
+  <si>
+    <t>https://zahnriemen24.de/artikel_Zahnscheibe-AL-27-T5-15-2__10_2_875</t>
+  </si>
+  <si>
+    <t>Zahnriemenscheibe T5 15 Zähne, 16mm Breite</t>
+  </si>
+  <si>
+    <t>http://www.hug-technik.com/shop/product_info.php?info=p5264_metr--zahnriemenscheibe-t5-21-mm-breit--15-zaehne--zahnriemenrad-t5-21-15.html</t>
+  </si>
+  <si>
+    <t>Zahnriemen T5 16mm Breite</t>
+  </si>
+  <si>
+    <t>Oberarm Motor Zahnriemen 1</t>
+  </si>
+  <si>
+    <t>http://www.hug-technik.com/shop/index.php?cat=c226_ZAHNRIEMEN-T5-16-mm-breit-RIEMENBREITE-16-mm.html</t>
+  </si>
+  <si>
+    <t>https://zahnriemen24.de/artikel_Zahnscheibe-AL-21-T5-48-0__10_2_870</t>
+  </si>
+  <si>
+    <t>Oberarm Motor Zahnriemenscheibe 1 - großes Rad</t>
+  </si>
+  <si>
+    <t>Oberarm Motor Zahnriemenscheibe 1 - kleines Rad</t>
+  </si>
+  <si>
+    <t>Achse 8mm</t>
+  </si>
+  <si>
+    <t>Zahnriemenscheibe T5 15 Zähne, 10mm Breite</t>
+  </si>
+  <si>
+    <t>Zahnriemenscheibe T5 48 Zähne, 10mm Breite</t>
+  </si>
+  <si>
+    <t>Zahnriemen T5 10mm Breite</t>
+  </si>
+  <si>
+    <t>http://www.amazon.de/Zylinderkopfschrauben-Edelstahl-Zylinderschrauben-Inbusschrauben-Innensechskant/dp/B018XL6VPU/ref=sr_1_1?ie=UTF8&amp;qid=1457561023&amp;sr=8-1&amp;keywords=Innensechskant+M3+40</t>
+  </si>
+  <si>
+    <t>Oberarm Zahnriemen 1 Spanner Achse</t>
+  </si>
+  <si>
+    <t>Oberarm Zahnriemen 1 Spanner Rolle</t>
+  </si>
+  <si>
+    <t>http://www.amazon.de/100-St%C3%BCck-Kunststoff-Unterlegscheiben-M3/dp/B007YQCUVU/ref=pd_sim_sbs_60_11?ie=UTF8&amp;dpID=31R4hbM7tlL&amp;dpSrc=sims&amp;preST=_AC_UL160_SR160%2C160_&amp;refRID=0D0RH0PZDAFF1S4VP7RR</t>
+  </si>
+  <si>
+    <t>Kunststoff Unterlegscheiben M3</t>
+  </si>
+  <si>
+    <t>Oberarm Motor Zahnriemen</t>
+  </si>
+  <si>
+    <t>Oberarm Motor Zahnriemenscheibe 2 - kleines Rad</t>
+  </si>
+  <si>
+    <t>https://zahnriemen24.de/artikel_Zahnscheibe-AL-27-T5-48-0__10_2_892</t>
+  </si>
+  <si>
+    <t>Metallstreifen gelocht</t>
+  </si>
+  <si>
+    <t>http://www.eiwa-es.de/de_robot2012/artikeldetails.php?aid=128</t>
+  </si>
+  <si>
+    <t>Metallstreifen gelocht 20mm 2 Löcher</t>
+  </si>
+  <si>
+    <t>Oberarm Zahnriemen 1 Spanner Befestigung</t>
+  </si>
+  <si>
+    <t>https://www.conrad.de/de/silberstahl-welle-500-mm-8-mm-237205.html?sc.ref=Category%20Overview</t>
+  </si>
+  <si>
+    <t>Oberarm Motor Zahnriemenscheibe 1/2 -Achse</t>
+  </si>
+  <si>
+    <t>https://www.conrad.de/de/reely-stahl-gewindestange-500-mm-m4-stahl-237108.html</t>
+  </si>
+  <si>
+    <t>Oberarm Zahnriemen 1 Spanner Unterlegscheiben</t>
+  </si>
+  <si>
+    <t>Oberarm Zahnriemen 1 Spanner Gewindestange</t>
+  </si>
+  <si>
+    <t>https://www.conrad.de/de/silberstahl-welle-500-mm-3-mm-237051.html</t>
+  </si>
+  <si>
+    <t>Achse 3mm Durchmesser</t>
+  </si>
+  <si>
+    <t>Vierkant Muttern M3</t>
+  </si>
+  <si>
+    <t>https://www.conrad.de/de/vierkantmuttern-m3-din-562-stahl-100-st-toolcraft-109026-109026.html</t>
   </si>
 </sst>
 </file>
@@ -1904,7 +2015,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.0\ _€_-;\-* #,##0.0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="175" formatCode="_-* #,##0.00\ [$€-407]_-;\-* #,##0.00\ [$€-407]_-;_-* &quot;-&quot;??\ [$€-407]_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0.00\ [$€-407]_-;\-* #,##0.00\ [$€-407]_-;_-* &quot;-&quot;??\ [$€-407]_-;_-@_-"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -1961,7 +2072,7 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2002,8 +2113,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2535,10 +2661,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E30"/>
+  <dimension ref="A2:E36"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2561,7 +2687,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E4" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -2587,95 +2713,127 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>545</v>
+      </c>
+      <c r="C16" t="s">
+        <v>543</v>
+      </c>
+      <c r="E16" t="s">
         <v>546</v>
-      </c>
-      <c r="C16" t="s">
-        <v>544</v>
-      </c>
-      <c r="E16" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C17" t="s">
+        <v>547</v>
+      </c>
+      <c r="E17" t="s">
         <v>548</v>
-      </c>
-      <c r="E17" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>550</v>
+      </c>
+      <c r="E19" t="s">
         <v>551</v>
-      </c>
-      <c r="E19" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>553</v>
+      </c>
+      <c r="E21" t="s">
         <v>554</v>
-      </c>
-      <c r="E21" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E22" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E23" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E24" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E25" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E26" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
+        <v>560</v>
+      </c>
+      <c r="C28" t="s">
+        <v>565</v>
+      </c>
+      <c r="D28" t="s">
         <v>561</v>
       </c>
-      <c r="C28" t="s">
-        <v>566</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>562</v>
-      </c>
-      <c r="E28" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D29" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E29" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D30" t="s">
+        <v>566</v>
+      </c>
+      <c r="E30" t="s">
         <v>567</v>
       </c>
-      <c r="E30" t="s">
-        <v>568</v>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>650</v>
+      </c>
+      <c r="E32" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>650</v>
+      </c>
+      <c r="E33" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>236</v>
+      </c>
+      <c r="E35" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>659</v>
+      </c>
+      <c r="E36" t="s">
+        <v>660</v>
       </c>
     </row>
   </sheetData>
@@ -2687,8 +2845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:AD107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E74" sqref="E74:O74"/>
+    <sheetView topLeftCell="A61" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I75" sqref="I75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2753,7 +2911,7 @@
       </c>
       <c r="C7">
         <f>N76+0.2</f>
-        <v>0.65</v>
+        <v>1.2</v>
       </c>
       <c r="D7" t="s">
         <v>315</v>
@@ -2764,8 +2922,8 @@
         <v>320</v>
       </c>
       <c r="C8">
-        <f>N77++N78 +0.1</f>
-        <v>0.31</v>
+        <f>N77+N78 +0.4</f>
+        <v>0.61</v>
       </c>
       <c r="D8" t="s">
         <v>315</v>
@@ -2858,7 +3016,7 @@
       </c>
       <c r="C16" s="5">
         <f>C20/C18*(C24/C22)</f>
-        <v>25</v>
+        <v>17.066666666666666</v>
       </c>
       <c r="D16" t="s">
         <v>325</v>
@@ -2869,7 +3027,7 @@
         <v>339</v>
       </c>
       <c r="C17">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="D17" t="s">
         <v>340</v>
@@ -2880,7 +3038,7 @@
         <v>341</v>
       </c>
       <c r="C18" s="6">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D18" t="s">
         <v>338</v>
@@ -2892,7 +3050,7 @@
       </c>
       <c r="C19" s="4">
         <f>C18*C17/PI()</f>
-        <v>15.915494309189533</v>
+        <v>23.8732414637843</v>
       </c>
       <c r="D19" t="s">
         <v>340</v>
@@ -2903,7 +3061,7 @@
         <v>342</v>
       </c>
       <c r="C20" s="7">
-        <v>100</v>
+        <v>48</v>
       </c>
       <c r="D20" t="s">
         <v>338</v>
@@ -2915,7 +3073,7 @@
       </c>
       <c r="C21" s="4">
         <f>C20*C17/PI()</f>
-        <v>79.577471545947674</v>
+        <v>76.394372684109769</v>
       </c>
       <c r="D21" t="s">
         <v>340</v>
@@ -2926,7 +3084,7 @@
         <v>344</v>
       </c>
       <c r="C22" s="6">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D22" t="s">
         <v>338</v>
@@ -2938,7 +3096,7 @@
       </c>
       <c r="C23" s="4">
         <f>C22*C17/PI()</f>
-        <v>15.915494309189533</v>
+        <v>23.8732414637843</v>
       </c>
       <c r="D23" t="s">
         <v>340</v>
@@ -2949,7 +3107,7 @@
         <v>345</v>
       </c>
       <c r="C24" s="7">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="D24" t="s">
         <v>338</v>
@@ -2961,7 +3119,7 @@
       </c>
       <c r="C25" s="4">
         <f>C24*C17/PI()</f>
-        <v>79.577471545947674</v>
+        <v>127.32395447351627</v>
       </c>
       <c r="D25" t="s">
         <v>340</v>
@@ -3084,7 +3242,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C36" s="5">
         <f>C40/C38*(C44/C42)</f>
@@ -3198,7 +3356,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C46" s="5">
         <f>C50/C48*(C54/C52)</f>
@@ -3359,7 +3517,7 @@
       </c>
       <c r="C62" s="4">
         <f>((C3+C4+C5)*(C7+C8+C9)*(C59))/1000</f>
-        <v>5.2091100000000008</v>
+        <v>8.9614350000000016</v>
       </c>
       <c r="D62" t="s">
         <v>322</v>
@@ -3371,7 +3529,7 @@
       </c>
       <c r="C63" s="4">
         <f>((C3+C4+C5)*(C7+C8+C9)*(C58+C59))/1000</f>
-        <v>15.627330000000001</v>
+        <v>26.884305000000005</v>
       </c>
       <c r="D63" t="s">
         <v>322</v>
@@ -3383,7 +3541,7 @@
       </c>
       <c r="C64" s="2">
         <f>((C4+C5)*(C8+C9)*(C58+C59))/1000</f>
-        <v>3.8994749999999998</v>
+        <v>6.106725</v>
       </c>
       <c r="D64" t="s">
         <v>322</v>
@@ -3391,7 +3549,7 @@
     </row>
     <row r="65" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C65" s="2">
         <f>((C5)*(C9+C6)*(C58+C59))/1000</f>
@@ -3403,7 +3561,7 @@
     </row>
     <row r="66" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C66" s="2">
         <f>((C5)*(C9+C6)*(C59))/1000</f>
@@ -3419,7 +3577,7 @@
       </c>
       <c r="C67" s="2">
         <f>C62/C10</f>
-        <v>0.8681850000000001</v>
+        <v>1.4935725000000002</v>
       </c>
       <c r="D67" t="s">
         <v>322</v>
@@ -3431,7 +3589,7 @@
       </c>
       <c r="C68" s="2">
         <f>C63/C16</f>
-        <v>0.62509320000000002</v>
+        <v>1.5752522460937504</v>
       </c>
       <c r="D68" t="s">
         <v>322</v>
@@ -3443,7 +3601,7 @@
       </c>
       <c r="C69" s="2">
         <f>C64/C26</f>
-        <v>0.54836367187500001</v>
+        <v>0.85875820312500006</v>
       </c>
       <c r="D69" t="s">
         <v>322</v>
@@ -3451,7 +3609,7 @@
     </row>
     <row r="70" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C70" s="2">
         <f>C65/C46</f>
@@ -3463,7 +3621,7 @@
     </row>
     <row r="71" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C71" s="2">
         <f>C66/C46</f>
@@ -3489,7 +3647,7 @@
       </c>
       <c r="I72" s="10"/>
       <c r="J72" s="14" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="K72" s="10" t="s">
         <v>361</v>
@@ -3526,7 +3684,7 @@
       </c>
       <c r="J73" s="14"/>
       <c r="K73" s="10" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="L73" s="10" t="s">
         <v>370</v>
@@ -3536,9 +3694,6 @@
       </c>
       <c r="N73" s="10" t="s">
         <v>372</v>
-      </c>
-      <c r="O73" s="10" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="74" spans="1:30" x14ac:dyDescent="0.3">
@@ -3547,25 +3702,25 @@
       </c>
       <c r="C74" s="2">
         <f>C67*(1+C57)</f>
-        <v>1.1286405000000002</v>
+        <v>1.9416442500000004</v>
       </c>
       <c r="D74" t="s">
         <v>322</v>
       </c>
       <c r="E74" s="11" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F74" s="10">
         <v>0.9</v>
       </c>
       <c r="G74" s="10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H74" s="10" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="I74" s="10" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="J74" s="14">
         <v>6.35</v>
@@ -3577,7 +3732,7 @@
         <v>2.8</v>
       </c>
       <c r="M74" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="N74" s="10">
         <v>0.7</v>
@@ -3593,44 +3748,44 @@
       </c>
       <c r="C75" s="2">
         <f>C68*(1+C57)</f>
-        <v>0.81262116000000006</v>
+        <v>2.0478279199218754</v>
       </c>
       <c r="D75" t="s">
         <v>322</v>
       </c>
       <c r="E75" s="11" t="s">
-        <v>496</v>
-      </c>
-      <c r="F75" s="14">
+        <v>544</v>
+      </c>
+      <c r="F75" s="21">
         <v>1.8</v>
       </c>
-      <c r="G75" s="14" t="s">
-        <v>375</v>
-      </c>
-      <c r="H75" s="14" t="s">
-        <v>472</v>
-      </c>
-      <c r="I75" s="14" t="s">
-        <v>494</v>
-      </c>
-      <c r="J75" s="14">
-        <v>6.35</v>
-      </c>
-      <c r="K75" s="15">
-        <v>189</v>
-      </c>
-      <c r="L75" s="14">
-        <v>2.8</v>
-      </c>
-      <c r="M75" s="14" t="s">
-        <v>378</v>
-      </c>
-      <c r="N75" s="14">
-        <v>1</v>
+      <c r="G75" s="21" t="s">
+        <v>374</v>
+      </c>
+      <c r="H75" s="21" t="s">
+        <v>508</v>
+      </c>
+      <c r="I75" s="21" t="s">
+        <v>513</v>
+      </c>
+      <c r="J75" s="21">
+        <v>8</v>
+      </c>
+      <c r="K75" s="21">
+        <v>310</v>
+      </c>
+      <c r="L75" s="21">
+        <v>3.5</v>
+      </c>
+      <c r="M75" s="21" t="s">
+        <v>390</v>
+      </c>
+      <c r="N75" s="21">
+        <v>1.34</v>
       </c>
       <c r="O75" s="17">
-        <f>K75/N75</f>
-        <v>189</v>
+        <f t="shared" ref="O75:O76" si="0">K75/N75</f>
+        <v>231.34328358208953</v>
       </c>
     </row>
     <row r="76" spans="1:30" x14ac:dyDescent="0.3">
@@ -3639,44 +3794,44 @@
       </c>
       <c r="C76" s="2">
         <f>C69*(1+C57)</f>
-        <v>0.7128727734375</v>
+        <v>1.1163856640625001</v>
       </c>
       <c r="D76" t="s">
         <v>322</v>
       </c>
       <c r="E76" s="11" t="s">
-        <v>470</v>
-      </c>
-      <c r="F76" s="10">
+        <v>495</v>
+      </c>
+      <c r="F76" s="24">
         <v>1.8</v>
       </c>
-      <c r="G76" s="10" t="s">
-        <v>375</v>
-      </c>
-      <c r="H76" s="10" t="s">
-        <v>424</v>
-      </c>
-      <c r="I76" s="10" t="s">
-        <v>468</v>
-      </c>
-      <c r="J76" s="14">
-        <v>5</v>
-      </c>
-      <c r="K76" s="10">
-        <v>65</v>
-      </c>
-      <c r="L76" s="10">
-        <v>2.1</v>
-      </c>
-      <c r="M76" s="10" t="s">
-        <v>378</v>
-      </c>
-      <c r="N76" s="10">
-        <v>0.45</v>
+      <c r="G76" s="24" t="s">
+        <v>374</v>
+      </c>
+      <c r="H76" s="24" t="s">
+        <v>471</v>
+      </c>
+      <c r="I76" s="24" t="s">
+        <v>493</v>
+      </c>
+      <c r="J76" s="24">
+        <v>6.35</v>
+      </c>
+      <c r="K76" s="15">
+        <v>189</v>
+      </c>
+      <c r="L76" s="24">
+        <v>2.8</v>
+      </c>
+      <c r="M76" s="24" t="s">
+        <v>377</v>
+      </c>
+      <c r="N76" s="24">
+        <v>1</v>
       </c>
       <c r="O76" s="17">
-        <f>K76/N76</f>
-        <v>144.44444444444443</v>
+        <f t="shared" si="0"/>
+        <v>189</v>
       </c>
       <c r="Q76" s="10"/>
       <c r="R76" s="10"/>
@@ -3701,19 +3856,19 @@
         <v>322</v>
       </c>
       <c r="E77" s="11" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F77" s="16">
         <v>0.9</v>
       </c>
       <c r="G77" s="16" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H77" s="16" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="I77" s="16" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="J77" s="16">
         <v>5</v>
@@ -3725,7 +3880,7 @@
         <v>0.5</v>
       </c>
       <c r="M77" s="16" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="N77" s="16">
         <v>0.09</v>
@@ -3752,7 +3907,7 @@
     </row>
     <row r="78" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C78" s="2">
         <f>C70*(1+C57)</f>
@@ -3762,19 +3917,19 @@
         <v>322</v>
       </c>
       <c r="E78" s="11" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F78" s="16">
         <v>0.9</v>
       </c>
       <c r="G78" s="16" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H78" s="16" t="s">
+        <v>411</v>
+      </c>
+      <c r="I78" s="16" t="s">
         <v>412</v>
-      </c>
-      <c r="I78" s="16" t="s">
-        <v>413</v>
       </c>
       <c r="J78" s="16">
         <v>5</v>
@@ -3786,7 +3941,7 @@
         <v>0.6</v>
       </c>
       <c r="M78" s="16" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="N78" s="16">
         <v>0.12</v>
@@ -3841,19 +3996,19 @@
     </row>
     <row r="80" spans="1:30" x14ac:dyDescent="0.3">
       <c r="E80" s="11" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="F80" s="14">
         <v>1.8</v>
       </c>
       <c r="G80" s="14" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H80" s="14" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I80" s="14" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J80" s="14">
         <v>8</v>
@@ -3865,31 +4020,31 @@
         <v>3.5</v>
       </c>
       <c r="M80" s="14" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="N80" s="14">
         <v>1.34</v>
       </c>
       <c r="O80" s="17">
-        <f t="shared" ref="O80:O86" si="0">K80/N80</f>
+        <f t="shared" ref="O80:O86" si="1">K80/N80</f>
         <v>231.34328358208953</v>
       </c>
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.3">
       <c r="E81" s="11" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F81" s="10">
         <v>1.8</v>
       </c>
       <c r="G81" s="10" t="s">
+        <v>497</v>
+      </c>
+      <c r="H81" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="I81" s="10" t="s">
         <v>498</v>
-      </c>
-      <c r="H81" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="I81" s="10" t="s">
-        <v>499</v>
       </c>
       <c r="J81" s="14">
         <v>6.35</v>
@@ -3901,13 +4056,13 @@
         <v>2.83</v>
       </c>
       <c r="M81" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="N81" s="10">
         <v>1.1299999999999999</v>
       </c>
       <c r="O81" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>176.9911504424779</v>
       </c>
       <c r="P81" s="10"/>
@@ -3918,19 +4073,19 @@
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.3">
       <c r="E82" s="11" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F82" s="14">
         <v>1.8</v>
       </c>
       <c r="G82" s="14" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H82" s="14" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="I82" s="14" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J82" s="14">
         <v>6.35</v>
@@ -3942,13 +4097,13 @@
         <v>2.8</v>
       </c>
       <c r="M82" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="N82" s="14">
         <v>1</v>
       </c>
       <c r="O82" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>189</v>
       </c>
       <c r="P82" s="14"/>
@@ -3958,6 +4113,40 @@
       <c r="T82" s="14"/>
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="E83" s="11" t="s">
+        <v>473</v>
+      </c>
+      <c r="F83" s="24">
+        <v>0.9</v>
+      </c>
+      <c r="G83" s="24" t="s">
+        <v>374</v>
+      </c>
+      <c r="H83" s="24" t="s">
+        <v>471</v>
+      </c>
+      <c r="I83" s="24" t="s">
+        <v>474</v>
+      </c>
+      <c r="J83" s="24">
+        <v>6.35</v>
+      </c>
+      <c r="K83" s="15">
+        <v>126</v>
+      </c>
+      <c r="L83" s="24">
+        <v>2.8</v>
+      </c>
+      <c r="M83" s="24" t="s">
+        <v>377</v>
+      </c>
+      <c r="N83" s="24">
+        <v>0.7</v>
+      </c>
+      <c r="O83" s="17">
+        <f>K83/N83</f>
+        <v>180</v>
+      </c>
       <c r="P83" s="10"/>
       <c r="Q83" s="10"/>
       <c r="R83" s="10"/>
@@ -3966,19 +4155,19 @@
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.3">
       <c r="E84" s="11" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F84" s="14">
         <v>0.9</v>
       </c>
       <c r="G84" s="14" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H84" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="I84" s="14" t="s">
         <v>472</v>
-      </c>
-      <c r="I84" s="14" t="s">
-        <v>473</v>
       </c>
       <c r="J84" s="13">
         <v>6.35</v>
@@ -3990,13 +4179,13 @@
         <v>0.38</v>
       </c>
       <c r="M84" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="N84" s="14">
         <v>0.6</v>
       </c>
       <c r="O84" s="17">
-        <f t="shared" si="0"/>
+        <f>K84/N84</f>
         <v>150</v>
       </c>
       <c r="P84" s="14"/>
@@ -4007,19 +4196,19 @@
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.3">
       <c r="E85" s="11" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F85" s="10">
         <v>1.8</v>
       </c>
       <c r="G85" s="10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H85" s="10" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="I85" s="10" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J85" s="14">
         <v>5</v>
@@ -4031,31 +4220,31 @@
         <v>2.1</v>
       </c>
       <c r="M85" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="N85" s="10">
         <v>0.45</v>
       </c>
       <c r="O85" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>144.44444444444443</v>
       </c>
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.3">
       <c r="E86" s="11" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F86" s="10">
         <v>1.8</v>
       </c>
       <c r="G86" s="10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H86" s="10" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="I86" s="10" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="J86" s="14">
         <v>5</v>
@@ -4067,31 +4256,31 @@
         <v>2</v>
       </c>
       <c r="M86" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="N86" s="10">
         <v>0.31</v>
       </c>
       <c r="O86" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>145.16129032258064</v>
       </c>
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.3">
       <c r="E87" s="11" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F87" s="16">
         <v>0.9</v>
       </c>
       <c r="G87" s="16" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H87" s="16" t="s">
+        <v>411</v>
+      </c>
+      <c r="I87" s="16" t="s">
         <v>412</v>
-      </c>
-      <c r="I87" s="16" t="s">
-        <v>413</v>
       </c>
       <c r="J87" s="16">
         <v>5</v>
@@ -4103,7 +4292,7 @@
         <v>0.6</v>
       </c>
       <c r="M87" s="16" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="N87" s="16">
         <v>0.12</v>
@@ -4115,19 +4304,19 @@
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.3">
       <c r="E88" s="11" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F88" s="16">
         <v>0.9</v>
       </c>
       <c r="G88" s="16" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H88" s="16" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="I88" s="16" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="J88" s="16">
         <v>5</v>
@@ -4139,7 +4328,7 @@
         <v>0.5</v>
       </c>
       <c r="M88" s="16" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="N88" s="16">
         <v>0.09</v>
@@ -4151,181 +4340,182 @@
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C92" s="19">
         <f>1</f>
         <v>1</v>
       </c>
       <c r="D92" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C93" s="19">
         <f>(C15/1000/2)</f>
         <v>7.1619724391352904E-2</v>
       </c>
       <c r="D93" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C94" s="19">
         <f>C62/C93</f>
-        <v>72.732896478849469</v>
+        <v>125.12523716276645</v>
       </c>
       <c r="D94" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C95" s="19">
         <f>(C92)*C94*2*PI()</f>
-        <v>456.99426650452085</v>
+        <v>786.18505169845537</v>
       </c>
       <c r="D95" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C98" s="20">
         <v>1</v>
       </c>
       <c r="D98" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C99" s="20">
         <f>(C21/1000/2)</f>
-        <v>3.9788735772973836E-2</v>
+        <v>3.8197186342054885E-2</v>
       </c>
       <c r="D99" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C100" s="20">
         <f>C63/C99</f>
-        <v>392.75764098578708</v>
+        <v>703.82945904056123</v>
       </c>
       <c r="D100" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E100" s="20"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C101" s="20">
         <f>(C98)*C100*2*PI()</f>
-        <v>2467.7690391244123</v>
+        <v>4422.290915803811</v>
       </c>
       <c r="D101" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C104" s="20">
         <f>60*C18/C20</f>
-        <v>12</v>
+        <v>18.75</v>
       </c>
       <c r="D104" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C105" s="20">
         <f>(C25/1000/2)</f>
-        <v>3.9788735772973836E-2</v>
+        <v>6.3661977236758135E-2</v>
       </c>
       <c r="D105" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C106" s="20">
         <f>C63/(C20/C18)/C105</f>
-        <v>78.55152819715741</v>
+        <v>131.96802357010523</v>
       </c>
       <c r="D106" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C107" s="20">
         <f>(C104/60)*C106*2*PI()</f>
-        <v>98.71076156497648</v>
+        <v>259.11860834787956</v>
       </c>
       <c r="D107" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E85" r:id="rId1" display="http://www.omc-stepperonline.com/nema-17-bipolar-stepper-motor-65ncm92ozin-21a-17hs242104s-p-21.html"/>
     <hyperlink ref="E86" r:id="rId2" display="http://www.omc-stepperonline.com/3d-printer-nema-17-stepper-motor-2a-45ncm64ozin-17hs162004s-p-16.html"/>
-    <hyperlink ref="E76" r:id="rId3" display="http://www.omc-stepperonline.com/nema-17-bipolar-stepper-motor-65ncm92ozin-21a-17hs242104s-p-21.html"/>
-    <hyperlink ref="E81" r:id="rId4" display="http://www.omc-stepperonline.com/nema-23-cnc-stepper-motor-283nm400-ozin-40a-23hs334008s-p-70.html"/>
-    <hyperlink ref="E74" r:id="rId5" display="http://www.omc-stepperonline.com/9deg-nema-23-stepper-bipolar-28a-126nm1785ozin-23hm222804s-p-292.html"/>
-    <hyperlink ref="E80" r:id="rId6"/>
-    <hyperlink ref="E84" r:id="rId7" display="http://www.omc-stepperonline.com/9deg-nema-23-bipolar-121v-038a-09nm1275ozin-23hm200384s-p-24.html"/>
-    <hyperlink ref="E82" r:id="rId8" display="http://www.omc-stepperonline.com/nema-23-cnc-stepper-motor-28a-19nm269ozin-23hs302804s-p-25.html"/>
-    <hyperlink ref="E75" r:id="rId9" display="http://www.omc-stepperonline.com/nema-23-cnc-stepper-motor-28a-19nm269ozin-23hs302804s-p-25.html"/>
-    <hyperlink ref="E78" r:id="rId10" display="http://www.omc-stepperonline.com/09-nema-16-bipolar-stepper-06a-16ncm227ozin-16hm100604s-p-97.html"/>
-    <hyperlink ref="E87" r:id="rId11" display="http://www.omc-stepperonline.com/09-nema-16-bipolar-stepper-06a-16ncm227ozin-16hm100604s-p-97.html"/>
-    <hyperlink ref="E88" r:id="rId12" display="http://www.omc-stepperonline.com/09-nema-14-bipolar-stepper-motor-5ncm7ozin-14hm080504s-p-85.html"/>
-    <hyperlink ref="E77" r:id="rId13" display="http://www.omc-stepperonline.com/09-nema-14-bipolar-stepper-motor-5ncm7ozin-14hm080504s-p-85.html"/>
+    <hyperlink ref="E81" r:id="rId3" display="http://www.omc-stepperonline.com/nema-23-cnc-stepper-motor-283nm400-ozin-40a-23hs334008s-p-70.html"/>
+    <hyperlink ref="E74" r:id="rId4"/>
+    <hyperlink ref="E80" r:id="rId5"/>
+    <hyperlink ref="E82" r:id="rId6" display="http://www.omc-stepperonline.com/nema-23-cnc-stepper-motor-28a-19nm269ozin-23hs302804s-p-25.html"/>
+    <hyperlink ref="E78" r:id="rId7" display="http://www.omc-stepperonline.com/09-nema-16-bipolar-stepper-06a-16ncm227ozin-16hm100604s-p-97.html"/>
+    <hyperlink ref="E87" r:id="rId8" display="http://www.omc-stepperonline.com/09-nema-16-bipolar-stepper-06a-16ncm227ozin-16hm100604s-p-97.html"/>
+    <hyperlink ref="E88" r:id="rId9" display="http://www.omc-stepperonline.com/09-nema-14-bipolar-stepper-motor-5ncm7ozin-14hm080504s-p-85.html"/>
+    <hyperlink ref="E77" r:id="rId10" display="http://www.omc-stepperonline.com/09-nema-14-bipolar-stepper-motor-5ncm7ozin-14hm080504s-p-85.html"/>
+    <hyperlink ref="E75" r:id="rId11"/>
+    <hyperlink ref="E84" r:id="rId12"/>
+    <hyperlink ref="E76" r:id="rId13" display="http://www.omc-stepperonline.com/nema-23-cnc-stepper-motor-28a-19nm269ozin-23hs302804s-p-25.html"/>
+    <hyperlink ref="E83" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId14"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId15"/>
 </worksheet>
 </file>
 
@@ -4333,8 +4523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H111"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="D68" sqref="D68"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57:A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6792,20 +6982,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
@@ -6820,27 +7010,32 @@
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>553</v>
+        <v>552</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>629</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C36">
         <v>180</v>
@@ -6848,7 +7043,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C37" s="2">
         <f>C36*2.5/PI()</f>
@@ -6860,7 +7055,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C38" s="2">
         <f>C37*1.0012-0.56</f>
@@ -6872,7 +7067,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C39" s="2">
         <f>C38-2</f>
@@ -6884,7 +7079,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C40" s="2">
         <f>C39-2</f>
@@ -6896,12 +7091,12 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C59">
         <v>180</v>
@@ -6909,7 +7104,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C60" s="2">
         <f>C59*2.5/PI()</f>
@@ -6921,7 +7116,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C61" s="2">
         <f>C60*1.0012-0.56</f>
@@ -6933,7 +7128,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C62" s="2">
         <f>C61-2</f>
@@ -6945,7 +7140,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C63" s="2">
         <f>C62-2</f>
@@ -6986,8 +7181,8 @@
       <c r="A3" s="10"/>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
@@ -7003,10 +7198,10 @@
       <c r="C4" s="10" t="s">
         <v>359</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="28" t="s">
         <v>360</v>
       </c>
-      <c r="E4" s="21"/>
+      <c r="E4" s="28"/>
       <c r="F4" s="10" t="s">
         <v>361</v>
       </c>
@@ -7037,7 +7232,7 @@
         <v>340</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G5" s="10" t="s">
         <v>370</v>
@@ -7046,24 +7241,24 @@
         <v>371</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B6" s="10">
         <v>1.8</v>
       </c>
       <c r="C6" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>375</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="E6" s="10" t="s">
         <v>376</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>377</v>
       </c>
       <c r="F6" s="10">
         <v>1.6</v>
@@ -7072,7 +7267,7 @@
         <v>0.2</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I6" s="10">
         <v>0.05</v>
@@ -7084,19 +7279,19 @@
     </row>
     <row r="7" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B7" s="10">
         <v>1.8</v>
       </c>
       <c r="C7" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>375</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>376</v>
-      </c>
       <c r="E7" s="10" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F7" s="10">
         <v>1.8</v>
@@ -7105,7 +7300,7 @@
         <v>0.5</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I7" s="10">
         <v>0.06</v>
@@ -7117,19 +7312,19 @@
     </row>
     <row r="8" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B8" s="10">
         <v>1.8</v>
       </c>
       <c r="C8" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="D8" s="10" t="s">
         <v>375</v>
       </c>
-      <c r="D8" s="10" t="s">
-        <v>376</v>
-      </c>
       <c r="E8" s="10" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F8" s="10">
         <v>2</v>
@@ -7138,7 +7333,7 @@
         <v>0.6</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I8" s="10">
         <v>7.0000000000000007E-2</v>
@@ -7150,19 +7345,19 @@
     </row>
     <row r="9" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B9" s="10">
         <v>1.8</v>
       </c>
       <c r="C9" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="D9" s="10" t="s">
         <v>375</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>376</v>
-      </c>
       <c r="E9" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F9" s="10">
         <v>3</v>
@@ -7171,7 +7366,7 @@
         <v>0.3</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I9" s="10">
         <v>0.08</v>
@@ -7183,19 +7378,19 @@
     </row>
     <row r="10" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B10" s="10">
         <v>1.8</v>
       </c>
       <c r="C10" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>375</v>
       </c>
-      <c r="D10" s="10" t="s">
-        <v>376</v>
-      </c>
       <c r="E10" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F10" s="10">
         <v>4</v>
@@ -7204,7 +7399,7 @@
         <v>0.6</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I10" s="10">
         <v>0.08</v>
@@ -7216,19 +7411,19 @@
     </row>
     <row r="11" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B11" s="10">
         <v>1.8</v>
       </c>
       <c r="C11" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="D11" s="10" t="s">
         <v>375</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>376</v>
-      </c>
       <c r="E11" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F11" s="10">
         <v>4</v>
@@ -7237,7 +7432,7 @@
         <v>0.6</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I11" s="10">
         <v>0.08</v>
@@ -7249,19 +7444,19 @@
     </row>
     <row r="12" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B12" s="10">
         <v>1.8</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F12" s="10">
         <v>6</v>
@@ -7270,7 +7465,7 @@
         <v>0.67</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I12" s="10">
         <v>0.11</v>
@@ -7282,19 +7477,19 @@
     </row>
     <row r="13" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B13" s="10">
         <v>1.8</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F13" s="10">
         <v>4.3</v>
@@ -7303,7 +7498,7 @@
         <v>0.95</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I13" s="10">
         <v>0.11</v>
@@ -7315,19 +7510,19 @@
     </row>
     <row r="14" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B14" s="10">
         <v>1.8</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F14" s="10">
         <v>9.5</v>
@@ -7336,7 +7531,7 @@
         <v>0.67</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I14" s="10">
         <v>0.14000000000000001</v>
@@ -7348,19 +7543,19 @@
     </row>
     <row r="15" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B15" s="10">
         <v>1.8</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="F15" s="10">
         <v>12</v>
@@ -7369,7 +7564,7 @@
         <v>0.67</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I15" s="10">
         <v>0.2</v>
@@ -7381,19 +7576,19 @@
     </row>
     <row r="16" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B16" s="10">
         <v>0.9</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="F16" s="10">
         <v>7</v>
@@ -7402,7 +7597,7 @@
         <v>0.5</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I16" s="10">
         <v>0.08</v>
@@ -7414,19 +7609,19 @@
     </row>
     <row r="17" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B17" s="10">
         <v>0.9</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="F17" s="10">
         <v>12</v>
@@ -7435,7 +7630,7 @@
         <v>0.65</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I17" s="10">
         <v>0.13</v>
@@ -7447,19 +7642,19 @@
     </row>
     <row r="18" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B18" s="10">
         <v>0.9</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F18" s="10">
         <v>5</v>
@@ -7468,7 +7663,7 @@
         <v>0.5</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I18" s="10">
         <v>0.09</v>
@@ -7480,19 +7675,19 @@
     </row>
     <row r="19" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B19" s="10">
         <v>0.9</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F19" s="10">
         <v>11</v>
@@ -7501,7 +7696,7 @@
         <v>0.4</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I19" s="10">
         <v>0.12</v>
@@ -7513,19 +7708,19 @@
     </row>
     <row r="20" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B20" s="10">
         <v>1.8</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F20" s="10">
         <v>14</v>
@@ -7534,7 +7729,7 @@
         <v>0.4</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I20" s="10">
         <v>0.12</v>
@@ -7546,19 +7741,19 @@
     </row>
     <row r="21" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B21" s="10">
         <v>1.8</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F21" s="10">
         <v>12.5</v>
@@ -7567,7 +7762,7 @@
         <v>1</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I21" s="10">
         <v>0.12</v>
@@ -7579,19 +7774,19 @@
     </row>
     <row r="22" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B22" s="10">
         <v>1.8</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F22" s="10">
         <v>10</v>
@@ -7600,7 +7795,7 @@
         <v>0.4</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I22" s="10">
         <v>0.17</v>
@@ -7612,19 +7807,19 @@
     </row>
     <row r="23" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B23" s="10">
         <v>1.8</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F23" s="10">
         <v>18</v>
@@ -7633,7 +7828,7 @@
         <v>0.8</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I23" s="10">
         <v>0.17</v>
@@ -7645,19 +7840,19 @@
     </row>
     <row r="24" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B24" s="10">
         <v>1.8</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F24" s="10">
         <v>23</v>
@@ -7666,7 +7861,7 @@
         <v>0.5</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I24" s="10">
         <v>0.2</v>
@@ -7678,19 +7873,19 @@
     </row>
     <row r="25" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B25" s="10">
         <v>1.8</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F25" s="10">
         <v>40</v>
@@ -7699,7 +7894,7 @@
         <v>1.5</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I25" s="10">
         <v>0.35</v>
@@ -7711,19 +7906,19 @@
     </row>
     <row r="26" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B26" s="10">
         <v>0.9</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D26" s="10" t="s">
+        <v>411</v>
+      </c>
+      <c r="E26" s="10" t="s">
         <v>412</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>413</v>
       </c>
       <c r="F26" s="10">
         <v>16</v>
@@ -7732,7 +7927,7 @@
         <v>0.6</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I26" s="10">
         <v>0.12</v>
@@ -7744,19 +7939,19 @@
     </row>
     <row r="27" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B27" s="10">
         <v>0.9</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F27" s="10">
         <v>18</v>
@@ -7765,7 +7960,7 @@
         <v>0.4</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I27" s="10">
         <v>0.18</v>
@@ -7777,19 +7972,19 @@
     </row>
     <row r="28" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B28" s="10">
         <v>0.9</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F28" s="10">
         <v>25</v>
@@ -7798,7 +7993,7 @@
         <v>0.3</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I28" s="10">
         <v>0.25</v>
@@ -7810,19 +8005,19 @@
     </row>
     <row r="29" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B29" s="10">
         <v>1.8</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F29" s="10">
         <v>8</v>
@@ -7831,7 +8026,7 @@
         <v>0.5</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I29" s="10">
         <v>0.12</v>
@@ -7843,19 +8038,19 @@
     </row>
     <row r="30" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B30" s="10">
         <v>1.8</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F30" s="10">
         <v>8.6999999999999993</v>
@@ -7864,7 +8059,7 @@
         <v>0.6</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I30" s="10">
         <v>0.12</v>
@@ -7876,19 +8071,19 @@
     </row>
     <row r="31" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B31" s="10">
         <v>1.8</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F31" s="10">
         <v>21</v>
@@ -7897,7 +8092,7 @@
         <v>0.4</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I31" s="10">
         <v>0.18</v>
@@ -7909,19 +8104,19 @@
     </row>
     <row r="32" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B32" s="10">
         <v>1.8</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F32" s="10">
         <v>18</v>
@@ -7930,7 +8125,7 @@
         <v>0.65</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I32" s="10">
         <v>0.18</v>
@@ -7942,19 +8137,19 @@
     </row>
     <row r="33" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="11" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B33" s="10">
         <v>0.9</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D33" s="10" t="s">
+        <v>423</v>
+      </c>
+      <c r="E33" s="10" t="s">
         <v>424</v>
-      </c>
-      <c r="E33" s="10" t="s">
-        <v>425</v>
       </c>
       <c r="F33" s="10">
         <v>11</v>
@@ -7963,7 +8158,7 @@
         <v>1.2</v>
       </c>
       <c r="H33" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I33" s="10">
         <v>0.15</v>
@@ -7975,19 +8170,19 @@
     </row>
     <row r="34" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B34" s="10">
         <v>0.9</v>
       </c>
       <c r="C34" s="10" t="s">
+        <v>426</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>423</v>
+      </c>
+      <c r="E34" s="10" t="s">
         <v>427</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>424</v>
-      </c>
-      <c r="E34" s="10" t="s">
-        <v>428</v>
       </c>
       <c r="F34" s="10">
         <v>23</v>
@@ -7996,7 +8191,7 @@
         <v>0.31</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I34" s="10">
         <v>0.28000000000000003</v>
@@ -8008,19 +8203,19 @@
     </row>
     <row r="35" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="11" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B35" s="10">
         <v>0.9</v>
       </c>
       <c r="C35" s="10" t="s">
+        <v>426</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>423</v>
+      </c>
+      <c r="E35" s="10" t="s">
         <v>427</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>424</v>
-      </c>
-      <c r="E35" s="10" t="s">
-        <v>428</v>
       </c>
       <c r="F35" s="10">
         <v>23</v>
@@ -8029,7 +8224,7 @@
         <v>0.31</v>
       </c>
       <c r="H35" s="10" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I35" s="10">
         <v>0.28000000000000003</v>
@@ -8041,19 +8236,19 @@
     </row>
     <row r="36" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="11" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B36" s="10">
         <v>0.9</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F36" s="10">
         <v>25.9</v>
@@ -8062,7 +8257,7 @@
         <v>0.4</v>
       </c>
       <c r="H36" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I36" s="10">
         <v>0.28000000000000003</v>
@@ -8074,19 +8269,19 @@
     </row>
     <row r="37" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="11" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B37" s="10">
         <v>0.9</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F37" s="10">
         <v>25.9</v>
@@ -8095,7 +8290,7 @@
         <v>0.4</v>
       </c>
       <c r="H37" s="10" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I37" s="10">
         <v>0.28000000000000003</v>
@@ -8107,19 +8302,19 @@
     </row>
     <row r="38" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="11" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B38" s="10">
         <v>0.9</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F38" s="10">
         <v>26</v>
@@ -8128,7 +8323,7 @@
         <v>0.8</v>
       </c>
       <c r="H38" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I38" s="10">
         <v>0.28000000000000003</v>
@@ -8140,19 +8335,19 @@
     </row>
     <row r="39" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="11" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B39" s="10">
         <v>0.9</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F39" s="10">
         <v>36</v>
@@ -8161,7 +8356,7 @@
         <v>0.9</v>
       </c>
       <c r="H39" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I39" s="10">
         <v>0.28000000000000003</v>
@@ -8173,19 +8368,19 @@
     </row>
     <row r="40" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="11" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B40" s="10">
         <v>0.9</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F40" s="10">
         <v>31.7</v>
@@ -8194,7 +8389,7 @@
         <v>0.4</v>
       </c>
       <c r="H40" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I40" s="10">
         <v>0.35</v>
@@ -8206,19 +8401,19 @@
     </row>
     <row r="41" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="11" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B41" s="10">
         <v>0.9</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F41" s="10">
         <v>31.7</v>
@@ -8227,7 +8422,7 @@
         <v>0.4</v>
       </c>
       <c r="H41" s="10" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I41" s="10">
         <v>0.35</v>
@@ -8239,19 +8434,19 @@
     </row>
     <row r="42" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="11" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B42" s="10">
         <v>0.9</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F42" s="10">
         <v>44</v>
@@ -8260,7 +8455,7 @@
         <v>1.68</v>
       </c>
       <c r="H42" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I42" s="10">
         <v>0.35</v>
@@ -8272,19 +8467,19 @@
     </row>
     <row r="43" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="11" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B43" s="10">
         <v>0.9</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F43" s="10">
         <v>46</v>
@@ -8293,7 +8488,7 @@
         <v>2</v>
       </c>
       <c r="H43" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I43" s="10">
         <v>0.4</v>
@@ -8305,19 +8500,19 @@
     </row>
     <row r="44" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="11" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B44" s="10">
         <v>3.75</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F44" s="10">
         <v>16</v>
@@ -8326,7 +8521,7 @@
         <v>1</v>
       </c>
       <c r="H44" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I44" s="10">
         <v>0.3</v>
@@ -8338,19 +8533,19 @@
     </row>
     <row r="45" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="11" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B45" s="10">
         <v>3.75</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F45" s="10">
         <v>20</v>
@@ -8359,7 +8554,7 @@
         <v>0.6</v>
       </c>
       <c r="H45" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I45" s="10">
         <v>0.3</v>
@@ -8371,19 +8566,19 @@
     </row>
     <row r="46" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="11" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B46" s="10">
         <v>1.8</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F46" s="10">
         <v>13</v>
@@ -8392,7 +8587,7 @@
         <v>1</v>
       </c>
       <c r="H46" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I46" s="10">
         <v>0.15</v>
@@ -8404,19 +8599,19 @@
     </row>
     <row r="47" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="11" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B47" s="10">
         <v>1.8</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F47" s="10">
         <v>18</v>
@@ -8425,7 +8620,7 @@
         <v>0.7</v>
       </c>
       <c r="H47" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I47" s="10">
         <v>0.18</v>
@@ -8437,19 +8632,19 @@
     </row>
     <row r="48" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" s="11" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B48" s="10">
         <v>1.8</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F48" s="10">
         <v>16</v>
@@ -8458,7 +8653,7 @@
         <v>0.31</v>
       </c>
       <c r="H48" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I48" s="10">
         <v>0.22</v>
@@ -8470,19 +8665,19 @@
     </row>
     <row r="49" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="11" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B49" s="10">
         <v>1.8</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F49" s="10">
         <v>16</v>
@@ -8491,7 +8686,7 @@
         <v>0.95</v>
       </c>
       <c r="H49" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I49" s="10">
         <v>0.22</v>
@@ -8503,19 +8698,19 @@
     </row>
     <row r="50" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="11" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B50" s="10">
         <v>1.8</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F50" s="10">
         <v>22</v>
@@ -8524,7 +8719,7 @@
         <v>1.33</v>
       </c>
       <c r="H50" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I50" s="10">
         <v>0.22</v>
@@ -8536,19 +8731,19 @@
     </row>
     <row r="51" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51" s="11" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B51" s="10">
         <v>1.8</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F51" s="10">
         <v>22</v>
@@ -8557,7 +8752,7 @@
         <v>1.33</v>
       </c>
       <c r="H51" s="10" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I51" s="10">
         <v>0.22</v>
@@ -8569,19 +8764,19 @@
     </row>
     <row r="52" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" s="11" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B52" s="10">
         <v>1.8</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E52" s="10" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F52" s="10">
         <v>26</v>
@@ -8590,7 +8785,7 @@
         <v>0.4</v>
       </c>
       <c r="H52" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I52" s="10">
         <v>0.22</v>
@@ -8602,19 +8797,19 @@
     </row>
     <row r="53" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A53" s="11" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B53" s="10">
         <v>1.8</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F53" s="10">
         <v>26</v>
@@ -8623,7 +8818,7 @@
         <v>0.4</v>
       </c>
       <c r="H53" s="10" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I53" s="10">
         <v>0.22</v>
@@ -8635,19 +8830,19 @@
     </row>
     <row r="54" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A54" s="11" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B54" s="10">
         <v>1.8</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F54" s="10">
         <v>26</v>
@@ -8656,7 +8851,7 @@
         <v>0.4</v>
       </c>
       <c r="H54" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I54" s="10">
         <v>0.28000000000000003</v>
@@ -8668,19 +8863,19 @@
     </row>
     <row r="55" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A55" s="11" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B55" s="10">
         <v>1.8</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F55" s="10">
         <v>36</v>
@@ -8689,7 +8884,7 @@
         <v>0.85</v>
       </c>
       <c r="H55" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I55" s="10">
         <v>0.28000000000000003</v>
@@ -8701,19 +8896,19 @@
     </row>
     <row r="56" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A56" s="11" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B56" s="10">
         <v>1.8</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F56" s="10">
         <v>36</v>
@@ -8722,7 +8917,7 @@
         <v>1.68</v>
       </c>
       <c r="H56" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I56" s="10">
         <v>0.28000000000000003</v>
@@ -8734,19 +8929,19 @@
     </row>
     <row r="57" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" s="11" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B57" s="10">
         <v>1.8</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F57" s="10">
         <v>40</v>
@@ -8755,7 +8950,7 @@
         <v>0.4</v>
       </c>
       <c r="H57" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I57" s="10">
         <v>0.28000000000000003</v>
@@ -8767,19 +8962,19 @@
     </row>
     <row r="58" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A58" s="11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B58" s="10">
         <v>1.8</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F58" s="10">
         <v>36</v>
@@ -8788,7 +8983,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="H58" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I58" s="10">
         <v>0.28000000000000003</v>
@@ -8800,19 +8995,19 @@
     </row>
     <row r="59" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A59" s="11" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B59" s="10">
         <v>1.8</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E59" s="10" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F59" s="10">
         <v>45</v>
@@ -8821,7 +9016,7 @@
         <v>2</v>
       </c>
       <c r="H59" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I59" s="10">
         <v>0.28000000000000003</v>
@@ -8833,19 +9028,19 @@
     </row>
     <row r="60" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A60" s="11" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B60" s="10">
         <v>1.8</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F60" s="10">
         <v>32</v>
@@ -8854,7 +9049,7 @@
         <v>0.4</v>
       </c>
       <c r="H60" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I60" s="10">
         <v>0.35</v>
@@ -8866,19 +9061,19 @@
     </row>
     <row r="61" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A61" s="11" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B61" s="10">
         <v>1.8</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E61" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F61" s="10">
         <v>44</v>
@@ -8887,7 +9082,7 @@
         <v>0.85</v>
       </c>
       <c r="H61" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I61" s="10">
         <v>0.35</v>
@@ -8899,19 +9094,19 @@
     </row>
     <row r="62" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A62" s="11" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B62" s="10">
         <v>1.8</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E62" s="10" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F62" s="10">
         <v>44</v>
@@ -8920,7 +9115,7 @@
         <v>1.68</v>
       </c>
       <c r="H62" s="10" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I62" s="10">
         <v>0.35</v>
@@ -8932,19 +9127,19 @@
     </row>
     <row r="63" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A63" s="11" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B63" s="10">
         <v>1.8</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E63" s="10" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F63" s="10">
         <v>44</v>
@@ -8953,7 +9148,7 @@
         <v>1.68</v>
       </c>
       <c r="H63" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I63" s="10">
         <v>0.35</v>
@@ -8965,19 +9160,19 @@
     </row>
     <row r="64" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A64" s="11" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B64" s="10">
         <v>1.8</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E64" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F64" s="10">
         <v>59</v>
@@ -8986,7 +9181,7 @@
         <v>2</v>
       </c>
       <c r="H64" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I64" s="10">
         <v>0.4</v>
@@ -8998,19 +9193,19 @@
     </row>
     <row r="65" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A65" s="11" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B65" s="10">
         <v>1.8</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E65" s="10" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F65" s="10">
         <v>60</v>
@@ -9019,7 +9214,7 @@
         <v>0.64</v>
       </c>
       <c r="H65" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I65" s="10">
         <v>0.45</v>
@@ -9031,19 +9226,19 @@
     </row>
     <row r="66" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A66" s="11" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B66" s="10">
         <v>1.8</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E66" s="10" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F66" s="10">
         <v>65</v>
@@ -9052,7 +9247,7 @@
         <v>1.2</v>
       </c>
       <c r="H66" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I66" s="10">
         <v>0.45</v>
@@ -9064,19 +9259,19 @@
     </row>
     <row r="67" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A67" s="11" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B67" s="10">
         <v>1.8</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E67" s="10" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F67" s="10">
         <v>65</v>
@@ -9085,7 +9280,7 @@
         <v>2.1</v>
       </c>
       <c r="H67" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I67" s="10">
         <v>0.45</v>
@@ -9097,19 +9292,19 @@
     </row>
     <row r="68" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A68" s="11" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B68" s="10">
         <v>0.9</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D68" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="E68" s="10" t="s">
         <v>472</v>
-      </c>
-      <c r="E68" s="10" t="s">
-        <v>473</v>
       </c>
       <c r="F68" s="10">
         <v>90</v>
@@ -9118,7 +9313,7 @@
         <v>0.38</v>
       </c>
       <c r="H68" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I68" s="10">
         <v>0.6</v>
@@ -9130,19 +9325,19 @@
     </row>
     <row r="69" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A69" s="11" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B69" s="10">
         <v>0.9</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E69" s="10" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F69" s="10">
         <v>126</v>
@@ -9151,7 +9346,7 @@
         <v>2.8</v>
       </c>
       <c r="H69" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I69" s="10">
         <v>0.7</v>
@@ -9163,19 +9358,19 @@
     </row>
     <row r="70" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A70" s="11" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B70" s="10">
         <v>1.8</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E70" s="10" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F70" s="10">
         <v>70</v>
@@ -9184,7 +9379,7 @@
         <v>2.8</v>
       </c>
       <c r="H70" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I70" s="10">
         <v>0.6</v>
@@ -9196,19 +9391,19 @@
     </row>
     <row r="71" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A71" s="11" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B71" s="10">
         <v>1.8</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E71" s="10" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F71" s="10">
         <v>60</v>
@@ -9217,7 +9412,7 @@
         <v>0.88</v>
       </c>
       <c r="H71" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I71" s="10">
         <v>0.5</v>
@@ -9229,19 +9424,19 @@
     </row>
     <row r="72" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A72" s="11" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B72" s="10">
         <v>1.8</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E72" s="10" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F72" s="10">
         <v>39</v>
@@ -9250,7 +9445,7 @@
         <v>1</v>
       </c>
       <c r="H72" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I72" s="10">
         <v>0.45</v>
@@ -9262,19 +9457,19 @@
     </row>
     <row r="73" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A73" s="11" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B73" s="10">
         <v>1.8</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E73" s="10" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F73" s="10">
         <v>55</v>
@@ -9283,7 +9478,7 @@
         <v>2.8</v>
       </c>
       <c r="H73" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I73" s="10">
         <v>0.45</v>
@@ -9295,19 +9490,19 @@
     </row>
     <row r="74" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A74" s="11" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B74" s="10">
         <v>1.8</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E74" s="10" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F74" s="10">
         <v>55</v>
@@ -9316,7 +9511,7 @@
         <v>2.8</v>
       </c>
       <c r="H74" s="10" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I74" s="10">
         <v>0.45</v>
@@ -9328,19 +9523,19 @@
     </row>
     <row r="75" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A75" s="11" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B75" s="10">
         <v>1.8</v>
       </c>
       <c r="C75" s="10" t="s">
+        <v>484</v>
+      </c>
+      <c r="D75" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="E75" s="10" t="s">
         <v>485</v>
-      </c>
-      <c r="D75" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="E75" s="10" t="s">
-        <v>486</v>
       </c>
       <c r="F75" s="10">
         <v>60</v>
@@ -9349,7 +9544,7 @@
         <v>1.4</v>
       </c>
       <c r="H75" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I75" s="10">
         <v>0.5</v>
@@ -9361,19 +9556,19 @@
     </row>
     <row r="76" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A76" s="11" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B76" s="10">
         <v>1.8</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E76" s="10" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F76" s="10">
         <v>90</v>
@@ -9382,7 +9577,7 @@
         <v>2</v>
       </c>
       <c r="H76" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I76" s="10">
         <v>0.65</v>
@@ -9394,19 +9589,19 @@
     </row>
     <row r="77" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A77" s="11" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B77" s="10">
         <v>1.8</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E77" s="10" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F77" s="10">
         <v>90</v>
@@ -9415,7 +9610,7 @@
         <v>1</v>
       </c>
       <c r="H77" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I77" s="10">
         <v>0.7</v>
@@ -9427,19 +9622,19 @@
     </row>
     <row r="78" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A78" s="11" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B78" s="10">
         <v>1.8</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E78" s="10" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F78" s="10">
         <v>128</v>
@@ -9448,7 +9643,7 @@
         <v>1</v>
       </c>
       <c r="H78" s="10" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I78" s="10">
         <v>0.7</v>
@@ -9460,28 +9655,28 @@
     </row>
     <row r="79" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A79" s="11" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B79" s="10">
         <v>1.8</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E79" s="10" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F79" s="10">
         <v>126</v>
       </c>
       <c r="G79" s="10" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H79" s="10" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I79" s="10">
         <v>0.7</v>
@@ -9493,19 +9688,19 @@
     </row>
     <row r="80" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A80" s="11" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B80" s="10">
         <v>1.8</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E80" s="10" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F80" s="10">
         <v>116</v>
@@ -9514,7 +9709,7 @@
         <v>1.5</v>
       </c>
       <c r="H80" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I80" s="10">
         <v>0.7</v>
@@ -9526,19 +9721,19 @@
     </row>
     <row r="81" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A81" s="11" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B81" s="10">
         <v>1.8</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E81" s="10" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F81" s="10">
         <v>126</v>
@@ -9547,7 +9742,7 @@
         <v>2.8</v>
       </c>
       <c r="H81" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I81" s="10">
         <v>0.7</v>
@@ -9559,19 +9754,19 @@
     </row>
     <row r="82" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A82" s="11" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B82" s="10">
         <v>1.8</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E82" s="10" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F82" s="10">
         <v>135</v>
@@ -9580,7 +9775,7 @@
         <v>1</v>
       </c>
       <c r="H82" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I82" s="10">
         <v>1</v>
@@ -9592,28 +9787,28 @@
     </row>
     <row r="83" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A83" s="11" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B83" s="10">
         <v>1.8</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E83" s="10" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F83" s="10">
         <v>190</v>
       </c>
       <c r="G83" s="10" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H83" s="10" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I83" s="10">
         <v>1</v>
@@ -9625,19 +9820,19 @@
     </row>
     <row r="84" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A84" s="11" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B84" s="10">
         <v>1.8</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E84" s="10" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F84" s="10">
         <v>189</v>
@@ -9646,7 +9841,7 @@
         <v>2.8</v>
       </c>
       <c r="H84" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I84" s="10">
         <v>1</v>
@@ -9658,19 +9853,19 @@
     </row>
     <row r="85" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A85" s="11" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B85" s="10">
         <v>1.8</v>
       </c>
       <c r="C85" s="10" t="s">
+        <v>497</v>
+      </c>
+      <c r="D85" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="E85" s="10" t="s">
         <v>498</v>
-      </c>
-      <c r="D85" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="E85" s="10" t="s">
-        <v>499</v>
       </c>
       <c r="F85" s="10">
         <v>200</v>
@@ -9679,7 +9874,7 @@
         <v>4</v>
       </c>
       <c r="H85" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I85" s="10">
         <v>1.1299999999999999</v>
@@ -9691,19 +9886,19 @@
     </row>
     <row r="86" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A86" s="11" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B86" s="10">
         <v>1.8</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E86" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F86" s="10">
         <v>200</v>
@@ -9712,7 +9907,7 @@
         <v>4</v>
       </c>
       <c r="H86" s="10" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I86" s="10">
         <v>1.1299999999999999</v>
@@ -9724,19 +9919,19 @@
     </row>
     <row r="87" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A87" s="11" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B87" s="10">
         <v>1.8</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E87" s="10" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F87" s="10">
         <v>240</v>
@@ -9745,7 +9940,7 @@
         <v>1.8</v>
       </c>
       <c r="H87" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I87" s="10">
         <v>1.25</v>
@@ -9757,28 +9952,28 @@
     </row>
     <row r="88" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A88" s="11" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B88" s="10">
         <v>1.8</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E88" s="10" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F88" s="10">
         <v>250</v>
       </c>
       <c r="G88" s="10" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H88" s="10" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I88" s="10">
         <v>1.6</v>
@@ -9790,19 +9985,19 @@
     </row>
     <row r="89" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A89" s="11" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B89" s="10">
         <v>1.8</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E89" s="10" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F89" s="10">
         <v>280</v>
@@ -9811,7 +10006,7 @@
         <v>4.2</v>
       </c>
       <c r="H89" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I89" s="10">
         <v>1.6</v>
@@ -9823,19 +10018,19 @@
     </row>
     <row r="90" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A90" s="11" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B90" s="10">
         <v>1.2</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D90" s="10" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E90" s="10" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F90" s="10">
         <v>120</v>
@@ -9844,7 +10039,7 @@
         <v>5.2</v>
       </c>
       <c r="H90" s="10" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I90" s="10">
         <v>1.1000000000000001</v>
@@ -9856,19 +10051,19 @@
     </row>
     <row r="91" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A91" s="11" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B91" s="10">
         <v>1.8</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D91" s="10" t="s">
+        <v>508</v>
+      </c>
+      <c r="E91" s="10" t="s">
         <v>509</v>
-      </c>
-      <c r="E91" s="10" t="s">
-        <v>510</v>
       </c>
       <c r="F91" s="10">
         <v>120</v>
@@ -9877,7 +10072,7 @@
         <v>2</v>
       </c>
       <c r="H91" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I91" s="10">
         <v>0.77</v>
@@ -9889,19 +10084,19 @@
     </row>
     <row r="92" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A92" s="11" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B92" s="10">
         <v>1.8</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E92" s="10" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F92" s="10">
         <v>310</v>
@@ -9910,7 +10105,7 @@
         <v>4.2</v>
       </c>
       <c r="H92" s="10" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I92" s="10">
         <v>1.34</v>
@@ -9922,19 +10117,19 @@
     </row>
     <row r="93" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A93" s="11" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B93" s="10">
         <v>1.8</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D93" s="10" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E93" s="10" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F93" s="10">
         <v>230</v>
@@ -9943,7 +10138,7 @@
         <v>4</v>
       </c>
       <c r="H93" s="10" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I93" s="10">
         <v>1.34</v>
@@ -9955,19 +10150,19 @@
     </row>
     <row r="94" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A94" s="11" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B94" s="10">
         <v>1.8</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D94" s="10" t="s">
+        <v>515</v>
+      </c>
+      <c r="E94" s="10" t="s">
         <v>516</v>
-      </c>
-      <c r="E94" s="10" t="s">
-        <v>517</v>
       </c>
       <c r="F94" s="10">
         <v>220</v>
@@ -9976,7 +10171,7 @@
         <v>2</v>
       </c>
       <c r="H94" s="10" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I94" s="10">
         <v>1.7</v>
@@ -9988,19 +10183,19 @@
     </row>
     <row r="95" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A95" s="11" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B95" s="10">
         <v>1.8</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D95" s="10" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E95" s="10" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="F95" s="10">
         <v>340</v>
@@ -10009,7 +10204,7 @@
         <v>4</v>
       </c>
       <c r="H95" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I95" s="10">
         <v>1.8</v>
@@ -10021,19 +10216,19 @@
     </row>
     <row r="96" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A96" s="11" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B96" s="10">
         <v>1.8</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D96" s="10" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E96" s="10" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F96" s="10">
         <v>450</v>
@@ -10042,7 +10237,7 @@
         <v>5.5</v>
       </c>
       <c r="H96" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I96" s="10">
         <v>2.2999999999999998</v>
@@ -10054,19 +10249,19 @@
     </row>
     <row r="97" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A97" s="11" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B97" s="10">
         <v>1.8</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D97" s="10" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E97" s="10" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F97" s="10">
         <v>500</v>
@@ -10075,7 +10270,7 @@
         <v>3</v>
       </c>
       <c r="H97" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I97" s="10">
         <v>2.8</v>
@@ -10087,19 +10282,19 @@
     </row>
     <row r="98" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A98" s="11" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B98" s="10">
         <v>1.8</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D98" s="10" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E98" s="10" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F98" s="10">
         <v>850</v>
@@ -10108,7 +10303,7 @@
         <v>5</v>
       </c>
       <c r="H98" s="10" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I98" s="10">
         <v>3.6</v>
@@ -10120,19 +10315,19 @@
     </row>
     <row r="99" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A99" s="11" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B99" s="10">
         <v>1.8</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D99" s="10" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E99" s="10" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="F99" s="10">
         <v>1300</v>
@@ -10141,7 +10336,7 @@
         <v>5</v>
       </c>
       <c r="H99" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I99" s="10">
         <v>5</v>
@@ -10153,19 +10348,19 @@
     </row>
     <row r="100" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A100" s="11" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B100" s="10">
         <v>1.2</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E100" s="10" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F100" s="10">
         <v>450</v>
@@ -10174,7 +10369,7 @@
         <v>2</v>
       </c>
       <c r="H100" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I100" s="10">
         <v>2.8</v>
@@ -10186,19 +10381,19 @@
     </row>
     <row r="101" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A101" s="11" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B101" s="10">
         <v>1.8</v>
       </c>
       <c r="C101" s="10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D101" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="E101" s="10" t="s">
         <v>530</v>
-      </c>
-      <c r="E101" s="10" t="s">
-        <v>531</v>
       </c>
       <c r="F101" s="10">
         <v>2200</v>
@@ -10207,7 +10402,7 @@
         <v>6</v>
       </c>
       <c r="H101" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I101" s="10">
         <v>10.9</v>
@@ -10219,19 +10414,19 @@
     </row>
     <row r="102" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A102" s="11" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B102" s="10">
         <v>1.8</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D102" s="10" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E102" s="10" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="F102" s="10">
         <v>2900</v>
@@ -10240,31 +10435,31 @@
         <v>6</v>
       </c>
       <c r="H102" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I102" s="10">
         <v>12</v>
       </c>
       <c r="J102" s="18">
-        <f t="shared" ref="J102:J133" si="3">F102/I102</f>
+        <f t="shared" ref="J102:J103" si="3">F102/I102</f>
         <v>241.66666666666666</v>
       </c>
     </row>
     <row r="103" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A103" s="11" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B103" s="10">
         <v>1.8</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D103" s="10" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E103" s="10" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="F103" s="10">
         <v>30</v>
@@ -10273,7 +10468,7 @@
         <v>8</v>
       </c>
       <c r="H103" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I103" s="10">
         <v>11.7</v>
@@ -10404,40 +10599,40 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
   </sheetData>
@@ -10451,65 +10646,41 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.77734375" customWidth="1"/>
-    <col min="2" max="2" width="77.21875" customWidth="1"/>
-    <col min="3" max="3" width="24.88671875" customWidth="1"/>
+    <col min="2" max="2" width="54.88671875" customWidth="1"/>
+    <col min="3" max="3" width="42.33203125" customWidth="1"/>
     <col min="4" max="4" width="25.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>601</v>
+      </c>
+      <c r="B1" t="s">
+        <v>598</v>
+      </c>
+      <c r="C1" t="s">
         <v>602</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>599</v>
       </c>
-      <c r="C1" t="s">
-        <v>603</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>600</v>
       </c>
-      <c r="E1" t="s">
-        <v>601</v>
-      </c>
       <c r="F1" t="s">
+        <v>606</v>
+      </c>
+      <c r="G1" t="s">
         <v>607</v>
-      </c>
-      <c r="G1" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>613</v>
-      </c>
-      <c r="C2" t="s">
-        <v>604</v>
-      </c>
-      <c r="D2" t="s">
-        <v>555</v>
-      </c>
-      <c r="E2">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="F2" s="22">
-        <v>26.88</v>
-      </c>
-      <c r="G2" s="22">
-        <f>F2*A2</f>
-        <v>26.88</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -10517,124 +10688,402 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>616</v>
-      </c>
-      <c r="C3" t="s">
-        <v>615</v>
+        <v>612</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>603</v>
       </c>
       <c r="D3" t="s">
-        <v>614</v>
+        <v>554</v>
       </c>
       <c r="E3">
-        <v>3.7999999999999999E-2</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="F3" s="22">
-        <v>5.27</v>
+        <v>26.88</v>
       </c>
       <c r="G3" s="22">
         <f>F3*A3</f>
-        <v>5.27</v>
+        <v>26.88</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="C4" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="D4" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>1.1499999999999999</v>
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="F4" s="22">
+        <v>5.27</v>
       </c>
       <c r="G4" s="22">
         <f>F4*A4</f>
-        <v>6.8999999999999995</v>
+        <v>5.27</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="C5" t="s">
-        <v>620</v>
-      </c>
-      <c r="D5" t="s">
-        <v>621</v>
+        <v>617</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>615</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <f>G5/10</f>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G5" s="22">
+        <f>F5*A5</f>
+        <v>6.8999999999999995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>620</v>
+      </c>
+      <c r="C6" t="s">
+        <v>618</v>
+      </c>
+      <c r="D6" t="s">
+        <v>619</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <f>G6/10</f>
         <v>0.251</v>
       </c>
-      <c r="G5">
+      <c r="G6">
         <v>2.5099999999999998</v>
       </c>
     </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>624</v>
+      </c>
+      <c r="C7" t="s">
+        <v>623</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>473</v>
+      </c>
+      <c r="E7">
+        <v>0.7</v>
+      </c>
+      <c r="F7">
+        <v>18</v>
+      </c>
+      <c r="G7" s="22">
+        <f>F7*A7</f>
+        <v>18</v>
+      </c>
+    </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>24</v>
-      </c>
-      <c r="B8" t="s">
-        <v>610</v>
-      </c>
-      <c r="C8" t="s">
-        <v>605</v>
-      </c>
-      <c r="D8" t="s">
-        <v>609</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8" s="22">
-        <v>0.54</v>
-      </c>
-      <c r="G8" s="22">
-        <f>F8*A8</f>
-        <v>12.96</v>
-      </c>
+      <c r="D8" s="25"/>
+      <c r="G8" s="22"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>611</v>
-      </c>
-      <c r="C9" t="s">
-        <v>612</v>
-      </c>
-      <c r="D9" t="s">
-        <v>606</v>
-      </c>
-      <c r="F9" s="23">
-        <v>4.29</v>
+        <v>625</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>626</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>544</v>
+      </c>
+      <c r="E9">
+        <v>1.34</v>
+      </c>
+      <c r="F9">
+        <v>37</v>
       </c>
       <c r="G9" s="22">
         <f>F9*A9</f>
-        <v>4.29</v>
-      </c>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>648</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>651</v>
+      </c>
+      <c r="D10" t="s">
+        <v>649</v>
+      </c>
+      <c r="G10" s="22"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>658</v>
+      </c>
+      <c r="C11" t="s">
+        <v>641</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>657</v>
+      </c>
+      <c r="G11" s="22"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12">
         <v>4</v>
       </c>
+      <c r="B12" t="s">
+        <v>616</v>
+      </c>
+      <c r="C12" t="s">
+        <v>642</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="G12" s="22"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>644</v>
+      </c>
+      <c r="C13" t="s">
+        <v>655</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>643</v>
+      </c>
+      <c r="G13" s="22"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>656</v>
+      </c>
+      <c r="D14" t="s">
+        <v>654</v>
+      </c>
+      <c r="G14" s="22"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D15" s="27"/>
+      <c r="G15" s="22"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C16" s="6" t="s">
+        <v>645</v>
+      </c>
+      <c r="D16" s="27"/>
+      <c r="G16" s="22"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>637</v>
+      </c>
+      <c r="C17" t="s">
+        <v>635</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>627</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>9.9</v>
+      </c>
+      <c r="G17" s="22">
+        <f>F17*A17</f>
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>639</v>
+      </c>
+      <c r="C18" t="s">
+        <v>631</v>
+      </c>
+      <c r="D18" s="27" t="s">
+        <v>632</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="G18" s="22"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>638</v>
+      </c>
+      <c r="C19" t="s">
+        <v>634</v>
+      </c>
+      <c r="D19" s="26" t="s">
+        <v>633</v>
+      </c>
+      <c r="G19" s="22"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>636</v>
+      </c>
+      <c r="C20" t="s">
+        <v>653</v>
+      </c>
+      <c r="D20" s="27" t="s">
+        <v>652</v>
+      </c>
+      <c r="G20" s="22"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>628</v>
+      </c>
+      <c r="C21" t="s">
+        <v>646</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>647</v>
+      </c>
+      <c r="G21" s="22"/>
+    </row>
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>630</v>
+      </c>
+      <c r="C22" t="s">
+        <v>631</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>627</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="G22" s="22"/>
+    </row>
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D23" s="26"/>
+      <c r="G23" s="22"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D24" s="11"/>
+      <c r="G24" s="22"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>609</v>
+      </c>
+      <c r="C25" t="s">
+        <v>604</v>
+      </c>
+      <c r="D25" t="s">
+        <v>608</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25" s="22">
+        <v>0.54</v>
+      </c>
+      <c r="G25" s="22">
+        <f>F25*A25</f>
+        <v>12.96</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26" t="s">
+        <v>610</v>
+      </c>
+      <c r="C26" t="s">
+        <v>611</v>
+      </c>
+      <c r="D26" t="s">
+        <v>605</v>
+      </c>
+      <c r="F26" s="23">
+        <v>4.29</v>
+      </c>
+      <c r="G26" s="22">
+        <f>F26*A26</f>
+        <v>4.29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D7" r:id="rId1"/>
+    <hyperlink ref="D9" r:id="rId2"/>
+    <hyperlink ref="D18" r:id="rId3"/>
+    <hyperlink ref="D19" r:id="rId4"/>
+    <hyperlink ref="D12" r:id="rId5"/>
+    <hyperlink ref="D5" r:id="rId6"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId7"/>
 </worksheet>
 </file>
--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Bezugsquellen" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1538" uniqueCount="661">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1560" uniqueCount="681">
   <si>
     <t>Bauteilnummer</t>
   </si>
@@ -2003,6 +2003,66 @@
   </si>
   <si>
     <t>https://www.conrad.de/de/vierkantmuttern-m3-din-562-stahl-100-st-toolcraft-109026-109026.html</t>
+  </si>
+  <si>
+    <t>Abstanzbolzen Sechskant M3 5mm</t>
+  </si>
+  <si>
+    <t>http://www.bastel-dehs.de/products/de/Mechanik-Kleinteile/Abstandsbolzen/M3-Stahl-Sechskant/Abstandsbolzen-M3-L-5mm-Stahl-verzinkt.html</t>
+  </si>
+  <si>
+    <t>Innensechskant M3 22 mm</t>
+  </si>
+  <si>
+    <t>http://www.amazon.de/Zylinderkopfschrauben-Edelstahl-Zylinderschrauben-Inbusschrauben-Innensechskant/dp/B018XL6EMK/ref=sr_1_1?ie=UTF8&amp;qid=1457742634&amp;sr=8-1&amp;keywords=Innensechskant+M3+22</t>
+  </si>
+  <si>
+    <t>Grippermount</t>
+  </si>
+  <si>
+    <t>Verschraubung Deckel</t>
+  </si>
+  <si>
+    <t>Distanzbolzen M3 5mm</t>
+  </si>
+  <si>
+    <t>Gegenverschraubung Deckel</t>
+  </si>
+  <si>
+    <t>Rillenkugellager DIN 625 SKF - 61807 35x47x7mm</t>
+  </si>
+  <si>
+    <t>WristRot</t>
+  </si>
+  <si>
+    <t>Lager  zum Grippermount</t>
+  </si>
+  <si>
+    <t>https://www.conrad.de/de/senkschrauben-m3-16-mm-innensechskant-din-7991-iso-10642-edelstahl-100-st-toolcraft-401632-401632.html?sc.queryFromSuggest=true</t>
+  </si>
+  <si>
+    <t>Senkschraube Innensechskant M3 16mm</t>
+  </si>
+  <si>
+    <t>Befestigung Lagerdeckel</t>
+  </si>
+  <si>
+    <t>https://www.conrad.de/de/zylinderschrauben-m3-20-mm-innensechskant-din-7984-edelstahl-a2-100-st-1068354.html</t>
+  </si>
+  <si>
+    <t>Zylinderkopfschraube Innensechskant M3 20mm</t>
+  </si>
+  <si>
+    <t>Befestigung Servo</t>
+  </si>
+  <si>
+    <t>Muttern M3</t>
+  </si>
+  <si>
+    <t>https://www.conrad.de/de/sechskantmuttern-m3-stahl-verzinkt-100-st-toolcraft-815624-815624.html</t>
+  </si>
+  <si>
+    <t>Gegenstück zur Befestigung Lagdereckel</t>
   </si>
 </sst>
 </file>
@@ -2661,10 +2721,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E36"/>
+  <dimension ref="A2:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2834,6 +2894,14 @@
       </c>
       <c r="E36" t="s">
         <v>660</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>661</v>
+      </c>
+      <c r="E38" t="s">
+        <v>662</v>
       </c>
     </row>
   </sheetData>
@@ -4523,8 +4591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H111"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57:A58"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A68" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10646,442 +10714,537 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.77734375" customWidth="1"/>
-    <col min="2" max="2" width="54.88671875" customWidth="1"/>
-    <col min="3" max="3" width="42.33203125" customWidth="1"/>
-    <col min="4" max="4" width="25.21875" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" customWidth="1"/>
+    <col min="3" max="3" width="54.88671875" customWidth="1"/>
+    <col min="4" max="4" width="42.33203125" customWidth="1"/>
+    <col min="5" max="5" width="25.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
         <v>601</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>598</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>602</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>599</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>600</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>606</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>663</v>
+      </c>
+      <c r="D3" t="s">
+        <v>666</v>
+      </c>
+      <c r="E3" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>667</v>
+      </c>
+      <c r="D4" t="s">
+        <v>668</v>
+      </c>
+      <c r="E4" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B6">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C6" t="s">
+        <v>669</v>
+      </c>
+      <c r="D6" t="s">
+        <v>671</v>
+      </c>
+      <c r="E6" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>673</v>
+      </c>
+      <c r="D7" t="s">
+        <v>674</v>
+      </c>
+      <c r="E7" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>676</v>
+      </c>
+      <c r="D8" t="s">
+        <v>677</v>
+      </c>
+      <c r="E8" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>678</v>
+      </c>
+      <c r="D9" t="s">
+        <v>680</v>
+      </c>
+      <c r="E9" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
         <v>612</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="D11" s="6" t="s">
         <v>603</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E11" t="s">
         <v>554</v>
       </c>
-      <c r="E3">
+      <c r="F11">
         <v>0.28999999999999998</v>
       </c>
-      <c r="F3" s="22">
+      <c r="G11" s="22">
         <v>26.88</v>
       </c>
-      <c r="G3" s="22">
-        <f>F3*A3</f>
+      <c r="H11" s="22">
+        <f>G11*B11</f>
         <v>26.88</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B12">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C12" t="s">
         <v>614</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D12" t="s">
         <v>622</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E12" t="s">
         <v>613</v>
       </c>
-      <c r="E4">
+      <c r="F12">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="F4" s="22">
+      <c r="G12" s="22">
         <v>5.27</v>
       </c>
-      <c r="G4" s="22">
-        <f>F4*A4</f>
+      <c r="H12" s="22">
+        <f>G12*B12</f>
         <v>5.27</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B13">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C13" t="s">
         <v>616</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D13" t="s">
         <v>617</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="E13" s="9" t="s">
         <v>615</v>
       </c>
-      <c r="E5">
+      <c r="F13">
         <v>0</v>
       </c>
-      <c r="F5">
+      <c r="G13">
         <v>1.1499999999999999</v>
       </c>
-      <c r="G5" s="22">
-        <f>F5*A5</f>
+      <c r="H13" s="22">
+        <f>G13*B13</f>
         <v>6.8999999999999995</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B14">
         <v>1</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C14" t="s">
         <v>620</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D14" t="s">
         <v>618</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E14" t="s">
         <v>619</v>
       </c>
-      <c r="E6">
+      <c r="F14">
         <v>0</v>
       </c>
-      <c r="F6">
-        <f>G6/10</f>
+      <c r="G14">
+        <f>H14/10</f>
         <v>0.251</v>
       </c>
-      <c r="G6">
+      <c r="H14">
         <v>2.5099999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B15">
         <v>1</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C15" t="s">
         <v>624</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D15" t="s">
         <v>623</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="E15" s="25" t="s">
         <v>473</v>
       </c>
-      <c r="E7">
+      <c r="F15">
         <v>0.7</v>
       </c>
-      <c r="F7">
+      <c r="G15">
         <v>18</v>
       </c>
-      <c r="G7" s="22">
-        <f>F7*A7</f>
+      <c r="H15" s="22">
+        <f>G15*B15</f>
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D8" s="25"/>
-      <c r="G8" s="22"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E16" s="25"/>
+      <c r="H16" s="22"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B17">
         <v>1</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C17" t="s">
         <v>625</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="D17" s="6" t="s">
         <v>626</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="E17" s="25" t="s">
         <v>544</v>
       </c>
-      <c r="E9">
+      <c r="F17">
         <v>1.34</v>
       </c>
-      <c r="F9">
+      <c r="G17">
         <v>37</v>
       </c>
-      <c r="G9" s="22">
-        <f>F9*A9</f>
+      <c r="H17" s="22">
+        <f>G17*B17</f>
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B18">
         <v>2</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C18" t="s">
         <v>648</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="D18" s="8" t="s">
         <v>651</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E18" t="s">
         <v>649</v>
       </c>
-      <c r="G10" s="22"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="H18" s="22"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B19">
         <v>1</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C19" t="s">
         <v>658</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D19" t="s">
         <v>641</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="E19" s="27" t="s">
         <v>657</v>
       </c>
-      <c r="G11" s="22"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="H19" s="22"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B20">
         <v>4</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C20" t="s">
         <v>616</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D20" t="s">
         <v>642</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="E20" s="9" t="s">
         <v>615</v>
       </c>
-      <c r="G12" s="22"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13">
+      <c r="H20" s="22"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B21">
         <v>8</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C21" t="s">
         <v>644</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D21" t="s">
         <v>655</v>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="E21" s="27" t="s">
         <v>643</v>
       </c>
-      <c r="G13" s="22"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C14" t="s">
+      <c r="H21" s="22"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="D22" t="s">
         <v>656</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E22" t="s">
         <v>654</v>
       </c>
-      <c r="G14" s="22"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D15" s="27"/>
-      <c r="G15" s="22"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C16" s="6" t="s">
+      <c r="H22" s="22"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="E23" s="27"/>
+      <c r="H23" s="22"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="D24" s="6" t="s">
         <v>645</v>
       </c>
-      <c r="D16" s="27"/>
-      <c r="G16" s="22"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17">
+      <c r="E24" s="27"/>
+      <c r="H24" s="22"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B25">
         <v>1</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C25" t="s">
         <v>637</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D25" t="s">
         <v>635</v>
       </c>
-      <c r="D17" s="26" t="s">
+      <c r="E25" s="26" t="s">
         <v>627</v>
       </c>
-      <c r="E17">
+      <c r="F25">
         <v>0</v>
       </c>
-      <c r="F17">
+      <c r="G25">
         <v>9.9</v>
       </c>
-      <c r="G17" s="22">
-        <f>F17*A17</f>
+      <c r="H25" s="22">
+        <f>G25*B25</f>
         <v>9.9</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18">
+    <row r="26" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26">
         <v>1</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C26" t="s">
         <v>639</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D26" t="s">
         <v>631</v>
       </c>
-      <c r="D18" s="27" t="s">
+      <c r="E26" s="27" t="s">
         <v>632</v>
       </c>
-      <c r="E18">
+      <c r="F26">
         <v>0</v>
       </c>
-      <c r="G18" s="22"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19">
+      <c r="H26" s="22"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B27">
         <v>1</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C27" t="s">
         <v>638</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D27" t="s">
         <v>634</v>
       </c>
-      <c r="D19" s="26" t="s">
+      <c r="E27" s="26" t="s">
         <v>633</v>
       </c>
-      <c r="G19" s="22"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20">
+      <c r="H27" s="22"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B28">
         <v>1</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C28" t="s">
         <v>636</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D28" t="s">
         <v>653</v>
       </c>
-      <c r="D20" s="27" t="s">
+      <c r="E28" s="27" t="s">
         <v>652</v>
       </c>
-      <c r="G20" s="22"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21">
+      <c r="H28" s="22"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B29">
         <v>1</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C29" t="s">
         <v>628</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D29" t="s">
         <v>646</v>
       </c>
-      <c r="D21" s="26" t="s">
+      <c r="E29" s="26" t="s">
         <v>647</v>
       </c>
-      <c r="G21" s="22"/>
-    </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22">
+      <c r="H29" s="22"/>
+    </row>
+    <row r="30" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30">
         <v>1</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C30" t="s">
         <v>630</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D30" t="s">
         <v>631</v>
       </c>
-      <c r="D22" s="26" t="s">
+      <c r="E30" s="26" t="s">
         <v>627</v>
       </c>
-      <c r="E22">
+      <c r="F30">
         <v>0</v>
       </c>
-      <c r="G22" s="22"/>
-    </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D23" s="26"/>
-      <c r="G23" s="22"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D24" s="11"/>
-      <c r="G24" s="22"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25">
+      <c r="H30" s="22"/>
+    </row>
+    <row r="31" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E31" s="26"/>
+      <c r="H31" s="22"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="E32" s="11"/>
+      <c r="H32" s="22"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B33">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C33" t="s">
         <v>609</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D33" t="s">
         <v>604</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E33" t="s">
         <v>608</v>
       </c>
-      <c r="E25">
+      <c r="F33">
         <v>0</v>
       </c>
-      <c r="F25" s="22">
+      <c r="G33" s="22">
         <v>0.54</v>
       </c>
-      <c r="G25" s="22">
-        <f>F25*A25</f>
+      <c r="H33" s="22">
+        <f>G33*B33</f>
         <v>12.96</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B34">
         <v>1</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C34" t="s">
         <v>610</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D34" t="s">
         <v>611</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E34" t="s">
         <v>605</v>
       </c>
-      <c r="F26" s="23">
+      <c r="G34" s="23">
         <v>4.29</v>
       </c>
-      <c r="G26" s="22">
-        <f>F26*A26</f>
+      <c r="H34" s="22">
+        <f>G34*B34</f>
         <v>4.29</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B36">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D7" r:id="rId1"/>
-    <hyperlink ref="D9" r:id="rId2"/>
-    <hyperlink ref="D18" r:id="rId3"/>
-    <hyperlink ref="D19" r:id="rId4"/>
-    <hyperlink ref="D12" r:id="rId5"/>
-    <hyperlink ref="D5" r:id="rId6"/>
+    <hyperlink ref="E15" r:id="rId1"/>
+    <hyperlink ref="E17" r:id="rId2"/>
+    <hyperlink ref="E26" r:id="rId3"/>
+    <hyperlink ref="E27" r:id="rId4"/>
+    <hyperlink ref="E20" r:id="rId5"/>
+    <hyperlink ref="E13" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId7"/>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Bezugsquellen" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1560" uniqueCount="681">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1584" uniqueCount="690">
   <si>
     <t>Bauteilnummer</t>
   </si>
@@ -2063,6 +2063,33 @@
   </si>
   <si>
     <t>Gegenstück zur Befestigung Lagdereckel</t>
+  </si>
+  <si>
+    <t>Rillenkugellager DIN 625 SKF - 61902 15x28x7mm</t>
+  </si>
+  <si>
+    <t>Lager für Wrist</t>
+  </si>
+  <si>
+    <t>http://www.kugellager-express.de/rillenkugellager-6902-61902-15x28x7-mm.html</t>
+  </si>
+  <si>
+    <t>Drehkranz 140mm/200mm</t>
+  </si>
+  <si>
+    <t>http://www.ebay.de/itm/Drehkranz-203mm-80kg-Aluminium-Drehlager-Drehteller-Drehscheibe-Lenkkranz-Alu-/252317164215</t>
+  </si>
+  <si>
+    <t>Gewindestift M3 16mm</t>
+  </si>
+  <si>
+    <t>https://www.conrad.de/de/gewindestifte-din-916-16-mm-edelstahl-a1a2-m3-50-st-1062929.html</t>
+  </si>
+  <si>
+    <t>https://www.conrad.de/de/gewindestifte-din-913-20-mm-edelstahl-a1a2-m3-50-st-1062482.html</t>
+  </si>
+  <si>
+    <t>Gewindestift M3 20mm</t>
   </si>
 </sst>
 </file>
@@ -2132,7 +2159,7 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2186,6 +2213,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2721,10 +2751,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E38"/>
+  <dimension ref="A2:E41"/>
   <sheetViews>
     <sheetView topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2904,6 +2934,30 @@
         <v>662</v>
       </c>
     </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>684</v>
+      </c>
+      <c r="E39" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>686</v>
+      </c>
+      <c r="E40" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>689</v>
+      </c>
+      <c r="E41" t="s">
+        <v>688</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2911,10 +2965,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:AD107"/>
+  <dimension ref="A3:AD108"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I75" sqref="I75"/>
+    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E77" sqref="E77:O77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2990,8 +3044,8 @@
         <v>320</v>
       </c>
       <c r="C8">
-        <f>N77+N78 +0.4</f>
-        <v>0.61</v>
+        <f>N78+N77 +0.4</f>
+        <v>0.88</v>
       </c>
       <c r="D8" t="s">
         <v>315</v>
@@ -3002,8 +3056,8 @@
         <v>321</v>
       </c>
       <c r="C9">
-        <f>N78+0.1</f>
-        <v>0.22</v>
+        <f>N77+0.1</f>
+        <v>0.41000000000000003</v>
       </c>
       <c r="D9" t="s">
         <v>315</v>
@@ -3310,11 +3364,11 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="C36" s="5">
         <f>C40/C38*(C44/C42)</f>
-        <v>17.361111111111114</v>
+        <v>10.453333333333333</v>
       </c>
       <c r="D36" t="s">
         <v>325</v>
@@ -3336,7 +3390,7 @@
         <v>341</v>
       </c>
       <c r="C38" s="6">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D38" t="s">
         <v>338</v>
@@ -3348,7 +3402,7 @@
       </c>
       <c r="C39" s="4">
         <f>C38*C37/PI()</f>
-        <v>9.5492965855137211</v>
+        <v>11.93662073189215</v>
       </c>
       <c r="D39" t="s">
         <v>340</v>
@@ -3359,7 +3413,7 @@
         <v>342</v>
       </c>
       <c r="C40" s="7">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D40" t="s">
         <v>338</v>
@@ -3370,7 +3424,8 @@
         <v>343</v>
       </c>
       <c r="C41" s="4">
-        <v>36</v>
+        <f>C40*C37/PI()</f>
+        <v>33.422538049298019</v>
       </c>
       <c r="D41" t="s">
         <v>340</v>
@@ -3381,7 +3436,7 @@
         <v>344</v>
       </c>
       <c r="C42" s="6">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D42" t="s">
         <v>338</v>
@@ -3393,7 +3448,7 @@
       </c>
       <c r="C43" s="4">
         <f>C42*C37/PI()</f>
-        <v>9.5492965855137211</v>
+        <v>11.93662073189215</v>
       </c>
       <c r="D43" t="s">
         <v>340</v>
@@ -3404,7 +3459,7 @@
         <v>345</v>
       </c>
       <c r="C44" s="7">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D44" t="s">
         <v>338</v>
@@ -3416,7 +3471,7 @@
       </c>
       <c r="C45" s="4">
         <f>C44*C37/PI()</f>
-        <v>39.788735772973837</v>
+        <v>44.563384065730695</v>
       </c>
       <c r="D45" t="s">
         <v>340</v>
@@ -3424,11 +3479,11 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="C46" s="5">
         <f>C50/C48*(C54/C52)</f>
-        <v>11.111111111111112</v>
+        <v>10.453333333333333</v>
       </c>
       <c r="D46" t="s">
         <v>325</v>
@@ -3473,7 +3528,7 @@
         <v>342</v>
       </c>
       <c r="C50" s="7">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D50" t="s">
         <v>338</v>
@@ -3481,10 +3536,11 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="C51" s="4">
-        <v>36</v>
+        <f>C50*C47/PI()</f>
+        <v>33.422538049298019</v>
       </c>
       <c r="D51" t="s">
         <v>340</v>
@@ -3518,7 +3574,7 @@
         <v>345</v>
       </c>
       <c r="C54" s="7">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D54" t="s">
         <v>338</v>
@@ -3530,7 +3586,7 @@
       </c>
       <c r="C55" s="4">
         <f>C54*C47/PI()</f>
-        <v>39.788735772973837</v>
+        <v>44.563384065730695</v>
       </c>
       <c r="D55" t="s">
         <v>340</v>
@@ -3585,7 +3641,7 @@
       </c>
       <c r="C62" s="4">
         <f>((C3+C4+C5)*(C7+C8+C9)*(C59))/1000</f>
-        <v>8.9614350000000016</v>
+        <v>10.992105000000002</v>
       </c>
       <c r="D62" t="s">
         <v>322</v>
@@ -3597,7 +3653,7 @@
       </c>
       <c r="C63" s="4">
         <f>((C3+C4+C5)*(C7+C8+C9)*(C58+C59))/1000</f>
-        <v>26.884305000000005</v>
+        <v>32.976315</v>
       </c>
       <c r="D63" t="s">
         <v>322</v>
@@ -3609,7 +3665,7 @@
       </c>
       <c r="C64" s="2">
         <f>((C4+C5)*(C8+C9)*(C58+C59))/1000</f>
-        <v>6.106725</v>
+        <v>9.4911750000000001</v>
       </c>
       <c r="D64" t="s">
         <v>322</v>
@@ -3621,7 +3677,7 @@
       </c>
       <c r="C65" s="2">
         <f>((C5)*(C9+C6)*(C58+C59))/1000</f>
-        <v>1.05948</v>
+        <v>1.3390649999999999</v>
       </c>
       <c r="D65" t="s">
         <v>322</v>
@@ -3633,7 +3689,7 @@
       </c>
       <c r="C66" s="2">
         <f>((C5)*(C9+C6)*(C59))/1000</f>
-        <v>0.35316000000000003</v>
+        <v>0.446355</v>
       </c>
       <c r="D66" t="s">
         <v>322</v>
@@ -3645,7 +3701,7 @@
       </c>
       <c r="C67" s="2">
         <f>C62/C10</f>
-        <v>1.4935725000000002</v>
+        <v>1.8320175000000003</v>
       </c>
       <c r="D67" t="s">
         <v>322</v>
@@ -3657,7 +3713,7 @@
       </c>
       <c r="C68" s="2">
         <f>C63/C16</f>
-        <v>1.5752522460937504</v>
+        <v>1.93220595703125</v>
       </c>
       <c r="D68" t="s">
         <v>322</v>
@@ -3669,7 +3725,7 @@
       </c>
       <c r="C69" s="2">
         <f>C64/C26</f>
-        <v>0.85875820312500006</v>
+        <v>1.334696484375</v>
       </c>
       <c r="D69" t="s">
         <v>322</v>
@@ -3680,8 +3736,8 @@
         <v>574</v>
       </c>
       <c r="C70" s="2">
-        <f>C65/C46</f>
-        <v>9.5353199999999985E-2</v>
+        <f>C65/C36</f>
+        <v>0.12809933035714285</v>
       </c>
       <c r="D70" t="s">
         <v>322</v>
@@ -3692,8 +3748,8 @@
         <v>578</v>
       </c>
       <c r="C71" s="2">
-        <f>C66/C46</f>
-        <v>3.1784399999999997E-2</v>
+        <f>C66/C36</f>
+        <v>4.2699776785714287E-2</v>
       </c>
       <c r="D71" t="s">
         <v>322</v>
@@ -3770,7 +3826,7 @@
       </c>
       <c r="C74" s="2">
         <f>C67*(1+C57)</f>
-        <v>1.9416442500000004</v>
+        <v>2.3816227500000005</v>
       </c>
       <c r="D74" t="s">
         <v>322</v>
@@ -3816,7 +3872,7 @@
       </c>
       <c r="C75" s="2">
         <f>C68*(1+C57)</f>
-        <v>2.0478279199218754</v>
+        <v>2.5118677441406252</v>
       </c>
       <c r="D75" t="s">
         <v>322</v>
@@ -3852,7 +3908,7 @@
         <v>1.34</v>
       </c>
       <c r="O75" s="17">
-        <f t="shared" ref="O75:O76" si="0">K75/N75</f>
+        <f t="shared" ref="O75:O77" si="0">K75/N75</f>
         <v>231.34328358208953</v>
       </c>
     </row>
@@ -3862,7 +3918,7 @@
       </c>
       <c r="C76" s="2">
         <f>C69*(1+C57)</f>
-        <v>1.1163856640625001</v>
+        <v>1.7351054296875001</v>
       </c>
       <c r="D76" t="s">
         <v>322</v>
@@ -3914,125 +3970,125 @@
     </row>
     <row r="77" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>355</v>
+        <v>572</v>
       </c>
       <c r="C77" s="2">
-        <f>C71*(1+C57)</f>
-        <v>4.1319719999999997E-2</v>
+        <f>C70*(1+C57)</f>
+        <v>0.16652912946428572</v>
       </c>
       <c r="D77" t="s">
         <v>322</v>
       </c>
       <c r="E77" s="11" t="s">
-        <v>396</v>
-      </c>
-      <c r="F77" s="16">
-        <v>0.9</v>
-      </c>
-      <c r="G77" s="16" t="s">
+        <v>459</v>
+      </c>
+      <c r="F77" s="28">
+        <v>1.8</v>
+      </c>
+      <c r="G77" s="28" t="s">
         <v>374</v>
       </c>
-      <c r="H77" s="16" t="s">
-        <v>394</v>
-      </c>
-      <c r="I77" s="16" t="s">
-        <v>397</v>
-      </c>
-      <c r="J77" s="16">
+      <c r="H77" s="28" t="s">
+        <v>423</v>
+      </c>
+      <c r="I77" s="28" t="s">
+        <v>433</v>
+      </c>
+      <c r="J77" s="28">
         <v>5</v>
       </c>
-      <c r="K77" s="16">
-        <v>5</v>
-      </c>
-      <c r="L77" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="M77" s="16" t="s">
+      <c r="K77" s="15">
+        <v>45</v>
+      </c>
+      <c r="L77" s="28">
+        <v>2</v>
+      </c>
+      <c r="M77" s="28" t="s">
         <v>377</v>
       </c>
-      <c r="N77" s="16">
-        <v>0.09</v>
+      <c r="N77" s="28">
+        <v>0.31</v>
       </c>
       <c r="O77" s="17">
-        <f>K77/N77</f>
-        <v>55.555555555555557</v>
+        <f t="shared" si="0"/>
+        <v>145.16129032258064</v>
       </c>
       <c r="P77" s="11"/>
-      <c r="Q77" s="10"/>
-      <c r="R77" s="10"/>
-      <c r="S77" s="10"/>
-      <c r="T77" s="10"/>
-      <c r="U77" s="10"/>
-      <c r="V77" s="10"/>
-      <c r="W77" s="10"/>
-      <c r="X77" s="10"/>
-      <c r="Y77" s="10"/>
-      <c r="Z77" s="10"/>
-      <c r="AA77" s="10"/>
-      <c r="AB77" s="10"/>
-      <c r="AC77" s="10"/>
-      <c r="AD77" s="10"/>
+      <c r="Q77" s="14"/>
+      <c r="R77" s="14"/>
+      <c r="S77" s="14"/>
+      <c r="T77" s="14"/>
+      <c r="U77" s="14"/>
+      <c r="V77" s="14"/>
+      <c r="W77" s="14"/>
+      <c r="X77" s="14"/>
+      <c r="Y77" s="14"/>
+      <c r="Z77" s="14"/>
+      <c r="AA77" s="14"/>
+      <c r="AB77" s="14"/>
+      <c r="AC77" s="14"/>
+      <c r="AD77" s="14"/>
     </row>
     <row r="78" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>572</v>
+        <v>355</v>
       </c>
       <c r="C78" s="2">
-        <f>C70*(1+C57)</f>
-        <v>0.12395915999999998</v>
+        <f>C71*(1+C57)</f>
+        <v>5.5509709821428575E-2</v>
       </c>
       <c r="D78" t="s">
         <v>322</v>
       </c>
       <c r="E78" s="11" t="s">
-        <v>410</v>
-      </c>
-      <c r="F78" s="16">
-        <v>0.9</v>
-      </c>
-      <c r="G78" s="16" t="s">
+        <v>405</v>
+      </c>
+      <c r="F78" s="28">
+        <v>1.8</v>
+      </c>
+      <c r="G78" s="28" t="s">
         <v>374</v>
       </c>
-      <c r="H78" s="16" t="s">
-        <v>411</v>
-      </c>
-      <c r="I78" s="16" t="s">
-        <v>412</v>
-      </c>
-      <c r="J78" s="16">
+      <c r="H78" s="28" t="s">
+        <v>394</v>
+      </c>
+      <c r="I78" s="28" t="s">
+        <v>404</v>
+      </c>
+      <c r="J78" s="28">
         <v>5</v>
       </c>
-      <c r="K78" s="16">
-        <v>16</v>
-      </c>
-      <c r="L78" s="16">
-        <v>0.6</v>
-      </c>
-      <c r="M78" s="16" t="s">
+      <c r="K78" s="28">
+        <v>18</v>
+      </c>
+      <c r="L78" s="28">
+        <v>0.8</v>
+      </c>
+      <c r="M78" s="28" t="s">
         <v>377</v>
       </c>
-      <c r="N78" s="16">
-        <v>0.12</v>
+      <c r="N78" s="28">
+        <v>0.17</v>
       </c>
       <c r="O78" s="17">
         <f>K78/N78</f>
-        <v>133.33333333333334</v>
+        <v>105.88235294117646</v>
       </c>
       <c r="P78" s="11"/>
-      <c r="Q78" s="14"/>
-      <c r="R78" s="14"/>
-      <c r="S78" s="14"/>
-      <c r="T78" s="14"/>
-      <c r="U78" s="14"/>
-      <c r="V78" s="14"/>
-      <c r="W78" s="14"/>
-      <c r="X78" s="14"/>
-      <c r="Y78" s="14"/>
-      <c r="Z78" s="14"/>
-      <c r="AA78" s="14"/>
-      <c r="AB78" s="14"/>
-      <c r="AC78" s="14"/>
-      <c r="AD78" s="14"/>
+      <c r="Q78" s="10"/>
+      <c r="R78" s="10"/>
+      <c r="S78" s="10"/>
+      <c r="T78" s="10"/>
+      <c r="U78" s="10"/>
+      <c r="V78" s="10"/>
+      <c r="W78" s="10"/>
+      <c r="X78" s="10"/>
+      <c r="Y78" s="10"/>
+      <c r="Z78" s="10"/>
+      <c r="AA78" s="10"/>
+      <c r="AB78" s="10"/>
+      <c r="AC78" s="10"/>
+      <c r="AD78" s="10"/>
     </row>
     <row r="79" spans="1:30" x14ac:dyDescent="0.3">
       <c r="E79" s="11"/>
@@ -4336,232 +4392,350 @@
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.3">
       <c r="E87" s="11" t="s">
-        <v>410</v>
-      </c>
-      <c r="F87" s="16">
-        <v>0.9</v>
-      </c>
-      <c r="G87" s="16" t="s">
+        <v>406</v>
+      </c>
+      <c r="F87" s="28">
+        <v>1.8</v>
+      </c>
+      <c r="G87" s="28" t="s">
         <v>374</v>
       </c>
-      <c r="H87" s="16" t="s">
-        <v>411</v>
-      </c>
-      <c r="I87" s="16" t="s">
-        <v>412</v>
-      </c>
-      <c r="J87" s="16">
+      <c r="H87" s="28" t="s">
+        <v>394</v>
+      </c>
+      <c r="I87" s="28" t="s">
+        <v>407</v>
+      </c>
+      <c r="J87" s="28">
         <v>5</v>
       </c>
-      <c r="K87" s="16">
-        <v>16</v>
-      </c>
-      <c r="L87" s="16">
-        <v>0.6</v>
-      </c>
-      <c r="M87" s="16" t="s">
+      <c r="K87" s="28">
+        <v>23</v>
+      </c>
+      <c r="L87" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="M87" s="28" t="s">
         <v>377</v>
       </c>
-      <c r="N87" s="16">
-        <v>0.12</v>
+      <c r="N87" s="28">
+        <v>0.22</v>
       </c>
       <c r="O87" s="17">
         <f>K87/N87</f>
-        <v>133.33333333333334</v>
+        <v>104.54545454545455</v>
       </c>
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.3">
       <c r="E88" s="11" t="s">
-        <v>396</v>
-      </c>
-      <c r="F88" s="16">
-        <v>0.9</v>
-      </c>
-      <c r="G88" s="16" t="s">
+        <v>405</v>
+      </c>
+      <c r="F88" s="28">
+        <v>1.8</v>
+      </c>
+      <c r="G88" s="28" t="s">
         <v>374</v>
       </c>
-      <c r="H88" s="16" t="s">
+      <c r="H88" s="28" t="s">
         <v>394</v>
       </c>
-      <c r="I88" s="16" t="s">
-        <v>397</v>
-      </c>
-      <c r="J88" s="16">
+      <c r="I88" s="28" t="s">
+        <v>404</v>
+      </c>
+      <c r="J88" s="28">
         <v>5</v>
       </c>
-      <c r="K88" s="16">
-        <v>5</v>
-      </c>
-      <c r="L88" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="M88" s="16" t="s">
+      <c r="K88" s="28">
+        <v>18</v>
+      </c>
+      <c r="L88" s="28">
+        <v>0.8</v>
+      </c>
+      <c r="M88" s="28" t="s">
         <v>377</v>
       </c>
-      <c r="N88" s="16">
-        <v>0.09</v>
+      <c r="N88" s="28">
+        <v>0.17</v>
       </c>
       <c r="O88" s="17">
         <f>K88/N88</f>
+        <v>105.88235294117646</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="E89" s="11" t="s">
+        <v>410</v>
+      </c>
+      <c r="F89" s="16">
+        <v>0.9</v>
+      </c>
+      <c r="G89" s="16" t="s">
+        <v>374</v>
+      </c>
+      <c r="H89" s="16" t="s">
+        <v>411</v>
+      </c>
+      <c r="I89" s="16" t="s">
+        <v>412</v>
+      </c>
+      <c r="J89" s="16">
+        <v>5</v>
+      </c>
+      <c r="K89" s="16">
+        <v>16</v>
+      </c>
+      <c r="L89" s="16">
+        <v>0.6</v>
+      </c>
+      <c r="M89" s="16" t="s">
+        <v>377</v>
+      </c>
+      <c r="N89" s="16">
+        <v>0.12</v>
+      </c>
+      <c r="O89" s="17">
+        <f>K89/N89</f>
+        <v>133.33333333333334</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="E90" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="F90" s="28">
+        <v>1.8</v>
+      </c>
+      <c r="G90" s="28" t="s">
+        <v>374</v>
+      </c>
+      <c r="H90" s="28" t="s">
+        <v>394</v>
+      </c>
+      <c r="I90" s="28" t="s">
+        <v>401</v>
+      </c>
+      <c r="J90" s="28">
+        <v>5</v>
+      </c>
+      <c r="K90" s="28">
+        <v>14</v>
+      </c>
+      <c r="L90" s="28">
+        <v>0.4</v>
+      </c>
+      <c r="M90" s="28" t="s">
+        <v>377</v>
+      </c>
+      <c r="N90" s="28">
+        <v>0.12</v>
+      </c>
+      <c r="O90" s="18">
+        <f t="shared" ref="O90" si="2">K90/N90</f>
+        <v>116.66666666666667</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="E91" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="F91" s="16">
+        <v>0.9</v>
+      </c>
+      <c r="G91" s="16" t="s">
+        <v>374</v>
+      </c>
+      <c r="H91" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="I91" s="16" t="s">
+        <v>397</v>
+      </c>
+      <c r="J91" s="16">
+        <v>5</v>
+      </c>
+      <c r="K91" s="16">
+        <v>5</v>
+      </c>
+      <c r="L91" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="M91" s="16" t="s">
+        <v>377</v>
+      </c>
+      <c r="N91" s="16">
+        <v>0.09</v>
+      </c>
+      <c r="O91" s="17">
+        <f>K91/N91</f>
         <v>55.555555555555557</v>
-      </c>
-    </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>581</v>
       </c>
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
+        <v>581</v>
+      </c>
+      <c r="E92" s="11"/>
+      <c r="F92" s="28"/>
+      <c r="G92" s="28"/>
+      <c r="H92" s="28"/>
+      <c r="I92" s="28"/>
+      <c r="J92" s="28"/>
+      <c r="K92" s="28"/>
+      <c r="L92" s="28"/>
+      <c r="M92" s="28"/>
+      <c r="N92" s="18"/>
+    </row>
+    <row r="93" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
         <v>584</v>
       </c>
-      <c r="C92" s="19">
+      <c r="C93" s="19">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D93" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
         <v>589</v>
       </c>
-      <c r="C93" s="19">
+      <c r="C94" s="19">
         <f>(C15/1000/2)</f>
         <v>7.1619724391352904E-2</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D94" t="s">
         <v>590</v>
-      </c>
-    </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>585</v>
-      </c>
-      <c r="C94" s="19">
-        <f>C62/C93</f>
-        <v>125.12523716276645</v>
-      </c>
-      <c r="D94" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
+        <v>585</v>
+      </c>
+      <c r="C95" s="19">
+        <f>C62/C94</f>
+        <v>153.47873917994505</v>
+      </c>
+      <c r="D95" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
         <v>586</v>
       </c>
-      <c r="C95" s="19">
-        <f>(C92)*C94*2*PI()</f>
-        <v>786.18505169845537</v>
-      </c>
-      <c r="D95" t="s">
+      <c r="C96" s="19">
+        <f>(C93)*C95*2*PI()</f>
+        <v>964.33535897987861</v>
+      </c>
+      <c r="D96" t="s">
         <v>583</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>584</v>
-      </c>
-      <c r="C98" s="20">
-        <v>1</v>
-      </c>
-      <c r="D98" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
+        <v>584</v>
+      </c>
+      <c r="C99" s="20">
+        <v>1</v>
+      </c>
+      <c r="D99" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
         <v>589</v>
       </c>
-      <c r="C99" s="20">
+      <c r="C100" s="20">
         <f>(C21/1000/2)</f>
         <v>3.8197186342054885E-2</v>
       </c>
-      <c r="D99" t="s">
+      <c r="D100" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
-        <v>585</v>
-      </c>
-      <c r="C100" s="20">
-        <f>C63/C99</f>
-        <v>703.82945904056123</v>
-      </c>
-      <c r="D100" t="s">
-        <v>582</v>
-      </c>
-      <c r="E100" s="20"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
+        <v>585</v>
+      </c>
+      <c r="C101" s="20">
+        <f>C63/C100</f>
+        <v>863.3179078871907</v>
+      </c>
+      <c r="D101" t="s">
+        <v>582</v>
+      </c>
+      <c r="E101" s="20"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
         <v>586</v>
       </c>
-      <c r="C101" s="20">
-        <f>(C98)*C100*2*PI()</f>
-        <v>4422.290915803811</v>
-      </c>
-      <c r="D101" t="s">
+      <c r="C102" s="20">
+        <f>(C99)*C101*2*PI()</f>
+        <v>5424.3863942618163</v>
+      </c>
+      <c r="D102" t="s">
         <v>583</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
         <v>584</v>
       </c>
-      <c r="C104" s="20">
+      <c r="C105" s="20">
         <f>60*C18/C20</f>
         <v>18.75</v>
       </c>
-      <c r="D104" t="s">
+      <c r="D105" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
         <v>589</v>
       </c>
-      <c r="C105" s="20">
+      <c r="C106" s="20">
         <f>(C25/1000/2)</f>
         <v>6.3661977236758135E-2</v>
       </c>
-      <c r="D105" t="s">
+      <c r="D106" t="s">
         <v>590</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
-        <v>585</v>
-      </c>
-      <c r="C106" s="20">
-        <f>C63/(C20/C18)/C105</f>
-        <v>131.96802357010523</v>
-      </c>
-      <c r="D106" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
+        <v>585</v>
+      </c>
+      <c r="C107" s="20">
+        <f>C63/(C20/C18)/C106</f>
+        <v>161.87210772884828</v>
+      </c>
+      <c r="D107" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
         <v>586</v>
       </c>
-      <c r="C107" s="20">
-        <f>(C104/60)*C106*2*PI()</f>
-        <v>259.11860834787956</v>
-      </c>
-      <c r="D107" t="s">
+      <c r="C108" s="20">
+        <f>(C105/60)*C107*2*PI()</f>
+        <v>317.83514028877835</v>
+      </c>
+      <c r="D108" t="s">
         <v>583</v>
       </c>
     </row>
@@ -4573,17 +4747,20 @@
     <hyperlink ref="E74" r:id="rId4"/>
     <hyperlink ref="E80" r:id="rId5"/>
     <hyperlink ref="E82" r:id="rId6" display="http://www.omc-stepperonline.com/nema-23-cnc-stepper-motor-28a-19nm269ozin-23hs302804s-p-25.html"/>
-    <hyperlink ref="E78" r:id="rId7" display="http://www.omc-stepperonline.com/09-nema-16-bipolar-stepper-06a-16ncm227ozin-16hm100604s-p-97.html"/>
-    <hyperlink ref="E87" r:id="rId8" display="http://www.omc-stepperonline.com/09-nema-16-bipolar-stepper-06a-16ncm227ozin-16hm100604s-p-97.html"/>
-    <hyperlink ref="E88" r:id="rId9" display="http://www.omc-stepperonline.com/09-nema-14-bipolar-stepper-motor-5ncm7ozin-14hm080504s-p-85.html"/>
-    <hyperlink ref="E77" r:id="rId10" display="http://www.omc-stepperonline.com/09-nema-14-bipolar-stepper-motor-5ncm7ozin-14hm080504s-p-85.html"/>
-    <hyperlink ref="E75" r:id="rId11"/>
-    <hyperlink ref="E84" r:id="rId12"/>
-    <hyperlink ref="E76" r:id="rId13" display="http://www.omc-stepperonline.com/nema-23-cnc-stepper-motor-28a-19nm269ozin-23hs302804s-p-25.html"/>
-    <hyperlink ref="E83" r:id="rId14"/>
+    <hyperlink ref="E89" r:id="rId7" display="http://www.omc-stepperonline.com/09-nema-16-bipolar-stepper-06a-16ncm227ozin-16hm100604s-p-97.html"/>
+    <hyperlink ref="E91" r:id="rId8" display="http://www.omc-stepperonline.com/09-nema-14-bipolar-stepper-motor-5ncm7ozin-14hm080504s-p-85.html"/>
+    <hyperlink ref="E75" r:id="rId9"/>
+    <hyperlink ref="E84" r:id="rId10"/>
+    <hyperlink ref="E76" r:id="rId11" display="http://www.omc-stepperonline.com/nema-23-cnc-stepper-motor-28a-19nm269ozin-23hs302804s-p-25.html"/>
+    <hyperlink ref="E83" r:id="rId12"/>
+    <hyperlink ref="E87" r:id="rId13"/>
+    <hyperlink ref="E88" r:id="rId14" display="http://www.omc-stepperonline.com/nema-14-bipolar-stepper-54v-08a-18ncm255ozin-14hs130804s-p-93.html"/>
+    <hyperlink ref="E90" r:id="rId15" display="http://www.omc-stepperonline.com/nema-14-bipolar-stepper-12v-04a-14ncm20ozin-14hs100404s-p-90.html"/>
+    <hyperlink ref="E78" r:id="rId16" display="http://www.omc-stepperonline.com/nema-14-bipolar-stepper-54v-08a-18ncm255ozin-14hs130804s-p-93.html"/>
+    <hyperlink ref="E77" r:id="rId17" display="http://www.omc-stepperonline.com/3d-printer-nema-17-stepper-motor-2a-45ncm64ozin-17hs162004s-p-16.html"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId15"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId18"/>
 </worksheet>
 </file>
 
@@ -7228,8 +7405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J103"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="E73" sqref="E73"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J20" sqref="A20:J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7249,8 +7426,8 @@
       <c r="A3" s="10"/>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
@@ -7266,10 +7443,10 @@
       <c r="C4" s="10" t="s">
         <v>359</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="29" t="s">
         <v>360</v>
       </c>
-      <c r="E4" s="28"/>
+      <c r="E4" s="29"/>
       <c r="F4" s="10" t="s">
         <v>361</v>
       </c>
@@ -10714,10 +10891,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10846,28 +11023,18 @@
         <v>679</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>612</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>603</v>
-      </c>
-      <c r="E11" t="s">
-        <v>554</v>
-      </c>
-      <c r="F11">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="G11" s="22">
-        <v>26.88</v>
-      </c>
-      <c r="H11" s="22">
-        <f>G11*B11</f>
-        <v>26.88</v>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>681</v>
+      </c>
+      <c r="D10" t="s">
+        <v>682</v>
+      </c>
+      <c r="E10" t="s">
+        <v>683</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -10875,71 +11042,71 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>614</v>
-      </c>
-      <c r="D12" t="s">
-        <v>622</v>
+        <v>612</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>603</v>
       </c>
       <c r="E12" t="s">
-        <v>613</v>
+        <v>554</v>
       </c>
       <c r="F12">
-        <v>3.7999999999999999E-2</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="G12" s="22">
-        <v>5.27</v>
+        <v>26.88</v>
       </c>
       <c r="H12" s="22">
         <f>G12*B12</f>
-        <v>5.27</v>
+        <v>26.88</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B13">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="D13" t="s">
-        <v>617</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>615</v>
+        <v>622</v>
+      </c>
+      <c r="E13" t="s">
+        <v>613</v>
       </c>
       <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>1.1499999999999999</v>
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="G13" s="22">
+        <v>5.27</v>
       </c>
       <c r="H13" s="22">
         <f>G13*B13</f>
-        <v>6.8999999999999995</v>
+        <v>5.27</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B14">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="D14" t="s">
-        <v>618</v>
-      </c>
-      <c r="E14" t="s">
-        <v>619</v>
+        <v>617</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>615</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <f>H14/10</f>
-        <v>0.251</v>
-      </c>
-      <c r="H14">
-        <v>2.5099999999999998</v>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="H14" s="22">
+        <f>G14*B14</f>
+        <v>6.8999999999999995</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -10947,187 +11114,196 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
+        <v>620</v>
+      </c>
+      <c r="D15" t="s">
+        <v>618</v>
+      </c>
+      <c r="E15" t="s">
+        <v>619</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <f>H15/10</f>
+        <v>0.251</v>
+      </c>
+      <c r="H15">
+        <v>2.5099999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
         <v>624</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D16" t="s">
         <v>623</v>
       </c>
-      <c r="E15" s="25" t="s">
+      <c r="E16" s="25" t="s">
         <v>473</v>
       </c>
-      <c r="F15">
+      <c r="F16">
         <v>0.7</v>
       </c>
-      <c r="G15">
+      <c r="G16">
         <v>18</v>
       </c>
-      <c r="H15" s="22">
-        <f>G15*B15</f>
+      <c r="H16" s="22">
+        <f>G16*B16</f>
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E16" s="25"/>
-      <c r="H16" s="22"/>
-    </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s">
-        <v>625</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>626</v>
-      </c>
-      <c r="E17" s="25" t="s">
-        <v>544</v>
-      </c>
-      <c r="F17">
-        <v>1.34</v>
-      </c>
-      <c r="G17">
-        <v>37</v>
-      </c>
-      <c r="H17" s="22">
-        <f>G17*B17</f>
-        <v>37</v>
-      </c>
+      <c r="E17" s="25"/>
+      <c r="H17" s="22"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>648</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>651</v>
-      </c>
-      <c r="E18" t="s">
-        <v>649</v>
-      </c>
-      <c r="H18" s="22"/>
+        <v>625</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>626</v>
+      </c>
+      <c r="E18" s="25" t="s">
+        <v>544</v>
+      </c>
+      <c r="F18">
+        <v>1.34</v>
+      </c>
+      <c r="G18">
+        <v>37</v>
+      </c>
+      <c r="H18" s="22">
+        <f>G18*B18</f>
+        <v>37</v>
+      </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>658</v>
-      </c>
-      <c r="D19" t="s">
-        <v>641</v>
-      </c>
-      <c r="E19" s="27" t="s">
-        <v>657</v>
+        <v>648</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>651</v>
+      </c>
+      <c r="E19" t="s">
+        <v>649</v>
       </c>
       <c r="H19" s="22"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>616</v>
+        <v>658</v>
       </c>
       <c r="D20" t="s">
-        <v>642</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>615</v>
+        <v>641</v>
+      </c>
+      <c r="E20" s="27" t="s">
+        <v>657</v>
       </c>
       <c r="H20" s="22"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21" t="s">
+        <v>616</v>
+      </c>
+      <c r="D21" t="s">
+        <v>642</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="H21" s="22"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B22">
         <v>8</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C22" t="s">
         <v>644</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D22" t="s">
         <v>655</v>
       </c>
-      <c r="E21" s="27" t="s">
+      <c r="E22" s="27" t="s">
         <v>643</v>
       </c>
-      <c r="H21" s="22"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="D22" t="s">
+      <c r="H22" s="22"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="D23" t="s">
         <v>656</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E23" t="s">
         <v>654</v>
       </c>
-      <c r="H22" s="22"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="E23" s="27"/>
       <c r="H23" s="22"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="D24" s="6" t="s">
-        <v>645</v>
-      </c>
       <c r="E24" s="27"/>
       <c r="H24" s="22"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25" t="s">
-        <v>637</v>
-      </c>
-      <c r="D25" t="s">
-        <v>635</v>
-      </c>
-      <c r="E25" s="26" t="s">
-        <v>627</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <v>9.9</v>
-      </c>
-      <c r="H25" s="22">
-        <f>G25*B25</f>
-        <v>9.9</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D25" s="6" t="s">
+        <v>645</v>
+      </c>
+      <c r="E25" s="27"/>
+      <c r="H25" s="22"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="D26" t="s">
-        <v>631</v>
-      </c>
-      <c r="E26" s="27" t="s">
-        <v>632</v>
+        <v>635</v>
+      </c>
+      <c r="E26" s="26" t="s">
+        <v>627</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
-      <c r="H26" s="22"/>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="G26">
+        <v>9.9</v>
+      </c>
+      <c r="H26" s="22">
+        <f>G26*B26</f>
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="D27" t="s">
-        <v>634</v>
-      </c>
-      <c r="E27" s="26" t="s">
-        <v>633</v>
+        <v>631</v>
+      </c>
+      <c r="E27" s="27" t="s">
+        <v>632</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
       </c>
       <c r="H27" s="22"/>
     </row>
@@ -11136,13 +11312,13 @@
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="D28" t="s">
-        <v>653</v>
-      </c>
-      <c r="E28" s="27" t="s">
-        <v>652</v>
+        <v>634</v>
+      </c>
+      <c r="E28" s="26" t="s">
+        <v>633</v>
       </c>
       <c r="H28" s="22"/>
     </row>
@@ -11151,100 +11327,115 @@
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>628</v>
+        <v>636</v>
       </c>
       <c r="D29" t="s">
-        <v>646</v>
-      </c>
-      <c r="E29" s="26" t="s">
-        <v>647</v>
+        <v>653</v>
+      </c>
+      <c r="E29" s="27" t="s">
+        <v>652</v>
       </c>
       <c r="H29" s="22"/>
     </row>
-    <row r="30" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30">
         <v>1</v>
       </c>
       <c r="C30" t="s">
+        <v>628</v>
+      </c>
+      <c r="D30" t="s">
+        <v>646</v>
+      </c>
+      <c r="E30" s="26" t="s">
+        <v>647</v>
+      </c>
+      <c r="H30" s="22"/>
+    </row>
+    <row r="31" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
         <v>630</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D31" t="s">
         <v>631</v>
       </c>
-      <c r="E30" s="26" t="s">
+      <c r="E31" s="26" t="s">
         <v>627</v>
       </c>
-      <c r="F30">
+      <c r="F31">
         <v>0</v>
       </c>
-      <c r="H30" s="22"/>
-    </row>
-    <row r="31" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E31" s="26"/>
       <c r="H31" s="22"/>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="E32" s="11"/>
+    <row r="32" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E32" s="26"/>
       <c r="H32" s="22"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B33">
-        <v>24</v>
-      </c>
-      <c r="C33" t="s">
-        <v>609</v>
-      </c>
-      <c r="D33" t="s">
-        <v>604</v>
-      </c>
-      <c r="E33" t="s">
-        <v>608</v>
-      </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-      <c r="G33" s="22">
-        <v>0.54</v>
-      </c>
-      <c r="H33" s="22">
-        <f>G33*B33</f>
-        <v>12.96</v>
-      </c>
+      <c r="E33" s="11"/>
+      <c r="H33" s="22"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B34">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="C34" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D34" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="E34" t="s">
-        <v>605</v>
-      </c>
-      <c r="G34" s="23">
-        <v>4.29</v>
+        <v>608</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34" s="22">
+        <v>0.54</v>
       </c>
       <c r="H34" s="22">
         <f>G34*B34</f>
+        <v>12.96</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>610</v>
+      </c>
+      <c r="D35" t="s">
+        <v>611</v>
+      </c>
+      <c r="E35" t="s">
+        <v>605</v>
+      </c>
+      <c r="G35" s="23">
         <v>4.29</v>
       </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B36">
+      <c r="H35" s="22">
+        <f>G35*B35</f>
+        <v>4.29</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B37">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E15" r:id="rId1"/>
-    <hyperlink ref="E17" r:id="rId2"/>
-    <hyperlink ref="E26" r:id="rId3"/>
-    <hyperlink ref="E27" r:id="rId4"/>
-    <hyperlink ref="E20" r:id="rId5"/>
-    <hyperlink ref="E13" r:id="rId6"/>
+    <hyperlink ref="E16" r:id="rId1"/>
+    <hyperlink ref="E18" r:id="rId2"/>
+    <hyperlink ref="E27" r:id="rId3"/>
+    <hyperlink ref="E28" r:id="rId4"/>
+    <hyperlink ref="E21" r:id="rId5"/>
+    <hyperlink ref="E14" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId7"/>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1584" uniqueCount="690">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1589" uniqueCount="690">
   <si>
     <t>Bauteilnummer</t>
   </si>
@@ -2753,8 +2753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E41"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2965,10 +2965,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:AD108"/>
+  <dimension ref="A3:AD109"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A69" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E77" sqref="E77:O77"/>
+      <selection activeCell="M88" sqref="M88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4426,316 +4426,339 @@
         <v>104.54545454545455</v>
       </c>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E88" s="11" t="s">
-        <v>405</v>
+        <v>425</v>
       </c>
       <c r="F88" s="28">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="G88" s="28" t="s">
-        <v>374</v>
+        <v>426</v>
       </c>
       <c r="H88" s="28" t="s">
-        <v>394</v>
+        <v>423</v>
       </c>
       <c r="I88" s="28" t="s">
-        <v>404</v>
-      </c>
-      <c r="J88" s="28">
-        <v>5</v>
+        <v>427</v>
       </c>
       <c r="K88" s="28">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="L88" s="28">
-        <v>0.8</v>
+        <v>0.31</v>
       </c>
       <c r="M88" s="28" t="s">
         <v>377</v>
       </c>
       <c r="N88" s="28">
-        <v>0.17</v>
-      </c>
-      <c r="O88" s="17">
-        <f>K88/N88</f>
-        <v>105.88235294117646</v>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="O88" s="18">
+        <f t="shared" ref="O88" si="2">K88/N88</f>
+        <v>82.142857142857139</v>
       </c>
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.3">
       <c r="E89" s="11" t="s">
-        <v>410</v>
-      </c>
-      <c r="F89" s="16">
-        <v>0.9</v>
-      </c>
-      <c r="G89" s="16" t="s">
+        <v>405</v>
+      </c>
+      <c r="F89" s="28">
+        <v>1.8</v>
+      </c>
+      <c r="G89" s="28" t="s">
         <v>374</v>
       </c>
-      <c r="H89" s="16" t="s">
-        <v>411</v>
-      </c>
-      <c r="I89" s="16" t="s">
-        <v>412</v>
-      </c>
-      <c r="J89" s="16">
+      <c r="H89" s="28" t="s">
+        <v>394</v>
+      </c>
+      <c r="I89" s="28" t="s">
+        <v>404</v>
+      </c>
+      <c r="J89" s="28">
         <v>5</v>
       </c>
-      <c r="K89" s="16">
-        <v>16</v>
-      </c>
-      <c r="L89" s="16">
-        <v>0.6</v>
-      </c>
-      <c r="M89" s="16" t="s">
+      <c r="K89" s="28">
+        <v>18</v>
+      </c>
+      <c r="L89" s="28">
+        <v>0.8</v>
+      </c>
+      <c r="M89" s="28" t="s">
         <v>377</v>
       </c>
-      <c r="N89" s="16">
-        <v>0.12</v>
+      <c r="N89" s="28">
+        <v>0.17</v>
       </c>
       <c r="O89" s="17">
         <f>K89/N89</f>
-        <v>133.33333333333334</v>
+        <v>105.88235294117646</v>
       </c>
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.3">
       <c r="E90" s="11" t="s">
-        <v>400</v>
-      </c>
-      <c r="F90" s="28">
-        <v>1.8</v>
-      </c>
-      <c r="G90" s="28" t="s">
+        <v>410</v>
+      </c>
+      <c r="F90" s="16">
+        <v>0.9</v>
+      </c>
+      <c r="G90" s="16" t="s">
         <v>374</v>
       </c>
-      <c r="H90" s="28" t="s">
-        <v>394</v>
-      </c>
-      <c r="I90" s="28" t="s">
-        <v>401</v>
-      </c>
-      <c r="J90" s="28">
+      <c r="H90" s="16" t="s">
+        <v>411</v>
+      </c>
+      <c r="I90" s="16" t="s">
+        <v>412</v>
+      </c>
+      <c r="J90" s="16">
         <v>5</v>
       </c>
-      <c r="K90" s="28">
-        <v>14</v>
-      </c>
-      <c r="L90" s="28">
-        <v>0.4</v>
-      </c>
-      <c r="M90" s="28" t="s">
+      <c r="K90" s="16">
+        <v>16</v>
+      </c>
+      <c r="L90" s="16">
+        <v>0.6</v>
+      </c>
+      <c r="M90" s="16" t="s">
         <v>377</v>
       </c>
-      <c r="N90" s="28">
+      <c r="N90" s="16">
         <v>0.12</v>
       </c>
-      <c r="O90" s="18">
-        <f t="shared" ref="O90" si="2">K90/N90</f>
-        <v>116.66666666666667</v>
+      <c r="O90" s="17">
+        <f>K90/N90</f>
+        <v>133.33333333333334</v>
       </c>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.3">
       <c r="E91" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="F91" s="28">
+        <v>1.8</v>
+      </c>
+      <c r="G91" s="28" t="s">
+        <v>374</v>
+      </c>
+      <c r="H91" s="28" t="s">
+        <v>394</v>
+      </c>
+      <c r="I91" s="28" t="s">
+        <v>401</v>
+      </c>
+      <c r="J91" s="28">
+        <v>5</v>
+      </c>
+      <c r="K91" s="28">
+        <v>14</v>
+      </c>
+      <c r="L91" s="28">
+        <v>0.4</v>
+      </c>
+      <c r="M91" s="28" t="s">
+        <v>377</v>
+      </c>
+      <c r="N91" s="28">
+        <v>0.12</v>
+      </c>
+      <c r="O91" s="18">
+        <f t="shared" ref="O91" si="3">K91/N91</f>
+        <v>116.66666666666667</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="E92" s="11" t="s">
         <v>396</v>
       </c>
-      <c r="F91" s="16">
+      <c r="F92" s="16">
         <v>0.9</v>
       </c>
-      <c r="G91" s="16" t="s">
+      <c r="G92" s="16" t="s">
         <v>374</v>
       </c>
-      <c r="H91" s="16" t="s">
+      <c r="H92" s="16" t="s">
         <v>394</v>
       </c>
-      <c r="I91" s="16" t="s">
+      <c r="I92" s="16" t="s">
         <v>397</v>
       </c>
-      <c r="J91" s="16">
+      <c r="J92" s="16">
         <v>5</v>
       </c>
-      <c r="K91" s="16">
+      <c r="K92" s="16">
         <v>5</v>
       </c>
-      <c r="L91" s="16">
+      <c r="L92" s="16">
         <v>0.5</v>
       </c>
-      <c r="M91" s="16" t="s">
+      <c r="M92" s="16" t="s">
         <v>377</v>
       </c>
-      <c r="N91" s="16">
+      <c r="N92" s="16">
         <v>0.09</v>
       </c>
-      <c r="O91" s="17">
-        <f>K91/N91</f>
+      <c r="O92" s="17">
+        <f>K92/N92</f>
         <v>55.555555555555557</v>
       </c>
-    </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
-        <v>581</v>
-      </c>
-      <c r="E92" s="11"/>
-      <c r="F92" s="28"/>
-      <c r="G92" s="28"/>
-      <c r="H92" s="28"/>
-      <c r="I92" s="28"/>
-      <c r="J92" s="28"/>
-      <c r="K92" s="28"/>
-      <c r="L92" s="28"/>
-      <c r="M92" s="28"/>
-      <c r="N92" s="18"/>
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
         <v>584</v>
       </c>
-      <c r="C93" s="19">
+      <c r="C94" s="19">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D94" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
         <v>589</v>
       </c>
-      <c r="C94" s="19">
+      <c r="C95" s="19">
         <f>(C15/1000/2)</f>
         <v>7.1619724391352904E-2</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D95" t="s">
         <v>590</v>
-      </c>
-    </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
-        <v>585</v>
-      </c>
-      <c r="C95" s="19">
-        <f>C62/C94</f>
-        <v>153.47873917994505</v>
-      </c>
-      <c r="D95" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
+        <v>585</v>
+      </c>
+      <c r="C96" s="19">
+        <f>C62/C95</f>
+        <v>153.47873917994505</v>
+      </c>
+      <c r="D96" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
         <v>586</v>
       </c>
-      <c r="C96" s="19">
-        <f>(C93)*C95*2*PI()</f>
+      <c r="C97" s="19">
+        <f>(C94)*C96*2*PI()</f>
         <v>964.33535897987861</v>
       </c>
-      <c r="D96" t="s">
+      <c r="D97" t="s">
         <v>583</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>584</v>
-      </c>
-      <c r="C99" s="20">
-        <v>1</v>
-      </c>
-      <c r="D99" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
+        <v>584</v>
+      </c>
+      <c r="C100" s="20">
+        <v>1</v>
+      </c>
+      <c r="D100" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
         <v>589</v>
       </c>
-      <c r="C100" s="20">
+      <c r="C101" s="20">
         <f>(C21/1000/2)</f>
         <v>3.8197186342054885E-2</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D101" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
-        <v>585</v>
-      </c>
-      <c r="C101" s="20">
-        <f>C63/C100</f>
-        <v>863.3179078871907</v>
-      </c>
-      <c r="D101" t="s">
-        <v>582</v>
-      </c>
-      <c r="E101" s="20"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
+        <v>585</v>
+      </c>
+      <c r="C102" s="20">
+        <f>C63/C101</f>
+        <v>863.3179078871907</v>
+      </c>
+      <c r="D102" t="s">
+        <v>582</v>
+      </c>
+      <c r="E102" s="20"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
         <v>586</v>
       </c>
-      <c r="C102" s="20">
-        <f>(C99)*C101*2*PI()</f>
+      <c r="C103" s="20">
+        <f>(C100)*C102*2*PI()</f>
         <v>5424.3863942618163</v>
       </c>
-      <c r="D102" t="s">
+      <c r="D103" t="s">
         <v>583</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
         <v>584</v>
       </c>
-      <c r="C105" s="20">
+      <c r="C106" s="20">
         <f>60*C18/C20</f>
         <v>18.75</v>
       </c>
-      <c r="D105" t="s">
+      <c r="D106" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
         <v>589</v>
       </c>
-      <c r="C106" s="20">
+      <c r="C107" s="20">
         <f>(C25/1000/2)</f>
         <v>6.3661977236758135E-2</v>
       </c>
-      <c r="D106" t="s">
+      <c r="D107" t="s">
         <v>590</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
-        <v>585</v>
-      </c>
-      <c r="C107" s="20">
-        <f>C63/(C20/C18)/C106</f>
-        <v>161.87210772884828</v>
-      </c>
-      <c r="D107" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
+        <v>585</v>
+      </c>
+      <c r="C108" s="20">
+        <f>C63/(C20/C18)/C107</f>
+        <v>161.87210772884828</v>
+      </c>
+      <c r="D108" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
         <v>586</v>
       </c>
-      <c r="C108" s="20">
-        <f>(C105/60)*C107*2*PI()</f>
+      <c r="C109" s="20">
+        <f>(C106/60)*C108*2*PI()</f>
         <v>317.83514028877835</v>
       </c>
-      <c r="D108" t="s">
+      <c r="D109" t="s">
         <v>583</v>
       </c>
     </row>
@@ -4747,20 +4770,21 @@
     <hyperlink ref="E74" r:id="rId4"/>
     <hyperlink ref="E80" r:id="rId5"/>
     <hyperlink ref="E82" r:id="rId6" display="http://www.omc-stepperonline.com/nema-23-cnc-stepper-motor-28a-19nm269ozin-23hs302804s-p-25.html"/>
-    <hyperlink ref="E89" r:id="rId7" display="http://www.omc-stepperonline.com/09-nema-16-bipolar-stepper-06a-16ncm227ozin-16hm100604s-p-97.html"/>
-    <hyperlink ref="E91" r:id="rId8" display="http://www.omc-stepperonline.com/09-nema-14-bipolar-stepper-motor-5ncm7ozin-14hm080504s-p-85.html"/>
+    <hyperlink ref="E90" r:id="rId7" display="http://www.omc-stepperonline.com/09-nema-16-bipolar-stepper-06a-16ncm227ozin-16hm100604s-p-97.html"/>
+    <hyperlink ref="E92" r:id="rId8" display="http://www.omc-stepperonline.com/09-nema-14-bipolar-stepper-motor-5ncm7ozin-14hm080504s-p-85.html"/>
     <hyperlink ref="E75" r:id="rId9"/>
     <hyperlink ref="E84" r:id="rId10"/>
     <hyperlink ref="E76" r:id="rId11" display="http://www.omc-stepperonline.com/nema-23-cnc-stepper-motor-28a-19nm269ozin-23hs302804s-p-25.html"/>
     <hyperlink ref="E83" r:id="rId12"/>
     <hyperlink ref="E87" r:id="rId13"/>
-    <hyperlink ref="E88" r:id="rId14" display="http://www.omc-stepperonline.com/nema-14-bipolar-stepper-54v-08a-18ncm255ozin-14hs130804s-p-93.html"/>
-    <hyperlink ref="E90" r:id="rId15" display="http://www.omc-stepperonline.com/nema-14-bipolar-stepper-12v-04a-14ncm20ozin-14hs100404s-p-90.html"/>
+    <hyperlink ref="E89" r:id="rId14" display="http://www.omc-stepperonline.com/nema-14-bipolar-stepper-54v-08a-18ncm255ozin-14hs130804s-p-93.html"/>
+    <hyperlink ref="E91" r:id="rId15" display="http://www.omc-stepperonline.com/nema-14-bipolar-stepper-12v-04a-14ncm20ozin-14hs100404s-p-90.html"/>
     <hyperlink ref="E78" r:id="rId16" display="http://www.omc-stepperonline.com/nema-14-bipolar-stepper-54v-08a-18ncm255ozin-14hs130804s-p-93.html"/>
     <hyperlink ref="E77" r:id="rId17" display="http://www.omc-stepperonline.com/3d-printer-nema-17-stepper-motor-2a-45ncm64ozin-17hs162004s-p-16.html"/>
+    <hyperlink ref="E88" r:id="rId18" display="http://www.omc-stepperonline.com/9deg-nema-17-unipolar-stepper-motor-12v-031a-16ncm227ozin-17hm130316s-p-262.html"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId18"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId19"/>
 </worksheet>
 </file>
 
@@ -7405,8 +7429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J103"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J20" sqref="A20:J20"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="J36" sqref="A36:J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Bezugsquellen" sheetId="2" r:id="rId1"/>
@@ -15,12 +15,12 @@
     <sheet name="Rotary Encoder" sheetId="6" r:id="rId6"/>
     <sheet name="BOM" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1589" uniqueCount="690">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1591" uniqueCount="692">
   <si>
     <t>Bauteilnummer</t>
   </si>
@@ -2038,12 +2038,6 @@
     <t>Lager  zum Grippermount</t>
   </si>
   <si>
-    <t>https://www.conrad.de/de/senkschrauben-m3-16-mm-innensechskant-din-7991-iso-10642-edelstahl-100-st-toolcraft-401632-401632.html?sc.queryFromSuggest=true</t>
-  </si>
-  <si>
-    <t>Senkschraube Innensechskant M3 16mm</t>
-  </si>
-  <si>
     <t>Befestigung Lagerdeckel</t>
   </si>
   <si>
@@ -2090,6 +2084,18 @@
   </si>
   <si>
     <t>Gewindestift M3 20mm</t>
+  </si>
+  <si>
+    <t>http://www.dswaelzlager.de/Miniaturlager-MR105-ZZ</t>
+  </si>
+  <si>
+    <t>http://www.dswaelzlager.de/Rillenkugellager-686-ZZ-beidseitig-Stahldeckscheiben-6x13x5mm-</t>
+  </si>
+  <si>
+    <t>https://www.conrad.de/de/senkschrauben-m3-14-mm-innensechskant-iso-10642-edelstahl-a2-100-st-1069038.html</t>
+  </si>
+  <si>
+    <t>Senkschraube Innensechskant M3 14mm</t>
   </si>
 </sst>
 </file>
@@ -2159,7 +2165,7 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2206,9 +2212,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -2217,13 +2220,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Komma" xfId="2" builtinId="3"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Währung" xfId="3" builtinId="4"/>
   </cellStyles>
@@ -2465,9 +2470,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2505,9 +2510,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2542,7 +2547,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2577,7 +2582,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2751,10 +2756,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E41"/>
+  <dimension ref="A2:E43"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2864,98 +2869,108 @@
         <v>558</v>
       </c>
     </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E27" t="s">
+        <v>688</v>
+      </c>
+    </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+      <c r="E28" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>560</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C30" t="s">
         <v>565</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D30" t="s">
         <v>561</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E30" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D29" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D31" t="s">
         <v>564</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E31" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D30" t="s">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D32" t="s">
         <v>566</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E32" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>650</v>
       </c>
-      <c r="E32" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>650</v>
-      </c>
-      <c r="E33" t="s">
+      <c r="E34" t="s">
         <v>649</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
+        <v>650</v>
+      </c>
+      <c r="E35" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>236</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E37" t="s">
         <v>640</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>659</v>
-      </c>
-      <c r="E36" t="s">
-        <v>660</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="E38" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>684</v>
-      </c>
-      <c r="E39" t="s">
-        <v>685</v>
+        <v>660</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>686</v>
+        <v>661</v>
       </c>
       <c r="E40" t="s">
-        <v>687</v>
+        <v>662</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
       <c r="E41" t="s">
-        <v>688</v>
+        <v>683</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>684</v>
+      </c>
+      <c r="E42" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>687</v>
+      </c>
+      <c r="E43" t="s">
+        <v>686</v>
       </c>
     </row>
   </sheetData>
@@ -2967,8 +2982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:AD109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M88" sqref="M88"/>
+    <sheetView topLeftCell="A49" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3368,7 +3383,7 @@
       </c>
       <c r="C36" s="5">
         <f>C40/C38*(C44/C42)</f>
-        <v>10.453333333333333</v>
+        <v>3.7333333333333334</v>
       </c>
       <c r="D36" t="s">
         <v>325</v>
@@ -3413,7 +3428,7 @@
         <v>342</v>
       </c>
       <c r="C40" s="7">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="D40" t="s">
         <v>338</v>
@@ -3425,7 +3440,7 @@
       </c>
       <c r="C41" s="4">
         <f>C40*C37/PI()</f>
-        <v>33.422538049298019</v>
+        <v>11.93662073189215</v>
       </c>
       <c r="D41" t="s">
         <v>340</v>
@@ -3483,7 +3498,7 @@
       </c>
       <c r="C46" s="5">
         <f>C50/C48*(C54/C52)</f>
-        <v>10.453333333333333</v>
+        <v>3.7333333333333334</v>
       </c>
       <c r="D46" t="s">
         <v>325</v>
@@ -3528,7 +3543,7 @@
         <v>342</v>
       </c>
       <c r="C50" s="7">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="D50" t="s">
         <v>338</v>
@@ -3540,7 +3555,7 @@
       </c>
       <c r="C51" s="4">
         <f>C50*C47/PI()</f>
-        <v>33.422538049298019</v>
+        <v>11.93662073189215</v>
       </c>
       <c r="D51" t="s">
         <v>340</v>
@@ -3737,7 +3752,7 @@
       </c>
       <c r="C70" s="2">
         <f>C65/C36</f>
-        <v>0.12809933035714285</v>
+        <v>0.35867812499999996</v>
       </c>
       <c r="D70" t="s">
         <v>322</v>
@@ -3749,7 +3764,7 @@
       </c>
       <c r="C71" s="2">
         <f>C66/C36</f>
-        <v>4.2699776785714287E-2</v>
+        <v>0.119559375</v>
       </c>
       <c r="D71" t="s">
         <v>322</v>
@@ -3974,7 +3989,7 @@
       </c>
       <c r="C77" s="2">
         <f>C70*(1+C57)</f>
-        <v>0.16652912946428572</v>
+        <v>0.46628156249999997</v>
       </c>
       <c r="D77" t="s">
         <v>322</v>
@@ -3982,31 +3997,31 @@
       <c r="E77" s="11" t="s">
         <v>459</v>
       </c>
-      <c r="F77" s="28">
+      <c r="F77" s="27">
         <v>1.8</v>
       </c>
-      <c r="G77" s="28" t="s">
+      <c r="G77" s="27" t="s">
         <v>374</v>
       </c>
-      <c r="H77" s="28" t="s">
+      <c r="H77" s="27" t="s">
         <v>423</v>
       </c>
-      <c r="I77" s="28" t="s">
+      <c r="I77" s="27" t="s">
         <v>433</v>
       </c>
-      <c r="J77" s="28">
+      <c r="J77" s="27">
         <v>5</v>
       </c>
       <c r="K77" s="15">
         <v>45</v>
       </c>
-      <c r="L77" s="28">
+      <c r="L77" s="27">
         <v>2</v>
       </c>
-      <c r="M77" s="28" t="s">
+      <c r="M77" s="27" t="s">
         <v>377</v>
       </c>
-      <c r="N77" s="28">
+      <c r="N77" s="27">
         <v>0.31</v>
       </c>
       <c r="O77" s="17">
@@ -4035,7 +4050,7 @@
       </c>
       <c r="C78" s="2">
         <f>C71*(1+C57)</f>
-        <v>5.5509709821428575E-2</v>
+        <v>0.15542718750000001</v>
       </c>
       <c r="D78" t="s">
         <v>322</v>
@@ -4043,31 +4058,31 @@
       <c r="E78" s="11" t="s">
         <v>405</v>
       </c>
-      <c r="F78" s="28">
+      <c r="F78" s="27">
         <v>1.8</v>
       </c>
-      <c r="G78" s="28" t="s">
+      <c r="G78" s="27" t="s">
         <v>374</v>
       </c>
-      <c r="H78" s="28" t="s">
+      <c r="H78" s="27" t="s">
         <v>394</v>
       </c>
-      <c r="I78" s="28" t="s">
+      <c r="I78" s="27" t="s">
         <v>404</v>
       </c>
-      <c r="J78" s="28">
+      <c r="J78" s="27">
         <v>5</v>
       </c>
-      <c r="K78" s="28">
+      <c r="K78" s="27">
         <v>18</v>
       </c>
-      <c r="L78" s="28">
+      <c r="L78" s="27">
         <v>0.8</v>
       </c>
-      <c r="M78" s="28" t="s">
+      <c r="M78" s="27" t="s">
         <v>377</v>
       </c>
-      <c r="N78" s="28">
+      <c r="N78" s="27">
         <v>0.17</v>
       </c>
       <c r="O78" s="17">
@@ -4394,31 +4409,31 @@
       <c r="E87" s="11" t="s">
         <v>406</v>
       </c>
-      <c r="F87" s="28">
+      <c r="F87" s="27">
         <v>1.8</v>
       </c>
-      <c r="G87" s="28" t="s">
+      <c r="G87" s="27" t="s">
         <v>374</v>
       </c>
-      <c r="H87" s="28" t="s">
+      <c r="H87" s="27" t="s">
         <v>394</v>
       </c>
-      <c r="I87" s="28" t="s">
+      <c r="I87" s="27" t="s">
         <v>407</v>
       </c>
-      <c r="J87" s="28">
+      <c r="J87" s="27">
         <v>5</v>
       </c>
-      <c r="K87" s="28">
+      <c r="K87" s="27">
         <v>23</v>
       </c>
-      <c r="L87" s="28">
+      <c r="L87" s="27">
         <v>0.5</v>
       </c>
-      <c r="M87" s="28" t="s">
+      <c r="M87" s="27" t="s">
         <v>377</v>
       </c>
-      <c r="N87" s="28">
+      <c r="N87" s="27">
         <v>0.22</v>
       </c>
       <c r="O87" s="17">
@@ -4430,28 +4445,28 @@
       <c r="E88" s="11" t="s">
         <v>425</v>
       </c>
-      <c r="F88" s="28">
+      <c r="F88" s="27">
         <v>0.9</v>
       </c>
-      <c r="G88" s="28" t="s">
+      <c r="G88" s="27" t="s">
         <v>426</v>
       </c>
-      <c r="H88" s="28" t="s">
+      <c r="H88" s="27" t="s">
         <v>423</v>
       </c>
-      <c r="I88" s="28" t="s">
+      <c r="I88" s="27" t="s">
         <v>427</v>
       </c>
-      <c r="K88" s="28">
+      <c r="K88" s="27">
         <v>23</v>
       </c>
-      <c r="L88" s="28">
+      <c r="L88" s="27">
         <v>0.31</v>
       </c>
-      <c r="M88" s="28" t="s">
+      <c r="M88" s="27" t="s">
         <v>377</v>
       </c>
-      <c r="N88" s="28">
+      <c r="N88" s="27">
         <v>0.28000000000000003</v>
       </c>
       <c r="O88" s="18">
@@ -4463,31 +4478,31 @@
       <c r="E89" s="11" t="s">
         <v>405</v>
       </c>
-      <c r="F89" s="28">
+      <c r="F89" s="27">
         <v>1.8</v>
       </c>
-      <c r="G89" s="28" t="s">
+      <c r="G89" s="27" t="s">
         <v>374</v>
       </c>
-      <c r="H89" s="28" t="s">
+      <c r="H89" s="27" t="s">
         <v>394</v>
       </c>
-      <c r="I89" s="28" t="s">
+      <c r="I89" s="27" t="s">
         <v>404</v>
       </c>
-      <c r="J89" s="28">
+      <c r="J89" s="27">
         <v>5</v>
       </c>
-      <c r="K89" s="28">
+      <c r="K89" s="27">
         <v>18</v>
       </c>
-      <c r="L89" s="28">
+      <c r="L89" s="27">
         <v>0.8</v>
       </c>
-      <c r="M89" s="28" t="s">
+      <c r="M89" s="27" t="s">
         <v>377</v>
       </c>
-      <c r="N89" s="28">
+      <c r="N89" s="27">
         <v>0.17</v>
       </c>
       <c r="O89" s="17">
@@ -4535,31 +4550,31 @@
       <c r="E91" s="11" t="s">
         <v>400</v>
       </c>
-      <c r="F91" s="28">
+      <c r="F91" s="27">
         <v>1.8</v>
       </c>
-      <c r="G91" s="28" t="s">
+      <c r="G91" s="27" t="s">
         <v>374</v>
       </c>
-      <c r="H91" s="28" t="s">
+      <c r="H91" s="27" t="s">
         <v>394</v>
       </c>
-      <c r="I91" s="28" t="s">
+      <c r="I91" s="27" t="s">
         <v>401</v>
       </c>
-      <c r="J91" s="28">
+      <c r="J91" s="27">
         <v>5</v>
       </c>
-      <c r="K91" s="28">
+      <c r="K91" s="27">
         <v>14</v>
       </c>
-      <c r="L91" s="28">
+      <c r="L91" s="27">
         <v>0.4</v>
       </c>
-      <c r="M91" s="28" t="s">
+      <c r="M91" s="27" t="s">
         <v>377</v>
       </c>
-      <c r="N91" s="28">
+      <c r="N91" s="27">
         <v>0.12</v>
       </c>
       <c r="O91" s="18">
@@ -7251,8 +7266,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7450,8 +7465,8 @@
       <c r="A3" s="10"/>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
@@ -7467,10 +7482,10 @@
       <c r="C4" s="10" t="s">
         <v>359</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="30" t="s">
         <v>360</v>
       </c>
-      <c r="E4" s="29"/>
+      <c r="E4" s="30"/>
       <c r="F4" s="10" t="s">
         <v>361</v>
       </c>
@@ -10917,8 +10932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10927,7 +10942,7 @@
     <col min="2" max="2" width="16.77734375" customWidth="1"/>
     <col min="3" max="3" width="54.88671875" customWidth="1"/>
     <col min="4" max="4" width="42.33203125" customWidth="1"/>
-    <col min="5" max="5" width="25.21875" customWidth="1"/>
+    <col min="5" max="5" width="25.21875" style="28" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -10940,7 +10955,7 @@
       <c r="D1" t="s">
         <v>602</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="28" t="s">
         <v>599</v>
       </c>
       <c r="F1" t="s">
@@ -10968,8 +10983,11 @@
       <c r="D3" t="s">
         <v>666</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="28" t="s">
         <v>664</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -10982,8 +11000,11 @@
       <c r="D4" t="s">
         <v>668</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="28" t="s">
         <v>662</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -11001,8 +11022,11 @@
       <c r="D6" t="s">
         <v>671</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="28" t="s">
         <v>557</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -11010,13 +11034,16 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>673</v>
+        <v>691</v>
       </c>
       <c r="D7" t="s">
-        <v>674</v>
-      </c>
-      <c r="E7" t="s">
         <v>672</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>690</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -11024,13 +11051,16 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="D8" t="s">
-        <v>677</v>
-      </c>
-      <c r="E8" t="s">
         <v>675</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>673</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -11038,13 +11068,16 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
+        <v>676</v>
+      </c>
+      <c r="D9" t="s">
         <v>678</v>
       </c>
-      <c r="D9" t="s">
-        <v>680</v>
-      </c>
-      <c r="E9" t="s">
-        <v>679</v>
+      <c r="E9" s="28" t="s">
+        <v>677</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -11052,13 +11085,16 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
+        <v>679</v>
+      </c>
+      <c r="D10" t="s">
+        <v>680</v>
+      </c>
+      <c r="E10" s="28" t="s">
         <v>681</v>
       </c>
-      <c r="D10" t="s">
-        <v>682</v>
-      </c>
-      <c r="E10" t="s">
-        <v>683</v>
+      <c r="F10">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -11071,7 +11107,7 @@
       <c r="D12" s="6" t="s">
         <v>603</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="28" t="s">
         <v>554</v>
       </c>
       <c r="F12">
@@ -11095,7 +11131,7 @@
       <c r="D13" t="s">
         <v>622</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="28" t="s">
         <v>613</v>
       </c>
       <c r="F13">
@@ -11119,7 +11155,7 @@
       <c r="D14" t="s">
         <v>617</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="29" t="s">
         <v>615</v>
       </c>
       <c r="F14">
@@ -11143,7 +11179,7 @@
       <c r="D15" t="s">
         <v>618</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="28" t="s">
         <v>619</v>
       </c>
       <c r="F15">
@@ -11167,7 +11203,7 @@
       <c r="D16" t="s">
         <v>623</v>
       </c>
-      <c r="E16" s="25" t="s">
+      <c r="E16" s="26" t="s">
         <v>473</v>
       </c>
       <c r="F16">
@@ -11182,7 +11218,7 @@
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="E17" s="25"/>
+      <c r="E17" s="26"/>
       <c r="H17" s="22"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
@@ -11195,7 +11231,7 @@
       <c r="D18" s="6" t="s">
         <v>626</v>
       </c>
-      <c r="E18" s="25" t="s">
+      <c r="E18" s="26" t="s">
         <v>544</v>
       </c>
       <c r="F18">
@@ -11219,8 +11255,11 @@
       <c r="D19" s="8" t="s">
         <v>651</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="28" t="s">
         <v>649</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
       </c>
       <c r="H19" s="22"/>
     </row>
@@ -11234,8 +11273,11 @@
       <c r="D20" t="s">
         <v>641</v>
       </c>
-      <c r="E20" s="27" t="s">
+      <c r="E20" s="26" t="s">
         <v>657</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
       </c>
       <c r="H20" s="22"/>
     </row>
@@ -11249,8 +11291,11 @@
       <c r="D21" t="s">
         <v>642</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="29" t="s">
         <v>615</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
       </c>
       <c r="H21" s="22"/>
     </row>
@@ -11264,8 +11309,11 @@
       <c r="D22" t="s">
         <v>655</v>
       </c>
-      <c r="E22" s="27" t="s">
+      <c r="E22" s="26" t="s">
         <v>643</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
       </c>
       <c r="H22" s="22"/>
     </row>
@@ -11273,20 +11321,23 @@
       <c r="D23" t="s">
         <v>656</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="28" t="s">
         <v>654</v>
       </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
       <c r="H23" s="22"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="E24" s="27"/>
+      <c r="E24" s="26"/>
       <c r="H24" s="22"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D25" s="6" t="s">
         <v>645</v>
       </c>
-      <c r="E25" s="27"/>
+      <c r="E25" s="26"/>
       <c r="H25" s="22"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.3">
@@ -11299,7 +11350,7 @@
       <c r="D26" t="s">
         <v>635</v>
       </c>
-      <c r="E26" s="26" t="s">
+      <c r="E26" s="25" t="s">
         <v>627</v>
       </c>
       <c r="F26">
@@ -11323,7 +11374,7 @@
       <c r="D27" t="s">
         <v>631</v>
       </c>
-      <c r="E27" s="27" t="s">
+      <c r="E27" s="26" t="s">
         <v>632</v>
       </c>
       <c r="F27">
@@ -11341,8 +11392,11 @@
       <c r="D28" t="s">
         <v>634</v>
       </c>
-      <c r="E28" s="26" t="s">
+      <c r="E28" s="25" t="s">
         <v>633</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
       </c>
       <c r="H28" s="22"/>
     </row>
@@ -11356,8 +11410,11 @@
       <c r="D29" t="s">
         <v>653</v>
       </c>
-      <c r="E29" s="27" t="s">
+      <c r="E29" s="26" t="s">
         <v>652</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
       </c>
       <c r="H29" s="22"/>
     </row>
@@ -11371,8 +11428,11 @@
       <c r="D30" t="s">
         <v>646</v>
       </c>
-      <c r="E30" s="26" t="s">
+      <c r="E30" s="25" t="s">
         <v>647</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
       </c>
       <c r="H30" s="22"/>
     </row>
@@ -11386,7 +11446,7 @@
       <c r="D31" t="s">
         <v>631</v>
       </c>
-      <c r="E31" s="26" t="s">
+      <c r="E31" s="25" t="s">
         <v>627</v>
       </c>
       <c r="F31">
@@ -11395,11 +11455,11 @@
       <c r="H31" s="22"/>
     </row>
     <row r="32" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E32" s="26"/>
+      <c r="E32" s="25"/>
       <c r="H32" s="22"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="E33" s="11"/>
+      <c r="E33" s="25"/>
       <c r="H33" s="22"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.3">
@@ -11412,7 +11472,7 @@
       <c r="D34" t="s">
         <v>604</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="28" t="s">
         <v>608</v>
       </c>
       <c r="F34">
@@ -11436,7 +11496,7 @@
       <c r="D35" t="s">
         <v>611</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="28" t="s">
         <v>605</v>
       </c>
       <c r="G35" s="23">

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1591" uniqueCount="692">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1597" uniqueCount="693">
   <si>
     <t>Bauteilnummer</t>
   </si>
@@ -2096,6 +2096,9 @@
   </si>
   <si>
     <t>Senkschraube Innensechskant M3 14mm</t>
+  </si>
+  <si>
+    <t>Wrist</t>
   </si>
 </sst>
 </file>
@@ -2165,7 +2168,7 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2216,6 +2219,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2759,7 +2765,7 @@
   <dimension ref="A2:E43"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2980,10 +2986,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:AD109"/>
+  <dimension ref="A3:AD110"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView topLeftCell="A73" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E77" sqref="E77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3060,7 +3066,7 @@
       </c>
       <c r="C8">
         <f>N78+N77 +0.4</f>
-        <v>0.88</v>
+        <v>0.72</v>
       </c>
       <c r="D8" t="s">
         <v>315</v>
@@ -3072,7 +3078,7 @@
       </c>
       <c r="C9">
         <f>N77+0.1</f>
-        <v>0.41000000000000003</v>
+        <v>0.25</v>
       </c>
       <c r="D9" t="s">
         <v>315</v>
@@ -3656,7 +3662,7 @@
       </c>
       <c r="C62" s="4">
         <f>((C3+C4+C5)*(C7+C8+C9)*(C59))/1000</f>
-        <v>10.992105000000002</v>
+        <v>9.5794650000000008</v>
       </c>
       <c r="D62" t="s">
         <v>322</v>
@@ -3668,7 +3674,7 @@
       </c>
       <c r="C63" s="4">
         <f>((C3+C4+C5)*(C7+C8+C9)*(C58+C59))/1000</f>
-        <v>32.976315</v>
+        <v>28.738395000000001</v>
       </c>
       <c r="D63" t="s">
         <v>322</v>
@@ -3680,7 +3686,7 @@
       </c>
       <c r="C64" s="2">
         <f>((C4+C5)*(C8+C9)*(C58+C59))/1000</f>
-        <v>9.4911750000000001</v>
+        <v>7.1367749999999992</v>
       </c>
       <c r="D64" t="s">
         <v>322</v>
@@ -3691,8 +3697,8 @@
         <v>575</v>
       </c>
       <c r="C65" s="2">
-        <f>((C5)*(C9+C6)*(C58+C59))/1000</f>
-        <v>1.3390649999999999</v>
+        <f>((C5)*(C9+C6)*(C59))/1000</f>
+        <v>0.36787500000000001</v>
       </c>
       <c r="D65" t="s">
         <v>322</v>
@@ -3704,7 +3710,7 @@
       </c>
       <c r="C66" s="2">
         <f>((C5)*(C9+C6)*(C59))/1000</f>
-        <v>0.446355</v>
+        <v>0.36787500000000001</v>
       </c>
       <c r="D66" t="s">
         <v>322</v>
@@ -3716,7 +3722,7 @@
       </c>
       <c r="C67" s="2">
         <f>C62/C10</f>
-        <v>1.8320175000000003</v>
+        <v>1.5965775000000002</v>
       </c>
       <c r="D67" t="s">
         <v>322</v>
@@ -3728,7 +3734,7 @@
       </c>
       <c r="C68" s="2">
         <f>C63/C16</f>
-        <v>1.93220595703125</v>
+        <v>1.6838903320312502</v>
       </c>
       <c r="D68" t="s">
         <v>322</v>
@@ -3740,7 +3746,7 @@
       </c>
       <c r="C69" s="2">
         <f>C64/C26</f>
-        <v>1.334696484375</v>
+        <v>1.003608984375</v>
       </c>
       <c r="D69" t="s">
         <v>322</v>
@@ -3752,7 +3758,7 @@
       </c>
       <c r="C70" s="2">
         <f>C65/C36</f>
-        <v>0.35867812499999996</v>
+        <v>9.853794642857143E-2</v>
       </c>
       <c r="D70" t="s">
         <v>322</v>
@@ -3764,7 +3770,7 @@
       </c>
       <c r="C71" s="2">
         <f>C66/C36</f>
-        <v>0.119559375</v>
+        <v>9.853794642857143E-2</v>
       </c>
       <c r="D71" t="s">
         <v>322</v>
@@ -3841,7 +3847,7 @@
       </c>
       <c r="C74" s="2">
         <f>C67*(1+C57)</f>
-        <v>2.3816227500000005</v>
+        <v>2.0755507500000006</v>
       </c>
       <c r="D74" t="s">
         <v>322</v>
@@ -3887,7 +3893,7 @@
       </c>
       <c r="C75" s="2">
         <f>C68*(1+C57)</f>
-        <v>2.5118677441406252</v>
+        <v>2.1890574316406255</v>
       </c>
       <c r="D75" t="s">
         <v>322</v>
@@ -3933,7 +3939,7 @@
       </c>
       <c r="C76" s="2">
         <f>C69*(1+C57)</f>
-        <v>1.7351054296875001</v>
+        <v>1.3046916796875001</v>
       </c>
       <c r="D76" t="s">
         <v>322</v>
@@ -3989,44 +3995,44 @@
       </c>
       <c r="C77" s="2">
         <f>C70*(1+C57)</f>
-        <v>0.46628156249999997</v>
+        <v>0.12809933035714285</v>
       </c>
       <c r="D77" t="s">
         <v>322</v>
       </c>
       <c r="E77" s="11" t="s">
-        <v>459</v>
-      </c>
-      <c r="F77" s="27">
-        <v>1.8</v>
-      </c>
-      <c r="G77" s="27" t="s">
+        <v>422</v>
+      </c>
+      <c r="F77" s="28">
+        <v>0.9</v>
+      </c>
+      <c r="G77" s="28" t="s">
         <v>374</v>
       </c>
-      <c r="H77" s="27" t="s">
+      <c r="H77" s="28" t="s">
         <v>423</v>
       </c>
-      <c r="I77" s="27" t="s">
-        <v>433</v>
-      </c>
-      <c r="J77" s="27">
+      <c r="I77" s="28" t="s">
+        <v>424</v>
+      </c>
+      <c r="J77" s="28">
         <v>5</v>
       </c>
-      <c r="K77" s="15">
-        <v>45</v>
-      </c>
-      <c r="L77" s="27">
-        <v>2</v>
-      </c>
-      <c r="M77" s="27" t="s">
+      <c r="K77" s="28">
+        <v>11</v>
+      </c>
+      <c r="L77" s="28">
+        <v>1.2</v>
+      </c>
+      <c r="M77" s="28" t="s">
         <v>377</v>
       </c>
-      <c r="N77" s="27">
-        <v>0.31</v>
-      </c>
-      <c r="O77" s="17">
+      <c r="N77" s="28">
+        <v>0.15</v>
+      </c>
+      <c r="O77" s="18">
         <f t="shared" si="0"/>
-        <v>145.16129032258064</v>
+        <v>73.333333333333343</v>
       </c>
       <c r="P77" s="11"/>
       <c r="Q77" s="14"/>
@@ -4050,7 +4056,7 @@
       </c>
       <c r="C78" s="2">
         <f>C71*(1+C57)</f>
-        <v>0.15542718750000001</v>
+        <v>0.12809933035714285</v>
       </c>
       <c r="D78" t="s">
         <v>322</v>
@@ -4619,161 +4625,197 @@
       </c>
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>581</v>
+      <c r="E93" s="11" t="s">
+        <v>422</v>
+      </c>
+      <c r="F93" s="28">
+        <v>0.9</v>
+      </c>
+      <c r="G93" s="28" t="s">
+        <v>374</v>
+      </c>
+      <c r="H93" s="28" t="s">
+        <v>423</v>
+      </c>
+      <c r="I93" s="28" t="s">
+        <v>424</v>
+      </c>
+      <c r="J93" s="28">
+        <v>5</v>
+      </c>
+      <c r="K93" s="28">
+        <v>11</v>
+      </c>
+      <c r="L93" s="28">
+        <v>1.2</v>
+      </c>
+      <c r="M93" s="28" t="s">
+        <v>377</v>
+      </c>
+      <c r="N93" s="28">
+        <v>0.15</v>
+      </c>
+      <c r="O93" s="18">
+        <f t="shared" ref="O93" si="4">K93/N93</f>
+        <v>73.333333333333343</v>
       </c>
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
         <v>584</v>
       </c>
-      <c r="C94" s="19">
+      <c r="C95" s="19">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D95" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
         <v>589</v>
       </c>
-      <c r="C95" s="19">
+      <c r="C96" s="19">
         <f>(C15/1000/2)</f>
         <v>7.1619724391352904E-2</v>
       </c>
-      <c r="D95" t="s">
+      <c r="D96" t="s">
         <v>590</v>
-      </c>
-    </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
-        <v>585</v>
-      </c>
-      <c r="C96" s="19">
-        <f>C62/C95</f>
-        <v>153.47873917994505</v>
-      </c>
-      <c r="D96" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
+        <v>585</v>
+      </c>
+      <c r="C97" s="19">
+        <f>C62/C96</f>
+        <v>133.75456386364689</v>
+      </c>
+      <c r="D97" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
         <v>586</v>
       </c>
-      <c r="C97" s="19">
-        <f>(C94)*C96*2*PI()</f>
-        <v>964.33535897987861</v>
-      </c>
-      <c r="D97" t="s">
+      <c r="C98" s="19">
+        <f>(C95)*C97*2*PI()</f>
+        <v>840.40471043627974</v>
+      </c>
+      <c r="D98" t="s">
         <v>583</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>584</v>
-      </c>
-      <c r="C100" s="20">
-        <v>1</v>
-      </c>
-      <c r="D100" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
+        <v>584</v>
+      </c>
+      <c r="C101" s="20">
+        <v>1</v>
+      </c>
+      <c r="D101" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
         <v>589</v>
       </c>
-      <c r="C101" s="20">
+      <c r="C102" s="20">
         <f>(C21/1000/2)</f>
         <v>3.8197186342054885E-2</v>
       </c>
-      <c r="D101" t="s">
+      <c r="D102" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
-        <v>585</v>
-      </c>
-      <c r="C102" s="20">
-        <f>C63/C101</f>
-        <v>863.3179078871907</v>
-      </c>
-      <c r="D102" t="s">
-        <v>582</v>
-      </c>
-      <c r="E102" s="20"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
+        <v>585</v>
+      </c>
+      <c r="C103" s="20">
+        <f>C63/C102</f>
+        <v>752.36942173301361</v>
+      </c>
+      <c r="D103" t="s">
+        <v>582</v>
+      </c>
+      <c r="E103" s="20"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
         <v>586</v>
       </c>
-      <c r="C103" s="20">
-        <f>(C100)*C102*2*PI()</f>
-        <v>5424.3863942618163</v>
-      </c>
-      <c r="D103" t="s">
+      <c r="C104" s="20">
+        <f>(C101)*C103*2*PI()</f>
+        <v>4727.2764962040728</v>
+      </c>
+      <c r="D104" t="s">
         <v>583</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
         <v>584</v>
       </c>
-      <c r="C106" s="20">
+      <c r="C107" s="20">
         <f>60*C18/C20</f>
         <v>18.75</v>
       </c>
-      <c r="D106" t="s">
+      <c r="D107" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
         <v>589</v>
       </c>
-      <c r="C107" s="20">
+      <c r="C108" s="20">
         <f>(C25/1000/2)</f>
         <v>6.3661977236758135E-2</v>
       </c>
-      <c r="D107" t="s">
+      <c r="D108" t="s">
         <v>590</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
-        <v>585</v>
-      </c>
-      <c r="C108" s="20">
-        <f>C63/(C20/C18)/C107</f>
-        <v>161.87210772884828</v>
-      </c>
-      <c r="D108" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
+        <v>585</v>
+      </c>
+      <c r="C109" s="20">
+        <f>C63/(C20/C18)/C108</f>
+        <v>141.06926657494006</v>
+      </c>
+      <c r="D109" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
         <v>586</v>
       </c>
-      <c r="C109" s="20">
-        <f>(C106/60)*C108*2*PI()</f>
-        <v>317.83514028877835</v>
-      </c>
-      <c r="D109" t="s">
+      <c r="C110" s="20">
+        <f>(C107/60)*C109*2*PI()</f>
+        <v>276.98885719945736</v>
+      </c>
+      <c r="D110" t="s">
         <v>583</v>
       </c>
     </row>
@@ -4795,11 +4837,12 @@
     <hyperlink ref="E89" r:id="rId14" display="http://www.omc-stepperonline.com/nema-14-bipolar-stepper-54v-08a-18ncm255ozin-14hs130804s-p-93.html"/>
     <hyperlink ref="E91" r:id="rId15" display="http://www.omc-stepperonline.com/nema-14-bipolar-stepper-12v-04a-14ncm20ozin-14hs100404s-p-90.html"/>
     <hyperlink ref="E78" r:id="rId16" display="http://www.omc-stepperonline.com/nema-14-bipolar-stepper-54v-08a-18ncm255ozin-14hs130804s-p-93.html"/>
-    <hyperlink ref="E77" r:id="rId17" display="http://www.omc-stepperonline.com/3d-printer-nema-17-stepper-motor-2a-45ncm64ozin-17hs162004s-p-16.html"/>
-    <hyperlink ref="E88" r:id="rId18" display="http://www.omc-stepperonline.com/9deg-nema-17-unipolar-stepper-motor-12v-031a-16ncm227ozin-17hm130316s-p-262.html"/>
+    <hyperlink ref="E88" r:id="rId17" display="http://www.omc-stepperonline.com/9deg-nema-17-unipolar-stepper-motor-12v-031a-16ncm227ozin-17hm130316s-p-262.html"/>
+    <hyperlink ref="E93" r:id="rId18" display="http://www.omc-stepperonline.com/09-nema-17-bipolar-stepper-12a-11ncm156ozin-17hm081204s-p-99.html"/>
+    <hyperlink ref="E77" r:id="rId19" display="http://www.omc-stepperonline.com/09-nema-17-bipolar-stepper-12a-11ncm156ozin-17hm081204s-p-99.html"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId19"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId20"/>
 </worksheet>
 </file>
 
@@ -7444,8 +7487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J103"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="J36" sqref="A36:J36"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="J33" sqref="A33:J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7465,8 +7508,8 @@
       <c r="A3" s="10"/>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
@@ -7482,10 +7525,10 @@
       <c r="C4" s="10" t="s">
         <v>359</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="31" t="s">
         <v>360</v>
       </c>
-      <c r="E4" s="30"/>
+      <c r="E4" s="31"/>
       <c r="F4" s="10" t="s">
         <v>361</v>
       </c>
@@ -10933,7 +10976,7 @@
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10942,7 +10985,7 @@
     <col min="2" max="2" width="16.77734375" customWidth="1"/>
     <col min="3" max="3" width="54.88671875" customWidth="1"/>
     <col min="4" max="4" width="42.33203125" customWidth="1"/>
-    <col min="5" max="5" width="25.21875" style="28" customWidth="1"/>
+    <col min="5" max="5" width="25.21875" style="29" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -10955,7 +10998,7 @@
       <c r="D1" t="s">
         <v>602</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="29" t="s">
         <v>599</v>
       </c>
       <c r="F1" t="s">
@@ -10983,7 +11026,7 @@
       <c r="D3" t="s">
         <v>666</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="29" t="s">
         <v>664</v>
       </c>
       <c r="F3">
@@ -11000,7 +11043,7 @@
       <c r="D4" t="s">
         <v>668</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="E4" s="29" t="s">
         <v>662</v>
       </c>
       <c r="F4">
@@ -11022,7 +11065,7 @@
       <c r="D6" t="s">
         <v>671</v>
       </c>
-      <c r="E6" s="28" t="s">
+      <c r="E6" s="29" t="s">
         <v>557</v>
       </c>
       <c r="F6">
@@ -11039,7 +11082,7 @@
       <c r="D7" t="s">
         <v>672</v>
       </c>
-      <c r="E7" s="28" t="s">
+      <c r="E7" s="29" t="s">
         <v>690</v>
       </c>
       <c r="F7">
@@ -11056,7 +11099,7 @@
       <c r="D8" t="s">
         <v>675</v>
       </c>
-      <c r="E8" s="28" t="s">
+      <c r="E8" s="29" t="s">
         <v>673</v>
       </c>
       <c r="F8">
@@ -11073,7 +11116,7 @@
       <c r="D9" t="s">
         <v>678</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="29" t="s">
         <v>677</v>
       </c>
       <c r="F9">
@@ -11090,7 +11133,7 @@
       <c r="D10" t="s">
         <v>680</v>
       </c>
-      <c r="E10" s="28" t="s">
+      <c r="E10" s="29" t="s">
         <v>681</v>
       </c>
       <c r="F10">
@@ -11098,6 +11141,9 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>692</v>
+      </c>
       <c r="B12">
         <v>1</v>
       </c>
@@ -11107,7 +11153,7 @@
       <c r="D12" s="6" t="s">
         <v>603</v>
       </c>
-      <c r="E12" s="28" t="s">
+      <c r="E12" s="29" t="s">
         <v>554</v>
       </c>
       <c r="F12">
@@ -11131,7 +11177,7 @@
       <c r="D13" t="s">
         <v>622</v>
       </c>
-      <c r="E13" s="28" t="s">
+      <c r="E13" s="29" t="s">
         <v>613</v>
       </c>
       <c r="F13">
@@ -11155,7 +11201,7 @@
       <c r="D14" t="s">
         <v>617</v>
       </c>
-      <c r="E14" s="29" t="s">
+      <c r="E14" s="30" t="s">
         <v>615</v>
       </c>
       <c r="F14">
@@ -11179,7 +11225,7 @@
       <c r="D15" t="s">
         <v>618</v>
       </c>
-      <c r="E15" s="28" t="s">
+      <c r="E15" s="29" t="s">
         <v>619</v>
       </c>
       <c r="F15">
@@ -11255,7 +11301,7 @@
       <c r="D19" s="8" t="s">
         <v>651</v>
       </c>
-      <c r="E19" s="28" t="s">
+      <c r="E19" s="29" t="s">
         <v>649</v>
       </c>
       <c r="F19">
@@ -11291,7 +11337,7 @@
       <c r="D21" t="s">
         <v>642</v>
       </c>
-      <c r="E21" s="29" t="s">
+      <c r="E21" s="30" t="s">
         <v>615</v>
       </c>
       <c r="F21">
@@ -11321,7 +11367,7 @@
       <c r="D23" t="s">
         <v>656</v>
       </c>
-      <c r="E23" s="28" t="s">
+      <c r="E23" s="29" t="s">
         <v>654</v>
       </c>
       <c r="F23">
@@ -11472,7 +11518,7 @@
       <c r="D34" t="s">
         <v>604</v>
       </c>
-      <c r="E34" s="28" t="s">
+      <c r="E34" s="29" t="s">
         <v>608</v>
       </c>
       <c r="F34">
@@ -11496,7 +11542,7 @@
       <c r="D35" t="s">
         <v>611</v>
       </c>
-      <c r="E35" s="28" t="s">
+      <c r="E35" s="29" t="s">
         <v>605</v>
       </c>
       <c r="G35" s="23">

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Bezugsquellen" sheetId="2" r:id="rId1"/>
@@ -10918,8 +10918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10938,7 +10938,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="9" t="s">
         <v>562</v>
       </c>
     </row>
@@ -10965,9 +10965,10 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A7" r:id="rId1"/>
+    <hyperlink ref="A4" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -10975,7 +10976,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Bezugsquellen" sheetId="2" r:id="rId1"/>
@@ -15,12 +15,12 @@
     <sheet name="Rotary Encoder" sheetId="6" r:id="rId6"/>
     <sheet name="BOM" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1597" uniqueCount="693">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1659" uniqueCount="743">
   <si>
     <t>Bauteilnummer</t>
   </si>
@@ -1840,12 +1840,6 @@
     <t>https://www.conrad.de/de/messing-rund-profil-x-l-2-mm-x-500-mm-297224.html</t>
   </si>
   <si>
-    <t>Einzelpreis</t>
-  </si>
-  <si>
-    <t>gesamtpreis</t>
-  </si>
-  <si>
     <t>http://www.kugellager-express.de/nadelhuelse-nadellager-hk-0408-hk0408-4x8x8-mm.html</t>
   </si>
   <si>
@@ -1861,12 +1855,6 @@
     <t>Rillenkugellager DIN 625 SKF - SKF 61818 - 90x115x13</t>
   </si>
   <si>
-    <t>https://www.maedler.de/Article/16222000</t>
-  </si>
-  <si>
-    <t>Zahnriemenscheibe T5, 20 Zähne</t>
-  </si>
-  <si>
     <t>http://www.kugellager-express.de/kugellager-zoll-inch-r2-3-175x9-525x3-967-mm.html</t>
   </si>
   <si>
@@ -1888,9 +1876,6 @@
     <t>Berechnung Zahnriemenscheibe T25</t>
   </si>
   <si>
-    <t>Schulter Antrieb Riemenscheibe</t>
-  </si>
-  <si>
     <t>Schulter Motor</t>
   </si>
   <si>
@@ -2011,12 +1996,6 @@
     <t>http://www.bastel-dehs.de/products/de/Mechanik-Kleinteile/Abstandsbolzen/M3-Stahl-Sechskant/Abstandsbolzen-M3-L-5mm-Stahl-verzinkt.html</t>
   </si>
   <si>
-    <t>Innensechskant M3 22 mm</t>
-  </si>
-  <si>
-    <t>http://www.amazon.de/Zylinderkopfschrauben-Edelstahl-Zylinderschrauben-Inbusschrauben-Innensechskant/dp/B018XL6EMK/ref=sr_1_1?ie=UTF8&amp;qid=1457742634&amp;sr=8-1&amp;keywords=Innensechskant+M3+22</t>
-  </si>
-  <si>
     <t>Grippermount</t>
   </si>
   <si>
@@ -2041,9 +2020,6 @@
     <t>Befestigung Lagerdeckel</t>
   </si>
   <si>
-    <t>https://www.conrad.de/de/zylinderschrauben-m3-20-mm-innensechskant-din-7984-edelstahl-a2-100-st-1068354.html</t>
-  </si>
-  <si>
     <t>Zylinderkopfschraube Innensechskant M3 20mm</t>
   </si>
   <si>
@@ -2092,13 +2068,187 @@
     <t>http://www.dswaelzlager.de/Rillenkugellager-686-ZZ-beidseitig-Stahldeckscheiben-6x13x5mm-</t>
   </si>
   <si>
-    <t>https://www.conrad.de/de/senkschrauben-m3-14-mm-innensechskant-iso-10642-edelstahl-a2-100-st-1069038.html</t>
-  </si>
-  <si>
-    <t>Senkschraube Innensechskant M3 14mm</t>
-  </si>
-  <si>
     <t>Wrist</t>
+  </si>
+  <si>
+    <t>Zahnriemenscheibe T2,5, 16 Zähne</t>
+  </si>
+  <si>
+    <t>Zahnriemenscheibe Motor</t>
+  </si>
+  <si>
+    <t>Zahnriemenscheibe groß Zwischenwelle</t>
+  </si>
+  <si>
+    <t>Zahnriemenscheibe klein Zwischenwelle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Achse Zwischenwelle </t>
+  </si>
+  <si>
+    <t>http://www.cncshop.at/index.php?a=10119</t>
+  </si>
+  <si>
+    <t>http://www.cncshop.at/index.php?a=10133</t>
+  </si>
+  <si>
+    <t>Zahnriemenscheibe T2,5, 44 Zähne</t>
+  </si>
+  <si>
+    <t>http://www.cncshop.at/index.php?a=10118</t>
+  </si>
+  <si>
+    <t>Zahnriemen Motor/Zwischenwelle (Solllänge 164)</t>
+  </si>
+  <si>
+    <t>http://www.cncshop.at/index.php?a=10121</t>
+  </si>
+  <si>
+    <t>Zahnriemen T2,5 160mm</t>
+  </si>
+  <si>
+    <t>http://www.kugellager-express.de/edelstahl-miniatur-kugellager-ss-mr106-6x10x3-mm.html</t>
+  </si>
+  <si>
+    <t>Rillenkugellager 6x10x3</t>
+  </si>
+  <si>
+    <t>Lager Zwischenwelle</t>
+  </si>
+  <si>
+    <t>https://www.conrad.de/de/silberstahl-welle-500-mm-6-mm-237086.html</t>
+  </si>
+  <si>
+    <t>NEMA 17 - 42x42x21</t>
+  </si>
+  <si>
+    <t>Motor</t>
+  </si>
+  <si>
+    <t>http://eu.stepperonline.com/09-nema-17-bipolar-stepper-12a-11ncm156ozin-17hm081204s-p-99.html</t>
+  </si>
+  <si>
+    <t>Zylinderkopfschraube Innensechskant M3 14mm</t>
+  </si>
+  <si>
+    <t>Befestigung Motor</t>
+  </si>
+  <si>
+    <t>https://www.conrad.de/de/unterlegscheiben-innen-durchmesser-32-mm-m3-din-125-stahl-verzinkt-100-st-toolcraft-814628-814628.html</t>
+  </si>
+  <si>
+    <t>Unterlegscheiben M3 Dicke 0,5mm</t>
+  </si>
+  <si>
+    <t>Zylinderkopfschraube Innensechskant M3 16mm</t>
+  </si>
+  <si>
+    <t>http://www.amazon.de/Zylinderkopfschrauben-Edelstahl-Zylinderschrauben-Inbusschrauben-Innensechskant/dp/B018XL6434/ref=sr_1_1?ie=UTF8&amp;qid=1458909560&amp;sr=8-1&amp;keywords=zylinderkopfschraube+Innensechskant+M3+16mm</t>
+  </si>
+  <si>
+    <t>RiemenSpanner Schraube</t>
+  </si>
+  <si>
+    <t>Zahnriemen T2,5 230mm</t>
+  </si>
+  <si>
+    <t>Zahnriemen Zwischenwelle WristRot (Solllänge 227mm)</t>
+  </si>
+  <si>
+    <t>http://www.cncshop.at/index.php?a=10276</t>
+  </si>
+  <si>
+    <t>Vierkant Mutter M3</t>
+  </si>
+  <si>
+    <t>Zylinderkopfschraube Innensechskant M2 6mm</t>
+  </si>
+  <si>
+    <t>Sensor Befestigung</t>
+  </si>
+  <si>
+    <t>Rotary Sensor</t>
+  </si>
+  <si>
+    <t>http://www.amazon.de/Zylinderkopfschraube-Innensechskant-M2x6-Edelstahl-Stk/dp/B00S2U8WOG/ref=sr_1_4?ie=UTF8&amp;qid=1458910540&amp;sr=8-4&amp;keywords=zylinderkopfschraube+Innensechskant+M2+6mm</t>
+  </si>
+  <si>
+    <t>http://www.digikey.de/product-detail/de/ams/AS5048B-TS_EK_AB/AS5048B-AB-1.0-ND/3188613</t>
+  </si>
+  <si>
+    <t>VPE</t>
+  </si>
+  <si>
+    <t>Sensor</t>
+  </si>
+  <si>
+    <t>Sensor befestigung</t>
+  </si>
+  <si>
+    <t>Unterlegscheiben M2 Dicke 0,5mm</t>
+  </si>
+  <si>
+    <t>https://www.conrad.de/de/unterlegscheiben-innen-durchmesser-22-mm-m2-din-125-stahl-verzinkt-100-st-toolcraft-a22-d125a2k-194696-521659.html</t>
+  </si>
+  <si>
+    <t>http://www.kugellager-express.de/kugellager-zoll-inch-r155-3-967x7-938x3-175-mm.html</t>
+  </si>
+  <si>
+    <t>Riemenspanner Kugellager</t>
+  </si>
+  <si>
+    <t>Rillenkugellager  3.967 x 7.938 x 3.175 mm</t>
+  </si>
+  <si>
+    <t>https://www.reichelt.de/DI-20MM/3/index.html?&amp;ACTION=3&amp;LA=446&amp;ARTICLE=7121&amp;artnr=DI+20MM&amp;SEARCH=distanzbolzen</t>
+  </si>
+  <si>
+    <t>Gabelbefestigung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gabelbefestigung </t>
+  </si>
+  <si>
+    <t>Distanzbolzen M3 20mm</t>
+  </si>
+  <si>
+    <t>Befestigung ElbowFlansch</t>
+  </si>
+  <si>
+    <t>http://www.amazon.de/Zylinderkopfschrauben-Edelstahl-Zylinderschrauben-Inbusschrauben-Innensechskant/dp/B018XL6B6O/ref=sr_1_1?ie=UTF8&amp;qid=1458914864&amp;sr=8-1&amp;keywords=zylinderkopfschraube+Innensechskant+M3+20mm</t>
+  </si>
+  <si>
+    <t>Preis VPE</t>
+  </si>
+  <si>
+    <t>benötigt</t>
+  </si>
+  <si>
+    <t>Stück Übrig</t>
+  </si>
+  <si>
+    <t>Silberstahlwelle 6mm Durchmesser</t>
+  </si>
+  <si>
+    <t>Zahnriemenscheibe T2,5, 18 Zähne</t>
+  </si>
+  <si>
+    <t>Zahnriemenscheibe T2,5, 14 Zähne</t>
+  </si>
+  <si>
+    <t>Zahnriemenscheibe Motor Zwischenwelle (Ersatz)</t>
+  </si>
+  <si>
+    <t>http://www.cncshop.at/index.php?a=10273</t>
+  </si>
+  <si>
+    <t>Zylinderkopfschraube Innensechskant M3 22mm</t>
+  </si>
+  <si>
+    <t>https://www.reichelt.de/Distanzhuelsen-etc-/DI-5MM/3/index.html?&amp;ACTION=3&amp;LA=2&amp;ARTICLE=7123&amp;GROUPID=3365&amp;artnr=DI+5MM</t>
+  </si>
+  <si>
+    <t>Bestellmenge</t>
   </si>
 </sst>
 </file>
@@ -2168,7 +2318,7 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2229,12 +2379,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Komma" xfId="2" builtinId="3"/>
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Währung" xfId="3" builtinId="4"/>
   </cellStyles>
@@ -2476,9 +2630,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Larissa">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2516,9 +2670,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Larissa">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2553,7 +2707,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2588,7 +2742,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Larissa">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2764,8 +2918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E43"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2877,12 +3031,12 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E27" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E28" t="s">
-        <v>689</v>
+        <v>681</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -2917,18 +3071,18 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="E34" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="E35" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -2936,47 +3090,47 @@
         <v>236</v>
       </c>
       <c r="E37" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="E38" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="E40" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>682</v>
+        <v>674</v>
       </c>
       <c r="E41" t="s">
-        <v>683</v>
+        <v>675</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>684</v>
+        <v>676</v>
       </c>
       <c r="E42" t="s">
-        <v>685</v>
+        <v>677</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>687</v>
+        <v>679</v>
       </c>
       <c r="E43" t="s">
-        <v>686</v>
+        <v>678</v>
       </c>
     </row>
   </sheetData>
@@ -2988,7 +3142,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:AD110"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A55" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="E77" sqref="E77"/>
     </sheetView>
   </sheetViews>
@@ -3389,7 +3543,7 @@
       </c>
       <c r="C36" s="5">
         <f>C40/C38*(C44/C42)</f>
-        <v>3.7333333333333334</v>
+        <v>9.1875</v>
       </c>
       <c r="D36" t="s">
         <v>325</v>
@@ -3411,7 +3565,7 @@
         <v>341</v>
       </c>
       <c r="C38" s="6">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D38" t="s">
         <v>338</v>
@@ -3423,7 +3577,7 @@
       </c>
       <c r="C39" s="4">
         <f>C38*C37/PI()</f>
-        <v>11.93662073189215</v>
+        <v>12.732395447351628</v>
       </c>
       <c r="D39" t="s">
         <v>340</v>
@@ -3434,7 +3588,7 @@
         <v>342</v>
       </c>
       <c r="C40" s="7">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="D40" t="s">
         <v>338</v>
@@ -3446,7 +3600,7 @@
       </c>
       <c r="C41" s="4">
         <f>C40*C37/PI()</f>
-        <v>11.93662073189215</v>
+        <v>33.422538049298019</v>
       </c>
       <c r="D41" t="s">
         <v>340</v>
@@ -3457,7 +3611,7 @@
         <v>344</v>
       </c>
       <c r="C42" s="6">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D42" t="s">
         <v>338</v>
@@ -3469,7 +3623,7 @@
       </c>
       <c r="C43" s="4">
         <f>C42*C37/PI()</f>
-        <v>11.93662073189215</v>
+        <v>12.732395447351628</v>
       </c>
       <c r="D43" t="s">
         <v>340</v>
@@ -3758,7 +3912,7 @@
       </c>
       <c r="C70" s="2">
         <f>C65/C36</f>
-        <v>9.853794642857143E-2</v>
+        <v>4.0040816326530615E-2</v>
       </c>
       <c r="D70" t="s">
         <v>322</v>
@@ -3770,7 +3924,7 @@
       </c>
       <c r="C71" s="2">
         <f>C66/C36</f>
-        <v>9.853794642857143E-2</v>
+        <v>4.0040816326530615E-2</v>
       </c>
       <c r="D71" t="s">
         <v>322</v>
@@ -3995,7 +4149,7 @@
       </c>
       <c r="C77" s="2">
         <f>C70*(1+C57)</f>
-        <v>0.12809933035714285</v>
+        <v>5.2053061224489799E-2</v>
       </c>
       <c r="D77" t="s">
         <v>322</v>
@@ -4056,7 +4210,7 @@
       </c>
       <c r="C78" s="2">
         <f>C71*(1+C57)</f>
-        <v>0.12809933035714285</v>
+        <v>5.2053061224489799E-2</v>
       </c>
       <c r="D78" t="s">
         <v>322</v>
@@ -7342,7 +7496,7 @@
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
@@ -7418,7 +7572,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -7508,8 +7662,8 @@
       <c r="A3" s="10"/>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
@@ -7525,10 +7679,10 @@
       <c r="C4" s="10" t="s">
         <v>359</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="33" t="s">
         <v>360</v>
       </c>
-      <c r="E4" s="31"/>
+      <c r="E4" s="33"/>
       <c r="F4" s="10" t="s">
         <v>361</v>
       </c>
@@ -10916,9 +11070,9 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -10942,29 +11096,34 @@
         <v>562</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
         <v>563</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>567</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A7" r:id="rId1"/>
+    <hyperlink ref="A8" r:id="rId1"/>
     <hyperlink ref="A4" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -10974,10 +11133,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:J95"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49:XFD49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10989,7 +11148,7 @@
     <col min="5" max="5" width="25.21875" style="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>601</v>
       </c>
@@ -11005,570 +11164,1569 @@
       <c r="F1" t="s">
         <v>600</v>
       </c>
-      <c r="G1" t="s">
-        <v>606</v>
-      </c>
-      <c r="H1" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>663</v>
+        <v>4</v>
+      </c>
+      <c r="C3" t="str">
+        <f>C41</f>
+        <v>Zylinderkopfschraube Innensechskant M3 22mm</v>
       </c>
       <c r="D3" t="s">
-        <v>666</v>
-      </c>
-      <c r="E3" s="29" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
       <c r="D4" t="s">
-        <v>668</v>
-      </c>
-      <c r="E4" s="29" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6" t="s">
-        <v>669</v>
+      <c r="C6" t="str">
+        <f>C63</f>
+        <v>Rillenkugellager DIN 625 SKF - 61807 35x47x7mm</v>
       </c>
       <c r="D6" t="s">
-        <v>671</v>
-      </c>
-      <c r="E6" s="29" t="s">
-        <v>557</v>
+        <v>664</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>4</v>
       </c>
-      <c r="C7" t="s">
-        <v>691</v>
+      <c r="C7" t="str">
+        <f>C44</f>
+        <v>Zylinderkopfschraube Innensechskant M3 14mm</v>
       </c>
       <c r="D7" t="s">
-        <v>672</v>
-      </c>
-      <c r="E7" s="29" t="s">
-        <v>690</v>
+        <v>665</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>4</v>
       </c>
-      <c r="C8" t="s">
-        <v>674</v>
+      <c r="C8" t="str">
+        <f>C40</f>
+        <v>Zylinderkopfschraube Innensechskant M3 20mm</v>
       </c>
       <c r="D8" t="s">
-        <v>675</v>
-      </c>
-      <c r="E8" s="29" t="s">
-        <v>673</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>4</v>
       </c>
-      <c r="C9" t="s">
-        <v>676</v>
+      <c r="C9" t="str">
+        <f>C46</f>
+        <v>Muttern M3</v>
       </c>
       <c r="D9" t="s">
-        <v>678</v>
-      </c>
-      <c r="E9" s="29" t="s">
-        <v>677</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>2</v>
       </c>
-      <c r="C10" t="s">
-        <v>679</v>
+      <c r="C10" t="str">
+        <f>C62</f>
+        <v>Rillenkugellager DIN 625 SKF - 61902 15x28x7mm</v>
       </c>
       <c r="D10" t="s">
-        <v>680</v>
-      </c>
-      <c r="E10" s="29" t="s">
-        <v>681</v>
-      </c>
-      <c r="F10">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="str">
+        <f>C52</f>
+        <v>Zahnriemenscheibe T2,5, 16 Zähne</v>
+      </c>
+      <c r="D13" t="s">
+        <v>686</v>
+      </c>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="str">
+        <f>C53</f>
+        <v>Zahnriemenscheibe T2,5, 44 Zähne</v>
+      </c>
+      <c r="D14" t="s">
+        <v>685</v>
+      </c>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="str">
+        <f>C52</f>
+        <v>Zahnriemenscheibe T2,5, 16 Zähne</v>
+      </c>
+      <c r="D15" t="s">
+        <v>684</v>
+      </c>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="str">
+        <f>C54</f>
+        <v>Zahnriemenscheibe T2,5, 18 Zähne</v>
+      </c>
+      <c r="D16" t="s">
+        <v>738</v>
+      </c>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="str">
+        <f>C55</f>
+        <v>Zahnriemenscheibe T2,5, 14 Zähne</v>
+      </c>
+      <c r="D17" t="s">
+        <v>738</v>
+      </c>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="str">
+        <f>C57</f>
+        <v>Zahnriemen T2,5 160mm</v>
+      </c>
+      <c r="D18" t="s">
+        <v>692</v>
+      </c>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+    </row>
+    <row r="19" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>46</v>
+      </c>
+      <c r="C19" t="str">
+        <f>C49</f>
+        <v>Silberstahlwelle 6mm Durchmesser</v>
+      </c>
+      <c r="D19" t="s">
+        <v>687</v>
+      </c>
+      <c r="E19" s="26"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+    </row>
+    <row r="20" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" t="str">
+        <f>C61</f>
+        <v>Rillenkugellager 6x10x3</v>
+      </c>
+      <c r="D20" t="s">
+        <v>697</v>
+      </c>
+      <c r="E20" s="26"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+    </row>
+    <row r="21" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" s="31" t="str">
+        <f>C58</f>
+        <v>NEMA 17 - 42x42x21</v>
+      </c>
+      <c r="D21" s="31" t="s">
+        <v>700</v>
+      </c>
+      <c r="E21" s="26"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+    </row>
+    <row r="22" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22" s="31" t="str">
+        <f>C44</f>
+        <v>Zylinderkopfschraube Innensechskant M3 14mm</v>
+      </c>
+      <c r="D22" s="31" t="s">
+        <v>703</v>
+      </c>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+    </row>
+    <row r="23" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23" s="31" t="str">
+        <f>C47</f>
+        <v>Unterlegscheiben M3 Dicke 0,5mm</v>
+      </c>
+      <c r="D23" s="31" t="s">
+        <v>703</v>
+      </c>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+    </row>
+    <row r="24" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" s="31" t="str">
+        <f>C56</f>
+        <v>Zahnriemen T2,5 230mm</v>
+      </c>
+      <c r="D24" s="31" t="s">
+        <v>710</v>
+      </c>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+    </row>
+    <row r="25" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" s="31" t="str">
+        <f>C42</f>
+        <v>Zylinderkopfschraube Innensechskant M3 16mm</v>
+      </c>
+      <c r="D25" s="31" t="s">
+        <v>708</v>
+      </c>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+    </row>
+    <row r="26" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26" s="31" t="str">
+        <f>C47</f>
+        <v>Unterlegscheiben M3 Dicke 0,5mm</v>
+      </c>
+      <c r="D26" s="31" t="s">
+        <v>708</v>
+      </c>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+    </row>
+    <row r="27" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27" s="31" t="str">
+        <f>C60</f>
+        <v>Rillenkugellager  3.967 x 7.938 x 3.175 mm</v>
+      </c>
+      <c r="D27" s="31" t="s">
+        <v>724</v>
+      </c>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+    </row>
+    <row r="28" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" s="31" t="str">
+        <f>C45</f>
+        <v>Vierkant Mutter M3</v>
+      </c>
+      <c r="D28" s="31" t="s">
+        <v>708</v>
+      </c>
+      <c r="E28"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+    </row>
+    <row r="29" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29" s="31" t="str">
+        <f>C43</f>
+        <v>Zylinderkopfschraube Innensechskant M2 6mm</v>
+      </c>
+      <c r="D29" s="31" t="s">
+        <v>714</v>
+      </c>
+      <c r="E29"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+    </row>
+    <row r="30" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" s="31" t="str">
+        <f>C59</f>
+        <v>Rotary Sensor</v>
+      </c>
+      <c r="D30" s="31" t="s">
+        <v>719</v>
+      </c>
+      <c r="E30" s="9"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+    </row>
+    <row r="31" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31" s="31" t="str">
+        <f>C48</f>
+        <v>Unterlegscheiben M2 Dicke 0,5mm</v>
+      </c>
+      <c r="D31" s="31" t="s">
+        <v>720</v>
+      </c>
+      <c r="E31" s="9"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+    </row>
+    <row r="32" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32" s="31" t="str">
+        <f>C50</f>
+        <v>Distanzbolzen M3 20mm</v>
+      </c>
+      <c r="D32" s="31" t="s">
+        <v>727</v>
+      </c>
+      <c r="E32" s="9"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22"/>
+    </row>
+    <row r="33" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="C33" s="31" t="str">
+        <f>C47</f>
+        <v>Unterlegscheiben M3 Dicke 0,5mm</v>
+      </c>
+      <c r="D33" s="31" t="s">
+        <v>728</v>
+      </c>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+    </row>
+    <row r="34" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34">
+        <v>4</v>
+      </c>
+      <c r="C34" s="31" t="s">
+        <v>729</v>
+      </c>
+      <c r="D34" s="31" t="s">
+        <v>730</v>
+      </c>
+      <c r="H34" s="22"/>
+      <c r="I34" s="22"/>
+    </row>
+    <row r="35" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35">
+        <v>4</v>
+      </c>
+      <c r="C35" s="31" t="str">
+        <f>C40</f>
+        <v>Zylinderkopfschraube Innensechskant M3 20mm</v>
+      </c>
+      <c r="D35" s="31" t="s">
+        <v>730</v>
+      </c>
+      <c r="E35" s="9"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="22"/>
+    </row>
+    <row r="36" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36">
+        <v>4</v>
+      </c>
+      <c r="C36" s="31" t="str">
+        <f>C47</f>
+        <v>Unterlegscheiben M3 Dicke 0,5mm</v>
+      </c>
+      <c r="D36" s="31" t="s">
+        <v>730</v>
+      </c>
+      <c r="H36" s="22"/>
+      <c r="I36" s="22"/>
+    </row>
+    <row r="37" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C37" s="31"/>
+      <c r="E37" s="9"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="22"/>
+    </row>
+    <row r="38" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" s="31"/>
+      <c r="E38" s="9"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="22"/>
+    </row>
+    <row r="39" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>742</v>
+      </c>
+      <c r="C39" s="31"/>
+      <c r="E39" s="9"/>
+      <c r="G39" t="s">
+        <v>718</v>
+      </c>
+      <c r="H39" s="22" t="s">
+        <v>732</v>
+      </c>
+      <c r="I39" s="22" t="s">
+        <v>733</v>
+      </c>
+      <c r="J39" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="32">
+        <f t="shared" ref="B40:B50" si="0">ROUNDUP(I40/G40,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C40" s="31" t="s">
+        <v>666</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>731</v>
+      </c>
+      <c r="G40">
+        <v>100</v>
+      </c>
+      <c r="H40" s="22">
+        <v>1.79</v>
+      </c>
+      <c r="I40" s="18">
+        <f t="shared" ref="I40:I50" si="1">SUMIF(C$1:C$38,"="&amp;C40,B$1:B$38)</f>
+        <v>8</v>
+      </c>
+      <c r="J40" s="32">
+        <f>G40*B40-I40</f>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="32">
+        <f t="shared" ref="B41" si="2">ROUNDUP(I41/G41,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C41" s="31" t="s">
+        <v>740</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>731</v>
+      </c>
+      <c r="G41">
+        <v>100</v>
+      </c>
+      <c r="H41" s="22">
+        <v>1.71</v>
+      </c>
+      <c r="I41" s="18">
+        <f t="shared" ref="I41" si="3">SUMIF(C$1:C$38,"="&amp;C41,B$1:B$38)</f>
+        <v>4</v>
+      </c>
+      <c r="J41" s="32">
+        <f>G41*B41-I41</f>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="32">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C42" s="31" t="s">
+        <v>706</v>
+      </c>
+      <c r="D42" s="31"/>
+      <c r="E42" s="29" t="s">
+        <v>707</v>
+      </c>
+      <c r="G42">
+        <v>100</v>
+      </c>
+      <c r="H42" s="22">
+        <v>1.96</v>
+      </c>
+      <c r="I42" s="18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J42" s="32">
+        <f t="shared" ref="J42:J61" si="4">G42*B42-I42</f>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="32">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C43" s="31" t="s">
+        <v>713</v>
+      </c>
+      <c r="E43" t="s">
+        <v>716</v>
+      </c>
+      <c r="G43">
+        <v>10</v>
+      </c>
+      <c r="H43" s="22">
+        <v>0.99</v>
+      </c>
+      <c r="I43" s="18">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="J43" s="32">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="32">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C44" s="31" t="s">
+        <v>702</v>
+      </c>
+      <c r="E44" t="s">
+        <v>716</v>
+      </c>
+      <c r="G44">
+        <v>100</v>
+      </c>
+      <c r="H44" s="22">
+        <v>1.79</v>
+      </c>
+      <c r="I44" s="18">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="J44" s="32">
+        <f t="shared" ref="J44" si="5">G44*B44-I44</f>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="32">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C45" s="31" t="s">
+        <v>712</v>
+      </c>
+      <c r="E45" t="s">
+        <v>655</v>
+      </c>
+      <c r="G45">
+        <v>100</v>
+      </c>
+      <c r="H45" s="22">
+        <v>2.09</v>
+      </c>
+      <c r="I45" s="18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J45" s="32">
+        <f t="shared" si="4"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="32">
+        <f t="shared" ref="B46" si="6">ROUNDUP(I46/G46,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C46" s="31" t="s">
+        <v>668</v>
+      </c>
+      <c r="E46" s="29" t="s">
+        <v>669</v>
+      </c>
+      <c r="G46">
+        <v>100</v>
+      </c>
+      <c r="H46" s="22">
+        <v>2.09</v>
+      </c>
+      <c r="I46" s="18">
+        <f t="shared" ref="I46" si="7">SUMIF(C$1:C$38,"="&amp;C46,B$1:B$38)</f>
+        <v>4</v>
+      </c>
+      <c r="J46" s="32">
+        <f t="shared" ref="J46" si="8">G46*B46-I46</f>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="32">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C47" s="31" t="s">
+        <v>705</v>
+      </c>
+      <c r="E47" s="29" t="s">
+        <v>704</v>
+      </c>
+      <c r="G47">
+        <v>100</v>
+      </c>
+      <c r="H47" s="22">
+        <v>1.79</v>
+      </c>
+      <c r="I47" s="18">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="J47" s="32">
+        <f t="shared" si="4"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="32">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C48" s="31" t="s">
+        <v>721</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>722</v>
+      </c>
+      <c r="G48">
+        <v>100</v>
+      </c>
+      <c r="H48" s="22">
+        <v>1.79</v>
+      </c>
+      <c r="I48" s="18">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="J48" s="32">
+        <f>G48*B48-I48</f>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="32">
+        <f>ROUNDUP(I49/G49,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>735</v>
+      </c>
+      <c r="E49" s="26" t="s">
+        <v>698</v>
+      </c>
+      <c r="G49">
+        <v>500</v>
+      </c>
+      <c r="H49" s="22">
+        <v>4.49</v>
+      </c>
+      <c r="I49" s="18">
+        <f>SUMIF(C$1:C$38,"="&amp;C49,B$1:B$38)</f>
+        <v>46</v>
+      </c>
+      <c r="J49" s="32">
+        <f t="shared" ref="J49" si="9">G49*B49-I49</f>
+        <v>454</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="32">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C50" s="31" t="s">
+        <v>729</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>726</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+      <c r="H50" s="22">
+        <v>0.15</v>
+      </c>
+      <c r="I50" s="18">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="J50" s="32">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
-        <v>692</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
+    <row r="51" spans="2:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="32">
+        <f t="shared" ref="B51" si="10">ROUNDUP(I51/G51,0)</f>
+        <v>4</v>
+      </c>
+      <c r="C51" t="s">
+        <v>660</v>
+      </c>
+      <c r="E51" s="29" t="s">
+        <v>741</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+      <c r="H51" s="22">
+        <v>0.08</v>
+      </c>
+      <c r="I51" s="18">
+        <f t="shared" ref="I51" si="11">SUMIF(C$1:C$38,"="&amp;C51,B$1:B$38)</f>
+        <v>4</v>
+      </c>
+      <c r="J51" s="32">
+        <f t="shared" ref="J51" si="12">G51*B51-I51</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="32">
+        <f t="shared" ref="B52:B55" si="13">ROUNDUP(I52/G52,0)</f>
+        <v>2</v>
+      </c>
+      <c r="C52" t="s">
+        <v>683</v>
+      </c>
+      <c r="E52" s="29" t="s">
+        <v>688</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="H52" s="22">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="I52" s="18">
+        <f t="shared" ref="I52" si="14">SUMIF(C$1:C$38,"="&amp;C52,B$1:B$38)</f>
+        <v>2</v>
+      </c>
+      <c r="J52" s="32">
+        <f t="shared" ref="J52" si="15">G52*B52-I52</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="32">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>690</v>
+      </c>
+      <c r="E53" s="29" t="s">
+        <v>689</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+      <c r="H53" s="22">
+        <v>5.44</v>
+      </c>
+      <c r="I53" s="18">
+        <f t="shared" ref="I53:I55" si="16">SUMIF(C$1:C$38,"="&amp;C53,B$1:B$38)</f>
+        <v>1</v>
+      </c>
+      <c r="J53" s="32">
+        <f t="shared" ref="J53:J55" si="17">G53*B53-I53</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="32">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>736</v>
+      </c>
+      <c r="E54" s="29" t="s">
+        <v>693</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+      <c r="H54" s="22">
+        <v>4.46</v>
+      </c>
+      <c r="I54" s="18">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="J54" s="32">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="32">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>737</v>
+      </c>
+      <c r="E55" s="29" t="s">
+        <v>691</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
+      <c r="H55" s="22">
+        <v>5.01</v>
+      </c>
+      <c r="I55" s="18">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="J55" s="32">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="32">
+        <v>1</v>
+      </c>
+      <c r="C56" s="31" t="s">
+        <v>709</v>
+      </c>
+      <c r="D56" s="31"/>
+      <c r="E56" s="29" t="s">
+        <v>711</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+      <c r="H56" s="22">
+        <v>4.96</v>
+      </c>
+      <c r="I56" s="18">
+        <f>SUMIF(C$1:C$38,"="&amp;C56,B$1:B$38)</f>
+        <v>1</v>
+      </c>
+      <c r="J56" s="32">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="32">
+        <v>1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>694</v>
+      </c>
+      <c r="D57" s="31"/>
+      <c r="E57" s="29" t="s">
+        <v>739</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
+      <c r="H57" s="22">
+        <v>4.24</v>
+      </c>
+      <c r="I57" s="18">
+        <f>SUMIF(C$1:C$38,"="&amp;C57,B$1:B$38)</f>
+        <v>1</v>
+      </c>
+      <c r="J57" s="32">
+        <f t="shared" ref="J57" si="18">G57*B57-I57</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="32">
+        <v>1</v>
+      </c>
+      <c r="C58" s="31" t="s">
+        <v>699</v>
+      </c>
+      <c r="E58" s="26" t="s">
+        <v>701</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+      <c r="H58" s="22">
+        <v>14.5</v>
+      </c>
+      <c r="I58" s="18">
+        <f>SUMIF(C$1:C$38,"="&amp;C58,B$1:B$38)</f>
+        <v>1</v>
+      </c>
+      <c r="J58" s="32">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="32">
+        <f>ROUNDUP(I59/G59,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C59" s="31" t="s">
+        <v>715</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>562</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="H59" s="22">
+        <v>14.53</v>
+      </c>
+      <c r="I59" s="18">
+        <f>SUMIF(C$1:C$38,"="&amp;C59,B$1:B$38)</f>
+        <v>1</v>
+      </c>
+      <c r="J59" s="32">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="32">
+        <f>ROUNDUP(I60/G60,0)</f>
+        <v>2</v>
+      </c>
+      <c r="C60" s="31" t="s">
+        <v>725</v>
+      </c>
+      <c r="D60" s="31"/>
+      <c r="E60" s="29" t="s">
+        <v>723</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+      <c r="H60" s="22">
+        <v>1.54</v>
+      </c>
+      <c r="I60" s="18">
+        <f>SUMIF(C$1:C$38,"="&amp;C60,B$1:B$38)</f>
+        <v>2</v>
+      </c>
+      <c r="J60" s="32">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="32">
+        <f>ROUNDUP(I61/G61,0)</f>
+        <v>2</v>
+      </c>
+      <c r="C61" t="s">
+        <v>696</v>
+      </c>
+      <c r="E61" s="26" t="s">
+        <v>695</v>
+      </c>
+      <c r="G61">
+        <v>1</v>
+      </c>
+      <c r="H61" s="22">
+        <v>1.95</v>
+      </c>
+      <c r="I61" s="18">
+        <f>SUMIF(C$1:C$38,"="&amp;C61,B$1:B$38)</f>
+        <v>2</v>
+      </c>
+      <c r="J61" s="32">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="32">
+        <f>ROUNDUP(I62/G62,0)</f>
+        <v>2</v>
+      </c>
+      <c r="C62" t="s">
+        <v>671</v>
+      </c>
+      <c r="E62" s="29" t="s">
+        <v>673</v>
+      </c>
+      <c r="G62">
+        <v>1</v>
+      </c>
+      <c r="H62" s="22">
+        <v>1.39</v>
+      </c>
+      <c r="I62" s="18">
+        <f>SUMIF(C$1:C$38,"="&amp;C62,B$1:B$38)</f>
+        <v>2</v>
+      </c>
+      <c r="J62" s="32">
+        <f t="shared" ref="J62" si="19">G62*B62-I62</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="32">
+        <f>ROUNDUP(I63/G63,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C63" t="s">
+        <v>662</v>
+      </c>
+      <c r="E63" s="29" t="s">
+        <v>557</v>
+      </c>
+      <c r="G63">
+        <v>1</v>
+      </c>
+      <c r="H63" s="22">
+        <v>3.29</v>
+      </c>
+      <c r="I63" s="18">
+        <f>SUMIF(C$1:C$38,"="&amp;C63,B$1:B$38)</f>
+        <v>1</v>
+      </c>
+      <c r="J63" s="32">
+        <f t="shared" ref="J63" si="20">G63*B63-I63</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="32"/>
+      <c r="E64" s="26"/>
+      <c r="H64" s="22"/>
+      <c r="I64" s="18"/>
+      <c r="J64" s="32"/>
+    </row>
+    <row r="65" spans="2:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="32"/>
+      <c r="E65" s="26"/>
+      <c r="H65" s="22">
+        <f>SUM(H40:H64)</f>
+        <v>87.130000000000024</v>
+      </c>
+      <c r="I65" s="18"/>
+      <c r="J65" s="32"/>
+    </row>
+    <row r="66" spans="2:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="32"/>
+      <c r="E66" s="26"/>
+      <c r="H66" s="22"/>
+      <c r="I66" s="18"/>
+      <c r="J66" s="32"/>
+    </row>
+    <row r="67" spans="2:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="32"/>
+      <c r="E67" s="26"/>
+      <c r="H67" s="22"/>
+      <c r="I67" s="18"/>
+      <c r="J67" s="32"/>
+    </row>
+    <row r="68" spans="2:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="32"/>
+      <c r="E68" s="26"/>
+      <c r="H68" s="22"/>
+      <c r="I68" s="18"/>
+      <c r="J68" s="32"/>
+    </row>
+    <row r="69" spans="2:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="32"/>
+      <c r="E69" s="26"/>
+      <c r="H69" s="22"/>
+      <c r="I69" s="18"/>
+      <c r="J69" s="32"/>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C70" t="s">
+        <v>610</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>603</v>
+      </c>
+      <c r="E70" s="29" t="s">
+        <v>554</v>
+      </c>
+      <c r="F70">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="H70" s="22">
+        <v>26.88</v>
+      </c>
+      <c r="I70" s="22">
+        <f>H70*B71</f>
+        <v>26.88</v>
+      </c>
+    </row>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B71">
+        <v>1</v>
+      </c>
+      <c r="C71" t="s">
         <v>612</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>603</v>
-      </c>
-      <c r="E12" s="29" t="s">
-        <v>554</v>
-      </c>
-      <c r="F12">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="G12" s="22">
-        <v>26.88</v>
-      </c>
-      <c r="H12" s="22">
-        <f>G12*B12</f>
-        <v>26.88</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="D71" t="s">
+        <v>613</v>
+      </c>
+      <c r="E71" s="30" t="s">
+        <v>611</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="I71" s="22">
+        <f>H71*B72</f>
+        <v>6.8999999999999995</v>
+      </c>
+    </row>
+    <row r="72" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B72">
+        <v>6</v>
+      </c>
+      <c r="C72" t="s">
+        <v>616</v>
+      </c>
+      <c r="D72" t="s">
         <v>614</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E72" s="29" t="s">
+        <v>615</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <f>I72/10</f>
+        <v>0.251</v>
+      </c>
+      <c r="I72">
+        <v>2.5099999999999998</v>
+      </c>
+    </row>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B73">
+        <v>1</v>
+      </c>
+      <c r="C73" t="s">
+        <v>619</v>
+      </c>
+      <c r="D73" t="s">
+        <v>618</v>
+      </c>
+      <c r="E73" s="26" t="s">
+        <v>473</v>
+      </c>
+      <c r="F73">
+        <v>0.7</v>
+      </c>
+      <c r="H73">
+        <v>18</v>
+      </c>
+      <c r="I73" s="22">
+        <f>H73*B74</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="74" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="E74" s="26"/>
+      <c r="I74" s="22"/>
+    </row>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C75" t="s">
+        <v>620</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>621</v>
+      </c>
+      <c r="E75" s="26" t="s">
+        <v>544</v>
+      </c>
+      <c r="F75">
+        <v>1.34</v>
+      </c>
+      <c r="H75">
+        <v>37</v>
+      </c>
+      <c r="I75" s="22">
+        <f>H75*B76</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="C76" t="s">
+        <v>643</v>
+      </c>
+      <c r="D76" s="8" t="s">
+        <v>646</v>
+      </c>
+      <c r="E76" s="29" t="s">
+        <v>644</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="I76" s="22"/>
+    </row>
+    <row r="77" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B77">
+        <v>2</v>
+      </c>
+      <c r="C77" t="s">
+        <v>653</v>
+      </c>
+      <c r="D77" t="s">
+        <v>636</v>
+      </c>
+      <c r="E77" s="26" t="s">
+        <v>652</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="I77" s="22"/>
+    </row>
+    <row r="78" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B78">
+        <v>1</v>
+      </c>
+      <c r="C78" t="s">
+        <v>612</v>
+      </c>
+      <c r="D78" t="s">
+        <v>637</v>
+      </c>
+      <c r="E78" s="30" t="s">
+        <v>611</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="I78" s="22"/>
+    </row>
+    <row r="79" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B79">
+        <v>4</v>
+      </c>
+      <c r="C79" t="s">
+        <v>639</v>
+      </c>
+      <c r="D79" t="s">
+        <v>650</v>
+      </c>
+      <c r="E79" s="26" t="s">
+        <v>638</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="I79" s="22"/>
+    </row>
+    <row r="80" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B80">
+        <v>8</v>
+      </c>
+      <c r="D80" t="s">
+        <v>651</v>
+      </c>
+      <c r="E80" s="29" t="s">
+        <v>649</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="I80" s="22"/>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="E81" s="26"/>
+      <c r="I81" s="22"/>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D82" s="6" t="s">
+        <v>640</v>
+      </c>
+      <c r="E82" s="26"/>
+      <c r="I82" s="22"/>
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C83" t="s">
+        <v>632</v>
+      </c>
+      <c r="D83" t="s">
+        <v>630</v>
+      </c>
+      <c r="E83" s="25" t="s">
         <v>622</v>
       </c>
-      <c r="E13" s="29" t="s">
-        <v>613</v>
-      </c>
-      <c r="F13">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="G13" s="22">
-        <v>5.27</v>
-      </c>
-      <c r="H13" s="22">
-        <f>G13*B13</f>
-        <v>5.27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B14">
-        <v>6</v>
-      </c>
-      <c r="C14" t="s">
-        <v>616</v>
-      </c>
-      <c r="D14" t="s">
-        <v>617</v>
-      </c>
-      <c r="E14" s="30" t="s">
-        <v>615</v>
-      </c>
-      <c r="F14">
+      <c r="F83">
         <v>0</v>
       </c>
-      <c r="G14">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="H14" s="22">
-        <f>G14*B14</f>
-        <v>6.8999999999999995</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s">
-        <v>620</v>
-      </c>
-      <c r="D15" t="s">
-        <v>618</v>
-      </c>
-      <c r="E15" s="29" t="s">
-        <v>619</v>
-      </c>
-      <c r="F15">
+      <c r="H83">
+        <v>9.9</v>
+      </c>
+      <c r="I83" s="22">
+        <f>H83*B84</f>
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="84" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B84">
+        <v>1</v>
+      </c>
+      <c r="C84" t="s">
+        <v>634</v>
+      </c>
+      <c r="D84" t="s">
+        <v>626</v>
+      </c>
+      <c r="E84" s="26" t="s">
+        <v>627</v>
+      </c>
+      <c r="F84">
         <v>0</v>
       </c>
-      <c r="G15">
-        <f>H15/10</f>
-        <v>0.251</v>
-      </c>
-      <c r="H15">
-        <v>2.5099999999999998</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
-        <v>624</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="I84" s="22"/>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B85">
+        <v>1</v>
+      </c>
+      <c r="C85" t="s">
+        <v>633</v>
+      </c>
+      <c r="D85" t="s">
+        <v>629</v>
+      </c>
+      <c r="E85" s="25" t="s">
+        <v>628</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="I85" s="22"/>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B86">
+        <v>1</v>
+      </c>
+      <c r="C86" t="s">
+        <v>631</v>
+      </c>
+      <c r="D86" t="s">
+        <v>648</v>
+      </c>
+      <c r="E86" s="26" t="s">
+        <v>647</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="I86" s="22"/>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B87">
+        <v>1</v>
+      </c>
+      <c r="C87" t="s">
         <v>623</v>
       </c>
-      <c r="E16" s="26" t="s">
-        <v>473</v>
-      </c>
-      <c r="F16">
-        <v>0.7</v>
-      </c>
-      <c r="G16">
-        <v>18</v>
-      </c>
-      <c r="H16" s="22">
-        <f>G16*B16</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="E17" s="26"/>
-      <c r="H17" s="22"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="D87" t="s">
+        <v>641</v>
+      </c>
+      <c r="E87" s="25" t="s">
+        <v>642</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="I87" s="22"/>
+    </row>
+    <row r="88" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B88">
+        <v>1</v>
+      </c>
+      <c r="C88" t="s">
         <v>625</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D88" t="s">
         <v>626</v>
       </c>
-      <c r="E18" s="26" t="s">
-        <v>544</v>
-      </c>
-      <c r="F18">
-        <v>1.34</v>
-      </c>
-      <c r="G18">
-        <v>37</v>
-      </c>
-      <c r="H18" s="22">
-        <f>G18*B18</f>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19">
-        <v>2</v>
-      </c>
-      <c r="C19" t="s">
-        <v>648</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>651</v>
-      </c>
-      <c r="E19" s="29" t="s">
-        <v>649</v>
-      </c>
-      <c r="F19">
+      <c r="E88" s="25" t="s">
+        <v>622</v>
+      </c>
+      <c r="F88">
         <v>0</v>
       </c>
-      <c r="H19" s="22"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20" t="s">
-        <v>658</v>
-      </c>
-      <c r="D20" t="s">
-        <v>641</v>
-      </c>
-      <c r="E20" s="26" t="s">
-        <v>657</v>
-      </c>
-      <c r="F20">
+      <c r="I88" s="22"/>
+    </row>
+    <row r="89" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B89">
+        <v>1</v>
+      </c>
+      <c r="E89" s="25"/>
+      <c r="I89" s="22"/>
+    </row>
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="E90" s="25"/>
+      <c r="I90" s="22"/>
+    </row>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C91" t="s">
+        <v>607</v>
+      </c>
+      <c r="D91" t="s">
+        <v>604</v>
+      </c>
+      <c r="E91" s="29" t="s">
+        <v>606</v>
+      </c>
+      <c r="F91">
         <v>0</v>
       </c>
-      <c r="H20" s="22"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B21">
-        <v>4</v>
-      </c>
-      <c r="C21" t="s">
-        <v>616</v>
-      </c>
-      <c r="D21" t="s">
-        <v>642</v>
-      </c>
-      <c r="E21" s="30" t="s">
-        <v>615</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="H21" s="22"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B22">
-        <v>8</v>
-      </c>
-      <c r="C22" t="s">
-        <v>644</v>
-      </c>
-      <c r="D22" t="s">
-        <v>655</v>
-      </c>
-      <c r="E22" s="26" t="s">
-        <v>643</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="H22" s="22"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="D23" t="s">
-        <v>656</v>
-      </c>
-      <c r="E23" s="29" t="s">
-        <v>654</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="H23" s="22"/>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="E24" s="26"/>
-      <c r="H24" s="22"/>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="D25" s="6" t="s">
-        <v>645</v>
-      </c>
-      <c r="E25" s="26"/>
-      <c r="H25" s="22"/>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="C26" t="s">
-        <v>637</v>
-      </c>
-      <c r="D26" t="s">
-        <v>635</v>
-      </c>
-      <c r="E26" s="25" t="s">
-        <v>627</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <v>9.9</v>
-      </c>
-      <c r="H26" s="22">
-        <f>G26*B26</f>
-        <v>9.9</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="C27" t="s">
-        <v>639</v>
-      </c>
-      <c r="D27" t="s">
-        <v>631</v>
-      </c>
-      <c r="E27" s="26" t="s">
-        <v>632</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="H27" s="22"/>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B28">
-        <v>1</v>
-      </c>
-      <c r="C28" t="s">
-        <v>638</v>
-      </c>
-      <c r="D28" t="s">
-        <v>634</v>
-      </c>
-      <c r="E28" s="25" t="s">
-        <v>633</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="H28" s="22"/>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B29">
-        <v>1</v>
-      </c>
-      <c r="C29" t="s">
-        <v>636</v>
-      </c>
-      <c r="D29" t="s">
-        <v>653</v>
-      </c>
-      <c r="E29" s="26" t="s">
-        <v>652</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="H29" s="22"/>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B30">
-        <v>1</v>
-      </c>
-      <c r="C30" t="s">
-        <v>628</v>
-      </c>
-      <c r="D30" t="s">
-        <v>646</v>
-      </c>
-      <c r="E30" s="25" t="s">
-        <v>647</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="H30" s="22"/>
-    </row>
-    <row r="31" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31">
-        <v>1</v>
-      </c>
-      <c r="C31" t="s">
-        <v>630</v>
-      </c>
-      <c r="D31" t="s">
-        <v>631</v>
-      </c>
-      <c r="E31" s="25" t="s">
-        <v>627</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-      <c r="H31" s="22"/>
-    </row>
-    <row r="32" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E32" s="25"/>
-      <c r="H32" s="22"/>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="E33" s="25"/>
-      <c r="H33" s="22"/>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B34">
+      <c r="H91" s="22">
+        <v>0.54</v>
+      </c>
+      <c r="I91" s="22">
+        <f>H91*B92</f>
+        <v>12.96</v>
+      </c>
+    </row>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B92">
         <v>24</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C92" t="s">
+        <v>608</v>
+      </c>
+      <c r="D92" t="s">
         <v>609</v>
       </c>
-      <c r="D34" t="s">
-        <v>604</v>
-      </c>
-      <c r="E34" s="29" t="s">
-        <v>608</v>
-      </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-      <c r="G34" s="22">
-        <v>0.54</v>
-      </c>
-      <c r="H34" s="22">
-        <f>G34*B34</f>
-        <v>12.96</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B35">
-        <v>1</v>
-      </c>
-      <c r="C35" t="s">
-        <v>610</v>
-      </c>
-      <c r="D35" t="s">
-        <v>611</v>
-      </c>
-      <c r="E35" s="29" t="s">
+      <c r="E92" s="29" t="s">
         <v>605</v>
       </c>
-      <c r="G35" s="23">
+      <c r="H92" s="23">
         <v>4.29</v>
       </c>
-      <c r="H35" s="22">
-        <f>G35*B35</f>
+      <c r="I92" s="22">
+        <f>H92*B93</f>
         <v>4.29</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B37">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B95">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E16" r:id="rId1"/>
-    <hyperlink ref="E18" r:id="rId2"/>
-    <hyperlink ref="E27" r:id="rId3"/>
-    <hyperlink ref="E28" r:id="rId4"/>
-    <hyperlink ref="E21" r:id="rId5"/>
-    <hyperlink ref="E14" r:id="rId6"/>
+    <hyperlink ref="E73" r:id="rId1"/>
+    <hyperlink ref="E75" r:id="rId2"/>
+    <hyperlink ref="E84" r:id="rId3"/>
+    <hyperlink ref="E85" r:id="rId4"/>
+    <hyperlink ref="E78" r:id="rId5"/>
+    <hyperlink ref="E71" r:id="rId6"/>
+    <hyperlink ref="E59" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1659" uniqueCount="743">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1716" uniqueCount="782">
   <si>
     <t>Bauteilnummer</t>
   </si>
@@ -1738,15 +1738,6 @@
     <t>Bezugsquellen</t>
   </si>
   <si>
-    <t>Dimensionierung Handgelenk</t>
-  </si>
-  <si>
-    <t>Übersetzung Handgelenk</t>
-  </si>
-  <si>
-    <t>Drehmoment Handgelenk Motor</t>
-  </si>
-  <si>
     <t>Drehmoment Handgelenk</t>
   </si>
   <si>
@@ -1756,9 +1747,6 @@
     <t>Drehmoment Handgelenkdreher</t>
   </si>
   <si>
-    <t>Drehmoment Handgelenkdreher Motor</t>
-  </si>
-  <si>
     <t>Berechnung</t>
   </si>
   <si>
@@ -2212,9 +2200,6 @@
     <t>Distanzbolzen M3 20mm</t>
   </si>
   <si>
-    <t>Befestigung ElbowFlansch</t>
-  </si>
-  <si>
     <t>http://www.amazon.de/Zylinderkopfschrauben-Edelstahl-Zylinderschrauben-Inbusschrauben-Innensechskant/dp/B018XL6B6O/ref=sr_1_1?ie=UTF8&amp;qid=1458914864&amp;sr=8-1&amp;keywords=zylinderkopfschraube+Innensechskant+M3+20mm</t>
   </si>
   <si>
@@ -2249,6 +2234,138 @@
   </si>
   <si>
     <t>Bestellmenge</t>
+  </si>
+  <si>
+    <t>Übersetzung HandgelenkNicker</t>
+  </si>
+  <si>
+    <t>Drehmoment HandgelenkNicker Motor</t>
+  </si>
+  <si>
+    <t>Dimensionierung HandgelenkNicker</t>
+  </si>
+  <si>
+    <t>Drehmoment HandgelenkDreher Motor</t>
+  </si>
+  <si>
+    <t>Forearm</t>
+  </si>
+  <si>
+    <t>Rillenkugellager 35x47x7</t>
+  </si>
+  <si>
+    <t>Lagerung Wrist</t>
+  </si>
+  <si>
+    <t>Befestigung WristFlansch</t>
+  </si>
+  <si>
+    <t>Befestigung wristFlansch</t>
+  </si>
+  <si>
+    <t>RillenKugellager 6x19x6</t>
+  </si>
+  <si>
+    <t>http://www.kugellager-express.de/miniatur-kugellager-626-626z-626rs-6x19x6-mm.html</t>
+  </si>
+  <si>
+    <t>Lagerung Zwischenwelle</t>
+  </si>
+  <si>
+    <t>Lagerung RiemenSpanner</t>
+  </si>
+  <si>
+    <t>Distanzhülsen M6 10mm</t>
+  </si>
+  <si>
+    <t>http://www.amazon.de/Distanzh%C3%BClsen-Schrauben-L%C3%A4nge-Kunststoff-schwarz/dp/B004I9HTHQ</t>
+  </si>
+  <si>
+    <t>Distanzhülse RiemenSpanner</t>
+  </si>
+  <si>
+    <t>http://www.kugellager-express.de/miniatur-kugellager-623-623z-623rs-3x10x4-mm.html</t>
+  </si>
+  <si>
+    <t>Rillenkugellager 3x10x4</t>
+  </si>
+  <si>
+    <t>Lagerung RiemenSpanner (Ersatz)</t>
+  </si>
+  <si>
+    <t>Silberstahlwelle 3mm Durchmesser</t>
+  </si>
+  <si>
+    <t>Welle Zwischenwelle</t>
+  </si>
+  <si>
+    <t>Welle Zwischenwelle(Ersatz)</t>
+  </si>
+  <si>
+    <t>http://www.cncshop.at/index.php?a=10275</t>
+  </si>
+  <si>
+    <t>Zahnriemen T2,5 200m</t>
+  </si>
+  <si>
+    <t>Zahnriemen Motor/ZwischenWelle</t>
+  </si>
+  <si>
+    <t>Zahnriemen ZwischenWelle/WristFlansch</t>
+  </si>
+  <si>
+    <t>GehäuseVerbindung am WristLager</t>
+  </si>
+  <si>
+    <t>GehäuseVerbindung am Heck</t>
+  </si>
+  <si>
+    <t>Zylinderkopfschraube Innensechskant M3 12mm</t>
+  </si>
+  <si>
+    <t>http://www.amazon.de/Zylinderkopfschrauben-Edelstahl-Zylinderschrauben-Inbusschrauben-Innensechskant/dp/B018XL5XNG/ref=sr_1_1?ie=UTF8&amp;qid=1459036461&amp;sr=8-1&amp;keywords=zylinderkopfschraube+Innensechskant+M3+12mm</t>
+  </si>
+  <si>
+    <t>GehäuseVerbindung Oben am Wulst</t>
+  </si>
+  <si>
+    <t>Summe</t>
+  </si>
+  <si>
+    <t>Zylinderkopfschraube Innensechskant M3 25mm</t>
+  </si>
+  <si>
+    <t>GehäuseVerbindung Mittendrin</t>
+  </si>
+  <si>
+    <t>NEMA 17 - 42x42x33</t>
+  </si>
+  <si>
+    <t>http://eu.stepperonline.com/nema-17-stepper-motor-34mm-12v-04a-26ncm37ozin-17hs130404s-p-166.html</t>
+  </si>
+  <si>
+    <t>Motor Zahnriemenscheibe</t>
+  </si>
+  <si>
+    <t>Zwischenwelle Zahnriemenscheibe</t>
+  </si>
+  <si>
+    <t>http://www.cncshop.at/index.php?a=10135</t>
+  </si>
+  <si>
+    <t>Zahnriemenscheibe T2,5, 60 Zähne</t>
+  </si>
+  <si>
+    <t>Schraube M6 55mm</t>
+  </si>
+  <si>
+    <t>profi</t>
+  </si>
+  <si>
+    <t>Achse zum Ellbogen</t>
+  </si>
+  <si>
+    <t>Mutter M6</t>
   </si>
 </sst>
 </file>
@@ -2318,7 +2435,7 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2379,12 +2496,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3031,12 +3152,12 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E27" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E28" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -3071,18 +3192,18 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="E34" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="E35" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -3090,47 +3211,47 @@
         <v>236</v>
       </c>
       <c r="E37" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="E38" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="E40" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="E41" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="E42" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="E43" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
     </row>
   </sheetData>
@@ -3140,10 +3261,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:AD110"/>
+  <dimension ref="A3:AD111"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E77" sqref="E77"/>
+    <sheetView topLeftCell="A49" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E88" sqref="E88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3219,8 +3340,8 @@
         <v>320</v>
       </c>
       <c r="C8">
-        <f>N78+N77 +0.4</f>
-        <v>0.72</v>
+        <f>N77+N78 +0.4</f>
+        <v>0.77</v>
       </c>
       <c r="D8" t="s">
         <v>315</v>
@@ -3231,7 +3352,7 @@
         <v>321</v>
       </c>
       <c r="C9">
-        <f>N77+0.1</f>
+        <f>N78+0.1</f>
         <v>0.25</v>
       </c>
       <c r="D9" t="s">
@@ -3543,7 +3664,7 @@
       </c>
       <c r="C36" s="5">
         <f>C40/C38*(C44/C42)</f>
-        <v>9.1875</v>
+        <v>3.7333333333333334</v>
       </c>
       <c r="D36" t="s">
         <v>325</v>
@@ -3565,7 +3686,7 @@
         <v>341</v>
       </c>
       <c r="C38" s="6">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D38" t="s">
         <v>338</v>
@@ -3577,7 +3698,7 @@
       </c>
       <c r="C39" s="4">
         <f>C38*C37/PI()</f>
-        <v>12.732395447351628</v>
+        <v>11.93662073189215</v>
       </c>
       <c r="D39" t="s">
         <v>340</v>
@@ -3588,7 +3709,7 @@
         <v>342</v>
       </c>
       <c r="C40" s="7">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="D40" t="s">
         <v>338</v>
@@ -3596,11 +3717,11 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="C41" s="4">
         <f>C40*C37/PI()</f>
-        <v>33.422538049298019</v>
+        <v>11.93662073189215</v>
       </c>
       <c r="D41" t="s">
         <v>340</v>
@@ -3611,7 +3732,7 @@
         <v>344</v>
       </c>
       <c r="C42" s="6">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D42" t="s">
         <v>338</v>
@@ -3623,7 +3744,7 @@
       </c>
       <c r="C43" s="4">
         <f>C42*C37/PI()</f>
-        <v>12.732395447351628</v>
+        <v>11.93662073189215</v>
       </c>
       <c r="D43" t="s">
         <v>340</v>
@@ -3654,11 +3775,11 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>576</v>
+        <v>738</v>
       </c>
       <c r="C46" s="5">
         <f>C50/C48*(C54/C52)</f>
-        <v>3.7333333333333334</v>
+        <v>9.1875</v>
       </c>
       <c r="D46" t="s">
         <v>325</v>
@@ -3680,7 +3801,7 @@
         <v>341</v>
       </c>
       <c r="C48" s="6">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D48" t="s">
         <v>338</v>
@@ -3692,7 +3813,7 @@
       </c>
       <c r="C49" s="4">
         <f>C48*C47/PI()</f>
-        <v>11.93662073189215</v>
+        <v>12.732395447351628</v>
       </c>
       <c r="D49" t="s">
         <v>340</v>
@@ -3703,7 +3824,7 @@
         <v>342</v>
       </c>
       <c r="C50" s="7">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="D50" t="s">
         <v>338</v>
@@ -3711,11 +3832,11 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="C51" s="4">
         <f>C50*C47/PI()</f>
-        <v>11.93662073189215</v>
+        <v>33.422538049298019</v>
       </c>
       <c r="D51" t="s">
         <v>340</v>
@@ -3726,7 +3847,7 @@
         <v>344</v>
       </c>
       <c r="C52" s="6">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D52" t="s">
         <v>338</v>
@@ -3738,7 +3859,7 @@
       </c>
       <c r="C53" s="4">
         <f>C52*C47/PI()</f>
-        <v>11.93662073189215</v>
+        <v>12.732395447351628</v>
       </c>
       <c r="D53" t="s">
         <v>340</v>
@@ -3816,7 +3937,7 @@
       </c>
       <c r="C62" s="4">
         <f>((C3+C4+C5)*(C7+C8+C9)*(C59))/1000</f>
-        <v>9.5794650000000008</v>
+        <v>9.8001899999999988</v>
       </c>
       <c r="D62" t="s">
         <v>322</v>
@@ -3828,7 +3949,7 @@
       </c>
       <c r="C63" s="4">
         <f>((C3+C4+C5)*(C7+C8+C9)*(C58+C59))/1000</f>
-        <v>28.738395000000001</v>
+        <v>29.400569999999995</v>
       </c>
       <c r="D63" t="s">
         <v>322</v>
@@ -3840,7 +3961,7 @@
       </c>
       <c r="C64" s="2">
         <f>((C4+C5)*(C8+C9)*(C58+C59))/1000</f>
-        <v>7.1367749999999992</v>
+        <v>7.5046499999999998</v>
       </c>
       <c r="D64" t="s">
         <v>322</v>
@@ -3848,7 +3969,7 @@
     </row>
     <row r="65" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C65" s="2">
         <f>((C5)*(C9+C6)*(C59))/1000</f>
@@ -3860,7 +3981,7 @@
     </row>
     <row r="66" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="C66" s="2">
         <f>((C5)*(C9+C6)*(C59))/1000</f>
@@ -3876,7 +3997,7 @@
       </c>
       <c r="C67" s="2">
         <f>C62/C10</f>
-        <v>1.5965775000000002</v>
+        <v>1.6333649999999997</v>
       </c>
       <c r="D67" t="s">
         <v>322</v>
@@ -3888,7 +4009,7 @@
       </c>
       <c r="C68" s="2">
         <f>C63/C16</f>
-        <v>1.6838903320312502</v>
+        <v>1.7226896484374996</v>
       </c>
       <c r="D68" t="s">
         <v>322</v>
@@ -3900,7 +4021,7 @@
       </c>
       <c r="C69" s="2">
         <f>C64/C26</f>
-        <v>1.003608984375</v>
+        <v>1.0553414062499999</v>
       </c>
       <c r="D69" t="s">
         <v>322</v>
@@ -3908,10 +4029,10 @@
     </row>
     <row r="70" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>574</v>
+        <v>741</v>
       </c>
       <c r="C70" s="2">
-        <f>C65/C36</f>
+        <f>C66/C46</f>
         <v>4.0040816326530615E-2</v>
       </c>
       <c r="D70" t="s">
@@ -3920,10 +4041,10 @@
     </row>
     <row r="71" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>578</v>
+        <v>739</v>
       </c>
       <c r="C71" s="2">
-        <f>C66/C36</f>
+        <f>C65/C46</f>
         <v>4.0040816326530615E-2</v>
       </c>
       <c r="D71" t="s">
@@ -4001,7 +4122,7 @@
       </c>
       <c r="C74" s="2">
         <f>C67*(1+C57)</f>
-        <v>2.0755507500000006</v>
+        <v>2.1233744999999997</v>
       </c>
       <c r="D74" t="s">
         <v>322</v>
@@ -4047,7 +4168,7 @@
       </c>
       <c r="C75" s="2">
         <f>C68*(1+C57)</f>
-        <v>2.1890574316406255</v>
+        <v>2.2394965429687494</v>
       </c>
       <c r="D75" t="s">
         <v>322</v>
@@ -4083,7 +4204,7 @@
         <v>1.34</v>
       </c>
       <c r="O75" s="17">
-        <f t="shared" ref="O75:O77" si="0">K75/N75</f>
+        <f t="shared" ref="O75:O78" si="0">K75/N75</f>
         <v>231.34328358208953</v>
       </c>
     </row>
@@ -4093,7 +4214,7 @@
       </c>
       <c r="C76" s="2">
         <f>C69*(1+C57)</f>
-        <v>1.3046916796875001</v>
+        <v>1.371943828125</v>
       </c>
       <c r="D76" t="s">
         <v>322</v>
@@ -4145,7 +4266,7 @@
     </row>
     <row r="77" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>572</v>
+        <v>355</v>
       </c>
       <c r="C77" s="2">
         <f>C70*(1+C57)</f>
@@ -4155,58 +4276,58 @@
         <v>322</v>
       </c>
       <c r="E77" s="11" t="s">
-        <v>422</v>
-      </c>
-      <c r="F77" s="28">
-        <v>0.9</v>
-      </c>
-      <c r="G77" s="28" t="s">
+        <v>452</v>
+      </c>
+      <c r="F77" s="31">
+        <v>1.8</v>
+      </c>
+      <c r="G77" s="31" t="s">
         <v>374</v>
       </c>
-      <c r="H77" s="28" t="s">
+      <c r="H77" s="31" t="s">
         <v>423</v>
       </c>
-      <c r="I77" s="28" t="s">
-        <v>424</v>
-      </c>
-      <c r="J77" s="28">
+      <c r="I77" s="31" t="s">
+        <v>448</v>
+      </c>
+      <c r="J77" s="31">
         <v>5</v>
       </c>
-      <c r="K77" s="28">
-        <v>11</v>
-      </c>
-      <c r="L77" s="28">
-        <v>1.2</v>
-      </c>
-      <c r="M77" s="28" t="s">
+      <c r="K77" s="31">
+        <v>26</v>
+      </c>
+      <c r="L77" s="31">
+        <v>0.4</v>
+      </c>
+      <c r="M77" s="31" t="s">
         <v>377</v>
       </c>
-      <c r="N77" s="28">
-        <v>0.15</v>
+      <c r="N77" s="31">
+        <v>0.22</v>
       </c>
       <c r="O77" s="18">
-        <f t="shared" si="0"/>
-        <v>73.333333333333343</v>
+        <f>K77/N77</f>
+        <v>118.18181818181819</v>
       </c>
       <c r="P77" s="11"/>
-      <c r="Q77" s="14"/>
-      <c r="R77" s="14"/>
-      <c r="S77" s="14"/>
-      <c r="T77" s="14"/>
-      <c r="U77" s="14"/>
-      <c r="V77" s="14"/>
-      <c r="W77" s="14"/>
-      <c r="X77" s="14"/>
-      <c r="Y77" s="14"/>
-      <c r="Z77" s="14"/>
-      <c r="AA77" s="14"/>
-      <c r="AB77" s="14"/>
-      <c r="AC77" s="14"/>
-      <c r="AD77" s="14"/>
+      <c r="Q77" s="10"/>
+      <c r="R77" s="10"/>
+      <c r="S77" s="10"/>
+      <c r="T77" s="10"/>
+      <c r="U77" s="10"/>
+      <c r="V77" s="10"/>
+      <c r="W77" s="10"/>
+      <c r="X77" s="10"/>
+      <c r="Y77" s="10"/>
+      <c r="Z77" s="10"/>
+      <c r="AA77" s="10"/>
+      <c r="AB77" s="10"/>
+      <c r="AC77" s="10"/>
+      <c r="AD77" s="10"/>
     </row>
     <row r="78" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>355</v>
+        <v>740</v>
       </c>
       <c r="C78" s="2">
         <f>C71*(1+C57)</f>
@@ -4215,55 +4336,55 @@
       <c r="D78" t="s">
         <v>322</v>
       </c>
-      <c r="E78" s="11" t="s">
-        <v>405</v>
-      </c>
-      <c r="F78" s="27">
-        <v>1.8</v>
-      </c>
-      <c r="G78" s="27" t="s">
+      <c r="E78" s="26" t="s">
+        <v>422</v>
+      </c>
+      <c r="F78" s="28">
+        <v>0.9</v>
+      </c>
+      <c r="G78" s="28" t="s">
         <v>374</v>
       </c>
-      <c r="H78" s="27" t="s">
-        <v>394</v>
-      </c>
-      <c r="I78" s="27" t="s">
-        <v>404</v>
-      </c>
-      <c r="J78" s="27">
+      <c r="H78" s="28" t="s">
+        <v>423</v>
+      </c>
+      <c r="I78" s="28" t="s">
+        <v>424</v>
+      </c>
+      <c r="J78" s="28">
         <v>5</v>
       </c>
-      <c r="K78" s="27">
-        <v>18</v>
-      </c>
-      <c r="L78" s="27">
-        <v>0.8</v>
-      </c>
-      <c r="M78" s="27" t="s">
+      <c r="K78" s="28">
+        <v>11</v>
+      </c>
+      <c r="L78" s="28">
+        <v>1.2</v>
+      </c>
+      <c r="M78" s="28" t="s">
         <v>377</v>
       </c>
-      <c r="N78" s="27">
-        <v>0.17</v>
-      </c>
-      <c r="O78" s="17">
-        <f>K78/N78</f>
-        <v>105.88235294117646</v>
+      <c r="N78" s="28">
+        <v>0.15</v>
+      </c>
+      <c r="O78" s="18">
+        <f t="shared" si="0"/>
+        <v>73.333333333333343</v>
       </c>
       <c r="P78" s="11"/>
-      <c r="Q78" s="10"/>
-      <c r="R78" s="10"/>
-      <c r="S78" s="10"/>
-      <c r="T78" s="10"/>
-      <c r="U78" s="10"/>
-      <c r="V78" s="10"/>
-      <c r="W78" s="10"/>
-      <c r="X78" s="10"/>
-      <c r="Y78" s="10"/>
-      <c r="Z78" s="10"/>
-      <c r="AA78" s="10"/>
-      <c r="AB78" s="10"/>
-      <c r="AC78" s="10"/>
-      <c r="AD78" s="10"/>
+      <c r="Q78" s="14"/>
+      <c r="R78" s="14"/>
+      <c r="S78" s="14"/>
+      <c r="T78" s="14"/>
+      <c r="U78" s="14"/>
+      <c r="V78" s="14"/>
+      <c r="W78" s="14"/>
+      <c r="X78" s="14"/>
+      <c r="Y78" s="14"/>
+      <c r="Z78" s="14"/>
+      <c r="AA78" s="14"/>
+      <c r="AB78" s="14"/>
+      <c r="AC78" s="14"/>
+      <c r="AD78" s="14"/>
     </row>
     <row r="79" spans="1:30" x14ac:dyDescent="0.3">
       <c r="E79" s="11"/>
@@ -4601,246 +4722,270 @@
         <v>104.54545454545455</v>
       </c>
     </row>
-    <row r="88" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.3">
       <c r="E88" s="11" t="s">
+        <v>452</v>
+      </c>
+      <c r="F88" s="31">
+        <v>1.8</v>
+      </c>
+      <c r="G88" s="31" t="s">
+        <v>374</v>
+      </c>
+      <c r="H88" s="31" t="s">
+        <v>423</v>
+      </c>
+      <c r="I88" s="31" t="s">
+        <v>448</v>
+      </c>
+      <c r="J88" s="31">
+        <v>5</v>
+      </c>
+      <c r="K88" s="31">
+        <v>26</v>
+      </c>
+      <c r="L88" s="31">
+        <v>0.4</v>
+      </c>
+      <c r="M88" s="31" t="s">
+        <v>377</v>
+      </c>
+      <c r="N88" s="31">
+        <v>0.22</v>
+      </c>
+      <c r="O88" s="18">
+        <f>K88/N88</f>
+        <v>118.18181818181819</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E89" s="11" t="s">
         <v>425</v>
       </c>
-      <c r="F88" s="27">
+      <c r="F89" s="27">
         <v>0.9</v>
       </c>
-      <c r="G88" s="27" t="s">
+      <c r="G89" s="27" t="s">
         <v>426</v>
       </c>
-      <c r="H88" s="27" t="s">
+      <c r="H89" s="27" t="s">
         <v>423</v>
       </c>
-      <c r="I88" s="27" t="s">
+      <c r="I89" s="27" t="s">
         <v>427</v>
       </c>
-      <c r="K88" s="27">
+      <c r="K89" s="27">
         <v>23</v>
       </c>
-      <c r="L88" s="27">
+      <c r="L89" s="27">
         <v>0.31</v>
-      </c>
-      <c r="M88" s="27" t="s">
-        <v>377</v>
-      </c>
-      <c r="N88" s="27">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="O88" s="18">
-        <f t="shared" ref="O88" si="2">K88/N88</f>
-        <v>82.142857142857139</v>
-      </c>
-    </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="E89" s="11" t="s">
-        <v>405</v>
-      </c>
-      <c r="F89" s="27">
-        <v>1.8</v>
-      </c>
-      <c r="G89" s="27" t="s">
-        <v>374</v>
-      </c>
-      <c r="H89" s="27" t="s">
-        <v>394</v>
-      </c>
-      <c r="I89" s="27" t="s">
-        <v>404</v>
-      </c>
-      <c r="J89" s="27">
-        <v>5</v>
-      </c>
-      <c r="K89" s="27">
-        <v>18</v>
-      </c>
-      <c r="L89" s="27">
-        <v>0.8</v>
       </c>
       <c r="M89" s="27" t="s">
         <v>377</v>
       </c>
       <c r="N89" s="27">
-        <v>0.17</v>
-      </c>
-      <c r="O89" s="17">
-        <f>K89/N89</f>
-        <v>105.88235294117646</v>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="O89" s="18">
+        <f t="shared" ref="O89" si="2">K89/N89</f>
+        <v>82.142857142857139</v>
       </c>
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.3">
       <c r="E90" s="11" t="s">
-        <v>410</v>
-      </c>
-      <c r="F90" s="16">
-        <v>0.9</v>
-      </c>
-      <c r="G90" s="16" t="s">
+        <v>405</v>
+      </c>
+      <c r="F90" s="27">
+        <v>1.8</v>
+      </c>
+      <c r="G90" s="27" t="s">
         <v>374</v>
       </c>
-      <c r="H90" s="16" t="s">
-        <v>411</v>
-      </c>
-      <c r="I90" s="16" t="s">
-        <v>412</v>
-      </c>
-      <c r="J90" s="16">
+      <c r="H90" s="27" t="s">
+        <v>394</v>
+      </c>
+      <c r="I90" s="27" t="s">
+        <v>404</v>
+      </c>
+      <c r="J90" s="27">
         <v>5</v>
       </c>
-      <c r="K90" s="16">
-        <v>16</v>
-      </c>
-      <c r="L90" s="16">
-        <v>0.6</v>
-      </c>
-      <c r="M90" s="16" t="s">
+      <c r="K90" s="27">
+        <v>18</v>
+      </c>
+      <c r="L90" s="27">
+        <v>0.8</v>
+      </c>
+      <c r="M90" s="27" t="s">
         <v>377</v>
       </c>
-      <c r="N90" s="16">
-        <v>0.12</v>
+      <c r="N90" s="27">
+        <v>0.17</v>
       </c>
       <c r="O90" s="17">
         <f>K90/N90</f>
-        <v>133.33333333333334</v>
+        <v>105.88235294117646</v>
       </c>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.3">
       <c r="E91" s="11" t="s">
-        <v>400</v>
-      </c>
-      <c r="F91" s="27">
-        <v>1.8</v>
-      </c>
-      <c r="G91" s="27" t="s">
+        <v>410</v>
+      </c>
+      <c r="F91" s="16">
+        <v>0.9</v>
+      </c>
+      <c r="G91" s="16" t="s">
         <v>374</v>
       </c>
-      <c r="H91" s="27" t="s">
-        <v>394</v>
-      </c>
-      <c r="I91" s="27" t="s">
-        <v>401</v>
-      </c>
-      <c r="J91" s="27">
+      <c r="H91" s="16" t="s">
+        <v>411</v>
+      </c>
+      <c r="I91" s="16" t="s">
+        <v>412</v>
+      </c>
+      <c r="J91" s="16">
         <v>5</v>
       </c>
-      <c r="K91" s="27">
-        <v>14</v>
-      </c>
-      <c r="L91" s="27">
-        <v>0.4</v>
-      </c>
-      <c r="M91" s="27" t="s">
+      <c r="K91" s="16">
+        <v>16</v>
+      </c>
+      <c r="L91" s="16">
+        <v>0.6</v>
+      </c>
+      <c r="M91" s="16" t="s">
         <v>377</v>
       </c>
-      <c r="N91" s="27">
+      <c r="N91" s="16">
         <v>0.12</v>
       </c>
-      <c r="O91" s="18">
-        <f t="shared" ref="O91" si="3">K91/N91</f>
-        <v>116.66666666666667</v>
+      <c r="O91" s="17">
+        <f>K91/N91</f>
+        <v>133.33333333333334</v>
       </c>
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.3">
       <c r="E92" s="11" t="s">
-        <v>396</v>
-      </c>
-      <c r="F92" s="16">
-        <v>0.9</v>
-      </c>
-      <c r="G92" s="16" t="s">
+        <v>400</v>
+      </c>
+      <c r="F92" s="27">
+        <v>1.8</v>
+      </c>
+      <c r="G92" s="27" t="s">
         <v>374</v>
       </c>
-      <c r="H92" s="16" t="s">
+      <c r="H92" s="27" t="s">
         <v>394</v>
       </c>
-      <c r="I92" s="16" t="s">
-        <v>397</v>
-      </c>
-      <c r="J92" s="16">
+      <c r="I92" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="J92" s="27">
         <v>5</v>
       </c>
-      <c r="K92" s="16">
-        <v>5</v>
-      </c>
-      <c r="L92" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="M92" s="16" t="s">
+      <c r="K92" s="27">
+        <v>14</v>
+      </c>
+      <c r="L92" s="27">
+        <v>0.4</v>
+      </c>
+      <c r="M92" s="27" t="s">
         <v>377</v>
       </c>
-      <c r="N92" s="16">
-        <v>0.09</v>
-      </c>
-      <c r="O92" s="17">
-        <f>K92/N92</f>
-        <v>55.555555555555557</v>
+      <c r="N92" s="27">
+        <v>0.12</v>
+      </c>
+      <c r="O92" s="18">
+        <f t="shared" ref="O92" si="3">K92/N92</f>
+        <v>116.66666666666667</v>
       </c>
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.3">
       <c r="E93" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="F93" s="16">
+        <v>0.9</v>
+      </c>
+      <c r="G93" s="16" t="s">
+        <v>374</v>
+      </c>
+      <c r="H93" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="I93" s="16" t="s">
+        <v>397</v>
+      </c>
+      <c r="J93" s="16">
+        <v>5</v>
+      </c>
+      <c r="K93" s="16">
+        <v>5</v>
+      </c>
+      <c r="L93" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="M93" s="16" t="s">
+        <v>377</v>
+      </c>
+      <c r="N93" s="16">
+        <v>0.09</v>
+      </c>
+      <c r="O93" s="17">
+        <f>K93/N93</f>
+        <v>55.555555555555557</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="E94" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="F93" s="28">
+      <c r="F94" s="28">
         <v>0.9</v>
       </c>
-      <c r="G93" s="28" t="s">
+      <c r="G94" s="28" t="s">
         <v>374</v>
       </c>
-      <c r="H93" s="28" t="s">
+      <c r="H94" s="28" t="s">
         <v>423</v>
       </c>
-      <c r="I93" s="28" t="s">
+      <c r="I94" s="28" t="s">
         <v>424</v>
       </c>
-      <c r="J93" s="28">
+      <c r="J94" s="28">
         <v>5</v>
       </c>
-      <c r="K93" s="28">
+      <c r="K94" s="28">
         <v>11</v>
       </c>
-      <c r="L93" s="28">
+      <c r="L94" s="28">
         <v>1.2</v>
       </c>
-      <c r="M93" s="28" t="s">
+      <c r="M94" s="28" t="s">
         <v>377</v>
       </c>
-      <c r="N93" s="28">
+      <c r="N94" s="28">
         <v>0.15</v>
       </c>
-      <c r="O93" s="18">
-        <f t="shared" ref="O93" si="4">K93/N93</f>
+      <c r="O94" s="18">
+        <f t="shared" ref="O94" si="4">K94/N94</f>
         <v>73.333333333333343</v>
-      </c>
-    </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>581</v>
       </c>
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>584</v>
-      </c>
-      <c r="C95" s="19">
-        <f>1</f>
-        <v>1</v>
-      </c>
-      <c r="D95" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="C96" s="19">
-        <f>(C15/1000/2)</f>
-        <v>7.1619724391352904E-2</v>
+        <f>1</f>
+        <v>1</v>
       </c>
       <c r="D96" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
@@ -4848,51 +4993,51 @@
         <v>585</v>
       </c>
       <c r="C97" s="19">
-        <f>C62/C96</f>
-        <v>133.75456386364689</v>
+        <f>(C15/1000/2)</f>
+        <v>7.1619724391352904E-2</v>
       </c>
       <c r="D97" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="C98" s="19">
-        <f>(C95)*C97*2*PI()</f>
-        <v>840.40471043627974</v>
+        <f>C62/C97</f>
+        <v>136.83646625681845</v>
       </c>
       <c r="D98" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
-        <v>587</v>
+        <v>578</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>582</v>
+      </c>
+      <c r="C99" s="19">
+        <f>(C96)*C98*2*PI()</f>
+        <v>859.76887427121699</v>
+      </c>
+      <c r="D99" t="s">
+        <v>579</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>584</v>
-      </c>
-      <c r="C101" s="20">
-        <v>1</v>
-      </c>
-      <c r="D101" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="C102" s="20">
-        <f>(C21/1000/2)</f>
-        <v>3.8197186342054885E-2</v>
+        <v>1</v>
       </c>
       <c r="D102" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
@@ -4900,53 +5045,53 @@
         <v>585</v>
       </c>
       <c r="C103" s="20">
-        <f>C63/C102</f>
-        <v>752.36942173301361</v>
+        <f>(C21/1000/2)</f>
+        <v>3.8197186342054885E-2</v>
       </c>
       <c r="D103" t="s">
-        <v>582</v>
-      </c>
-      <c r="E103" s="20"/>
+        <v>586</v>
+      </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="C104" s="20">
-        <f>(C101)*C103*2*PI()</f>
-        <v>4727.2764962040728</v>
+        <f>C63/C103</f>
+        <v>769.70512269460369</v>
       </c>
       <c r="D104" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
-        <v>588</v>
+        <v>578</v>
+      </c>
+      <c r="E104" s="20"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>582</v>
+      </c>
+      <c r="C105" s="20">
+        <f>(C102)*C104*2*PI()</f>
+        <v>4836.1999177755943</v>
+      </c>
+      <c r="D105" t="s">
+        <v>579</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>584</v>
       </c>
-      <c r="C107" s="20">
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>580</v>
+      </c>
+      <c r="C108" s="20">
         <f>60*C18/C20</f>
         <v>18.75</v>
       </c>
-      <c r="D107" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
-        <v>589</v>
-      </c>
-      <c r="C108" s="20">
-        <f>(C25/1000/2)</f>
-        <v>6.3661977236758135E-2</v>
-      </c>
       <c r="D108" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
@@ -4954,23 +5099,35 @@
         <v>585</v>
       </c>
       <c r="C109" s="20">
-        <f>C63/(C20/C18)/C108</f>
-        <v>141.06926657494006</v>
+        <f>(C25/1000/2)</f>
+        <v>6.3661977236758135E-2</v>
       </c>
       <c r="D109" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="C110" s="20">
-        <f>(C107/60)*C109*2*PI()</f>
-        <v>276.98885719945736</v>
+        <f>C63/(C20/C18)/C109</f>
+        <v>144.31971050523819</v>
       </c>
       <c r="D110" t="s">
-        <v>583</v>
+        <v>578</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>582</v>
+      </c>
+      <c r="C111" s="20">
+        <f>(C108/60)*C110*2*PI()</f>
+        <v>283.37108893216373</v>
+      </c>
+      <c r="D111" t="s">
+        <v>579</v>
       </c>
     </row>
   </sheetData>
@@ -4981,22 +5138,23 @@
     <hyperlink ref="E74" r:id="rId4"/>
     <hyperlink ref="E80" r:id="rId5"/>
     <hyperlink ref="E82" r:id="rId6" display="http://www.omc-stepperonline.com/nema-23-cnc-stepper-motor-28a-19nm269ozin-23hs302804s-p-25.html"/>
-    <hyperlink ref="E90" r:id="rId7" display="http://www.omc-stepperonline.com/09-nema-16-bipolar-stepper-06a-16ncm227ozin-16hm100604s-p-97.html"/>
-    <hyperlink ref="E92" r:id="rId8" display="http://www.omc-stepperonline.com/09-nema-14-bipolar-stepper-motor-5ncm7ozin-14hm080504s-p-85.html"/>
+    <hyperlink ref="E91" r:id="rId7" display="http://www.omc-stepperonline.com/09-nema-16-bipolar-stepper-06a-16ncm227ozin-16hm100604s-p-97.html"/>
+    <hyperlink ref="E93" r:id="rId8" display="http://www.omc-stepperonline.com/09-nema-14-bipolar-stepper-motor-5ncm7ozin-14hm080504s-p-85.html"/>
     <hyperlink ref="E75" r:id="rId9"/>
     <hyperlink ref="E84" r:id="rId10"/>
     <hyperlink ref="E76" r:id="rId11" display="http://www.omc-stepperonline.com/nema-23-cnc-stepper-motor-28a-19nm269ozin-23hs302804s-p-25.html"/>
     <hyperlink ref="E83" r:id="rId12"/>
     <hyperlink ref="E87" r:id="rId13"/>
-    <hyperlink ref="E89" r:id="rId14" display="http://www.omc-stepperonline.com/nema-14-bipolar-stepper-54v-08a-18ncm255ozin-14hs130804s-p-93.html"/>
-    <hyperlink ref="E91" r:id="rId15" display="http://www.omc-stepperonline.com/nema-14-bipolar-stepper-12v-04a-14ncm20ozin-14hs100404s-p-90.html"/>
-    <hyperlink ref="E78" r:id="rId16" display="http://www.omc-stepperonline.com/nema-14-bipolar-stepper-54v-08a-18ncm255ozin-14hs130804s-p-93.html"/>
-    <hyperlink ref="E88" r:id="rId17" display="http://www.omc-stepperonline.com/9deg-nema-17-unipolar-stepper-motor-12v-031a-16ncm227ozin-17hm130316s-p-262.html"/>
-    <hyperlink ref="E93" r:id="rId18" display="http://www.omc-stepperonline.com/09-nema-17-bipolar-stepper-12a-11ncm156ozin-17hm081204s-p-99.html"/>
-    <hyperlink ref="E77" r:id="rId19" display="http://www.omc-stepperonline.com/09-nema-17-bipolar-stepper-12a-11ncm156ozin-17hm081204s-p-99.html"/>
+    <hyperlink ref="E90" r:id="rId14" display="http://www.omc-stepperonline.com/nema-14-bipolar-stepper-54v-08a-18ncm255ozin-14hs130804s-p-93.html"/>
+    <hyperlink ref="E92" r:id="rId15" display="http://www.omc-stepperonline.com/nema-14-bipolar-stepper-12v-04a-14ncm20ozin-14hs100404s-p-90.html"/>
+    <hyperlink ref="E89" r:id="rId16" display="http://www.omc-stepperonline.com/9deg-nema-17-unipolar-stepper-motor-12v-031a-16ncm227ozin-17hm130316s-p-262.html"/>
+    <hyperlink ref="E94" r:id="rId17" display="http://www.omc-stepperonline.com/09-nema-17-bipolar-stepper-12a-11ncm156ozin-17hm081204s-p-99.html"/>
+    <hyperlink ref="E78" r:id="rId18"/>
+    <hyperlink ref="E88" r:id="rId19"/>
+    <hyperlink ref="E77" r:id="rId20"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId20"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId21"/>
 </worksheet>
 </file>
 
@@ -5005,7 +5163,7 @@
   <dimension ref="A1:H111"/>
   <sheetViews>
     <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A68" sqref="A1:XFD1048576"/>
+      <selection activeCell="E72" sqref="E72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7496,27 +7654,27 @@
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="C36">
         <v>180</v>
@@ -7524,7 +7682,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="C37" s="2">
         <f>C36*2.5/PI()</f>
@@ -7536,7 +7694,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="C38" s="2">
         <f>C37*1.0012-0.56</f>
@@ -7548,7 +7706,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="C39" s="2">
         <f>C38-2</f>
@@ -7560,7 +7718,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="C40" s="2">
         <f>C39-2</f>
@@ -7572,12 +7730,12 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="C59">
         <v>180</v>
@@ -7585,7 +7743,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="C60" s="2">
         <f>C59*2.5/PI()</f>
@@ -7597,7 +7755,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="C61" s="2">
         <f>C60*1.0012-0.56</f>
@@ -7609,7 +7767,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="C62" s="2">
         <f>C61-2</f>
@@ -7621,7 +7779,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="C63" s="2">
         <f>C62-2</f>
@@ -7641,8 +7799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J103"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="J33" sqref="A33:J33"/>
+    <sheetView topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="J52" sqref="A52:J52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7662,8 +7820,8 @@
       <c r="A3" s="10"/>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
@@ -7679,10 +7837,10 @@
       <c r="C4" s="10" t="s">
         <v>359</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="D4" s="34" t="s">
         <v>360</v>
       </c>
-      <c r="E4" s="33"/>
+      <c r="E4" s="34"/>
       <c r="F4" s="10" t="s">
         <v>361</v>
       </c>
@@ -11098,7 +11256,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -11133,10 +11291,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J95"/>
+  <dimension ref="A1:K138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49:XFD49"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K106" sqref="K71:K106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11150,24 +11308,24 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="C1" t="s">
+        <v>594</v>
+      </c>
+      <c r="D1" t="s">
         <v>598</v>
       </c>
-      <c r="D1" t="s">
-        <v>602</v>
-      </c>
       <c r="E1" s="29" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="F1" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -11175,11 +11333,11 @@
         <v>4</v>
       </c>
       <c r="C3" t="str">
-        <f>C41</f>
+        <f>C72</f>
         <v>Zylinderkopfschraube Innensechskant M3 22mm</v>
       </c>
       <c r="D3" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -11190,10 +11348,10 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="D4" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -11201,7 +11359,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -11209,11 +11367,11 @@
         <v>1</v>
       </c>
       <c r="C6" t="str">
-        <f>C63</f>
+        <f>C99</f>
         <v>Rillenkugellager DIN 625 SKF - 61807 35x47x7mm</v>
       </c>
       <c r="D6" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11224,11 +11382,11 @@
         <v>4</v>
       </c>
       <c r="C7" t="str">
-        <f>C44</f>
+        <f>C76</f>
         <v>Zylinderkopfschraube Innensechskant M3 14mm</v>
       </c>
       <c r="D7" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11239,11 +11397,11 @@
         <v>4</v>
       </c>
       <c r="C8" t="str">
-        <f>C40</f>
+        <f>C71</f>
         <v>Zylinderkopfschraube Innensechskant M3 20mm</v>
       </c>
       <c r="D8" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -11251,11 +11409,11 @@
         <v>4</v>
       </c>
       <c r="C9" t="str">
-        <f>C46</f>
+        <f>C79</f>
         <v>Muttern M3</v>
       </c>
       <c r="D9" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -11263,16 +11421,16 @@
         <v>2</v>
       </c>
       <c r="C10" t="str">
-        <f>C62</f>
+        <f>C98</f>
         <v>Rillenkugellager DIN 625 SKF - 61902 15x28x7mm</v>
       </c>
       <c r="D10" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -11280,11 +11438,11 @@
         <v>1</v>
       </c>
       <c r="C13" t="str">
-        <f>C52</f>
+        <f>C86</f>
         <v>Zahnriemenscheibe T2,5, 16 Zähne</v>
       </c>
       <c r="D13" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="H13" s="22"/>
       <c r="I13" s="22"/>
@@ -11294,11 +11452,11 @@
         <v>1</v>
       </c>
       <c r="C14" t="str">
-        <f>C53</f>
+        <f>C87</f>
         <v>Zahnriemenscheibe T2,5, 44 Zähne</v>
       </c>
       <c r="D14" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="H14" s="22"/>
       <c r="I14" s="22"/>
@@ -11308,11 +11466,11 @@
         <v>1</v>
       </c>
       <c r="C15" t="str">
-        <f>C52</f>
+        <f>C86</f>
         <v>Zahnriemenscheibe T2,5, 16 Zähne</v>
       </c>
       <c r="D15" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="H15" s="22"/>
       <c r="I15" s="22"/>
@@ -11322,11 +11480,11 @@
         <v>1</v>
       </c>
       <c r="C16" t="str">
-        <f>C54</f>
+        <f>C88</f>
         <v>Zahnriemenscheibe T2,5, 18 Zähne</v>
       </c>
       <c r="D16" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="H16" s="22"/>
       <c r="I16" s="22"/>
@@ -11336,11 +11494,11 @@
         <v>1</v>
       </c>
       <c r="C17" t="str">
-        <f>C55</f>
+        <f>C89</f>
         <v>Zahnriemenscheibe T2,5, 14 Zähne</v>
       </c>
       <c r="D17" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="H17" s="22"/>
       <c r="I17" s="22"/>
@@ -11350,11 +11508,11 @@
         <v>1</v>
       </c>
       <c r="C18" t="str">
-        <f>C57</f>
+        <f>C92</f>
         <v>Zahnriemen T2,5 160mm</v>
       </c>
       <c r="D18" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="H18" s="22"/>
       <c r="I18" s="22"/>
@@ -11364,11 +11522,11 @@
         <v>46</v>
       </c>
       <c r="C19" t="str">
-        <f>C49</f>
+        <f>C82</f>
         <v>Silberstahlwelle 6mm Durchmesser</v>
       </c>
       <c r="D19" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="E19" s="26"/>
       <c r="H19" s="22"/>
@@ -11379,11 +11537,11 @@
         <v>2</v>
       </c>
       <c r="C20" t="str">
-        <f>C61</f>
+        <f>C97</f>
         <v>Rillenkugellager 6x10x3</v>
       </c>
       <c r="D20" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="E20" s="26"/>
       <c r="H20" s="22"/>
@@ -11393,12 +11551,12 @@
       <c r="B21">
         <v>1</v>
       </c>
-      <c r="C21" s="31" t="str">
-        <f>C58</f>
+      <c r="C21" s="32" t="str">
+        <f>C93</f>
         <v>NEMA 17 - 42x42x21</v>
       </c>
-      <c r="D21" s="31" t="s">
-        <v>700</v>
+      <c r="D21" s="32" t="s">
+        <v>696</v>
       </c>
       <c r="E21" s="26"/>
       <c r="H21" s="22"/>
@@ -11408,12 +11566,12 @@
       <c r="B22">
         <v>2</v>
       </c>
-      <c r="C22" s="31" t="str">
-        <f>C44</f>
+      <c r="C22" s="32" t="str">
+        <f>C76</f>
         <v>Zylinderkopfschraube Innensechskant M3 14mm</v>
       </c>
-      <c r="D22" s="31" t="s">
-        <v>703</v>
+      <c r="D22" s="32" t="s">
+        <v>699</v>
       </c>
       <c r="H22" s="22"/>
       <c r="I22" s="22"/>
@@ -11422,12 +11580,12 @@
       <c r="B23">
         <v>2</v>
       </c>
-      <c r="C23" s="31" t="str">
-        <f>C47</f>
+      <c r="C23" s="32" t="str">
+        <f>C80</f>
         <v>Unterlegscheiben M3 Dicke 0,5mm</v>
       </c>
-      <c r="D23" s="31" t="s">
-        <v>703</v>
+      <c r="D23" s="32" t="s">
+        <v>699</v>
       </c>
       <c r="H23" s="22"/>
       <c r="I23" s="22"/>
@@ -11436,12 +11594,12 @@
       <c r="B24">
         <v>1</v>
       </c>
-      <c r="C24" s="31" t="str">
-        <f>C56</f>
+      <c r="C24" s="32" t="str">
+        <f>C91</f>
         <v>Zahnriemen T2,5 230mm</v>
       </c>
-      <c r="D24" s="31" t="s">
-        <v>710</v>
+      <c r="D24" s="32" t="s">
+        <v>706</v>
       </c>
       <c r="H24" s="22"/>
       <c r="I24" s="22"/>
@@ -11450,12 +11608,12 @@
       <c r="B25">
         <v>1</v>
       </c>
-      <c r="C25" s="31" t="str">
-        <f>C42</f>
+      <c r="C25" s="32" t="str">
+        <f>C74</f>
         <v>Zylinderkopfschraube Innensechskant M3 16mm</v>
       </c>
-      <c r="D25" s="31" t="s">
-        <v>708</v>
+      <c r="D25" s="32" t="s">
+        <v>704</v>
       </c>
       <c r="H25" s="22"/>
       <c r="I25" s="22"/>
@@ -11464,12 +11622,12 @@
       <c r="B26">
         <v>2</v>
       </c>
-      <c r="C26" s="31" t="str">
-        <f>C47</f>
+      <c r="C26" s="32" t="str">
+        <f>C80</f>
         <v>Unterlegscheiben M3 Dicke 0,5mm</v>
       </c>
-      <c r="D26" s="31" t="s">
-        <v>708</v>
+      <c r="D26" s="32" t="s">
+        <v>704</v>
       </c>
       <c r="H26" s="22"/>
       <c r="I26" s="22"/>
@@ -11478,12 +11636,12 @@
       <c r="B27">
         <v>2</v>
       </c>
-      <c r="C27" s="31" t="str">
-        <f>C60</f>
+      <c r="C27" s="32" t="str">
+        <f>C96</f>
         <v>Rillenkugellager  3.967 x 7.938 x 3.175 mm</v>
       </c>
-      <c r="D27" s="31" t="s">
-        <v>724</v>
+      <c r="D27" s="32" t="s">
+        <v>720</v>
       </c>
       <c r="H27" s="22"/>
       <c r="I27" s="22"/>
@@ -11492,12 +11650,12 @@
       <c r="B28">
         <v>1</v>
       </c>
-      <c r="C28" s="31" t="str">
-        <f>C45</f>
+      <c r="C28" s="32" t="str">
+        <f>C78</f>
         <v>Vierkant Mutter M3</v>
       </c>
-      <c r="D28" s="31" t="s">
-        <v>708</v>
+      <c r="D28" s="32" t="s">
+        <v>704</v>
       </c>
       <c r="E28"/>
       <c r="H28" s="22"/>
@@ -11507,12 +11665,12 @@
       <c r="B29">
         <v>4</v>
       </c>
-      <c r="C29" s="31" t="str">
-        <f>C43</f>
+      <c r="C29" s="32" t="str">
+        <f>C75</f>
         <v>Zylinderkopfschraube Innensechskant M2 6mm</v>
       </c>
-      <c r="D29" s="31" t="s">
-        <v>714</v>
+      <c r="D29" s="32" t="s">
+        <v>710</v>
       </c>
       <c r="E29"/>
       <c r="H29" s="22"/>
@@ -11522,12 +11680,12 @@
       <c r="B30">
         <v>1</v>
       </c>
-      <c r="C30" s="31" t="str">
-        <f>C59</f>
+      <c r="C30" s="32" t="str">
+        <f>C95</f>
         <v>Rotary Sensor</v>
       </c>
-      <c r="D30" s="31" t="s">
-        <v>719</v>
+      <c r="D30" s="32" t="s">
+        <v>715</v>
       </c>
       <c r="E30" s="9"/>
       <c r="H30" s="22"/>
@@ -11537,12 +11695,12 @@
       <c r="B31">
         <v>2</v>
       </c>
-      <c r="C31" s="31" t="str">
-        <f>C48</f>
+      <c r="C31" s="32" t="str">
+        <f>C81</f>
         <v>Unterlegscheiben M2 Dicke 0,5mm</v>
       </c>
-      <c r="D31" s="31" t="s">
-        <v>720</v>
+      <c r="D31" s="32" t="s">
+        <v>716</v>
       </c>
       <c r="E31" s="9"/>
       <c r="H31" s="22"/>
@@ -11552,1181 +11710,2042 @@
       <c r="B32">
         <v>2</v>
       </c>
-      <c r="C32" s="31" t="str">
-        <f>C50</f>
+      <c r="C32" s="32" t="str">
+        <f>C84</f>
         <v>Distanzbolzen M3 20mm</v>
       </c>
-      <c r="D32" s="31" t="s">
-        <v>727</v>
+      <c r="D32" s="32" t="s">
+        <v>723</v>
       </c>
       <c r="E32" s="9"/>
       <c r="H32" s="22"/>
       <c r="I32" s="22"/>
     </row>
-    <row r="33" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33">
         <v>4</v>
       </c>
-      <c r="C33" s="31" t="str">
-        <f>C47</f>
+      <c r="C33" s="32" t="str">
+        <f>C80</f>
         <v>Unterlegscheiben M3 Dicke 0,5mm</v>
       </c>
-      <c r="D33" s="31" t="s">
-        <v>728</v>
+      <c r="D33" s="32" t="s">
+        <v>724</v>
       </c>
       <c r="H33" s="22"/>
       <c r="I33" s="22"/>
     </row>
-    <row r="34" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34">
         <v>4</v>
       </c>
-      <c r="C34" s="31" t="s">
-        <v>729</v>
-      </c>
-      <c r="D34" s="31" t="s">
-        <v>730</v>
+      <c r="C34" s="32" t="s">
+        <v>725</v>
+      </c>
+      <c r="D34" s="32" t="s">
+        <v>745</v>
       </c>
       <c r="H34" s="22"/>
       <c r="I34" s="22"/>
     </row>
-    <row r="35" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35">
         <v>4</v>
       </c>
-      <c r="C35" s="31" t="str">
-        <f>C40</f>
+      <c r="C35" s="32" t="str">
+        <f>C71</f>
         <v>Zylinderkopfschraube Innensechskant M3 20mm</v>
       </c>
-      <c r="D35" s="31" t="s">
-        <v>730</v>
+      <c r="D35" s="32" t="s">
+        <v>746</v>
       </c>
       <c r="E35" s="9"/>
       <c r="H35" s="22"/>
       <c r="I35" s="22"/>
     </row>
-    <row r="36" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36">
         <v>4</v>
       </c>
-      <c r="C36" s="31" t="str">
-        <f>C47</f>
+      <c r="C36" s="32" t="str">
+        <f>C80</f>
         <v>Unterlegscheiben M3 Dicke 0,5mm</v>
       </c>
-      <c r="D36" s="31" t="s">
-        <v>730</v>
+      <c r="D36" s="32" t="s">
+        <v>745</v>
       </c>
       <c r="H36" s="22"/>
       <c r="I36" s="22"/>
     </row>
-    <row r="37" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C37" s="31"/>
-      <c r="E37" s="9"/>
+    <row r="37" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C37" s="32"/>
+      <c r="D37" s="32"/>
       <c r="H37" s="22"/>
       <c r="I37" s="22"/>
     </row>
-    <row r="38" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C38" s="31"/>
+        <v>742</v>
+      </c>
+      <c r="B38">
+        <v>2</v>
+      </c>
+      <c r="C38" s="32" t="str">
+        <f>C100</f>
+        <v>Rillenkugellager 35x47x7</v>
+      </c>
+      <c r="D38" s="32" t="s">
+        <v>744</v>
+      </c>
       <c r="E38" s="9"/>
       <c r="H38" s="22"/>
       <c r="I38" s="22"/>
     </row>
-    <row r="39" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" t="s">
-        <v>742</v>
-      </c>
-      <c r="C39" s="31"/>
-      <c r="E39" s="9"/>
-      <c r="G39" t="s">
+    <row r="39" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39" s="32" t="str">
+        <f>C101</f>
+        <v>RillenKugellager 6x19x6</v>
+      </c>
+      <c r="D39" s="32" t="s">
+        <v>749</v>
+      </c>
+      <c r="H39" s="22"/>
+      <c r="I39" s="22"/>
+    </row>
+    <row r="40" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B40">
+        <v>4</v>
+      </c>
+      <c r="C40" s="32" t="str">
+        <f>C97</f>
+        <v>Rillenkugellager 6x10x3</v>
+      </c>
+      <c r="D40" s="32" t="s">
+        <v>750</v>
+      </c>
+      <c r="E40" s="9"/>
+      <c r="H40" s="22"/>
+      <c r="I40" s="22"/>
+    </row>
+    <row r="41" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B41">
+        <v>2</v>
+      </c>
+      <c r="C41" s="32" t="str">
+        <f>C102</f>
+        <v>Distanzhülsen M6 10mm</v>
+      </c>
+      <c r="D41" s="32" t="s">
+        <v>753</v>
+      </c>
+      <c r="H41" s="22"/>
+      <c r="I41" s="22"/>
+    </row>
+    <row r="42" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42">
+        <v>40</v>
+      </c>
+      <c r="C42" s="32" t="str">
+        <f>C82</f>
+        <v>Silberstahlwelle 6mm Durchmesser</v>
+      </c>
+      <c r="D42" s="32" t="s">
+        <v>758</v>
+      </c>
+      <c r="H42" s="22"/>
+      <c r="I42" s="22"/>
+    </row>
+    <row r="43" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43">
+        <v>40</v>
+      </c>
+      <c r="C43" s="32" t="str">
+        <f>C83</f>
+        <v>Silberstahlwelle 3mm Durchmesser</v>
+      </c>
+      <c r="D43" s="32" t="s">
+        <v>759</v>
+      </c>
+      <c r="E43" s="9"/>
+      <c r="H43" s="22"/>
+      <c r="I43" s="22"/>
+    </row>
+    <row r="44" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44">
+        <v>4</v>
+      </c>
+      <c r="C44" s="32" t="str">
+        <f>C103</f>
+        <v>Rillenkugellager 3x10x4</v>
+      </c>
+      <c r="D44" s="32" t="s">
+        <v>756</v>
+      </c>
+      <c r="E44" s="9"/>
+      <c r="H44" s="22"/>
+      <c r="I44" s="22"/>
+    </row>
+    <row r="45" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45" s="32" t="str">
+        <f>C104</f>
+        <v>Zahnriemen T2,5 200m</v>
+      </c>
+      <c r="D45" s="32" t="s">
+        <v>762</v>
+      </c>
+      <c r="H45" s="22"/>
+      <c r="I45" s="22"/>
+    </row>
+    <row r="46" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46" s="32" t="str">
+        <f>C104</f>
+        <v>Zahnriemen T2,5 200m</v>
+      </c>
+      <c r="D46" s="32" t="s">
+        <v>763</v>
+      </c>
+      <c r="H46" s="22"/>
+      <c r="I46" s="22"/>
+    </row>
+    <row r="47" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B47">
+        <v>4</v>
+      </c>
+      <c r="C47" s="32" t="str">
+        <f>C72</f>
+        <v>Zylinderkopfschraube Innensechskant M3 22mm</v>
+      </c>
+      <c r="D47" s="32" t="s">
+        <v>764</v>
+      </c>
+      <c r="H47" s="22"/>
+      <c r="I47" s="22"/>
+    </row>
+    <row r="48" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B48">
+        <v>4</v>
+      </c>
+      <c r="C48" s="32" t="str">
+        <f>C79</f>
+        <v>Muttern M3</v>
+      </c>
+      <c r="D48" s="32" t="s">
+        <v>764</v>
+      </c>
+      <c r="E48" s="9"/>
+      <c r="H48" s="22"/>
+      <c r="I48" s="22"/>
+    </row>
+    <row r="49" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B49">
+        <v>2</v>
+      </c>
+      <c r="C49" s="32" t="str">
+        <f>C72</f>
+        <v>Zylinderkopfschraube Innensechskant M3 22mm</v>
+      </c>
+      <c r="D49" s="32" t="s">
+        <v>765</v>
+      </c>
+      <c r="H49" s="22"/>
+      <c r="I49" s="22"/>
+    </row>
+    <row r="50" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B50">
+        <v>2</v>
+      </c>
+      <c r="C50" s="32" t="str">
+        <f>C79</f>
+        <v>Muttern M3</v>
+      </c>
+      <c r="D50" s="32" t="s">
+        <v>765</v>
+      </c>
+      <c r="E50" s="9"/>
+      <c r="H50" s="22"/>
+      <c r="I50" s="22"/>
+    </row>
+    <row r="51" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B51">
+        <v>2</v>
+      </c>
+      <c r="C51" s="32" t="str">
+        <f>C77</f>
+        <v>Zylinderkopfschraube Innensechskant M3 12mm</v>
+      </c>
+      <c r="D51" s="32" t="s">
+        <v>768</v>
+      </c>
+      <c r="H51" s="22"/>
+      <c r="I51" s="22"/>
+    </row>
+    <row r="52" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B52">
+        <v>2</v>
+      </c>
+      <c r="C52" s="32" t="str">
+        <f>C79</f>
+        <v>Muttern M3</v>
+      </c>
+      <c r="D52" s="32" t="s">
+        <v>768</v>
+      </c>
+      <c r="E52" s="9"/>
+      <c r="H52" s="22"/>
+      <c r="I52" s="22"/>
+    </row>
+    <row r="53" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B53">
+        <v>4</v>
+      </c>
+      <c r="C53" s="32" t="str">
+        <f>C73</f>
+        <v>Zylinderkopfschraube Innensechskant M3 25mm</v>
+      </c>
+      <c r="D53" s="32" t="s">
+        <v>771</v>
+      </c>
+      <c r="E53" s="9"/>
+      <c r="H53" s="22"/>
+      <c r="I53" s="22"/>
+    </row>
+    <row r="54" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B54">
+        <v>2</v>
+      </c>
+      <c r="C54" s="32" t="str">
+        <f>C84</f>
+        <v>Distanzbolzen M3 20mm</v>
+      </c>
+      <c r="D54" s="32" t="s">
+        <v>771</v>
+      </c>
+      <c r="E54" s="9"/>
+      <c r="H54" s="22"/>
+      <c r="I54" s="22"/>
+    </row>
+    <row r="55" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55" s="32" t="str">
+        <f>C94</f>
+        <v>NEMA 17 - 42x42x33</v>
+      </c>
+      <c r="D55" s="32" t="s">
+        <v>696</v>
+      </c>
+      <c r="E55" s="9"/>
+      <c r="H55" s="22"/>
+      <c r="I55" s="22"/>
+    </row>
+    <row r="56" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56" s="32" t="str">
+        <f>C86</f>
+        <v>Zahnriemenscheibe T2,5, 16 Zähne</v>
+      </c>
+      <c r="D56" s="32" t="s">
+        <v>774</v>
+      </c>
+      <c r="E56" s="9"/>
+      <c r="H56" s="22"/>
+      <c r="I56" s="22"/>
+    </row>
+    <row r="57" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57" s="32" t="str">
+        <f>C86</f>
+        <v>Zahnriemenscheibe T2,5, 16 Zähne</v>
+      </c>
+      <c r="D57" s="32" t="s">
+        <v>775</v>
+      </c>
+      <c r="E57" s="9"/>
+      <c r="H57" s="22"/>
+      <c r="I57" s="22"/>
+    </row>
+    <row r="58" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58" s="32" t="str">
+        <f>C90</f>
+        <v>Zahnriemenscheibe T2,5, 60 Zähne</v>
+      </c>
+      <c r="D58" s="32" t="s">
+        <v>775</v>
+      </c>
+      <c r="E58" s="9"/>
+      <c r="H58" s="22"/>
+      <c r="I58" s="22"/>
+    </row>
+    <row r="59" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B59">
+        <v>2</v>
+      </c>
+      <c r="C59" s="32" t="str">
+        <f>C105</f>
+        <v>Schraube M6 55mm</v>
+      </c>
+      <c r="D59" s="32" t="s">
+        <v>780</v>
+      </c>
+      <c r="E59" s="9"/>
+      <c r="H59" s="22"/>
+      <c r="I59" s="22"/>
+    </row>
+    <row r="60" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B60">
+        <v>2</v>
+      </c>
+      <c r="C60" s="32" t="s">
+        <v>781</v>
+      </c>
+      <c r="D60" s="32" t="s">
+        <v>780</v>
+      </c>
+      <c r="E60" s="9"/>
+      <c r="H60" s="22"/>
+      <c r="I60" s="22"/>
+    </row>
+    <row r="61" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61" s="32" t="str">
+        <f>C95</f>
+        <v>Rotary Sensor</v>
+      </c>
+      <c r="D61" s="32" t="s">
+        <v>715</v>
+      </c>
+      <c r="E61" s="9"/>
+      <c r="H61" s="22"/>
+      <c r="I61" s="22"/>
+    </row>
+    <row r="62" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C62" s="32"/>
+      <c r="D62" s="32"/>
+      <c r="E62" s="9"/>
+      <c r="H62" s="22"/>
+      <c r="I62" s="22"/>
+    </row>
+    <row r="63" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C63" s="32"/>
+      <c r="D63" s="32"/>
+      <c r="E63" s="9"/>
+      <c r="H63" s="22"/>
+      <c r="I63" s="22"/>
+    </row>
+    <row r="64" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C64" s="32"/>
+      <c r="D64" s="32"/>
+      <c r="E64" s="9"/>
+      <c r="H64" s="22"/>
+      <c r="I64" s="22"/>
+    </row>
+    <row r="65" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C65" s="32"/>
+      <c r="D65" s="32"/>
+      <c r="E65" s="9"/>
+      <c r="H65" s="22"/>
+      <c r="I65" s="22"/>
+    </row>
+    <row r="66" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C66" s="32"/>
+      <c r="D66" s="32"/>
+      <c r="E66" s="9"/>
+      <c r="H66" s="22"/>
+      <c r="I66" s="22"/>
+    </row>
+    <row r="67" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C67" s="32"/>
+      <c r="D67" s="32"/>
+      <c r="E67" s="9"/>
+      <c r="H67" s="22"/>
+      <c r="I67" s="22"/>
+    </row>
+    <row r="68" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C68" s="32"/>
+      <c r="D68" s="32"/>
+      <c r="E68" s="9"/>
+      <c r="H68" s="22"/>
+      <c r="I68" s="22"/>
+    </row>
+    <row r="69" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C69" s="32"/>
+      <c r="E69" s="9"/>
+      <c r="H69" s="22"/>
+      <c r="I69" s="22"/>
+    </row>
+    <row r="70" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B70" t="s">
+        <v>737</v>
+      </c>
+      <c r="C70" s="32"/>
+      <c r="E70" s="9"/>
+      <c r="G70" t="s">
+        <v>714</v>
+      </c>
+      <c r="H70" s="22" t="s">
+        <v>727</v>
+      </c>
+      <c r="I70" s="22" t="s">
+        <v>728</v>
+      </c>
+      <c r="J70" t="s">
+        <v>729</v>
+      </c>
+      <c r="K70" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="33">
+        <f t="shared" ref="B71:B84" si="0">ROUNDUP(I71/G71,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C71" s="32" t="s">
+        <v>662</v>
+      </c>
+      <c r="E71" s="9" t="s">
+        <v>726</v>
+      </c>
+      <c r="G71">
+        <v>100</v>
+      </c>
+      <c r="H71" s="22">
+        <v>1.79</v>
+      </c>
+      <c r="I71" s="18">
+        <f>SUMIF(C$1:C$69,"="&amp;C71,B$1:B$69)</f>
+        <v>8</v>
+      </c>
+      <c r="J71" s="33">
+        <f>G71*B71-I71</f>
+        <v>92</v>
+      </c>
+      <c r="K71" s="35">
+        <f>B71*H71</f>
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="33">
+        <f t="shared" ref="B72" si="1">ROUNDUP(I72/G72,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C72" s="32" t="s">
+        <v>735</v>
+      </c>
+      <c r="E72" s="9" t="s">
+        <v>726</v>
+      </c>
+      <c r="G72">
+        <v>100</v>
+      </c>
+      <c r="H72" s="22">
+        <v>1.71</v>
+      </c>
+      <c r="I72" s="18">
+        <f>SUMIF(C$1:C$69,"="&amp;C72,B$1:B$69)</f>
+        <v>10</v>
+      </c>
+      <c r="J72" s="33">
+        <f>G72*B72-I72</f>
+        <v>90</v>
+      </c>
+      <c r="K72" s="35">
+        <f t="shared" ref="K72:K105" si="2">B72*H72</f>
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="33">
+        <f t="shared" ref="B73" si="3">ROUNDUP(I73/G73,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C73" s="32" t="s">
+        <v>770</v>
+      </c>
+      <c r="E73" s="9" t="s">
+        <v>726</v>
+      </c>
+      <c r="G73">
+        <v>100</v>
+      </c>
+      <c r="H73" s="22">
+        <v>1.71</v>
+      </c>
+      <c r="I73" s="18">
+        <f>SUMIF(C$1:C$69,"="&amp;C73,B$1:B$69)</f>
+        <v>4</v>
+      </c>
+      <c r="J73" s="33">
+        <f>G73*B73-I73</f>
+        <v>96</v>
+      </c>
+      <c r="K73" s="35">
+        <f t="shared" ref="K73" si="4">B73*H73</f>
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="33">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C74" s="32" t="s">
+        <v>702</v>
+      </c>
+      <c r="D74" s="32"/>
+      <c r="E74" s="29" t="s">
+        <v>703</v>
+      </c>
+      <c r="G74">
+        <v>100</v>
+      </c>
+      <c r="H74" s="22">
+        <v>1.96</v>
+      </c>
+      <c r="I74" s="18">
+        <f>SUMIF(C$1:C$69,"="&amp;C74,B$1:B$69)</f>
+        <v>1</v>
+      </c>
+      <c r="J74" s="33">
+        <f t="shared" ref="J74:J97" si="5">G74*B74-I74</f>
+        <v>99</v>
+      </c>
+      <c r="K74" s="35">
+        <f t="shared" si="2"/>
+        <v>1.96</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="33">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C75" s="32" t="s">
+        <v>709</v>
+      </c>
+      <c r="E75" t="s">
+        <v>712</v>
+      </c>
+      <c r="G75">
+        <v>10</v>
+      </c>
+      <c r="H75" s="22">
+        <v>0.99</v>
+      </c>
+      <c r="I75" s="18">
+        <f>SUMIF(C$1:C$69,"="&amp;C75,B$1:B$69)</f>
+        <v>4</v>
+      </c>
+      <c r="J75" s="33">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="K75" s="35">
+        <f t="shared" si="2"/>
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="33">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C76" s="32" t="s">
+        <v>698</v>
+      </c>
+      <c r="E76" t="s">
+        <v>767</v>
+      </c>
+      <c r="G76">
+        <v>100</v>
+      </c>
+      <c r="H76" s="22">
+        <v>1.79</v>
+      </c>
+      <c r="I76" s="18">
+        <f>SUMIF(C$1:C$69,"="&amp;C76,B$1:B$69)</f>
+        <v>6</v>
+      </c>
+      <c r="J76" s="33">
+        <f t="shared" ref="J76" si="6">G76*B76-I76</f>
+        <v>94</v>
+      </c>
+      <c r="K76" s="35">
+        <f t="shared" si="2"/>
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="33">
+        <f t="shared" ref="B77" si="7">ROUNDUP(I77/G77,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C77" s="32" t="s">
+        <v>766</v>
+      </c>
+      <c r="E77" t="s">
+        <v>767</v>
+      </c>
+      <c r="G77">
+        <v>100</v>
+      </c>
+      <c r="H77" s="22">
+        <v>1.63</v>
+      </c>
+      <c r="I77" s="18">
+        <f>SUMIF(C$1:C$69,"="&amp;C77,B$1:B$69)</f>
+        <v>2</v>
+      </c>
+      <c r="J77" s="33">
+        <f t="shared" ref="J77" si="8">G77*B77-I77</f>
+        <v>98</v>
+      </c>
+      <c r="K77" s="35">
+        <f t="shared" si="2"/>
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="33">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C78" s="32" t="s">
+        <v>708</v>
+      </c>
+      <c r="E78" t="s">
+        <v>651</v>
+      </c>
+      <c r="G78">
+        <v>100</v>
+      </c>
+      <c r="H78" s="22">
+        <v>2.09</v>
+      </c>
+      <c r="I78" s="18">
+        <f>SUMIF(C$1:C$69,"="&amp;C78,B$1:B$69)</f>
+        <v>1</v>
+      </c>
+      <c r="J78" s="33">
+        <f t="shared" si="5"/>
+        <v>99</v>
+      </c>
+      <c r="K78" s="35">
+        <f t="shared" si="2"/>
+        <v>2.09</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B79" s="33">
+        <f t="shared" ref="B79" si="9">ROUNDUP(I79/G79,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C79" s="32" t="s">
+        <v>664</v>
+      </c>
+      <c r="E79" s="29" t="s">
+        <v>665</v>
+      </c>
+      <c r="G79">
+        <v>100</v>
+      </c>
+      <c r="H79" s="22">
+        <v>2.09</v>
+      </c>
+      <c r="I79" s="18">
+        <f>SUMIF(C$1:C$69,"="&amp;C79,B$1:B$69)</f>
+        <v>12</v>
+      </c>
+      <c r="J79" s="33">
+        <f t="shared" ref="J79" si="10">G79*B79-I79</f>
+        <v>88</v>
+      </c>
+      <c r="K79" s="35">
+        <f t="shared" si="2"/>
+        <v>2.09</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B80" s="33">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C80" s="32" t="s">
+        <v>701</v>
+      </c>
+      <c r="E80" s="29" t="s">
+        <v>700</v>
+      </c>
+      <c r="G80">
+        <v>100</v>
+      </c>
+      <c r="H80" s="22">
+        <v>1.79</v>
+      </c>
+      <c r="I80" s="18">
+        <f>SUMIF(C$1:C$69,"="&amp;C80,B$1:B$69)</f>
+        <v>12</v>
+      </c>
+      <c r="J80" s="33">
+        <f t="shared" si="5"/>
+        <v>88</v>
+      </c>
+      <c r="K80" s="35">
+        <f t="shared" si="2"/>
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="81" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="33">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C81" s="32" t="s">
+        <v>717</v>
+      </c>
+      <c r="E81" s="9" t="s">
         <v>718</v>
       </c>
-      <c r="H39" s="22" t="s">
-        <v>732</v>
-      </c>
-      <c r="I39" s="22" t="s">
-        <v>733</v>
-      </c>
-      <c r="J39" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="32">
-        <f t="shared" ref="B40:B50" si="0">ROUNDUP(I40/G40,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C40" s="31" t="s">
-        <v>666</v>
-      </c>
-      <c r="E40" s="9" t="s">
+      <c r="G81">
+        <v>100</v>
+      </c>
+      <c r="H81" s="22">
+        <v>1.79</v>
+      </c>
+      <c r="I81" s="18">
+        <f>SUMIF(C$1:C$69,"="&amp;C81,B$1:B$69)</f>
+        <v>2</v>
+      </c>
+      <c r="J81" s="33">
+        <f>G81*B81-I81</f>
+        <v>98</v>
+      </c>
+      <c r="K81" s="35">
+        <f t="shared" si="2"/>
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="82" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B82" s="33">
+        <f>ROUNDUP(I82/G82,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C82" t="s">
+        <v>730</v>
+      </c>
+      <c r="E82" s="26" t="s">
+        <v>694</v>
+      </c>
+      <c r="G82">
+        <v>500</v>
+      </c>
+      <c r="H82" s="22">
+        <v>4.49</v>
+      </c>
+      <c r="I82" s="18">
+        <f>SUMIF(C$1:C$69,"="&amp;C82,B$1:B$69)</f>
+        <v>86</v>
+      </c>
+      <c r="J82" s="33">
+        <f t="shared" ref="J82" si="11">G82*B82-I82</f>
+        <v>414</v>
+      </c>
+      <c r="K82" s="35">
+        <f t="shared" si="2"/>
+        <v>4.49</v>
+      </c>
+    </row>
+    <row r="83" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B83" s="33">
+        <f>ROUNDUP(I83/G83,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C83" t="s">
+        <v>757</v>
+      </c>
+      <c r="E83" s="26" t="s">
+        <v>648</v>
+      </c>
+      <c r="G83">
+        <v>500</v>
+      </c>
+      <c r="H83" s="22">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="I83" s="18">
+        <f>SUMIF(C$1:C$69,"="&amp;C83,B$1:B$69)</f>
+        <v>40</v>
+      </c>
+      <c r="J83" s="33">
+        <f t="shared" ref="J83" si="12">G83*B83-I83</f>
+        <v>460</v>
+      </c>
+      <c r="K83" s="35">
+        <f t="shared" si="2"/>
+        <v>2.4900000000000002</v>
+      </c>
+    </row>
+    <row r="84" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B84" s="33">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C84" s="32" t="s">
+        <v>725</v>
+      </c>
+      <c r="E84" s="9" t="s">
+        <v>722</v>
+      </c>
+      <c r="G84">
+        <v>1</v>
+      </c>
+      <c r="H84" s="22">
+        <v>0.15</v>
+      </c>
+      <c r="I84" s="18">
+        <f>SUMIF(C$1:C$69,"="&amp;C84,B$1:B$69)</f>
+        <v>8</v>
+      </c>
+      <c r="J84" s="33">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K84" s="35">
+        <f t="shared" si="2"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="85" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B85" s="33">
+        <f t="shared" ref="B85" si="13">ROUNDUP(I85/G85,0)</f>
+        <v>4</v>
+      </c>
+      <c r="C85" t="s">
+        <v>656</v>
+      </c>
+      <c r="E85" s="29" t="s">
+        <v>736</v>
+      </c>
+      <c r="G85">
+        <v>1</v>
+      </c>
+      <c r="H85" s="22">
+        <v>0.08</v>
+      </c>
+      <c r="I85" s="18">
+        <f>SUMIF(C$1:C$69,"="&amp;C85,B$1:B$69)</f>
+        <v>4</v>
+      </c>
+      <c r="J85" s="33">
+        <f t="shared" ref="J85" si="14">G85*B85-I85</f>
+        <v>0</v>
+      </c>
+      <c r="K85" s="35">
+        <f t="shared" si="2"/>
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="86" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="33">
+        <f t="shared" ref="B86:B90" si="15">ROUNDUP(I86/G86,0)</f>
+        <v>4</v>
+      </c>
+      <c r="C86" t="s">
+        <v>679</v>
+      </c>
+      <c r="E86" s="29" t="s">
+        <v>684</v>
+      </c>
+      <c r="G86">
+        <v>1</v>
+      </c>
+      <c r="H86" s="22">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="I86" s="18">
+        <f>SUMIF(C$1:C$69,"="&amp;C86,B$1:B$69)</f>
+        <v>4</v>
+      </c>
+      <c r="J86" s="33">
+        <f t="shared" ref="J86" si="16">G86*B86-I86</f>
+        <v>0</v>
+      </c>
+      <c r="K86" s="35">
+        <f t="shared" si="2"/>
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="87" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B87" s="33">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="C87" t="s">
+        <v>686</v>
+      </c>
+      <c r="E87" s="29" t="s">
+        <v>685</v>
+      </c>
+      <c r="G87">
+        <v>1</v>
+      </c>
+      <c r="H87" s="22">
+        <v>5.44</v>
+      </c>
+      <c r="I87" s="18">
+        <f>SUMIF(C$1:C$69,"="&amp;C87,B$1:B$69)</f>
+        <v>1</v>
+      </c>
+      <c r="J87" s="33">
+        <f t="shared" ref="J87:J89" si="17">G87*B87-I87</f>
+        <v>0</v>
+      </c>
+      <c r="K87" s="35">
+        <f t="shared" si="2"/>
+        <v>5.44</v>
+      </c>
+    </row>
+    <row r="88" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B88" s="33">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="C88" t="s">
         <v>731</v>
       </c>
-      <c r="G40">
-        <v>100</v>
-      </c>
-      <c r="H40" s="22">
-        <v>1.79</v>
-      </c>
-      <c r="I40" s="18">
-        <f t="shared" ref="I40:I50" si="1">SUMIF(C$1:C$38,"="&amp;C40,B$1:B$38)</f>
-        <v>8</v>
-      </c>
-      <c r="J40" s="32">
-        <f>G40*B40-I40</f>
-        <v>92</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="32">
-        <f t="shared" ref="B41" si="2">ROUNDUP(I41/G41,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C41" s="31" t="s">
-        <v>740</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>731</v>
-      </c>
-      <c r="G41">
-        <v>100</v>
-      </c>
-      <c r="H41" s="22">
-        <v>1.71</v>
-      </c>
-      <c r="I41" s="18">
-        <f t="shared" ref="I41" si="3">SUMIF(C$1:C$38,"="&amp;C41,B$1:B$38)</f>
-        <v>4</v>
-      </c>
-      <c r="J41" s="32">
-        <f>G41*B41-I41</f>
-        <v>96</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="32">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C42" s="31" t="s">
-        <v>706</v>
-      </c>
-      <c r="D42" s="31"/>
-      <c r="E42" s="29" t="s">
-        <v>707</v>
-      </c>
-      <c r="G42">
-        <v>100</v>
-      </c>
-      <c r="H42" s="22">
-        <v>1.96</v>
-      </c>
-      <c r="I42" s="18">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="J42" s="32">
-        <f t="shared" ref="J42:J61" si="4">G42*B42-I42</f>
-        <v>99</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="32">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C43" s="31" t="s">
-        <v>713</v>
-      </c>
-      <c r="E43" t="s">
-        <v>716</v>
-      </c>
-      <c r="G43">
-        <v>10</v>
-      </c>
-      <c r="H43" s="22">
-        <v>0.99</v>
-      </c>
-      <c r="I43" s="18">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="J43" s="32">
-        <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="32">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C44" s="31" t="s">
-        <v>702</v>
-      </c>
-      <c r="E44" t="s">
-        <v>716</v>
-      </c>
-      <c r="G44">
-        <v>100</v>
-      </c>
-      <c r="H44" s="22">
-        <v>1.79</v>
-      </c>
-      <c r="I44" s="18">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="J44" s="32">
-        <f t="shared" ref="J44" si="5">G44*B44-I44</f>
-        <v>94</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="32">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C45" s="31" t="s">
-        <v>712</v>
-      </c>
-      <c r="E45" t="s">
-        <v>655</v>
-      </c>
-      <c r="G45">
-        <v>100</v>
-      </c>
-      <c r="H45" s="22">
-        <v>2.09</v>
-      </c>
-      <c r="I45" s="18">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="J45" s="32">
-        <f t="shared" si="4"/>
-        <v>99</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="32">
-        <f t="shared" ref="B46" si="6">ROUNDUP(I46/G46,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C46" s="31" t="s">
-        <v>668</v>
-      </c>
-      <c r="E46" s="29" t="s">
-        <v>669</v>
-      </c>
-      <c r="G46">
-        <v>100</v>
-      </c>
-      <c r="H46" s="22">
-        <v>2.09</v>
-      </c>
-      <c r="I46" s="18">
-        <f t="shared" ref="I46" si="7">SUMIF(C$1:C$38,"="&amp;C46,B$1:B$38)</f>
-        <v>4</v>
-      </c>
-      <c r="J46" s="32">
-        <f t="shared" ref="J46" si="8">G46*B46-I46</f>
-        <v>96</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="32">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C47" s="31" t="s">
-        <v>705</v>
-      </c>
-      <c r="E47" s="29" t="s">
-        <v>704</v>
-      </c>
-      <c r="G47">
-        <v>100</v>
-      </c>
-      <c r="H47" s="22">
-        <v>1.79</v>
-      </c>
-      <c r="I47" s="18">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="J47" s="32">
-        <f t="shared" si="4"/>
-        <v>88</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="32">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C48" s="31" t="s">
-        <v>721</v>
-      </c>
-      <c r="E48" s="9" t="s">
-        <v>722</v>
-      </c>
-      <c r="G48">
-        <v>100</v>
-      </c>
-      <c r="H48" s="22">
-        <v>1.79</v>
-      </c>
-      <c r="I48" s="18">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="J48" s="32">
-        <f>G48*B48-I48</f>
-        <v>98</v>
-      </c>
-    </row>
-    <row r="49" spans="2:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="32">
-        <f>ROUNDUP(I49/G49,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C49" t="s">
-        <v>735</v>
-      </c>
-      <c r="E49" s="26" t="s">
-        <v>698</v>
-      </c>
-      <c r="G49">
-        <v>500</v>
-      </c>
-      <c r="H49" s="22">
-        <v>4.49</v>
-      </c>
-      <c r="I49" s="18">
-        <f>SUMIF(C$1:C$38,"="&amp;C49,B$1:B$38)</f>
-        <v>46</v>
-      </c>
-      <c r="J49" s="32">
-        <f t="shared" ref="J49" si="9">G49*B49-I49</f>
-        <v>454</v>
-      </c>
-    </row>
-    <row r="50" spans="2:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="32">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C50" s="31" t="s">
-        <v>729</v>
-      </c>
-      <c r="E50" s="9" t="s">
-        <v>726</v>
-      </c>
-      <c r="G50">
-        <v>1</v>
-      </c>
-      <c r="H50" s="22">
-        <v>0.15</v>
-      </c>
-      <c r="I50" s="18">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="J50" s="32">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="2:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="32">
-        <f t="shared" ref="B51" si="10">ROUNDUP(I51/G51,0)</f>
-        <v>4</v>
-      </c>
-      <c r="C51" t="s">
-        <v>660</v>
-      </c>
-      <c r="E51" s="29" t="s">
-        <v>741</v>
-      </c>
-      <c r="G51">
-        <v>1</v>
-      </c>
-      <c r="H51" s="22">
-        <v>0.08</v>
-      </c>
-      <c r="I51" s="18">
-        <f t="shared" ref="I51" si="11">SUMIF(C$1:C$38,"="&amp;C51,B$1:B$38)</f>
-        <v>4</v>
-      </c>
-      <c r="J51" s="32">
-        <f t="shared" ref="J51" si="12">G51*B51-I51</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="2:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="32">
-        <f t="shared" ref="B52:B55" si="13">ROUNDUP(I52/G52,0)</f>
-        <v>2</v>
-      </c>
-      <c r="C52" t="s">
-        <v>683</v>
-      </c>
-      <c r="E52" s="29" t="s">
-        <v>688</v>
-      </c>
-      <c r="G52">
-        <v>1</v>
-      </c>
-      <c r="H52" s="22">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="I52" s="18">
-        <f t="shared" ref="I52" si="14">SUMIF(C$1:C$38,"="&amp;C52,B$1:B$38)</f>
-        <v>2</v>
-      </c>
-      <c r="J52" s="32">
-        <f t="shared" ref="J52" si="15">G52*B52-I52</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="2:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="32">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="C53" t="s">
-        <v>690</v>
-      </c>
-      <c r="E53" s="29" t="s">
+      <c r="E88" s="29" t="s">
         <v>689</v>
       </c>
-      <c r="G53">
-        <v>1</v>
-      </c>
-      <c r="H53" s="22">
-        <v>5.44</v>
-      </c>
-      <c r="I53" s="18">
-        <f t="shared" ref="I53:I55" si="16">SUMIF(C$1:C$38,"="&amp;C53,B$1:B$38)</f>
-        <v>1</v>
-      </c>
-      <c r="J53" s="32">
-        <f t="shared" ref="J53:J55" si="17">G53*B53-I53</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="2:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="32">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="C54" t="s">
-        <v>736</v>
-      </c>
-      <c r="E54" s="29" t="s">
-        <v>693</v>
-      </c>
-      <c r="G54">
-        <v>1</v>
-      </c>
-      <c r="H54" s="22">
+      <c r="G88">
+        <v>1</v>
+      </c>
+      <c r="H88" s="22">
         <v>4.46</v>
       </c>
-      <c r="I54" s="18">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="J54" s="32">
+      <c r="I88" s="18">
+        <f>SUMIF(C$1:C$69,"="&amp;C88,B$1:B$69)</f>
+        <v>1</v>
+      </c>
+      <c r="J88" s="33">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="2:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="32">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="C55" t="s">
-        <v>737</v>
-      </c>
-      <c r="E55" s="29" t="s">
-        <v>691</v>
-      </c>
-      <c r="G55">
-        <v>1</v>
-      </c>
-      <c r="H55" s="22">
+      <c r="K88" s="35">
+        <f t="shared" si="2"/>
+        <v>4.46</v>
+      </c>
+    </row>
+    <row r="89" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B89" s="33">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="C89" t="s">
+        <v>732</v>
+      </c>
+      <c r="E89" s="29" t="s">
+        <v>687</v>
+      </c>
+      <c r="G89">
+        <v>1</v>
+      </c>
+      <c r="H89" s="22">
         <v>5.01</v>
       </c>
-      <c r="I55" s="18">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="J55" s="32">
+      <c r="I89" s="18">
+        <f>SUMIF(C$1:C$69,"="&amp;C89,B$1:B$69)</f>
+        <v>1</v>
+      </c>
+      <c r="J89" s="33">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="2:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="32">
-        <v>1</v>
-      </c>
-      <c r="C56" s="31" t="s">
-        <v>709</v>
-      </c>
-      <c r="D56" s="31"/>
-      <c r="E56" s="29" t="s">
+      <c r="K89" s="35">
+        <f t="shared" si="2"/>
+        <v>5.01</v>
+      </c>
+    </row>
+    <row r="90" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B90" s="33">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="C90" t="s">
+        <v>777</v>
+      </c>
+      <c r="E90" s="26" t="s">
+        <v>776</v>
+      </c>
+      <c r="G90">
+        <v>1</v>
+      </c>
+      <c r="H90" s="22">
+        <v>6.34</v>
+      </c>
+      <c r="I90" s="18">
+        <f>SUMIF(C$1:C$69,"="&amp;C90,B$1:B$69)</f>
+        <v>1</v>
+      </c>
+      <c r="J90" s="33">
+        <f t="shared" ref="J90" si="18">G90*B90-I90</f>
+        <v>0</v>
+      </c>
+      <c r="K90" s="35">
+        <f t="shared" ref="K90" si="19">B90*H90</f>
+        <v>6.34</v>
+      </c>
+    </row>
+    <row r="91" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B91" s="33">
+        <v>1</v>
+      </c>
+      <c r="C91" s="32" t="s">
+        <v>705</v>
+      </c>
+      <c r="D91" s="32"/>
+      <c r="E91" s="29" t="s">
+        <v>707</v>
+      </c>
+      <c r="G91">
+        <v>1</v>
+      </c>
+      <c r="H91" s="22">
+        <v>4.96</v>
+      </c>
+      <c r="I91" s="18">
+        <f>SUMIF(C$1:C$69,"="&amp;C91,B$1:B$69)</f>
+        <v>1</v>
+      </c>
+      <c r="J91" s="33">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K91" s="35">
+        <f t="shared" si="2"/>
+        <v>4.96</v>
+      </c>
+    </row>
+    <row r="92" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B92" s="33">
+        <v>1</v>
+      </c>
+      <c r="C92" t="s">
+        <v>690</v>
+      </c>
+      <c r="D92" s="32"/>
+      <c r="E92" s="29" t="s">
+        <v>734</v>
+      </c>
+      <c r="G92">
+        <v>1</v>
+      </c>
+      <c r="H92" s="22">
+        <v>4.24</v>
+      </c>
+      <c r="I92" s="18">
+        <f>SUMIF(C$1:C$69,"="&amp;C92,B$1:B$69)</f>
+        <v>1</v>
+      </c>
+      <c r="J92" s="33">
+        <f t="shared" ref="J92" si="20">G92*B92-I92</f>
+        <v>0</v>
+      </c>
+      <c r="K92" s="35">
+        <f t="shared" si="2"/>
+        <v>4.24</v>
+      </c>
+    </row>
+    <row r="93" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B93" s="33">
+        <v>1</v>
+      </c>
+      <c r="C93" s="32" t="s">
+        <v>695</v>
+      </c>
+      <c r="E93" s="26" t="s">
+        <v>697</v>
+      </c>
+      <c r="G93">
+        <v>1</v>
+      </c>
+      <c r="H93" s="22">
+        <v>14.5</v>
+      </c>
+      <c r="I93" s="18">
+        <f>SUMIF(C$1:C$69,"="&amp;C93,B$1:B$69)</f>
+        <v>1</v>
+      </c>
+      <c r="J93" s="33">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K93" s="35">
+        <f t="shared" si="2"/>
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="94" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B94" s="33">
+        <v>1</v>
+      </c>
+      <c r="C94" s="32" t="s">
+        <v>772</v>
+      </c>
+      <c r="E94" s="26" t="s">
+        <v>773</v>
+      </c>
+      <c r="G94">
+        <v>1</v>
+      </c>
+      <c r="H94" s="22">
+        <v>8.5</v>
+      </c>
+      <c r="I94" s="18">
+        <f>SUMIF(C$1:C$69,"="&amp;C94,B$1:B$69)</f>
+        <v>1</v>
+      </c>
+      <c r="J94" s="33">
+        <f t="shared" ref="J94" si="21">G94*B94-I94</f>
+        <v>0</v>
+      </c>
+      <c r="K94" s="35">
+        <f t="shared" ref="K94" si="22">B94*H94</f>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="95" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B95" s="33">
+        <f>ROUNDUP(I95/G95,0)</f>
+        <v>2</v>
+      </c>
+      <c r="C95" s="32" t="s">
         <v>711</v>
       </c>
-      <c r="G56">
-        <v>1</v>
-      </c>
-      <c r="H56" s="22">
-        <v>4.96</v>
-      </c>
-      <c r="I56" s="18">
-        <f>SUMIF(C$1:C$38,"="&amp;C56,B$1:B$38)</f>
-        <v>1</v>
-      </c>
-      <c r="J56" s="32">
-        <f t="shared" si="4"/>
+      <c r="E95" s="9" t="s">
+        <v>562</v>
+      </c>
+      <c r="G95">
+        <v>1</v>
+      </c>
+      <c r="H95" s="22">
+        <v>14.53</v>
+      </c>
+      <c r="I95" s="18">
+        <f>SUMIF(C$1:C$69,"="&amp;C95,B$1:B$69)</f>
+        <v>2</v>
+      </c>
+      <c r="J95" s="33">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="2:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="32">
-        <v>1</v>
-      </c>
-      <c r="C57" t="s">
-        <v>694</v>
-      </c>
-      <c r="D57" s="31"/>
-      <c r="E57" s="29" t="s">
-        <v>739</v>
-      </c>
-      <c r="G57">
-        <v>1</v>
-      </c>
-      <c r="H57" s="22">
-        <v>4.24</v>
-      </c>
-      <c r="I57" s="18">
-        <f>SUMIF(C$1:C$38,"="&amp;C57,B$1:B$38)</f>
-        <v>1</v>
-      </c>
-      <c r="J57" s="32">
-        <f t="shared" ref="J57" si="18">G57*B57-I57</f>
+      <c r="K95" s="35">
+        <f t="shared" si="2"/>
+        <v>29.06</v>
+      </c>
+    </row>
+    <row r="96" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B96" s="33">
+        <f>ROUNDUP(I96/G96,0)</f>
+        <v>2</v>
+      </c>
+      <c r="C96" s="32" t="s">
+        <v>721</v>
+      </c>
+      <c r="D96" s="32"/>
+      <c r="E96" s="29" t="s">
+        <v>719</v>
+      </c>
+      <c r="G96">
+        <v>1</v>
+      </c>
+      <c r="H96" s="22">
+        <v>1.54</v>
+      </c>
+      <c r="I96" s="18">
+        <f>SUMIF(C$1:C$69,"="&amp;C96,B$1:B$69)</f>
+        <v>2</v>
+      </c>
+      <c r="J96" s="33">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="2:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="32">
-        <v>1</v>
-      </c>
-      <c r="C58" s="31" t="s">
-        <v>699</v>
-      </c>
-      <c r="E58" s="26" t="s">
-        <v>701</v>
-      </c>
-      <c r="G58">
-        <v>1</v>
-      </c>
-      <c r="H58" s="22">
-        <v>14.5</v>
-      </c>
-      <c r="I58" s="18">
-        <f>SUMIF(C$1:C$38,"="&amp;C58,B$1:B$38)</f>
-        <v>1</v>
-      </c>
-      <c r="J58" s="32">
-        <f t="shared" si="4"/>
+      <c r="K96" s="35">
+        <f t="shared" si="2"/>
+        <v>3.08</v>
+      </c>
+    </row>
+    <row r="97" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B97" s="33">
+        <f>ROUNDUP(I97/G97,0)</f>
+        <v>6</v>
+      </c>
+      <c r="C97" t="s">
+        <v>692</v>
+      </c>
+      <c r="E97" s="26" t="s">
+        <v>691</v>
+      </c>
+      <c r="G97">
+        <v>1</v>
+      </c>
+      <c r="H97" s="22">
+        <v>1.95</v>
+      </c>
+      <c r="I97" s="18">
+        <f>SUMIF(C$1:C$69,"="&amp;C97,B$1:B$69)</f>
+        <v>6</v>
+      </c>
+      <c r="J97" s="33">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="2:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="32">
-        <f>ROUNDUP(I59/G59,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C59" s="31" t="s">
-        <v>715</v>
-      </c>
-      <c r="E59" s="9" t="s">
-        <v>562</v>
-      </c>
-      <c r="G59">
-        <v>1</v>
-      </c>
-      <c r="H59" s="22">
-        <v>14.53</v>
-      </c>
-      <c r="I59" s="18">
-        <f>SUMIF(C$1:C$38,"="&amp;C59,B$1:B$38)</f>
-        <v>1</v>
-      </c>
-      <c r="J59" s="32">
-        <f t="shared" si="4"/>
+      <c r="K97" s="35">
+        <f t="shared" si="2"/>
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="98" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B98" s="33">
+        <f>ROUNDUP(I98/G98,0)</f>
+        <v>2</v>
+      </c>
+      <c r="C98" t="s">
+        <v>667</v>
+      </c>
+      <c r="E98" s="29" t="s">
+        <v>669</v>
+      </c>
+      <c r="G98">
+        <v>1</v>
+      </c>
+      <c r="H98" s="22">
+        <v>1.39</v>
+      </c>
+      <c r="I98" s="18">
+        <f>SUMIF(C$1:C$69,"="&amp;C98,B$1:B$69)</f>
+        <v>2</v>
+      </c>
+      <c r="J98" s="33">
+        <f t="shared" ref="J98" si="23">G98*B98-I98</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="2:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="32">
-        <f>ROUNDUP(I60/G60,0)</f>
+      <c r="K98" s="35">
+        <f t="shared" si="2"/>
+        <v>2.78</v>
+      </c>
+    </row>
+    <row r="99" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B99" s="33">
+        <f>ROUNDUP(I99/G99,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C99" t="s">
+        <v>658</v>
+      </c>
+      <c r="E99" s="29" t="s">
+        <v>557</v>
+      </c>
+      <c r="G99">
+        <v>1</v>
+      </c>
+      <c r="H99" s="22">
+        <v>3.29</v>
+      </c>
+      <c r="I99" s="18">
+        <f>SUMIF(C$1:C$69,"="&amp;C99,B$1:B$69)</f>
+        <v>1</v>
+      </c>
+      <c r="J99" s="33">
+        <f t="shared" ref="J99" si="24">G99*B99-I99</f>
+        <v>0</v>
+      </c>
+      <c r="K99" s="35">
+        <f t="shared" si="2"/>
+        <v>3.29</v>
+      </c>
+    </row>
+    <row r="100" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B100" s="33">
+        <f>ROUNDUP(I100/G100,0)</f>
         <v>2</v>
       </c>
-      <c r="C60" s="31" t="s">
-        <v>725</v>
-      </c>
-      <c r="D60" s="31"/>
-      <c r="E60" s="29" t="s">
-        <v>723</v>
-      </c>
-      <c r="G60">
-        <v>1</v>
-      </c>
-      <c r="H60" s="22">
-        <v>1.54</v>
-      </c>
-      <c r="I60" s="18">
-        <f>SUMIF(C$1:C$38,"="&amp;C60,B$1:B$38)</f>
+      <c r="C100" s="32" t="s">
+        <v>743</v>
+      </c>
+      <c r="E100" s="26" t="s">
+        <v>557</v>
+      </c>
+      <c r="G100">
+        <v>1</v>
+      </c>
+      <c r="H100" s="22">
+        <v>3.29</v>
+      </c>
+      <c r="I100" s="18">
+        <f>SUMIF(C$1:C$69,"="&amp;C100,B$1:B$69)</f>
         <v>2</v>
       </c>
-      <c r="J60" s="32">
-        <f t="shared" si="4"/>
+      <c r="J100" s="33">
+        <f t="shared" ref="J100" si="25">G100*B100-I100</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="2:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="32">
-        <f>ROUNDUP(I61/G61,0)</f>
+      <c r="K100" s="35">
+        <f t="shared" si="2"/>
+        <v>6.58</v>
+      </c>
+    </row>
+    <row r="101" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B101" s="33">
+        <f>ROUNDUP(I101/G101,0)</f>
         <v>2</v>
       </c>
-      <c r="C61" t="s">
-        <v>696</v>
-      </c>
-      <c r="E61" s="26" t="s">
-        <v>695</v>
-      </c>
-      <c r="G61">
-        <v>1</v>
-      </c>
-      <c r="H61" s="22">
-        <v>1.95</v>
-      </c>
-      <c r="I61" s="18">
-        <f>SUMIF(C$1:C$38,"="&amp;C61,B$1:B$38)</f>
+      <c r="C101" t="s">
+        <v>747</v>
+      </c>
+      <c r="E101" s="26" t="s">
+        <v>748</v>
+      </c>
+      <c r="G101">
+        <v>1</v>
+      </c>
+      <c r="H101" s="22">
+        <v>1</v>
+      </c>
+      <c r="I101" s="18">
+        <f>SUMIF(C$1:C$69,"="&amp;C101,B$1:B$69)</f>
         <v>2</v>
       </c>
-      <c r="J61" s="32">
-        <f t="shared" si="4"/>
+      <c r="J101" s="33">
+        <f t="shared" ref="J101" si="26">G101*B101-I101</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="2:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="32">
-        <f>ROUNDUP(I62/G62,0)</f>
+      <c r="K101" s="35">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="C62" t="s">
-        <v>671</v>
-      </c>
-      <c r="E62" s="29" t="s">
-        <v>673</v>
-      </c>
-      <c r="G62">
-        <v>1</v>
-      </c>
-      <c r="H62" s="22">
-        <v>1.39</v>
-      </c>
-      <c r="I62" s="18">
-        <f>SUMIF(C$1:C$38,"="&amp;C62,B$1:B$38)</f>
+    </row>
+    <row r="102" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B102" s="33">
+        <f>ROUNDUP(I102/G102,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C102" t="s">
+        <v>751</v>
+      </c>
+      <c r="E102" s="26" t="s">
+        <v>752</v>
+      </c>
+      <c r="G102">
+        <v>10</v>
+      </c>
+      <c r="H102" s="22">
+        <v>2.59</v>
+      </c>
+      <c r="I102" s="18">
+        <f>SUMIF(C$1:C$69,"="&amp;C102,B$1:B$69)</f>
         <v>2</v>
       </c>
-      <c r="J62" s="32">
-        <f t="shared" ref="J62" si="19">G62*B62-I62</f>
+      <c r="J102" s="33">
+        <f t="shared" ref="J102" si="27">G102*B102-I102</f>
+        <v>8</v>
+      </c>
+      <c r="K102" s="35">
+        <f t="shared" si="2"/>
+        <v>2.59</v>
+      </c>
+    </row>
+    <row r="103" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B103" s="33">
+        <f>ROUNDUP(I103/G103,0)</f>
+        <v>4</v>
+      </c>
+      <c r="C103" s="32" t="s">
+        <v>755</v>
+      </c>
+      <c r="E103" s="26" t="s">
+        <v>754</v>
+      </c>
+      <c r="G103">
+        <v>1</v>
+      </c>
+      <c r="H103" s="22">
+        <v>1.05</v>
+      </c>
+      <c r="I103" s="18">
+        <f>SUMIF(C$1:C$69,"="&amp;C103,B$1:B$69)</f>
+        <v>4</v>
+      </c>
+      <c r="J103" s="33">
+        <f t="shared" ref="J103" si="28">G103*B103-I103</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="2:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="32">
-        <f>ROUNDUP(I63/G63,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C63" t="s">
-        <v>662</v>
-      </c>
-      <c r="E63" s="29" t="s">
-        <v>557</v>
-      </c>
-      <c r="G63">
-        <v>1</v>
-      </c>
-      <c r="H63" s="22">
-        <v>3.29</v>
-      </c>
-      <c r="I63" s="18">
-        <f>SUMIF(C$1:C$38,"="&amp;C63,B$1:B$38)</f>
-        <v>1</v>
-      </c>
-      <c r="J63" s="32">
-        <f t="shared" ref="J63" si="20">G63*B63-I63</f>
+      <c r="K103" s="35">
+        <f t="shared" si="2"/>
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="104" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B104" s="33">
+        <f>ROUNDUP(I104/G104,0)</f>
+        <v>2</v>
+      </c>
+      <c r="C104" t="s">
+        <v>761</v>
+      </c>
+      <c r="E104" s="26" t="s">
+        <v>760</v>
+      </c>
+      <c r="G104">
+        <v>1</v>
+      </c>
+      <c r="H104" s="22">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="I104" s="18">
+        <f>SUMIF(C$1:C$69,"="&amp;C104,B$1:B$69)</f>
+        <v>2</v>
+      </c>
+      <c r="J104" s="33">
+        <f t="shared" ref="J104:J105" si="29">G104*B104-I104</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="2:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="32"/>
-      <c r="E64" s="26"/>
-      <c r="H64" s="22"/>
-      <c r="I64" s="18"/>
-      <c r="J64" s="32"/>
-    </row>
-    <row r="65" spans="2:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="32"/>
-      <c r="E65" s="26"/>
-      <c r="H65" s="22">
-        <f>SUM(H40:H64)</f>
-        <v>87.130000000000024</v>
-      </c>
-      <c r="I65" s="18"/>
-      <c r="J65" s="32"/>
-    </row>
-    <row r="66" spans="2:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="32"/>
-      <c r="E66" s="26"/>
-      <c r="H66" s="22"/>
-      <c r="I66" s="18"/>
-      <c r="J66" s="32"/>
-    </row>
-    <row r="67" spans="2:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="32"/>
-      <c r="E67" s="26"/>
-      <c r="H67" s="22"/>
-      <c r="I67" s="18"/>
-      <c r="J67" s="32"/>
-    </row>
-    <row r="68" spans="2:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="32"/>
-      <c r="E68" s="26"/>
-      <c r="H68" s="22"/>
-      <c r="I68" s="18"/>
-      <c r="J68" s="32"/>
-    </row>
-    <row r="69" spans="2:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="32"/>
-      <c r="E69" s="26"/>
-      <c r="H69" s="22"/>
-      <c r="I69" s="18"/>
-      <c r="J69" s="32"/>
-    </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C70" t="s">
+      <c r="K104" s="35">
+        <f t="shared" si="2"/>
+        <v>8.8800000000000008</v>
+      </c>
+    </row>
+    <row r="105" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B105" s="33">
+        <f>ROUNDUP(I105/G105,0)</f>
+        <v>2</v>
+      </c>
+      <c r="C105" t="s">
+        <v>778</v>
+      </c>
+      <c r="E105" t="s">
+        <v>779</v>
+      </c>
+      <c r="G105">
+        <v>1</v>
+      </c>
+      <c r="H105" s="22">
+        <v>0.4</v>
+      </c>
+      <c r="I105" s="18">
+        <f>SUMIF(C$1:C$69,"="&amp;C105,B$1:B$69)</f>
+        <v>2</v>
+      </c>
+      <c r="J105" s="33">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="K105" s="35">
+        <f t="shared" si="2"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="106" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B106" s="33">
+        <f>ROUNDUP(I106/G106,0)</f>
+        <v>2</v>
+      </c>
+      <c r="C106" t="s">
+        <v>781</v>
+      </c>
+      <c r="E106" t="s">
+        <v>779</v>
+      </c>
+      <c r="G106">
+        <v>1</v>
+      </c>
+      <c r="H106" s="22">
+        <v>0.4</v>
+      </c>
+      <c r="I106" s="18">
+        <f>SUMIF(C$1:C$69,"="&amp;C106,B$1:B$69)</f>
+        <v>2</v>
+      </c>
+      <c r="J106" s="33">
+        <f t="shared" ref="J106" si="30">G106*B106-I106</f>
+        <v>0</v>
+      </c>
+      <c r="K106" s="35">
+        <f t="shared" ref="K106" si="31">B106*H106</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="107" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B107" s="33"/>
+      <c r="D107" t="s">
+        <v>779</v>
+      </c>
+      <c r="H107" s="22"/>
+      <c r="I107" s="18"/>
+      <c r="J107" s="33"/>
+    </row>
+    <row r="108" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B108" s="33"/>
+      <c r="E108" s="26"/>
+      <c r="H108" s="22"/>
+      <c r="I108" s="18"/>
+      <c r="J108" s="33"/>
+    </row>
+    <row r="109" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B109" s="33"/>
+      <c r="E109" s="26"/>
+      <c r="H109" s="22"/>
+      <c r="I109" s="18"/>
+      <c r="J109" s="33"/>
+    </row>
+    <row r="110" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B110" s="33"/>
+      <c r="E110" s="26"/>
+      <c r="H110" s="22"/>
+      <c r="I110" s="18"/>
+      <c r="J110" s="33"/>
+    </row>
+    <row r="111" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B111" s="33"/>
+      <c r="E111" s="26"/>
+      <c r="H111" s="22"/>
+      <c r="I111" s="18"/>
+      <c r="J111" s="33"/>
+    </row>
+    <row r="112" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B112" s="33"/>
+      <c r="E112" s="26"/>
+      <c r="H112" s="22"/>
+      <c r="I112" s="18"/>
+      <c r="J112" s="33"/>
+    </row>
+    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C113" t="s">
+        <v>606</v>
+      </c>
+      <c r="D113" s="6" t="s">
+        <v>599</v>
+      </c>
+      <c r="E113" s="29" t="s">
+        <v>554</v>
+      </c>
+      <c r="F113">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="H113" s="22">
+        <v>26.88</v>
+      </c>
+      <c r="I113" s="22">
+        <f>H113*B114</f>
+        <v>26.88</v>
+      </c>
+    </row>
+    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B114">
+        <v>1</v>
+      </c>
+      <c r="C114" t="s">
+        <v>608</v>
+      </c>
+      <c r="D114" t="s">
+        <v>609</v>
+      </c>
+      <c r="E114" s="30" t="s">
+        <v>607</v>
+      </c>
+      <c r="F114">
+        <v>0</v>
+      </c>
+      <c r="H114">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="I114" s="22">
+        <f>H114*B115</f>
+        <v>6.8999999999999995</v>
+      </c>
+    </row>
+    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B115">
+        <v>6</v>
+      </c>
+      <c r="C115" t="s">
+        <v>612</v>
+      </c>
+      <c r="D115" t="s">
         <v>610</v>
       </c>
-      <c r="D70" s="6" t="s">
+      <c r="E115" s="29" t="s">
+        <v>611</v>
+      </c>
+      <c r="F115">
+        <v>0</v>
+      </c>
+      <c r="H115">
+        <f>I115/10</f>
+        <v>0.251</v>
+      </c>
+      <c r="I115">
+        <v>2.5099999999999998</v>
+      </c>
+    </row>
+    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B116">
+        <v>1</v>
+      </c>
+      <c r="C116" t="s">
+        <v>615</v>
+      </c>
+      <c r="D116" t="s">
+        <v>614</v>
+      </c>
+      <c r="E116" s="26" t="s">
+        <v>473</v>
+      </c>
+      <c r="F116">
+        <v>0.7</v>
+      </c>
+      <c r="H116">
+        <v>18</v>
+      </c>
+      <c r="I116" s="22">
+        <f>H116*B117</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B117">
+        <v>1</v>
+      </c>
+      <c r="E117" s="26"/>
+      <c r="I117" s="22"/>
+    </row>
+    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C118" t="s">
+        <v>616</v>
+      </c>
+      <c r="D118" s="6" t="s">
+        <v>617</v>
+      </c>
+      <c r="E118" s="26" t="s">
+        <v>544</v>
+      </c>
+      <c r="F118">
+        <v>1.34</v>
+      </c>
+      <c r="H118">
+        <v>37</v>
+      </c>
+      <c r="I118" s="22">
+        <f>H118*B119</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B119">
+        <v>1</v>
+      </c>
+      <c r="C119" t="s">
+        <v>639</v>
+      </c>
+      <c r="D119" s="8" t="s">
+        <v>642</v>
+      </c>
+      <c r="E119" s="29" t="s">
+        <v>640</v>
+      </c>
+      <c r="F119">
+        <v>0</v>
+      </c>
+      <c r="I119" s="22"/>
+    </row>
+    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B120">
+        <v>2</v>
+      </c>
+      <c r="C120" t="s">
+        <v>649</v>
+      </c>
+      <c r="D120" t="s">
+        <v>632</v>
+      </c>
+      <c r="E120" s="26" t="s">
+        <v>648</v>
+      </c>
+      <c r="F120">
+        <v>0</v>
+      </c>
+      <c r="I120" s="22"/>
+    </row>
+    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B121">
+        <v>1</v>
+      </c>
+      <c r="C121" t="s">
+        <v>608</v>
+      </c>
+      <c r="D121" t="s">
+        <v>633</v>
+      </c>
+      <c r="E121" s="30" t="s">
+        <v>607</v>
+      </c>
+      <c r="F121">
+        <v>0</v>
+      </c>
+      <c r="I121" s="22"/>
+    </row>
+    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B122">
+        <v>4</v>
+      </c>
+      <c r="C122" t="s">
+        <v>635</v>
+      </c>
+      <c r="D122" t="s">
+        <v>646</v>
+      </c>
+      <c r="E122" s="26" t="s">
+        <v>634</v>
+      </c>
+      <c r="F122">
+        <v>0</v>
+      </c>
+      <c r="I122" s="22"/>
+    </row>
+    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B123">
+        <v>8</v>
+      </c>
+      <c r="D123" t="s">
+        <v>647</v>
+      </c>
+      <c r="E123" s="29" t="s">
+        <v>645</v>
+      </c>
+      <c r="F123">
+        <v>0</v>
+      </c>
+      <c r="I123" s="22"/>
+    </row>
+    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="E124" s="26"/>
+      <c r="I124" s="22"/>
+    </row>
+    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D125" s="6" t="s">
+        <v>636</v>
+      </c>
+      <c r="E125" s="26"/>
+      <c r="I125" s="22"/>
+    </row>
+    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C126" t="s">
+        <v>628</v>
+      </c>
+      <c r="D126" t="s">
+        <v>626</v>
+      </c>
+      <c r="E126" s="25" t="s">
+        <v>618</v>
+      </c>
+      <c r="F126">
+        <v>0</v>
+      </c>
+      <c r="H126">
+        <v>9.9</v>
+      </c>
+      <c r="I126" s="22">
+        <f>H126*B127</f>
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="127" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B127">
+        <v>1</v>
+      </c>
+      <c r="C127" t="s">
+        <v>630</v>
+      </c>
+      <c r="D127" t="s">
+        <v>622</v>
+      </c>
+      <c r="E127" s="26" t="s">
+        <v>623</v>
+      </c>
+      <c r="F127">
+        <v>0</v>
+      </c>
+      <c r="I127" s="22"/>
+    </row>
+    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B128">
+        <v>1</v>
+      </c>
+      <c r="C128" t="s">
+        <v>629</v>
+      </c>
+      <c r="D128" t="s">
+        <v>625</v>
+      </c>
+      <c r="E128" s="25" t="s">
+        <v>624</v>
+      </c>
+      <c r="F128">
+        <v>0</v>
+      </c>
+      <c r="I128" s="22"/>
+    </row>
+    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B129">
+        <v>1</v>
+      </c>
+      <c r="C129" t="s">
+        <v>627</v>
+      </c>
+      <c r="D129" t="s">
+        <v>644</v>
+      </c>
+      <c r="E129" s="26" t="s">
+        <v>643</v>
+      </c>
+      <c r="F129">
+        <v>0</v>
+      </c>
+      <c r="I129" s="22"/>
+    </row>
+    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B130">
+        <v>1</v>
+      </c>
+      <c r="C130" t="s">
+        <v>619</v>
+      </c>
+      <c r="D130" t="s">
+        <v>637</v>
+      </c>
+      <c r="E130" s="25" t="s">
+        <v>638</v>
+      </c>
+      <c r="F130">
+        <v>0</v>
+      </c>
+      <c r="I130" s="22"/>
+    </row>
+    <row r="131" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B131">
+        <v>1</v>
+      </c>
+      <c r="C131" t="s">
+        <v>621</v>
+      </c>
+      <c r="D131" t="s">
+        <v>622</v>
+      </c>
+      <c r="E131" s="25" t="s">
+        <v>618</v>
+      </c>
+      <c r="F131">
+        <v>0</v>
+      </c>
+      <c r="I131" s="22"/>
+    </row>
+    <row r="132" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B132">
+        <v>1</v>
+      </c>
+      <c r="E132" s="25"/>
+      <c r="I132" s="22"/>
+    </row>
+    <row r="133" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="E133" s="25"/>
+      <c r="I133" s="22"/>
+    </row>
+    <row r="134" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C134" t="s">
         <v>603</v>
       </c>
-      <c r="E70" s="29" t="s">
-        <v>554</v>
-      </c>
-      <c r="F70">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="H70" s="22">
-        <v>26.88</v>
-      </c>
-      <c r="I70" s="22">
-        <f>H70*B71</f>
-        <v>26.88</v>
-      </c>
-    </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B71">
-        <v>1</v>
-      </c>
-      <c r="C71" t="s">
-        <v>612</v>
-      </c>
-      <c r="D71" t="s">
-        <v>613</v>
-      </c>
-      <c r="E71" s="30" t="s">
-        <v>611</v>
-      </c>
-      <c r="F71">
+      <c r="D134" t="s">
+        <v>600</v>
+      </c>
+      <c r="E134" s="29" t="s">
+        <v>602</v>
+      </c>
+      <c r="F134">
         <v>0</v>
       </c>
-      <c r="H71">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="I71" s="22">
-        <f>H71*B72</f>
-        <v>6.8999999999999995</v>
-      </c>
-    </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B72">
-        <v>6</v>
-      </c>
-      <c r="C72" t="s">
-        <v>616</v>
-      </c>
-      <c r="D72" t="s">
-        <v>614</v>
-      </c>
-      <c r="E72" s="29" t="s">
-        <v>615</v>
-      </c>
-      <c r="F72">
-        <v>0</v>
-      </c>
-      <c r="H72">
-        <f>I72/10</f>
-        <v>0.251</v>
-      </c>
-      <c r="I72">
-        <v>2.5099999999999998</v>
-      </c>
-    </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B73">
-        <v>1</v>
-      </c>
-      <c r="C73" t="s">
-        <v>619</v>
-      </c>
-      <c r="D73" t="s">
-        <v>618</v>
-      </c>
-      <c r="E73" s="26" t="s">
-        <v>473</v>
-      </c>
-      <c r="F73">
-        <v>0.7</v>
-      </c>
-      <c r="H73">
-        <v>18</v>
-      </c>
-      <c r="I73" s="22">
-        <f>H73*B74</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B74">
-        <v>1</v>
-      </c>
-      <c r="E74" s="26"/>
-      <c r="I74" s="22"/>
-    </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C75" t="s">
-        <v>620</v>
-      </c>
-      <c r="D75" s="6" t="s">
-        <v>621</v>
-      </c>
-      <c r="E75" s="26" t="s">
-        <v>544</v>
-      </c>
-      <c r="F75">
-        <v>1.34</v>
-      </c>
-      <c r="H75">
-        <v>37</v>
-      </c>
-      <c r="I75" s="22">
-        <f>H75*B76</f>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B76">
-        <v>1</v>
-      </c>
-      <c r="C76" t="s">
-        <v>643</v>
-      </c>
-      <c r="D76" s="8" t="s">
-        <v>646</v>
-      </c>
-      <c r="E76" s="29" t="s">
-        <v>644</v>
-      </c>
-      <c r="F76">
-        <v>0</v>
-      </c>
-      <c r="I76" s="22"/>
-    </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B77">
-        <v>2</v>
-      </c>
-      <c r="C77" t="s">
-        <v>653</v>
-      </c>
-      <c r="D77" t="s">
-        <v>636</v>
-      </c>
-      <c r="E77" s="26" t="s">
-        <v>652</v>
-      </c>
-      <c r="F77">
-        <v>0</v>
-      </c>
-      <c r="I77" s="22"/>
-    </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B78">
-        <v>1</v>
-      </c>
-      <c r="C78" t="s">
-        <v>612</v>
-      </c>
-      <c r="D78" t="s">
-        <v>637</v>
-      </c>
-      <c r="E78" s="30" t="s">
-        <v>611</v>
-      </c>
-      <c r="F78">
-        <v>0</v>
-      </c>
-      <c r="I78" s="22"/>
-    </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B79">
-        <v>4</v>
-      </c>
-      <c r="C79" t="s">
-        <v>639</v>
-      </c>
-      <c r="D79" t="s">
-        <v>650</v>
-      </c>
-      <c r="E79" s="26" t="s">
-        <v>638</v>
-      </c>
-      <c r="F79">
-        <v>0</v>
-      </c>
-      <c r="I79" s="22"/>
-    </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B80">
-        <v>8</v>
-      </c>
-      <c r="D80" t="s">
-        <v>651</v>
-      </c>
-      <c r="E80" s="29" t="s">
-        <v>649</v>
-      </c>
-      <c r="F80">
-        <v>0</v>
-      </c>
-      <c r="I80" s="22"/>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="E81" s="26"/>
-      <c r="I81" s="22"/>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="D82" s="6" t="s">
-        <v>640</v>
-      </c>
-      <c r="E82" s="26"/>
-      <c r="I82" s="22"/>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C83" t="s">
-        <v>632</v>
-      </c>
-      <c r="D83" t="s">
-        <v>630</v>
-      </c>
-      <c r="E83" s="25" t="s">
-        <v>622</v>
-      </c>
-      <c r="F83">
-        <v>0</v>
-      </c>
-      <c r="H83">
-        <v>9.9</v>
-      </c>
-      <c r="I83" s="22">
-        <f>H83*B84</f>
-        <v>9.9</v>
-      </c>
-    </row>
-    <row r="84" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B84">
-        <v>1</v>
-      </c>
-      <c r="C84" t="s">
-        <v>634</v>
-      </c>
-      <c r="D84" t="s">
-        <v>626</v>
-      </c>
-      <c r="E84" s="26" t="s">
-        <v>627</v>
-      </c>
-      <c r="F84">
-        <v>0</v>
-      </c>
-      <c r="I84" s="22"/>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B85">
-        <v>1</v>
-      </c>
-      <c r="C85" t="s">
-        <v>633</v>
-      </c>
-      <c r="D85" t="s">
-        <v>629</v>
-      </c>
-      <c r="E85" s="25" t="s">
-        <v>628</v>
-      </c>
-      <c r="F85">
-        <v>0</v>
-      </c>
-      <c r="I85" s="22"/>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B86">
-        <v>1</v>
-      </c>
-      <c r="C86" t="s">
-        <v>631</v>
-      </c>
-      <c r="D86" t="s">
-        <v>648</v>
-      </c>
-      <c r="E86" s="26" t="s">
-        <v>647</v>
-      </c>
-      <c r="F86">
-        <v>0</v>
-      </c>
-      <c r="I86" s="22"/>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B87">
-        <v>1</v>
-      </c>
-      <c r="C87" t="s">
-        <v>623</v>
-      </c>
-      <c r="D87" t="s">
-        <v>641</v>
-      </c>
-      <c r="E87" s="25" t="s">
-        <v>642</v>
-      </c>
-      <c r="F87">
-        <v>0</v>
-      </c>
-      <c r="I87" s="22"/>
-    </row>
-    <row r="88" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B88">
-        <v>1</v>
-      </c>
-      <c r="C88" t="s">
-        <v>625</v>
-      </c>
-      <c r="D88" t="s">
-        <v>626</v>
-      </c>
-      <c r="E88" s="25" t="s">
-        <v>622</v>
-      </c>
-      <c r="F88">
-        <v>0</v>
-      </c>
-      <c r="I88" s="22"/>
-    </row>
-    <row r="89" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B89">
-        <v>1</v>
-      </c>
-      <c r="E89" s="25"/>
-      <c r="I89" s="22"/>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="E90" s="25"/>
-      <c r="I90" s="22"/>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C91" t="s">
-        <v>607</v>
-      </c>
-      <c r="D91" t="s">
+      <c r="H134" s="22">
+        <v>0.54</v>
+      </c>
+      <c r="I134" s="22">
+        <f>H134*B135</f>
+        <v>12.96</v>
+      </c>
+    </row>
+    <row r="135" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B135">
+        <v>24</v>
+      </c>
+      <c r="C135" t="s">
         <v>604</v>
       </c>
-      <c r="E91" s="29" t="s">
-        <v>606</v>
-      </c>
-      <c r="F91">
-        <v>0</v>
-      </c>
-      <c r="H91" s="22">
-        <v>0.54</v>
-      </c>
-      <c r="I91" s="22">
-        <f>H91*B92</f>
-        <v>12.96</v>
-      </c>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B92">
-        <v>24</v>
-      </c>
-      <c r="C92" t="s">
-        <v>608</v>
-      </c>
-      <c r="D92" t="s">
-        <v>609</v>
-      </c>
-      <c r="E92" s="29" t="s">
+      <c r="D135" t="s">
         <v>605</v>
       </c>
-      <c r="H92" s="23">
+      <c r="E135" s="29" t="s">
+        <v>601</v>
+      </c>
+      <c r="H135" s="23">
         <v>4.29</v>
       </c>
-      <c r="I92" s="22">
-        <f>H92*B93</f>
+      <c r="I135" s="22">
+        <f>H135*B136</f>
         <v>4.29</v>
       </c>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B95">
+    <row r="136" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B138">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E73" r:id="rId1"/>
-    <hyperlink ref="E75" r:id="rId2"/>
-    <hyperlink ref="E84" r:id="rId3"/>
-    <hyperlink ref="E85" r:id="rId4"/>
-    <hyperlink ref="E78" r:id="rId5"/>
-    <hyperlink ref="E71" r:id="rId6"/>
-    <hyperlink ref="E59" r:id="rId7"/>
+    <hyperlink ref="E116" r:id="rId1"/>
+    <hyperlink ref="E118" r:id="rId2"/>
+    <hyperlink ref="E127" r:id="rId3"/>
+    <hyperlink ref="E128" r:id="rId4"/>
+    <hyperlink ref="E121" r:id="rId5"/>
+    <hyperlink ref="E114" r:id="rId6"/>
+    <hyperlink ref="E95" r:id="rId7"/>
+    <hyperlink ref="E97" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -11294,7 +11294,7 @@
   <dimension ref="A1:K138"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A27" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K106" sqref="K71:K106"/>
+      <selection activeCell="J102" sqref="J102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12005,7 +12005,7 @@
     </row>
     <row r="53" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B53">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C53" s="32" t="str">
         <f>C73</f>
@@ -12020,7 +12020,7 @@
     </row>
     <row r="54" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B54">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C54" s="32" t="str">
         <f>C84</f>
@@ -12296,11 +12296,11 @@
       </c>
       <c r="I73" s="18">
         <f>SUMIF(C$1:C$69,"="&amp;C73,B$1:B$69)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J73" s="33">
         <f>G73*B73-I73</f>
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K73" s="35">
         <f t="shared" ref="K73" si="4">B73*H73</f>
@@ -12611,7 +12611,7 @@
     <row r="84" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B84" s="33">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" s="32" t="s">
         <v>725</v>
@@ -12627,7 +12627,7 @@
       </c>
       <c r="I84" s="18">
         <f>SUMIF(C$1:C$69,"="&amp;C84,B$1:B$69)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J84" s="33">
         <f t="shared" si="5"/>
@@ -12635,7 +12635,7 @@
       </c>
       <c r="K84" s="35">
         <f t="shared" si="2"/>
-        <v>1.2</v>
+        <v>1.3499999999999999</v>
       </c>
     </row>
     <row r="85" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1716" uniqueCount="782">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1728" uniqueCount="785">
   <si>
     <t>Bauteilnummer</t>
   </si>
@@ -2014,9 +2014,6 @@
     <t>Befestigung Servo</t>
   </si>
   <si>
-    <t>Muttern M3</t>
-  </si>
-  <si>
     <t>https://www.conrad.de/de/sechskantmuttern-m3-stahl-verzinkt-100-st-toolcraft-815624-815624.html</t>
   </si>
   <si>
@@ -2146,9 +2143,6 @@
     <t>http://www.cncshop.at/index.php?a=10276</t>
   </si>
   <si>
-    <t>Vierkant Mutter M3</t>
-  </si>
-  <si>
     <t>Zylinderkopfschraube Innensechskant M2 6mm</t>
   </si>
   <si>
@@ -2366,6 +2360,21 @@
   </si>
   <si>
     <t>Mutter M6</t>
+  </si>
+  <si>
+    <t>http://www.amazon.de/St%C3%BCck-Senkkopfschrauben-M3X12A2-DIN7991-Edelstahl/dp/B008BLSJHG/ref=sr_1_cc_8?s=aps&amp;srs=9694354031&amp;ie=UTF8&amp;qid=1459159412&amp;sr=8-8-catcorr&amp;keywords=senkkopfschraube+m3</t>
+  </si>
+  <si>
+    <t>Senkkopfschraube Innensechskant M3 12mm</t>
+  </si>
+  <si>
+    <t>Muttern M3, Schlüsselweite 5.5 mm</t>
+  </si>
+  <si>
+    <t>Vierkant Mutter M3 Breite 5.5mm</t>
+  </si>
+  <si>
+    <t>Distanzbolzen M3 20mm, Schlüsselweite 5mm</t>
   </si>
 </sst>
 </file>
@@ -3152,12 +3161,12 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E27" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E28" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -3232,26 +3241,26 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
+        <v>669</v>
+      </c>
+      <c r="E41" t="s">
         <v>670</v>
-      </c>
-      <c r="E41" t="s">
-        <v>671</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
+        <v>671</v>
+      </c>
+      <c r="E42" t="s">
         <v>672</v>
-      </c>
-      <c r="E42" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E43" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
   </sheetData>
@@ -3261,10 +3270,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:AD111"/>
+  <dimension ref="A3:AD113"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E88" sqref="E88"/>
+    <sheetView topLeftCell="A67" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E76" sqref="E76:O76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3329,7 +3338,7 @@
       </c>
       <c r="C7">
         <f>N76+0.2</f>
-        <v>1.2</v>
+        <v>0.97</v>
       </c>
       <c r="D7" t="s">
         <v>315</v>
@@ -3549,7 +3558,7 @@
       </c>
       <c r="C26" s="5">
         <f>C30/C28*(C34/C32)</f>
-        <v>7.1111111111111107</v>
+        <v>17.71875</v>
       </c>
       <c r="D26" t="s">
         <v>325</v>
@@ -3560,7 +3569,7 @@
         <v>339</v>
       </c>
       <c r="C27">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="D27" t="s">
         <v>340</v>
@@ -3571,7 +3580,7 @@
         <v>341</v>
       </c>
       <c r="C28" s="6">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D28" t="s">
         <v>338</v>
@@ -3583,7 +3592,7 @@
       </c>
       <c r="C29" s="4">
         <f>C28*C27/PI()</f>
-        <v>11.93662073189215</v>
+        <v>25.464790894703256</v>
       </c>
       <c r="D29" t="s">
         <v>340</v>
@@ -3594,7 +3603,7 @@
         <v>342</v>
       </c>
       <c r="C30" s="7">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="D30" t="s">
         <v>338</v>
@@ -3606,7 +3615,7 @@
       </c>
       <c r="C31" s="4">
         <f>C30*C27/PI()</f>
-        <v>31.830988618379067</v>
+        <v>89.12676813146139</v>
       </c>
       <c r="D31" t="s">
         <v>340</v>
@@ -3617,7 +3626,7 @@
         <v>344</v>
       </c>
       <c r="C32" s="6">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D32" t="s">
         <v>338</v>
@@ -3629,7 +3638,7 @@
       </c>
       <c r="C33" s="4">
         <f>C32*C27/PI()</f>
-        <v>11.93662073189215</v>
+        <v>25.464790894703256</v>
       </c>
       <c r="D33" t="s">
         <v>340</v>
@@ -3640,7 +3649,7 @@
         <v>345</v>
       </c>
       <c r="C34" s="7">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="D34" t="s">
         <v>338</v>
@@ -3652,7 +3661,7 @@
       </c>
       <c r="C35" s="4">
         <f>C34*C27/PI()</f>
-        <v>31.830988618379067</v>
+        <v>128.91550390443524</v>
       </c>
       <c r="D35" t="s">
         <v>340</v>
@@ -3775,7 +3784,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C46" s="5">
         <f>C50/C48*(C54/C52)</f>
@@ -3937,7 +3946,7 @@
       </c>
       <c r="C62" s="4">
         <f>((C3+C4+C5)*(C7+C8+C9)*(C59))/1000</f>
-        <v>9.8001899999999988</v>
+        <v>8.7848550000000003</v>
       </c>
       <c r="D62" t="s">
         <v>322</v>
@@ -3949,7 +3958,7 @@
       </c>
       <c r="C63" s="4">
         <f>((C3+C4+C5)*(C7+C8+C9)*(C58+C59))/1000</f>
-        <v>29.400569999999995</v>
+        <v>26.354564999999997</v>
       </c>
       <c r="D63" t="s">
         <v>322</v>
@@ -3997,7 +4006,7 @@
       </c>
       <c r="C67" s="2">
         <f>C62/C10</f>
-        <v>1.6333649999999997</v>
+        <v>1.4641425000000001</v>
       </c>
       <c r="D67" t="s">
         <v>322</v>
@@ -4009,7 +4018,7 @@
       </c>
       <c r="C68" s="2">
         <f>C63/C16</f>
-        <v>1.7226896484374996</v>
+        <v>1.5442127929687499</v>
       </c>
       <c r="D68" t="s">
         <v>322</v>
@@ -4021,7 +4030,7 @@
       </c>
       <c r="C69" s="2">
         <f>C64/C26</f>
-        <v>1.0553414062499999</v>
+        <v>0.42354285714285711</v>
       </c>
       <c r="D69" t="s">
         <v>322</v>
@@ -4029,7 +4038,7 @@
     </row>
     <row r="70" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="C70" s="2">
         <f>C66/C46</f>
@@ -4041,7 +4050,7 @@
     </row>
     <row r="71" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C71" s="2">
         <f>C65/C46</f>
@@ -4122,7 +4131,7 @@
       </c>
       <c r="C74" s="2">
         <f>C67*(1+C57)</f>
-        <v>2.1233744999999997</v>
+        <v>1.9033852500000001</v>
       </c>
       <c r="D74" t="s">
         <v>322</v>
@@ -4168,7 +4177,7 @@
       </c>
       <c r="C75" s="2">
         <f>C68*(1+C57)</f>
-        <v>2.2394965429687494</v>
+        <v>2.007476630859375</v>
       </c>
       <c r="D75" t="s">
         <v>322</v>
@@ -4214,44 +4223,44 @@
       </c>
       <c r="C76" s="2">
         <f>C69*(1+C57)</f>
-        <v>1.371943828125</v>
+        <v>0.55060571428571425</v>
       </c>
       <c r="D76" t="s">
         <v>322</v>
       </c>
       <c r="E76" s="11" t="s">
-        <v>495</v>
-      </c>
-      <c r="F76" s="24">
+        <v>507</v>
+      </c>
+      <c r="F76" s="31">
         <v>1.8</v>
       </c>
-      <c r="G76" s="24" t="s">
-        <v>374</v>
-      </c>
-      <c r="H76" s="24" t="s">
-        <v>471</v>
-      </c>
-      <c r="I76" s="24" t="s">
-        <v>493</v>
-      </c>
-      <c r="J76" s="24">
+      <c r="G76" s="31" t="s">
+        <v>389</v>
+      </c>
+      <c r="H76" s="31" t="s">
+        <v>508</v>
+      </c>
+      <c r="I76" s="31" t="s">
+        <v>509</v>
+      </c>
+      <c r="J76" s="31">
         <v>6.35</v>
       </c>
-      <c r="K76" s="15">
-        <v>189</v>
-      </c>
-      <c r="L76" s="24">
-        <v>2.8</v>
-      </c>
-      <c r="M76" s="24" t="s">
+      <c r="K76" s="31">
+        <v>120</v>
+      </c>
+      <c r="L76" s="31">
+        <v>2</v>
+      </c>
+      <c r="M76" s="31" t="s">
         <v>377</v>
       </c>
-      <c r="N76" s="24">
-        <v>1</v>
-      </c>
-      <c r="O76" s="17">
+      <c r="N76" s="31">
+        <v>0.77</v>
+      </c>
+      <c r="O76" s="18">
         <f t="shared" si="0"/>
-        <v>189</v>
+        <v>155.84415584415584</v>
       </c>
       <c r="Q76" s="10"/>
       <c r="R76" s="10"/>
@@ -4327,7 +4336,7 @@
     </row>
     <row r="78" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C78" s="2">
         <f>C71*(1+C57)</f>
@@ -4387,32 +4396,33 @@
       <c r="AD78" s="14"/>
     </row>
     <row r="79" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="E79" s="11"/>
-      <c r="F79" s="16"/>
-      <c r="G79" s="16"/>
-      <c r="H79" s="16"/>
-      <c r="I79" s="16"/>
-      <c r="J79" s="16"/>
-      <c r="K79" s="16"/>
-      <c r="L79" s="16"/>
-      <c r="M79" s="16"/>
-      <c r="N79" s="16"/>
-      <c r="O79" s="17"/>
+      <c r="C79" s="2"/>
+      <c r="E79" s="26"/>
+      <c r="F79" s="31"/>
+      <c r="G79" s="31"/>
+      <c r="H79" s="31"/>
+      <c r="I79" s="31"/>
+      <c r="J79" s="31"/>
+      <c r="K79" s="31"/>
+      <c r="L79" s="31"/>
+      <c r="M79" s="31"/>
+      <c r="N79" s="31"/>
+      <c r="O79" s="18"/>
       <c r="P79" s="11"/>
-      <c r="Q79" s="16"/>
-      <c r="R79" s="16"/>
-      <c r="S79" s="16"/>
-      <c r="T79" s="16"/>
-      <c r="U79" s="16"/>
-      <c r="V79" s="16"/>
-      <c r="W79" s="16"/>
-      <c r="X79" s="16"/>
-      <c r="Y79" s="16"/>
-      <c r="Z79" s="16"/>
-      <c r="AA79" s="16"/>
-      <c r="AB79" s="16"/>
-      <c r="AC79" s="16"/>
-      <c r="AD79" s="16"/>
+      <c r="Q79" s="31"/>
+      <c r="R79" s="31"/>
+      <c r="S79" s="31"/>
+      <c r="T79" s="31"/>
+      <c r="U79" s="31"/>
+      <c r="V79" s="31"/>
+      <c r="W79" s="31"/>
+      <c r="X79" s="31"/>
+      <c r="Y79" s="31"/>
+      <c r="Z79" s="31"/>
+      <c r="AA79" s="31"/>
+      <c r="AB79" s="31"/>
+      <c r="AC79" s="31"/>
+      <c r="AD79" s="31"/>
     </row>
     <row r="80" spans="1:30" x14ac:dyDescent="0.3">
       <c r="E80" s="11" t="s">
@@ -4446,126 +4456,146 @@
         <v>1.34</v>
       </c>
       <c r="O80" s="17">
-        <f t="shared" ref="O80:O86" si="1">K80/N80</f>
+        <f t="shared" ref="O80:O88" si="1">K80/N80</f>
         <v>231.34328358208953</v>
       </c>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="81" spans="5:30" x14ac:dyDescent="0.3">
       <c r="E81" s="11" t="s">
+        <v>507</v>
+      </c>
+      <c r="F81" s="31">
+        <v>1.8</v>
+      </c>
+      <c r="G81" s="31" t="s">
+        <v>389</v>
+      </c>
+      <c r="H81" s="31" t="s">
+        <v>508</v>
+      </c>
+      <c r="I81" s="31" t="s">
+        <v>509</v>
+      </c>
+      <c r="J81" s="31">
+        <v>6.35</v>
+      </c>
+      <c r="K81" s="31">
+        <v>120</v>
+      </c>
+      <c r="L81" s="31">
+        <v>2</v>
+      </c>
+      <c r="M81" s="31" t="s">
+        <v>377</v>
+      </c>
+      <c r="N81" s="31">
+        <v>0.77</v>
+      </c>
+      <c r="O81" s="18">
+        <f t="shared" ref="O81" si="2">K81/N81</f>
+        <v>155.84415584415584</v>
+      </c>
+      <c r="P81" s="11"/>
+      <c r="Q81" s="16"/>
+      <c r="R81" s="16"/>
+      <c r="S81" s="16"/>
+      <c r="T81" s="16"/>
+      <c r="U81" s="16"/>
+      <c r="V81" s="16"/>
+      <c r="W81" s="16"/>
+      <c r="X81" s="16"/>
+      <c r="Y81" s="16"/>
+      <c r="Z81" s="16"/>
+      <c r="AA81" s="16"/>
+      <c r="AB81" s="16"/>
+      <c r="AC81" s="16"/>
+      <c r="AD81" s="16"/>
+    </row>
+    <row r="82" spans="5:30" x14ac:dyDescent="0.3">
+      <c r="E82" s="11" t="s">
+        <v>507</v>
+      </c>
+      <c r="F82" s="31">
+        <v>1.8</v>
+      </c>
+      <c r="G82" s="31" t="s">
+        <v>389</v>
+      </c>
+      <c r="H82" s="31" t="s">
+        <v>508</v>
+      </c>
+      <c r="I82" s="31" t="s">
+        <v>509</v>
+      </c>
+      <c r="J82" s="31">
+        <v>6.35</v>
+      </c>
+      <c r="K82" s="31">
+        <v>120</v>
+      </c>
+      <c r="L82" s="31">
+        <v>2</v>
+      </c>
+      <c r="M82" s="31" t="s">
+        <v>377</v>
+      </c>
+      <c r="N82" s="31">
+        <v>0.77</v>
+      </c>
+      <c r="O82" s="18">
+        <f t="shared" ref="O82" si="3">K82/N82</f>
+        <v>155.84415584415584</v>
+      </c>
+      <c r="P82" s="11"/>
+      <c r="Q82" s="31"/>
+      <c r="R82" s="31"/>
+      <c r="S82" s="31"/>
+      <c r="T82" s="31"/>
+      <c r="U82" s="31"/>
+      <c r="V82" s="31"/>
+      <c r="W82" s="31"/>
+      <c r="X82" s="31"/>
+      <c r="Y82" s="31"/>
+      <c r="Z82" s="31"/>
+      <c r="AA82" s="31"/>
+      <c r="AB82" s="31"/>
+      <c r="AC82" s="31"/>
+      <c r="AD82" s="31"/>
+    </row>
+    <row r="83" spans="5:30" x14ac:dyDescent="0.3">
+      <c r="E83" s="11" t="s">
         <v>496</v>
       </c>
-      <c r="F81" s="10">
+      <c r="F83" s="10">
         <v>1.8</v>
       </c>
-      <c r="G81" s="10" t="s">
+      <c r="G83" s="10" t="s">
         <v>497</v>
       </c>
-      <c r="H81" s="10" t="s">
+      <c r="H83" s="10" t="s">
         <v>471</v>
       </c>
-      <c r="I81" s="10" t="s">
+      <c r="I83" s="10" t="s">
         <v>498</v>
       </c>
-      <c r="J81" s="14">
+      <c r="J83" s="14">
         <v>6.35</v>
       </c>
-      <c r="K81" s="10">
+      <c r="K83" s="10">
         <v>200</v>
       </c>
-      <c r="L81" s="10">
+      <c r="L83" s="10">
         <v>2.83</v>
       </c>
-      <c r="M81" s="10" t="s">
+      <c r="M83" s="10" t="s">
         <v>377</v>
       </c>
-      <c r="N81" s="10">
+      <c r="N83" s="10">
         <v>1.1299999999999999</v>
       </c>
-      <c r="O81" s="17">
+      <c r="O83" s="17">
         <f t="shared" si="1"/>
         <v>176.9911504424779</v>
-      </c>
-      <c r="P81" s="10"/>
-      <c r="Q81" s="10"/>
-      <c r="R81" s="10"/>
-      <c r="S81" s="10"/>
-      <c r="T81" s="10"/>
-    </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="E82" s="11" t="s">
-        <v>495</v>
-      </c>
-      <c r="F82" s="14">
-        <v>1.8</v>
-      </c>
-      <c r="G82" s="14" t="s">
-        <v>374</v>
-      </c>
-      <c r="H82" s="14" t="s">
-        <v>471</v>
-      </c>
-      <c r="I82" s="14" t="s">
-        <v>493</v>
-      </c>
-      <c r="J82" s="14">
-        <v>6.35</v>
-      </c>
-      <c r="K82" s="15">
-        <v>189</v>
-      </c>
-      <c r="L82" s="14">
-        <v>2.8</v>
-      </c>
-      <c r="M82" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="N82" s="14">
-        <v>1</v>
-      </c>
-      <c r="O82" s="17">
-        <f t="shared" si="1"/>
-        <v>189</v>
-      </c>
-      <c r="P82" s="14"/>
-      <c r="Q82" s="14"/>
-      <c r="R82" s="14"/>
-      <c r="S82" s="14"/>
-      <c r="T82" s="14"/>
-    </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="E83" s="11" t="s">
-        <v>473</v>
-      </c>
-      <c r="F83" s="24">
-        <v>0.9</v>
-      </c>
-      <c r="G83" s="24" t="s">
-        <v>374</v>
-      </c>
-      <c r="H83" s="24" t="s">
-        <v>471</v>
-      </c>
-      <c r="I83" s="24" t="s">
-        <v>474</v>
-      </c>
-      <c r="J83" s="24">
-        <v>6.35</v>
-      </c>
-      <c r="K83" s="15">
-        <v>126</v>
-      </c>
-      <c r="L83" s="24">
-        <v>2.8</v>
-      </c>
-      <c r="M83" s="24" t="s">
-        <v>377</v>
-      </c>
-      <c r="N83" s="24">
-        <v>0.7</v>
-      </c>
-      <c r="O83" s="17">
-        <f>K83/N83</f>
-        <v>180</v>
       </c>
       <c r="P83" s="10"/>
       <c r="Q83" s="10"/>
@@ -4573,12 +4603,12 @@
       <c r="S83" s="10"/>
       <c r="T83" s="10"/>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="84" spans="5:30" x14ac:dyDescent="0.3">
       <c r="E84" s="11" t="s">
-        <v>470</v>
+        <v>495</v>
       </c>
       <c r="F84" s="14">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="G84" s="14" t="s">
         <v>374</v>
@@ -4587,26 +4617,26 @@
         <v>471</v>
       </c>
       <c r="I84" s="14" t="s">
-        <v>472</v>
-      </c>
-      <c r="J84" s="13">
+        <v>493</v>
+      </c>
+      <c r="J84" s="14">
         <v>6.35</v>
       </c>
       <c r="K84" s="15">
-        <v>90</v>
+        <v>189</v>
       </c>
       <c r="L84" s="14">
-        <v>0.38</v>
+        <v>2.8</v>
       </c>
       <c r="M84" s="14" t="s">
         <v>377</v>
       </c>
       <c r="N84" s="14">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="O84" s="17">
-        <f>K84/N84</f>
-        <v>150</v>
+        <f t="shared" si="1"/>
+        <v>189</v>
       </c>
       <c r="P84" s="14"/>
       <c r="Q84" s="14"/>
@@ -4614,258 +4644,268 @@
       <c r="S84" s="14"/>
       <c r="T84" s="14"/>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="85" spans="5:30" x14ac:dyDescent="0.3">
       <c r="E85" s="11" t="s">
+        <v>473</v>
+      </c>
+      <c r="F85" s="24">
+        <v>0.9</v>
+      </c>
+      <c r="G85" s="24" t="s">
+        <v>374</v>
+      </c>
+      <c r="H85" s="24" t="s">
+        <v>471</v>
+      </c>
+      <c r="I85" s="24" t="s">
+        <v>474</v>
+      </c>
+      <c r="J85" s="24">
+        <v>6.35</v>
+      </c>
+      <c r="K85" s="15">
+        <v>126</v>
+      </c>
+      <c r="L85" s="24">
+        <v>2.8</v>
+      </c>
+      <c r="M85" s="24" t="s">
+        <v>377</v>
+      </c>
+      <c r="N85" s="24">
+        <v>0.7</v>
+      </c>
+      <c r="O85" s="17">
+        <f>K85/N85</f>
+        <v>180</v>
+      </c>
+      <c r="P85" s="10"/>
+      <c r="Q85" s="10"/>
+      <c r="R85" s="10"/>
+      <c r="S85" s="10"/>
+      <c r="T85" s="10"/>
+    </row>
+    <row r="86" spans="5:30" x14ac:dyDescent="0.3">
+      <c r="E86" s="11" t="s">
+        <v>470</v>
+      </c>
+      <c r="F86" s="14">
+        <v>0.9</v>
+      </c>
+      <c r="G86" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="H86" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="I86" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="J86" s="13">
+        <v>6.35</v>
+      </c>
+      <c r="K86" s="15">
+        <v>90</v>
+      </c>
+      <c r="L86" s="14">
+        <v>0.38</v>
+      </c>
+      <c r="M86" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="N86" s="14">
+        <v>0.6</v>
+      </c>
+      <c r="O86" s="17">
+        <f>K86/N86</f>
+        <v>150</v>
+      </c>
+      <c r="P86" s="14"/>
+      <c r="Q86" s="14"/>
+      <c r="R86" s="14"/>
+      <c r="S86" s="14"/>
+      <c r="T86" s="14"/>
+    </row>
+    <row r="87" spans="5:30" x14ac:dyDescent="0.3">
+      <c r="E87" s="11" t="s">
         <v>469</v>
       </c>
-      <c r="F85" s="10">
+      <c r="F87" s="10">
         <v>1.8</v>
       </c>
-      <c r="G85" s="10" t="s">
+      <c r="G87" s="10" t="s">
         <v>374</v>
       </c>
-      <c r="H85" s="10" t="s">
+      <c r="H87" s="10" t="s">
         <v>423</v>
       </c>
-      <c r="I85" s="10" t="s">
+      <c r="I87" s="10" t="s">
         <v>467</v>
       </c>
-      <c r="J85" s="14">
+      <c r="J87" s="14">
         <v>5</v>
       </c>
-      <c r="K85" s="15">
+      <c r="K87" s="15">
         <v>65</v>
       </c>
-      <c r="L85" s="10">
+      <c r="L87" s="10">
         <v>2.1</v>
       </c>
-      <c r="M85" s="10" t="s">
+      <c r="M87" s="10" t="s">
         <v>377</v>
       </c>
-      <c r="N85" s="10">
+      <c r="N87" s="10">
         <v>0.45</v>
       </c>
-      <c r="O85" s="17">
+      <c r="O87" s="17">
         <f t="shared" si="1"/>
         <v>144.44444444444443</v>
       </c>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="E86" s="11" t="s">
+    <row r="88" spans="5:30" x14ac:dyDescent="0.3">
+      <c r="E88" s="11" t="s">
         <v>459</v>
       </c>
-      <c r="F86" s="10">
+      <c r="F88" s="10">
         <v>1.8</v>
       </c>
-      <c r="G86" s="10" t="s">
+      <c r="G88" s="10" t="s">
         <v>374</v>
       </c>
-      <c r="H86" s="10" t="s">
+      <c r="H88" s="10" t="s">
         <v>423</v>
       </c>
-      <c r="I86" s="10" t="s">
+      <c r="I88" s="10" t="s">
         <v>433</v>
       </c>
-      <c r="J86" s="14">
+      <c r="J88" s="14">
         <v>5</v>
       </c>
-      <c r="K86" s="15">
+      <c r="K88" s="15">
         <v>45</v>
       </c>
-      <c r="L86" s="10">
+      <c r="L88" s="10">
         <v>2</v>
       </c>
-      <c r="M86" s="10" t="s">
+      <c r="M88" s="10" t="s">
         <v>377</v>
       </c>
-      <c r="N86" s="10">
+      <c r="N88" s="10">
         <v>0.31</v>
       </c>
-      <c r="O86" s="17">
+      <c r="O88" s="17">
         <f t="shared" si="1"/>
         <v>145.16129032258064</v>
       </c>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="E87" s="11" t="s">
+    <row r="89" spans="5:30" x14ac:dyDescent="0.3">
+      <c r="E89" s="11" t="s">
         <v>406</v>
       </c>
-      <c r="F87" s="27">
+      <c r="F89" s="27">
         <v>1.8</v>
       </c>
-      <c r="G87" s="27" t="s">
+      <c r="G89" s="27" t="s">
         <v>374</v>
       </c>
-      <c r="H87" s="27" t="s">
+      <c r="H89" s="27" t="s">
         <v>394</v>
       </c>
-      <c r="I87" s="27" t="s">
+      <c r="I89" s="27" t="s">
         <v>407</v>
       </c>
-      <c r="J87" s="27">
+      <c r="J89" s="27">
         <v>5</v>
-      </c>
-      <c r="K87" s="27">
-        <v>23</v>
-      </c>
-      <c r="L87" s="27">
-        <v>0.5</v>
-      </c>
-      <c r="M87" s="27" t="s">
-        <v>377</v>
-      </c>
-      <c r="N87" s="27">
-        <v>0.22</v>
-      </c>
-      <c r="O87" s="17">
-        <f>K87/N87</f>
-        <v>104.54545454545455</v>
-      </c>
-    </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="E88" s="11" t="s">
-        <v>452</v>
-      </c>
-      <c r="F88" s="31">
-        <v>1.8</v>
-      </c>
-      <c r="G88" s="31" t="s">
-        <v>374</v>
-      </c>
-      <c r="H88" s="31" t="s">
-        <v>423</v>
-      </c>
-      <c r="I88" s="31" t="s">
-        <v>448</v>
-      </c>
-      <c r="J88" s="31">
-        <v>5</v>
-      </c>
-      <c r="K88" s="31">
-        <v>26</v>
-      </c>
-      <c r="L88" s="31">
-        <v>0.4</v>
-      </c>
-      <c r="M88" s="31" t="s">
-        <v>377</v>
-      </c>
-      <c r="N88" s="31">
-        <v>0.22</v>
-      </c>
-      <c r="O88" s="18">
-        <f>K88/N88</f>
-        <v>118.18181818181819</v>
-      </c>
-    </row>
-    <row r="89" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E89" s="11" t="s">
-        <v>425</v>
-      </c>
-      <c r="F89" s="27">
-        <v>0.9</v>
-      </c>
-      <c r="G89" s="27" t="s">
-        <v>426</v>
-      </c>
-      <c r="H89" s="27" t="s">
-        <v>423</v>
-      </c>
-      <c r="I89" s="27" t="s">
-        <v>427</v>
       </c>
       <c r="K89" s="27">
         <v>23</v>
       </c>
       <c r="L89" s="27">
-        <v>0.31</v>
+        <v>0.5</v>
       </c>
       <c r="M89" s="27" t="s">
         <v>377</v>
       </c>
       <c r="N89" s="27">
+        <v>0.22</v>
+      </c>
+      <c r="O89" s="17">
+        <f>K89/N89</f>
+        <v>104.54545454545455</v>
+      </c>
+    </row>
+    <row r="90" spans="5:30" x14ac:dyDescent="0.3">
+      <c r="E90" s="11" t="s">
+        <v>452</v>
+      </c>
+      <c r="F90" s="31">
+        <v>1.8</v>
+      </c>
+      <c r="G90" s="31" t="s">
+        <v>374</v>
+      </c>
+      <c r="H90" s="31" t="s">
+        <v>423</v>
+      </c>
+      <c r="I90" s="31" t="s">
+        <v>448</v>
+      </c>
+      <c r="J90" s="31">
+        <v>5</v>
+      </c>
+      <c r="K90" s="31">
+        <v>26</v>
+      </c>
+      <c r="L90" s="31">
+        <v>0.4</v>
+      </c>
+      <c r="M90" s="31" t="s">
+        <v>377</v>
+      </c>
+      <c r="N90" s="31">
+        <v>0.22</v>
+      </c>
+      <c r="O90" s="18">
+        <f>K90/N90</f>
+        <v>118.18181818181819</v>
+      </c>
+    </row>
+    <row r="91" spans="5:30" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E91" s="11" t="s">
+        <v>425</v>
+      </c>
+      <c r="F91" s="27">
+        <v>0.9</v>
+      </c>
+      <c r="G91" s="27" t="s">
+        <v>426</v>
+      </c>
+      <c r="H91" s="27" t="s">
+        <v>423</v>
+      </c>
+      <c r="I91" s="27" t="s">
+        <v>427</v>
+      </c>
+      <c r="K91" s="27">
+        <v>23</v>
+      </c>
+      <c r="L91" s="27">
+        <v>0.31</v>
+      </c>
+      <c r="M91" s="27" t="s">
+        <v>377</v>
+      </c>
+      <c r="N91" s="27">
         <v>0.28000000000000003</v>
       </c>
-      <c r="O89" s="18">
-        <f t="shared" ref="O89" si="2">K89/N89</f>
+      <c r="O91" s="18">
+        <f t="shared" ref="O91" si="4">K91/N91</f>
         <v>82.142857142857139</v>
       </c>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="E90" s="11" t="s">
+    <row r="92" spans="5:30" x14ac:dyDescent="0.3">
+      <c r="E92" s="11" t="s">
         <v>405</v>
-      </c>
-      <c r="F90" s="27">
-        <v>1.8</v>
-      </c>
-      <c r="G90" s="27" t="s">
-        <v>374</v>
-      </c>
-      <c r="H90" s="27" t="s">
-        <v>394</v>
-      </c>
-      <c r="I90" s="27" t="s">
-        <v>404</v>
-      </c>
-      <c r="J90" s="27">
-        <v>5</v>
-      </c>
-      <c r="K90" s="27">
-        <v>18</v>
-      </c>
-      <c r="L90" s="27">
-        <v>0.8</v>
-      </c>
-      <c r="M90" s="27" t="s">
-        <v>377</v>
-      </c>
-      <c r="N90" s="27">
-        <v>0.17</v>
-      </c>
-      <c r="O90" s="17">
-        <f>K90/N90</f>
-        <v>105.88235294117646</v>
-      </c>
-    </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="E91" s="11" t="s">
-        <v>410</v>
-      </c>
-      <c r="F91" s="16">
-        <v>0.9</v>
-      </c>
-      <c r="G91" s="16" t="s">
-        <v>374</v>
-      </c>
-      <c r="H91" s="16" t="s">
-        <v>411</v>
-      </c>
-      <c r="I91" s="16" t="s">
-        <v>412</v>
-      </c>
-      <c r="J91" s="16">
-        <v>5</v>
-      </c>
-      <c r="K91" s="16">
-        <v>16</v>
-      </c>
-      <c r="L91" s="16">
-        <v>0.6</v>
-      </c>
-      <c r="M91" s="16" t="s">
-        <v>377</v>
-      </c>
-      <c r="N91" s="16">
-        <v>0.12</v>
-      </c>
-      <c r="O91" s="17">
-        <f>K91/N91</f>
-        <v>133.33333333333334</v>
-      </c>
-    </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="E92" s="11" t="s">
-        <v>400</v>
       </c>
       <c r="F92" s="27">
         <v>1.8</v>
@@ -4877,31 +4917,31 @@
         <v>394</v>
       </c>
       <c r="I92" s="27" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="J92" s="27">
         <v>5</v>
       </c>
       <c r="K92" s="27">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="L92" s="27">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="M92" s="27" t="s">
         <v>377</v>
       </c>
       <c r="N92" s="27">
-        <v>0.12</v>
-      </c>
-      <c r="O92" s="18">
-        <f t="shared" ref="O92" si="3">K92/N92</f>
-        <v>116.66666666666667</v>
-      </c>
-    </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.3">
+        <v>0.17</v>
+      </c>
+      <c r="O92" s="17">
+        <f>K92/N92</f>
+        <v>105.88235294117646</v>
+      </c>
+    </row>
+    <row r="93" spans="5:30" x14ac:dyDescent="0.3">
       <c r="E93" s="11" t="s">
-        <v>396</v>
+        <v>410</v>
       </c>
       <c r="F93" s="16">
         <v>0.9</v>
@@ -4910,251 +4950,325 @@
         <v>374</v>
       </c>
       <c r="H93" s="16" t="s">
-        <v>394</v>
+        <v>411</v>
       </c>
       <c r="I93" s="16" t="s">
-        <v>397</v>
+        <v>412</v>
       </c>
       <c r="J93" s="16">
         <v>5</v>
       </c>
       <c r="K93" s="16">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="L93" s="16">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="M93" s="16" t="s">
         <v>377</v>
       </c>
       <c r="N93" s="16">
-        <v>0.09</v>
+        <v>0.12</v>
       </c>
       <c r="O93" s="17">
         <f>K93/N93</f>
+        <v>133.33333333333334</v>
+      </c>
+    </row>
+    <row r="94" spans="5:30" x14ac:dyDescent="0.3">
+      <c r="E94" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="F94" s="27">
+        <v>1.8</v>
+      </c>
+      <c r="G94" s="27" t="s">
+        <v>374</v>
+      </c>
+      <c r="H94" s="27" t="s">
+        <v>394</v>
+      </c>
+      <c r="I94" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="J94" s="27">
+        <v>5</v>
+      </c>
+      <c r="K94" s="27">
+        <v>14</v>
+      </c>
+      <c r="L94" s="27">
+        <v>0.4</v>
+      </c>
+      <c r="M94" s="27" t="s">
+        <v>377</v>
+      </c>
+      <c r="N94" s="27">
+        <v>0.12</v>
+      </c>
+      <c r="O94" s="18">
+        <f t="shared" ref="O94" si="5">K94/N94</f>
+        <v>116.66666666666667</v>
+      </c>
+    </row>
+    <row r="95" spans="5:30" x14ac:dyDescent="0.3">
+      <c r="E95" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="F95" s="16">
+        <v>0.9</v>
+      </c>
+      <c r="G95" s="16" t="s">
+        <v>374</v>
+      </c>
+      <c r="H95" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="I95" s="16" t="s">
+        <v>397</v>
+      </c>
+      <c r="J95" s="16">
+        <v>5</v>
+      </c>
+      <c r="K95" s="16">
+        <v>5</v>
+      </c>
+      <c r="L95" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="M95" s="16" t="s">
+        <v>377</v>
+      </c>
+      <c r="N95" s="16">
+        <v>0.09</v>
+      </c>
+      <c r="O95" s="17">
+        <f>K95/N95</f>
         <v>55.555555555555557</v>
       </c>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="E94" s="11" t="s">
+    <row r="96" spans="5:30" x14ac:dyDescent="0.3">
+      <c r="E96" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="F94" s="28">
+      <c r="F96" s="28">
         <v>0.9</v>
       </c>
-      <c r="G94" s="28" t="s">
+      <c r="G96" s="28" t="s">
         <v>374</v>
       </c>
-      <c r="H94" s="28" t="s">
+      <c r="H96" s="28" t="s">
         <v>423</v>
       </c>
-      <c r="I94" s="28" t="s">
+      <c r="I96" s="28" t="s">
         <v>424</v>
       </c>
-      <c r="J94" s="28">
+      <c r="J96" s="28">
         <v>5</v>
       </c>
-      <c r="K94" s="28">
+      <c r="K96" s="28">
         <v>11</v>
       </c>
-      <c r="L94" s="28">
+      <c r="L96" s="28">
         <v>1.2</v>
       </c>
-      <c r="M94" s="28" t="s">
+      <c r="M96" s="28" t="s">
         <v>377</v>
       </c>
-      <c r="N94" s="28">
+      <c r="N96" s="28">
         <v>0.15</v>
       </c>
-      <c r="O94" s="18">
-        <f t="shared" ref="O94" si="4">K94/N94</f>
+      <c r="O96" s="18">
+        <f t="shared" ref="O96" si="6">K96/N96</f>
         <v>73.333333333333343</v>
-      </c>
-    </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
-        <v>580</v>
-      </c>
-      <c r="C96" s="19">
-        <f>1</f>
-        <v>1</v>
-      </c>
-      <c r="D96" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>580</v>
+      </c>
+      <c r="C98" s="19">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="D98" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
         <v>585</v>
       </c>
-      <c r="C97" s="19">
+      <c r="C99" s="19">
         <f>(C15/1000/2)</f>
         <v>7.1619724391352904E-2</v>
       </c>
-      <c r="D97" t="s">
+      <c r="D99" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
         <v>581</v>
       </c>
-      <c r="C98" s="19">
-        <f>C62/C97</f>
-        <v>136.83646625681845</v>
-      </c>
-      <c r="D98" t="s">
+      <c r="C100" s="19">
+        <f>C62/C99</f>
+        <v>122.65971524822916</v>
+      </c>
+      <c r="D100" t="s">
         <v>578</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
-        <v>582</v>
-      </c>
-      <c r="C99" s="19">
-        <f>(C96)*C98*2*PI()</f>
-        <v>859.76887427121699</v>
-      </c>
-      <c r="D99" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
-        <v>580</v>
-      </c>
-      <c r="C102" s="20">
-        <v>1</v>
-      </c>
-      <c r="D102" t="s">
-        <v>587</v>
+        <v>582</v>
+      </c>
+      <c r="C101" s="19">
+        <f>(C98)*C100*2*PI()</f>
+        <v>770.69372063050537</v>
+      </c>
+      <c r="D101" t="s">
+        <v>579</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>580</v>
+      </c>
+      <c r="C104" s="20">
+        <v>1</v>
+      </c>
+      <c r="D104" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
         <v>585</v>
       </c>
-      <c r="C103" s="20">
+      <c r="C105" s="20">
         <f>(C21/1000/2)</f>
         <v>3.8197186342054885E-2</v>
       </c>
-      <c r="D103" t="s">
+      <c r="D105" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
         <v>581</v>
       </c>
-      <c r="C104" s="20">
-        <f>C63/C103</f>
-        <v>769.70512269460369</v>
-      </c>
-      <c r="D104" t="s">
+      <c r="C106" s="20">
+        <f>C63/C105</f>
+        <v>689.9608982712889</v>
+      </c>
+      <c r="D106" t="s">
         <v>578</v>
       </c>
-      <c r="E104" s="20"/>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
-        <v>582</v>
-      </c>
-      <c r="C105" s="20">
-        <f>(C102)*C104*2*PI()</f>
-        <v>4836.1999177755943</v>
-      </c>
-      <c r="D105" t="s">
-        <v>579</v>
-      </c>
+      <c r="E106" s="20"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
+        <v>582</v>
+      </c>
+      <c r="C107" s="20">
+        <f>(C104)*C106*2*PI()</f>
+        <v>4335.1521785465911</v>
+      </c>
+      <c r="D107" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
         <v>580</v>
       </c>
-      <c r="C108" s="20">
+      <c r="C110" s="20">
         <f>60*C18/C20</f>
         <v>18.75</v>
       </c>
-      <c r="D108" t="s">
+      <c r="D110" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
         <v>585</v>
       </c>
-      <c r="C109" s="20">
+      <c r="C111" s="20">
         <f>(C25/1000/2)</f>
         <v>6.3661977236758135E-2</v>
       </c>
-      <c r="D109" t="s">
+      <c r="D111" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
         <v>581</v>
       </c>
-      <c r="C110" s="20">
-        <f>C63/(C20/C18)/C109</f>
-        <v>144.31971050523819</v>
-      </c>
-      <c r="D110" t="s">
+      <c r="C112" s="20">
+        <f>C63/(C20/C18)/C111</f>
+        <v>129.3676684258667</v>
+      </c>
+      <c r="D112" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
         <v>582</v>
       </c>
-      <c r="C111" s="20">
-        <f>(C108/60)*C110*2*PI()</f>
-        <v>283.37108893216373</v>
-      </c>
-      <c r="D111" t="s">
+      <c r="C113" s="20">
+        <f>(C110/60)*C112*2*PI()</f>
+        <v>254.01282296171439</v>
+      </c>
+      <c r="D113" t="s">
         <v>579</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E85" r:id="rId1" display="http://www.omc-stepperonline.com/nema-17-bipolar-stepper-motor-65ncm92ozin-21a-17hs242104s-p-21.html"/>
-    <hyperlink ref="E86" r:id="rId2" display="http://www.omc-stepperonline.com/3d-printer-nema-17-stepper-motor-2a-45ncm64ozin-17hs162004s-p-16.html"/>
-    <hyperlink ref="E81" r:id="rId3" display="http://www.omc-stepperonline.com/nema-23-cnc-stepper-motor-283nm400-ozin-40a-23hs334008s-p-70.html"/>
+    <hyperlink ref="E87" r:id="rId1" display="http://www.omc-stepperonline.com/nema-17-bipolar-stepper-motor-65ncm92ozin-21a-17hs242104s-p-21.html"/>
+    <hyperlink ref="E88" r:id="rId2" display="http://www.omc-stepperonline.com/3d-printer-nema-17-stepper-motor-2a-45ncm64ozin-17hs162004s-p-16.html"/>
+    <hyperlink ref="E83" r:id="rId3" display="http://www.omc-stepperonline.com/nema-23-cnc-stepper-motor-283nm400-ozin-40a-23hs334008s-p-70.html"/>
     <hyperlink ref="E74" r:id="rId4"/>
     <hyperlink ref="E80" r:id="rId5"/>
-    <hyperlink ref="E82" r:id="rId6" display="http://www.omc-stepperonline.com/nema-23-cnc-stepper-motor-28a-19nm269ozin-23hs302804s-p-25.html"/>
-    <hyperlink ref="E91" r:id="rId7" display="http://www.omc-stepperonline.com/09-nema-16-bipolar-stepper-06a-16ncm227ozin-16hm100604s-p-97.html"/>
-    <hyperlink ref="E93" r:id="rId8" display="http://www.omc-stepperonline.com/09-nema-14-bipolar-stepper-motor-5ncm7ozin-14hm080504s-p-85.html"/>
+    <hyperlink ref="E84" r:id="rId6" display="http://www.omc-stepperonline.com/nema-23-cnc-stepper-motor-28a-19nm269ozin-23hs302804s-p-25.html"/>
+    <hyperlink ref="E93" r:id="rId7" display="http://www.omc-stepperonline.com/09-nema-16-bipolar-stepper-06a-16ncm227ozin-16hm100604s-p-97.html"/>
+    <hyperlink ref="E95" r:id="rId8" display="http://www.omc-stepperonline.com/09-nema-14-bipolar-stepper-motor-5ncm7ozin-14hm080504s-p-85.html"/>
     <hyperlink ref="E75" r:id="rId9"/>
-    <hyperlink ref="E84" r:id="rId10"/>
-    <hyperlink ref="E76" r:id="rId11" display="http://www.omc-stepperonline.com/nema-23-cnc-stepper-motor-28a-19nm269ozin-23hs302804s-p-25.html"/>
-    <hyperlink ref="E83" r:id="rId12"/>
-    <hyperlink ref="E87" r:id="rId13"/>
-    <hyperlink ref="E90" r:id="rId14" display="http://www.omc-stepperonline.com/nema-14-bipolar-stepper-54v-08a-18ncm255ozin-14hs130804s-p-93.html"/>
-    <hyperlink ref="E92" r:id="rId15" display="http://www.omc-stepperonline.com/nema-14-bipolar-stepper-12v-04a-14ncm20ozin-14hs100404s-p-90.html"/>
-    <hyperlink ref="E89" r:id="rId16" display="http://www.omc-stepperonline.com/9deg-nema-17-unipolar-stepper-motor-12v-031a-16ncm227ozin-17hm130316s-p-262.html"/>
-    <hyperlink ref="E94" r:id="rId17" display="http://www.omc-stepperonline.com/09-nema-17-bipolar-stepper-12a-11ncm156ozin-17hm081204s-p-99.html"/>
-    <hyperlink ref="E78" r:id="rId18"/>
-    <hyperlink ref="E88" r:id="rId19"/>
-    <hyperlink ref="E77" r:id="rId20"/>
+    <hyperlink ref="E86" r:id="rId10"/>
+    <hyperlink ref="E85" r:id="rId11"/>
+    <hyperlink ref="E89" r:id="rId12"/>
+    <hyperlink ref="E92" r:id="rId13" display="http://www.omc-stepperonline.com/nema-14-bipolar-stepper-54v-08a-18ncm255ozin-14hs130804s-p-93.html"/>
+    <hyperlink ref="E94" r:id="rId14" display="http://www.omc-stepperonline.com/nema-14-bipolar-stepper-12v-04a-14ncm20ozin-14hs100404s-p-90.html"/>
+    <hyperlink ref="E91" r:id="rId15" display="http://www.omc-stepperonline.com/9deg-nema-17-unipolar-stepper-motor-12v-031a-16ncm227ozin-17hm130316s-p-262.html"/>
+    <hyperlink ref="E96" r:id="rId16" display="http://www.omc-stepperonline.com/09-nema-17-bipolar-stepper-12a-11ncm156ozin-17hm081204s-p-99.html"/>
+    <hyperlink ref="E78" r:id="rId17"/>
+    <hyperlink ref="E90" r:id="rId18"/>
+    <hyperlink ref="E77" r:id="rId19"/>
+    <hyperlink ref="E82" r:id="rId20" display="http://www.omc-stepperonline.com/nema-24-cnc-stepper-motor-12nm170ozin-24hs222006s-p-26.html"/>
+    <hyperlink ref="E81" r:id="rId21" display="http://www.omc-stepperonline.com/nema-24-cnc-stepper-motor-12nm170ozin-24hs222006s-p-26.html"/>
+    <hyperlink ref="E76" r:id="rId22" display="http://www.omc-stepperonline.com/nema-24-cnc-stepper-motor-12nm170ozin-24hs222006s-p-26.html"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId21"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId23"/>
 </worksheet>
 </file>
 
@@ -7799,8 +7913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J103"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="J52" sqref="A52:J52"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="J91" sqref="A91:J91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11230,8 +11344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11256,7 +11370,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -11291,10 +11405,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K138"/>
+  <dimension ref="A1:K139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J102" sqref="J102"/>
+    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D85" sqref="D85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11367,7 +11481,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="str">
-        <f>C99</f>
+        <f>C100</f>
         <v>Rillenkugellager DIN 625 SKF - 61807 35x47x7mm</v>
       </c>
       <c r="D6" t="s">
@@ -11382,8 +11496,8 @@
         <v>4</v>
       </c>
       <c r="C7" t="str">
-        <f>C76</f>
-        <v>Zylinderkopfschraube Innensechskant M3 14mm</v>
+        <f>C78</f>
+        <v>Senkkopfschraube Innensechskant M3 12mm</v>
       </c>
       <c r="D7" t="s">
         <v>661</v>
@@ -11409,11 +11523,11 @@
         <v>4</v>
       </c>
       <c r="C9" t="str">
-        <f>C79</f>
-        <v>Muttern M3</v>
+        <f>C80</f>
+        <v>Muttern M3, Schlüsselweite 5.5 mm</v>
       </c>
       <c r="D9" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -11421,16 +11535,16 @@
         <v>2</v>
       </c>
       <c r="C10" t="str">
-        <f>C98</f>
+        <f>C99</f>
         <v>Rillenkugellager DIN 625 SKF - 61902 15x28x7mm</v>
       </c>
       <c r="D10" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -11438,11 +11552,11 @@
         <v>1</v>
       </c>
       <c r="C13" t="str">
-        <f>C86</f>
+        <f>C87</f>
         <v>Zahnriemenscheibe T2,5, 16 Zähne</v>
       </c>
       <c r="D13" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H13" s="22"/>
       <c r="I13" s="22"/>
@@ -11452,11 +11566,11 @@
         <v>1</v>
       </c>
       <c r="C14" t="str">
-        <f>C87</f>
+        <f>C88</f>
         <v>Zahnriemenscheibe T2,5, 44 Zähne</v>
       </c>
       <c r="D14" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="H14" s="22"/>
       <c r="I14" s="22"/>
@@ -11466,11 +11580,11 @@
         <v>1</v>
       </c>
       <c r="C15" t="str">
-        <f>C86</f>
+        <f>C87</f>
         <v>Zahnriemenscheibe T2,5, 16 Zähne</v>
       </c>
       <c r="D15" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H15" s="22"/>
       <c r="I15" s="22"/>
@@ -11480,11 +11594,11 @@
         <v>1</v>
       </c>
       <c r="C16" t="str">
-        <f>C88</f>
+        <f>C89</f>
         <v>Zahnriemenscheibe T2,5, 18 Zähne</v>
       </c>
       <c r="D16" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="H16" s="22"/>
       <c r="I16" s="22"/>
@@ -11494,11 +11608,11 @@
         <v>1</v>
       </c>
       <c r="C17" t="str">
-        <f>C89</f>
+        <f>C90</f>
         <v>Zahnriemenscheibe T2,5, 14 Zähne</v>
       </c>
       <c r="D17" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="H17" s="22"/>
       <c r="I17" s="22"/>
@@ -11508,11 +11622,11 @@
         <v>1</v>
       </c>
       <c r="C18" t="str">
-        <f>C92</f>
+        <f>C93</f>
         <v>Zahnriemen T2,5 160mm</v>
       </c>
       <c r="D18" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="H18" s="22"/>
       <c r="I18" s="22"/>
@@ -11522,11 +11636,11 @@
         <v>46</v>
       </c>
       <c r="C19" t="str">
-        <f>C82</f>
+        <f>C83</f>
         <v>Silberstahlwelle 6mm Durchmesser</v>
       </c>
       <c r="D19" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E19" s="26"/>
       <c r="H19" s="22"/>
@@ -11537,11 +11651,11 @@
         <v>2</v>
       </c>
       <c r="C20" t="str">
-        <f>C97</f>
+        <f>C98</f>
         <v>Rillenkugellager 6x10x3</v>
       </c>
       <c r="D20" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E20" s="26"/>
       <c r="H20" s="22"/>
@@ -11552,11 +11666,11 @@
         <v>1</v>
       </c>
       <c r="C21" s="32" t="str">
-        <f>C93</f>
+        <f>C94</f>
         <v>NEMA 17 - 42x42x21</v>
       </c>
       <c r="D21" s="32" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="E21" s="26"/>
       <c r="H21" s="22"/>
@@ -11571,7 +11685,7 @@
         <v>Zylinderkopfschraube Innensechskant M3 14mm</v>
       </c>
       <c r="D22" s="32" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="H22" s="22"/>
       <c r="I22" s="22"/>
@@ -11581,11 +11695,11 @@
         <v>2</v>
       </c>
       <c r="C23" s="32" t="str">
-        <f>C80</f>
+        <f>C81</f>
         <v>Unterlegscheiben M3 Dicke 0,5mm</v>
       </c>
       <c r="D23" s="32" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="H23" s="22"/>
       <c r="I23" s="22"/>
@@ -11595,11 +11709,11 @@
         <v>1</v>
       </c>
       <c r="C24" s="32" t="str">
-        <f>C91</f>
+        <f>C92</f>
         <v>Zahnriemen T2,5 230mm</v>
       </c>
       <c r="D24" s="32" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="H24" s="22"/>
       <c r="I24" s="22"/>
@@ -11613,7 +11727,7 @@
         <v>Zylinderkopfschraube Innensechskant M3 16mm</v>
       </c>
       <c r="D25" s="32" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="H25" s="22"/>
       <c r="I25" s="22"/>
@@ -11623,11 +11737,11 @@
         <v>2</v>
       </c>
       <c r="C26" s="32" t="str">
-        <f>C80</f>
+        <f>C81</f>
         <v>Unterlegscheiben M3 Dicke 0,5mm</v>
       </c>
       <c r="D26" s="32" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="H26" s="22"/>
       <c r="I26" s="22"/>
@@ -11637,11 +11751,11 @@
         <v>2</v>
       </c>
       <c r="C27" s="32" t="str">
-        <f>C96</f>
+        <f>C97</f>
         <v>Rillenkugellager  3.967 x 7.938 x 3.175 mm</v>
       </c>
       <c r="D27" s="32" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="H27" s="22"/>
       <c r="I27" s="22"/>
@@ -11651,11 +11765,11 @@
         <v>1</v>
       </c>
       <c r="C28" s="32" t="str">
-        <f>C78</f>
-        <v>Vierkant Mutter M3</v>
+        <f>C79</f>
+        <v>Vierkant Mutter M3 Breite 5.5mm</v>
       </c>
       <c r="D28" s="32" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="E28"/>
       <c r="H28" s="22"/>
@@ -11670,7 +11784,7 @@
         <v>Zylinderkopfschraube Innensechskant M2 6mm</v>
       </c>
       <c r="D29" s="32" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="E29"/>
       <c r="H29" s="22"/>
@@ -11681,11 +11795,11 @@
         <v>1</v>
       </c>
       <c r="C30" s="32" t="str">
-        <f>C95</f>
+        <f>C96</f>
         <v>Rotary Sensor</v>
       </c>
       <c r="D30" s="32" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="E30" s="9"/>
       <c r="H30" s="22"/>
@@ -11696,11 +11810,11 @@
         <v>2</v>
       </c>
       <c r="C31" s="32" t="str">
-        <f>C81</f>
+        <f>C82</f>
         <v>Unterlegscheiben M2 Dicke 0,5mm</v>
       </c>
       <c r="D31" s="32" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="E31" s="9"/>
       <c r="H31" s="22"/>
@@ -11711,11 +11825,11 @@
         <v>2</v>
       </c>
       <c r="C32" s="32" t="str">
-        <f>C84</f>
-        <v>Distanzbolzen M3 20mm</v>
+        <f>C85</f>
+        <v>Distanzbolzen M3 20mm, Schlüsselweite 5mm</v>
       </c>
       <c r="D32" s="32" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="E32" s="9"/>
       <c r="H32" s="22"/>
@@ -11726,11 +11840,11 @@
         <v>4</v>
       </c>
       <c r="C33" s="32" t="str">
-        <f>C80</f>
+        <f>C81</f>
         <v>Unterlegscheiben M3 Dicke 0,5mm</v>
       </c>
       <c r="D33" s="32" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="H33" s="22"/>
       <c r="I33" s="22"/>
@@ -11740,10 +11854,10 @@
         <v>4</v>
       </c>
       <c r="C34" s="32" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="D34" s="32" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="H34" s="22"/>
       <c r="I34" s="22"/>
@@ -11757,7 +11871,7 @@
         <v>Zylinderkopfschraube Innensechskant M3 20mm</v>
       </c>
       <c r="D35" s="32" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="E35" s="9"/>
       <c r="H35" s="22"/>
@@ -11768,11 +11882,11 @@
         <v>4</v>
       </c>
       <c r="C36" s="32" t="str">
-        <f>C80</f>
+        <f>C81</f>
         <v>Unterlegscheiben M3 Dicke 0,5mm</v>
       </c>
       <c r="D36" s="32" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="H36" s="22"/>
       <c r="I36" s="22"/>
@@ -11785,17 +11899,17 @@
     </row>
     <row r="38" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B38">
         <v>2</v>
       </c>
       <c r="C38" s="32" t="str">
-        <f>C100</f>
+        <f>C101</f>
         <v>Rillenkugellager 35x47x7</v>
       </c>
       <c r="D38" s="32" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="E38" s="9"/>
       <c r="H38" s="22"/>
@@ -11806,11 +11920,11 @@
         <v>2</v>
       </c>
       <c r="C39" s="32" t="str">
-        <f>C101</f>
+        <f>C102</f>
         <v>RillenKugellager 6x19x6</v>
       </c>
       <c r="D39" s="32" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="H39" s="22"/>
       <c r="I39" s="22"/>
@@ -11820,11 +11934,11 @@
         <v>4</v>
       </c>
       <c r="C40" s="32" t="str">
-        <f>C97</f>
+        <f>C98</f>
         <v>Rillenkugellager 6x10x3</v>
       </c>
       <c r="D40" s="32" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="E40" s="9"/>
       <c r="H40" s="22"/>
@@ -11835,11 +11949,11 @@
         <v>2</v>
       </c>
       <c r="C41" s="32" t="str">
-        <f>C102</f>
+        <f>C103</f>
         <v>Distanzhülsen M6 10mm</v>
       </c>
       <c r="D41" s="32" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="H41" s="22"/>
       <c r="I41" s="22"/>
@@ -11849,11 +11963,11 @@
         <v>40</v>
       </c>
       <c r="C42" s="32" t="str">
-        <f>C82</f>
+        <f>C83</f>
         <v>Silberstahlwelle 6mm Durchmesser</v>
       </c>
       <c r="D42" s="32" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="H42" s="22"/>
       <c r="I42" s="22"/>
@@ -11863,11 +11977,11 @@
         <v>40</v>
       </c>
       <c r="C43" s="32" t="str">
-        <f>C83</f>
+        <f>C84</f>
         <v>Silberstahlwelle 3mm Durchmesser</v>
       </c>
       <c r="D43" s="32" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="E43" s="9"/>
       <c r="H43" s="22"/>
@@ -11878,11 +11992,11 @@
         <v>4</v>
       </c>
       <c r="C44" s="32" t="str">
-        <f>C103</f>
+        <f>C104</f>
         <v>Rillenkugellager 3x10x4</v>
       </c>
       <c r="D44" s="32" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="E44" s="9"/>
       <c r="H44" s="22"/>
@@ -11893,11 +12007,11 @@
         <v>1</v>
       </c>
       <c r="C45" s="32" t="str">
-        <f>C104</f>
+        <f>C105</f>
         <v>Zahnriemen T2,5 200m</v>
       </c>
       <c r="D45" s="32" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="H45" s="22"/>
       <c r="I45" s="22"/>
@@ -11907,11 +12021,11 @@
         <v>1</v>
       </c>
       <c r="C46" s="32" t="str">
-        <f>C104</f>
+        <f>C105</f>
         <v>Zahnriemen T2,5 200m</v>
       </c>
       <c r="D46" s="32" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="H46" s="22"/>
       <c r="I46" s="22"/>
@@ -11925,7 +12039,7 @@
         <v>Zylinderkopfschraube Innensechskant M3 22mm</v>
       </c>
       <c r="D47" s="32" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="H47" s="22"/>
       <c r="I47" s="22"/>
@@ -11935,11 +12049,11 @@
         <v>4</v>
       </c>
       <c r="C48" s="32" t="str">
-        <f>C79</f>
-        <v>Muttern M3</v>
+        <f>C80</f>
+        <v>Muttern M3, Schlüsselweite 5.5 mm</v>
       </c>
       <c r="D48" s="32" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="E48" s="9"/>
       <c r="H48" s="22"/>
@@ -11954,7 +12068,7 @@
         <v>Zylinderkopfschraube Innensechskant M3 22mm</v>
       </c>
       <c r="D49" s="32" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="H49" s="22"/>
       <c r="I49" s="22"/>
@@ -11964,11 +12078,11 @@
         <v>2</v>
       </c>
       <c r="C50" s="32" t="str">
-        <f>C79</f>
-        <v>Muttern M3</v>
+        <f>C80</f>
+        <v>Muttern M3, Schlüsselweite 5.5 mm</v>
       </c>
       <c r="D50" s="32" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="E50" s="9"/>
       <c r="H50" s="22"/>
@@ -11983,7 +12097,7 @@
         <v>Zylinderkopfschraube Innensechskant M3 12mm</v>
       </c>
       <c r="D51" s="32" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="H51" s="22"/>
       <c r="I51" s="22"/>
@@ -11993,11 +12107,11 @@
         <v>2</v>
       </c>
       <c r="C52" s="32" t="str">
-        <f>C79</f>
-        <v>Muttern M3</v>
+        <f>C80</f>
+        <v>Muttern M3, Schlüsselweite 5.5 mm</v>
       </c>
       <c r="D52" s="32" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="E52" s="9"/>
       <c r="H52" s="22"/>
@@ -12012,7 +12126,7 @@
         <v>Zylinderkopfschraube Innensechskant M3 25mm</v>
       </c>
       <c r="D53" s="32" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="E53" s="9"/>
       <c r="H53" s="22"/>
@@ -12023,11 +12137,11 @@
         <v>3</v>
       </c>
       <c r="C54" s="32" t="str">
-        <f>C84</f>
-        <v>Distanzbolzen M3 20mm</v>
+        <f>C85</f>
+        <v>Distanzbolzen M3 20mm, Schlüsselweite 5mm</v>
       </c>
       <c r="D54" s="32" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="E54" s="9"/>
       <c r="H54" s="22"/>
@@ -12038,11 +12152,11 @@
         <v>1</v>
       </c>
       <c r="C55" s="32" t="str">
-        <f>C94</f>
+        <f>C95</f>
         <v>NEMA 17 - 42x42x33</v>
       </c>
       <c r="D55" s="32" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="E55" s="9"/>
       <c r="H55" s="22"/>
@@ -12053,11 +12167,11 @@
         <v>1</v>
       </c>
       <c r="C56" s="32" t="str">
-        <f>C86</f>
+        <f>C87</f>
         <v>Zahnriemenscheibe T2,5, 16 Zähne</v>
       </c>
       <c r="D56" s="32" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="E56" s="9"/>
       <c r="H56" s="22"/>
@@ -12068,11 +12182,11 @@
         <v>1</v>
       </c>
       <c r="C57" s="32" t="str">
-        <f>C86</f>
+        <f>C87</f>
         <v>Zahnriemenscheibe T2,5, 16 Zähne</v>
       </c>
       <c r="D57" s="32" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E57" s="9"/>
       <c r="H57" s="22"/>
@@ -12083,11 +12197,11 @@
         <v>1</v>
       </c>
       <c r="C58" s="32" t="str">
-        <f>C90</f>
+        <f>C91</f>
         <v>Zahnriemenscheibe T2,5, 60 Zähne</v>
       </c>
       <c r="D58" s="32" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E58" s="9"/>
       <c r="H58" s="22"/>
@@ -12098,11 +12212,11 @@
         <v>2</v>
       </c>
       <c r="C59" s="32" t="str">
-        <f>C105</f>
+        <f>C106</f>
         <v>Schraube M6 55mm</v>
       </c>
       <c r="D59" s="32" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="E59" s="9"/>
       <c r="H59" s="22"/>
@@ -12113,10 +12227,10 @@
         <v>2</v>
       </c>
       <c r="C60" s="32" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="D60" s="32" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="E60" s="9"/>
       <c r="H60" s="22"/>
@@ -12127,11 +12241,11 @@
         <v>1</v>
       </c>
       <c r="C61" s="32" t="str">
-        <f>C95</f>
+        <f>C96</f>
         <v>Rotary Sensor</v>
       </c>
       <c r="D61" s="32" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="E61" s="9"/>
       <c r="H61" s="22"/>
@@ -12197,36 +12311,36 @@
     </row>
     <row r="70" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B70" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="C70" s="32"/>
       <c r="E70" s="9"/>
       <c r="G70" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="H70" s="22" t="s">
+        <v>725</v>
+      </c>
+      <c r="I70" s="22" t="s">
+        <v>726</v>
+      </c>
+      <c r="J70" t="s">
         <v>727</v>
       </c>
-      <c r="I70" s="22" t="s">
-        <v>728</v>
-      </c>
-      <c r="J70" t="s">
-        <v>729</v>
-      </c>
       <c r="K70" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B71" s="33">
-        <f t="shared" ref="B71:B84" si="0">ROUNDUP(I71/G71,0)</f>
+        <f t="shared" ref="B71:B85" si="0">ROUNDUP(I71/G71,0)</f>
         <v>1</v>
       </c>
       <c r="C71" s="32" t="s">
         <v>662</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="G71">
         <v>100</v>
@@ -12253,10 +12367,10 @@
         <v>1</v>
       </c>
       <c r="C72" s="32" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="G72">
         <v>100</v>
@@ -12273,7 +12387,7 @@
         <v>90</v>
       </c>
       <c r="K72" s="35">
-        <f t="shared" ref="K72:K105" si="2">B72*H72</f>
+        <f t="shared" ref="K72:K106" si="2">B72*H72</f>
         <v>1.71</v>
       </c>
     </row>
@@ -12283,10 +12397,10 @@
         <v>1</v>
       </c>
       <c r="C73" s="32" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="G73">
         <v>100</v>
@@ -12313,11 +12427,11 @@
         <v>1</v>
       </c>
       <c r="C74" s="32" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D74" s="32"/>
       <c r="E74" s="29" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="G74">
         <v>100</v>
@@ -12330,7 +12444,7 @@
         <v>1</v>
       </c>
       <c r="J74" s="33">
-        <f t="shared" ref="J74:J97" si="5">G74*B74-I74</f>
+        <f t="shared" ref="J74:J98" si="5">G74*B74-I74</f>
         <v>99</v>
       </c>
       <c r="K74" s="35">
@@ -12344,10 +12458,10 @@
         <v>1</v>
       </c>
       <c r="C75" s="32" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="E75" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="G75">
         <v>10</v>
@@ -12374,10 +12488,10 @@
         <v>1</v>
       </c>
       <c r="C76" s="32" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E76" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="G76">
         <v>100</v>
@@ -12387,11 +12501,11 @@
       </c>
       <c r="I76" s="18">
         <f>SUMIF(C$1:C$69,"="&amp;C76,B$1:B$69)</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J76" s="33">
         <f t="shared" ref="J76" si="6">G76*B76-I76</f>
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="K76" s="35">
         <f t="shared" si="2"/>
@@ -12400,14 +12514,14 @@
     </row>
     <row r="77" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B77" s="33">
-        <f t="shared" ref="B77" si="7">ROUNDUP(I77/G77,0)</f>
+        <f t="shared" ref="B77:B78" si="7">ROUNDUP(I77/G77,0)</f>
         <v>1</v>
       </c>
       <c r="C77" s="32" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="E77" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="G77">
         <v>100</v>
@@ -12420,7 +12534,7 @@
         <v>2</v>
       </c>
       <c r="J77" s="33">
-        <f t="shared" ref="J77" si="8">G77*B77-I77</f>
+        <f t="shared" ref="J77:J78" si="8">G77*B77-I77</f>
         <v>98</v>
       </c>
       <c r="K77" s="35">
@@ -12430,58 +12544,58 @@
     </row>
     <row r="78" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B78" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C78" s="32" t="s">
-        <v>708</v>
+        <v>781</v>
       </c>
       <c r="E78" t="s">
-        <v>651</v>
+        <v>780</v>
       </c>
       <c r="G78">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="H78" s="22">
-        <v>2.09</v>
+        <v>2.35</v>
       </c>
       <c r="I78" s="18">
         <f>SUMIF(C$1:C$69,"="&amp;C78,B$1:B$69)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J78" s="33">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="K78" s="35">
+        <f t="shared" si="2"/>
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B79" s="33">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C79" s="32" t="s">
+        <v>783</v>
+      </c>
+      <c r="E79" t="s">
+        <v>651</v>
+      </c>
+      <c r="G79">
+        <v>100</v>
+      </c>
+      <c r="H79" s="22">
+        <v>2.09</v>
+      </c>
+      <c r="I79" s="18">
+        <f>SUMIF(C$1:C$69,"="&amp;C79,B$1:B$69)</f>
+        <v>1</v>
+      </c>
+      <c r="J79" s="33">
         <f t="shared" si="5"/>
         <v>99</v>
-      </c>
-      <c r="K78" s="35">
-        <f t="shared" si="2"/>
-        <v>2.09</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="33">
-        <f t="shared" ref="B79" si="9">ROUNDUP(I79/G79,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C79" s="32" t="s">
-        <v>664</v>
-      </c>
-      <c r="E79" s="29" t="s">
-        <v>665</v>
-      </c>
-      <c r="G79">
-        <v>100</v>
-      </c>
-      <c r="H79" s="22">
-        <v>2.09</v>
-      </c>
-      <c r="I79" s="18">
-        <f>SUMIF(C$1:C$69,"="&amp;C79,B$1:B$69)</f>
-        <v>12</v>
-      </c>
-      <c r="J79" s="33">
-        <f t="shared" ref="J79" si="10">G79*B79-I79</f>
-        <v>88</v>
       </c>
       <c r="K79" s="35">
         <f t="shared" si="2"/>
@@ -12490,32 +12604,32 @@
     </row>
     <row r="80" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B80" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B80" si="9">ROUNDUP(I80/G80,0)</f>
         <v>1</v>
       </c>
       <c r="C80" s="32" t="s">
-        <v>701</v>
+        <v>782</v>
       </c>
       <c r="E80" s="29" t="s">
-        <v>700</v>
+        <v>664</v>
       </c>
       <c r="G80">
         <v>100</v>
       </c>
       <c r="H80" s="22">
-        <v>1.79</v>
+        <v>2.09</v>
       </c>
       <c r="I80" s="18">
         <f>SUMIF(C$1:C$69,"="&amp;C80,B$1:B$69)</f>
         <v>12</v>
       </c>
       <c r="J80" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="J80" si="10">G80*B80-I80</f>
         <v>88</v>
       </c>
       <c r="K80" s="35">
         <f t="shared" si="2"/>
-        <v>1.79</v>
+        <v>2.09</v>
       </c>
     </row>
     <row r="81" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -12524,10 +12638,10 @@
         <v>1</v>
       </c>
       <c r="C81" s="32" t="s">
-        <v>717</v>
-      </c>
-      <c r="E81" s="9" t="s">
-        <v>718</v>
+        <v>700</v>
+      </c>
+      <c r="E81" s="29" t="s">
+        <v>699</v>
       </c>
       <c r="G81">
         <v>100</v>
@@ -12537,11 +12651,11 @@
       </c>
       <c r="I81" s="18">
         <f>SUMIF(C$1:C$69,"="&amp;C81,B$1:B$69)</f>
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J81" s="33">
-        <f>G81*B81-I81</f>
-        <v>98</v>
+        <f t="shared" si="5"/>
+        <v>88</v>
       </c>
       <c r="K81" s="35">
         <f t="shared" si="2"/>
@@ -12550,32 +12664,32 @@
     </row>
     <row r="82" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B82" s="33">
-        <f>ROUNDUP(I82/G82,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C82" t="s">
-        <v>730</v>
-      </c>
-      <c r="E82" s="26" t="s">
-        <v>694</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C82" s="32" t="s">
+        <v>715</v>
+      </c>
+      <c r="E82" s="9" t="s">
+        <v>716</v>
       </c>
       <c r="G82">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="H82" s="22">
-        <v>4.49</v>
+        <v>1.79</v>
       </c>
       <c r="I82" s="18">
         <f>SUMIF(C$1:C$69,"="&amp;C82,B$1:B$69)</f>
-        <v>86</v>
+        <v>2</v>
       </c>
       <c r="J82" s="33">
-        <f t="shared" ref="J82" si="11">G82*B82-I82</f>
-        <v>414</v>
+        <f>G82*B82-I82</f>
+        <v>98</v>
       </c>
       <c r="K82" s="35">
         <f t="shared" si="2"/>
-        <v>4.49</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="83" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -12584,148 +12698,148 @@
         <v>1</v>
       </c>
       <c r="C83" t="s">
-        <v>757</v>
+        <v>728</v>
       </c>
       <c r="E83" s="26" t="s">
-        <v>648</v>
+        <v>693</v>
       </c>
       <c r="G83">
         <v>500</v>
       </c>
       <c r="H83" s="22">
-        <v>2.4900000000000002</v>
+        <v>4.49</v>
       </c>
       <c r="I83" s="18">
         <f>SUMIF(C$1:C$69,"="&amp;C83,B$1:B$69)</f>
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="J83" s="33">
-        <f t="shared" ref="J83" si="12">G83*B83-I83</f>
-        <v>460</v>
+        <f t="shared" ref="J83" si="11">G83*B83-I83</f>
+        <v>414</v>
       </c>
       <c r="K83" s="35">
         <f t="shared" si="2"/>
-        <v>2.4900000000000002</v>
+        <v>4.49</v>
       </c>
     </row>
     <row r="84" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B84" s="33">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="C84" s="32" t="s">
-        <v>725</v>
-      </c>
-      <c r="E84" s="9" t="s">
-        <v>722</v>
+        <f>ROUNDUP(I84/G84,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C84" t="s">
+        <v>755</v>
+      </c>
+      <c r="E84" s="26" t="s">
+        <v>648</v>
       </c>
       <c r="G84">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="H84" s="22">
-        <v>0.15</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="I84" s="18">
         <f>SUMIF(C$1:C$69,"="&amp;C84,B$1:B$69)</f>
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="J84" s="33">
+        <f t="shared" ref="J84" si="12">G84*B84-I84</f>
+        <v>460</v>
+      </c>
+      <c r="K84" s="35">
+        <f t="shared" si="2"/>
+        <v>2.4900000000000002</v>
+      </c>
+    </row>
+    <row r="85" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B85" s="33">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C85" s="32" t="s">
+        <v>784</v>
+      </c>
+      <c r="E85" s="9" t="s">
+        <v>720</v>
+      </c>
+      <c r="G85">
+        <v>1</v>
+      </c>
+      <c r="H85" s="22">
+        <v>0.15</v>
+      </c>
+      <c r="I85" s="18">
+        <f>SUMIF(C$1:C$69,"="&amp;C85,B$1:B$69)</f>
+        <v>5</v>
+      </c>
+      <c r="J85" s="33">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K84" s="35">
-        <f t="shared" si="2"/>
-        <v>1.3499999999999999</v>
-      </c>
-    </row>
-    <row r="85" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="33">
-        <f t="shared" ref="B85" si="13">ROUNDUP(I85/G85,0)</f>
-        <v>4</v>
-      </c>
-      <c r="C85" t="s">
-        <v>656</v>
-      </c>
-      <c r="E85" s="29" t="s">
-        <v>736</v>
-      </c>
-      <c r="G85">
-        <v>1</v>
-      </c>
-      <c r="H85" s="22">
-        <v>0.08</v>
-      </c>
-      <c r="I85" s="18">
-        <f>SUMIF(C$1:C$69,"="&amp;C85,B$1:B$69)</f>
-        <v>4</v>
-      </c>
-      <c r="J85" s="33">
-        <f t="shared" ref="J85" si="14">G85*B85-I85</f>
-        <v>0</v>
-      </c>
       <c r="K85" s="35">
         <f t="shared" si="2"/>
-        <v>0.32</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="86" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B86" s="33">
-        <f t="shared" ref="B86:B90" si="15">ROUNDUP(I86/G86,0)</f>
+        <f t="shared" ref="B86" si="13">ROUNDUP(I86/G86,0)</f>
         <v>4</v>
       </c>
       <c r="C86" t="s">
-        <v>679</v>
+        <v>656</v>
       </c>
       <c r="E86" s="29" t="s">
-        <v>684</v>
+        <v>734</v>
       </c>
       <c r="G86">
         <v>1</v>
       </c>
       <c r="H86" s="22">
-        <v>5.0999999999999996</v>
+        <v>0.08</v>
       </c>
       <c r="I86" s="18">
         <f>SUMIF(C$1:C$69,"="&amp;C86,B$1:B$69)</f>
         <v>4</v>
       </c>
       <c r="J86" s="33">
-        <f t="shared" ref="J86" si="16">G86*B86-I86</f>
+        <f t="shared" ref="J86" si="14">G86*B86-I86</f>
         <v>0</v>
       </c>
       <c r="K86" s="35">
         <f t="shared" si="2"/>
-        <v>20.399999999999999</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="87" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B87" s="33">
-        <f t="shared" si="15"/>
-        <v>1</v>
+        <f t="shared" ref="B87:B91" si="15">ROUNDUP(I87/G87,0)</f>
+        <v>4</v>
       </c>
       <c r="C87" t="s">
-        <v>686</v>
+        <v>678</v>
       </c>
       <c r="E87" s="29" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="G87">
         <v>1</v>
       </c>
       <c r="H87" s="22">
-        <v>5.44</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="I87" s="18">
         <f>SUMIF(C$1:C$69,"="&amp;C87,B$1:B$69)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J87" s="33">
-        <f t="shared" ref="J87:J89" si="17">G87*B87-I87</f>
+        <f t="shared" ref="J87" si="16">G87*B87-I87</f>
         <v>0</v>
       </c>
       <c r="K87" s="35">
         <f t="shared" si="2"/>
-        <v>5.44</v>
+        <v>20.399999999999999</v>
       </c>
     </row>
     <row r="88" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -12734,28 +12848,28 @@
         <v>1</v>
       </c>
       <c r="C88" t="s">
-        <v>731</v>
+        <v>685</v>
       </c>
       <c r="E88" s="29" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="G88">
         <v>1</v>
       </c>
       <c r="H88" s="22">
-        <v>4.46</v>
+        <v>5.44</v>
       </c>
       <c r="I88" s="18">
         <f>SUMIF(C$1:C$69,"="&amp;C88,B$1:B$69)</f>
         <v>1</v>
       </c>
       <c r="J88" s="33">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="J88:J90" si="17">G88*B88-I88</f>
         <v>0</v>
       </c>
       <c r="K88" s="35">
         <f t="shared" si="2"/>
-        <v>4.46</v>
+        <v>5.44</v>
       </c>
     </row>
     <row r="89" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -12764,16 +12878,16 @@
         <v>1</v>
       </c>
       <c r="C89" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="E89" s="29" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="G89">
         <v>1</v>
       </c>
       <c r="H89" s="22">
-        <v>5.01</v>
+        <v>4.46</v>
       </c>
       <c r="I89" s="18">
         <f>SUMIF(C$1:C$69,"="&amp;C89,B$1:B$69)</f>
@@ -12785,7 +12899,7 @@
       </c>
       <c r="K89" s="35">
         <f t="shared" si="2"/>
-        <v>5.01</v>
+        <v>4.46</v>
       </c>
     </row>
     <row r="90" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -12794,176 +12908,176 @@
         <v>1</v>
       </c>
       <c r="C90" t="s">
-        <v>777</v>
-      </c>
-      <c r="E90" s="26" t="s">
-        <v>776</v>
+        <v>730</v>
+      </c>
+      <c r="E90" s="29" t="s">
+        <v>686</v>
       </c>
       <c r="G90">
         <v>1</v>
       </c>
       <c r="H90" s="22">
-        <v>6.34</v>
+        <v>5.01</v>
       </c>
       <c r="I90" s="18">
         <f>SUMIF(C$1:C$69,"="&amp;C90,B$1:B$69)</f>
         <v>1</v>
       </c>
       <c r="J90" s="33">
-        <f t="shared" ref="J90" si="18">G90*B90-I90</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K90" s="35">
-        <f t="shared" ref="K90" si="19">B90*H90</f>
-        <v>6.34</v>
+        <f t="shared" si="2"/>
+        <v>5.01</v>
       </c>
     </row>
     <row r="91" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B91" s="33">
-        <v>1</v>
-      </c>
-      <c r="C91" s="32" t="s">
-        <v>705</v>
-      </c>
-      <c r="D91" s="32"/>
-      <c r="E91" s="29" t="s">
-        <v>707</v>
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="C91" t="s">
+        <v>775</v>
+      </c>
+      <c r="E91" s="26" t="s">
+        <v>774</v>
       </c>
       <c r="G91">
         <v>1</v>
       </c>
       <c r="H91" s="22">
-        <v>4.96</v>
+        <v>6.34</v>
       </c>
       <c r="I91" s="18">
         <f>SUMIF(C$1:C$69,"="&amp;C91,B$1:B$69)</f>
         <v>1</v>
       </c>
       <c r="J91" s="33">
+        <f t="shared" ref="J91" si="18">G91*B91-I91</f>
+        <v>0</v>
+      </c>
+      <c r="K91" s="35">
+        <f t="shared" ref="K91" si="19">B91*H91</f>
+        <v>6.34</v>
+      </c>
+    </row>
+    <row r="92" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B92" s="33">
+        <v>1</v>
+      </c>
+      <c r="C92" s="32" t="s">
+        <v>704</v>
+      </c>
+      <c r="D92" s="32"/>
+      <c r="E92" s="29" t="s">
+        <v>706</v>
+      </c>
+      <c r="G92">
+        <v>1</v>
+      </c>
+      <c r="H92" s="22">
+        <v>4.96</v>
+      </c>
+      <c r="I92" s="18">
+        <f>SUMIF(C$1:C$69,"="&amp;C92,B$1:B$69)</f>
+        <v>1</v>
+      </c>
+      <c r="J92" s="33">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K91" s="35">
+      <c r="K92" s="35">
         <f t="shared" si="2"/>
         <v>4.96</v>
       </c>
     </row>
-    <row r="92" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="33">
-        <v>1</v>
-      </c>
-      <c r="C92" t="s">
-        <v>690</v>
-      </c>
-      <c r="D92" s="32"/>
-      <c r="E92" s="29" t="s">
-        <v>734</v>
-      </c>
-      <c r="G92">
-        <v>1</v>
-      </c>
-      <c r="H92" s="22">
+    <row r="93" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B93" s="33">
+        <v>1</v>
+      </c>
+      <c r="C93" t="s">
+        <v>689</v>
+      </c>
+      <c r="D93" s="32"/>
+      <c r="E93" s="29" t="s">
+        <v>732</v>
+      </c>
+      <c r="G93">
+        <v>1</v>
+      </c>
+      <c r="H93" s="22">
         <v>4.24</v>
       </c>
-      <c r="I92" s="18">
-        <f>SUMIF(C$1:C$69,"="&amp;C92,B$1:B$69)</f>
-        <v>1</v>
-      </c>
-      <c r="J92" s="33">
-        <f t="shared" ref="J92" si="20">G92*B92-I92</f>
+      <c r="I93" s="18">
+        <f>SUMIF(C$1:C$69,"="&amp;C93,B$1:B$69)</f>
+        <v>1</v>
+      </c>
+      <c r="J93" s="33">
+        <f t="shared" ref="J93" si="20">G93*B93-I93</f>
         <v>0</v>
       </c>
-      <c r="K92" s="35">
+      <c r="K93" s="35">
         <f t="shared" si="2"/>
         <v>4.24</v>
       </c>
     </row>
-    <row r="93" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="33">
-        <v>1</v>
-      </c>
-      <c r="C93" s="32" t="s">
-        <v>695</v>
-      </c>
-      <c r="E93" s="26" t="s">
-        <v>697</v>
-      </c>
-      <c r="G93">
-        <v>1</v>
-      </c>
-      <c r="H93" s="22">
+    <row r="94" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B94" s="33">
+        <v>1</v>
+      </c>
+      <c r="C94" s="32" t="s">
+        <v>694</v>
+      </c>
+      <c r="E94" s="26" t="s">
+        <v>696</v>
+      </c>
+      <c r="G94">
+        <v>1</v>
+      </c>
+      <c r="H94" s="22">
         <v>14.5</v>
       </c>
-      <c r="I93" s="18">
-        <f>SUMIF(C$1:C$69,"="&amp;C93,B$1:B$69)</f>
-        <v>1</v>
-      </c>
-      <c r="J93" s="33">
+      <c r="I94" s="18">
+        <f>SUMIF(C$1:C$69,"="&amp;C94,B$1:B$69)</f>
+        <v>1</v>
+      </c>
+      <c r="J94" s="33">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K93" s="35">
+      <c r="K94" s="35">
         <f t="shared" si="2"/>
         <v>14.5</v>
       </c>
     </row>
-    <row r="94" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B94" s="33">
-        <v>1</v>
-      </c>
-      <c r="C94" s="32" t="s">
-        <v>772</v>
-      </c>
-      <c r="E94" s="26" t="s">
-        <v>773</v>
-      </c>
-      <c r="G94">
-        <v>1</v>
-      </c>
-      <c r="H94" s="22">
-        <v>8.5</v>
-      </c>
-      <c r="I94" s="18">
-        <f>SUMIF(C$1:C$69,"="&amp;C94,B$1:B$69)</f>
-        <v>1</v>
-      </c>
-      <c r="J94" s="33">
-        <f t="shared" ref="J94" si="21">G94*B94-I94</f>
-        <v>0</v>
-      </c>
-      <c r="K94" s="35">
-        <f t="shared" ref="K94" si="22">B94*H94</f>
-        <v>8.5</v>
-      </c>
-    </row>
     <row r="95" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B95" s="33">
-        <f>ROUNDUP(I95/G95,0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C95" s="32" t="s">
-        <v>711</v>
-      </c>
-      <c r="E95" s="9" t="s">
-        <v>562</v>
+        <v>770</v>
+      </c>
+      <c r="E95" s="26" t="s">
+        <v>771</v>
       </c>
       <c r="G95">
         <v>1</v>
       </c>
       <c r="H95" s="22">
-        <v>14.53</v>
+        <v>8.5</v>
       </c>
       <c r="I95" s="18">
         <f>SUMIF(C$1:C$69,"="&amp;C95,B$1:B$69)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J95" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="J95" si="21">G95*B95-I95</f>
         <v>0</v>
       </c>
       <c r="K95" s="35">
-        <f t="shared" si="2"/>
-        <v>29.06</v>
+        <f t="shared" ref="K95" si="22">B95*H95</f>
+        <v>8.5</v>
       </c>
     </row>
     <row r="96" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -12972,17 +13086,16 @@
         <v>2</v>
       </c>
       <c r="C96" s="32" t="s">
-        <v>721</v>
-      </c>
-      <c r="D96" s="32"/>
-      <c r="E96" s="29" t="s">
-        <v>719</v>
+        <v>709</v>
+      </c>
+      <c r="E96" s="9" t="s">
+        <v>562</v>
       </c>
       <c r="G96">
         <v>1</v>
       </c>
       <c r="H96" s="22">
-        <v>1.54</v>
+        <v>14.53</v>
       </c>
       <c r="I96" s="18">
         <f>SUMIF(C$1:C$69,"="&amp;C96,B$1:B$69)</f>
@@ -12994,29 +13107,30 @@
       </c>
       <c r="K96" s="35">
         <f t="shared" si="2"/>
-        <v>3.08</v>
+        <v>29.06</v>
       </c>
     </row>
     <row r="97" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B97" s="33">
         <f>ROUNDUP(I97/G97,0)</f>
-        <v>6</v>
-      </c>
-      <c r="C97" t="s">
-        <v>692</v>
-      </c>
-      <c r="E97" s="26" t="s">
-        <v>691</v>
+        <v>2</v>
+      </c>
+      <c r="C97" s="32" t="s">
+        <v>719</v>
+      </c>
+      <c r="D97" s="32"/>
+      <c r="E97" s="29" t="s">
+        <v>717</v>
       </c>
       <c r="G97">
         <v>1</v>
       </c>
       <c r="H97" s="22">
-        <v>1.95</v>
+        <v>1.54</v>
       </c>
       <c r="I97" s="18">
         <f>SUMIF(C$1:C$69,"="&amp;C97,B$1:B$69)</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J97" s="33">
         <f t="shared" si="5"/>
@@ -13024,78 +13138,78 @@
       </c>
       <c r="K97" s="35">
         <f t="shared" si="2"/>
-        <v>11.7</v>
+        <v>3.08</v>
       </c>
     </row>
     <row r="98" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B98" s="33">
         <f>ROUNDUP(I98/G98,0)</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C98" t="s">
-        <v>667</v>
-      </c>
-      <c r="E98" s="29" t="s">
-        <v>669</v>
+        <v>691</v>
+      </c>
+      <c r="E98" s="26" t="s">
+        <v>690</v>
       </c>
       <c r="G98">
         <v>1</v>
       </c>
       <c r="H98" s="22">
-        <v>1.39</v>
+        <v>1.95</v>
       </c>
       <c r="I98" s="18">
         <f>SUMIF(C$1:C$69,"="&amp;C98,B$1:B$69)</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J98" s="33">
-        <f t="shared" ref="J98" si="23">G98*B98-I98</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K98" s="35">
         <f t="shared" si="2"/>
-        <v>2.78</v>
+        <v>11.7</v>
       </c>
     </row>
     <row r="99" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B99" s="33">
         <f>ROUNDUP(I99/G99,0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C99" t="s">
-        <v>658</v>
+        <v>666</v>
       </c>
       <c r="E99" s="29" t="s">
-        <v>557</v>
+        <v>668</v>
       </c>
       <c r="G99">
         <v>1</v>
       </c>
       <c r="H99" s="22">
-        <v>3.29</v>
+        <v>1.39</v>
       </c>
       <c r="I99" s="18">
         <f>SUMIF(C$1:C$69,"="&amp;C99,B$1:B$69)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J99" s="33">
-        <f t="shared" ref="J99" si="24">G99*B99-I99</f>
+        <f t="shared" ref="J99" si="23">G99*B99-I99</f>
         <v>0</v>
       </c>
       <c r="K99" s="35">
         <f t="shared" si="2"/>
-        <v>3.29</v>
+        <v>2.78</v>
       </c>
     </row>
     <row r="100" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B100" s="33">
         <f>ROUNDUP(I100/G100,0)</f>
-        <v>2</v>
-      </c>
-      <c r="C100" s="32" t="s">
-        <v>743</v>
-      </c>
-      <c r="E100" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C100" t="s">
+        <v>658</v>
+      </c>
+      <c r="E100" s="29" t="s">
         <v>557</v>
       </c>
       <c r="G100">
@@ -13106,15 +13220,15 @@
       </c>
       <c r="I100" s="18">
         <f>SUMIF(C$1:C$69,"="&amp;C100,B$1:B$69)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J100" s="33">
-        <f t="shared" ref="J100" si="25">G100*B100-I100</f>
+        <f t="shared" ref="J100" si="24">G100*B100-I100</f>
         <v>0</v>
       </c>
       <c r="K100" s="35">
         <f t="shared" si="2"/>
-        <v>6.58</v>
+        <v>3.29</v>
       </c>
     </row>
     <row r="101" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -13122,119 +13236,119 @@
         <f>ROUNDUP(I101/G101,0)</f>
         <v>2</v>
       </c>
-      <c r="C101" t="s">
-        <v>747</v>
+      <c r="C101" s="32" t="s">
+        <v>741</v>
       </c>
       <c r="E101" s="26" t="s">
-        <v>748</v>
+        <v>557</v>
       </c>
       <c r="G101">
         <v>1</v>
       </c>
       <c r="H101" s="22">
-        <v>1</v>
+        <v>3.29</v>
       </c>
       <c r="I101" s="18">
         <f>SUMIF(C$1:C$69,"="&amp;C101,B$1:B$69)</f>
         <v>2</v>
       </c>
       <c r="J101" s="33">
-        <f t="shared" ref="J101" si="26">G101*B101-I101</f>
+        <f t="shared" ref="J101" si="25">G101*B101-I101</f>
         <v>0</v>
       </c>
       <c r="K101" s="35">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>6.58</v>
       </c>
     </row>
     <row r="102" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B102" s="33">
         <f>ROUNDUP(I102/G102,0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C102" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="E102" s="26" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="G102">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H102" s="22">
-        <v>2.59</v>
+        <v>1</v>
       </c>
       <c r="I102" s="18">
         <f>SUMIF(C$1:C$69,"="&amp;C102,B$1:B$69)</f>
         <v>2</v>
       </c>
       <c r="J102" s="33">
-        <f t="shared" ref="J102" si="27">G102*B102-I102</f>
-        <v>8</v>
+        <f t="shared" ref="J102" si="26">G102*B102-I102</f>
+        <v>0</v>
       </c>
       <c r="K102" s="35">
         <f t="shared" si="2"/>
-        <v>2.59</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B103" s="33">
         <f>ROUNDUP(I103/G103,0)</f>
-        <v>4</v>
-      </c>
-      <c r="C103" s="32" t="s">
-        <v>755</v>
+        <v>1</v>
+      </c>
+      <c r="C103" t="s">
+        <v>749</v>
       </c>
       <c r="E103" s="26" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="G103">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H103" s="22">
-        <v>1.05</v>
+        <v>2.59</v>
       </c>
       <c r="I103" s="18">
         <f>SUMIF(C$1:C$69,"="&amp;C103,B$1:B$69)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J103" s="33">
-        <f t="shared" ref="J103" si="28">G103*B103-I103</f>
-        <v>0</v>
+        <f t="shared" ref="J103" si="27">G103*B103-I103</f>
+        <v>8</v>
       </c>
       <c r="K103" s="35">
         <f t="shared" si="2"/>
-        <v>4.2</v>
+        <v>2.59</v>
       </c>
     </row>
     <row r="104" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B104" s="33">
         <f>ROUNDUP(I104/G104,0)</f>
-        <v>2</v>
-      </c>
-      <c r="C104" t="s">
-        <v>761</v>
+        <v>4</v>
+      </c>
+      <c r="C104" s="32" t="s">
+        <v>753</v>
       </c>
       <c r="E104" s="26" t="s">
-        <v>760</v>
+        <v>752</v>
       </c>
       <c r="G104">
         <v>1</v>
       </c>
       <c r="H104" s="22">
-        <v>4.4400000000000004</v>
+        <v>1.05</v>
       </c>
       <c r="I104" s="18">
         <f>SUMIF(C$1:C$69,"="&amp;C104,B$1:B$69)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J104" s="33">
-        <f t="shared" ref="J104:J105" si="29">G104*B104-I104</f>
+        <f t="shared" ref="J104" si="28">G104*B104-I104</f>
         <v>0</v>
       </c>
       <c r="K104" s="35">
         <f t="shared" si="2"/>
-        <v>8.8800000000000008</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="105" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -13243,28 +13357,28 @@
         <v>2</v>
       </c>
       <c r="C105" t="s">
-        <v>778</v>
-      </c>
-      <c r="E105" t="s">
-        <v>779</v>
+        <v>759</v>
+      </c>
+      <c r="E105" s="26" t="s">
+        <v>758</v>
       </c>
       <c r="G105">
         <v>1</v>
       </c>
       <c r="H105" s="22">
-        <v>0.4</v>
+        <v>4.4400000000000004</v>
       </c>
       <c r="I105" s="18">
         <f>SUMIF(C$1:C$69,"="&amp;C105,B$1:B$69)</f>
         <v>2</v>
       </c>
       <c r="J105" s="33">
-        <f t="shared" si="29"/>
+        <f t="shared" ref="J105:J106" si="29">G105*B105-I105</f>
         <v>0</v>
       </c>
       <c r="K105" s="35">
         <f t="shared" si="2"/>
-        <v>0.8</v>
+        <v>8.8800000000000008</v>
       </c>
     </row>
     <row r="106" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -13273,10 +13387,10 @@
         <v>2</v>
       </c>
       <c r="C106" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="E106" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="G106">
         <v>1</v>
@@ -13289,26 +13403,49 @@
         <v>2</v>
       </c>
       <c r="J106" s="33">
-        <f t="shared" ref="J106" si="30">G106*B106-I106</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="K106" s="35">
-        <f t="shared" ref="K106" si="31">B106*H106</f>
+        <f t="shared" si="2"/>
         <v>0.8</v>
       </c>
     </row>
     <row r="107" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B107" s="33"/>
-      <c r="D107" t="s">
+      <c r="B107" s="33">
+        <f>ROUNDUP(I107/G107,0)</f>
+        <v>2</v>
+      </c>
+      <c r="C107" t="s">
         <v>779</v>
       </c>
-      <c r="H107" s="22"/>
-      <c r="I107" s="18"/>
-      <c r="J107" s="33"/>
+      <c r="E107" t="s">
+        <v>777</v>
+      </c>
+      <c r="G107">
+        <v>1</v>
+      </c>
+      <c r="H107" s="22">
+        <v>0.4</v>
+      </c>
+      <c r="I107" s="18">
+        <f>SUMIF(C$1:C$69,"="&amp;C107,B$1:B$69)</f>
+        <v>2</v>
+      </c>
+      <c r="J107" s="33">
+        <f t="shared" ref="J107" si="30">G107*B107-I107</f>
+        <v>0</v>
+      </c>
+      <c r="K107" s="35">
+        <f t="shared" ref="K107" si="31">B107*H107</f>
+        <v>0.8</v>
+      </c>
     </row>
     <row r="108" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B108" s="33"/>
-      <c r="E108" s="26"/>
+      <c r="D108" t="s">
+        <v>777</v>
+      </c>
       <c r="H108" s="22"/>
       <c r="I108" s="18"/>
       <c r="J108" s="33"/>
@@ -13341,276 +13478,265 @@
       <c r="I112" s="18"/>
       <c r="J112" s="33"/>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C113" t="s">
+    <row r="113" spans="2:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B113" s="33"/>
+      <c r="E113" s="26"/>
+      <c r="H113" s="22"/>
+      <c r="I113" s="18"/>
+      <c r="J113" s="33"/>
+    </row>
+    <row r="114" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C114" t="s">
         <v>606</v>
       </c>
-      <c r="D113" s="6" t="s">
+      <c r="D114" s="6" t="s">
         <v>599</v>
       </c>
-      <c r="E113" s="29" t="s">
+      <c r="E114" s="29" t="s">
         <v>554</v>
       </c>
-      <c r="F113">
+      <c r="F114">
         <v>0.28999999999999998</v>
       </c>
-      <c r="H113" s="22">
+      <c r="H114" s="22">
         <v>26.88</v>
-      </c>
-      <c r="I113" s="22">
-        <f>H113*B114</f>
-        <v>26.88</v>
-      </c>
-    </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B114">
-        <v>1</v>
-      </c>
-      <c r="C114" t="s">
-        <v>608</v>
-      </c>
-      <c r="D114" t="s">
-        <v>609</v>
-      </c>
-      <c r="E114" s="30" t="s">
-        <v>607</v>
-      </c>
-      <c r="F114">
-        <v>0</v>
-      </c>
-      <c r="H114">
-        <v>1.1499999999999999</v>
       </c>
       <c r="I114" s="22">
         <f>H114*B115</f>
-        <v>6.8999999999999995</v>
-      </c>
-    </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
+        <v>26.88</v>
+      </c>
+    </row>
+    <row r="115" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B115">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C115" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="D115" t="s">
-        <v>610</v>
-      </c>
-      <c r="E115" s="29" t="s">
-        <v>611</v>
+        <v>609</v>
+      </c>
+      <c r="E115" s="30" t="s">
+        <v>607</v>
       </c>
       <c r="F115">
         <v>0</v>
       </c>
       <c r="H115">
-        <f>I115/10</f>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="I115" s="22">
+        <f>H115*B116</f>
+        <v>6.8999999999999995</v>
+      </c>
+    </row>
+    <row r="116" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B116">
+        <v>6</v>
+      </c>
+      <c r="C116" t="s">
+        <v>612</v>
+      </c>
+      <c r="D116" t="s">
+        <v>610</v>
+      </c>
+      <c r="E116" s="29" t="s">
+        <v>611</v>
+      </c>
+      <c r="F116">
+        <v>0</v>
+      </c>
+      <c r="H116">
+        <f>I116/10</f>
         <v>0.251</v>
       </c>
-      <c r="I115">
+      <c r="I116">
         <v>2.5099999999999998</v>
       </c>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B116">
-        <v>1</v>
-      </c>
-      <c r="C116" t="s">
+    <row r="117" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B117">
+        <v>1</v>
+      </c>
+      <c r="C117" t="s">
         <v>615</v>
       </c>
-      <c r="D116" t="s">
+      <c r="D117" t="s">
         <v>614</v>
       </c>
-      <c r="E116" s="26" t="s">
+      <c r="E117" s="26" t="s">
         <v>473</v>
       </c>
-      <c r="F116">
+      <c r="F117">
         <v>0.7</v>
       </c>
-      <c r="H116">
+      <c r="H117">
         <v>18</v>
       </c>
-      <c r="I116" s="22">
-        <f>H116*B117</f>
+      <c r="I117" s="22">
+        <f>H117*B118</f>
         <v>18</v>
       </c>
     </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B117">
-        <v>1</v>
-      </c>
-      <c r="E117" s="26"/>
-      <c r="I117" s="22"/>
-    </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C118" t="s">
+    <row r="118" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B118">
+        <v>1</v>
+      </c>
+      <c r="E118" s="26"/>
+      <c r="I118" s="22"/>
+    </row>
+    <row r="119" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C119" t="s">
         <v>616</v>
       </c>
-      <c r="D118" s="6" t="s">
+      <c r="D119" s="6" t="s">
         <v>617</v>
       </c>
-      <c r="E118" s="26" t="s">
+      <c r="E119" s="26" t="s">
         <v>544</v>
       </c>
-      <c r="F118">
+      <c r="F119">
         <v>1.34</v>
       </c>
-      <c r="H118">
+      <c r="H119">
         <v>37</v>
       </c>
-      <c r="I118" s="22">
-        <f>H118*B119</f>
+      <c r="I119" s="22">
+        <f>H119*B120</f>
         <v>37</v>
       </c>
     </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B119">
-        <v>1</v>
-      </c>
-      <c r="C119" t="s">
+    <row r="120" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B120">
+        <v>1</v>
+      </c>
+      <c r="C120" t="s">
         <v>639</v>
       </c>
-      <c r="D119" s="8" t="s">
+      <c r="D120" s="8" t="s">
         <v>642</v>
       </c>
-      <c r="E119" s="29" t="s">
+      <c r="E120" s="29" t="s">
         <v>640</v>
-      </c>
-      <c r="F119">
-        <v>0</v>
-      </c>
-      <c r="I119" s="22"/>
-    </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B120">
-        <v>2</v>
-      </c>
-      <c r="C120" t="s">
-        <v>649</v>
-      </c>
-      <c r="D120" t="s">
-        <v>632</v>
-      </c>
-      <c r="E120" s="26" t="s">
-        <v>648</v>
       </c>
       <c r="F120">
         <v>0</v>
       </c>
       <c r="I120" s="22"/>
     </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B121">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C121" t="s">
-        <v>608</v>
+        <v>649</v>
       </c>
       <c r="D121" t="s">
-        <v>633</v>
-      </c>
-      <c r="E121" s="30" t="s">
-        <v>607</v>
+        <v>632</v>
+      </c>
+      <c r="E121" s="26" t="s">
+        <v>648</v>
       </c>
       <c r="F121">
         <v>0</v>
       </c>
       <c r="I121" s="22"/>
     </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B122">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C122" t="s">
-        <v>635</v>
+        <v>608</v>
       </c>
       <c r="D122" t="s">
-        <v>646</v>
-      </c>
-      <c r="E122" s="26" t="s">
-        <v>634</v>
+        <v>633</v>
+      </c>
+      <c r="E122" s="30" t="s">
+        <v>607</v>
       </c>
       <c r="F122">
         <v>0</v>
       </c>
       <c r="I122" s="22"/>
     </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B123">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="C123" t="s">
+        <v>635</v>
       </c>
       <c r="D123" t="s">
-        <v>647</v>
-      </c>
-      <c r="E123" s="29" t="s">
-        <v>645</v>
+        <v>646</v>
+      </c>
+      <c r="E123" s="26" t="s">
+        <v>634</v>
       </c>
       <c r="F123">
         <v>0</v>
       </c>
       <c r="I123" s="22"/>
     </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="E124" s="26"/>
+    <row r="124" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B124">
+        <v>8</v>
+      </c>
+      <c r="D124" t="s">
+        <v>647</v>
+      </c>
+      <c r="E124" s="29" t="s">
+        <v>645</v>
+      </c>
+      <c r="F124">
+        <v>0</v>
+      </c>
       <c r="I124" s="22"/>
     </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="D125" s="6" t="s">
-        <v>636</v>
-      </c>
+    <row r="125" spans="2:10" x14ac:dyDescent="0.3">
       <c r="E125" s="26"/>
       <c r="I125" s="22"/>
     </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C126" t="s">
+    <row r="126" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="D126" s="6" t="s">
+        <v>636</v>
+      </c>
+      <c r="E126" s="26"/>
+      <c r="I126" s="22"/>
+    </row>
+    <row r="127" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C127" t="s">
         <v>628</v>
       </c>
-      <c r="D126" t="s">
+      <c r="D127" t="s">
         <v>626</v>
       </c>
-      <c r="E126" s="25" t="s">
+      <c r="E127" s="25" t="s">
         <v>618</v>
-      </c>
-      <c r="F126">
-        <v>0</v>
-      </c>
-      <c r="H126">
-        <v>9.9</v>
-      </c>
-      <c r="I126" s="22">
-        <f>H126*B127</f>
-        <v>9.9</v>
-      </c>
-    </row>
-    <row r="127" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B127">
-        <v>1</v>
-      </c>
-      <c r="C127" t="s">
-        <v>630</v>
-      </c>
-      <c r="D127" t="s">
-        <v>622</v>
-      </c>
-      <c r="E127" s="26" t="s">
-        <v>623</v>
       </c>
       <c r="F127">
         <v>0</v>
       </c>
-      <c r="I127" s="22"/>
-    </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H127">
+        <v>9.9</v>
+      </c>
+      <c r="I127" s="22">
+        <f>H127*B128</f>
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="128" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B128">
         <v>1</v>
       </c>
       <c r="C128" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="D128" t="s">
-        <v>625</v>
-      </c>
-      <c r="E128" s="25" t="s">
-        <v>624</v>
+        <v>622</v>
+      </c>
+      <c r="E128" s="26" t="s">
+        <v>623</v>
       </c>
       <c r="F128">
         <v>0</v>
@@ -13622,13 +13748,13 @@
         <v>1</v>
       </c>
       <c r="C129" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="D129" t="s">
-        <v>644</v>
-      </c>
-      <c r="E129" s="26" t="s">
-        <v>643</v>
+        <v>625</v>
+      </c>
+      <c r="E129" s="25" t="s">
+        <v>624</v>
       </c>
       <c r="F129">
         <v>0</v>
@@ -13640,31 +13766,31 @@
         <v>1</v>
       </c>
       <c r="C130" t="s">
-        <v>619</v>
+        <v>627</v>
       </c>
       <c r="D130" t="s">
-        <v>637</v>
-      </c>
-      <c r="E130" s="25" t="s">
-        <v>638</v>
+        <v>644</v>
+      </c>
+      <c r="E130" s="26" t="s">
+        <v>643</v>
       </c>
       <c r="F130">
         <v>0</v>
       </c>
       <c r="I130" s="22"/>
     </row>
-    <row r="131" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B131">
         <v>1</v>
       </c>
       <c r="C131" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="D131" t="s">
-        <v>622</v>
+        <v>637</v>
       </c>
       <c r="E131" s="25" t="s">
-        <v>618</v>
+        <v>638</v>
       </c>
       <c r="F131">
         <v>0</v>
@@ -13675,75 +13801,93 @@
       <c r="B132">
         <v>1</v>
       </c>
-      <c r="E132" s="25"/>
+      <c r="C132" t="s">
+        <v>621</v>
+      </c>
+      <c r="D132" t="s">
+        <v>622</v>
+      </c>
+      <c r="E132" s="25" t="s">
+        <v>618</v>
+      </c>
+      <c r="F132">
+        <v>0</v>
+      </c>
       <c r="I132" s="22"/>
     </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B133">
+        <v>1</v>
+      </c>
       <c r="E133" s="25"/>
       <c r="I133" s="22"/>
     </row>
     <row r="134" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C134" t="s">
+      <c r="E134" s="25"/>
+      <c r="I134" s="22"/>
+    </row>
+    <row r="135" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C135" t="s">
         <v>603</v>
       </c>
-      <c r="D134" t="s">
+      <c r="D135" t="s">
         <v>600</v>
       </c>
-      <c r="E134" s="29" t="s">
+      <c r="E135" s="29" t="s">
         <v>602</v>
       </c>
-      <c r="F134">
+      <c r="F135">
         <v>0</v>
       </c>
-      <c r="H134" s="22">
+      <c r="H135" s="22">
         <v>0.54</v>
-      </c>
-      <c r="I134" s="22">
-        <f>H134*B135</f>
-        <v>12.96</v>
-      </c>
-    </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B135">
-        <v>24</v>
-      </c>
-      <c r="C135" t="s">
-        <v>604</v>
-      </c>
-      <c r="D135" t="s">
-        <v>605</v>
-      </c>
-      <c r="E135" s="29" t="s">
-        <v>601</v>
-      </c>
-      <c r="H135" s="23">
-        <v>4.29</v>
       </c>
       <c r="I135" s="22">
         <f>H135*B136</f>
-        <v>4.29</v>
+        <v>12.96</v>
       </c>
     </row>
     <row r="136" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B136">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B138">
+        <v>24</v>
+      </c>
+      <c r="C136" t="s">
+        <v>604</v>
+      </c>
+      <c r="D136" t="s">
+        <v>605</v>
+      </c>
+      <c r="E136" s="29" t="s">
+        <v>601</v>
+      </c>
+      <c r="H136" s="23">
+        <v>4.29</v>
+      </c>
+      <c r="I136" s="22">
+        <f>H136*B137</f>
+        <v>4.29</v>
+      </c>
+    </row>
+    <row r="137" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B139">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E116" r:id="rId1"/>
-    <hyperlink ref="E118" r:id="rId2"/>
-    <hyperlink ref="E127" r:id="rId3"/>
-    <hyperlink ref="E128" r:id="rId4"/>
-    <hyperlink ref="E121" r:id="rId5"/>
-    <hyperlink ref="E114" r:id="rId6"/>
-    <hyperlink ref="E95" r:id="rId7"/>
-    <hyperlink ref="E97" r:id="rId8"/>
+    <hyperlink ref="E117" r:id="rId1"/>
+    <hyperlink ref="E119" r:id="rId2"/>
+    <hyperlink ref="E128" r:id="rId3"/>
+    <hyperlink ref="E129" r:id="rId4"/>
+    <hyperlink ref="E122" r:id="rId5"/>
+    <hyperlink ref="E115" r:id="rId6"/>
+    <hyperlink ref="E96" r:id="rId7"/>
+    <hyperlink ref="E98" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -2350,9 +2350,6 @@
     <t>Zahnriemenscheibe T2,5, 60 Zähne</t>
   </si>
   <si>
-    <t>Schraube M6 55mm</t>
-  </si>
-  <si>
     <t>profi</t>
   </si>
   <si>
@@ -2375,6 +2372,9 @@
   </si>
   <si>
     <t>Distanzbolzen M3 20mm, Schlüsselweite 5mm</t>
+  </si>
+  <si>
+    <t>Zylinderkopfschraube Innensechskant M6 55mm</t>
   </si>
 </sst>
 </file>
@@ -2511,10 +2511,10 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -7934,8 +7934,8 @@
       <c r="A3" s="10"/>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
@@ -7951,10 +7951,10 @@
       <c r="C4" s="10" t="s">
         <v>359</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="D4" s="35" t="s">
         <v>360</v>
       </c>
-      <c r="E4" s="34"/>
+      <c r="E4" s="35"/>
       <c r="F4" s="10" t="s">
         <v>361</v>
       </c>
@@ -11407,8 +11407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D85" sqref="D85"/>
+    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E94" sqref="E94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12209,14 +12209,14 @@
     </row>
     <row r="59" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C59" s="32" t="str">
         <f>C106</f>
-        <v>Schraube M6 55mm</v>
+        <v>Zylinderkopfschraube Innensechskant M6 55mm</v>
       </c>
       <c r="D59" s="32" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="E59" s="9"/>
       <c r="H59" s="22"/>
@@ -12224,13 +12224,13 @@
     </row>
     <row r="60" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C60" s="32" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="D60" s="32" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="E60" s="9"/>
       <c r="H60" s="22"/>
@@ -12349,21 +12349,21 @@
         <v>1.79</v>
       </c>
       <c r="I71" s="18">
-        <f>SUMIF(C$1:C$69,"="&amp;C71,B$1:B$69)</f>
+        <f t="shared" ref="I71:I107" si="1">SUMIF(C$1:C$69,"="&amp;C71,B$1:B$69)</f>
         <v>8</v>
       </c>
       <c r="J71" s="33">
         <f>G71*B71-I71</f>
         <v>92</v>
       </c>
-      <c r="K71" s="35">
+      <c r="K71" s="34">
         <f>B71*H71</f>
         <v>1.79</v>
       </c>
     </row>
     <row r="72" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B72" s="33">
-        <f t="shared" ref="B72" si="1">ROUNDUP(I72/G72,0)</f>
+        <f t="shared" ref="B72" si="2">ROUNDUP(I72/G72,0)</f>
         <v>1</v>
       </c>
       <c r="C72" s="32" t="s">
@@ -12379,21 +12379,21 @@
         <v>1.71</v>
       </c>
       <c r="I72" s="18">
-        <f>SUMIF(C$1:C$69,"="&amp;C72,B$1:B$69)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="J72" s="33">
         <f>G72*B72-I72</f>
         <v>90</v>
       </c>
-      <c r="K72" s="35">
-        <f t="shared" ref="K72:K106" si="2">B72*H72</f>
+      <c r="K72" s="34">
+        <f t="shared" ref="K72:K106" si="3">B72*H72</f>
         <v>1.71</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B73" s="33">
-        <f t="shared" ref="B73" si="3">ROUNDUP(I73/G73,0)</f>
+        <f t="shared" ref="B73" si="4">ROUNDUP(I73/G73,0)</f>
         <v>1</v>
       </c>
       <c r="C73" s="32" t="s">
@@ -12409,15 +12409,15 @@
         <v>1.71</v>
       </c>
       <c r="I73" s="18">
-        <f>SUMIF(C$1:C$69,"="&amp;C73,B$1:B$69)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="J73" s="33">
         <f>G73*B73-I73</f>
         <v>94</v>
       </c>
-      <c r="K73" s="35">
-        <f t="shared" ref="K73" si="4">B73*H73</f>
+      <c r="K73" s="34">
+        <f t="shared" ref="K73" si="5">B73*H73</f>
         <v>1.71</v>
       </c>
     </row>
@@ -12440,15 +12440,15 @@
         <v>1.96</v>
       </c>
       <c r="I74" s="18">
-        <f>SUMIF(C$1:C$69,"="&amp;C74,B$1:B$69)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J74" s="33">
-        <f t="shared" ref="J74:J98" si="5">G74*B74-I74</f>
+        <f t="shared" ref="J74:J98" si="6">G74*B74-I74</f>
         <v>99</v>
       </c>
-      <c r="K74" s="35">
-        <f t="shared" si="2"/>
+      <c r="K74" s="34">
+        <f t="shared" si="3"/>
         <v>1.96</v>
       </c>
     </row>
@@ -12470,15 +12470,15 @@
         <v>0.99</v>
       </c>
       <c r="I75" s="18">
-        <f>SUMIF(C$1:C$69,"="&amp;C75,B$1:B$69)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="J75" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="K75" s="35">
-        <f t="shared" si="2"/>
+      <c r="K75" s="34">
+        <f t="shared" si="3"/>
         <v>0.99</v>
       </c>
     </row>
@@ -12500,21 +12500,21 @@
         <v>1.79</v>
       </c>
       <c r="I76" s="18">
-        <f>SUMIF(C$1:C$69,"="&amp;C76,B$1:B$69)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="J76" s="33">
-        <f t="shared" ref="J76" si="6">G76*B76-I76</f>
+        <f t="shared" ref="J76" si="7">G76*B76-I76</f>
         <v>98</v>
       </c>
-      <c r="K76" s="35">
-        <f t="shared" si="2"/>
+      <c r="K76" s="34">
+        <f t="shared" si="3"/>
         <v>1.79</v>
       </c>
     </row>
     <row r="77" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B77" s="33">
-        <f t="shared" ref="B77:B78" si="7">ROUNDUP(I77/G77,0)</f>
+        <f t="shared" ref="B77:B78" si="8">ROUNDUP(I77/G77,0)</f>
         <v>1</v>
       </c>
       <c r="C77" s="32" t="s">
@@ -12530,28 +12530,28 @@
         <v>1.63</v>
       </c>
       <c r="I77" s="18">
-        <f>SUMIF(C$1:C$69,"="&amp;C77,B$1:B$69)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="J77" s="33">
-        <f t="shared" ref="J77:J78" si="8">G77*B77-I77</f>
+        <f t="shared" ref="J77:J78" si="9">G77*B77-I77</f>
         <v>98</v>
       </c>
-      <c r="K77" s="35">
-        <f t="shared" si="2"/>
+      <c r="K77" s="34">
+        <f t="shared" si="3"/>
         <v>1.63</v>
       </c>
     </row>
     <row r="78" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B78" s="33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="C78" s="32" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E78" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="G78">
         <v>10</v>
@@ -12560,15 +12560,15 @@
         <v>2.35</v>
       </c>
       <c r="I78" s="18">
-        <f>SUMIF(C$1:C$69,"="&amp;C78,B$1:B$69)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="J78" s="33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
-      <c r="K78" s="35">
-        <f t="shared" si="2"/>
+      <c r="K78" s="34">
+        <f t="shared" si="3"/>
         <v>2.35</v>
       </c>
     </row>
@@ -12578,7 +12578,7 @@
         <v>1</v>
       </c>
       <c r="C79" s="32" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="E79" t="s">
         <v>651</v>
@@ -12590,25 +12590,25 @@
         <v>2.09</v>
       </c>
       <c r="I79" s="18">
-        <f>SUMIF(C$1:C$69,"="&amp;C79,B$1:B$69)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J79" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>99</v>
       </c>
-      <c r="K79" s="35">
-        <f t="shared" si="2"/>
+      <c r="K79" s="34">
+        <f t="shared" si="3"/>
         <v>2.09</v>
       </c>
     </row>
     <row r="80" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B80" s="33">
-        <f t="shared" ref="B80" si="9">ROUNDUP(I80/G80,0)</f>
+        <f t="shared" ref="B80" si="10">ROUNDUP(I80/G80,0)</f>
         <v>1</v>
       </c>
       <c r="C80" s="32" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="E80" s="29" t="s">
         <v>664</v>
@@ -12620,15 +12620,15 @@
         <v>2.09</v>
       </c>
       <c r="I80" s="18">
-        <f>SUMIF(C$1:C$69,"="&amp;C80,B$1:B$69)</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="J80" s="33">
-        <f t="shared" ref="J80" si="10">G80*B80-I80</f>
+        <f t="shared" ref="J80" si="11">G80*B80-I80</f>
         <v>88</v>
       </c>
-      <c r="K80" s="35">
-        <f t="shared" si="2"/>
+      <c r="K80" s="34">
+        <f t="shared" si="3"/>
         <v>2.09</v>
       </c>
     </row>
@@ -12650,15 +12650,15 @@
         <v>1.79</v>
       </c>
       <c r="I81" s="18">
-        <f>SUMIF(C$1:C$69,"="&amp;C81,B$1:B$69)</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="J81" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>88</v>
       </c>
-      <c r="K81" s="35">
-        <f t="shared" si="2"/>
+      <c r="K81" s="34">
+        <f t="shared" si="3"/>
         <v>1.79</v>
       </c>
     </row>
@@ -12680,15 +12680,15 @@
         <v>1.79</v>
       </c>
       <c r="I82" s="18">
-        <f>SUMIF(C$1:C$69,"="&amp;C82,B$1:B$69)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="J82" s="33">
         <f>G82*B82-I82</f>
         <v>98</v>
       </c>
-      <c r="K82" s="35">
-        <f t="shared" si="2"/>
+      <c r="K82" s="34">
+        <f t="shared" si="3"/>
         <v>1.79</v>
       </c>
     </row>
@@ -12710,15 +12710,15 @@
         <v>4.49</v>
       </c>
       <c r="I83" s="18">
-        <f>SUMIF(C$1:C$69,"="&amp;C83,B$1:B$69)</f>
+        <f t="shared" si="1"/>
         <v>86</v>
       </c>
       <c r="J83" s="33">
-        <f t="shared" ref="J83" si="11">G83*B83-I83</f>
+        <f t="shared" ref="J83" si="12">G83*B83-I83</f>
         <v>414</v>
       </c>
-      <c r="K83" s="35">
-        <f t="shared" si="2"/>
+      <c r="K83" s="34">
+        <f t="shared" si="3"/>
         <v>4.49</v>
       </c>
     </row>
@@ -12740,15 +12740,15 @@
         <v>2.4900000000000002</v>
       </c>
       <c r="I84" s="18">
-        <f>SUMIF(C$1:C$69,"="&amp;C84,B$1:B$69)</f>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="J84" s="33">
-        <f t="shared" ref="J84" si="12">G84*B84-I84</f>
+        <f t="shared" ref="J84" si="13">G84*B84-I84</f>
         <v>460</v>
       </c>
-      <c r="K84" s="35">
-        <f t="shared" si="2"/>
+      <c r="K84" s="34">
+        <f t="shared" si="3"/>
         <v>2.4900000000000002</v>
       </c>
     </row>
@@ -12758,7 +12758,7 @@
         <v>5</v>
       </c>
       <c r="C85" s="32" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="E85" s="9" t="s">
         <v>720</v>
@@ -12770,21 +12770,21 @@
         <v>0.15</v>
       </c>
       <c r="I85" s="18">
-        <f>SUMIF(C$1:C$69,"="&amp;C85,B$1:B$69)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="J85" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K85" s="35">
-        <f t="shared" si="2"/>
+      <c r="K85" s="34">
+        <f t="shared" si="3"/>
         <v>0.75</v>
       </c>
     </row>
     <row r="86" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B86" s="33">
-        <f t="shared" ref="B86" si="13">ROUNDUP(I86/G86,0)</f>
+        <f t="shared" ref="B86" si="14">ROUNDUP(I86/G86,0)</f>
         <v>4</v>
       </c>
       <c r="C86" t="s">
@@ -12800,21 +12800,21 @@
         <v>0.08</v>
       </c>
       <c r="I86" s="18">
-        <f>SUMIF(C$1:C$69,"="&amp;C86,B$1:B$69)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="J86" s="33">
-        <f t="shared" ref="J86" si="14">G86*B86-I86</f>
+        <f t="shared" ref="J86" si="15">G86*B86-I86</f>
         <v>0</v>
       </c>
-      <c r="K86" s="35">
-        <f t="shared" si="2"/>
+      <c r="K86" s="34">
+        <f t="shared" si="3"/>
         <v>0.32</v>
       </c>
     </row>
     <row r="87" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B87" s="33">
-        <f t="shared" ref="B87:B91" si="15">ROUNDUP(I87/G87,0)</f>
+        <f t="shared" ref="B87:B91" si="16">ROUNDUP(I87/G87,0)</f>
         <v>4</v>
       </c>
       <c r="C87" t="s">
@@ -12830,21 +12830,21 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="I87" s="18">
-        <f>SUMIF(C$1:C$69,"="&amp;C87,B$1:B$69)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="J87" s="33">
-        <f t="shared" ref="J87" si="16">G87*B87-I87</f>
+        <f t="shared" ref="J87" si="17">G87*B87-I87</f>
         <v>0</v>
       </c>
-      <c r="K87" s="35">
-        <f t="shared" si="2"/>
+      <c r="K87" s="34">
+        <f t="shared" si="3"/>
         <v>20.399999999999999</v>
       </c>
     </row>
     <row r="88" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B88" s="33">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="C88" t="s">
@@ -12860,21 +12860,21 @@
         <v>5.44</v>
       </c>
       <c r="I88" s="18">
-        <f>SUMIF(C$1:C$69,"="&amp;C88,B$1:B$69)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J88" s="33">
-        <f t="shared" ref="J88:J90" si="17">G88*B88-I88</f>
+        <f t="shared" ref="J88:J90" si="18">G88*B88-I88</f>
         <v>0</v>
       </c>
-      <c r="K88" s="35">
-        <f t="shared" si="2"/>
+      <c r="K88" s="34">
+        <f t="shared" si="3"/>
         <v>5.44</v>
       </c>
     </row>
     <row r="89" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B89" s="33">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="C89" t="s">
@@ -12890,21 +12890,21 @@
         <v>4.46</v>
       </c>
       <c r="I89" s="18">
-        <f>SUMIF(C$1:C$69,"="&amp;C89,B$1:B$69)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J89" s="33">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="K89" s="35">
-        <f t="shared" si="2"/>
+      <c r="K89" s="34">
+        <f t="shared" si="3"/>
         <v>4.46</v>
       </c>
     </row>
     <row r="90" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B90" s="33">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="C90" t="s">
@@ -12920,21 +12920,21 @@
         <v>5.01</v>
       </c>
       <c r="I90" s="18">
-        <f>SUMIF(C$1:C$69,"="&amp;C90,B$1:B$69)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J90" s="33">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="K90" s="35">
-        <f t="shared" si="2"/>
+      <c r="K90" s="34">
+        <f t="shared" si="3"/>
         <v>5.01</v>
       </c>
     </row>
     <row r="91" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B91" s="33">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="C91" t="s">
@@ -12950,15 +12950,15 @@
         <v>6.34</v>
       </c>
       <c r="I91" s="18">
-        <f>SUMIF(C$1:C$69,"="&amp;C91,B$1:B$69)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J91" s="33">
-        <f t="shared" ref="J91" si="18">G91*B91-I91</f>
+        <f t="shared" ref="J91" si="19">G91*B91-I91</f>
         <v>0</v>
       </c>
-      <c r="K91" s="35">
-        <f t="shared" ref="K91" si="19">B91*H91</f>
+      <c r="K91" s="34">
+        <f t="shared" ref="K91" si="20">B91*H91</f>
         <v>6.34</v>
       </c>
     </row>
@@ -12980,15 +12980,15 @@
         <v>4.96</v>
       </c>
       <c r="I92" s="18">
-        <f>SUMIF(C$1:C$69,"="&amp;C92,B$1:B$69)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J92" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K92" s="35">
-        <f t="shared" si="2"/>
+      <c r="K92" s="34">
+        <f t="shared" si="3"/>
         <v>4.96</v>
       </c>
     </row>
@@ -13010,15 +13010,15 @@
         <v>4.24</v>
       </c>
       <c r="I93" s="18">
-        <f>SUMIF(C$1:C$69,"="&amp;C93,B$1:B$69)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J93" s="33">
-        <f t="shared" ref="J93" si="20">G93*B93-I93</f>
+        <f t="shared" ref="J93" si="21">G93*B93-I93</f>
         <v>0</v>
       </c>
-      <c r="K93" s="35">
-        <f t="shared" si="2"/>
+      <c r="K93" s="34">
+        <f t="shared" si="3"/>
         <v>4.24</v>
       </c>
     </row>
@@ -13039,15 +13039,15 @@
         <v>14.5</v>
       </c>
       <c r="I94" s="18">
-        <f>SUMIF(C$1:C$69,"="&amp;C94,B$1:B$69)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J94" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K94" s="35">
-        <f t="shared" si="2"/>
+      <c r="K94" s="34">
+        <f t="shared" si="3"/>
         <v>14.5</v>
       </c>
     </row>
@@ -13068,21 +13068,21 @@
         <v>8.5</v>
       </c>
       <c r="I95" s="18">
-        <f>SUMIF(C$1:C$69,"="&amp;C95,B$1:B$69)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J95" s="33">
-        <f t="shared" ref="J95" si="21">G95*B95-I95</f>
+        <f t="shared" ref="J95" si="22">G95*B95-I95</f>
         <v>0</v>
       </c>
-      <c r="K95" s="35">
-        <f t="shared" ref="K95" si="22">B95*H95</f>
+      <c r="K95" s="34">
+        <f t="shared" ref="K95" si="23">B95*H95</f>
         <v>8.5</v>
       </c>
     </row>
     <row r="96" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B96" s="33">
-        <f>ROUNDUP(I96/G96,0)</f>
+        <f t="shared" ref="B96:B107" si="24">ROUNDUP(I96/G96,0)</f>
         <v>2</v>
       </c>
       <c r="C96" s="32" t="s">
@@ -13098,21 +13098,21 @@
         <v>14.53</v>
       </c>
       <c r="I96" s="18">
-        <f>SUMIF(C$1:C$69,"="&amp;C96,B$1:B$69)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="J96" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K96" s="35">
-        <f t="shared" si="2"/>
+      <c r="K96" s="34">
+        <f t="shared" si="3"/>
         <v>29.06</v>
       </c>
     </row>
     <row r="97" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B97" s="33">
-        <f>ROUNDUP(I97/G97,0)</f>
+        <f t="shared" si="24"/>
         <v>2</v>
       </c>
       <c r="C97" s="32" t="s">
@@ -13129,21 +13129,21 @@
         <v>1.54</v>
       </c>
       <c r="I97" s="18">
-        <f>SUMIF(C$1:C$69,"="&amp;C97,B$1:B$69)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="J97" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K97" s="35">
-        <f t="shared" si="2"/>
+      <c r="K97" s="34">
+        <f t="shared" si="3"/>
         <v>3.08</v>
       </c>
     </row>
     <row r="98" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B98" s="33">
-        <f>ROUNDUP(I98/G98,0)</f>
+        <f t="shared" si="24"/>
         <v>6</v>
       </c>
       <c r="C98" t="s">
@@ -13159,21 +13159,21 @@
         <v>1.95</v>
       </c>
       <c r="I98" s="18">
-        <f>SUMIF(C$1:C$69,"="&amp;C98,B$1:B$69)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="J98" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K98" s="35">
-        <f t="shared" si="2"/>
+      <c r="K98" s="34">
+        <f t="shared" si="3"/>
         <v>11.7</v>
       </c>
     </row>
     <row r="99" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B99" s="33">
-        <f>ROUNDUP(I99/G99,0)</f>
+        <f t="shared" si="24"/>
         <v>2</v>
       </c>
       <c r="C99" t="s">
@@ -13189,21 +13189,21 @@
         <v>1.39</v>
       </c>
       <c r="I99" s="18">
-        <f>SUMIF(C$1:C$69,"="&amp;C99,B$1:B$69)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="J99" s="33">
-        <f t="shared" ref="J99" si="23">G99*B99-I99</f>
+        <f t="shared" ref="J99" si="25">G99*B99-I99</f>
         <v>0</v>
       </c>
-      <c r="K99" s="35">
-        <f t="shared" si="2"/>
+      <c r="K99" s="34">
+        <f t="shared" si="3"/>
         <v>2.78</v>
       </c>
     </row>
     <row r="100" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B100" s="33">
-        <f>ROUNDUP(I100/G100,0)</f>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="C100" t="s">
@@ -13219,21 +13219,21 @@
         <v>3.29</v>
       </c>
       <c r="I100" s="18">
-        <f>SUMIF(C$1:C$69,"="&amp;C100,B$1:B$69)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J100" s="33">
-        <f t="shared" ref="J100" si="24">G100*B100-I100</f>
+        <f t="shared" ref="J100" si="26">G100*B100-I100</f>
         <v>0</v>
       </c>
-      <c r="K100" s="35">
-        <f t="shared" si="2"/>
+      <c r="K100" s="34">
+        <f t="shared" si="3"/>
         <v>3.29</v>
       </c>
     </row>
     <row r="101" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B101" s="33">
-        <f>ROUNDUP(I101/G101,0)</f>
+        <f t="shared" si="24"/>
         <v>2</v>
       </c>
       <c r="C101" s="32" t="s">
@@ -13249,21 +13249,21 @@
         <v>3.29</v>
       </c>
       <c r="I101" s="18">
-        <f>SUMIF(C$1:C$69,"="&amp;C101,B$1:B$69)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="J101" s="33">
-        <f t="shared" ref="J101" si="25">G101*B101-I101</f>
+        <f t="shared" ref="J101" si="27">G101*B101-I101</f>
         <v>0</v>
       </c>
-      <c r="K101" s="35">
-        <f t="shared" si="2"/>
+      <c r="K101" s="34">
+        <f t="shared" si="3"/>
         <v>6.58</v>
       </c>
     </row>
     <row r="102" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B102" s="33">
-        <f>ROUNDUP(I102/G102,0)</f>
+        <f t="shared" si="24"/>
         <v>2</v>
       </c>
       <c r="C102" t="s">
@@ -13279,21 +13279,21 @@
         <v>1</v>
       </c>
       <c r="I102" s="18">
-        <f>SUMIF(C$1:C$69,"="&amp;C102,B$1:B$69)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="J102" s="33">
-        <f t="shared" ref="J102" si="26">G102*B102-I102</f>
+        <f t="shared" ref="J102" si="28">G102*B102-I102</f>
         <v>0</v>
       </c>
-      <c r="K102" s="35">
-        <f t="shared" si="2"/>
+      <c r="K102" s="34">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
     <row r="103" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B103" s="33">
-        <f>ROUNDUP(I103/G103,0)</f>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="C103" t="s">
@@ -13309,21 +13309,21 @@
         <v>2.59</v>
       </c>
       <c r="I103" s="18">
-        <f>SUMIF(C$1:C$69,"="&amp;C103,B$1:B$69)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="J103" s="33">
-        <f t="shared" ref="J103" si="27">G103*B103-I103</f>
+        <f t="shared" ref="J103" si="29">G103*B103-I103</f>
         <v>8</v>
       </c>
-      <c r="K103" s="35">
-        <f t="shared" si="2"/>
+      <c r="K103" s="34">
+        <f t="shared" si="3"/>
         <v>2.59</v>
       </c>
     </row>
     <row r="104" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B104" s="33">
-        <f>ROUNDUP(I104/G104,0)</f>
+        <f t="shared" si="24"/>
         <v>4</v>
       </c>
       <c r="C104" s="32" t="s">
@@ -13339,21 +13339,21 @@
         <v>1.05</v>
       </c>
       <c r="I104" s="18">
-        <f>SUMIF(C$1:C$69,"="&amp;C104,B$1:B$69)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="J104" s="33">
-        <f t="shared" ref="J104" si="28">G104*B104-I104</f>
+        <f t="shared" ref="J104" si="30">G104*B104-I104</f>
         <v>0</v>
       </c>
-      <c r="K104" s="35">
-        <f t="shared" si="2"/>
+      <c r="K104" s="34">
+        <f t="shared" si="3"/>
         <v>4.2</v>
       </c>
     </row>
     <row r="105" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B105" s="33">
-        <f>ROUNDUP(I105/G105,0)</f>
+        <f t="shared" si="24"/>
         <v>2</v>
       </c>
       <c r="C105" t="s">
@@ -13369,28 +13369,28 @@
         <v>4.4400000000000004</v>
       </c>
       <c r="I105" s="18">
-        <f>SUMIF(C$1:C$69,"="&amp;C105,B$1:B$69)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="J105" s="33">
-        <f t="shared" ref="J105:J106" si="29">G105*B105-I105</f>
+        <f t="shared" ref="J105:J106" si="31">G105*B105-I105</f>
         <v>0</v>
       </c>
-      <c r="K105" s="35">
-        <f t="shared" si="2"/>
+      <c r="K105" s="34">
+        <f t="shared" si="3"/>
         <v>8.8800000000000008</v>
       </c>
     </row>
     <row r="106" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B106" s="33">
-        <f>ROUNDUP(I106/G106,0)</f>
-        <v>2</v>
+        <f t="shared" si="24"/>
+        <v>1</v>
       </c>
       <c r="C106" t="s">
+        <v>784</v>
+      </c>
+      <c r="E106" t="s">
         <v>776</v>
-      </c>
-      <c r="E106" t="s">
-        <v>777</v>
       </c>
       <c r="G106">
         <v>1</v>
@@ -13399,28 +13399,28 @@
         <v>0.4</v>
       </c>
       <c r="I106" s="18">
-        <f>SUMIF(C$1:C$69,"="&amp;C106,B$1:B$69)</f>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="J106" s="33">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="K106" s="35">
-        <f t="shared" si="2"/>
-        <v>0.8</v>
+      <c r="K106" s="34">
+        <f t="shared" si="3"/>
+        <v>0.4</v>
       </c>
     </row>
     <row r="107" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B107" s="33">
-        <f>ROUNDUP(I107/G107,0)</f>
-        <v>2</v>
+        <f t="shared" si="24"/>
+        <v>1</v>
       </c>
       <c r="C107" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="E107" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="G107">
         <v>1</v>
@@ -13429,22 +13429,22 @@
         <v>0.4</v>
       </c>
       <c r="I107" s="18">
-        <f>SUMIF(C$1:C$69,"="&amp;C107,B$1:B$69)</f>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="J107" s="33">
-        <f t="shared" ref="J107" si="30">G107*B107-I107</f>
+        <f t="shared" ref="J107" si="32">G107*B107-I107</f>
         <v>0</v>
       </c>
-      <c r="K107" s="35">
-        <f t="shared" ref="K107" si="31">B107*H107</f>
-        <v>0.8</v>
+      <c r="K107" s="34">
+        <f t="shared" ref="K107" si="33">B107*H107</f>
+        <v>0.4</v>
       </c>
     </row>
     <row r="108" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B108" s="33"/>
       <c r="D108" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="H108" s="22"/>
       <c r="I108" s="18"/>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Bezugsquellen" sheetId="2" r:id="rId1"/>
@@ -14,13 +14,14 @@
     <sheet name="Stepper" sheetId="4" r:id="rId5"/>
     <sheet name="Rotary Encoder" sheetId="6" r:id="rId6"/>
     <sheet name="BOM" sheetId="7" r:id="rId7"/>
+    <sheet name="DIN" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1728" uniqueCount="785">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1730" uniqueCount="786">
   <si>
     <t>Bauteilnummer</t>
   </si>
@@ -2375,6 +2376,9 @@
   </si>
   <si>
     <t>Zylinderkopfschraube Innensechskant M6 55mm</t>
+  </si>
+  <si>
+    <t>Muttern M2</t>
   </si>
 </sst>
 </file>
@@ -2759,6 +2763,159 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>10885</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>21772</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>174172</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Grafik 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect l="26792" t="21843" r="24756" b="16198"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10885" y="21772"/>
+          <a:ext cx="7108372" cy="4963886"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>54427</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>555171</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>21772</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Grafik 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect l="12127" t="18861" r="40630" b="22614"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="5050970"/>
+          <a:ext cx="6912428" cy="4593773"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>54428</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>80827</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>76198</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Grafik 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:srcRect l="6250" t="26534" r="6779" b="11873"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="54428" y="9518741"/>
+          <a:ext cx="8196943" cy="3141343"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>119744</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>468086</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>10888</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Grafik 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:srcRect l="12127" t="19138" r="35794" b="16235"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="12703630"/>
+          <a:ext cx="7620000" cy="5072744"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
   <a:themeElements>
@@ -11405,10 +11562,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K139"/>
+  <dimension ref="A1:K141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E94" sqref="E94"/>
+    <sheetView topLeftCell="A67" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11447,7 +11604,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="str">
-        <f>C72</f>
+        <f>C74</f>
         <v>Zylinderkopfschraube Innensechskant M3 22mm</v>
       </c>
       <c r="D3" t="s">
@@ -11481,7 +11638,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="str">
-        <f>C100</f>
+        <f>C102</f>
         <v>Rillenkugellager DIN 625 SKF - 61807 35x47x7mm</v>
       </c>
       <c r="D6" t="s">
@@ -11496,7 +11653,7 @@
         <v>4</v>
       </c>
       <c r="C7" t="str">
-        <f>C78</f>
+        <f>C79</f>
         <v>Senkkopfschraube Innensechskant M3 12mm</v>
       </c>
       <c r="D7" t="s">
@@ -11511,7 +11668,7 @@
         <v>4</v>
       </c>
       <c r="C8" t="str">
-        <f>C71</f>
+        <f>C72</f>
         <v>Zylinderkopfschraube Innensechskant M3 20mm</v>
       </c>
       <c r="D8" t="s">
@@ -11523,7 +11680,7 @@
         <v>4</v>
       </c>
       <c r="C9" t="str">
-        <f>C80</f>
+        <f>C81</f>
         <v>Muttern M3, Schlüsselweite 5.5 mm</v>
       </c>
       <c r="D9" t="s">
@@ -11535,7 +11692,7 @@
         <v>2</v>
       </c>
       <c r="C10" t="str">
-        <f>C99</f>
+        <f>C101</f>
         <v>Rillenkugellager DIN 625 SKF - 61902 15x28x7mm</v>
       </c>
       <c r="D10" t="s">
@@ -11552,7 +11709,7 @@
         <v>1</v>
       </c>
       <c r="C13" t="str">
-        <f>C87</f>
+        <f>C89</f>
         <v>Zahnriemenscheibe T2,5, 16 Zähne</v>
       </c>
       <c r="D13" t="s">
@@ -11566,7 +11723,7 @@
         <v>1</v>
       </c>
       <c r="C14" t="str">
-        <f>C88</f>
+        <f>C90</f>
         <v>Zahnriemenscheibe T2,5, 44 Zähne</v>
       </c>
       <c r="D14" t="s">
@@ -11580,7 +11737,7 @@
         <v>1</v>
       </c>
       <c r="C15" t="str">
-        <f>C87</f>
+        <f>C89</f>
         <v>Zahnriemenscheibe T2,5, 16 Zähne</v>
       </c>
       <c r="D15" t="s">
@@ -11594,7 +11751,7 @@
         <v>1</v>
       </c>
       <c r="C16" t="str">
-        <f>C89</f>
+        <f>C91</f>
         <v>Zahnriemenscheibe T2,5, 18 Zähne</v>
       </c>
       <c r="D16" t="s">
@@ -11608,7 +11765,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="str">
-        <f>C90</f>
+        <f>C92</f>
         <v>Zahnriemenscheibe T2,5, 14 Zähne</v>
       </c>
       <c r="D17" t="s">
@@ -11622,7 +11779,7 @@
         <v>1</v>
       </c>
       <c r="C18" t="str">
-        <f>C93</f>
+        <f>C95</f>
         <v>Zahnriemen T2,5 160mm</v>
       </c>
       <c r="D18" t="s">
@@ -11636,7 +11793,7 @@
         <v>46</v>
       </c>
       <c r="C19" t="str">
-        <f>C83</f>
+        <f>C85</f>
         <v>Silberstahlwelle 6mm Durchmesser</v>
       </c>
       <c r="D19" t="s">
@@ -11651,7 +11808,7 @@
         <v>2</v>
       </c>
       <c r="C20" t="str">
-        <f>C98</f>
+        <f>C100</f>
         <v>Rillenkugellager 6x10x3</v>
       </c>
       <c r="D20" t="s">
@@ -11666,7 +11823,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="32" t="str">
-        <f>C94</f>
+        <f>C96</f>
         <v>NEMA 17 - 42x42x21</v>
       </c>
       <c r="D21" s="32" t="s">
@@ -11695,7 +11852,7 @@
         <v>2</v>
       </c>
       <c r="C23" s="32" t="str">
-        <f>C81</f>
+        <f>C83</f>
         <v>Unterlegscheiben M3 Dicke 0,5mm</v>
       </c>
       <c r="D23" s="32" t="s">
@@ -11709,7 +11866,7 @@
         <v>1</v>
       </c>
       <c r="C24" s="32" t="str">
-        <f>C92</f>
+        <f>C94</f>
         <v>Zahnriemen T2,5 230mm</v>
       </c>
       <c r="D24" s="32" t="s">
@@ -11723,7 +11880,7 @@
         <v>1</v>
       </c>
       <c r="C25" s="32" t="str">
-        <f>C74</f>
+        <f>C75</f>
         <v>Zylinderkopfschraube Innensechskant M3 16mm</v>
       </c>
       <c r="D25" s="32" t="s">
@@ -11737,7 +11894,7 @@
         <v>2</v>
       </c>
       <c r="C26" s="32" t="str">
-        <f>C81</f>
+        <f>C83</f>
         <v>Unterlegscheiben M3 Dicke 0,5mm</v>
       </c>
       <c r="D26" s="32" t="s">
@@ -11751,7 +11908,7 @@
         <v>2</v>
       </c>
       <c r="C27" s="32" t="str">
-        <f>C97</f>
+        <f>C99</f>
         <v>Rillenkugellager  3.967 x 7.938 x 3.175 mm</v>
       </c>
       <c r="D27" s="32" t="s">
@@ -11765,7 +11922,7 @@
         <v>1</v>
       </c>
       <c r="C28" s="32" t="str">
-        <f>C79</f>
+        <f>C80</f>
         <v>Vierkant Mutter M3 Breite 5.5mm</v>
       </c>
       <c r="D28" s="32" t="s">
@@ -11780,7 +11937,7 @@
         <v>4</v>
       </c>
       <c r="C29" s="32" t="str">
-        <f>C75</f>
+        <f>C78</f>
         <v>Zylinderkopfschraube Innensechskant M2 6mm</v>
       </c>
       <c r="D29" s="32" t="s">
@@ -11792,29 +11949,29 @@
     </row>
     <row r="30" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C30" s="32" t="str">
-        <f>C96</f>
-        <v>Rotary Sensor</v>
+        <f>C82</f>
+        <v>Muttern M2</v>
       </c>
       <c r="D30" s="32" t="s">
-        <v>713</v>
-      </c>
-      <c r="E30" s="9"/>
+        <v>708</v>
+      </c>
+      <c r="E30"/>
       <c r="H30" s="22"/>
       <c r="I30" s="22"/>
     </row>
     <row r="31" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C31" s="32" t="str">
-        <f>C82</f>
-        <v>Unterlegscheiben M2 Dicke 0,5mm</v>
+        <f>C98</f>
+        <v>Rotary Sensor</v>
       </c>
       <c r="D31" s="32" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E31" s="9"/>
       <c r="H31" s="22"/>
@@ -11825,11 +11982,11 @@
         <v>2</v>
       </c>
       <c r="C32" s="32" t="str">
-        <f>C85</f>
-        <v>Distanzbolzen M3 20mm, Schlüsselweite 5mm</v>
+        <f>C84</f>
+        <v>Unterlegscheiben M2 Dicke 0,5mm</v>
       </c>
       <c r="D32" s="32" t="s">
-        <v>721</v>
+        <v>714</v>
       </c>
       <c r="E32" s="9"/>
       <c r="H32" s="22"/>
@@ -11837,15 +11994,16 @@
     </row>
     <row r="33" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C33" s="32" t="str">
-        <f>C81</f>
-        <v>Unterlegscheiben M3 Dicke 0,5mm</v>
+        <f>C87</f>
+        <v>Distanzbolzen M3 20mm, Schlüsselweite 5mm</v>
       </c>
       <c r="D33" s="32" t="s">
-        <v>722</v>
-      </c>
+        <v>721</v>
+      </c>
+      <c r="E33" s="9"/>
       <c r="H33" s="22"/>
       <c r="I33" s="22"/>
     </row>
@@ -11853,11 +12011,12 @@
       <c r="B34">
         <v>4</v>
       </c>
-      <c r="C34" s="32" t="s">
-        <v>723</v>
+      <c r="C34" s="32" t="str">
+        <f>C83</f>
+        <v>Unterlegscheiben M3 Dicke 0,5mm</v>
       </c>
       <c r="D34" s="32" t="s">
-        <v>743</v>
+        <v>722</v>
       </c>
       <c r="H34" s="22"/>
       <c r="I34" s="22"/>
@@ -11866,14 +12025,12 @@
       <c r="B35">
         <v>4</v>
       </c>
-      <c r="C35" s="32" t="str">
-        <f>C71</f>
-        <v>Zylinderkopfschraube Innensechskant M3 20mm</v>
+      <c r="C35" s="32" t="s">
+        <v>723</v>
       </c>
       <c r="D35" s="32" t="s">
-        <v>744</v>
-      </c>
-      <c r="E35" s="9"/>
+        <v>743</v>
+      </c>
       <c r="H35" s="22"/>
       <c r="I35" s="22"/>
     </row>
@@ -11882,92 +12039,93 @@
         <v>4</v>
       </c>
       <c r="C36" s="32" t="str">
-        <f>C81</f>
-        <v>Unterlegscheiben M3 Dicke 0,5mm</v>
+        <f>C72</f>
+        <v>Zylinderkopfschraube Innensechskant M3 20mm</v>
       </c>
       <c r="D36" s="32" t="s">
-        <v>743</v>
-      </c>
+        <v>744</v>
+      </c>
+      <c r="E36" s="9"/>
       <c r="H36" s="22"/>
       <c r="I36" s="22"/>
     </row>
     <row r="37" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C37" s="32"/>
-      <c r="D37" s="32"/>
+      <c r="B37">
+        <v>4</v>
+      </c>
+      <c r="C37" s="32" t="str">
+        <f>C83</f>
+        <v>Unterlegscheiben M3 Dicke 0,5mm</v>
+      </c>
+      <c r="D37" s="32" t="s">
+        <v>743</v>
+      </c>
       <c r="H37" s="22"/>
       <c r="I37" s="22"/>
     </row>
     <row r="38" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="6" t="s">
-        <v>740</v>
-      </c>
-      <c r="B38">
-        <v>2</v>
-      </c>
-      <c r="C38" s="32" t="str">
-        <f>C101</f>
-        <v>Rillenkugellager 35x47x7</v>
-      </c>
-      <c r="D38" s="32" t="s">
-        <v>742</v>
-      </c>
-      <c r="E38" s="9"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="32"/>
       <c r="H38" s="22"/>
       <c r="I38" s="22"/>
     </row>
     <row r="39" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="6" t="s">
+        <v>740</v>
+      </c>
       <c r="B39">
         <v>2</v>
       </c>
       <c r="C39" s="32" t="str">
-        <f>C102</f>
-        <v>RillenKugellager 6x19x6</v>
+        <f>C103</f>
+        <v>Rillenkugellager 35x47x7</v>
       </c>
       <c r="D39" s="32" t="s">
-        <v>747</v>
-      </c>
+        <v>742</v>
+      </c>
+      <c r="E39" s="9"/>
       <c r="H39" s="22"/>
       <c r="I39" s="22"/>
     </row>
     <row r="40" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C40" s="32" t="str">
-        <f>C98</f>
-        <v>Rillenkugellager 6x10x3</v>
+        <f>C104</f>
+        <v>RillenKugellager 6x19x6</v>
       </c>
       <c r="D40" s="32" t="s">
-        <v>748</v>
-      </c>
-      <c r="E40" s="9"/>
+        <v>747</v>
+      </c>
       <c r="H40" s="22"/>
       <c r="I40" s="22"/>
     </row>
     <row r="41" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C41" s="32" t="str">
-        <f>C103</f>
-        <v>Distanzhülsen M6 10mm</v>
+        <f>C100</f>
+        <v>Rillenkugellager 6x10x3</v>
       </c>
       <c r="D41" s="32" t="s">
-        <v>751</v>
-      </c>
+        <v>748</v>
+      </c>
+      <c r="E41" s="9"/>
       <c r="H41" s="22"/>
       <c r="I41" s="22"/>
     </row>
     <row r="42" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="C42" s="32" t="str">
-        <f>C83</f>
-        <v>Silberstahlwelle 6mm Durchmesser</v>
+        <f>C105</f>
+        <v>Distanzhülsen M6 10mm</v>
       </c>
       <c r="D42" s="32" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="H42" s="22"/>
       <c r="I42" s="22"/>
@@ -11977,26 +12135,25 @@
         <v>40</v>
       </c>
       <c r="C43" s="32" t="str">
-        <f>C84</f>
-        <v>Silberstahlwelle 3mm Durchmesser</v>
+        <f>C85</f>
+        <v>Silberstahlwelle 6mm Durchmesser</v>
       </c>
       <c r="D43" s="32" t="s">
-        <v>757</v>
-      </c>
-      <c r="E43" s="9"/>
+        <v>756</v>
+      </c>
       <c r="H43" s="22"/>
       <c r="I43" s="22"/>
     </row>
     <row r="44" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="C44" s="32" t="str">
-        <f>C104</f>
-        <v>Rillenkugellager 3x10x4</v>
+        <f>C86</f>
+        <v>Silberstahlwelle 3mm Durchmesser</v>
       </c>
       <c r="D44" s="32" t="s">
-        <v>754</v>
+        <v>757</v>
       </c>
       <c r="E44" s="9"/>
       <c r="H44" s="22"/>
@@ -12004,15 +12161,16 @@
     </row>
     <row r="45" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C45" s="32" t="str">
-        <f>C105</f>
-        <v>Zahnriemen T2,5 200m</v>
+        <f>C106</f>
+        <v>Rillenkugellager 3x10x4</v>
       </c>
       <c r="D45" s="32" t="s">
-        <v>760</v>
-      </c>
+        <v>754</v>
+      </c>
+      <c r="E45" s="9"/>
       <c r="H45" s="22"/>
       <c r="I45" s="22"/>
     </row>
@@ -12021,25 +12179,25 @@
         <v>1</v>
       </c>
       <c r="C46" s="32" t="str">
-        <f>C105</f>
+        <f>C107</f>
         <v>Zahnriemen T2,5 200m</v>
       </c>
       <c r="D46" s="32" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="H46" s="22"/>
       <c r="I46" s="22"/>
     </row>
     <row r="47" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C47" s="32" t="str">
-        <f>C72</f>
-        <v>Zylinderkopfschraube Innensechskant M3 22mm</v>
+        <f>C107</f>
+        <v>Zahnriemen T2,5 200m</v>
       </c>
       <c r="D47" s="32" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="H47" s="22"/>
       <c r="I47" s="22"/>
@@ -12049,27 +12207,27 @@
         <v>4</v>
       </c>
       <c r="C48" s="32" t="str">
-        <f>C80</f>
-        <v>Muttern M3, Schlüsselweite 5.5 mm</v>
+        <f>C74</f>
+        <v>Zylinderkopfschraube Innensechskant M3 22mm</v>
       </c>
       <c r="D48" s="32" t="s">
         <v>762</v>
       </c>
-      <c r="E48" s="9"/>
       <c r="H48" s="22"/>
       <c r="I48" s="22"/>
     </row>
     <row r="49" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C49" s="32" t="str">
-        <f>C72</f>
-        <v>Zylinderkopfschraube Innensechskant M3 22mm</v>
+        <f>C81</f>
+        <v>Muttern M3, Schlüsselweite 5.5 mm</v>
       </c>
       <c r="D49" s="32" t="s">
-        <v>763</v>
-      </c>
+        <v>762</v>
+      </c>
+      <c r="E49" s="9"/>
       <c r="H49" s="22"/>
       <c r="I49" s="22"/>
     </row>
@@ -12078,13 +12236,12 @@
         <v>2</v>
       </c>
       <c r="C50" s="32" t="str">
-        <f>C80</f>
-        <v>Muttern M3, Schlüsselweite 5.5 mm</v>
+        <f>C74</f>
+        <v>Zylinderkopfschraube Innensechskant M3 22mm</v>
       </c>
       <c r="D50" s="32" t="s">
         <v>763</v>
       </c>
-      <c r="E50" s="9"/>
       <c r="H50" s="22"/>
       <c r="I50" s="22"/>
     </row>
@@ -12093,12 +12250,13 @@
         <v>2</v>
       </c>
       <c r="C51" s="32" t="str">
-        <f>C77</f>
-        <v>Zylinderkopfschraube Innensechskant M3 12mm</v>
+        <f>C81</f>
+        <v>Muttern M3, Schlüsselweite 5.5 mm</v>
       </c>
       <c r="D51" s="32" t="s">
-        <v>766</v>
-      </c>
+        <v>763</v>
+      </c>
+      <c r="E51" s="9"/>
       <c r="H51" s="22"/>
       <c r="I51" s="22"/>
     </row>
@@ -12107,26 +12265,25 @@
         <v>2</v>
       </c>
       <c r="C52" s="32" t="str">
-        <f>C80</f>
-        <v>Muttern M3, Schlüsselweite 5.5 mm</v>
+        <f>C77</f>
+        <v>Zylinderkopfschraube Innensechskant M3 12mm</v>
       </c>
       <c r="D52" s="32" t="s">
         <v>766</v>
       </c>
-      <c r="E52" s="9"/>
       <c r="H52" s="22"/>
       <c r="I52" s="22"/>
     </row>
     <row r="53" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B53">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C53" s="32" t="str">
-        <f>C73</f>
-        <v>Zylinderkopfschraube Innensechskant M3 25mm</v>
+        <f>C81</f>
+        <v>Muttern M3, Schlüsselweite 5.5 mm</v>
       </c>
       <c r="D53" s="32" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="E53" s="9"/>
       <c r="H53" s="22"/>
@@ -12134,11 +12291,11 @@
     </row>
     <row r="54" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B54">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C54" s="32" t="str">
-        <f>C85</f>
-        <v>Distanzbolzen M3 20mm, Schlüsselweite 5mm</v>
+        <f>C73</f>
+        <v>Zylinderkopfschraube Innensechskant M3 25mm</v>
       </c>
       <c r="D54" s="32" t="s">
         <v>769</v>
@@ -12149,14 +12306,14 @@
     </row>
     <row r="55" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B55">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C55" s="32" t="str">
-        <f>C95</f>
-        <v>NEMA 17 - 42x42x33</v>
+        <f>C87</f>
+        <v>Distanzbolzen M3 20mm, Schlüsselweite 5mm</v>
       </c>
       <c r="D55" s="32" t="s">
-        <v>695</v>
+        <v>769</v>
       </c>
       <c r="E55" s="9"/>
       <c r="H55" s="22"/>
@@ -12167,11 +12324,11 @@
         <v>1</v>
       </c>
       <c r="C56" s="32" t="str">
-        <f>C87</f>
-        <v>Zahnriemenscheibe T2,5, 16 Zähne</v>
+        <f>C97</f>
+        <v>NEMA 17 - 42x42x33</v>
       </c>
       <c r="D56" s="32" t="s">
-        <v>772</v>
+        <v>695</v>
       </c>
       <c r="E56" s="9"/>
       <c r="H56" s="22"/>
@@ -12182,11 +12339,11 @@
         <v>1</v>
       </c>
       <c r="C57" s="32" t="str">
-        <f>C87</f>
+        <f>C89</f>
         <v>Zahnriemenscheibe T2,5, 16 Zähne</v>
       </c>
       <c r="D57" s="32" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E57" s="9"/>
       <c r="H57" s="22"/>
@@ -12197,8 +12354,8 @@
         <v>1</v>
       </c>
       <c r="C58" s="32" t="str">
-        <f>C91</f>
-        <v>Zahnriemenscheibe T2,5, 60 Zähne</v>
+        <f>C89</f>
+        <v>Zahnriemenscheibe T2,5, 16 Zähne</v>
       </c>
       <c r="D58" s="32" t="s">
         <v>773</v>
@@ -12212,11 +12369,11 @@
         <v>1</v>
       </c>
       <c r="C59" s="32" t="str">
-        <f>C106</f>
-        <v>Zylinderkopfschraube Innensechskant M6 55mm</v>
+        <f>C93</f>
+        <v>Zahnriemenscheibe T2,5, 60 Zähne</v>
       </c>
       <c r="D59" s="32" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="E59" s="9"/>
       <c r="H59" s="22"/>
@@ -12226,8 +12383,9 @@
       <c r="B60">
         <v>1</v>
       </c>
-      <c r="C60" s="32" t="s">
-        <v>778</v>
+      <c r="C60" s="32" t="str">
+        <f>C108</f>
+        <v>Zylinderkopfschraube Innensechskant M6 55mm</v>
       </c>
       <c r="D60" s="32" t="s">
         <v>777</v>
@@ -12240,20 +12398,27 @@
       <c r="B61">
         <v>1</v>
       </c>
-      <c r="C61" s="32" t="str">
-        <f>C96</f>
-        <v>Rotary Sensor</v>
+      <c r="C61" s="32" t="s">
+        <v>778</v>
       </c>
       <c r="D61" s="32" t="s">
-        <v>713</v>
+        <v>777</v>
       </c>
       <c r="E61" s="9"/>
       <c r="H61" s="22"/>
       <c r="I61" s="22"/>
     </row>
     <row r="62" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C62" s="32"/>
-      <c r="D62" s="32"/>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62" s="32" t="str">
+        <f>C98</f>
+        <v>Rotary Sensor</v>
+      </c>
+      <c r="D62" s="32" t="s">
+        <v>713</v>
+      </c>
       <c r="E62" s="9"/>
       <c r="H62" s="22"/>
       <c r="I62" s="22"/>
@@ -12301,73 +12466,50 @@
       <c r="I68" s="22"/>
     </row>
     <row r="69" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="6" t="s">
-        <v>5</v>
-      </c>
       <c r="C69" s="32"/>
+      <c r="D69" s="32"/>
       <c r="E69" s="9"/>
       <c r="H69" s="22"/>
       <c r="I69" s="22"/>
     </row>
     <row r="70" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B70" t="s">
-        <v>735</v>
+      <c r="A70" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="C70" s="32"/>
       <c r="E70" s="9"/>
-      <c r="G70" t="s">
+      <c r="H70" s="22"/>
+      <c r="I70" s="22"/>
+    </row>
+    <row r="71" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B71" t="s">
+        <v>735</v>
+      </c>
+      <c r="C71" s="32"/>
+      <c r="E71" s="9"/>
+      <c r="G71" t="s">
         <v>712</v>
       </c>
-      <c r="H70" s="22" t="s">
+      <c r="H71" s="22" t="s">
         <v>725</v>
       </c>
-      <c r="I70" s="22" t="s">
+      <c r="I71" s="22" t="s">
         <v>726</v>
       </c>
-      <c r="J70" t="s">
+      <c r="J71" t="s">
         <v>727</v>
       </c>
-      <c r="K70" t="s">
+      <c r="K71" t="s">
         <v>767</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="33">
-        <f t="shared" ref="B71:B85" si="0">ROUNDUP(I71/G71,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C71" s="32" t="s">
-        <v>662</v>
-      </c>
-      <c r="E71" s="9" t="s">
-        <v>724</v>
-      </c>
-      <c r="G71">
-        <v>100</v>
-      </c>
-      <c r="H71" s="22">
-        <v>1.79</v>
-      </c>
-      <c r="I71" s="18">
-        <f t="shared" ref="I71:I107" si="1">SUMIF(C$1:C$69,"="&amp;C71,B$1:B$69)</f>
-        <v>8</v>
-      </c>
-      <c r="J71" s="33">
-        <f>G71*B71-I71</f>
-        <v>92</v>
-      </c>
-      <c r="K71" s="34">
-        <f>B71*H71</f>
-        <v>1.79</v>
       </c>
     </row>
     <row r="72" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B72" s="33">
-        <f t="shared" ref="B72" si="2">ROUNDUP(I72/G72,0)</f>
+        <f t="shared" ref="B72:B87" si="0">ROUNDUP(I72/G72,0)</f>
         <v>1</v>
       </c>
       <c r="C72" s="32" t="s">
-        <v>733</v>
+        <v>662</v>
       </c>
       <c r="E72" s="9" t="s">
         <v>724</v>
@@ -12376,24 +12518,24 @@
         <v>100</v>
       </c>
       <c r="H72" s="22">
-        <v>1.71</v>
+        <v>1.79</v>
       </c>
       <c r="I72" s="18">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f>SUMIF(C$1:C$70,"="&amp;C72,B$1:B$70)</f>
+        <v>8</v>
       </c>
       <c r="J72" s="33">
         <f>G72*B72-I72</f>
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K72" s="34">
-        <f t="shared" ref="K72:K106" si="3">B72*H72</f>
-        <v>1.71</v>
+        <f>B72*H72</f>
+        <v>1.79</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B73" s="33">
-        <f t="shared" ref="B73" si="4">ROUNDUP(I73/G73,0)</f>
+        <f t="shared" ref="B73" si="1">ROUNDUP(I73/G73,0)</f>
         <v>1</v>
       </c>
       <c r="C73" s="32" t="s">
@@ -12409,7 +12551,7 @@
         <v>1.71</v>
       </c>
       <c r="I73" s="18">
-        <f t="shared" si="1"/>
+        <f>SUMIF(C$1:C$70,"="&amp;C73,B$1:B$70)</f>
         <v>6</v>
       </c>
       <c r="J73" s="33">
@@ -12417,39 +12559,38 @@
         <v>94</v>
       </c>
       <c r="K73" s="34">
-        <f t="shared" ref="K73" si="5">B73*H73</f>
+        <f t="shared" ref="K73" si="2">B73*H73</f>
         <v>1.71</v>
       </c>
     </row>
     <row r="74" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B74" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B74" si="3">ROUNDUP(I74/G74,0)</f>
         <v>1</v>
       </c>
       <c r="C74" s="32" t="s">
-        <v>701</v>
-      </c>
-      <c r="D74" s="32"/>
-      <c r="E74" s="29" t="s">
-        <v>702</v>
+        <v>733</v>
+      </c>
+      <c r="E74" s="9" t="s">
+        <v>724</v>
       </c>
       <c r="G74">
         <v>100</v>
       </c>
       <c r="H74" s="22">
-        <v>1.96</v>
+        <v>1.71</v>
       </c>
       <c r="I74" s="18">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>SUMIF(C$1:C$70,"="&amp;C74,B$1:B$70)</f>
+        <v>10</v>
       </c>
       <c r="J74" s="33">
-        <f t="shared" ref="J74:J98" si="6">G74*B74-I74</f>
-        <v>99</v>
+        <f>G74*B74-I74</f>
+        <v>90</v>
       </c>
       <c r="K74" s="34">
-        <f t="shared" si="3"/>
-        <v>1.96</v>
+        <f t="shared" ref="K74:K108" si="4">B74*H74</f>
+        <v>1.71</v>
       </c>
     </row>
     <row r="75" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -12458,28 +12599,29 @@
         <v>1</v>
       </c>
       <c r="C75" s="32" t="s">
-        <v>707</v>
-      </c>
-      <c r="E75" t="s">
-        <v>710</v>
+        <v>701</v>
+      </c>
+      <c r="D75" s="32"/>
+      <c r="E75" s="29" t="s">
+        <v>702</v>
       </c>
       <c r="G75">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="H75" s="22">
-        <v>0.99</v>
+        <v>1.96</v>
       </c>
       <c r="I75" s="18">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f>SUMIF(C$1:C$70,"="&amp;C75,B$1:B$70)</f>
+        <v>1</v>
       </c>
       <c r="J75" s="33">
-        <f t="shared" si="6"/>
-        <v>6</v>
+        <f t="shared" ref="J75:J100" si="5">G75*B75-I75</f>
+        <v>99</v>
       </c>
       <c r="K75" s="34">
-        <f t="shared" si="3"/>
-        <v>0.99</v>
+        <f t="shared" si="4"/>
+        <v>1.96</v>
       </c>
     </row>
     <row r="76" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -12500,21 +12642,21 @@
         <v>1.79</v>
       </c>
       <c r="I76" s="18">
-        <f t="shared" si="1"/>
+        <f>SUMIF(C$1:C$70,"="&amp;C76,B$1:B$70)</f>
         <v>2</v>
       </c>
       <c r="J76" s="33">
-        <f t="shared" ref="J76" si="7">G76*B76-I76</f>
+        <f t="shared" ref="J76" si="6">G76*B76-I76</f>
         <v>98</v>
       </c>
       <c r="K76" s="34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.79</v>
       </c>
     </row>
     <row r="77" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B77" s="33">
-        <f t="shared" ref="B77:B78" si="8">ROUNDUP(I77/G77,0)</f>
+        <f t="shared" ref="B77:B79" si="7">ROUNDUP(I77/G77,0)</f>
         <v>1</v>
       </c>
       <c r="C77" s="32" t="s">
@@ -12530,88 +12672,88 @@
         <v>1.63</v>
       </c>
       <c r="I77" s="18">
-        <f t="shared" si="1"/>
+        <f>SUMIF(C$1:C$70,"="&amp;C77,B$1:B$70)</f>
         <v>2</v>
       </c>
       <c r="J77" s="33">
-        <f t="shared" ref="J77:J78" si="9">G77*B77-I77</f>
+        <f t="shared" ref="J77:J79" si="8">G77*B77-I77</f>
         <v>98</v>
       </c>
       <c r="K77" s="34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.63</v>
       </c>
     </row>
     <row r="78" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B78" s="33">
-        <f t="shared" si="8"/>
+        <f>ROUNDUP(I78/G78,0)</f>
         <v>1</v>
       </c>
       <c r="C78" s="32" t="s">
-        <v>780</v>
+        <v>707</v>
       </c>
       <c r="E78" t="s">
-        <v>779</v>
+        <v>710</v>
       </c>
       <c r="G78">
         <v>10</v>
       </c>
       <c r="H78" s="22">
-        <v>2.35</v>
+        <v>0.99</v>
       </c>
       <c r="I78" s="18">
-        <f t="shared" si="1"/>
+        <f>SUMIF(C$1:C$70,"="&amp;C78,B$1:B$70)</f>
         <v>4</v>
       </c>
       <c r="J78" s="33">
-        <f t="shared" si="9"/>
+        <f>G78*B78-I78</f>
         <v>6</v>
       </c>
       <c r="K78" s="34">
-        <f t="shared" si="3"/>
-        <v>2.35</v>
+        <f>B78*H78</f>
+        <v>0.99</v>
       </c>
     </row>
     <row r="79" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B79" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C79" s="32" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="E79" t="s">
-        <v>651</v>
+        <v>779</v>
       </c>
       <c r="G79">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="H79" s="22">
-        <v>2.09</v>
+        <v>2.35</v>
       </c>
       <c r="I79" s="18">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>SUMIF(C$1:C$70,"="&amp;C79,B$1:B$70)</f>
+        <v>4</v>
       </c>
       <c r="J79" s="33">
-        <f t="shared" si="6"/>
-        <v>99</v>
+        <f t="shared" si="8"/>
+        <v>6</v>
       </c>
       <c r="K79" s="34">
-        <f t="shared" si="3"/>
-        <v>2.09</v>
+        <f t="shared" si="4"/>
+        <v>2.35</v>
       </c>
     </row>
     <row r="80" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B80" s="33">
-        <f t="shared" ref="B80" si="10">ROUNDUP(I80/G80,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C80" s="32" t="s">
-        <v>781</v>
-      </c>
-      <c r="E80" s="29" t="s">
-        <v>664</v>
+        <v>782</v>
+      </c>
+      <c r="E80" t="s">
+        <v>651</v>
       </c>
       <c r="G80">
         <v>100</v>
@@ -12620,397 +12762,394 @@
         <v>2.09</v>
       </c>
       <c r="I80" s="18">
-        <f t="shared" si="1"/>
-        <v>12</v>
+        <f>SUMIF(C$1:C$70,"="&amp;C80,B$1:B$70)</f>
+        <v>1</v>
       </c>
       <c r="J80" s="33">
-        <f t="shared" ref="J80" si="11">G80*B80-I80</f>
-        <v>88</v>
+        <f t="shared" si="5"/>
+        <v>99</v>
       </c>
       <c r="K80" s="34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.09</v>
       </c>
     </row>
     <row r="81" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B81" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B81" si="9">ROUNDUP(I81/G81,0)</f>
         <v>1</v>
       </c>
       <c r="C81" s="32" t="s">
-        <v>700</v>
+        <v>781</v>
       </c>
       <c r="E81" s="29" t="s">
-        <v>699</v>
+        <v>664</v>
       </c>
       <c r="G81">
         <v>100</v>
       </c>
       <c r="H81" s="22">
-        <v>1.79</v>
+        <v>2.09</v>
       </c>
       <c r="I81" s="18">
-        <f t="shared" si="1"/>
+        <f>SUMIF(C$1:C$70,"="&amp;C81,B$1:B$70)</f>
         <v>12</v>
       </c>
       <c r="J81" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="J81" si="10">G81*B81-I81</f>
         <v>88</v>
       </c>
       <c r="K81" s="34">
-        <f t="shared" si="3"/>
-        <v>1.79</v>
+        <f t="shared" si="4"/>
+        <v>2.09</v>
       </c>
     </row>
     <row r="82" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B82" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B82" si="11">ROUNDUP(I82/G82,0)</f>
         <v>1</v>
       </c>
       <c r="C82" s="32" t="s">
-        <v>715</v>
-      </c>
-      <c r="E82" s="9" t="s">
-        <v>716</v>
+        <v>785</v>
       </c>
       <c r="G82">
         <v>100</v>
       </c>
       <c r="H82" s="22">
-        <v>1.79</v>
+        <v>2.09</v>
       </c>
       <c r="I82" s="18">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f>SUMIF(C$1:C$70,"="&amp;C82,B$1:B$70)</f>
+        <v>4</v>
       </c>
       <c r="J82" s="33">
-        <f>G82*B82-I82</f>
-        <v>98</v>
+        <f t="shared" ref="J82" si="12">G82*B82-I82</f>
+        <v>96</v>
       </c>
       <c r="K82" s="34">
-        <f t="shared" si="3"/>
-        <v>1.79</v>
+        <f t="shared" ref="K82" si="13">B82*H82</f>
+        <v>2.09</v>
       </c>
     </row>
     <row r="83" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B83" s="33">
-        <f>ROUNDUP(I83/G83,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C83" t="s">
-        <v>728</v>
-      </c>
-      <c r="E83" s="26" t="s">
-        <v>693</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C83" s="32" t="s">
+        <v>700</v>
+      </c>
+      <c r="E83" s="29" t="s">
+        <v>699</v>
       </c>
       <c r="G83">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="H83" s="22">
-        <v>4.49</v>
+        <v>1.79</v>
       </c>
       <c r="I83" s="18">
-        <f t="shared" si="1"/>
-        <v>86</v>
+        <f>SUMIF(C$1:C$70,"="&amp;C83,B$1:B$70)</f>
+        <v>12</v>
       </c>
       <c r="J83" s="33">
-        <f t="shared" ref="J83" si="12">G83*B83-I83</f>
-        <v>414</v>
+        <f t="shared" si="5"/>
+        <v>88</v>
       </c>
       <c r="K83" s="34">
-        <f t="shared" si="3"/>
-        <v>4.49</v>
+        <f t="shared" si="4"/>
+        <v>1.79</v>
       </c>
     </row>
     <row r="84" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B84" s="33">
-        <f>ROUNDUP(I84/G84,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C84" t="s">
-        <v>755</v>
-      </c>
-      <c r="E84" s="26" t="s">
-        <v>648</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C84" s="32" t="s">
+        <v>715</v>
+      </c>
+      <c r="E84" s="9" t="s">
+        <v>716</v>
       </c>
       <c r="G84">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="H84" s="22">
-        <v>2.4900000000000002</v>
+        <v>1.79</v>
       </c>
       <c r="I84" s="18">
-        <f t="shared" si="1"/>
-        <v>40</v>
+        <f>SUMIF(C$1:C$70,"="&amp;C84,B$1:B$70)</f>
+        <v>2</v>
       </c>
       <c r="J84" s="33">
-        <f t="shared" ref="J84" si="13">G84*B84-I84</f>
-        <v>460</v>
+        <f>G84*B84-I84</f>
+        <v>98</v>
       </c>
       <c r="K84" s="34">
-        <f t="shared" si="3"/>
-        <v>2.4900000000000002</v>
+        <f t="shared" si="4"/>
+        <v>1.79</v>
       </c>
     </row>
     <row r="85" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B85" s="33">
+        <f>ROUNDUP(I85/G85,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C85" t="s">
+        <v>728</v>
+      </c>
+      <c r="E85" s="26" t="s">
+        <v>693</v>
+      </c>
+      <c r="G85">
+        <v>500</v>
+      </c>
+      <c r="H85" s="22">
+        <v>4.49</v>
+      </c>
+      <c r="I85" s="18">
+        <f>SUMIF(C$1:C$70,"="&amp;C85,B$1:B$70)</f>
+        <v>86</v>
+      </c>
+      <c r="J85" s="33">
+        <f t="shared" ref="J85" si="14">G85*B85-I85</f>
+        <v>414</v>
+      </c>
+      <c r="K85" s="34">
+        <f t="shared" si="4"/>
+        <v>4.49</v>
+      </c>
+    </row>
+    <row r="86" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="33">
+        <f>ROUNDUP(I86/G86,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C86" t="s">
+        <v>755</v>
+      </c>
+      <c r="E86" s="26" t="s">
+        <v>648</v>
+      </c>
+      <c r="G86">
+        <v>500</v>
+      </c>
+      <c r="H86" s="22">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="I86" s="18">
+        <f>SUMIF(C$1:C$70,"="&amp;C86,B$1:B$70)</f>
+        <v>40</v>
+      </c>
+      <c r="J86" s="33">
+        <f t="shared" ref="J86" si="15">G86*B86-I86</f>
+        <v>460</v>
+      </c>
+      <c r="K86" s="34">
+        <f t="shared" si="4"/>
+        <v>2.4900000000000002</v>
+      </c>
+    </row>
+    <row r="87" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B87" s="33">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C85" s="32" t="s">
+      <c r="C87" s="32" t="s">
         <v>783</v>
       </c>
-      <c r="E85" s="9" t="s">
+      <c r="E87" s="9" t="s">
         <v>720</v>
       </c>
-      <c r="G85">
-        <v>1</v>
-      </c>
-      <c r="H85" s="22">
+      <c r="G87">
+        <v>1</v>
+      </c>
+      <c r="H87" s="22">
         <v>0.15</v>
       </c>
-      <c r="I85" s="18">
-        <f t="shared" si="1"/>
+      <c r="I87" s="18">
+        <f>SUMIF(C$1:C$70,"="&amp;C87,B$1:B$70)</f>
         <v>5</v>
       </c>
-      <c r="J85" s="33">
-        <f t="shared" si="6"/>
+      <c r="J87" s="33">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K85" s="34">
-        <f t="shared" si="3"/>
+      <c r="K87" s="34">
+        <f t="shared" si="4"/>
         <v>0.75</v>
-      </c>
-    </row>
-    <row r="86" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="33">
-        <f t="shared" ref="B86" si="14">ROUNDUP(I86/G86,0)</f>
-        <v>4</v>
-      </c>
-      <c r="C86" t="s">
-        <v>656</v>
-      </c>
-      <c r="E86" s="29" t="s">
-        <v>734</v>
-      </c>
-      <c r="G86">
-        <v>1</v>
-      </c>
-      <c r="H86" s="22">
-        <v>0.08</v>
-      </c>
-      <c r="I86" s="18">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="J86" s="33">
-        <f t="shared" ref="J86" si="15">G86*B86-I86</f>
-        <v>0</v>
-      </c>
-      <c r="K86" s="34">
-        <f t="shared" si="3"/>
-        <v>0.32</v>
-      </c>
-    </row>
-    <row r="87" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="33">
-        <f t="shared" ref="B87:B91" si="16">ROUNDUP(I87/G87,0)</f>
-        <v>4</v>
-      </c>
-      <c r="C87" t="s">
-        <v>678</v>
-      </c>
-      <c r="E87" s="29" t="s">
-        <v>683</v>
-      </c>
-      <c r="G87">
-        <v>1</v>
-      </c>
-      <c r="H87" s="22">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="I87" s="18">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="J87" s="33">
-        <f t="shared" ref="J87" si="17">G87*B87-I87</f>
-        <v>0</v>
-      </c>
-      <c r="K87" s="34">
-        <f t="shared" si="3"/>
-        <v>20.399999999999999</v>
       </c>
     </row>
     <row r="88" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B88" s="33">
-        <f t="shared" si="16"/>
-        <v>1</v>
+        <f t="shared" ref="B88" si="16">ROUNDUP(I88/G88,0)</f>
+        <v>4</v>
       </c>
       <c r="C88" t="s">
-        <v>685</v>
+        <v>656</v>
       </c>
       <c r="E88" s="29" t="s">
-        <v>684</v>
+        <v>734</v>
       </c>
       <c r="G88">
         <v>1</v>
       </c>
       <c r="H88" s="22">
-        <v>5.44</v>
+        <v>0.08</v>
       </c>
       <c r="I88" s="18">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>SUMIF(C$1:C$70,"="&amp;C88,B$1:B$70)</f>
+        <v>4</v>
       </c>
       <c r="J88" s="33">
-        <f t="shared" ref="J88:J90" si="18">G88*B88-I88</f>
+        <f t="shared" ref="J88" si="17">G88*B88-I88</f>
         <v>0</v>
       </c>
       <c r="K88" s="34">
-        <f t="shared" si="3"/>
-        <v>5.44</v>
+        <f t="shared" si="4"/>
+        <v>0.32</v>
       </c>
     </row>
     <row r="89" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B89" s="33">
-        <f t="shared" si="16"/>
-        <v>1</v>
+        <f t="shared" ref="B89:B93" si="18">ROUNDUP(I89/G89,0)</f>
+        <v>4</v>
       </c>
       <c r="C89" t="s">
-        <v>729</v>
+        <v>678</v>
       </c>
       <c r="E89" s="29" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="G89">
         <v>1</v>
       </c>
       <c r="H89" s="22">
-        <v>4.46</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="I89" s="18">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>SUMIF(C$1:C$70,"="&amp;C89,B$1:B$70)</f>
+        <v>4</v>
       </c>
       <c r="J89" s="33">
-        <f t="shared" si="18"/>
+        <f t="shared" ref="J89" si="19">G89*B89-I89</f>
         <v>0</v>
       </c>
       <c r="K89" s="34">
-        <f t="shared" si="3"/>
-        <v>4.46</v>
+        <f t="shared" si="4"/>
+        <v>20.399999999999999</v>
       </c>
     </row>
     <row r="90" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B90" s="33">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="C90" t="s">
-        <v>730</v>
+        <v>685</v>
       </c>
       <c r="E90" s="29" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="G90">
         <v>1</v>
       </c>
       <c r="H90" s="22">
-        <v>5.01</v>
+        <v>5.44</v>
       </c>
       <c r="I90" s="18">
-        <f t="shared" si="1"/>
+        <f>SUMIF(C$1:C$70,"="&amp;C90,B$1:B$70)</f>
         <v>1</v>
       </c>
       <c r="J90" s="33">
-        <f t="shared" si="18"/>
+        <f t="shared" ref="J90:J92" si="20">G90*B90-I90</f>
         <v>0</v>
       </c>
       <c r="K90" s="34">
-        <f t="shared" si="3"/>
-        <v>5.01</v>
+        <f t="shared" si="4"/>
+        <v>5.44</v>
       </c>
     </row>
     <row r="91" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B91" s="33">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="C91" t="s">
-        <v>775</v>
-      </c>
-      <c r="E91" s="26" t="s">
-        <v>774</v>
+        <v>729</v>
+      </c>
+      <c r="E91" s="29" t="s">
+        <v>688</v>
       </c>
       <c r="G91">
         <v>1</v>
       </c>
       <c r="H91" s="22">
-        <v>6.34</v>
+        <v>4.46</v>
       </c>
       <c r="I91" s="18">
-        <f t="shared" si="1"/>
+        <f>SUMIF(C$1:C$70,"="&amp;C91,B$1:B$70)</f>
         <v>1</v>
       </c>
       <c r="J91" s="33">
-        <f t="shared" ref="J91" si="19">G91*B91-I91</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="K91" s="34">
-        <f t="shared" ref="K91" si="20">B91*H91</f>
-        <v>6.34</v>
+        <f t="shared" si="4"/>
+        <v>4.46</v>
       </c>
     </row>
     <row r="92" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B92" s="33">
-        <v>1</v>
-      </c>
-      <c r="C92" s="32" t="s">
-        <v>704</v>
-      </c>
-      <c r="D92" s="32"/>
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="C92" t="s">
+        <v>730</v>
+      </c>
       <c r="E92" s="29" t="s">
-        <v>706</v>
+        <v>686</v>
       </c>
       <c r="G92">
         <v>1</v>
       </c>
       <c r="H92" s="22">
-        <v>4.96</v>
+        <v>5.01</v>
       </c>
       <c r="I92" s="18">
-        <f t="shared" si="1"/>
+        <f>SUMIF(C$1:C$70,"="&amp;C92,B$1:B$70)</f>
         <v>1</v>
       </c>
       <c r="J92" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="K92" s="34">
-        <f t="shared" si="3"/>
-        <v>4.96</v>
+        <f t="shared" si="4"/>
+        <v>5.01</v>
       </c>
     </row>
     <row r="93" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B93" s="33">
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="C93" t="s">
-        <v>689</v>
-      </c>
-      <c r="D93" s="32"/>
-      <c r="E93" s="29" t="s">
-        <v>732</v>
+        <v>775</v>
+      </c>
+      <c r="E93" s="26" t="s">
+        <v>774</v>
       </c>
       <c r="G93">
         <v>1</v>
       </c>
       <c r="H93" s="22">
-        <v>4.24</v>
+        <v>6.34</v>
       </c>
       <c r="I93" s="18">
-        <f t="shared" si="1"/>
+        <f>SUMIF(C$1:C$70,"="&amp;C93,B$1:B$70)</f>
         <v>1</v>
       </c>
       <c r="J93" s="33">
@@ -13018,8 +13157,8 @@
         <v>0</v>
       </c>
       <c r="K93" s="34">
-        <f t="shared" si="3"/>
-        <v>4.24</v>
+        <f t="shared" ref="K93" si="22">B93*H93</f>
+        <v>6.34</v>
       </c>
     </row>
     <row r="94" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -13027,229 +13166,229 @@
         <v>1</v>
       </c>
       <c r="C94" s="32" t="s">
-        <v>694</v>
-      </c>
-      <c r="E94" s="26" t="s">
-        <v>696</v>
+        <v>704</v>
+      </c>
+      <c r="D94" s="32"/>
+      <c r="E94" s="29" t="s">
+        <v>706</v>
       </c>
       <c r="G94">
         <v>1</v>
       </c>
       <c r="H94" s="22">
-        <v>14.5</v>
+        <v>4.96</v>
       </c>
       <c r="I94" s="18">
-        <f t="shared" si="1"/>
+        <f>SUMIF(C$1:C$70,"="&amp;C94,B$1:B$70)</f>
         <v>1</v>
       </c>
       <c r="J94" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K94" s="34">
-        <f t="shared" si="3"/>
-        <v>14.5</v>
+        <f t="shared" si="4"/>
+        <v>4.96</v>
       </c>
     </row>
     <row r="95" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B95" s="33">
         <v>1</v>
       </c>
-      <c r="C95" s="32" t="s">
-        <v>770</v>
-      </c>
-      <c r="E95" s="26" t="s">
-        <v>771</v>
+      <c r="C95" t="s">
+        <v>689</v>
+      </c>
+      <c r="D95" s="32"/>
+      <c r="E95" s="29" t="s">
+        <v>732</v>
       </c>
       <c r="G95">
         <v>1</v>
       </c>
       <c r="H95" s="22">
-        <v>8.5</v>
+        <v>4.24</v>
       </c>
       <c r="I95" s="18">
-        <f t="shared" si="1"/>
+        <f>SUMIF(C$1:C$70,"="&amp;C95,B$1:B$70)</f>
         <v>1</v>
       </c>
       <c r="J95" s="33">
-        <f t="shared" ref="J95" si="22">G95*B95-I95</f>
+        <f t="shared" ref="J95" si="23">G95*B95-I95</f>
         <v>0</v>
       </c>
       <c r="K95" s="34">
-        <f t="shared" ref="K95" si="23">B95*H95</f>
-        <v>8.5</v>
+        <f t="shared" si="4"/>
+        <v>4.24</v>
       </c>
     </row>
     <row r="96" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B96" s="33">
-        <f t="shared" ref="B96:B107" si="24">ROUNDUP(I96/G96,0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C96" s="32" t="s">
-        <v>709</v>
-      </c>
-      <c r="E96" s="9" t="s">
-        <v>562</v>
+        <v>694</v>
+      </c>
+      <c r="E96" s="26" t="s">
+        <v>696</v>
       </c>
       <c r="G96">
         <v>1</v>
       </c>
       <c r="H96" s="22">
-        <v>14.53</v>
+        <v>14.5</v>
       </c>
       <c r="I96" s="18">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f>SUMIF(C$1:C$70,"="&amp;C96,B$1:B$70)</f>
+        <v>1</v>
       </c>
       <c r="J96" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K96" s="34">
-        <f t="shared" si="3"/>
-        <v>29.06</v>
+        <f t="shared" si="4"/>
+        <v>14.5</v>
       </c>
     </row>
     <row r="97" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B97" s="33">
-        <f t="shared" si="24"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C97" s="32" t="s">
-        <v>719</v>
-      </c>
-      <c r="D97" s="32"/>
-      <c r="E97" s="29" t="s">
-        <v>717</v>
+        <v>770</v>
+      </c>
+      <c r="E97" s="26" t="s">
+        <v>771</v>
       </c>
       <c r="G97">
         <v>1</v>
       </c>
       <c r="H97" s="22">
-        <v>1.54</v>
+        <v>8.5</v>
       </c>
       <c r="I97" s="18">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f>SUMIF(C$1:C$70,"="&amp;C97,B$1:B$70)</f>
+        <v>1</v>
       </c>
       <c r="J97" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="J97" si="24">G97*B97-I97</f>
         <v>0</v>
       </c>
       <c r="K97" s="34">
-        <f t="shared" si="3"/>
-        <v>3.08</v>
+        <f t="shared" ref="K97" si="25">B97*H97</f>
+        <v>8.5</v>
       </c>
     </row>
     <row r="98" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B98" s="33">
-        <f t="shared" si="24"/>
-        <v>6</v>
-      </c>
-      <c r="C98" t="s">
-        <v>691</v>
-      </c>
-      <c r="E98" s="26" t="s">
-        <v>690</v>
+        <f t="shared" ref="B98:B109" si="26">ROUNDUP(I98/G98,0)</f>
+        <v>2</v>
+      </c>
+      <c r="C98" s="32" t="s">
+        <v>709</v>
+      </c>
+      <c r="E98" s="9" t="s">
+        <v>562</v>
       </c>
       <c r="G98">
         <v>1</v>
       </c>
       <c r="H98" s="22">
-        <v>1.95</v>
+        <v>14.53</v>
       </c>
       <c r="I98" s="18">
-        <f t="shared" si="1"/>
-        <v>6</v>
+        <f>SUMIF(C$1:C$70,"="&amp;C98,B$1:B$70)</f>
+        <v>2</v>
       </c>
       <c r="J98" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K98" s="34">
-        <f t="shared" si="3"/>
-        <v>11.7</v>
+        <f t="shared" si="4"/>
+        <v>29.06</v>
       </c>
     </row>
     <row r="99" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B99" s="33">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>2</v>
       </c>
-      <c r="C99" t="s">
-        <v>666</v>
-      </c>
+      <c r="C99" s="32" t="s">
+        <v>719</v>
+      </c>
+      <c r="D99" s="32"/>
       <c r="E99" s="29" t="s">
-        <v>668</v>
+        <v>717</v>
       </c>
       <c r="G99">
         <v>1</v>
       </c>
       <c r="H99" s="22">
-        <v>1.39</v>
+        <v>1.54</v>
       </c>
       <c r="I99" s="18">
-        <f t="shared" si="1"/>
+        <f>SUMIF(C$1:C$70,"="&amp;C99,B$1:B$70)</f>
         <v>2</v>
       </c>
       <c r="J99" s="33">
-        <f t="shared" ref="J99" si="25">G99*B99-I99</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K99" s="34">
-        <f t="shared" si="3"/>
-        <v>2.78</v>
+        <f t="shared" si="4"/>
+        <v>3.08</v>
       </c>
     </row>
     <row r="100" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B100" s="33">
-        <f t="shared" si="24"/>
-        <v>1</v>
+        <f t="shared" si="26"/>
+        <v>6</v>
       </c>
       <c r="C100" t="s">
-        <v>658</v>
-      </c>
-      <c r="E100" s="29" t="s">
-        <v>557</v>
+        <v>691</v>
+      </c>
+      <c r="E100" s="26" t="s">
+        <v>690</v>
       </c>
       <c r="G100">
         <v>1</v>
       </c>
       <c r="H100" s="22">
-        <v>3.29</v>
+        <v>1.95</v>
       </c>
       <c r="I100" s="18">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>SUMIF(C$1:C$70,"="&amp;C100,B$1:B$70)</f>
+        <v>6</v>
       </c>
       <c r="J100" s="33">
-        <f t="shared" ref="J100" si="26">G100*B100-I100</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K100" s="34">
-        <f t="shared" si="3"/>
-        <v>3.29</v>
+        <f t="shared" si="4"/>
+        <v>11.7</v>
       </c>
     </row>
     <row r="101" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B101" s="33">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>2</v>
       </c>
-      <c r="C101" s="32" t="s">
-        <v>741</v>
-      </c>
-      <c r="E101" s="26" t="s">
-        <v>557</v>
+      <c r="C101" t="s">
+        <v>666</v>
+      </c>
+      <c r="E101" s="29" t="s">
+        <v>668</v>
       </c>
       <c r="G101">
         <v>1</v>
       </c>
       <c r="H101" s="22">
-        <v>3.29</v>
+        <v>1.39</v>
       </c>
       <c r="I101" s="18">
-        <f t="shared" si="1"/>
+        <f>SUMIF(C$1:C$70,"="&amp;C101,B$1:B$70)</f>
         <v>2</v>
       </c>
       <c r="J101" s="33">
@@ -13257,209 +13396,255 @@
         <v>0</v>
       </c>
       <c r="K101" s="34">
-        <f t="shared" si="3"/>
-        <v>6.58</v>
+        <f t="shared" si="4"/>
+        <v>2.78</v>
       </c>
     </row>
     <row r="102" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B102" s="33">
-        <f t="shared" si="24"/>
-        <v>2</v>
+        <f t="shared" si="26"/>
+        <v>1</v>
       </c>
       <c r="C102" t="s">
-        <v>745</v>
-      </c>
-      <c r="E102" s="26" t="s">
-        <v>746</v>
+        <v>658</v>
+      </c>
+      <c r="E102" s="29" t="s">
+        <v>557</v>
       </c>
       <c r="G102">
         <v>1</v>
       </c>
       <c r="H102" s="22">
-        <v>1</v>
+        <v>3.29</v>
       </c>
       <c r="I102" s="18">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f>SUMIF(C$1:C$70,"="&amp;C102,B$1:B$70)</f>
+        <v>1</v>
       </c>
       <c r="J102" s="33">
         <f t="shared" ref="J102" si="28">G102*B102-I102</f>
         <v>0</v>
       </c>
       <c r="K102" s="34">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="4"/>
+        <v>3.29</v>
       </c>
     </row>
     <row r="103" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B103" s="33">
-        <f t="shared" si="24"/>
-        <v>1</v>
-      </c>
-      <c r="C103" t="s">
-        <v>749</v>
+        <f t="shared" si="26"/>
+        <v>2</v>
+      </c>
+      <c r="C103" s="32" t="s">
+        <v>741</v>
       </c>
       <c r="E103" s="26" t="s">
-        <v>750</v>
+        <v>557</v>
       </c>
       <c r="G103">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H103" s="22">
-        <v>2.59</v>
+        <v>3.29</v>
       </c>
       <c r="I103" s="18">
-        <f t="shared" si="1"/>
+        <f>SUMIF(C$1:C$70,"="&amp;C103,B$1:B$70)</f>
         <v>2</v>
       </c>
       <c r="J103" s="33">
         <f t="shared" ref="J103" si="29">G103*B103-I103</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K103" s="34">
-        <f t="shared" si="3"/>
-        <v>2.59</v>
+        <f t="shared" si="4"/>
+        <v>6.58</v>
       </c>
     </row>
     <row r="104" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B104" s="33">
-        <f t="shared" si="24"/>
-        <v>4</v>
-      </c>
-      <c r="C104" s="32" t="s">
-        <v>753</v>
+        <f t="shared" si="26"/>
+        <v>2</v>
+      </c>
+      <c r="C104" t="s">
+        <v>745</v>
       </c>
       <c r="E104" s="26" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="G104">
         <v>1</v>
       </c>
       <c r="H104" s="22">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="I104" s="18">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f>SUMIF(C$1:C$70,"="&amp;C104,B$1:B$70)</f>
+        <v>2</v>
       </c>
       <c r="J104" s="33">
         <f t="shared" ref="J104" si="30">G104*B104-I104</f>
         <v>0</v>
       </c>
       <c r="K104" s="34">
-        <f t="shared" si="3"/>
-        <v>4.2</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B105" s="33">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="C105" t="s">
+        <v>749</v>
+      </c>
+      <c r="E105" s="26" t="s">
+        <v>750</v>
+      </c>
+      <c r="G105">
+        <v>10</v>
+      </c>
+      <c r="H105" s="22">
+        <v>2.59</v>
+      </c>
+      <c r="I105" s="18">
+        <f>SUMIF(C$1:C$70,"="&amp;C105,B$1:B$70)</f>
         <v>2</v>
       </c>
-      <c r="C105" t="s">
-        <v>759</v>
-      </c>
-      <c r="E105" s="26" t="s">
-        <v>758</v>
-      </c>
-      <c r="G105">
-        <v>1</v>
-      </c>
-      <c r="H105" s="22">
-        <v>4.4400000000000004</v>
-      </c>
-      <c r="I105" s="18">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
       <c r="J105" s="33">
-        <f t="shared" ref="J105:J106" si="31">G105*B105-I105</f>
-        <v>0</v>
+        <f t="shared" ref="J105" si="31">G105*B105-I105</f>
+        <v>8</v>
       </c>
       <c r="K105" s="34">
-        <f t="shared" si="3"/>
-        <v>8.8800000000000008</v>
+        <f t="shared" si="4"/>
+        <v>2.59</v>
       </c>
     </row>
     <row r="106" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B106" s="33">
-        <f t="shared" si="24"/>
-        <v>1</v>
-      </c>
-      <c r="C106" t="s">
-        <v>784</v>
-      </c>
-      <c r="E106" t="s">
-        <v>776</v>
+        <f t="shared" si="26"/>
+        <v>4</v>
+      </c>
+      <c r="C106" s="32" t="s">
+        <v>753</v>
+      </c>
+      <c r="E106" s="26" t="s">
+        <v>752</v>
       </c>
       <c r="G106">
         <v>1</v>
       </c>
       <c r="H106" s="22">
-        <v>0.4</v>
+        <v>1.05</v>
       </c>
       <c r="I106" s="18">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>SUMIF(C$1:C$70,"="&amp;C106,B$1:B$70)</f>
+        <v>4</v>
       </c>
       <c r="J106" s="33">
-        <f t="shared" si="31"/>
+        <f t="shared" ref="J106" si="32">G106*B106-I106</f>
         <v>0</v>
       </c>
       <c r="K106" s="34">
-        <f t="shared" si="3"/>
-        <v>0.4</v>
+        <f t="shared" si="4"/>
+        <v>4.2</v>
       </c>
     </row>
     <row r="107" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B107" s="33">
-        <f t="shared" si="24"/>
-        <v>1</v>
+        <f t="shared" si="26"/>
+        <v>2</v>
       </c>
       <c r="C107" t="s">
+        <v>759</v>
+      </c>
+      <c r="E107" s="26" t="s">
+        <v>758</v>
+      </c>
+      <c r="G107">
+        <v>1</v>
+      </c>
+      <c r="H107" s="22">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="I107" s="18">
+        <f>SUMIF(C$1:C$70,"="&amp;C107,B$1:B$70)</f>
+        <v>2</v>
+      </c>
+      <c r="J107" s="33">
+        <f t="shared" ref="J107:J108" si="33">G107*B107-I107</f>
+        <v>0</v>
+      </c>
+      <c r="K107" s="34">
+        <f t="shared" si="4"/>
+        <v>8.8800000000000008</v>
+      </c>
+    </row>
+    <row r="108" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B108" s="33">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="C108" t="s">
+        <v>784</v>
+      </c>
+      <c r="E108" t="s">
+        <v>776</v>
+      </c>
+      <c r="G108">
+        <v>1</v>
+      </c>
+      <c r="H108" s="22">
+        <v>0.4</v>
+      </c>
+      <c r="I108" s="18">
+        <f>SUMIF(C$1:C$70,"="&amp;C108,B$1:B$70)</f>
+        <v>1</v>
+      </c>
+      <c r="J108" s="33">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="K108" s="34">
+        <f t="shared" si="4"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="109" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B109" s="33">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="C109" t="s">
         <v>778</v>
       </c>
-      <c r="E107" t="s">
+      <c r="E109" t="s">
         <v>776</v>
       </c>
-      <c r="G107">
-        <v>1</v>
-      </c>
-      <c r="H107" s="22">
+      <c r="G109">
+        <v>1</v>
+      </c>
+      <c r="H109" s="22">
         <v>0.4</v>
       </c>
-      <c r="I107" s="18">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="J107" s="33">
-        <f t="shared" ref="J107" si="32">G107*B107-I107</f>
+      <c r="I109" s="18">
+        <f>SUMIF(C$1:C$70,"="&amp;C109,B$1:B$70)</f>
+        <v>1</v>
+      </c>
+      <c r="J109" s="33">
+        <f t="shared" ref="J109" si="34">G109*B109-I109</f>
         <v>0</v>
       </c>
-      <c r="K107" s="34">
-        <f t="shared" ref="K107" si="33">B107*H107</f>
+      <c r="K109" s="34">
+        <f t="shared" ref="K109" si="35">B109*H109</f>
         <v>0.4</v>
       </c>
-    </row>
-    <row r="108" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B108" s="33"/>
-      <c r="D108" t="s">
-        <v>776</v>
-      </c>
-      <c r="H108" s="22"/>
-      <c r="I108" s="18"/>
-      <c r="J108" s="33"/>
-    </row>
-    <row r="109" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B109" s="33"/>
-      <c r="E109" s="26"/>
-      <c r="H109" s="22"/>
-      <c r="I109" s="18"/>
-      <c r="J109" s="33"/>
     </row>
     <row r="110" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B110" s="33"/>
-      <c r="E110" s="26"/>
+      <c r="D110" t="s">
+        <v>776</v>
+      </c>
       <c r="H110" s="22"/>
       <c r="I110" s="18"/>
       <c r="J110" s="33"/>
@@ -13485,73 +13670,39 @@
       <c r="I113" s="18"/>
       <c r="J113" s="33"/>
     </row>
-    <row r="114" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C114" t="s">
+    <row r="114" spans="2:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B114" s="33"/>
+      <c r="E114" s="26"/>
+      <c r="H114" s="22"/>
+      <c r="I114" s="18"/>
+      <c r="J114" s="33"/>
+    </row>
+    <row r="115" spans="2:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B115" s="33"/>
+      <c r="E115" s="26"/>
+      <c r="H115" s="22"/>
+      <c r="I115" s="18"/>
+      <c r="J115" s="33"/>
+    </row>
+    <row r="116" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C116" t="s">
         <v>606</v>
       </c>
-      <c r="D114" s="6" t="s">
+      <c r="D116" s="6" t="s">
         <v>599</v>
       </c>
-      <c r="E114" s="29" t="s">
+      <c r="E116" s="29" t="s">
         <v>554</v>
       </c>
-      <c r="F114">
+      <c r="F116">
         <v>0.28999999999999998</v>
       </c>
-      <c r="H114" s="22">
+      <c r="H116" s="22">
         <v>26.88</v>
       </c>
-      <c r="I114" s="22">
-        <f>H114*B115</f>
+      <c r="I116" s="22">
+        <f>H116*B117</f>
         <v>26.88</v>
-      </c>
-    </row>
-    <row r="115" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B115">
-        <v>1</v>
-      </c>
-      <c r="C115" t="s">
-        <v>608</v>
-      </c>
-      <c r="D115" t="s">
-        <v>609</v>
-      </c>
-      <c r="E115" s="30" t="s">
-        <v>607</v>
-      </c>
-      <c r="F115">
-        <v>0</v>
-      </c>
-      <c r="H115">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="I115" s="22">
-        <f>H115*B116</f>
-        <v>6.8999999999999995</v>
-      </c>
-    </row>
-    <row r="116" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B116">
-        <v>6</v>
-      </c>
-      <c r="C116" t="s">
-        <v>612</v>
-      </c>
-      <c r="D116" t="s">
-        <v>610</v>
-      </c>
-      <c r="E116" s="29" t="s">
-        <v>611</v>
-      </c>
-      <c r="F116">
-        <v>0</v>
-      </c>
-      <c r="H116">
-        <f>I116/10</f>
-        <v>0.251</v>
-      </c>
-      <c r="I116">
-        <v>2.5099999999999998</v>
       </c>
     </row>
     <row r="117" spans="2:10" x14ac:dyDescent="0.3">
@@ -13559,101 +13710,113 @@
         <v>1</v>
       </c>
       <c r="C117" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="D117" t="s">
-        <v>614</v>
-      </c>
-      <c r="E117" s="26" t="s">
-        <v>473</v>
+        <v>609</v>
+      </c>
+      <c r="E117" s="30" t="s">
+        <v>607</v>
       </c>
       <c r="F117">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="H117">
-        <v>18</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="I117" s="22">
         <f>H117*B118</f>
-        <v>18</v>
+        <v>6.8999999999999995</v>
       </c>
     </row>
     <row r="118" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B118">
-        <v>1</v>
-      </c>
-      <c r="E118" s="26"/>
-      <c r="I118" s="22"/>
+        <v>6</v>
+      </c>
+      <c r="C118" t="s">
+        <v>612</v>
+      </c>
+      <c r="D118" t="s">
+        <v>610</v>
+      </c>
+      <c r="E118" s="29" t="s">
+        <v>611</v>
+      </c>
+      <c r="F118">
+        <v>0</v>
+      </c>
+      <c r="H118">
+        <f>I118/10</f>
+        <v>0.251</v>
+      </c>
+      <c r="I118">
+        <v>2.5099999999999998</v>
+      </c>
     </row>
     <row r="119" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B119">
+        <v>1</v>
+      </c>
       <c r="C119" t="s">
-        <v>616</v>
-      </c>
-      <c r="D119" s="6" t="s">
-        <v>617</v>
+        <v>615</v>
+      </c>
+      <c r="D119" t="s">
+        <v>614</v>
       </c>
       <c r="E119" s="26" t="s">
-        <v>544</v>
+        <v>473</v>
       </c>
       <c r="F119">
-        <v>1.34</v>
+        <v>0.7</v>
       </c>
       <c r="H119">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="I119" s="22">
         <f>H119*B120</f>
-        <v>37</v>
+        <v>18</v>
       </c>
     </row>
     <row r="120" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B120">
         <v>1</v>
       </c>
-      <c r="C120" t="s">
-        <v>639</v>
-      </c>
-      <c r="D120" s="8" t="s">
-        <v>642</v>
-      </c>
-      <c r="E120" s="29" t="s">
-        <v>640</v>
-      </c>
-      <c r="F120">
-        <v>0</v>
-      </c>
+      <c r="E120" s="26"/>
       <c r="I120" s="22"/>
     </row>
     <row r="121" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B121">
-        <v>2</v>
-      </c>
       <c r="C121" t="s">
-        <v>649</v>
-      </c>
-      <c r="D121" t="s">
-        <v>632</v>
+        <v>616</v>
+      </c>
+      <c r="D121" s="6" t="s">
+        <v>617</v>
       </c>
       <c r="E121" s="26" t="s">
-        <v>648</v>
+        <v>544</v>
       </c>
       <c r="F121">
-        <v>0</v>
-      </c>
-      <c r="I121" s="22"/>
+        <v>1.34</v>
+      </c>
+      <c r="H121">
+        <v>37</v>
+      </c>
+      <c r="I121" s="22">
+        <f>H121*B122</f>
+        <v>37</v>
+      </c>
     </row>
     <row r="122" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B122">
         <v>1</v>
       </c>
       <c r="C122" t="s">
-        <v>608</v>
-      </c>
-      <c r="D122" t="s">
-        <v>633</v>
-      </c>
-      <c r="E122" s="30" t="s">
-        <v>607</v>
+        <v>639</v>
+      </c>
+      <c r="D122" s="8" t="s">
+        <v>642</v>
+      </c>
+      <c r="E122" s="29" t="s">
+        <v>640</v>
       </c>
       <c r="F122">
         <v>0</v>
@@ -13662,16 +13825,16 @@
     </row>
     <row r="123" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B123">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C123" t="s">
-        <v>635</v>
+        <v>649</v>
       </c>
       <c r="D123" t="s">
-        <v>646</v>
+        <v>632</v>
       </c>
       <c r="E123" s="26" t="s">
-        <v>634</v>
+        <v>648</v>
       </c>
       <c r="F123">
         <v>0</v>
@@ -13680,13 +13843,16 @@
     </row>
     <row r="124" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B124">
-        <v>8</v>
+        <v>1</v>
+      </c>
+      <c r="C124" t="s">
+        <v>608</v>
       </c>
       <c r="D124" t="s">
-        <v>647</v>
-      </c>
-      <c r="E124" s="29" t="s">
-        <v>645</v>
+        <v>633</v>
+      </c>
+      <c r="E124" s="30" t="s">
+        <v>607</v>
       </c>
       <c r="F124">
         <v>0</v>
@@ -13694,85 +13860,82 @@
       <c r="I124" s="22"/>
     </row>
     <row r="125" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="E125" s="26"/>
+      <c r="B125">
+        <v>4</v>
+      </c>
+      <c r="C125" t="s">
+        <v>635</v>
+      </c>
+      <c r="D125" t="s">
+        <v>646</v>
+      </c>
+      <c r="E125" s="26" t="s">
+        <v>634</v>
+      </c>
+      <c r="F125">
+        <v>0</v>
+      </c>
       <c r="I125" s="22"/>
     </row>
     <row r="126" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="D126" s="6" t="s">
+      <c r="B126">
+        <v>8</v>
+      </c>
+      <c r="D126" t="s">
+        <v>647</v>
+      </c>
+      <c r="E126" s="29" t="s">
+        <v>645</v>
+      </c>
+      <c r="F126">
+        <v>0</v>
+      </c>
+      <c r="I126" s="22"/>
+    </row>
+    <row r="127" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="E127" s="26"/>
+      <c r="I127" s="22"/>
+    </row>
+    <row r="128" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="D128" s="6" t="s">
         <v>636</v>
       </c>
-      <c r="E126" s="26"/>
-      <c r="I126" s="22"/>
-    </row>
-    <row r="127" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C127" t="s">
+      <c r="E128" s="26"/>
+      <c r="I128" s="22"/>
+    </row>
+    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C129" t="s">
         <v>628</v>
       </c>
-      <c r="D127" t="s">
+      <c r="D129" t="s">
         <v>626</v>
       </c>
-      <c r="E127" s="25" t="s">
+      <c r="E129" s="25" t="s">
         <v>618</v>
-      </c>
-      <c r="F127">
-        <v>0</v>
-      </c>
-      <c r="H127">
-        <v>9.9</v>
-      </c>
-      <c r="I127" s="22">
-        <f>H127*B128</f>
-        <v>9.9</v>
-      </c>
-    </row>
-    <row r="128" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B128">
-        <v>1</v>
-      </c>
-      <c r="C128" t="s">
-        <v>630</v>
-      </c>
-      <c r="D128" t="s">
-        <v>622</v>
-      </c>
-      <c r="E128" s="26" t="s">
-        <v>623</v>
-      </c>
-      <c r="F128">
-        <v>0</v>
-      </c>
-      <c r="I128" s="22"/>
-    </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B129">
-        <v>1</v>
-      </c>
-      <c r="C129" t="s">
-        <v>629</v>
-      </c>
-      <c r="D129" t="s">
-        <v>625</v>
-      </c>
-      <c r="E129" s="25" t="s">
-        <v>624</v>
       </c>
       <c r="F129">
         <v>0</v>
       </c>
-      <c r="I129" s="22"/>
-    </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H129">
+        <v>9.9</v>
+      </c>
+      <c r="I129" s="22">
+        <f>H129*B130</f>
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="130" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B130">
         <v>1</v>
       </c>
       <c r="C130" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="D130" t="s">
-        <v>644</v>
+        <v>622</v>
       </c>
       <c r="E130" s="26" t="s">
-        <v>643</v>
+        <v>623</v>
       </c>
       <c r="F130">
         <v>0</v>
@@ -13784,112 +13947,163 @@
         <v>1</v>
       </c>
       <c r="C131" t="s">
-        <v>619</v>
+        <v>629</v>
       </c>
       <c r="D131" t="s">
-        <v>637</v>
+        <v>625</v>
       </c>
       <c r="E131" s="25" t="s">
-        <v>638</v>
+        <v>624</v>
       </c>
       <c r="F131">
         <v>0</v>
       </c>
       <c r="I131" s="22"/>
     </row>
-    <row r="132" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B132">
         <v>1</v>
       </c>
       <c r="C132" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="D132" t="s">
-        <v>622</v>
-      </c>
-      <c r="E132" s="25" t="s">
-        <v>618</v>
+        <v>644</v>
+      </c>
+      <c r="E132" s="26" t="s">
+        <v>643</v>
       </c>
       <c r="F132">
         <v>0</v>
       </c>
       <c r="I132" s="22"/>
     </row>
-    <row r="133" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B133">
         <v>1</v>
       </c>
-      <c r="E133" s="25"/>
+      <c r="C133" t="s">
+        <v>619</v>
+      </c>
+      <c r="D133" t="s">
+        <v>637</v>
+      </c>
+      <c r="E133" s="25" t="s">
+        <v>638</v>
+      </c>
+      <c r="F133">
+        <v>0</v>
+      </c>
       <c r="I133" s="22"/>
     </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="E134" s="25"/>
+    <row r="134" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B134">
+        <v>1</v>
+      </c>
+      <c r="C134" t="s">
+        <v>621</v>
+      </c>
+      <c r="D134" t="s">
+        <v>622</v>
+      </c>
+      <c r="E134" s="25" t="s">
+        <v>618</v>
+      </c>
+      <c r="F134">
+        <v>0</v>
+      </c>
       <c r="I134" s="22"/>
     </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C135" t="s">
+    <row r="135" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B135">
+        <v>1</v>
+      </c>
+      <c r="E135" s="25"/>
+      <c r="I135" s="22"/>
+    </row>
+    <row r="136" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="E136" s="25"/>
+      <c r="I136" s="22"/>
+    </row>
+    <row r="137" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C137" t="s">
         <v>603</v>
       </c>
-      <c r="D135" t="s">
+      <c r="D137" t="s">
         <v>600</v>
       </c>
-      <c r="E135" s="29" t="s">
+      <c r="E137" s="29" t="s">
         <v>602</v>
       </c>
-      <c r="F135">
+      <c r="F137">
         <v>0</v>
       </c>
-      <c r="H135" s="22">
+      <c r="H137" s="22">
         <v>0.54</v>
       </c>
-      <c r="I135" s="22">
-        <f>H135*B136</f>
+      <c r="I137" s="22">
+        <f>H137*B138</f>
         <v>12.96</v>
       </c>
     </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B136">
+    <row r="138" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B138">
         <v>24</v>
       </c>
-      <c r="C136" t="s">
+      <c r="C138" t="s">
         <v>604</v>
       </c>
-      <c r="D136" t="s">
+      <c r="D138" t="s">
         <v>605</v>
       </c>
-      <c r="E136" s="29" t="s">
+      <c r="E138" s="29" t="s">
         <v>601</v>
       </c>
-      <c r="H136" s="23">
+      <c r="H138" s="23">
         <v>4.29</v>
       </c>
-      <c r="I136" s="22">
-        <f>H136*B137</f>
+      <c r="I138" s="22">
+        <f>H138*B139</f>
         <v>4.29</v>
-      </c>
-    </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B137">
-        <v>1</v>
       </c>
     </row>
     <row r="139" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B141">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E117" r:id="rId1"/>
-    <hyperlink ref="E119" r:id="rId2"/>
-    <hyperlink ref="E128" r:id="rId3"/>
-    <hyperlink ref="E129" r:id="rId4"/>
-    <hyperlink ref="E122" r:id="rId5"/>
-    <hyperlink ref="E115" r:id="rId6"/>
-    <hyperlink ref="E96" r:id="rId7"/>
-    <hyperlink ref="E98" r:id="rId8"/>
+    <hyperlink ref="E100" r:id="rId1"/>
+    <hyperlink ref="E98" r:id="rId2"/>
+    <hyperlink ref="E117" r:id="rId3"/>
+    <hyperlink ref="E124" r:id="rId4"/>
+    <hyperlink ref="E131" r:id="rId5"/>
+    <hyperlink ref="E130" r:id="rId6"/>
+    <hyperlink ref="E121" r:id="rId7"/>
+    <hyperlink ref="E119" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K83" sqref="K83"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -12,16 +12,16 @@
     <sheet name="Andreas BOM" sheetId="1" r:id="rId3"/>
     <sheet name="Zahnriemenscheiben" sheetId="5" r:id="rId4"/>
     <sheet name="Stepper" sheetId="4" r:id="rId5"/>
-    <sheet name="Rotary Encoder" sheetId="6" r:id="rId6"/>
-    <sheet name="BOM" sheetId="7" r:id="rId7"/>
-    <sheet name="DIN" sheetId="8" r:id="rId8"/>
+    <sheet name="DIN" sheetId="8" r:id="rId6"/>
+    <sheet name="Rotary Encoder" sheetId="6" r:id="rId7"/>
+    <sheet name="BOM" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1730" uniqueCount="786">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1741" uniqueCount="793">
   <si>
     <t>Bauteilnummer</t>
   </si>
@@ -2000,9 +2000,6 @@
     <t>Rillenkugellager DIN 625 SKF - 61807 35x47x7mm</t>
   </si>
   <si>
-    <t>WristRot</t>
-  </si>
-  <si>
     <t>Lager  zum Grippermount</t>
   </si>
   <si>
@@ -2379,6 +2376,30 @@
   </si>
   <si>
     <t>Muttern M2</t>
+  </si>
+  <si>
+    <t>Ellbow</t>
+  </si>
+  <si>
+    <t>Upperarm</t>
+  </si>
+  <si>
+    <t>Lagerung Ellenbogen</t>
+  </si>
+  <si>
+    <t>Befestigung Sensordeckel</t>
+  </si>
+  <si>
+    <t>Senkkopfschraube Innensechskant M3 10mm</t>
+  </si>
+  <si>
+    <t>http://www.amazon.de/St%C3%BCck-Senkkopfschrauben-M3X10A2-DIN7991-Edelstahl/dp/B008BLSIU4/ref=sr_1_3?ie=UTF8&amp;qid=1459981546&amp;sr=8-3&amp;keywords=senkkopfschraube+m3+10</t>
+  </si>
+  <si>
+    <t>Befestigung Kabelkanaldeckel</t>
+  </si>
+  <si>
+    <t>http://www.amazon.de/St%C3%BCck-Senkkopfschraube-Innensechskant-7991-Edelstahl/dp/B005HO2N2M</t>
   </si>
 </sst>
 </file>
@@ -2707,66 +2728,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Grafik 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5402580" y="38100"/>
-          <a:ext cx="3886200" cy="5234940"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>10885</xdr:colOff>
       <xdr:row>0</xdr:row>
@@ -2909,6 +2870,66 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Grafik 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5402580" y="38100"/>
+          <a:ext cx="3886200" cy="5234940"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -3318,12 +3339,12 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E27" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E28" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -3398,26 +3419,26 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
+        <v>668</v>
+      </c>
+      <c r="E41" t="s">
         <v>669</v>
-      </c>
-      <c r="E41" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
+        <v>670</v>
+      </c>
+      <c r="E42" t="s">
         <v>671</v>
-      </c>
-      <c r="E42" t="s">
-        <v>672</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E43" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
   </sheetData>
@@ -3941,7 +3962,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C46" s="5">
         <f>C50/C48*(C54/C52)</f>
@@ -4195,7 +4216,7 @@
     </row>
     <row r="70" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C70" s="2">
         <f>C66/C46</f>
@@ -4207,7 +4228,7 @@
     </row>
     <row r="71" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C71" s="2">
         <f>C65/C46</f>
@@ -4493,7 +4514,7 @@
     </row>
     <row r="78" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C78" s="2">
         <f>C71*(1+C57)</f>
@@ -7892,7 +7913,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
@@ -8070,7 +8091,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J103"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J91" sqref="A91:J91"/>
     </sheetView>
   </sheetViews>
@@ -11499,9 +11520,24 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A61" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K83" sqref="K83"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
@@ -11527,7 +11563,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -11560,12 +11596,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K141"/>
+  <dimension ref="A1:K149"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H88" sqref="H88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11604,7 +11640,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="str">
-        <f>C74</f>
+        <f>C81</f>
         <v>Zylinderkopfschraube Innensechskant M3 22mm</v>
       </c>
       <c r="D3" t="s">
@@ -11630,7 +11666,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>659</v>
+        <v>676</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -11638,11 +11674,11 @@
         <v>1</v>
       </c>
       <c r="C6" t="str">
-        <f>C102</f>
+        <f>C110</f>
         <v>Rillenkugellager DIN 625 SKF - 61807 35x47x7mm</v>
       </c>
       <c r="D6" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11653,11 +11689,11 @@
         <v>4</v>
       </c>
       <c r="C7" t="str">
-        <f>C79</f>
-        <v>Senkkopfschraube Innensechskant M3 12mm</v>
+        <f>C87</f>
+        <v>Senkkopfschraube Innensechskant M3 10mm</v>
       </c>
       <c r="D7" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11668,11 +11704,11 @@
         <v>4</v>
       </c>
       <c r="C8" t="str">
-        <f>C72</f>
+        <f>C79</f>
         <v>Zylinderkopfschraube Innensechskant M3 20mm</v>
       </c>
       <c r="D8" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -11680,11 +11716,11 @@
         <v>4</v>
       </c>
       <c r="C9" t="str">
-        <f>C81</f>
+        <f>C89</f>
         <v>Muttern M3, Schlüsselweite 5.5 mm</v>
       </c>
       <c r="D9" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -11692,16 +11728,16 @@
         <v>2</v>
       </c>
       <c r="C10" t="str">
-        <f>C101</f>
+        <f>C109</f>
         <v>Rillenkugellager DIN 625 SKF - 61902 15x28x7mm</v>
       </c>
       <c r="D10" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>677</v>
+        <v>739</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -11709,11 +11745,11 @@
         <v>1</v>
       </c>
       <c r="C13" t="str">
-        <f>C89</f>
+        <f>C97</f>
         <v>Zahnriemenscheibe T2,5, 16 Zähne</v>
       </c>
       <c r="D13" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="H13" s="22"/>
       <c r="I13" s="22"/>
@@ -11723,11 +11759,11 @@
         <v>1</v>
       </c>
       <c r="C14" t="str">
-        <f>C90</f>
+        <f>C98</f>
         <v>Zahnriemenscheibe T2,5, 44 Zähne</v>
       </c>
       <c r="D14" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H14" s="22"/>
       <c r="I14" s="22"/>
@@ -11737,11 +11773,11 @@
         <v>1</v>
       </c>
       <c r="C15" t="str">
-        <f>C89</f>
+        <f>C97</f>
         <v>Zahnriemenscheibe T2,5, 16 Zähne</v>
       </c>
       <c r="D15" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H15" s="22"/>
       <c r="I15" s="22"/>
@@ -11751,11 +11787,11 @@
         <v>1</v>
       </c>
       <c r="C16" t="str">
-        <f>C91</f>
+        <f>C99</f>
         <v>Zahnriemenscheibe T2,5, 18 Zähne</v>
       </c>
       <c r="D16" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="H16" s="22"/>
       <c r="I16" s="22"/>
@@ -11765,11 +11801,11 @@
         <v>1</v>
       </c>
       <c r="C17" t="str">
-        <f>C92</f>
+        <f>C100</f>
         <v>Zahnriemenscheibe T2,5, 14 Zähne</v>
       </c>
       <c r="D17" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="H17" s="22"/>
       <c r="I17" s="22"/>
@@ -11779,11 +11815,11 @@
         <v>1</v>
       </c>
       <c r="C18" t="str">
-        <f>C95</f>
+        <f>C103</f>
         <v>Zahnriemen T2,5 160mm</v>
       </c>
       <c r="D18" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="H18" s="22"/>
       <c r="I18" s="22"/>
@@ -11793,11 +11829,11 @@
         <v>46</v>
       </c>
       <c r="C19" t="str">
-        <f>C85</f>
+        <f>C93</f>
         <v>Silberstahlwelle 6mm Durchmesser</v>
       </c>
       <c r="D19" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E19" s="26"/>
       <c r="H19" s="22"/>
@@ -11808,11 +11844,11 @@
         <v>2</v>
       </c>
       <c r="C20" t="str">
-        <f>C100</f>
+        <f>C108</f>
         <v>Rillenkugellager 6x10x3</v>
       </c>
       <c r="D20" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E20" s="26"/>
       <c r="H20" s="22"/>
@@ -11823,11 +11859,11 @@
         <v>1</v>
       </c>
       <c r="C21" s="32" t="str">
-        <f>C96</f>
+        <f>C104</f>
         <v>NEMA 17 - 42x42x21</v>
       </c>
       <c r="D21" s="32" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="E21" s="26"/>
       <c r="H21" s="22"/>
@@ -11838,11 +11874,11 @@
         <v>2</v>
       </c>
       <c r="C22" s="32" t="str">
-        <f>C76</f>
+        <f>C83</f>
         <v>Zylinderkopfschraube Innensechskant M3 14mm</v>
       </c>
       <c r="D22" s="32" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="H22" s="22"/>
       <c r="I22" s="22"/>
@@ -11852,11 +11888,11 @@
         <v>2</v>
       </c>
       <c r="C23" s="32" t="str">
-        <f>C83</f>
+        <f>C91</f>
         <v>Unterlegscheiben M3 Dicke 0,5mm</v>
       </c>
       <c r="D23" s="32" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="H23" s="22"/>
       <c r="I23" s="22"/>
@@ -11866,11 +11902,11 @@
         <v>1</v>
       </c>
       <c r="C24" s="32" t="str">
-        <f>C94</f>
+        <f>C102</f>
         <v>Zahnriemen T2,5 230mm</v>
       </c>
       <c r="D24" s="32" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="H24" s="22"/>
       <c r="I24" s="22"/>
@@ -11880,11 +11916,11 @@
         <v>1</v>
       </c>
       <c r="C25" s="32" t="str">
-        <f>C75</f>
+        <f>C82</f>
         <v>Zylinderkopfschraube Innensechskant M3 16mm</v>
       </c>
       <c r="D25" s="32" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="H25" s="22"/>
       <c r="I25" s="22"/>
@@ -11894,11 +11930,11 @@
         <v>2</v>
       </c>
       <c r="C26" s="32" t="str">
-        <f>C83</f>
+        <f>C91</f>
         <v>Unterlegscheiben M3 Dicke 0,5mm</v>
       </c>
       <c r="D26" s="32" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="H26" s="22"/>
       <c r="I26" s="22"/>
@@ -11908,11 +11944,11 @@
         <v>2</v>
       </c>
       <c r="C27" s="32" t="str">
-        <f>C99</f>
+        <f>C107</f>
         <v>Rillenkugellager  3.967 x 7.938 x 3.175 mm</v>
       </c>
       <c r="D27" s="32" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="H27" s="22"/>
       <c r="I27" s="22"/>
@@ -11922,11 +11958,11 @@
         <v>1</v>
       </c>
       <c r="C28" s="32" t="str">
-        <f>C80</f>
+        <f>C88</f>
         <v>Vierkant Mutter M3 Breite 5.5mm</v>
       </c>
       <c r="D28" s="32" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E28"/>
       <c r="H28" s="22"/>
@@ -11937,11 +11973,11 @@
         <v>4</v>
       </c>
       <c r="C29" s="32" t="str">
-        <f>C78</f>
+        <f>C85</f>
         <v>Zylinderkopfschraube Innensechskant M2 6mm</v>
       </c>
       <c r="D29" s="32" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E29"/>
       <c r="H29" s="22"/>
@@ -11952,11 +11988,11 @@
         <v>4</v>
       </c>
       <c r="C30" s="32" t="str">
-        <f>C82</f>
+        <f>C90</f>
         <v>Muttern M2</v>
       </c>
       <c r="D30" s="32" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E30"/>
       <c r="H30" s="22"/>
@@ -11967,11 +12003,11 @@
         <v>1</v>
       </c>
       <c r="C31" s="32" t="str">
-        <f>C98</f>
+        <f>C106</f>
         <v>Rotary Sensor</v>
       </c>
       <c r="D31" s="32" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E31" s="9"/>
       <c r="H31" s="22"/>
@@ -11982,11 +12018,11 @@
         <v>2</v>
       </c>
       <c r="C32" s="32" t="str">
-        <f>C84</f>
+        <f>C92</f>
         <v>Unterlegscheiben M2 Dicke 0,5mm</v>
       </c>
       <c r="D32" s="32" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E32" s="9"/>
       <c r="H32" s="22"/>
@@ -11997,11 +12033,11 @@
         <v>2</v>
       </c>
       <c r="C33" s="32" t="str">
-        <f>C87</f>
+        <f>C95</f>
         <v>Distanzbolzen M3 20mm, Schlüsselweite 5mm</v>
       </c>
       <c r="D33" s="32" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="E33" s="9"/>
       <c r="H33" s="22"/>
@@ -12012,11 +12048,11 @@
         <v>4</v>
       </c>
       <c r="C34" s="32" t="str">
-        <f>C83</f>
+        <f>C91</f>
         <v>Unterlegscheiben M3 Dicke 0,5mm</v>
       </c>
       <c r="D34" s="32" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="H34" s="22"/>
       <c r="I34" s="22"/>
@@ -12026,10 +12062,10 @@
         <v>4</v>
       </c>
       <c r="C35" s="32" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D35" s="32" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="H35" s="22"/>
       <c r="I35" s="22"/>
@@ -12039,11 +12075,11 @@
         <v>4</v>
       </c>
       <c r="C36" s="32" t="str">
-        <f>C72</f>
+        <f>C79</f>
         <v>Zylinderkopfschraube Innensechskant M3 20mm</v>
       </c>
       <c r="D36" s="32" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="E36" s="9"/>
       <c r="H36" s="22"/>
@@ -12054,11 +12090,11 @@
         <v>4</v>
       </c>
       <c r="C37" s="32" t="str">
-        <f>C83</f>
+        <f>C91</f>
         <v>Unterlegscheiben M3 Dicke 0,5mm</v>
       </c>
       <c r="D37" s="32" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="H37" s="22"/>
       <c r="I37" s="22"/>
@@ -12071,17 +12107,17 @@
     </row>
     <row r="39" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
-        <v>740</v>
+        <v>785</v>
       </c>
       <c r="B39">
         <v>2</v>
       </c>
       <c r="C39" s="32" t="str">
-        <f>C103</f>
+        <f>C111</f>
         <v>Rillenkugellager 35x47x7</v>
       </c>
       <c r="D39" s="32" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="E39" s="9"/>
       <c r="H39" s="22"/>
@@ -12092,11 +12128,11 @@
         <v>2</v>
       </c>
       <c r="C40" s="32" t="str">
-        <f>C104</f>
+        <f>C112</f>
         <v>RillenKugellager 6x19x6</v>
       </c>
       <c r="D40" s="32" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="H40" s="22"/>
       <c r="I40" s="22"/>
@@ -12106,11 +12142,11 @@
         <v>4</v>
       </c>
       <c r="C41" s="32" t="str">
-        <f>C100</f>
+        <f>C108</f>
         <v>Rillenkugellager 6x10x3</v>
       </c>
       <c r="D41" s="32" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E41" s="9"/>
       <c r="H41" s="22"/>
@@ -12121,11 +12157,11 @@
         <v>2</v>
       </c>
       <c r="C42" s="32" t="str">
-        <f>C105</f>
+        <f>C113</f>
         <v>Distanzhülsen M6 10mm</v>
       </c>
       <c r="D42" s="32" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H42" s="22"/>
       <c r="I42" s="22"/>
@@ -12135,11 +12171,11 @@
         <v>40</v>
       </c>
       <c r="C43" s="32" t="str">
-        <f>C85</f>
+        <f>C93</f>
         <v>Silberstahlwelle 6mm Durchmesser</v>
       </c>
       <c r="D43" s="32" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H43" s="22"/>
       <c r="I43" s="22"/>
@@ -12149,11 +12185,11 @@
         <v>40</v>
       </c>
       <c r="C44" s="32" t="str">
-        <f>C86</f>
+        <f>C94</f>
         <v>Silberstahlwelle 3mm Durchmesser</v>
       </c>
       <c r="D44" s="32" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E44" s="9"/>
       <c r="H44" s="22"/>
@@ -12164,11 +12200,11 @@
         <v>4</v>
       </c>
       <c r="C45" s="32" t="str">
-        <f>C106</f>
+        <f>C114</f>
         <v>Rillenkugellager 3x10x4</v>
       </c>
       <c r="D45" s="32" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="E45" s="9"/>
       <c r="H45" s="22"/>
@@ -12179,11 +12215,11 @@
         <v>1</v>
       </c>
       <c r="C46" s="32" t="str">
-        <f>C107</f>
+        <f>C115</f>
         <v>Zahnriemen T2,5 200m</v>
       </c>
       <c r="D46" s="32" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="H46" s="22"/>
       <c r="I46" s="22"/>
@@ -12193,11 +12229,11 @@
         <v>1</v>
       </c>
       <c r="C47" s="32" t="str">
-        <f>C107</f>
+        <f>C115</f>
         <v>Zahnriemen T2,5 200m</v>
       </c>
       <c r="D47" s="32" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="H47" s="22"/>
       <c r="I47" s="22"/>
@@ -12207,628 +12243,529 @@
         <v>4</v>
       </c>
       <c r="C48" s="32" t="str">
-        <f>C74</f>
+        <f>C81</f>
         <v>Zylinderkopfschraube Innensechskant M3 22mm</v>
       </c>
       <c r="D48" s="32" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="H48" s="22"/>
       <c r="I48" s="22"/>
     </row>
-    <row r="49" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49">
         <v>4</v>
       </c>
       <c r="C49" s="32" t="str">
-        <f>C81</f>
+        <f>C89</f>
         <v>Muttern M3, Schlüsselweite 5.5 mm</v>
       </c>
       <c r="D49" s="32" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E49" s="9"/>
       <c r="H49" s="22"/>
       <c r="I49" s="22"/>
     </row>
-    <row r="50" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50">
         <v>2</v>
       </c>
       <c r="C50" s="32" t="str">
-        <f>C74</f>
+        <f>C81</f>
         <v>Zylinderkopfschraube Innensechskant M3 22mm</v>
       </c>
       <c r="D50" s="32" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="H50" s="22"/>
       <c r="I50" s="22"/>
     </row>
-    <row r="51" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B51">
         <v>2</v>
       </c>
       <c r="C51" s="32" t="str">
-        <f>C81</f>
+        <f>C89</f>
         <v>Muttern M3, Schlüsselweite 5.5 mm</v>
       </c>
       <c r="D51" s="32" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="E51" s="9"/>
       <c r="H51" s="22"/>
       <c r="I51" s="22"/>
     </row>
-    <row r="52" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52">
         <v>2</v>
       </c>
       <c r="C52" s="32" t="str">
-        <f>C77</f>
+        <f>C84</f>
         <v>Zylinderkopfschraube Innensechskant M3 12mm</v>
       </c>
       <c r="D52" s="32" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H52" s="22"/>
       <c r="I52" s="22"/>
     </row>
-    <row r="53" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B53">
         <v>2</v>
       </c>
       <c r="C53" s="32" t="str">
-        <f>C81</f>
+        <f>C89</f>
         <v>Muttern M3, Schlüsselweite 5.5 mm</v>
       </c>
       <c r="D53" s="32" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="E53" s="9"/>
       <c r="H53" s="22"/>
       <c r="I53" s="22"/>
     </row>
-    <row r="54" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B54">
         <v>6</v>
       </c>
       <c r="C54" s="32" t="str">
-        <f>C73</f>
+        <f>C80</f>
         <v>Zylinderkopfschraube Innensechskant M3 25mm</v>
       </c>
       <c r="D54" s="32" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="E54" s="9"/>
       <c r="H54" s="22"/>
       <c r="I54" s="22"/>
     </row>
-    <row r="55" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B55">
         <v>3</v>
       </c>
       <c r="C55" s="32" t="str">
-        <f>C87</f>
+        <f>C95</f>
         <v>Distanzbolzen M3 20mm, Schlüsselweite 5mm</v>
       </c>
       <c r="D55" s="32" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="E55" s="9"/>
       <c r="H55" s="22"/>
       <c r="I55" s="22"/>
     </row>
-    <row r="56" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56">
         <v>1</v>
       </c>
       <c r="C56" s="32" t="str">
-        <f>C97</f>
+        <f>C105</f>
         <v>NEMA 17 - 42x42x33</v>
       </c>
       <c r="D56" s="32" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="E56" s="9"/>
       <c r="H56" s="22"/>
       <c r="I56" s="22"/>
     </row>
-    <row r="57" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B57">
         <v>1</v>
       </c>
       <c r="C57" s="32" t="str">
-        <f>C89</f>
+        <f>C97</f>
         <v>Zahnriemenscheibe T2,5, 16 Zähne</v>
       </c>
       <c r="D57" s="32" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="E57" s="9"/>
       <c r="H57" s="22"/>
       <c r="I57" s="22"/>
     </row>
-    <row r="58" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B58">
         <v>1</v>
       </c>
       <c r="C58" s="32" t="str">
-        <f>C89</f>
+        <f>C97</f>
         <v>Zahnriemenscheibe T2,5, 16 Zähne</v>
       </c>
       <c r="D58" s="32" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E58" s="9"/>
       <c r="H58" s="22"/>
       <c r="I58" s="22"/>
     </row>
-    <row r="59" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B59">
         <v>1</v>
       </c>
       <c r="C59" s="32" t="str">
-        <f>C93</f>
+        <f>C101</f>
         <v>Zahnriemenscheibe T2,5, 60 Zähne</v>
       </c>
       <c r="D59" s="32" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E59" s="9"/>
       <c r="H59" s="22"/>
       <c r="I59" s="22"/>
     </row>
-    <row r="60" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B60">
         <v>1</v>
       </c>
       <c r="C60" s="32" t="str">
-        <f>C108</f>
+        <f>C116</f>
         <v>Zylinderkopfschraube Innensechskant M6 55mm</v>
       </c>
       <c r="D60" s="32" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E60" s="9"/>
       <c r="H60" s="22"/>
       <c r="I60" s="22"/>
     </row>
-    <row r="61" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B61">
         <v>1</v>
       </c>
       <c r="C61" s="32" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="D61" s="32" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E61" s="9"/>
       <c r="H61" s="22"/>
       <c r="I61" s="22"/>
     </row>
-    <row r="62" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B62">
         <v>1</v>
       </c>
       <c r="C62" s="32" t="str">
-        <f>C98</f>
+        <f>C106</f>
         <v>Rotary Sensor</v>
       </c>
       <c r="D62" s="32" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E62" s="9"/>
       <c r="H62" s="22"/>
       <c r="I62" s="22"/>
     </row>
-    <row r="63" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C63" s="32"/>
       <c r="D63" s="32"/>
       <c r="E63" s="9"/>
       <c r="H63" s="22"/>
       <c r="I63" s="22"/>
     </row>
-    <row r="64" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C64" s="32"/>
-      <c r="D64" s="32"/>
+    <row r="64" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="6" t="s">
+        <v>786</v>
+      </c>
+      <c r="B64">
+        <v>4</v>
+      </c>
+      <c r="C64" s="32" t="str">
+        <f>C85</f>
+        <v>Zylinderkopfschraube Innensechskant M2 6mm</v>
+      </c>
+      <c r="D64" s="32" t="s">
+        <v>707</v>
+      </c>
       <c r="E64" s="9"/>
       <c r="H64" s="22"/>
       <c r="I64" s="22"/>
     </row>
     <row r="65" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C65" s="32"/>
-      <c r="D65" s="32"/>
+      <c r="B65">
+        <v>4</v>
+      </c>
+      <c r="C65" s="32" t="str">
+        <f>C90</f>
+        <v>Muttern M2</v>
+      </c>
+      <c r="D65" s="32" t="s">
+        <v>707</v>
+      </c>
       <c r="E65" s="9"/>
       <c r="H65" s="22"/>
       <c r="I65" s="22"/>
     </row>
     <row r="66" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C66" s="32"/>
-      <c r="D66" s="32"/>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66" s="32" t="str">
+        <f>C106</f>
+        <v>Rotary Sensor</v>
+      </c>
+      <c r="D66" s="32" t="s">
+        <v>712</v>
+      </c>
       <c r="E66" s="9"/>
       <c r="H66" s="22"/>
       <c r="I66" s="22"/>
     </row>
     <row r="67" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C67" s="32"/>
-      <c r="D67" s="32"/>
+      <c r="B67">
+        <v>2</v>
+      </c>
+      <c r="C67" s="32" t="str">
+        <f>C92</f>
+        <v>Unterlegscheiben M2 Dicke 0,5mm</v>
+      </c>
+      <c r="D67" s="32" t="s">
+        <v>713</v>
+      </c>
       <c r="E67" s="9"/>
       <c r="H67" s="22"/>
       <c r="I67" s="22"/>
     </row>
     <row r="68" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C68" s="32"/>
-      <c r="D68" s="32"/>
+      <c r="B68">
+        <v>2</v>
+      </c>
+      <c r="C68" s="32" t="str">
+        <f>C111</f>
+        <v>Rillenkugellager 35x47x7</v>
+      </c>
+      <c r="D68" s="32" t="s">
+        <v>787</v>
+      </c>
       <c r="E68" s="9"/>
       <c r="H68" s="22"/>
       <c r="I68" s="22"/>
     </row>
     <row r="69" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C69" s="32"/>
-      <c r="D69" s="32"/>
+      <c r="B69">
+        <v>4</v>
+      </c>
+      <c r="C69" t="str">
+        <f>C87</f>
+        <v>Senkkopfschraube Innensechskant M3 10mm</v>
+      </c>
+      <c r="D69" t="s">
+        <v>788</v>
+      </c>
       <c r="E69" s="9"/>
       <c r="H69" s="22"/>
       <c r="I69" s="22"/>
     </row>
     <row r="70" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C70" s="32"/>
+      <c r="B70">
+        <v>4</v>
+      </c>
+      <c r="C70" t="str">
+        <f>C87</f>
+        <v>Senkkopfschraube Innensechskant M3 10mm</v>
+      </c>
+      <c r="D70" t="s">
+        <v>791</v>
+      </c>
       <c r="E70" s="9"/>
       <c r="H70" s="22"/>
       <c r="I70" s="22"/>
     </row>
     <row r="71" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B71" t="s">
-        <v>735</v>
-      </c>
       <c r="C71" s="32"/>
+      <c r="D71" s="32"/>
       <c r="E71" s="9"/>
-      <c r="G71" t="s">
-        <v>712</v>
-      </c>
-      <c r="H71" s="22" t="s">
+      <c r="H71" s="22"/>
+      <c r="I71" s="22"/>
+    </row>
+    <row r="72" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C72" s="32"/>
+      <c r="D72" s="32"/>
+      <c r="E72" s="9"/>
+      <c r="H72" s="22"/>
+      <c r="I72" s="22"/>
+    </row>
+    <row r="73" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C73" s="32"/>
+      <c r="D73" s="32"/>
+      <c r="E73" s="9"/>
+      <c r="H73" s="22"/>
+      <c r="I73" s="22"/>
+    </row>
+    <row r="74" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C74" s="32"/>
+      <c r="D74" s="32"/>
+      <c r="E74" s="9"/>
+      <c r="H74" s="22"/>
+      <c r="I74" s="22"/>
+    </row>
+    <row r="75" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C75" s="32"/>
+      <c r="D75" s="32"/>
+      <c r="E75" s="9"/>
+      <c r="H75" s="22"/>
+      <c r="I75" s="22"/>
+    </row>
+    <row r="76" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C76" s="32"/>
+      <c r="D76" s="32"/>
+      <c r="E76" s="9"/>
+      <c r="H76" s="22"/>
+      <c r="I76" s="22"/>
+    </row>
+    <row r="77" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C77" s="32"/>
+      <c r="E77" s="9"/>
+      <c r="H77" s="22"/>
+      <c r="I77" s="22"/>
+    </row>
+    <row r="78" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B78" t="s">
+        <v>734</v>
+      </c>
+      <c r="C78" s="32"/>
+      <c r="E78" s="9"/>
+      <c r="G78" t="s">
+        <v>711</v>
+      </c>
+      <c r="H78" s="22" t="s">
+        <v>724</v>
+      </c>
+      <c r="I78" s="22" t="s">
         <v>725</v>
       </c>
-      <c r="I71" s="22" t="s">
+      <c r="J78" t="s">
         <v>726</v>
       </c>
-      <c r="J71" t="s">
-        <v>727</v>
-      </c>
-      <c r="K71" t="s">
+      <c r="K78" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B79" s="33">
+        <f t="shared" ref="B79:B95" si="0">ROUNDUP(I79/G79,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C79" s="32" t="s">
+        <v>661</v>
+      </c>
+      <c r="E79" s="9" t="s">
+        <v>723</v>
+      </c>
+      <c r="G79">
+        <v>100</v>
+      </c>
+      <c r="H79" s="22">
+        <v>1.79</v>
+      </c>
+      <c r="I79" s="18">
+        <f>SUMIF(C$1:C$77,"="&amp;C79,B$1:B$77)</f>
+        <v>8</v>
+      </c>
+      <c r="J79" s="33">
+        <f>G79*B79-I79</f>
+        <v>92</v>
+      </c>
+      <c r="K79" s="34">
+        <f>B79*H79</f>
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B80" s="33">
+        <f t="shared" ref="B80" si="1">ROUNDUP(I80/G80,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C80" s="32" t="s">
         <v>767</v>
       </c>
-    </row>
-    <row r="72" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="33">
-        <f t="shared" ref="B72:B87" si="0">ROUNDUP(I72/G72,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C72" s="32" t="s">
-        <v>662</v>
-      </c>
-      <c r="E72" s="9" t="s">
-        <v>724</v>
-      </c>
-      <c r="G72">
+      <c r="E80" s="9" t="s">
+        <v>723</v>
+      </c>
+      <c r="G80">
         <v>100</v>
       </c>
-      <c r="H72" s="22">
-        <v>1.79</v>
-      </c>
-      <c r="I72" s="18">
-        <f>SUMIF(C$1:C$70,"="&amp;C72,B$1:B$70)</f>
-        <v>8</v>
-      </c>
-      <c r="J72" s="33">
-        <f>G72*B72-I72</f>
-        <v>92</v>
-      </c>
-      <c r="K72" s="34">
-        <f>B72*H72</f>
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="33">
-        <f t="shared" ref="B73" si="1">ROUNDUP(I73/G73,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C73" s="32" t="s">
-        <v>768</v>
-      </c>
-      <c r="E73" s="9" t="s">
-        <v>724</v>
-      </c>
-      <c r="G73">
+      <c r="H80" s="22">
+        <v>1.71</v>
+      </c>
+      <c r="I80" s="18">
+        <f>SUMIF(C$1:C$77,"="&amp;C80,B$1:B$77)</f>
+        <v>6</v>
+      </c>
+      <c r="J80" s="33">
+        <f>G80*B80-I80</f>
+        <v>94</v>
+      </c>
+      <c r="K80" s="34">
+        <f t="shared" ref="K80" si="2">B80*H80</f>
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="81" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="33">
+        <f t="shared" ref="B81" si="3">ROUNDUP(I81/G81,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C81" s="32" t="s">
+        <v>732</v>
+      </c>
+      <c r="E81" s="9" t="s">
+        <v>723</v>
+      </c>
+      <c r="G81">
         <v>100</v>
       </c>
-      <c r="H73" s="22">
+      <c r="H81" s="22">
         <v>1.71</v>
       </c>
-      <c r="I73" s="18">
-        <f>SUMIF(C$1:C$70,"="&amp;C73,B$1:B$70)</f>
-        <v>6</v>
-      </c>
-      <c r="J73" s="33">
-        <f>G73*B73-I73</f>
-        <v>94</v>
-      </c>
-      <c r="K73" s="34">
-        <f t="shared" ref="K73" si="2">B73*H73</f>
+      <c r="I81" s="18">
+        <f>SUMIF(C$1:C$77,"="&amp;C81,B$1:B$77)</f>
+        <v>10</v>
+      </c>
+      <c r="J81" s="33">
+        <f>G81*B81-I81</f>
+        <v>90</v>
+      </c>
+      <c r="K81" s="34">
+        <f t="shared" ref="K81:K116" si="4">B81*H81</f>
         <v>1.71</v>
       </c>
     </row>
-    <row r="74" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="33">
-        <f t="shared" ref="B74" si="3">ROUNDUP(I74/G74,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C74" s="32" t="s">
-        <v>733</v>
-      </c>
-      <c r="E74" s="9" t="s">
-        <v>724</v>
-      </c>
-      <c r="G74">
+    <row r="82" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B82" s="33">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C82" s="32" t="s">
+        <v>700</v>
+      </c>
+      <c r="D82" s="32"/>
+      <c r="E82" s="29" t="s">
+        <v>701</v>
+      </c>
+      <c r="G82">
         <v>100</v>
       </c>
-      <c r="H74" s="22">
-        <v>1.71</v>
-      </c>
-      <c r="I74" s="18">
-        <f>SUMIF(C$1:C$70,"="&amp;C74,B$1:B$70)</f>
-        <v>10</v>
-      </c>
-      <c r="J74" s="33">
-        <f>G74*B74-I74</f>
-        <v>90</v>
-      </c>
-      <c r="K74" s="34">
-        <f t="shared" ref="K74:K108" si="4">B74*H74</f>
-        <v>1.71</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="33">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C75" s="32" t="s">
-        <v>701</v>
-      </c>
-      <c r="D75" s="32"/>
-      <c r="E75" s="29" t="s">
-        <v>702</v>
-      </c>
-      <c r="G75">
-        <v>100</v>
-      </c>
-      <c r="H75" s="22">
+      <c r="H82" s="22">
         <v>1.96</v>
       </c>
-      <c r="I75" s="18">
-        <f>SUMIF(C$1:C$70,"="&amp;C75,B$1:B$70)</f>
-        <v>1</v>
-      </c>
-      <c r="J75" s="33">
-        <f t="shared" ref="J75:J100" si="5">G75*B75-I75</f>
+      <c r="I82" s="18">
+        <f>SUMIF(C$1:C$77,"="&amp;C82,B$1:B$77)</f>
+        <v>1</v>
+      </c>
+      <c r="J82" s="33">
+        <f t="shared" ref="J82:J108" si="5">G82*B82-I82</f>
         <v>99</v>
       </c>
-      <c r="K75" s="34">
+      <c r="K82" s="34">
         <f t="shared" si="4"/>
         <v>1.96</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="33">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C76" s="32" t="s">
-        <v>697</v>
-      </c>
-      <c r="E76" t="s">
-        <v>765</v>
-      </c>
-      <c r="G76">
-        <v>100</v>
-      </c>
-      <c r="H76" s="22">
-        <v>1.79</v>
-      </c>
-      <c r="I76" s="18">
-        <f>SUMIF(C$1:C$70,"="&amp;C76,B$1:B$70)</f>
-        <v>2</v>
-      </c>
-      <c r="J76" s="33">
-        <f t="shared" ref="J76" si="6">G76*B76-I76</f>
-        <v>98</v>
-      </c>
-      <c r="K76" s="34">
-        <f t="shared" si="4"/>
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="33">
-        <f t="shared" ref="B77:B79" si="7">ROUNDUP(I77/G77,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C77" s="32" t="s">
-        <v>764</v>
-      </c>
-      <c r="E77" t="s">
-        <v>765</v>
-      </c>
-      <c r="G77">
-        <v>100</v>
-      </c>
-      <c r="H77" s="22">
-        <v>1.63</v>
-      </c>
-      <c r="I77" s="18">
-        <f>SUMIF(C$1:C$70,"="&amp;C77,B$1:B$70)</f>
-        <v>2</v>
-      </c>
-      <c r="J77" s="33">
-        <f t="shared" ref="J77:J79" si="8">G77*B77-I77</f>
-        <v>98</v>
-      </c>
-      <c r="K77" s="34">
-        <f t="shared" si="4"/>
-        <v>1.63</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="33">
-        <f>ROUNDUP(I78/G78,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C78" s="32" t="s">
-        <v>707</v>
-      </c>
-      <c r="E78" t="s">
-        <v>710</v>
-      </c>
-      <c r="G78">
-        <v>10</v>
-      </c>
-      <c r="H78" s="22">
-        <v>0.99</v>
-      </c>
-      <c r="I78" s="18">
-        <f>SUMIF(C$1:C$70,"="&amp;C78,B$1:B$70)</f>
-        <v>4</v>
-      </c>
-      <c r="J78" s="33">
-        <f>G78*B78-I78</f>
-        <v>6</v>
-      </c>
-      <c r="K78" s="34">
-        <f>B78*H78</f>
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="33">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="C79" s="32" t="s">
-        <v>780</v>
-      </c>
-      <c r="E79" t="s">
-        <v>779</v>
-      </c>
-      <c r="G79">
-        <v>10</v>
-      </c>
-      <c r="H79" s="22">
-        <v>2.35</v>
-      </c>
-      <c r="I79" s="18">
-        <f>SUMIF(C$1:C$70,"="&amp;C79,B$1:B$70)</f>
-        <v>4</v>
-      </c>
-      <c r="J79" s="33">
-        <f t="shared" si="8"/>
-        <v>6</v>
-      </c>
-      <c r="K79" s="34">
-        <f t="shared" si="4"/>
-        <v>2.35</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="33">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C80" s="32" t="s">
-        <v>782</v>
-      </c>
-      <c r="E80" t="s">
-        <v>651</v>
-      </c>
-      <c r="G80">
-        <v>100</v>
-      </c>
-      <c r="H80" s="22">
-        <v>2.09</v>
-      </c>
-      <c r="I80" s="18">
-        <f>SUMIF(C$1:C$70,"="&amp;C80,B$1:B$70)</f>
-        <v>1</v>
-      </c>
-      <c r="J80" s="33">
-        <f t="shared" si="5"/>
-        <v>99</v>
-      </c>
-      <c r="K80" s="34">
-        <f t="shared" si="4"/>
-        <v>2.09</v>
-      </c>
-    </row>
-    <row r="81" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="33">
-        <f t="shared" ref="B81" si="9">ROUNDUP(I81/G81,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C81" s="32" t="s">
-        <v>781</v>
-      </c>
-      <c r="E81" s="29" t="s">
-        <v>664</v>
-      </c>
-      <c r="G81">
-        <v>100</v>
-      </c>
-      <c r="H81" s="22">
-        <v>2.09</v>
-      </c>
-      <c r="I81" s="18">
-        <f>SUMIF(C$1:C$70,"="&amp;C81,B$1:B$70)</f>
-        <v>12</v>
-      </c>
-      <c r="J81" s="33">
-        <f t="shared" ref="J81" si="10">G81*B81-I81</f>
-        <v>88</v>
-      </c>
-      <c r="K81" s="34">
-        <f t="shared" si="4"/>
-        <v>2.09</v>
-      </c>
-    </row>
-    <row r="82" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="33">
-        <f t="shared" ref="B82" si="11">ROUNDUP(I82/G82,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C82" s="32" t="s">
-        <v>785</v>
-      </c>
-      <c r="G82">
-        <v>100</v>
-      </c>
-      <c r="H82" s="22">
-        <v>2.09</v>
-      </c>
-      <c r="I82" s="18">
-        <f>SUMIF(C$1:C$70,"="&amp;C82,B$1:B$70)</f>
-        <v>4</v>
-      </c>
-      <c r="J82" s="33">
-        <f t="shared" ref="J82" si="12">G82*B82-I82</f>
-        <v>96</v>
-      </c>
-      <c r="K82" s="34">
-        <f t="shared" ref="K82" si="13">B82*H82</f>
-        <v>2.09</v>
       </c>
     </row>
     <row r="83" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -12837,10 +12774,10 @@
         <v>1</v>
       </c>
       <c r="C83" s="32" t="s">
-        <v>700</v>
-      </c>
-      <c r="E83" s="29" t="s">
-        <v>699</v>
+        <v>696</v>
+      </c>
+      <c r="E83" t="s">
+        <v>764</v>
       </c>
       <c r="G83">
         <v>100</v>
@@ -12849,12 +12786,12 @@
         <v>1.79</v>
       </c>
       <c r="I83" s="18">
-        <f>SUMIF(C$1:C$70,"="&amp;C83,B$1:B$70)</f>
-        <v>12</v>
+        <f>SUMIF(C$1:C$77,"="&amp;C83,B$1:B$77)</f>
+        <v>2</v>
       </c>
       <c r="J83" s="33">
-        <f t="shared" si="5"/>
-        <v>88</v>
+        <f t="shared" ref="J83" si="6">G83*B83-I83</f>
+        <v>98</v>
       </c>
       <c r="K83" s="34">
         <f t="shared" si="4"/>
@@ -12863,32 +12800,32 @@
     </row>
     <row r="84" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B84" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B84:B86" si="7">ROUNDUP(I84/G84,0)</f>
         <v>1</v>
       </c>
       <c r="C84" s="32" t="s">
-        <v>715</v>
-      </c>
-      <c r="E84" s="9" t="s">
-        <v>716</v>
+        <v>763</v>
+      </c>
+      <c r="E84" t="s">
+        <v>764</v>
       </c>
       <c r="G84">
         <v>100</v>
       </c>
       <c r="H84" s="22">
-        <v>1.79</v>
+        <v>1.63</v>
       </c>
       <c r="I84" s="18">
-        <f>SUMIF(C$1:C$70,"="&amp;C84,B$1:B$70)</f>
+        <f>SUMIF(C$1:C$77,"="&amp;C84,B$1:B$77)</f>
         <v>2</v>
       </c>
       <c r="J84" s="33">
-        <f>G84*B84-I84</f>
+        <f t="shared" ref="J84:J86" si="8">G84*B84-I84</f>
         <v>98</v>
       </c>
       <c r="K84" s="34">
         <f t="shared" si="4"/>
-        <v>1.79</v>
+        <v>1.63</v>
       </c>
     </row>
     <row r="85" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -12896,1046 +12833,1167 @@
         <f>ROUNDUP(I85/G85,0)</f>
         <v>1</v>
       </c>
-      <c r="C85" t="s">
-        <v>728</v>
-      </c>
-      <c r="E85" s="26" t="s">
-        <v>693</v>
+      <c r="C85" s="32" t="s">
+        <v>706</v>
+      </c>
+      <c r="E85" t="s">
+        <v>709</v>
       </c>
       <c r="G85">
+        <v>10</v>
+      </c>
+      <c r="H85" s="22">
+        <v>0.99</v>
+      </c>
+      <c r="I85" s="18">
+        <f>SUMIF(C$1:C$77,"="&amp;C85,B$1:B$77)</f>
+        <v>8</v>
+      </c>
+      <c r="J85" s="33">
+        <f>G85*B85-I85</f>
+        <v>2</v>
+      </c>
+      <c r="K85" s="34">
+        <f>B85*H85</f>
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="86" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="33">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="C86" s="32" t="s">
+        <v>779</v>
+      </c>
+      <c r="E86" t="s">
+        <v>778</v>
+      </c>
+      <c r="G86">
+        <v>10</v>
+      </c>
+      <c r="H86" s="22">
+        <v>2.35</v>
+      </c>
+      <c r="I86" s="18">
+        <f>SUMIF(C$1:C$77,"="&amp;C86,B$1:B$77)</f>
+        <v>0</v>
+      </c>
+      <c r="J86" s="33">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K86" s="34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B87" s="33">
+        <f t="shared" ref="B87" si="9">ROUNDUP(I87/G87,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C87" s="32" t="s">
+        <v>789</v>
+      </c>
+      <c r="E87" t="s">
+        <v>790</v>
+      </c>
+      <c r="F87" t="s">
+        <v>792</v>
+      </c>
+      <c r="G87">
+        <v>50</v>
+      </c>
+      <c r="H87" s="22">
+        <v>3.65</v>
+      </c>
+      <c r="I87" s="18">
+        <f>SUMIF(C$1:C$77,"="&amp;C87,B$1:B$77)</f>
+        <v>12</v>
+      </c>
+      <c r="J87" s="33">
+        <f t="shared" ref="J87" si="10">G87*B87-I87</f>
+        <v>38</v>
+      </c>
+      <c r="K87" s="34">
+        <f t="shared" ref="K87" si="11">B87*H87</f>
+        <v>3.65</v>
+      </c>
+    </row>
+    <row r="88" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B88" s="33">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C88" s="32" t="s">
+        <v>781</v>
+      </c>
+      <c r="E88" t="s">
+        <v>651</v>
+      </c>
+      <c r="G88">
+        <v>100</v>
+      </c>
+      <c r="H88" s="22">
+        <v>2.09</v>
+      </c>
+      <c r="I88" s="18">
+        <f>SUMIF(C$1:C$77,"="&amp;C88,B$1:B$77)</f>
+        <v>1</v>
+      </c>
+      <c r="J88" s="33">
+        <f t="shared" si="5"/>
+        <v>99</v>
+      </c>
+      <c r="K88" s="34">
+        <f t="shared" si="4"/>
+        <v>2.09</v>
+      </c>
+    </row>
+    <row r="89" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B89" s="33">
+        <f t="shared" ref="B89" si="12">ROUNDUP(I89/G89,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C89" s="32" t="s">
+        <v>780</v>
+      </c>
+      <c r="E89" s="29" t="s">
+        <v>663</v>
+      </c>
+      <c r="G89">
+        <v>100</v>
+      </c>
+      <c r="H89" s="22">
+        <v>2.09</v>
+      </c>
+      <c r="I89" s="18">
+        <f>SUMIF(C$1:C$77,"="&amp;C89,B$1:B$77)</f>
+        <v>12</v>
+      </c>
+      <c r="J89" s="33">
+        <f t="shared" ref="J89" si="13">G89*B89-I89</f>
+        <v>88</v>
+      </c>
+      <c r="K89" s="34">
+        <f t="shared" si="4"/>
+        <v>2.09</v>
+      </c>
+    </row>
+    <row r="90" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B90" s="33">
+        <f t="shared" ref="B90" si="14">ROUNDUP(I90/G90,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C90" s="32" t="s">
+        <v>784</v>
+      </c>
+      <c r="G90">
+        <v>100</v>
+      </c>
+      <c r="H90" s="22">
+        <v>2.09</v>
+      </c>
+      <c r="I90" s="18">
+        <f>SUMIF(C$1:C$77,"="&amp;C90,B$1:B$77)</f>
+        <v>8</v>
+      </c>
+      <c r="J90" s="33">
+        <f t="shared" ref="J90" si="15">G90*B90-I90</f>
+        <v>92</v>
+      </c>
+      <c r="K90" s="34">
+        <f t="shared" ref="K90" si="16">B90*H90</f>
+        <v>2.09</v>
+      </c>
+    </row>
+    <row r="91" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B91" s="33">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C91" s="32" t="s">
+        <v>699</v>
+      </c>
+      <c r="E91" s="29" t="s">
+        <v>698</v>
+      </c>
+      <c r="G91">
+        <v>100</v>
+      </c>
+      <c r="H91" s="22">
+        <v>1.79</v>
+      </c>
+      <c r="I91" s="18">
+        <f>SUMIF(C$1:C$77,"="&amp;C91,B$1:B$77)</f>
+        <v>12</v>
+      </c>
+      <c r="J91" s="33">
+        <f t="shared" si="5"/>
+        <v>88</v>
+      </c>
+      <c r="K91" s="34">
+        <f t="shared" si="4"/>
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="92" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B92" s="33">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C92" s="32" t="s">
+        <v>714</v>
+      </c>
+      <c r="E92" s="9" t="s">
+        <v>715</v>
+      </c>
+      <c r="G92">
+        <v>100</v>
+      </c>
+      <c r="H92" s="22">
+        <v>1.79</v>
+      </c>
+      <c r="I92" s="18">
+        <f>SUMIF(C$1:C$77,"="&amp;C92,B$1:B$77)</f>
+        <v>4</v>
+      </c>
+      <c r="J92" s="33">
+        <f>G92*B92-I92</f>
+        <v>96</v>
+      </c>
+      <c r="K92" s="34">
+        <f t="shared" si="4"/>
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="93" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B93" s="33">
+        <f>ROUNDUP(I93/G93,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C93" t="s">
+        <v>727</v>
+      </c>
+      <c r="E93" s="26" t="s">
+        <v>692</v>
+      </c>
+      <c r="G93">
         <v>500</v>
       </c>
-      <c r="H85" s="22">
+      <c r="H93" s="22">
         <v>4.49</v>
       </c>
-      <c r="I85" s="18">
-        <f>SUMIF(C$1:C$70,"="&amp;C85,B$1:B$70)</f>
+      <c r="I93" s="18">
+        <f>SUMIF(C$1:C$77,"="&amp;C93,B$1:B$77)</f>
         <v>86</v>
       </c>
-      <c r="J85" s="33">
-        <f t="shared" ref="J85" si="14">G85*B85-I85</f>
+      <c r="J93" s="33">
+        <f t="shared" ref="J93" si="17">G93*B93-I93</f>
         <v>414</v>
       </c>
-      <c r="K85" s="34">
+      <c r="K93" s="34">
         <f t="shared" si="4"/>
         <v>4.49</v>
       </c>
     </row>
-    <row r="86" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="33">
-        <f>ROUNDUP(I86/G86,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C86" t="s">
-        <v>755</v>
-      </c>
-      <c r="E86" s="26" t="s">
+    <row r="94" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B94" s="33">
+        <f>ROUNDUP(I94/G94,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C94" t="s">
+        <v>754</v>
+      </c>
+      <c r="E94" s="26" t="s">
         <v>648</v>
       </c>
-      <c r="G86">
+      <c r="G94">
         <v>500</v>
       </c>
-      <c r="H86" s="22">
+      <c r="H94" s="22">
         <v>2.4900000000000002</v>
       </c>
-      <c r="I86" s="18">
-        <f>SUMIF(C$1:C$70,"="&amp;C86,B$1:B$70)</f>
+      <c r="I94" s="18">
+        <f>SUMIF(C$1:C$77,"="&amp;C94,B$1:B$77)</f>
         <v>40</v>
       </c>
-      <c r="J86" s="33">
-        <f t="shared" ref="J86" si="15">G86*B86-I86</f>
+      <c r="J94" s="33">
+        <f t="shared" ref="J94" si="18">G94*B94-I94</f>
         <v>460</v>
       </c>
-      <c r="K86" s="34">
+      <c r="K94" s="34">
         <f t="shared" si="4"/>
         <v>2.4900000000000002</v>
       </c>
     </row>
-    <row r="87" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="33">
+    <row r="95" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B95" s="33">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C87" s="32" t="s">
-        <v>783</v>
-      </c>
-      <c r="E87" s="9" t="s">
-        <v>720</v>
-      </c>
-      <c r="G87">
-        <v>1</v>
-      </c>
-      <c r="H87" s="22">
+      <c r="C95" s="32" t="s">
+        <v>782</v>
+      </c>
+      <c r="E95" s="9" t="s">
+        <v>719</v>
+      </c>
+      <c r="G95">
+        <v>1</v>
+      </c>
+      <c r="H95" s="22">
         <v>0.15</v>
       </c>
-      <c r="I87" s="18">
-        <f>SUMIF(C$1:C$70,"="&amp;C87,B$1:B$70)</f>
+      <c r="I95" s="18">
+        <f>SUMIF(C$1:C$77,"="&amp;C95,B$1:B$77)</f>
         <v>5</v>
       </c>
-      <c r="J87" s="33">
+      <c r="J95" s="33">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K87" s="34">
+      <c r="K95" s="34">
         <f t="shared" si="4"/>
         <v>0.75</v>
       </c>
     </row>
-    <row r="88" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="33">
-        <f t="shared" ref="B88" si="16">ROUNDUP(I88/G88,0)</f>
+    <row r="96" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B96" s="33">
+        <f t="shared" ref="B96" si="19">ROUNDUP(I96/G96,0)</f>
         <v>4</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C96" t="s">
         <v>656</v>
       </c>
-      <c r="E88" s="29" t="s">
-        <v>734</v>
-      </c>
-      <c r="G88">
-        <v>1</v>
-      </c>
-      <c r="H88" s="22">
+      <c r="E96" s="29" t="s">
+        <v>733</v>
+      </c>
+      <c r="G96">
+        <v>1</v>
+      </c>
+      <c r="H96" s="22">
         <v>0.08</v>
       </c>
-      <c r="I88" s="18">
-        <f>SUMIF(C$1:C$70,"="&amp;C88,B$1:B$70)</f>
+      <c r="I96" s="18">
+        <f>SUMIF(C$1:C$77,"="&amp;C96,B$1:B$77)</f>
         <v>4</v>
       </c>
-      <c r="J88" s="33">
-        <f t="shared" ref="J88" si="17">G88*B88-I88</f>
+      <c r="J96" s="33">
+        <f t="shared" ref="J96" si="20">G96*B96-I96</f>
         <v>0</v>
       </c>
-      <c r="K88" s="34">
+      <c r="K96" s="34">
         <f t="shared" si="4"/>
         <v>0.32</v>
       </c>
     </row>
-    <row r="89" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="33">
-        <f t="shared" ref="B89:B93" si="18">ROUNDUP(I89/G89,0)</f>
+    <row r="97" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B97" s="33">
+        <f t="shared" ref="B97:B101" si="21">ROUNDUP(I97/G97,0)</f>
         <v>4</v>
       </c>
-      <c r="C89" t="s">
-        <v>678</v>
-      </c>
-      <c r="E89" s="29" t="s">
-        <v>683</v>
-      </c>
-      <c r="G89">
-        <v>1</v>
-      </c>
-      <c r="H89" s="22">
+      <c r="C97" t="s">
+        <v>677</v>
+      </c>
+      <c r="E97" s="29" t="s">
+        <v>682</v>
+      </c>
+      <c r="G97">
+        <v>1</v>
+      </c>
+      <c r="H97" s="22">
         <v>5.0999999999999996</v>
       </c>
-      <c r="I89" s="18">
-        <f>SUMIF(C$1:C$70,"="&amp;C89,B$1:B$70)</f>
+      <c r="I97" s="18">
+        <f>SUMIF(C$1:C$77,"="&amp;C97,B$1:B$77)</f>
         <v>4</v>
       </c>
-      <c r="J89" s="33">
-        <f t="shared" ref="J89" si="19">G89*B89-I89</f>
+      <c r="J97" s="33">
+        <f t="shared" ref="J97" si="22">G97*B97-I97</f>
         <v>0</v>
       </c>
-      <c r="K89" s="34">
+      <c r="K97" s="34">
         <f t="shared" si="4"/>
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="90" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="33">
-        <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="C90" t="s">
-        <v>685</v>
-      </c>
-      <c r="E90" s="29" t="s">
+    <row r="98" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B98" s="33">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="C98" t="s">
         <v>684</v>
       </c>
-      <c r="G90">
-        <v>1</v>
-      </c>
-      <c r="H90" s="22">
+      <c r="E98" s="29" t="s">
+        <v>683</v>
+      </c>
+      <c r="G98">
+        <v>1</v>
+      </c>
+      <c r="H98" s="22">
         <v>5.44</v>
       </c>
-      <c r="I90" s="18">
-        <f>SUMIF(C$1:C$70,"="&amp;C90,B$1:B$70)</f>
-        <v>1</v>
-      </c>
-      <c r="J90" s="33">
-        <f t="shared" ref="J90:J92" si="20">G90*B90-I90</f>
+      <c r="I98" s="18">
+        <f>SUMIF(C$1:C$77,"="&amp;C98,B$1:B$77)</f>
+        <v>1</v>
+      </c>
+      <c r="J98" s="33">
+        <f t="shared" ref="J98:J100" si="23">G98*B98-I98</f>
         <v>0</v>
       </c>
-      <c r="K90" s="34">
+      <c r="K98" s="34">
         <f t="shared" si="4"/>
         <v>5.44</v>
       </c>
     </row>
-    <row r="91" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="33">
-        <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="C91" t="s">
-        <v>729</v>
-      </c>
-      <c r="E91" s="29" t="s">
-        <v>688</v>
-      </c>
-      <c r="G91">
-        <v>1</v>
-      </c>
-      <c r="H91" s="22">
+    <row r="99" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B99" s="33">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="C99" t="s">
+        <v>728</v>
+      </c>
+      <c r="E99" s="29" t="s">
+        <v>687</v>
+      </c>
+      <c r="G99">
+        <v>1</v>
+      </c>
+      <c r="H99" s="22">
         <v>4.46</v>
       </c>
-      <c r="I91" s="18">
-        <f>SUMIF(C$1:C$70,"="&amp;C91,B$1:B$70)</f>
-        <v>1</v>
-      </c>
-      <c r="J91" s="33">
-        <f t="shared" si="20"/>
+      <c r="I99" s="18">
+        <f>SUMIF(C$1:C$77,"="&amp;C99,B$1:B$77)</f>
+        <v>1</v>
+      </c>
+      <c r="J99" s="33">
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="K91" s="34">
+      <c r="K99" s="34">
         <f t="shared" si="4"/>
         <v>4.46</v>
       </c>
     </row>
-    <row r="92" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="33">
-        <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="C92" t="s">
-        <v>730</v>
-      </c>
-      <c r="E92" s="29" t="s">
-        <v>686</v>
-      </c>
-      <c r="G92">
-        <v>1</v>
-      </c>
-      <c r="H92" s="22">
+    <row r="100" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B100" s="33">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="C100" t="s">
+        <v>729</v>
+      </c>
+      <c r="E100" s="29" t="s">
+        <v>685</v>
+      </c>
+      <c r="G100">
+        <v>1</v>
+      </c>
+      <c r="H100" s="22">
         <v>5.01</v>
       </c>
-      <c r="I92" s="18">
-        <f>SUMIF(C$1:C$70,"="&amp;C92,B$1:B$70)</f>
-        <v>1</v>
-      </c>
-      <c r="J92" s="33">
-        <f t="shared" si="20"/>
+      <c r="I100" s="18">
+        <f>SUMIF(C$1:C$77,"="&amp;C100,B$1:B$77)</f>
+        <v>1</v>
+      </c>
+      <c r="J100" s="33">
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="K92" s="34">
+      <c r="K100" s="34">
         <f t="shared" si="4"/>
         <v>5.01</v>
       </c>
     </row>
-    <row r="93" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="33">
-        <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="C93" t="s">
-        <v>775</v>
-      </c>
-      <c r="E93" s="26" t="s">
+    <row r="101" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B101" s="33">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="C101" t="s">
         <v>774</v>
       </c>
-      <c r="G93">
-        <v>1</v>
-      </c>
-      <c r="H93" s="22">
+      <c r="E101" s="26" t="s">
+        <v>773</v>
+      </c>
+      <c r="G101">
+        <v>1</v>
+      </c>
+      <c r="H101" s="22">
         <v>6.34</v>
       </c>
-      <c r="I93" s="18">
-        <f>SUMIF(C$1:C$70,"="&amp;C93,B$1:B$70)</f>
-        <v>1</v>
-      </c>
-      <c r="J93" s="33">
-        <f t="shared" ref="J93" si="21">G93*B93-I93</f>
+      <c r="I101" s="18">
+        <f>SUMIF(C$1:C$77,"="&amp;C101,B$1:B$77)</f>
+        <v>1</v>
+      </c>
+      <c r="J101" s="33">
+        <f t="shared" ref="J101" si="24">G101*B101-I101</f>
         <v>0</v>
       </c>
-      <c r="K93" s="34">
-        <f t="shared" ref="K93" si="22">B93*H93</f>
+      <c r="K101" s="34">
+        <f t="shared" ref="K101" si="25">B101*H101</f>
         <v>6.34</v>
       </c>
     </row>
-    <row r="94" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B94" s="33">
-        <v>1</v>
-      </c>
-      <c r="C94" s="32" t="s">
-        <v>704</v>
-      </c>
-      <c r="D94" s="32"/>
-      <c r="E94" s="29" t="s">
-        <v>706</v>
-      </c>
-      <c r="G94">
-        <v>1</v>
-      </c>
-      <c r="H94" s="22">
+    <row r="102" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B102" s="33">
+        <v>1</v>
+      </c>
+      <c r="C102" s="32" t="s">
+        <v>703</v>
+      </c>
+      <c r="D102" s="32"/>
+      <c r="E102" s="29" t="s">
+        <v>705</v>
+      </c>
+      <c r="G102">
+        <v>1</v>
+      </c>
+      <c r="H102" s="22">
         <v>4.96</v>
       </c>
-      <c r="I94" s="18">
-        <f>SUMIF(C$1:C$70,"="&amp;C94,B$1:B$70)</f>
-        <v>1</v>
-      </c>
-      <c r="J94" s="33">
+      <c r="I102" s="18">
+        <f>SUMIF(C$1:C$77,"="&amp;C102,B$1:B$77)</f>
+        <v>1</v>
+      </c>
+      <c r="J102" s="33">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K94" s="34">
+      <c r="K102" s="34">
         <f t="shared" si="4"/>
         <v>4.96</v>
       </c>
     </row>
-    <row r="95" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="33">
-        <v>1</v>
-      </c>
-      <c r="C95" t="s">
-        <v>689</v>
-      </c>
-      <c r="D95" s="32"/>
-      <c r="E95" s="29" t="s">
-        <v>732</v>
-      </c>
-      <c r="G95">
-        <v>1</v>
-      </c>
-      <c r="H95" s="22">
+    <row r="103" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B103" s="33">
+        <v>1</v>
+      </c>
+      <c r="C103" t="s">
+        <v>688</v>
+      </c>
+      <c r="D103" s="32"/>
+      <c r="E103" s="29" t="s">
+        <v>731</v>
+      </c>
+      <c r="G103">
+        <v>1</v>
+      </c>
+      <c r="H103" s="22">
         <v>4.24</v>
       </c>
-      <c r="I95" s="18">
-        <f>SUMIF(C$1:C$70,"="&amp;C95,B$1:B$70)</f>
-        <v>1</v>
-      </c>
-      <c r="J95" s="33">
-        <f t="shared" ref="J95" si="23">G95*B95-I95</f>
+      <c r="I103" s="18">
+        <f>SUMIF(C$1:C$77,"="&amp;C103,B$1:B$77)</f>
+        <v>1</v>
+      </c>
+      <c r="J103" s="33">
+        <f t="shared" ref="J103" si="26">G103*B103-I103</f>
         <v>0</v>
       </c>
-      <c r="K95" s="34">
+      <c r="K103" s="34">
         <f t="shared" si="4"/>
         <v>4.24</v>
       </c>
     </row>
-    <row r="96" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B96" s="33">
-        <v>1</v>
-      </c>
-      <c r="C96" s="32" t="s">
-        <v>694</v>
-      </c>
-      <c r="E96" s="26" t="s">
-        <v>696</v>
-      </c>
-      <c r="G96">
-        <v>1</v>
-      </c>
-      <c r="H96" s="22">
+    <row r="104" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B104" s="33">
+        <v>1</v>
+      </c>
+      <c r="C104" s="32" t="s">
+        <v>693</v>
+      </c>
+      <c r="E104" s="26" t="s">
+        <v>695</v>
+      </c>
+      <c r="G104">
+        <v>1</v>
+      </c>
+      <c r="H104" s="22">
         <v>14.5</v>
       </c>
-      <c r="I96" s="18">
-        <f>SUMIF(C$1:C$70,"="&amp;C96,B$1:B$70)</f>
-        <v>1</v>
-      </c>
-      <c r="J96" s="33">
+      <c r="I104" s="18">
+        <f>SUMIF(C$1:C$77,"="&amp;C104,B$1:B$77)</f>
+        <v>1</v>
+      </c>
+      <c r="J104" s="33">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K96" s="34">
+      <c r="K104" s="34">
         <f t="shared" si="4"/>
         <v>14.5</v>
       </c>
     </row>
-    <row r="97" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="33">
-        <v>1</v>
-      </c>
-      <c r="C97" s="32" t="s">
+    <row r="105" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B105" s="33">
+        <v>1</v>
+      </c>
+      <c r="C105" s="32" t="s">
+        <v>769</v>
+      </c>
+      <c r="E105" s="26" t="s">
         <v>770</v>
       </c>
-      <c r="E97" s="26" t="s">
-        <v>771</v>
-      </c>
-      <c r="G97">
-        <v>1</v>
-      </c>
-      <c r="H97" s="22">
+      <c r="G105">
+        <v>1</v>
+      </c>
+      <c r="H105" s="22">
         <v>8.5</v>
       </c>
-      <c r="I97" s="18">
-        <f>SUMIF(C$1:C$70,"="&amp;C97,B$1:B$70)</f>
-        <v>1</v>
-      </c>
-      <c r="J97" s="33">
-        <f t="shared" ref="J97" si="24">G97*B97-I97</f>
+      <c r="I105" s="18">
+        <f>SUMIF(C$1:C$77,"="&amp;C105,B$1:B$77)</f>
+        <v>1</v>
+      </c>
+      <c r="J105" s="33">
+        <f t="shared" ref="J105" si="27">G105*B105-I105</f>
         <v>0</v>
       </c>
-      <c r="K97" s="34">
-        <f t="shared" ref="K97" si="25">B97*H97</f>
+      <c r="K105" s="34">
+        <f t="shared" ref="K105" si="28">B105*H105</f>
         <v>8.5</v>
       </c>
     </row>
-    <row r="98" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B98" s="33">
-        <f t="shared" ref="B98:B109" si="26">ROUNDUP(I98/G98,0)</f>
-        <v>2</v>
-      </c>
-      <c r="C98" s="32" t="s">
-        <v>709</v>
-      </c>
-      <c r="E98" s="9" t="s">
+    <row r="106" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B106" s="33">
+        <f t="shared" ref="B106:B117" si="29">ROUNDUP(I106/G106,0)</f>
+        <v>3</v>
+      </c>
+      <c r="C106" s="32" t="s">
+        <v>708</v>
+      </c>
+      <c r="E106" s="9" t="s">
         <v>562</v>
       </c>
-      <c r="G98">
-        <v>1</v>
-      </c>
-      <c r="H98" s="22">
+      <c r="G106">
+        <v>1</v>
+      </c>
+      <c r="H106" s="22">
         <v>14.53</v>
       </c>
-      <c r="I98" s="18">
-        <f>SUMIF(C$1:C$70,"="&amp;C98,B$1:B$70)</f>
-        <v>2</v>
-      </c>
-      <c r="J98" s="33">
+      <c r="I106" s="18">
+        <f>SUMIF(C$1:C$77,"="&amp;C106,B$1:B$77)</f>
+        <v>3</v>
+      </c>
+      <c r="J106" s="33">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K98" s="34">
+      <c r="K106" s="34">
         <f t="shared" si="4"/>
-        <v>29.06</v>
-      </c>
-    </row>
-    <row r="99" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B99" s="33">
-        <f t="shared" si="26"/>
+        <v>43.589999999999996</v>
+      </c>
+    </row>
+    <row r="107" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B107" s="33">
+        <f t="shared" si="29"/>
         <v>2</v>
       </c>
-      <c r="C99" s="32" t="s">
-        <v>719</v>
-      </c>
-      <c r="D99" s="32"/>
-      <c r="E99" s="29" t="s">
-        <v>717</v>
-      </c>
-      <c r="G99">
-        <v>1</v>
-      </c>
-      <c r="H99" s="22">
+      <c r="C107" s="32" t="s">
+        <v>718</v>
+      </c>
+      <c r="D107" s="32"/>
+      <c r="E107" s="29" t="s">
+        <v>716</v>
+      </c>
+      <c r="G107">
+        <v>1</v>
+      </c>
+      <c r="H107" s="22">
         <v>1.54</v>
       </c>
-      <c r="I99" s="18">
-        <f>SUMIF(C$1:C$70,"="&amp;C99,B$1:B$70)</f>
+      <c r="I107" s="18">
+        <f>SUMIF(C$1:C$77,"="&amp;C107,B$1:B$77)</f>
         <v>2</v>
       </c>
-      <c r="J99" s="33">
+      <c r="J107" s="33">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K99" s="34">
+      <c r="K107" s="34">
         <f t="shared" si="4"/>
         <v>3.08</v>
       </c>
     </row>
-    <row r="100" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B100" s="33">
-        <f t="shared" si="26"/>
+    <row r="108" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B108" s="33">
+        <f t="shared" si="29"/>
         <v>6</v>
       </c>
-      <c r="C100" t="s">
-        <v>691</v>
-      </c>
-      <c r="E100" s="26" t="s">
+      <c r="C108" t="s">
         <v>690</v>
       </c>
-      <c r="G100">
-        <v>1</v>
-      </c>
-      <c r="H100" s="22">
+      <c r="E108" s="26" t="s">
+        <v>689</v>
+      </c>
+      <c r="G108">
+        <v>1</v>
+      </c>
+      <c r="H108" s="22">
         <v>1.95</v>
       </c>
-      <c r="I100" s="18">
-        <f>SUMIF(C$1:C$70,"="&amp;C100,B$1:B$70)</f>
+      <c r="I108" s="18">
+        <f>SUMIF(C$1:C$77,"="&amp;C108,B$1:B$77)</f>
         <v>6</v>
       </c>
-      <c r="J100" s="33">
+      <c r="J108" s="33">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K100" s="34">
+      <c r="K108" s="34">
         <f t="shared" si="4"/>
         <v>11.7</v>
       </c>
     </row>
-    <row r="101" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="33">
-        <f t="shared" si="26"/>
+    <row r="109" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B109" s="33">
+        <f t="shared" si="29"/>
         <v>2</v>
       </c>
-      <c r="C101" t="s">
-        <v>666</v>
-      </c>
-      <c r="E101" s="29" t="s">
-        <v>668</v>
-      </c>
-      <c r="G101">
-        <v>1</v>
-      </c>
-      <c r="H101" s="22">
+      <c r="C109" t="s">
+        <v>665</v>
+      </c>
+      <c r="E109" s="29" t="s">
+        <v>667</v>
+      </c>
+      <c r="G109">
+        <v>1</v>
+      </c>
+      <c r="H109" s="22">
         <v>1.39</v>
       </c>
-      <c r="I101" s="18">
-        <f>SUMIF(C$1:C$70,"="&amp;C101,B$1:B$70)</f>
+      <c r="I109" s="18">
+        <f>SUMIF(C$1:C$77,"="&amp;C109,B$1:B$77)</f>
         <v>2</v>
       </c>
-      <c r="J101" s="33">
-        <f t="shared" ref="J101" si="27">G101*B101-I101</f>
+      <c r="J109" s="33">
+        <f t="shared" ref="J109" si="30">G109*B109-I109</f>
         <v>0</v>
       </c>
-      <c r="K101" s="34">
+      <c r="K109" s="34">
         <f t="shared" si="4"/>
         <v>2.78</v>
       </c>
     </row>
-    <row r="102" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B102" s="33">
-        <f t="shared" si="26"/>
-        <v>1</v>
-      </c>
-      <c r="C102" t="s">
+    <row r="110" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B110" s="33">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="C110" t="s">
         <v>658</v>
       </c>
-      <c r="E102" s="29" t="s">
+      <c r="E110" s="29" t="s">
         <v>557</v>
       </c>
-      <c r="G102">
-        <v>1</v>
-      </c>
-      <c r="H102" s="22">
+      <c r="G110">
+        <v>1</v>
+      </c>
+      <c r="H110" s="22">
         <v>3.29</v>
       </c>
-      <c r="I102" s="18">
-        <f>SUMIF(C$1:C$70,"="&amp;C102,B$1:B$70)</f>
-        <v>1</v>
-      </c>
-      <c r="J102" s="33">
-        <f t="shared" ref="J102" si="28">G102*B102-I102</f>
+      <c r="I110" s="18">
+        <f>SUMIF(C$1:C$77,"="&amp;C110,B$1:B$77)</f>
+        <v>1</v>
+      </c>
+      <c r="J110" s="33">
+        <f t="shared" ref="J110" si="31">G110*B110-I110</f>
         <v>0</v>
       </c>
-      <c r="K102" s="34">
+      <c r="K110" s="34">
         <f t="shared" si="4"/>
         <v>3.29</v>
       </c>
     </row>
-    <row r="103" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B103" s="33">
-        <f t="shared" si="26"/>
+    <row r="111" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B111" s="33">
+        <f t="shared" si="29"/>
+        <v>4</v>
+      </c>
+      <c r="C111" s="32" t="s">
+        <v>740</v>
+      </c>
+      <c r="E111" s="26" t="s">
+        <v>557</v>
+      </c>
+      <c r="G111">
+        <v>1</v>
+      </c>
+      <c r="H111" s="22">
+        <v>3.29</v>
+      </c>
+      <c r="I111" s="18">
+        <f>SUMIF(C$1:C$77,"="&amp;C111,B$1:B$77)</f>
+        <v>4</v>
+      </c>
+      <c r="J111" s="33">
+        <f t="shared" ref="J111" si="32">G111*B111-I111</f>
+        <v>0</v>
+      </c>
+      <c r="K111" s="34">
+        <f t="shared" si="4"/>
+        <v>13.16</v>
+      </c>
+    </row>
+    <row r="112" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B112" s="33">
+        <f t="shared" si="29"/>
         <v>2</v>
       </c>
-      <c r="C103" s="32" t="s">
-        <v>741</v>
-      </c>
-      <c r="E103" s="26" t="s">
-        <v>557</v>
-      </c>
-      <c r="G103">
-        <v>1</v>
-      </c>
-      <c r="H103" s="22">
-        <v>3.29</v>
-      </c>
-      <c r="I103" s="18">
-        <f>SUMIF(C$1:C$70,"="&amp;C103,B$1:B$70)</f>
+      <c r="C112" t="s">
+        <v>744</v>
+      </c>
+      <c r="E112" s="26" t="s">
+        <v>745</v>
+      </c>
+      <c r="G112">
+        <v>1</v>
+      </c>
+      <c r="H112" s="22">
+        <v>1</v>
+      </c>
+      <c r="I112" s="18">
+        <f>SUMIF(C$1:C$77,"="&amp;C112,B$1:B$77)</f>
         <v>2</v>
       </c>
-      <c r="J103" s="33">
-        <f t="shared" ref="J103" si="29">G103*B103-I103</f>
+      <c r="J112" s="33">
+        <f t="shared" ref="J112" si="33">G112*B112-I112</f>
         <v>0</v>
       </c>
-      <c r="K103" s="34">
-        <f t="shared" si="4"/>
-        <v>6.58</v>
-      </c>
-    </row>
-    <row r="104" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B104" s="33">
-        <f t="shared" si="26"/>
-        <v>2</v>
-      </c>
-      <c r="C104" t="s">
-        <v>745</v>
-      </c>
-      <c r="E104" s="26" t="s">
-        <v>746</v>
-      </c>
-      <c r="G104">
-        <v>1</v>
-      </c>
-      <c r="H104" s="22">
-        <v>1</v>
-      </c>
-      <c r="I104" s="18">
-        <f>SUMIF(C$1:C$70,"="&amp;C104,B$1:B$70)</f>
-        <v>2</v>
-      </c>
-      <c r="J104" s="33">
-        <f t="shared" ref="J104" si="30">G104*B104-I104</f>
-        <v>0</v>
-      </c>
-      <c r="K104" s="34">
+      <c r="K112" s="34">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B105" s="33">
-        <f t="shared" si="26"/>
-        <v>1</v>
-      </c>
-      <c r="C105" t="s">
+    <row r="113" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B113" s="33">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="C113" t="s">
+        <v>748</v>
+      </c>
+      <c r="E113" s="26" t="s">
         <v>749</v>
       </c>
-      <c r="E105" s="26" t="s">
-        <v>750</v>
-      </c>
-      <c r="G105">
+      <c r="G113">
         <v>10</v>
       </c>
-      <c r="H105" s="22">
+      <c r="H113" s="22">
         <v>2.59</v>
       </c>
-      <c r="I105" s="18">
-        <f>SUMIF(C$1:C$70,"="&amp;C105,B$1:B$70)</f>
+      <c r="I113" s="18">
+        <f>SUMIF(C$1:C$77,"="&amp;C113,B$1:B$77)</f>
         <v>2</v>
       </c>
-      <c r="J105" s="33">
-        <f t="shared" ref="J105" si="31">G105*B105-I105</f>
+      <c r="J113" s="33">
+        <f t="shared" ref="J113" si="34">G113*B113-I113</f>
         <v>8</v>
       </c>
-      <c r="K105" s="34">
+      <c r="K113" s="34">
         <f t="shared" si="4"/>
         <v>2.59</v>
       </c>
     </row>
-    <row r="106" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B106" s="33">
-        <f t="shared" si="26"/>
+    <row r="114" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B114" s="33">
+        <f t="shared" si="29"/>
         <v>4</v>
       </c>
-      <c r="C106" s="32" t="s">
-        <v>753</v>
-      </c>
-      <c r="E106" s="26" t="s">
+      <c r="C114" s="32" t="s">
         <v>752</v>
       </c>
-      <c r="G106">
-        <v>1</v>
-      </c>
-      <c r="H106" s="22">
+      <c r="E114" s="26" t="s">
+        <v>751</v>
+      </c>
+      <c r="G114">
+        <v>1</v>
+      </c>
+      <c r="H114" s="22">
         <v>1.05</v>
       </c>
-      <c r="I106" s="18">
-        <f>SUMIF(C$1:C$70,"="&amp;C106,B$1:B$70)</f>
+      <c r="I114" s="18">
+        <f>SUMIF(C$1:C$77,"="&amp;C114,B$1:B$77)</f>
         <v>4</v>
       </c>
-      <c r="J106" s="33">
-        <f t="shared" ref="J106" si="32">G106*B106-I106</f>
+      <c r="J114" s="33">
+        <f t="shared" ref="J114" si="35">G114*B114-I114</f>
         <v>0</v>
       </c>
-      <c r="K106" s="34">
+      <c r="K114" s="34">
         <f t="shared" si="4"/>
         <v>4.2</v>
       </c>
     </row>
-    <row r="107" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B107" s="33">
-        <f t="shared" si="26"/>
+    <row r="115" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B115" s="33">
+        <f t="shared" si="29"/>
         <v>2</v>
       </c>
-      <c r="C107" t="s">
-        <v>759</v>
-      </c>
-      <c r="E107" s="26" t="s">
+      <c r="C115" t="s">
         <v>758</v>
       </c>
-      <c r="G107">
-        <v>1</v>
-      </c>
-      <c r="H107" s="22">
+      <c r="E115" s="26" t="s">
+        <v>757</v>
+      </c>
+      <c r="G115">
+        <v>1</v>
+      </c>
+      <c r="H115" s="22">
         <v>4.4400000000000004</v>
       </c>
-      <c r="I107" s="18">
-        <f>SUMIF(C$1:C$70,"="&amp;C107,B$1:B$70)</f>
+      <c r="I115" s="18">
+        <f>SUMIF(C$1:C$77,"="&amp;C115,B$1:B$77)</f>
         <v>2</v>
       </c>
-      <c r="J107" s="33">
-        <f t="shared" ref="J107:J108" si="33">G107*B107-I107</f>
+      <c r="J115" s="33">
+        <f t="shared" ref="J115:J116" si="36">G115*B115-I115</f>
         <v>0</v>
       </c>
-      <c r="K107" s="34">
+      <c r="K115" s="34">
         <f t="shared" si="4"/>
         <v>8.8800000000000008</v>
       </c>
     </row>
-    <row r="108" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B108" s="33">
-        <f t="shared" si="26"/>
-        <v>1</v>
-      </c>
-      <c r="C108" t="s">
-        <v>784</v>
-      </c>
-      <c r="E108" t="s">
-        <v>776</v>
-      </c>
-      <c r="G108">
-        <v>1</v>
-      </c>
-      <c r="H108" s="22">
+    <row r="116" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B116" s="33">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="C116" t="s">
+        <v>783</v>
+      </c>
+      <c r="E116" t="s">
+        <v>775</v>
+      </c>
+      <c r="G116">
+        <v>1</v>
+      </c>
+      <c r="H116" s="22">
         <v>0.4</v>
       </c>
-      <c r="I108" s="18">
-        <f>SUMIF(C$1:C$70,"="&amp;C108,B$1:B$70)</f>
-        <v>1</v>
-      </c>
-      <c r="J108" s="33">
-        <f t="shared" si="33"/>
+      <c r="I116" s="18">
+        <f>SUMIF(C$1:C$77,"="&amp;C116,B$1:B$77)</f>
+        <v>1</v>
+      </c>
+      <c r="J116" s="33">
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="K108" s="34">
+      <c r="K116" s="34">
         <f t="shared" si="4"/>
         <v>0.4</v>
       </c>
     </row>
-    <row r="109" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B109" s="33">
-        <f t="shared" si="26"/>
-        <v>1</v>
-      </c>
-      <c r="C109" t="s">
-        <v>778</v>
-      </c>
-      <c r="E109" t="s">
-        <v>776</v>
-      </c>
-      <c r="G109">
-        <v>1</v>
-      </c>
-      <c r="H109" s="22">
+    <row r="117" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B117" s="33">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="C117" t="s">
+        <v>777</v>
+      </c>
+      <c r="E117" t="s">
+        <v>775</v>
+      </c>
+      <c r="G117">
+        <v>1</v>
+      </c>
+      <c r="H117" s="22">
         <v>0.4</v>
       </c>
-      <c r="I109" s="18">
-        <f>SUMIF(C$1:C$70,"="&amp;C109,B$1:B$70)</f>
-        <v>1</v>
-      </c>
-      <c r="J109" s="33">
-        <f t="shared" ref="J109" si="34">G109*B109-I109</f>
+      <c r="I117" s="18">
+        <f>SUMIF(C$1:C$77,"="&amp;C117,B$1:B$77)</f>
+        <v>1</v>
+      </c>
+      <c r="J117" s="33">
+        <f t="shared" ref="J117" si="37">G117*B117-I117</f>
         <v>0</v>
       </c>
-      <c r="K109" s="34">
-        <f t="shared" ref="K109" si="35">B109*H109</f>
+      <c r="K117" s="34">
+        <f t="shared" ref="K117" si="38">B117*H117</f>
         <v>0.4</v>
       </c>
     </row>
-    <row r="110" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B110" s="33"/>
-      <c r="D110" t="s">
-        <v>776</v>
-      </c>
-      <c r="H110" s="22"/>
-      <c r="I110" s="18"/>
-      <c r="J110" s="33"/>
-    </row>
-    <row r="111" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B111" s="33"/>
-      <c r="E111" s="26"/>
-      <c r="H111" s="22"/>
-      <c r="I111" s="18"/>
-      <c r="J111" s="33"/>
-    </row>
-    <row r="112" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B112" s="33"/>
-      <c r="E112" s="26"/>
-      <c r="H112" s="22"/>
-      <c r="I112" s="18"/>
-      <c r="J112" s="33"/>
-    </row>
-    <row r="113" spans="2:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B113" s="33"/>
-      <c r="E113" s="26"/>
-      <c r="H113" s="22"/>
-      <c r="I113" s="18"/>
-      <c r="J113" s="33"/>
-    </row>
-    <row r="114" spans="2:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B114" s="33"/>
-      <c r="E114" s="26"/>
-      <c r="H114" s="22"/>
-      <c r="I114" s="18"/>
-      <c r="J114" s="33"/>
-    </row>
-    <row r="115" spans="2:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B115" s="33"/>
-      <c r="E115" s="26"/>
-      <c r="H115" s="22"/>
-      <c r="I115" s="18"/>
-      <c r="J115" s="33"/>
-    </row>
-    <row r="116" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C116" t="s">
+    <row r="118" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B118" s="33"/>
+      <c r="D118" t="s">
+        <v>775</v>
+      </c>
+      <c r="H118" s="22"/>
+      <c r="I118" s="18"/>
+      <c r="J118" s="33"/>
+    </row>
+    <row r="119" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B119" s="33"/>
+      <c r="E119" s="26"/>
+      <c r="H119" s="22"/>
+      <c r="I119" s="18"/>
+      <c r="J119" s="33"/>
+    </row>
+    <row r="120" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B120" s="33"/>
+      <c r="E120" s="26"/>
+      <c r="H120" s="22"/>
+      <c r="I120" s="18"/>
+      <c r="J120" s="33"/>
+    </row>
+    <row r="121" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B121" s="33"/>
+      <c r="E121" s="26"/>
+      <c r="H121" s="22"/>
+      <c r="I121" s="18"/>
+      <c r="J121" s="33"/>
+    </row>
+    <row r="122" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B122" s="33"/>
+      <c r="E122" s="26"/>
+      <c r="H122" s="22"/>
+      <c r="I122" s="18"/>
+      <c r="J122" s="33"/>
+    </row>
+    <row r="123" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B123" s="33"/>
+      <c r="E123" s="26"/>
+      <c r="H123" s="22"/>
+      <c r="I123" s="18"/>
+      <c r="J123" s="33"/>
+    </row>
+    <row r="124" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C124" t="s">
         <v>606</v>
       </c>
-      <c r="D116" s="6" t="s">
+      <c r="D124" s="6" t="s">
         <v>599</v>
       </c>
-      <c r="E116" s="29" t="s">
+      <c r="E124" s="29" t="s">
         <v>554</v>
       </c>
-      <c r="F116">
+      <c r="F124">
         <v>0.28999999999999998</v>
       </c>
-      <c r="H116" s="22">
+      <c r="H124" s="22">
         <v>26.88</v>
       </c>
-      <c r="I116" s="22">
-        <f>H116*B117</f>
+      <c r="I124" s="22">
+        <f>H124*B125</f>
         <v>26.88</v>
       </c>
     </row>
-    <row r="117" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B117">
-        <v>1</v>
-      </c>
-      <c r="C117" t="s">
+    <row r="125" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B125">
+        <v>1</v>
+      </c>
+      <c r="C125" t="s">
         <v>608</v>
       </c>
-      <c r="D117" t="s">
+      <c r="D125" t="s">
         <v>609</v>
       </c>
-      <c r="E117" s="30" t="s">
+      <c r="E125" s="30" t="s">
         <v>607</v>
-      </c>
-      <c r="F117">
-        <v>0</v>
-      </c>
-      <c r="H117">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="I117" s="22">
-        <f>H117*B118</f>
-        <v>6.8999999999999995</v>
-      </c>
-    </row>
-    <row r="118" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B118">
-        <v>6</v>
-      </c>
-      <c r="C118" t="s">
-        <v>612</v>
-      </c>
-      <c r="D118" t="s">
-        <v>610</v>
-      </c>
-      <c r="E118" s="29" t="s">
-        <v>611</v>
-      </c>
-      <c r="F118">
-        <v>0</v>
-      </c>
-      <c r="H118">
-        <f>I118/10</f>
-        <v>0.251</v>
-      </c>
-      <c r="I118">
-        <v>2.5099999999999998</v>
-      </c>
-    </row>
-    <row r="119" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B119">
-        <v>1</v>
-      </c>
-      <c r="C119" t="s">
-        <v>615</v>
-      </c>
-      <c r="D119" t="s">
-        <v>614</v>
-      </c>
-      <c r="E119" s="26" t="s">
-        <v>473</v>
-      </c>
-      <c r="F119">
-        <v>0.7</v>
-      </c>
-      <c r="H119">
-        <v>18</v>
-      </c>
-      <c r="I119" s="22">
-        <f>H119*B120</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="120" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B120">
-        <v>1</v>
-      </c>
-      <c r="E120" s="26"/>
-      <c r="I120" s="22"/>
-    </row>
-    <row r="121" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C121" t="s">
-        <v>616</v>
-      </c>
-      <c r="D121" s="6" t="s">
-        <v>617</v>
-      </c>
-      <c r="E121" s="26" t="s">
-        <v>544</v>
-      </c>
-      <c r="F121">
-        <v>1.34</v>
-      </c>
-      <c r="H121">
-        <v>37</v>
-      </c>
-      <c r="I121" s="22">
-        <f>H121*B122</f>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="122" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B122">
-        <v>1</v>
-      </c>
-      <c r="C122" t="s">
-        <v>639</v>
-      </c>
-      <c r="D122" s="8" t="s">
-        <v>642</v>
-      </c>
-      <c r="E122" s="29" t="s">
-        <v>640</v>
-      </c>
-      <c r="F122">
-        <v>0</v>
-      </c>
-      <c r="I122" s="22"/>
-    </row>
-    <row r="123" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B123">
-        <v>2</v>
-      </c>
-      <c r="C123" t="s">
-        <v>649</v>
-      </c>
-      <c r="D123" t="s">
-        <v>632</v>
-      </c>
-      <c r="E123" s="26" t="s">
-        <v>648</v>
-      </c>
-      <c r="F123">
-        <v>0</v>
-      </c>
-      <c r="I123" s="22"/>
-    </row>
-    <row r="124" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B124">
-        <v>1</v>
-      </c>
-      <c r="C124" t="s">
-        <v>608</v>
-      </c>
-      <c r="D124" t="s">
-        <v>633</v>
-      </c>
-      <c r="E124" s="30" t="s">
-        <v>607</v>
-      </c>
-      <c r="F124">
-        <v>0</v>
-      </c>
-      <c r="I124" s="22"/>
-    </row>
-    <row r="125" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B125">
-        <v>4</v>
-      </c>
-      <c r="C125" t="s">
-        <v>635</v>
-      </c>
-      <c r="D125" t="s">
-        <v>646</v>
-      </c>
-      <c r="E125" s="26" t="s">
-        <v>634</v>
       </c>
       <c r="F125">
         <v>0</v>
       </c>
-      <c r="I125" s="22"/>
-    </row>
-    <row r="126" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H125">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="I125" s="22">
+        <f>H125*B126</f>
+        <v>6.8999999999999995</v>
+      </c>
+    </row>
+    <row r="126" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B126">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="C126" t="s">
+        <v>612</v>
       </c>
       <c r="D126" t="s">
-        <v>647</v>
+        <v>610</v>
       </c>
       <c r="E126" s="29" t="s">
-        <v>645</v>
+        <v>611</v>
       </c>
       <c r="F126">
         <v>0</v>
       </c>
-      <c r="I126" s="22"/>
-    </row>
-    <row r="127" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="E127" s="26"/>
-      <c r="I127" s="22"/>
-    </row>
-    <row r="128" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="D128" s="6" t="s">
-        <v>636</v>
+      <c r="H126">
+        <f>I126/10</f>
+        <v>0.251</v>
+      </c>
+      <c r="I126">
+        <v>2.5099999999999998</v>
+      </c>
+    </row>
+    <row r="127" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B127">
+        <v>1</v>
+      </c>
+      <c r="C127" t="s">
+        <v>615</v>
+      </c>
+      <c r="D127" t="s">
+        <v>614</v>
+      </c>
+      <c r="E127" s="26" t="s">
+        <v>473</v>
+      </c>
+      <c r="F127">
+        <v>0.7</v>
+      </c>
+      <c r="H127">
+        <v>18</v>
+      </c>
+      <c r="I127" s="22">
+        <f>H127*B128</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="128" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B128">
+        <v>1</v>
       </c>
       <c r="E128" s="26"/>
       <c r="I128" s="22"/>
     </row>
     <row r="129" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C129" t="s">
-        <v>628</v>
-      </c>
-      <c r="D129" t="s">
-        <v>626</v>
-      </c>
-      <c r="E129" s="25" t="s">
-        <v>618</v>
+        <v>616</v>
+      </c>
+      <c r="D129" s="6" t="s">
+        <v>617</v>
+      </c>
+      <c r="E129" s="26" t="s">
+        <v>544</v>
       </c>
       <c r="F129">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="H129">
-        <v>9.9</v>
+        <v>37</v>
       </c>
       <c r="I129" s="22">
         <f>H129*B130</f>
-        <v>9.9</v>
-      </c>
-    </row>
-    <row r="130" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B130">
         <v>1</v>
       </c>
       <c r="C130" t="s">
-        <v>630</v>
-      </c>
-      <c r="D130" t="s">
-        <v>622</v>
-      </c>
-      <c r="E130" s="26" t="s">
-        <v>623</v>
+        <v>639</v>
+      </c>
+      <c r="D130" s="8" t="s">
+        <v>642</v>
+      </c>
+      <c r="E130" s="29" t="s">
+        <v>640</v>
       </c>
       <c r="F130">
         <v>0</v>
@@ -13944,16 +14002,16 @@
     </row>
     <row r="131" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B131">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C131" t="s">
-        <v>629</v>
+        <v>649</v>
       </c>
       <c r="D131" t="s">
-        <v>625</v>
-      </c>
-      <c r="E131" s="25" t="s">
-        <v>624</v>
+        <v>632</v>
+      </c>
+      <c r="E131" s="26" t="s">
+        <v>648</v>
       </c>
       <c r="F131">
         <v>0</v>
@@ -13965,13 +14023,13 @@
         <v>1</v>
       </c>
       <c r="C132" t="s">
-        <v>627</v>
+        <v>608</v>
       </c>
       <c r="D132" t="s">
-        <v>644</v>
-      </c>
-      <c r="E132" s="26" t="s">
-        <v>643</v>
+        <v>633</v>
+      </c>
+      <c r="E132" s="30" t="s">
+        <v>607</v>
       </c>
       <c r="F132">
         <v>0</v>
@@ -13980,130 +14038,234 @@
     </row>
     <row r="133" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B133">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C133" t="s">
-        <v>619</v>
+        <v>635</v>
       </c>
       <c r="D133" t="s">
-        <v>637</v>
-      </c>
-      <c r="E133" s="25" t="s">
-        <v>638</v>
+        <v>646</v>
+      </c>
+      <c r="E133" s="26" t="s">
+        <v>634</v>
       </c>
       <c r="F133">
         <v>0</v>
       </c>
       <c r="I133" s="22"/>
     </row>
-    <row r="134" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B134">
-        <v>1</v>
-      </c>
-      <c r="C134" t="s">
-        <v>621</v>
+        <v>8</v>
       </c>
       <c r="D134" t="s">
-        <v>622</v>
-      </c>
-      <c r="E134" s="25" t="s">
-        <v>618</v>
+        <v>647</v>
+      </c>
+      <c r="E134" s="29" t="s">
+        <v>645</v>
       </c>
       <c r="F134">
         <v>0</v>
       </c>
       <c r="I134" s="22"/>
     </row>
-    <row r="135" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B135">
-        <v>1</v>
-      </c>
-      <c r="E135" s="25"/>
+    <row r="135" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="E135" s="26"/>
       <c r="I135" s="22"/>
     </row>
     <row r="136" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="E136" s="25"/>
+      <c r="D136" s="6" t="s">
+        <v>636</v>
+      </c>
+      <c r="E136" s="26"/>
       <c r="I136" s="22"/>
     </row>
     <row r="137" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C137" t="s">
-        <v>603</v>
+        <v>628</v>
       </c>
       <c r="D137" t="s">
-        <v>600</v>
-      </c>
-      <c r="E137" s="29" t="s">
-        <v>602</v>
+        <v>626</v>
+      </c>
+      <c r="E137" s="25" t="s">
+        <v>618</v>
       </c>
       <c r="F137">
         <v>0</v>
       </c>
-      <c r="H137" s="22">
-        <v>0.54</v>
+      <c r="H137">
+        <v>9.9</v>
       </c>
       <c r="I137" s="22">
         <f>H137*B138</f>
-        <v>12.96</v>
-      </c>
-    </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.3">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="138" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B138">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="C138" t="s">
-        <v>604</v>
+        <v>630</v>
       </c>
       <c r="D138" t="s">
-        <v>605</v>
-      </c>
-      <c r="E138" s="29" t="s">
-        <v>601</v>
-      </c>
-      <c r="H138" s="23">
-        <v>4.29</v>
-      </c>
-      <c r="I138" s="22">
-        <f>H138*B139</f>
-        <v>4.29</v>
-      </c>
+        <v>622</v>
+      </c>
+      <c r="E138" s="26" t="s">
+        <v>623</v>
+      </c>
+      <c r="F138">
+        <v>0</v>
+      </c>
+      <c r="I138" s="22"/>
     </row>
     <row r="139" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B139">
         <v>1</v>
       </c>
+      <c r="C139" t="s">
+        <v>629</v>
+      </c>
+      <c r="D139" t="s">
+        <v>625</v>
+      </c>
+      <c r="E139" s="25" t="s">
+        <v>624</v>
+      </c>
+      <c r="F139">
+        <v>0</v>
+      </c>
+      <c r="I139" s="22"/>
+    </row>
+    <row r="140" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B140">
+        <v>1</v>
+      </c>
+      <c r="C140" t="s">
+        <v>627</v>
+      </c>
+      <c r="D140" t="s">
+        <v>644</v>
+      </c>
+      <c r="E140" s="26" t="s">
+        <v>643</v>
+      </c>
+      <c r="F140">
+        <v>0</v>
+      </c>
+      <c r="I140" s="22"/>
     </row>
     <row r="141" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B141">
+        <v>1</v>
+      </c>
+      <c r="C141" t="s">
+        <v>619</v>
+      </c>
+      <c r="D141" t="s">
+        <v>637</v>
+      </c>
+      <c r="E141" s="25" t="s">
+        <v>638</v>
+      </c>
+      <c r="F141">
+        <v>0</v>
+      </c>
+      <c r="I141" s="22"/>
+    </row>
+    <row r="142" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B142">
+        <v>1</v>
+      </c>
+      <c r="C142" t="s">
+        <v>621</v>
+      </c>
+      <c r="D142" t="s">
+        <v>622</v>
+      </c>
+      <c r="E142" s="25" t="s">
+        <v>618</v>
+      </c>
+      <c r="F142">
+        <v>0</v>
+      </c>
+      <c r="I142" s="22"/>
+    </row>
+    <row r="143" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B143">
+        <v>1</v>
+      </c>
+      <c r="E143" s="25"/>
+      <c r="I143" s="22"/>
+    </row>
+    <row r="144" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="E144" s="25"/>
+      <c r="I144" s="22"/>
+    </row>
+    <row r="145" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C145" t="s">
+        <v>603</v>
+      </c>
+      <c r="D145" t="s">
+        <v>600</v>
+      </c>
+      <c r="E145" s="29" t="s">
+        <v>602</v>
+      </c>
+      <c r="F145">
+        <v>0</v>
+      </c>
+      <c r="H145" s="22">
+        <v>0.54</v>
+      </c>
+      <c r="I145" s="22">
+        <f>H145*B146</f>
+        <v>12.96</v>
+      </c>
+    </row>
+    <row r="146" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B146">
+        <v>24</v>
+      </c>
+      <c r="C146" t="s">
+        <v>604</v>
+      </c>
+      <c r="D146" t="s">
+        <v>605</v>
+      </c>
+      <c r="E146" s="29" t="s">
+        <v>601</v>
+      </c>
+      <c r="H146" s="23">
+        <v>4.29</v>
+      </c>
+      <c r="I146" s="22">
+        <f>H146*B147</f>
+        <v>4.29</v>
+      </c>
+    </row>
+    <row r="147" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B149">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E100" r:id="rId1"/>
-    <hyperlink ref="E98" r:id="rId2"/>
-    <hyperlink ref="E117" r:id="rId3"/>
-    <hyperlink ref="E124" r:id="rId4"/>
-    <hyperlink ref="E131" r:id="rId5"/>
-    <hyperlink ref="E130" r:id="rId6"/>
-    <hyperlink ref="E121" r:id="rId7"/>
-    <hyperlink ref="E119" r:id="rId8"/>
+    <hyperlink ref="E108" r:id="rId1"/>
+    <hyperlink ref="E106" r:id="rId2"/>
+    <hyperlink ref="E125" r:id="rId3"/>
+    <hyperlink ref="E132" r:id="rId4"/>
+    <hyperlink ref="E139" r:id="rId5"/>
+    <hyperlink ref="E138" r:id="rId6"/>
+    <hyperlink ref="E129" r:id="rId7"/>
+    <hyperlink ref="E127" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K83" sqref="K83"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1741" uniqueCount="793">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1830" uniqueCount="848">
   <si>
     <t>Bauteilnummer</t>
   </si>
@@ -1862,9 +1862,6 @@
     <t>Schraube M4 x 40mm</t>
   </si>
   <si>
-    <t>Berechnung Zahnriemenscheibe T25</t>
-  </si>
-  <si>
     <t>Schulter Motor</t>
   </si>
   <si>
@@ -2087,9 +2084,6 @@
     <t>http://www.cncshop.at/index.php?a=10121</t>
   </si>
   <si>
-    <t>Zahnriemen T2,5 160mm</t>
-  </si>
-  <si>
     <t>http://www.kugellager-express.de/edelstahl-miniatur-kugellager-ss-mr106-6x10x3-mm.html</t>
   </si>
   <si>
@@ -2120,9 +2114,6 @@
     <t>https://www.conrad.de/de/unterlegscheiben-innen-durchmesser-32-mm-m3-din-125-stahl-verzinkt-100-st-toolcraft-814628-814628.html</t>
   </si>
   <si>
-    <t>Unterlegscheiben M3 Dicke 0,5mm</t>
-  </si>
-  <si>
     <t>Zylinderkopfschraube Innensechskant M3 16mm</t>
   </si>
   <si>
@@ -2132,9 +2123,6 @@
     <t>RiemenSpanner Schraube</t>
   </si>
   <si>
-    <t>Zahnriemen T2,5 230mm</t>
-  </si>
-  <si>
     <t>Zahnriemen Zwischenwelle WristRot (Solllänge 227mm)</t>
   </si>
   <si>
@@ -2291,15 +2279,9 @@
     <t>Welle Zwischenwelle</t>
   </si>
   <si>
-    <t>Welle Zwischenwelle(Ersatz)</t>
-  </si>
-  <si>
     <t>http://www.cncshop.at/index.php?a=10275</t>
   </si>
   <si>
-    <t>Zahnriemen T2,5 200m</t>
-  </si>
-  <si>
     <t>Zahnriemen Motor/ZwischenWelle</t>
   </si>
   <si>
@@ -2400,6 +2382,189 @@
   </si>
   <si>
     <t>http://www.amazon.de/St%C3%BCck-Senkkopfschraube-Innensechskant-7991-Edelstahl/dp/B005HO2N2M</t>
+  </si>
+  <si>
+    <t>Zylinderkopfschraube Innensechskant M3 40mm</t>
+  </si>
+  <si>
+    <t>Zylinderkopfschraube Innensechskant M3 30mm</t>
+  </si>
+  <si>
+    <t>Befestigung Gabel/Block lange Befestigung</t>
+  </si>
+  <si>
+    <t>Befestigung Gabel/Block kurze Befestigung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Befestigung Gabel/Block </t>
+  </si>
+  <si>
+    <t>Riemenspanner Gabel/Block</t>
+  </si>
+  <si>
+    <t>http://www.amazon.de/10x-Edelstahl-Zylinderkopf-Schraube-M3-45mm/dp/B00HWGYIGM/ref=cm_cr_arp_d_product_top?ie=UTF8</t>
+  </si>
+  <si>
+    <t>Zylinderkopfschraube Innensechskant M3 45mm</t>
+  </si>
+  <si>
+    <t>Gewindeschneider M3</t>
+  </si>
+  <si>
+    <t>https://www.conrad.de/de/einschnittgewindebohrer-metrisch-m3-05-mm-rechtsschneidend-exact-05931-din-3126-hss-1-st-813038.html</t>
+  </si>
+  <si>
+    <t>Silberstahlwelle 8mm Durchmesser</t>
+  </si>
+  <si>
+    <t>https://www.conrad.de/de/silberstahl-welle-500-mm-8-mm-237205.html</t>
+  </si>
+  <si>
+    <t>Riemenscheibenachse</t>
+  </si>
+  <si>
+    <t>http://www.cncshop.at/index.php?a=10071</t>
+  </si>
+  <si>
+    <t>Zahnriemenscheibe T5, 48 Zähne</t>
+  </si>
+  <si>
+    <t>http://www.cncshop.at/index.php?a=10053</t>
+  </si>
+  <si>
+    <t>Zahnriemenscheibe T5, 14 Zähne</t>
+  </si>
+  <si>
+    <t>Metallbohrer 8mm</t>
+  </si>
+  <si>
+    <t>Metallbohrer 6mm</t>
+  </si>
+  <si>
+    <t>Metallbohrer 2.3mm (für M3 Gewinde)</t>
+  </si>
+  <si>
+    <t>Werkzeug</t>
+  </si>
+  <si>
+    <t>Madenschraube M3 5mm</t>
+  </si>
+  <si>
+    <t>https://www.conrad.de/de/toolcraft-gewindestifte-mit-innensechskant-und-schneidring-din-916-916-5-mm-hart-45-h-schwarz-m3-20-st-237507.html?sc.ref=Product%20Details</t>
+  </si>
+  <si>
+    <t>Madenschraube M3 16mm</t>
+  </si>
+  <si>
+    <t>Rillenkugellager 8x22x6</t>
+  </si>
+  <si>
+    <t>Unterlegscheiben 8mm Innendurchmesser</t>
+  </si>
+  <si>
+    <t>Riemenspanner Motor</t>
+  </si>
+  <si>
+    <t>Befestigung Block/Basis</t>
+  </si>
+  <si>
+    <t>Senkkopfschraube Innensechskant M3 25mm</t>
+  </si>
+  <si>
+    <t>http://www.amazon.de/Bolt-Base-Edelstahl-Senkschrauben-Innensechskant/dp/B00B3RIE8Y/ref=sr_1_10?ie=UTF8&amp;qid=1460032362&amp;sr=8-10&amp;keywords=senkkopfschraube+m3+30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verbindung Befestigung Basishälften </t>
+  </si>
+  <si>
+    <t>Befestigung Motordeckel</t>
+  </si>
+  <si>
+    <t>Rillenkugellager  4 x13 x 5 mm mit Flansch</t>
+  </si>
+  <si>
+    <t>http://www.cncshop.at/index.php?a=10311</t>
+  </si>
+  <si>
+    <t>zahnriemen Motor (337mm Echtlänge)</t>
+  </si>
+  <si>
+    <t>Zahnriemenscheibe T5, 16 Zähne</t>
+  </si>
+  <si>
+    <t>http://www.cncshop.at/index.php?a=10055</t>
+  </si>
+  <si>
+    <t>Zahnriemen groß (Echtlänge 504mm)</t>
+  </si>
+  <si>
+    <t>Berechnung Zahnriemenscheibe T5</t>
+  </si>
+  <si>
+    <t>http://de.nanotec.com/produkte/541-st6018-schrittmotor-nema-24/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEMA 24 - 60x60x57 1.9Nm ST6018M2008 </t>
+  </si>
+  <si>
+    <t>Zahnriemen T2,5 230mm 6mm Breite</t>
+  </si>
+  <si>
+    <t>Zahnriemen T2,5 160mm 6mm Breite</t>
+  </si>
+  <si>
+    <t>Zahnriemen T5 340mm 10mm Breite</t>
+  </si>
+  <si>
+    <t>Zahnriemen T5 510mm 10mm Breite</t>
+  </si>
+  <si>
+    <t>Zahnriemen T2,5 200mm 6mm Breite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Herkulex Servo DRS - 0201 </t>
+  </si>
+  <si>
+    <t>Servo</t>
+  </si>
+  <si>
+    <t>http://www.ebay.de/itm/111955026833</t>
+  </si>
+  <si>
+    <t>gekauft</t>
+  </si>
+  <si>
+    <t>https://www.kugellager-express.de/flanschkugellager-f624-f-624-4x13x5-mm.html</t>
+  </si>
+  <si>
+    <t>https://www.kugellager-express.de/miniatur-kugellager-624-624z-624rs-4x13x5-mm.html?XTCsid=jn6do78lmla6nb2l5bmaiarad4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rillenkugellager  4 x13 x 5 mm </t>
+  </si>
+  <si>
+    <t>https://www.conrad.de/de/unterlegscheiben-innen-durchmesser-32-mm-m3-din-125-kunststoff-10-st-toolcraft-800281-800281.html</t>
+  </si>
+  <si>
+    <t>http://www.amazon.de/50-St%C3%BCck-Kunststoff-Unterlegscheiben-M8/dp/B008R9QED8</t>
+  </si>
+  <si>
+    <t>http://www.amazon.de/Spiralbohrer-rollgewalzt-Bohrer-Metallbohrer-Stahlbohrer/dp/B01C1SVZM0/ref=sr_1_3?ie=UTF8&amp;qid=1460060893&amp;sr=8-3&amp;keywords=metallbohrer+%222%2C1%22</t>
+  </si>
+  <si>
+    <t>Welle Riemenspanner (Ersatz)</t>
+  </si>
+  <si>
+    <t>Welle Riemenspanner</t>
+  </si>
+  <si>
+    <t>Unterlegscheiben M3 Kunststoff 0,8mm, Außendurchmesser 7mm</t>
+  </si>
+  <si>
+    <t>Unterlegscheiben M3 Dicke 0,5mm, Außendurchmesser 7mm</t>
+  </si>
+  <si>
+    <t>Distanzbolzen M3 5mm, , Schlüsselweite 5mm</t>
   </si>
 </sst>
 </file>
@@ -2414,7 +2579,7 @@
     <numFmt numFmtId="166" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
     <numFmt numFmtId="167" formatCode="_-* #,##0.00\ [$€-407]_-;\-* #,##0.00\ [$€-407]_-;_-* &quot;-&quot;??\ [$€-407]_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2445,6 +2610,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2469,7 +2649,7 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2536,10 +2716,11 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3226,8 +3407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E43"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A34" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3339,12 +3520,12 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E27" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E28" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -3379,18 +3560,18 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E34" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E35" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -3398,47 +3579,47 @@
         <v>236</v>
       </c>
       <c r="E37" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
+        <v>649</v>
+      </c>
+      <c r="E38" t="s">
         <v>650</v>
-      </c>
-      <c r="E38" t="s">
-        <v>651</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
+        <v>651</v>
+      </c>
+      <c r="E40" t="s">
         <v>652</v>
-      </c>
-      <c r="E40" t="s">
-        <v>653</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
+        <v>667</v>
+      </c>
+      <c r="E41" t="s">
         <v>668</v>
-      </c>
-      <c r="E41" t="s">
-        <v>669</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
+        <v>669</v>
+      </c>
+      <c r="E42" t="s">
         <v>670</v>
-      </c>
-      <c r="E42" t="s">
-        <v>671</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E43" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
   </sheetData>
@@ -3450,8 +3631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:AD113"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E76" sqref="E76:O76"/>
+    <sheetView topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3621,7 +3802,7 @@
       </c>
       <c r="C16" s="5">
         <f>C20/C18*(C24/C22)</f>
-        <v>17.066666666666666</v>
+        <v>16</v>
       </c>
       <c r="D16" t="s">
         <v>325</v>
@@ -3643,7 +3824,7 @@
         <v>341</v>
       </c>
       <c r="C18" s="6">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D18" t="s">
         <v>338</v>
@@ -3655,7 +3836,7 @@
       </c>
       <c r="C19" s="4">
         <f>C18*C17/PI()</f>
-        <v>23.8732414637843</v>
+        <v>25.464790894703256</v>
       </c>
       <c r="D19" t="s">
         <v>340</v>
@@ -3736,7 +3917,7 @@
       </c>
       <c r="C26" s="5">
         <f>C30/C28*(C34/C32)</f>
-        <v>17.71875</v>
+        <v>11.25</v>
       </c>
       <c r="D26" t="s">
         <v>325</v>
@@ -3781,7 +3962,7 @@
         <v>342</v>
       </c>
       <c r="C30" s="7">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D30" t="s">
         <v>338</v>
@@ -3793,7 +3974,7 @@
       </c>
       <c r="C31" s="4">
         <f>C30*C27/PI()</f>
-        <v>89.12676813146139</v>
+        <v>76.394372684109769</v>
       </c>
       <c r="D31" t="s">
         <v>340</v>
@@ -3827,7 +4008,7 @@
         <v>345</v>
       </c>
       <c r="C34" s="7">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="D34" t="s">
         <v>338</v>
@@ -3839,7 +4020,7 @@
       </c>
       <c r="C35" s="4">
         <f>C34*C27/PI()</f>
-        <v>128.91550390443524</v>
+        <v>95.4929658551372</v>
       </c>
       <c r="D35" t="s">
         <v>340</v>
@@ -3962,7 +4143,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="C46" s="5">
         <f>C50/C48*(C54/C52)</f>
@@ -4196,7 +4377,7 @@
       </c>
       <c r="C68" s="2">
         <f>C63/C16</f>
-        <v>1.5442127929687499</v>
+        <v>1.6471603124999998</v>
       </c>
       <c r="D68" t="s">
         <v>322</v>
@@ -4208,7 +4389,7 @@
       </c>
       <c r="C69" s="2">
         <f>C64/C26</f>
-        <v>0.42354285714285711</v>
+        <v>0.66708000000000001</v>
       </c>
       <c r="D69" t="s">
         <v>322</v>
@@ -4216,7 +4397,7 @@
     </row>
     <row r="70" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="C70" s="2">
         <f>C66/C46</f>
@@ -4228,7 +4409,7 @@
     </row>
     <row r="71" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="C71" s="2">
         <f>C65/C46</f>
@@ -4355,7 +4536,7 @@
       </c>
       <c r="C75" s="2">
         <f>C68*(1+C57)</f>
-        <v>2.007476630859375</v>
+        <v>2.1413084062499999</v>
       </c>
       <c r="D75" t="s">
         <v>322</v>
@@ -4401,7 +4582,7 @@
       </c>
       <c r="C76" s="2">
         <f>C69*(1+C57)</f>
-        <v>0.55060571428571425</v>
+        <v>0.86720400000000009</v>
       </c>
       <c r="D76" t="s">
         <v>322</v>
@@ -4514,7 +4695,7 @@
     </row>
     <row r="78" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="C78" s="2">
         <f>C71*(1+C57)</f>
@@ -5378,7 +5559,7 @@
       </c>
       <c r="C110" s="20">
         <f>60*C18/C20</f>
-        <v>18.75</v>
+        <v>20</v>
       </c>
       <c r="D110" t="s">
         <v>587</v>
@@ -5402,7 +5583,7 @@
       </c>
       <c r="C112" s="20">
         <f>C63/(C20/C18)/C111</f>
-        <v>129.3676684258667</v>
+        <v>137.9921796542578</v>
       </c>
       <c r="D112" t="s">
         <v>578</v>
@@ -5414,7 +5595,7 @@
       </c>
       <c r="C113" s="20">
         <f>(C110/60)*C112*2*PI()</f>
-        <v>254.01282296171439</v>
+        <v>289.01014523643948</v>
       </c>
       <c r="D113" t="s">
         <v>579</v>
@@ -5454,8 +5635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H111"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="E72" sqref="E72"/>
+    <sheetView topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="A111" sqref="A111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7911,10 +8092,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D63"/>
+  <dimension ref="A1:D70"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView topLeftCell="A49" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7946,7 +8127,7 @@
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
@@ -8022,7 +8203,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>613</v>
+        <v>825</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -8030,7 +8211,7 @@
         <v>588</v>
       </c>
       <c r="C59">
-        <v>180</v>
+        <v>60</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -8038,8 +8219,8 @@
         <v>590</v>
       </c>
       <c r="C60" s="2">
-        <f>C59*2.5/PI()</f>
-        <v>143.23944878270581</v>
+        <f>C59*5/PI()</f>
+        <v>95.4929658551372</v>
       </c>
       <c r="D60" t="s">
         <v>340</v>
@@ -8051,7 +8232,7 @@
       </c>
       <c r="C61" s="2">
         <f>C60*1.0012-0.56</f>
-        <v>142.85133612124505</v>
+        <v>95.047557414163364</v>
       </c>
       <c r="D61" t="s">
         <v>340</v>
@@ -8063,7 +8244,7 @@
       </c>
       <c r="C62" s="2">
         <f>C61-2</f>
-        <v>140.85133612124505</v>
+        <v>93.047557414163364</v>
       </c>
       <c r="D62" t="s">
         <v>340</v>
@@ -8075,11 +8256,23 @@
       </c>
       <c r="C63" s="2">
         <f>C62-2</f>
-        <v>138.85133612124505</v>
+        <v>91.047557414163364</v>
       </c>
       <c r="D63" t="s">
         <v>340</v>
       </c>
+    </row>
+    <row r="67" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C67" s="2"/>
+    </row>
+    <row r="68" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C68" s="2"/>
+    </row>
+    <row r="69" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C69" s="2"/>
+    </row>
+    <row r="70" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C70" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -8112,8 +8305,8 @@
       <c r="A3" s="10"/>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
@@ -8129,10 +8322,10 @@
       <c r="C4" s="10" t="s">
         <v>359</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="D4" s="34" t="s">
         <v>360</v>
       </c>
-      <c r="E4" s="35"/>
+      <c r="E4" s="34"/>
       <c r="F4" s="10" t="s">
         <v>361</v>
       </c>
@@ -11563,7 +11756,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -11598,10 +11791,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K149"/>
+  <dimension ref="A1:L220"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H88" sqref="H88"/>
+    <sheetView tabSelected="1" topLeftCell="A130" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C150" sqref="C150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11611,6 +11804,7 @@
     <col min="3" max="3" width="54.88671875" customWidth="1"/>
     <col min="4" max="4" width="42.33203125" customWidth="1"/>
     <col min="5" max="5" width="25.21875" style="29" customWidth="1"/>
+    <col min="11" max="11" width="11.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -11632,7 +11826,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -11640,11 +11834,11 @@
         <v>4</v>
       </c>
       <c r="C3" t="str">
-        <f>C81</f>
+        <f>C123</f>
         <v>Zylinderkopfschraube Innensechskant M3 22mm</v>
       </c>
       <c r="D3" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -11655,10 +11849,10 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
+        <v>655</v>
+      </c>
+      <c r="D4" t="s">
         <v>656</v>
-      </c>
-      <c r="D4" t="s">
-        <v>657</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -11666,7 +11860,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -11674,11 +11868,11 @@
         <v>1</v>
       </c>
       <c r="C6" t="str">
-        <f>C110</f>
+        <f>C177</f>
         <v>Rillenkugellager DIN 625 SKF - 61807 35x47x7mm</v>
       </c>
       <c r="D6" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11689,11 +11883,11 @@
         <v>4</v>
       </c>
       <c r="C7" t="str">
-        <f>C87</f>
+        <f>C131</f>
         <v>Senkkopfschraube Innensechskant M3 10mm</v>
       </c>
       <c r="D7" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11704,11 +11898,11 @@
         <v>4</v>
       </c>
       <c r="C8" t="str">
-        <f>C79</f>
+        <f>C121</f>
         <v>Zylinderkopfschraube Innensechskant M3 20mm</v>
       </c>
       <c r="D8" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -11716,11 +11910,11 @@
         <v>4</v>
       </c>
       <c r="C9" t="str">
-        <f>C89</f>
+        <f>C134</f>
         <v>Muttern M3, Schlüsselweite 5.5 mm</v>
       </c>
       <c r="D9" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -11728,16 +11922,28 @@
         <v>2</v>
       </c>
       <c r="C10" t="str">
-        <f>C109</f>
+        <f>C176</f>
         <v>Rillenkugellager DIN 625 SKF - 61902 15x28x7mm</v>
       </c>
       <c r="D10" t="s">
-        <v>666</v>
+        <v>665</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="str">
+        <f>C170</f>
+        <v xml:space="preserve">Herkulex Servo DRS - 0201 </v>
+      </c>
+      <c r="D11" t="s">
+        <v>834</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -11745,11 +11951,11 @@
         <v>1</v>
       </c>
       <c r="C13" t="str">
-        <f>C97</f>
+        <f>C152</f>
         <v>Zahnriemenscheibe T2,5, 16 Zähne</v>
       </c>
       <c r="D13" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H13" s="22"/>
       <c r="I13" s="22"/>
@@ -11759,11 +11965,11 @@
         <v>1</v>
       </c>
       <c r="C14" t="str">
-        <f>C98</f>
+        <f>C153</f>
         <v>Zahnriemenscheibe T2,5, 44 Zähne</v>
       </c>
       <c r="D14" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H14" s="22"/>
       <c r="I14" s="22"/>
@@ -11773,11 +11979,11 @@
         <v>1</v>
       </c>
       <c r="C15" t="str">
-        <f>C97</f>
+        <f>C152</f>
         <v>Zahnriemenscheibe T2,5, 16 Zähne</v>
       </c>
       <c r="D15" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H15" s="22"/>
       <c r="I15" s="22"/>
@@ -11787,11 +11993,11 @@
         <v>1</v>
       </c>
       <c r="C16" t="str">
-        <f>C99</f>
+        <f>C154</f>
         <v>Zahnriemenscheibe T2,5, 18 Zähne</v>
       </c>
       <c r="D16" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="H16" s="22"/>
       <c r="I16" s="22"/>
@@ -11801,11 +12007,11 @@
         <v>1</v>
       </c>
       <c r="C17" t="str">
-        <f>C100</f>
+        <f>C155</f>
         <v>Zahnriemenscheibe T2,5, 14 Zähne</v>
       </c>
       <c r="D17" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="H17" s="22"/>
       <c r="I17" s="22"/>
@@ -11815,11 +12021,11 @@
         <v>1</v>
       </c>
       <c r="C18" t="str">
-        <f>C103</f>
-        <v>Zahnriemen T2,5 160mm</v>
+        <f>C161</f>
+        <v>Zahnriemen T2,5 160mm 6mm Breite</v>
       </c>
       <c r="D18" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="H18" s="22"/>
       <c r="I18" s="22"/>
@@ -11829,11 +12035,11 @@
         <v>46</v>
       </c>
       <c r="C19" t="str">
-        <f>C93</f>
+        <f>C144</f>
         <v>Silberstahlwelle 6mm Durchmesser</v>
       </c>
       <c r="D19" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E19" s="26"/>
       <c r="H19" s="22"/>
@@ -11841,14 +12047,14 @@
     </row>
     <row r="20" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C20" t="str">
-        <f>C108</f>
-        <v>Rillenkugellager 6x10x3</v>
+        <f>C186</f>
+        <v>Metallbohrer 6mm</v>
       </c>
       <c r="D20" t="s">
-        <v>691</v>
+        <v>680</v>
       </c>
       <c r="E20" s="26"/>
       <c r="H20" s="22"/>
@@ -11858,12 +12064,12 @@
       <c r="B21">
         <v>1</v>
       </c>
-      <c r="C21" s="32" t="str">
-        <f>C104</f>
-        <v>NEMA 17 - 42x42x21</v>
-      </c>
-      <c r="D21" s="32" t="s">
-        <v>694</v>
+      <c r="C21" t="str">
+        <f>C187</f>
+        <v>Metallbohrer 2.3mm (für M3 Gewinde)</v>
+      </c>
+      <c r="D21" t="s">
+        <v>680</v>
       </c>
       <c r="E21" s="26"/>
       <c r="H21" s="22"/>
@@ -11871,15 +12077,16 @@
     </row>
     <row r="22" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22">
-        <v>2</v>
-      </c>
-      <c r="C22" s="32" t="str">
-        <f>C83</f>
-        <v>Zylinderkopfschraube Innensechskant M3 14mm</v>
-      </c>
-      <c r="D22" s="32" t="s">
-        <v>697</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C22" t="str">
+        <f>C184</f>
+        <v>Gewindeschneider M3</v>
+      </c>
+      <c r="D22" t="s">
+        <v>680</v>
+      </c>
+      <c r="E22" s="26"/>
       <c r="H22" s="22"/>
       <c r="I22" s="22"/>
     </row>
@@ -11887,13 +12094,14 @@
       <c r="B23">
         <v>2</v>
       </c>
-      <c r="C23" s="32" t="str">
-        <f>C91</f>
-        <v>Unterlegscheiben M3 Dicke 0,5mm</v>
-      </c>
-      <c r="D23" s="32" t="s">
-        <v>697</v>
-      </c>
+      <c r="C23" t="str">
+        <f>C175</f>
+        <v>Rillenkugellager 6x10x3</v>
+      </c>
+      <c r="D23" t="s">
+        <v>689</v>
+      </c>
+      <c r="E23" s="26"/>
       <c r="H23" s="22"/>
       <c r="I23" s="22"/>
     </row>
@@ -11902,25 +12110,26 @@
         <v>1</v>
       </c>
       <c r="C24" s="32" t="str">
-        <f>C102</f>
-        <v>Zahnriemen T2,5 230mm</v>
+        <f>C166</f>
+        <v>NEMA 17 - 42x42x21</v>
       </c>
       <c r="D24" s="32" t="s">
-        <v>704</v>
-      </c>
+        <v>692</v>
+      </c>
+      <c r="E24" s="26"/>
       <c r="H24" s="22"/>
       <c r="I24" s="22"/>
     </row>
     <row r="25" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C25" s="32" t="str">
-        <f>C82</f>
-        <v>Zylinderkopfschraube Innensechskant M3 16mm</v>
+        <f>C125</f>
+        <v>Zylinderkopfschraube Innensechskant M3 14mm</v>
       </c>
       <c r="D25" s="32" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
       <c r="H25" s="22"/>
       <c r="I25" s="22"/>
@@ -11930,25 +12139,25 @@
         <v>2</v>
       </c>
       <c r="C26" s="32" t="str">
-        <f>C91</f>
-        <v>Unterlegscheiben M3 Dicke 0,5mm</v>
+        <f>C140</f>
+        <v>Unterlegscheiben M3 Dicke 0,5mm, Außendurchmesser 7mm</v>
       </c>
       <c r="D26" s="32" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
       <c r="H26" s="22"/>
       <c r="I26" s="22"/>
     </row>
     <row r="27" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C27" s="32" t="str">
-        <f>C107</f>
-        <v>Rillenkugellager  3.967 x 7.938 x 3.175 mm</v>
+        <f>C160</f>
+        <v>Zahnriemen T2,5 230mm 6mm Breite</v>
       </c>
       <c r="D27" s="32" t="s">
-        <v>717</v>
+        <v>700</v>
       </c>
       <c r="H27" s="22"/>
       <c r="I27" s="22"/>
@@ -11958,43 +12167,40 @@
         <v>1</v>
       </c>
       <c r="C28" s="32" t="str">
-        <f>C88</f>
-        <v>Vierkant Mutter M3 Breite 5.5mm</v>
+        <f>C124</f>
+        <v>Zylinderkopfschraube Innensechskant M3 16mm</v>
       </c>
       <c r="D28" s="32" t="s">
-        <v>702</v>
-      </c>
-      <c r="E28"/>
+        <v>699</v>
+      </c>
       <c r="H28" s="22"/>
       <c r="I28" s="22"/>
     </row>
     <row r="29" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C29" s="32" t="str">
-        <f>C85</f>
-        <v>Zylinderkopfschraube Innensechskant M2 6mm</v>
+        <f>C140</f>
+        <v>Unterlegscheiben M3 Dicke 0,5mm, Außendurchmesser 7mm</v>
       </c>
       <c r="D29" s="32" t="s">
-        <v>707</v>
-      </c>
-      <c r="E29"/>
+        <v>699</v>
+      </c>
       <c r="H29" s="22"/>
       <c r="I29" s="22"/>
     </row>
     <row r="30" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C30" s="32" t="str">
-        <f>C90</f>
-        <v>Muttern M2</v>
+        <f>C172</f>
+        <v>Rillenkugellager  3.967 x 7.938 x 3.175 mm</v>
       </c>
       <c r="D30" s="32" t="s">
-        <v>707</v>
-      </c>
-      <c r="E30"/>
+        <v>713</v>
+      </c>
       <c r="H30" s="22"/>
       <c r="I30" s="22"/>
     </row>
@@ -12003,83 +12209,86 @@
         <v>1</v>
       </c>
       <c r="C31" s="32" t="str">
-        <f>C106</f>
-        <v>Rotary Sensor</v>
+        <f>C133</f>
+        <v>Vierkant Mutter M3 Breite 5.5mm</v>
       </c>
       <c r="D31" s="32" t="s">
-        <v>712</v>
-      </c>
-      <c r="E31" s="9"/>
+        <v>699</v>
+      </c>
+      <c r="E31"/>
       <c r="H31" s="22"/>
       <c r="I31" s="22"/>
     </row>
     <row r="32" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C32" s="32" t="str">
-        <f>C92</f>
-        <v>Unterlegscheiben M2 Dicke 0,5mm</v>
+        <f>C127</f>
+        <v>Zylinderkopfschraube Innensechskant M2 6mm</v>
       </c>
       <c r="D32" s="32" t="s">
-        <v>713</v>
-      </c>
-      <c r="E32" s="9"/>
+        <v>703</v>
+      </c>
+      <c r="E32"/>
       <c r="H32" s="22"/>
       <c r="I32" s="22"/>
     </row>
     <row r="33" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C33" s="32" t="str">
-        <f>C95</f>
-        <v>Distanzbolzen M3 20mm, Schlüsselweite 5mm</v>
+        <f>C135</f>
+        <v>Muttern M2</v>
       </c>
       <c r="D33" s="32" t="s">
-        <v>720</v>
-      </c>
-      <c r="E33" s="9"/>
+        <v>703</v>
+      </c>
+      <c r="E33"/>
       <c r="H33" s="22"/>
       <c r="I33" s="22"/>
     </row>
     <row r="34" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C34" s="32" t="str">
-        <f>C91</f>
-        <v>Unterlegscheiben M3 Dicke 0,5mm</v>
+        <f>C169</f>
+        <v>Rotary Sensor</v>
       </c>
       <c r="D34" s="32" t="s">
-        <v>721</v>
-      </c>
+        <v>708</v>
+      </c>
+      <c r="E34" s="9"/>
       <c r="H34" s="22"/>
       <c r="I34" s="22"/>
     </row>
     <row r="35" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35">
-        <v>4</v>
-      </c>
-      <c r="C35" s="32" t="s">
-        <v>722</v>
+        <v>2</v>
+      </c>
+      <c r="C35" s="32" t="str">
+        <f>C141</f>
+        <v>Unterlegscheiben M2 Dicke 0,5mm</v>
       </c>
       <c r="D35" s="32" t="s">
-        <v>742</v>
-      </c>
+        <v>709</v>
+      </c>
+      <c r="E35" s="9"/>
       <c r="H35" s="22"/>
       <c r="I35" s="22"/>
     </row>
     <row r="36" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C36" s="32" t="str">
-        <f>C79</f>
-        <v>Zylinderkopfschraube Innensechskant M3 20mm</v>
+        <f>C148</f>
+        <v>Distanzbolzen M3 20mm, Schlüsselweite 5mm</v>
       </c>
       <c r="D36" s="32" t="s">
-        <v>743</v>
+        <v>716</v>
       </c>
       <c r="E36" s="9"/>
       <c r="H36" s="22"/>
@@ -12090,34 +12299,38 @@
         <v>4</v>
       </c>
       <c r="C37" s="32" t="str">
-        <f>C91</f>
-        <v>Unterlegscheiben M3 Dicke 0,5mm</v>
+        <f>C140</f>
+        <v>Unterlegscheiben M3 Dicke 0,5mm, Außendurchmesser 7mm</v>
       </c>
       <c r="D37" s="32" t="s">
-        <v>742</v>
+        <v>717</v>
       </c>
       <c r="H37" s="22"/>
       <c r="I37" s="22"/>
     </row>
     <row r="38" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C38" s="32"/>
-      <c r="D38" s="32"/>
+      <c r="B38">
+        <v>4</v>
+      </c>
+      <c r="C38" s="32" t="s">
+        <v>718</v>
+      </c>
+      <c r="D38" s="32" t="s">
+        <v>738</v>
+      </c>
       <c r="H38" s="22"/>
       <c r="I38" s="22"/>
     </row>
     <row r="39" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="6" t="s">
-        <v>785</v>
-      </c>
       <c r="B39">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C39" s="32" t="str">
-        <f>C111</f>
-        <v>Rillenkugellager 35x47x7</v>
+        <f>C121</f>
+        <v>Zylinderkopfschraube Innensechskant M3 20mm</v>
       </c>
       <c r="D39" s="32" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="E39" s="9"/>
       <c r="H39" s="22"/>
@@ -12125,71 +12338,66 @@
     </row>
     <row r="40" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C40" s="32" t="str">
-        <f>C112</f>
-        <v>RillenKugellager 6x19x6</v>
+        <f>C140</f>
+        <v>Unterlegscheiben M3 Dicke 0,5mm, Außendurchmesser 7mm</v>
       </c>
       <c r="D40" s="32" t="s">
-        <v>746</v>
+        <v>738</v>
       </c>
       <c r="H40" s="22"/>
       <c r="I40" s="22"/>
     </row>
     <row r="41" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41">
-        <v>4</v>
-      </c>
-      <c r="C41" s="32" t="str">
-        <f>C108</f>
-        <v>Rillenkugellager 6x10x3</v>
-      </c>
-      <c r="D41" s="32" t="s">
-        <v>747</v>
-      </c>
-      <c r="E41" s="9"/>
+      <c r="C41" s="32"/>
+      <c r="D41" s="32"/>
       <c r="H41" s="22"/>
       <c r="I41" s="22"/>
     </row>
     <row r="42" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="6" t="s">
+        <v>779</v>
+      </c>
       <c r="B42">
         <v>2</v>
       </c>
       <c r="C42" s="32" t="str">
-        <f>C113</f>
-        <v>Distanzhülsen M6 10mm</v>
+        <f>C178</f>
+        <v>Rillenkugellager 35x47x7</v>
       </c>
       <c r="D42" s="32" t="s">
-        <v>750</v>
-      </c>
+        <v>737</v>
+      </c>
+      <c r="E42" s="9"/>
       <c r="H42" s="22"/>
       <c r="I42" s="22"/>
     </row>
     <row r="43" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="C43" s="32" t="str">
-        <f>C93</f>
-        <v>Silberstahlwelle 6mm Durchmesser</v>
+        <f>C179</f>
+        <v>RillenKugellager 6x19x6</v>
       </c>
       <c r="D43" s="32" t="s">
-        <v>755</v>
+        <v>742</v>
       </c>
       <c r="H43" s="22"/>
       <c r="I43" s="22"/>
     </row>
     <row r="44" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="C44" s="32" t="str">
-        <f>C94</f>
-        <v>Silberstahlwelle 3mm Durchmesser</v>
+        <f>C175</f>
+        <v>Rillenkugellager 6x10x3</v>
       </c>
       <c r="D44" s="32" t="s">
-        <v>756</v>
+        <v>743</v>
       </c>
       <c r="E44" s="9"/>
       <c r="H44" s="22"/>
@@ -12200,11 +12408,11 @@
         <v>4</v>
       </c>
       <c r="C45" s="32" t="str">
-        <f>C114</f>
+        <f>C180</f>
         <v>Rillenkugellager 3x10x4</v>
       </c>
       <c r="D45" s="32" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="E45" s="9"/>
       <c r="H45" s="22"/>
@@ -12212,2058 +12420,3421 @@
     </row>
     <row r="46" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C46" s="32" t="str">
-        <f>C115</f>
-        <v>Zahnriemen T2,5 200m</v>
+        <f>C150</f>
+        <v>Distanzhülsen M6 10mm</v>
       </c>
       <c r="D46" s="32" t="s">
-        <v>759</v>
+        <v>746</v>
       </c>
       <c r="H46" s="22"/>
       <c r="I46" s="22"/>
     </row>
     <row r="47" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="C47" s="32" t="str">
-        <f>C115</f>
-        <v>Zahnriemen T2,5 200m</v>
+        <f>C144</f>
+        <v>Silberstahlwelle 6mm Durchmesser</v>
       </c>
       <c r="D47" s="32" t="s">
-        <v>760</v>
+        <v>751</v>
       </c>
       <c r="H47" s="22"/>
       <c r="I47" s="22"/>
     </row>
     <row r="48" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48">
-        <v>4</v>
+        <f>2*25</f>
+        <v>50</v>
       </c>
       <c r="C48" s="32" t="str">
-        <f>C81</f>
-        <v>Zylinderkopfschraube Innensechskant M3 22mm</v>
+        <f>C144</f>
+        <v>Silberstahlwelle 6mm Durchmesser</v>
       </c>
       <c r="D48" s="32" t="s">
-        <v>761</v>
+        <v>844</v>
       </c>
       <c r="H48" s="22"/>
       <c r="I48" s="22"/>
     </row>
-    <row r="49" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="C49" s="32" t="str">
-        <f>C89</f>
-        <v>Muttern M3, Schlüsselweite 5.5 mm</v>
+        <f>C145</f>
+        <v>Silberstahlwelle 3mm Durchmesser</v>
       </c>
       <c r="D49" s="32" t="s">
-        <v>761</v>
+        <v>843</v>
       </c>
       <c r="E49" s="9"/>
       <c r="H49" s="22"/>
       <c r="I49" s="22"/>
     </row>
-    <row r="50" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50">
-        <v>2</v>
-      </c>
-      <c r="C50" s="32" t="str">
-        <f>C81</f>
-        <v>Zylinderkopfschraube Innensechskant M3 22mm</v>
-      </c>
-      <c r="D50" s="32" t="s">
-        <v>762</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C50" t="str">
+        <f>C186</f>
+        <v>Metallbohrer 6mm</v>
+      </c>
+      <c r="D50" t="s">
+        <v>680</v>
+      </c>
+      <c r="E50" s="26"/>
       <c r="H50" s="22"/>
       <c r="I50" s="22"/>
     </row>
-    <row r="51" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B51">
-        <v>2</v>
-      </c>
-      <c r="C51" s="32" t="str">
-        <f>C89</f>
-        <v>Muttern M3, Schlüsselweite 5.5 mm</v>
-      </c>
-      <c r="D51" s="32" t="s">
-        <v>762</v>
-      </c>
-      <c r="E51" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="C51" t="str">
+        <f>C184</f>
+        <v>Gewindeschneider M3</v>
+      </c>
+      <c r="D51" t="s">
+        <v>680</v>
+      </c>
+      <c r="E51" s="26"/>
       <c r="H51" s="22"/>
       <c r="I51" s="22"/>
     </row>
-    <row r="52" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52">
-        <v>2</v>
-      </c>
-      <c r="C52" s="32" t="str">
-        <f>C84</f>
-        <v>Zylinderkopfschraube Innensechskant M3 12mm</v>
-      </c>
-      <c r="D52" s="32" t="s">
-        <v>765</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C52" t="str">
+        <f>C187</f>
+        <v>Metallbohrer 2.3mm (für M3 Gewinde)</v>
+      </c>
+      <c r="D52" t="s">
+        <v>680</v>
+      </c>
+      <c r="E52" s="26"/>
       <c r="H52" s="22"/>
       <c r="I52" s="22"/>
     </row>
-    <row r="53" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C53" s="32" t="str">
-        <f>C89</f>
-        <v>Muttern M3, Schlüsselweite 5.5 mm</v>
+        <f>C162</f>
+        <v>Zahnriemen T2,5 200mm 6mm Breite</v>
       </c>
       <c r="D53" s="32" t="s">
-        <v>765</v>
-      </c>
-      <c r="E53" s="9"/>
+        <v>753</v>
+      </c>
       <c r="H53" s="22"/>
       <c r="I53" s="22"/>
     </row>
-    <row r="54" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B54">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C54" s="32" t="str">
-        <f>C80</f>
-        <v>Zylinderkopfschraube Innensechskant M3 25mm</v>
+        <f>C162</f>
+        <v>Zahnriemen T2,5 200mm 6mm Breite</v>
       </c>
       <c r="D54" s="32" t="s">
-        <v>768</v>
-      </c>
-      <c r="E54" s="9"/>
+        <v>754</v>
+      </c>
       <c r="H54" s="22"/>
       <c r="I54" s="22"/>
     </row>
-    <row r="55" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B55">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C55" s="32" t="str">
-        <f>C95</f>
-        <v>Distanzbolzen M3 20mm, Schlüsselweite 5mm</v>
+        <f>C123</f>
+        <v>Zylinderkopfschraube Innensechskant M3 22mm</v>
       </c>
       <c r="D55" s="32" t="s">
-        <v>768</v>
-      </c>
-      <c r="E55" s="9"/>
+        <v>755</v>
+      </c>
       <c r="H55" s="22"/>
       <c r="I55" s="22"/>
     </row>
-    <row r="56" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C56" s="32" t="str">
-        <f>C105</f>
-        <v>NEMA 17 - 42x42x33</v>
+        <f>C134</f>
+        <v>Muttern M3, Schlüsselweite 5.5 mm</v>
       </c>
       <c r="D56" s="32" t="s">
-        <v>694</v>
+        <v>755</v>
       </c>
       <c r="E56" s="9"/>
       <c r="H56" s="22"/>
       <c r="I56" s="22"/>
     </row>
-    <row r="57" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C57" s="32" t="str">
-        <f>C97</f>
-        <v>Zahnriemenscheibe T2,5, 16 Zähne</v>
+        <f>C123</f>
+        <v>Zylinderkopfschraube Innensechskant M3 22mm</v>
       </c>
       <c r="D57" s="32" t="s">
-        <v>771</v>
-      </c>
-      <c r="E57" s="9"/>
+        <v>756</v>
+      </c>
       <c r="H57" s="22"/>
       <c r="I57" s="22"/>
     </row>
-    <row r="58" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C58" s="32" t="str">
-        <f>C97</f>
-        <v>Zahnriemenscheibe T2,5, 16 Zähne</v>
+        <f>C134</f>
+        <v>Muttern M3, Schlüsselweite 5.5 mm</v>
       </c>
       <c r="D58" s="32" t="s">
-        <v>772</v>
+        <v>756</v>
       </c>
       <c r="E58" s="9"/>
       <c r="H58" s="22"/>
       <c r="I58" s="22"/>
     </row>
-    <row r="59" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C59" s="32" t="str">
-        <f>C101</f>
-        <v>Zahnriemenscheibe T2,5, 60 Zähne</v>
+        <f>C126</f>
+        <v>Zylinderkopfschraube Innensechskant M3 12mm</v>
       </c>
       <c r="D59" s="32" t="s">
-        <v>772</v>
-      </c>
-      <c r="E59" s="9"/>
+        <v>759</v>
+      </c>
       <c r="H59" s="22"/>
       <c r="I59" s="22"/>
     </row>
-    <row r="60" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C60" s="32" t="str">
-        <f>C116</f>
-        <v>Zylinderkopfschraube Innensechskant M6 55mm</v>
+        <f>C134</f>
+        <v>Muttern M3, Schlüsselweite 5.5 mm</v>
       </c>
       <c r="D60" s="32" t="s">
-        <v>776</v>
+        <v>759</v>
       </c>
       <c r="E60" s="9"/>
       <c r="H60" s="22"/>
       <c r="I60" s="22"/>
     </row>
-    <row r="61" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B61">
-        <v>1</v>
-      </c>
-      <c r="C61" s="32" t="s">
-        <v>777</v>
+        <v>6</v>
+      </c>
+      <c r="C61" s="32" t="str">
+        <f>C122</f>
+        <v>Zylinderkopfschraube Innensechskant M3 25mm</v>
       </c>
       <c r="D61" s="32" t="s">
-        <v>776</v>
+        <v>762</v>
       </c>
       <c r="E61" s="9"/>
       <c r="H61" s="22"/>
       <c r="I61" s="22"/>
     </row>
-    <row r="62" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B62">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C62" s="32" t="str">
-        <f>C106</f>
-        <v>Rotary Sensor</v>
+        <f>C148</f>
+        <v>Distanzbolzen M3 20mm, Schlüsselweite 5mm</v>
       </c>
       <c r="D62" s="32" t="s">
-        <v>712</v>
+        <v>762</v>
       </c>
       <c r="E62" s="9"/>
       <c r="H62" s="22"/>
       <c r="I62" s="22"/>
     </row>
-    <row r="63" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C63" s="32"/>
-      <c r="D63" s="32"/>
+    <row r="63" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63" s="32" t="str">
+        <f>C167</f>
+        <v>NEMA 17 - 42x42x33</v>
+      </c>
+      <c r="D63" s="32" t="s">
+        <v>692</v>
+      </c>
       <c r="E63" s="9"/>
       <c r="H63" s="22"/>
       <c r="I63" s="22"/>
     </row>
-    <row r="64" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="6" t="s">
-        <v>786</v>
-      </c>
+    <row r="64" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C64" s="32" t="str">
-        <f>C85</f>
-        <v>Zylinderkopfschraube Innensechskant M2 6mm</v>
+        <f>C152</f>
+        <v>Zahnriemenscheibe T2,5, 16 Zähne</v>
       </c>
       <c r="D64" s="32" t="s">
-        <v>707</v>
+        <v>765</v>
       </c>
       <c r="E64" s="9"/>
       <c r="H64" s="22"/>
       <c r="I64" s="22"/>
     </row>
-    <row r="65" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B65">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C65" s="32" t="str">
-        <f>C90</f>
-        <v>Muttern M2</v>
+        <f>C152</f>
+        <v>Zahnriemenscheibe T2,5, 16 Zähne</v>
       </c>
       <c r="D65" s="32" t="s">
-        <v>707</v>
+        <v>766</v>
       </c>
       <c r="E65" s="9"/>
       <c r="H65" s="22"/>
       <c r="I65" s="22"/>
     </row>
-    <row r="66" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B66">
         <v>1</v>
       </c>
       <c r="C66" s="32" t="str">
-        <f>C106</f>
-        <v>Rotary Sensor</v>
+        <f>C156</f>
+        <v>Zahnriemenscheibe T2,5, 60 Zähne</v>
       </c>
       <c r="D66" s="32" t="s">
-        <v>712</v>
+        <v>766</v>
       </c>
       <c r="E66" s="9"/>
       <c r="H66" s="22"/>
       <c r="I66" s="22"/>
     </row>
-    <row r="67" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C67" s="32" t="str">
-        <f>C92</f>
-        <v>Unterlegscheiben M2 Dicke 0,5mm</v>
+        <f>C128</f>
+        <v>Zylinderkopfschraube Innensechskant M6 55mm</v>
       </c>
       <c r="D67" s="32" t="s">
-        <v>713</v>
+        <v>770</v>
       </c>
       <c r="E67" s="9"/>
       <c r="H67" s="22"/>
       <c r="I67" s="22"/>
     </row>
-    <row r="68" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B68">
-        <v>2</v>
-      </c>
-      <c r="C68" s="32" t="str">
-        <f>C111</f>
-        <v>Rillenkugellager 35x47x7</v>
+        <v>1</v>
+      </c>
+      <c r="C68" s="32" t="s">
+        <v>771</v>
       </c>
       <c r="D68" s="32" t="s">
-        <v>787</v>
+        <v>770</v>
       </c>
       <c r="E68" s="9"/>
       <c r="H68" s="22"/>
       <c r="I68" s="22"/>
     </row>
-    <row r="69" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B69">
-        <v>4</v>
-      </c>
-      <c r="C69" t="str">
-        <f>C87</f>
-        <v>Senkkopfschraube Innensechskant M3 10mm</v>
-      </c>
-      <c r="D69" t="s">
-        <v>788</v>
+        <v>1</v>
+      </c>
+      <c r="C69" s="32" t="str">
+        <f>C169</f>
+        <v>Rotary Sensor</v>
+      </c>
+      <c r="D69" s="32" t="s">
+        <v>708</v>
       </c>
       <c r="E69" s="9"/>
       <c r="H69" s="22"/>
       <c r="I69" s="22"/>
     </row>
-    <row r="70" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B70">
-        <v>4</v>
-      </c>
-      <c r="C70" t="str">
-        <f>C87</f>
-        <v>Senkkopfschraube Innensechskant M3 10mm</v>
-      </c>
-      <c r="D70" t="s">
-        <v>791</v>
-      </c>
+    <row r="70" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C70" s="32"/>
+      <c r="D70" s="32"/>
       <c r="E70" s="9"/>
       <c r="H70" s="22"/>
       <c r="I70" s="22"/>
     </row>
-    <row r="71" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C71" s="32"/>
-      <c r="D71" s="32"/>
+    <row r="71" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="6" t="s">
+        <v>780</v>
+      </c>
+      <c r="B71">
+        <v>4</v>
+      </c>
+      <c r="C71" s="32" t="str">
+        <f>C127</f>
+        <v>Zylinderkopfschraube Innensechskant M2 6mm</v>
+      </c>
+      <c r="D71" s="32" t="s">
+        <v>703</v>
+      </c>
       <c r="E71" s="9"/>
       <c r="H71" s="22"/>
       <c r="I71" s="22"/>
     </row>
-    <row r="72" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C72" s="32"/>
-      <c r="D72" s="32"/>
+    <row r="72" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B72">
+        <v>4</v>
+      </c>
+      <c r="C72" s="32" t="str">
+        <f>C135</f>
+        <v>Muttern M2</v>
+      </c>
+      <c r="D72" s="32" t="s">
+        <v>703</v>
+      </c>
       <c r="E72" s="9"/>
       <c r="H72" s="22"/>
       <c r="I72" s="22"/>
     </row>
-    <row r="73" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C73" s="32"/>
-      <c r="D73" s="32"/>
+    <row r="73" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B73">
+        <v>1</v>
+      </c>
+      <c r="C73" s="32" t="str">
+        <f>C169</f>
+        <v>Rotary Sensor</v>
+      </c>
+      <c r="D73" s="32" t="s">
+        <v>708</v>
+      </c>
       <c r="E73" s="9"/>
       <c r="H73" s="22"/>
       <c r="I73" s="22"/>
     </row>
-    <row r="74" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C74" s="32"/>
-      <c r="D74" s="32"/>
+    <row r="74" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B74">
+        <v>2</v>
+      </c>
+      <c r="C74" s="32" t="str">
+        <f>C141</f>
+        <v>Unterlegscheiben M2 Dicke 0,5mm</v>
+      </c>
+      <c r="D74" s="32" t="s">
+        <v>709</v>
+      </c>
       <c r="E74" s="9"/>
       <c r="H74" s="22"/>
       <c r="I74" s="22"/>
     </row>
-    <row r="75" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C75" s="32"/>
-      <c r="D75" s="32"/>
+    <row r="75" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B75">
+        <v>2</v>
+      </c>
+      <c r="C75" s="32" t="str">
+        <f>C178</f>
+        <v>Rillenkugellager 35x47x7</v>
+      </c>
+      <c r="D75" s="32" t="s">
+        <v>781</v>
+      </c>
       <c r="E75" s="9"/>
       <c r="H75" s="22"/>
       <c r="I75" s="22"/>
     </row>
-    <row r="76" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C76" s="32"/>
-      <c r="D76" s="32"/>
+    <row r="76" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B76">
+        <v>4</v>
+      </c>
+      <c r="C76" t="str">
+        <f>C131</f>
+        <v>Senkkopfschraube Innensechskant M3 10mm</v>
+      </c>
+      <c r="D76" t="s">
+        <v>782</v>
+      </c>
       <c r="E76" s="9"/>
       <c r="H76" s="22"/>
       <c r="I76" s="22"/>
     </row>
-    <row r="77" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C77" s="32"/>
+    <row r="77" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B77">
+        <v>4</v>
+      </c>
+      <c r="C77" t="str">
+        <f>C131</f>
+        <v>Senkkopfschraube Innensechskant M3 10mm</v>
+      </c>
+      <c r="D77" t="s">
+        <v>785</v>
+      </c>
       <c r="E77" s="9"/>
       <c r="H77" s="22"/>
       <c r="I77" s="22"/>
     </row>
-    <row r="78" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B78" t="s">
-        <v>734</v>
-      </c>
-      <c r="C78" s="32"/>
+    <row r="78" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B78">
+        <v>4</v>
+      </c>
+      <c r="C78" s="32" t="str">
+        <f>C119</f>
+        <v>Zylinderkopfschraube Innensechskant M3 40mm</v>
+      </c>
+      <c r="D78" s="32" t="s">
+        <v>789</v>
+      </c>
       <c r="E78" s="9"/>
-      <c r="G78" t="s">
-        <v>711</v>
-      </c>
-      <c r="H78" s="22" t="s">
-        <v>724</v>
-      </c>
-      <c r="I78" s="22" t="s">
-        <v>725</v>
-      </c>
-      <c r="J78" t="s">
-        <v>726</v>
-      </c>
-      <c r="K78" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="33">
-        <f t="shared" ref="B79:B95" si="0">ROUNDUP(I79/G79,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C79" s="32" t="s">
-        <v>661</v>
-      </c>
-      <c r="E79" s="9" t="s">
-        <v>723</v>
-      </c>
-      <c r="G79">
+      <c r="H78" s="22"/>
+      <c r="I78" s="22"/>
+    </row>
+    <row r="79" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B79">
+        <v>4</v>
+      </c>
+      <c r="C79" s="32" t="str">
+        <f>C120</f>
+        <v>Zylinderkopfschraube Innensechskant M3 30mm</v>
+      </c>
+      <c r="D79" s="32" t="s">
+        <v>790</v>
+      </c>
+      <c r="E79" s="9"/>
+      <c r="H79" s="22"/>
+      <c r="I79" s="22"/>
+    </row>
+    <row r="80" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B80">
+        <v>12</v>
+      </c>
+      <c r="C80" s="32" t="str">
+        <f>C140</f>
+        <v>Unterlegscheiben M3 Dicke 0,5mm, Außendurchmesser 7mm</v>
+      </c>
+      <c r="D80" s="32" t="s">
+        <v>791</v>
+      </c>
+      <c r="E80" s="9"/>
+      <c r="H80" s="22"/>
+      <c r="I80" s="22"/>
+    </row>
+    <row r="81" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B81">
+        <v>4</v>
+      </c>
+      <c r="C81" s="32" t="str">
+        <f>C118</f>
+        <v>Zylinderkopfschraube Innensechskant M3 45mm</v>
+      </c>
+      <c r="D81" s="32" t="s">
+        <v>792</v>
+      </c>
+      <c r="E81" s="9"/>
+      <c r="H81" s="22"/>
+      <c r="I81" s="22"/>
+    </row>
+    <row r="82" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B82">
+        <v>8</v>
+      </c>
+      <c r="C82" s="32" t="str">
+        <f>C173</f>
+        <v>Rillenkugellager  4 x13 x 5 mm mit Flansch</v>
+      </c>
+      <c r="D82" s="32" t="s">
+        <v>792</v>
+      </c>
+      <c r="E82" s="9"/>
+      <c r="H82" s="22"/>
+      <c r="I82" s="22"/>
+    </row>
+    <row r="83" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B83">
+        <v>12</v>
+      </c>
+      <c r="C83" s="32" t="str">
+        <f>C140</f>
+        <v>Unterlegscheiben M3 Dicke 0,5mm, Außendurchmesser 7mm</v>
+      </c>
+      <c r="D83" s="32" t="s">
+        <v>792</v>
+      </c>
+      <c r="E83" s="9"/>
+      <c r="H83" s="22"/>
+      <c r="I83" s="22"/>
+    </row>
+    <row r="84" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B84">
+        <v>1</v>
+      </c>
+      <c r="C84" s="32" t="str">
+        <f>C138</f>
+        <v>Madenschraube M3 16mm</v>
+      </c>
+      <c r="D84" s="32" t="s">
+        <v>792</v>
+      </c>
+      <c r="E84" s="9"/>
+      <c r="H84" s="22"/>
+      <c r="I84" s="22"/>
+    </row>
+    <row r="85" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B85">
+        <v>72</v>
+      </c>
+      <c r="C85" s="32" t="str">
+        <f>C146</f>
+        <v>Silberstahlwelle 8mm Durchmesser</v>
+      </c>
+      <c r="D85" s="32" t="s">
+        <v>799</v>
+      </c>
+      <c r="E85" s="9"/>
+      <c r="H85" s="22"/>
+      <c r="I85" s="22"/>
+    </row>
+    <row r="86" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B86">
+        <v>1</v>
+      </c>
+      <c r="C86" s="32" t="str">
+        <f>C157</f>
+        <v>Zahnriemenscheibe T5, 48 Zähne</v>
+      </c>
+      <c r="D86" s="32" t="s">
+        <v>799</v>
+      </c>
+      <c r="E86" s="9"/>
+      <c r="H86" s="22"/>
+      <c r="I86" s="22"/>
+    </row>
+    <row r="87" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B87">
+        <v>1</v>
+      </c>
+      <c r="C87" s="32" t="str">
+        <f>C158</f>
+        <v>Zahnriemenscheibe T5, 16 Zähne</v>
+      </c>
+      <c r="D87" s="32" t="s">
+        <v>799</v>
+      </c>
+      <c r="E87" s="9"/>
+      <c r="H87" s="22"/>
+      <c r="I87" s="22"/>
+    </row>
+    <row r="88" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B88">
+        <v>1</v>
+      </c>
+      <c r="C88" t="str">
+        <f>C185</f>
+        <v>Metallbohrer 8mm</v>
+      </c>
+      <c r="D88" s="32" t="s">
+        <v>799</v>
+      </c>
+      <c r="E88" s="9"/>
+      <c r="H88" s="22"/>
+      <c r="I88" s="22"/>
+    </row>
+    <row r="89" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B89">
+        <v>1</v>
+      </c>
+      <c r="C89" t="str">
+        <f>C184</f>
+        <v>Gewindeschneider M3</v>
+      </c>
+      <c r="D89" s="32" t="s">
+        <v>799</v>
+      </c>
+      <c r="E89" s="9"/>
+      <c r="H89" s="22"/>
+      <c r="I89" s="22"/>
+    </row>
+    <row r="90" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B90">
+        <v>1</v>
+      </c>
+      <c r="C90" t="str">
+        <f>C187</f>
+        <v>Metallbohrer 2.3mm (für M3 Gewinde)</v>
+      </c>
+      <c r="D90" s="32" t="s">
+        <v>799</v>
+      </c>
+      <c r="E90" s="9"/>
+      <c r="H90" s="22"/>
+      <c r="I90" s="22"/>
+    </row>
+    <row r="91" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B91">
+        <v>2</v>
+      </c>
+      <c r="C91" t="str">
+        <f>C139</f>
+        <v>Madenschraube M3 5mm</v>
+      </c>
+      <c r="D91" s="32" t="s">
+        <v>799</v>
+      </c>
+      <c r="E91" s="9"/>
+      <c r="H91" s="22"/>
+      <c r="I91" s="22"/>
+    </row>
+    <row r="92" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B92">
+        <v>2</v>
+      </c>
+      <c r="C92" t="str">
+        <f>C181</f>
+        <v>Rillenkugellager 8x22x6</v>
+      </c>
+      <c r="D92" s="32" t="s">
+        <v>799</v>
+      </c>
+      <c r="E92" s="9"/>
+      <c r="H92" s="22"/>
+      <c r="I92" s="22"/>
+    </row>
+    <row r="93" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B93">
+        <v>4</v>
+      </c>
+      <c r="C93" t="str">
+        <f>C142</f>
+        <v>Unterlegscheiben 8mm Innendurchmesser</v>
+      </c>
+      <c r="D93" s="32" t="s">
+        <v>799</v>
+      </c>
+      <c r="E93" s="9"/>
+      <c r="H93" s="22"/>
+      <c r="I93" s="22"/>
+    </row>
+    <row r="94" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B94">
+        <v>4</v>
+      </c>
+      <c r="C94" t="str">
+        <f>C118</f>
+        <v>Zylinderkopfschraube Innensechskant M3 45mm</v>
+      </c>
+      <c r="D94" s="32" t="s">
+        <v>814</v>
+      </c>
+      <c r="E94" s="9"/>
+      <c r="H94" s="22"/>
+      <c r="I94" s="22"/>
+    </row>
+    <row r="95" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B95">
+        <v>4</v>
+      </c>
+      <c r="C95" t="str">
+        <f>C140</f>
+        <v>Unterlegscheiben M3 Dicke 0,5mm, Außendurchmesser 7mm</v>
+      </c>
+      <c r="D95" s="32" t="s">
+        <v>814</v>
+      </c>
+      <c r="E95" s="9"/>
+      <c r="H95" s="22"/>
+      <c r="I95" s="22"/>
+    </row>
+    <row r="96" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B96">
+        <v>4</v>
+      </c>
+      <c r="C96" t="str">
+        <f>C133</f>
+        <v>Vierkant Mutter M3 Breite 5.5mm</v>
+      </c>
+      <c r="D96" s="32" t="s">
+        <v>814</v>
+      </c>
+      <c r="E96" s="9"/>
+      <c r="H96" s="22"/>
+      <c r="I96" s="22"/>
+    </row>
+    <row r="97" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B97">
+        <v>1</v>
+      </c>
+      <c r="C97" t="str">
+        <f>C118</f>
+        <v>Zylinderkopfschraube Innensechskant M3 45mm</v>
+      </c>
+      <c r="D97" s="32" t="s">
+        <v>813</v>
+      </c>
+      <c r="E97" s="9"/>
+      <c r="H97" s="22"/>
+      <c r="I97" s="22"/>
+    </row>
+    <row r="98" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B98">
+        <v>4</v>
+      </c>
+      <c r="C98" t="str">
+        <f>C140</f>
+        <v>Unterlegscheiben M3 Dicke 0,5mm, Außendurchmesser 7mm</v>
+      </c>
+      <c r="D98" s="32" t="s">
+        <v>813</v>
+      </c>
+      <c r="E98" s="9"/>
+      <c r="H98" s="22"/>
+      <c r="I98" s="22"/>
+    </row>
+    <row r="99" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B99">
+        <v>1</v>
+      </c>
+      <c r="C99" t="str">
+        <f>C133</f>
+        <v>Vierkant Mutter M3 Breite 5.5mm</v>
+      </c>
+      <c r="D99" s="32" t="s">
+        <v>813</v>
+      </c>
+      <c r="E99" s="9"/>
+      <c r="H99" s="22"/>
+      <c r="I99" s="22"/>
+    </row>
+    <row r="100" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B100">
+        <v>2</v>
+      </c>
+      <c r="C100" t="str">
+        <f>C174</f>
+        <v xml:space="preserve">Rillenkugellager  4 x13 x 5 mm </v>
+      </c>
+      <c r="D100" s="32" t="s">
+        <v>813</v>
+      </c>
+      <c r="E100" s="9"/>
+      <c r="H100" s="22"/>
+      <c r="I100" s="22"/>
+    </row>
+    <row r="101" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B101">
+        <v>4</v>
+      </c>
+      <c r="C101" t="str">
+        <f>C143</f>
+        <v>Unterlegscheiben M3 Kunststoff 0,8mm, Außendurchmesser 7mm</v>
+      </c>
+      <c r="D101" s="32" t="s">
+        <v>813</v>
+      </c>
+      <c r="E101" s="9"/>
+      <c r="H101" s="22"/>
+      <c r="I101" s="22"/>
+    </row>
+    <row r="102" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B102">
+        <v>4</v>
+      </c>
+      <c r="C102" t="str">
+        <f>C132</f>
+        <v>Senkkopfschraube Innensechskant M3 25mm</v>
+      </c>
+      <c r="D102" s="32" t="s">
+        <v>659</v>
+      </c>
+      <c r="E102" s="9"/>
+      <c r="H102" s="22"/>
+      <c r="I102" s="22"/>
+    </row>
+    <row r="103" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B103">
+        <v>8</v>
+      </c>
+      <c r="C103" t="str">
+        <f>C120</f>
+        <v>Zylinderkopfschraube Innensechskant M3 30mm</v>
+      </c>
+      <c r="D103" s="32" t="s">
+        <v>817</v>
+      </c>
+      <c r="E103" s="9"/>
+      <c r="H103" s="22"/>
+      <c r="I103" s="22"/>
+    </row>
+    <row r="104" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B104">
+        <v>4</v>
+      </c>
+      <c r="C104" t="str">
+        <f>C148</f>
+        <v>Distanzbolzen M3 20mm, Schlüsselweite 5mm</v>
+      </c>
+      <c r="D104" s="32" t="s">
+        <v>817</v>
+      </c>
+      <c r="E104" s="9"/>
+      <c r="H104" s="22"/>
+      <c r="I104" s="22"/>
+    </row>
+    <row r="105" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B105">
+        <v>8</v>
+      </c>
+      <c r="C105" t="str">
+        <f>C140</f>
+        <v>Unterlegscheiben M3 Dicke 0,5mm, Außendurchmesser 7mm</v>
+      </c>
+      <c r="D105" s="32" t="s">
+        <v>817</v>
+      </c>
+      <c r="E105" s="9"/>
+      <c r="H105" s="22"/>
+      <c r="I105" s="22"/>
+    </row>
+    <row r="106" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B106">
+        <v>4</v>
+      </c>
+      <c r="C106" t="str">
+        <f>C120</f>
+        <v>Zylinderkopfschraube Innensechskant M3 30mm</v>
+      </c>
+      <c r="D106" s="32" t="s">
+        <v>818</v>
+      </c>
+      <c r="E106" s="9"/>
+      <c r="H106" s="22"/>
+      <c r="I106" s="22"/>
+    </row>
+    <row r="107" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B107">
+        <v>4</v>
+      </c>
+      <c r="C107" t="str">
+        <f>C140</f>
+        <v>Unterlegscheiben M3 Dicke 0,5mm, Außendurchmesser 7mm</v>
+      </c>
+      <c r="D107" s="32" t="s">
+        <v>818</v>
+      </c>
+      <c r="E107" s="9"/>
+      <c r="H107" s="22"/>
+      <c r="I107" s="22"/>
+    </row>
+    <row r="108" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B108">
+        <v>1</v>
+      </c>
+      <c r="C108" t="str">
+        <f>C163</f>
+        <v>Zahnriemen T5 340mm 10mm Breite</v>
+      </c>
+      <c r="D108" s="32" t="s">
+        <v>821</v>
+      </c>
+      <c r="E108" s="9"/>
+      <c r="H108" s="22"/>
+      <c r="I108" s="22"/>
+    </row>
+    <row r="109" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B109">
+        <v>1</v>
+      </c>
+      <c r="C109" t="str">
+        <f>C158</f>
+        <v>Zahnriemenscheibe T5, 16 Zähne</v>
+      </c>
+      <c r="D109" s="32" t="s">
+        <v>821</v>
+      </c>
+      <c r="E109" s="9"/>
+      <c r="H109" s="22"/>
+      <c r="I109" s="22"/>
+    </row>
+    <row r="110" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B110">
+        <v>1</v>
+      </c>
+      <c r="C110" t="str">
+        <f>C164</f>
+        <v>Zahnriemen T5 510mm 10mm Breite</v>
+      </c>
+      <c r="D110" s="32" t="s">
+        <v>824</v>
+      </c>
+      <c r="E110" s="9"/>
+      <c r="H110" s="22"/>
+      <c r="I110" s="22"/>
+    </row>
+    <row r="111" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B111">
+        <v>1</v>
+      </c>
+      <c r="C111" t="str">
+        <f>C168</f>
+        <v xml:space="preserve">NEMA 24 - 60x60x57 1.9Nm ST6018M2008 </v>
+      </c>
+      <c r="D111" s="32" t="s">
+        <v>692</v>
+      </c>
+      <c r="E111" s="9"/>
+      <c r="H111" s="22"/>
+      <c r="I111" s="22"/>
+    </row>
+    <row r="112" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D112" s="32"/>
+      <c r="E112" s="9"/>
+      <c r="H112" s="22"/>
+      <c r="I112" s="22"/>
+    </row>
+    <row r="113" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D113" s="32"/>
+      <c r="E113" s="9"/>
+      <c r="H113" s="22"/>
+      <c r="I113" s="22"/>
+    </row>
+    <row r="114" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D114" s="32"/>
+      <c r="E114" s="9"/>
+      <c r="H114" s="22"/>
+      <c r="I114" s="22"/>
+    </row>
+    <row r="115" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D115" s="32"/>
+      <c r="E115" s="9"/>
+      <c r="H115" s="22"/>
+      <c r="I115" s="22"/>
+    </row>
+    <row r="116" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C116" s="32"/>
+      <c r="E116" s="9"/>
+      <c r="H116" s="22"/>
+      <c r="I116" s="22"/>
+    </row>
+    <row r="117" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B117" t="s">
+        <v>730</v>
+      </c>
+      <c r="C117" s="32"/>
+      <c r="E117" s="9"/>
+      <c r="G117" t="s">
+        <v>707</v>
+      </c>
+      <c r="H117" s="22" t="s">
+        <v>720</v>
+      </c>
+      <c r="I117" s="22" t="s">
+        <v>721</v>
+      </c>
+      <c r="J117" t="s">
+        <v>722</v>
+      </c>
+      <c r="K117" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B118" s="33">
+        <f t="shared" ref="B118:B148" si="0">ROUNDUP(I118/G118,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C118" s="32" t="s">
+        <v>794</v>
+      </c>
+      <c r="E118" s="9" t="s">
+        <v>793</v>
+      </c>
+      <c r="G118">
+        <v>10</v>
+      </c>
+      <c r="H118" s="22">
+        <v>3.5</v>
+      </c>
+      <c r="I118" s="18">
+        <f>SUMIF(C$1:C$116,"="&amp;C118,B$1:B$116)</f>
+        <v>9</v>
+      </c>
+      <c r="J118" s="33">
+        <f>G118*B118-I118</f>
+        <v>1</v>
+      </c>
+      <c r="K118" s="35">
+        <f>B118*H118</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B119" s="33">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C119" s="32" t="s">
+        <v>787</v>
+      </c>
+      <c r="E119" s="9" t="s">
+        <v>719</v>
+      </c>
+      <c r="G119">
         <v>100</v>
       </c>
-      <c r="H79" s="22">
+      <c r="H119" s="22">
+        <v>2.63</v>
+      </c>
+      <c r="I119" s="18">
+        <f>SUMIF(C$1:C$116,"="&amp;C119,B$1:B$116)</f>
+        <v>4</v>
+      </c>
+      <c r="J119" s="33">
+        <f>G119*B119-I119</f>
+        <v>96</v>
+      </c>
+      <c r="K119" s="35">
+        <f>B119*H119</f>
+        <v>2.63</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B120" s="33">
+        <f t="shared" ref="B120" si="1">ROUNDUP(I120/G120,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C120" s="32" t="s">
+        <v>788</v>
+      </c>
+      <c r="E120" s="9" t="s">
+        <v>719</v>
+      </c>
+      <c r="G120">
+        <v>100</v>
+      </c>
+      <c r="H120" s="22">
+        <v>2.63</v>
+      </c>
+      <c r="I120" s="18">
+        <f>SUMIF(C$1:C$116,"="&amp;C120,B$1:B$116)</f>
+        <v>16</v>
+      </c>
+      <c r="J120" s="33">
+        <f>G120*B120-I120</f>
+        <v>84</v>
+      </c>
+      <c r="K120" s="35">
+        <f>B120*H120</f>
+        <v>2.63</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B121" s="33">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C121" s="32" t="s">
+        <v>660</v>
+      </c>
+      <c r="E121" s="9" t="s">
+        <v>719</v>
+      </c>
+      <c r="G121">
+        <v>100</v>
+      </c>
+      <c r="H121" s="22">
         <v>1.79</v>
       </c>
-      <c r="I79" s="18">
-        <f>SUMIF(C$1:C$77,"="&amp;C79,B$1:B$77)</f>
+      <c r="I121" s="18">
+        <f>SUMIF(C$1:C$116,"="&amp;C121,B$1:B$116)</f>
         <v>8</v>
       </c>
-      <c r="J79" s="33">
-        <f>G79*B79-I79</f>
+      <c r="J121" s="33">
+        <f>G121*B121-I121</f>
         <v>92</v>
       </c>
-      <c r="K79" s="34">
-        <f>B79*H79</f>
+      <c r="K121" s="35">
+        <f>B121*H121</f>
         <v>1.79</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="33">
-        <f t="shared" ref="B80" si="1">ROUNDUP(I80/G80,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C80" s="32" t="s">
-        <v>767</v>
-      </c>
-      <c r="E80" s="9" t="s">
-        <v>723</v>
-      </c>
-      <c r="G80">
+    <row r="122" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B122" s="33">
+        <f t="shared" ref="B122" si="2">ROUNDUP(I122/G122,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C122" s="32" t="s">
+        <v>761</v>
+      </c>
+      <c r="E122" s="9" t="s">
+        <v>719</v>
+      </c>
+      <c r="G122">
         <v>100</v>
       </c>
-      <c r="H80" s="22">
+      <c r="H122" s="22">
         <v>1.71</v>
       </c>
-      <c r="I80" s="18">
-        <f>SUMIF(C$1:C$77,"="&amp;C80,B$1:B$77)</f>
+      <c r="I122" s="18">
+        <f>SUMIF(C$1:C$116,"="&amp;C122,B$1:B$116)</f>
         <v>6</v>
       </c>
-      <c r="J80" s="33">
-        <f>G80*B80-I80</f>
+      <c r="J122" s="33">
+        <f>G122*B122-I122</f>
         <v>94</v>
       </c>
-      <c r="K80" s="34">
-        <f t="shared" ref="K80" si="2">B80*H80</f>
+      <c r="K122" s="35">
+        <f t="shared" ref="K122" si="3">B122*H122</f>
         <v>1.71</v>
       </c>
     </row>
-    <row r="81" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="33">
-        <f t="shared" ref="B81" si="3">ROUNDUP(I81/G81,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C81" s="32" t="s">
-        <v>732</v>
-      </c>
-      <c r="E81" s="9" t="s">
-        <v>723</v>
-      </c>
-      <c r="G81">
+    <row r="123" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B123" s="33">
+        <f t="shared" ref="B123" si="4">ROUNDUP(I123/G123,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C123" s="32" t="s">
+        <v>728</v>
+      </c>
+      <c r="E123" s="9" t="s">
+        <v>719</v>
+      </c>
+      <c r="G123">
         <v>100</v>
       </c>
-      <c r="H81" s="22">
+      <c r="H123" s="22">
         <v>1.71</v>
       </c>
-      <c r="I81" s="18">
-        <f>SUMIF(C$1:C$77,"="&amp;C81,B$1:B$77)</f>
+      <c r="I123" s="18">
+        <f>SUMIF(C$1:C$116,"="&amp;C123,B$1:B$116)</f>
         <v>10</v>
       </c>
-      <c r="J81" s="33">
-        <f>G81*B81-I81</f>
+      <c r="J123" s="33">
+        <f>G123*B123-I123</f>
         <v>90</v>
       </c>
-      <c r="K81" s="34">
-        <f t="shared" ref="K81:K116" si="4">B81*H81</f>
+      <c r="K123" s="35">
+        <f t="shared" ref="K123:K180" si="5">B123*H123</f>
         <v>1.71</v>
       </c>
     </row>
-    <row r="82" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="33">
+    <row r="124" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B124" s="33">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C82" s="32" t="s">
-        <v>700</v>
-      </c>
-      <c r="D82" s="32"/>
-      <c r="E82" s="29" t="s">
-        <v>701</v>
-      </c>
-      <c r="G82">
+      <c r="C124" s="32" t="s">
+        <v>697</v>
+      </c>
+      <c r="D124" s="32"/>
+      <c r="E124" s="29" t="s">
+        <v>698</v>
+      </c>
+      <c r="G124">
         <v>100</v>
       </c>
-      <c r="H82" s="22">
+      <c r="H124" s="22">
         <v>1.96</v>
       </c>
-      <c r="I82" s="18">
-        <f>SUMIF(C$1:C$77,"="&amp;C82,B$1:B$77)</f>
-        <v>1</v>
-      </c>
-      <c r="J82" s="33">
-        <f t="shared" ref="J82:J108" si="5">G82*B82-I82</f>
+      <c r="I124" s="18">
+        <f>SUMIF(C$1:C$116,"="&amp;C124,B$1:B$116)</f>
+        <v>1</v>
+      </c>
+      <c r="J124" s="33">
+        <f t="shared" ref="J124:J175" si="6">G124*B124-I124</f>
         <v>99</v>
       </c>
-      <c r="K82" s="34">
-        <f t="shared" si="4"/>
+      <c r="K124" s="35">
+        <f t="shared" si="5"/>
         <v>1.96</v>
       </c>
     </row>
-    <row r="83" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="33">
+    <row r="125" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B125" s="33">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C83" s="32" t="s">
-        <v>696</v>
-      </c>
-      <c r="E83" t="s">
-        <v>764</v>
-      </c>
-      <c r="G83">
+      <c r="C125" s="32" t="s">
+        <v>694</v>
+      </c>
+      <c r="E125" t="s">
+        <v>758</v>
+      </c>
+      <c r="G125">
         <v>100</v>
       </c>
-      <c r="H83" s="22">
+      <c r="H125" s="22">
         <v>1.79</v>
       </c>
-      <c r="I83" s="18">
-        <f>SUMIF(C$1:C$77,"="&amp;C83,B$1:B$77)</f>
+      <c r="I125" s="18">
+        <f>SUMIF(C$1:C$116,"="&amp;C125,B$1:B$116)</f>
         <v>2</v>
       </c>
-      <c r="J83" s="33">
-        <f t="shared" ref="J83" si="6">G83*B83-I83</f>
+      <c r="J125" s="33">
+        <f t="shared" ref="J125" si="7">G125*B125-I125</f>
         <v>98</v>
       </c>
-      <c r="K83" s="34">
-        <f t="shared" si="4"/>
+      <c r="K125" s="35">
+        <f t="shared" si="5"/>
         <v>1.79</v>
       </c>
     </row>
-    <row r="84" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="33">
-        <f t="shared" ref="B84:B86" si="7">ROUNDUP(I84/G84,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C84" s="32" t="s">
-        <v>763</v>
-      </c>
-      <c r="E84" t="s">
-        <v>764</v>
-      </c>
-      <c r="G84">
+    <row r="126" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B126" s="33">
+        <f t="shared" ref="B126:B130" si="8">ROUNDUP(I126/G126,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C126" s="32" t="s">
+        <v>757</v>
+      </c>
+      <c r="E126" t="s">
+        <v>758</v>
+      </c>
+      <c r="G126">
         <v>100</v>
       </c>
-      <c r="H84" s="22">
+      <c r="H126" s="22">
         <v>1.63</v>
       </c>
-      <c r="I84" s="18">
-        <f>SUMIF(C$1:C$77,"="&amp;C84,B$1:B$77)</f>
+      <c r="I126" s="18">
+        <f>SUMIF(C$1:C$116,"="&amp;C126,B$1:B$116)</f>
         <v>2</v>
       </c>
-      <c r="J84" s="33">
-        <f t="shared" ref="J84:J86" si="8">G84*B84-I84</f>
+      <c r="J126" s="33">
+        <f t="shared" ref="J126:J130" si="9">G126*B126-I126</f>
         <v>98</v>
       </c>
-      <c r="K84" s="34">
-        <f t="shared" si="4"/>
+      <c r="K126" s="35">
+        <f t="shared" si="5"/>
         <v>1.63</v>
       </c>
     </row>
-    <row r="85" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="33">
-        <f>ROUNDUP(I85/G85,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C85" s="32" t="s">
-        <v>706</v>
-      </c>
-      <c r="E85" t="s">
-        <v>709</v>
-      </c>
-      <c r="G85">
+    <row r="127" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B127" s="33">
+        <f>ROUNDUP(I127/G127,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C127" s="32" t="s">
+        <v>702</v>
+      </c>
+      <c r="E127" t="s">
+        <v>705</v>
+      </c>
+      <c r="G127">
         <v>10</v>
       </c>
-      <c r="H85" s="22">
+      <c r="H127" s="22">
         <v>0.99</v>
       </c>
-      <c r="I85" s="18">
-        <f>SUMIF(C$1:C$77,"="&amp;C85,B$1:B$77)</f>
+      <c r="I127" s="18">
+        <f>SUMIF(C$1:C$116,"="&amp;C127,B$1:B$116)</f>
         <v>8</v>
       </c>
-      <c r="J85" s="33">
-        <f>G85*B85-I85</f>
+      <c r="J127" s="33">
+        <f>G127*B127-I127</f>
         <v>2</v>
       </c>
-      <c r="K85" s="34">
-        <f>B85*H85</f>
+      <c r="K127" s="35">
+        <f>B127*H127</f>
         <v>0.99</v>
       </c>
     </row>
-    <row r="86" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="33">
-        <f t="shared" si="7"/>
+    <row r="128" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B128" s="33">
+        <f>ROUNDUP(I128/G128,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C128" t="s">
+        <v>777</v>
+      </c>
+      <c r="E128" t="s">
+        <v>769</v>
+      </c>
+      <c r="G128">
+        <v>1</v>
+      </c>
+      <c r="H128" s="22">
+        <v>0.4</v>
+      </c>
+      <c r="I128" s="18">
+        <f>SUMIF(C$1:C$116,"="&amp;C128,B$1:B$116)</f>
+        <v>1</v>
+      </c>
+      <c r="J128" s="33">
+        <f>G128*B128-I128</f>
         <v>0</v>
       </c>
-      <c r="C86" s="32" t="s">
-        <v>779</v>
-      </c>
-      <c r="E86" t="s">
-        <v>778</v>
-      </c>
-      <c r="G86">
-        <v>10</v>
-      </c>
-      <c r="H86" s="22">
-        <v>2.35</v>
-      </c>
-      <c r="I86" s="18">
-        <f>SUMIF(C$1:C$77,"="&amp;C86,B$1:B$77)</f>
-        <v>0</v>
-      </c>
-      <c r="J86" s="33">
+      <c r="K128" s="35">
+        <f>B128*H128</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="129" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B129" s="33"/>
+      <c r="C129" s="32"/>
+      <c r="E129"/>
+      <c r="H129" s="22"/>
+      <c r="I129" s="18"/>
+      <c r="J129" s="33"/>
+      <c r="K129" s="35"/>
+    </row>
+    <row r="130" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B130" s="33">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K86" s="34">
-        <f t="shared" si="4"/>
+      <c r="C130" s="32" t="s">
+        <v>773</v>
+      </c>
+      <c r="E130" t="s">
+        <v>772</v>
+      </c>
+      <c r="G130">
+        <v>10</v>
+      </c>
+      <c r="H130" s="22">
+        <v>2.35</v>
+      </c>
+      <c r="I130" s="18">
+        <f>SUMIF(C$1:C$116,"="&amp;C130,B$1:B$116)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="33">
-        <f t="shared" ref="B87" si="9">ROUNDUP(I87/G87,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C87" s="32" t="s">
-        <v>789</v>
-      </c>
-      <c r="E87" t="s">
-        <v>790</v>
-      </c>
-      <c r="F87" t="s">
-        <v>792</v>
-      </c>
-      <c r="G87">
-        <v>50</v>
-      </c>
-      <c r="H87" s="22">
-        <v>3.65</v>
-      </c>
-      <c r="I87" s="18">
-        <f>SUMIF(C$1:C$77,"="&amp;C87,B$1:B$77)</f>
-        <v>12</v>
-      </c>
-      <c r="J87" s="33">
-        <f t="shared" ref="J87" si="10">G87*B87-I87</f>
-        <v>38</v>
-      </c>
-      <c r="K87" s="34">
-        <f t="shared" ref="K87" si="11">B87*H87</f>
-        <v>3.65</v>
-      </c>
-    </row>
-    <row r="88" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="33">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C88" s="32" t="s">
-        <v>781</v>
-      </c>
-      <c r="E88" t="s">
-        <v>651</v>
-      </c>
-      <c r="G88">
-        <v>100</v>
-      </c>
-      <c r="H88" s="22">
-        <v>2.09</v>
-      </c>
-      <c r="I88" s="18">
-        <f>SUMIF(C$1:C$77,"="&amp;C88,B$1:B$77)</f>
-        <v>1</v>
-      </c>
-      <c r="J88" s="33">
-        <f t="shared" si="5"/>
-        <v>99</v>
-      </c>
-      <c r="K88" s="34">
-        <f t="shared" si="4"/>
-        <v>2.09</v>
-      </c>
-    </row>
-    <row r="89" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="33">
-        <f t="shared" ref="B89" si="12">ROUNDUP(I89/G89,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C89" s="32" t="s">
-        <v>780</v>
-      </c>
-      <c r="E89" s="29" t="s">
-        <v>663</v>
-      </c>
-      <c r="G89">
-        <v>100</v>
-      </c>
-      <c r="H89" s="22">
-        <v>2.09</v>
-      </c>
-      <c r="I89" s="18">
-        <f>SUMIF(C$1:C$77,"="&amp;C89,B$1:B$77)</f>
-        <v>12</v>
-      </c>
-      <c r="J89" s="33">
-        <f t="shared" ref="J89" si="13">G89*B89-I89</f>
-        <v>88</v>
-      </c>
-      <c r="K89" s="34">
-        <f t="shared" si="4"/>
-        <v>2.09</v>
-      </c>
-    </row>
-    <row r="90" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="33">
-        <f t="shared" ref="B90" si="14">ROUNDUP(I90/G90,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C90" s="32" t="s">
-        <v>784</v>
-      </c>
-      <c r="G90">
-        <v>100</v>
-      </c>
-      <c r="H90" s="22">
-        <v>2.09</v>
-      </c>
-      <c r="I90" s="18">
-        <f>SUMIF(C$1:C$77,"="&amp;C90,B$1:B$77)</f>
-        <v>8</v>
-      </c>
-      <c r="J90" s="33">
-        <f t="shared" ref="J90" si="15">G90*B90-I90</f>
-        <v>92</v>
-      </c>
-      <c r="K90" s="34">
-        <f t="shared" ref="K90" si="16">B90*H90</f>
-        <v>2.09</v>
-      </c>
-    </row>
-    <row r="91" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="33">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C91" s="32" t="s">
-        <v>699</v>
-      </c>
-      <c r="E91" s="29" t="s">
-        <v>698</v>
-      </c>
-      <c r="G91">
-        <v>100</v>
-      </c>
-      <c r="H91" s="22">
-        <v>1.79</v>
-      </c>
-      <c r="I91" s="18">
-        <f>SUMIF(C$1:C$77,"="&amp;C91,B$1:B$77)</f>
-        <v>12</v>
-      </c>
-      <c r="J91" s="33">
-        <f t="shared" si="5"/>
-        <v>88</v>
-      </c>
-      <c r="K91" s="34">
-        <f t="shared" si="4"/>
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="92" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="33">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C92" s="32" t="s">
-        <v>714</v>
-      </c>
-      <c r="E92" s="9" t="s">
-        <v>715</v>
-      </c>
-      <c r="G92">
-        <v>100</v>
-      </c>
-      <c r="H92" s="22">
-        <v>1.79</v>
-      </c>
-      <c r="I92" s="18">
-        <f>SUMIF(C$1:C$77,"="&amp;C92,B$1:B$77)</f>
-        <v>4</v>
-      </c>
-      <c r="J92" s="33">
-        <f>G92*B92-I92</f>
-        <v>96</v>
-      </c>
-      <c r="K92" s="34">
-        <f t="shared" si="4"/>
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="93" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="33">
-        <f>ROUNDUP(I93/G93,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C93" t="s">
-        <v>727</v>
-      </c>
-      <c r="E93" s="26" t="s">
-        <v>692</v>
-      </c>
-      <c r="G93">
-        <v>500</v>
-      </c>
-      <c r="H93" s="22">
-        <v>4.49</v>
-      </c>
-      <c r="I93" s="18">
-        <f>SUMIF(C$1:C$77,"="&amp;C93,B$1:B$77)</f>
-        <v>86</v>
-      </c>
-      <c r="J93" s="33">
-        <f t="shared" ref="J93" si="17">G93*B93-I93</f>
-        <v>414</v>
-      </c>
-      <c r="K93" s="34">
-        <f t="shared" si="4"/>
-        <v>4.49</v>
-      </c>
-    </row>
-    <row r="94" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B94" s="33">
-        <f>ROUNDUP(I94/G94,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C94" t="s">
-        <v>754</v>
-      </c>
-      <c r="E94" s="26" t="s">
-        <v>648</v>
-      </c>
-      <c r="G94">
-        <v>500</v>
-      </c>
-      <c r="H94" s="22">
-        <v>2.4900000000000002</v>
-      </c>
-      <c r="I94" s="18">
-        <f>SUMIF(C$1:C$77,"="&amp;C94,B$1:B$77)</f>
-        <v>40</v>
-      </c>
-      <c r="J94" s="33">
-        <f t="shared" ref="J94" si="18">G94*B94-I94</f>
-        <v>460</v>
-      </c>
-      <c r="K94" s="34">
-        <f t="shared" si="4"/>
-        <v>2.4900000000000002</v>
-      </c>
-    </row>
-    <row r="95" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="33">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C95" s="32" t="s">
-        <v>782</v>
-      </c>
-      <c r="E95" s="9" t="s">
-        <v>719</v>
-      </c>
-      <c r="G95">
-        <v>1</v>
-      </c>
-      <c r="H95" s="22">
-        <v>0.15</v>
-      </c>
-      <c r="I95" s="18">
-        <f>SUMIF(C$1:C$77,"="&amp;C95,B$1:B$77)</f>
-        <v>5</v>
-      </c>
-      <c r="J95" s="33">
+      <c r="J130" s="33">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K130" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K95" s="34">
-        <f t="shared" si="4"/>
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="96" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B96" s="33">
-        <f t="shared" ref="B96" si="19">ROUNDUP(I96/G96,0)</f>
+    </row>
+    <row r="131" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B131" s="33">
+        <f t="shared" ref="B131" si="10">ROUNDUP(I131/G131,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C131" s="32" t="s">
+        <v>783</v>
+      </c>
+      <c r="E131" t="s">
+        <v>784</v>
+      </c>
+      <c r="F131" t="s">
+        <v>786</v>
+      </c>
+      <c r="G131">
+        <v>50</v>
+      </c>
+      <c r="H131" s="22">
+        <v>3.65</v>
+      </c>
+      <c r="I131" s="18">
+        <f>SUMIF(C$1:C$116,"="&amp;C131,B$1:B$116)</f>
+        <v>12</v>
+      </c>
+      <c r="J131" s="33">
+        <f t="shared" ref="J131" si="11">G131*B131-I131</f>
+        <v>38</v>
+      </c>
+      <c r="K131" s="35">
+        <f t="shared" ref="K131" si="12">B131*H131</f>
+        <v>3.65</v>
+      </c>
+    </row>
+    <row r="132" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B132" s="33">
+        <f t="shared" ref="B132" si="13">ROUNDUP(I132/G132,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C132" s="32" t="s">
+        <v>815</v>
+      </c>
+      <c r="E132" t="s">
+        <v>816</v>
+      </c>
+      <c r="F132" t="s">
+        <v>786</v>
+      </c>
+      <c r="G132">
+        <v>10</v>
+      </c>
+      <c r="H132" s="22">
+        <v>2.41</v>
+      </c>
+      <c r="I132" s="18">
+        <f>SUMIF(C$1:C$116,"="&amp;C132,B$1:B$116)</f>
         <v>4</v>
       </c>
-      <c r="C96" t="s">
-        <v>656</v>
-      </c>
-      <c r="E96" s="29" t="s">
-        <v>733</v>
-      </c>
-      <c r="G96">
-        <v>1</v>
-      </c>
-      <c r="H96" s="22">
+      <c r="J132" s="33">
+        <f t="shared" ref="J132" si="14">G132*B132-I132</f>
+        <v>6</v>
+      </c>
+      <c r="K132" s="35">
+        <f t="shared" ref="K132" si="15">B132*H132</f>
+        <v>2.41</v>
+      </c>
+    </row>
+    <row r="133" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B133" s="33">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C133" s="32" t="s">
+        <v>775</v>
+      </c>
+      <c r="E133" t="s">
+        <v>650</v>
+      </c>
+      <c r="G133">
+        <v>100</v>
+      </c>
+      <c r="H133" s="22">
+        <v>2.09</v>
+      </c>
+      <c r="I133" s="18">
+        <f>SUMIF(C$1:C$116,"="&amp;C133,B$1:B$116)</f>
+        <v>6</v>
+      </c>
+      <c r="J133" s="33">
+        <f t="shared" si="6"/>
+        <v>94</v>
+      </c>
+      <c r="K133" s="35">
+        <f t="shared" si="5"/>
+        <v>2.09</v>
+      </c>
+    </row>
+    <row r="134" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B134" s="33">
+        <f t="shared" ref="B134" si="16">ROUNDUP(I134/G134,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C134" s="32" t="s">
+        <v>774</v>
+      </c>
+      <c r="E134" s="29" t="s">
+        <v>662</v>
+      </c>
+      <c r="G134">
+        <v>100</v>
+      </c>
+      <c r="H134" s="22">
+        <v>2.09</v>
+      </c>
+      <c r="I134" s="18">
+        <f>SUMIF(C$1:C$116,"="&amp;C134,B$1:B$116)</f>
+        <v>12</v>
+      </c>
+      <c r="J134" s="33">
+        <f t="shared" ref="J134" si="17">G134*B134-I134</f>
+        <v>88</v>
+      </c>
+      <c r="K134" s="35">
+        <f t="shared" si="5"/>
+        <v>2.09</v>
+      </c>
+    </row>
+    <row r="135" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B135" s="33">
+        <f t="shared" ref="B135:B138" si="18">ROUNDUP(I135/G135,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C135" s="32" t="s">
+        <v>778</v>
+      </c>
+      <c r="G135">
+        <v>100</v>
+      </c>
+      <c r="H135" s="22">
+        <v>2.09</v>
+      </c>
+      <c r="I135" s="18">
+        <f>SUMIF(C$1:C$116,"="&amp;C135,B$1:B$116)</f>
+        <v>8</v>
+      </c>
+      <c r="J135" s="33">
+        <f t="shared" ref="J135:J138" si="19">G135*B135-I135</f>
+        <v>92</v>
+      </c>
+      <c r="K135" s="35">
+        <f t="shared" ref="K135:K138" si="20">B135*H135</f>
+        <v>2.09</v>
+      </c>
+    </row>
+    <row r="136" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B136" s="33">
+        <f>ROUNDUP(I136/G136,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C136" t="s">
+        <v>771</v>
+      </c>
+      <c r="E136" t="s">
+        <v>769</v>
+      </c>
+      <c r="G136">
+        <v>1</v>
+      </c>
+      <c r="H136" s="22">
+        <v>0.4</v>
+      </c>
+      <c r="I136" s="18">
+        <f>SUMIF(C$1:C$116,"="&amp;C136,B$1:B$116)</f>
+        <v>1</v>
+      </c>
+      <c r="J136" s="33">
+        <f t="shared" ref="J136" si="21">G136*B136-I136</f>
+        <v>0</v>
+      </c>
+      <c r="K136" s="35">
+        <f t="shared" ref="K136" si="22">B136*H136</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="137" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B137" s="33"/>
+      <c r="C137" s="32"/>
+      <c r="H137" s="22"/>
+      <c r="I137" s="18"/>
+      <c r="J137" s="33"/>
+      <c r="K137" s="35"/>
+    </row>
+    <row r="138" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B138" s="33">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="C138" s="32" t="s">
+        <v>810</v>
+      </c>
+      <c r="E138" s="29" t="s">
+        <v>670</v>
+      </c>
+      <c r="G138">
+        <v>50</v>
+      </c>
+      <c r="H138" s="22">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="I138" s="18">
+        <f>SUMIF(C$1:C$116,"="&amp;C138,B$1:B$116)</f>
+        <v>1</v>
+      </c>
+      <c r="J138" s="33">
+        <f t="shared" si="19"/>
+        <v>49</v>
+      </c>
+      <c r="K138" s="35">
+        <f t="shared" si="20"/>
+        <v>4.8899999999999997</v>
+      </c>
+    </row>
+    <row r="139" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B139" s="33">
+        <f t="shared" ref="B139" si="23">ROUNDUP(I139/G139,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C139" s="32" t="s">
+        <v>808</v>
+      </c>
+      <c r="E139" s="29" t="s">
+        <v>809</v>
+      </c>
+      <c r="G139">
+        <v>20</v>
+      </c>
+      <c r="H139" s="22">
+        <v>3.89</v>
+      </c>
+      <c r="I139" s="18">
+        <f>SUMIF(C$1:C$116,"="&amp;C139,B$1:B$116)</f>
+        <v>2</v>
+      </c>
+      <c r="J139" s="33">
+        <f t="shared" ref="J139" si="24">G139*B139-I139</f>
+        <v>18</v>
+      </c>
+      <c r="K139" s="35">
+        <f t="shared" ref="K139" si="25">B139*H139</f>
+        <v>3.89</v>
+      </c>
+    </row>
+    <row r="140" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B140" s="33">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C140" s="32" t="s">
+        <v>846</v>
+      </c>
+      <c r="E140" s="29" t="s">
+        <v>696</v>
+      </c>
+      <c r="G140">
+        <v>100</v>
+      </c>
+      <c r="H140" s="22">
+        <v>1.79</v>
+      </c>
+      <c r="I140" s="18">
+        <f>SUMIF(C$1:C$116,"="&amp;C140,B$1:B$116)</f>
+        <v>56</v>
+      </c>
+      <c r="J140" s="33">
+        <f t="shared" si="6"/>
+        <v>44</v>
+      </c>
+      <c r="K140" s="35">
+        <f t="shared" si="5"/>
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="141" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B141" s="33">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C141" s="32" t="s">
+        <v>710</v>
+      </c>
+      <c r="E141" s="9" t="s">
+        <v>711</v>
+      </c>
+      <c r="G141">
+        <v>100</v>
+      </c>
+      <c r="H141" s="22">
+        <v>1.79</v>
+      </c>
+      <c r="I141" s="18">
+        <f>SUMIF(C$1:C$116,"="&amp;C141,B$1:B$116)</f>
+        <v>4</v>
+      </c>
+      <c r="J141" s="33">
+        <f>G141*B141-I141</f>
+        <v>96</v>
+      </c>
+      <c r="K141" s="35">
+        <f t="shared" si="5"/>
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="142" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B142" s="33">
+        <f t="shared" ref="B142:B143" si="26">ROUNDUP(I142/G142,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C142" s="32" t="s">
+        <v>812</v>
+      </c>
+      <c r="E142" s="9" t="s">
+        <v>841</v>
+      </c>
+      <c r="G142">
+        <v>50</v>
+      </c>
+      <c r="H142" s="22">
+        <v>4.33</v>
+      </c>
+      <c r="I142" s="18">
+        <f>SUMIF(C$1:C$116,"="&amp;C142,B$1:B$116)</f>
+        <v>4</v>
+      </c>
+      <c r="J142" s="33">
+        <f>G142*B142-I142</f>
+        <v>46</v>
+      </c>
+      <c r="K142" s="35">
+        <f t="shared" ref="K142:K143" si="27">B142*H142</f>
+        <v>4.33</v>
+      </c>
+    </row>
+    <row r="143" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B143" s="33">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="C143" s="32" t="s">
+        <v>845</v>
+      </c>
+      <c r="E143" s="9" t="s">
+        <v>840</v>
+      </c>
+      <c r="G143">
+        <v>10</v>
+      </c>
+      <c r="H143" s="22">
+        <v>1.98</v>
+      </c>
+      <c r="I143" s="18">
+        <f>SUMIF(C$1:C$116,"="&amp;C143,B$1:B$116)</f>
+        <v>4</v>
+      </c>
+      <c r="J143" s="33">
+        <f>G143*B143-I143</f>
+        <v>6</v>
+      </c>
+      <c r="K143" s="35">
+        <f t="shared" si="27"/>
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="144" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B144" s="33">
+        <f>ROUNDUP(I144/G144,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C144" t="s">
+        <v>723</v>
+      </c>
+      <c r="E144" s="26" t="s">
+        <v>690</v>
+      </c>
+      <c r="G144">
+        <v>500</v>
+      </c>
+      <c r="H144" s="22">
+        <v>4.49</v>
+      </c>
+      <c r="I144" s="18">
+        <f>SUMIF(C$1:C$116,"="&amp;C144,B$1:B$116)</f>
+        <v>136</v>
+      </c>
+      <c r="J144" s="33">
+        <f t="shared" ref="J144" si="28">G144*B144-I144</f>
+        <v>364</v>
+      </c>
+      <c r="K144" s="35">
+        <f t="shared" si="5"/>
+        <v>4.49</v>
+      </c>
+    </row>
+    <row r="145" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B145" s="33">
+        <f>ROUNDUP(I145/G145,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C145" t="s">
+        <v>750</v>
+      </c>
+      <c r="E145" s="26" t="s">
+        <v>647</v>
+      </c>
+      <c r="G145">
+        <v>500</v>
+      </c>
+      <c r="H145" s="22">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="I145" s="18">
+        <f>SUMIF(C$1:C$116,"="&amp;C145,B$1:B$116)</f>
+        <v>50</v>
+      </c>
+      <c r="J145" s="33">
+        <f t="shared" ref="J145:J146" si="29">G145*B145-I145</f>
+        <v>450</v>
+      </c>
+      <c r="K145" s="35">
+        <f t="shared" si="5"/>
+        <v>2.4900000000000002</v>
+      </c>
+    </row>
+    <row r="146" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B146" s="33">
+        <f>ROUNDUP(I146/G146,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C146" t="s">
+        <v>797</v>
+      </c>
+      <c r="E146" s="26" t="s">
+        <v>798</v>
+      </c>
+      <c r="G146">
+        <v>500</v>
+      </c>
+      <c r="H146" s="22">
+        <v>4.49</v>
+      </c>
+      <c r="I146" s="18">
+        <f>SUMIF(C$1:C$116,"="&amp;C146,B$1:B$116)</f>
+        <v>72</v>
+      </c>
+      <c r="J146" s="33">
+        <f t="shared" si="29"/>
+        <v>428</v>
+      </c>
+      <c r="K146" s="35">
+        <f t="shared" ref="K146" si="30">B146*H146</f>
+        <v>4.49</v>
+      </c>
+    </row>
+    <row r="147" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B147" s="33"/>
+      <c r="E147" s="26"/>
+      <c r="H147" s="22"/>
+      <c r="I147" s="18"/>
+      <c r="J147" s="33"/>
+      <c r="K147" s="35"/>
+    </row>
+    <row r="148" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B148" s="33">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C148" s="32" t="s">
+        <v>776</v>
+      </c>
+      <c r="E148" s="9" t="s">
+        <v>715</v>
+      </c>
+      <c r="G148">
+        <v>1</v>
+      </c>
+      <c r="H148" s="22">
+        <v>0.15</v>
+      </c>
+      <c r="I148" s="18">
+        <f>SUMIF(C$1:C$116,"="&amp;C148,B$1:B$116)</f>
+        <v>9</v>
+      </c>
+      <c r="J148" s="33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K148" s="35">
+        <f t="shared" si="5"/>
+        <v>1.3499999999999999</v>
+      </c>
+    </row>
+    <row r="149" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B149" s="33">
+        <f t="shared" ref="B149" si="31">ROUNDUP(I149/G149,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C149" t="s">
+        <v>847</v>
+      </c>
+      <c r="E149" s="29" t="s">
+        <v>729</v>
+      </c>
+      <c r="G149">
+        <v>1</v>
+      </c>
+      <c r="H149" s="22">
         <v>0.08</v>
       </c>
-      <c r="I96" s="18">
-        <f>SUMIF(C$1:C$77,"="&amp;C96,B$1:B$77)</f>
-        <v>4</v>
-      </c>
-      <c r="J96" s="33">
-        <f t="shared" ref="J96" si="20">G96*B96-I96</f>
+      <c r="I149" s="18">
+        <f>SUMIF(C$1:C$116,"="&amp;C149,B$1:B$116)</f>
         <v>0</v>
       </c>
-      <c r="K96" s="34">
-        <f t="shared" si="4"/>
-        <v>0.32</v>
-      </c>
-    </row>
-    <row r="97" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="33">
-        <f t="shared" ref="B97:B101" si="21">ROUNDUP(I97/G97,0)</f>
-        <v>4</v>
-      </c>
-      <c r="C97" t="s">
-        <v>677</v>
-      </c>
-      <c r="E97" s="29" t="s">
-        <v>682</v>
-      </c>
-      <c r="G97">
-        <v>1</v>
-      </c>
-      <c r="H97" s="22">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="I97" s="18">
-        <f>SUMIF(C$1:C$77,"="&amp;C97,B$1:B$77)</f>
-        <v>4</v>
-      </c>
-      <c r="J97" s="33">
-        <f t="shared" ref="J97" si="22">G97*B97-I97</f>
+      <c r="J149" s="33">
+        <f t="shared" ref="J149" si="32">G149*B149-I149</f>
         <v>0</v>
       </c>
-      <c r="K97" s="34">
-        <f t="shared" si="4"/>
-        <v>20.399999999999999</v>
-      </c>
-    </row>
-    <row r="98" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B98" s="33">
-        <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="C98" t="s">
-        <v>684</v>
-      </c>
-      <c r="E98" s="29" t="s">
-        <v>683</v>
-      </c>
-      <c r="G98">
-        <v>1</v>
-      </c>
-      <c r="H98" s="22">
-        <v>5.44</v>
-      </c>
-      <c r="I98" s="18">
-        <f>SUMIF(C$1:C$77,"="&amp;C98,B$1:B$77)</f>
-        <v>1</v>
-      </c>
-      <c r="J98" s="33">
-        <f t="shared" ref="J98:J100" si="23">G98*B98-I98</f>
-        <v>0</v>
-      </c>
-      <c r="K98" s="34">
-        <f t="shared" si="4"/>
-        <v>5.44</v>
-      </c>
-    </row>
-    <row r="99" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B99" s="33">
-        <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="C99" t="s">
-        <v>728</v>
-      </c>
-      <c r="E99" s="29" t="s">
-        <v>687</v>
-      </c>
-      <c r="G99">
-        <v>1</v>
-      </c>
-      <c r="H99" s="22">
-        <v>4.46</v>
-      </c>
-      <c r="I99" s="18">
-        <f>SUMIF(C$1:C$77,"="&amp;C99,B$1:B$77)</f>
-        <v>1</v>
-      </c>
-      <c r="J99" s="33">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="K99" s="34">
-        <f t="shared" si="4"/>
-        <v>4.46</v>
-      </c>
-    </row>
-    <row r="100" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B100" s="33">
-        <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="C100" t="s">
-        <v>729</v>
-      </c>
-      <c r="E100" s="29" t="s">
-        <v>685</v>
-      </c>
-      <c r="G100">
-        <v>1</v>
-      </c>
-      <c r="H100" s="22">
-        <v>5.01</v>
-      </c>
-      <c r="I100" s="18">
-        <f>SUMIF(C$1:C$77,"="&amp;C100,B$1:B$77)</f>
-        <v>1</v>
-      </c>
-      <c r="J100" s="33">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="K100" s="34">
-        <f t="shared" si="4"/>
-        <v>5.01</v>
-      </c>
-    </row>
-    <row r="101" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="33">
-        <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="C101" t="s">
-        <v>774</v>
-      </c>
-      <c r="E101" s="26" t="s">
-        <v>773</v>
-      </c>
-      <c r="G101">
-        <v>1</v>
-      </c>
-      <c r="H101" s="22">
-        <v>6.34</v>
-      </c>
-      <c r="I101" s="18">
-        <f>SUMIF(C$1:C$77,"="&amp;C101,B$1:B$77)</f>
-        <v>1</v>
-      </c>
-      <c r="J101" s="33">
-        <f t="shared" ref="J101" si="24">G101*B101-I101</f>
-        <v>0</v>
-      </c>
-      <c r="K101" s="34">
-        <f t="shared" ref="K101" si="25">B101*H101</f>
-        <v>6.34</v>
-      </c>
-    </row>
-    <row r="102" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B102" s="33">
-        <v>1</v>
-      </c>
-      <c r="C102" s="32" t="s">
-        <v>703</v>
-      </c>
-      <c r="D102" s="32"/>
-      <c r="E102" s="29" t="s">
-        <v>705</v>
-      </c>
-      <c r="G102">
-        <v>1</v>
-      </c>
-      <c r="H102" s="22">
-        <v>4.96</v>
-      </c>
-      <c r="I102" s="18">
-        <f>SUMIF(C$1:C$77,"="&amp;C102,B$1:B$77)</f>
-        <v>1</v>
-      </c>
-      <c r="J102" s="33">
+      <c r="K149" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K102" s="34">
-        <f t="shared" si="4"/>
-        <v>4.96</v>
-      </c>
-    </row>
-    <row r="103" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B103" s="33">
-        <v>1</v>
-      </c>
-      <c r="C103" t="s">
-        <v>688</v>
-      </c>
-      <c r="D103" s="32"/>
-      <c r="E103" s="29" t="s">
-        <v>731</v>
-      </c>
-      <c r="G103">
-        <v>1</v>
-      </c>
-      <c r="H103" s="22">
-        <v>4.24</v>
-      </c>
-      <c r="I103" s="18">
-        <f>SUMIF(C$1:C$77,"="&amp;C103,B$1:B$77)</f>
-        <v>1</v>
-      </c>
-      <c r="J103" s="33">
-        <f t="shared" ref="J103" si="26">G103*B103-I103</f>
+    </row>
+    <row r="150" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B150" s="33">
+        <f>ROUNDUP(I150/G150,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C150" t="s">
+        <v>744</v>
+      </c>
+      <c r="E150" s="26" t="s">
+        <v>745</v>
+      </c>
+      <c r="G150">
+        <v>10</v>
+      </c>
+      <c r="H150" s="22">
+        <v>2.59</v>
+      </c>
+      <c r="I150" s="18">
+        <f>SUMIF(C$1:C$116,"="&amp;C150,B$1:B$116)</f>
+        <v>2</v>
+      </c>
+      <c r="J150" s="33">
+        <f t="shared" ref="J150" si="33">G150*B150-I150</f>
+        <v>8</v>
+      </c>
+      <c r="K150" s="35">
+        <f>B150*H150</f>
+        <v>2.59</v>
+      </c>
+    </row>
+    <row r="151" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B151" s="33"/>
+      <c r="H151" s="22"/>
+      <c r="I151" s="18"/>
+      <c r="J151" s="33"/>
+      <c r="K151" s="35"/>
+    </row>
+    <row r="152" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B152" s="33">
+        <f t="shared" ref="B152:B156" si="34">ROUNDUP(I152/G152,0)</f>
+        <v>4</v>
+      </c>
+      <c r="C152" t="s">
+        <v>676</v>
+      </c>
+      <c r="E152" s="29" t="s">
+        <v>681</v>
+      </c>
+      <c r="G152">
+        <v>1</v>
+      </c>
+      <c r="H152" s="22">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="I152" s="18">
+        <f>SUMIF(C$1:C$116,"="&amp;C152,B$1:B$116)</f>
+        <v>4</v>
+      </c>
+      <c r="J152" s="33">
+        <f t="shared" ref="J152" si="35">G152*B152-I152</f>
         <v>0</v>
       </c>
-      <c r="K103" s="34">
-        <f t="shared" si="4"/>
-        <v>4.24</v>
-      </c>
-    </row>
-    <row r="104" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B104" s="33">
-        <v>1</v>
-      </c>
-      <c r="C104" s="32" t="s">
-        <v>693</v>
-      </c>
-      <c r="E104" s="26" t="s">
-        <v>695</v>
-      </c>
-      <c r="G104">
-        <v>1</v>
-      </c>
-      <c r="H104" s="22">
-        <v>14.5</v>
-      </c>
-      <c r="I104" s="18">
-        <f>SUMIF(C$1:C$77,"="&amp;C104,B$1:B$77)</f>
-        <v>1</v>
-      </c>
-      <c r="J104" s="33">
+      <c r="K152" s="35">
         <f t="shared" si="5"/>
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="153" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B153" s="33">
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+      <c r="C153" t="s">
+        <v>683</v>
+      </c>
+      <c r="E153" s="29" t="s">
+        <v>682</v>
+      </c>
+      <c r="G153">
+        <v>1</v>
+      </c>
+      <c r="H153" s="22">
+        <v>5.44</v>
+      </c>
+      <c r="I153" s="18">
+        <f>SUMIF(C$1:C$116,"="&amp;C153,B$1:B$116)</f>
+        <v>1</v>
+      </c>
+      <c r="J153" s="33">
+        <f t="shared" ref="J153:J155" si="36">G153*B153-I153</f>
         <v>0</v>
       </c>
-      <c r="K104" s="34">
-        <f t="shared" si="4"/>
-        <v>14.5</v>
-      </c>
-    </row>
-    <row r="105" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B105" s="33">
-        <v>1</v>
-      </c>
-      <c r="C105" s="32" t="s">
-        <v>769</v>
-      </c>
-      <c r="E105" s="26" t="s">
-        <v>770</v>
-      </c>
-      <c r="G105">
-        <v>1</v>
-      </c>
-      <c r="H105" s="22">
-        <v>8.5</v>
-      </c>
-      <c r="I105" s="18">
-        <f>SUMIF(C$1:C$77,"="&amp;C105,B$1:B$77)</f>
-        <v>1</v>
-      </c>
-      <c r="J105" s="33">
-        <f t="shared" ref="J105" si="27">G105*B105-I105</f>
-        <v>0</v>
-      </c>
-      <c r="K105" s="34">
-        <f t="shared" ref="K105" si="28">B105*H105</f>
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="106" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B106" s="33">
-        <f t="shared" ref="B106:B117" si="29">ROUNDUP(I106/G106,0)</f>
-        <v>3</v>
-      </c>
-      <c r="C106" s="32" t="s">
-        <v>708</v>
-      </c>
-      <c r="E106" s="9" t="s">
-        <v>562</v>
-      </c>
-      <c r="G106">
-        <v>1</v>
-      </c>
-      <c r="H106" s="22">
-        <v>14.53</v>
-      </c>
-      <c r="I106" s="18">
-        <f>SUMIF(C$1:C$77,"="&amp;C106,B$1:B$77)</f>
-        <v>3</v>
-      </c>
-      <c r="J106" s="33">
+      <c r="K153" s="35">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K106" s="34">
-        <f t="shared" si="4"/>
-        <v>43.589999999999996</v>
-      </c>
-    </row>
-    <row r="107" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B107" s="33">
-        <f t="shared" si="29"/>
-        <v>2</v>
-      </c>
-      <c r="C107" s="32" t="s">
-        <v>718</v>
-      </c>
-      <c r="D107" s="32"/>
-      <c r="E107" s="29" t="s">
-        <v>716</v>
-      </c>
-      <c r="G107">
-        <v>1</v>
-      </c>
-      <c r="H107" s="22">
-        <v>1.54</v>
-      </c>
-      <c r="I107" s="18">
-        <f>SUMIF(C$1:C$77,"="&amp;C107,B$1:B$77)</f>
-        <v>2</v>
-      </c>
-      <c r="J107" s="33">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K107" s="34">
-        <f t="shared" si="4"/>
-        <v>3.08</v>
-      </c>
-    </row>
-    <row r="108" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B108" s="33">
-        <f t="shared" si="29"/>
-        <v>6</v>
-      </c>
-      <c r="C108" t="s">
-        <v>690</v>
-      </c>
-      <c r="E108" s="26" t="s">
-        <v>689</v>
-      </c>
-      <c r="G108">
-        <v>1</v>
-      </c>
-      <c r="H108" s="22">
-        <v>1.95</v>
-      </c>
-      <c r="I108" s="18">
-        <f>SUMIF(C$1:C$77,"="&amp;C108,B$1:B$77)</f>
-        <v>6</v>
-      </c>
-      <c r="J108" s="33">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K108" s="34">
-        <f t="shared" si="4"/>
-        <v>11.7</v>
-      </c>
-    </row>
-    <row r="109" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B109" s="33">
-        <f t="shared" si="29"/>
-        <v>2</v>
-      </c>
-      <c r="C109" t="s">
-        <v>665</v>
-      </c>
-      <c r="E109" s="29" t="s">
-        <v>667</v>
-      </c>
-      <c r="G109">
-        <v>1</v>
-      </c>
-      <c r="H109" s="22">
-        <v>1.39</v>
-      </c>
-      <c r="I109" s="18">
-        <f>SUMIF(C$1:C$77,"="&amp;C109,B$1:B$77)</f>
-        <v>2</v>
-      </c>
-      <c r="J109" s="33">
-        <f t="shared" ref="J109" si="30">G109*B109-I109</f>
-        <v>0</v>
-      </c>
-      <c r="K109" s="34">
-        <f t="shared" si="4"/>
-        <v>2.78</v>
-      </c>
-    </row>
-    <row r="110" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B110" s="33">
-        <f t="shared" si="29"/>
-        <v>1</v>
-      </c>
-      <c r="C110" t="s">
-        <v>658</v>
-      </c>
-      <c r="E110" s="29" t="s">
-        <v>557</v>
-      </c>
-      <c r="G110">
-        <v>1</v>
-      </c>
-      <c r="H110" s="22">
-        <v>3.29</v>
-      </c>
-      <c r="I110" s="18">
-        <f>SUMIF(C$1:C$77,"="&amp;C110,B$1:B$77)</f>
-        <v>1</v>
-      </c>
-      <c r="J110" s="33">
-        <f t="shared" ref="J110" si="31">G110*B110-I110</f>
-        <v>0</v>
-      </c>
-      <c r="K110" s="34">
-        <f t="shared" si="4"/>
-        <v>3.29</v>
-      </c>
-    </row>
-    <row r="111" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B111" s="33">
-        <f t="shared" si="29"/>
-        <v>4</v>
-      </c>
-      <c r="C111" s="32" t="s">
-        <v>740</v>
-      </c>
-      <c r="E111" s="26" t="s">
-        <v>557</v>
-      </c>
-      <c r="G111">
-        <v>1</v>
-      </c>
-      <c r="H111" s="22">
-        <v>3.29</v>
-      </c>
-      <c r="I111" s="18">
-        <f>SUMIF(C$1:C$77,"="&amp;C111,B$1:B$77)</f>
-        <v>4</v>
-      </c>
-      <c r="J111" s="33">
-        <f t="shared" ref="J111" si="32">G111*B111-I111</f>
-        <v>0</v>
-      </c>
-      <c r="K111" s="34">
-        <f t="shared" si="4"/>
-        <v>13.16</v>
-      </c>
-    </row>
-    <row r="112" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B112" s="33">
-        <f t="shared" si="29"/>
-        <v>2</v>
-      </c>
-      <c r="C112" t="s">
-        <v>744</v>
-      </c>
-      <c r="E112" s="26" t="s">
-        <v>745</v>
-      </c>
-      <c r="G112">
-        <v>1</v>
-      </c>
-      <c r="H112" s="22">
-        <v>1</v>
-      </c>
-      <c r="I112" s="18">
-        <f>SUMIF(C$1:C$77,"="&amp;C112,B$1:B$77)</f>
-        <v>2</v>
-      </c>
-      <c r="J112" s="33">
-        <f t="shared" ref="J112" si="33">G112*B112-I112</f>
-        <v>0</v>
-      </c>
-      <c r="K112" s="34">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="113" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B113" s="33">
-        <f t="shared" si="29"/>
-        <v>1</v>
-      </c>
-      <c r="C113" t="s">
-        <v>748</v>
-      </c>
-      <c r="E113" s="26" t="s">
-        <v>749</v>
-      </c>
-      <c r="G113">
-        <v>10</v>
-      </c>
-      <c r="H113" s="22">
-        <v>2.59</v>
-      </c>
-      <c r="I113" s="18">
-        <f>SUMIF(C$1:C$77,"="&amp;C113,B$1:B$77)</f>
-        <v>2</v>
-      </c>
-      <c r="J113" s="33">
-        <f t="shared" ref="J113" si="34">G113*B113-I113</f>
-        <v>8</v>
-      </c>
-      <c r="K113" s="34">
-        <f t="shared" si="4"/>
-        <v>2.59</v>
-      </c>
-    </row>
-    <row r="114" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B114" s="33">
-        <f t="shared" si="29"/>
-        <v>4</v>
-      </c>
-      <c r="C114" s="32" t="s">
-        <v>752</v>
-      </c>
-      <c r="E114" s="26" t="s">
-        <v>751</v>
-      </c>
-      <c r="G114">
-        <v>1</v>
-      </c>
-      <c r="H114" s="22">
-        <v>1.05</v>
-      </c>
-      <c r="I114" s="18">
-        <f>SUMIF(C$1:C$77,"="&amp;C114,B$1:B$77)</f>
-        <v>4</v>
-      </c>
-      <c r="J114" s="33">
-        <f t="shared" ref="J114" si="35">G114*B114-I114</f>
-        <v>0</v>
-      </c>
-      <c r="K114" s="34">
-        <f t="shared" si="4"/>
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="115" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B115" s="33">
-        <f t="shared" si="29"/>
-        <v>2</v>
-      </c>
-      <c r="C115" t="s">
-        <v>758</v>
-      </c>
-      <c r="E115" s="26" t="s">
-        <v>757</v>
-      </c>
-      <c r="G115">
-        <v>1</v>
-      </c>
-      <c r="H115" s="22">
-        <v>4.4400000000000004</v>
-      </c>
-      <c r="I115" s="18">
-        <f>SUMIF(C$1:C$77,"="&amp;C115,B$1:B$77)</f>
-        <v>2</v>
-      </c>
-      <c r="J115" s="33">
-        <f t="shared" ref="J115:J116" si="36">G115*B115-I115</f>
-        <v>0</v>
-      </c>
-      <c r="K115" s="34">
-        <f t="shared" si="4"/>
-        <v>8.8800000000000008</v>
-      </c>
-    </row>
-    <row r="116" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B116" s="33">
-        <f t="shared" si="29"/>
-        <v>1</v>
-      </c>
-      <c r="C116" t="s">
-        <v>783</v>
-      </c>
-      <c r="E116" t="s">
-        <v>775</v>
-      </c>
-      <c r="G116">
-        <v>1</v>
-      </c>
-      <c r="H116" s="22">
-        <v>0.4</v>
-      </c>
-      <c r="I116" s="18">
-        <f>SUMIF(C$1:C$77,"="&amp;C116,B$1:B$77)</f>
-        <v>1</v>
-      </c>
-      <c r="J116" s="33">
+        <v>5.44</v>
+      </c>
+    </row>
+    <row r="154" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B154" s="33">
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+      <c r="C154" t="s">
+        <v>724</v>
+      </c>
+      <c r="E154" s="29" t="s">
+        <v>686</v>
+      </c>
+      <c r="G154">
+        <v>1</v>
+      </c>
+      <c r="H154" s="22">
+        <v>4.46</v>
+      </c>
+      <c r="I154" s="18">
+        <f>SUMIF(C$1:C$116,"="&amp;C154,B$1:B$116)</f>
+        <v>1</v>
+      </c>
+      <c r="J154" s="33">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="K116" s="34">
-        <f t="shared" si="4"/>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="117" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B117" s="33">
-        <f t="shared" si="29"/>
-        <v>1</v>
-      </c>
-      <c r="C117" t="s">
-        <v>777</v>
-      </c>
-      <c r="E117" t="s">
-        <v>775</v>
-      </c>
-      <c r="G117">
-        <v>1</v>
-      </c>
-      <c r="H117" s="22">
-        <v>0.4</v>
-      </c>
-      <c r="I117" s="18">
-        <f>SUMIF(C$1:C$77,"="&amp;C117,B$1:B$77)</f>
-        <v>1</v>
-      </c>
-      <c r="J117" s="33">
-        <f t="shared" ref="J117" si="37">G117*B117-I117</f>
+      <c r="K154" s="35">
+        <f t="shared" si="5"/>
+        <v>4.46</v>
+      </c>
+    </row>
+    <row r="155" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B155" s="33">
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+      <c r="C155" t="s">
+        <v>725</v>
+      </c>
+      <c r="E155" s="29" t="s">
+        <v>684</v>
+      </c>
+      <c r="G155">
+        <v>1</v>
+      </c>
+      <c r="H155" s="22">
+        <v>5.01</v>
+      </c>
+      <c r="I155" s="18">
+        <f>SUMIF(C$1:C$116,"="&amp;C155,B$1:B$116)</f>
+        <v>1</v>
+      </c>
+      <c r="J155" s="33">
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="K117" s="34">
-        <f t="shared" ref="K117" si="38">B117*H117</f>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="118" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B118" s="33"/>
-      <c r="D118" t="s">
-        <v>775</v>
-      </c>
-      <c r="H118" s="22"/>
-      <c r="I118" s="18"/>
-      <c r="J118" s="33"/>
-    </row>
-    <row r="119" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B119" s="33"/>
-      <c r="E119" s="26"/>
-      <c r="H119" s="22"/>
-      <c r="I119" s="18"/>
-      <c r="J119" s="33"/>
-    </row>
-    <row r="120" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B120" s="33"/>
-      <c r="E120" s="26"/>
-      <c r="H120" s="22"/>
-      <c r="I120" s="18"/>
-      <c r="J120" s="33"/>
-    </row>
-    <row r="121" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B121" s="33"/>
-      <c r="E121" s="26"/>
-      <c r="H121" s="22"/>
-      <c r="I121" s="18"/>
-      <c r="J121" s="33"/>
-    </row>
-    <row r="122" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B122" s="33"/>
-      <c r="E122" s="26"/>
-      <c r="H122" s="22"/>
-      <c r="I122" s="18"/>
-      <c r="J122" s="33"/>
-    </row>
-    <row r="123" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B123" s="33"/>
-      <c r="E123" s="26"/>
-      <c r="H123" s="22"/>
-      <c r="I123" s="18"/>
-      <c r="J123" s="33"/>
-    </row>
-    <row r="124" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C124" t="s">
+      <c r="K155" s="35">
+        <f t="shared" si="5"/>
+        <v>5.01</v>
+      </c>
+    </row>
+    <row r="156" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B156" s="33">
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+      <c r="C156" t="s">
+        <v>768</v>
+      </c>
+      <c r="E156" s="26" t="s">
+        <v>767</v>
+      </c>
+      <c r="G156">
+        <v>1</v>
+      </c>
+      <c r="H156" s="22">
+        <v>6.34</v>
+      </c>
+      <c r="I156" s="18">
+        <f>SUMIF(C$1:C$116,"="&amp;C156,B$1:B$116)</f>
+        <v>1</v>
+      </c>
+      <c r="J156" s="33">
+        <f t="shared" ref="J156" si="37">G156*B156-I156</f>
+        <v>0</v>
+      </c>
+      <c r="K156" s="35">
+        <f t="shared" ref="K156" si="38">B156*H156</f>
+        <v>6.34</v>
+      </c>
+    </row>
+    <row r="157" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B157" s="33">
+        <v>1</v>
+      </c>
+      <c r="C157" t="s">
+        <v>801</v>
+      </c>
+      <c r="D157" s="32"/>
+      <c r="E157" s="26" t="s">
+        <v>800</v>
+      </c>
+      <c r="G157">
+        <v>1</v>
+      </c>
+      <c r="H157" s="22">
+        <v>11.6</v>
+      </c>
+      <c r="I157" s="18">
+        <f>SUMIF(C$1:C$116,"="&amp;C157,B$1:B$116)</f>
+        <v>1</v>
+      </c>
+      <c r="J157" s="33">
+        <f t="shared" ref="J157:J158" si="39">G157*B157-I157</f>
+        <v>0</v>
+      </c>
+      <c r="K157" s="35">
+        <f t="shared" ref="K157:K158" si="40">B157*H157</f>
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="158" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B158" s="33">
+        <v>1</v>
+      </c>
+      <c r="C158" t="s">
+        <v>822</v>
+      </c>
+      <c r="D158" s="32"/>
+      <c r="E158" s="29" t="s">
+        <v>823</v>
+      </c>
+      <c r="G158">
+        <v>1</v>
+      </c>
+      <c r="H158" s="22">
+        <v>5.66</v>
+      </c>
+      <c r="I158" s="18">
+        <f>SUMIF(C$1:C$116,"="&amp;C158,B$1:B$116)</f>
+        <v>2</v>
+      </c>
+      <c r="J158" s="33">
+        <f t="shared" si="39"/>
+        <v>-1</v>
+      </c>
+      <c r="K158" s="35">
+        <f t="shared" si="40"/>
+        <v>5.66</v>
+      </c>
+    </row>
+    <row r="159" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B159" s="33">
+        <v>1</v>
+      </c>
+      <c r="C159" t="s">
+        <v>803</v>
+      </c>
+      <c r="D159" s="32"/>
+      <c r="E159" s="29" t="s">
+        <v>802</v>
+      </c>
+      <c r="G159">
+        <v>1</v>
+      </c>
+      <c r="H159" s="22">
+        <v>5.23</v>
+      </c>
+      <c r="I159" s="18">
+        <f>SUMIF(C$1:C$116,"="&amp;C159,B$1:B$116)</f>
+        <v>0</v>
+      </c>
+      <c r="J159" s="33">
+        <f t="shared" ref="J159" si="41">G159*B159-I159</f>
+        <v>1</v>
+      </c>
+      <c r="K159" s="35">
+        <f t="shared" ref="K159" si="42">B159*H159</f>
+        <v>5.23</v>
+      </c>
+    </row>
+    <row r="160" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B160" s="33">
+        <v>1</v>
+      </c>
+      <c r="C160" s="32" t="s">
+        <v>828</v>
+      </c>
+      <c r="D160" s="32"/>
+      <c r="E160" s="29" t="s">
+        <v>701</v>
+      </c>
+      <c r="G160">
+        <v>1</v>
+      </c>
+      <c r="H160" s="22">
+        <v>4.96</v>
+      </c>
+      <c r="I160" s="18">
+        <f>SUMIF(C$1:C$116,"="&amp;C160,B$1:B$116)</f>
+        <v>1</v>
+      </c>
+      <c r="J160" s="33">
+        <f>G160*B160-I160</f>
+        <v>0</v>
+      </c>
+      <c r="K160" s="35">
+        <f>B160*H160</f>
+        <v>4.96</v>
+      </c>
+    </row>
+    <row r="161" spans="2:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B161" s="33">
+        <v>1</v>
+      </c>
+      <c r="C161" t="s">
+        <v>829</v>
+      </c>
+      <c r="D161" s="32"/>
+      <c r="E161" s="29" t="s">
+        <v>727</v>
+      </c>
+      <c r="G161">
+        <v>1</v>
+      </c>
+      <c r="H161" s="22">
+        <v>4.24</v>
+      </c>
+      <c r="I161" s="18">
+        <f>SUMIF(C$1:C$116,"="&amp;C161,B$1:B$116)</f>
+        <v>1</v>
+      </c>
+      <c r="J161" s="33">
+        <f t="shared" ref="J161" si="43">G161*B161-I161</f>
+        <v>0</v>
+      </c>
+      <c r="K161" s="35">
+        <f>B161*H161</f>
+        <v>4.24</v>
+      </c>
+    </row>
+    <row r="162" spans="2:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B162" s="33">
+        <f>ROUNDUP(I162/G162,0)</f>
+        <v>2</v>
+      </c>
+      <c r="C162" t="s">
+        <v>832</v>
+      </c>
+      <c r="E162" s="26" t="s">
+        <v>752</v>
+      </c>
+      <c r="G162">
+        <v>1</v>
+      </c>
+      <c r="H162" s="22">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="I162" s="18">
+        <f>SUMIF(C$1:C$116,"="&amp;C162,B$1:B$116)</f>
+        <v>2</v>
+      </c>
+      <c r="J162" s="33">
+        <f t="shared" ref="J162" si="44">G162*B162-I162</f>
+        <v>0</v>
+      </c>
+      <c r="K162" s="35">
+        <f>B162*H162</f>
+        <v>8.8800000000000008</v>
+      </c>
+    </row>
+    <row r="163" spans="2:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B163" s="33">
+        <v>1</v>
+      </c>
+      <c r="C163" t="s">
+        <v>830</v>
+      </c>
+      <c r="D163" s="32"/>
+      <c r="E163" s="29" t="s">
+        <v>820</v>
+      </c>
+      <c r="G163">
+        <v>1</v>
+      </c>
+      <c r="H163" s="22">
+        <v>7.44</v>
+      </c>
+      <c r="I163" s="18">
+        <f>SUMIF(C$1:C$116,"="&amp;C163,B$1:B$116)</f>
+        <v>1</v>
+      </c>
+      <c r="J163" s="33">
+        <f t="shared" ref="J163" si="45">G163*B163-I163</f>
+        <v>0</v>
+      </c>
+      <c r="K163" s="35">
+        <f t="shared" ref="K163" si="46">B163*H163</f>
+        <v>7.44</v>
+      </c>
+    </row>
+    <row r="164" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B164" s="33">
+        <v>1</v>
+      </c>
+      <c r="C164" t="s">
+        <v>831</v>
+      </c>
+      <c r="D164" s="32"/>
+      <c r="E164" s="29" t="s">
+        <v>820</v>
+      </c>
+      <c r="G164">
+        <v>1</v>
+      </c>
+      <c r="H164" s="22">
+        <v>8.8699999999999992</v>
+      </c>
+      <c r="I164" s="18">
+        <f>SUMIF(C$1:C$116,"="&amp;C164,B$1:B$116)</f>
+        <v>1</v>
+      </c>
+      <c r="J164" s="33">
+        <f t="shared" ref="J164" si="47">G164*B164-I164</f>
+        <v>0</v>
+      </c>
+      <c r="K164" s="35">
+        <f t="shared" ref="K164" si="48">B164*H164</f>
+        <v>8.8699999999999992</v>
+      </c>
+    </row>
+    <row r="165" spans="2:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B165" s="33"/>
+      <c r="D165" s="32"/>
+      <c r="H165" s="22"/>
+      <c r="I165" s="18"/>
+      <c r="J165" s="33"/>
+      <c r="K165" s="35"/>
+    </row>
+    <row r="166" spans="2:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B166" s="33">
+        <v>1</v>
+      </c>
+      <c r="C166" s="32" t="s">
+        <v>691</v>
+      </c>
+      <c r="E166" s="26" t="s">
+        <v>693</v>
+      </c>
+      <c r="G166">
+        <v>1</v>
+      </c>
+      <c r="H166" s="22">
+        <v>14.5</v>
+      </c>
+      <c r="I166" s="18">
+        <f>SUMIF(C$1:C$116,"="&amp;C166,B$1:B$116)</f>
+        <v>1</v>
+      </c>
+      <c r="J166" s="33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K166" s="35">
+        <f t="shared" si="5"/>
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="167" spans="2:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B167" s="33">
+        <v>1</v>
+      </c>
+      <c r="C167" s="32" t="s">
+        <v>763</v>
+      </c>
+      <c r="E167" s="26" t="s">
+        <v>764</v>
+      </c>
+      <c r="G167">
+        <v>1</v>
+      </c>
+      <c r="H167" s="22">
+        <v>8.5</v>
+      </c>
+      <c r="I167" s="18">
+        <f>SUMIF(C$1:C$116,"="&amp;C167,B$1:B$116)</f>
+        <v>1</v>
+      </c>
+      <c r="J167" s="33">
+        <f t="shared" ref="J167" si="49">G167*B167-I167</f>
+        <v>0</v>
+      </c>
+      <c r="K167" s="35">
+        <f t="shared" ref="K167" si="50">B167*H167</f>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="168" spans="2:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B168" s="33">
+        <v>1</v>
+      </c>
+      <c r="C168" s="32" t="s">
+        <v>827</v>
+      </c>
+      <c r="E168" s="26" t="s">
+        <v>826</v>
+      </c>
+      <c r="G168">
+        <v>1</v>
+      </c>
+      <c r="H168" s="22">
+        <v>54.2</v>
+      </c>
+      <c r="I168" s="18">
+        <f>SUMIF(C$1:C$116,"="&amp;C168,B$1:B$116)</f>
+        <v>1</v>
+      </c>
+      <c r="J168" s="33">
+        <f t="shared" ref="J168" si="51">G168*B168-I168</f>
+        <v>0</v>
+      </c>
+      <c r="K168" s="35">
+        <f t="shared" ref="K168" si="52">B168*H168</f>
+        <v>54.2</v>
+      </c>
+    </row>
+    <row r="169" spans="2:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B169" s="33">
+        <f t="shared" ref="B169:B180" si="53">ROUNDUP(I169/G169,0)</f>
+        <v>3</v>
+      </c>
+      <c r="C169" s="32" t="s">
+        <v>704</v>
+      </c>
+      <c r="E169" s="9" t="s">
+        <v>562</v>
+      </c>
+      <c r="G169">
+        <v>1</v>
+      </c>
+      <c r="H169" s="22">
+        <v>14.53</v>
+      </c>
+      <c r="I169" s="18">
+        <f>SUMIF(C$1:C$116,"="&amp;C169,B$1:B$116)</f>
+        <v>3</v>
+      </c>
+      <c r="J169" s="33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K169" s="35">
+        <f t="shared" si="5"/>
+        <v>43.589999999999996</v>
+      </c>
+    </row>
+    <row r="170" spans="2:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B170" s="33">
+        <f t="shared" si="53"/>
+        <v>1</v>
+      </c>
+      <c r="C170" s="32" t="s">
+        <v>833</v>
+      </c>
+      <c r="E170" s="9" t="s">
+        <v>835</v>
+      </c>
+      <c r="G170">
+        <v>1</v>
+      </c>
+      <c r="H170" s="22">
+        <v>36.42</v>
+      </c>
+      <c r="I170" s="18">
+        <f>SUMIF(C$1:C$116,"="&amp;C170,B$1:B$116)</f>
+        <v>1</v>
+      </c>
+      <c r="J170" s="33">
+        <f t="shared" ref="J170" si="54">G170*B170-I170</f>
+        <v>0</v>
+      </c>
+      <c r="K170" s="35">
+        <f t="shared" ref="K170" si="55">B170*H170</f>
+        <v>36.42</v>
+      </c>
+      <c r="L170" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="171" spans="2:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B171" s="33"/>
+      <c r="C171" s="32"/>
+      <c r="E171" s="9"/>
+      <c r="H171" s="22"/>
+      <c r="I171" s="18"/>
+      <c r="J171" s="33"/>
+      <c r="K171" s="35"/>
+    </row>
+    <row r="172" spans="2:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B172" s="33">
+        <f t="shared" si="53"/>
+        <v>2</v>
+      </c>
+      <c r="C172" s="32" t="s">
+        <v>714</v>
+      </c>
+      <c r="D172" s="32"/>
+      <c r="E172" s="29" t="s">
+        <v>712</v>
+      </c>
+      <c r="G172">
+        <v>1</v>
+      </c>
+      <c r="H172" s="22">
+        <v>1.54</v>
+      </c>
+      <c r="I172" s="18">
+        <f>SUMIF(C$1:C$116,"="&amp;C172,B$1:B$116)</f>
+        <v>2</v>
+      </c>
+      <c r="J172" s="33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K172" s="35">
+        <f t="shared" si="5"/>
+        <v>3.08</v>
+      </c>
+    </row>
+    <row r="173" spans="2:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B173" s="33">
+        <f t="shared" ref="B173" si="56">ROUNDUP(I173/G173,0)</f>
+        <v>8</v>
+      </c>
+      <c r="C173" s="32" t="s">
+        <v>819</v>
+      </c>
+      <c r="D173" s="32"/>
+      <c r="E173" s="29" t="s">
+        <v>837</v>
+      </c>
+      <c r="G173">
+        <v>1</v>
+      </c>
+      <c r="H173" s="22">
+        <v>1.54</v>
+      </c>
+      <c r="I173" s="18">
+        <f>SUMIF(C$1:C$116,"="&amp;C173,B$1:B$116)</f>
+        <v>8</v>
+      </c>
+      <c r="J173" s="33">
+        <f t="shared" ref="J173" si="57">G173*B173-I173</f>
+        <v>0</v>
+      </c>
+      <c r="K173" s="35">
+        <f t="shared" ref="K173" si="58">B173*H173</f>
+        <v>12.32</v>
+      </c>
+    </row>
+    <row r="174" spans="2:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B174" s="33">
+        <f t="shared" ref="B174" si="59">ROUNDUP(I174/G174,0)</f>
+        <v>2</v>
+      </c>
+      <c r="C174" s="32" t="s">
+        <v>839</v>
+      </c>
+      <c r="D174" s="32"/>
+      <c r="E174" s="29" t="s">
+        <v>838</v>
+      </c>
+      <c r="G174">
+        <v>1</v>
+      </c>
+      <c r="H174" s="22">
+        <v>1.54</v>
+      </c>
+      <c r="I174" s="18">
+        <f>SUMIF(C$1:C$116,"="&amp;C174,B$1:B$116)</f>
+        <v>2</v>
+      </c>
+      <c r="J174" s="33">
+        <f t="shared" ref="J174" si="60">G174*B174-I174</f>
+        <v>0</v>
+      </c>
+      <c r="K174" s="35">
+        <f t="shared" ref="K174" si="61">B174*H174</f>
+        <v>3.08</v>
+      </c>
+    </row>
+    <row r="175" spans="2:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B175" s="33">
+        <f t="shared" si="53"/>
+        <v>6</v>
+      </c>
+      <c r="C175" t="s">
+        <v>688</v>
+      </c>
+      <c r="E175" s="26" t="s">
+        <v>687</v>
+      </c>
+      <c r="G175">
+        <v>1</v>
+      </c>
+      <c r="H175" s="22">
+        <v>1.95</v>
+      </c>
+      <c r="I175" s="18">
+        <f>SUMIF(C$1:C$116,"="&amp;C175,B$1:B$116)</f>
+        <v>6</v>
+      </c>
+      <c r="J175" s="33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K175" s="35">
+        <f t="shared" si="5"/>
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="176" spans="2:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B176" s="33">
+        <f t="shared" si="53"/>
+        <v>2</v>
+      </c>
+      <c r="C176" t="s">
+        <v>664</v>
+      </c>
+      <c r="E176" s="29" t="s">
+        <v>666</v>
+      </c>
+      <c r="G176">
+        <v>1</v>
+      </c>
+      <c r="H176" s="22">
+        <v>1.39</v>
+      </c>
+      <c r="I176" s="18">
+        <f>SUMIF(C$1:C$116,"="&amp;C176,B$1:B$116)</f>
+        <v>2</v>
+      </c>
+      <c r="J176" s="33">
+        <f t="shared" ref="J176" si="62">G176*B176-I176</f>
+        <v>0</v>
+      </c>
+      <c r="K176" s="35">
+        <f t="shared" si="5"/>
+        <v>2.78</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B177" s="33">
+        <f t="shared" si="53"/>
+        <v>1</v>
+      </c>
+      <c r="C177" t="s">
+        <v>657</v>
+      </c>
+      <c r="E177" s="29" t="s">
+        <v>557</v>
+      </c>
+      <c r="G177">
+        <v>1</v>
+      </c>
+      <c r="H177" s="22">
+        <v>3.29</v>
+      </c>
+      <c r="I177" s="18">
+        <f>SUMIF(C$1:C$116,"="&amp;C177,B$1:B$116)</f>
+        <v>1</v>
+      </c>
+      <c r="J177" s="33">
+        <f t="shared" ref="J177" si="63">G177*B177-I177</f>
+        <v>0</v>
+      </c>
+      <c r="K177" s="35">
+        <f t="shared" si="5"/>
+        <v>3.29</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B178" s="33">
+        <f t="shared" si="53"/>
+        <v>4</v>
+      </c>
+      <c r="C178" s="32" t="s">
+        <v>736</v>
+      </c>
+      <c r="E178" s="26" t="s">
+        <v>557</v>
+      </c>
+      <c r="G178">
+        <v>1</v>
+      </c>
+      <c r="H178" s="22">
+        <v>3.29</v>
+      </c>
+      <c r="I178" s="18">
+        <f>SUMIF(C$1:C$116,"="&amp;C178,B$1:B$116)</f>
+        <v>4</v>
+      </c>
+      <c r="J178" s="33">
+        <f t="shared" ref="J178" si="64">G178*B178-I178</f>
+        <v>0</v>
+      </c>
+      <c r="K178" s="35">
+        <f t="shared" si="5"/>
+        <v>13.16</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B179" s="33">
+        <f t="shared" si="53"/>
+        <v>2</v>
+      </c>
+      <c r="C179" t="s">
+        <v>740</v>
+      </c>
+      <c r="E179" s="26" t="s">
+        <v>741</v>
+      </c>
+      <c r="G179">
+        <v>1</v>
+      </c>
+      <c r="H179" s="22">
+        <v>1</v>
+      </c>
+      <c r="I179" s="18">
+        <f>SUMIF(C$1:C$116,"="&amp;C179,B$1:B$116)</f>
+        <v>2</v>
+      </c>
+      <c r="J179" s="33">
+        <f t="shared" ref="J179" si="65">G179*B179-I179</f>
+        <v>0</v>
+      </c>
+      <c r="K179" s="35">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B180" s="33">
+        <f t="shared" si="53"/>
+        <v>4</v>
+      </c>
+      <c r="C180" s="32" t="s">
+        <v>748</v>
+      </c>
+      <c r="E180" s="26" t="s">
+        <v>747</v>
+      </c>
+      <c r="G180">
+        <v>1</v>
+      </c>
+      <c r="H180" s="22">
+        <v>1.05</v>
+      </c>
+      <c r="I180" s="18">
+        <f>SUMIF(C$1:C$116,"="&amp;C180,B$1:B$116)</f>
+        <v>4</v>
+      </c>
+      <c r="J180" s="33">
+        <f t="shared" ref="J180" si="66">G180*B180-I180</f>
+        <v>0</v>
+      </c>
+      <c r="K180" s="35">
+        <f t="shared" si="5"/>
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B181" s="33">
+        <f t="shared" ref="B181" si="67">ROUNDUP(I181/G181,0)</f>
+        <v>2</v>
+      </c>
+      <c r="C181" s="32" t="s">
+        <v>811</v>
+      </c>
+      <c r="E181" s="26"/>
+      <c r="G181">
+        <v>1</v>
+      </c>
+      <c r="H181" s="22">
+        <v>1.05</v>
+      </c>
+      <c r="I181" s="18">
+        <f>SUMIF(C$1:C$116,"="&amp;C181,B$1:B$116)</f>
+        <v>2</v>
+      </c>
+      <c r="J181" s="33">
+        <f t="shared" ref="J181" si="68">G181*B181-I181</f>
+        <v>0</v>
+      </c>
+      <c r="K181" s="35">
+        <f t="shared" ref="K181" si="69">B181*H181</f>
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B182" s="33"/>
+      <c r="E182" s="26"/>
+      <c r="H182" s="22"/>
+      <c r="I182" s="18"/>
+      <c r="J182" s="33"/>
+      <c r="K182" s="35"/>
+    </row>
+    <row r="183" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A183" s="6" t="s">
+        <v>807</v>
+      </c>
+      <c r="B183" s="33"/>
+      <c r="E183"/>
+      <c r="H183" s="22"/>
+      <c r="I183" s="18"/>
+      <c r="J183" s="33"/>
+      <c r="K183" s="35"/>
+    </row>
+    <row r="184" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B184" s="33">
+        <v>1</v>
+      </c>
+      <c r="C184" t="s">
+        <v>795</v>
+      </c>
+      <c r="E184" s="29" t="s">
+        <v>796</v>
+      </c>
+      <c r="G184">
+        <v>1</v>
+      </c>
+      <c r="H184" s="22">
+        <v>4.09</v>
+      </c>
+      <c r="I184" s="18">
+        <f>SUMIF(C$1:C$116,"="&amp;C184,B$1:B$116)</f>
+        <v>3</v>
+      </c>
+      <c r="J184" s="33">
+        <f t="shared" ref="J184:J185" si="70">G184*B184-I184</f>
+        <v>-2</v>
+      </c>
+      <c r="K184" s="35">
+        <f t="shared" ref="K184:K185" si="71">B184*H184</f>
+        <v>4.09</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B185" s="33">
+        <v>1</v>
+      </c>
+      <c r="C185" t="s">
+        <v>804</v>
+      </c>
+      <c r="E185" s="29" t="s">
+        <v>842</v>
+      </c>
+      <c r="G185">
+        <v>1</v>
+      </c>
+      <c r="H185" s="22">
+        <v>2.8</v>
+      </c>
+      <c r="I185" s="18">
+        <f>SUMIF(C$1:C$116,"="&amp;C185,B$1:B$116)</f>
+        <v>1</v>
+      </c>
+      <c r="J185" s="33">
+        <f t="shared" si="70"/>
+        <v>0</v>
+      </c>
+      <c r="K185" s="35">
+        <f t="shared" si="71"/>
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B186" s="33">
+        <v>1</v>
+      </c>
+      <c r="C186" t="s">
+        <v>805</v>
+      </c>
+      <c r="E186" s="29" t="s">
+        <v>842</v>
+      </c>
+      <c r="G186">
+        <v>1</v>
+      </c>
+      <c r="H186" s="22">
+        <v>2.8</v>
+      </c>
+      <c r="I186" s="18">
+        <f>SUMIF(C$1:C$116,"="&amp;C186,B$1:B$116)</f>
+        <v>2</v>
+      </c>
+      <c r="J186" s="33">
+        <f t="shared" ref="J186" si="72">G186*B186-I186</f>
+        <v>-1</v>
+      </c>
+      <c r="K186" s="35">
+        <f t="shared" ref="K186" si="73">B186*H186</f>
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B187" s="33">
+        <v>1</v>
+      </c>
+      <c r="C187" t="s">
+        <v>806</v>
+      </c>
+      <c r="E187" s="29" t="s">
+        <v>842</v>
+      </c>
+      <c r="G187">
+        <v>1</v>
+      </c>
+      <c r="H187" s="22">
+        <v>2.8</v>
+      </c>
+      <c r="I187" s="18">
+        <f>SUMIF(C$1:C$116,"="&amp;C187,B$1:B$116)</f>
+        <v>3</v>
+      </c>
+      <c r="J187" s="33">
+        <f t="shared" ref="J187" si="74">G187*B187-I187</f>
+        <v>-2</v>
+      </c>
+      <c r="K187" s="35">
+        <f t="shared" ref="K187" si="75">B187*H187</f>
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B188" s="33"/>
+      <c r="H188" s="22"/>
+      <c r="I188" s="18"/>
+      <c r="J188" s="33"/>
+      <c r="K188" s="35"/>
+    </row>
+    <row r="189" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B189" s="33"/>
+      <c r="H189" s="22"/>
+      <c r="I189" s="18"/>
+      <c r="J189" s="33"/>
+      <c r="K189" s="35"/>
+    </row>
+    <row r="190" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B190" s="33"/>
+      <c r="H190" s="22"/>
+      <c r="I190" s="18"/>
+      <c r="J190" s="33"/>
+      <c r="K190" s="35"/>
+    </row>
+    <row r="191" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B191" s="33"/>
+      <c r="E191" s="26"/>
+      <c r="H191" s="22"/>
+      <c r="I191" s="18"/>
+      <c r="J191" s="33"/>
+      <c r="K191" s="36">
+        <f>SUM(K118:K187)</f>
+        <v>393.48999999999995</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B192" s="33"/>
+      <c r="E192" s="26"/>
+      <c r="H192" s="22"/>
+      <c r="I192" s="18"/>
+      <c r="J192" s="33"/>
+    </row>
+    <row r="193" spans="2:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B193" s="33"/>
+      <c r="E193" s="26"/>
+      <c r="H193" s="22"/>
+      <c r="I193" s="18"/>
+      <c r="J193" s="33"/>
+    </row>
+    <row r="194" spans="2:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B194" s="33"/>
+      <c r="E194" s="26"/>
+      <c r="H194" s="22"/>
+      <c r="I194" s="18"/>
+      <c r="J194" s="33"/>
+    </row>
+    <row r="195" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C195" t="s">
         <v>606</v>
       </c>
-      <c r="D124" s="6" t="s">
+      <c r="D195" s="6" t="s">
         <v>599</v>
       </c>
-      <c r="E124" s="29" t="s">
+      <c r="E195" s="29" t="s">
         <v>554</v>
       </c>
-      <c r="F124">
+      <c r="F195">
         <v>0.28999999999999998</v>
       </c>
-      <c r="H124" s="22">
+      <c r="H195" s="22">
         <v>26.88</v>
       </c>
-      <c r="I124" s="22">
-        <f>H124*B125</f>
+      <c r="I195" s="22">
+        <f>H195*B196</f>
         <v>26.88</v>
       </c>
     </row>
-    <row r="125" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B125">
-        <v>1</v>
-      </c>
-      <c r="C125" t="s">
+    <row r="196" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B196">
+        <v>1</v>
+      </c>
+      <c r="C196" t="s">
         <v>608</v>
       </c>
-      <c r="D125" t="s">
+      <c r="D196" t="s">
         <v>609</v>
       </c>
-      <c r="E125" s="30" t="s">
+      <c r="E196" s="30" t="s">
         <v>607</v>
       </c>
-      <c r="F125">
+      <c r="F196">
         <v>0</v>
       </c>
-      <c r="H125">
+      <c r="H196">
         <v>1.1499999999999999</v>
       </c>
-      <c r="I125" s="22">
-        <f>H125*B126</f>
+      <c r="I196" s="22">
+        <f>H196*B197</f>
         <v>6.8999999999999995</v>
       </c>
     </row>
-    <row r="126" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B126">
+    <row r="197" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B197">
         <v>6</v>
       </c>
-      <c r="C126" t="s">
+      <c r="C197" t="s">
         <v>612</v>
       </c>
-      <c r="D126" t="s">
+      <c r="D197" t="s">
         <v>610</v>
       </c>
-      <c r="E126" s="29" t="s">
+      <c r="E197" s="29" t="s">
         <v>611</v>
       </c>
-      <c r="F126">
+      <c r="F197">
         <v>0</v>
       </c>
-      <c r="H126">
-        <f>I126/10</f>
+      <c r="H197">
+        <f>I197/10</f>
         <v>0.251</v>
       </c>
-      <c r="I126">
+      <c r="I197">
         <v>2.5099999999999998</v>
       </c>
     </row>
-    <row r="127" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B127">
-        <v>1</v>
-      </c>
-      <c r="C127" t="s">
+    <row r="198" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B198">
+        <v>1</v>
+      </c>
+      <c r="C198" t="s">
+        <v>614</v>
+      </c>
+      <c r="D198" t="s">
+        <v>613</v>
+      </c>
+      <c r="E198" s="26" t="s">
+        <v>473</v>
+      </c>
+      <c r="F198">
+        <v>0.7</v>
+      </c>
+      <c r="H198">
+        <v>18</v>
+      </c>
+      <c r="I198" s="22">
+        <f>H198*B199</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="199" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B199">
+        <v>1</v>
+      </c>
+      <c r="E199" s="26"/>
+      <c r="I199" s="22"/>
+    </row>
+    <row r="200" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C200" t="s">
         <v>615</v>
       </c>
-      <c r="D127" t="s">
-        <v>614</v>
-      </c>
-      <c r="E127" s="26" t="s">
-        <v>473</v>
-      </c>
-      <c r="F127">
-        <v>0.7</v>
-      </c>
-      <c r="H127">
-        <v>18</v>
-      </c>
-      <c r="I127" s="22">
-        <f>H127*B128</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="128" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B128">
-        <v>1</v>
-      </c>
-      <c r="E128" s="26"/>
-      <c r="I128" s="22"/>
-    </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C129" t="s">
+      <c r="D200" s="6" t="s">
         <v>616</v>
       </c>
-      <c r="D129" s="6" t="s">
+      <c r="E200" s="26" t="s">
+        <v>544</v>
+      </c>
+      <c r="F200">
+        <v>1.34</v>
+      </c>
+      <c r="H200">
+        <v>37</v>
+      </c>
+      <c r="I200" s="22">
+        <f>H200*B201</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="201" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B201">
+        <v>1</v>
+      </c>
+      <c r="C201" t="s">
+        <v>638</v>
+      </c>
+      <c r="D201" s="8" t="s">
+        <v>641</v>
+      </c>
+      <c r="E201" s="29" t="s">
+        <v>639</v>
+      </c>
+      <c r="F201">
+        <v>0</v>
+      </c>
+      <c r="I201" s="22"/>
+    </row>
+    <row r="202" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B202">
+        <v>2</v>
+      </c>
+      <c r="C202" t="s">
+        <v>648</v>
+      </c>
+      <c r="D202" t="s">
+        <v>631</v>
+      </c>
+      <c r="E202" s="26" t="s">
+        <v>647</v>
+      </c>
+      <c r="F202">
+        <v>0</v>
+      </c>
+      <c r="I202" s="22"/>
+    </row>
+    <row r="203" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B203">
+        <v>1</v>
+      </c>
+      <c r="C203" t="s">
+        <v>608</v>
+      </c>
+      <c r="D203" t="s">
+        <v>632</v>
+      </c>
+      <c r="E203" s="30" t="s">
+        <v>607</v>
+      </c>
+      <c r="F203">
+        <v>0</v>
+      </c>
+      <c r="I203" s="22"/>
+    </row>
+    <row r="204" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B204">
+        <v>4</v>
+      </c>
+      <c r="C204" t="s">
+        <v>634</v>
+      </c>
+      <c r="D204" t="s">
+        <v>645</v>
+      </c>
+      <c r="E204" s="26" t="s">
+        <v>633</v>
+      </c>
+      <c r="F204">
+        <v>0</v>
+      </c>
+      <c r="I204" s="22"/>
+    </row>
+    <row r="205" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B205">
+        <v>8</v>
+      </c>
+      <c r="D205" t="s">
+        <v>646</v>
+      </c>
+      <c r="E205" s="29" t="s">
+        <v>644</v>
+      </c>
+      <c r="F205">
+        <v>0</v>
+      </c>
+      <c r="I205" s="22"/>
+    </row>
+    <row r="206" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="E206" s="26"/>
+      <c r="I206" s="22"/>
+    </row>
+    <row r="207" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="D207" s="6" t="s">
+        <v>635</v>
+      </c>
+      <c r="E207" s="26"/>
+      <c r="I207" s="22"/>
+    </row>
+    <row r="208" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C208" t="s">
+        <v>627</v>
+      </c>
+      <c r="D208" t="s">
+        <v>625</v>
+      </c>
+      <c r="E208" s="25" t="s">
         <v>617</v>
       </c>
-      <c r="E129" s="26" t="s">
-        <v>544</v>
-      </c>
-      <c r="F129">
-        <v>1.34</v>
-      </c>
-      <c r="H129">
-        <v>37</v>
-      </c>
-      <c r="I129" s="22">
-        <f>H129*B130</f>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B130">
-        <v>1</v>
-      </c>
-      <c r="C130" t="s">
-        <v>639</v>
-      </c>
-      <c r="D130" s="8" t="s">
+      <c r="F208">
+        <v>0</v>
+      </c>
+      <c r="H208">
+        <v>9.9</v>
+      </c>
+      <c r="I208" s="22">
+        <f>H208*B209</f>
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="209" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B209">
+        <v>1</v>
+      </c>
+      <c r="C209" t="s">
+        <v>629</v>
+      </c>
+      <c r="D209" t="s">
+        <v>621</v>
+      </c>
+      <c r="E209" s="26" t="s">
+        <v>622</v>
+      </c>
+      <c r="F209">
+        <v>0</v>
+      </c>
+      <c r="I209" s="22"/>
+    </row>
+    <row r="210" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B210">
+        <v>1</v>
+      </c>
+      <c r="C210" t="s">
+        <v>628</v>
+      </c>
+      <c r="D210" t="s">
+        <v>624</v>
+      </c>
+      <c r="E210" s="25" t="s">
+        <v>623</v>
+      </c>
+      <c r="F210">
+        <v>0</v>
+      </c>
+      <c r="I210" s="22"/>
+    </row>
+    <row r="211" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B211">
+        <v>1</v>
+      </c>
+      <c r="C211" t="s">
+        <v>626</v>
+      </c>
+      <c r="D211" t="s">
+        <v>643</v>
+      </c>
+      <c r="E211" s="26" t="s">
         <v>642</v>
       </c>
-      <c r="E130" s="29" t="s">
-        <v>640</v>
-      </c>
-      <c r="F130">
+      <c r="F211">
         <v>0</v>
       </c>
-      <c r="I130" s="22"/>
-    </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B131">
-        <v>2</v>
-      </c>
-      <c r="C131" t="s">
-        <v>649</v>
-      </c>
-      <c r="D131" t="s">
-        <v>632</v>
-      </c>
-      <c r="E131" s="26" t="s">
-        <v>648</v>
-      </c>
-      <c r="F131">
+      <c r="I211" s="22"/>
+    </row>
+    <row r="212" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B212">
+        <v>1</v>
+      </c>
+      <c r="C212" t="s">
+        <v>618</v>
+      </c>
+      <c r="D212" t="s">
+        <v>636</v>
+      </c>
+      <c r="E212" s="25" t="s">
+        <v>637</v>
+      </c>
+      <c r="F212">
         <v>0</v>
       </c>
-      <c r="I131" s="22"/>
-    </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B132">
-        <v>1</v>
-      </c>
-      <c r="C132" t="s">
-        <v>608</v>
-      </c>
-      <c r="D132" t="s">
-        <v>633</v>
-      </c>
-      <c r="E132" s="30" t="s">
-        <v>607</v>
-      </c>
-      <c r="F132">
+      <c r="I212" s="22"/>
+    </row>
+    <row r="213" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B213">
+        <v>1</v>
+      </c>
+      <c r="C213" t="s">
+        <v>620</v>
+      </c>
+      <c r="D213" t="s">
+        <v>621</v>
+      </c>
+      <c r="E213" s="25" t="s">
+        <v>617</v>
+      </c>
+      <c r="F213">
         <v>0</v>
       </c>
-      <c r="I132" s="22"/>
-    </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B133">
-        <v>4</v>
-      </c>
-      <c r="C133" t="s">
-        <v>635</v>
-      </c>
-      <c r="D133" t="s">
-        <v>646</v>
-      </c>
-      <c r="E133" s="26" t="s">
-        <v>634</v>
-      </c>
-      <c r="F133">
+      <c r="I213" s="22"/>
+    </row>
+    <row r="214" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B214">
+        <v>1</v>
+      </c>
+      <c r="E214" s="25"/>
+      <c r="I214" s="22"/>
+    </row>
+    <row r="215" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="E215" s="25"/>
+      <c r="I215" s="22"/>
+    </row>
+    <row r="216" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C216" t="s">
+        <v>603</v>
+      </c>
+      <c r="D216" t="s">
+        <v>600</v>
+      </c>
+      <c r="E216" s="29" t="s">
+        <v>602</v>
+      </c>
+      <c r="F216">
         <v>0</v>
       </c>
-      <c r="I133" s="22"/>
-    </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B134">
-        <v>8</v>
-      </c>
-      <c r="D134" t="s">
-        <v>647</v>
-      </c>
-      <c r="E134" s="29" t="s">
-        <v>645</v>
-      </c>
-      <c r="F134">
-        <v>0</v>
-      </c>
-      <c r="I134" s="22"/>
-    </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="E135" s="26"/>
-      <c r="I135" s="22"/>
-    </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="D136" s="6" t="s">
-        <v>636</v>
-      </c>
-      <c r="E136" s="26"/>
-      <c r="I136" s="22"/>
-    </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C137" t="s">
-        <v>628</v>
-      </c>
-      <c r="D137" t="s">
-        <v>626</v>
-      </c>
-      <c r="E137" s="25" t="s">
-        <v>618</v>
-      </c>
-      <c r="F137">
-        <v>0</v>
-      </c>
-      <c r="H137">
-        <v>9.9</v>
-      </c>
-      <c r="I137" s="22">
-        <f>H137*B138</f>
-        <v>9.9</v>
-      </c>
-    </row>
-    <row r="138" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B138">
-        <v>1</v>
-      </c>
-      <c r="C138" t="s">
-        <v>630</v>
-      </c>
-      <c r="D138" t="s">
-        <v>622</v>
-      </c>
-      <c r="E138" s="26" t="s">
-        <v>623</v>
-      </c>
-      <c r="F138">
-        <v>0</v>
-      </c>
-      <c r="I138" s="22"/>
-    </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B139">
-        <v>1</v>
-      </c>
-      <c r="C139" t="s">
-        <v>629</v>
-      </c>
-      <c r="D139" t="s">
-        <v>625</v>
-      </c>
-      <c r="E139" s="25" t="s">
-        <v>624</v>
-      </c>
-      <c r="F139">
-        <v>0</v>
-      </c>
-      <c r="I139" s="22"/>
-    </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B140">
-        <v>1</v>
-      </c>
-      <c r="C140" t="s">
-        <v>627</v>
-      </c>
-      <c r="D140" t="s">
-        <v>644</v>
-      </c>
-      <c r="E140" s="26" t="s">
-        <v>643</v>
-      </c>
-      <c r="F140">
-        <v>0</v>
-      </c>
-      <c r="I140" s="22"/>
-    </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B141">
-        <v>1</v>
-      </c>
-      <c r="C141" t="s">
-        <v>619</v>
-      </c>
-      <c r="D141" t="s">
-        <v>637</v>
-      </c>
-      <c r="E141" s="25" t="s">
-        <v>638</v>
-      </c>
-      <c r="F141">
-        <v>0</v>
-      </c>
-      <c r="I141" s="22"/>
-    </row>
-    <row r="142" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B142">
-        <v>1</v>
-      </c>
-      <c r="C142" t="s">
-        <v>621</v>
-      </c>
-      <c r="D142" t="s">
-        <v>622</v>
-      </c>
-      <c r="E142" s="25" t="s">
-        <v>618</v>
-      </c>
-      <c r="F142">
-        <v>0</v>
-      </c>
-      <c r="I142" s="22"/>
-    </row>
-    <row r="143" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B143">
-        <v>1</v>
-      </c>
-      <c r="E143" s="25"/>
-      <c r="I143" s="22"/>
-    </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="E144" s="25"/>
-      <c r="I144" s="22"/>
-    </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C145" t="s">
-        <v>603</v>
-      </c>
-      <c r="D145" t="s">
-        <v>600</v>
-      </c>
-      <c r="E145" s="29" t="s">
-        <v>602</v>
-      </c>
-      <c r="F145">
-        <v>0</v>
-      </c>
-      <c r="H145" s="22">
+      <c r="H216" s="22">
         <v>0.54</v>
       </c>
-      <c r="I145" s="22">
-        <f>H145*B146</f>
+      <c r="I216" s="22">
+        <f>H216*B217</f>
         <v>12.96</v>
       </c>
     </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B146">
+    <row r="217" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B217">
         <v>24</v>
       </c>
-      <c r="C146" t="s">
+      <c r="C217" t="s">
         <v>604</v>
       </c>
-      <c r="D146" t="s">
+      <c r="D217" t="s">
         <v>605</v>
       </c>
-      <c r="E146" s="29" t="s">
+      <c r="E217" s="29" t="s">
         <v>601</v>
       </c>
-      <c r="H146" s="23">
+      <c r="H217" s="23">
         <v>4.29</v>
       </c>
-      <c r="I146" s="22">
-        <f>H146*B147</f>
+      <c r="I217" s="22">
+        <f>H217*B218</f>
         <v>4.29</v>
       </c>
     </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B147">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B149">
+    <row r="218" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B220">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E108" r:id="rId1"/>
-    <hyperlink ref="E106" r:id="rId2"/>
-    <hyperlink ref="E125" r:id="rId3"/>
-    <hyperlink ref="E132" r:id="rId4"/>
-    <hyperlink ref="E139" r:id="rId5"/>
-    <hyperlink ref="E138" r:id="rId6"/>
-    <hyperlink ref="E129" r:id="rId7"/>
-    <hyperlink ref="E127" r:id="rId8"/>
+    <hyperlink ref="E175" r:id="rId1"/>
+    <hyperlink ref="E196" r:id="rId2"/>
+    <hyperlink ref="E203" r:id="rId3"/>
+    <hyperlink ref="E210" r:id="rId4"/>
+    <hyperlink ref="E209" r:id="rId5"/>
+    <hyperlink ref="E200" r:id="rId6"/>
+    <hyperlink ref="E198" r:id="rId7"/>
+    <hyperlink ref="E169" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1830" uniqueCount="848">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1872" uniqueCount="867">
   <si>
     <t>Bauteilnummer</t>
   </si>
@@ -2231,9 +2231,6 @@
     <t>Forearm</t>
   </si>
   <si>
-    <t>Rillenkugellager 35x47x7</t>
-  </si>
-  <si>
     <t>Lagerung Wrist</t>
   </si>
   <si>
@@ -2402,9 +2399,6 @@
     <t>Riemenspanner Gabel/Block</t>
   </si>
   <si>
-    <t>http://www.amazon.de/10x-Edelstahl-Zylinderkopf-Schraube-M3-45mm/dp/B00HWGYIGM/ref=cm_cr_arp_d_product_top?ie=UTF8</t>
-  </si>
-  <si>
     <t>Zylinderkopfschraube Innensechskant M3 45mm</t>
   </si>
   <si>
@@ -2456,9 +2450,6 @@
     <t>Madenschraube M3 16mm</t>
   </si>
   <si>
-    <t>Rillenkugellager 8x22x6</t>
-  </si>
-  <si>
     <t>Unterlegscheiben 8mm Innendurchmesser</t>
   </si>
   <si>
@@ -2565,6 +2556,72 @@
   </si>
   <si>
     <t>Distanzbolzen M3 5mm, , Schlüsselweite 5mm</t>
+  </si>
+  <si>
+    <t>Shoulder</t>
+  </si>
+  <si>
+    <t>Riemenspanner</t>
+  </si>
+  <si>
+    <t>http://www.ebay.de/itm/Senkkopfschrauben-Innensechskant-DIN-7991-M3-Laengen-von-4-bis-45-mm-V2A-A2-/121104449387</t>
+  </si>
+  <si>
+    <t>Zwischenachse</t>
+  </si>
+  <si>
+    <t>Zwischachse Riemen (495mm)</t>
+  </si>
+  <si>
+    <t>http://www.cncshop.at/index.php?a=10326</t>
+  </si>
+  <si>
+    <t>Zahnriemen T5 500mm 10mm Breite</t>
+  </si>
+  <si>
+    <t>Zahnriemen T5 480mm 10mm Breite</t>
+  </si>
+  <si>
+    <t>http://www.cncshop.at/index.php?a=10325</t>
+  </si>
+  <si>
+    <t>MotorRiemenscheibe</t>
+  </si>
+  <si>
+    <t>Motorachse Riemen (331mm)</t>
+  </si>
+  <si>
+    <t>Motorbefestigung</t>
+  </si>
+  <si>
+    <t>Block/Gabel Befestigung</t>
+  </si>
+  <si>
+    <t>https://www.reichelt.de/DI-25MM/3/index.html?&amp;ACTION=3&amp;LA=446&amp;ARTICLE=44762&amp;artnr=DI+25MM&amp;SEARCH=Distanzh%FClse+M3</t>
+  </si>
+  <si>
+    <t>Distanzbolzen M3 25mm, Schlüsselweite 5mm</t>
+  </si>
+  <si>
+    <t>Gabel/Basis Befestigung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEMA 24 - 60x60x87 3.1Nm </t>
+  </si>
+  <si>
+    <t>http://eu.stepperonline.com/nema-24-dual-shaft-cnc-stepper-motor-31nm439-ozin-24hs343008d-p-275.html</t>
+  </si>
+  <si>
+    <t>Rillenkugellager 8x22x7</t>
+  </si>
+  <si>
+    <t>https://www.kugellager-express.de/miniatur-kugellager-608-608z-608rs-8x22x7-mm.html?XTCsid=jn6do78lmla6nb2l5bmaiarad4</t>
+  </si>
+  <si>
+    <t>5 bestellt bei digikey</t>
+  </si>
+  <si>
+    <t>Oberarm-Kugellager</t>
   </si>
 </sst>
 </file>
@@ -3631,8 +3688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:AD113"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView topLeftCell="A64" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E75" sqref="E75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8203,7 +8260,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -11715,7 +11772,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="K83" sqref="K83"/>
     </sheetView>
   </sheetViews>
@@ -11730,7 +11787,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
@@ -11791,10 +11848,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L220"/>
+  <dimension ref="A1:L257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C150" sqref="C150"/>
+    <sheetView tabSelected="1" topLeftCell="A141" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L206" sqref="L206:L207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11834,7 +11891,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="str">
-        <f>C123</f>
+        <f>C155</f>
         <v>Zylinderkopfschraube Innensechskant M3 22mm</v>
       </c>
       <c r="D3" t="s">
@@ -11868,7 +11925,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="str">
-        <f>C177</f>
+        <f>C214</f>
         <v>Rillenkugellager DIN 625 SKF - 61807 35x47x7mm</v>
       </c>
       <c r="D6" t="s">
@@ -11883,7 +11940,7 @@
         <v>4</v>
       </c>
       <c r="C7" t="str">
-        <f>C131</f>
+        <f>C163</f>
         <v>Senkkopfschraube Innensechskant M3 10mm</v>
       </c>
       <c r="D7" t="s">
@@ -11898,7 +11955,7 @@
         <v>4</v>
       </c>
       <c r="C8" t="str">
-        <f>C121</f>
+        <f>C153</f>
         <v>Zylinderkopfschraube Innensechskant M3 20mm</v>
       </c>
       <c r="D8" t="s">
@@ -11910,7 +11967,7 @@
         <v>4</v>
       </c>
       <c r="C9" t="str">
-        <f>C134</f>
+        <f>C166</f>
         <v>Muttern M3, Schlüsselweite 5.5 mm</v>
       </c>
       <c r="D9" t="s">
@@ -11922,7 +11979,7 @@
         <v>2</v>
       </c>
       <c r="C10" t="str">
-        <f>C176</f>
+        <f>C213</f>
         <v>Rillenkugellager DIN 625 SKF - 61902 15x28x7mm</v>
       </c>
       <c r="D10" t="s">
@@ -11934,11 +11991,11 @@
         <v>1</v>
       </c>
       <c r="C11" t="str">
-        <f>C170</f>
+        <f>C207</f>
         <v xml:space="preserve">Herkulex Servo DRS - 0201 </v>
       </c>
       <c r="D11" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -11951,7 +12008,7 @@
         <v>1</v>
       </c>
       <c r="C13" t="str">
-        <f>C152</f>
+        <f>C185</f>
         <v>Zahnriemenscheibe T2,5, 16 Zähne</v>
       </c>
       <c r="D13" t="s">
@@ -11965,7 +12022,7 @@
         <v>1</v>
       </c>
       <c r="C14" t="str">
-        <f>C153</f>
+        <f>C186</f>
         <v>Zahnriemenscheibe T2,5, 44 Zähne</v>
       </c>
       <c r="D14" t="s">
@@ -11979,7 +12036,7 @@
         <v>1</v>
       </c>
       <c r="C15" t="str">
-        <f>C152</f>
+        <f>C185</f>
         <v>Zahnriemenscheibe T2,5, 16 Zähne</v>
       </c>
       <c r="D15" t="s">
@@ -11993,7 +12050,7 @@
         <v>1</v>
       </c>
       <c r="C16" t="str">
-        <f>C154</f>
+        <f>C187</f>
         <v>Zahnriemenscheibe T2,5, 18 Zähne</v>
       </c>
       <c r="D16" t="s">
@@ -12007,7 +12064,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="str">
-        <f>C155</f>
+        <f>C188</f>
         <v>Zahnriemenscheibe T2,5, 14 Zähne</v>
       </c>
       <c r="D17" t="s">
@@ -12021,7 +12078,7 @@
         <v>1</v>
       </c>
       <c r="C18" t="str">
-        <f>C161</f>
+        <f>C194</f>
         <v>Zahnriemen T2,5 160mm 6mm Breite</v>
       </c>
       <c r="D18" t="s">
@@ -12035,7 +12092,7 @@
         <v>46</v>
       </c>
       <c r="C19" t="str">
-        <f>C144</f>
+        <f>C176</f>
         <v>Silberstahlwelle 6mm Durchmesser</v>
       </c>
       <c r="D19" t="s">
@@ -12050,7 +12107,7 @@
         <v>1</v>
       </c>
       <c r="C20" t="str">
-        <f>C186</f>
+        <f>C223</f>
         <v>Metallbohrer 6mm</v>
       </c>
       <c r="D20" t="s">
@@ -12065,7 +12122,7 @@
         <v>1</v>
       </c>
       <c r="C21" t="str">
-        <f>C187</f>
+        <f>C224</f>
         <v>Metallbohrer 2.3mm (für M3 Gewinde)</v>
       </c>
       <c r="D21" t="s">
@@ -12080,7 +12137,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="str">
-        <f>C184</f>
+        <f>C221</f>
         <v>Gewindeschneider M3</v>
       </c>
       <c r="D22" t="s">
@@ -12095,7 +12152,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="str">
-        <f>C175</f>
+        <f>C212</f>
         <v>Rillenkugellager 6x10x3</v>
       </c>
       <c r="D23" t="s">
@@ -12110,7 +12167,7 @@
         <v>1</v>
       </c>
       <c r="C24" s="32" t="str">
-        <f>C166</f>
+        <f>C202</f>
         <v>NEMA 17 - 42x42x21</v>
       </c>
       <c r="D24" s="32" t="s">
@@ -12125,7 +12182,7 @@
         <v>2</v>
       </c>
       <c r="C25" s="32" t="str">
-        <f>C125</f>
+        <f>C157</f>
         <v>Zylinderkopfschraube Innensechskant M3 14mm</v>
       </c>
       <c r="D25" s="32" t="s">
@@ -12139,7 +12196,7 @@
         <v>2</v>
       </c>
       <c r="C26" s="32" t="str">
-        <f>C140</f>
+        <f>C172</f>
         <v>Unterlegscheiben M3 Dicke 0,5mm, Außendurchmesser 7mm</v>
       </c>
       <c r="D26" s="32" t="s">
@@ -12153,7 +12210,7 @@
         <v>1</v>
       </c>
       <c r="C27" s="32" t="str">
-        <f>C160</f>
+        <f>C193</f>
         <v>Zahnriemen T2,5 230mm 6mm Breite</v>
       </c>
       <c r="D27" s="32" t="s">
@@ -12167,7 +12224,7 @@
         <v>1</v>
       </c>
       <c r="C28" s="32" t="str">
-        <f>C124</f>
+        <f>C156</f>
         <v>Zylinderkopfschraube Innensechskant M3 16mm</v>
       </c>
       <c r="D28" s="32" t="s">
@@ -12181,7 +12238,7 @@
         <v>2</v>
       </c>
       <c r="C29" s="32" t="str">
-        <f>C140</f>
+        <f>C172</f>
         <v>Unterlegscheiben M3 Dicke 0,5mm, Außendurchmesser 7mm</v>
       </c>
       <c r="D29" s="32" t="s">
@@ -12195,7 +12252,7 @@
         <v>2</v>
       </c>
       <c r="C30" s="32" t="str">
-        <f>C172</f>
+        <f>C209</f>
         <v>Rillenkugellager  3.967 x 7.938 x 3.175 mm</v>
       </c>
       <c r="D30" s="32" t="s">
@@ -12209,7 +12266,7 @@
         <v>1</v>
       </c>
       <c r="C31" s="32" t="str">
-        <f>C133</f>
+        <f>C165</f>
         <v>Vierkant Mutter M3 Breite 5.5mm</v>
       </c>
       <c r="D31" s="32" t="s">
@@ -12224,7 +12281,7 @@
         <v>4</v>
       </c>
       <c r="C32" s="32" t="str">
-        <f>C127</f>
+        <f>C159</f>
         <v>Zylinderkopfschraube Innensechskant M2 6mm</v>
       </c>
       <c r="D32" s="32" t="s">
@@ -12239,7 +12296,7 @@
         <v>4</v>
       </c>
       <c r="C33" s="32" t="str">
-        <f>C135</f>
+        <f>C167</f>
         <v>Muttern M2</v>
       </c>
       <c r="D33" s="32" t="s">
@@ -12254,7 +12311,7 @@
         <v>1</v>
       </c>
       <c r="C34" s="32" t="str">
-        <f>C169</f>
+        <f>C206</f>
         <v>Rotary Sensor</v>
       </c>
       <c r="D34" s="32" t="s">
@@ -12269,7 +12326,7 @@
         <v>2</v>
       </c>
       <c r="C35" s="32" t="str">
-        <f>C141</f>
+        <f>C173</f>
         <v>Unterlegscheiben M2 Dicke 0,5mm</v>
       </c>
       <c r="D35" s="32" t="s">
@@ -12284,7 +12341,7 @@
         <v>2</v>
       </c>
       <c r="C36" s="32" t="str">
-        <f>C148</f>
+        <f>C181</f>
         <v>Distanzbolzen M3 20mm, Schlüsselweite 5mm</v>
       </c>
       <c r="D36" s="32" t="s">
@@ -12299,7 +12356,7 @@
         <v>4</v>
       </c>
       <c r="C37" s="32" t="str">
-        <f>C140</f>
+        <f>C172</f>
         <v>Unterlegscheiben M3 Dicke 0,5mm, Außendurchmesser 7mm</v>
       </c>
       <c r="D37" s="32" t="s">
@@ -12316,7 +12373,7 @@
         <v>718</v>
       </c>
       <c r="D38" s="32" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="H38" s="22"/>
       <c r="I38" s="22"/>
@@ -12326,11 +12383,11 @@
         <v>4</v>
       </c>
       <c r="C39" s="32" t="str">
-        <f>C121</f>
+        <f>C153</f>
         <v>Zylinderkopfschraube Innensechskant M3 20mm</v>
       </c>
       <c r="D39" s="32" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="E39" s="9"/>
       <c r="H39" s="22"/>
@@ -12341,11 +12398,11 @@
         <v>4</v>
       </c>
       <c r="C40" s="32" t="str">
-        <f>C140</f>
+        <f>C172</f>
         <v>Unterlegscheiben M3 Dicke 0,5mm, Außendurchmesser 7mm</v>
       </c>
       <c r="D40" s="32" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="H40" s="22"/>
       <c r="I40" s="22"/>
@@ -12358,17 +12415,17 @@
     </row>
     <row r="42" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B42">
         <v>2</v>
       </c>
       <c r="C42" s="32" t="str">
-        <f>C178</f>
-        <v>Rillenkugellager 35x47x7</v>
+        <f>C214</f>
+        <v>Rillenkugellager DIN 625 SKF - 61807 35x47x7mm</v>
       </c>
       <c r="D42" s="32" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E42" s="9"/>
       <c r="H42" s="22"/>
@@ -12379,11 +12436,11 @@
         <v>2</v>
       </c>
       <c r="C43" s="32" t="str">
-        <f>C179</f>
+        <f>C215</f>
         <v>RillenKugellager 6x19x6</v>
       </c>
       <c r="D43" s="32" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="H43" s="22"/>
       <c r="I43" s="22"/>
@@ -12393,11 +12450,11 @@
         <v>4</v>
       </c>
       <c r="C44" s="32" t="str">
-        <f>C175</f>
+        <f>C212</f>
         <v>Rillenkugellager 6x10x3</v>
       </c>
       <c r="D44" s="32" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="E44" s="9"/>
       <c r="H44" s="22"/>
@@ -12408,11 +12465,11 @@
         <v>4</v>
       </c>
       <c r="C45" s="32" t="str">
-        <f>C180</f>
+        <f>C216</f>
         <v>Rillenkugellager 3x10x4</v>
       </c>
       <c r="D45" s="32" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E45" s="9"/>
       <c r="H45" s="22"/>
@@ -12423,11 +12480,11 @@
         <v>2</v>
       </c>
       <c r="C46" s="32" t="str">
-        <f>C150</f>
+        <f>C183</f>
         <v>Distanzhülsen M6 10mm</v>
       </c>
       <c r="D46" s="32" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="H46" s="22"/>
       <c r="I46" s="22"/>
@@ -12437,11 +12494,11 @@
         <v>40</v>
       </c>
       <c r="C47" s="32" t="str">
-        <f>C144</f>
+        <f>C176</f>
         <v>Silberstahlwelle 6mm Durchmesser</v>
       </c>
       <c r="D47" s="32" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H47" s="22"/>
       <c r="I47" s="22"/>
@@ -12452,11 +12509,11 @@
         <v>50</v>
       </c>
       <c r="C48" s="32" t="str">
-        <f>C144</f>
+        <f>C176</f>
         <v>Silberstahlwelle 6mm Durchmesser</v>
       </c>
       <c r="D48" s="32" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="H48" s="22"/>
       <c r="I48" s="22"/>
@@ -12466,11 +12523,11 @@
         <v>50</v>
       </c>
       <c r="C49" s="32" t="str">
-        <f>C145</f>
+        <f>C177</f>
         <v>Silberstahlwelle 3mm Durchmesser</v>
       </c>
       <c r="D49" s="32" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="E49" s="9"/>
       <c r="H49" s="22"/>
@@ -12481,7 +12538,7 @@
         <v>1</v>
       </c>
       <c r="C50" t="str">
-        <f>C186</f>
+        <f>C223</f>
         <v>Metallbohrer 6mm</v>
       </c>
       <c r="D50" t="s">
@@ -12496,7 +12553,7 @@
         <v>1</v>
       </c>
       <c r="C51" t="str">
-        <f>C184</f>
+        <f>C221</f>
         <v>Gewindeschneider M3</v>
       </c>
       <c r="D51" t="s">
@@ -12511,7 +12568,7 @@
         <v>1</v>
       </c>
       <c r="C52" t="str">
-        <f>C187</f>
+        <f>C224</f>
         <v>Metallbohrer 2.3mm (für M3 Gewinde)</v>
       </c>
       <c r="D52" t="s">
@@ -12526,11 +12583,11 @@
         <v>1</v>
       </c>
       <c r="C53" s="32" t="str">
-        <f>C162</f>
+        <f>C195</f>
         <v>Zahnriemen T2,5 200mm 6mm Breite</v>
       </c>
       <c r="D53" s="32" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="H53" s="22"/>
       <c r="I53" s="22"/>
@@ -12540,11 +12597,11 @@
         <v>1</v>
       </c>
       <c r="C54" s="32" t="str">
-        <f>C162</f>
+        <f>C195</f>
         <v>Zahnriemen T2,5 200mm 6mm Breite</v>
       </c>
       <c r="D54" s="32" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="H54" s="22"/>
       <c r="I54" s="22"/>
@@ -12554,11 +12611,11 @@
         <v>4</v>
       </c>
       <c r="C55" s="32" t="str">
-        <f>C123</f>
+        <f>C155</f>
         <v>Zylinderkopfschraube Innensechskant M3 22mm</v>
       </c>
       <c r="D55" s="32" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H55" s="22"/>
       <c r="I55" s="22"/>
@@ -12568,11 +12625,11 @@
         <v>4</v>
       </c>
       <c r="C56" s="32" t="str">
-        <f>C134</f>
+        <f>C166</f>
         <v>Muttern M3, Schlüsselweite 5.5 mm</v>
       </c>
       <c r="D56" s="32" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E56" s="9"/>
       <c r="H56" s="22"/>
@@ -12583,11 +12640,11 @@
         <v>2</v>
       </c>
       <c r="C57" s="32" t="str">
-        <f>C123</f>
+        <f>C155</f>
         <v>Zylinderkopfschraube Innensechskant M3 22mm</v>
       </c>
       <c r="D57" s="32" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H57" s="22"/>
       <c r="I57" s="22"/>
@@ -12597,11 +12654,11 @@
         <v>2</v>
       </c>
       <c r="C58" s="32" t="str">
-        <f>C134</f>
+        <f>C166</f>
         <v>Muttern M3, Schlüsselweite 5.5 mm</v>
       </c>
       <c r="D58" s="32" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E58" s="9"/>
       <c r="H58" s="22"/>
@@ -12612,11 +12669,11 @@
         <v>2</v>
       </c>
       <c r="C59" s="32" t="str">
-        <f>C126</f>
+        <f>C158</f>
         <v>Zylinderkopfschraube Innensechskant M3 12mm</v>
       </c>
       <c r="D59" s="32" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="H59" s="22"/>
       <c r="I59" s="22"/>
@@ -12626,11 +12683,11 @@
         <v>2</v>
       </c>
       <c r="C60" s="32" t="str">
-        <f>C134</f>
+        <f>C166</f>
         <v>Muttern M3, Schlüsselweite 5.5 mm</v>
       </c>
       <c r="D60" s="32" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E60" s="9"/>
       <c r="H60" s="22"/>
@@ -12641,11 +12698,11 @@
         <v>6</v>
       </c>
       <c r="C61" s="32" t="str">
-        <f>C122</f>
+        <f>C154</f>
         <v>Zylinderkopfschraube Innensechskant M3 25mm</v>
       </c>
       <c r="D61" s="32" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E61" s="9"/>
       <c r="H61" s="22"/>
@@ -12656,11 +12713,11 @@
         <v>3</v>
       </c>
       <c r="C62" s="32" t="str">
-        <f>C148</f>
+        <f>C181</f>
         <v>Distanzbolzen M3 20mm, Schlüsselweite 5mm</v>
       </c>
       <c r="D62" s="32" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E62" s="9"/>
       <c r="H62" s="22"/>
@@ -12671,7 +12728,7 @@
         <v>1</v>
       </c>
       <c r="C63" s="32" t="str">
-        <f>C167</f>
+        <f>C203</f>
         <v>NEMA 17 - 42x42x33</v>
       </c>
       <c r="D63" s="32" t="s">
@@ -12686,11 +12743,11 @@
         <v>1</v>
       </c>
       <c r="C64" s="32" t="str">
-        <f>C152</f>
+        <f>C185</f>
         <v>Zahnriemenscheibe T2,5, 16 Zähne</v>
       </c>
       <c r="D64" s="32" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="E64" s="9"/>
       <c r="H64" s="22"/>
@@ -12701,11 +12758,11 @@
         <v>1</v>
       </c>
       <c r="C65" s="32" t="str">
-        <f>C152</f>
+        <f>C185</f>
         <v>Zahnriemenscheibe T2,5, 16 Zähne</v>
       </c>
       <c r="D65" s="32" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="E65" s="9"/>
       <c r="H65" s="22"/>
@@ -12716,11 +12773,11 @@
         <v>1</v>
       </c>
       <c r="C66" s="32" t="str">
-        <f>C156</f>
+        <f>C189</f>
         <v>Zahnriemenscheibe T2,5, 60 Zähne</v>
       </c>
       <c r="D66" s="32" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="E66" s="9"/>
       <c r="H66" s="22"/>
@@ -12731,11 +12788,11 @@
         <v>1</v>
       </c>
       <c r="C67" s="32" t="str">
-        <f>C128</f>
+        <f>C160</f>
         <v>Zylinderkopfschraube Innensechskant M6 55mm</v>
       </c>
       <c r="D67" s="32" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="E67" s="9"/>
       <c r="H67" s="22"/>
@@ -12746,10 +12803,10 @@
         <v>1</v>
       </c>
       <c r="C68" s="32" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D68" s="32" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="E68" s="9"/>
       <c r="H68" s="22"/>
@@ -12760,7 +12817,7 @@
         <v>1</v>
       </c>
       <c r="C69" s="32" t="str">
-        <f>C169</f>
+        <f>C206</f>
         <v>Rotary Sensor</v>
       </c>
       <c r="D69" s="32" t="s">
@@ -12779,13 +12836,13 @@
     </row>
     <row r="71" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B71">
         <v>4</v>
       </c>
       <c r="C71" s="32" t="str">
-        <f>C127</f>
+        <f>C159</f>
         <v>Zylinderkopfschraube Innensechskant M2 6mm</v>
       </c>
       <c r="D71" s="32" t="s">
@@ -12800,7 +12857,7 @@
         <v>4</v>
       </c>
       <c r="C72" s="32" t="str">
-        <f>C135</f>
+        <f>C167</f>
         <v>Muttern M2</v>
       </c>
       <c r="D72" s="32" t="s">
@@ -12815,7 +12872,7 @@
         <v>1</v>
       </c>
       <c r="C73" s="32" t="str">
-        <f>C169</f>
+        <f>C206</f>
         <v>Rotary Sensor</v>
       </c>
       <c r="D73" s="32" t="s">
@@ -12830,7 +12887,7 @@
         <v>2</v>
       </c>
       <c r="C74" s="32" t="str">
-        <f>C141</f>
+        <f>C173</f>
         <v>Unterlegscheiben M2 Dicke 0,5mm</v>
       </c>
       <c r="D74" s="32" t="s">
@@ -12845,11 +12902,11 @@
         <v>2</v>
       </c>
       <c r="C75" s="32" t="str">
-        <f>C178</f>
-        <v>Rillenkugellager 35x47x7</v>
+        <f>C214</f>
+        <v>Rillenkugellager DIN 625 SKF - 61807 35x47x7mm</v>
       </c>
       <c r="D75" s="32" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E75" s="9"/>
       <c r="H75" s="22"/>
@@ -12860,11 +12917,11 @@
         <v>4</v>
       </c>
       <c r="C76" t="str">
-        <f>C131</f>
+        <f>C163</f>
         <v>Senkkopfschraube Innensechskant M3 10mm</v>
       </c>
       <c r="D76" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="E76" s="9"/>
       <c r="H76" s="22"/>
@@ -12875,11 +12932,11 @@
         <v>4</v>
       </c>
       <c r="C77" t="str">
-        <f>C131</f>
+        <f>C163</f>
         <v>Senkkopfschraube Innensechskant M3 10mm</v>
       </c>
       <c r="D77" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="E77" s="9"/>
       <c r="H77" s="22"/>
@@ -12890,11 +12947,11 @@
         <v>4</v>
       </c>
       <c r="C78" s="32" t="str">
-        <f>C119</f>
+        <f>C151</f>
         <v>Zylinderkopfschraube Innensechskant M3 40mm</v>
       </c>
       <c r="D78" s="32" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E78" s="9"/>
       <c r="H78" s="22"/>
@@ -12905,11 +12962,11 @@
         <v>4</v>
       </c>
       <c r="C79" s="32" t="str">
-        <f>C120</f>
+        <f>C152</f>
         <v>Zylinderkopfschraube Innensechskant M3 30mm</v>
       </c>
       <c r="D79" s="32" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E79" s="9"/>
       <c r="H79" s="22"/>
@@ -12920,11 +12977,11 @@
         <v>12</v>
       </c>
       <c r="C80" s="32" t="str">
-        <f>C140</f>
+        <f>C172</f>
         <v>Unterlegscheiben M3 Dicke 0,5mm, Außendurchmesser 7mm</v>
       </c>
       <c r="D80" s="32" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="E80" s="9"/>
       <c r="H80" s="22"/>
@@ -12935,11 +12992,11 @@
         <v>4</v>
       </c>
       <c r="C81" s="32" t="str">
-        <f>C118</f>
+        <f>C150</f>
         <v>Zylinderkopfschraube Innensechskant M3 45mm</v>
       </c>
       <c r="D81" s="32" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="E81" s="9"/>
       <c r="H81" s="22"/>
@@ -12950,11 +13007,11 @@
         <v>8</v>
       </c>
       <c r="C82" s="32" t="str">
-        <f>C173</f>
+        <f>C210</f>
         <v>Rillenkugellager  4 x13 x 5 mm mit Flansch</v>
       </c>
       <c r="D82" s="32" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="E82" s="9"/>
       <c r="H82" s="22"/>
@@ -12965,11 +13022,11 @@
         <v>12</v>
       </c>
       <c r="C83" s="32" t="str">
-        <f>C140</f>
+        <f>C172</f>
         <v>Unterlegscheiben M3 Dicke 0,5mm, Außendurchmesser 7mm</v>
       </c>
       <c r="D83" s="32" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="E83" s="9"/>
       <c r="H83" s="22"/>
@@ -12980,11 +13037,11 @@
         <v>1</v>
       </c>
       <c r="C84" s="32" t="str">
-        <f>C138</f>
+        <f>C170</f>
         <v>Madenschraube M3 16mm</v>
       </c>
       <c r="D84" s="32" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="E84" s="9"/>
       <c r="H84" s="22"/>
@@ -12995,11 +13052,11 @@
         <v>72</v>
       </c>
       <c r="C85" s="32" t="str">
-        <f>C146</f>
+        <f>C178</f>
         <v>Silberstahlwelle 8mm Durchmesser</v>
       </c>
       <c r="D85" s="32" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="E85" s="9"/>
       <c r="H85" s="22"/>
@@ -13010,11 +13067,11 @@
         <v>1</v>
       </c>
       <c r="C86" s="32" t="str">
-        <f>C157</f>
+        <f>C190</f>
         <v>Zahnriemenscheibe T5, 48 Zähne</v>
       </c>
       <c r="D86" s="32" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="E86" s="9"/>
       <c r="H86" s="22"/>
@@ -13025,11 +13082,11 @@
         <v>1</v>
       </c>
       <c r="C87" s="32" t="str">
-        <f>C158</f>
+        <f>C191</f>
         <v>Zahnriemenscheibe T5, 16 Zähne</v>
       </c>
       <c r="D87" s="32" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="E87" s="9"/>
       <c r="H87" s="22"/>
@@ -13040,11 +13097,11 @@
         <v>1</v>
       </c>
       <c r="C88" t="str">
-        <f>C185</f>
+        <f>C222</f>
         <v>Metallbohrer 8mm</v>
       </c>
       <c r="D88" s="32" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="E88" s="9"/>
       <c r="H88" s="22"/>
@@ -13055,11 +13112,11 @@
         <v>1</v>
       </c>
       <c r="C89" t="str">
-        <f>C184</f>
+        <f>C221</f>
         <v>Gewindeschneider M3</v>
       </c>
       <c r="D89" s="32" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="E89" s="9"/>
       <c r="H89" s="22"/>
@@ -13070,11 +13127,11 @@
         <v>1</v>
       </c>
       <c r="C90" t="str">
-        <f>C187</f>
+        <f>C224</f>
         <v>Metallbohrer 2.3mm (für M3 Gewinde)</v>
       </c>
       <c r="D90" s="32" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="E90" s="9"/>
       <c r="H90" s="22"/>
@@ -13085,11 +13142,11 @@
         <v>2</v>
       </c>
       <c r="C91" t="str">
-        <f>C139</f>
+        <f>C171</f>
         <v>Madenschraube M3 5mm</v>
       </c>
       <c r="D91" s="32" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="E91" s="9"/>
       <c r="H91" s="22"/>
@@ -13100,11 +13157,11 @@
         <v>2</v>
       </c>
       <c r="C92" t="str">
-        <f>C181</f>
-        <v>Rillenkugellager 8x22x6</v>
+        <f>C217</f>
+        <v>Rillenkugellager 8x22x7</v>
       </c>
       <c r="D92" s="32" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="E92" s="9"/>
       <c r="H92" s="22"/>
@@ -13115,11 +13172,11 @@
         <v>4</v>
       </c>
       <c r="C93" t="str">
-        <f>C142</f>
+        <f>C174</f>
         <v>Unterlegscheiben 8mm Innendurchmesser</v>
       </c>
       <c r="D93" s="32" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="E93" s="9"/>
       <c r="H93" s="22"/>
@@ -13130,11 +13187,11 @@
         <v>4</v>
       </c>
       <c r="C94" t="str">
-        <f>C118</f>
+        <f>C150</f>
         <v>Zylinderkopfschraube Innensechskant M3 45mm</v>
       </c>
       <c r="D94" s="32" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="E94" s="9"/>
       <c r="H94" s="22"/>
@@ -13145,11 +13202,11 @@
         <v>4</v>
       </c>
       <c r="C95" t="str">
-        <f>C140</f>
+        <f>C172</f>
         <v>Unterlegscheiben M3 Dicke 0,5mm, Außendurchmesser 7mm</v>
       </c>
       <c r="D95" s="32" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="E95" s="9"/>
       <c r="H95" s="22"/>
@@ -13160,11 +13217,11 @@
         <v>4</v>
       </c>
       <c r="C96" t="str">
-        <f>C133</f>
+        <f>C165</f>
         <v>Vierkant Mutter M3 Breite 5.5mm</v>
       </c>
       <c r="D96" s="32" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="E96" s="9"/>
       <c r="H96" s="22"/>
@@ -13175,11 +13232,11 @@
         <v>1</v>
       </c>
       <c r="C97" t="str">
-        <f>C118</f>
+        <f>C150</f>
         <v>Zylinderkopfschraube Innensechskant M3 45mm</v>
       </c>
       <c r="D97" s="32" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="E97" s="9"/>
       <c r="H97" s="22"/>
@@ -13190,11 +13247,11 @@
         <v>4</v>
       </c>
       <c r="C98" t="str">
-        <f>C140</f>
+        <f>C172</f>
         <v>Unterlegscheiben M3 Dicke 0,5mm, Außendurchmesser 7mm</v>
       </c>
       <c r="D98" s="32" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="E98" s="9"/>
       <c r="H98" s="22"/>
@@ -13205,11 +13262,11 @@
         <v>1</v>
       </c>
       <c r="C99" t="str">
-        <f>C133</f>
+        <f>C165</f>
         <v>Vierkant Mutter M3 Breite 5.5mm</v>
       </c>
       <c r="D99" s="32" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="E99" s="9"/>
       <c r="H99" s="22"/>
@@ -13220,11 +13277,11 @@
         <v>2</v>
       </c>
       <c r="C100" t="str">
-        <f>C174</f>
+        <f>C211</f>
         <v xml:space="preserve">Rillenkugellager  4 x13 x 5 mm </v>
       </c>
       <c r="D100" s="32" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="E100" s="9"/>
       <c r="H100" s="22"/>
@@ -13235,11 +13292,11 @@
         <v>4</v>
       </c>
       <c r="C101" t="str">
-        <f>C143</f>
+        <f>C175</f>
         <v>Unterlegscheiben M3 Kunststoff 0,8mm, Außendurchmesser 7mm</v>
       </c>
       <c r="D101" s="32" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="E101" s="9"/>
       <c r="H101" s="22"/>
@@ -13250,7 +13307,7 @@
         <v>4</v>
       </c>
       <c r="C102" t="str">
-        <f>C132</f>
+        <f>C164</f>
         <v>Senkkopfschraube Innensechskant M3 25mm</v>
       </c>
       <c r="D102" s="32" t="s">
@@ -13265,11 +13322,11 @@
         <v>8</v>
       </c>
       <c r="C103" t="str">
-        <f>C120</f>
+        <f>C152</f>
         <v>Zylinderkopfschraube Innensechskant M3 30mm</v>
       </c>
       <c r="D103" s="32" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="E103" s="9"/>
       <c r="H103" s="22"/>
@@ -13280,11 +13337,11 @@
         <v>4</v>
       </c>
       <c r="C104" t="str">
-        <f>C148</f>
+        <f>C181</f>
         <v>Distanzbolzen M3 20mm, Schlüsselweite 5mm</v>
       </c>
       <c r="D104" s="32" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="E104" s="9"/>
       <c r="H104" s="22"/>
@@ -13295,11 +13352,11 @@
         <v>8</v>
       </c>
       <c r="C105" t="str">
-        <f>C140</f>
+        <f>C172</f>
         <v>Unterlegscheiben M3 Dicke 0,5mm, Außendurchmesser 7mm</v>
       </c>
       <c r="D105" s="32" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="E105" s="9"/>
       <c r="H105" s="22"/>
@@ -13310,11 +13367,11 @@
         <v>4</v>
       </c>
       <c r="C106" t="str">
-        <f>C120</f>
+        <f>C152</f>
         <v>Zylinderkopfschraube Innensechskant M3 30mm</v>
       </c>
       <c r="D106" s="32" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="E106" s="9"/>
       <c r="H106" s="22"/>
@@ -13325,11 +13382,11 @@
         <v>4</v>
       </c>
       <c r="C107" t="str">
-        <f>C140</f>
+        <f>C172</f>
         <v>Unterlegscheiben M3 Dicke 0,5mm, Außendurchmesser 7mm</v>
       </c>
       <c r="D107" s="32" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="E107" s="9"/>
       <c r="H107" s="22"/>
@@ -13340,11 +13397,11 @@
         <v>1</v>
       </c>
       <c r="C108" t="str">
-        <f>C163</f>
+        <f>C196</f>
         <v>Zahnriemen T5 340mm 10mm Breite</v>
       </c>
       <c r="D108" s="32" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="E108" s="9"/>
       <c r="H108" s="22"/>
@@ -13355,11 +13412,11 @@
         <v>1</v>
       </c>
       <c r="C109" t="str">
-        <f>C158</f>
+        <f>C191</f>
         <v>Zahnriemenscheibe T5, 16 Zähne</v>
       </c>
       <c r="D109" s="32" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="E109" s="9"/>
       <c r="H109" s="22"/>
@@ -13370,11 +13427,11 @@
         <v>1</v>
       </c>
       <c r="C110" t="str">
-        <f>C164</f>
+        <f>C197</f>
         <v>Zahnriemen T5 510mm 10mm Breite</v>
       </c>
       <c r="D110" s="32" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="E110" s="9"/>
       <c r="H110" s="22"/>
@@ -13385,7 +13442,7 @@
         <v>1</v>
       </c>
       <c r="C111" t="str">
-        <f>C168</f>
+        <f>C204</f>
         <v xml:space="preserve">NEMA 24 - 60x60x57 1.9Nm ST6018M2008 </v>
       </c>
       <c r="D111" s="32" t="s">
@@ -13401,1250 +13458,840 @@
       <c r="H112" s="22"/>
       <c r="I112" s="22"/>
     </row>
-    <row r="113" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D113" s="32"/>
+    <row r="113" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="6" t="s">
+        <v>845</v>
+      </c>
+      <c r="B113">
+        <v>4</v>
+      </c>
+      <c r="C113" t="str">
+        <f>C159</f>
+        <v>Zylinderkopfschraube Innensechskant M2 6mm</v>
+      </c>
+      <c r="D113" s="32" t="s">
+        <v>703</v>
+      </c>
       <c r="E113" s="9"/>
       <c r="H113" s="22"/>
       <c r="I113" s="22"/>
     </row>
-    <row r="114" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D114" s="32"/>
+    <row r="114" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B114">
+        <v>4</v>
+      </c>
+      <c r="C114" t="str">
+        <f>C167</f>
+        <v>Muttern M2</v>
+      </c>
+      <c r="D114" s="32" t="s">
+        <v>703</v>
+      </c>
       <c r="E114" s="9"/>
       <c r="H114" s="22"/>
       <c r="I114" s="22"/>
     </row>
-    <row r="115" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D115" s="32"/>
+    <row r="115" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B115">
+        <v>1</v>
+      </c>
+      <c r="C115" t="str">
+        <f>C206</f>
+        <v>Rotary Sensor</v>
+      </c>
+      <c r="D115" s="32" t="s">
+        <v>708</v>
+      </c>
       <c r="E115" s="9"/>
       <c r="H115" s="22"/>
       <c r="I115" s="22"/>
     </row>
-    <row r="116" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C116" s="32"/>
+    <row r="116" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B116">
+        <v>2</v>
+      </c>
+      <c r="C116" t="str">
+        <f>C173</f>
+        <v>Unterlegscheiben M2 Dicke 0,5mm</v>
+      </c>
+      <c r="D116" s="32" t="s">
+        <v>709</v>
+      </c>
       <c r="E116" s="9"/>
       <c r="H116" s="22"/>
       <c r="I116" s="22"/>
     </row>
-    <row r="117" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B117" t="s">
+    <row r="117" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B117">
+        <v>6</v>
+      </c>
+      <c r="C117" t="str">
+        <f>C211</f>
+        <v xml:space="preserve">Rillenkugellager  4 x13 x 5 mm </v>
+      </c>
+      <c r="D117" s="32" t="s">
+        <v>846</v>
+      </c>
+      <c r="E117" s="9"/>
+      <c r="H117" s="22"/>
+      <c r="I117" s="22"/>
+    </row>
+    <row r="118" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B118">
+        <v>4</v>
+      </c>
+      <c r="C118" t="str">
+        <f>C175</f>
+        <v>Unterlegscheiben M3 Kunststoff 0,8mm, Außendurchmesser 7mm</v>
+      </c>
+      <c r="D118" s="32" t="s">
+        <v>846</v>
+      </c>
+      <c r="E118" s="9"/>
+      <c r="H118" s="22"/>
+      <c r="I118" s="22"/>
+    </row>
+    <row r="119" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B119">
+        <v>4</v>
+      </c>
+      <c r="C119" t="str">
+        <f>C165</f>
+        <v>Vierkant Mutter M3 Breite 5.5mm</v>
+      </c>
+      <c r="D119" s="32" t="s">
+        <v>846</v>
+      </c>
+      <c r="E119" s="9"/>
+      <c r="H119" s="22"/>
+      <c r="I119" s="22"/>
+    </row>
+    <row r="120" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B120">
+        <v>2</v>
+      </c>
+      <c r="C120" t="str">
+        <f>C155</f>
+        <v>Zylinderkopfschraube Innensechskant M3 22mm</v>
+      </c>
+      <c r="D120" s="32" t="s">
+        <v>846</v>
+      </c>
+      <c r="E120" s="9"/>
+      <c r="H120" s="22"/>
+      <c r="I120" s="22"/>
+    </row>
+    <row r="121" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B121">
+        <v>3</v>
+      </c>
+      <c r="C121" t="str">
+        <f>C172</f>
+        <v>Unterlegscheiben M3 Dicke 0,5mm, Außendurchmesser 7mm</v>
+      </c>
+      <c r="D121" s="32" t="s">
+        <v>846</v>
+      </c>
+      <c r="E121" s="9"/>
+      <c r="H121" s="22"/>
+      <c r="I121" s="22"/>
+    </row>
+    <row r="122" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B122">
+        <v>1</v>
+      </c>
+      <c r="C122" t="str">
+        <f>C151</f>
+        <v>Zylinderkopfschraube Innensechskant M3 40mm</v>
+      </c>
+      <c r="D122" s="32" t="s">
+        <v>846</v>
+      </c>
+      <c r="E122" s="9"/>
+      <c r="H122" s="22"/>
+      <c r="I122" s="22"/>
+    </row>
+    <row r="123" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B123">
+        <v>1</v>
+      </c>
+      <c r="C123" t="str">
+        <f>C150</f>
+        <v>Zylinderkopfschraube Innensechskant M3 45mm</v>
+      </c>
+      <c r="D123" s="32" t="s">
+        <v>846</v>
+      </c>
+      <c r="E123" s="9"/>
+      <c r="H123" s="22"/>
+      <c r="I123" s="22"/>
+    </row>
+    <row r="124" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B124">
+        <v>1</v>
+      </c>
+      <c r="C124" t="str">
+        <f>C154</f>
+        <v>Zylinderkopfschraube Innensechskant M3 25mm</v>
+      </c>
+      <c r="D124" s="32" t="s">
+        <v>846</v>
+      </c>
+      <c r="E124" s="9"/>
+      <c r="H124" s="22"/>
+      <c r="I124" s="22"/>
+    </row>
+    <row r="125" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B125">
+        <v>2</v>
+      </c>
+      <c r="C125" t="str">
+        <f>C217</f>
+        <v>Rillenkugellager 8x22x7</v>
+      </c>
+      <c r="D125" s="32" t="s">
+        <v>848</v>
+      </c>
+      <c r="E125" s="9"/>
+      <c r="H125" s="22"/>
+      <c r="I125" s="22"/>
+    </row>
+    <row r="126" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B126">
+        <v>110</v>
+      </c>
+      <c r="C126" t="str">
+        <f>C178</f>
+        <v>Silberstahlwelle 8mm Durchmesser</v>
+      </c>
+      <c r="D126" s="32" t="s">
+        <v>848</v>
+      </c>
+      <c r="E126" s="9"/>
+      <c r="H126" s="22"/>
+      <c r="I126" s="22"/>
+    </row>
+    <row r="127" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B127">
+        <v>1</v>
+      </c>
+      <c r="C127" t="str">
+        <f>C190</f>
+        <v>Zahnriemenscheibe T5, 48 Zähne</v>
+      </c>
+      <c r="D127" s="32" t="s">
+        <v>848</v>
+      </c>
+      <c r="E127" s="9"/>
+      <c r="H127" s="22"/>
+      <c r="I127" s="22"/>
+    </row>
+    <row r="128" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B128">
+        <v>1</v>
+      </c>
+      <c r="C128" t="str">
+        <f>C191</f>
+        <v>Zahnriemenscheibe T5, 16 Zähne</v>
+      </c>
+      <c r="D128" s="32" t="s">
+        <v>848</v>
+      </c>
+      <c r="E128" s="9"/>
+      <c r="H128" s="22"/>
+      <c r="I128" s="22"/>
+    </row>
+    <row r="129" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B129">
+        <v>1</v>
+      </c>
+      <c r="C129" t="str">
+        <f>C198</f>
+        <v>Zahnriemen T5 500mm 10mm Breite</v>
+      </c>
+      <c r="D129" s="32" t="s">
+        <v>849</v>
+      </c>
+      <c r="E129" s="9"/>
+      <c r="H129" s="22"/>
+      <c r="I129" s="22"/>
+    </row>
+    <row r="130" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B130">
+        <v>1</v>
+      </c>
+      <c r="C130" t="str">
+        <f>C199</f>
+        <v>Zahnriemen T5 480mm 10mm Breite</v>
+      </c>
+      <c r="D130" s="32" t="s">
+        <v>849</v>
+      </c>
+      <c r="E130" s="9"/>
+      <c r="H130" s="22"/>
+      <c r="I130" s="22"/>
+    </row>
+    <row r="131" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B131">
+        <v>1</v>
+      </c>
+      <c r="C131" t="str">
+        <f>C191</f>
+        <v>Zahnriemenscheibe T5, 16 Zähne</v>
+      </c>
+      <c r="D131" s="32" t="s">
+        <v>854</v>
+      </c>
+      <c r="E131" s="9"/>
+      <c r="H131" s="22"/>
+      <c r="I131" s="22"/>
+    </row>
+    <row r="132" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B132">
+        <v>1</v>
+      </c>
+      <c r="C132" t="str">
+        <f>C200</f>
+        <v>Zahnriemen T5 340mm 10mm Breite</v>
+      </c>
+      <c r="D132" s="32" t="s">
+        <v>855</v>
+      </c>
+      <c r="E132" s="9"/>
+      <c r="H132" s="22"/>
+      <c r="I132" s="22"/>
+    </row>
+    <row r="133" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B133">
+        <v>4</v>
+      </c>
+      <c r="C133" t="str">
+        <f>C153</f>
+        <v>Zylinderkopfschraube Innensechskant M3 20mm</v>
+      </c>
+      <c r="D133" s="32" t="s">
+        <v>856</v>
+      </c>
+      <c r="E133" s="9"/>
+      <c r="H133" s="22"/>
+      <c r="I133" s="22"/>
+    </row>
+    <row r="134" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B134">
+        <v>4</v>
+      </c>
+      <c r="C134" t="str">
+        <f>C166</f>
+        <v>Muttern M3, Schlüsselweite 5.5 mm</v>
+      </c>
+      <c r="D134" s="32" t="s">
+        <v>856</v>
+      </c>
+      <c r="E134" s="9"/>
+      <c r="H134" s="22"/>
+      <c r="I134" s="22"/>
+    </row>
+    <row r="135" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B135">
+        <v>4</v>
+      </c>
+      <c r="C135" t="str">
+        <f>C172</f>
+        <v>Unterlegscheiben M3 Dicke 0,5mm, Außendurchmesser 7mm</v>
+      </c>
+      <c r="D135" s="32" t="s">
+        <v>856</v>
+      </c>
+      <c r="E135" s="9"/>
+      <c r="H135" s="22"/>
+      <c r="I135" s="22"/>
+    </row>
+    <row r="136" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B136">
+        <v>4</v>
+      </c>
+      <c r="C136" t="str">
+        <f>C150</f>
+        <v>Zylinderkopfschraube Innensechskant M3 45mm</v>
+      </c>
+      <c r="D136" s="32" t="s">
+        <v>857</v>
+      </c>
+      <c r="E136" s="9"/>
+      <c r="H136" s="22"/>
+      <c r="I136" s="22"/>
+    </row>
+    <row r="137" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B137">
+        <v>4</v>
+      </c>
+      <c r="C137" t="str">
+        <f>C172</f>
+        <v>Unterlegscheiben M3 Dicke 0,5mm, Außendurchmesser 7mm</v>
+      </c>
+      <c r="D137" s="32" t="s">
+        <v>857</v>
+      </c>
+      <c r="E137" s="9"/>
+      <c r="H137" s="22"/>
+      <c r="I137" s="22"/>
+    </row>
+    <row r="138" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B138">
+        <v>4</v>
+      </c>
+      <c r="C138" t="str">
+        <f>C180</f>
+        <v>Distanzbolzen M3 25mm, Schlüsselweite 5mm</v>
+      </c>
+      <c r="D138" s="32" t="s">
+        <v>857</v>
+      </c>
+      <c r="E138" s="9"/>
+      <c r="H138" s="22"/>
+      <c r="I138" s="22"/>
+    </row>
+    <row r="139" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B139">
+        <v>5</v>
+      </c>
+      <c r="C139" t="str">
+        <f>C165</f>
+        <v>Vierkant Mutter M3 Breite 5.5mm</v>
+      </c>
+      <c r="D139" s="32" t="s">
+        <v>860</v>
+      </c>
+      <c r="E139" s="9"/>
+      <c r="H139" s="22"/>
+      <c r="I139" s="22"/>
+    </row>
+    <row r="140" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B140">
+        <v>5</v>
+      </c>
+      <c r="C140" t="str">
+        <f>C151</f>
+        <v>Zylinderkopfschraube Innensechskant M3 40mm</v>
+      </c>
+      <c r="D140" s="32" t="s">
+        <v>860</v>
+      </c>
+      <c r="E140" s="9"/>
+      <c r="H140" s="22"/>
+      <c r="I140" s="22"/>
+    </row>
+    <row r="141" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B141">
+        <v>1</v>
+      </c>
+      <c r="C141" t="str">
+        <f>C205</f>
+        <v xml:space="preserve">NEMA 24 - 60x60x87 3.1Nm </v>
+      </c>
+      <c r="D141" s="32" t="s">
+        <v>692</v>
+      </c>
+      <c r="E141" s="9"/>
+      <c r="H141" s="22"/>
+      <c r="I141" s="22"/>
+    </row>
+    <row r="142" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B142">
+        <v>2</v>
+      </c>
+      <c r="C142" t="str">
+        <f>C218</f>
+        <v>Rillenkugellager DIN 625 SKF - SKF 61818 - 90x115x13</v>
+      </c>
+      <c r="D142" s="32" t="s">
+        <v>866</v>
+      </c>
+      <c r="E142" s="9"/>
+      <c r="H142" s="22"/>
+      <c r="I142" s="22"/>
+    </row>
+    <row r="143" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D143" s="32"/>
+      <c r="E143" s="9"/>
+      <c r="H143" s="22"/>
+      <c r="I143" s="22"/>
+    </row>
+    <row r="144" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D144" s="32"/>
+      <c r="E144" s="9"/>
+      <c r="H144" s="22"/>
+      <c r="I144" s="22"/>
+    </row>
+    <row r="145" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D145" s="32"/>
+      <c r="E145" s="9"/>
+      <c r="H145" s="22"/>
+      <c r="I145" s="22"/>
+    </row>
+    <row r="146" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D146" s="32"/>
+      <c r="E146" s="9"/>
+      <c r="H146" s="22"/>
+      <c r="I146" s="22"/>
+    </row>
+    <row r="147" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D147" s="32"/>
+      <c r="E147" s="9"/>
+      <c r="H147" s="22"/>
+      <c r="I147" s="22"/>
+    </row>
+    <row r="148" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C148" s="32"/>
+      <c r="E148" s="9"/>
+      <c r="H148" s="22"/>
+      <c r="I148" s="22"/>
+    </row>
+    <row r="149" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B149" t="s">
         <v>730</v>
       </c>
-      <c r="C117" s="32"/>
-      <c r="E117" s="9"/>
-      <c r="G117" t="s">
+      <c r="C149" s="32"/>
+      <c r="E149" s="9"/>
+      <c r="G149" t="s">
         <v>707</v>
       </c>
-      <c r="H117" s="22" t="s">
+      <c r="H149" s="22" t="s">
         <v>720</v>
       </c>
-      <c r="I117" s="22" t="s">
+      <c r="I149" s="22" t="s">
         <v>721</v>
       </c>
-      <c r="J117" t="s">
+      <c r="J149" t="s">
         <v>722</v>
       </c>
-      <c r="K117" t="s">
+      <c r="K149" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B150" s="33">
+        <f t="shared" ref="B150:B181" si="0">ROUNDUP(I150/G150,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C150" s="32" t="s">
+        <v>792</v>
+      </c>
+      <c r="E150" t="s">
+        <v>847</v>
+      </c>
+      <c r="G150">
+        <v>25</v>
+      </c>
+      <c r="H150" s="22">
+        <v>7.45</v>
+      </c>
+      <c r="I150" s="18">
+        <f>SUMIF(C$1:C$148,"="&amp;C150,B$1:B$148)</f>
+        <v>14</v>
+      </c>
+      <c r="J150" s="33">
+        <f>G150*B150-I150</f>
+        <v>11</v>
+      </c>
+      <c r="K150" s="35">
+        <f>B150*H150</f>
+        <v>7.45</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B151" s="33">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C151" s="32" t="s">
+        <v>786</v>
+      </c>
+      <c r="E151" s="9" t="s">
+        <v>719</v>
+      </c>
+      <c r="G151">
+        <v>100</v>
+      </c>
+      <c r="H151" s="22">
+        <v>2.63</v>
+      </c>
+      <c r="I151" s="18">
+        <f>SUMIF(C$1:C$148,"="&amp;C151,B$1:B$148)</f>
+        <v>10</v>
+      </c>
+      <c r="J151" s="33">
+        <f>G151*B151-I151</f>
+        <v>90</v>
+      </c>
+      <c r="K151" s="35">
+        <f>B151*H151</f>
+        <v>2.63</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B152" s="33">
+        <f t="shared" ref="B152" si="1">ROUNDUP(I152/G152,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C152" s="32" t="s">
+        <v>787</v>
+      </c>
+      <c r="E152" s="9" t="s">
+        <v>719</v>
+      </c>
+      <c r="G152">
+        <v>100</v>
+      </c>
+      <c r="H152" s="22">
+        <v>2.63</v>
+      </c>
+      <c r="I152" s="18">
+        <f>SUMIF(C$1:C$148,"="&amp;C152,B$1:B$148)</f>
+        <v>16</v>
+      </c>
+      <c r="J152" s="33">
+        <f>G152*B152-I152</f>
+        <v>84</v>
+      </c>
+      <c r="K152" s="35">
+        <f>B152*H152</f>
+        <v>2.63</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B153" s="33">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C153" s="32" t="s">
+        <v>660</v>
+      </c>
+      <c r="E153" s="9" t="s">
+        <v>719</v>
+      </c>
+      <c r="G153">
+        <v>100</v>
+      </c>
+      <c r="H153" s="22">
+        <v>1.79</v>
+      </c>
+      <c r="I153" s="18">
+        <f>SUMIF(C$1:C$148,"="&amp;C153,B$1:B$148)</f>
+        <v>12</v>
+      </c>
+      <c r="J153" s="33">
+        <f>G153*B153-I153</f>
+        <v>88</v>
+      </c>
+      <c r="K153" s="35">
+        <f>B153*H153</f>
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B154" s="33">
+        <f t="shared" ref="B154" si="2">ROUNDUP(I154/G154,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C154" s="32" t="s">
         <v>760</v>
       </c>
-    </row>
-    <row r="118" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B118" s="33">
-        <f t="shared" ref="B118:B148" si="0">ROUNDUP(I118/G118,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C118" s="32" t="s">
-        <v>794</v>
-      </c>
-      <c r="E118" s="9" t="s">
-        <v>793</v>
-      </c>
-      <c r="G118">
-        <v>10</v>
-      </c>
-      <c r="H118" s="22">
-        <v>3.5</v>
-      </c>
-      <c r="I118" s="18">
-        <f>SUMIF(C$1:C$116,"="&amp;C118,B$1:B$116)</f>
-        <v>9</v>
-      </c>
-      <c r="J118" s="33">
-        <f>G118*B118-I118</f>
-        <v>1</v>
-      </c>
-      <c r="K118" s="35">
-        <f>B118*H118</f>
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B119" s="33">
+      <c r="E154" s="9" t="s">
+        <v>719</v>
+      </c>
+      <c r="G154">
+        <v>100</v>
+      </c>
+      <c r="H154" s="22">
+        <v>1.71</v>
+      </c>
+      <c r="I154" s="18">
+        <f>SUMIF(C$1:C$148,"="&amp;C154,B$1:B$148)</f>
+        <v>7</v>
+      </c>
+      <c r="J154" s="33">
+        <f>G154*B154-I154</f>
+        <v>93</v>
+      </c>
+      <c r="K154" s="35">
+        <f t="shared" ref="K154" si="3">B154*H154</f>
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B155" s="33">
+        <f t="shared" ref="B155" si="4">ROUNDUP(I155/G155,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C155" s="32" t="s">
+        <v>728</v>
+      </c>
+      <c r="E155" s="9" t="s">
+        <v>719</v>
+      </c>
+      <c r="G155">
+        <v>100</v>
+      </c>
+      <c r="H155" s="22">
+        <v>1.71</v>
+      </c>
+      <c r="I155" s="18">
+        <f>SUMIF(C$1:C$148,"="&amp;C155,B$1:B$148)</f>
+        <v>12</v>
+      </c>
+      <c r="J155" s="33">
+        <f>G155*B155-I155</f>
+        <v>88</v>
+      </c>
+      <c r="K155" s="35">
+        <f t="shared" ref="K155:K216" si="5">B155*H155</f>
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B156" s="33">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C119" s="32" t="s">
-        <v>787</v>
-      </c>
-      <c r="E119" s="9" t="s">
-        <v>719</v>
-      </c>
-      <c r="G119">
+      <c r="C156" s="32" t="s">
+        <v>697</v>
+      </c>
+      <c r="D156" s="32"/>
+      <c r="E156" s="29" t="s">
+        <v>698</v>
+      </c>
+      <c r="G156">
         <v>100</v>
       </c>
-      <c r="H119" s="22">
-        <v>2.63</v>
-      </c>
-      <c r="I119" s="18">
-        <f>SUMIF(C$1:C$116,"="&amp;C119,B$1:B$116)</f>
-        <v>4</v>
-      </c>
-      <c r="J119" s="33">
-        <f>G119*B119-I119</f>
-        <v>96</v>
-      </c>
-      <c r="K119" s="35">
-        <f>B119*H119</f>
-        <v>2.63</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B120" s="33">
-        <f t="shared" ref="B120" si="1">ROUNDUP(I120/G120,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C120" s="32" t="s">
-        <v>788</v>
-      </c>
-      <c r="E120" s="9" t="s">
-        <v>719</v>
-      </c>
-      <c r="G120">
-        <v>100</v>
-      </c>
-      <c r="H120" s="22">
-        <v>2.63</v>
-      </c>
-      <c r="I120" s="18">
-        <f>SUMIF(C$1:C$116,"="&amp;C120,B$1:B$116)</f>
-        <v>16</v>
-      </c>
-      <c r="J120" s="33">
-        <f>G120*B120-I120</f>
-        <v>84</v>
-      </c>
-      <c r="K120" s="35">
-        <f>B120*H120</f>
-        <v>2.63</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B121" s="33">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C121" s="32" t="s">
-        <v>660</v>
-      </c>
-      <c r="E121" s="9" t="s">
-        <v>719</v>
-      </c>
-      <c r="G121">
-        <v>100</v>
-      </c>
-      <c r="H121" s="22">
-        <v>1.79</v>
-      </c>
-      <c r="I121" s="18">
-        <f>SUMIF(C$1:C$116,"="&amp;C121,B$1:B$116)</f>
-        <v>8</v>
-      </c>
-      <c r="J121" s="33">
-        <f>G121*B121-I121</f>
-        <v>92</v>
-      </c>
-      <c r="K121" s="35">
-        <f>B121*H121</f>
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B122" s="33">
-        <f t="shared" ref="B122" si="2">ROUNDUP(I122/G122,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C122" s="32" t="s">
-        <v>761</v>
-      </c>
-      <c r="E122" s="9" t="s">
-        <v>719</v>
-      </c>
-      <c r="G122">
-        <v>100</v>
-      </c>
-      <c r="H122" s="22">
-        <v>1.71</v>
-      </c>
-      <c r="I122" s="18">
-        <f>SUMIF(C$1:C$116,"="&amp;C122,B$1:B$116)</f>
-        <v>6</v>
-      </c>
-      <c r="J122" s="33">
-        <f>G122*B122-I122</f>
-        <v>94</v>
-      </c>
-      <c r="K122" s="35">
-        <f t="shared" ref="K122" si="3">B122*H122</f>
-        <v>1.71</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B123" s="33">
-        <f t="shared" ref="B123" si="4">ROUNDUP(I123/G123,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C123" s="32" t="s">
-        <v>728</v>
-      </c>
-      <c r="E123" s="9" t="s">
-        <v>719</v>
-      </c>
-      <c r="G123">
-        <v>100</v>
-      </c>
-      <c r="H123" s="22">
-        <v>1.71</v>
-      </c>
-      <c r="I123" s="18">
-        <f>SUMIF(C$1:C$116,"="&amp;C123,B$1:B$116)</f>
-        <v>10</v>
-      </c>
-      <c r="J123" s="33">
-        <f>G123*B123-I123</f>
-        <v>90</v>
-      </c>
-      <c r="K123" s="35">
-        <f t="shared" ref="K123:K180" si="5">B123*H123</f>
-        <v>1.71</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B124" s="33">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C124" s="32" t="s">
-        <v>697</v>
-      </c>
-      <c r="D124" s="32"/>
-      <c r="E124" s="29" t="s">
-        <v>698</v>
-      </c>
-      <c r="G124">
-        <v>100</v>
-      </c>
-      <c r="H124" s="22">
+      <c r="H156" s="22">
         <v>1.96</v>
       </c>
-      <c r="I124" s="18">
-        <f>SUMIF(C$1:C$116,"="&amp;C124,B$1:B$116)</f>
-        <v>1</v>
-      </c>
-      <c r="J124" s="33">
-        <f t="shared" ref="J124:J175" si="6">G124*B124-I124</f>
+      <c r="I156" s="18">
+        <f>SUMIF(C$1:C$148,"="&amp;C156,B$1:B$148)</f>
+        <v>1</v>
+      </c>
+      <c r="J156" s="33">
+        <f t="shared" ref="J156:J212" si="6">G156*B156-I156</f>
         <v>99</v>
       </c>
-      <c r="K124" s="35">
+      <c r="K156" s="35">
         <f t="shared" si="5"/>
         <v>1.96</v>
       </c>
     </row>
-    <row r="125" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B125" s="33">
+    <row r="157" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B157" s="33">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C125" s="32" t="s">
+      <c r="C157" s="32" t="s">
         <v>694</v>
       </c>
-      <c r="E125" t="s">
-        <v>758</v>
-      </c>
-      <c r="G125">
+      <c r="E157" t="s">
+        <v>757</v>
+      </c>
+      <c r="G157">
         <v>100</v>
       </c>
-      <c r="H125" s="22">
+      <c r="H157" s="22">
         <v>1.79</v>
       </c>
-      <c r="I125" s="18">
-        <f>SUMIF(C$1:C$116,"="&amp;C125,B$1:B$116)</f>
+      <c r="I157" s="18">
+        <f>SUMIF(C$1:C$148,"="&amp;C157,B$1:B$148)</f>
         <v>2</v>
       </c>
-      <c r="J125" s="33">
-        <f t="shared" ref="J125" si="7">G125*B125-I125</f>
+      <c r="J157" s="33">
+        <f t="shared" ref="J157" si="7">G157*B157-I157</f>
         <v>98</v>
       </c>
-      <c r="K125" s="35">
+      <c r="K157" s="35">
         <f t="shared" si="5"/>
         <v>1.79</v>
       </c>
     </row>
-    <row r="126" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B126" s="33">
-        <f t="shared" ref="B126:B130" si="8">ROUNDUP(I126/G126,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C126" s="32" t="s">
+    <row r="158" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B158" s="33">
+        <f t="shared" ref="B158:B162" si="8">ROUNDUP(I158/G158,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C158" s="32" t="s">
+        <v>756</v>
+      </c>
+      <c r="E158" t="s">
         <v>757</v>
       </c>
-      <c r="E126" t="s">
-        <v>758</v>
-      </c>
-      <c r="G126">
+      <c r="G158">
         <v>100</v>
       </c>
-      <c r="H126" s="22">
+      <c r="H158" s="22">
         <v>1.63</v>
       </c>
-      <c r="I126" s="18">
-        <f>SUMIF(C$1:C$116,"="&amp;C126,B$1:B$116)</f>
+      <c r="I158" s="18">
+        <f>SUMIF(C$1:C$148,"="&amp;C158,B$1:B$148)</f>
         <v>2</v>
       </c>
-      <c r="J126" s="33">
-        <f t="shared" ref="J126:J130" si="9">G126*B126-I126</f>
+      <c r="J158" s="33">
+        <f t="shared" ref="J158:J162" si="9">G158*B158-I158</f>
         <v>98</v>
       </c>
-      <c r="K126" s="35">
+      <c r="K158" s="35">
         <f t="shared" si="5"/>
         <v>1.63</v>
       </c>
     </row>
-    <row r="127" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B127" s="33">
-        <f>ROUNDUP(I127/G127,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C127" s="32" t="s">
+    <row r="159" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B159" s="33">
+        <f>ROUNDUP(I159/G159,0)</f>
+        <v>2</v>
+      </c>
+      <c r="C159" s="32" t="s">
         <v>702</v>
       </c>
-      <c r="E127" t="s">
+      <c r="E159" t="s">
         <v>705</v>
       </c>
-      <c r="G127">
+      <c r="G159">
         <v>10</v>
       </c>
-      <c r="H127" s="22">
+      <c r="H159" s="22">
         <v>0.99</v>
       </c>
-      <c r="I127" s="18">
-        <f>SUMIF(C$1:C$116,"="&amp;C127,B$1:B$116)</f>
+      <c r="I159" s="18">
+        <f>SUMIF(C$1:C$148,"="&amp;C159,B$1:B$148)</f>
+        <v>12</v>
+      </c>
+      <c r="J159" s="33">
+        <f>G159*B159-I159</f>
         <v>8</v>
       </c>
-      <c r="J127" s="33">
-        <f>G127*B127-I127</f>
-        <v>2</v>
-      </c>
-      <c r="K127" s="35">
-        <f>B127*H127</f>
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B128" s="33">
-        <f>ROUNDUP(I128/G128,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C128" t="s">
-        <v>777</v>
-      </c>
-      <c r="E128" t="s">
-        <v>769</v>
-      </c>
-      <c r="G128">
-        <v>1</v>
-      </c>
-      <c r="H128" s="22">
+      <c r="K159" s="35">
+        <f>B159*H159</f>
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B160" s="33">
+        <f>ROUNDUP(I160/G160,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C160" t="s">
+        <v>776</v>
+      </c>
+      <c r="E160" t="s">
+        <v>768</v>
+      </c>
+      <c r="G160">
+        <v>1</v>
+      </c>
+      <c r="H160" s="22">
         <v>0.4</v>
       </c>
-      <c r="I128" s="18">
-        <f>SUMIF(C$1:C$116,"="&amp;C128,B$1:B$116)</f>
-        <v>1</v>
-      </c>
-      <c r="J128" s="33">
-        <f>G128*B128-I128</f>
-        <v>0</v>
-      </c>
-      <c r="K128" s="35">
-        <f>B128*H128</f>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="129" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B129" s="33"/>
-      <c r="C129" s="32"/>
-      <c r="E129"/>
-      <c r="H129" s="22"/>
-      <c r="I129" s="18"/>
-      <c r="J129" s="33"/>
-      <c r="K129" s="35"/>
-    </row>
-    <row r="130" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B130" s="33">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="C130" s="32" t="s">
-        <v>773</v>
-      </c>
-      <c r="E130" t="s">
-        <v>772</v>
-      </c>
-      <c r="G130">
-        <v>10</v>
-      </c>
-      <c r="H130" s="22">
-        <v>2.35</v>
-      </c>
-      <c r="I130" s="18">
-        <f>SUMIF(C$1:C$116,"="&amp;C130,B$1:B$116)</f>
-        <v>0</v>
-      </c>
-      <c r="J130" s="33">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K130" s="35">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B131" s="33">
-        <f t="shared" ref="B131" si="10">ROUNDUP(I131/G131,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C131" s="32" t="s">
-        <v>783</v>
-      </c>
-      <c r="E131" t="s">
-        <v>784</v>
-      </c>
-      <c r="F131" t="s">
-        <v>786</v>
-      </c>
-      <c r="G131">
-        <v>50</v>
-      </c>
-      <c r="H131" s="22">
-        <v>3.65</v>
-      </c>
-      <c r="I131" s="18">
-        <f>SUMIF(C$1:C$116,"="&amp;C131,B$1:B$116)</f>
-        <v>12</v>
-      </c>
-      <c r="J131" s="33">
-        <f t="shared" ref="J131" si="11">G131*B131-I131</f>
-        <v>38</v>
-      </c>
-      <c r="K131" s="35">
-        <f t="shared" ref="K131" si="12">B131*H131</f>
-        <v>3.65</v>
-      </c>
-    </row>
-    <row r="132" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B132" s="33">
-        <f t="shared" ref="B132" si="13">ROUNDUP(I132/G132,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C132" s="32" t="s">
-        <v>815</v>
-      </c>
-      <c r="E132" t="s">
-        <v>816</v>
-      </c>
-      <c r="F132" t="s">
-        <v>786</v>
-      </c>
-      <c r="G132">
-        <v>10</v>
-      </c>
-      <c r="H132" s="22">
-        <v>2.41</v>
-      </c>
-      <c r="I132" s="18">
-        <f>SUMIF(C$1:C$116,"="&amp;C132,B$1:B$116)</f>
-        <v>4</v>
-      </c>
-      <c r="J132" s="33">
-        <f t="shared" ref="J132" si="14">G132*B132-I132</f>
-        <v>6</v>
-      </c>
-      <c r="K132" s="35">
-        <f t="shared" ref="K132" si="15">B132*H132</f>
-        <v>2.41</v>
-      </c>
-    </row>
-    <row r="133" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B133" s="33">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C133" s="32" t="s">
-        <v>775</v>
-      </c>
-      <c r="E133" t="s">
-        <v>650</v>
-      </c>
-      <c r="G133">
-        <v>100</v>
-      </c>
-      <c r="H133" s="22">
-        <v>2.09</v>
-      </c>
-      <c r="I133" s="18">
-        <f>SUMIF(C$1:C$116,"="&amp;C133,B$1:B$116)</f>
-        <v>6</v>
-      </c>
-      <c r="J133" s="33">
-        <f t="shared" si="6"/>
-        <v>94</v>
-      </c>
-      <c r="K133" s="35">
-        <f t="shared" si="5"/>
-        <v>2.09</v>
-      </c>
-    </row>
-    <row r="134" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B134" s="33">
-        <f t="shared" ref="B134" si="16">ROUNDUP(I134/G134,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C134" s="32" t="s">
-        <v>774</v>
-      </c>
-      <c r="E134" s="29" t="s">
-        <v>662</v>
-      </c>
-      <c r="G134">
-        <v>100</v>
-      </c>
-      <c r="H134" s="22">
-        <v>2.09</v>
-      </c>
-      <c r="I134" s="18">
-        <f>SUMIF(C$1:C$116,"="&amp;C134,B$1:B$116)</f>
-        <v>12</v>
-      </c>
-      <c r="J134" s="33">
-        <f t="shared" ref="J134" si="17">G134*B134-I134</f>
-        <v>88</v>
-      </c>
-      <c r="K134" s="35">
-        <f t="shared" si="5"/>
-        <v>2.09</v>
-      </c>
-    </row>
-    <row r="135" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B135" s="33">
-        <f t="shared" ref="B135:B138" si="18">ROUNDUP(I135/G135,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C135" s="32" t="s">
-        <v>778</v>
-      </c>
-      <c r="G135">
-        <v>100</v>
-      </c>
-      <c r="H135" s="22">
-        <v>2.09</v>
-      </c>
-      <c r="I135" s="18">
-        <f>SUMIF(C$1:C$116,"="&amp;C135,B$1:B$116)</f>
-        <v>8</v>
-      </c>
-      <c r="J135" s="33">
-        <f t="shared" ref="J135:J138" si="19">G135*B135-I135</f>
-        <v>92</v>
-      </c>
-      <c r="K135" s="35">
-        <f t="shared" ref="K135:K138" si="20">B135*H135</f>
-        <v>2.09</v>
-      </c>
-    </row>
-    <row r="136" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B136" s="33">
-        <f>ROUNDUP(I136/G136,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C136" t="s">
-        <v>771</v>
-      </c>
-      <c r="E136" t="s">
-        <v>769</v>
-      </c>
-      <c r="G136">
-        <v>1</v>
-      </c>
-      <c r="H136" s="22">
-        <v>0.4</v>
-      </c>
-      <c r="I136" s="18">
-        <f>SUMIF(C$1:C$116,"="&amp;C136,B$1:B$116)</f>
-        <v>1</v>
-      </c>
-      <c r="J136" s="33">
-        <f t="shared" ref="J136" si="21">G136*B136-I136</f>
-        <v>0</v>
-      </c>
-      <c r="K136" s="35">
-        <f t="shared" ref="K136" si="22">B136*H136</f>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="137" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B137" s="33"/>
-      <c r="C137" s="32"/>
-      <c r="H137" s="22"/>
-      <c r="I137" s="18"/>
-      <c r="J137" s="33"/>
-      <c r="K137" s="35"/>
-    </row>
-    <row r="138" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B138" s="33">
-        <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="C138" s="32" t="s">
-        <v>810</v>
-      </c>
-      <c r="E138" s="29" t="s">
-        <v>670</v>
-      </c>
-      <c r="G138">
-        <v>50</v>
-      </c>
-      <c r="H138" s="22">
-        <v>4.8899999999999997</v>
-      </c>
-      <c r="I138" s="18">
-        <f>SUMIF(C$1:C$116,"="&amp;C138,B$1:B$116)</f>
-        <v>1</v>
-      </c>
-      <c r="J138" s="33">
-        <f t="shared" si="19"/>
-        <v>49</v>
-      </c>
-      <c r="K138" s="35">
-        <f t="shared" si="20"/>
-        <v>4.8899999999999997</v>
-      </c>
-    </row>
-    <row r="139" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B139" s="33">
-        <f t="shared" ref="B139" si="23">ROUNDUP(I139/G139,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C139" s="32" t="s">
-        <v>808</v>
-      </c>
-      <c r="E139" s="29" t="s">
-        <v>809</v>
-      </c>
-      <c r="G139">
-        <v>20</v>
-      </c>
-      <c r="H139" s="22">
-        <v>3.89</v>
-      </c>
-      <c r="I139" s="18">
-        <f>SUMIF(C$1:C$116,"="&amp;C139,B$1:B$116)</f>
-        <v>2</v>
-      </c>
-      <c r="J139" s="33">
-        <f t="shared" ref="J139" si="24">G139*B139-I139</f>
-        <v>18</v>
-      </c>
-      <c r="K139" s="35">
-        <f t="shared" ref="K139" si="25">B139*H139</f>
-        <v>3.89</v>
-      </c>
-    </row>
-    <row r="140" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B140" s="33">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C140" s="32" t="s">
-        <v>846</v>
-      </c>
-      <c r="E140" s="29" t="s">
-        <v>696</v>
-      </c>
-      <c r="G140">
-        <v>100</v>
-      </c>
-      <c r="H140" s="22">
-        <v>1.79</v>
-      </c>
-      <c r="I140" s="18">
-        <f>SUMIF(C$1:C$116,"="&amp;C140,B$1:B$116)</f>
-        <v>56</v>
-      </c>
-      <c r="J140" s="33">
-        <f t="shared" si="6"/>
-        <v>44</v>
-      </c>
-      <c r="K140" s="35">
-        <f t="shared" si="5"/>
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="141" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B141" s="33">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C141" s="32" t="s">
-        <v>710</v>
-      </c>
-      <c r="E141" s="9" t="s">
-        <v>711</v>
-      </c>
-      <c r="G141">
-        <v>100</v>
-      </c>
-      <c r="H141" s="22">
-        <v>1.79</v>
-      </c>
-      <c r="I141" s="18">
-        <f>SUMIF(C$1:C$116,"="&amp;C141,B$1:B$116)</f>
-        <v>4</v>
-      </c>
-      <c r="J141" s="33">
-        <f>G141*B141-I141</f>
-        <v>96</v>
-      </c>
-      <c r="K141" s="35">
-        <f t="shared" si="5"/>
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="142" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B142" s="33">
-        <f t="shared" ref="B142:B143" si="26">ROUNDUP(I142/G142,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C142" s="32" t="s">
-        <v>812</v>
-      </c>
-      <c r="E142" s="9" t="s">
-        <v>841</v>
-      </c>
-      <c r="G142">
-        <v>50</v>
-      </c>
-      <c r="H142" s="22">
-        <v>4.33</v>
-      </c>
-      <c r="I142" s="18">
-        <f>SUMIF(C$1:C$116,"="&amp;C142,B$1:B$116)</f>
-        <v>4</v>
-      </c>
-      <c r="J142" s="33">
-        <f>G142*B142-I142</f>
-        <v>46</v>
-      </c>
-      <c r="K142" s="35">
-        <f t="shared" ref="K142:K143" si="27">B142*H142</f>
-        <v>4.33</v>
-      </c>
-    </row>
-    <row r="143" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B143" s="33">
-        <f t="shared" si="26"/>
-        <v>1</v>
-      </c>
-      <c r="C143" s="32" t="s">
-        <v>845</v>
-      </c>
-      <c r="E143" s="9" t="s">
-        <v>840</v>
-      </c>
-      <c r="G143">
-        <v>10</v>
-      </c>
-      <c r="H143" s="22">
-        <v>1.98</v>
-      </c>
-      <c r="I143" s="18">
-        <f>SUMIF(C$1:C$116,"="&amp;C143,B$1:B$116)</f>
-        <v>4</v>
-      </c>
-      <c r="J143" s="33">
-        <f>G143*B143-I143</f>
-        <v>6</v>
-      </c>
-      <c r="K143" s="35">
-        <f t="shared" si="27"/>
-        <v>1.98</v>
-      </c>
-    </row>
-    <row r="144" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B144" s="33">
-        <f>ROUNDUP(I144/G144,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C144" t="s">
-        <v>723</v>
-      </c>
-      <c r="E144" s="26" t="s">
-        <v>690</v>
-      </c>
-      <c r="G144">
-        <v>500</v>
-      </c>
-      <c r="H144" s="22">
-        <v>4.49</v>
-      </c>
-      <c r="I144" s="18">
-        <f>SUMIF(C$1:C$116,"="&amp;C144,B$1:B$116)</f>
-        <v>136</v>
-      </c>
-      <c r="J144" s="33">
-        <f t="shared" ref="J144" si="28">G144*B144-I144</f>
-        <v>364</v>
-      </c>
-      <c r="K144" s="35">
-        <f t="shared" si="5"/>
-        <v>4.49</v>
-      </c>
-    </row>
-    <row r="145" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B145" s="33">
-        <f>ROUNDUP(I145/G145,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C145" t="s">
-        <v>750</v>
-      </c>
-      <c r="E145" s="26" t="s">
-        <v>647</v>
-      </c>
-      <c r="G145">
-        <v>500</v>
-      </c>
-      <c r="H145" s="22">
-        <v>2.4900000000000002</v>
-      </c>
-      <c r="I145" s="18">
-        <f>SUMIF(C$1:C$116,"="&amp;C145,B$1:B$116)</f>
-        <v>50</v>
-      </c>
-      <c r="J145" s="33">
-        <f t="shared" ref="J145:J146" si="29">G145*B145-I145</f>
-        <v>450</v>
-      </c>
-      <c r="K145" s="35">
-        <f t="shared" si="5"/>
-        <v>2.4900000000000002</v>
-      </c>
-    </row>
-    <row r="146" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B146" s="33">
-        <f>ROUNDUP(I146/G146,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C146" t="s">
-        <v>797</v>
-      </c>
-      <c r="E146" s="26" t="s">
-        <v>798</v>
-      </c>
-      <c r="G146">
-        <v>500</v>
-      </c>
-      <c r="H146" s="22">
-        <v>4.49</v>
-      </c>
-      <c r="I146" s="18">
-        <f>SUMIF(C$1:C$116,"="&amp;C146,B$1:B$116)</f>
-        <v>72</v>
-      </c>
-      <c r="J146" s="33">
-        <f t="shared" si="29"/>
-        <v>428</v>
-      </c>
-      <c r="K146" s="35">
-        <f t="shared" ref="K146" si="30">B146*H146</f>
-        <v>4.49</v>
-      </c>
-    </row>
-    <row r="147" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B147" s="33"/>
-      <c r="E147" s="26"/>
-      <c r="H147" s="22"/>
-      <c r="I147" s="18"/>
-      <c r="J147" s="33"/>
-      <c r="K147" s="35"/>
-    </row>
-    <row r="148" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B148" s="33">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="C148" s="32" t="s">
-        <v>776</v>
-      </c>
-      <c r="E148" s="9" t="s">
-        <v>715</v>
-      </c>
-      <c r="G148">
-        <v>1</v>
-      </c>
-      <c r="H148" s="22">
-        <v>0.15</v>
-      </c>
-      <c r="I148" s="18">
-        <f>SUMIF(C$1:C$116,"="&amp;C148,B$1:B$116)</f>
-        <v>9</v>
-      </c>
-      <c r="J148" s="33">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K148" s="35">
-        <f t="shared" si="5"/>
-        <v>1.3499999999999999</v>
-      </c>
-    </row>
-    <row r="149" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B149" s="33">
-        <f t="shared" ref="B149" si="31">ROUNDUP(I149/G149,0)</f>
-        <v>0</v>
-      </c>
-      <c r="C149" t="s">
-        <v>847</v>
-      </c>
-      <c r="E149" s="29" t="s">
-        <v>729</v>
-      </c>
-      <c r="G149">
-        <v>1</v>
-      </c>
-      <c r="H149" s="22">
-        <v>0.08</v>
-      </c>
-      <c r="I149" s="18">
-        <f>SUMIF(C$1:C$116,"="&amp;C149,B$1:B$116)</f>
-        <v>0</v>
-      </c>
-      <c r="J149" s="33">
-        <f t="shared" ref="J149" si="32">G149*B149-I149</f>
-        <v>0</v>
-      </c>
-      <c r="K149" s="35">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B150" s="33">
-        <f>ROUNDUP(I150/G150,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C150" t="s">
-        <v>744</v>
-      </c>
-      <c r="E150" s="26" t="s">
-        <v>745</v>
-      </c>
-      <c r="G150">
-        <v>10</v>
-      </c>
-      <c r="H150" s="22">
-        <v>2.59</v>
-      </c>
-      <c r="I150" s="18">
-        <f>SUMIF(C$1:C$116,"="&amp;C150,B$1:B$116)</f>
-        <v>2</v>
-      </c>
-      <c r="J150" s="33">
-        <f t="shared" ref="J150" si="33">G150*B150-I150</f>
-        <v>8</v>
-      </c>
-      <c r="K150" s="35">
-        <f>B150*H150</f>
-        <v>2.59</v>
-      </c>
-    </row>
-    <row r="151" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B151" s="33"/>
-      <c r="H151" s="22"/>
-      <c r="I151" s="18"/>
-      <c r="J151" s="33"/>
-      <c r="K151" s="35"/>
-    </row>
-    <row r="152" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B152" s="33">
-        <f t="shared" ref="B152:B156" si="34">ROUNDUP(I152/G152,0)</f>
-        <v>4</v>
-      </c>
-      <c r="C152" t="s">
-        <v>676</v>
-      </c>
-      <c r="E152" s="29" t="s">
-        <v>681</v>
-      </c>
-      <c r="G152">
-        <v>1</v>
-      </c>
-      <c r="H152" s="22">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="I152" s="18">
-        <f>SUMIF(C$1:C$116,"="&amp;C152,B$1:B$116)</f>
-        <v>4</v>
-      </c>
-      <c r="J152" s="33">
-        <f t="shared" ref="J152" si="35">G152*B152-I152</f>
-        <v>0</v>
-      </c>
-      <c r="K152" s="35">
-        <f t="shared" si="5"/>
-        <v>20.399999999999999</v>
-      </c>
-    </row>
-    <row r="153" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B153" s="33">
-        <f t="shared" si="34"/>
-        <v>1</v>
-      </c>
-      <c r="C153" t="s">
-        <v>683</v>
-      </c>
-      <c r="E153" s="29" t="s">
-        <v>682</v>
-      </c>
-      <c r="G153">
-        <v>1</v>
-      </c>
-      <c r="H153" s="22">
-        <v>5.44</v>
-      </c>
-      <c r="I153" s="18">
-        <f>SUMIF(C$1:C$116,"="&amp;C153,B$1:B$116)</f>
-        <v>1</v>
-      </c>
-      <c r="J153" s="33">
-        <f t="shared" ref="J153:J155" si="36">G153*B153-I153</f>
-        <v>0</v>
-      </c>
-      <c r="K153" s="35">
-        <f t="shared" si="5"/>
-        <v>5.44</v>
-      </c>
-    </row>
-    <row r="154" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B154" s="33">
-        <f t="shared" si="34"/>
-        <v>1</v>
-      </c>
-      <c r="C154" t="s">
-        <v>724</v>
-      </c>
-      <c r="E154" s="29" t="s">
-        <v>686</v>
-      </c>
-      <c r="G154">
-        <v>1</v>
-      </c>
-      <c r="H154" s="22">
-        <v>4.46</v>
-      </c>
-      <c r="I154" s="18">
-        <f>SUMIF(C$1:C$116,"="&amp;C154,B$1:B$116)</f>
-        <v>1</v>
-      </c>
-      <c r="J154" s="33">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="K154" s="35">
-        <f t="shared" si="5"/>
-        <v>4.46</v>
-      </c>
-    </row>
-    <row r="155" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B155" s="33">
-        <f t="shared" si="34"/>
-        <v>1</v>
-      </c>
-      <c r="C155" t="s">
-        <v>725</v>
-      </c>
-      <c r="E155" s="29" t="s">
-        <v>684</v>
-      </c>
-      <c r="G155">
-        <v>1</v>
-      </c>
-      <c r="H155" s="22">
-        <v>5.01</v>
-      </c>
-      <c r="I155" s="18">
-        <f>SUMIF(C$1:C$116,"="&amp;C155,B$1:B$116)</f>
-        <v>1</v>
-      </c>
-      <c r="J155" s="33">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="K155" s="35">
-        <f t="shared" si="5"/>
-        <v>5.01</v>
-      </c>
-    </row>
-    <row r="156" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B156" s="33">
-        <f t="shared" si="34"/>
-        <v>1</v>
-      </c>
-      <c r="C156" t="s">
-        <v>768</v>
-      </c>
-      <c r="E156" s="26" t="s">
-        <v>767</v>
-      </c>
-      <c r="G156">
-        <v>1</v>
-      </c>
-      <c r="H156" s="22">
-        <v>6.34</v>
-      </c>
-      <c r="I156" s="18">
-        <f>SUMIF(C$1:C$116,"="&amp;C156,B$1:B$116)</f>
-        <v>1</v>
-      </c>
-      <c r="J156" s="33">
-        <f t="shared" ref="J156" si="37">G156*B156-I156</f>
-        <v>0</v>
-      </c>
-      <c r="K156" s="35">
-        <f t="shared" ref="K156" si="38">B156*H156</f>
-        <v>6.34</v>
-      </c>
-    </row>
-    <row r="157" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B157" s="33">
-        <v>1</v>
-      </c>
-      <c r="C157" t="s">
-        <v>801</v>
-      </c>
-      <c r="D157" s="32"/>
-      <c r="E157" s="26" t="s">
-        <v>800</v>
-      </c>
-      <c r="G157">
-        <v>1</v>
-      </c>
-      <c r="H157" s="22">
-        <v>11.6</v>
-      </c>
-      <c r="I157" s="18">
-        <f>SUMIF(C$1:C$116,"="&amp;C157,B$1:B$116)</f>
-        <v>1</v>
-      </c>
-      <c r="J157" s="33">
-        <f t="shared" ref="J157:J158" si="39">G157*B157-I157</f>
-        <v>0</v>
-      </c>
-      <c r="K157" s="35">
-        <f t="shared" ref="K157:K158" si="40">B157*H157</f>
-        <v>11.6</v>
-      </c>
-    </row>
-    <row r="158" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B158" s="33">
-        <v>1</v>
-      </c>
-      <c r="C158" t="s">
-        <v>822</v>
-      </c>
-      <c r="D158" s="32"/>
-      <c r="E158" s="29" t="s">
-        <v>823</v>
-      </c>
-      <c r="G158">
-        <v>1</v>
-      </c>
-      <c r="H158" s="22">
-        <v>5.66</v>
-      </c>
-      <c r="I158" s="18">
-        <f>SUMIF(C$1:C$116,"="&amp;C158,B$1:B$116)</f>
-        <v>2</v>
-      </c>
-      <c r="J158" s="33">
-        <f t="shared" si="39"/>
-        <v>-1</v>
-      </c>
-      <c r="K158" s="35">
-        <f t="shared" si="40"/>
-        <v>5.66</v>
-      </c>
-    </row>
-    <row r="159" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B159" s="33">
-        <v>1</v>
-      </c>
-      <c r="C159" t="s">
-        <v>803</v>
-      </c>
-      <c r="D159" s="32"/>
-      <c r="E159" s="29" t="s">
-        <v>802</v>
-      </c>
-      <c r="G159">
-        <v>1</v>
-      </c>
-      <c r="H159" s="22">
-        <v>5.23</v>
-      </c>
-      <c r="I159" s="18">
-        <f>SUMIF(C$1:C$116,"="&amp;C159,B$1:B$116)</f>
-        <v>0</v>
-      </c>
-      <c r="J159" s="33">
-        <f t="shared" ref="J159" si="41">G159*B159-I159</f>
-        <v>1</v>
-      </c>
-      <c r="K159" s="35">
-        <f t="shared" ref="K159" si="42">B159*H159</f>
-        <v>5.23</v>
-      </c>
-    </row>
-    <row r="160" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B160" s="33">
-        <v>1</v>
-      </c>
-      <c r="C160" s="32" t="s">
-        <v>828</v>
-      </c>
-      <c r="D160" s="32"/>
-      <c r="E160" s="29" t="s">
-        <v>701</v>
-      </c>
-      <c r="G160">
-        <v>1</v>
-      </c>
-      <c r="H160" s="22">
-        <v>4.96</v>
-      </c>
       <c r="I160" s="18">
-        <f>SUMIF(C$1:C$116,"="&amp;C160,B$1:B$116)</f>
+        <f>SUMIF(C$1:C$148,"="&amp;C160,B$1:B$148)</f>
         <v>1</v>
       </c>
       <c r="J160" s="33">
@@ -14653,1188 +14300,2216 @@
       </c>
       <c r="K160" s="35">
         <f>B160*H160</f>
-        <v>4.96</v>
-      </c>
-    </row>
-    <row r="161" spans="2:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B161" s="33">
-        <v>1</v>
-      </c>
-      <c r="C161" t="s">
-        <v>829</v>
-      </c>
-      <c r="D161" s="32"/>
-      <c r="E161" s="29" t="s">
-        <v>727</v>
-      </c>
-      <c r="G161">
-        <v>1</v>
-      </c>
-      <c r="H161" s="22">
-        <v>4.24</v>
-      </c>
-      <c r="I161" s="18">
-        <f>SUMIF(C$1:C$116,"="&amp;C161,B$1:B$116)</f>
-        <v>1</v>
-      </c>
-      <c r="J161" s="33">
-        <f t="shared" ref="J161" si="43">G161*B161-I161</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="161" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B161" s="33"/>
+      <c r="C161" s="32"/>
+      <c r="E161"/>
+      <c r="H161" s="22"/>
+      <c r="I161" s="18"/>
+      <c r="J161" s="33"/>
+      <c r="K161" s="35"/>
+    </row>
+    <row r="162" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B162" s="33">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K161" s="35">
-        <f>B161*H161</f>
-        <v>4.24</v>
-      </c>
-    </row>
-    <row r="162" spans="2:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B162" s="33">
-        <f>ROUNDUP(I162/G162,0)</f>
+      <c r="C162" s="32" t="s">
+        <v>772</v>
+      </c>
+      <c r="E162" t="s">
+        <v>771</v>
+      </c>
+      <c r="G162">
+        <v>10</v>
+      </c>
+      <c r="H162" s="22">
+        <v>2.35</v>
+      </c>
+      <c r="I162" s="18">
+        <f>SUMIF(C$1:C$148,"="&amp;C162,B$1:B$148)</f>
+        <v>0</v>
+      </c>
+      <c r="J162" s="33">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K162" s="35">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B163" s="33">
+        <f t="shared" ref="B163" si="10">ROUNDUP(I163/G163,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C163" s="32" t="s">
+        <v>782</v>
+      </c>
+      <c r="E163" t="s">
+        <v>783</v>
+      </c>
+      <c r="F163" t="s">
+        <v>785</v>
+      </c>
+      <c r="G163">
+        <v>50</v>
+      </c>
+      <c r="H163" s="22">
+        <v>3.65</v>
+      </c>
+      <c r="I163" s="18">
+        <f>SUMIF(C$1:C$148,"="&amp;C163,B$1:B$148)</f>
+        <v>12</v>
+      </c>
+      <c r="J163" s="33">
+        <f t="shared" ref="J163" si="11">G163*B163-I163</f>
+        <v>38</v>
+      </c>
+      <c r="K163" s="35">
+        <f t="shared" ref="K163" si="12">B163*H163</f>
+        <v>3.65</v>
+      </c>
+    </row>
+    <row r="164" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B164" s="33">
+        <f t="shared" ref="B164" si="13">ROUNDUP(I164/G164,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C164" s="32" t="s">
+        <v>812</v>
+      </c>
+      <c r="E164" t="s">
+        <v>813</v>
+      </c>
+      <c r="F164" t="s">
+        <v>785</v>
+      </c>
+      <c r="G164">
+        <v>10</v>
+      </c>
+      <c r="H164" s="22">
+        <v>2.41</v>
+      </c>
+      <c r="I164" s="18">
+        <f>SUMIF(C$1:C$148,"="&amp;C164,B$1:B$148)</f>
+        <v>4</v>
+      </c>
+      <c r="J164" s="33">
+        <f t="shared" ref="J164" si="14">G164*B164-I164</f>
+        <v>6</v>
+      </c>
+      <c r="K164" s="35">
+        <f t="shared" ref="K164" si="15">B164*H164</f>
+        <v>2.41</v>
+      </c>
+    </row>
+    <row r="165" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B165" s="33">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C165" s="32" t="s">
+        <v>774</v>
+      </c>
+      <c r="E165" t="s">
+        <v>650</v>
+      </c>
+      <c r="G165">
+        <v>100</v>
+      </c>
+      <c r="H165" s="22">
+        <v>2.09</v>
+      </c>
+      <c r="I165" s="18">
+        <f>SUMIF(C$1:C$148,"="&amp;C165,B$1:B$148)</f>
+        <v>15</v>
+      </c>
+      <c r="J165" s="33">
+        <f t="shared" si="6"/>
+        <v>85</v>
+      </c>
+      <c r="K165" s="35">
+        <f t="shared" si="5"/>
+        <v>2.09</v>
+      </c>
+    </row>
+    <row r="166" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B166" s="33">
+        <f t="shared" ref="B166" si="16">ROUNDUP(I166/G166,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C166" s="32" t="s">
+        <v>773</v>
+      </c>
+      <c r="E166" s="29" t="s">
+        <v>662</v>
+      </c>
+      <c r="G166">
+        <v>100</v>
+      </c>
+      <c r="H166" s="22">
+        <v>2.09</v>
+      </c>
+      <c r="I166" s="18">
+        <f>SUMIF(C$1:C$148,"="&amp;C166,B$1:B$148)</f>
+        <v>16</v>
+      </c>
+      <c r="J166" s="33">
+        <f t="shared" ref="J166" si="17">G166*B166-I166</f>
+        <v>84</v>
+      </c>
+      <c r="K166" s="35">
+        <f t="shared" si="5"/>
+        <v>2.09</v>
+      </c>
+    </row>
+    <row r="167" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B167" s="33">
+        <f t="shared" ref="B167:B170" si="18">ROUNDUP(I167/G167,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C167" s="32" t="s">
+        <v>777</v>
+      </c>
+      <c r="G167">
+        <v>100</v>
+      </c>
+      <c r="H167" s="22">
+        <v>2.09</v>
+      </c>
+      <c r="I167" s="18">
+        <f>SUMIF(C$1:C$148,"="&amp;C167,B$1:B$148)</f>
+        <v>12</v>
+      </c>
+      <c r="J167" s="33">
+        <f t="shared" ref="J167:J170" si="19">G167*B167-I167</f>
+        <v>88</v>
+      </c>
+      <c r="K167" s="35">
+        <f t="shared" ref="K167:K170" si="20">B167*H167</f>
+        <v>2.09</v>
+      </c>
+    </row>
+    <row r="168" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B168" s="33">
+        <f>ROUNDUP(I168/G168,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C168" t="s">
+        <v>770</v>
+      </c>
+      <c r="E168" t="s">
+        <v>768</v>
+      </c>
+      <c r="G168">
+        <v>1</v>
+      </c>
+      <c r="H168" s="22">
+        <v>0.4</v>
+      </c>
+      <c r="I168" s="18">
+        <f>SUMIF(C$1:C$148,"="&amp;C168,B$1:B$148)</f>
+        <v>1</v>
+      </c>
+      <c r="J168" s="33">
+        <f t="shared" ref="J168" si="21">G168*B168-I168</f>
+        <v>0</v>
+      </c>
+      <c r="K168" s="35">
+        <f t="shared" ref="K168" si="22">B168*H168</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="169" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B169" s="33"/>
+      <c r="C169" s="32"/>
+      <c r="H169" s="22"/>
+      <c r="I169" s="18"/>
+      <c r="J169" s="33"/>
+      <c r="K169" s="35"/>
+    </row>
+    <row r="170" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B170" s="33">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="C170" s="32" t="s">
+        <v>808</v>
+      </c>
+      <c r="E170" s="29" t="s">
+        <v>670</v>
+      </c>
+      <c r="G170">
+        <v>50</v>
+      </c>
+      <c r="H170" s="22">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="I170" s="18">
+        <f>SUMIF(C$1:C$148,"="&amp;C170,B$1:B$148)</f>
+        <v>1</v>
+      </c>
+      <c r="J170" s="33">
+        <f t="shared" si="19"/>
+        <v>49</v>
+      </c>
+      <c r="K170" s="35">
+        <f t="shared" si="20"/>
+        <v>4.8899999999999997</v>
+      </c>
+    </row>
+    <row r="171" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B171" s="33">
+        <f t="shared" ref="B171" si="23">ROUNDUP(I171/G171,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C171" s="32" t="s">
+        <v>806</v>
+      </c>
+      <c r="E171" s="29" t="s">
+        <v>807</v>
+      </c>
+      <c r="G171">
+        <v>20</v>
+      </c>
+      <c r="H171" s="22">
+        <v>3.89</v>
+      </c>
+      <c r="I171" s="18">
+        <f>SUMIF(C$1:C$148,"="&amp;C171,B$1:B$148)</f>
         <v>2</v>
       </c>
-      <c r="C162" t="s">
-        <v>832</v>
-      </c>
-      <c r="E162" s="26" t="s">
-        <v>752</v>
-      </c>
-      <c r="G162">
-        <v>1</v>
-      </c>
-      <c r="H162" s="22">
-        <v>4.4400000000000004</v>
-      </c>
-      <c r="I162" s="18">
-        <f>SUMIF(C$1:C$116,"="&amp;C162,B$1:B$116)</f>
+      <c r="J171" s="33">
+        <f t="shared" ref="J171" si="24">G171*B171-I171</f>
+        <v>18</v>
+      </c>
+      <c r="K171" s="35">
+        <f t="shared" ref="K171" si="25">B171*H171</f>
+        <v>3.89</v>
+      </c>
+    </row>
+    <row r="172" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B172" s="33">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C172" s="32" t="s">
+        <v>843</v>
+      </c>
+      <c r="E172" s="29" t="s">
+        <v>696</v>
+      </c>
+      <c r="G172">
+        <v>100</v>
+      </c>
+      <c r="H172" s="22">
+        <v>1.79</v>
+      </c>
+      <c r="I172" s="18">
+        <f>SUMIF(C$1:C$148,"="&amp;C172,B$1:B$148)</f>
+        <v>67</v>
+      </c>
+      <c r="J172" s="33">
+        <f t="shared" si="6"/>
+        <v>33</v>
+      </c>
+      <c r="K172" s="35">
+        <f t="shared" si="5"/>
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="173" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B173" s="33">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C173" s="32" t="s">
+        <v>710</v>
+      </c>
+      <c r="E173" s="9" t="s">
+        <v>711</v>
+      </c>
+      <c r="G173">
+        <v>100</v>
+      </c>
+      <c r="H173" s="22">
+        <v>1.79</v>
+      </c>
+      <c r="I173" s="18">
+        <f>SUMIF(C$1:C$148,"="&amp;C173,B$1:B$148)</f>
+        <v>6</v>
+      </c>
+      <c r="J173" s="33">
+        <f>G173*B173-I173</f>
+        <v>94</v>
+      </c>
+      <c r="K173" s="35">
+        <f t="shared" si="5"/>
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="174" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B174" s="33">
+        <f t="shared" ref="B174:B175" si="26">ROUNDUP(I174/G174,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C174" s="32" t="s">
+        <v>809</v>
+      </c>
+      <c r="E174" s="9" t="s">
+        <v>838</v>
+      </c>
+      <c r="G174">
+        <v>50</v>
+      </c>
+      <c r="H174" s="22">
+        <v>4.33</v>
+      </c>
+      <c r="I174" s="18">
+        <f>SUMIF(C$1:C$148,"="&amp;C174,B$1:B$148)</f>
+        <v>4</v>
+      </c>
+      <c r="J174" s="33">
+        <f>G174*B174-I174</f>
+        <v>46</v>
+      </c>
+      <c r="K174" s="35">
+        <f t="shared" ref="K174:K175" si="27">B174*H174</f>
+        <v>4.33</v>
+      </c>
+    </row>
+    <row r="175" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B175" s="33">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="C175" s="32" t="s">
+        <v>842</v>
+      </c>
+      <c r="E175" s="9" t="s">
+        <v>837</v>
+      </c>
+      <c r="G175">
+        <v>10</v>
+      </c>
+      <c r="H175" s="22">
+        <v>1.98</v>
+      </c>
+      <c r="I175" s="18">
+        <f>SUMIF(C$1:C$148,"="&amp;C175,B$1:B$148)</f>
+        <v>8</v>
+      </c>
+      <c r="J175" s="33">
+        <f>G175*B175-I175</f>
         <v>2</v>
       </c>
-      <c r="J162" s="33">
-        <f t="shared" ref="J162" si="44">G162*B162-I162</f>
+      <c r="K175" s="35">
+        <f t="shared" si="27"/>
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="176" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B176" s="33">
+        <f>ROUNDUP(I176/G176,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C176" t="s">
+        <v>723</v>
+      </c>
+      <c r="E176" s="26" t="s">
+        <v>690</v>
+      </c>
+      <c r="G176">
+        <v>500</v>
+      </c>
+      <c r="H176" s="22">
+        <v>4.49</v>
+      </c>
+      <c r="I176" s="18">
+        <f>SUMIF(C$1:C$148,"="&amp;C176,B$1:B$148)</f>
+        <v>136</v>
+      </c>
+      <c r="J176" s="33">
+        <f t="shared" ref="J176" si="28">G176*B176-I176</f>
+        <v>364</v>
+      </c>
+      <c r="K176" s="35">
+        <f t="shared" si="5"/>
+        <v>4.49</v>
+      </c>
+    </row>
+    <row r="177" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B177" s="33">
+        <f>ROUNDUP(I177/G177,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C177" t="s">
+        <v>749</v>
+      </c>
+      <c r="E177" s="26" t="s">
+        <v>647</v>
+      </c>
+      <c r="G177">
+        <v>500</v>
+      </c>
+      <c r="H177" s="22">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="I177" s="18">
+        <f>SUMIF(C$1:C$148,"="&amp;C177,B$1:B$148)</f>
+        <v>50</v>
+      </c>
+      <c r="J177" s="33">
+        <f t="shared" ref="J177:J178" si="29">G177*B177-I177</f>
+        <v>450</v>
+      </c>
+      <c r="K177" s="35">
+        <f t="shared" si="5"/>
+        <v>2.4900000000000002</v>
+      </c>
+    </row>
+    <row r="178" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B178" s="33">
+        <f>ROUNDUP(I178/G178,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C178" t="s">
+        <v>795</v>
+      </c>
+      <c r="E178" s="26" t="s">
+        <v>796</v>
+      </c>
+      <c r="G178">
+        <v>500</v>
+      </c>
+      <c r="H178" s="22">
+        <v>4.49</v>
+      </c>
+      <c r="I178" s="18">
+        <f>SUMIF(C$1:C$148,"="&amp;C178,B$1:B$148)</f>
+        <v>182</v>
+      </c>
+      <c r="J178" s="33">
+        <f t="shared" si="29"/>
+        <v>318</v>
+      </c>
+      <c r="K178" s="35">
+        <f t="shared" ref="K178" si="30">B178*H178</f>
+        <v>4.49</v>
+      </c>
+    </row>
+    <row r="179" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B179" s="33"/>
+      <c r="E179" s="26"/>
+      <c r="H179" s="22"/>
+      <c r="I179" s="18"/>
+      <c r="J179" s="33"/>
+      <c r="K179" s="35"/>
+    </row>
+    <row r="180" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B180" s="33">
+        <f>ROUNDUP(I180/G180,0)</f>
+        <v>4</v>
+      </c>
+      <c r="C180" s="32" t="s">
+        <v>859</v>
+      </c>
+      <c r="E180" t="s">
+        <v>858</v>
+      </c>
+      <c r="G180">
+        <v>1</v>
+      </c>
+      <c r="H180" s="22">
+        <v>0.16</v>
+      </c>
+      <c r="I180" s="18">
+        <f>SUMIF(C$1:C$148,"="&amp;C180,B$1:B$148)</f>
+        <v>4</v>
+      </c>
+      <c r="J180" s="33">
+        <f t="shared" ref="J180" si="31">G180*B180-I180</f>
         <v>0</v>
       </c>
-      <c r="K162" s="35">
-        <f>B162*H162</f>
-        <v>8.8800000000000008</v>
-      </c>
-    </row>
-    <row r="163" spans="2:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B163" s="33">
-        <v>1</v>
-      </c>
-      <c r="C163" t="s">
-        <v>830</v>
-      </c>
-      <c r="D163" s="32"/>
-      <c r="E163" s="29" t="s">
-        <v>820</v>
-      </c>
-      <c r="G163">
-        <v>1</v>
-      </c>
-      <c r="H163" s="22">
-        <v>7.44</v>
-      </c>
-      <c r="I163" s="18">
-        <f>SUMIF(C$1:C$116,"="&amp;C163,B$1:B$116)</f>
-        <v>1</v>
-      </c>
-      <c r="J163" s="33">
-        <f t="shared" ref="J163" si="45">G163*B163-I163</f>
-        <v>0</v>
-      </c>
-      <c r="K163" s="35">
-        <f t="shared" ref="K163" si="46">B163*H163</f>
-        <v>7.44</v>
-      </c>
-    </row>
-    <row r="164" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B164" s="33">
-        <v>1</v>
-      </c>
-      <c r="C164" t="s">
-        <v>831</v>
-      </c>
-      <c r="D164" s="32"/>
-      <c r="E164" s="29" t="s">
-        <v>820</v>
-      </c>
-      <c r="G164">
-        <v>1</v>
-      </c>
-      <c r="H164" s="22">
-        <v>8.8699999999999992</v>
-      </c>
-      <c r="I164" s="18">
-        <f>SUMIF(C$1:C$116,"="&amp;C164,B$1:B$116)</f>
-        <v>1</v>
-      </c>
-      <c r="J164" s="33">
-        <f t="shared" ref="J164" si="47">G164*B164-I164</f>
-        <v>0</v>
-      </c>
-      <c r="K164" s="35">
-        <f t="shared" ref="K164" si="48">B164*H164</f>
-        <v>8.8699999999999992</v>
-      </c>
-    </row>
-    <row r="165" spans="2:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B165" s="33"/>
-      <c r="D165" s="32"/>
-      <c r="H165" s="22"/>
-      <c r="I165" s="18"/>
-      <c r="J165" s="33"/>
-      <c r="K165" s="35"/>
-    </row>
-    <row r="166" spans="2:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B166" s="33">
-        <v>1</v>
-      </c>
-      <c r="C166" s="32" t="s">
-        <v>691</v>
-      </c>
-      <c r="E166" s="26" t="s">
-        <v>693</v>
-      </c>
-      <c r="G166">
-        <v>1</v>
-      </c>
-      <c r="H166" s="22">
-        <v>14.5</v>
-      </c>
-      <c r="I166" s="18">
-        <f>SUMIF(C$1:C$116,"="&amp;C166,B$1:B$116)</f>
-        <v>1</v>
-      </c>
-      <c r="J166" s="33">
+      <c r="K180" s="35">
+        <f t="shared" ref="K180" si="32">B180*H180</f>
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="181" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B181" s="33">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C181" s="32" t="s">
+        <v>775</v>
+      </c>
+      <c r="E181" s="9" t="s">
+        <v>715</v>
+      </c>
+      <c r="G181">
+        <v>1</v>
+      </c>
+      <c r="H181" s="22">
+        <v>0.15</v>
+      </c>
+      <c r="I181" s="18">
+        <f>SUMIF(C$1:C$148,"="&amp;C181,B$1:B$148)</f>
+        <v>9</v>
+      </c>
+      <c r="J181" s="33">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K166" s="35">
+      <c r="K181" s="35">
+        <f t="shared" si="5"/>
+        <v>1.3499999999999999</v>
+      </c>
+    </row>
+    <row r="182" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B182" s="33">
+        <f t="shared" ref="B182" si="33">ROUNDUP(I182/G182,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C182" t="s">
+        <v>844</v>
+      </c>
+      <c r="E182" s="29" t="s">
+        <v>729</v>
+      </c>
+      <c r="G182">
+        <v>1</v>
+      </c>
+      <c r="H182" s="22">
+        <v>0.08</v>
+      </c>
+      <c r="I182" s="18">
+        <f>SUMIF(C$1:C$148,"="&amp;C182,B$1:B$148)</f>
+        <v>0</v>
+      </c>
+      <c r="J182" s="33">
+        <f t="shared" ref="J182" si="34">G182*B182-I182</f>
+        <v>0</v>
+      </c>
+      <c r="K182" s="35">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B183" s="33">
+        <f>ROUNDUP(I183/G183,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C183" t="s">
+        <v>743</v>
+      </c>
+      <c r="E183" s="26" t="s">
+        <v>744</v>
+      </c>
+      <c r="G183">
+        <v>10</v>
+      </c>
+      <c r="H183" s="22">
+        <v>2.59</v>
+      </c>
+      <c r="I183" s="18">
+        <f>SUMIF(C$1:C$148,"="&amp;C183,B$1:B$148)</f>
+        <v>2</v>
+      </c>
+      <c r="J183" s="33">
+        <f t="shared" ref="J183" si="35">G183*B183-I183</f>
+        <v>8</v>
+      </c>
+      <c r="K183" s="35">
+        <f>B183*H183</f>
+        <v>2.59</v>
+      </c>
+    </row>
+    <row r="184" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B184" s="33"/>
+      <c r="H184" s="22"/>
+      <c r="I184" s="18"/>
+      <c r="J184" s="33"/>
+      <c r="K184" s="35"/>
+    </row>
+    <row r="185" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B185" s="33">
+        <f t="shared" ref="B185:B189" si="36">ROUNDUP(I185/G185,0)</f>
+        <v>4</v>
+      </c>
+      <c r="C185" t="s">
+        <v>676</v>
+      </c>
+      <c r="E185" s="29" t="s">
+        <v>681</v>
+      </c>
+      <c r="G185">
+        <v>1</v>
+      </c>
+      <c r="H185" s="22">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="I185" s="18">
+        <f>SUMIF(C$1:C$148,"="&amp;C185,B$1:B$148)</f>
+        <v>4</v>
+      </c>
+      <c r="J185" s="33">
+        <f t="shared" ref="J185" si="37">G185*B185-I185</f>
+        <v>0</v>
+      </c>
+      <c r="K185" s="35">
+        <f t="shared" si="5"/>
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="186" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B186" s="33">
+        <f t="shared" si="36"/>
+        <v>1</v>
+      </c>
+      <c r="C186" t="s">
+        <v>683</v>
+      </c>
+      <c r="E186" s="29" t="s">
+        <v>682</v>
+      </c>
+      <c r="G186">
+        <v>1</v>
+      </c>
+      <c r="H186" s="22">
+        <v>5.44</v>
+      </c>
+      <c r="I186" s="18">
+        <f>SUMIF(C$1:C$148,"="&amp;C186,B$1:B$148)</f>
+        <v>1</v>
+      </c>
+      <c r="J186" s="33">
+        <f t="shared" ref="J186:J188" si="38">G186*B186-I186</f>
+        <v>0</v>
+      </c>
+      <c r="K186" s="35">
+        <f t="shared" si="5"/>
+        <v>5.44</v>
+      </c>
+    </row>
+    <row r="187" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B187" s="33">
+        <f t="shared" si="36"/>
+        <v>1</v>
+      </c>
+      <c r="C187" t="s">
+        <v>724</v>
+      </c>
+      <c r="E187" s="29" t="s">
+        <v>686</v>
+      </c>
+      <c r="G187">
+        <v>1</v>
+      </c>
+      <c r="H187" s="22">
+        <v>4.46</v>
+      </c>
+      <c r="I187" s="18">
+        <f>SUMIF(C$1:C$148,"="&amp;C187,B$1:B$148)</f>
+        <v>1</v>
+      </c>
+      <c r="J187" s="33">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="K187" s="35">
+        <f t="shared" si="5"/>
+        <v>4.46</v>
+      </c>
+    </row>
+    <row r="188" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B188" s="33">
+        <f t="shared" si="36"/>
+        <v>1</v>
+      </c>
+      <c r="C188" t="s">
+        <v>725</v>
+      </c>
+      <c r="E188" s="29" t="s">
+        <v>684</v>
+      </c>
+      <c r="G188">
+        <v>1</v>
+      </c>
+      <c r="H188" s="22">
+        <v>5.01</v>
+      </c>
+      <c r="I188" s="18">
+        <f>SUMIF(C$1:C$148,"="&amp;C188,B$1:B$148)</f>
+        <v>1</v>
+      </c>
+      <c r="J188" s="33">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="K188" s="35">
+        <f t="shared" si="5"/>
+        <v>5.01</v>
+      </c>
+    </row>
+    <row r="189" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B189" s="33">
+        <f t="shared" si="36"/>
+        <v>1</v>
+      </c>
+      <c r="C189" t="s">
+        <v>767</v>
+      </c>
+      <c r="E189" s="26" t="s">
+        <v>766</v>
+      </c>
+      <c r="G189">
+        <v>1</v>
+      </c>
+      <c r="H189" s="22">
+        <v>6.34</v>
+      </c>
+      <c r="I189" s="18">
+        <f>SUMIF(C$1:C$148,"="&amp;C189,B$1:B$148)</f>
+        <v>1</v>
+      </c>
+      <c r="J189" s="33">
+        <f t="shared" ref="J189" si="39">G189*B189-I189</f>
+        <v>0</v>
+      </c>
+      <c r="K189" s="35">
+        <f t="shared" ref="K189" si="40">B189*H189</f>
+        <v>6.34</v>
+      </c>
+    </row>
+    <row r="190" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B190" s="33">
+        <v>1</v>
+      </c>
+      <c r="C190" t="s">
+        <v>799</v>
+      </c>
+      <c r="D190" s="32"/>
+      <c r="E190" s="26" t="s">
+        <v>798</v>
+      </c>
+      <c r="G190">
+        <v>1</v>
+      </c>
+      <c r="H190" s="22">
+        <v>11.6</v>
+      </c>
+      <c r="I190" s="18">
+        <f>SUMIF(C$1:C$148,"="&amp;C190,B$1:B$148)</f>
+        <v>2</v>
+      </c>
+      <c r="J190" s="33">
+        <f t="shared" ref="J190:J191" si="41">G190*B190-I190</f>
+        <v>-1</v>
+      </c>
+      <c r="K190" s="35">
+        <f t="shared" ref="K190:K191" si="42">B190*H190</f>
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="191" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B191" s="33">
+        <v>1</v>
+      </c>
+      <c r="C191" t="s">
+        <v>819</v>
+      </c>
+      <c r="D191" s="32"/>
+      <c r="E191" s="29" t="s">
+        <v>820</v>
+      </c>
+      <c r="G191">
+        <v>1</v>
+      </c>
+      <c r="H191" s="22">
+        <v>5.66</v>
+      </c>
+      <c r="I191" s="18">
+        <f>SUMIF(C$1:C$148,"="&amp;C191,B$1:B$148)</f>
+        <v>4</v>
+      </c>
+      <c r="J191" s="33">
+        <f t="shared" si="41"/>
+        <v>-3</v>
+      </c>
+      <c r="K191" s="35">
+        <f t="shared" si="42"/>
+        <v>5.66</v>
+      </c>
+    </row>
+    <row r="192" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B192" s="33">
+        <v>1</v>
+      </c>
+      <c r="C192" t="s">
+        <v>801</v>
+      </c>
+      <c r="D192" s="32"/>
+      <c r="E192" s="29" t="s">
+        <v>800</v>
+      </c>
+      <c r="G192">
+        <v>1</v>
+      </c>
+      <c r="H192" s="22">
+        <v>5.23</v>
+      </c>
+      <c r="I192" s="18">
+        <f>SUMIF(C$1:C$148,"="&amp;C192,B$1:B$148)</f>
+        <v>0</v>
+      </c>
+      <c r="J192" s="33">
+        <f t="shared" ref="J192" si="43">G192*B192-I192</f>
+        <v>1</v>
+      </c>
+      <c r="K192" s="35">
+        <f t="shared" ref="K192" si="44">B192*H192</f>
+        <v>5.23</v>
+      </c>
+    </row>
+    <row r="193" spans="2:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B193" s="33">
+        <v>1</v>
+      </c>
+      <c r="C193" s="32" t="s">
+        <v>825</v>
+      </c>
+      <c r="D193" s="32"/>
+      <c r="E193" s="29" t="s">
+        <v>701</v>
+      </c>
+      <c r="G193">
+        <v>1</v>
+      </c>
+      <c r="H193" s="22">
+        <v>4.96</v>
+      </c>
+      <c r="I193" s="18">
+        <f>SUMIF(C$1:C$148,"="&amp;C193,B$1:B$148)</f>
+        <v>1</v>
+      </c>
+      <c r="J193" s="33">
+        <f>G193*B193-I193</f>
+        <v>0</v>
+      </c>
+      <c r="K193" s="35">
+        <f>B193*H193</f>
+        <v>4.96</v>
+      </c>
+    </row>
+    <row r="194" spans="2:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B194" s="33">
+        <v>1</v>
+      </c>
+      <c r="C194" t="s">
+        <v>826</v>
+      </c>
+      <c r="D194" s="32"/>
+      <c r="E194" s="29" t="s">
+        <v>727</v>
+      </c>
+      <c r="G194">
+        <v>1</v>
+      </c>
+      <c r="H194" s="22">
+        <v>4.24</v>
+      </c>
+      <c r="I194" s="18">
+        <f>SUMIF(C$1:C$148,"="&amp;C194,B$1:B$148)</f>
+        <v>1</v>
+      </c>
+      <c r="J194" s="33">
+        <f t="shared" ref="J194" si="45">G194*B194-I194</f>
+        <v>0</v>
+      </c>
+      <c r="K194" s="35">
+        <f>B194*H194</f>
+        <v>4.24</v>
+      </c>
+    </row>
+    <row r="195" spans="2:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B195" s="33">
+        <f>ROUNDUP(I195/G195,0)</f>
+        <v>2</v>
+      </c>
+      <c r="C195" t="s">
+        <v>829</v>
+      </c>
+      <c r="E195" s="26" t="s">
+        <v>751</v>
+      </c>
+      <c r="G195">
+        <v>1</v>
+      </c>
+      <c r="H195" s="22">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="I195" s="18">
+        <f>SUMIF(C$1:C$148,"="&amp;C195,B$1:B$148)</f>
+        <v>2</v>
+      </c>
+      <c r="J195" s="33">
+        <f t="shared" ref="J195" si="46">G195*B195-I195</f>
+        <v>0</v>
+      </c>
+      <c r="K195" s="35">
+        <f>B195*H195</f>
+        <v>8.8800000000000008</v>
+      </c>
+    </row>
+    <row r="196" spans="2:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B196" s="33">
+        <v>1</v>
+      </c>
+      <c r="C196" t="s">
+        <v>827</v>
+      </c>
+      <c r="D196" s="32"/>
+      <c r="E196" s="29" t="s">
+        <v>817</v>
+      </c>
+      <c r="G196">
+        <v>1</v>
+      </c>
+      <c r="H196" s="22">
+        <v>7.44</v>
+      </c>
+      <c r="I196" s="18">
+        <f>SUMIF(C$1:C$148,"="&amp;C196,B$1:B$148)</f>
+        <v>2</v>
+      </c>
+      <c r="J196" s="33">
+        <f t="shared" ref="J196" si="47">G196*B196-I196</f>
+        <v>-1</v>
+      </c>
+      <c r="K196" s="35">
+        <f t="shared" ref="K196" si="48">B196*H196</f>
+        <v>7.44</v>
+      </c>
+    </row>
+    <row r="197" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B197" s="33">
+        <v>1</v>
+      </c>
+      <c r="C197" t="s">
+        <v>828</v>
+      </c>
+      <c r="D197" s="32"/>
+      <c r="E197" s="29" t="s">
+        <v>817</v>
+      </c>
+      <c r="G197">
+        <v>1</v>
+      </c>
+      <c r="H197" s="22">
+        <v>8.8699999999999992</v>
+      </c>
+      <c r="I197" s="18">
+        <f>SUMIF(C$1:C$148,"="&amp;C197,B$1:B$148)</f>
+        <v>1</v>
+      </c>
+      <c r="J197" s="33">
+        <f t="shared" ref="J197" si="49">G197*B197-I197</f>
+        <v>0</v>
+      </c>
+      <c r="K197" s="35">
+        <f t="shared" ref="K197" si="50">B197*H197</f>
+        <v>8.8699999999999992</v>
+      </c>
+    </row>
+    <row r="198" spans="2:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B198" s="33">
+        <v>1</v>
+      </c>
+      <c r="C198" t="s">
+        <v>851</v>
+      </c>
+      <c r="D198" s="32"/>
+      <c r="E198" s="29" t="s">
+        <v>850</v>
+      </c>
+      <c r="G198">
+        <v>1</v>
+      </c>
+      <c r="H198" s="22">
+        <v>7.88</v>
+      </c>
+      <c r="I198" s="18">
+        <f>SUMIF(C$1:C$148,"="&amp;C198,B$1:B$148)</f>
+        <v>1</v>
+      </c>
+      <c r="J198" s="33">
+        <f t="shared" ref="J198" si="51">G198*B198-I198</f>
+        <v>0</v>
+      </c>
+      <c r="K198" s="35">
+        <f t="shared" ref="K198" si="52">B198*H198</f>
+        <v>7.88</v>
+      </c>
+    </row>
+    <row r="199" spans="2:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B199" s="33">
+        <v>1</v>
+      </c>
+      <c r="C199" t="s">
+        <v>852</v>
+      </c>
+      <c r="D199" s="32"/>
+      <c r="E199" s="29" t="s">
+        <v>853</v>
+      </c>
+      <c r="G199">
+        <v>1</v>
+      </c>
+      <c r="H199" s="22">
+        <v>7.88</v>
+      </c>
+      <c r="I199" s="18">
+        <f>SUMIF(C$1:C$148,"="&amp;C199,B$1:B$148)</f>
+        <v>1</v>
+      </c>
+      <c r="J199" s="33">
+        <f t="shared" ref="J199" si="53">G199*B199-I199</f>
+        <v>0</v>
+      </c>
+      <c r="K199" s="35">
+        <f t="shared" ref="K199" si="54">B199*H199</f>
+        <v>7.88</v>
+      </c>
+    </row>
+    <row r="200" spans="2:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B200" s="33">
+        <v>1</v>
+      </c>
+      <c r="C200" t="s">
+        <v>827</v>
+      </c>
+      <c r="D200" s="32"/>
+      <c r="E200" s="29" t="s">
+        <v>817</v>
+      </c>
+      <c r="G200">
+        <v>1</v>
+      </c>
+      <c r="H200" s="22">
+        <v>7.13</v>
+      </c>
+      <c r="I200" s="18">
+        <f>SUMIF(C$1:C$148,"="&amp;C200,B$1:B$148)</f>
+        <v>2</v>
+      </c>
+      <c r="J200" s="33">
+        <f t="shared" ref="J200" si="55">G200*B200-I200</f>
+        <v>-1</v>
+      </c>
+      <c r="K200" s="35">
+        <f t="shared" ref="K200" si="56">B200*H200</f>
+        <v>7.13</v>
+      </c>
+    </row>
+    <row r="201" spans="2:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B201" s="33"/>
+      <c r="D201" s="32"/>
+      <c r="H201" s="22"/>
+      <c r="I201" s="18"/>
+      <c r="J201" s="33"/>
+      <c r="K201" s="35"/>
+    </row>
+    <row r="202" spans="2:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B202" s="33">
+        <v>1</v>
+      </c>
+      <c r="C202" s="32" t="s">
+        <v>691</v>
+      </c>
+      <c r="E202" s="26" t="s">
+        <v>693</v>
+      </c>
+      <c r="G202">
+        <v>1</v>
+      </c>
+      <c r="H202" s="22">
+        <v>14.5</v>
+      </c>
+      <c r="I202" s="18">
+        <f>SUMIF(C$1:C$148,"="&amp;C202,B$1:B$148)</f>
+        <v>1</v>
+      </c>
+      <c r="J202" s="33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K202" s="35">
         <f t="shared" si="5"/>
         <v>14.5</v>
       </c>
     </row>
-    <row r="167" spans="2:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B167" s="33">
-        <v>1</v>
-      </c>
-      <c r="C167" s="32" t="s">
+    <row r="203" spans="2:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B203" s="33">
+        <v>1</v>
+      </c>
+      <c r="C203" s="32" t="s">
+        <v>762</v>
+      </c>
+      <c r="E203" s="26" t="s">
         <v>763</v>
       </c>
-      <c r="E167" s="26" t="s">
-        <v>764</v>
-      </c>
-      <c r="G167">
-        <v>1</v>
-      </c>
-      <c r="H167" s="22">
+      <c r="G203">
+        <v>1</v>
+      </c>
+      <c r="H203" s="22">
         <v>8.5</v>
       </c>
-      <c r="I167" s="18">
-        <f>SUMIF(C$1:C$116,"="&amp;C167,B$1:B$116)</f>
-        <v>1</v>
-      </c>
-      <c r="J167" s="33">
-        <f t="shared" ref="J167" si="49">G167*B167-I167</f>
+      <c r="I203" s="18">
+        <f>SUMIF(C$1:C$148,"="&amp;C203,B$1:B$148)</f>
+        <v>1</v>
+      </c>
+      <c r="J203" s="33">
+        <f t="shared" ref="J203" si="57">G203*B203-I203</f>
         <v>0</v>
       </c>
-      <c r="K167" s="35">
-        <f t="shared" ref="K167" si="50">B167*H167</f>
+      <c r="K203" s="35">
+        <f t="shared" ref="K203" si="58">B203*H203</f>
         <v>8.5</v>
       </c>
     </row>
-    <row r="168" spans="2:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B168" s="33">
-        <v>1</v>
-      </c>
-      <c r="C168" s="32" t="s">
-        <v>827</v>
-      </c>
-      <c r="E168" s="26" t="s">
-        <v>826</v>
-      </c>
-      <c r="G168">
-        <v>1</v>
-      </c>
-      <c r="H168" s="22">
+    <row r="204" spans="2:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B204" s="33">
+        <v>1</v>
+      </c>
+      <c r="C204" s="32" t="s">
+        <v>824</v>
+      </c>
+      <c r="E204" s="26" t="s">
+        <v>823</v>
+      </c>
+      <c r="G204">
+        <v>1</v>
+      </c>
+      <c r="H204" s="22">
         <v>54.2</v>
       </c>
-      <c r="I168" s="18">
-        <f>SUMIF(C$1:C$116,"="&amp;C168,B$1:B$116)</f>
-        <v>1</v>
-      </c>
-      <c r="J168" s="33">
-        <f t="shared" ref="J168" si="51">G168*B168-I168</f>
+      <c r="I204" s="18">
+        <f>SUMIF(C$1:C$148,"="&amp;C204,B$1:B$148)</f>
+        <v>1</v>
+      </c>
+      <c r="J204" s="33">
+        <f t="shared" ref="J204" si="59">G204*B204-I204</f>
         <v>0</v>
       </c>
-      <c r="K168" s="35">
-        <f t="shared" ref="K168" si="52">B168*H168</f>
+      <c r="K204" s="35">
+        <f t="shared" ref="K204" si="60">B204*H204</f>
         <v>54.2</v>
       </c>
     </row>
-    <row r="169" spans="2:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B169" s="33">
-        <f t="shared" ref="B169:B180" si="53">ROUNDUP(I169/G169,0)</f>
-        <v>3</v>
-      </c>
-      <c r="C169" s="32" t="s">
+    <row r="205" spans="2:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B205" s="33">
+        <v>1</v>
+      </c>
+      <c r="C205" s="32" t="s">
+        <v>861</v>
+      </c>
+      <c r="E205" s="26" t="s">
+        <v>862</v>
+      </c>
+      <c r="G205">
+        <v>1</v>
+      </c>
+      <c r="H205" s="22">
+        <v>37</v>
+      </c>
+      <c r="I205" s="18">
+        <f>SUMIF(C$1:C$148,"="&amp;C205,B$1:B$148)</f>
+        <v>1</v>
+      </c>
+      <c r="J205" s="33">
+        <f t="shared" ref="J205" si="61">G205*B205-I205</f>
+        <v>0</v>
+      </c>
+      <c r="K205" s="35">
+        <f t="shared" ref="K205" si="62">B205*H205</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="206" spans="2:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B206" s="33">
+        <f t="shared" ref="B206:B216" si="63">ROUNDUP(I206/G206,0)</f>
+        <v>4</v>
+      </c>
+      <c r="C206" s="32" t="s">
         <v>704</v>
       </c>
-      <c r="E169" s="9" t="s">
+      <c r="E206" s="9" t="s">
         <v>562</v>
       </c>
-      <c r="G169">
-        <v>1</v>
-      </c>
-      <c r="H169" s="22">
+      <c r="G206">
+        <v>1</v>
+      </c>
+      <c r="H206" s="22">
         <v>14.53</v>
       </c>
-      <c r="I169" s="18">
-        <f>SUMIF(C$1:C$116,"="&amp;C169,B$1:B$116)</f>
-        <v>3</v>
-      </c>
-      <c r="J169" s="33">
+      <c r="I206" s="18">
+        <f>SUMIF(C$1:C$148,"="&amp;C206,B$1:B$148)</f>
+        <v>4</v>
+      </c>
+      <c r="J206" s="33">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K169" s="35">
+      <c r="K206" s="35">
         <f t="shared" si="5"/>
-        <v>43.589999999999996</v>
-      </c>
-    </row>
-    <row r="170" spans="2:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B170" s="33">
-        <f t="shared" si="53"/>
-        <v>1</v>
-      </c>
-      <c r="C170" s="32" t="s">
+        <v>58.12</v>
+      </c>
+      <c r="L206" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="207" spans="2:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B207" s="33">
+        <f t="shared" si="63"/>
+        <v>1</v>
+      </c>
+      <c r="C207" s="32" t="s">
+        <v>830</v>
+      </c>
+      <c r="E207" s="9" t="s">
+        <v>832</v>
+      </c>
+      <c r="G207">
+        <v>1</v>
+      </c>
+      <c r="H207" s="22">
+        <v>36.42</v>
+      </c>
+      <c r="I207" s="18">
+        <f>SUMIF(C$1:C$148,"="&amp;C207,B$1:B$148)</f>
+        <v>1</v>
+      </c>
+      <c r="J207" s="33">
+        <f t="shared" ref="J207" si="64">G207*B207-I207</f>
+        <v>0</v>
+      </c>
+      <c r="K207" s="35">
+        <f t="shared" ref="K207" si="65">B207*H207</f>
+        <v>36.42</v>
+      </c>
+      <c r="L207" t="s">
         <v>833</v>
       </c>
-      <c r="E170" s="9" t="s">
-        <v>835</v>
-      </c>
-      <c r="G170">
-        <v>1</v>
-      </c>
-      <c r="H170" s="22">
-        <v>36.42</v>
-      </c>
-      <c r="I170" s="18">
-        <f>SUMIF(C$1:C$116,"="&amp;C170,B$1:B$116)</f>
-        <v>1</v>
-      </c>
-      <c r="J170" s="33">
-        <f t="shared" ref="J170" si="54">G170*B170-I170</f>
-        <v>0</v>
-      </c>
-      <c r="K170" s="35">
-        <f t="shared" ref="K170" si="55">B170*H170</f>
-        <v>36.42</v>
-      </c>
-      <c r="L170" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="171" spans="2:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B171" s="33"/>
-      <c r="C171" s="32"/>
-      <c r="E171" s="9"/>
-      <c r="H171" s="22"/>
-      <c r="I171" s="18"/>
-      <c r="J171" s="33"/>
-      <c r="K171" s="35"/>
-    </row>
-    <row r="172" spans="2:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B172" s="33">
-        <f t="shared" si="53"/>
+    </row>
+    <row r="208" spans="2:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B208" s="33"/>
+      <c r="C208" s="32"/>
+      <c r="E208" s="9"/>
+      <c r="H208" s="22"/>
+      <c r="I208" s="18"/>
+      <c r="J208" s="33"/>
+      <c r="K208" s="35"/>
+    </row>
+    <row r="209" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B209" s="33">
+        <f t="shared" si="63"/>
         <v>2</v>
       </c>
-      <c r="C172" s="32" t="s">
+      <c r="C209" s="32" t="s">
         <v>714</v>
       </c>
-      <c r="D172" s="32"/>
-      <c r="E172" s="29" t="s">
+      <c r="D209" s="32"/>
+      <c r="E209" s="29" t="s">
         <v>712</v>
       </c>
-      <c r="G172">
-        <v>1</v>
-      </c>
-      <c r="H172" s="22">
+      <c r="G209">
+        <v>1</v>
+      </c>
+      <c r="H209" s="22">
         <v>1.54</v>
       </c>
-      <c r="I172" s="18">
-        <f>SUMIF(C$1:C$116,"="&amp;C172,B$1:B$116)</f>
+      <c r="I209" s="18">
+        <f>SUMIF(C$1:C$148,"="&amp;C209,B$1:B$148)</f>
         <v>2</v>
       </c>
-      <c r="J172" s="33">
+      <c r="J209" s="33">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K172" s="35">
+      <c r="K209" s="35">
         <f t="shared" si="5"/>
         <v>3.08</v>
       </c>
     </row>
-    <row r="173" spans="2:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B173" s="33">
-        <f t="shared" ref="B173" si="56">ROUNDUP(I173/G173,0)</f>
+    <row r="210" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B210" s="33">
+        <f t="shared" ref="B210" si="66">ROUNDUP(I210/G210,0)</f>
         <v>8</v>
       </c>
-      <c r="C173" s="32" t="s">
-        <v>819</v>
-      </c>
-      <c r="D173" s="32"/>
-      <c r="E173" s="29" t="s">
-        <v>837</v>
-      </c>
-      <c r="G173">
-        <v>1</v>
-      </c>
-      <c r="H173" s="22">
+      <c r="C210" s="32" t="s">
+        <v>816</v>
+      </c>
+      <c r="D210" s="32"/>
+      <c r="E210" s="29" t="s">
+        <v>834</v>
+      </c>
+      <c r="G210">
+        <v>1</v>
+      </c>
+      <c r="H210" s="22">
         <v>1.54</v>
       </c>
-      <c r="I173" s="18">
-        <f>SUMIF(C$1:C$116,"="&amp;C173,B$1:B$116)</f>
+      <c r="I210" s="18">
+        <f>SUMIF(C$1:C$148,"="&amp;C210,B$1:B$148)</f>
         <v>8</v>
       </c>
-      <c r="J173" s="33">
-        <f t="shared" ref="J173" si="57">G173*B173-I173</f>
+      <c r="J210" s="33">
+        <f t="shared" ref="J210" si="67">G210*B210-I210</f>
         <v>0</v>
       </c>
-      <c r="K173" s="35">
-        <f t="shared" ref="K173" si="58">B173*H173</f>
+      <c r="K210" s="35">
+        <f t="shared" ref="K210" si="68">B210*H210</f>
         <v>12.32</v>
       </c>
     </row>
-    <row r="174" spans="2:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B174" s="33">
-        <f t="shared" ref="B174" si="59">ROUNDUP(I174/G174,0)</f>
-        <v>2</v>
-      </c>
-      <c r="C174" s="32" t="s">
-        <v>839</v>
-      </c>
-      <c r="D174" s="32"/>
-      <c r="E174" s="29" t="s">
-        <v>838</v>
-      </c>
-      <c r="G174">
-        <v>1</v>
-      </c>
-      <c r="H174" s="22">
+    <row r="211" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B211" s="33">
+        <f t="shared" ref="B211" si="69">ROUNDUP(I211/G211,0)</f>
+        <v>8</v>
+      </c>
+      <c r="C211" s="32" t="s">
+        <v>836</v>
+      </c>
+      <c r="D211" s="32"/>
+      <c r="E211" s="29" t="s">
+        <v>835</v>
+      </c>
+      <c r="G211">
+        <v>1</v>
+      </c>
+      <c r="H211" s="22">
         <v>1.54</v>
       </c>
-      <c r="I174" s="18">
-        <f>SUMIF(C$1:C$116,"="&amp;C174,B$1:B$116)</f>
-        <v>2</v>
-      </c>
-      <c r="J174" s="33">
-        <f t="shared" ref="J174" si="60">G174*B174-I174</f>
+      <c r="I211" s="18">
+        <f>SUMIF(C$1:C$148,"="&amp;C211,B$1:B$148)</f>
+        <v>8</v>
+      </c>
+      <c r="J211" s="33">
+        <f t="shared" ref="J211" si="70">G211*B211-I211</f>
         <v>0</v>
       </c>
-      <c r="K174" s="35">
-        <f t="shared" ref="K174" si="61">B174*H174</f>
-        <v>3.08</v>
-      </c>
-    </row>
-    <row r="175" spans="2:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B175" s="33">
-        <f t="shared" si="53"/>
+      <c r="K211" s="35">
+        <f t="shared" ref="K211" si="71">B211*H211</f>
+        <v>12.32</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B212" s="33">
+        <f t="shared" si="63"/>
         <v>6</v>
       </c>
-      <c r="C175" t="s">
+      <c r="C212" t="s">
         <v>688</v>
       </c>
-      <c r="E175" s="26" t="s">
+      <c r="E212" s="26" t="s">
         <v>687</v>
       </c>
-      <c r="G175">
-        <v>1</v>
-      </c>
-      <c r="H175" s="22">
+      <c r="G212">
+        <v>1</v>
+      </c>
+      <c r="H212" s="22">
         <v>1.95</v>
       </c>
-      <c r="I175" s="18">
-        <f>SUMIF(C$1:C$116,"="&amp;C175,B$1:B$116)</f>
+      <c r="I212" s="18">
+        <f>SUMIF(C$1:C$148,"="&amp;C212,B$1:B$148)</f>
         <v>6</v>
       </c>
-      <c r="J175" s="33">
+      <c r="J212" s="33">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K175" s="35">
+      <c r="K212" s="35">
         <f t="shared" si="5"/>
         <v>11.7</v>
       </c>
     </row>
-    <row r="176" spans="2:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B176" s="33">
-        <f t="shared" si="53"/>
+    <row r="213" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B213" s="33">
+        <f t="shared" si="63"/>
         <v>2</v>
       </c>
-      <c r="C176" t="s">
+      <c r="C213" t="s">
         <v>664</v>
       </c>
-      <c r="E176" s="29" t="s">
+      <c r="E213" s="29" t="s">
         <v>666</v>
       </c>
-      <c r="G176">
-        <v>1</v>
-      </c>
-      <c r="H176" s="22">
+      <c r="G213">
+        <v>1</v>
+      </c>
+      <c r="H213" s="22">
         <v>1.39</v>
       </c>
-      <c r="I176" s="18">
-        <f>SUMIF(C$1:C$116,"="&amp;C176,B$1:B$116)</f>
+      <c r="I213" s="18">
+        <f>SUMIF(C$1:C$148,"="&amp;C213,B$1:B$148)</f>
         <v>2</v>
       </c>
-      <c r="J176" s="33">
-        <f t="shared" ref="J176" si="62">G176*B176-I176</f>
+      <c r="J213" s="33">
+        <f t="shared" ref="J213" si="72">G213*B213-I213</f>
         <v>0</v>
       </c>
-      <c r="K176" s="35">
+      <c r="K213" s="35">
         <f t="shared" si="5"/>
         <v>2.78</v>
       </c>
     </row>
-    <row r="177" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B177" s="33">
-        <f t="shared" si="53"/>
-        <v>1</v>
-      </c>
-      <c r="C177" t="s">
+    <row r="214" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B214" s="33">
+        <f t="shared" si="63"/>
+        <v>5</v>
+      </c>
+      <c r="C214" t="s">
         <v>657</v>
       </c>
-      <c r="E177" s="29" t="s">
+      <c r="E214" s="29" t="s">
         <v>557</v>
       </c>
-      <c r="G177">
-        <v>1</v>
-      </c>
-      <c r="H177" s="22">
+      <c r="G214">
+        <v>1</v>
+      </c>
+      <c r="H214" s="22">
         <v>3.29</v>
       </c>
-      <c r="I177" s="18">
-        <f>SUMIF(C$1:C$116,"="&amp;C177,B$1:B$116)</f>
-        <v>1</v>
-      </c>
-      <c r="J177" s="33">
-        <f t="shared" ref="J177" si="63">G177*B177-I177</f>
+      <c r="I214" s="18">
+        <f>SUMIF(C$1:C$148,"="&amp;C214,B$1:B$148)</f>
+        <v>5</v>
+      </c>
+      <c r="J214" s="33">
+        <f t="shared" ref="J214" si="73">G214*B214-I214</f>
         <v>0</v>
       </c>
-      <c r="K177" s="35">
+      <c r="K214" s="35">
         <f t="shared" si="5"/>
-        <v>3.29</v>
-      </c>
-    </row>
-    <row r="178" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B178" s="33">
-        <f t="shared" si="53"/>
-        <v>4</v>
-      </c>
-      <c r="C178" s="32" t="s">
-        <v>736</v>
-      </c>
-      <c r="E178" s="26" t="s">
-        <v>557</v>
-      </c>
-      <c r="G178">
-        <v>1</v>
-      </c>
-      <c r="H178" s="22">
-        <v>3.29</v>
-      </c>
-      <c r="I178" s="18">
-        <f>SUMIF(C$1:C$116,"="&amp;C178,B$1:B$116)</f>
-        <v>4</v>
-      </c>
-      <c r="J178" s="33">
-        <f t="shared" ref="J178" si="64">G178*B178-I178</f>
+        <v>16.45</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B215" s="33">
+        <f t="shared" si="63"/>
+        <v>2</v>
+      </c>
+      <c r="C215" t="s">
+        <v>739</v>
+      </c>
+      <c r="E215" s="26" t="s">
+        <v>740</v>
+      </c>
+      <c r="G215">
+        <v>1</v>
+      </c>
+      <c r="H215" s="22">
+        <v>1</v>
+      </c>
+      <c r="I215" s="18">
+        <f>SUMIF(C$1:C$148,"="&amp;C215,B$1:B$148)</f>
+        <v>2</v>
+      </c>
+      <c r="J215" s="33">
+        <f t="shared" ref="J215" si="74">G215*B215-I215</f>
         <v>0</v>
       </c>
-      <c r="K178" s="35">
-        <f t="shared" si="5"/>
-        <v>13.16</v>
-      </c>
-    </row>
-    <row r="179" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B179" s="33">
-        <f t="shared" si="53"/>
-        <v>2</v>
-      </c>
-      <c r="C179" t="s">
-        <v>740</v>
-      </c>
-      <c r="E179" s="26" t="s">
-        <v>741</v>
-      </c>
-      <c r="G179">
-        <v>1</v>
-      </c>
-      <c r="H179" s="22">
-        <v>1</v>
-      </c>
-      <c r="I179" s="18">
-        <f>SUMIF(C$1:C$116,"="&amp;C179,B$1:B$116)</f>
-        <v>2</v>
-      </c>
-      <c r="J179" s="33">
-        <f t="shared" ref="J179" si="65">G179*B179-I179</f>
-        <v>0</v>
-      </c>
-      <c r="K179" s="35">
+      <c r="K215" s="35">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
-    <row r="180" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B180" s="33">
-        <f t="shared" si="53"/>
+    <row r="216" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B216" s="33">
+        <f t="shared" si="63"/>
         <v>4</v>
       </c>
-      <c r="C180" s="32" t="s">
-        <v>748</v>
-      </c>
-      <c r="E180" s="26" t="s">
+      <c r="C216" s="32" t="s">
         <v>747</v>
       </c>
-      <c r="G180">
-        <v>1</v>
-      </c>
-      <c r="H180" s="22">
+      <c r="E216" s="26" t="s">
+        <v>746</v>
+      </c>
+      <c r="G216">
+        <v>1</v>
+      </c>
+      <c r="H216" s="22">
         <v>1.05</v>
       </c>
-      <c r="I180" s="18">
-        <f>SUMIF(C$1:C$116,"="&amp;C180,B$1:B$116)</f>
+      <c r="I216" s="18">
+        <f>SUMIF(C$1:C$148,"="&amp;C216,B$1:B$148)</f>
         <v>4</v>
       </c>
-      <c r="J180" s="33">
-        <f t="shared" ref="J180" si="66">G180*B180-I180</f>
+      <c r="J216" s="33">
+        <f t="shared" ref="J216" si="75">G216*B216-I216</f>
         <v>0</v>
       </c>
-      <c r="K180" s="35">
+      <c r="K216" s="35">
         <f t="shared" si="5"/>
         <v>4.2</v>
       </c>
     </row>
-    <row r="181" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B181" s="33">
-        <f t="shared" ref="B181" si="67">ROUNDUP(I181/G181,0)</f>
+    <row r="217" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B217" s="33">
+        <f t="shared" ref="B217:B218" si="76">ROUNDUP(I217/G217,0)</f>
+        <v>4</v>
+      </c>
+      <c r="C217" s="32" t="s">
+        <v>863</v>
+      </c>
+      <c r="E217" s="26" t="s">
+        <v>864</v>
+      </c>
+      <c r="G217">
+        <v>1</v>
+      </c>
+      <c r="H217" s="22">
+        <v>1</v>
+      </c>
+      <c r="I217" s="18">
+        <f>SUMIF(C$1:C$148,"="&amp;C217,B$1:B$148)</f>
+        <v>4</v>
+      </c>
+      <c r="J217" s="33">
+        <f t="shared" ref="J217" si="77">G217*B217-I217</f>
+        <v>0</v>
+      </c>
+      <c r="K217" s="35">
+        <f t="shared" ref="K217" si="78">B217*H217</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B218" s="33">
+        <f t="shared" si="76"/>
         <v>2</v>
       </c>
-      <c r="C181" s="32" t="s">
-        <v>811</v>
-      </c>
-      <c r="E181" s="26"/>
-      <c r="G181">
-        <v>1</v>
-      </c>
-      <c r="H181" s="22">
-        <v>1.05</v>
-      </c>
-      <c r="I181" s="18">
-        <f>SUMIF(C$1:C$116,"="&amp;C181,B$1:B$116)</f>
+      <c r="C218" t="s">
+        <v>606</v>
+      </c>
+      <c r="E218" s="29" t="s">
+        <v>554</v>
+      </c>
+      <c r="G218">
+        <v>1</v>
+      </c>
+      <c r="H218" s="22">
+        <v>26.88</v>
+      </c>
+      <c r="I218" s="18">
+        <f>SUMIF(C$1:C$148,"="&amp;C218,B$1:B$148)</f>
         <v>2</v>
       </c>
-      <c r="J181" s="33">
-        <f t="shared" ref="J181" si="68">G181*B181-I181</f>
+      <c r="J218" s="33">
+        <f t="shared" ref="J218" si="79">G218*B218-I218</f>
         <v>0</v>
       </c>
-      <c r="K181" s="35">
-        <f t="shared" ref="K181" si="69">B181*H181</f>
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="182" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B182" s="33"/>
-      <c r="E182" s="26"/>
-      <c r="H182" s="22"/>
-      <c r="I182" s="18"/>
-      <c r="J182" s="33"/>
-      <c r="K182" s="35"/>
-    </row>
-    <row r="183" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A183" s="6" t="s">
-        <v>807</v>
-      </c>
-      <c r="B183" s="33"/>
-      <c r="E183"/>
-      <c r="H183" s="22"/>
-      <c r="I183" s="18"/>
-      <c r="J183" s="33"/>
-      <c r="K183" s="35"/>
-    </row>
-    <row r="184" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B184" s="33">
-        <v>1</v>
-      </c>
-      <c r="C184" t="s">
-        <v>795</v>
-      </c>
-      <c r="E184" s="29" t="s">
-        <v>796</v>
-      </c>
-      <c r="G184">
-        <v>1</v>
-      </c>
-      <c r="H184" s="22">
+      <c r="K218" s="35">
+        <f t="shared" ref="K218" si="80">B218*H218</f>
+        <v>53.76</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C219" s="6"/>
+      <c r="D219" s="29"/>
+      <c r="E219"/>
+      <c r="G219" s="22"/>
+      <c r="H219" s="22"/>
+      <c r="I219" s="18"/>
+      <c r="J219" s="33"/>
+      <c r="K219" s="35"/>
+    </row>
+    <row r="220" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A220" s="6" t="s">
+        <v>805</v>
+      </c>
+      <c r="B220" s="33"/>
+      <c r="E220"/>
+      <c r="H220" s="22"/>
+      <c r="I220" s="18"/>
+      <c r="J220" s="33"/>
+      <c r="K220" s="35"/>
+    </row>
+    <row r="221" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B221" s="33">
+        <v>1</v>
+      </c>
+      <c r="C221" t="s">
+        <v>793</v>
+      </c>
+      <c r="E221" s="29" t="s">
+        <v>794</v>
+      </c>
+      <c r="G221">
+        <v>1</v>
+      </c>
+      <c r="H221" s="22">
         <v>4.09</v>
       </c>
-      <c r="I184" s="18">
-        <f>SUMIF(C$1:C$116,"="&amp;C184,B$1:B$116)</f>
+      <c r="I221" s="18">
+        <f>SUMIF(C$1:C$148,"="&amp;C221,B$1:B$148)</f>
         <v>3</v>
       </c>
-      <c r="J184" s="33">
-        <f t="shared" ref="J184:J185" si="70">G184*B184-I184</f>
+      <c r="J221" s="33">
+        <f t="shared" ref="J221:J222" si="81">G221*B221-I221</f>
         <v>-2</v>
       </c>
-      <c r="K184" s="35">
-        <f t="shared" ref="K184:K185" si="71">B184*H184</f>
+      <c r="K221" s="35">
+        <f t="shared" ref="K221:K222" si="82">B221*H221</f>
         <v>4.09</v>
       </c>
     </row>
-    <row r="185" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B185" s="33">
-        <v>1</v>
-      </c>
-      <c r="C185" t="s">
+    <row r="222" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B222" s="33">
+        <v>1</v>
+      </c>
+      <c r="C222" t="s">
+        <v>802</v>
+      </c>
+      <c r="E222" s="29" t="s">
+        <v>839</v>
+      </c>
+      <c r="G222">
+        <v>1</v>
+      </c>
+      <c r="H222" s="22">
+        <v>2.8</v>
+      </c>
+      <c r="I222" s="18">
+        <f>SUMIF(C$1:C$148,"="&amp;C222,B$1:B$148)</f>
+        <v>1</v>
+      </c>
+      <c r="J222" s="33">
+        <f t="shared" si="81"/>
+        <v>0</v>
+      </c>
+      <c r="K222" s="35">
+        <f t="shared" si="82"/>
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B223" s="33">
+        <v>1</v>
+      </c>
+      <c r="C223" t="s">
+        <v>803</v>
+      </c>
+      <c r="E223" s="29" t="s">
+        <v>839</v>
+      </c>
+      <c r="G223">
+        <v>1</v>
+      </c>
+      <c r="H223" s="22">
+        <v>2.8</v>
+      </c>
+      <c r="I223" s="18">
+        <f>SUMIF(C$1:C$148,"="&amp;C223,B$1:B$148)</f>
+        <v>2</v>
+      </c>
+      <c r="J223" s="33">
+        <f t="shared" ref="J223" si="83">G223*B223-I223</f>
+        <v>-1</v>
+      </c>
+      <c r="K223" s="35">
+        <f t="shared" ref="K223" si="84">B223*H223</f>
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B224" s="33">
+        <v>1</v>
+      </c>
+      <c r="C224" t="s">
         <v>804</v>
       </c>
-      <c r="E185" s="29" t="s">
-        <v>842</v>
-      </c>
-      <c r="G185">
-        <v>1</v>
-      </c>
-      <c r="H185" s="22">
+      <c r="E224" s="29" t="s">
+        <v>839</v>
+      </c>
+      <c r="G224">
+        <v>1</v>
+      </c>
+      <c r="H224" s="22">
         <v>2.8</v>
       </c>
-      <c r="I185" s="18">
-        <f>SUMIF(C$1:C$116,"="&amp;C185,B$1:B$116)</f>
-        <v>1</v>
-      </c>
-      <c r="J185" s="33">
-        <f t="shared" si="70"/>
+      <c r="I224" s="18">
+        <f>SUMIF(C$1:C$148,"="&amp;C224,B$1:B$148)</f>
+        <v>3</v>
+      </c>
+      <c r="J224" s="33">
+        <f t="shared" ref="J224" si="85">G224*B224-I224</f>
+        <v>-2</v>
+      </c>
+      <c r="K224" s="35">
+        <f t="shared" ref="K224" si="86">B224*H224</f>
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="225" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B225" s="33"/>
+      <c r="H225" s="22"/>
+      <c r="I225" s="18"/>
+      <c r="J225" s="33"/>
+      <c r="K225" s="35"/>
+    </row>
+    <row r="226" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B226" s="33"/>
+      <c r="H226" s="22"/>
+      <c r="I226" s="18"/>
+      <c r="J226" s="33"/>
+      <c r="K226" s="35"/>
+    </row>
+    <row r="227" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B227" s="33"/>
+      <c r="H227" s="22"/>
+      <c r="I227" s="18"/>
+      <c r="J227" s="33"/>
+      <c r="K227" s="35"/>
+    </row>
+    <row r="228" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B228" s="33"/>
+      <c r="E228" s="26"/>
+      <c r="H228" s="22"/>
+      <c r="I228" s="18"/>
+      <c r="J228" s="33"/>
+      <c r="K228" s="36">
+        <f>SUM(K150:K224)</f>
+        <v>538.38999999999987</v>
+      </c>
+    </row>
+    <row r="229" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B229" s="33"/>
+      <c r="E229" s="26"/>
+      <c r="H229" s="22"/>
+      <c r="I229" s="18"/>
+      <c r="J229" s="33"/>
+    </row>
+    <row r="230" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B230" s="33"/>
+      <c r="E230" s="26"/>
+      <c r="H230" s="22"/>
+      <c r="I230" s="18"/>
+      <c r="J230" s="33"/>
+    </row>
+    <row r="231" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B231" s="33"/>
+      <c r="E231" s="26"/>
+      <c r="H231" s="22"/>
+      <c r="I231" s="18"/>
+      <c r="J231" s="33"/>
+    </row>
+    <row r="232" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="D232" s="6" t="s">
+        <v>599</v>
+      </c>
+      <c r="E232" s="29" t="s">
+        <v>554</v>
+      </c>
+      <c r="F232">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="H232" s="22">
+        <v>26.88</v>
+      </c>
+      <c r="I232" s="22">
+        <f>H232*B233</f>
+        <v>26.88</v>
+      </c>
+    </row>
+    <row r="233" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B233">
+        <v>1</v>
+      </c>
+      <c r="C233" t="s">
+        <v>608</v>
+      </c>
+      <c r="D233" t="s">
+        <v>609</v>
+      </c>
+      <c r="E233" s="30" t="s">
+        <v>607</v>
+      </c>
+      <c r="F233">
         <v>0</v>
       </c>
-      <c r="K185" s="35">
-        <f t="shared" si="71"/>
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="186" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B186" s="33">
-        <v>1</v>
-      </c>
-      <c r="C186" t="s">
-        <v>805</v>
-      </c>
-      <c r="E186" s="29" t="s">
-        <v>842</v>
-      </c>
-      <c r="G186">
-        <v>1</v>
-      </c>
-      <c r="H186" s="22">
-        <v>2.8</v>
-      </c>
-      <c r="I186" s="18">
-        <f>SUMIF(C$1:C$116,"="&amp;C186,B$1:B$116)</f>
+      <c r="H233">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="I233" s="22">
+        <f>H233*B234</f>
+        <v>6.8999999999999995</v>
+      </c>
+    </row>
+    <row r="234" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B234">
+        <v>6</v>
+      </c>
+      <c r="C234" t="s">
+        <v>612</v>
+      </c>
+      <c r="D234" t="s">
+        <v>610</v>
+      </c>
+      <c r="E234" s="29" t="s">
+        <v>611</v>
+      </c>
+      <c r="F234">
+        <v>0</v>
+      </c>
+      <c r="H234">
+        <f>I234/10</f>
+        <v>0.251</v>
+      </c>
+      <c r="I234">
+        <v>2.5099999999999998</v>
+      </c>
+    </row>
+    <row r="235" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B235">
+        <v>1</v>
+      </c>
+      <c r="C235" t="s">
+        <v>614</v>
+      </c>
+      <c r="D235" t="s">
+        <v>613</v>
+      </c>
+      <c r="E235" s="26" t="s">
+        <v>473</v>
+      </c>
+      <c r="F235">
+        <v>0.7</v>
+      </c>
+      <c r="H235">
+        <v>18</v>
+      </c>
+      <c r="I235" s="22">
+        <f>H235*B236</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="236" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B236">
+        <v>1</v>
+      </c>
+      <c r="E236" s="26"/>
+      <c r="I236" s="22"/>
+    </row>
+    <row r="237" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C237" t="s">
+        <v>615</v>
+      </c>
+      <c r="D237" s="6" t="s">
+        <v>616</v>
+      </c>
+      <c r="E237" s="26" t="s">
+        <v>544</v>
+      </c>
+      <c r="F237">
+        <v>1.34</v>
+      </c>
+      <c r="H237">
+        <v>37</v>
+      </c>
+      <c r="I237" s="22">
+        <f>H237*B238</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="238" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B238">
+        <v>1</v>
+      </c>
+      <c r="C238" t="s">
+        <v>638</v>
+      </c>
+      <c r="D238" s="8" t="s">
+        <v>641</v>
+      </c>
+      <c r="E238" s="29" t="s">
+        <v>639</v>
+      </c>
+      <c r="F238">
+        <v>0</v>
+      </c>
+      <c r="I238" s="22"/>
+    </row>
+    <row r="239" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B239">
         <v>2</v>
       </c>
-      <c r="J186" s="33">
-        <f t="shared" ref="J186" si="72">G186*B186-I186</f>
-        <v>-1</v>
-      </c>
-      <c r="K186" s="35">
-        <f t="shared" ref="K186" si="73">B186*H186</f>
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="187" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B187" s="33">
-        <v>1</v>
-      </c>
-      <c r="C187" t="s">
-        <v>806</v>
-      </c>
-      <c r="E187" s="29" t="s">
-        <v>842</v>
-      </c>
-      <c r="G187">
-        <v>1</v>
-      </c>
-      <c r="H187" s="22">
-        <v>2.8</v>
-      </c>
-      <c r="I187" s="18">
-        <f>SUMIF(C$1:C$116,"="&amp;C187,B$1:B$116)</f>
-        <v>3</v>
-      </c>
-      <c r="J187" s="33">
-        <f t="shared" ref="J187" si="74">G187*B187-I187</f>
-        <v>-2</v>
-      </c>
-      <c r="K187" s="35">
-        <f t="shared" ref="K187" si="75">B187*H187</f>
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="188" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B188" s="33"/>
-      <c r="H188" s="22"/>
-      <c r="I188" s="18"/>
-      <c r="J188" s="33"/>
-      <c r="K188" s="35"/>
-    </row>
-    <row r="189" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B189" s="33"/>
-      <c r="H189" s="22"/>
-      <c r="I189" s="18"/>
-      <c r="J189" s="33"/>
-      <c r="K189" s="35"/>
-    </row>
-    <row r="190" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B190" s="33"/>
-      <c r="H190" s="22"/>
-      <c r="I190" s="18"/>
-      <c r="J190" s="33"/>
-      <c r="K190" s="35"/>
-    </row>
-    <row r="191" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B191" s="33"/>
-      <c r="E191" s="26"/>
-      <c r="H191" s="22"/>
-      <c r="I191" s="18"/>
-      <c r="J191" s="33"/>
-      <c r="K191" s="36">
-        <f>SUM(K118:K187)</f>
-        <v>393.48999999999995</v>
-      </c>
-    </row>
-    <row r="192" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B192" s="33"/>
-      <c r="E192" s="26"/>
-      <c r="H192" s="22"/>
-      <c r="I192" s="18"/>
-      <c r="J192" s="33"/>
-    </row>
-    <row r="193" spans="2:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B193" s="33"/>
-      <c r="E193" s="26"/>
-      <c r="H193" s="22"/>
-      <c r="I193" s="18"/>
-      <c r="J193" s="33"/>
-    </row>
-    <row r="194" spans="2:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B194" s="33"/>
-      <c r="E194" s="26"/>
-      <c r="H194" s="22"/>
-      <c r="I194" s="18"/>
-      <c r="J194" s="33"/>
-    </row>
-    <row r="195" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C195" t="s">
-        <v>606</v>
-      </c>
-      <c r="D195" s="6" t="s">
-        <v>599</v>
-      </c>
-      <c r="E195" s="29" t="s">
-        <v>554</v>
-      </c>
-      <c r="F195">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="H195" s="22">
-        <v>26.88</v>
-      </c>
-      <c r="I195" s="22">
-        <f>H195*B196</f>
-        <v>26.88</v>
-      </c>
-    </row>
-    <row r="196" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B196">
-        <v>1</v>
-      </c>
-      <c r="C196" t="s">
+      <c r="C239" t="s">
+        <v>648</v>
+      </c>
+      <c r="D239" t="s">
+        <v>631</v>
+      </c>
+      <c r="E239" s="26" t="s">
+        <v>647</v>
+      </c>
+      <c r="F239">
+        <v>0</v>
+      </c>
+      <c r="I239" s="22"/>
+    </row>
+    <row r="240" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B240">
+        <v>1</v>
+      </c>
+      <c r="C240" t="s">
         <v>608</v>
       </c>
-      <c r="D196" t="s">
-        <v>609</v>
-      </c>
-      <c r="E196" s="30" t="s">
+      <c r="D240" t="s">
+        <v>632</v>
+      </c>
+      <c r="E240" s="30" t="s">
         <v>607</v>
       </c>
-      <c r="F196">
+      <c r="F240">
         <v>0</v>
       </c>
-      <c r="H196">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="I196" s="22">
-        <f>H196*B197</f>
-        <v>6.8999999999999995</v>
-      </c>
-    </row>
-    <row r="197" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B197">
-        <v>6</v>
-      </c>
-      <c r="C197" t="s">
-        <v>612</v>
-      </c>
-      <c r="D197" t="s">
-        <v>610</v>
-      </c>
-      <c r="E197" s="29" t="s">
-        <v>611</v>
-      </c>
-      <c r="F197">
+      <c r="I240" s="22"/>
+    </row>
+    <row r="241" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B241">
+        <v>4</v>
+      </c>
+      <c r="C241" t="s">
+        <v>634</v>
+      </c>
+      <c r="D241" t="s">
+        <v>645</v>
+      </c>
+      <c r="E241" s="26" t="s">
+        <v>633</v>
+      </c>
+      <c r="F241">
         <v>0</v>
       </c>
-      <c r="H197">
-        <f>I197/10</f>
-        <v>0.251</v>
-      </c>
-      <c r="I197">
-        <v>2.5099999999999998</v>
-      </c>
-    </row>
-    <row r="198" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B198">
-        <v>1</v>
-      </c>
-      <c r="C198" t="s">
-        <v>614</v>
-      </c>
-      <c r="D198" t="s">
-        <v>613</v>
-      </c>
-      <c r="E198" s="26" t="s">
-        <v>473</v>
-      </c>
-      <c r="F198">
-        <v>0.7</v>
-      </c>
-      <c r="H198">
-        <v>18</v>
-      </c>
-      <c r="I198" s="22">
-        <f>H198*B199</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="199" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B199">
-        <v>1</v>
-      </c>
-      <c r="E199" s="26"/>
-      <c r="I199" s="22"/>
-    </row>
-    <row r="200" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C200" t="s">
-        <v>615</v>
-      </c>
-      <c r="D200" s="6" t="s">
-        <v>616</v>
-      </c>
-      <c r="E200" s="26" t="s">
-        <v>544</v>
-      </c>
-      <c r="F200">
-        <v>1.34</v>
-      </c>
-      <c r="H200">
-        <v>37</v>
-      </c>
-      <c r="I200" s="22">
-        <f>H200*B201</f>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="201" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B201">
-        <v>1</v>
-      </c>
-      <c r="C201" t="s">
-        <v>638</v>
-      </c>
-      <c r="D201" s="8" t="s">
-        <v>641</v>
-      </c>
-      <c r="E201" s="29" t="s">
-        <v>639</v>
-      </c>
-      <c r="F201">
+      <c r="I241" s="22"/>
+    </row>
+    <row r="242" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B242">
+        <v>8</v>
+      </c>
+      <c r="D242" t="s">
+        <v>646</v>
+      </c>
+      <c r="E242" s="29" t="s">
+        <v>644</v>
+      </c>
+      <c r="F242">
         <v>0</v>
       </c>
-      <c r="I201" s="22"/>
-    </row>
-    <row r="202" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B202">
-        <v>2</v>
-      </c>
-      <c r="C202" t="s">
-        <v>648</v>
-      </c>
-      <c r="D202" t="s">
-        <v>631</v>
-      </c>
-      <c r="E202" s="26" t="s">
-        <v>647</v>
-      </c>
-      <c r="F202">
+      <c r="I242" s="22"/>
+    </row>
+    <row r="243" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="E243" s="26"/>
+      <c r="I243" s="22"/>
+    </row>
+    <row r="244" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D244" s="6" t="s">
+        <v>635</v>
+      </c>
+      <c r="E244" s="26"/>
+      <c r="I244" s="22"/>
+    </row>
+    <row r="245" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C245" t="s">
+        <v>627</v>
+      </c>
+      <c r="D245" t="s">
+        <v>625</v>
+      </c>
+      <c r="E245" s="25" t="s">
+        <v>617</v>
+      </c>
+      <c r="F245">
         <v>0</v>
       </c>
-      <c r="I202" s="22"/>
-    </row>
-    <row r="203" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B203">
-        <v>1</v>
-      </c>
-      <c r="C203" t="s">
-        <v>608</v>
-      </c>
-      <c r="D203" t="s">
-        <v>632</v>
-      </c>
-      <c r="E203" s="30" t="s">
-        <v>607</v>
-      </c>
-      <c r="F203">
+      <c r="H245">
+        <v>9.9</v>
+      </c>
+      <c r="I245" s="22">
+        <f>H245*B246</f>
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="246" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B246">
+        <v>1</v>
+      </c>
+      <c r="C246" t="s">
+        <v>629</v>
+      </c>
+      <c r="D246" t="s">
+        <v>621</v>
+      </c>
+      <c r="E246" s="26" t="s">
+        <v>622</v>
+      </c>
+      <c r="F246">
         <v>0</v>
       </c>
-      <c r="I203" s="22"/>
-    </row>
-    <row r="204" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B204">
-        <v>4</v>
-      </c>
-      <c r="C204" t="s">
-        <v>634</v>
-      </c>
-      <c r="D204" t="s">
-        <v>645</v>
-      </c>
-      <c r="E204" s="26" t="s">
-        <v>633</v>
-      </c>
-      <c r="F204">
+      <c r="I246" s="22"/>
+    </row>
+    <row r="247" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B247">
+        <v>1</v>
+      </c>
+      <c r="C247" t="s">
+        <v>628</v>
+      </c>
+      <c r="D247" t="s">
+        <v>624</v>
+      </c>
+      <c r="E247" s="25" t="s">
+        <v>623</v>
+      </c>
+      <c r="F247">
         <v>0</v>
       </c>
-      <c r="I204" s="22"/>
-    </row>
-    <row r="205" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B205">
-        <v>8</v>
-      </c>
-      <c r="D205" t="s">
-        <v>646</v>
-      </c>
-      <c r="E205" s="29" t="s">
-        <v>644</v>
-      </c>
-      <c r="F205">
+      <c r="I247" s="22"/>
+    </row>
+    <row r="248" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B248">
+        <v>1</v>
+      </c>
+      <c r="C248" t="s">
+        <v>626</v>
+      </c>
+      <c r="D248" t="s">
+        <v>643</v>
+      </c>
+      <c r="E248" s="26" t="s">
+        <v>642</v>
+      </c>
+      <c r="F248">
         <v>0</v>
       </c>
-      <c r="I205" s="22"/>
-    </row>
-    <row r="206" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="E206" s="26"/>
-      <c r="I206" s="22"/>
-    </row>
-    <row r="207" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="D207" s="6" t="s">
-        <v>635</v>
-      </c>
-      <c r="E207" s="26"/>
-      <c r="I207" s="22"/>
-    </row>
-    <row r="208" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C208" t="s">
-        <v>627</v>
-      </c>
-      <c r="D208" t="s">
-        <v>625</v>
-      </c>
-      <c r="E208" s="25" t="s">
+      <c r="I248" s="22"/>
+    </row>
+    <row r="249" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B249">
+        <v>1</v>
+      </c>
+      <c r="C249" t="s">
+        <v>618</v>
+      </c>
+      <c r="D249" t="s">
+        <v>636</v>
+      </c>
+      <c r="E249" s="25" t="s">
+        <v>637</v>
+      </c>
+      <c r="F249">
+        <v>0</v>
+      </c>
+      <c r="I249" s="22"/>
+    </row>
+    <row r="250" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B250">
+        <v>1</v>
+      </c>
+      <c r="C250" t="s">
+        <v>620</v>
+      </c>
+      <c r="D250" t="s">
+        <v>621</v>
+      </c>
+      <c r="E250" s="25" t="s">
         <v>617</v>
       </c>
-      <c r="F208">
+      <c r="F250">
         <v>0</v>
       </c>
-      <c r="H208">
-        <v>9.9</v>
-      </c>
-      <c r="I208" s="22">
-        <f>H208*B209</f>
-        <v>9.9</v>
-      </c>
-    </row>
-    <row r="209" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B209">
-        <v>1</v>
-      </c>
-      <c r="C209" t="s">
-        <v>629</v>
-      </c>
-      <c r="D209" t="s">
-        <v>621</v>
-      </c>
-      <c r="E209" s="26" t="s">
-        <v>622</v>
-      </c>
-      <c r="F209">
+      <c r="I250" s="22"/>
+    </row>
+    <row r="251" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B251">
+        <v>1</v>
+      </c>
+      <c r="E251" s="25"/>
+      <c r="I251" s="22"/>
+    </row>
+    <row r="252" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="E252" s="25"/>
+      <c r="I252" s="22"/>
+    </row>
+    <row r="253" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C253" t="s">
+        <v>603</v>
+      </c>
+      <c r="D253" t="s">
+        <v>600</v>
+      </c>
+      <c r="E253" s="29" t="s">
+        <v>602</v>
+      </c>
+      <c r="F253">
         <v>0</v>
       </c>
-      <c r="I209" s="22"/>
-    </row>
-    <row r="210" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B210">
-        <v>1</v>
-      </c>
-      <c r="C210" t="s">
-        <v>628</v>
-      </c>
-      <c r="D210" t="s">
-        <v>624</v>
-      </c>
-      <c r="E210" s="25" t="s">
-        <v>623</v>
-      </c>
-      <c r="F210">
-        <v>0</v>
-      </c>
-      <c r="I210" s="22"/>
-    </row>
-    <row r="211" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B211">
-        <v>1</v>
-      </c>
-      <c r="C211" t="s">
-        <v>626</v>
-      </c>
-      <c r="D211" t="s">
-        <v>643</v>
-      </c>
-      <c r="E211" s="26" t="s">
-        <v>642</v>
-      </c>
-      <c r="F211">
-        <v>0</v>
-      </c>
-      <c r="I211" s="22"/>
-    </row>
-    <row r="212" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B212">
-        <v>1</v>
-      </c>
-      <c r="C212" t="s">
-        <v>618</v>
-      </c>
-      <c r="D212" t="s">
-        <v>636</v>
-      </c>
-      <c r="E212" s="25" t="s">
-        <v>637</v>
-      </c>
-      <c r="F212">
-        <v>0</v>
-      </c>
-      <c r="I212" s="22"/>
-    </row>
-    <row r="213" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B213">
-        <v>1</v>
-      </c>
-      <c r="C213" t="s">
-        <v>620</v>
-      </c>
-      <c r="D213" t="s">
-        <v>621</v>
-      </c>
-      <c r="E213" s="25" t="s">
-        <v>617</v>
-      </c>
-      <c r="F213">
-        <v>0</v>
-      </c>
-      <c r="I213" s="22"/>
-    </row>
-    <row r="214" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B214">
-        <v>1</v>
-      </c>
-      <c r="E214" s="25"/>
-      <c r="I214" s="22"/>
-    </row>
-    <row r="215" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="E215" s="25"/>
-      <c r="I215" s="22"/>
-    </row>
-    <row r="216" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C216" t="s">
-        <v>603</v>
-      </c>
-      <c r="D216" t="s">
-        <v>600</v>
-      </c>
-      <c r="E216" s="29" t="s">
-        <v>602</v>
-      </c>
-      <c r="F216">
-        <v>0</v>
-      </c>
-      <c r="H216" s="22">
+      <c r="H253" s="22">
         <v>0.54</v>
       </c>
-      <c r="I216" s="22">
-        <f>H216*B217</f>
+      <c r="I253" s="22">
+        <f>H253*B254</f>
         <v>12.96</v>
       </c>
     </row>
-    <row r="217" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B217">
+    <row r="254" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B254">
         <v>24</v>
       </c>
-      <c r="C217" t="s">
+      <c r="C254" t="s">
         <v>604</v>
       </c>
-      <c r="D217" t="s">
+      <c r="D254" t="s">
         <v>605</v>
       </c>
-      <c r="E217" s="29" t="s">
+      <c r="E254" s="29" t="s">
         <v>601</v>
       </c>
-      <c r="H217" s="23">
+      <c r="H254" s="23">
         <v>4.29</v>
       </c>
-      <c r="I217" s="22">
-        <f>H217*B218</f>
+      <c r="I254" s="22">
+        <f>H254*B255</f>
         <v>4.29</v>
       </c>
     </row>
-    <row r="218" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B218">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="220" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B220">
+    <row r="255" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B255">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B257">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E175" r:id="rId1"/>
-    <hyperlink ref="E196" r:id="rId2"/>
-    <hyperlink ref="E203" r:id="rId3"/>
-    <hyperlink ref="E210" r:id="rId4"/>
-    <hyperlink ref="E209" r:id="rId5"/>
-    <hyperlink ref="E200" r:id="rId6"/>
-    <hyperlink ref="E198" r:id="rId7"/>
-    <hyperlink ref="E169" r:id="rId8"/>
+    <hyperlink ref="E212" r:id="rId1"/>
+    <hyperlink ref="E233" r:id="rId2"/>
+    <hyperlink ref="E240" r:id="rId3"/>
+    <hyperlink ref="E247" r:id="rId4"/>
+    <hyperlink ref="E246" r:id="rId5"/>
+    <hyperlink ref="E237" r:id="rId6"/>
+    <hyperlink ref="E235" r:id="rId7"/>
+    <hyperlink ref="E206" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -14,14 +14,15 @@
     <sheet name="Stepper" sheetId="4" r:id="rId5"/>
     <sheet name="DIN" sheetId="8" r:id="rId6"/>
     <sheet name="Rotary Encoder" sheetId="6" r:id="rId7"/>
-    <sheet name="BOM" sheetId="7" r:id="rId8"/>
+    <sheet name="Drehkranz" sheetId="9" r:id="rId8"/>
+    <sheet name="BOM" sheetId="7" r:id="rId9"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1872" uniqueCount="867">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1827" uniqueCount="828">
   <si>
     <t>Bauteilnummer</t>
   </si>
@@ -1820,156 +1821,24 @@
     <t>Benutzung</t>
   </si>
   <si>
-    <t xml:space="preserve">Schulter </t>
-  </si>
-  <si>
-    <t>Schulter als Axial lager</t>
-  </si>
-  <si>
-    <t>https://www.conrad.de/de/messing-rund-profil-x-l-2-mm-x-500-mm-297224.html</t>
-  </si>
-  <si>
-    <t>http://www.kugellager-express.de/nadelhuelse-nadellager-hk-0408-hk0408-4x8x8-mm.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nadelhülse 4x8x8 </t>
-  </si>
-  <si>
-    <t>Messingachse 4mm</t>
-  </si>
-  <si>
-    <t>Axe für Nadelhülse</t>
-  </si>
-  <si>
     <t>Rillenkugellager DIN 625 SKF - SKF 61818 - 90x115x13</t>
   </si>
   <si>
-    <t>http://www.kugellager-express.de/kugellager-zoll-inch-r2-3-175x9-525x3-967-mm.html</t>
-  </si>
-  <si>
-    <t>Rillenkugellager 3.175 x 9.525 x 3.967 mm</t>
-  </si>
-  <si>
-    <t>Schulter Spannrollen</t>
-  </si>
-  <si>
-    <t>Schulter Spannrollen Achsen</t>
-  </si>
-  <si>
-    <t>http://www.amazon.de/L1118-Metric-Schwarz-Sockel-schraube/dp/B00GIES81U/ref=sr_1_2?s=toys&amp;ie=UTF8&amp;qid=1457217378&amp;sr=1-2&amp;keywords=schraube+M4+40mm</t>
-  </si>
-  <si>
-    <t>Schraube M4 x 40mm</t>
-  </si>
-  <si>
-    <t>Schulter Motor</t>
-  </si>
-  <si>
-    <t>Motor Nema 23 57x57x56</t>
-  </si>
-  <si>
-    <t>Motor Nema 24 60x60x87</t>
-  </si>
-  <si>
-    <t>Oberarm Motor</t>
-  </si>
-  <si>
-    <t>https://zahnriemen24.de/artikel_Zahnscheibe-AL-27-T5-15-2__10_2_875</t>
-  </si>
-  <si>
-    <t>Zahnriemenscheibe T5 15 Zähne, 16mm Breite</t>
-  </si>
-  <si>
     <t>http://www.hug-technik.com/shop/product_info.php?info=p5264_metr--zahnriemenscheibe-t5-21-mm-breit--15-zaehne--zahnriemenrad-t5-21-15.html</t>
   </si>
   <si>
-    <t>Zahnriemen T5 16mm Breite</t>
-  </si>
-  <si>
-    <t>Oberarm Motor Zahnriemen 1</t>
-  </si>
-  <si>
-    <t>http://www.hug-technik.com/shop/index.php?cat=c226_ZAHNRIEMEN-T5-16-mm-breit-RIEMENBREITE-16-mm.html</t>
-  </si>
-  <si>
-    <t>https://zahnriemen24.de/artikel_Zahnscheibe-AL-21-T5-48-0__10_2_870</t>
-  </si>
-  <si>
-    <t>Oberarm Motor Zahnriemenscheibe 1 - großes Rad</t>
-  </si>
-  <si>
-    <t>Oberarm Motor Zahnriemenscheibe 1 - kleines Rad</t>
-  </si>
-  <si>
-    <t>Achse 8mm</t>
-  </si>
-  <si>
-    <t>Zahnriemenscheibe T5 15 Zähne, 10mm Breite</t>
-  </si>
-  <si>
-    <t>Zahnriemenscheibe T5 48 Zähne, 10mm Breite</t>
-  </si>
-  <si>
-    <t>Zahnriemen T5 10mm Breite</t>
-  </si>
-  <si>
     <t>http://www.amazon.de/Zylinderkopfschrauben-Edelstahl-Zylinderschrauben-Inbusschrauben-Innensechskant/dp/B018XL6VPU/ref=sr_1_1?ie=UTF8&amp;qid=1457561023&amp;sr=8-1&amp;keywords=Innensechskant+M3+40</t>
   </si>
   <si>
-    <t>Oberarm Zahnriemen 1 Spanner Achse</t>
-  </si>
-  <si>
-    <t>Oberarm Zahnriemen 1 Spanner Rolle</t>
-  </si>
-  <si>
-    <t>http://www.amazon.de/100-St%C3%BCck-Kunststoff-Unterlegscheiben-M3/dp/B007YQCUVU/ref=pd_sim_sbs_60_11?ie=UTF8&amp;dpID=31R4hbM7tlL&amp;dpSrc=sims&amp;preST=_AC_UL160_SR160%2C160_&amp;refRID=0D0RH0PZDAFF1S4VP7RR</t>
-  </si>
-  <si>
-    <t>Kunststoff Unterlegscheiben M3</t>
-  </si>
-  <si>
-    <t>Oberarm Motor Zahnriemen</t>
-  </si>
-  <si>
-    <t>Oberarm Motor Zahnriemenscheibe 2 - kleines Rad</t>
-  </si>
-  <si>
-    <t>https://zahnriemen24.de/artikel_Zahnscheibe-AL-27-T5-48-0__10_2_892</t>
-  </si>
-  <si>
-    <t>Metallstreifen gelocht</t>
-  </si>
-  <si>
     <t>http://www.eiwa-es.de/de_robot2012/artikeldetails.php?aid=128</t>
   </si>
   <si>
     <t>Metallstreifen gelocht 20mm 2 Löcher</t>
   </si>
   <si>
-    <t>Oberarm Zahnriemen 1 Spanner Befestigung</t>
-  </si>
-  <si>
-    <t>https://www.conrad.de/de/silberstahl-welle-500-mm-8-mm-237205.html?sc.ref=Category%20Overview</t>
-  </si>
-  <si>
-    <t>Oberarm Motor Zahnriemenscheibe 1/2 -Achse</t>
-  </si>
-  <si>
-    <t>https://www.conrad.de/de/reely-stahl-gewindestange-500-mm-m4-stahl-237108.html</t>
-  </si>
-  <si>
-    <t>Oberarm Zahnriemen 1 Spanner Unterlegscheiben</t>
-  </si>
-  <si>
-    <t>Oberarm Zahnriemen 1 Spanner Gewindestange</t>
-  </si>
-  <si>
     <t>https://www.conrad.de/de/silberstahl-welle-500-mm-3-mm-237051.html</t>
   </si>
   <si>
-    <t>Achse 3mm Durchmesser</t>
-  </si>
-  <si>
     <t>Vierkant Muttern M3</t>
   </si>
   <si>
@@ -2522,9 +2391,6 @@
     <t>http://www.ebay.de/itm/111955026833</t>
   </si>
   <si>
-    <t>gekauft</t>
-  </si>
-  <si>
     <t>https://www.kugellager-express.de/flanschkugellager-f624-f-624-4x13x5-mm.html</t>
   </si>
   <si>
@@ -2622,6 +2488,24 @@
   </si>
   <si>
     <t>Oberarm-Kugellager</t>
+  </si>
+  <si>
+    <t>Drehkranz 80mm/140mm</t>
+  </si>
+  <si>
+    <t>http://www.ebay.de/itm/252339311458?_trksid=p2060353.m2749.l2649&amp;ssPageName=STRK%3AMEBIDX%3AIT</t>
+  </si>
+  <si>
+    <t>Hip</t>
+  </si>
+  <si>
+    <t>Hüftdrehgelenk</t>
+  </si>
+  <si>
+    <t>bestellt bei ebay</t>
+  </si>
+  <si>
+    <t>bestellt</t>
   </si>
 </sst>
 </file>
@@ -2773,11 +2657,11 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3175,6 +3059,159 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>70944</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Grafik 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect l="5104" t="19901" r="43703" b="9328"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5478780" y="373380"/>
+          <a:ext cx="4030980" cy="2989404"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>9907</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Grafik 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect l="4062" t="17377" r="46307" b="49810"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9822180" y="815340"/>
+          <a:ext cx="3916680" cy="1389127"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>559194</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>53341</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>312419</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>30481</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Grafik 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:srcRect l="2135" t="21551" r="62712" b="11659"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2936634" y="236221"/>
+          <a:ext cx="2130665" cy="2171700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>79349</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Grafik 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:srcRect l="7291" t="33104" r="72294" b="29035"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="68580" y="99060"/>
+          <a:ext cx="2369820" cy="2357729"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
   <a:themeElements>
@@ -3462,10 +3499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E43"/>
+  <dimension ref="A2:E44"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A34" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42:XFD42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3577,12 +3614,12 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E27" t="s">
-        <v>673</v>
+        <v>629</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E28" t="s">
-        <v>674</v>
+        <v>630</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -3617,18 +3654,18 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>640</v>
+        <v>603</v>
       </c>
       <c r="E34" t="s">
-        <v>639</v>
+        <v>602</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>640</v>
+        <v>603</v>
       </c>
       <c r="E35" t="s">
-        <v>639</v>
+        <v>602</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -3636,47 +3673,55 @@
         <v>236</v>
       </c>
       <c r="E37" t="s">
-        <v>630</v>
+        <v>601</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>649</v>
+        <v>605</v>
       </c>
       <c r="E38" t="s">
-        <v>650</v>
+        <v>606</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>651</v>
+        <v>607</v>
       </c>
       <c r="E40" t="s">
-        <v>652</v>
+        <v>608</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>667</v>
+        <v>623</v>
       </c>
       <c r="E41" t="s">
-        <v>668</v>
+        <v>624</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>669</v>
+        <v>822</v>
       </c>
       <c r="E42" t="s">
-        <v>670</v>
+        <v>624</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>672</v>
+        <v>625</v>
       </c>
       <c r="E43" t="s">
-        <v>671</v>
+        <v>626</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>628</v>
+      </c>
+      <c r="E44" t="s">
+        <v>627</v>
       </c>
     </row>
   </sheetData>
@@ -4200,7 +4245,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>731</v>
+        <v>687</v>
       </c>
       <c r="C46" s="5">
         <f>C50/C48*(C54/C52)</f>
@@ -4454,7 +4499,7 @@
     </row>
     <row r="70" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>734</v>
+        <v>690</v>
       </c>
       <c r="C70" s="2">
         <f>C66/C46</f>
@@ -4466,7 +4511,7 @@
     </row>
     <row r="71" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>732</v>
+        <v>688</v>
       </c>
       <c r="C71" s="2">
         <f>C65/C46</f>
@@ -4752,7 +4797,7 @@
     </row>
     <row r="78" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>733</v>
+        <v>689</v>
       </c>
       <c r="C78" s="2">
         <f>C71*(1+C57)</f>
@@ -8184,7 +8229,7 @@
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>619</v>
+        <v>600</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
@@ -8260,7 +8305,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>822</v>
+        <v>778</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -8362,8 +8407,8 @@
       <c r="A3" s="10"/>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
@@ -8379,10 +8424,10 @@
       <c r="C4" s="10" t="s">
         <v>359</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="D4" s="36" t="s">
         <v>360</v>
       </c>
-      <c r="E4" s="34"/>
+      <c r="E4" s="36"/>
       <c r="F4" s="10" t="s">
         <v>361</v>
       </c>
@@ -11813,7 +11858,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>706</v>
+        <v>662</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -11848,10 +11893,31 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L257"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A141" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L206" sqref="L206:L207"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O30" sqref="O30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L255"/>
+  <sheetViews>
+    <sheetView topLeftCell="A115" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E145" sqref="E145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11883,7 +11949,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>653</v>
+        <v>609</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -11895,7 +11961,7 @@
         <v>Zylinderkopfschraube Innensechskant M3 22mm</v>
       </c>
       <c r="D3" t="s">
-        <v>654</v>
+        <v>610</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -11906,10 +11972,10 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>655</v>
+        <v>611</v>
       </c>
       <c r="D4" t="s">
-        <v>656</v>
+        <v>612</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -11917,7 +11983,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>675</v>
+        <v>631</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -11929,7 +11995,7 @@
         <v>Rillenkugellager DIN 625 SKF - 61807 35x47x7mm</v>
       </c>
       <c r="D6" t="s">
-        <v>658</v>
+        <v>614</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11944,7 +12010,7 @@
         <v>Senkkopfschraube Innensechskant M3 10mm</v>
       </c>
       <c r="D7" t="s">
-        <v>659</v>
+        <v>615</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11959,7 +12025,7 @@
         <v>Zylinderkopfschraube Innensechskant M3 20mm</v>
       </c>
       <c r="D8" t="s">
-        <v>661</v>
+        <v>617</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -11971,7 +12037,7 @@
         <v>Muttern M3, Schlüsselweite 5.5 mm</v>
       </c>
       <c r="D9" t="s">
-        <v>663</v>
+        <v>619</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -11983,7 +12049,7 @@
         <v>Rillenkugellager DIN 625 SKF - 61902 15x28x7mm</v>
       </c>
       <c r="D10" t="s">
-        <v>665</v>
+        <v>621</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -11995,12 +12061,12 @@
         <v xml:space="preserve">Herkulex Servo DRS - 0201 </v>
       </c>
       <c r="D11" t="s">
-        <v>831</v>
+        <v>787</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>735</v>
+        <v>691</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -12012,7 +12078,7 @@
         <v>Zahnriemenscheibe T2,5, 16 Zähne</v>
       </c>
       <c r="D13" t="s">
-        <v>679</v>
+        <v>635</v>
       </c>
       <c r="H13" s="22"/>
       <c r="I13" s="22"/>
@@ -12026,7 +12092,7 @@
         <v>Zahnriemenscheibe T2,5, 44 Zähne</v>
       </c>
       <c r="D14" t="s">
-        <v>678</v>
+        <v>634</v>
       </c>
       <c r="H14" s="22"/>
       <c r="I14" s="22"/>
@@ -12040,7 +12106,7 @@
         <v>Zahnriemenscheibe T2,5, 16 Zähne</v>
       </c>
       <c r="D15" t="s">
-        <v>677</v>
+        <v>633</v>
       </c>
       <c r="H15" s="22"/>
       <c r="I15" s="22"/>
@@ -12054,7 +12120,7 @@
         <v>Zahnriemenscheibe T2,5, 18 Zähne</v>
       </c>
       <c r="D16" t="s">
-        <v>726</v>
+        <v>682</v>
       </c>
       <c r="H16" s="22"/>
       <c r="I16" s="22"/>
@@ -12068,7 +12134,7 @@
         <v>Zahnriemenscheibe T2,5, 14 Zähne</v>
       </c>
       <c r="D17" t="s">
-        <v>726</v>
+        <v>682</v>
       </c>
       <c r="H17" s="22"/>
       <c r="I17" s="22"/>
@@ -12082,7 +12148,7 @@
         <v>Zahnriemen T2,5 160mm 6mm Breite</v>
       </c>
       <c r="D18" t="s">
-        <v>685</v>
+        <v>641</v>
       </c>
       <c r="H18" s="22"/>
       <c r="I18" s="22"/>
@@ -12096,7 +12162,7 @@
         <v>Silberstahlwelle 6mm Durchmesser</v>
       </c>
       <c r="D19" t="s">
-        <v>680</v>
+        <v>636</v>
       </c>
       <c r="E19" s="26"/>
       <c r="H19" s="22"/>
@@ -12107,11 +12173,11 @@
         <v>1</v>
       </c>
       <c r="C20" t="str">
-        <f>C223</f>
+        <f>C224</f>
         <v>Metallbohrer 6mm</v>
       </c>
       <c r="D20" t="s">
-        <v>680</v>
+        <v>636</v>
       </c>
       <c r="E20" s="26"/>
       <c r="H20" s="22"/>
@@ -12122,11 +12188,11 @@
         <v>1</v>
       </c>
       <c r="C21" t="str">
-        <f>C224</f>
+        <f>C225</f>
         <v>Metallbohrer 2.3mm (für M3 Gewinde)</v>
       </c>
       <c r="D21" t="s">
-        <v>680</v>
+        <v>636</v>
       </c>
       <c r="E21" s="26"/>
       <c r="H21" s="22"/>
@@ -12137,11 +12203,11 @@
         <v>1</v>
       </c>
       <c r="C22" t="str">
-        <f>C221</f>
+        <f>C222</f>
         <v>Gewindeschneider M3</v>
       </c>
       <c r="D22" t="s">
-        <v>680</v>
+        <v>636</v>
       </c>
       <c r="E22" s="26"/>
       <c r="H22" s="22"/>
@@ -12156,7 +12222,7 @@
         <v>Rillenkugellager 6x10x3</v>
       </c>
       <c r="D23" t="s">
-        <v>689</v>
+        <v>645</v>
       </c>
       <c r="E23" s="26"/>
       <c r="H23" s="22"/>
@@ -12171,7 +12237,7 @@
         <v>NEMA 17 - 42x42x21</v>
       </c>
       <c r="D24" s="32" t="s">
-        <v>692</v>
+        <v>648</v>
       </c>
       <c r="E24" s="26"/>
       <c r="H24" s="22"/>
@@ -12186,7 +12252,7 @@
         <v>Zylinderkopfschraube Innensechskant M3 14mm</v>
       </c>
       <c r="D25" s="32" t="s">
-        <v>695</v>
+        <v>651</v>
       </c>
       <c r="H25" s="22"/>
       <c r="I25" s="22"/>
@@ -12200,7 +12266,7 @@
         <v>Unterlegscheiben M3 Dicke 0,5mm, Außendurchmesser 7mm</v>
       </c>
       <c r="D26" s="32" t="s">
-        <v>695</v>
+        <v>651</v>
       </c>
       <c r="H26" s="22"/>
       <c r="I26" s="22"/>
@@ -12214,7 +12280,7 @@
         <v>Zahnriemen T2,5 230mm 6mm Breite</v>
       </c>
       <c r="D27" s="32" t="s">
-        <v>700</v>
+        <v>656</v>
       </c>
       <c r="H27" s="22"/>
       <c r="I27" s="22"/>
@@ -12228,7 +12294,7 @@
         <v>Zylinderkopfschraube Innensechskant M3 16mm</v>
       </c>
       <c r="D28" s="32" t="s">
-        <v>699</v>
+        <v>655</v>
       </c>
       <c r="H28" s="22"/>
       <c r="I28" s="22"/>
@@ -12242,7 +12308,7 @@
         <v>Unterlegscheiben M3 Dicke 0,5mm, Außendurchmesser 7mm</v>
       </c>
       <c r="D29" s="32" t="s">
-        <v>699</v>
+        <v>655</v>
       </c>
       <c r="H29" s="22"/>
       <c r="I29" s="22"/>
@@ -12256,7 +12322,7 @@
         <v>Rillenkugellager  3.967 x 7.938 x 3.175 mm</v>
       </c>
       <c r="D30" s="32" t="s">
-        <v>713</v>
+        <v>669</v>
       </c>
       <c r="H30" s="22"/>
       <c r="I30" s="22"/>
@@ -12270,7 +12336,7 @@
         <v>Vierkant Mutter M3 Breite 5.5mm</v>
       </c>
       <c r="D31" s="32" t="s">
-        <v>699</v>
+        <v>655</v>
       </c>
       <c r="E31"/>
       <c r="H31" s="22"/>
@@ -12285,7 +12351,7 @@
         <v>Zylinderkopfschraube Innensechskant M2 6mm</v>
       </c>
       <c r="D32" s="32" t="s">
-        <v>703</v>
+        <v>659</v>
       </c>
       <c r="E32"/>
       <c r="H32" s="22"/>
@@ -12300,7 +12366,7 @@
         <v>Muttern M2</v>
       </c>
       <c r="D33" s="32" t="s">
-        <v>703</v>
+        <v>659</v>
       </c>
       <c r="E33"/>
       <c r="H33" s="22"/>
@@ -12315,7 +12381,7 @@
         <v>Rotary Sensor</v>
       </c>
       <c r="D34" s="32" t="s">
-        <v>708</v>
+        <v>664</v>
       </c>
       <c r="E34" s="9"/>
       <c r="H34" s="22"/>
@@ -12330,7 +12396,7 @@
         <v>Unterlegscheiben M2 Dicke 0,5mm</v>
       </c>
       <c r="D35" s="32" t="s">
-        <v>709</v>
+        <v>665</v>
       </c>
       <c r="E35" s="9"/>
       <c r="H35" s="22"/>
@@ -12345,7 +12411,7 @@
         <v>Distanzbolzen M3 20mm, Schlüsselweite 5mm</v>
       </c>
       <c r="D36" s="32" t="s">
-        <v>716</v>
+        <v>672</v>
       </c>
       <c r="E36" s="9"/>
       <c r="H36" s="22"/>
@@ -12360,7 +12426,7 @@
         <v>Unterlegscheiben M3 Dicke 0,5mm, Außendurchmesser 7mm</v>
       </c>
       <c r="D37" s="32" t="s">
-        <v>717</v>
+        <v>673</v>
       </c>
       <c r="H37" s="22"/>
       <c r="I37" s="22"/>
@@ -12370,10 +12436,10 @@
         <v>4</v>
       </c>
       <c r="C38" s="32" t="s">
-        <v>718</v>
+        <v>674</v>
       </c>
       <c r="D38" s="32" t="s">
-        <v>737</v>
+        <v>693</v>
       </c>
       <c r="H38" s="22"/>
       <c r="I38" s="22"/>
@@ -12387,7 +12453,7 @@
         <v>Zylinderkopfschraube Innensechskant M3 20mm</v>
       </c>
       <c r="D39" s="32" t="s">
-        <v>738</v>
+        <v>694</v>
       </c>
       <c r="E39" s="9"/>
       <c r="H39" s="22"/>
@@ -12402,7 +12468,7 @@
         <v>Unterlegscheiben M3 Dicke 0,5mm, Außendurchmesser 7mm</v>
       </c>
       <c r="D40" s="32" t="s">
-        <v>737</v>
+        <v>693</v>
       </c>
       <c r="H40" s="22"/>
       <c r="I40" s="22"/>
@@ -12415,7 +12481,7 @@
     </row>
     <row r="42" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
-        <v>778</v>
+        <v>734</v>
       </c>
       <c r="B42">
         <v>2</v>
@@ -12425,7 +12491,7 @@
         <v>Rillenkugellager DIN 625 SKF - 61807 35x47x7mm</v>
       </c>
       <c r="D42" s="32" t="s">
-        <v>736</v>
+        <v>692</v>
       </c>
       <c r="E42" s="9"/>
       <c r="H42" s="22"/>
@@ -12440,7 +12506,7 @@
         <v>RillenKugellager 6x19x6</v>
       </c>
       <c r="D43" s="32" t="s">
-        <v>741</v>
+        <v>697</v>
       </c>
       <c r="H43" s="22"/>
       <c r="I43" s="22"/>
@@ -12454,7 +12520,7 @@
         <v>Rillenkugellager 6x10x3</v>
       </c>
       <c r="D44" s="32" t="s">
-        <v>742</v>
+        <v>698</v>
       </c>
       <c r="E44" s="9"/>
       <c r="H44" s="22"/>
@@ -12469,7 +12535,7 @@
         <v>Rillenkugellager 3x10x4</v>
       </c>
       <c r="D45" s="32" t="s">
-        <v>748</v>
+        <v>704</v>
       </c>
       <c r="E45" s="9"/>
       <c r="H45" s="22"/>
@@ -12484,7 +12550,7 @@
         <v>Distanzhülsen M6 10mm</v>
       </c>
       <c r="D46" s="32" t="s">
-        <v>745</v>
+        <v>701</v>
       </c>
       <c r="H46" s="22"/>
       <c r="I46" s="22"/>
@@ -12498,7 +12564,7 @@
         <v>Silberstahlwelle 6mm Durchmesser</v>
       </c>
       <c r="D47" s="32" t="s">
-        <v>750</v>
+        <v>706</v>
       </c>
       <c r="H47" s="22"/>
       <c r="I47" s="22"/>
@@ -12513,7 +12579,7 @@
         <v>Silberstahlwelle 6mm Durchmesser</v>
       </c>
       <c r="D48" s="32" t="s">
-        <v>841</v>
+        <v>796</v>
       </c>
       <c r="H48" s="22"/>
       <c r="I48" s="22"/>
@@ -12527,7 +12593,7 @@
         <v>Silberstahlwelle 3mm Durchmesser</v>
       </c>
       <c r="D49" s="32" t="s">
-        <v>840</v>
+        <v>795</v>
       </c>
       <c r="E49" s="9"/>
       <c r="H49" s="22"/>
@@ -12538,11 +12604,11 @@
         <v>1</v>
       </c>
       <c r="C50" t="str">
-        <f>C223</f>
+        <f>C224</f>
         <v>Metallbohrer 6mm</v>
       </c>
       <c r="D50" t="s">
-        <v>680</v>
+        <v>636</v>
       </c>
       <c r="E50" s="26"/>
       <c r="H50" s="22"/>
@@ -12553,11 +12619,11 @@
         <v>1</v>
       </c>
       <c r="C51" t="str">
-        <f>C221</f>
+        <f>C222</f>
         <v>Gewindeschneider M3</v>
       </c>
       <c r="D51" t="s">
-        <v>680</v>
+        <v>636</v>
       </c>
       <c r="E51" s="26"/>
       <c r="H51" s="22"/>
@@ -12568,11 +12634,11 @@
         <v>1</v>
       </c>
       <c r="C52" t="str">
-        <f>C224</f>
+        <f>C225</f>
         <v>Metallbohrer 2.3mm (für M3 Gewinde)</v>
       </c>
       <c r="D52" t="s">
-        <v>680</v>
+        <v>636</v>
       </c>
       <c r="E52" s="26"/>
       <c r="H52" s="22"/>
@@ -12587,7 +12653,7 @@
         <v>Zahnriemen T2,5 200mm 6mm Breite</v>
       </c>
       <c r="D53" s="32" t="s">
-        <v>752</v>
+        <v>708</v>
       </c>
       <c r="H53" s="22"/>
       <c r="I53" s="22"/>
@@ -12601,7 +12667,7 @@
         <v>Zahnriemen T2,5 200mm 6mm Breite</v>
       </c>
       <c r="D54" s="32" t="s">
-        <v>753</v>
+        <v>709</v>
       </c>
       <c r="H54" s="22"/>
       <c r="I54" s="22"/>
@@ -12615,7 +12681,7 @@
         <v>Zylinderkopfschraube Innensechskant M3 22mm</v>
       </c>
       <c r="D55" s="32" t="s">
-        <v>754</v>
+        <v>710</v>
       </c>
       <c r="H55" s="22"/>
       <c r="I55" s="22"/>
@@ -12629,7 +12695,7 @@
         <v>Muttern M3, Schlüsselweite 5.5 mm</v>
       </c>
       <c r="D56" s="32" t="s">
-        <v>754</v>
+        <v>710</v>
       </c>
       <c r="E56" s="9"/>
       <c r="H56" s="22"/>
@@ -12644,7 +12710,7 @@
         <v>Zylinderkopfschraube Innensechskant M3 22mm</v>
       </c>
       <c r="D57" s="32" t="s">
-        <v>755</v>
+        <v>711</v>
       </c>
       <c r="H57" s="22"/>
       <c r="I57" s="22"/>
@@ -12658,7 +12724,7 @@
         <v>Muttern M3, Schlüsselweite 5.5 mm</v>
       </c>
       <c r="D58" s="32" t="s">
-        <v>755</v>
+        <v>711</v>
       </c>
       <c r="E58" s="9"/>
       <c r="H58" s="22"/>
@@ -12673,7 +12739,7 @@
         <v>Zylinderkopfschraube Innensechskant M3 12mm</v>
       </c>
       <c r="D59" s="32" t="s">
-        <v>758</v>
+        <v>714</v>
       </c>
       <c r="H59" s="22"/>
       <c r="I59" s="22"/>
@@ -12687,7 +12753,7 @@
         <v>Muttern M3, Schlüsselweite 5.5 mm</v>
       </c>
       <c r="D60" s="32" t="s">
-        <v>758</v>
+        <v>714</v>
       </c>
       <c r="E60" s="9"/>
       <c r="H60" s="22"/>
@@ -12702,7 +12768,7 @@
         <v>Zylinderkopfschraube Innensechskant M3 25mm</v>
       </c>
       <c r="D61" s="32" t="s">
-        <v>761</v>
+        <v>717</v>
       </c>
       <c r="E61" s="9"/>
       <c r="H61" s="22"/>
@@ -12717,7 +12783,7 @@
         <v>Distanzbolzen M3 20mm, Schlüsselweite 5mm</v>
       </c>
       <c r="D62" s="32" t="s">
-        <v>761</v>
+        <v>717</v>
       </c>
       <c r="E62" s="9"/>
       <c r="H62" s="22"/>
@@ -12732,7 +12798,7 @@
         <v>NEMA 17 - 42x42x33</v>
       </c>
       <c r="D63" s="32" t="s">
-        <v>692</v>
+        <v>648</v>
       </c>
       <c r="E63" s="9"/>
       <c r="H63" s="22"/>
@@ -12747,7 +12813,7 @@
         <v>Zahnriemenscheibe T2,5, 16 Zähne</v>
       </c>
       <c r="D64" s="32" t="s">
-        <v>764</v>
+        <v>720</v>
       </c>
       <c r="E64" s="9"/>
       <c r="H64" s="22"/>
@@ -12762,7 +12828,7 @@
         <v>Zahnriemenscheibe T2,5, 16 Zähne</v>
       </c>
       <c r="D65" s="32" t="s">
-        <v>765</v>
+        <v>721</v>
       </c>
       <c r="E65" s="9"/>
       <c r="H65" s="22"/>
@@ -12777,7 +12843,7 @@
         <v>Zahnriemenscheibe T2,5, 60 Zähne</v>
       </c>
       <c r="D66" s="32" t="s">
-        <v>765</v>
+        <v>721</v>
       </c>
       <c r="E66" s="9"/>
       <c r="H66" s="22"/>
@@ -12792,7 +12858,7 @@
         <v>Zylinderkopfschraube Innensechskant M6 55mm</v>
       </c>
       <c r="D67" s="32" t="s">
-        <v>769</v>
+        <v>725</v>
       </c>
       <c r="E67" s="9"/>
       <c r="H67" s="22"/>
@@ -12803,10 +12869,10 @@
         <v>1</v>
       </c>
       <c r="C68" s="32" t="s">
-        <v>770</v>
+        <v>726</v>
       </c>
       <c r="D68" s="32" t="s">
-        <v>769</v>
+        <v>725</v>
       </c>
       <c r="E68" s="9"/>
       <c r="H68" s="22"/>
@@ -12821,7 +12887,7 @@
         <v>Rotary Sensor</v>
       </c>
       <c r="D69" s="32" t="s">
-        <v>708</v>
+        <v>664</v>
       </c>
       <c r="E69" s="9"/>
       <c r="H69" s="22"/>
@@ -12836,7 +12902,7 @@
     </row>
     <row r="71" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
-        <v>779</v>
+        <v>735</v>
       </c>
       <c r="B71">
         <v>4</v>
@@ -12846,7 +12912,7 @@
         <v>Zylinderkopfschraube Innensechskant M2 6mm</v>
       </c>
       <c r="D71" s="32" t="s">
-        <v>703</v>
+        <v>659</v>
       </c>
       <c r="E71" s="9"/>
       <c r="H71" s="22"/>
@@ -12861,7 +12927,7 @@
         <v>Muttern M2</v>
       </c>
       <c r="D72" s="32" t="s">
-        <v>703</v>
+        <v>659</v>
       </c>
       <c r="E72" s="9"/>
       <c r="H72" s="22"/>
@@ -12876,7 +12942,7 @@
         <v>Rotary Sensor</v>
       </c>
       <c r="D73" s="32" t="s">
-        <v>708</v>
+        <v>664</v>
       </c>
       <c r="E73" s="9"/>
       <c r="H73" s="22"/>
@@ -12891,7 +12957,7 @@
         <v>Unterlegscheiben M2 Dicke 0,5mm</v>
       </c>
       <c r="D74" s="32" t="s">
-        <v>709</v>
+        <v>665</v>
       </c>
       <c r="E74" s="9"/>
       <c r="H74" s="22"/>
@@ -12906,7 +12972,7 @@
         <v>Rillenkugellager DIN 625 SKF - 61807 35x47x7mm</v>
       </c>
       <c r="D75" s="32" t="s">
-        <v>780</v>
+        <v>736</v>
       </c>
       <c r="E75" s="9"/>
       <c r="H75" s="22"/>
@@ -12921,7 +12987,7 @@
         <v>Senkkopfschraube Innensechskant M3 10mm</v>
       </c>
       <c r="D76" t="s">
-        <v>781</v>
+        <v>737</v>
       </c>
       <c r="E76" s="9"/>
       <c r="H76" s="22"/>
@@ -12936,7 +13002,7 @@
         <v>Senkkopfschraube Innensechskant M3 10mm</v>
       </c>
       <c r="D77" t="s">
-        <v>784</v>
+        <v>740</v>
       </c>
       <c r="E77" s="9"/>
       <c r="H77" s="22"/>
@@ -12951,7 +13017,7 @@
         <v>Zylinderkopfschraube Innensechskant M3 40mm</v>
       </c>
       <c r="D78" s="32" t="s">
-        <v>788</v>
+        <v>744</v>
       </c>
       <c r="E78" s="9"/>
       <c r="H78" s="22"/>
@@ -12966,7 +13032,7 @@
         <v>Zylinderkopfschraube Innensechskant M3 30mm</v>
       </c>
       <c r="D79" s="32" t="s">
-        <v>789</v>
+        <v>745</v>
       </c>
       <c r="E79" s="9"/>
       <c r="H79" s="22"/>
@@ -12981,7 +13047,7 @@
         <v>Unterlegscheiben M3 Dicke 0,5mm, Außendurchmesser 7mm</v>
       </c>
       <c r="D80" s="32" t="s">
-        <v>790</v>
+        <v>746</v>
       </c>
       <c r="E80" s="9"/>
       <c r="H80" s="22"/>
@@ -12996,7 +13062,7 @@
         <v>Zylinderkopfschraube Innensechskant M3 45mm</v>
       </c>
       <c r="D81" s="32" t="s">
-        <v>791</v>
+        <v>747</v>
       </c>
       <c r="E81" s="9"/>
       <c r="H81" s="22"/>
@@ -13011,7 +13077,7 @@
         <v>Rillenkugellager  4 x13 x 5 mm mit Flansch</v>
       </c>
       <c r="D82" s="32" t="s">
-        <v>791</v>
+        <v>747</v>
       </c>
       <c r="E82" s="9"/>
       <c r="H82" s="22"/>
@@ -13026,7 +13092,7 @@
         <v>Unterlegscheiben M3 Dicke 0,5mm, Außendurchmesser 7mm</v>
       </c>
       <c r="D83" s="32" t="s">
-        <v>791</v>
+        <v>747</v>
       </c>
       <c r="E83" s="9"/>
       <c r="H83" s="22"/>
@@ -13041,7 +13107,7 @@
         <v>Madenschraube M3 16mm</v>
       </c>
       <c r="D84" s="32" t="s">
-        <v>791</v>
+        <v>747</v>
       </c>
       <c r="E84" s="9"/>
       <c r="H84" s="22"/>
@@ -13056,7 +13122,7 @@
         <v>Silberstahlwelle 8mm Durchmesser</v>
       </c>
       <c r="D85" s="32" t="s">
-        <v>797</v>
+        <v>753</v>
       </c>
       <c r="E85" s="9"/>
       <c r="H85" s="22"/>
@@ -13071,7 +13137,7 @@
         <v>Zahnriemenscheibe T5, 48 Zähne</v>
       </c>
       <c r="D86" s="32" t="s">
-        <v>797</v>
+        <v>753</v>
       </c>
       <c r="E86" s="9"/>
       <c r="H86" s="22"/>
@@ -13086,7 +13152,7 @@
         <v>Zahnriemenscheibe T5, 16 Zähne</v>
       </c>
       <c r="D87" s="32" t="s">
-        <v>797</v>
+        <v>753</v>
       </c>
       <c r="E87" s="9"/>
       <c r="H87" s="22"/>
@@ -13097,11 +13163,11 @@
         <v>1</v>
       </c>
       <c r="C88" t="str">
-        <f>C222</f>
+        <f>C223</f>
         <v>Metallbohrer 8mm</v>
       </c>
       <c r="D88" s="32" t="s">
-        <v>797</v>
+        <v>753</v>
       </c>
       <c r="E88" s="9"/>
       <c r="H88" s="22"/>
@@ -13112,11 +13178,11 @@
         <v>1</v>
       </c>
       <c r="C89" t="str">
-        <f>C221</f>
+        <f>C222</f>
         <v>Gewindeschneider M3</v>
       </c>
       <c r="D89" s="32" t="s">
-        <v>797</v>
+        <v>753</v>
       </c>
       <c r="E89" s="9"/>
       <c r="H89" s="22"/>
@@ -13127,11 +13193,11 @@
         <v>1</v>
       </c>
       <c r="C90" t="str">
-        <f>C224</f>
+        <f>C225</f>
         <v>Metallbohrer 2.3mm (für M3 Gewinde)</v>
       </c>
       <c r="D90" s="32" t="s">
-        <v>797</v>
+        <v>753</v>
       </c>
       <c r="E90" s="9"/>
       <c r="H90" s="22"/>
@@ -13146,7 +13212,7 @@
         <v>Madenschraube M3 5mm</v>
       </c>
       <c r="D91" s="32" t="s">
-        <v>797</v>
+        <v>753</v>
       </c>
       <c r="E91" s="9"/>
       <c r="H91" s="22"/>
@@ -13161,7 +13227,7 @@
         <v>Rillenkugellager 8x22x7</v>
       </c>
       <c r="D92" s="32" t="s">
-        <v>797</v>
+        <v>753</v>
       </c>
       <c r="E92" s="9"/>
       <c r="H92" s="22"/>
@@ -13176,7 +13242,7 @@
         <v>Unterlegscheiben 8mm Innendurchmesser</v>
       </c>
       <c r="D93" s="32" t="s">
-        <v>797</v>
+        <v>753</v>
       </c>
       <c r="E93" s="9"/>
       <c r="H93" s="22"/>
@@ -13191,7 +13257,7 @@
         <v>Zylinderkopfschraube Innensechskant M3 45mm</v>
       </c>
       <c r="D94" s="32" t="s">
-        <v>811</v>
+        <v>767</v>
       </c>
       <c r="E94" s="9"/>
       <c r="H94" s="22"/>
@@ -13206,7 +13272,7 @@
         <v>Unterlegscheiben M3 Dicke 0,5mm, Außendurchmesser 7mm</v>
       </c>
       <c r="D95" s="32" t="s">
-        <v>811</v>
+        <v>767</v>
       </c>
       <c r="E95" s="9"/>
       <c r="H95" s="22"/>
@@ -13221,7 +13287,7 @@
         <v>Vierkant Mutter M3 Breite 5.5mm</v>
       </c>
       <c r="D96" s="32" t="s">
-        <v>811</v>
+        <v>767</v>
       </c>
       <c r="E96" s="9"/>
       <c r="H96" s="22"/>
@@ -13236,7 +13302,7 @@
         <v>Zylinderkopfschraube Innensechskant M3 45mm</v>
       </c>
       <c r="D97" s="32" t="s">
-        <v>810</v>
+        <v>766</v>
       </c>
       <c r="E97" s="9"/>
       <c r="H97" s="22"/>
@@ -13251,7 +13317,7 @@
         <v>Unterlegscheiben M3 Dicke 0,5mm, Außendurchmesser 7mm</v>
       </c>
       <c r="D98" s="32" t="s">
-        <v>810</v>
+        <v>766</v>
       </c>
       <c r="E98" s="9"/>
       <c r="H98" s="22"/>
@@ -13266,7 +13332,7 @@
         <v>Vierkant Mutter M3 Breite 5.5mm</v>
       </c>
       <c r="D99" s="32" t="s">
-        <v>810</v>
+        <v>766</v>
       </c>
       <c r="E99" s="9"/>
       <c r="H99" s="22"/>
@@ -13281,7 +13347,7 @@
         <v xml:space="preserve">Rillenkugellager  4 x13 x 5 mm </v>
       </c>
       <c r="D100" s="32" t="s">
-        <v>810</v>
+        <v>766</v>
       </c>
       <c r="E100" s="9"/>
       <c r="H100" s="22"/>
@@ -13296,7 +13362,7 @@
         <v>Unterlegscheiben M3 Kunststoff 0,8mm, Außendurchmesser 7mm</v>
       </c>
       <c r="D101" s="32" t="s">
-        <v>810</v>
+        <v>766</v>
       </c>
       <c r="E101" s="9"/>
       <c r="H101" s="22"/>
@@ -13311,7 +13377,7 @@
         <v>Senkkopfschraube Innensechskant M3 25mm</v>
       </c>
       <c r="D102" s="32" t="s">
-        <v>659</v>
+        <v>615</v>
       </c>
       <c r="E102" s="9"/>
       <c r="H102" s="22"/>
@@ -13326,7 +13392,7 @@
         <v>Zylinderkopfschraube Innensechskant M3 30mm</v>
       </c>
       <c r="D103" s="32" t="s">
-        <v>814</v>
+        <v>770</v>
       </c>
       <c r="E103" s="9"/>
       <c r="H103" s="22"/>
@@ -13341,7 +13407,7 @@
         <v>Distanzbolzen M3 20mm, Schlüsselweite 5mm</v>
       </c>
       <c r="D104" s="32" t="s">
-        <v>814</v>
+        <v>770</v>
       </c>
       <c r="E104" s="9"/>
       <c r="H104" s="22"/>
@@ -13356,7 +13422,7 @@
         <v>Unterlegscheiben M3 Dicke 0,5mm, Außendurchmesser 7mm</v>
       </c>
       <c r="D105" s="32" t="s">
-        <v>814</v>
+        <v>770</v>
       </c>
       <c r="E105" s="9"/>
       <c r="H105" s="22"/>
@@ -13371,7 +13437,7 @@
         <v>Zylinderkopfschraube Innensechskant M3 30mm</v>
       </c>
       <c r="D106" s="32" t="s">
-        <v>815</v>
+        <v>771</v>
       </c>
       <c r="E106" s="9"/>
       <c r="H106" s="22"/>
@@ -13386,7 +13452,7 @@
         <v>Unterlegscheiben M3 Dicke 0,5mm, Außendurchmesser 7mm</v>
       </c>
       <c r="D107" s="32" t="s">
-        <v>815</v>
+        <v>771</v>
       </c>
       <c r="E107" s="9"/>
       <c r="H107" s="22"/>
@@ -13401,7 +13467,7 @@
         <v>Zahnriemen T5 340mm 10mm Breite</v>
       </c>
       <c r="D108" s="32" t="s">
-        <v>818</v>
+        <v>774</v>
       </c>
       <c r="E108" s="9"/>
       <c r="H108" s="22"/>
@@ -13416,7 +13482,7 @@
         <v>Zahnriemenscheibe T5, 16 Zähne</v>
       </c>
       <c r="D109" s="32" t="s">
-        <v>818</v>
+        <v>774</v>
       </c>
       <c r="E109" s="9"/>
       <c r="H109" s="22"/>
@@ -13431,7 +13497,7 @@
         <v>Zahnriemen T5 510mm 10mm Breite</v>
       </c>
       <c r="D110" s="32" t="s">
-        <v>821</v>
+        <v>777</v>
       </c>
       <c r="E110" s="9"/>
       <c r="H110" s="22"/>
@@ -13446,7 +13512,7 @@
         <v xml:space="preserve">NEMA 24 - 60x60x57 1.9Nm ST6018M2008 </v>
       </c>
       <c r="D111" s="32" t="s">
-        <v>692</v>
+        <v>648</v>
       </c>
       <c r="E111" s="9"/>
       <c r="H111" s="22"/>
@@ -13460,7 +13526,7 @@
     </row>
     <row r="113" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="6" t="s">
-        <v>845</v>
+        <v>800</v>
       </c>
       <c r="B113">
         <v>4</v>
@@ -13470,7 +13536,7 @@
         <v>Zylinderkopfschraube Innensechskant M2 6mm</v>
       </c>
       <c r="D113" s="32" t="s">
-        <v>703</v>
+        <v>659</v>
       </c>
       <c r="E113" s="9"/>
       <c r="H113" s="22"/>
@@ -13485,7 +13551,7 @@
         <v>Muttern M2</v>
       </c>
       <c r="D114" s="32" t="s">
-        <v>703</v>
+        <v>659</v>
       </c>
       <c r="E114" s="9"/>
       <c r="H114" s="22"/>
@@ -13500,7 +13566,7 @@
         <v>Rotary Sensor</v>
       </c>
       <c r="D115" s="32" t="s">
-        <v>708</v>
+        <v>664</v>
       </c>
       <c r="E115" s="9"/>
       <c r="H115" s="22"/>
@@ -13515,7 +13581,7 @@
         <v>Unterlegscheiben M2 Dicke 0,5mm</v>
       </c>
       <c r="D116" s="32" t="s">
-        <v>709</v>
+        <v>665</v>
       </c>
       <c r="E116" s="9"/>
       <c r="H116" s="22"/>
@@ -13530,7 +13596,7 @@
         <v xml:space="preserve">Rillenkugellager  4 x13 x 5 mm </v>
       </c>
       <c r="D117" s="32" t="s">
-        <v>846</v>
+        <v>801</v>
       </c>
       <c r="E117" s="9"/>
       <c r="H117" s="22"/>
@@ -13545,7 +13611,7 @@
         <v>Unterlegscheiben M3 Kunststoff 0,8mm, Außendurchmesser 7mm</v>
       </c>
       <c r="D118" s="32" t="s">
-        <v>846</v>
+        <v>801</v>
       </c>
       <c r="E118" s="9"/>
       <c r="H118" s="22"/>
@@ -13560,7 +13626,7 @@
         <v>Vierkant Mutter M3 Breite 5.5mm</v>
       </c>
       <c r="D119" s="32" t="s">
-        <v>846</v>
+        <v>801</v>
       </c>
       <c r="E119" s="9"/>
       <c r="H119" s="22"/>
@@ -13575,7 +13641,7 @@
         <v>Zylinderkopfschraube Innensechskant M3 22mm</v>
       </c>
       <c r="D120" s="32" t="s">
-        <v>846</v>
+        <v>801</v>
       </c>
       <c r="E120" s="9"/>
       <c r="H120" s="22"/>
@@ -13590,7 +13656,7 @@
         <v>Unterlegscheiben M3 Dicke 0,5mm, Außendurchmesser 7mm</v>
       </c>
       <c r="D121" s="32" t="s">
-        <v>846</v>
+        <v>801</v>
       </c>
       <c r="E121" s="9"/>
       <c r="H121" s="22"/>
@@ -13605,7 +13671,7 @@
         <v>Zylinderkopfschraube Innensechskant M3 40mm</v>
       </c>
       <c r="D122" s="32" t="s">
-        <v>846</v>
+        <v>801</v>
       </c>
       <c r="E122" s="9"/>
       <c r="H122" s="22"/>
@@ -13620,7 +13686,7 @@
         <v>Zylinderkopfschraube Innensechskant M3 45mm</v>
       </c>
       <c r="D123" s="32" t="s">
-        <v>846</v>
+        <v>801</v>
       </c>
       <c r="E123" s="9"/>
       <c r="H123" s="22"/>
@@ -13635,7 +13701,7 @@
         <v>Zylinderkopfschraube Innensechskant M3 25mm</v>
       </c>
       <c r="D124" s="32" t="s">
-        <v>846</v>
+        <v>801</v>
       </c>
       <c r="E124" s="9"/>
       <c r="H124" s="22"/>
@@ -13650,7 +13716,7 @@
         <v>Rillenkugellager 8x22x7</v>
       </c>
       <c r="D125" s="32" t="s">
-        <v>848</v>
+        <v>803</v>
       </c>
       <c r="E125" s="9"/>
       <c r="H125" s="22"/>
@@ -13665,7 +13731,7 @@
         <v>Silberstahlwelle 8mm Durchmesser</v>
       </c>
       <c r="D126" s="32" t="s">
-        <v>848</v>
+        <v>803</v>
       </c>
       <c r="E126" s="9"/>
       <c r="H126" s="22"/>
@@ -13680,7 +13746,7 @@
         <v>Zahnriemenscheibe T5, 48 Zähne</v>
       </c>
       <c r="D127" s="32" t="s">
-        <v>848</v>
+        <v>803</v>
       </c>
       <c r="E127" s="9"/>
       <c r="H127" s="22"/>
@@ -13695,13 +13761,13 @@
         <v>Zahnriemenscheibe T5, 16 Zähne</v>
       </c>
       <c r="D128" s="32" t="s">
-        <v>848</v>
+        <v>803</v>
       </c>
       <c r="E128" s="9"/>
       <c r="H128" s="22"/>
       <c r="I128" s="22"/>
     </row>
-    <row r="129" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B129">
         <v>1</v>
       </c>
@@ -13710,13 +13776,13 @@
         <v>Zahnriemen T5 500mm 10mm Breite</v>
       </c>
       <c r="D129" s="32" t="s">
-        <v>849</v>
+        <v>804</v>
       </c>
       <c r="E129" s="9"/>
       <c r="H129" s="22"/>
       <c r="I129" s="22"/>
     </row>
-    <row r="130" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B130">
         <v>1</v>
       </c>
@@ -13725,13 +13791,13 @@
         <v>Zahnriemen T5 480mm 10mm Breite</v>
       </c>
       <c r="D130" s="32" t="s">
-        <v>849</v>
+        <v>804</v>
       </c>
       <c r="E130" s="9"/>
       <c r="H130" s="22"/>
       <c r="I130" s="22"/>
     </row>
-    <row r="131" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B131">
         <v>1</v>
       </c>
@@ -13740,13 +13806,13 @@
         <v>Zahnriemenscheibe T5, 16 Zähne</v>
       </c>
       <c r="D131" s="32" t="s">
-        <v>854</v>
+        <v>809</v>
       </c>
       <c r="E131" s="9"/>
       <c r="H131" s="22"/>
       <c r="I131" s="22"/>
     </row>
-    <row r="132" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B132">
         <v>1</v>
       </c>
@@ -13755,13 +13821,13 @@
         <v>Zahnriemen T5 340mm 10mm Breite</v>
       </c>
       <c r="D132" s="32" t="s">
-        <v>855</v>
+        <v>810</v>
       </c>
       <c r="E132" s="9"/>
       <c r="H132" s="22"/>
       <c r="I132" s="22"/>
     </row>
-    <row r="133" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B133">
         <v>4</v>
       </c>
@@ -13770,13 +13836,13 @@
         <v>Zylinderkopfschraube Innensechskant M3 20mm</v>
       </c>
       <c r="D133" s="32" t="s">
-        <v>856</v>
+        <v>811</v>
       </c>
       <c r="E133" s="9"/>
       <c r="H133" s="22"/>
       <c r="I133" s="22"/>
     </row>
-    <row r="134" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B134">
         <v>4</v>
       </c>
@@ -13785,13 +13851,13 @@
         <v>Muttern M3, Schlüsselweite 5.5 mm</v>
       </c>
       <c r="D134" s="32" t="s">
-        <v>856</v>
+        <v>811</v>
       </c>
       <c r="E134" s="9"/>
       <c r="H134" s="22"/>
       <c r="I134" s="22"/>
     </row>
-    <row r="135" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B135">
         <v>4</v>
       </c>
@@ -13800,13 +13866,13 @@
         <v>Unterlegscheiben M3 Dicke 0,5mm, Außendurchmesser 7mm</v>
       </c>
       <c r="D135" s="32" t="s">
-        <v>856</v>
+        <v>811</v>
       </c>
       <c r="E135" s="9"/>
       <c r="H135" s="22"/>
       <c r="I135" s="22"/>
     </row>
-    <row r="136" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B136">
         <v>4</v>
       </c>
@@ -13815,13 +13881,13 @@
         <v>Zylinderkopfschraube Innensechskant M3 45mm</v>
       </c>
       <c r="D136" s="32" t="s">
-        <v>857</v>
+        <v>812</v>
       </c>
       <c r="E136" s="9"/>
       <c r="H136" s="22"/>
       <c r="I136" s="22"/>
     </row>
-    <row r="137" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B137">
         <v>4</v>
       </c>
@@ -13830,13 +13896,13 @@
         <v>Unterlegscheiben M3 Dicke 0,5mm, Außendurchmesser 7mm</v>
       </c>
       <c r="D137" s="32" t="s">
-        <v>857</v>
+        <v>812</v>
       </c>
       <c r="E137" s="9"/>
       <c r="H137" s="22"/>
       <c r="I137" s="22"/>
     </row>
-    <row r="138" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B138">
         <v>4</v>
       </c>
@@ -13845,13 +13911,13 @@
         <v>Distanzbolzen M3 25mm, Schlüsselweite 5mm</v>
       </c>
       <c r="D138" s="32" t="s">
-        <v>857</v>
+        <v>812</v>
       </c>
       <c r="E138" s="9"/>
       <c r="H138" s="22"/>
       <c r="I138" s="22"/>
     </row>
-    <row r="139" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B139">
         <v>5</v>
       </c>
@@ -13860,13 +13926,13 @@
         <v>Vierkant Mutter M3 Breite 5.5mm</v>
       </c>
       <c r="D139" s="32" t="s">
-        <v>860</v>
+        <v>815</v>
       </c>
       <c r="E139" s="9"/>
       <c r="H139" s="22"/>
       <c r="I139" s="22"/>
     </row>
-    <row r="140" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B140">
         <v>5</v>
       </c>
@@ -13875,13 +13941,13 @@
         <v>Zylinderkopfschraube Innensechskant M3 40mm</v>
       </c>
       <c r="D140" s="32" t="s">
-        <v>860</v>
+        <v>815</v>
       </c>
       <c r="E140" s="9"/>
       <c r="H140" s="22"/>
       <c r="I140" s="22"/>
     </row>
-    <row r="141" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B141">
         <v>1</v>
       </c>
@@ -13890,13 +13956,13 @@
         <v xml:space="preserve">NEMA 24 - 60x60x87 3.1Nm </v>
       </c>
       <c r="D141" s="32" t="s">
-        <v>692</v>
+        <v>648</v>
       </c>
       <c r="E141" s="9"/>
       <c r="H141" s="22"/>
       <c r="I141" s="22"/>
     </row>
-    <row r="142" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B142">
         <v>2</v>
       </c>
@@ -13905,20 +13971,32 @@
         <v>Rillenkugellager DIN 625 SKF - SKF 61818 - 90x115x13</v>
       </c>
       <c r="D142" s="32" t="s">
-        <v>866</v>
+        <v>821</v>
       </c>
       <c r="E142" s="9"/>
       <c r="H142" s="22"/>
       <c r="I142" s="22"/>
     </row>
-    <row r="143" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D143" s="32"/>
       <c r="E143" s="9"/>
       <c r="H143" s="22"/>
       <c r="I143" s="22"/>
     </row>
-    <row r="144" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D144" s="32"/>
+    <row r="144" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="6" t="s">
+        <v>824</v>
+      </c>
+      <c r="B144">
+        <v>1</v>
+      </c>
+      <c r="C144" t="str">
+        <f>C219</f>
+        <v>Drehkranz 80mm/140mm</v>
+      </c>
+      <c r="D144" s="32" t="s">
+        <v>825</v>
+      </c>
       <c r="E144" s="9"/>
       <c r="H144" s="22"/>
       <c r="I144" s="22"/>
@@ -13952,24 +14030,24 @@
     </row>
     <row r="149" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B149" t="s">
-        <v>730</v>
+        <v>686</v>
       </c>
       <c r="C149" s="32"/>
       <c r="E149" s="9"/>
       <c r="G149" t="s">
-        <v>707</v>
+        <v>663</v>
       </c>
       <c r="H149" s="22" t="s">
-        <v>720</v>
+        <v>676</v>
       </c>
       <c r="I149" s="22" t="s">
-        <v>721</v>
+        <v>677</v>
       </c>
       <c r="J149" t="s">
-        <v>722</v>
+        <v>678</v>
       </c>
       <c r="K149" t="s">
-        <v>759</v>
+        <v>715</v>
       </c>
     </row>
     <row r="150" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -13978,10 +14056,10 @@
         <v>1</v>
       </c>
       <c r="C150" s="32" t="s">
-        <v>792</v>
+        <v>748</v>
       </c>
       <c r="E150" t="s">
-        <v>847</v>
+        <v>802</v>
       </c>
       <c r="G150">
         <v>25</v>
@@ -13990,14 +14068,14 @@
         <v>7.45</v>
       </c>
       <c r="I150" s="18">
-        <f>SUMIF(C$1:C$148,"="&amp;C150,B$1:B$148)</f>
+        <f t="shared" ref="I150:I160" si="1">SUMIF(C$1:C$148,"="&amp;C150,B$1:B$148)</f>
         <v>14</v>
       </c>
       <c r="J150" s="33">
-        <f>G150*B150-I150</f>
+        <f t="shared" ref="J150:J155" si="2">G150*B150-I150</f>
         <v>11</v>
       </c>
-      <c r="K150" s="35">
+      <c r="K150" s="34">
         <f>B150*H150</f>
         <v>7.45</v>
       </c>
@@ -14008,10 +14086,10 @@
         <v>1</v>
       </c>
       <c r="C151" s="32" t="s">
-        <v>786</v>
+        <v>742</v>
       </c>
       <c r="E151" s="9" t="s">
-        <v>719</v>
+        <v>675</v>
       </c>
       <c r="G151">
         <v>100</v>
@@ -14020,28 +14098,28 @@
         <v>2.63</v>
       </c>
       <c r="I151" s="18">
-        <f>SUMIF(C$1:C$148,"="&amp;C151,B$1:B$148)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="J151" s="33">
-        <f>G151*B151-I151</f>
+        <f t="shared" si="2"/>
         <v>90</v>
       </c>
-      <c r="K151" s="35">
+      <c r="K151" s="34">
         <f>B151*H151</f>
         <v>2.63</v>
       </c>
     </row>
     <row r="152" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B152" s="33">
-        <f t="shared" ref="B152" si="1">ROUNDUP(I152/G152,0)</f>
+        <f t="shared" ref="B152" si="3">ROUNDUP(I152/G152,0)</f>
         <v>1</v>
       </c>
       <c r="C152" s="32" t="s">
-        <v>787</v>
+        <v>743</v>
       </c>
       <c r="E152" s="9" t="s">
-        <v>719</v>
+        <v>675</v>
       </c>
       <c r="G152">
         <v>100</v>
@@ -14050,14 +14128,14 @@
         <v>2.63</v>
       </c>
       <c r="I152" s="18">
-        <f>SUMIF(C$1:C$148,"="&amp;C152,B$1:B$148)</f>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="J152" s="33">
-        <f>G152*B152-I152</f>
+        <f t="shared" si="2"/>
         <v>84</v>
       </c>
-      <c r="K152" s="35">
+      <c r="K152" s="34">
         <f>B152*H152</f>
         <v>2.63</v>
       </c>
@@ -14068,10 +14146,10 @@
         <v>1</v>
       </c>
       <c r="C153" s="32" t="s">
-        <v>660</v>
+        <v>616</v>
       </c>
       <c r="E153" s="9" t="s">
-        <v>719</v>
+        <v>675</v>
       </c>
       <c r="G153">
         <v>100</v>
@@ -14080,28 +14158,28 @@
         <v>1.79</v>
       </c>
       <c r="I153" s="18">
-        <f>SUMIF(C$1:C$148,"="&amp;C153,B$1:B$148)</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="J153" s="33">
-        <f>G153*B153-I153</f>
+        <f t="shared" si="2"/>
         <v>88</v>
       </c>
-      <c r="K153" s="35">
+      <c r="K153" s="34">
         <f>B153*H153</f>
         <v>1.79</v>
       </c>
     </row>
     <row r="154" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B154" s="33">
-        <f t="shared" ref="B154" si="2">ROUNDUP(I154/G154,0)</f>
+        <f t="shared" ref="B154" si="4">ROUNDUP(I154/G154,0)</f>
         <v>1</v>
       </c>
       <c r="C154" s="32" t="s">
-        <v>760</v>
+        <v>716</v>
       </c>
       <c r="E154" s="9" t="s">
-        <v>719</v>
+        <v>675</v>
       </c>
       <c r="G154">
         <v>100</v>
@@ -14110,28 +14188,28 @@
         <v>1.71</v>
       </c>
       <c r="I154" s="18">
-        <f>SUMIF(C$1:C$148,"="&amp;C154,B$1:B$148)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="J154" s="33">
-        <f>G154*B154-I154</f>
+        <f t="shared" si="2"/>
         <v>93</v>
       </c>
-      <c r="K154" s="35">
-        <f t="shared" ref="K154" si="3">B154*H154</f>
+      <c r="K154" s="34">
+        <f t="shared" ref="K154" si="5">B154*H154</f>
         <v>1.71</v>
       </c>
     </row>
     <row r="155" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B155" s="33">
-        <f t="shared" ref="B155" si="4">ROUNDUP(I155/G155,0)</f>
+        <f t="shared" ref="B155" si="6">ROUNDUP(I155/G155,0)</f>
         <v>1</v>
       </c>
       <c r="C155" s="32" t="s">
-        <v>728</v>
+        <v>684</v>
       </c>
       <c r="E155" s="9" t="s">
-        <v>719</v>
+        <v>675</v>
       </c>
       <c r="G155">
         <v>100</v>
@@ -14140,15 +14218,15 @@
         <v>1.71</v>
       </c>
       <c r="I155" s="18">
-        <f>SUMIF(C$1:C$148,"="&amp;C155,B$1:B$148)</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="J155" s="33">
-        <f>G155*B155-I155</f>
+        <f t="shared" si="2"/>
         <v>88</v>
       </c>
-      <c r="K155" s="35">
-        <f t="shared" ref="K155:K216" si="5">B155*H155</f>
+      <c r="K155" s="34">
+        <f t="shared" ref="K155:K216" si="7">B155*H155</f>
         <v>1.71</v>
       </c>
     </row>
@@ -14158,11 +14236,11 @@
         <v>1</v>
       </c>
       <c r="C156" s="32" t="s">
-        <v>697</v>
+        <v>653</v>
       </c>
       <c r="D156" s="32"/>
       <c r="E156" s="29" t="s">
-        <v>698</v>
+        <v>654</v>
       </c>
       <c r="G156">
         <v>100</v>
@@ -14171,15 +14249,15 @@
         <v>1.96</v>
       </c>
       <c r="I156" s="18">
-        <f>SUMIF(C$1:C$148,"="&amp;C156,B$1:B$148)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J156" s="33">
-        <f t="shared" ref="J156:J212" si="6">G156*B156-I156</f>
+        <f t="shared" ref="J156:J212" si="8">G156*B156-I156</f>
         <v>99</v>
       </c>
-      <c r="K156" s="35">
-        <f t="shared" si="5"/>
+      <c r="K156" s="34">
+        <f t="shared" si="7"/>
         <v>1.96</v>
       </c>
     </row>
@@ -14189,10 +14267,10 @@
         <v>1</v>
       </c>
       <c r="C157" s="32" t="s">
-        <v>694</v>
+        <v>650</v>
       </c>
       <c r="E157" t="s">
-        <v>757</v>
+        <v>713</v>
       </c>
       <c r="G157">
         <v>100</v>
@@ -14201,28 +14279,28 @@
         <v>1.79</v>
       </c>
       <c r="I157" s="18">
-        <f>SUMIF(C$1:C$148,"="&amp;C157,B$1:B$148)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="J157" s="33">
-        <f t="shared" ref="J157" si="7">G157*B157-I157</f>
+        <f t="shared" ref="J157" si="9">G157*B157-I157</f>
         <v>98</v>
       </c>
-      <c r="K157" s="35">
-        <f t="shared" si="5"/>
+      <c r="K157" s="34">
+        <f t="shared" si="7"/>
         <v>1.79</v>
       </c>
     </row>
     <row r="158" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B158" s="33">
-        <f t="shared" ref="B158:B162" si="8">ROUNDUP(I158/G158,0)</f>
+        <f t="shared" ref="B158:B162" si="10">ROUNDUP(I158/G158,0)</f>
         <v>1</v>
       </c>
       <c r="C158" s="32" t="s">
-        <v>756</v>
+        <v>712</v>
       </c>
       <c r="E158" t="s">
-        <v>757</v>
+        <v>713</v>
       </c>
       <c r="G158">
         <v>100</v>
@@ -14231,15 +14309,15 @@
         <v>1.63</v>
       </c>
       <c r="I158" s="18">
-        <f>SUMIF(C$1:C$148,"="&amp;C158,B$1:B$148)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="J158" s="33">
-        <f t="shared" ref="J158:J162" si="9">G158*B158-I158</f>
+        <f t="shared" ref="J158:J162" si="11">G158*B158-I158</f>
         <v>98</v>
       </c>
-      <c r="K158" s="35">
-        <f t="shared" si="5"/>
+      <c r="K158" s="34">
+        <f t="shared" si="7"/>
         <v>1.63</v>
       </c>
     </row>
@@ -14249,10 +14327,10 @@
         <v>2</v>
       </c>
       <c r="C159" s="32" t="s">
-        <v>702</v>
+        <v>658</v>
       </c>
       <c r="E159" t="s">
-        <v>705</v>
+        <v>661</v>
       </c>
       <c r="G159">
         <v>10</v>
@@ -14261,14 +14339,14 @@
         <v>0.99</v>
       </c>
       <c r="I159" s="18">
-        <f>SUMIF(C$1:C$148,"="&amp;C159,B$1:B$148)</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="J159" s="33">
         <f>G159*B159-I159</f>
         <v>8</v>
       </c>
-      <c r="K159" s="35">
+      <c r="K159" s="34">
         <f>B159*H159</f>
         <v>1.98</v>
       </c>
@@ -14279,10 +14357,10 @@
         <v>1</v>
       </c>
       <c r="C160" t="s">
-        <v>776</v>
+        <v>732</v>
       </c>
       <c r="E160" t="s">
-        <v>768</v>
+        <v>724</v>
       </c>
       <c r="G160">
         <v>1</v>
@@ -14291,14 +14369,14 @@
         <v>0.4</v>
       </c>
       <c r="I160" s="18">
-        <f>SUMIF(C$1:C$148,"="&amp;C160,B$1:B$148)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J160" s="33">
         <f>G160*B160-I160</f>
         <v>0</v>
       </c>
-      <c r="K160" s="35">
+      <c r="K160" s="34">
         <f>B160*H160</f>
         <v>0.4</v>
       </c>
@@ -14310,18 +14388,18 @@
       <c r="H161" s="22"/>
       <c r="I161" s="18"/>
       <c r="J161" s="33"/>
-      <c r="K161" s="35"/>
+      <c r="K161" s="34"/>
     </row>
     <row r="162" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B162" s="33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="C162" s="32" t="s">
-        <v>772</v>
+        <v>728</v>
       </c>
       <c r="E162" t="s">
-        <v>771</v>
+        <v>727</v>
       </c>
       <c r="G162">
         <v>10</v>
@@ -14330,31 +14408,31 @@
         <v>2.35</v>
       </c>
       <c r="I162" s="18">
-        <f>SUMIF(C$1:C$148,"="&amp;C162,B$1:B$148)</f>
+        <f t="shared" ref="I162:I168" si="12">SUMIF(C$1:C$148,"="&amp;C162,B$1:B$148)</f>
         <v>0</v>
       </c>
       <c r="J162" s="33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="K162" s="35">
-        <f t="shared" si="5"/>
+      <c r="K162" s="34">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="163" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B163" s="33">
-        <f t="shared" ref="B163" si="10">ROUNDUP(I163/G163,0)</f>
+        <f t="shared" ref="B163" si="13">ROUNDUP(I163/G163,0)</f>
         <v>1</v>
       </c>
       <c r="C163" s="32" t="s">
-        <v>782</v>
+        <v>738</v>
       </c>
       <c r="E163" t="s">
-        <v>783</v>
+        <v>739</v>
       </c>
       <c r="F163" t="s">
-        <v>785</v>
+        <v>741</v>
       </c>
       <c r="G163">
         <v>50</v>
@@ -14363,31 +14441,31 @@
         <v>3.65</v>
       </c>
       <c r="I163" s="18">
-        <f>SUMIF(C$1:C$148,"="&amp;C163,B$1:B$148)</f>
+        <f t="shared" si="12"/>
         <v>12</v>
       </c>
       <c r="J163" s="33">
-        <f t="shared" ref="J163" si="11">G163*B163-I163</f>
+        <f t="shared" ref="J163" si="14">G163*B163-I163</f>
         <v>38</v>
       </c>
-      <c r="K163" s="35">
-        <f t="shared" ref="K163" si="12">B163*H163</f>
+      <c r="K163" s="34">
+        <f t="shared" ref="K163" si="15">B163*H163</f>
         <v>3.65</v>
       </c>
     </row>
     <row r="164" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B164" s="33">
-        <f t="shared" ref="B164" si="13">ROUNDUP(I164/G164,0)</f>
+        <f t="shared" ref="B164" si="16">ROUNDUP(I164/G164,0)</f>
         <v>1</v>
       </c>
       <c r="C164" s="32" t="s">
-        <v>812</v>
+        <v>768</v>
       </c>
       <c r="E164" t="s">
-        <v>813</v>
+        <v>769</v>
       </c>
       <c r="F164" t="s">
-        <v>785</v>
+        <v>741</v>
       </c>
       <c r="G164">
         <v>10</v>
@@ -14396,15 +14474,15 @@
         <v>2.41</v>
       </c>
       <c r="I164" s="18">
-        <f>SUMIF(C$1:C$148,"="&amp;C164,B$1:B$148)</f>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="J164" s="33">
-        <f t="shared" ref="J164" si="14">G164*B164-I164</f>
+        <f t="shared" ref="J164" si="17">G164*B164-I164</f>
         <v>6</v>
       </c>
-      <c r="K164" s="35">
-        <f t="shared" ref="K164" si="15">B164*H164</f>
+      <c r="K164" s="34">
+        <f t="shared" ref="K164" si="18">B164*H164</f>
         <v>2.41</v>
       </c>
     </row>
@@ -14414,10 +14492,10 @@
         <v>1</v>
       </c>
       <c r="C165" s="32" t="s">
-        <v>774</v>
+        <v>730</v>
       </c>
       <c r="E165" t="s">
-        <v>650</v>
+        <v>606</v>
       </c>
       <c r="G165">
         <v>100</v>
@@ -14426,28 +14504,28 @@
         <v>2.09</v>
       </c>
       <c r="I165" s="18">
-        <f>SUMIF(C$1:C$148,"="&amp;C165,B$1:B$148)</f>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="J165" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>85</v>
       </c>
-      <c r="K165" s="35">
-        <f t="shared" si="5"/>
+      <c r="K165" s="34">
+        <f t="shared" si="7"/>
         <v>2.09</v>
       </c>
     </row>
     <row r="166" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B166" s="33">
-        <f t="shared" ref="B166" si="16">ROUNDUP(I166/G166,0)</f>
+        <f t="shared" ref="B166" si="19">ROUNDUP(I166/G166,0)</f>
         <v>1</v>
       </c>
       <c r="C166" s="32" t="s">
-        <v>773</v>
+        <v>729</v>
       </c>
       <c r="E166" s="29" t="s">
-        <v>662</v>
+        <v>618</v>
       </c>
       <c r="G166">
         <v>100</v>
@@ -14456,25 +14534,25 @@
         <v>2.09</v>
       </c>
       <c r="I166" s="18">
-        <f>SUMIF(C$1:C$148,"="&amp;C166,B$1:B$148)</f>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="J166" s="33">
-        <f t="shared" ref="J166" si="17">G166*B166-I166</f>
+        <f t="shared" ref="J166" si="20">G166*B166-I166</f>
         <v>84</v>
       </c>
-      <c r="K166" s="35">
-        <f t="shared" si="5"/>
+      <c r="K166" s="34">
+        <f t="shared" si="7"/>
         <v>2.09</v>
       </c>
     </row>
     <row r="167" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B167" s="33">
-        <f t="shared" ref="B167:B170" si="18">ROUNDUP(I167/G167,0)</f>
+        <f t="shared" ref="B167:B170" si="21">ROUNDUP(I167/G167,0)</f>
         <v>1</v>
       </c>
       <c r="C167" s="32" t="s">
-        <v>777</v>
+        <v>733</v>
       </c>
       <c r="G167">
         <v>100</v>
@@ -14483,15 +14561,15 @@
         <v>2.09</v>
       </c>
       <c r="I167" s="18">
-        <f>SUMIF(C$1:C$148,"="&amp;C167,B$1:B$148)</f>
+        <f t="shared" si="12"/>
         <v>12</v>
       </c>
       <c r="J167" s="33">
-        <f t="shared" ref="J167:J170" si="19">G167*B167-I167</f>
+        <f t="shared" ref="J167:J170" si="22">G167*B167-I167</f>
         <v>88</v>
       </c>
-      <c r="K167" s="35">
-        <f t="shared" ref="K167:K170" si="20">B167*H167</f>
+      <c r="K167" s="34">
+        <f t="shared" ref="K167:K170" si="23">B167*H167</f>
         <v>2.09</v>
       </c>
     </row>
@@ -14501,10 +14579,10 @@
         <v>1</v>
       </c>
       <c r="C168" t="s">
-        <v>770</v>
+        <v>726</v>
       </c>
       <c r="E168" t="s">
-        <v>768</v>
+        <v>724</v>
       </c>
       <c r="G168">
         <v>1</v>
@@ -14513,15 +14591,15 @@
         <v>0.4</v>
       </c>
       <c r="I168" s="18">
-        <f>SUMIF(C$1:C$148,"="&amp;C168,B$1:B$148)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J168" s="33">
-        <f t="shared" ref="J168" si="21">G168*B168-I168</f>
+        <f t="shared" ref="J168" si="24">G168*B168-I168</f>
         <v>0</v>
       </c>
-      <c r="K168" s="35">
-        <f t="shared" ref="K168" si="22">B168*H168</f>
+      <c r="K168" s="34">
+        <f t="shared" ref="K168" si="25">B168*H168</f>
         <v>0.4</v>
       </c>
     </row>
@@ -14531,18 +14609,18 @@
       <c r="H169" s="22"/>
       <c r="I169" s="18"/>
       <c r="J169" s="33"/>
-      <c r="K169" s="35"/>
+      <c r="K169" s="34"/>
     </row>
     <row r="170" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B170" s="33">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="C170" s="32" t="s">
-        <v>808</v>
+        <v>764</v>
       </c>
       <c r="E170" s="29" t="s">
-        <v>670</v>
+        <v>626</v>
       </c>
       <c r="G170">
         <v>50</v>
@@ -14551,28 +14629,28 @@
         <v>4.8899999999999997</v>
       </c>
       <c r="I170" s="18">
-        <f>SUMIF(C$1:C$148,"="&amp;C170,B$1:B$148)</f>
+        <f t="shared" ref="I170:I178" si="26">SUMIF(C$1:C$148,"="&amp;C170,B$1:B$148)</f>
         <v>1</v>
       </c>
       <c r="J170" s="33">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>49</v>
       </c>
-      <c r="K170" s="35">
-        <f t="shared" si="20"/>
+      <c r="K170" s="34">
+        <f t="shared" si="23"/>
         <v>4.8899999999999997</v>
       </c>
     </row>
     <row r="171" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B171" s="33">
-        <f t="shared" ref="B171" si="23">ROUNDUP(I171/G171,0)</f>
+        <f t="shared" ref="B171" si="27">ROUNDUP(I171/G171,0)</f>
         <v>1</v>
       </c>
       <c r="C171" s="32" t="s">
-        <v>806</v>
+        <v>762</v>
       </c>
       <c r="E171" s="29" t="s">
-        <v>807</v>
+        <v>763</v>
       </c>
       <c r="G171">
         <v>20</v>
@@ -14581,15 +14659,15 @@
         <v>3.89</v>
       </c>
       <c r="I171" s="18">
-        <f>SUMIF(C$1:C$148,"="&amp;C171,B$1:B$148)</f>
+        <f t="shared" si="26"/>
         <v>2</v>
       </c>
       <c r="J171" s="33">
-        <f t="shared" ref="J171" si="24">G171*B171-I171</f>
+        <f t="shared" ref="J171" si="28">G171*B171-I171</f>
         <v>18</v>
       </c>
-      <c r="K171" s="35">
-        <f t="shared" ref="K171" si="25">B171*H171</f>
+      <c r="K171" s="34">
+        <f t="shared" ref="K171" si="29">B171*H171</f>
         <v>3.89</v>
       </c>
     </row>
@@ -14599,10 +14677,10 @@
         <v>1</v>
       </c>
       <c r="C172" s="32" t="s">
-        <v>843</v>
+        <v>798</v>
       </c>
       <c r="E172" s="29" t="s">
-        <v>696</v>
+        <v>652</v>
       </c>
       <c r="G172">
         <v>100</v>
@@ -14611,15 +14689,15 @@
         <v>1.79</v>
       </c>
       <c r="I172" s="18">
-        <f>SUMIF(C$1:C$148,"="&amp;C172,B$1:B$148)</f>
+        <f t="shared" si="26"/>
         <v>67</v>
       </c>
       <c r="J172" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>33</v>
       </c>
-      <c r="K172" s="35">
-        <f t="shared" si="5"/>
+      <c r="K172" s="34">
+        <f t="shared" si="7"/>
         <v>1.79</v>
       </c>
     </row>
@@ -14629,10 +14707,10 @@
         <v>1</v>
       </c>
       <c r="C173" s="32" t="s">
-        <v>710</v>
+        <v>666</v>
       </c>
       <c r="E173" s="9" t="s">
-        <v>711</v>
+        <v>667</v>
       </c>
       <c r="G173">
         <v>100</v>
@@ -14641,28 +14719,28 @@
         <v>1.79</v>
       </c>
       <c r="I173" s="18">
-        <f>SUMIF(C$1:C$148,"="&amp;C173,B$1:B$148)</f>
+        <f t="shared" si="26"/>
         <v>6</v>
       </c>
       <c r="J173" s="33">
         <f>G173*B173-I173</f>
         <v>94</v>
       </c>
-      <c r="K173" s="35">
-        <f t="shared" si="5"/>
+      <c r="K173" s="34">
+        <f t="shared" si="7"/>
         <v>1.79</v>
       </c>
     </row>
     <row r="174" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B174" s="33">
-        <f t="shared" ref="B174:B175" si="26">ROUNDUP(I174/G174,0)</f>
+        <f t="shared" ref="B174:B175" si="30">ROUNDUP(I174/G174,0)</f>
         <v>1</v>
       </c>
       <c r="C174" s="32" t="s">
-        <v>809</v>
+        <v>765</v>
       </c>
       <c r="E174" s="9" t="s">
-        <v>838</v>
+        <v>793</v>
       </c>
       <c r="G174">
         <v>50</v>
@@ -14671,28 +14749,28 @@
         <v>4.33</v>
       </c>
       <c r="I174" s="18">
-        <f>SUMIF(C$1:C$148,"="&amp;C174,B$1:B$148)</f>
+        <f t="shared" si="26"/>
         <v>4</v>
       </c>
       <c r="J174" s="33">
         <f>G174*B174-I174</f>
         <v>46</v>
       </c>
-      <c r="K174" s="35">
-        <f t="shared" ref="K174:K175" si="27">B174*H174</f>
+      <c r="K174" s="34">
+        <f t="shared" ref="K174:K175" si="31">B174*H174</f>
         <v>4.33</v>
       </c>
     </row>
     <row r="175" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B175" s="33">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="C175" s="32" t="s">
-        <v>842</v>
+        <v>797</v>
       </c>
       <c r="E175" s="9" t="s">
-        <v>837</v>
+        <v>792</v>
       </c>
       <c r="G175">
         <v>10</v>
@@ -14701,15 +14779,15 @@
         <v>1.98</v>
       </c>
       <c r="I175" s="18">
-        <f>SUMIF(C$1:C$148,"="&amp;C175,B$1:B$148)</f>
+        <f t="shared" si="26"/>
         <v>8</v>
       </c>
       <c r="J175" s="33">
         <f>G175*B175-I175</f>
         <v>2</v>
       </c>
-      <c r="K175" s="35">
-        <f t="shared" si="27"/>
+      <c r="K175" s="34">
+        <f t="shared" si="31"/>
         <v>1.98</v>
       </c>
     </row>
@@ -14719,10 +14797,10 @@
         <v>1</v>
       </c>
       <c r="C176" t="s">
-        <v>723</v>
+        <v>679</v>
       </c>
       <c r="E176" s="26" t="s">
-        <v>690</v>
+        <v>646</v>
       </c>
       <c r="G176">
         <v>500</v>
@@ -14731,15 +14809,15 @@
         <v>4.49</v>
       </c>
       <c r="I176" s="18">
-        <f>SUMIF(C$1:C$148,"="&amp;C176,B$1:B$148)</f>
+        <f t="shared" si="26"/>
         <v>136</v>
       </c>
       <c r="J176" s="33">
-        <f t="shared" ref="J176" si="28">G176*B176-I176</f>
+        <f t="shared" ref="J176" si="32">G176*B176-I176</f>
         <v>364</v>
       </c>
-      <c r="K176" s="35">
-        <f t="shared" si="5"/>
+      <c r="K176" s="34">
+        <f t="shared" si="7"/>
         <v>4.49</v>
       </c>
     </row>
@@ -14749,10 +14827,10 @@
         <v>1</v>
       </c>
       <c r="C177" t="s">
-        <v>749</v>
+        <v>705</v>
       </c>
       <c r="E177" s="26" t="s">
-        <v>647</v>
+        <v>604</v>
       </c>
       <c r="G177">
         <v>500</v>
@@ -14761,15 +14839,15 @@
         <v>2.4900000000000002</v>
       </c>
       <c r="I177" s="18">
-        <f>SUMIF(C$1:C$148,"="&amp;C177,B$1:B$148)</f>
+        <f t="shared" si="26"/>
         <v>50</v>
       </c>
       <c r="J177" s="33">
-        <f t="shared" ref="J177:J178" si="29">G177*B177-I177</f>
+        <f t="shared" ref="J177:J178" si="33">G177*B177-I177</f>
         <v>450</v>
       </c>
-      <c r="K177" s="35">
-        <f t="shared" si="5"/>
+      <c r="K177" s="34">
+        <f t="shared" si="7"/>
         <v>2.4900000000000002</v>
       </c>
     </row>
@@ -14779,10 +14857,10 @@
         <v>1</v>
       </c>
       <c r="C178" t="s">
-        <v>795</v>
+        <v>751</v>
       </c>
       <c r="E178" s="26" t="s">
-        <v>796</v>
+        <v>752</v>
       </c>
       <c r="G178">
         <v>500</v>
@@ -14791,15 +14869,15 @@
         <v>4.49</v>
       </c>
       <c r="I178" s="18">
-        <f>SUMIF(C$1:C$148,"="&amp;C178,B$1:B$148)</f>
+        <f t="shared" si="26"/>
         <v>182</v>
       </c>
       <c r="J178" s="33">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>318</v>
       </c>
-      <c r="K178" s="35">
-        <f t="shared" ref="K178" si="30">B178*H178</f>
+      <c r="K178" s="34">
+        <f t="shared" ref="K178" si="34">B178*H178</f>
         <v>4.49</v>
       </c>
     </row>
@@ -14809,7 +14887,7 @@
       <c r="H179" s="22"/>
       <c r="I179" s="18"/>
       <c r="J179" s="33"/>
-      <c r="K179" s="35"/>
+      <c r="K179" s="34"/>
     </row>
     <row r="180" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B180" s="33">
@@ -14817,10 +14895,10 @@
         <v>4</v>
       </c>
       <c r="C180" s="32" t="s">
-        <v>859</v>
+        <v>814</v>
       </c>
       <c r="E180" t="s">
-        <v>858</v>
+        <v>813</v>
       </c>
       <c r="G180">
         <v>1</v>
@@ -14833,11 +14911,11 @@
         <v>4</v>
       </c>
       <c r="J180" s="33">
-        <f t="shared" ref="J180" si="31">G180*B180-I180</f>
+        <f t="shared" ref="J180" si="35">G180*B180-I180</f>
         <v>0</v>
       </c>
-      <c r="K180" s="35">
-        <f t="shared" ref="K180" si="32">B180*H180</f>
+      <c r="K180" s="34">
+        <f t="shared" ref="K180" si="36">B180*H180</f>
         <v>0.64</v>
       </c>
     </row>
@@ -14847,10 +14925,10 @@
         <v>9</v>
       </c>
       <c r="C181" s="32" t="s">
-        <v>775</v>
+        <v>731</v>
       </c>
       <c r="E181" s="9" t="s">
-        <v>715</v>
+        <v>671</v>
       </c>
       <c r="G181">
         <v>1</v>
@@ -14863,24 +14941,24 @@
         <v>9</v>
       </c>
       <c r="J181" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K181" s="35">
-        <f t="shared" si="5"/>
+      <c r="K181" s="34">
+        <f t="shared" si="7"/>
         <v>1.3499999999999999</v>
       </c>
     </row>
     <row r="182" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B182" s="33">
-        <f t="shared" ref="B182" si="33">ROUNDUP(I182/G182,0)</f>
+        <f t="shared" ref="B182" si="37">ROUNDUP(I182/G182,0)</f>
         <v>0</v>
       </c>
       <c r="C182" t="s">
-        <v>844</v>
+        <v>799</v>
       </c>
       <c r="E182" s="29" t="s">
-        <v>729</v>
+        <v>685</v>
       </c>
       <c r="G182">
         <v>1</v>
@@ -14893,11 +14971,11 @@
         <v>0</v>
       </c>
       <c r="J182" s="33">
-        <f t="shared" ref="J182" si="34">G182*B182-I182</f>
+        <f t="shared" ref="J182" si="38">G182*B182-I182</f>
         <v>0</v>
       </c>
-      <c r="K182" s="35">
-        <f t="shared" si="5"/>
+      <c r="K182" s="34">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -14907,10 +14985,10 @@
         <v>1</v>
       </c>
       <c r="C183" t="s">
-        <v>743</v>
+        <v>699</v>
       </c>
       <c r="E183" s="26" t="s">
-        <v>744</v>
+        <v>700</v>
       </c>
       <c r="G183">
         <v>10</v>
@@ -14923,10 +15001,10 @@
         <v>2</v>
       </c>
       <c r="J183" s="33">
-        <f t="shared" ref="J183" si="35">G183*B183-I183</f>
+        <f t="shared" ref="J183" si="39">G183*B183-I183</f>
         <v>8</v>
       </c>
-      <c r="K183" s="35">
+      <c r="K183" s="34">
         <f>B183*H183</f>
         <v>2.59</v>
       </c>
@@ -14936,18 +15014,18 @@
       <c r="H184" s="22"/>
       <c r="I184" s="18"/>
       <c r="J184" s="33"/>
-      <c r="K184" s="35"/>
+      <c r="K184" s="34"/>
     </row>
     <row r="185" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B185" s="33">
-        <f t="shared" ref="B185:B189" si="36">ROUNDUP(I185/G185,0)</f>
+        <f t="shared" ref="B185:B189" si="40">ROUNDUP(I185/G185,0)</f>
         <v>4</v>
       </c>
       <c r="C185" t="s">
-        <v>676</v>
+        <v>632</v>
       </c>
       <c r="E185" s="29" t="s">
-        <v>681</v>
+        <v>637</v>
       </c>
       <c r="G185">
         <v>1</v>
@@ -14956,28 +15034,28 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="I185" s="18">
-        <f>SUMIF(C$1:C$148,"="&amp;C185,B$1:B$148)</f>
+        <f t="shared" ref="I185:I200" si="41">SUMIF(C$1:C$148,"="&amp;C185,B$1:B$148)</f>
         <v>4</v>
       </c>
       <c r="J185" s="33">
-        <f t="shared" ref="J185" si="37">G185*B185-I185</f>
+        <f t="shared" ref="J185" si="42">G185*B185-I185</f>
         <v>0</v>
       </c>
-      <c r="K185" s="35">
-        <f t="shared" si="5"/>
+      <c r="K185" s="34">
+        <f t="shared" si="7"/>
         <v>20.399999999999999</v>
       </c>
     </row>
     <row r="186" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B186" s="33">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="C186" t="s">
-        <v>683</v>
+        <v>639</v>
       </c>
       <c r="E186" s="29" t="s">
-        <v>682</v>
+        <v>638</v>
       </c>
       <c r="G186">
         <v>1</v>
@@ -14986,28 +15064,28 @@
         <v>5.44</v>
       </c>
       <c r="I186" s="18">
-        <f>SUMIF(C$1:C$148,"="&amp;C186,B$1:B$148)</f>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="J186" s="33">
-        <f t="shared" ref="J186:J188" si="38">G186*B186-I186</f>
+        <f t="shared" ref="J186:J188" si="43">G186*B186-I186</f>
         <v>0</v>
       </c>
-      <c r="K186" s="35">
-        <f t="shared" si="5"/>
+      <c r="K186" s="34">
+        <f t="shared" si="7"/>
         <v>5.44</v>
       </c>
     </row>
     <row r="187" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B187" s="33">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="C187" t="s">
-        <v>724</v>
+        <v>680</v>
       </c>
       <c r="E187" s="29" t="s">
-        <v>686</v>
+        <v>642</v>
       </c>
       <c r="G187">
         <v>1</v>
@@ -15016,28 +15094,28 @@
         <v>4.46</v>
       </c>
       <c r="I187" s="18">
-        <f>SUMIF(C$1:C$148,"="&amp;C187,B$1:B$148)</f>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="J187" s="33">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="K187" s="35">
-        <f t="shared" si="5"/>
+      <c r="K187" s="34">
+        <f t="shared" si="7"/>
         <v>4.46</v>
       </c>
     </row>
     <row r="188" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B188" s="33">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="C188" t="s">
-        <v>725</v>
+        <v>681</v>
       </c>
       <c r="E188" s="29" t="s">
-        <v>684</v>
+        <v>640</v>
       </c>
       <c r="G188">
         <v>1</v>
@@ -15046,28 +15124,28 @@
         <v>5.01</v>
       </c>
       <c r="I188" s="18">
-        <f>SUMIF(C$1:C$148,"="&amp;C188,B$1:B$148)</f>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="J188" s="33">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="K188" s="35">
-        <f t="shared" si="5"/>
+      <c r="K188" s="34">
+        <f t="shared" si="7"/>
         <v>5.01</v>
       </c>
     </row>
     <row r="189" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B189" s="33">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="C189" t="s">
-        <v>767</v>
+        <v>723</v>
       </c>
       <c r="E189" s="26" t="s">
-        <v>766</v>
+        <v>722</v>
       </c>
       <c r="G189">
         <v>1</v>
@@ -15076,15 +15154,15 @@
         <v>6.34</v>
       </c>
       <c r="I189" s="18">
-        <f>SUMIF(C$1:C$148,"="&amp;C189,B$1:B$148)</f>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="J189" s="33">
-        <f t="shared" ref="J189" si="39">G189*B189-I189</f>
+        <f t="shared" ref="J189" si="44">G189*B189-I189</f>
         <v>0</v>
       </c>
-      <c r="K189" s="35">
-        <f t="shared" ref="K189" si="40">B189*H189</f>
+      <c r="K189" s="34">
+        <f t="shared" ref="K189" si="45">B189*H189</f>
         <v>6.34</v>
       </c>
     </row>
@@ -15093,11 +15171,11 @@
         <v>1</v>
       </c>
       <c r="C190" t="s">
-        <v>799</v>
+        <v>755</v>
       </c>
       <c r="D190" s="32"/>
       <c r="E190" s="26" t="s">
-        <v>798</v>
+        <v>754</v>
       </c>
       <c r="G190">
         <v>1</v>
@@ -15106,15 +15184,15 @@
         <v>11.6</v>
       </c>
       <c r="I190" s="18">
-        <f>SUMIF(C$1:C$148,"="&amp;C190,B$1:B$148)</f>
+        <f t="shared" si="41"/>
         <v>2</v>
       </c>
       <c r="J190" s="33">
-        <f t="shared" ref="J190:J191" si="41">G190*B190-I190</f>
+        <f t="shared" ref="J190:J191" si="46">G190*B190-I190</f>
         <v>-1</v>
       </c>
-      <c r="K190" s="35">
-        <f t="shared" ref="K190:K191" si="42">B190*H190</f>
+      <c r="K190" s="34">
+        <f t="shared" ref="K190:K191" si="47">B190*H190</f>
         <v>11.6</v>
       </c>
     </row>
@@ -15123,11 +15201,11 @@
         <v>1</v>
       </c>
       <c r="C191" t="s">
-        <v>819</v>
+        <v>775</v>
       </c>
       <c r="D191" s="32"/>
       <c r="E191" s="29" t="s">
-        <v>820</v>
+        <v>776</v>
       </c>
       <c r="G191">
         <v>1</v>
@@ -15136,15 +15214,15 @@
         <v>5.66</v>
       </c>
       <c r="I191" s="18">
-        <f>SUMIF(C$1:C$148,"="&amp;C191,B$1:B$148)</f>
+        <f t="shared" si="41"/>
         <v>4</v>
       </c>
       <c r="J191" s="33">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>-3</v>
       </c>
-      <c r="K191" s="35">
-        <f t="shared" si="42"/>
+      <c r="K191" s="34">
+        <f t="shared" si="47"/>
         <v>5.66</v>
       </c>
     </row>
@@ -15153,11 +15231,11 @@
         <v>1</v>
       </c>
       <c r="C192" t="s">
-        <v>801</v>
+        <v>757</v>
       </c>
       <c r="D192" s="32"/>
       <c r="E192" s="29" t="s">
-        <v>800</v>
+        <v>756</v>
       </c>
       <c r="G192">
         <v>1</v>
@@ -15166,15 +15244,15 @@
         <v>5.23</v>
       </c>
       <c r="I192" s="18">
-        <f>SUMIF(C$1:C$148,"="&amp;C192,B$1:B$148)</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="J192" s="33">
-        <f t="shared" ref="J192" si="43">G192*B192-I192</f>
-        <v>1</v>
-      </c>
-      <c r="K192" s="35">
-        <f t="shared" ref="K192" si="44">B192*H192</f>
+        <f t="shared" ref="J192" si="48">G192*B192-I192</f>
+        <v>1</v>
+      </c>
+      <c r="K192" s="34">
+        <f t="shared" ref="K192" si="49">B192*H192</f>
         <v>5.23</v>
       </c>
     </row>
@@ -15183,11 +15261,11 @@
         <v>1</v>
       </c>
       <c r="C193" s="32" t="s">
-        <v>825</v>
+        <v>781</v>
       </c>
       <c r="D193" s="32"/>
       <c r="E193" s="29" t="s">
-        <v>701</v>
+        <v>657</v>
       </c>
       <c r="G193">
         <v>1</v>
@@ -15196,14 +15274,14 @@
         <v>4.96</v>
       </c>
       <c r="I193" s="18">
-        <f>SUMIF(C$1:C$148,"="&amp;C193,B$1:B$148)</f>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="J193" s="33">
         <f>G193*B193-I193</f>
         <v>0</v>
       </c>
-      <c r="K193" s="35">
+      <c r="K193" s="34">
         <f>B193*H193</f>
         <v>4.96</v>
       </c>
@@ -15213,11 +15291,11 @@
         <v>1</v>
       </c>
       <c r="C194" t="s">
-        <v>826</v>
+        <v>782</v>
       </c>
       <c r="D194" s="32"/>
       <c r="E194" s="29" t="s">
-        <v>727</v>
+        <v>683</v>
       </c>
       <c r="G194">
         <v>1</v>
@@ -15226,14 +15304,14 @@
         <v>4.24</v>
       </c>
       <c r="I194" s="18">
-        <f>SUMIF(C$1:C$148,"="&amp;C194,B$1:B$148)</f>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="J194" s="33">
-        <f t="shared" ref="J194" si="45">G194*B194-I194</f>
+        <f t="shared" ref="J194" si="50">G194*B194-I194</f>
         <v>0</v>
       </c>
-      <c r="K194" s="35">
+      <c r="K194" s="34">
         <f>B194*H194</f>
         <v>4.24</v>
       </c>
@@ -15244,10 +15322,10 @@
         <v>2</v>
       </c>
       <c r="C195" t="s">
-        <v>829</v>
+        <v>785</v>
       </c>
       <c r="E195" s="26" t="s">
-        <v>751</v>
+        <v>707</v>
       </c>
       <c r="G195">
         <v>1</v>
@@ -15256,14 +15334,14 @@
         <v>4.4400000000000004</v>
       </c>
       <c r="I195" s="18">
-        <f>SUMIF(C$1:C$148,"="&amp;C195,B$1:B$148)</f>
+        <f t="shared" si="41"/>
         <v>2</v>
       </c>
       <c r="J195" s="33">
-        <f t="shared" ref="J195" si="46">G195*B195-I195</f>
+        <f t="shared" ref="J195" si="51">G195*B195-I195</f>
         <v>0</v>
       </c>
-      <c r="K195" s="35">
+      <c r="K195" s="34">
         <f>B195*H195</f>
         <v>8.8800000000000008</v>
       </c>
@@ -15273,11 +15351,11 @@
         <v>1</v>
       </c>
       <c r="C196" t="s">
-        <v>827</v>
+        <v>783</v>
       </c>
       <c r="D196" s="32"/>
       <c r="E196" s="29" t="s">
-        <v>817</v>
+        <v>773</v>
       </c>
       <c r="G196">
         <v>1</v>
@@ -15286,15 +15364,15 @@
         <v>7.44</v>
       </c>
       <c r="I196" s="18">
-        <f>SUMIF(C$1:C$148,"="&amp;C196,B$1:B$148)</f>
+        <f t="shared" si="41"/>
         <v>2</v>
       </c>
       <c r="J196" s="33">
-        <f t="shared" ref="J196" si="47">G196*B196-I196</f>
+        <f t="shared" ref="J196" si="52">G196*B196-I196</f>
         <v>-1</v>
       </c>
-      <c r="K196" s="35">
-        <f t="shared" ref="K196" si="48">B196*H196</f>
+      <c r="K196" s="34">
+        <f t="shared" ref="K196" si="53">B196*H196</f>
         <v>7.44</v>
       </c>
     </row>
@@ -15303,11 +15381,11 @@
         <v>1</v>
       </c>
       <c r="C197" t="s">
-        <v>828</v>
+        <v>784</v>
       </c>
       <c r="D197" s="32"/>
       <c r="E197" s="29" t="s">
-        <v>817</v>
+        <v>773</v>
       </c>
       <c r="G197">
         <v>1</v>
@@ -15316,15 +15394,15 @@
         <v>8.8699999999999992</v>
       </c>
       <c r="I197" s="18">
-        <f>SUMIF(C$1:C$148,"="&amp;C197,B$1:B$148)</f>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="J197" s="33">
-        <f t="shared" ref="J197" si="49">G197*B197-I197</f>
+        <f t="shared" ref="J197" si="54">G197*B197-I197</f>
         <v>0</v>
       </c>
-      <c r="K197" s="35">
-        <f t="shared" ref="K197" si="50">B197*H197</f>
+      <c r="K197" s="34">
+        <f t="shared" ref="K197" si="55">B197*H197</f>
         <v>8.8699999999999992</v>
       </c>
     </row>
@@ -15333,11 +15411,11 @@
         <v>1</v>
       </c>
       <c r="C198" t="s">
-        <v>851</v>
+        <v>806</v>
       </c>
       <c r="D198" s="32"/>
       <c r="E198" s="29" t="s">
-        <v>850</v>
+        <v>805</v>
       </c>
       <c r="G198">
         <v>1</v>
@@ -15346,15 +15424,15 @@
         <v>7.88</v>
       </c>
       <c r="I198" s="18">
-        <f>SUMIF(C$1:C$148,"="&amp;C198,B$1:B$148)</f>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="J198" s="33">
-        <f t="shared" ref="J198" si="51">G198*B198-I198</f>
+        <f t="shared" ref="J198" si="56">G198*B198-I198</f>
         <v>0</v>
       </c>
-      <c r="K198" s="35">
-        <f t="shared" ref="K198" si="52">B198*H198</f>
+      <c r="K198" s="34">
+        <f t="shared" ref="K198" si="57">B198*H198</f>
         <v>7.88</v>
       </c>
     </row>
@@ -15363,11 +15441,11 @@
         <v>1</v>
       </c>
       <c r="C199" t="s">
-        <v>852</v>
+        <v>807</v>
       </c>
       <c r="D199" s="32"/>
       <c r="E199" s="29" t="s">
-        <v>853</v>
+        <v>808</v>
       </c>
       <c r="G199">
         <v>1</v>
@@ -15376,15 +15454,15 @@
         <v>7.88</v>
       </c>
       <c r="I199" s="18">
-        <f>SUMIF(C$1:C$148,"="&amp;C199,B$1:B$148)</f>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="J199" s="33">
-        <f t="shared" ref="J199" si="53">G199*B199-I199</f>
+        <f t="shared" ref="J199" si="58">G199*B199-I199</f>
         <v>0</v>
       </c>
-      <c r="K199" s="35">
-        <f t="shared" ref="K199" si="54">B199*H199</f>
+      <c r="K199" s="34">
+        <f t="shared" ref="K199" si="59">B199*H199</f>
         <v>7.88</v>
       </c>
     </row>
@@ -15393,11 +15471,11 @@
         <v>1</v>
       </c>
       <c r="C200" t="s">
-        <v>827</v>
+        <v>783</v>
       </c>
       <c r="D200" s="32"/>
       <c r="E200" s="29" t="s">
-        <v>817</v>
+        <v>773</v>
       </c>
       <c r="G200">
         <v>1</v>
@@ -15406,15 +15484,15 @@
         <v>7.13</v>
       </c>
       <c r="I200" s="18">
-        <f>SUMIF(C$1:C$148,"="&amp;C200,B$1:B$148)</f>
+        <f t="shared" si="41"/>
         <v>2</v>
       </c>
       <c r="J200" s="33">
-        <f t="shared" ref="J200" si="55">G200*B200-I200</f>
+        <f t="shared" ref="J200" si="60">G200*B200-I200</f>
         <v>-1</v>
       </c>
-      <c r="K200" s="35">
-        <f t="shared" ref="K200" si="56">B200*H200</f>
+      <c r="K200" s="34">
+        <f t="shared" ref="K200" si="61">B200*H200</f>
         <v>7.13</v>
       </c>
     </row>
@@ -15424,17 +15502,17 @@
       <c r="H201" s="22"/>
       <c r="I201" s="18"/>
       <c r="J201" s="33"/>
-      <c r="K201" s="35"/>
+      <c r="K201" s="34"/>
     </row>
     <row r="202" spans="2:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B202" s="33">
         <v>1</v>
       </c>
       <c r="C202" s="32" t="s">
-        <v>691</v>
+        <v>647</v>
       </c>
       <c r="E202" s="26" t="s">
-        <v>693</v>
+        <v>649</v>
       </c>
       <c r="G202">
         <v>1</v>
@@ -15443,15 +15521,15 @@
         <v>14.5</v>
       </c>
       <c r="I202" s="18">
-        <f>SUMIF(C$1:C$148,"="&amp;C202,B$1:B$148)</f>
+        <f t="shared" ref="I202:I207" si="62">SUMIF(C$1:C$148,"="&amp;C202,B$1:B$148)</f>
         <v>1</v>
       </c>
       <c r="J202" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K202" s="35">
-        <f t="shared" si="5"/>
+      <c r="K202" s="34">
+        <f t="shared" si="7"/>
         <v>14.5</v>
       </c>
     </row>
@@ -15460,10 +15538,10 @@
         <v>1</v>
       </c>
       <c r="C203" s="32" t="s">
-        <v>762</v>
+        <v>718</v>
       </c>
       <c r="E203" s="26" t="s">
-        <v>763</v>
+        <v>719</v>
       </c>
       <c r="G203">
         <v>1</v>
@@ -15472,15 +15550,15 @@
         <v>8.5</v>
       </c>
       <c r="I203" s="18">
-        <f>SUMIF(C$1:C$148,"="&amp;C203,B$1:B$148)</f>
+        <f t="shared" si="62"/>
         <v>1</v>
       </c>
       <c r="J203" s="33">
-        <f t="shared" ref="J203" si="57">G203*B203-I203</f>
+        <f t="shared" ref="J203" si="63">G203*B203-I203</f>
         <v>0</v>
       </c>
-      <c r="K203" s="35">
-        <f t="shared" ref="K203" si="58">B203*H203</f>
+      <c r="K203" s="34">
+        <f t="shared" ref="K203" si="64">B203*H203</f>
         <v>8.5</v>
       </c>
     </row>
@@ -15489,10 +15567,10 @@
         <v>1</v>
       </c>
       <c r="C204" s="32" t="s">
-        <v>824</v>
+        <v>780</v>
       </c>
       <c r="E204" s="26" t="s">
-        <v>823</v>
+        <v>779</v>
       </c>
       <c r="G204">
         <v>1</v>
@@ -15501,15 +15579,15 @@
         <v>54.2</v>
       </c>
       <c r="I204" s="18">
-        <f>SUMIF(C$1:C$148,"="&amp;C204,B$1:B$148)</f>
+        <f t="shared" si="62"/>
         <v>1</v>
       </c>
       <c r="J204" s="33">
-        <f t="shared" ref="J204" si="59">G204*B204-I204</f>
+        <f t="shared" ref="J204" si="65">G204*B204-I204</f>
         <v>0</v>
       </c>
-      <c r="K204" s="35">
-        <f t="shared" ref="K204" si="60">B204*H204</f>
+      <c r="K204" s="34">
+        <f t="shared" ref="K204" si="66">B204*H204</f>
         <v>54.2</v>
       </c>
     </row>
@@ -15518,10 +15596,10 @@
         <v>1</v>
       </c>
       <c r="C205" s="32" t="s">
-        <v>861</v>
+        <v>816</v>
       </c>
       <c r="E205" s="26" t="s">
-        <v>862</v>
+        <v>817</v>
       </c>
       <c r="G205">
         <v>1</v>
@@ -15530,25 +15608,25 @@
         <v>37</v>
       </c>
       <c r="I205" s="18">
-        <f>SUMIF(C$1:C$148,"="&amp;C205,B$1:B$148)</f>
+        <f t="shared" si="62"/>
         <v>1</v>
       </c>
       <c r="J205" s="33">
-        <f t="shared" ref="J205" si="61">G205*B205-I205</f>
+        <f t="shared" ref="J205" si="67">G205*B205-I205</f>
         <v>0</v>
       </c>
-      <c r="K205" s="35">
-        <f t="shared" ref="K205" si="62">B205*H205</f>
+      <c r="K205" s="34">
+        <f t="shared" ref="K205" si="68">B205*H205</f>
         <v>37</v>
       </c>
     </row>
     <row r="206" spans="2:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B206" s="33">
-        <f t="shared" ref="B206:B216" si="63">ROUNDUP(I206/G206,0)</f>
+        <f t="shared" ref="B206:B216" si="69">ROUNDUP(I206/G206,0)</f>
         <v>4</v>
       </c>
       <c r="C206" s="32" t="s">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="E206" s="9" t="s">
         <v>562</v>
@@ -15560,31 +15638,31 @@
         <v>14.53</v>
       </c>
       <c r="I206" s="18">
-        <f>SUMIF(C$1:C$148,"="&amp;C206,B$1:B$148)</f>
+        <f t="shared" si="62"/>
         <v>4</v>
       </c>
       <c r="J206" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K206" s="35">
-        <f t="shared" si="5"/>
+      <c r="K206" s="34">
+        <f t="shared" si="7"/>
         <v>58.12</v>
       </c>
       <c r="L206" t="s">
-        <v>865</v>
+        <v>820</v>
       </c>
     </row>
     <row r="207" spans="2:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B207" s="33">
-        <f t="shared" si="63"/>
+        <f t="shared" si="69"/>
         <v>1</v>
       </c>
       <c r="C207" s="32" t="s">
-        <v>830</v>
+        <v>786</v>
       </c>
       <c r="E207" s="9" t="s">
-        <v>832</v>
+        <v>788</v>
       </c>
       <c r="G207">
         <v>1</v>
@@ -15593,19 +15671,19 @@
         <v>36.42</v>
       </c>
       <c r="I207" s="18">
-        <f>SUMIF(C$1:C$148,"="&amp;C207,B$1:B$148)</f>
+        <f t="shared" si="62"/>
         <v>1</v>
       </c>
       <c r="J207" s="33">
-        <f t="shared" ref="J207" si="64">G207*B207-I207</f>
+        <f t="shared" ref="J207" si="70">G207*B207-I207</f>
         <v>0</v>
       </c>
-      <c r="K207" s="35">
-        <f t="shared" ref="K207" si="65">B207*H207</f>
+      <c r="K207" s="34">
+        <f t="shared" ref="K207" si="71">B207*H207</f>
         <v>36.42</v>
       </c>
       <c r="L207" t="s">
-        <v>833</v>
+        <v>827</v>
       </c>
     </row>
     <row r="208" spans="2:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -15615,19 +15693,19 @@
       <c r="H208" s="22"/>
       <c r="I208" s="18"/>
       <c r="J208" s="33"/>
-      <c r="K208" s="35"/>
-    </row>
-    <row r="209" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K208" s="34"/>
+    </row>
+    <row r="209" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B209" s="33">
-        <f t="shared" si="63"/>
+        <f t="shared" si="69"/>
         <v>2</v>
       </c>
       <c r="C209" s="32" t="s">
-        <v>714</v>
+        <v>670</v>
       </c>
       <c r="D209" s="32"/>
       <c r="E209" s="29" t="s">
-        <v>712</v>
+        <v>668</v>
       </c>
       <c r="G209">
         <v>1</v>
@@ -15636,29 +15714,29 @@
         <v>1.54</v>
       </c>
       <c r="I209" s="18">
-        <f>SUMIF(C$1:C$148,"="&amp;C209,B$1:B$148)</f>
+        <f t="shared" ref="I209:I218" si="72">SUMIF(C$1:C$148,"="&amp;C209,B$1:B$148)</f>
         <v>2</v>
       </c>
       <c r="J209" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K209" s="35">
-        <f t="shared" si="5"/>
+      <c r="K209" s="34">
+        <f t="shared" si="7"/>
         <v>3.08</v>
       </c>
     </row>
-    <row r="210" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B210" s="33">
-        <f t="shared" ref="B210" si="66">ROUNDUP(I210/G210,0)</f>
+        <f t="shared" ref="B210" si="73">ROUNDUP(I210/G210,0)</f>
         <v>8</v>
       </c>
       <c r="C210" s="32" t="s">
-        <v>816</v>
+        <v>772</v>
       </c>
       <c r="D210" s="32"/>
       <c r="E210" s="29" t="s">
-        <v>834</v>
+        <v>789</v>
       </c>
       <c r="G210">
         <v>1</v>
@@ -15667,29 +15745,29 @@
         <v>1.54</v>
       </c>
       <c r="I210" s="18">
-        <f>SUMIF(C$1:C$148,"="&amp;C210,B$1:B$148)</f>
+        <f t="shared" si="72"/>
         <v>8</v>
       </c>
       <c r="J210" s="33">
-        <f t="shared" ref="J210" si="67">G210*B210-I210</f>
+        <f t="shared" ref="J210" si="74">G210*B210-I210</f>
         <v>0</v>
       </c>
-      <c r="K210" s="35">
-        <f t="shared" ref="K210" si="68">B210*H210</f>
+      <c r="K210" s="34">
+        <f t="shared" ref="K210" si="75">B210*H210</f>
         <v>12.32</v>
       </c>
     </row>
-    <row r="211" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B211" s="33">
-        <f t="shared" ref="B211" si="69">ROUNDUP(I211/G211,0)</f>
+        <f t="shared" ref="B211" si="76">ROUNDUP(I211/G211,0)</f>
         <v>8</v>
       </c>
       <c r="C211" s="32" t="s">
-        <v>836</v>
+        <v>791</v>
       </c>
       <c r="D211" s="32"/>
       <c r="E211" s="29" t="s">
-        <v>835</v>
+        <v>790</v>
       </c>
       <c r="G211">
         <v>1</v>
@@ -15698,28 +15776,28 @@
         <v>1.54</v>
       </c>
       <c r="I211" s="18">
-        <f>SUMIF(C$1:C$148,"="&amp;C211,B$1:B$148)</f>
+        <f t="shared" si="72"/>
         <v>8</v>
       </c>
       <c r="J211" s="33">
-        <f t="shared" ref="J211" si="70">G211*B211-I211</f>
+        <f t="shared" ref="J211" si="77">G211*B211-I211</f>
         <v>0</v>
       </c>
-      <c r="K211" s="35">
-        <f t="shared" ref="K211" si="71">B211*H211</f>
+      <c r="K211" s="34">
+        <f t="shared" ref="K211" si="78">B211*H211</f>
         <v>12.32</v>
       </c>
     </row>
-    <row r="212" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B212" s="33">
-        <f t="shared" si="63"/>
+        <f t="shared" si="69"/>
         <v>6</v>
       </c>
       <c r="C212" t="s">
-        <v>688</v>
+        <v>644</v>
       </c>
       <c r="E212" s="26" t="s">
-        <v>687</v>
+        <v>643</v>
       </c>
       <c r="G212">
         <v>1</v>
@@ -15728,28 +15806,28 @@
         <v>1.95</v>
       </c>
       <c r="I212" s="18">
-        <f>SUMIF(C$1:C$148,"="&amp;C212,B$1:B$148)</f>
+        <f t="shared" si="72"/>
         <v>6</v>
       </c>
       <c r="J212" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K212" s="35">
-        <f t="shared" si="5"/>
+      <c r="K212" s="34">
+        <f t="shared" si="7"/>
         <v>11.7</v>
       </c>
     </row>
-    <row r="213" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B213" s="33">
-        <f t="shared" si="63"/>
+        <f t="shared" si="69"/>
         <v>2</v>
       </c>
       <c r="C213" t="s">
-        <v>664</v>
+        <v>620</v>
       </c>
       <c r="E213" s="29" t="s">
-        <v>666</v>
+        <v>622</v>
       </c>
       <c r="G213">
         <v>1</v>
@@ -15758,25 +15836,25 @@
         <v>1.39</v>
       </c>
       <c r="I213" s="18">
-        <f>SUMIF(C$1:C$148,"="&amp;C213,B$1:B$148)</f>
+        <f t="shared" si="72"/>
         <v>2</v>
       </c>
       <c r="J213" s="33">
-        <f t="shared" ref="J213" si="72">G213*B213-I213</f>
+        <f t="shared" ref="J213" si="79">G213*B213-I213</f>
         <v>0</v>
       </c>
-      <c r="K213" s="35">
-        <f t="shared" si="5"/>
+      <c r="K213" s="34">
+        <f t="shared" si="7"/>
         <v>2.78</v>
       </c>
     </row>
-    <row r="214" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B214" s="33">
-        <f t="shared" si="63"/>
+        <f t="shared" si="69"/>
         <v>5</v>
       </c>
       <c r="C214" t="s">
-        <v>657</v>
+        <v>613</v>
       </c>
       <c r="E214" s="29" t="s">
         <v>557</v>
@@ -15788,28 +15866,28 @@
         <v>3.29</v>
       </c>
       <c r="I214" s="18">
-        <f>SUMIF(C$1:C$148,"="&amp;C214,B$1:B$148)</f>
+        <f t="shared" si="72"/>
         <v>5</v>
       </c>
       <c r="J214" s="33">
-        <f t="shared" ref="J214" si="73">G214*B214-I214</f>
+        <f t="shared" ref="J214" si="80">G214*B214-I214</f>
         <v>0</v>
       </c>
-      <c r="K214" s="35">
-        <f t="shared" si="5"/>
+      <c r="K214" s="34">
+        <f t="shared" si="7"/>
         <v>16.45</v>
       </c>
     </row>
-    <row r="215" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B215" s="33">
-        <f t="shared" si="63"/>
+        <f t="shared" si="69"/>
         <v>2</v>
       </c>
       <c r="C215" t="s">
-        <v>739</v>
+        <v>695</v>
       </c>
       <c r="E215" s="26" t="s">
-        <v>740</v>
+        <v>696</v>
       </c>
       <c r="G215">
         <v>1</v>
@@ -15818,28 +15896,28 @@
         <v>1</v>
       </c>
       <c r="I215" s="18">
-        <f>SUMIF(C$1:C$148,"="&amp;C215,B$1:B$148)</f>
+        <f t="shared" si="72"/>
         <v>2</v>
       </c>
       <c r="J215" s="33">
-        <f t="shared" ref="J215" si="74">G215*B215-I215</f>
+        <f t="shared" ref="J215" si="81">G215*B215-I215</f>
         <v>0</v>
       </c>
-      <c r="K215" s="35">
-        <f t="shared" si="5"/>
+      <c r="K215" s="34">
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
-    <row r="216" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B216" s="33">
-        <f t="shared" si="63"/>
+        <f t="shared" si="69"/>
         <v>4</v>
       </c>
       <c r="C216" s="32" t="s">
-        <v>747</v>
+        <v>703</v>
       </c>
       <c r="E216" s="26" t="s">
-        <v>746</v>
+        <v>702</v>
       </c>
       <c r="G216">
         <v>1</v>
@@ -15848,28 +15926,28 @@
         <v>1.05</v>
       </c>
       <c r="I216" s="18">
-        <f>SUMIF(C$1:C$148,"="&amp;C216,B$1:B$148)</f>
+        <f t="shared" si="72"/>
         <v>4</v>
       </c>
       <c r="J216" s="33">
-        <f t="shared" ref="J216" si="75">G216*B216-I216</f>
+        <f t="shared" ref="J216" si="82">G216*B216-I216</f>
         <v>0</v>
       </c>
-      <c r="K216" s="35">
-        <f t="shared" si="5"/>
+      <c r="K216" s="34">
+        <f t="shared" si="7"/>
         <v>4.2</v>
       </c>
     </row>
-    <row r="217" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B217" s="33">
-        <f t="shared" ref="B217:B218" si="76">ROUNDUP(I217/G217,0)</f>
+        <f t="shared" ref="B217:B218" si="83">ROUNDUP(I217/G217,0)</f>
         <v>4</v>
       </c>
       <c r="C217" s="32" t="s">
-        <v>863</v>
+        <v>818</v>
       </c>
       <c r="E217" s="26" t="s">
-        <v>864</v>
+        <v>819</v>
       </c>
       <c r="G217">
         <v>1</v>
@@ -15878,25 +15956,25 @@
         <v>1</v>
       </c>
       <c r="I217" s="18">
-        <f>SUMIF(C$1:C$148,"="&amp;C217,B$1:B$148)</f>
+        <f t="shared" si="72"/>
         <v>4</v>
       </c>
       <c r="J217" s="33">
-        <f t="shared" ref="J217" si="77">G217*B217-I217</f>
+        <f t="shared" ref="J217" si="84">G217*B217-I217</f>
         <v>0</v>
       </c>
-      <c r="K217" s="35">
-        <f t="shared" ref="K217" si="78">B217*H217</f>
+      <c r="K217" s="34">
+        <f t="shared" ref="K217" si="85">B217*H217</f>
         <v>4</v>
       </c>
     </row>
-    <row r="218" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B218" s="33">
-        <f t="shared" si="76"/>
+        <f t="shared" si="83"/>
         <v>2</v>
       </c>
       <c r="C218" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="E218" s="29" t="s">
         <v>554</v>
@@ -15908,106 +15986,110 @@
         <v>26.88</v>
       </c>
       <c r="I218" s="18">
-        <f>SUMIF(C$1:C$148,"="&amp;C218,B$1:B$148)</f>
+        <f t="shared" si="72"/>
         <v>2</v>
       </c>
       <c r="J218" s="33">
-        <f t="shared" ref="J218" si="79">G218*B218-I218</f>
+        <f t="shared" ref="J218" si="86">G218*B218-I218</f>
         <v>0</v>
       </c>
-      <c r="K218" s="35">
-        <f t="shared" ref="K218" si="80">B218*H218</f>
+      <c r="K218" s="34">
+        <f t="shared" ref="K218" si="87">B218*H218</f>
         <v>53.76</v>
       </c>
     </row>
-    <row r="219" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C219" s="6"/>
-      <c r="D219" s="29"/>
-      <c r="E219"/>
-      <c r="G219" s="22"/>
-      <c r="H219" s="22"/>
-      <c r="I219" s="18"/>
-      <c r="J219" s="33"/>
-      <c r="K219" s="35"/>
-    </row>
-    <row r="220" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A220" s="6" t="s">
-        <v>805</v>
-      </c>
-      <c r="B220" s="33"/>
+    <row r="219" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B219" s="33">
+        <f t="shared" ref="B219" si="88">ROUNDUP(I219/G219,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C219" t="s">
+        <v>822</v>
+      </c>
+      <c r="E219" s="29" t="s">
+        <v>823</v>
+      </c>
+      <c r="G219">
+        <v>1</v>
+      </c>
+      <c r="H219" s="22">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="I219" s="18">
+        <f t="shared" ref="I219" si="89">SUMIF(C$1:C$148,"="&amp;C219,B$1:B$148)</f>
+        <v>1</v>
+      </c>
+      <c r="J219" s="33">
+        <f t="shared" ref="J219" si="90">G219*B219-I219</f>
+        <v>0</v>
+      </c>
+      <c r="K219" s="34">
+        <f t="shared" ref="K219" si="91">B219*H219</f>
+        <v>19.899999999999999</v>
+      </c>
+      <c r="L219" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="220" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C220" s="6"/>
+      <c r="D220" s="29"/>
       <c r="E220"/>
+      <c r="G220" s="22"/>
       <c r="H220" s="22"/>
       <c r="I220" s="18"/>
       <c r="J220" s="33"/>
-      <c r="K220" s="35"/>
-    </row>
-    <row r="221" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B221" s="33">
-        <v>1</v>
-      </c>
-      <c r="C221" t="s">
-        <v>793</v>
-      </c>
-      <c r="E221" s="29" t="s">
-        <v>794</v>
-      </c>
-      <c r="G221">
-        <v>1</v>
-      </c>
-      <c r="H221" s="22">
+      <c r="K220" s="34"/>
+    </row>
+    <row r="221" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A221" s="6" t="s">
+        <v>761</v>
+      </c>
+      <c r="B221" s="33"/>
+      <c r="E221"/>
+      <c r="H221" s="22"/>
+      <c r="I221" s="18"/>
+      <c r="J221" s="33"/>
+      <c r="K221" s="34"/>
+    </row>
+    <row r="222" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B222" s="33">
+        <v>1</v>
+      </c>
+      <c r="C222" t="s">
+        <v>749</v>
+      </c>
+      <c r="E222" s="29" t="s">
+        <v>750</v>
+      </c>
+      <c r="G222">
+        <v>1</v>
+      </c>
+      <c r="H222" s="22">
         <v>4.09</v>
-      </c>
-      <c r="I221" s="18">
-        <f>SUMIF(C$1:C$148,"="&amp;C221,B$1:B$148)</f>
-        <v>3</v>
-      </c>
-      <c r="J221" s="33">
-        <f t="shared" ref="J221:J222" si="81">G221*B221-I221</f>
-        <v>-2</v>
-      </c>
-      <c r="K221" s="35">
-        <f t="shared" ref="K221:K222" si="82">B221*H221</f>
-        <v>4.09</v>
-      </c>
-    </row>
-    <row r="222" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B222" s="33">
-        <v>1</v>
-      </c>
-      <c r="C222" t="s">
-        <v>802</v>
-      </c>
-      <c r="E222" s="29" t="s">
-        <v>839</v>
-      </c>
-      <c r="G222">
-        <v>1</v>
-      </c>
-      <c r="H222" s="22">
-        <v>2.8</v>
       </c>
       <c r="I222" s="18">
         <f>SUMIF(C$1:C$148,"="&amp;C222,B$1:B$148)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J222" s="33">
-        <f t="shared" si="81"/>
-        <v>0</v>
-      </c>
-      <c r="K222" s="35">
-        <f t="shared" si="82"/>
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="223" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" ref="J222:J223" si="92">G222*B222-I222</f>
+        <v>-2</v>
+      </c>
+      <c r="K222" s="34">
+        <f t="shared" ref="K222:K223" si="93">B222*H222</f>
+        <v>4.09</v>
+      </c>
+    </row>
+    <row r="223" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B223" s="33">
         <v>1</v>
       </c>
       <c r="C223" t="s">
-        <v>803</v>
+        <v>758</v>
       </c>
       <c r="E223" s="29" t="s">
-        <v>839</v>
+        <v>794</v>
       </c>
       <c r="G223">
         <v>1</v>
@@ -16017,26 +16099,26 @@
       </c>
       <c r="I223" s="18">
         <f>SUMIF(C$1:C$148,"="&amp;C223,B$1:B$148)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J223" s="33">
-        <f t="shared" ref="J223" si="83">G223*B223-I223</f>
-        <v>-1</v>
-      </c>
-      <c r="K223" s="35">
-        <f t="shared" ref="K223" si="84">B223*H223</f>
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+      <c r="K223" s="34">
+        <f t="shared" si="93"/>
         <v>2.8</v>
       </c>
     </row>
-    <row r="224" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B224" s="33">
         <v>1</v>
       </c>
       <c r="C224" t="s">
-        <v>804</v>
+        <v>759</v>
       </c>
       <c r="E224" s="29" t="s">
-        <v>839</v>
+        <v>794</v>
       </c>
       <c r="G224">
         <v>1</v>
@@ -16046,55 +16128,77 @@
       </c>
       <c r="I224" s="18">
         <f>SUMIF(C$1:C$148,"="&amp;C224,B$1:B$148)</f>
+        <v>2</v>
+      </c>
+      <c r="J224" s="33">
+        <f t="shared" ref="J224" si="94">G224*B224-I224</f>
+        <v>-1</v>
+      </c>
+      <c r="K224" s="34">
+        <f t="shared" ref="K224" si="95">B224*H224</f>
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="225" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B225" s="33">
+        <v>1</v>
+      </c>
+      <c r="C225" t="s">
+        <v>760</v>
+      </c>
+      <c r="E225" s="29" t="s">
+        <v>794</v>
+      </c>
+      <c r="G225">
+        <v>1</v>
+      </c>
+      <c r="H225" s="22">
+        <v>2.8</v>
+      </c>
+      <c r="I225" s="18">
+        <f>SUMIF(C$1:C$148,"="&amp;C225,B$1:B$148)</f>
         <v>3</v>
       </c>
-      <c r="J224" s="33">
-        <f t="shared" ref="J224" si="85">G224*B224-I224</f>
+      <c r="J225" s="33">
+        <f t="shared" ref="J225" si="96">G225*B225-I225</f>
         <v>-2</v>
       </c>
-      <c r="K224" s="35">
-        <f t="shared" ref="K224" si="86">B224*H224</f>
+      <c r="K225" s="34">
+        <f t="shared" ref="K225" si="97">B225*H225</f>
         <v>2.8</v>
       </c>
-    </row>
-    <row r="225" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B225" s="33"/>
-      <c r="H225" s="22"/>
-      <c r="I225" s="18"/>
-      <c r="J225" s="33"/>
-      <c r="K225" s="35"/>
     </row>
     <row r="226" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B226" s="33"/>
       <c r="H226" s="22"/>
       <c r="I226" s="18"/>
       <c r="J226" s="33"/>
-      <c r="K226" s="35"/>
+      <c r="K226" s="34"/>
     </row>
     <row r="227" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B227" s="33"/>
       <c r="H227" s="22"/>
       <c r="I227" s="18"/>
       <c r="J227" s="33"/>
-      <c r="K227" s="35"/>
-    </row>
-    <row r="228" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K227" s="34"/>
+    </row>
+    <row r="228" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B228" s="33"/>
-      <c r="E228" s="26"/>
       <c r="H228" s="22"/>
       <c r="I228" s="18"/>
       <c r="J228" s="33"/>
-      <c r="K228" s="36">
-        <f>SUM(K150:K224)</f>
-        <v>538.38999999999987</v>
-      </c>
-    </row>
-    <row r="229" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K228" s="34"/>
+    </row>
+    <row r="229" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B229" s="33"/>
       <c r="E229" s="26"/>
       <c r="H229" s="22"/>
       <c r="I229" s="18"/>
       <c r="J229" s="33"/>
+      <c r="K229" s="35">
+        <f>SUM(K150:K225)</f>
+        <v>558.28999999999985</v>
+      </c>
     </row>
     <row r="230" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B230" s="33"/>
@@ -16110,408 +16214,109 @@
       <c r="I231" s="18"/>
       <c r="J231" s="33"/>
     </row>
-    <row r="232" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="D232" s="6" t="s">
-        <v>599</v>
-      </c>
-      <c r="E232" s="29" t="s">
-        <v>554</v>
-      </c>
-      <c r="F232">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="H232" s="22">
-        <v>26.88</v>
-      </c>
-      <c r="I232" s="22">
-        <f>H232*B233</f>
-        <v>26.88</v>
-      </c>
+    <row r="232" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B232" s="33"/>
+      <c r="E232" s="26"/>
+      <c r="H232" s="22"/>
+      <c r="I232" s="18"/>
+      <c r="J232" s="33"/>
     </row>
     <row r="233" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B233">
-        <v>1</v>
-      </c>
-      <c r="C233" t="s">
-        <v>608</v>
-      </c>
-      <c r="D233" t="s">
-        <v>609</v>
-      </c>
-      <c r="E233" s="30" t="s">
-        <v>607</v>
-      </c>
-      <c r="F233">
-        <v>0</v>
-      </c>
-      <c r="H233">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="I233" s="22">
-        <f>H233*B234</f>
-        <v>6.8999999999999995</v>
-      </c>
+      <c r="D233" s="6"/>
+      <c r="H233" s="22"/>
+      <c r="I233" s="22"/>
     </row>
     <row r="234" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B234">
-        <v>6</v>
-      </c>
-      <c r="C234" t="s">
-        <v>612</v>
-      </c>
-      <c r="D234" t="s">
-        <v>610</v>
-      </c>
-      <c r="E234" s="29" t="s">
-        <v>611</v>
-      </c>
-      <c r="F234">
-        <v>0</v>
-      </c>
-      <c r="H234">
-        <f>I234/10</f>
-        <v>0.251</v>
-      </c>
-      <c r="I234">
-        <v>2.5099999999999998</v>
-      </c>
-    </row>
-    <row r="235" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B235">
-        <v>1</v>
-      </c>
-      <c r="C235" t="s">
-        <v>614</v>
-      </c>
-      <c r="D235" t="s">
-        <v>613</v>
-      </c>
-      <c r="E235" s="26" t="s">
-        <v>473</v>
-      </c>
-      <c r="F235">
-        <v>0.7</v>
-      </c>
-      <c r="H235">
-        <v>18</v>
-      </c>
-      <c r="I235" s="22">
-        <f>H235*B236</f>
-        <v>18</v>
-      </c>
+      <c r="E234" s="30"/>
+      <c r="I234" s="22"/>
     </row>
     <row r="236" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B236">
-        <v>1</v>
-      </c>
       <c r="E236" s="26"/>
       <c r="I236" s="22"/>
     </row>
     <row r="237" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C237" t="s">
-        <v>615</v>
-      </c>
-      <c r="D237" s="6" t="s">
-        <v>616</v>
-      </c>
-      <c r="E237" s="26" t="s">
-        <v>544</v>
-      </c>
-      <c r="F237">
-        <v>1.34</v>
-      </c>
-      <c r="H237">
-        <v>37</v>
-      </c>
-      <c r="I237" s="22">
-        <f>H237*B238</f>
-        <v>37</v>
-      </c>
+      <c r="E237" s="26"/>
+      <c r="I237" s="22"/>
     </row>
     <row r="238" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B238">
-        <v>1</v>
-      </c>
-      <c r="C238" t="s">
-        <v>638</v>
-      </c>
-      <c r="D238" s="8" t="s">
-        <v>641</v>
-      </c>
-      <c r="E238" s="29" t="s">
-        <v>639</v>
-      </c>
-      <c r="F238">
-        <v>0</v>
-      </c>
+      <c r="D238" s="6"/>
+      <c r="E238" s="26"/>
       <c r="I238" s="22"/>
     </row>
     <row r="239" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B239">
-        <v>2</v>
-      </c>
-      <c r="C239" t="s">
-        <v>648</v>
-      </c>
-      <c r="D239" t="s">
-        <v>631</v>
-      </c>
-      <c r="E239" s="26" t="s">
-        <v>647</v>
-      </c>
-      <c r="F239">
-        <v>0</v>
-      </c>
+      <c r="D239" s="8"/>
       <c r="I239" s="22"/>
     </row>
     <row r="240" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B240">
-        <v>1</v>
-      </c>
-      <c r="C240" t="s">
-        <v>608</v>
-      </c>
-      <c r="D240" t="s">
-        <v>632</v>
-      </c>
-      <c r="E240" s="30" t="s">
-        <v>607</v>
-      </c>
-      <c r="F240">
-        <v>0</v>
-      </c>
+      <c r="E240" s="26"/>
       <c r="I240" s="22"/>
     </row>
-    <row r="241" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B241">
-        <v>4</v>
-      </c>
-      <c r="C241" t="s">
-        <v>634</v>
-      </c>
-      <c r="D241" t="s">
-        <v>645</v>
-      </c>
-      <c r="E241" s="26" t="s">
-        <v>633</v>
-      </c>
-      <c r="F241">
-        <v>0</v>
-      </c>
+    <row r="241" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="E241" s="30"/>
       <c r="I241" s="22"/>
     </row>
-    <row r="242" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B242">
-        <v>8</v>
-      </c>
-      <c r="D242" t="s">
-        <v>646</v>
-      </c>
-      <c r="E242" s="29" t="s">
-        <v>644</v>
-      </c>
-      <c r="F242">
-        <v>0</v>
-      </c>
+    <row r="242" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="E242" s="26"/>
       <c r="I242" s="22"/>
     </row>
-    <row r="243" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="E243" s="26"/>
+    <row r="243" spans="4:9" x14ac:dyDescent="0.3">
       <c r="I243" s="22"/>
     </row>
-    <row r="244" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="D244" s="6" t="s">
-        <v>635</v>
-      </c>
+    <row r="244" spans="4:9" x14ac:dyDescent="0.3">
       <c r="E244" s="26"/>
       <c r="I244" s="22"/>
     </row>
-    <row r="245" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C245" t="s">
-        <v>627</v>
-      </c>
-      <c r="D245" t="s">
-        <v>625</v>
-      </c>
-      <c r="E245" s="25" t="s">
-        <v>617</v>
-      </c>
-      <c r="F245">
-        <v>0</v>
-      </c>
-      <c r="H245">
-        <v>9.9</v>
-      </c>
-      <c r="I245" s="22">
-        <f>H245*B246</f>
-        <v>9.9</v>
-      </c>
-    </row>
-    <row r="246" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B246">
-        <v>1</v>
-      </c>
-      <c r="C246" t="s">
-        <v>629</v>
-      </c>
-      <c r="D246" t="s">
-        <v>621</v>
-      </c>
-      <c r="E246" s="26" t="s">
-        <v>622</v>
-      </c>
-      <c r="F246">
-        <v>0</v>
-      </c>
+    <row r="245" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D245" s="6"/>
+      <c r="E245" s="26"/>
+      <c r="I245" s="22"/>
+    </row>
+    <row r="246" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="E246" s="25"/>
       <c r="I246" s="22"/>
     </row>
-    <row r="247" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B247">
-        <v>1</v>
-      </c>
-      <c r="C247" t="s">
-        <v>628</v>
-      </c>
-      <c r="D247" t="s">
-        <v>624</v>
-      </c>
-      <c r="E247" s="25" t="s">
-        <v>623</v>
-      </c>
-      <c r="F247">
-        <v>0</v>
-      </c>
+    <row r="247" spans="4:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E247" s="26"/>
       <c r="I247" s="22"/>
     </row>
-    <row r="248" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B248">
-        <v>1</v>
-      </c>
-      <c r="C248" t="s">
-        <v>626</v>
-      </c>
-      <c r="D248" t="s">
-        <v>643</v>
-      </c>
-      <c r="E248" s="26" t="s">
-        <v>642</v>
-      </c>
-      <c r="F248">
-        <v>0</v>
-      </c>
+    <row r="248" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="E248" s="25"/>
       <c r="I248" s="22"/>
     </row>
-    <row r="249" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B249">
-        <v>1</v>
-      </c>
-      <c r="C249" t="s">
-        <v>618</v>
-      </c>
-      <c r="D249" t="s">
-        <v>636</v>
-      </c>
-      <c r="E249" s="25" t="s">
-        <v>637</v>
-      </c>
-      <c r="F249">
-        <v>0</v>
-      </c>
+    <row r="249" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="E249" s="26"/>
       <c r="I249" s="22"/>
     </row>
-    <row r="250" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B250">
-        <v>1</v>
-      </c>
-      <c r="C250" t="s">
-        <v>620</v>
-      </c>
-      <c r="D250" t="s">
-        <v>621</v>
-      </c>
-      <c r="E250" s="25" t="s">
-        <v>617</v>
-      </c>
-      <c r="F250">
-        <v>0</v>
-      </c>
+    <row r="250" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="E250" s="25"/>
       <c r="I250" s="22"/>
     </row>
-    <row r="251" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B251">
-        <v>1</v>
-      </c>
+    <row r="251" spans="4:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E251" s="25"/>
       <c r="I251" s="22"/>
     </row>
-    <row r="252" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="252" spans="4:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E252" s="25"/>
       <c r="I252" s="22"/>
     </row>
-    <row r="253" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C253" t="s">
-        <v>603</v>
-      </c>
-      <c r="D253" t="s">
-        <v>600</v>
-      </c>
-      <c r="E253" s="29" t="s">
-        <v>602</v>
-      </c>
-      <c r="F253">
-        <v>0</v>
-      </c>
-      <c r="H253" s="22">
-        <v>0.54</v>
-      </c>
-      <c r="I253" s="22">
-        <f>H253*B254</f>
-        <v>12.96</v>
-      </c>
-    </row>
-    <row r="254" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B254">
-        <v>24</v>
-      </c>
-      <c r="C254" t="s">
-        <v>604</v>
-      </c>
-      <c r="D254" t="s">
-        <v>605</v>
-      </c>
-      <c r="E254" s="29" t="s">
-        <v>601</v>
-      </c>
-      <c r="H254" s="23">
-        <v>4.29</v>
-      </c>
-      <c r="I254" s="22">
-        <f>H254*B255</f>
-        <v>4.29</v>
-      </c>
-    </row>
-    <row r="255" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B255">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="257" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B257">
-        <v>4</v>
-      </c>
+    <row r="253" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="E253" s="25"/>
+      <c r="I253" s="22"/>
+    </row>
+    <row r="254" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="H254" s="22"/>
+      <c r="I254" s="22"/>
+    </row>
+    <row r="255" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="H255" s="23"/>
+      <c r="I255" s="22"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E212" r:id="rId1"/>
-    <hyperlink ref="E233" r:id="rId2"/>
-    <hyperlink ref="E240" r:id="rId3"/>
-    <hyperlink ref="E247" r:id="rId4"/>
-    <hyperlink ref="E246" r:id="rId5"/>
-    <hyperlink ref="E237" r:id="rId6"/>
-    <hyperlink ref="E235" r:id="rId7"/>
-    <hyperlink ref="E206" r:id="rId8"/>
+    <hyperlink ref="E206" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Bezugsquellen" sheetId="2" r:id="rId1"/>
@@ -17,12 +17,12 @@
     <sheet name="Drehkranz" sheetId="9" r:id="rId8"/>
     <sheet name="BOM" sheetId="7" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1827" uniqueCount="828">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1839" uniqueCount="837">
   <si>
     <t>Bauteilnummer</t>
   </si>
@@ -2082,9 +2082,6 @@
     <t>https://www.reichelt.de/Distanzhuelsen-etc-/DI-5MM/3/index.html?&amp;ACTION=3&amp;LA=2&amp;ARTICLE=7123&amp;GROUPID=3365&amp;artnr=DI+5MM</t>
   </si>
   <si>
-    <t>Bestellmenge</t>
-  </si>
-  <si>
     <t>Übersetzung HandgelenkNicker</t>
   </si>
   <si>
@@ -2506,6 +2503,36 @@
   </si>
   <si>
     <t>bestellt</t>
+  </si>
+  <si>
+    <t>https://www.conrad.de/de/abstandsbolzen-2-x-innengewinde-m3-messing-abstandsmass-20-mm-ii-ms-3-55-20-1-st-526533.html</t>
+  </si>
+  <si>
+    <t>Distanzbolzen 2x Innen M3 20mm, Schlüsselweite 5,5mm</t>
+  </si>
+  <si>
+    <t>https://www.conrad.de/de/reely-stahl-gewindestange-500-mm-m3-stahl-237094.html</t>
+  </si>
+  <si>
+    <t>Gewindestange M3</t>
+  </si>
+  <si>
+    <t>https://www.conrad.de/de/unterlegscheiben-innen-durchmesser-32-mm-m3-din-9021-stahl-verzinkt-100-st-toolcraft-32-d9021a2k-194723-521800.html</t>
+  </si>
+  <si>
+    <t>Unterlegscheiben M3 Stahl  0,8mm, Außendurchmesser 9mm</t>
+  </si>
+  <si>
+    <t>Senkkopf InnenSechskant M6 16mm</t>
+  </si>
+  <si>
+    <t>Verschraubung RiemenScheibe/Drehkranz</t>
+  </si>
+  <si>
+    <t>Mutter M6, Schlüsselweite 10mm</t>
+  </si>
+  <si>
+    <t>Bestellmenge [VPE]</t>
   </si>
 </sst>
 </file>
@@ -2664,8 +2691,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Komma" xfId="2" builtinId="3"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Währung" xfId="3" builtinId="4"/>
   </cellStyles>
@@ -3213,9 +3240,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3253,9 +3280,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3290,7 +3317,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3325,7 +3352,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3702,7 +3729,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="E42" t="s">
         <v>624</v>
@@ -4245,7 +4272,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C46" s="5">
         <f>C50/C48*(C54/C52)</f>
@@ -4499,7 +4526,7 @@
     </row>
     <row r="70" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C70" s="2">
         <f>C66/C46</f>
@@ -4511,7 +4538,7 @@
     </row>
     <row r="71" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C71" s="2">
         <f>C65/C46</f>
@@ -4797,7 +4824,7 @@
     </row>
     <row r="78" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C78" s="2">
         <f>C71*(1+C57)</f>
@@ -8305,7 +8332,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -11817,7 +11844,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K83" sqref="K83"/>
     </sheetView>
   </sheetViews>
@@ -11895,7 +11922,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
@@ -11914,10 +11941,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L255"/>
+  <dimension ref="A1:L262"/>
   <sheetViews>
-    <sheetView topLeftCell="A115" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E145" sqref="E145"/>
+    <sheetView tabSelected="1" topLeftCell="A129" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A142" sqref="A142:XFD143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11957,7 +11984,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="str">
-        <f>C155</f>
+        <f>C159</f>
         <v>Zylinderkopfschraube Innensechskant M3 22mm</v>
       </c>
       <c r="D3" t="s">
@@ -11991,7 +12018,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="str">
-        <f>C214</f>
+        <f>C221</f>
         <v>Rillenkugellager DIN 625 SKF - 61807 35x47x7mm</v>
       </c>
       <c r="D6" t="s">
@@ -12006,7 +12033,7 @@
         <v>4</v>
       </c>
       <c r="C7" t="str">
-        <f>C163</f>
+        <f>C167</f>
         <v>Senkkopfschraube Innensechskant M3 10mm</v>
       </c>
       <c r="D7" t="s">
@@ -12021,7 +12048,7 @@
         <v>4</v>
       </c>
       <c r="C8" t="str">
-        <f>C153</f>
+        <f>C157</f>
         <v>Zylinderkopfschraube Innensechskant M3 20mm</v>
       </c>
       <c r="D8" t="s">
@@ -12033,7 +12060,7 @@
         <v>4</v>
       </c>
       <c r="C9" t="str">
-        <f>C166</f>
+        <f>C171</f>
         <v>Muttern M3, Schlüsselweite 5.5 mm</v>
       </c>
       <c r="D9" t="s">
@@ -12045,7 +12072,7 @@
         <v>2</v>
       </c>
       <c r="C10" t="str">
-        <f>C213</f>
+        <f>C220</f>
         <v>Rillenkugellager DIN 625 SKF - 61902 15x28x7mm</v>
       </c>
       <c r="D10" t="s">
@@ -12057,16 +12084,16 @@
         <v>1</v>
       </c>
       <c r="C11" t="str">
-        <f>C207</f>
+        <f>C214</f>
         <v xml:space="preserve">Herkulex Servo DRS - 0201 </v>
       </c>
       <c r="D11" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -12074,7 +12101,7 @@
         <v>1</v>
       </c>
       <c r="C13" t="str">
-        <f>C185</f>
+        <f>C192</f>
         <v>Zahnriemenscheibe T2,5, 16 Zähne</v>
       </c>
       <c r="D13" t="s">
@@ -12088,7 +12115,7 @@
         <v>1</v>
       </c>
       <c r="C14" t="str">
-        <f>C186</f>
+        <f>C193</f>
         <v>Zahnriemenscheibe T2,5, 44 Zähne</v>
       </c>
       <c r="D14" t="s">
@@ -12102,7 +12129,7 @@
         <v>1</v>
       </c>
       <c r="C15" t="str">
-        <f>C185</f>
+        <f>C192</f>
         <v>Zahnriemenscheibe T2,5, 16 Zähne</v>
       </c>
       <c r="D15" t="s">
@@ -12116,7 +12143,7 @@
         <v>1</v>
       </c>
       <c r="C16" t="str">
-        <f>C187</f>
+        <f>C194</f>
         <v>Zahnriemenscheibe T2,5, 18 Zähne</v>
       </c>
       <c r="D16" t="s">
@@ -12130,7 +12157,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="str">
-        <f>C188</f>
+        <f>C195</f>
         <v>Zahnriemenscheibe T2,5, 14 Zähne</v>
       </c>
       <c r="D17" t="s">
@@ -12144,7 +12171,7 @@
         <v>1</v>
       </c>
       <c r="C18" t="str">
-        <f>C194</f>
+        <f>C201</f>
         <v>Zahnriemen T2,5 160mm 6mm Breite</v>
       </c>
       <c r="D18" t="s">
@@ -12158,7 +12185,7 @@
         <v>46</v>
       </c>
       <c r="C19" t="str">
-        <f>C176</f>
+        <f>C181</f>
         <v>Silberstahlwelle 6mm Durchmesser</v>
       </c>
       <c r="D19" t="s">
@@ -12173,7 +12200,7 @@
         <v>1</v>
       </c>
       <c r="C20" t="str">
-        <f>C224</f>
+        <f>C231</f>
         <v>Metallbohrer 6mm</v>
       </c>
       <c r="D20" t="s">
@@ -12188,7 +12215,7 @@
         <v>1</v>
       </c>
       <c r="C21" t="str">
-        <f>C225</f>
+        <f>C232</f>
         <v>Metallbohrer 2.3mm (für M3 Gewinde)</v>
       </c>
       <c r="D21" t="s">
@@ -12203,7 +12230,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="str">
-        <f>C222</f>
+        <f>C229</f>
         <v>Gewindeschneider M3</v>
       </c>
       <c r="D22" t="s">
@@ -12218,7 +12245,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="str">
-        <f>C212</f>
+        <f>C219</f>
         <v>Rillenkugellager 6x10x3</v>
       </c>
       <c r="D23" t="s">
@@ -12233,7 +12260,7 @@
         <v>1</v>
       </c>
       <c r="C24" s="32" t="str">
-        <f>C202</f>
+        <f>C209</f>
         <v>NEMA 17 - 42x42x21</v>
       </c>
       <c r="D24" s="32" t="s">
@@ -12248,7 +12275,7 @@
         <v>2</v>
       </c>
       <c r="C25" s="32" t="str">
-        <f>C157</f>
+        <f>C161</f>
         <v>Zylinderkopfschraube Innensechskant M3 14mm</v>
       </c>
       <c r="D25" s="32" t="s">
@@ -12262,7 +12289,7 @@
         <v>2</v>
       </c>
       <c r="C26" s="32" t="str">
-        <f>C172</f>
+        <f>C177</f>
         <v>Unterlegscheiben M3 Dicke 0,5mm, Außendurchmesser 7mm</v>
       </c>
       <c r="D26" s="32" t="s">
@@ -12276,7 +12303,7 @@
         <v>1</v>
       </c>
       <c r="C27" s="32" t="str">
-        <f>C193</f>
+        <f>C200</f>
         <v>Zahnriemen T2,5 230mm 6mm Breite</v>
       </c>
       <c r="D27" s="32" t="s">
@@ -12290,7 +12317,7 @@
         <v>1</v>
       </c>
       <c r="C28" s="32" t="str">
-        <f>C156</f>
+        <f>C160</f>
         <v>Zylinderkopfschraube Innensechskant M3 16mm</v>
       </c>
       <c r="D28" s="32" t="s">
@@ -12304,7 +12331,7 @@
         <v>2</v>
       </c>
       <c r="C29" s="32" t="str">
-        <f>C172</f>
+        <f>C177</f>
         <v>Unterlegscheiben M3 Dicke 0,5mm, Außendurchmesser 7mm</v>
       </c>
       <c r="D29" s="32" t="s">
@@ -12318,7 +12345,7 @@
         <v>2</v>
       </c>
       <c r="C30" s="32" t="str">
-        <f>C209</f>
+        <f>C216</f>
         <v>Rillenkugellager  3.967 x 7.938 x 3.175 mm</v>
       </c>
       <c r="D30" s="32" t="s">
@@ -12332,7 +12359,7 @@
         <v>1</v>
       </c>
       <c r="C31" s="32" t="str">
-        <f>C165</f>
+        <f>C170</f>
         <v>Vierkant Mutter M3 Breite 5.5mm</v>
       </c>
       <c r="D31" s="32" t="s">
@@ -12347,7 +12374,7 @@
         <v>4</v>
       </c>
       <c r="C32" s="32" t="str">
-        <f>C159</f>
+        <f>C163</f>
         <v>Zylinderkopfschraube Innensechskant M2 6mm</v>
       </c>
       <c r="D32" s="32" t="s">
@@ -12362,7 +12389,7 @@
         <v>4</v>
       </c>
       <c r="C33" s="32" t="str">
-        <f>C167</f>
+        <f>C172</f>
         <v>Muttern M2</v>
       </c>
       <c r="D33" s="32" t="s">
@@ -12377,7 +12404,7 @@
         <v>1</v>
       </c>
       <c r="C34" s="32" t="str">
-        <f>C206</f>
+        <f>C213</f>
         <v>Rotary Sensor</v>
       </c>
       <c r="D34" s="32" t="s">
@@ -12392,7 +12419,7 @@
         <v>2</v>
       </c>
       <c r="C35" s="32" t="str">
-        <f>C173</f>
+        <f>C178</f>
         <v>Unterlegscheiben M2 Dicke 0,5mm</v>
       </c>
       <c r="D35" s="32" t="s">
@@ -12407,7 +12434,7 @@
         <v>2</v>
       </c>
       <c r="C36" s="32" t="str">
-        <f>C181</f>
+        <f>C186</f>
         <v>Distanzbolzen M3 20mm, Schlüsselweite 5mm</v>
       </c>
       <c r="D36" s="32" t="s">
@@ -12422,7 +12449,7 @@
         <v>4</v>
       </c>
       <c r="C37" s="32" t="str">
-        <f>C172</f>
+        <f>C177</f>
         <v>Unterlegscheiben M3 Dicke 0,5mm, Außendurchmesser 7mm</v>
       </c>
       <c r="D37" s="32" t="s">
@@ -12439,7 +12466,7 @@
         <v>674</v>
       </c>
       <c r="D38" s="32" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="H38" s="22"/>
       <c r="I38" s="22"/>
@@ -12449,11 +12476,11 @@
         <v>4</v>
       </c>
       <c r="C39" s="32" t="str">
-        <f>C153</f>
+        <f>C157</f>
         <v>Zylinderkopfschraube Innensechskant M3 20mm</v>
       </c>
       <c r="D39" s="32" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E39" s="9"/>
       <c r="H39" s="22"/>
@@ -12464,11 +12491,11 @@
         <v>4</v>
       </c>
       <c r="C40" s="32" t="str">
-        <f>C172</f>
+        <f>C177</f>
         <v>Unterlegscheiben M3 Dicke 0,5mm, Außendurchmesser 7mm</v>
       </c>
       <c r="D40" s="32" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="H40" s="22"/>
       <c r="I40" s="22"/>
@@ -12481,17 +12508,17 @@
     </row>
     <row r="42" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B42">
         <v>2</v>
       </c>
       <c r="C42" s="32" t="str">
-        <f>C214</f>
+        <f>C221</f>
         <v>Rillenkugellager DIN 625 SKF - 61807 35x47x7mm</v>
       </c>
       <c r="D42" s="32" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E42" s="9"/>
       <c r="H42" s="22"/>
@@ -12502,11 +12529,11 @@
         <v>2</v>
       </c>
       <c r="C43" s="32" t="str">
-        <f>C215</f>
+        <f>C222</f>
         <v>RillenKugellager 6x19x6</v>
       </c>
       <c r="D43" s="32" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H43" s="22"/>
       <c r="I43" s="22"/>
@@ -12516,11 +12543,11 @@
         <v>4</v>
       </c>
       <c r="C44" s="32" t="str">
-        <f>C212</f>
+        <f>C219</f>
         <v>Rillenkugellager 6x10x3</v>
       </c>
       <c r="D44" s="32" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E44" s="9"/>
       <c r="H44" s="22"/>
@@ -12531,11 +12558,11 @@
         <v>4</v>
       </c>
       <c r="C45" s="32" t="str">
-        <f>C216</f>
+        <f>C223</f>
         <v>Rillenkugellager 3x10x4</v>
       </c>
       <c r="D45" s="32" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="E45" s="9"/>
       <c r="H45" s="22"/>
@@ -12546,11 +12573,11 @@
         <v>2</v>
       </c>
       <c r="C46" s="32" t="str">
-        <f>C183</f>
+        <f>C189</f>
         <v>Distanzhülsen M6 10mm</v>
       </c>
       <c r="D46" s="32" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="H46" s="22"/>
       <c r="I46" s="22"/>
@@ -12560,11 +12587,11 @@
         <v>40</v>
       </c>
       <c r="C47" s="32" t="str">
-        <f>C176</f>
+        <f>C181</f>
         <v>Silberstahlwelle 6mm Durchmesser</v>
       </c>
       <c r="D47" s="32" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="H47" s="22"/>
       <c r="I47" s="22"/>
@@ -12575,11 +12602,11 @@
         <v>50</v>
       </c>
       <c r="C48" s="32" t="str">
-        <f>C176</f>
+        <f>C181</f>
         <v>Silberstahlwelle 6mm Durchmesser</v>
       </c>
       <c r="D48" s="32" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="H48" s="22"/>
       <c r="I48" s="22"/>
@@ -12589,11 +12616,11 @@
         <v>50</v>
       </c>
       <c r="C49" s="32" t="str">
-        <f>C177</f>
+        <f>C182</f>
         <v>Silberstahlwelle 3mm Durchmesser</v>
       </c>
       <c r="D49" s="32" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E49" s="9"/>
       <c r="H49" s="22"/>
@@ -12604,7 +12631,7 @@
         <v>1</v>
       </c>
       <c r="C50" t="str">
-        <f>C224</f>
+        <f>C231</f>
         <v>Metallbohrer 6mm</v>
       </c>
       <c r="D50" t="s">
@@ -12619,7 +12646,7 @@
         <v>1</v>
       </c>
       <c r="C51" t="str">
-        <f>C222</f>
+        <f>C229</f>
         <v>Gewindeschneider M3</v>
       </c>
       <c r="D51" t="s">
@@ -12634,7 +12661,7 @@
         <v>1</v>
       </c>
       <c r="C52" t="str">
-        <f>C225</f>
+        <f>C232</f>
         <v>Metallbohrer 2.3mm (für M3 Gewinde)</v>
       </c>
       <c r="D52" t="s">
@@ -12649,11 +12676,11 @@
         <v>1</v>
       </c>
       <c r="C53" s="32" t="str">
-        <f>C195</f>
+        <f>C202</f>
         <v>Zahnriemen T2,5 200mm 6mm Breite</v>
       </c>
       <c r="D53" s="32" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="H53" s="22"/>
       <c r="I53" s="22"/>
@@ -12663,11 +12690,11 @@
         <v>1</v>
       </c>
       <c r="C54" s="32" t="str">
-        <f>C195</f>
+        <f>C202</f>
         <v>Zahnriemen T2,5 200mm 6mm Breite</v>
       </c>
       <c r="D54" s="32" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="H54" s="22"/>
       <c r="I54" s="22"/>
@@ -12677,11 +12704,11 @@
         <v>4</v>
       </c>
       <c r="C55" s="32" t="str">
-        <f>C155</f>
+        <f>C159</f>
         <v>Zylinderkopfschraube Innensechskant M3 22mm</v>
       </c>
       <c r="D55" s="32" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="H55" s="22"/>
       <c r="I55" s="22"/>
@@ -12691,11 +12718,11 @@
         <v>4</v>
       </c>
       <c r="C56" s="32" t="str">
-        <f>C166</f>
+        <f>C171</f>
         <v>Muttern M3, Schlüsselweite 5.5 mm</v>
       </c>
       <c r="D56" s="32" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E56" s="9"/>
       <c r="H56" s="22"/>
@@ -12706,11 +12733,11 @@
         <v>2</v>
       </c>
       <c r="C57" s="32" t="str">
-        <f>C155</f>
+        <f>C159</f>
         <v>Zylinderkopfschraube Innensechskant M3 22mm</v>
       </c>
       <c r="D57" s="32" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="H57" s="22"/>
       <c r="I57" s="22"/>
@@ -12720,11 +12747,11 @@
         <v>2</v>
       </c>
       <c r="C58" s="32" t="str">
-        <f>C166</f>
+        <f>C171</f>
         <v>Muttern M3, Schlüsselweite 5.5 mm</v>
       </c>
       <c r="D58" s="32" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E58" s="9"/>
       <c r="H58" s="22"/>
@@ -12735,11 +12762,11 @@
         <v>2</v>
       </c>
       <c r="C59" s="32" t="str">
-        <f>C158</f>
+        <f>C162</f>
         <v>Zylinderkopfschraube Innensechskant M3 12mm</v>
       </c>
       <c r="D59" s="32" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H59" s="22"/>
       <c r="I59" s="22"/>
@@ -12749,11 +12776,11 @@
         <v>2</v>
       </c>
       <c r="C60" s="32" t="str">
-        <f>C166</f>
+        <f>C171</f>
         <v>Muttern M3, Schlüsselweite 5.5 mm</v>
       </c>
       <c r="D60" s="32" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E60" s="9"/>
       <c r="H60" s="22"/>
@@ -12764,11 +12791,11 @@
         <v>6</v>
       </c>
       <c r="C61" s="32" t="str">
-        <f>C154</f>
+        <f>C158</f>
         <v>Zylinderkopfschraube Innensechskant M3 25mm</v>
       </c>
       <c r="D61" s="32" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E61" s="9"/>
       <c r="H61" s="22"/>
@@ -12779,11 +12806,11 @@
         <v>3</v>
       </c>
       <c r="C62" s="32" t="str">
-        <f>C181</f>
+        <f>C186</f>
         <v>Distanzbolzen M3 20mm, Schlüsselweite 5mm</v>
       </c>
       <c r="D62" s="32" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E62" s="9"/>
       <c r="H62" s="22"/>
@@ -12794,7 +12821,7 @@
         <v>1</v>
       </c>
       <c r="C63" s="32" t="str">
-        <f>C203</f>
+        <f>C210</f>
         <v>NEMA 17 - 42x42x33</v>
       </c>
       <c r="D63" s="32" t="s">
@@ -12809,11 +12836,11 @@
         <v>1</v>
       </c>
       <c r="C64" s="32" t="str">
-        <f>C185</f>
+        <f>C192</f>
         <v>Zahnriemenscheibe T2,5, 16 Zähne</v>
       </c>
       <c r="D64" s="32" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="E64" s="9"/>
       <c r="H64" s="22"/>
@@ -12824,11 +12851,11 @@
         <v>1</v>
       </c>
       <c r="C65" s="32" t="str">
-        <f>C185</f>
+        <f>C192</f>
         <v>Zahnriemenscheibe T2,5, 16 Zähne</v>
       </c>
       <c r="D65" s="32" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="E65" s="9"/>
       <c r="H65" s="22"/>
@@ -12839,11 +12866,11 @@
         <v>1</v>
       </c>
       <c r="C66" s="32" t="str">
-        <f>C189</f>
+        <f>C196</f>
         <v>Zahnriemenscheibe T2,5, 60 Zähne</v>
       </c>
       <c r="D66" s="32" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="E66" s="9"/>
       <c r="H66" s="22"/>
@@ -12854,11 +12881,11 @@
         <v>1</v>
       </c>
       <c r="C67" s="32" t="str">
-        <f>C160</f>
+        <f>C164</f>
         <v>Zylinderkopfschraube Innensechskant M6 55mm</v>
       </c>
       <c r="D67" s="32" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E67" s="9"/>
       <c r="H67" s="22"/>
@@ -12869,10 +12896,10 @@
         <v>1</v>
       </c>
       <c r="C68" s="32" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="D68" s="32" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E68" s="9"/>
       <c r="H68" s="22"/>
@@ -12883,7 +12910,7 @@
         <v>1</v>
       </c>
       <c r="C69" s="32" t="str">
-        <f>C206</f>
+        <f>C213</f>
         <v>Rotary Sensor</v>
       </c>
       <c r="D69" s="32" t="s">
@@ -12902,13 +12929,13 @@
     </row>
     <row r="71" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B71">
         <v>4</v>
       </c>
       <c r="C71" s="32" t="str">
-        <f>C159</f>
+        <f>C163</f>
         <v>Zylinderkopfschraube Innensechskant M2 6mm</v>
       </c>
       <c r="D71" s="32" t="s">
@@ -12923,7 +12950,7 @@
         <v>4</v>
       </c>
       <c r="C72" s="32" t="str">
-        <f>C167</f>
+        <f>C172</f>
         <v>Muttern M2</v>
       </c>
       <c r="D72" s="32" t="s">
@@ -12938,7 +12965,7 @@
         <v>1</v>
       </c>
       <c r="C73" s="32" t="str">
-        <f>C206</f>
+        <f>C213</f>
         <v>Rotary Sensor</v>
       </c>
       <c r="D73" s="32" t="s">
@@ -12953,7 +12980,7 @@
         <v>2</v>
       </c>
       <c r="C74" s="32" t="str">
-        <f>C173</f>
+        <f>C178</f>
         <v>Unterlegscheiben M2 Dicke 0,5mm</v>
       </c>
       <c r="D74" s="32" t="s">
@@ -12968,11 +12995,11 @@
         <v>2</v>
       </c>
       <c r="C75" s="32" t="str">
-        <f>C214</f>
+        <f>C221</f>
         <v>Rillenkugellager DIN 625 SKF - 61807 35x47x7mm</v>
       </c>
       <c r="D75" s="32" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E75" s="9"/>
       <c r="H75" s="22"/>
@@ -12983,11 +13010,11 @@
         <v>4</v>
       </c>
       <c r="C76" t="str">
-        <f>C163</f>
+        <f>C167</f>
         <v>Senkkopfschraube Innensechskant M3 10mm</v>
       </c>
       <c r="D76" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E76" s="9"/>
       <c r="H76" s="22"/>
@@ -12998,11 +13025,11 @@
         <v>4</v>
       </c>
       <c r="C77" t="str">
-        <f>C163</f>
+        <f>C167</f>
         <v>Senkkopfschraube Innensechskant M3 10mm</v>
       </c>
       <c r="D77" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E77" s="9"/>
       <c r="H77" s="22"/>
@@ -13013,11 +13040,11 @@
         <v>4</v>
       </c>
       <c r="C78" s="32" t="str">
-        <f>C151</f>
+        <f>C155</f>
         <v>Zylinderkopfschraube Innensechskant M3 40mm</v>
       </c>
       <c r="D78" s="32" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="E78" s="9"/>
       <c r="H78" s="22"/>
@@ -13028,11 +13055,11 @@
         <v>4</v>
       </c>
       <c r="C79" s="32" t="str">
-        <f>C152</f>
+        <f>C156</f>
         <v>Zylinderkopfschraube Innensechskant M3 30mm</v>
       </c>
       <c r="D79" s="32" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="E79" s="9"/>
       <c r="H79" s="22"/>
@@ -13043,11 +13070,11 @@
         <v>12</v>
       </c>
       <c r="C80" s="32" t="str">
-        <f>C172</f>
+        <f>C177</f>
         <v>Unterlegscheiben M3 Dicke 0,5mm, Außendurchmesser 7mm</v>
       </c>
       <c r="D80" s="32" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="E80" s="9"/>
       <c r="H80" s="22"/>
@@ -13058,11 +13085,11 @@
         <v>4</v>
       </c>
       <c r="C81" s="32" t="str">
-        <f>C150</f>
+        <f>C154</f>
         <v>Zylinderkopfschraube Innensechskant M3 45mm</v>
       </c>
       <c r="D81" s="32" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="E81" s="9"/>
       <c r="H81" s="22"/>
@@ -13073,11 +13100,11 @@
         <v>8</v>
       </c>
       <c r="C82" s="32" t="str">
-        <f>C210</f>
+        <f>C217</f>
         <v>Rillenkugellager  4 x13 x 5 mm mit Flansch</v>
       </c>
       <c r="D82" s="32" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="E82" s="9"/>
       <c r="H82" s="22"/>
@@ -13088,11 +13115,11 @@
         <v>12</v>
       </c>
       <c r="C83" s="32" t="str">
-        <f>C172</f>
+        <f>C177</f>
         <v>Unterlegscheiben M3 Dicke 0,5mm, Außendurchmesser 7mm</v>
       </c>
       <c r="D83" s="32" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="E83" s="9"/>
       <c r="H83" s="22"/>
@@ -13103,11 +13130,11 @@
         <v>1</v>
       </c>
       <c r="C84" s="32" t="str">
-        <f>C170</f>
+        <f>C175</f>
         <v>Madenschraube M3 16mm</v>
       </c>
       <c r="D84" s="32" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="E84" s="9"/>
       <c r="H84" s="22"/>
@@ -13118,11 +13145,11 @@
         <v>72</v>
       </c>
       <c r="C85" s="32" t="str">
-        <f>C178</f>
+        <f>C183</f>
         <v>Silberstahlwelle 8mm Durchmesser</v>
       </c>
       <c r="D85" s="32" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E85" s="9"/>
       <c r="H85" s="22"/>
@@ -13133,11 +13160,11 @@
         <v>1</v>
       </c>
       <c r="C86" s="32" t="str">
-        <f>C190</f>
+        <f>C197</f>
         <v>Zahnriemenscheibe T5, 48 Zähne</v>
       </c>
       <c r="D86" s="32" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E86" s="9"/>
       <c r="H86" s="22"/>
@@ -13148,11 +13175,11 @@
         <v>1</v>
       </c>
       <c r="C87" s="32" t="str">
-        <f>C191</f>
+        <f>C198</f>
         <v>Zahnriemenscheibe T5, 16 Zähne</v>
       </c>
       <c r="D87" s="32" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E87" s="9"/>
       <c r="H87" s="22"/>
@@ -13163,11 +13190,11 @@
         <v>1</v>
       </c>
       <c r="C88" t="str">
-        <f>C223</f>
+        <f>C230</f>
         <v>Metallbohrer 8mm</v>
       </c>
       <c r="D88" s="32" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E88" s="9"/>
       <c r="H88" s="22"/>
@@ -13178,11 +13205,11 @@
         <v>1</v>
       </c>
       <c r="C89" t="str">
-        <f>C222</f>
+        <f>C229</f>
         <v>Gewindeschneider M3</v>
       </c>
       <c r="D89" s="32" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E89" s="9"/>
       <c r="H89" s="22"/>
@@ -13193,11 +13220,11 @@
         <v>1</v>
       </c>
       <c r="C90" t="str">
-        <f>C225</f>
+        <f>C232</f>
         <v>Metallbohrer 2.3mm (für M3 Gewinde)</v>
       </c>
       <c r="D90" s="32" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E90" s="9"/>
       <c r="H90" s="22"/>
@@ -13208,11 +13235,11 @@
         <v>2</v>
       </c>
       <c r="C91" t="str">
-        <f>C171</f>
+        <f>C176</f>
         <v>Madenschraube M3 5mm</v>
       </c>
       <c r="D91" s="32" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E91" s="9"/>
       <c r="H91" s="22"/>
@@ -13223,11 +13250,11 @@
         <v>2</v>
       </c>
       <c r="C92" t="str">
-        <f>C217</f>
+        <f>C224</f>
         <v>Rillenkugellager 8x22x7</v>
       </c>
       <c r="D92" s="32" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E92" s="9"/>
       <c r="H92" s="22"/>
@@ -13238,11 +13265,11 @@
         <v>4</v>
       </c>
       <c r="C93" t="str">
-        <f>C174</f>
+        <f>C179</f>
         <v>Unterlegscheiben 8mm Innendurchmesser</v>
       </c>
       <c r="D93" s="32" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E93" s="9"/>
       <c r="H93" s="22"/>
@@ -13253,11 +13280,11 @@
         <v>4</v>
       </c>
       <c r="C94" t="str">
-        <f>C150</f>
+        <f>C154</f>
         <v>Zylinderkopfschraube Innensechskant M3 45mm</v>
       </c>
       <c r="D94" s="32" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E94" s="9"/>
       <c r="H94" s="22"/>
@@ -13268,11 +13295,11 @@
         <v>4</v>
       </c>
       <c r="C95" t="str">
-        <f>C172</f>
+        <f>C177</f>
         <v>Unterlegscheiben M3 Dicke 0,5mm, Außendurchmesser 7mm</v>
       </c>
       <c r="D95" s="32" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E95" s="9"/>
       <c r="H95" s="22"/>
@@ -13283,11 +13310,11 @@
         <v>4</v>
       </c>
       <c r="C96" t="str">
-        <f>C165</f>
+        <f>C170</f>
         <v>Vierkant Mutter M3 Breite 5.5mm</v>
       </c>
       <c r="D96" s="32" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E96" s="9"/>
       <c r="H96" s="22"/>
@@ -13298,11 +13325,11 @@
         <v>1</v>
       </c>
       <c r="C97" t="str">
-        <f>C150</f>
+        <f>C154</f>
         <v>Zylinderkopfschraube Innensechskant M3 45mm</v>
       </c>
       <c r="D97" s="32" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="E97" s="9"/>
       <c r="H97" s="22"/>
@@ -13313,11 +13340,11 @@
         <v>4</v>
       </c>
       <c r="C98" t="str">
-        <f>C172</f>
+        <f>C177</f>
         <v>Unterlegscheiben M3 Dicke 0,5mm, Außendurchmesser 7mm</v>
       </c>
       <c r="D98" s="32" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="E98" s="9"/>
       <c r="H98" s="22"/>
@@ -13328,11 +13355,11 @@
         <v>1</v>
       </c>
       <c r="C99" t="str">
-        <f>C165</f>
+        <f>C170</f>
         <v>Vierkant Mutter M3 Breite 5.5mm</v>
       </c>
       <c r="D99" s="32" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="E99" s="9"/>
       <c r="H99" s="22"/>
@@ -13343,11 +13370,11 @@
         <v>2</v>
       </c>
       <c r="C100" t="str">
-        <f>C211</f>
+        <f>C218</f>
         <v xml:space="preserve">Rillenkugellager  4 x13 x 5 mm </v>
       </c>
       <c r="D100" s="32" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="E100" s="9"/>
       <c r="H100" s="22"/>
@@ -13358,11 +13385,11 @@
         <v>4</v>
       </c>
       <c r="C101" t="str">
-        <f>C175</f>
+        <f>C180</f>
         <v>Unterlegscheiben M3 Kunststoff 0,8mm, Außendurchmesser 7mm</v>
       </c>
       <c r="D101" s="32" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="E101" s="9"/>
       <c r="H101" s="22"/>
@@ -13373,7 +13400,7 @@
         <v>4</v>
       </c>
       <c r="C102" t="str">
-        <f>C164</f>
+        <f>C168</f>
         <v>Senkkopfschraube Innensechskant M3 25mm</v>
       </c>
       <c r="D102" s="32" t="s">
@@ -13388,11 +13415,11 @@
         <v>8</v>
       </c>
       <c r="C103" t="str">
-        <f>C152</f>
+        <f>C156</f>
         <v>Zylinderkopfschraube Innensechskant M3 30mm</v>
       </c>
       <c r="D103" s="32" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="E103" s="9"/>
       <c r="H103" s="22"/>
@@ -13403,11 +13430,11 @@
         <v>4</v>
       </c>
       <c r="C104" t="str">
-        <f>C181</f>
+        <f>C186</f>
         <v>Distanzbolzen M3 20mm, Schlüsselweite 5mm</v>
       </c>
       <c r="D104" s="32" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="E104" s="9"/>
       <c r="H104" s="22"/>
@@ -13418,11 +13445,11 @@
         <v>8</v>
       </c>
       <c r="C105" t="str">
-        <f>C172</f>
+        <f>C177</f>
         <v>Unterlegscheiben M3 Dicke 0,5mm, Außendurchmesser 7mm</v>
       </c>
       <c r="D105" s="32" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="E105" s="9"/>
       <c r="H105" s="22"/>
@@ -13433,11 +13460,11 @@
         <v>4</v>
       </c>
       <c r="C106" t="str">
-        <f>C152</f>
+        <f>C156</f>
         <v>Zylinderkopfschraube Innensechskant M3 30mm</v>
       </c>
       <c r="D106" s="32" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="E106" s="9"/>
       <c r="H106" s="22"/>
@@ -13448,11 +13475,11 @@
         <v>4</v>
       </c>
       <c r="C107" t="str">
-        <f>C172</f>
+        <f>C177</f>
         <v>Unterlegscheiben M3 Dicke 0,5mm, Außendurchmesser 7mm</v>
       </c>
       <c r="D107" s="32" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="E107" s="9"/>
       <c r="H107" s="22"/>
@@ -13463,11 +13490,11 @@
         <v>1</v>
       </c>
       <c r="C108" t="str">
-        <f>C196</f>
+        <f>C203</f>
         <v>Zahnriemen T5 340mm 10mm Breite</v>
       </c>
       <c r="D108" s="32" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E108" s="9"/>
       <c r="H108" s="22"/>
@@ -13478,11 +13505,11 @@
         <v>1</v>
       </c>
       <c r="C109" t="str">
-        <f>C191</f>
+        <f>C198</f>
         <v>Zahnriemenscheibe T5, 16 Zähne</v>
       </c>
       <c r="D109" s="32" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E109" s="9"/>
       <c r="H109" s="22"/>
@@ -13493,11 +13520,11 @@
         <v>1</v>
       </c>
       <c r="C110" t="str">
-        <f>C197</f>
+        <f>C204</f>
         <v>Zahnriemen T5 510mm 10mm Breite</v>
       </c>
       <c r="D110" s="32" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E110" s="9"/>
       <c r="H110" s="22"/>
@@ -13508,7 +13535,7 @@
         <v>1</v>
       </c>
       <c r="C111" t="str">
-        <f>C204</f>
+        <f>C211</f>
         <v xml:space="preserve">NEMA 24 - 60x60x57 1.9Nm ST6018M2008 </v>
       </c>
       <c r="D111" s="32" t="s">
@@ -13526,13 +13553,13 @@
     </row>
     <row r="113" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="6" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B113">
         <v>4</v>
       </c>
       <c r="C113" t="str">
-        <f>C159</f>
+        <f>C163</f>
         <v>Zylinderkopfschraube Innensechskant M2 6mm</v>
       </c>
       <c r="D113" s="32" t="s">
@@ -13547,7 +13574,7 @@
         <v>4</v>
       </c>
       <c r="C114" t="str">
-        <f>C167</f>
+        <f>C172</f>
         <v>Muttern M2</v>
       </c>
       <c r="D114" s="32" t="s">
@@ -13562,7 +13589,7 @@
         <v>1</v>
       </c>
       <c r="C115" t="str">
-        <f>C206</f>
+        <f>C213</f>
         <v>Rotary Sensor</v>
       </c>
       <c r="D115" s="32" t="s">
@@ -13577,7 +13604,7 @@
         <v>2</v>
       </c>
       <c r="C116" t="str">
-        <f>C173</f>
+        <f>C178</f>
         <v>Unterlegscheiben M2 Dicke 0,5mm</v>
       </c>
       <c r="D116" s="32" t="s">
@@ -13592,11 +13619,11 @@
         <v>6</v>
       </c>
       <c r="C117" t="str">
-        <f>C211</f>
+        <f>C218</f>
         <v xml:space="preserve">Rillenkugellager  4 x13 x 5 mm </v>
       </c>
       <c r="D117" s="32" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E117" s="9"/>
       <c r="H117" s="22"/>
@@ -13607,11 +13634,11 @@
         <v>4</v>
       </c>
       <c r="C118" t="str">
-        <f>C175</f>
+        <f>C180</f>
         <v>Unterlegscheiben M3 Kunststoff 0,8mm, Außendurchmesser 7mm</v>
       </c>
       <c r="D118" s="32" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E118" s="9"/>
       <c r="H118" s="22"/>
@@ -13622,11 +13649,11 @@
         <v>4</v>
       </c>
       <c r="C119" t="str">
-        <f>C165</f>
+        <f>C170</f>
         <v>Vierkant Mutter M3 Breite 5.5mm</v>
       </c>
       <c r="D119" s="32" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E119" s="9"/>
       <c r="H119" s="22"/>
@@ -13637,11 +13664,11 @@
         <v>2</v>
       </c>
       <c r="C120" t="str">
-        <f>C155</f>
+        <f>C159</f>
         <v>Zylinderkopfschraube Innensechskant M3 22mm</v>
       </c>
       <c r="D120" s="32" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E120" s="9"/>
       <c r="H120" s="22"/>
@@ -13652,11 +13679,11 @@
         <v>3</v>
       </c>
       <c r="C121" t="str">
-        <f>C172</f>
+        <f>C177</f>
         <v>Unterlegscheiben M3 Dicke 0,5mm, Außendurchmesser 7mm</v>
       </c>
       <c r="D121" s="32" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E121" s="9"/>
       <c r="H121" s="22"/>
@@ -13667,11 +13694,11 @@
         <v>1</v>
       </c>
       <c r="C122" t="str">
-        <f>C151</f>
+        <f>C155</f>
         <v>Zylinderkopfschraube Innensechskant M3 40mm</v>
       </c>
       <c r="D122" s="32" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E122" s="9"/>
       <c r="H122" s="22"/>
@@ -13682,11 +13709,11 @@
         <v>1</v>
       </c>
       <c r="C123" t="str">
-        <f>C150</f>
+        <f>C154</f>
         <v>Zylinderkopfschraube Innensechskant M3 45mm</v>
       </c>
       <c r="D123" s="32" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E123" s="9"/>
       <c r="H123" s="22"/>
@@ -13697,11 +13724,11 @@
         <v>1</v>
       </c>
       <c r="C124" t="str">
-        <f>C154</f>
+        <f>C158</f>
         <v>Zylinderkopfschraube Innensechskant M3 25mm</v>
       </c>
       <c r="D124" s="32" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E124" s="9"/>
       <c r="H124" s="22"/>
@@ -13712,11 +13739,11 @@
         <v>2</v>
       </c>
       <c r="C125" t="str">
-        <f>C217</f>
+        <f>C224</f>
         <v>Rillenkugellager 8x22x7</v>
       </c>
       <c r="D125" s="32" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E125" s="9"/>
       <c r="H125" s="22"/>
@@ -13727,11 +13754,11 @@
         <v>110</v>
       </c>
       <c r="C126" t="str">
-        <f>C178</f>
+        <f>C183</f>
         <v>Silberstahlwelle 8mm Durchmesser</v>
       </c>
       <c r="D126" s="32" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E126" s="9"/>
       <c r="H126" s="22"/>
@@ -13742,11 +13769,11 @@
         <v>1</v>
       </c>
       <c r="C127" t="str">
-        <f>C190</f>
+        <f>C197</f>
         <v>Zahnriemenscheibe T5, 48 Zähne</v>
       </c>
       <c r="D127" s="32" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E127" s="9"/>
       <c r="H127" s="22"/>
@@ -13757,456 +13784,406 @@
         <v>1</v>
       </c>
       <c r="C128" t="str">
-        <f>C191</f>
+        <f>C198</f>
         <v>Zahnriemenscheibe T5, 16 Zähne</v>
       </c>
       <c r="D128" s="32" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E128" s="9"/>
       <c r="H128" s="22"/>
       <c r="I128" s="22"/>
     </row>
-    <row r="129" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B129">
         <v>1</v>
       </c>
       <c r="C129" t="str">
-        <f>C198</f>
+        <f>C205</f>
         <v>Zahnriemen T5 500mm 10mm Breite</v>
       </c>
       <c r="D129" s="32" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E129" s="9"/>
       <c r="H129" s="22"/>
       <c r="I129" s="22"/>
     </row>
-    <row r="130" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B130">
         <v>1</v>
       </c>
       <c r="C130" t="str">
-        <f>C199</f>
+        <f>C206</f>
         <v>Zahnriemen T5 480mm 10mm Breite</v>
       </c>
       <c r="D130" s="32" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E130" s="9"/>
       <c r="H130" s="22"/>
       <c r="I130" s="22"/>
     </row>
-    <row r="131" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B131">
         <v>1</v>
       </c>
       <c r="C131" t="str">
-        <f>C191</f>
+        <f>C198</f>
         <v>Zahnriemenscheibe T5, 16 Zähne</v>
       </c>
       <c r="D131" s="32" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E131" s="9"/>
       <c r="H131" s="22"/>
       <c r="I131" s="22"/>
     </row>
-    <row r="132" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B132">
         <v>1</v>
       </c>
       <c r="C132" t="str">
-        <f>C200</f>
+        <f>C207</f>
         <v>Zahnriemen T5 340mm 10mm Breite</v>
       </c>
       <c r="D132" s="32" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E132" s="9"/>
       <c r="H132" s="22"/>
       <c r="I132" s="22"/>
     </row>
-    <row r="133" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B133">
         <v>4</v>
       </c>
       <c r="C133" t="str">
-        <f>C153</f>
+        <f>C157</f>
         <v>Zylinderkopfschraube Innensechskant M3 20mm</v>
       </c>
       <c r="D133" s="32" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E133" s="9"/>
       <c r="H133" s="22"/>
       <c r="I133" s="22"/>
     </row>
-    <row r="134" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B134">
         <v>4</v>
       </c>
       <c r="C134" t="str">
-        <f>C166</f>
+        <f>C171</f>
         <v>Muttern M3, Schlüsselweite 5.5 mm</v>
       </c>
       <c r="D134" s="32" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E134" s="9"/>
       <c r="H134" s="22"/>
       <c r="I134" s="22"/>
     </row>
-    <row r="135" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B135">
         <v>4</v>
       </c>
       <c r="C135" t="str">
-        <f>C172</f>
+        <f>C177</f>
         <v>Unterlegscheiben M3 Dicke 0,5mm, Außendurchmesser 7mm</v>
       </c>
       <c r="D135" s="32" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E135" s="9"/>
       <c r="H135" s="22"/>
       <c r="I135" s="22"/>
     </row>
-    <row r="136" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B136">
         <v>4</v>
       </c>
       <c r="C136" t="str">
-        <f>C150</f>
+        <f>C154</f>
         <v>Zylinderkopfschraube Innensechskant M3 45mm</v>
       </c>
       <c r="D136" s="32" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="E136" s="9"/>
       <c r="H136" s="22"/>
       <c r="I136" s="22"/>
     </row>
-    <row r="137" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B137">
         <v>4</v>
       </c>
       <c r="C137" t="str">
-        <f>C172</f>
+        <f>C177</f>
         <v>Unterlegscheiben M3 Dicke 0,5mm, Außendurchmesser 7mm</v>
       </c>
       <c r="D137" s="32" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="E137" s="9"/>
       <c r="H137" s="22"/>
       <c r="I137" s="22"/>
     </row>
-    <row r="138" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B138">
         <v>4</v>
       </c>
       <c r="C138" t="str">
-        <f>C180</f>
+        <f>C185</f>
         <v>Distanzbolzen M3 25mm, Schlüsselweite 5mm</v>
       </c>
       <c r="D138" s="32" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="E138" s="9"/>
       <c r="H138" s="22"/>
       <c r="I138" s="22"/>
     </row>
-    <row r="139" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B139">
-        <v>5</v>
+        <f>50*6</f>
+        <v>300</v>
       </c>
       <c r="C139" t="str">
-        <f>C165</f>
-        <v>Vierkant Mutter M3 Breite 5.5mm</v>
+        <f>C190</f>
+        <v>Gewindestange M3</v>
       </c>
       <c r="D139" s="32" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E139" s="9"/>
       <c r="H139" s="22"/>
       <c r="I139" s="22"/>
     </row>
-    <row r="140" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B140">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C140" t="str">
-        <f>C151</f>
-        <v>Zylinderkopfschraube Innensechskant M3 40mm</v>
+        <f>C184</f>
+        <v>Unterlegscheiben M3 Stahl  0,8mm, Außendurchmesser 9mm</v>
       </c>
       <c r="D140" s="32" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E140" s="9"/>
       <c r="H140" s="22"/>
       <c r="I140" s="22"/>
     </row>
-    <row r="141" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B141">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C141" t="str">
-        <f>C205</f>
-        <v xml:space="preserve">NEMA 24 - 60x60x87 3.1Nm </v>
+        <f>C187</f>
+        <v>Distanzbolzen 2x Innen M3 20mm, Schlüsselweite 5,5mm</v>
       </c>
       <c r="D141" s="32" t="s">
-        <v>648</v>
+        <v>814</v>
       </c>
       <c r="E141" s="9"/>
       <c r="H141" s="22"/>
       <c r="I141" s="22"/>
     </row>
-    <row r="142" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B142">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C142" t="str">
-        <f>C218</f>
-        <v>Rillenkugellager DIN 625 SKF - SKF 61818 - 90x115x13</v>
+        <f>C212</f>
+        <v xml:space="preserve">NEMA 24 - 60x60x87 3.1Nm </v>
       </c>
       <c r="D142" s="32" t="s">
-        <v>821</v>
+        <v>648</v>
       </c>
       <c r="E142" s="9"/>
       <c r="H142" s="22"/>
       <c r="I142" s="22"/>
     </row>
-    <row r="143" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D143" s="32"/>
+    <row r="143" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B143">
+        <v>2</v>
+      </c>
+      <c r="C143" t="str">
+        <f>C225</f>
+        <v>Rillenkugellager DIN 625 SKF - SKF 61818 - 90x115x13</v>
+      </c>
+      <c r="D143" s="32" t="s">
+        <v>820</v>
+      </c>
       <c r="E143" s="9"/>
       <c r="H143" s="22"/>
       <c r="I143" s="22"/>
     </row>
-    <row r="144" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="6" t="s">
-        <v>824</v>
-      </c>
-      <c r="B144">
-        <v>1</v>
-      </c>
-      <c r="C144" t="str">
-        <f>C219</f>
-        <v>Drehkranz 80mm/140mm</v>
-      </c>
-      <c r="D144" s="32" t="s">
-        <v>825</v>
-      </c>
+    <row r="144" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D144" s="32"/>
       <c r="E144" s="9"/>
       <c r="H144" s="22"/>
       <c r="I144" s="22"/>
     </row>
     <row r="145" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D145" s="32"/>
+      <c r="A145" s="6" t="s">
+        <v>823</v>
+      </c>
+      <c r="B145">
+        <v>1</v>
+      </c>
+      <c r="C145" t="str">
+        <f>C226</f>
+        <v>Drehkranz 80mm/140mm</v>
+      </c>
+      <c r="D145" s="32" t="s">
+        <v>824</v>
+      </c>
       <c r="E145" s="9"/>
       <c r="H145" s="22"/>
       <c r="I145" s="22"/>
     </row>
     <row r="146" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D146" s="32"/>
+      <c r="B146">
+        <v>4</v>
+      </c>
+      <c r="C146" t="str">
+        <f>C169</f>
+        <v>Senkkopf InnenSechskant M6 16mm</v>
+      </c>
+      <c r="D146" s="32" t="s">
+        <v>834</v>
+      </c>
       <c r="E146" s="9"/>
       <c r="H146" s="22"/>
       <c r="I146" s="22"/>
     </row>
     <row r="147" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D147" s="32"/>
+      <c r="B147">
+        <v>4</v>
+      </c>
+      <c r="C147" t="str">
+        <f>C173</f>
+        <v>Mutter M6, Schlüsselweite 10mm</v>
+      </c>
+      <c r="D147" s="32" t="s">
+        <v>834</v>
+      </c>
       <c r="E147" s="9"/>
       <c r="H147" s="22"/>
       <c r="I147" s="22"/>
     </row>
     <row r="148" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C148" s="32"/>
+      <c r="B148">
+        <v>6</v>
+      </c>
+      <c r="C148" t="str">
+        <f>C155</f>
+        <v>Zylinderkopfschraube Innensechskant M3 40mm</v>
+      </c>
+      <c r="D148" s="32" t="s">
+        <v>814</v>
+      </c>
       <c r="E148" s="9"/>
       <c r="H148" s="22"/>
       <c r="I148" s="22"/>
     </row>
     <row r="149" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B149" t="s">
-        <v>686</v>
-      </c>
-      <c r="C149" s="32"/>
+      <c r="B149">
+        <v>6</v>
+      </c>
+      <c r="C149" t="str">
+        <f>C184</f>
+        <v>Unterlegscheiben M3 Stahl  0,8mm, Außendurchmesser 9mm</v>
+      </c>
+      <c r="D149" s="32" t="s">
+        <v>814</v>
+      </c>
       <c r="E149" s="9"/>
-      <c r="G149" t="s">
+      <c r="H149" s="22"/>
+      <c r="I149" s="22"/>
+    </row>
+    <row r="150" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D150" s="32"/>
+      <c r="E150" s="9"/>
+      <c r="H150" s="22"/>
+      <c r="I150" s="22"/>
+    </row>
+    <row r="151" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D151" s="32"/>
+      <c r="E151" s="9"/>
+      <c r="H151" s="22"/>
+      <c r="I151" s="22"/>
+    </row>
+    <row r="152" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C152" s="32"/>
+      <c r="E152" s="9"/>
+      <c r="H152" s="22"/>
+      <c r="I152" s="22"/>
+    </row>
+    <row r="153" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B153" t="s">
+        <v>836</v>
+      </c>
+      <c r="C153" s="32"/>
+      <c r="E153" s="9"/>
+      <c r="G153" t="s">
         <v>663</v>
       </c>
-      <c r="H149" s="22" t="s">
+      <c r="H153" s="22" t="s">
         <v>676</v>
       </c>
-      <c r="I149" s="22" t="s">
+      <c r="I153" s="22" t="s">
         <v>677</v>
       </c>
-      <c r="J149" t="s">
+      <c r="J153" t="s">
         <v>678</v>
       </c>
-      <c r="K149" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="150" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B150" s="33">
-        <f t="shared" ref="B150:B181" si="0">ROUNDUP(I150/G150,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C150" s="32" t="s">
-        <v>748</v>
-      </c>
-      <c r="E150" t="s">
-        <v>802</v>
-      </c>
-      <c r="G150">
-        <v>25</v>
-      </c>
-      <c r="H150" s="22">
-        <v>7.45</v>
-      </c>
-      <c r="I150" s="18">
-        <f t="shared" ref="I150:I160" si="1">SUMIF(C$1:C$148,"="&amp;C150,B$1:B$148)</f>
-        <v>14</v>
-      </c>
-      <c r="J150" s="33">
-        <f t="shared" ref="J150:J155" si="2">G150*B150-I150</f>
-        <v>11</v>
-      </c>
-      <c r="K150" s="34">
-        <f>B150*H150</f>
-        <v>7.45</v>
-      </c>
-    </row>
-    <row r="151" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B151" s="33">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C151" s="32" t="s">
-        <v>742</v>
-      </c>
-      <c r="E151" s="9" t="s">
-        <v>675</v>
-      </c>
-      <c r="G151">
-        <v>100</v>
-      </c>
-      <c r="H151" s="22">
-        <v>2.63</v>
-      </c>
-      <c r="I151" s="18">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="J151" s="33">
-        <f t="shared" si="2"/>
-        <v>90</v>
-      </c>
-      <c r="K151" s="34">
-        <f>B151*H151</f>
-        <v>2.63</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B152" s="33">
-        <f t="shared" ref="B152" si="3">ROUNDUP(I152/G152,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C152" s="32" t="s">
-        <v>743</v>
-      </c>
-      <c r="E152" s="9" t="s">
-        <v>675</v>
-      </c>
-      <c r="G152">
-        <v>100</v>
-      </c>
-      <c r="H152" s="22">
-        <v>2.63</v>
-      </c>
-      <c r="I152" s="18">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="J152" s="33">
-        <f t="shared" si="2"/>
-        <v>84</v>
-      </c>
-      <c r="K152" s="34">
-        <f>B152*H152</f>
-        <v>2.63</v>
-      </c>
-    </row>
-    <row r="153" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B153" s="33">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C153" s="32" t="s">
-        <v>616</v>
-      </c>
-      <c r="E153" s="9" t="s">
-        <v>675</v>
-      </c>
-      <c r="G153">
-        <v>100</v>
-      </c>
-      <c r="H153" s="22">
-        <v>1.79</v>
-      </c>
-      <c r="I153" s="18">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="J153" s="33">
-        <f t="shared" si="2"/>
-        <v>88</v>
-      </c>
-      <c r="K153" s="34">
-        <f>B153*H153</f>
-        <v>1.79</v>
+      <c r="K153" t="s">
+        <v>714</v>
       </c>
     </row>
     <row r="154" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B154" s="33">
-        <f t="shared" ref="B154" si="4">ROUNDUP(I154/G154,0)</f>
+        <f t="shared" ref="B154:B187" si="0">ROUNDUP(I154/G154,0)</f>
         <v>1</v>
       </c>
       <c r="C154" s="32" t="s">
-        <v>716</v>
-      </c>
-      <c r="E154" s="9" t="s">
-        <v>675</v>
+        <v>747</v>
+      </c>
+      <c r="E154" t="s">
+        <v>801</v>
       </c>
       <c r="G154">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="H154" s="22">
-        <v>1.71</v>
+        <v>7.45</v>
       </c>
       <c r="I154" s="18">
-        <f t="shared" si="1"/>
-        <v>7</v>
+        <f>SUMIF(C$1:C$152,"="&amp;C154,B$1:B$152)</f>
+        <v>14</v>
       </c>
       <c r="J154" s="33">
-        <f t="shared" si="2"/>
-        <v>93</v>
+        <f t="shared" ref="J154:J159" si="1">G154*B154-I154</f>
+        <v>11</v>
       </c>
       <c r="K154" s="34">
-        <f t="shared" ref="K154" si="5">B154*H154</f>
-        <v>1.71</v>
+        <f>B154*H154</f>
+        <v>7.45</v>
       </c>
     </row>
     <row r="155" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B155" s="33">
-        <f t="shared" ref="B155" si="6">ROUNDUP(I155/G155,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C155" s="32" t="s">
-        <v>684</v>
+        <v>741</v>
       </c>
       <c r="E155" s="9" t="s">
         <v>675</v>
@@ -14215,50 +14192,49 @@
         <v>100</v>
       </c>
       <c r="H155" s="22">
-        <v>1.71</v>
+        <v>2.63</v>
       </c>
       <c r="I155" s="18">
+        <f>SUMIF(C$1:C$152,"="&amp;C155,B$1:B$152)</f>
+        <v>11</v>
+      </c>
+      <c r="J155" s="33">
         <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="J155" s="33">
-        <f t="shared" si="2"/>
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K155" s="34">
-        <f t="shared" ref="K155:K216" si="7">B155*H155</f>
-        <v>1.71</v>
+        <f>B155*H155</f>
+        <v>2.63</v>
       </c>
     </row>
     <row r="156" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B156" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B156" si="2">ROUNDUP(I156/G156,0)</f>
         <v>1</v>
       </c>
       <c r="C156" s="32" t="s">
-        <v>653</v>
-      </c>
-      <c r="D156" s="32"/>
-      <c r="E156" s="29" t="s">
-        <v>654</v>
+        <v>742</v>
+      </c>
+      <c r="E156" s="9" t="s">
+        <v>675</v>
       </c>
       <c r="G156">
         <v>100</v>
       </c>
       <c r="H156" s="22">
-        <v>1.96</v>
+        <v>2.63</v>
       </c>
       <c r="I156" s="18">
+        <f>SUMIF(C$1:C$152,"="&amp;C156,B$1:B$152)</f>
+        <v>16</v>
+      </c>
+      <c r="J156" s="33">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="J156" s="33">
-        <f t="shared" ref="J156:J212" si="8">G156*B156-I156</f>
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="K156" s="34">
-        <f t="shared" si="7"/>
-        <v>1.96</v>
+        <f>B156*H156</f>
+        <v>2.63</v>
       </c>
     </row>
     <row r="157" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -14267,10 +14243,10 @@
         <v>1</v>
       </c>
       <c r="C157" s="32" t="s">
-        <v>650</v>
-      </c>
-      <c r="E157" t="s">
-        <v>713</v>
+        <v>616</v>
+      </c>
+      <c r="E157" s="9" t="s">
+        <v>675</v>
       </c>
       <c r="G157">
         <v>100</v>
@@ -14279,333 +14255,342 @@
         <v>1.79</v>
       </c>
       <c r="I157" s="18">
+        <f>SUMIF(C$1:C$152,"="&amp;C157,B$1:B$152)</f>
+        <v>12</v>
+      </c>
+      <c r="J157" s="33">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="J157" s="33">
-        <f t="shared" ref="J157" si="9">G157*B157-I157</f>
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="K157" s="34">
-        <f t="shared" si="7"/>
+        <f>B157*H157</f>
         <v>1.79</v>
       </c>
     </row>
     <row r="158" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B158" s="33">
-        <f t="shared" ref="B158:B162" si="10">ROUNDUP(I158/G158,0)</f>
+        <f t="shared" ref="B158" si="3">ROUNDUP(I158/G158,0)</f>
         <v>1</v>
       </c>
       <c r="C158" s="32" t="s">
-        <v>712</v>
-      </c>
-      <c r="E158" t="s">
-        <v>713</v>
+        <v>715</v>
+      </c>
+      <c r="E158" s="9" t="s">
+        <v>675</v>
       </c>
       <c r="G158">
         <v>100</v>
       </c>
       <c r="H158" s="22">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="I158" s="18">
+        <f>SUMIF(C$1:C$152,"="&amp;C158,B$1:B$152)</f>
+        <v>7</v>
+      </c>
+      <c r="J158" s="33">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="J158" s="33">
-        <f t="shared" ref="J158:J162" si="11">G158*B158-I158</f>
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="K158" s="34">
-        <f t="shared" si="7"/>
-        <v>1.63</v>
+        <f t="shared" ref="K158" si="4">B158*H158</f>
+        <v>1.71</v>
       </c>
     </row>
     <row r="159" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B159" s="33">
-        <f>ROUNDUP(I159/G159,0)</f>
-        <v>2</v>
+        <f t="shared" ref="B159" si="5">ROUNDUP(I159/G159,0)</f>
+        <v>1</v>
       </c>
       <c r="C159" s="32" t="s">
-        <v>658</v>
-      </c>
-      <c r="E159" t="s">
-        <v>661</v>
+        <v>684</v>
+      </c>
+      <c r="E159" s="9" t="s">
+        <v>675</v>
       </c>
       <c r="G159">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="H159" s="22">
-        <v>0.99</v>
+        <v>1.71</v>
       </c>
       <c r="I159" s="18">
+        <f>SUMIF(C$1:C$152,"="&amp;C159,B$1:B$152)</f>
+        <v>12</v>
+      </c>
+      <c r="J159" s="33">
         <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="J159" s="33">
-        <f>G159*B159-I159</f>
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="K159" s="34">
-        <f>B159*H159</f>
-        <v>1.98</v>
+        <f t="shared" ref="K159:K223" si="6">B159*H159</f>
+        <v>1.71</v>
       </c>
     </row>
     <row r="160" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B160" s="33">
-        <f>ROUNDUP(I160/G160,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C160" t="s">
-        <v>732</v>
-      </c>
-      <c r="E160" t="s">
-        <v>724</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C160" s="32" t="s">
+        <v>653</v>
+      </c>
+      <c r="D160" s="32"/>
+      <c r="E160" s="29" t="s">
+        <v>654</v>
       </c>
       <c r="G160">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="H160" s="22">
-        <v>0.4</v>
+        <v>1.96</v>
       </c>
       <c r="I160" s="18">
-        <f t="shared" si="1"/>
+        <f>SUMIF(C$1:C$152,"="&amp;C160,B$1:B$152)</f>
         <v>1</v>
       </c>
       <c r="J160" s="33">
-        <f>G160*B160-I160</f>
-        <v>0</v>
+        <f t="shared" ref="J160:J219" si="7">G160*B160-I160</f>
+        <v>99</v>
       </c>
       <c r="K160" s="34">
-        <f>B160*H160</f>
-        <v>0.4</v>
+        <f t="shared" si="6"/>
+        <v>1.96</v>
       </c>
     </row>
     <row r="161" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B161" s="33"/>
-      <c r="C161" s="32"/>
-      <c r="E161"/>
-      <c r="H161" s="22"/>
-      <c r="I161" s="18"/>
-      <c r="J161" s="33"/>
-      <c r="K161" s="34"/>
+      <c r="B161" s="33">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C161" s="32" t="s">
+        <v>650</v>
+      </c>
+      <c r="E161" t="s">
+        <v>712</v>
+      </c>
+      <c r="G161">
+        <v>100</v>
+      </c>
+      <c r="H161" s="22">
+        <v>1.79</v>
+      </c>
+      <c r="I161" s="18">
+        <f>SUMIF(C$1:C$152,"="&amp;C161,B$1:B$152)</f>
+        <v>2</v>
+      </c>
+      <c r="J161" s="33">
+        <f t="shared" ref="J161" si="8">G161*B161-I161</f>
+        <v>98</v>
+      </c>
+      <c r="K161" s="34">
+        <f t="shared" si="6"/>
+        <v>1.79</v>
+      </c>
     </row>
     <row r="162" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B162" s="33">
+        <f t="shared" ref="B162:B166" si="9">ROUNDUP(I162/G162,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C162" s="32" t="s">
+        <v>711</v>
+      </c>
+      <c r="E162" t="s">
+        <v>712</v>
+      </c>
+      <c r="G162">
+        <v>100</v>
+      </c>
+      <c r="H162" s="22">
+        <v>1.63</v>
+      </c>
+      <c r="I162" s="18">
+        <f>SUMIF(C$1:C$152,"="&amp;C162,B$1:B$152)</f>
+        <v>2</v>
+      </c>
+      <c r="J162" s="33">
+        <f t="shared" ref="J162:J166" si="10">G162*B162-I162</f>
+        <v>98</v>
+      </c>
+      <c r="K162" s="34">
+        <f t="shared" si="6"/>
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="163" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B163" s="33">
+        <f>ROUNDUP(I163/G163,0)</f>
+        <v>2</v>
+      </c>
+      <c r="C163" s="32" t="s">
+        <v>658</v>
+      </c>
+      <c r="E163" t="s">
+        <v>661</v>
+      </c>
+      <c r="G163">
+        <v>10</v>
+      </c>
+      <c r="H163" s="22">
+        <v>0.99</v>
+      </c>
+      <c r="I163" s="18">
+        <f>SUMIF(C$1:C$152,"="&amp;C163,B$1:B$152)</f>
+        <v>12</v>
+      </c>
+      <c r="J163" s="33">
+        <f>G163*B163-I163</f>
+        <v>8</v>
+      </c>
+      <c r="K163" s="34">
+        <f>B163*H163</f>
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="164" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B164" s="33">
+        <f>ROUNDUP(I164/G164,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C164" t="s">
+        <v>731</v>
+      </c>
+      <c r="E164" t="s">
+        <v>723</v>
+      </c>
+      <c r="G164">
+        <v>1</v>
+      </c>
+      <c r="H164" s="22">
+        <v>0.4</v>
+      </c>
+      <c r="I164" s="18">
+        <f>SUMIF(C$1:C$152,"="&amp;C164,B$1:B$152)</f>
+        <v>1</v>
+      </c>
+      <c r="J164" s="33">
+        <f>G164*B164-I164</f>
+        <v>0</v>
+      </c>
+      <c r="K164" s="34">
+        <f>B164*H164</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="165" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B165" s="33"/>
+      <c r="C165" s="32"/>
+      <c r="E165"/>
+      <c r="H165" s="22"/>
+      <c r="I165" s="18"/>
+      <c r="J165" s="33"/>
+      <c r="K165" s="34"/>
+    </row>
+    <row r="166" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B166" s="33">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="C166" s="32" t="s">
+        <v>727</v>
+      </c>
+      <c r="E166" t="s">
+        <v>726</v>
+      </c>
+      <c r="G166">
+        <v>10</v>
+      </c>
+      <c r="H166" s="22">
+        <v>2.35</v>
+      </c>
+      <c r="I166" s="18">
+        <f>SUMIF(C$1:C$152,"="&amp;C166,B$1:B$152)</f>
+        <v>0</v>
+      </c>
+      <c r="J166" s="33">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="C162" s="32" t="s">
-        <v>728</v>
-      </c>
-      <c r="E162" t="s">
-        <v>727</v>
-      </c>
-      <c r="G162">
-        <v>10</v>
-      </c>
-      <c r="H162" s="22">
-        <v>2.35</v>
-      </c>
-      <c r="I162" s="18">
-        <f t="shared" ref="I162:I168" si="12">SUMIF(C$1:C$148,"="&amp;C162,B$1:B$148)</f>
+      <c r="K166" s="34">
+        <f t="shared" si="6"/>
         <v>0</v>
-      </c>
-      <c r="J162" s="33">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="K162" s="34">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B163" s="33">
-        <f t="shared" ref="B163" si="13">ROUNDUP(I163/G163,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C163" s="32" t="s">
-        <v>738</v>
-      </c>
-      <c r="E163" t="s">
-        <v>739</v>
-      </c>
-      <c r="F163" t="s">
-        <v>741</v>
-      </c>
-      <c r="G163">
-        <v>50</v>
-      </c>
-      <c r="H163" s="22">
-        <v>3.65</v>
-      </c>
-      <c r="I163" s="18">
-        <f t="shared" si="12"/>
-        <v>12</v>
-      </c>
-      <c r="J163" s="33">
-        <f t="shared" ref="J163" si="14">G163*B163-I163</f>
-        <v>38</v>
-      </c>
-      <c r="K163" s="34">
-        <f t="shared" ref="K163" si="15">B163*H163</f>
-        <v>3.65</v>
-      </c>
-    </row>
-    <row r="164" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B164" s="33">
-        <f t="shared" ref="B164" si="16">ROUNDUP(I164/G164,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C164" s="32" t="s">
-        <v>768</v>
-      </c>
-      <c r="E164" t="s">
-        <v>769</v>
-      </c>
-      <c r="F164" t="s">
-        <v>741</v>
-      </c>
-      <c r="G164">
-        <v>10</v>
-      </c>
-      <c r="H164" s="22">
-        <v>2.41</v>
-      </c>
-      <c r="I164" s="18">
-        <f t="shared" si="12"/>
-        <v>4</v>
-      </c>
-      <c r="J164" s="33">
-        <f t="shared" ref="J164" si="17">G164*B164-I164</f>
-        <v>6</v>
-      </c>
-      <c r="K164" s="34">
-        <f t="shared" ref="K164" si="18">B164*H164</f>
-        <v>2.41</v>
-      </c>
-    </row>
-    <row r="165" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B165" s="33">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C165" s="32" t="s">
-        <v>730</v>
-      </c>
-      <c r="E165" t="s">
-        <v>606</v>
-      </c>
-      <c r="G165">
-        <v>100</v>
-      </c>
-      <c r="H165" s="22">
-        <v>2.09</v>
-      </c>
-      <c r="I165" s="18">
-        <f t="shared" si="12"/>
-        <v>15</v>
-      </c>
-      <c r="J165" s="33">
-        <f t="shared" si="8"/>
-        <v>85</v>
-      </c>
-      <c r="K165" s="34">
-        <f t="shared" si="7"/>
-        <v>2.09</v>
-      </c>
-    </row>
-    <row r="166" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B166" s="33">
-        <f t="shared" ref="B166" si="19">ROUNDUP(I166/G166,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C166" s="32" t="s">
-        <v>729</v>
-      </c>
-      <c r="E166" s="29" t="s">
-        <v>618</v>
-      </c>
-      <c r="G166">
-        <v>100</v>
-      </c>
-      <c r="H166" s="22">
-        <v>2.09</v>
-      </c>
-      <c r="I166" s="18">
-        <f t="shared" si="12"/>
-        <v>16</v>
-      </c>
-      <c r="J166" s="33">
-        <f t="shared" ref="J166" si="20">G166*B166-I166</f>
-        <v>84</v>
-      </c>
-      <c r="K166" s="34">
-        <f t="shared" si="7"/>
-        <v>2.09</v>
       </c>
     </row>
     <row r="167" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B167" s="33">
-        <f t="shared" ref="B167:B170" si="21">ROUNDUP(I167/G167,0)</f>
+        <f t="shared" ref="B167" si="11">ROUNDUP(I167/G167,0)</f>
         <v>1</v>
       </c>
       <c r="C167" s="32" t="s">
-        <v>733</v>
+        <v>737</v>
+      </c>
+      <c r="E167" t="s">
+        <v>738</v>
+      </c>
+      <c r="F167" t="s">
+        <v>740</v>
       </c>
       <c r="G167">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H167" s="22">
-        <v>2.09</v>
+        <v>3.65</v>
       </c>
       <c r="I167" s="18">
-        <f t="shared" si="12"/>
+        <f>SUMIF(C$1:C$152,"="&amp;C167,B$1:B$152)</f>
         <v>12</v>
       </c>
       <c r="J167" s="33">
-        <f t="shared" ref="J167:J170" si="22">G167*B167-I167</f>
-        <v>88</v>
+        <f t="shared" ref="J167" si="12">G167*B167-I167</f>
+        <v>38</v>
       </c>
       <c r="K167" s="34">
-        <f t="shared" ref="K167:K170" si="23">B167*H167</f>
-        <v>2.09</v>
+        <f t="shared" ref="K167" si="13">B167*H167</f>
+        <v>3.65</v>
       </c>
     </row>
     <row r="168" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B168" s="33">
-        <f>ROUNDUP(I168/G168,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C168" t="s">
-        <v>726</v>
+        <f t="shared" ref="B168" si="14">ROUNDUP(I168/G168,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C168" s="32" t="s">
+        <v>767</v>
       </c>
       <c r="E168" t="s">
-        <v>724</v>
+        <v>768</v>
+      </c>
+      <c r="F168" t="s">
+        <v>740</v>
       </c>
       <c r="G168">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H168" s="22">
-        <v>0.4</v>
+        <v>2.41</v>
       </c>
       <c r="I168" s="18">
-        <f t="shared" si="12"/>
-        <v>1</v>
+        <f>SUMIF(C$1:C$152,"="&amp;C168,B$1:B$152)</f>
+        <v>4</v>
       </c>
       <c r="J168" s="33">
-        <f t="shared" ref="J168" si="24">G168*B168-I168</f>
-        <v>0</v>
+        <f t="shared" ref="J168" si="15">G168*B168-I168</f>
+        <v>6</v>
       </c>
       <c r="K168" s="34">
-        <f t="shared" ref="K168" si="25">B168*H168</f>
-        <v>0.4</v>
+        <f t="shared" ref="K168" si="16">B168*H168</f>
+        <v>2.41</v>
       </c>
     </row>
     <row r="169" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B169" s="33"/>
-      <c r="C169" s="32"/>
+      <c r="B169" s="33">
+        <v>4</v>
+      </c>
+      <c r="C169" t="s">
+        <v>833</v>
+      </c>
+      <c r="E169"/>
       <c r="H169" s="22"/>
       <c r="I169" s="18"/>
       <c r="J169" s="33"/>
@@ -14613,370 +14598,367 @@
     </row>
     <row r="170" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B170" s="33">
-        <f t="shared" si="21"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C170" s="32" t="s">
-        <v>764</v>
-      </c>
-      <c r="E170" s="29" t="s">
-        <v>626</v>
+        <v>729</v>
+      </c>
+      <c r="E170" t="s">
+        <v>606</v>
       </c>
       <c r="G170">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H170" s="22">
-        <v>4.8899999999999997</v>
+        <v>2.09</v>
       </c>
       <c r="I170" s="18">
-        <f t="shared" ref="I170:I178" si="26">SUMIF(C$1:C$148,"="&amp;C170,B$1:B$148)</f>
-        <v>1</v>
+        <f>SUMIF(C$1:C$152,"="&amp;C170,B$1:B$152)</f>
+        <v>10</v>
       </c>
       <c r="J170" s="33">
-        <f t="shared" si="22"/>
-        <v>49</v>
+        <f t="shared" si="7"/>
+        <v>90</v>
       </c>
       <c r="K170" s="34">
-        <f t="shared" si="23"/>
-        <v>4.8899999999999997</v>
+        <f t="shared" si="6"/>
+        <v>2.09</v>
       </c>
     </row>
     <row r="171" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B171" s="33">
-        <f t="shared" ref="B171" si="27">ROUNDUP(I171/G171,0)</f>
+        <f t="shared" ref="B171" si="17">ROUNDUP(I171/G171,0)</f>
         <v>1</v>
       </c>
       <c r="C171" s="32" t="s">
-        <v>762</v>
+        <v>728</v>
       </c>
       <c r="E171" s="29" t="s">
-        <v>763</v>
+        <v>618</v>
       </c>
       <c r="G171">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H171" s="22">
-        <v>3.89</v>
+        <v>2.09</v>
       </c>
       <c r="I171" s="18">
-        <f t="shared" si="26"/>
-        <v>2</v>
+        <f>SUMIF(C$1:C$152,"="&amp;C171,B$1:B$152)</f>
+        <v>16</v>
       </c>
       <c r="J171" s="33">
-        <f t="shared" ref="J171" si="28">G171*B171-I171</f>
-        <v>18</v>
+        <f t="shared" ref="J171" si="18">G171*B171-I171</f>
+        <v>84</v>
       </c>
       <c r="K171" s="34">
-        <f t="shared" ref="K171" si="29">B171*H171</f>
-        <v>3.89</v>
+        <f t="shared" si="6"/>
+        <v>2.09</v>
       </c>
     </row>
     <row r="172" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B172" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B172:B175" si="19">ROUNDUP(I172/G172,0)</f>
         <v>1</v>
       </c>
       <c r="C172" s="32" t="s">
-        <v>798</v>
-      </c>
-      <c r="E172" s="29" t="s">
-        <v>652</v>
+        <v>732</v>
       </c>
       <c r="G172">
         <v>100</v>
       </c>
       <c r="H172" s="22">
-        <v>1.79</v>
+        <v>2.09</v>
       </c>
       <c r="I172" s="18">
-        <f t="shared" si="26"/>
-        <v>67</v>
+        <f>SUMIF(C$1:C$152,"="&amp;C172,B$1:B$152)</f>
+        <v>12</v>
       </c>
       <c r="J172" s="33">
-        <f t="shared" si="8"/>
-        <v>33</v>
+        <f t="shared" ref="J172:J175" si="20">G172*B172-I172</f>
+        <v>88</v>
       </c>
       <c r="K172" s="34">
-        <f t="shared" si="7"/>
-        <v>1.79</v>
+        <f t="shared" ref="K172:K175" si="21">B172*H172</f>
+        <v>2.09</v>
       </c>
     </row>
     <row r="173" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B173" s="33">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C173" s="32" t="s">
-        <v>666</v>
-      </c>
-      <c r="E173" s="9" t="s">
-        <v>667</v>
+        <f>ROUNDUP(I173/G173,0)</f>
+        <v>4</v>
+      </c>
+      <c r="C173" t="s">
+        <v>835</v>
+      </c>
+      <c r="E173" t="s">
+        <v>723</v>
       </c>
       <c r="G173">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H173" s="22">
-        <v>1.79</v>
+        <v>0.4</v>
       </c>
       <c r="I173" s="18">
-        <f t="shared" si="26"/>
-        <v>6</v>
+        <f>SUMIF(C$1:C$152,"="&amp;C173,B$1:B$152)</f>
+        <v>4</v>
       </c>
       <c r="J173" s="33">
-        <f>G173*B173-I173</f>
-        <v>94</v>
+        <f t="shared" ref="J173" si="22">G173*B173-I173</f>
+        <v>0</v>
       </c>
       <c r="K173" s="34">
-        <f t="shared" si="7"/>
-        <v>1.79</v>
+        <f t="shared" ref="K173" si="23">B173*H173</f>
+        <v>1.6</v>
       </c>
     </row>
     <row r="174" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B174" s="33">
-        <f t="shared" ref="B174:B175" si="30">ROUNDUP(I174/G174,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C174" s="32" t="s">
-        <v>765</v>
-      </c>
-      <c r="E174" s="9" t="s">
-        <v>793</v>
-      </c>
-      <c r="G174">
-        <v>50</v>
-      </c>
-      <c r="H174" s="22">
-        <v>4.33</v>
-      </c>
-      <c r="I174" s="18">
-        <f t="shared" si="26"/>
-        <v>4</v>
-      </c>
-      <c r="J174" s="33">
-        <f>G174*B174-I174</f>
-        <v>46</v>
-      </c>
-      <c r="K174" s="34">
-        <f t="shared" ref="K174:K175" si="31">B174*H174</f>
-        <v>4.33</v>
-      </c>
+      <c r="B174" s="33"/>
+      <c r="C174" s="32"/>
+      <c r="H174" s="22"/>
+      <c r="I174" s="18"/>
+      <c r="J174" s="33"/>
+      <c r="K174" s="34"/>
     </row>
     <row r="175" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B175" s="33">
-        <f t="shared" si="30"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="C175" s="32" t="s">
-        <v>797</v>
-      </c>
-      <c r="E175" s="9" t="s">
-        <v>792</v>
+        <v>763</v>
+      </c>
+      <c r="E175" s="29" t="s">
+        <v>626</v>
       </c>
       <c r="G175">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="H175" s="22">
-        <v>1.98</v>
+        <v>4.8899999999999997</v>
       </c>
       <c r="I175" s="18">
-        <f t="shared" si="26"/>
-        <v>8</v>
+        <f>SUMIF(C$1:C$152,"="&amp;C175,B$1:B$152)</f>
+        <v>1</v>
       </c>
       <c r="J175" s="33">
-        <f>G175*B175-I175</f>
-        <v>2</v>
+        <f t="shared" si="20"/>
+        <v>49</v>
       </c>
       <c r="K175" s="34">
-        <f t="shared" si="31"/>
-        <v>1.98</v>
+        <f t="shared" si="21"/>
+        <v>4.8899999999999997</v>
       </c>
     </row>
     <row r="176" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B176" s="33">
-        <f>ROUNDUP(I176/G176,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C176" t="s">
-        <v>679</v>
-      </c>
-      <c r="E176" s="26" t="s">
-        <v>646</v>
+        <f t="shared" ref="B176" si="24">ROUNDUP(I176/G176,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C176" s="32" t="s">
+        <v>761</v>
+      </c>
+      <c r="E176" s="29" t="s">
+        <v>762</v>
       </c>
       <c r="G176">
-        <v>500</v>
+        <v>20</v>
       </c>
       <c r="H176" s="22">
-        <v>4.49</v>
+        <v>3.89</v>
       </c>
       <c r="I176" s="18">
-        <f t="shared" si="26"/>
-        <v>136</v>
+        <f>SUMIF(C$1:C$152,"="&amp;C176,B$1:B$152)</f>
+        <v>2</v>
       </c>
       <c r="J176" s="33">
-        <f t="shared" ref="J176" si="32">G176*B176-I176</f>
-        <v>364</v>
+        <f t="shared" ref="J176" si="25">G176*B176-I176</f>
+        <v>18</v>
       </c>
       <c r="K176" s="34">
-        <f t="shared" si="7"/>
-        <v>4.49</v>
+        <f t="shared" ref="K176" si="26">B176*H176</f>
+        <v>3.89</v>
       </c>
     </row>
     <row r="177" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B177" s="33">
-        <f>ROUNDUP(I177/G177,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C177" t="s">
-        <v>705</v>
-      </c>
-      <c r="E177" s="26" t="s">
-        <v>604</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C177" s="32" t="s">
+        <v>797</v>
+      </c>
+      <c r="E177" s="29" t="s">
+        <v>652</v>
       </c>
       <c r="G177">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="H177" s="22">
-        <v>2.4900000000000002</v>
+        <v>1.79</v>
       </c>
       <c r="I177" s="18">
-        <f t="shared" si="26"/>
-        <v>50</v>
+        <f>SUMIF(C$1:C$152,"="&amp;C177,B$1:B$152)</f>
+        <v>67</v>
       </c>
       <c r="J177" s="33">
-        <f t="shared" ref="J177:J178" si="33">G177*B177-I177</f>
-        <v>450</v>
+        <f t="shared" si="7"/>
+        <v>33</v>
       </c>
       <c r="K177" s="34">
-        <f t="shared" si="7"/>
-        <v>2.4900000000000002</v>
+        <f t="shared" si="6"/>
+        <v>1.79</v>
       </c>
     </row>
     <row r="178" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B178" s="33">
-        <f>ROUNDUP(I178/G178,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C178" t="s">
-        <v>751</v>
-      </c>
-      <c r="E178" s="26" t="s">
-        <v>752</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C178" s="32" t="s">
+        <v>666</v>
+      </c>
+      <c r="E178" s="9" t="s">
+        <v>667</v>
       </c>
       <c r="G178">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="H178" s="22">
-        <v>4.49</v>
+        <v>1.79</v>
       </c>
       <c r="I178" s="18">
-        <f t="shared" si="26"/>
-        <v>182</v>
+        <f>SUMIF(C$1:C$152,"="&amp;C178,B$1:B$152)</f>
+        <v>6</v>
       </c>
       <c r="J178" s="33">
-        <f t="shared" si="33"/>
-        <v>318</v>
+        <f>G178*B178-I178</f>
+        <v>94</v>
       </c>
       <c r="K178" s="34">
-        <f t="shared" ref="K178" si="34">B178*H178</f>
-        <v>4.49</v>
+        <f t="shared" si="6"/>
+        <v>1.79</v>
       </c>
     </row>
     <row r="179" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B179" s="33"/>
-      <c r="E179" s="26"/>
-      <c r="H179" s="22"/>
-      <c r="I179" s="18"/>
-      <c r="J179" s="33"/>
-      <c r="K179" s="34"/>
+      <c r="B179" s="33">
+        <f t="shared" ref="B179:B180" si="27">ROUNDUP(I179/G179,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C179" s="32" t="s">
+        <v>764</v>
+      </c>
+      <c r="E179" s="9" t="s">
+        <v>792</v>
+      </c>
+      <c r="G179">
+        <v>50</v>
+      </c>
+      <c r="H179" s="22">
+        <v>4.33</v>
+      </c>
+      <c r="I179" s="18">
+        <f>SUMIF(C$1:C$152,"="&amp;C179,B$1:B$152)</f>
+        <v>4</v>
+      </c>
+      <c r="J179" s="33">
+        <f>G179*B179-I179</f>
+        <v>46</v>
+      </c>
+      <c r="K179" s="34">
+        <f t="shared" ref="K179:K180" si="28">B179*H179</f>
+        <v>4.33</v>
+      </c>
     </row>
     <row r="180" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B180" s="33">
-        <f>ROUNDUP(I180/G180,0)</f>
-        <v>4</v>
+        <f t="shared" si="27"/>
+        <v>1</v>
       </c>
       <c r="C180" s="32" t="s">
-        <v>814</v>
-      </c>
-      <c r="E180" t="s">
-        <v>813</v>
+        <v>796</v>
+      </c>
+      <c r="E180" s="9" t="s">
+        <v>791</v>
       </c>
       <c r="G180">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H180" s="22">
-        <v>0.16</v>
+        <v>1.98</v>
       </c>
       <c r="I180" s="18">
-        <f>SUMIF(C$1:C$148,"="&amp;C180,B$1:B$148)</f>
-        <v>4</v>
+        <f>SUMIF(C$1:C$152,"="&amp;C180,B$1:B$152)</f>
+        <v>8</v>
       </c>
       <c r="J180" s="33">
-        <f t="shared" ref="J180" si="35">G180*B180-I180</f>
-        <v>0</v>
+        <f>G180*B180-I180</f>
+        <v>2</v>
       </c>
       <c r="K180" s="34">
-        <f t="shared" ref="K180" si="36">B180*H180</f>
-        <v>0.64</v>
+        <f t="shared" si="28"/>
+        <v>1.98</v>
       </c>
     </row>
     <row r="181" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B181" s="33">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="C181" s="32" t="s">
-        <v>731</v>
-      </c>
-      <c r="E181" s="9" t="s">
-        <v>671</v>
+        <f>ROUNDUP(I181/G181,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C181" t="s">
+        <v>679</v>
+      </c>
+      <c r="E181" s="26" t="s">
+        <v>646</v>
       </c>
       <c r="G181">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="H181" s="22">
-        <v>0.15</v>
+        <v>4.49</v>
       </c>
       <c r="I181" s="18">
-        <f>SUMIF(C$1:C$148,"="&amp;C181,B$1:B$148)</f>
-        <v>9</v>
+        <f>SUMIF(C$1:C$152,"="&amp;C181,B$1:B$152)</f>
+        <v>136</v>
       </c>
       <c r="J181" s="33">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" ref="J181" si="29">G181*B181-I181</f>
+        <v>364</v>
       </c>
       <c r="K181" s="34">
-        <f t="shared" si="7"/>
-        <v>1.3499999999999999</v>
+        <f t="shared" si="6"/>
+        <v>4.49</v>
       </c>
     </row>
     <row r="182" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B182" s="33">
-        <f t="shared" ref="B182" si="37">ROUNDUP(I182/G182,0)</f>
-        <v>0</v>
+        <f>ROUNDUP(I182/G182,0)</f>
+        <v>1</v>
       </c>
       <c r="C182" t="s">
-        <v>799</v>
-      </c>
-      <c r="E182" s="29" t="s">
-        <v>685</v>
+        <v>704</v>
+      </c>
+      <c r="E182" s="26" t="s">
+        <v>604</v>
       </c>
       <c r="G182">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="H182" s="22">
-        <v>0.08</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="I182" s="18">
-        <f>SUMIF(C$1:C$148,"="&amp;C182,B$1:B$148)</f>
-        <v>0</v>
+        <f>SUMIF(C$1:C$152,"="&amp;C182,B$1:B$152)</f>
+        <v>50</v>
       </c>
       <c r="J182" s="33">
-        <f t="shared" ref="J182" si="38">G182*B182-I182</f>
-        <v>0</v>
+        <f t="shared" ref="J182:J183" si="30">G182*B182-I182</f>
+        <v>450</v>
       </c>
       <c r="K182" s="34">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>2.4900000000000002</v>
       </c>
     </row>
     <row r="183" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -14985,1281 +14967,1463 @@
         <v>1</v>
       </c>
       <c r="C183" t="s">
-        <v>699</v>
+        <v>750</v>
       </c>
       <c r="E183" s="26" t="s">
-        <v>700</v>
+        <v>751</v>
       </c>
       <c r="G183">
-        <v>10</v>
+        <v>500</v>
       </c>
       <c r="H183" s="22">
-        <v>2.59</v>
+        <v>4.49</v>
       </c>
       <c r="I183" s="18">
-        <f>SUMIF(C$1:C$148,"="&amp;C183,B$1:B$148)</f>
-        <v>2</v>
+        <f>SUMIF(C$1:C$152,"="&amp;C183,B$1:B$152)</f>
+        <v>182</v>
       </c>
       <c r="J183" s="33">
-        <f t="shared" ref="J183" si="39">G183*B183-I183</f>
-        <v>8</v>
+        <f t="shared" si="30"/>
+        <v>318</v>
       </c>
       <c r="K183" s="34">
-        <f>B183*H183</f>
-        <v>2.59</v>
+        <f t="shared" ref="K183" si="31">B183*H183</f>
+        <v>4.49</v>
       </c>
     </row>
     <row r="184" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B184" s="33"/>
-      <c r="H184" s="22"/>
-      <c r="I184" s="18"/>
-      <c r="J184" s="33"/>
-      <c r="K184" s="34"/>
+      <c r="B184" s="33">
+        <f>ROUNDUP(I184/G184,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C184" s="32" t="s">
+        <v>832</v>
+      </c>
+      <c r="E184" s="26" t="s">
+        <v>831</v>
+      </c>
+      <c r="G184">
+        <v>100</v>
+      </c>
+      <c r="H184" s="22">
+        <v>1.59</v>
+      </c>
+      <c r="I184" s="18">
+        <f>SUMIF(C$1:C$152,"="&amp;C184,B$1:B$152)</f>
+        <v>12</v>
+      </c>
+      <c r="J184" s="33">
+        <f t="shared" ref="J184" si="32">G184*B184-I184</f>
+        <v>88</v>
+      </c>
+      <c r="K184" s="34">
+        <f t="shared" ref="K184" si="33">B184*H184</f>
+        <v>1.59</v>
+      </c>
     </row>
     <row r="185" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B185" s="33">
-        <f t="shared" ref="B185:B189" si="40">ROUNDUP(I185/G185,0)</f>
+        <f>ROUNDUP(I185/G185,0)</f>
         <v>4</v>
       </c>
-      <c r="C185" t="s">
-        <v>632</v>
-      </c>
-      <c r="E185" s="29" t="s">
-        <v>637</v>
+      <c r="C185" s="32" t="s">
+        <v>813</v>
+      </c>
+      <c r="E185" t="s">
+        <v>812</v>
       </c>
       <c r="G185">
         <v>1</v>
       </c>
       <c r="H185" s="22">
-        <v>5.0999999999999996</v>
+        <v>0.16</v>
       </c>
       <c r="I185" s="18">
-        <f t="shared" ref="I185:I200" si="41">SUMIF(C$1:C$148,"="&amp;C185,B$1:B$148)</f>
+        <f>SUMIF(C$1:C$152,"="&amp;C185,B$1:B$152)</f>
         <v>4</v>
       </c>
       <c r="J185" s="33">
-        <f t="shared" ref="J185" si="42">G185*B185-I185</f>
+        <f t="shared" ref="J185" si="34">G185*B185-I185</f>
         <v>0</v>
       </c>
       <c r="K185" s="34">
-        <f t="shared" si="7"/>
-        <v>20.399999999999999</v>
+        <f t="shared" ref="K185" si="35">B185*H185</f>
+        <v>0.64</v>
       </c>
     </row>
     <row r="186" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B186" s="33">
-        <f t="shared" si="40"/>
-        <v>1</v>
-      </c>
-      <c r="C186" t="s">
-        <v>639</v>
-      </c>
-      <c r="E186" s="29" t="s">
-        <v>638</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C186" s="32" t="s">
+        <v>730</v>
+      </c>
+      <c r="E186" s="9" t="s">
+        <v>671</v>
       </c>
       <c r="G186">
         <v>1</v>
       </c>
       <c r="H186" s="22">
-        <v>5.44</v>
+        <v>0.15</v>
       </c>
       <c r="I186" s="18">
-        <f t="shared" si="41"/>
-        <v>1</v>
+        <f>SUMIF(C$1:C$152,"="&amp;C186,B$1:B$152)</f>
+        <v>9</v>
       </c>
       <c r="J186" s="33">
-        <f t="shared" ref="J186:J188" si="43">G186*B186-I186</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K186" s="34">
-        <f t="shared" si="7"/>
-        <v>5.44</v>
+        <f t="shared" si="6"/>
+        <v>1.3499999999999999</v>
       </c>
     </row>
     <row r="187" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B187" s="33">
-        <f t="shared" si="40"/>
-        <v>1</v>
-      </c>
-      <c r="C187" t="s">
-        <v>680</v>
-      </c>
-      <c r="E187" s="29" t="s">
-        <v>642</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C187" s="32" t="s">
+        <v>828</v>
+      </c>
+      <c r="E187" t="s">
+        <v>827</v>
       </c>
       <c r="G187">
         <v>1</v>
       </c>
       <c r="H187" s="22">
-        <v>4.46</v>
+        <v>0.3</v>
       </c>
       <c r="I187" s="18">
-        <f t="shared" si="41"/>
-        <v>1</v>
+        <f>SUMIF(C$1:C$152,"="&amp;C187,B$1:B$152)</f>
+        <v>6</v>
       </c>
       <c r="J187" s="33">
-        <f t="shared" si="43"/>
+        <f t="shared" ref="J187" si="36">G187*B187-I187</f>
         <v>0</v>
       </c>
       <c r="K187" s="34">
-        <f t="shared" si="7"/>
-        <v>4.46</v>
+        <f t="shared" ref="K187" si="37">B187*H187</f>
+        <v>1.7999999999999998</v>
       </c>
     </row>
     <row r="188" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B188" s="33">
-        <f t="shared" si="40"/>
-        <v>1</v>
+        <f t="shared" ref="B188" si="38">ROUNDUP(I188/G188,0)</f>
+        <v>0</v>
       </c>
       <c r="C188" t="s">
-        <v>681</v>
+        <v>798</v>
       </c>
       <c r="E188" s="29" t="s">
-        <v>640</v>
+        <v>685</v>
       </c>
       <c r="G188">
         <v>1</v>
       </c>
       <c r="H188" s="22">
-        <v>5.01</v>
+        <v>0.08</v>
       </c>
       <c r="I188" s="18">
-        <f t="shared" si="41"/>
-        <v>1</v>
+        <f>SUMIF(C$1:C$152,"="&amp;C188,B$1:B$152)</f>
+        <v>0</v>
       </c>
       <c r="J188" s="33">
-        <f t="shared" si="43"/>
+        <f t="shared" ref="J188" si="39">G188*B188-I188</f>
         <v>0</v>
       </c>
       <c r="K188" s="34">
-        <f t="shared" si="7"/>
-        <v>5.01</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B189" s="33">
-        <f t="shared" si="40"/>
+        <f>ROUNDUP(I189/G189,0)</f>
         <v>1</v>
       </c>
       <c r="C189" t="s">
-        <v>723</v>
+        <v>698</v>
       </c>
       <c r="E189" s="26" t="s">
-        <v>722</v>
+        <v>699</v>
       </c>
       <c r="G189">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H189" s="22">
-        <v>6.34</v>
+        <v>2.59</v>
       </c>
       <c r="I189" s="18">
-        <f t="shared" si="41"/>
-        <v>1</v>
+        <f>SUMIF(C$1:C$152,"="&amp;C189,B$1:B$152)</f>
+        <v>2</v>
       </c>
       <c r="J189" s="33">
-        <f t="shared" ref="J189" si="44">G189*B189-I189</f>
-        <v>0</v>
+        <f t="shared" ref="J189" si="40">G189*B189-I189</f>
+        <v>8</v>
       </c>
       <c r="K189" s="34">
-        <f t="shared" ref="K189" si="45">B189*H189</f>
-        <v>6.34</v>
+        <f>B189*H189</f>
+        <v>2.59</v>
       </c>
     </row>
     <row r="190" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B190" s="33">
-        <v>1</v>
-      </c>
-      <c r="C190" t="s">
-        <v>755</v>
-      </c>
-      <c r="D190" s="32"/>
-      <c r="E190" s="26" t="s">
-        <v>754</v>
+        <f>ROUNDUP(I190/G190,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C190" s="32" t="s">
+        <v>830</v>
+      </c>
+      <c r="E190" t="s">
+        <v>829</v>
       </c>
       <c r="G190">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="H190" s="22">
-        <v>11.6</v>
+        <v>1.69</v>
       </c>
       <c r="I190" s="18">
-        <f t="shared" si="41"/>
-        <v>2</v>
+        <f>SUMIF(C$1:C$152,"="&amp;C190,B$1:B$152)</f>
+        <v>300</v>
       </c>
       <c r="J190" s="33">
-        <f t="shared" ref="J190:J191" si="46">G190*B190-I190</f>
-        <v>-1</v>
+        <f t="shared" ref="J190" si="41">G190*B190-I190</f>
+        <v>200</v>
       </c>
       <c r="K190" s="34">
-        <f t="shared" ref="K190:K191" si="47">B190*H190</f>
-        <v>11.6</v>
+        <f>B190*H190</f>
+        <v>1.69</v>
       </c>
     </row>
     <row r="191" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B191" s="33">
-        <v>1</v>
-      </c>
-      <c r="C191" t="s">
-        <v>775</v>
-      </c>
-      <c r="D191" s="32"/>
-      <c r="E191" s="29" t="s">
-        <v>776</v>
-      </c>
-      <c r="G191">
-        <v>1</v>
-      </c>
-      <c r="H191" s="22">
-        <v>5.66</v>
-      </c>
-      <c r="I191" s="18">
-        <f t="shared" si="41"/>
-        <v>4</v>
-      </c>
-      <c r="J191" s="33">
-        <f t="shared" si="46"/>
-        <v>-3</v>
-      </c>
-      <c r="K191" s="34">
-        <f t="shared" si="47"/>
-        <v>5.66</v>
-      </c>
+      <c r="B191" s="33"/>
+      <c r="H191" s="22"/>
+      <c r="I191" s="18"/>
+      <c r="J191" s="33"/>
+      <c r="K191" s="34"/>
     </row>
     <row r="192" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B192" s="33">
-        <v>1</v>
+        <f t="shared" ref="B192:B196" si="42">ROUNDUP(I192/G192,0)</f>
+        <v>4</v>
       </c>
       <c r="C192" t="s">
-        <v>757</v>
-      </c>
-      <c r="D192" s="32"/>
+        <v>632</v>
+      </c>
       <c r="E192" s="29" t="s">
-        <v>756</v>
+        <v>637</v>
       </c>
       <c r="G192">
         <v>1</v>
       </c>
       <c r="H192" s="22">
-        <v>5.23</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="I192" s="18">
-        <f t="shared" si="41"/>
+        <f>SUMIF(C$1:C$152,"="&amp;C192,B$1:B$152)</f>
+        <v>4</v>
+      </c>
+      <c r="J192" s="33">
+        <f t="shared" ref="J192" si="43">G192*B192-I192</f>
         <v>0</v>
       </c>
-      <c r="J192" s="33">
-        <f t="shared" ref="J192" si="48">G192*B192-I192</f>
-        <v>1</v>
-      </c>
       <c r="K192" s="34">
-        <f t="shared" ref="K192" si="49">B192*H192</f>
-        <v>5.23</v>
-      </c>
-    </row>
-    <row r="193" spans="2:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="193" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B193" s="33">
-        <v>1</v>
-      </c>
-      <c r="C193" s="32" t="s">
-        <v>781</v>
-      </c>
-      <c r="D193" s="32"/>
+        <f t="shared" si="42"/>
+        <v>1</v>
+      </c>
+      <c r="C193" t="s">
+        <v>639</v>
+      </c>
       <c r="E193" s="29" t="s">
-        <v>657</v>
+        <v>638</v>
       </c>
       <c r="G193">
         <v>1</v>
       </c>
       <c r="H193" s="22">
-        <v>4.96</v>
+        <v>5.44</v>
       </c>
       <c r="I193" s="18">
-        <f t="shared" si="41"/>
+        <f>SUMIF(C$1:C$152,"="&amp;C193,B$1:B$152)</f>
         <v>1</v>
       </c>
       <c r="J193" s="33">
-        <f>G193*B193-I193</f>
+        <f t="shared" ref="J193:J195" si="44">G193*B193-I193</f>
         <v>0</v>
       </c>
       <c r="K193" s="34">
-        <f>B193*H193</f>
-        <v>4.96</v>
-      </c>
-    </row>
-    <row r="194" spans="2:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>5.44</v>
+      </c>
+    </row>
+    <row r="194" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B194" s="33">
+        <f t="shared" si="42"/>
         <v>1</v>
       </c>
       <c r="C194" t="s">
-        <v>782</v>
-      </c>
-      <c r="D194" s="32"/>
+        <v>680</v>
+      </c>
       <c r="E194" s="29" t="s">
-        <v>683</v>
+        <v>642</v>
       </c>
       <c r="G194">
         <v>1</v>
       </c>
       <c r="H194" s="22">
-        <v>4.24</v>
+        <v>4.46</v>
       </c>
       <c r="I194" s="18">
-        <f t="shared" si="41"/>
+        <f>SUMIF(C$1:C$152,"="&amp;C194,B$1:B$152)</f>
         <v>1</v>
       </c>
       <c r="J194" s="33">
-        <f t="shared" ref="J194" si="50">G194*B194-I194</f>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="K194" s="34">
-        <f>B194*H194</f>
-        <v>4.24</v>
-      </c>
-    </row>
-    <row r="195" spans="2:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>4.46</v>
+      </c>
+    </row>
+    <row r="195" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B195" s="33">
-        <f>ROUNDUP(I195/G195,0)</f>
+        <f t="shared" si="42"/>
+        <v>1</v>
+      </c>
+      <c r="C195" t="s">
+        <v>681</v>
+      </c>
+      <c r="E195" s="29" t="s">
+        <v>640</v>
+      </c>
+      <c r="G195">
+        <v>1</v>
+      </c>
+      <c r="H195" s="22">
+        <v>5.01</v>
+      </c>
+      <c r="I195" s="18">
+        <f>SUMIF(C$1:C$152,"="&amp;C195,B$1:B$152)</f>
+        <v>1</v>
+      </c>
+      <c r="J195" s="33">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="K195" s="34">
+        <f t="shared" si="6"/>
+        <v>5.01</v>
+      </c>
+    </row>
+    <row r="196" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B196" s="33">
+        <f t="shared" si="42"/>
+        <v>1</v>
+      </c>
+      <c r="C196" t="s">
+        <v>722</v>
+      </c>
+      <c r="E196" s="26" t="s">
+        <v>721</v>
+      </c>
+      <c r="G196">
+        <v>1</v>
+      </c>
+      <c r="H196" s="22">
+        <v>6.34</v>
+      </c>
+      <c r="I196" s="18">
+        <f>SUMIF(C$1:C$152,"="&amp;C196,B$1:B$152)</f>
+        <v>1</v>
+      </c>
+      <c r="J196" s="33">
+        <f t="shared" ref="J196" si="45">G196*B196-I196</f>
+        <v>0</v>
+      </c>
+      <c r="K196" s="34">
+        <f t="shared" ref="K196" si="46">B196*H196</f>
+        <v>6.34</v>
+      </c>
+    </row>
+    <row r="197" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B197" s="33">
+        <v>1</v>
+      </c>
+      <c r="C197" t="s">
+        <v>754</v>
+      </c>
+      <c r="D197" s="32"/>
+      <c r="E197" s="26" t="s">
+        <v>753</v>
+      </c>
+      <c r="G197">
+        <v>1</v>
+      </c>
+      <c r="H197" s="22">
+        <v>11.6</v>
+      </c>
+      <c r="I197" s="18">
+        <f>SUMIF(C$1:C$152,"="&amp;C197,B$1:B$152)</f>
         <v>2</v>
       </c>
-      <c r="C195" t="s">
-        <v>785</v>
-      </c>
-      <c r="E195" s="26" t="s">
-        <v>707</v>
-      </c>
-      <c r="G195">
-        <v>1</v>
-      </c>
-      <c r="H195" s="22">
-        <v>4.4400000000000004</v>
-      </c>
-      <c r="I195" s="18">
-        <f t="shared" si="41"/>
-        <v>2</v>
-      </c>
-      <c r="J195" s="33">
-        <f t="shared" ref="J195" si="51">G195*B195-I195</f>
-        <v>0</v>
-      </c>
-      <c r="K195" s="34">
-        <f>B195*H195</f>
-        <v>8.8800000000000008</v>
-      </c>
-    </row>
-    <row r="196" spans="2:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B196" s="33">
-        <v>1</v>
-      </c>
-      <c r="C196" t="s">
-        <v>783</v>
-      </c>
-      <c r="D196" s="32"/>
-      <c r="E196" s="29" t="s">
-        <v>773</v>
-      </c>
-      <c r="G196">
-        <v>1</v>
-      </c>
-      <c r="H196" s="22">
-        <v>7.44</v>
-      </c>
-      <c r="I196" s="18">
-        <f t="shared" si="41"/>
-        <v>2</v>
-      </c>
-      <c r="J196" s="33">
-        <f t="shared" ref="J196" si="52">G196*B196-I196</f>
+      <c r="J197" s="33">
+        <f t="shared" ref="J197:J198" si="47">G197*B197-I197</f>
         <v>-1</v>
       </c>
-      <c r="K196" s="34">
-        <f t="shared" ref="K196" si="53">B196*H196</f>
-        <v>7.44</v>
-      </c>
-    </row>
-    <row r="197" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B197" s="33">
-        <v>1</v>
-      </c>
-      <c r="C197" t="s">
-        <v>784</v>
-      </c>
-      <c r="D197" s="32"/>
-      <c r="E197" s="29" t="s">
-        <v>773</v>
-      </c>
-      <c r="G197">
-        <v>1</v>
-      </c>
-      <c r="H197" s="22">
-        <v>8.8699999999999992</v>
-      </c>
-      <c r="I197" s="18">
-        <f t="shared" si="41"/>
-        <v>1</v>
-      </c>
-      <c r="J197" s="33">
-        <f t="shared" ref="J197" si="54">G197*B197-I197</f>
-        <v>0</v>
-      </c>
       <c r="K197" s="34">
-        <f t="shared" ref="K197" si="55">B197*H197</f>
-        <v>8.8699999999999992</v>
-      </c>
-    </row>
-    <row r="198" spans="2:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" ref="K197:K198" si="48">B197*H197</f>
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="198" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B198" s="33">
         <v>1</v>
       </c>
       <c r="C198" t="s">
-        <v>806</v>
+        <v>774</v>
       </c>
       <c r="D198" s="32"/>
       <c r="E198" s="29" t="s">
-        <v>805</v>
+        <v>775</v>
       </c>
       <c r="G198">
         <v>1</v>
       </c>
       <c r="H198" s="22">
-        <v>7.88</v>
+        <v>5.66</v>
       </c>
       <c r="I198" s="18">
-        <f t="shared" si="41"/>
-        <v>1</v>
+        <f>SUMIF(C$1:C$152,"="&amp;C198,B$1:B$152)</f>
+        <v>4</v>
       </c>
       <c r="J198" s="33">
-        <f t="shared" ref="J198" si="56">G198*B198-I198</f>
-        <v>0</v>
+        <f t="shared" si="47"/>
+        <v>-3</v>
       </c>
       <c r="K198" s="34">
-        <f t="shared" ref="K198" si="57">B198*H198</f>
-        <v>7.88</v>
-      </c>
-    </row>
-    <row r="199" spans="2:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="48"/>
+        <v>5.66</v>
+      </c>
+    </row>
+    <row r="199" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B199" s="33">
         <v>1</v>
       </c>
       <c r="C199" t="s">
-        <v>807</v>
+        <v>756</v>
       </c>
       <c r="D199" s="32"/>
       <c r="E199" s="29" t="s">
-        <v>808</v>
+        <v>755</v>
       </c>
       <c r="G199">
         <v>1</v>
       </c>
       <c r="H199" s="22">
-        <v>7.88</v>
+        <v>5.23</v>
       </c>
       <c r="I199" s="18">
-        <f t="shared" si="41"/>
-        <v>1</v>
+        <f>SUMIF(C$1:C$152,"="&amp;C199,B$1:B$152)</f>
+        <v>0</v>
       </c>
       <c r="J199" s="33">
-        <f t="shared" ref="J199" si="58">G199*B199-I199</f>
-        <v>0</v>
+        <f t="shared" ref="J199" si="49">G199*B199-I199</f>
+        <v>1</v>
       </c>
       <c r="K199" s="34">
-        <f t="shared" ref="K199" si="59">B199*H199</f>
-        <v>7.88</v>
-      </c>
-    </row>
-    <row r="200" spans="2:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" ref="K199" si="50">B199*H199</f>
+        <v>5.23</v>
+      </c>
+    </row>
+    <row r="200" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B200" s="33">
         <v>1</v>
       </c>
-      <c r="C200" t="s">
-        <v>783</v>
+      <c r="C200" s="32" t="s">
+        <v>780</v>
       </c>
       <c r="D200" s="32"/>
       <c r="E200" s="29" t="s">
-        <v>773</v>
+        <v>657</v>
       </c>
       <c r="G200">
         <v>1</v>
       </c>
       <c r="H200" s="22">
+        <v>4.96</v>
+      </c>
+      <c r="I200" s="18">
+        <f>SUMIF(C$1:C$152,"="&amp;C200,B$1:B$152)</f>
+        <v>1</v>
+      </c>
+      <c r="J200" s="33">
+        <f>G200*B200-I200</f>
+        <v>0</v>
+      </c>
+      <c r="K200" s="34">
+        <f>B200*H200</f>
+        <v>4.96</v>
+      </c>
+    </row>
+    <row r="201" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B201" s="33">
+        <v>1</v>
+      </c>
+      <c r="C201" t="s">
+        <v>781</v>
+      </c>
+      <c r="D201" s="32"/>
+      <c r="E201" s="29" t="s">
+        <v>683</v>
+      </c>
+      <c r="G201">
+        <v>1</v>
+      </c>
+      <c r="H201" s="22">
+        <v>4.24</v>
+      </c>
+      <c r="I201" s="18">
+        <f>SUMIF(C$1:C$152,"="&amp;C201,B$1:B$152)</f>
+        <v>1</v>
+      </c>
+      <c r="J201" s="33">
+        <f t="shared" ref="J201" si="51">G201*B201-I201</f>
+        <v>0</v>
+      </c>
+      <c r="K201" s="34">
+        <f>B201*H201</f>
+        <v>4.24</v>
+      </c>
+    </row>
+    <row r="202" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B202" s="33">
+        <f>ROUNDUP(I202/G202,0)</f>
+        <v>2</v>
+      </c>
+      <c r="C202" t="s">
+        <v>784</v>
+      </c>
+      <c r="E202" s="26" t="s">
+        <v>706</v>
+      </c>
+      <c r="G202">
+        <v>1</v>
+      </c>
+      <c r="H202" s="22">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="I202" s="18">
+        <f>SUMIF(C$1:C$152,"="&amp;C202,B$1:B$152)</f>
+        <v>2</v>
+      </c>
+      <c r="J202" s="33">
+        <f t="shared" ref="J202" si="52">G202*B202-I202</f>
+        <v>0</v>
+      </c>
+      <c r="K202" s="34">
+        <f>B202*H202</f>
+        <v>8.8800000000000008</v>
+      </c>
+    </row>
+    <row r="203" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B203" s="33">
+        <v>1</v>
+      </c>
+      <c r="C203" t="s">
+        <v>782</v>
+      </c>
+      <c r="D203" s="32"/>
+      <c r="E203" s="29" t="s">
+        <v>772</v>
+      </c>
+      <c r="G203">
+        <v>1</v>
+      </c>
+      <c r="H203" s="22">
+        <v>7.44</v>
+      </c>
+      <c r="I203" s="18">
+        <f>SUMIF(C$1:C$152,"="&amp;C203,B$1:B$152)</f>
+        <v>2</v>
+      </c>
+      <c r="J203" s="33">
+        <f t="shared" ref="J203" si="53">G203*B203-I203</f>
+        <v>-1</v>
+      </c>
+      <c r="K203" s="34">
+        <f t="shared" ref="K203" si="54">B203*H203</f>
+        <v>7.44</v>
+      </c>
+    </row>
+    <row r="204" spans="2:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B204" s="33">
+        <v>1</v>
+      </c>
+      <c r="C204" t="s">
+        <v>783</v>
+      </c>
+      <c r="D204" s="32"/>
+      <c r="E204" s="29" t="s">
+        <v>772</v>
+      </c>
+      <c r="G204">
+        <v>1</v>
+      </c>
+      <c r="H204" s="22">
+        <v>8.8699999999999992</v>
+      </c>
+      <c r="I204" s="18">
+        <f>SUMIF(C$1:C$152,"="&amp;C204,B$1:B$152)</f>
+        <v>1</v>
+      </c>
+      <c r="J204" s="33">
+        <f t="shared" ref="J204" si="55">G204*B204-I204</f>
+        <v>0</v>
+      </c>
+      <c r="K204" s="34">
+        <f t="shared" ref="K204" si="56">B204*H204</f>
+        <v>8.8699999999999992</v>
+      </c>
+    </row>
+    <row r="205" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B205" s="33">
+        <v>1</v>
+      </c>
+      <c r="C205" t="s">
+        <v>805</v>
+      </c>
+      <c r="D205" s="32"/>
+      <c r="E205" s="29" t="s">
+        <v>804</v>
+      </c>
+      <c r="G205">
+        <v>1</v>
+      </c>
+      <c r="H205" s="22">
+        <v>7.88</v>
+      </c>
+      <c r="I205" s="18">
+        <f>SUMIF(C$1:C$152,"="&amp;C205,B$1:B$152)</f>
+        <v>1</v>
+      </c>
+      <c r="J205" s="33">
+        <f t="shared" ref="J205" si="57">G205*B205-I205</f>
+        <v>0</v>
+      </c>
+      <c r="K205" s="34">
+        <f t="shared" ref="K205" si="58">B205*H205</f>
+        <v>7.88</v>
+      </c>
+    </row>
+    <row r="206" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B206" s="33">
+        <v>1</v>
+      </c>
+      <c r="C206" t="s">
+        <v>806</v>
+      </c>
+      <c r="D206" s="32"/>
+      <c r="E206" s="29" t="s">
+        <v>807</v>
+      </c>
+      <c r="G206">
+        <v>1</v>
+      </c>
+      <c r="H206" s="22">
+        <v>7.88</v>
+      </c>
+      <c r="I206" s="18">
+        <f>SUMIF(C$1:C$152,"="&amp;C206,B$1:B$152)</f>
+        <v>1</v>
+      </c>
+      <c r="J206" s="33">
+        <f t="shared" ref="J206" si="59">G206*B206-I206</f>
+        <v>0</v>
+      </c>
+      <c r="K206" s="34">
+        <f t="shared" ref="K206" si="60">B206*H206</f>
+        <v>7.88</v>
+      </c>
+    </row>
+    <row r="207" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B207" s="33">
+        <v>1</v>
+      </c>
+      <c r="C207" t="s">
+        <v>782</v>
+      </c>
+      <c r="D207" s="32"/>
+      <c r="E207" s="29" t="s">
+        <v>772</v>
+      </c>
+      <c r="G207">
+        <v>1</v>
+      </c>
+      <c r="H207" s="22">
         <v>7.13</v>
       </c>
-      <c r="I200" s="18">
-        <f t="shared" si="41"/>
+      <c r="I207" s="18">
+        <f>SUMIF(C$1:C$152,"="&amp;C207,B$1:B$152)</f>
         <v>2</v>
       </c>
-      <c r="J200" s="33">
-        <f t="shared" ref="J200" si="60">G200*B200-I200</f>
+      <c r="J207" s="33">
+        <f t="shared" ref="J207" si="61">G207*B207-I207</f>
         <v>-1</v>
       </c>
-      <c r="K200" s="34">
-        <f t="shared" ref="K200" si="61">B200*H200</f>
+      <c r="K207" s="34">
+        <f t="shared" ref="K207" si="62">B207*H207</f>
         <v>7.13</v>
       </c>
     </row>
-    <row r="201" spans="2:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B201" s="33"/>
-      <c r="D201" s="32"/>
-      <c r="H201" s="22"/>
-      <c r="I201" s="18"/>
-      <c r="J201" s="33"/>
-      <c r="K201" s="34"/>
-    </row>
-    <row r="202" spans="2:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B202" s="33">
-        <v>1</v>
-      </c>
-      <c r="C202" s="32" t="s">
-        <v>647</v>
-      </c>
-      <c r="E202" s="26" t="s">
-        <v>649</v>
-      </c>
-      <c r="G202">
-        <v>1</v>
-      </c>
-      <c r="H202" s="22">
-        <v>14.5</v>
-      </c>
-      <c r="I202" s="18">
-        <f t="shared" ref="I202:I207" si="62">SUMIF(C$1:C$148,"="&amp;C202,B$1:B$148)</f>
-        <v>1</v>
-      </c>
-      <c r="J202" s="33">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="K202" s="34">
-        <f t="shared" si="7"/>
-        <v>14.5</v>
-      </c>
-    </row>
-    <row r="203" spans="2:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B203" s="33">
-        <v>1</v>
-      </c>
-      <c r="C203" s="32" t="s">
-        <v>718</v>
-      </c>
-      <c r="E203" s="26" t="s">
-        <v>719</v>
-      </c>
-      <c r="G203">
-        <v>1</v>
-      </c>
-      <c r="H203" s="22">
-        <v>8.5</v>
-      </c>
-      <c r="I203" s="18">
-        <f t="shared" si="62"/>
-        <v>1</v>
-      </c>
-      <c r="J203" s="33">
-        <f t="shared" ref="J203" si="63">G203*B203-I203</f>
-        <v>0</v>
-      </c>
-      <c r="K203" s="34">
-        <f t="shared" ref="K203" si="64">B203*H203</f>
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="204" spans="2:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B204" s="33">
-        <v>1</v>
-      </c>
-      <c r="C204" s="32" t="s">
-        <v>780</v>
-      </c>
-      <c r="E204" s="26" t="s">
-        <v>779</v>
-      </c>
-      <c r="G204">
-        <v>1</v>
-      </c>
-      <c r="H204" s="22">
-        <v>54.2</v>
-      </c>
-      <c r="I204" s="18">
-        <f t="shared" si="62"/>
-        <v>1</v>
-      </c>
-      <c r="J204" s="33">
-        <f t="shared" ref="J204" si="65">G204*B204-I204</f>
-        <v>0</v>
-      </c>
-      <c r="K204" s="34">
-        <f t="shared" ref="K204" si="66">B204*H204</f>
-        <v>54.2</v>
-      </c>
-    </row>
-    <row r="205" spans="2:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B205" s="33">
-        <v>1</v>
-      </c>
-      <c r="C205" s="32" t="s">
-        <v>816</v>
-      </c>
-      <c r="E205" s="26" t="s">
-        <v>817</v>
-      </c>
-      <c r="G205">
-        <v>1</v>
-      </c>
-      <c r="H205" s="22">
-        <v>37</v>
-      </c>
-      <c r="I205" s="18">
-        <f t="shared" si="62"/>
-        <v>1</v>
-      </c>
-      <c r="J205" s="33">
-        <f t="shared" ref="J205" si="67">G205*B205-I205</f>
-        <v>0</v>
-      </c>
-      <c r="K205" s="34">
-        <f t="shared" ref="K205" si="68">B205*H205</f>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="206" spans="2:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B206" s="33">
-        <f t="shared" ref="B206:B216" si="69">ROUNDUP(I206/G206,0)</f>
-        <v>4</v>
-      </c>
-      <c r="C206" s="32" t="s">
-        <v>660</v>
-      </c>
-      <c r="E206" s="9" t="s">
-        <v>562</v>
-      </c>
-      <c r="G206">
-        <v>1</v>
-      </c>
-      <c r="H206" s="22">
-        <v>14.53</v>
-      </c>
-      <c r="I206" s="18">
-        <f t="shared" si="62"/>
-        <v>4</v>
-      </c>
-      <c r="J206" s="33">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="K206" s="34">
-        <f t="shared" si="7"/>
-        <v>58.12</v>
-      </c>
-      <c r="L206" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="207" spans="2:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B207" s="33">
-        <f t="shared" si="69"/>
-        <v>1</v>
-      </c>
-      <c r="C207" s="32" t="s">
-        <v>786</v>
-      </c>
-      <c r="E207" s="9" t="s">
-        <v>788</v>
-      </c>
-      <c r="G207">
-        <v>1</v>
-      </c>
-      <c r="H207" s="22">
-        <v>36.42</v>
-      </c>
-      <c r="I207" s="18">
-        <f t="shared" si="62"/>
-        <v>1</v>
-      </c>
-      <c r="J207" s="33">
-        <f t="shared" ref="J207" si="70">G207*B207-I207</f>
-        <v>0</v>
-      </c>
-      <c r="K207" s="34">
-        <f t="shared" ref="K207" si="71">B207*H207</f>
-        <v>36.42</v>
-      </c>
-      <c r="L207" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="208" spans="2:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B208" s="33"/>
-      <c r="C208" s="32"/>
-      <c r="E208" s="9"/>
+      <c r="D208" s="32"/>
       <c r="H208" s="22"/>
       <c r="I208" s="18"/>
       <c r="J208" s="33"/>
       <c r="K208" s="34"/>
     </row>
-    <row r="209" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="2:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B209" s="33">
+        <v>1</v>
+      </c>
+      <c r="C209" s="32" t="s">
+        <v>647</v>
+      </c>
+      <c r="E209" s="26" t="s">
+        <v>649</v>
+      </c>
+      <c r="G209">
+        <v>1</v>
+      </c>
+      <c r="H209" s="22">
+        <v>14.5</v>
+      </c>
+      <c r="I209" s="18">
+        <f>SUMIF(C$1:C$152,"="&amp;C209,B$1:B$152)</f>
+        <v>1</v>
+      </c>
+      <c r="J209" s="33">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K209" s="34">
+        <f t="shared" si="6"/>
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="210" spans="2:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B210" s="33">
+        <v>1</v>
+      </c>
+      <c r="C210" s="32" t="s">
+        <v>717</v>
+      </c>
+      <c r="E210" s="26" t="s">
+        <v>718</v>
+      </c>
+      <c r="G210">
+        <v>1</v>
+      </c>
+      <c r="H210" s="22">
+        <v>8.5</v>
+      </c>
+      <c r="I210" s="18">
+        <f>SUMIF(C$1:C$152,"="&amp;C210,B$1:B$152)</f>
+        <v>1</v>
+      </c>
+      <c r="J210" s="33">
+        <f t="shared" ref="J210" si="63">G210*B210-I210</f>
+        <v>0</v>
+      </c>
+      <c r="K210" s="34">
+        <f t="shared" ref="K210" si="64">B210*H210</f>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="211" spans="2:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B211" s="33">
+        <v>1</v>
+      </c>
+      <c r="C211" s="32" t="s">
+        <v>779</v>
+      </c>
+      <c r="E211" s="26" t="s">
+        <v>778</v>
+      </c>
+      <c r="G211">
+        <v>1</v>
+      </c>
+      <c r="H211" s="22">
+        <v>54.2</v>
+      </c>
+      <c r="I211" s="18">
+        <f>SUMIF(C$1:C$152,"="&amp;C211,B$1:B$152)</f>
+        <v>1</v>
+      </c>
+      <c r="J211" s="33">
+        <f t="shared" ref="J211" si="65">G211*B211-I211</f>
+        <v>0</v>
+      </c>
+      <c r="K211" s="34">
+        <f t="shared" ref="K211" si="66">B211*H211</f>
+        <v>54.2</v>
+      </c>
+    </row>
+    <row r="212" spans="2:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B212" s="33">
+        <v>1</v>
+      </c>
+      <c r="C212" s="32" t="s">
+        <v>815</v>
+      </c>
+      <c r="E212" s="26" t="s">
+        <v>816</v>
+      </c>
+      <c r="G212">
+        <v>1</v>
+      </c>
+      <c r="H212" s="22">
+        <v>37</v>
+      </c>
+      <c r="I212" s="18">
+        <f>SUMIF(C$1:C$152,"="&amp;C212,B$1:B$152)</f>
+        <v>1</v>
+      </c>
+      <c r="J212" s="33">
+        <f t="shared" ref="J212" si="67">G212*B212-I212</f>
+        <v>0</v>
+      </c>
+      <c r="K212" s="34">
+        <f t="shared" ref="K212" si="68">B212*H212</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="213" spans="2:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B213" s="33">
+        <f t="shared" ref="B213:B223" si="69">ROUNDUP(I213/G213,0)</f>
+        <v>4</v>
+      </c>
+      <c r="C213" s="32" t="s">
+        <v>660</v>
+      </c>
+      <c r="E213" s="9" t="s">
+        <v>562</v>
+      </c>
+      <c r="G213">
+        <v>1</v>
+      </c>
+      <c r="H213" s="22">
+        <v>14.53</v>
+      </c>
+      <c r="I213" s="18">
+        <f>SUMIF(C$1:C$152,"="&amp;C213,B$1:B$152)</f>
+        <v>4</v>
+      </c>
+      <c r="J213" s="33">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K213" s="34">
+        <f t="shared" si="6"/>
+        <v>58.12</v>
+      </c>
+      <c r="L213" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="214" spans="2:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B214" s="33">
+        <f t="shared" si="69"/>
+        <v>1</v>
+      </c>
+      <c r="C214" s="32" t="s">
+        <v>785</v>
+      </c>
+      <c r="E214" s="9" t="s">
+        <v>787</v>
+      </c>
+      <c r="G214">
+        <v>1</v>
+      </c>
+      <c r="H214" s="22">
+        <v>36.42</v>
+      </c>
+      <c r="I214" s="18">
+        <f>SUMIF(C$1:C$152,"="&amp;C214,B$1:B$152)</f>
+        <v>1</v>
+      </c>
+      <c r="J214" s="33">
+        <f t="shared" ref="J214" si="70">G214*B214-I214</f>
+        <v>0</v>
+      </c>
+      <c r="K214" s="34">
+        <f t="shared" ref="K214" si="71">B214*H214</f>
+        <v>36.42</v>
+      </c>
+      <c r="L214" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="215" spans="2:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B215" s="33"/>
+      <c r="C215" s="32"/>
+      <c r="E215" s="9"/>
+      <c r="H215" s="22"/>
+      <c r="I215" s="18"/>
+      <c r="J215" s="33"/>
+      <c r="K215" s="34"/>
+    </row>
+    <row r="216" spans="2:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B216" s="33">
         <f t="shared" si="69"/>
         <v>2</v>
       </c>
-      <c r="C209" s="32" t="s">
+      <c r="C216" s="32" t="s">
         <v>670</v>
       </c>
-      <c r="D209" s="32"/>
-      <c r="E209" s="29" t="s">
+      <c r="D216" s="32"/>
+      <c r="E216" s="29" t="s">
         <v>668</v>
       </c>
-      <c r="G209">
-        <v>1</v>
-      </c>
-      <c r="H209" s="22">
+      <c r="G216">
+        <v>1</v>
+      </c>
+      <c r="H216" s="22">
         <v>1.54</v>
       </c>
-      <c r="I209" s="18">
-        <f t="shared" ref="I209:I218" si="72">SUMIF(C$1:C$148,"="&amp;C209,B$1:B$148)</f>
+      <c r="I216" s="18">
+        <f>SUMIF(C$1:C$152,"="&amp;C216,B$1:B$152)</f>
         <v>2</v>
       </c>
-      <c r="J209" s="33">
-        <f t="shared" si="8"/>
+      <c r="J216" s="33">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K209" s="34">
-        <f t="shared" si="7"/>
+      <c r="K216" s="34">
+        <f t="shared" si="6"/>
         <v>3.08</v>
       </c>
     </row>
-    <row r="210" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B210" s="33">
-        <f t="shared" ref="B210" si="73">ROUNDUP(I210/G210,0)</f>
+    <row r="217" spans="2:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B217" s="33">
+        <f t="shared" ref="B217" si="72">ROUNDUP(I217/G217,0)</f>
         <v>8</v>
       </c>
-      <c r="C210" s="32" t="s">
-        <v>772</v>
-      </c>
-      <c r="D210" s="32"/>
-      <c r="E210" s="29" t="s">
+      <c r="C217" s="32" t="s">
+        <v>771</v>
+      </c>
+      <c r="D217" s="32"/>
+      <c r="E217" s="29" t="s">
+        <v>788</v>
+      </c>
+      <c r="G217">
+        <v>1</v>
+      </c>
+      <c r="H217" s="22">
+        <v>1.54</v>
+      </c>
+      <c r="I217" s="18">
+        <f>SUMIF(C$1:C$152,"="&amp;C217,B$1:B$152)</f>
+        <v>8</v>
+      </c>
+      <c r="J217" s="33">
+        <f t="shared" ref="J217" si="73">G217*B217-I217</f>
+        <v>0</v>
+      </c>
+      <c r="K217" s="34">
+        <f t="shared" ref="K217" si="74">B217*H217</f>
+        <v>12.32</v>
+      </c>
+    </row>
+    <row r="218" spans="2:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B218" s="33">
+        <f t="shared" ref="B218" si="75">ROUNDUP(I218/G218,0)</f>
+        <v>8</v>
+      </c>
+      <c r="C218" s="32" t="s">
+        <v>790</v>
+      </c>
+      <c r="D218" s="32"/>
+      <c r="E218" s="29" t="s">
         <v>789</v>
       </c>
-      <c r="G210">
-        <v>1</v>
-      </c>
-      <c r="H210" s="22">
+      <c r="G218">
+        <v>1</v>
+      </c>
+      <c r="H218" s="22">
         <v>1.54</v>
       </c>
-      <c r="I210" s="18">
-        <f t="shared" si="72"/>
+      <c r="I218" s="18">
+        <f>SUMIF(C$1:C$152,"="&amp;C218,B$1:B$152)</f>
         <v>8</v>
       </c>
-      <c r="J210" s="33">
-        <f t="shared" ref="J210" si="74">G210*B210-I210</f>
+      <c r="J218" s="33">
+        <f t="shared" ref="J218" si="76">G218*B218-I218</f>
         <v>0</v>
       </c>
-      <c r="K210" s="34">
-        <f t="shared" ref="K210" si="75">B210*H210</f>
+      <c r="K218" s="34">
+        <f t="shared" ref="K218" si="77">B218*H218</f>
         <v>12.32</v>
       </c>
     </row>
-    <row r="211" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B211" s="33">
-        <f t="shared" ref="B211" si="76">ROUNDUP(I211/G211,0)</f>
-        <v>8</v>
-      </c>
-      <c r="C211" s="32" t="s">
-        <v>791</v>
-      </c>
-      <c r="D211" s="32"/>
-      <c r="E211" s="29" t="s">
-        <v>790</v>
-      </c>
-      <c r="G211">
-        <v>1</v>
-      </c>
-      <c r="H211" s="22">
-        <v>1.54</v>
-      </c>
-      <c r="I211" s="18">
-        <f t="shared" si="72"/>
-        <v>8</v>
-      </c>
-      <c r="J211" s="33">
-        <f t="shared" ref="J211" si="77">G211*B211-I211</f>
-        <v>0</v>
-      </c>
-      <c r="K211" s="34">
-        <f t="shared" ref="K211" si="78">B211*H211</f>
-        <v>12.32</v>
-      </c>
-    </row>
-    <row r="212" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B212" s="33">
+    <row r="219" spans="2:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B219" s="33">
         <f t="shared" si="69"/>
         <v>6</v>
       </c>
-      <c r="C212" t="s">
+      <c r="C219" t="s">
         <v>644</v>
       </c>
-      <c r="E212" s="26" t="s">
+      <c r="E219" s="26" t="s">
         <v>643</v>
       </c>
-      <c r="G212">
-        <v>1</v>
-      </c>
-      <c r="H212" s="22">
+      <c r="G219">
+        <v>1</v>
+      </c>
+      <c r="H219" s="22">
         <v>1.95</v>
       </c>
-      <c r="I212" s="18">
-        <f t="shared" si="72"/>
+      <c r="I219" s="18">
+        <f>SUMIF(C$1:C$152,"="&amp;C219,B$1:B$152)</f>
         <v>6</v>
       </c>
-      <c r="J212" s="33">
-        <f t="shared" si="8"/>
+      <c r="J219" s="33">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K212" s="34">
-        <f t="shared" si="7"/>
+      <c r="K219" s="34">
+        <f t="shared" si="6"/>
         <v>11.7</v>
       </c>
     </row>
-    <row r="213" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B213" s="33">
+    <row r="220" spans="2:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B220" s="33">
         <f t="shared" si="69"/>
         <v>2</v>
       </c>
-      <c r="C213" t="s">
+      <c r="C220" t="s">
         <v>620</v>
       </c>
-      <c r="E213" s="29" t="s">
+      <c r="E220" s="29" t="s">
         <v>622</v>
       </c>
-      <c r="G213">
-        <v>1</v>
-      </c>
-      <c r="H213" s="22">
+      <c r="G220">
+        <v>1</v>
+      </c>
+      <c r="H220" s="22">
         <v>1.39</v>
       </c>
-      <c r="I213" s="18">
-        <f t="shared" si="72"/>
+      <c r="I220" s="18">
+        <f>SUMIF(C$1:C$152,"="&amp;C220,B$1:B$152)</f>
         <v>2</v>
       </c>
-      <c r="J213" s="33">
-        <f t="shared" ref="J213" si="79">G213*B213-I213</f>
+      <c r="J220" s="33">
+        <f t="shared" ref="J220" si="78">G220*B220-I220</f>
         <v>0</v>
       </c>
-      <c r="K213" s="34">
-        <f t="shared" si="7"/>
+      <c r="K220" s="34">
+        <f t="shared" si="6"/>
         <v>2.78</v>
       </c>
     </row>
-    <row r="214" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B214" s="33">
+    <row r="221" spans="2:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B221" s="33">
         <f t="shared" si="69"/>
         <v>5</v>
       </c>
-      <c r="C214" t="s">
+      <c r="C221" t="s">
         <v>613</v>
       </c>
-      <c r="E214" s="29" t="s">
+      <c r="E221" s="29" t="s">
         <v>557</v>
       </c>
-      <c r="G214">
-        <v>1</v>
-      </c>
-      <c r="H214" s="22">
+      <c r="G221">
+        <v>1</v>
+      </c>
+      <c r="H221" s="22">
         <v>3.29</v>
       </c>
-      <c r="I214" s="18">
-        <f t="shared" si="72"/>
+      <c r="I221" s="18">
+        <f>SUMIF(C$1:C$152,"="&amp;C221,B$1:B$152)</f>
         <v>5</v>
       </c>
-      <c r="J214" s="33">
-        <f t="shared" ref="J214" si="80">G214*B214-I214</f>
+      <c r="J221" s="33">
+        <f t="shared" ref="J221" si="79">G221*B221-I221</f>
         <v>0</v>
       </c>
-      <c r="K214" s="34">
-        <f t="shared" si="7"/>
+      <c r="K221" s="34">
+        <f t="shared" si="6"/>
         <v>16.45</v>
       </c>
     </row>
-    <row r="215" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B215" s="33">
+    <row r="222" spans="2:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B222" s="33">
         <f t="shared" si="69"/>
         <v>2</v>
       </c>
-      <c r="C215" t="s">
+      <c r="C222" t="s">
+        <v>694</v>
+      </c>
+      <c r="E222" s="26" t="s">
         <v>695</v>
       </c>
-      <c r="E215" s="26" t="s">
-        <v>696</v>
-      </c>
-      <c r="G215">
-        <v>1</v>
-      </c>
-      <c r="H215" s="22">
-        <v>1</v>
-      </c>
-      <c r="I215" s="18">
-        <f t="shared" si="72"/>
+      <c r="G222">
+        <v>1</v>
+      </c>
+      <c r="H222" s="22">
+        <v>1</v>
+      </c>
+      <c r="I222" s="18">
+        <f>SUMIF(C$1:C$152,"="&amp;C222,B$1:B$152)</f>
         <v>2</v>
       </c>
-      <c r="J215" s="33">
-        <f t="shared" ref="J215" si="81">G215*B215-I215</f>
+      <c r="J222" s="33">
+        <f t="shared" ref="J222" si="80">G222*B222-I222</f>
         <v>0</v>
       </c>
-      <c r="K215" s="34">
-        <f t="shared" si="7"/>
+      <c r="K222" s="34">
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
-    <row r="216" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B216" s="33">
+    <row r="223" spans="2:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B223" s="33">
         <f t="shared" si="69"/>
         <v>4</v>
       </c>
-      <c r="C216" s="32" t="s">
-        <v>703</v>
-      </c>
-      <c r="E216" s="26" t="s">
+      <c r="C223" s="32" t="s">
         <v>702</v>
       </c>
-      <c r="G216">
-        <v>1</v>
-      </c>
-      <c r="H216" s="22">
+      <c r="E223" s="26" t="s">
+        <v>701</v>
+      </c>
+      <c r="G223">
+        <v>1</v>
+      </c>
+      <c r="H223" s="22">
         <v>1.05</v>
       </c>
-      <c r="I216" s="18">
-        <f t="shared" si="72"/>
+      <c r="I223" s="18">
+        <f>SUMIF(C$1:C$152,"="&amp;C223,B$1:B$152)</f>
         <v>4</v>
       </c>
-      <c r="J216" s="33">
-        <f t="shared" ref="J216" si="82">G216*B216-I216</f>
+      <c r="J223" s="33">
+        <f t="shared" ref="J223" si="81">G223*B223-I223</f>
         <v>0</v>
       </c>
-      <c r="K216" s="34">
-        <f t="shared" si="7"/>
+      <c r="K223" s="34">
+        <f t="shared" si="6"/>
         <v>4.2</v>
       </c>
     </row>
-    <row r="217" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B217" s="33">
-        <f t="shared" ref="B217:B218" si="83">ROUNDUP(I217/G217,0)</f>
+    <row r="224" spans="2:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B224" s="33">
+        <f t="shared" ref="B224:B225" si="82">ROUNDUP(I224/G224,0)</f>
         <v>4</v>
       </c>
-      <c r="C217" s="32" t="s">
+      <c r="C224" s="32" t="s">
+        <v>817</v>
+      </c>
+      <c r="E224" s="26" t="s">
         <v>818</v>
       </c>
-      <c r="E217" s="26" t="s">
-        <v>819</v>
-      </c>
-      <c r="G217">
-        <v>1</v>
-      </c>
-      <c r="H217" s="22">
-        <v>1</v>
-      </c>
-      <c r="I217" s="18">
-        <f t="shared" si="72"/>
+      <c r="G224">
+        <v>1</v>
+      </c>
+      <c r="H224" s="22">
+        <v>1</v>
+      </c>
+      <c r="I224" s="18">
+        <f>SUMIF(C$1:C$152,"="&amp;C224,B$1:B$152)</f>
         <v>4</v>
       </c>
-      <c r="J217" s="33">
-        <f t="shared" ref="J217" si="84">G217*B217-I217</f>
+      <c r="J224" s="33">
+        <f t="shared" ref="J224" si="83">G224*B224-I224</f>
         <v>0</v>
       </c>
-      <c r="K217" s="34">
-        <f t="shared" ref="K217" si="85">B217*H217</f>
+      <c r="K224" s="34">
+        <f t="shared" ref="K224" si="84">B224*H224</f>
         <v>4</v>
       </c>
     </row>
-    <row r="218" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B218" s="33">
-        <f t="shared" si="83"/>
+    <row r="225" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B225" s="33">
+        <f t="shared" si="82"/>
         <v>2</v>
       </c>
-      <c r="C218" t="s">
+      <c r="C225" t="s">
         <v>599</v>
       </c>
-      <c r="E218" s="29" t="s">
+      <c r="E225" s="29" t="s">
         <v>554</v>
       </c>
-      <c r="G218">
-        <v>1</v>
-      </c>
-      <c r="H218" s="22">
+      <c r="G225">
+        <v>1</v>
+      </c>
+      <c r="H225" s="22">
         <v>26.88</v>
       </c>
-      <c r="I218" s="18">
-        <f t="shared" si="72"/>
+      <c r="I225" s="18">
+        <f>SUMIF(C$1:C$152,"="&amp;C225,B$1:B$152)</f>
         <v>2</v>
       </c>
-      <c r="J218" s="33">
-        <f t="shared" ref="J218" si="86">G218*B218-I218</f>
+      <c r="J225" s="33">
+        <f t="shared" ref="J225" si="85">G225*B225-I225</f>
         <v>0</v>
       </c>
-      <c r="K218" s="34">
-        <f t="shared" ref="K218" si="87">B218*H218</f>
+      <c r="K225" s="34">
+        <f t="shared" ref="K225" si="86">B225*H225</f>
         <v>53.76</v>
       </c>
     </row>
-    <row r="219" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B219" s="33">
-        <f t="shared" ref="B219" si="88">ROUNDUP(I219/G219,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C219" t="s">
+    <row r="226" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B226" s="33">
+        <f t="shared" ref="B226" si="87">ROUNDUP(I226/G226,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C226" t="s">
+        <v>821</v>
+      </c>
+      <c r="E226" s="29" t="s">
         <v>822</v>
       </c>
-      <c r="E219" s="29" t="s">
-        <v>823</v>
-      </c>
-      <c r="G219">
-        <v>1</v>
-      </c>
-      <c r="H219" s="22">
+      <c r="G226">
+        <v>1</v>
+      </c>
+      <c r="H226" s="22">
         <v>19.899999999999999</v>
       </c>
-      <c r="I219" s="18">
-        <f t="shared" ref="I219" si="89">SUMIF(C$1:C$148,"="&amp;C219,B$1:B$148)</f>
-        <v>1</v>
-      </c>
-      <c r="J219" s="33">
-        <f t="shared" ref="J219" si="90">G219*B219-I219</f>
+      <c r="I226" s="18">
+        <f>SUMIF(C$1:C$152,"="&amp;C226,B$1:B$152)</f>
+        <v>1</v>
+      </c>
+      <c r="J226" s="33">
+        <f t="shared" ref="J226" si="88">G226*B226-I226</f>
         <v>0</v>
       </c>
-      <c r="K219" s="34">
-        <f t="shared" ref="K219" si="91">B219*H219</f>
+      <c r="K226" s="34">
+        <f t="shared" ref="K226" si="89">B226*H226</f>
         <v>19.899999999999999</v>
       </c>
-      <c r="L219" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="220" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C220" s="6"/>
-      <c r="D220" s="29"/>
-      <c r="E220"/>
-      <c r="G220" s="22"/>
-      <c r="H220" s="22"/>
-      <c r="I220" s="18"/>
-      <c r="J220" s="33"/>
-      <c r="K220" s="34"/>
-    </row>
-    <row r="221" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A221" s="6" t="s">
-        <v>761</v>
-      </c>
-      <c r="B221" s="33"/>
-      <c r="E221"/>
-      <c r="H221" s="22"/>
-      <c r="I221" s="18"/>
-      <c r="J221" s="33"/>
-      <c r="K221" s="34"/>
-    </row>
-    <row r="222" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B222" s="33">
-        <v>1</v>
-      </c>
-      <c r="C222" t="s">
-        <v>749</v>
-      </c>
-      <c r="E222" s="29" t="s">
-        <v>750</v>
-      </c>
-      <c r="G222">
-        <v>1</v>
-      </c>
-      <c r="H222" s="22">
-        <v>4.09</v>
-      </c>
-      <c r="I222" s="18">
-        <f>SUMIF(C$1:C$148,"="&amp;C222,B$1:B$148)</f>
-        <v>3</v>
-      </c>
-      <c r="J222" s="33">
-        <f t="shared" ref="J222:J223" si="92">G222*B222-I222</f>
-        <v>-2</v>
-      </c>
-      <c r="K222" s="34">
-        <f t="shared" ref="K222:K223" si="93">B222*H222</f>
-        <v>4.09</v>
-      </c>
-    </row>
-    <row r="223" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B223" s="33">
-        <v>1</v>
-      </c>
-      <c r="C223" t="s">
-        <v>758</v>
-      </c>
-      <c r="E223" s="29" t="s">
-        <v>794</v>
-      </c>
-      <c r="G223">
-        <v>1</v>
-      </c>
-      <c r="H223" s="22">
-        <v>2.8</v>
-      </c>
-      <c r="I223" s="18">
-        <f>SUMIF(C$1:C$148,"="&amp;C223,B$1:B$148)</f>
-        <v>1</v>
-      </c>
-      <c r="J223" s="33">
-        <f t="shared" si="92"/>
-        <v>0</v>
-      </c>
-      <c r="K223" s="34">
-        <f t="shared" si="93"/>
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="224" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B224" s="33">
-        <v>1</v>
-      </c>
-      <c r="C224" t="s">
-        <v>759</v>
-      </c>
-      <c r="E224" s="29" t="s">
-        <v>794</v>
-      </c>
-      <c r="G224">
-        <v>1</v>
-      </c>
-      <c r="H224" s="22">
-        <v>2.8</v>
-      </c>
-      <c r="I224" s="18">
-        <f>SUMIF(C$1:C$148,"="&amp;C224,B$1:B$148)</f>
-        <v>2</v>
-      </c>
-      <c r="J224" s="33">
-        <f t="shared" ref="J224" si="94">G224*B224-I224</f>
-        <v>-1</v>
-      </c>
-      <c r="K224" s="34">
-        <f t="shared" ref="K224" si="95">B224*H224</f>
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="225" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B225" s="33">
-        <v>1</v>
-      </c>
-      <c r="C225" t="s">
-        <v>760</v>
-      </c>
-      <c r="E225" s="29" t="s">
-        <v>794</v>
-      </c>
-      <c r="G225">
-        <v>1</v>
-      </c>
-      <c r="H225" s="22">
-        <v>2.8</v>
-      </c>
-      <c r="I225" s="18">
-        <f>SUMIF(C$1:C$148,"="&amp;C225,B$1:B$148)</f>
-        <v>3</v>
-      </c>
-      <c r="J225" s="33">
-        <f t="shared" ref="J225" si="96">G225*B225-I225</f>
-        <v>-2</v>
-      </c>
-      <c r="K225" s="34">
-        <f t="shared" ref="K225" si="97">B225*H225</f>
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="226" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B226" s="33"/>
-      <c r="H226" s="22"/>
-      <c r="I226" s="18"/>
-      <c r="J226" s="33"/>
-      <c r="K226" s="34"/>
-    </row>
-    <row r="227" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B227" s="33"/>
+      <c r="L226" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="227" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C227" s="6"/>
+      <c r="D227" s="29"/>
+      <c r="E227"/>
+      <c r="G227" s="22"/>
       <c r="H227" s="22"/>
       <c r="I227" s="18"/>
       <c r="J227" s="33"/>
       <c r="K227" s="34"/>
     </row>
-    <row r="228" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A228" s="6" t="s">
+        <v>760</v>
+      </c>
       <c r="B228" s="33"/>
+      <c r="E228"/>
       <c r="H228" s="22"/>
       <c r="I228" s="18"/>
       <c r="J228" s="33"/>
       <c r="K228" s="34"/>
     </row>
-    <row r="229" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B229" s="33"/>
-      <c r="E229" s="26"/>
-      <c r="H229" s="22"/>
-      <c r="I229" s="18"/>
-      <c r="J229" s="33"/>
-      <c r="K229" s="35">
-        <f>SUM(K150:K225)</f>
-        <v>558.28999999999985</v>
-      </c>
-    </row>
-    <row r="230" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B230" s="33"/>
-      <c r="E230" s="26"/>
-      <c r="H230" s="22"/>
-      <c r="I230" s="18"/>
-      <c r="J230" s="33"/>
-    </row>
-    <row r="231" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B231" s="33"/>
-      <c r="E231" s="26"/>
-      <c r="H231" s="22"/>
-      <c r="I231" s="18"/>
-      <c r="J231" s="33"/>
-    </row>
-    <row r="232" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B232" s="33"/>
-      <c r="E232" s="26"/>
-      <c r="H232" s="22"/>
-      <c r="I232" s="18"/>
-      <c r="J232" s="33"/>
-    </row>
-    <row r="233" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="D233" s="6"/>
+    <row r="229" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B229" s="33">
+        <v>1</v>
+      </c>
+      <c r="C229" t="s">
+        <v>748</v>
+      </c>
+      <c r="E229" s="29" t="s">
+        <v>749</v>
+      </c>
+      <c r="G229">
+        <v>1</v>
+      </c>
+      <c r="H229" s="22">
+        <v>4.09</v>
+      </c>
+      <c r="I229" s="18">
+        <f>SUMIF(C$1:C$152,"="&amp;C229,B$1:B$152)</f>
+        <v>3</v>
+      </c>
+      <c r="J229" s="33">
+        <f t="shared" ref="J229:J230" si="90">G229*B229-I229</f>
+        <v>-2</v>
+      </c>
+      <c r="K229" s="34">
+        <f t="shared" ref="K229:K230" si="91">B229*H229</f>
+        <v>4.09</v>
+      </c>
+    </row>
+    <row r="230" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B230" s="33">
+        <v>1</v>
+      </c>
+      <c r="C230" t="s">
+        <v>757</v>
+      </c>
+      <c r="E230" s="29" t="s">
+        <v>793</v>
+      </c>
+      <c r="G230">
+        <v>1</v>
+      </c>
+      <c r="H230" s="22">
+        <v>2.8</v>
+      </c>
+      <c r="I230" s="18">
+        <f>SUMIF(C$1:C$152,"="&amp;C230,B$1:B$152)</f>
+        <v>1</v>
+      </c>
+      <c r="J230" s="33">
+        <f t="shared" si="90"/>
+        <v>0</v>
+      </c>
+      <c r="K230" s="34">
+        <f t="shared" si="91"/>
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="231" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B231" s="33">
+        <v>1</v>
+      </c>
+      <c r="C231" t="s">
+        <v>758</v>
+      </c>
+      <c r="E231" s="29" t="s">
+        <v>793</v>
+      </c>
+      <c r="G231">
+        <v>1</v>
+      </c>
+      <c r="H231" s="22">
+        <v>2.8</v>
+      </c>
+      <c r="I231" s="18">
+        <f>SUMIF(C$1:C$152,"="&amp;C231,B$1:B$152)</f>
+        <v>2</v>
+      </c>
+      <c r="J231" s="33">
+        <f t="shared" ref="J231" si="92">G231*B231-I231</f>
+        <v>-1</v>
+      </c>
+      <c r="K231" s="34">
+        <f t="shared" ref="K231" si="93">B231*H231</f>
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="232" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B232" s="33">
+        <v>1</v>
+      </c>
+      <c r="C232" t="s">
+        <v>759</v>
+      </c>
+      <c r="E232" s="29" t="s">
+        <v>793</v>
+      </c>
+      <c r="G232">
+        <v>1</v>
+      </c>
+      <c r="H232" s="22">
+        <v>2.8</v>
+      </c>
+      <c r="I232" s="18">
+        <f>SUMIF(C$1:C$152,"="&amp;C232,B$1:B$152)</f>
+        <v>3</v>
+      </c>
+      <c r="J232" s="33">
+        <f t="shared" ref="J232" si="94">G232*B232-I232</f>
+        <v>-2</v>
+      </c>
+      <c r="K232" s="34">
+        <f t="shared" ref="K232" si="95">B232*H232</f>
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="233" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B233" s="33"/>
       <c r="H233" s="22"/>
-      <c r="I233" s="22"/>
-    </row>
-    <row r="234" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="E234" s="30"/>
-      <c r="I234" s="22"/>
-    </row>
-    <row r="236" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="I233" s="18"/>
+      <c r="J233" s="33"/>
+      <c r="K233" s="34"/>
+    </row>
+    <row r="234" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B234" s="33"/>
+      <c r="H234" s="22"/>
+      <c r="I234" s="18"/>
+      <c r="J234" s="33"/>
+      <c r="K234" s="34"/>
+    </row>
+    <row r="235" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B235" s="33"/>
+      <c r="H235" s="22"/>
+      <c r="I235" s="18"/>
+      <c r="J235" s="33"/>
+      <c r="K235" s="34"/>
+    </row>
+    <row r="236" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B236" s="33"/>
       <c r="E236" s="26"/>
-      <c r="I236" s="22"/>
-    </row>
-    <row r="237" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="H236" s="22"/>
+      <c r="I236" s="18"/>
+      <c r="J236" s="33"/>
+      <c r="K236" s="35">
+        <f>SUM(K154:K232)</f>
+        <v>564.56999999999982</v>
+      </c>
+    </row>
+    <row r="237" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B237" s="33"/>
       <c r="E237" s="26"/>
-      <c r="I237" s="22"/>
-    </row>
-    <row r="238" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="D238" s="6"/>
+      <c r="H237" s="22"/>
+      <c r="I237" s="18"/>
+      <c r="J237" s="33"/>
+    </row>
+    <row r="238" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B238" s="33"/>
       <c r="E238" s="26"/>
-      <c r="I238" s="22"/>
-    </row>
-    <row r="239" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="D239" s="8"/>
-      <c r="I239" s="22"/>
-    </row>
-    <row r="240" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="E240" s="26"/>
+      <c r="H238" s="22"/>
+      <c r="I238" s="18"/>
+      <c r="J238" s="33"/>
+    </row>
+    <row r="239" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B239" s="33"/>
+      <c r="E239" s="26"/>
+      <c r="H239" s="22"/>
+      <c r="I239" s="18"/>
+      <c r="J239" s="33"/>
+    </row>
+    <row r="240" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D240" s="6"/>
+      <c r="H240" s="22"/>
       <c r="I240" s="22"/>
     </row>
     <row r="241" spans="4:9" x14ac:dyDescent="0.3">
       <c r="E241" s="30"/>
       <c r="I241" s="22"/>
     </row>
-    <row r="242" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="E242" s="26"/>
-      <c r="I242" s="22"/>
-    </row>
     <row r="243" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="E243" s="26"/>
       <c r="I243" s="22"/>
     </row>
     <row r="244" spans="4:9" x14ac:dyDescent="0.3">
@@ -16272,15 +16436,15 @@
       <c r="I245" s="22"/>
     </row>
     <row r="246" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="E246" s="25"/>
+      <c r="D246" s="8"/>
       <c r="I246" s="22"/>
     </row>
-    <row r="247" spans="4:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="4:9" x14ac:dyDescent="0.3">
       <c r="E247" s="26"/>
       <c r="I247" s="22"/>
     </row>
     <row r="248" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="E248" s="25"/>
+      <c r="E248" s="30"/>
       <c r="I248" s="22"/>
     </row>
     <row r="249" spans="4:9" x14ac:dyDescent="0.3">
@@ -16288,33 +16452,61 @@
       <c r="I249" s="22"/>
     </row>
     <row r="250" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="E250" s="25"/>
       <c r="I250" s="22"/>
     </row>
-    <row r="251" spans="4:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E251" s="25"/>
+    <row r="251" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="E251" s="26"/>
       <c r="I251" s="22"/>
     </row>
-    <row r="252" spans="4:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E252" s="25"/>
+    <row r="252" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D252" s="6"/>
+      <c r="E252" s="26"/>
       <c r="I252" s="22"/>
     </row>
     <row r="253" spans="4:9" x14ac:dyDescent="0.3">
       <c r="E253" s="25"/>
       <c r="I253" s="22"/>
     </row>
-    <row r="254" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="H254" s="22"/>
+    <row r="254" spans="4:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E254" s="26"/>
       <c r="I254" s="22"/>
     </row>
     <row r="255" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="H255" s="23"/>
+      <c r="E255" s="25"/>
       <c r="I255" s="22"/>
+    </row>
+    <row r="256" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="E256" s="26"/>
+      <c r="I256" s="22"/>
+    </row>
+    <row r="257" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E257" s="25"/>
+      <c r="I257" s="22"/>
+    </row>
+    <row r="258" spans="5:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E258" s="25"/>
+      <c r="I258" s="22"/>
+    </row>
+    <row r="259" spans="5:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E259" s="25"/>
+      <c r="I259" s="22"/>
+    </row>
+    <row r="260" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E260" s="25"/>
+      <c r="I260" s="22"/>
+    </row>
+    <row r="261" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="H261" s="22"/>
+      <c r="I261" s="22"/>
+    </row>
+    <row r="262" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="H262" s="23"/>
+      <c r="I262" s="22"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E212" r:id="rId1"/>
-    <hyperlink ref="E206" r:id="rId2"/>
+    <hyperlink ref="E219" r:id="rId1"/>
+    <hyperlink ref="E213" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" firstSheet="1" activeTab="8"/>
@@ -17,12 +17,12 @@
     <sheet name="Drehkranz" sheetId="9" r:id="rId8"/>
     <sheet name="BOM" sheetId="7" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1839" uniqueCount="837">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1842" uniqueCount="838">
   <si>
     <t>Bauteilnummer</t>
   </si>
@@ -1983,9 +1983,6 @@
     <t>https://www.conrad.de/de/unterlegscheiben-innen-durchmesser-32-mm-m3-din-125-stahl-verzinkt-100-st-toolcraft-814628-814628.html</t>
   </si>
   <si>
-    <t>Zylinderkopfschraube Innensechskant M3 16mm</t>
-  </si>
-  <si>
     <t>http://www.amazon.de/Zylinderkopfschrauben-Edelstahl-Zylinderschrauben-Inbusschrauben-Innensechskant/dp/B018XL6434/ref=sr_1_1?ie=UTF8&amp;qid=1458909560&amp;sr=8-1&amp;keywords=zylinderkopfschraube+Innensechskant+M3+16mm</t>
   </si>
   <si>
@@ -2157,9 +2154,6 @@
     <t>GehäuseVerbindung am Heck</t>
   </si>
   <si>
-    <t>Zylinderkopfschraube Innensechskant M3 12mm</t>
-  </si>
-  <si>
     <t>http://www.amazon.de/Zylinderkopfschrauben-Edelstahl-Zylinderschrauben-Inbusschrauben-Innensechskant/dp/B018XL5XNG/ref=sr_1_1?ie=UTF8&amp;qid=1459036461&amp;sr=8-1&amp;keywords=zylinderkopfschraube+Innensechskant+M3+12mm</t>
   </si>
   <si>
@@ -2214,9 +2208,6 @@
     <t>Vierkant Mutter M3 Breite 5.5mm</t>
   </si>
   <si>
-    <t>Distanzbolzen M3 20mm, Schlüsselweite 5mm</t>
-  </si>
-  <si>
     <t>Zylinderkopfschraube Innensechskant M6 55mm</t>
   </si>
   <si>
@@ -2460,12 +2451,6 @@
     <t>Block/Gabel Befestigung</t>
   </si>
   <si>
-    <t>https://www.reichelt.de/DI-25MM/3/index.html?&amp;ACTION=3&amp;LA=446&amp;ARTICLE=44762&amp;artnr=DI+25MM&amp;SEARCH=Distanzh%FClse+M3</t>
-  </si>
-  <si>
-    <t>Distanzbolzen M3 25mm, Schlüsselweite 5mm</t>
-  </si>
-  <si>
     <t>Gabel/Basis Befestigung</t>
   </si>
   <si>
@@ -2523,16 +2508,34 @@
     <t>Unterlegscheiben M3 Stahl  0,8mm, Außendurchmesser 9mm</t>
   </si>
   <si>
-    <t>Senkkopf InnenSechskant M6 16mm</t>
-  </si>
-  <si>
-    <t>Verschraubung RiemenScheibe/Drehkranz</t>
-  </si>
-  <si>
     <t>Mutter M6, Schlüsselweite 10mm</t>
   </si>
   <si>
     <t>Bestellmenge [VPE]</t>
+  </si>
+  <si>
+    <t>XXXX Distanzbolzen M3 20mm, Schlüsselweite 5mm</t>
+  </si>
+  <si>
+    <t>XXXXX Zylinderkopfschraube Innensechskant M3 12mm</t>
+  </si>
+  <si>
+    <t>XXXXX Zylinderkopfschraube Innensechskant M3 16mm</t>
+  </si>
+  <si>
+    <t>Senkkopfschraube Innensechskant M6 16mm</t>
+  </si>
+  <si>
+    <t>http://kugellagershop-duesseldorf.de/61818-2RS-/-6818-2RS</t>
+  </si>
+  <si>
+    <t>https://www.kugellager-express.de/rillenkugellager-6817-61817-85x110x13-mm.html</t>
+  </si>
+  <si>
+    <t>Rillenkugellager DIN 625 SKF - SKF 61818 - 85x110x13</t>
+  </si>
+  <si>
+    <t>Befestigung DrehlagerDeckel/Drehlager/Basis</t>
   </si>
 </sst>
 </file>
@@ -2691,8 +2694,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Komma" xfId="2" builtinId="3"/>
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Währung" xfId="3" builtinId="4"/>
   </cellStyles>
@@ -3240,9 +3243,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Larissa">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3280,9 +3283,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Larissa">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3317,7 +3320,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3352,7 +3355,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Larissa">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3729,7 +3732,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="E42" t="s">
         <v>624</v>
@@ -3760,8 +3763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:AD113"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E75" sqref="E75"/>
+    <sheetView topLeftCell="A58" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I84" sqref="I84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4272,7 +4275,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C46" s="5">
         <f>C50/C48*(C54/C52)</f>
@@ -4526,7 +4529,7 @@
     </row>
     <row r="70" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C70" s="2">
         <f>C66/C46</f>
@@ -4538,7 +4541,7 @@
     </row>
     <row r="71" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C71" s="2">
         <f>C65/C46</f>
@@ -4824,7 +4827,7 @@
     </row>
     <row r="78" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C78" s="2">
         <f>C71*(1+C57)</f>
@@ -8332,7 +8335,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -8413,7 +8416,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A88" workbookViewId="0">
       <selection activeCell="J91" sqref="A91:J91"/>
     </sheetView>
   </sheetViews>
@@ -11844,7 +11847,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A65" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="K83" sqref="K83"/>
     </sheetView>
   </sheetViews>
@@ -11885,7 +11888,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -11941,10 +11944,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L262"/>
+  <dimension ref="A1:L264"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A129" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A142" sqref="A142:XFD143"/>
+    <sheetView tabSelected="1" topLeftCell="A167" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P162" sqref="P162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11984,7 +11987,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="str">
-        <f>C159</f>
+        <f>C161</f>
         <v>Zylinderkopfschraube Innensechskant M3 22mm</v>
       </c>
       <c r="D3" t="s">
@@ -12018,7 +12021,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="str">
-        <f>C221</f>
+        <f>C222</f>
         <v>Rillenkugellager DIN 625 SKF - 61807 35x47x7mm</v>
       </c>
       <c r="D6" t="s">
@@ -12033,7 +12036,7 @@
         <v>4</v>
       </c>
       <c r="C7" t="str">
-        <f>C167</f>
+        <f>C169</f>
         <v>Senkkopfschraube Innensechskant M3 10mm</v>
       </c>
       <c r="D7" t="s">
@@ -12048,7 +12051,7 @@
         <v>4</v>
       </c>
       <c r="C8" t="str">
-        <f>C157</f>
+        <f>C159</f>
         <v>Zylinderkopfschraube Innensechskant M3 20mm</v>
       </c>
       <c r="D8" t="s">
@@ -12060,7 +12063,7 @@
         <v>4</v>
       </c>
       <c r="C9" t="str">
-        <f>C171</f>
+        <f>C173</f>
         <v>Muttern M3, Schlüsselweite 5.5 mm</v>
       </c>
       <c r="D9" t="s">
@@ -12072,7 +12075,7 @@
         <v>2</v>
       </c>
       <c r="C10" t="str">
-        <f>C220</f>
+        <f>C221</f>
         <v>Rillenkugellager DIN 625 SKF - 61902 15x28x7mm</v>
       </c>
       <c r="D10" t="s">
@@ -12084,16 +12087,16 @@
         <v>1</v>
       </c>
       <c r="C11" t="str">
-        <f>C214</f>
+        <f>C215</f>
         <v xml:space="preserve">Herkulex Servo DRS - 0201 </v>
       </c>
       <c r="D11" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -12101,7 +12104,7 @@
         <v>1</v>
       </c>
       <c r="C13" t="str">
-        <f>C192</f>
+        <f>C193</f>
         <v>Zahnriemenscheibe T2,5, 16 Zähne</v>
       </c>
       <c r="D13" t="s">
@@ -12115,7 +12118,7 @@
         <v>1</v>
       </c>
       <c r="C14" t="str">
-        <f>C193</f>
+        <f>C194</f>
         <v>Zahnriemenscheibe T2,5, 44 Zähne</v>
       </c>
       <c r="D14" t="s">
@@ -12129,7 +12132,7 @@
         <v>1</v>
       </c>
       <c r="C15" t="str">
-        <f>C192</f>
+        <f>C193</f>
         <v>Zahnriemenscheibe T2,5, 16 Zähne</v>
       </c>
       <c r="D15" t="s">
@@ -12143,11 +12146,11 @@
         <v>1</v>
       </c>
       <c r="C16" t="str">
-        <f>C194</f>
+        <f>C195</f>
         <v>Zahnriemenscheibe T2,5, 18 Zähne</v>
       </c>
       <c r="D16" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H16" s="22"/>
       <c r="I16" s="22"/>
@@ -12157,11 +12160,11 @@
         <v>1</v>
       </c>
       <c r="C17" t="str">
-        <f>C195</f>
+        <f>C196</f>
         <v>Zahnriemenscheibe T2,5, 14 Zähne</v>
       </c>
       <c r="D17" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H17" s="22"/>
       <c r="I17" s="22"/>
@@ -12171,7 +12174,7 @@
         <v>1</v>
       </c>
       <c r="C18" t="str">
-        <f>C201</f>
+        <f>C202</f>
         <v>Zahnriemen T2,5 160mm 6mm Breite</v>
       </c>
       <c r="D18" t="s">
@@ -12185,7 +12188,7 @@
         <v>46</v>
       </c>
       <c r="C19" t="str">
-        <f>C181</f>
+        <f>C183</f>
         <v>Silberstahlwelle 6mm Durchmesser</v>
       </c>
       <c r="D19" t="s">
@@ -12200,7 +12203,7 @@
         <v>1</v>
       </c>
       <c r="C20" t="str">
-        <f>C231</f>
+        <f>C233</f>
         <v>Metallbohrer 6mm</v>
       </c>
       <c r="D20" t="s">
@@ -12215,7 +12218,7 @@
         <v>1</v>
       </c>
       <c r="C21" t="str">
-        <f>C232</f>
+        <f>C234</f>
         <v>Metallbohrer 2.3mm (für M3 Gewinde)</v>
       </c>
       <c r="D21" t="s">
@@ -12230,7 +12233,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="str">
-        <f>C229</f>
+        <f>C231</f>
         <v>Gewindeschneider M3</v>
       </c>
       <c r="D22" t="s">
@@ -12245,7 +12248,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="str">
-        <f>C219</f>
+        <f>C220</f>
         <v>Rillenkugellager 6x10x3</v>
       </c>
       <c r="D23" t="s">
@@ -12260,7 +12263,7 @@
         <v>1</v>
       </c>
       <c r="C24" s="32" t="str">
-        <f>C209</f>
+        <f>C210</f>
         <v>NEMA 17 - 42x42x21</v>
       </c>
       <c r="D24" s="32" t="s">
@@ -12275,7 +12278,7 @@
         <v>2</v>
       </c>
       <c r="C25" s="32" t="str">
-        <f>C161</f>
+        <f>C163</f>
         <v>Zylinderkopfschraube Innensechskant M3 14mm</v>
       </c>
       <c r="D25" s="32" t="s">
@@ -12289,7 +12292,7 @@
         <v>2</v>
       </c>
       <c r="C26" s="32" t="str">
-        <f>C177</f>
+        <f>C179</f>
         <v>Unterlegscheiben M3 Dicke 0,5mm, Außendurchmesser 7mm</v>
       </c>
       <c r="D26" s="32" t="s">
@@ -12303,11 +12306,11 @@
         <v>1</v>
       </c>
       <c r="C27" s="32" t="str">
-        <f>C200</f>
+        <f>C201</f>
         <v>Zahnriemen T2,5 230mm 6mm Breite</v>
       </c>
       <c r="D27" s="32" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="H27" s="22"/>
       <c r="I27" s="22"/>
@@ -12317,11 +12320,11 @@
         <v>1</v>
       </c>
       <c r="C28" s="32" t="str">
-        <f>C160</f>
-        <v>Zylinderkopfschraube Innensechskant M3 16mm</v>
+        <f>C162</f>
+        <v>XXXXX Zylinderkopfschraube Innensechskant M3 16mm</v>
       </c>
       <c r="D28" s="32" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="H28" s="22"/>
       <c r="I28" s="22"/>
@@ -12331,11 +12334,11 @@
         <v>2</v>
       </c>
       <c r="C29" s="32" t="str">
-        <f>C177</f>
+        <f>C179</f>
         <v>Unterlegscheiben M3 Dicke 0,5mm, Außendurchmesser 7mm</v>
       </c>
       <c r="D29" s="32" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="H29" s="22"/>
       <c r="I29" s="22"/>
@@ -12345,11 +12348,11 @@
         <v>2</v>
       </c>
       <c r="C30" s="32" t="str">
-        <f>C216</f>
+        <f>C217</f>
         <v>Rillenkugellager  3.967 x 7.938 x 3.175 mm</v>
       </c>
       <c r="D30" s="32" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H30" s="22"/>
       <c r="I30" s="22"/>
@@ -12359,11 +12362,11 @@
         <v>1</v>
       </c>
       <c r="C31" s="32" t="str">
-        <f>C170</f>
+        <f>C172</f>
         <v>Vierkant Mutter M3 Breite 5.5mm</v>
       </c>
       <c r="D31" s="32" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E31"/>
       <c r="H31" s="22"/>
@@ -12374,11 +12377,11 @@
         <v>4</v>
       </c>
       <c r="C32" s="32" t="str">
-        <f>C163</f>
+        <f>C165</f>
         <v>Zylinderkopfschraube Innensechskant M2 6mm</v>
       </c>
       <c r="D32" s="32" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E32"/>
       <c r="H32" s="22"/>
@@ -12389,11 +12392,11 @@
         <v>4</v>
       </c>
       <c r="C33" s="32" t="str">
-        <f>C172</f>
+        <f>C174</f>
         <v>Muttern M2</v>
       </c>
       <c r="D33" s="32" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E33"/>
       <c r="H33" s="22"/>
@@ -12404,11 +12407,11 @@
         <v>1</v>
       </c>
       <c r="C34" s="32" t="str">
-        <f>C213</f>
+        <f>C214</f>
         <v>Rotary Sensor</v>
       </c>
       <c r="D34" s="32" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E34" s="9"/>
       <c r="H34" s="22"/>
@@ -12419,11 +12422,11 @@
         <v>2</v>
       </c>
       <c r="C35" s="32" t="str">
-        <f>C178</f>
+        <f>C180</f>
         <v>Unterlegscheiben M2 Dicke 0,5mm</v>
       </c>
       <c r="D35" s="32" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E35" s="9"/>
       <c r="H35" s="22"/>
@@ -12434,11 +12437,11 @@
         <v>2</v>
       </c>
       <c r="C36" s="32" t="str">
-        <f>C186</f>
-        <v>Distanzbolzen M3 20mm, Schlüsselweite 5mm</v>
+        <f>C187</f>
+        <v>XXXX Distanzbolzen M3 20mm, Schlüsselweite 5mm</v>
       </c>
       <c r="D36" s="32" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E36" s="9"/>
       <c r="H36" s="22"/>
@@ -12449,11 +12452,11 @@
         <v>4</v>
       </c>
       <c r="C37" s="32" t="str">
-        <f>C177</f>
+        <f>C179</f>
         <v>Unterlegscheiben M3 Dicke 0,5mm, Außendurchmesser 7mm</v>
       </c>
       <c r="D37" s="32" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="H37" s="22"/>
       <c r="I37" s="22"/>
@@ -12463,10 +12466,10 @@
         <v>4</v>
       </c>
       <c r="C38" s="32" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D38" s="32" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="H38" s="22"/>
       <c r="I38" s="22"/>
@@ -12476,11 +12479,11 @@
         <v>4</v>
       </c>
       <c r="C39" s="32" t="str">
-        <f>C157</f>
+        <f>C159</f>
         <v>Zylinderkopfschraube Innensechskant M3 20mm</v>
       </c>
       <c r="D39" s="32" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E39" s="9"/>
       <c r="H39" s="22"/>
@@ -12491,11 +12494,11 @@
         <v>4</v>
       </c>
       <c r="C40" s="32" t="str">
-        <f>C177</f>
+        <f>C179</f>
         <v>Unterlegscheiben M3 Dicke 0,5mm, Außendurchmesser 7mm</v>
       </c>
       <c r="D40" s="32" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="H40" s="22"/>
       <c r="I40" s="22"/>
@@ -12508,17 +12511,17 @@
     </row>
     <row r="42" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="B42">
         <v>2</v>
       </c>
       <c r="C42" s="32" t="str">
-        <f>C221</f>
+        <f>C222</f>
         <v>Rillenkugellager DIN 625 SKF - 61807 35x47x7mm</v>
       </c>
       <c r="D42" s="32" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E42" s="9"/>
       <c r="H42" s="22"/>
@@ -12529,11 +12532,11 @@
         <v>2</v>
       </c>
       <c r="C43" s="32" t="str">
-        <f>C222</f>
+        <f>C223</f>
         <v>RillenKugellager 6x19x6</v>
       </c>
       <c r="D43" s="32" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="H43" s="22"/>
       <c r="I43" s="22"/>
@@ -12543,11 +12546,11 @@
         <v>4</v>
       </c>
       <c r="C44" s="32" t="str">
-        <f>C219</f>
+        <f>C220</f>
         <v>Rillenkugellager 6x10x3</v>
       </c>
       <c r="D44" s="32" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E44" s="9"/>
       <c r="H44" s="22"/>
@@ -12558,11 +12561,11 @@
         <v>4</v>
       </c>
       <c r="C45" s="32" t="str">
-        <f>C223</f>
+        <f>C224</f>
         <v>Rillenkugellager 3x10x4</v>
       </c>
       <c r="D45" s="32" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E45" s="9"/>
       <c r="H45" s="22"/>
@@ -12573,11 +12576,11 @@
         <v>2</v>
       </c>
       <c r="C46" s="32" t="str">
-        <f>C189</f>
+        <f>C190</f>
         <v>Distanzhülsen M6 10mm</v>
       </c>
       <c r="D46" s="32" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="H46" s="22"/>
       <c r="I46" s="22"/>
@@ -12587,11 +12590,11 @@
         <v>40</v>
       </c>
       <c r="C47" s="32" t="str">
-        <f>C181</f>
+        <f>C183</f>
         <v>Silberstahlwelle 6mm Durchmesser</v>
       </c>
       <c r="D47" s="32" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="H47" s="22"/>
       <c r="I47" s="22"/>
@@ -12602,11 +12605,11 @@
         <v>50</v>
       </c>
       <c r="C48" s="32" t="str">
-        <f>C181</f>
+        <f>C183</f>
         <v>Silberstahlwelle 6mm Durchmesser</v>
       </c>
       <c r="D48" s="32" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="H48" s="22"/>
       <c r="I48" s="22"/>
@@ -12616,11 +12619,11 @@
         <v>50</v>
       </c>
       <c r="C49" s="32" t="str">
-        <f>C182</f>
+        <f>C184</f>
         <v>Silberstahlwelle 3mm Durchmesser</v>
       </c>
       <c r="D49" s="32" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="E49" s="9"/>
       <c r="H49" s="22"/>
@@ -12631,7 +12634,7 @@
         <v>1</v>
       </c>
       <c r="C50" t="str">
-        <f>C231</f>
+        <f>C233</f>
         <v>Metallbohrer 6mm</v>
       </c>
       <c r="D50" t="s">
@@ -12646,7 +12649,7 @@
         <v>1</v>
       </c>
       <c r="C51" t="str">
-        <f>C229</f>
+        <f>C231</f>
         <v>Gewindeschneider M3</v>
       </c>
       <c r="D51" t="s">
@@ -12661,7 +12664,7 @@
         <v>1</v>
       </c>
       <c r="C52" t="str">
-        <f>C232</f>
+        <f>C234</f>
         <v>Metallbohrer 2.3mm (für M3 Gewinde)</v>
       </c>
       <c r="D52" t="s">
@@ -12676,11 +12679,11 @@
         <v>1</v>
       </c>
       <c r="C53" s="32" t="str">
-        <f>C202</f>
+        <f>C203</f>
         <v>Zahnriemen T2,5 200mm 6mm Breite</v>
       </c>
       <c r="D53" s="32" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="H53" s="22"/>
       <c r="I53" s="22"/>
@@ -12690,11 +12693,11 @@
         <v>1</v>
       </c>
       <c r="C54" s="32" t="str">
-        <f>C202</f>
+        <f>C203</f>
         <v>Zahnriemen T2,5 200mm 6mm Breite</v>
       </c>
       <c r="D54" s="32" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="H54" s="22"/>
       <c r="I54" s="22"/>
@@ -12704,11 +12707,11 @@
         <v>4</v>
       </c>
       <c r="C55" s="32" t="str">
-        <f>C159</f>
+        <f>C161</f>
         <v>Zylinderkopfschraube Innensechskant M3 22mm</v>
       </c>
       <c r="D55" s="32" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="H55" s="22"/>
       <c r="I55" s="22"/>
@@ -12718,11 +12721,11 @@
         <v>4</v>
       </c>
       <c r="C56" s="32" t="str">
-        <f>C171</f>
+        <f>C173</f>
         <v>Muttern M3, Schlüsselweite 5.5 mm</v>
       </c>
       <c r="D56" s="32" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E56" s="9"/>
       <c r="H56" s="22"/>
@@ -12733,11 +12736,11 @@
         <v>2</v>
       </c>
       <c r="C57" s="32" t="str">
-        <f>C159</f>
+        <f>C161</f>
         <v>Zylinderkopfschraube Innensechskant M3 22mm</v>
       </c>
       <c r="D57" s="32" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="H57" s="22"/>
       <c r="I57" s="22"/>
@@ -12747,11 +12750,11 @@
         <v>2</v>
       </c>
       <c r="C58" s="32" t="str">
-        <f>C171</f>
+        <f>C173</f>
         <v>Muttern M3, Schlüsselweite 5.5 mm</v>
       </c>
       <c r="D58" s="32" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E58" s="9"/>
       <c r="H58" s="22"/>
@@ -12762,11 +12765,11 @@
         <v>2</v>
       </c>
       <c r="C59" s="32" t="str">
-        <f>C162</f>
-        <v>Zylinderkopfschraube Innensechskant M3 12mm</v>
+        <f>C164</f>
+        <v>XXXXX Zylinderkopfschraube Innensechskant M3 12mm</v>
       </c>
       <c r="D59" s="32" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="H59" s="22"/>
       <c r="I59" s="22"/>
@@ -12776,11 +12779,11 @@
         <v>2</v>
       </c>
       <c r="C60" s="32" t="str">
-        <f>C171</f>
+        <f>C173</f>
         <v>Muttern M3, Schlüsselweite 5.5 mm</v>
       </c>
       <c r="D60" s="32" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="E60" s="9"/>
       <c r="H60" s="22"/>
@@ -12791,11 +12794,11 @@
         <v>6</v>
       </c>
       <c r="C61" s="32" t="str">
-        <f>C158</f>
+        <f>C160</f>
         <v>Zylinderkopfschraube Innensechskant M3 25mm</v>
       </c>
       <c r="D61" s="32" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="E61" s="9"/>
       <c r="H61" s="22"/>
@@ -12806,11 +12809,11 @@
         <v>3</v>
       </c>
       <c r="C62" s="32" t="str">
-        <f>C186</f>
-        <v>Distanzbolzen M3 20mm, Schlüsselweite 5mm</v>
+        <f>C187</f>
+        <v>XXXX Distanzbolzen M3 20mm, Schlüsselweite 5mm</v>
       </c>
       <c r="D62" s="32" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="E62" s="9"/>
       <c r="H62" s="22"/>
@@ -12821,7 +12824,7 @@
         <v>1</v>
       </c>
       <c r="C63" s="32" t="str">
-        <f>C210</f>
+        <f>C211</f>
         <v>NEMA 17 - 42x42x33</v>
       </c>
       <c r="D63" s="32" t="s">
@@ -12836,11 +12839,11 @@
         <v>1</v>
       </c>
       <c r="C64" s="32" t="str">
-        <f>C192</f>
+        <f>C193</f>
         <v>Zahnriemenscheibe T2,5, 16 Zähne</v>
       </c>
       <c r="D64" s="32" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="E64" s="9"/>
       <c r="H64" s="22"/>
@@ -12851,11 +12854,11 @@
         <v>1</v>
       </c>
       <c r="C65" s="32" t="str">
-        <f>C192</f>
+        <f>C193</f>
         <v>Zahnriemenscheibe T2,5, 16 Zähne</v>
       </c>
       <c r="D65" s="32" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="E65" s="9"/>
       <c r="H65" s="22"/>
@@ -12866,11 +12869,11 @@
         <v>1</v>
       </c>
       <c r="C66" s="32" t="str">
-        <f>C196</f>
+        <f>C197</f>
         <v>Zahnriemenscheibe T2,5, 60 Zähne</v>
       </c>
       <c r="D66" s="32" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="E66" s="9"/>
       <c r="H66" s="22"/>
@@ -12881,11 +12884,11 @@
         <v>1</v>
       </c>
       <c r="C67" s="32" t="str">
-        <f>C164</f>
+        <f>C166</f>
         <v>Zylinderkopfschraube Innensechskant M6 55mm</v>
       </c>
       <c r="D67" s="32" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="E67" s="9"/>
       <c r="H67" s="22"/>
@@ -12896,10 +12899,10 @@
         <v>1</v>
       </c>
       <c r="C68" s="32" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="D68" s="32" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="E68" s="9"/>
       <c r="H68" s="22"/>
@@ -12910,11 +12913,11 @@
         <v>1</v>
       </c>
       <c r="C69" s="32" t="str">
-        <f>C213</f>
+        <f>C214</f>
         <v>Rotary Sensor</v>
       </c>
       <c r="D69" s="32" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E69" s="9"/>
       <c r="H69" s="22"/>
@@ -12929,17 +12932,17 @@
     </row>
     <row r="71" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="B71">
         <v>4</v>
       </c>
       <c r="C71" s="32" t="str">
-        <f>C163</f>
+        <f>C165</f>
         <v>Zylinderkopfschraube Innensechskant M2 6mm</v>
       </c>
       <c r="D71" s="32" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E71" s="9"/>
       <c r="H71" s="22"/>
@@ -12950,11 +12953,11 @@
         <v>4</v>
       </c>
       <c r="C72" s="32" t="str">
-        <f>C172</f>
+        <f>C174</f>
         <v>Muttern M2</v>
       </c>
       <c r="D72" s="32" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E72" s="9"/>
       <c r="H72" s="22"/>
@@ -12965,11 +12968,11 @@
         <v>1</v>
       </c>
       <c r="C73" s="32" t="str">
-        <f>C213</f>
+        <f>C214</f>
         <v>Rotary Sensor</v>
       </c>
       <c r="D73" s="32" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E73" s="9"/>
       <c r="H73" s="22"/>
@@ -12980,11 +12983,11 @@
         <v>2</v>
       </c>
       <c r="C74" s="32" t="str">
-        <f>C178</f>
+        <f>C180</f>
         <v>Unterlegscheiben M2 Dicke 0,5mm</v>
       </c>
       <c r="D74" s="32" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E74" s="9"/>
       <c r="H74" s="22"/>
@@ -12995,11 +12998,11 @@
         <v>2</v>
       </c>
       <c r="C75" s="32" t="str">
-        <f>C221</f>
+        <f>C222</f>
         <v>Rillenkugellager DIN 625 SKF - 61807 35x47x7mm</v>
       </c>
       <c r="D75" s="32" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="E75" s="9"/>
       <c r="H75" s="22"/>
@@ -13010,11 +13013,11 @@
         <v>4</v>
       </c>
       <c r="C76" t="str">
-        <f>C167</f>
+        <f>C169</f>
         <v>Senkkopfschraube Innensechskant M3 10mm</v>
       </c>
       <c r="D76" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="E76" s="9"/>
       <c r="H76" s="22"/>
@@ -13025,11 +13028,11 @@
         <v>4</v>
       </c>
       <c r="C77" t="str">
-        <f>C167</f>
+        <f>C169</f>
         <v>Senkkopfschraube Innensechskant M3 10mm</v>
       </c>
       <c r="D77" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="E77" s="9"/>
       <c r="H77" s="22"/>
@@ -13040,11 +13043,11 @@
         <v>4</v>
       </c>
       <c r="C78" s="32" t="str">
-        <f>C155</f>
+        <f>C157</f>
         <v>Zylinderkopfschraube Innensechskant M3 40mm</v>
       </c>
       <c r="D78" s="32" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="E78" s="9"/>
       <c r="H78" s="22"/>
@@ -13055,11 +13058,11 @@
         <v>4</v>
       </c>
       <c r="C79" s="32" t="str">
-        <f>C156</f>
+        <f>C158</f>
         <v>Zylinderkopfschraube Innensechskant M3 30mm</v>
       </c>
       <c r="D79" s="32" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="E79" s="9"/>
       <c r="H79" s="22"/>
@@ -13067,14 +13070,14 @@
     </row>
     <row r="80" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B80">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C80" s="32" t="str">
-        <f>C177</f>
-        <v>Unterlegscheiben M3 Dicke 0,5mm, Außendurchmesser 7mm</v>
+        <f>C173</f>
+        <v>Muttern M3, Schlüsselweite 5.5 mm</v>
       </c>
       <c r="D80" s="32" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="E80" s="9"/>
       <c r="H80" s="22"/>
@@ -13082,14 +13085,14 @@
     </row>
     <row r="81" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B81">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C81" s="32" t="str">
-        <f>C154</f>
-        <v>Zylinderkopfschraube Innensechskant M3 45mm</v>
+        <f>C179</f>
+        <v>Unterlegscheiben M3 Dicke 0,5mm, Außendurchmesser 7mm</v>
       </c>
       <c r="D81" s="32" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="E81" s="9"/>
       <c r="H81" s="22"/>
@@ -13097,14 +13100,14 @@
     </row>
     <row r="82" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B82">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C82" s="32" t="str">
-        <f>C217</f>
-        <v>Rillenkugellager  4 x13 x 5 mm mit Flansch</v>
+        <f>C156</f>
+        <v>Zylinderkopfschraube Innensechskant M3 45mm</v>
       </c>
       <c r="D82" s="32" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="E82" s="9"/>
       <c r="H82" s="22"/>
@@ -13112,14 +13115,14 @@
     </row>
     <row r="83" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B83">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C83" s="32" t="str">
-        <f>C177</f>
-        <v>Unterlegscheiben M3 Dicke 0,5mm, Außendurchmesser 7mm</v>
+        <f>C218</f>
+        <v>Rillenkugellager  4 x13 x 5 mm mit Flansch</v>
       </c>
       <c r="D83" s="32" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="E83" s="9"/>
       <c r="H83" s="22"/>
@@ -13127,14 +13130,14 @@
     </row>
     <row r="84" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B84">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C84" s="32" t="str">
-        <f>C175</f>
-        <v>Madenschraube M3 16mm</v>
+        <f>C179</f>
+        <v>Unterlegscheiben M3 Dicke 0,5mm, Außendurchmesser 7mm</v>
       </c>
       <c r="D84" s="32" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="E84" s="9"/>
       <c r="H84" s="22"/>
@@ -13142,14 +13145,14 @@
     </row>
     <row r="85" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B85">
-        <v>72</v>
+        <v>1</v>
       </c>
       <c r="C85" s="32" t="str">
-        <f>C183</f>
-        <v>Silberstahlwelle 8mm Durchmesser</v>
+        <f>C177</f>
+        <v>Madenschraube M3 16mm</v>
       </c>
       <c r="D85" s="32" t="s">
-        <v>752</v>
+        <v>743</v>
       </c>
       <c r="E85" s="9"/>
       <c r="H85" s="22"/>
@@ -13157,14 +13160,14 @@
     </row>
     <row r="86" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B86">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="C86" s="32" t="str">
-        <f>C197</f>
-        <v>Zahnriemenscheibe T5, 48 Zähne</v>
+        <f>C185</f>
+        <v>Silberstahlwelle 8mm Durchmesser</v>
       </c>
       <c r="D86" s="32" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="E86" s="9"/>
       <c r="H86" s="22"/>
@@ -13176,10 +13179,10 @@
       </c>
       <c r="C87" s="32" t="str">
         <f>C198</f>
-        <v>Zahnriemenscheibe T5, 16 Zähne</v>
+        <v>Zahnriemenscheibe T5, 48 Zähne</v>
       </c>
       <c r="D87" s="32" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="E87" s="9"/>
       <c r="H87" s="22"/>
@@ -13189,12 +13192,12 @@
       <c r="B88">
         <v>1</v>
       </c>
-      <c r="C88" t="str">
-        <f>C230</f>
-        <v>Metallbohrer 8mm</v>
+      <c r="C88" s="32" t="str">
+        <f>C199</f>
+        <v>Zahnriemenscheibe T5, 16 Zähne</v>
       </c>
       <c r="D88" s="32" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="E88" s="9"/>
       <c r="H88" s="22"/>
@@ -13205,11 +13208,11 @@
         <v>1</v>
       </c>
       <c r="C89" t="str">
-        <f>C229</f>
-        <v>Gewindeschneider M3</v>
+        <f>C232</f>
+        <v>Metallbohrer 8mm</v>
       </c>
       <c r="D89" s="32" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="E89" s="9"/>
       <c r="H89" s="22"/>
@@ -13220,11 +13223,11 @@
         <v>1</v>
       </c>
       <c r="C90" t="str">
-        <f>C232</f>
-        <v>Metallbohrer 2.3mm (für M3 Gewinde)</v>
+        <f>C231</f>
+        <v>Gewindeschneider M3</v>
       </c>
       <c r="D90" s="32" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="E90" s="9"/>
       <c r="H90" s="22"/>
@@ -13232,14 +13235,14 @@
     </row>
     <row r="91" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B91">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C91" t="str">
-        <f>C176</f>
-        <v>Madenschraube M3 5mm</v>
+        <f>C234</f>
+        <v>Metallbohrer 2.3mm (für M3 Gewinde)</v>
       </c>
       <c r="D91" s="32" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="E91" s="9"/>
       <c r="H91" s="22"/>
@@ -13250,11 +13253,11 @@
         <v>2</v>
       </c>
       <c r="C92" t="str">
-        <f>C224</f>
-        <v>Rillenkugellager 8x22x7</v>
+        <f>C178</f>
+        <v>Madenschraube M3 5mm</v>
       </c>
       <c r="D92" s="32" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="E92" s="9"/>
       <c r="H92" s="22"/>
@@ -13262,14 +13265,14 @@
     </row>
     <row r="93" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B93">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C93" t="str">
-        <f>C179</f>
-        <v>Unterlegscheiben 8mm Innendurchmesser</v>
+        <f>C225</f>
+        <v>Rillenkugellager 8x22x7</v>
       </c>
       <c r="D93" s="32" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="E93" s="9"/>
       <c r="H93" s="22"/>
@@ -13280,11 +13283,11 @@
         <v>4</v>
       </c>
       <c r="C94" t="str">
-        <f>C154</f>
-        <v>Zylinderkopfschraube Innensechskant M3 45mm</v>
+        <f>C181</f>
+        <v>Unterlegscheiben 8mm Innendurchmesser</v>
       </c>
       <c r="D94" s="32" t="s">
-        <v>766</v>
+        <v>749</v>
       </c>
       <c r="E94" s="9"/>
       <c r="H94" s="22"/>
@@ -13295,11 +13298,11 @@
         <v>4</v>
       </c>
       <c r="C95" t="str">
-        <f>C177</f>
-        <v>Unterlegscheiben M3 Dicke 0,5mm, Außendurchmesser 7mm</v>
+        <f>C156</f>
+        <v>Zylinderkopfschraube Innensechskant M3 45mm</v>
       </c>
       <c r="D95" s="32" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="E95" s="9"/>
       <c r="H95" s="22"/>
@@ -13310,11 +13313,11 @@
         <v>4</v>
       </c>
       <c r="C96" t="str">
-        <f>C170</f>
-        <v>Vierkant Mutter M3 Breite 5.5mm</v>
+        <f>C179</f>
+        <v>Unterlegscheiben M3 Dicke 0,5mm, Außendurchmesser 7mm</v>
       </c>
       <c r="D96" s="32" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="E96" s="9"/>
       <c r="H96" s="22"/>
@@ -13322,14 +13325,14 @@
     </row>
     <row r="97" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B97">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C97" t="str">
-        <f>C154</f>
-        <v>Zylinderkopfschraube Innensechskant M3 45mm</v>
+        <f>C172</f>
+        <v>Vierkant Mutter M3 Breite 5.5mm</v>
       </c>
       <c r="D97" s="32" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="E97" s="9"/>
       <c r="H97" s="22"/>
@@ -13337,14 +13340,14 @@
     </row>
     <row r="98" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B98">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C98" t="str">
-        <f>C177</f>
-        <v>Unterlegscheiben M3 Dicke 0,5mm, Außendurchmesser 7mm</v>
+        <f>C156</f>
+        <v>Zylinderkopfschraube Innensechskant M3 45mm</v>
       </c>
       <c r="D98" s="32" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="E98" s="9"/>
       <c r="H98" s="22"/>
@@ -13352,14 +13355,14 @@
     </row>
     <row r="99" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B99">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C99" t="str">
-        <f>C170</f>
-        <v>Vierkant Mutter M3 Breite 5.5mm</v>
+        <f>C179</f>
+        <v>Unterlegscheiben M3 Dicke 0,5mm, Außendurchmesser 7mm</v>
       </c>
       <c r="D99" s="32" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="E99" s="9"/>
       <c r="H99" s="22"/>
@@ -13367,14 +13370,14 @@
     </row>
     <row r="100" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B100">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C100" t="str">
-        <f>C218</f>
-        <v xml:space="preserve">Rillenkugellager  4 x13 x 5 mm </v>
+        <f>C172</f>
+        <v>Vierkant Mutter M3 Breite 5.5mm</v>
       </c>
       <c r="D100" s="32" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="E100" s="9"/>
       <c r="H100" s="22"/>
@@ -13382,14 +13385,14 @@
     </row>
     <row r="101" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B101">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C101" t="str">
-        <f>C180</f>
-        <v>Unterlegscheiben M3 Kunststoff 0,8mm, Außendurchmesser 7mm</v>
+        <f>C219</f>
+        <v xml:space="preserve">Rillenkugellager  4 x13 x 5 mm </v>
       </c>
       <c r="D101" s="32" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="E101" s="9"/>
       <c r="H101" s="22"/>
@@ -13400,11 +13403,11 @@
         <v>4</v>
       </c>
       <c r="C102" t="str">
-        <f>C168</f>
-        <v>Senkkopfschraube Innensechskant M3 25mm</v>
+        <f>C182</f>
+        <v>Unterlegscheiben M3 Kunststoff 0,8mm, Außendurchmesser 7mm</v>
       </c>
       <c r="D102" s="32" t="s">
-        <v>615</v>
+        <v>762</v>
       </c>
       <c r="E102" s="9"/>
       <c r="H102" s="22"/>
@@ -13412,14 +13415,14 @@
     </row>
     <row r="103" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B103">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C103" t="str">
-        <f>C156</f>
-        <v>Zylinderkopfschraube Innensechskant M3 30mm</v>
+        <f>C170</f>
+        <v>Senkkopfschraube Innensechskant M3 25mm</v>
       </c>
       <c r="D103" s="32" t="s">
-        <v>769</v>
+        <v>615</v>
       </c>
       <c r="E103" s="9"/>
       <c r="H103" s="22"/>
@@ -13427,14 +13430,14 @@
     </row>
     <row r="104" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B104">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C104" t="str">
-        <f>C186</f>
-        <v>Distanzbolzen M3 20mm, Schlüsselweite 5mm</v>
+        <f>C160</f>
+        <v>Zylinderkopfschraube Innensechskant M3 25mm</v>
       </c>
       <c r="D104" s="32" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="E104" s="9"/>
       <c r="H104" s="22"/>
@@ -13442,14 +13445,14 @@
     </row>
     <row r="105" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B105">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C105" t="str">
-        <f>C177</f>
-        <v>Unterlegscheiben M3 Dicke 0,5mm, Außendurchmesser 7mm</v>
+        <f>C188</f>
+        <v>Distanzbolzen 2x Innen M3 20mm, Schlüsselweite 5,5mm</v>
       </c>
       <c r="D105" s="32" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="E105" s="9"/>
       <c r="H105" s="22"/>
@@ -13457,14 +13460,14 @@
     </row>
     <row r="106" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B106">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C106" t="str">
-        <f>C156</f>
-        <v>Zylinderkopfschraube Innensechskant M3 30mm</v>
+        <f>C179</f>
+        <v>Unterlegscheiben M3 Dicke 0,5mm, Außendurchmesser 7mm</v>
       </c>
       <c r="D106" s="32" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="E106" s="9"/>
       <c r="H106" s="22"/>
@@ -13475,11 +13478,11 @@
         <v>4</v>
       </c>
       <c r="C107" t="str">
-        <f>C177</f>
-        <v>Unterlegscheiben M3 Dicke 0,5mm, Außendurchmesser 7mm</v>
+        <f>C158</f>
+        <v>Zylinderkopfschraube Innensechskant M3 30mm</v>
       </c>
       <c r="D107" s="32" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="E107" s="9"/>
       <c r="H107" s="22"/>
@@ -13487,14 +13490,14 @@
     </row>
     <row r="108" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B108">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C108" t="str">
-        <f>C203</f>
-        <v>Zahnriemen T5 340mm 10mm Breite</v>
+        <f>C179</f>
+        <v>Unterlegscheiben M3 Dicke 0,5mm, Außendurchmesser 7mm</v>
       </c>
       <c r="D108" s="32" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="E108" s="9"/>
       <c r="H108" s="22"/>
@@ -13505,11 +13508,11 @@
         <v>1</v>
       </c>
       <c r="C109" t="str">
-        <f>C198</f>
-        <v>Zahnriemenscheibe T5, 16 Zähne</v>
+        <f>C204</f>
+        <v>Zahnriemen T5 340mm 10mm Breite</v>
       </c>
       <c r="D109" s="32" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="E109" s="9"/>
       <c r="H109" s="22"/>
@@ -13520,11 +13523,11 @@
         <v>1</v>
       </c>
       <c r="C110" t="str">
-        <f>C204</f>
-        <v>Zahnriemen T5 510mm 10mm Breite</v>
+        <f>C199</f>
+        <v>Zahnriemenscheibe T5, 16 Zähne</v>
       </c>
       <c r="D110" s="32" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
       <c r="E110" s="9"/>
       <c r="H110" s="22"/>
@@ -13535,50 +13538,50 @@
         <v>1</v>
       </c>
       <c r="C111" t="str">
-        <f>C211</f>
-        <v xml:space="preserve">NEMA 24 - 60x60x57 1.9Nm ST6018M2008 </v>
+        <f>C205</f>
+        <v>Zahnriemen T5 510mm 10mm Breite</v>
       </c>
       <c r="D111" s="32" t="s">
-        <v>648</v>
+        <v>773</v>
       </c>
       <c r="E111" s="9"/>
       <c r="H111" s="22"/>
       <c r="I111" s="22"/>
     </row>
     <row r="112" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D112" s="32"/>
+      <c r="B112">
+        <v>1</v>
+      </c>
+      <c r="C112" t="str">
+        <f>C212</f>
+        <v xml:space="preserve">NEMA 24 - 60x60x57 1.9Nm ST6018M2008 </v>
+      </c>
+      <c r="D112" s="32" t="s">
+        <v>648</v>
+      </c>
       <c r="E112" s="9"/>
       <c r="H112" s="22"/>
       <c r="I112" s="22"/>
     </row>
     <row r="113" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="6" t="s">
-        <v>799</v>
-      </c>
-      <c r="B113">
-        <v>4</v>
-      </c>
-      <c r="C113" t="str">
-        <f>C163</f>
-        <v>Zylinderkopfschraube Innensechskant M2 6mm</v>
-      </c>
-      <c r="D113" s="32" t="s">
-        <v>659</v>
-      </c>
+      <c r="D113" s="32"/>
       <c r="E113" s="9"/>
       <c r="H113" s="22"/>
       <c r="I113" s="22"/>
     </row>
     <row r="114" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="6" t="s">
+        <v>796</v>
+      </c>
       <c r="B114">
         <v>4</v>
       </c>
       <c r="C114" t="str">
-        <f>C172</f>
-        <v>Muttern M2</v>
+        <f>C165</f>
+        <v>Zylinderkopfschraube Innensechskant M2 6mm</v>
       </c>
       <c r="D114" s="32" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E114" s="9"/>
       <c r="H114" s="22"/>
@@ -13586,14 +13589,14 @@
     </row>
     <row r="115" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B115">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C115" t="str">
-        <f>C213</f>
-        <v>Rotary Sensor</v>
+        <f>C174</f>
+        <v>Muttern M2</v>
       </c>
       <c r="D115" s="32" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="E115" s="9"/>
       <c r="H115" s="22"/>
@@ -13601,14 +13604,14 @@
     </row>
     <row r="116" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B116">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C116" t="str">
-        <f>C178</f>
-        <v>Unterlegscheiben M2 Dicke 0,5mm</v>
+        <f>C214</f>
+        <v>Rotary Sensor</v>
       </c>
       <c r="D116" s="32" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="E116" s="9"/>
       <c r="H116" s="22"/>
@@ -13616,14 +13619,14 @@
     </row>
     <row r="117" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B117">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C117" t="str">
-        <f>C218</f>
-        <v xml:space="preserve">Rillenkugellager  4 x13 x 5 mm </v>
+        <f>C180</f>
+        <v>Unterlegscheiben M2 Dicke 0,5mm</v>
       </c>
       <c r="D117" s="32" t="s">
-        <v>800</v>
+        <v>664</v>
       </c>
       <c r="E117" s="9"/>
       <c r="H117" s="22"/>
@@ -13631,14 +13634,14 @@
     </row>
     <row r="118" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B118">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C118" t="str">
-        <f>C180</f>
-        <v>Unterlegscheiben M3 Kunststoff 0,8mm, Außendurchmesser 7mm</v>
+        <f>C219</f>
+        <v xml:space="preserve">Rillenkugellager  4 x13 x 5 mm </v>
       </c>
       <c r="D118" s="32" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="E118" s="9"/>
       <c r="H118" s="22"/>
@@ -13649,11 +13652,11 @@
         <v>4</v>
       </c>
       <c r="C119" t="str">
-        <f>C170</f>
-        <v>Vierkant Mutter M3 Breite 5.5mm</v>
+        <f>C182</f>
+        <v>Unterlegscheiben M3 Kunststoff 0,8mm, Außendurchmesser 7mm</v>
       </c>
       <c r="D119" s="32" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="E119" s="9"/>
       <c r="H119" s="22"/>
@@ -13661,14 +13664,14 @@
     </row>
     <row r="120" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B120">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C120" t="str">
-        <f>C159</f>
-        <v>Zylinderkopfschraube Innensechskant M3 22mm</v>
+        <f>C172</f>
+        <v>Vierkant Mutter M3 Breite 5.5mm</v>
       </c>
       <c r="D120" s="32" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="E120" s="9"/>
       <c r="H120" s="22"/>
@@ -13676,14 +13679,14 @@
     </row>
     <row r="121" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B121">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C121" t="str">
-        <f>C177</f>
-        <v>Unterlegscheiben M3 Dicke 0,5mm, Außendurchmesser 7mm</v>
+        <f>C161</f>
+        <v>Zylinderkopfschraube Innensechskant M3 22mm</v>
       </c>
       <c r="D121" s="32" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="E121" s="9"/>
       <c r="H121" s="22"/>
@@ -13691,14 +13694,14 @@
     </row>
     <row r="122" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B122">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C122" t="str">
-        <f>C155</f>
-        <v>Zylinderkopfschraube Innensechskant M3 40mm</v>
+        <f>C179</f>
+        <v>Unterlegscheiben M3 Dicke 0,5mm, Außendurchmesser 7mm</v>
       </c>
       <c r="D122" s="32" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="E122" s="9"/>
       <c r="H122" s="22"/>
@@ -13709,11 +13712,11 @@
         <v>1</v>
       </c>
       <c r="C123" t="str">
-        <f>C154</f>
-        <v>Zylinderkopfschraube Innensechskant M3 45mm</v>
+        <f>C157</f>
+        <v>Zylinderkopfschraube Innensechskant M3 40mm</v>
       </c>
       <c r="D123" s="32" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="E123" s="9"/>
       <c r="H123" s="22"/>
@@ -13724,11 +13727,11 @@
         <v>1</v>
       </c>
       <c r="C124" t="str">
-        <f>C158</f>
-        <v>Zylinderkopfschraube Innensechskant M3 25mm</v>
+        <f>C156</f>
+        <v>Zylinderkopfschraube Innensechskant M3 45mm</v>
       </c>
       <c r="D124" s="32" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="E124" s="9"/>
       <c r="H124" s="22"/>
@@ -13736,14 +13739,14 @@
     </row>
     <row r="125" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B125">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C125" t="str">
-        <f>C224</f>
-        <v>Rillenkugellager 8x22x7</v>
+        <f>C160</f>
+        <v>Zylinderkopfschraube Innensechskant M3 25mm</v>
       </c>
       <c r="D125" s="32" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="E125" s="9"/>
       <c r="H125" s="22"/>
@@ -13751,14 +13754,14 @@
     </row>
     <row r="126" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B126">
-        <v>110</v>
+        <v>2</v>
       </c>
       <c r="C126" t="str">
-        <f>C183</f>
-        <v>Silberstahlwelle 8mm Durchmesser</v>
+        <f>C225</f>
+        <v>Rillenkugellager 8x22x7</v>
       </c>
       <c r="D126" s="32" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="E126" s="9"/>
       <c r="H126" s="22"/>
@@ -13766,14 +13769,14 @@
     </row>
     <row r="127" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B127">
-        <v>1</v>
+        <v>110</v>
       </c>
       <c r="C127" t="str">
-        <f>C197</f>
-        <v>Zahnriemenscheibe T5, 48 Zähne</v>
+        <f>C185</f>
+        <v>Silberstahlwelle 8mm Durchmesser</v>
       </c>
       <c r="D127" s="32" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="E127" s="9"/>
       <c r="H127" s="22"/>
@@ -13785,10 +13788,10 @@
       </c>
       <c r="C128" t="str">
         <f>C198</f>
-        <v>Zahnriemenscheibe T5, 16 Zähne</v>
+        <v>Zahnriemenscheibe T5, 48 Zähne</v>
       </c>
       <c r="D128" s="32" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="E128" s="9"/>
       <c r="H128" s="22"/>
@@ -13799,11 +13802,11 @@
         <v>1</v>
       </c>
       <c r="C129" t="str">
-        <f>C205</f>
-        <v>Zahnriemen T5 500mm 10mm Breite</v>
+        <f>C199</f>
+        <v>Zahnriemenscheibe T5, 16 Zähne</v>
       </c>
       <c r="D129" s="32" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="E129" s="9"/>
       <c r="H129" s="22"/>
@@ -13815,10 +13818,10 @@
       </c>
       <c r="C130" t="str">
         <f>C206</f>
-        <v>Zahnriemen T5 480mm 10mm Breite</v>
+        <v>Zahnriemen T5 500mm 10mm Breite</v>
       </c>
       <c r="D130" s="32" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="E130" s="9"/>
       <c r="H130" s="22"/>
@@ -13829,11 +13832,11 @@
         <v>1</v>
       </c>
       <c r="C131" t="str">
-        <f>C198</f>
-        <v>Zahnriemenscheibe T5, 16 Zähne</v>
+        <f>C207</f>
+        <v>Zahnriemen T5 480mm 10mm Breite</v>
       </c>
       <c r="D131" s="32" t="s">
-        <v>808</v>
+        <v>800</v>
       </c>
       <c r="E131" s="9"/>
       <c r="H131" s="22"/>
@@ -13844,11 +13847,11 @@
         <v>1</v>
       </c>
       <c r="C132" t="str">
-        <f>C207</f>
-        <v>Zahnriemen T5 340mm 10mm Breite</v>
+        <f>C199</f>
+        <v>Zahnriemenscheibe T5, 16 Zähne</v>
       </c>
       <c r="D132" s="32" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="E132" s="9"/>
       <c r="H132" s="22"/>
@@ -13856,14 +13859,14 @@
     </row>
     <row r="133" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B133">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C133" t="str">
-        <f>C157</f>
-        <v>Zylinderkopfschraube Innensechskant M3 20mm</v>
+        <f>C208</f>
+        <v>Zahnriemen T5 340mm 10mm Breite</v>
       </c>
       <c r="D133" s="32" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="E133" s="9"/>
       <c r="H133" s="22"/>
@@ -13874,11 +13877,11 @@
         <v>4</v>
       </c>
       <c r="C134" t="str">
-        <f>C171</f>
-        <v>Muttern M3, Schlüsselweite 5.5 mm</v>
+        <f>C159</f>
+        <v>Zylinderkopfschraube Innensechskant M3 20mm</v>
       </c>
       <c r="D134" s="32" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="E134" s="9"/>
       <c r="H134" s="22"/>
@@ -13889,11 +13892,11 @@
         <v>4</v>
       </c>
       <c r="C135" t="str">
-        <f>C177</f>
-        <v>Unterlegscheiben M3 Dicke 0,5mm, Außendurchmesser 7mm</v>
+        <f>C173</f>
+        <v>Muttern M3, Schlüsselweite 5.5 mm</v>
       </c>
       <c r="D135" s="32" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="E135" s="9"/>
       <c r="H135" s="22"/>
@@ -13904,11 +13907,11 @@
         <v>4</v>
       </c>
       <c r="C136" t="str">
-        <f>C154</f>
-        <v>Zylinderkopfschraube Innensechskant M3 45mm</v>
+        <f>C179</f>
+        <v>Unterlegscheiben M3 Dicke 0,5mm, Außendurchmesser 7mm</v>
       </c>
       <c r="D136" s="32" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="E136" s="9"/>
       <c r="H136" s="22"/>
@@ -13919,11 +13922,11 @@
         <v>4</v>
       </c>
       <c r="C137" t="str">
-        <f>C177</f>
-        <v>Unterlegscheiben M3 Dicke 0,5mm, Außendurchmesser 7mm</v>
+        <f>C156</f>
+        <v>Zylinderkopfschraube Innensechskant M3 45mm</v>
       </c>
       <c r="D137" s="32" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="E137" s="9"/>
       <c r="H137" s="22"/>
@@ -13934,11 +13937,11 @@
         <v>4</v>
       </c>
       <c r="C138" t="str">
-        <f>C185</f>
-        <v>Distanzbolzen M3 25mm, Schlüsselweite 5mm</v>
+        <f>C179</f>
+        <v>Unterlegscheiben M3 Dicke 0,5mm, Außendurchmesser 7mm</v>
       </c>
       <c r="D138" s="32" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="E138" s="9"/>
       <c r="H138" s="22"/>
@@ -13946,15 +13949,14 @@
     </row>
     <row r="139" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B139">
-        <f>50*6</f>
-        <v>300</v>
+        <v>4</v>
       </c>
       <c r="C139" t="str">
-        <f>C190</f>
-        <v>Gewindestange M3</v>
+        <f>C188</f>
+        <v>Distanzbolzen 2x Innen M3 20mm, Schlüsselweite 5,5mm</v>
       </c>
       <c r="D139" s="32" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
       <c r="E139" s="9"/>
       <c r="H139" s="22"/>
@@ -13962,14 +13964,15 @@
     </row>
     <row r="140" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B140">
-        <v>6</v>
+        <f>50*6</f>
+        <v>300</v>
       </c>
       <c r="C140" t="str">
-        <f>C184</f>
-        <v>Unterlegscheiben M3 Stahl  0,8mm, Außendurchmesser 9mm</v>
+        <f>C191</f>
+        <v>Gewindestange M3</v>
       </c>
       <c r="D140" s="32" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="E140" s="9"/>
       <c r="H140" s="22"/>
@@ -13980,11 +13983,11 @@
         <v>6</v>
       </c>
       <c r="C141" t="str">
-        <f>C187</f>
-        <v>Distanzbolzen 2x Innen M3 20mm, Schlüsselweite 5,5mm</v>
+        <f>C186</f>
+        <v>Unterlegscheiben M3 Stahl  0,8mm, Außendurchmesser 9mm</v>
       </c>
       <c r="D141" s="32" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="E141" s="9"/>
       <c r="H141" s="22"/>
@@ -13992,14 +13995,14 @@
     </row>
     <row r="142" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B142">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C142" t="str">
-        <f>C212</f>
-        <v xml:space="preserve">NEMA 24 - 60x60x87 3.1Nm </v>
+        <f>C188</f>
+        <v>Distanzbolzen 2x Innen M3 20mm, Schlüsselweite 5,5mm</v>
       </c>
       <c r="D142" s="32" t="s">
-        <v>648</v>
+        <v>809</v>
       </c>
       <c r="E142" s="9"/>
       <c r="H142" s="22"/>
@@ -14007,53 +14010,53 @@
     </row>
     <row r="143" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B143">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C143" t="str">
-        <f>C225</f>
-        <v>Rillenkugellager DIN 625 SKF - SKF 61818 - 90x115x13</v>
+        <f>C213</f>
+        <v xml:space="preserve">NEMA 24 - 60x60x87 3.1Nm </v>
       </c>
       <c r="D143" s="32" t="s">
-        <v>820</v>
+        <v>648</v>
       </c>
       <c r="E143" s="9"/>
       <c r="H143" s="22"/>
       <c r="I143" s="22"/>
     </row>
     <row r="144" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D144" s="32"/>
+      <c r="B144">
+        <v>2</v>
+      </c>
+      <c r="C144" t="str">
+        <f>C226</f>
+        <v>Rillenkugellager DIN 625 SKF - SKF 61818 - 90x115x13</v>
+      </c>
+      <c r="D144" s="32" t="s">
+        <v>815</v>
+      </c>
       <c r="E144" s="9"/>
       <c r="H144" s="22"/>
       <c r="I144" s="22"/>
     </row>
     <row r="145" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="6" t="s">
-        <v>823</v>
-      </c>
-      <c r="B145">
-        <v>1</v>
-      </c>
-      <c r="C145" t="str">
-        <f>C226</f>
-        <v>Drehkranz 80mm/140mm</v>
-      </c>
-      <c r="D145" s="32" t="s">
-        <v>824</v>
-      </c>
+      <c r="D145" s="32"/>
       <c r="E145" s="9"/>
       <c r="H145" s="22"/>
       <c r="I145" s="22"/>
     </row>
     <row r="146" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="6" t="s">
+        <v>818</v>
+      </c>
       <c r="B146">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C146" t="str">
-        <f>C169</f>
-        <v>Senkkopf InnenSechskant M6 16mm</v>
+        <f>C227</f>
+        <v>Rillenkugellager DIN 625 SKF - SKF 61818 - 85x110x13</v>
       </c>
       <c r="D146" s="32" t="s">
-        <v>834</v>
+        <v>819</v>
       </c>
       <c r="E146" s="9"/>
       <c r="H146" s="22"/>
@@ -14061,14 +14064,14 @@
     </row>
     <row r="147" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B147">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C147" t="str">
-        <f>C173</f>
-        <v>Mutter M6, Schlüsselweite 10mm</v>
+        <f>C157</f>
+        <v>Zylinderkopfschraube Innensechskant M3 40mm</v>
       </c>
       <c r="D147" s="32" t="s">
-        <v>834</v>
+        <v>809</v>
       </c>
       <c r="E147" s="9"/>
       <c r="H147" s="22"/>
@@ -14079,11 +14082,11 @@
         <v>6</v>
       </c>
       <c r="C148" t="str">
-        <f>C155</f>
-        <v>Zylinderkopfschraube Innensechskant M3 40mm</v>
+        <f>C186</f>
+        <v>Unterlegscheiben M3 Stahl  0,8mm, Außendurchmesser 9mm</v>
       </c>
       <c r="D148" s="32" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="E148" s="9"/>
       <c r="H148" s="22"/>
@@ -14091,150 +14094,120 @@
     </row>
     <row r="149" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B149">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C149" t="str">
-        <f>C184</f>
-        <v>Unterlegscheiben M3 Stahl  0,8mm, Außendurchmesser 9mm</v>
+        <f>C169</f>
+        <v>Senkkopfschraube Innensechskant M3 10mm</v>
       </c>
       <c r="D149" s="32" t="s">
-        <v>814</v>
+        <v>837</v>
       </c>
       <c r="E149" s="9"/>
       <c r="H149" s="22"/>
       <c r="I149" s="22"/>
     </row>
     <row r="150" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D150" s="32"/>
+      <c r="B150">
+        <v>8</v>
+      </c>
+      <c r="C150" t="str">
+        <f>C188</f>
+        <v>Distanzbolzen 2x Innen M3 20mm, Schlüsselweite 5,5mm</v>
+      </c>
+      <c r="D150" s="32" t="s">
+        <v>837</v>
+      </c>
       <c r="E150" s="9"/>
       <c r="H150" s="22"/>
       <c r="I150" s="22"/>
     </row>
     <row r="151" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D151" s="32"/>
+      <c r="B151">
+        <v>8</v>
+      </c>
+      <c r="C151" t="str">
+        <f>C163</f>
+        <v>Zylinderkopfschraube Innensechskant M3 14mm</v>
+      </c>
+      <c r="D151" s="32" t="s">
+        <v>837</v>
+      </c>
       <c r="E151" s="9"/>
       <c r="H151" s="22"/>
       <c r="I151" s="22"/>
     </row>
     <row r="152" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C152" s="32"/>
+      <c r="D152" s="32"/>
       <c r="E152" s="9"/>
       <c r="H152" s="22"/>
       <c r="I152" s="22"/>
     </row>
     <row r="153" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B153" t="s">
-        <v>836</v>
-      </c>
-      <c r="C153" s="32"/>
+      <c r="D153" s="32"/>
       <c r="E153" s="9"/>
-      <c r="G153" t="s">
-        <v>663</v>
-      </c>
-      <c r="H153" s="22" t="s">
+      <c r="H153" s="22"/>
+      <c r="I153" s="22"/>
+    </row>
+    <row r="154" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C154" s="32"/>
+      <c r="E154" s="9"/>
+      <c r="H154" s="22"/>
+      <c r="I154" s="22"/>
+    </row>
+    <row r="155" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B155" t="s">
+        <v>829</v>
+      </c>
+      <c r="C155" s="32"/>
+      <c r="E155" s="9"/>
+      <c r="G155" t="s">
+        <v>662</v>
+      </c>
+      <c r="H155" s="22" t="s">
+        <v>675</v>
+      </c>
+      <c r="I155" s="22" t="s">
         <v>676</v>
       </c>
-      <c r="I153" s="22" t="s">
+      <c r="J155" t="s">
         <v>677</v>
       </c>
-      <c r="J153" t="s">
-        <v>678</v>
-      </c>
-      <c r="K153" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="154" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B154" s="33">
-        <f t="shared" ref="B154:B187" si="0">ROUNDUP(I154/G154,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C154" s="32" t="s">
-        <v>747</v>
-      </c>
-      <c r="E154" t="s">
-        <v>801</v>
-      </c>
-      <c r="G154">
-        <v>25</v>
-      </c>
-      <c r="H154" s="22">
-        <v>7.45</v>
-      </c>
-      <c r="I154" s="18">
-        <f>SUMIF(C$1:C$152,"="&amp;C154,B$1:B$152)</f>
-        <v>14</v>
-      </c>
-      <c r="J154" s="33">
-        <f t="shared" ref="J154:J159" si="1">G154*B154-I154</f>
-        <v>11</v>
-      </c>
-      <c r="K154" s="34">
-        <f>B154*H154</f>
-        <v>7.45</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B155" s="33">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C155" s="32" t="s">
-        <v>741</v>
-      </c>
-      <c r="E155" s="9" t="s">
-        <v>675</v>
-      </c>
-      <c r="G155">
-        <v>100</v>
-      </c>
-      <c r="H155" s="22">
-        <v>2.63</v>
-      </c>
-      <c r="I155" s="18">
-        <f>SUMIF(C$1:C$152,"="&amp;C155,B$1:B$152)</f>
-        <v>11</v>
-      </c>
-      <c r="J155" s="33">
-        <f t="shared" si="1"/>
-        <v>89</v>
-      </c>
-      <c r="K155" s="34">
-        <f>B155*H155</f>
-        <v>2.63</v>
+      <c r="K155" t="s">
+        <v>712</v>
       </c>
     </row>
     <row r="156" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B156" s="33">
-        <f t="shared" ref="B156" si="2">ROUNDUP(I156/G156,0)</f>
+        <f t="shared" ref="B156:B188" si="0">ROUNDUP(I156/G156,0)</f>
         <v>1</v>
       </c>
       <c r="C156" s="32" t="s">
-        <v>742</v>
-      </c>
-      <c r="E156" s="9" t="s">
-        <v>675</v>
+        <v>744</v>
+      </c>
+      <c r="E156" t="s">
+        <v>798</v>
       </c>
       <c r="G156">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="H156" s="22">
-        <v>2.63</v>
+        <v>7.45</v>
       </c>
       <c r="I156" s="18">
-        <f>SUMIF(C$1:C$152,"="&amp;C156,B$1:B$152)</f>
-        <v>16</v>
+        <f>SUMIF(C$1:C$154,"="&amp;C156,B$1:B$154)</f>
+        <v>14</v>
       </c>
       <c r="J156" s="33">
-        <f t="shared" si="1"/>
-        <v>84</v>
+        <f t="shared" ref="J156:J161" si="1">G156*B156-I156</f>
+        <v>11</v>
       </c>
       <c r="K156" s="34">
         <f>B156*H156</f>
-        <v>2.63</v>
+        <v>7.45</v>
       </c>
     </row>
     <row r="157" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -14243,79 +14216,79 @@
         <v>1</v>
       </c>
       <c r="C157" s="32" t="s">
-        <v>616</v>
+        <v>738</v>
       </c>
       <c r="E157" s="9" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="G157">
         <v>100</v>
       </c>
       <c r="H157" s="22">
-        <v>1.79</v>
+        <v>2.63</v>
       </c>
       <c r="I157" s="18">
-        <f>SUMIF(C$1:C$152,"="&amp;C157,B$1:B$152)</f>
-        <v>12</v>
+        <f>SUMIF(C$1:C$154,"="&amp;C157,B$1:B$154)</f>
+        <v>11</v>
       </c>
       <c r="J157" s="33">
         <f t="shared" si="1"/>
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K157" s="34">
         <f>B157*H157</f>
-        <v>1.79</v>
+        <v>2.63</v>
       </c>
     </row>
     <row r="158" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B158" s="33">
-        <f t="shared" ref="B158" si="3">ROUNDUP(I158/G158,0)</f>
+        <f t="shared" ref="B158" si="2">ROUNDUP(I158/G158,0)</f>
         <v>1</v>
       </c>
       <c r="C158" s="32" t="s">
-        <v>715</v>
+        <v>739</v>
       </c>
       <c r="E158" s="9" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="G158">
         <v>100</v>
       </c>
       <c r="H158" s="22">
-        <v>1.71</v>
+        <v>2.63</v>
       </c>
       <c r="I158" s="18">
-        <f>SUMIF(C$1:C$152,"="&amp;C158,B$1:B$152)</f>
-        <v>7</v>
+        <f>SUMIF(C$1:C$154,"="&amp;C158,B$1:B$154)</f>
+        <v>8</v>
       </c>
       <c r="J158" s="33">
         <f t="shared" si="1"/>
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K158" s="34">
-        <f t="shared" ref="K158" si="4">B158*H158</f>
-        <v>1.71</v>
+        <f>B158*H158</f>
+        <v>2.63</v>
       </c>
     </row>
     <row r="159" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B159" s="33">
-        <f t="shared" ref="B159" si="5">ROUNDUP(I159/G159,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C159" s="32" t="s">
-        <v>684</v>
+        <v>616</v>
       </c>
       <c r="E159" s="9" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="G159">
         <v>100</v>
       </c>
       <c r="H159" s="22">
-        <v>1.71</v>
+        <v>1.79</v>
       </c>
       <c r="I159" s="18">
-        <f>SUMIF(C$1:C$152,"="&amp;C159,B$1:B$152)</f>
+        <f>SUMIF(C$1:C$154,"="&amp;C159,B$1:B$154)</f>
         <v>12</v>
       </c>
       <c r="J159" s="33">
@@ -14323,642 +14296,658 @@
         <v>88</v>
       </c>
       <c r="K159" s="34">
-        <f t="shared" ref="K159:K223" si="6">B159*H159</f>
-        <v>1.71</v>
+        <f>B159*H159</f>
+        <v>1.79</v>
       </c>
     </row>
     <row r="160" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B160" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B160" si="3">ROUNDUP(I160/G160,0)</f>
         <v>1</v>
       </c>
       <c r="C160" s="32" t="s">
-        <v>653</v>
-      </c>
-      <c r="D160" s="32"/>
-      <c r="E160" s="29" t="s">
-        <v>654</v>
+        <v>713</v>
+      </c>
+      <c r="E160" s="9" t="s">
+        <v>674</v>
       </c>
       <c r="G160">
         <v>100</v>
       </c>
       <c r="H160" s="22">
+        <v>1.71</v>
+      </c>
+      <c r="I160" s="18">
+        <f>SUMIF(C$1:C$154,"="&amp;C160,B$1:B$154)</f>
+        <v>15</v>
+      </c>
+      <c r="J160" s="33">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="K160" s="34">
+        <f t="shared" ref="K160" si="4">B160*H160</f>
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="161" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B161" s="33">
+        <f t="shared" ref="B161" si="5">ROUNDUP(I161/G161,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C161" s="32" t="s">
+        <v>683</v>
+      </c>
+      <c r="E161" s="9" t="s">
+        <v>674</v>
+      </c>
+      <c r="G161">
+        <v>100</v>
+      </c>
+      <c r="H161" s="22">
+        <v>1.71</v>
+      </c>
+      <c r="I161" s="18">
+        <f>SUMIF(C$1:C$154,"="&amp;C161,B$1:B$154)</f>
+        <v>12</v>
+      </c>
+      <c r="J161" s="33">
+        <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
+      <c r="K161" s="34">
+        <f t="shared" ref="K161:K224" si="6">B161*H161</f>
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="162" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B162" s="33">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C162" s="32" t="s">
+        <v>832</v>
+      </c>
+      <c r="D162" s="32"/>
+      <c r="E162" s="29" t="s">
+        <v>653</v>
+      </c>
+      <c r="G162">
+        <v>100</v>
+      </c>
+      <c r="H162" s="22">
         <v>1.96</v>
       </c>
-      <c r="I160" s="18">
-        <f>SUMIF(C$1:C$152,"="&amp;C160,B$1:B$152)</f>
-        <v>1</v>
-      </c>
-      <c r="J160" s="33">
-        <f t="shared" ref="J160:J219" si="7">G160*B160-I160</f>
+      <c r="I162" s="18">
+        <f>SUMIF(C$1:C$154,"="&amp;C162,B$1:B$154)</f>
+        <v>1</v>
+      </c>
+      <c r="J162" s="33">
+        <f t="shared" ref="J162:J220" si="7">G162*B162-I162</f>
         <v>99</v>
       </c>
-      <c r="K160" s="34">
+      <c r="K162" s="34">
         <f t="shared" si="6"/>
         <v>1.96</v>
       </c>
     </row>
-    <row r="161" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B161" s="33">
+    <row r="163" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B163" s="33">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C161" s="32" t="s">
+      <c r="C163" s="32" t="s">
         <v>650</v>
       </c>
-      <c r="E161" t="s">
-        <v>712</v>
-      </c>
-      <c r="G161">
+      <c r="E163" t="s">
+        <v>710</v>
+      </c>
+      <c r="G163">
         <v>100</v>
       </c>
-      <c r="H161" s="22">
+      <c r="H163" s="22">
         <v>1.79</v>
       </c>
-      <c r="I161" s="18">
-        <f>SUMIF(C$1:C$152,"="&amp;C161,B$1:B$152)</f>
-        <v>2</v>
-      </c>
-      <c r="J161" s="33">
-        <f t="shared" ref="J161" si="8">G161*B161-I161</f>
-        <v>98</v>
-      </c>
-      <c r="K161" s="34">
+      <c r="I163" s="18">
+        <f>SUMIF(C$1:C$154,"="&amp;C163,B$1:B$154)</f>
+        <v>10</v>
+      </c>
+      <c r="J163" s="33">
+        <f t="shared" ref="J163" si="8">G163*B163-I163</f>
+        <v>90</v>
+      </c>
+      <c r="K163" s="34">
         <f t="shared" si="6"/>
         <v>1.79</v>
       </c>
     </row>
-    <row r="162" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B162" s="33">
-        <f t="shared" ref="B162:B166" si="9">ROUNDUP(I162/G162,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C162" s="32" t="s">
-        <v>711</v>
-      </c>
-      <c r="E162" t="s">
-        <v>712</v>
-      </c>
-      <c r="G162">
+    <row r="164" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B164" s="33">
+        <f t="shared" ref="B164:B168" si="9">ROUNDUP(I164/G164,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C164" s="32" t="s">
+        <v>831</v>
+      </c>
+      <c r="E164" t="s">
+        <v>710</v>
+      </c>
+      <c r="G164">
         <v>100</v>
       </c>
-      <c r="H162" s="22">
+      <c r="H164" s="22">
         <v>1.63</v>
       </c>
-      <c r="I162" s="18">
-        <f>SUMIF(C$1:C$152,"="&amp;C162,B$1:B$152)</f>
+      <c r="I164" s="18">
+        <f>SUMIF(C$1:C$154,"="&amp;C164,B$1:B$154)</f>
         <v>2</v>
       </c>
-      <c r="J162" s="33">
-        <f t="shared" ref="J162:J166" si="10">G162*B162-I162</f>
+      <c r="J164" s="33">
+        <f t="shared" ref="J164:J168" si="10">G164*B164-I164</f>
         <v>98</v>
       </c>
-      <c r="K162" s="34">
+      <c r="K164" s="34">
         <f t="shared" si="6"/>
         <v>1.63</v>
       </c>
     </row>
-    <row r="163" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B163" s="33">
-        <f>ROUNDUP(I163/G163,0)</f>
+    <row r="165" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B165" s="33">
+        <f>ROUNDUP(I165/G165,0)</f>
         <v>2</v>
       </c>
-      <c r="C163" s="32" t="s">
-        <v>658</v>
-      </c>
-      <c r="E163" t="s">
-        <v>661</v>
-      </c>
-      <c r="G163">
+      <c r="C165" s="32" t="s">
+        <v>657</v>
+      </c>
+      <c r="E165" t="s">
+        <v>660</v>
+      </c>
+      <c r="G165">
         <v>10</v>
       </c>
-      <c r="H163" s="22">
+      <c r="H165" s="22">
         <v>0.99</v>
       </c>
-      <c r="I163" s="18">
-        <f>SUMIF(C$1:C$152,"="&amp;C163,B$1:B$152)</f>
+      <c r="I165" s="18">
+        <f>SUMIF(C$1:C$154,"="&amp;C165,B$1:B$154)</f>
         <v>12</v>
       </c>
-      <c r="J163" s="33">
-        <f>G163*B163-I163</f>
+      <c r="J165" s="33">
+        <f>G165*B165-I165</f>
         <v>8</v>
       </c>
-      <c r="K163" s="34">
-        <f>B163*H163</f>
+      <c r="K165" s="34">
+        <f>B165*H165</f>
         <v>1.98</v>
       </c>
-    </row>
-    <row r="164" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B164" s="33">
-        <f>ROUNDUP(I164/G164,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C164" t="s">
-        <v>731</v>
-      </c>
-      <c r="E164" t="s">
-        <v>723</v>
-      </c>
-      <c r="G164">
-        <v>1</v>
-      </c>
-      <c r="H164" s="22">
-        <v>0.4</v>
-      </c>
-      <c r="I164" s="18">
-        <f>SUMIF(C$1:C$152,"="&amp;C164,B$1:B$152)</f>
-        <v>1</v>
-      </c>
-      <c r="J164" s="33">
-        <f>G164*B164-I164</f>
-        <v>0</v>
-      </c>
-      <c r="K164" s="34">
-        <f>B164*H164</f>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="165" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B165" s="33"/>
-      <c r="C165" s="32"/>
-      <c r="E165"/>
-      <c r="H165" s="22"/>
-      <c r="I165" s="18"/>
-      <c r="J165" s="33"/>
-      <c r="K165" s="34"/>
     </row>
     <row r="166" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B166" s="33">
+        <f>ROUNDUP(I166/G166,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C166" t="s">
+        <v>728</v>
+      </c>
+      <c r="E166" t="s">
+        <v>721</v>
+      </c>
+      <c r="G166">
+        <v>1</v>
+      </c>
+      <c r="H166" s="22">
+        <v>0.4</v>
+      </c>
+      <c r="I166" s="18">
+        <f>SUMIF(C$1:C$154,"="&amp;C166,B$1:B$154)</f>
+        <v>1</v>
+      </c>
+      <c r="J166" s="33">
+        <f>G166*B166-I166</f>
+        <v>0</v>
+      </c>
+      <c r="K166" s="34">
+        <f>B166*H166</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="167" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B167" s="33"/>
+      <c r="C167" s="32"/>
+      <c r="E167"/>
+      <c r="H167" s="22"/>
+      <c r="I167" s="18"/>
+      <c r="J167" s="33"/>
+      <c r="K167" s="34"/>
+    </row>
+    <row r="168" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B168" s="33">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="C166" s="32" t="s">
-        <v>727</v>
-      </c>
-      <c r="E166" t="s">
-        <v>726</v>
-      </c>
-      <c r="G166">
+      <c r="C168" s="32" t="s">
+        <v>725</v>
+      </c>
+      <c r="E168" t="s">
+        <v>724</v>
+      </c>
+      <c r="G168">
         <v>10</v>
       </c>
-      <c r="H166" s="22">
+      <c r="H168" s="22">
         <v>2.35</v>
       </c>
-      <c r="I166" s="18">
-        <f>SUMIF(C$1:C$152,"="&amp;C166,B$1:B$152)</f>
+      <c r="I168" s="18">
+        <f>SUMIF(C$1:C$154,"="&amp;C168,B$1:B$154)</f>
         <v>0</v>
       </c>
-      <c r="J166" s="33">
+      <c r="J168" s="33">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="K166" s="34">
+      <c r="K168" s="34">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B167" s="33">
-        <f t="shared" ref="B167" si="11">ROUNDUP(I167/G167,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C167" s="32" t="s">
-        <v>737</v>
-      </c>
-      <c r="E167" t="s">
-        <v>738</v>
-      </c>
-      <c r="F167" t="s">
-        <v>740</v>
-      </c>
-      <c r="G167">
-        <v>50</v>
-      </c>
-      <c r="H167" s="22">
-        <v>3.65</v>
-      </c>
-      <c r="I167" s="18">
-        <f>SUMIF(C$1:C$152,"="&amp;C167,B$1:B$152)</f>
-        <v>12</v>
-      </c>
-      <c r="J167" s="33">
-        <f t="shared" ref="J167" si="12">G167*B167-I167</f>
-        <v>38</v>
-      </c>
-      <c r="K167" s="34">
-        <f t="shared" ref="K167" si="13">B167*H167</f>
-        <v>3.65</v>
-      </c>
-    </row>
-    <row r="168" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B168" s="33">
-        <f t="shared" ref="B168" si="14">ROUNDUP(I168/G168,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C168" s="32" t="s">
-        <v>767</v>
-      </c>
-      <c r="E168" t="s">
-        <v>768</v>
-      </c>
-      <c r="F168" t="s">
-        <v>740</v>
-      </c>
-      <c r="G168">
-        <v>10</v>
-      </c>
-      <c r="H168" s="22">
-        <v>2.41</v>
-      </c>
-      <c r="I168" s="18">
-        <f>SUMIF(C$1:C$152,"="&amp;C168,B$1:B$152)</f>
-        <v>4</v>
-      </c>
-      <c r="J168" s="33">
-        <f t="shared" ref="J168" si="15">G168*B168-I168</f>
-        <v>6</v>
-      </c>
-      <c r="K168" s="34">
-        <f t="shared" ref="K168" si="16">B168*H168</f>
-        <v>2.41</v>
-      </c>
-    </row>
     <row r="169" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B169" s="33">
-        <v>4</v>
-      </c>
-      <c r="C169" t="s">
-        <v>833</v>
-      </c>
-      <c r="E169"/>
-      <c r="H169" s="22"/>
-      <c r="I169" s="18"/>
-      <c r="J169" s="33"/>
-      <c r="K169" s="34"/>
+        <f t="shared" ref="B169" si="11">ROUNDUP(I169/G169,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C169" s="32" t="s">
+        <v>734</v>
+      </c>
+      <c r="E169" t="s">
+        <v>735</v>
+      </c>
+      <c r="F169" t="s">
+        <v>737</v>
+      </c>
+      <c r="G169">
+        <v>50</v>
+      </c>
+      <c r="H169" s="22">
+        <v>3.65</v>
+      </c>
+      <c r="I169" s="18">
+        <f>SUMIF(C$1:C$154,"="&amp;C169,B$1:B$154)</f>
+        <v>20</v>
+      </c>
+      <c r="J169" s="33">
+        <f t="shared" ref="J169" si="12">G169*B169-I169</f>
+        <v>30</v>
+      </c>
+      <c r="K169" s="34">
+        <f t="shared" ref="K169" si="13">B169*H169</f>
+        <v>3.65</v>
+      </c>
     </row>
     <row r="170" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B170" s="33">
+        <f t="shared" ref="B170" si="14">ROUNDUP(I170/G170,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C170" s="32" t="s">
+        <v>764</v>
+      </c>
+      <c r="E170" t="s">
+        <v>765</v>
+      </c>
+      <c r="F170" t="s">
+        <v>737</v>
+      </c>
+      <c r="G170">
+        <v>10</v>
+      </c>
+      <c r="H170" s="22">
+        <v>2.41</v>
+      </c>
+      <c r="I170" s="18">
+        <f>SUMIF(C$1:C$154,"="&amp;C170,B$1:B$154)</f>
+        <v>4</v>
+      </c>
+      <c r="J170" s="33">
+        <f t="shared" ref="J170" si="15">G170*B170-I170</f>
+        <v>6</v>
+      </c>
+      <c r="K170" s="34">
+        <f t="shared" ref="K170" si="16">B170*H170</f>
+        <v>2.41</v>
+      </c>
+    </row>
+    <row r="171" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B171" s="33">
+        <v>4</v>
+      </c>
+      <c r="C171" t="s">
+        <v>833</v>
+      </c>
+      <c r="E171" t="s">
+        <v>721</v>
+      </c>
+      <c r="G171">
+        <v>10</v>
+      </c>
+      <c r="H171" s="22">
+        <v>2.41</v>
+      </c>
+      <c r="I171" s="18">
+        <f>SUMIF(C$1:C$154,"="&amp;C171,B$1:B$154)</f>
+        <v>0</v>
+      </c>
+      <c r="J171" s="33">
+        <f t="shared" ref="J171" si="17">G171*B171-I171</f>
+        <v>40</v>
+      </c>
+      <c r="K171" s="34">
+        <f t="shared" ref="K171" si="18">B171*H171</f>
+        <v>9.64</v>
+      </c>
+    </row>
+    <row r="172" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B172" s="33">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C170" s="32" t="s">
-        <v>729</v>
-      </c>
-      <c r="E170" t="s">
+      <c r="C172" s="32" t="s">
+        <v>727</v>
+      </c>
+      <c r="E172" t="s">
         <v>606</v>
       </c>
-      <c r="G170">
+      <c r="G172">
         <v>100</v>
       </c>
-      <c r="H170" s="22">
+      <c r="H172" s="22">
         <v>2.09</v>
       </c>
-      <c r="I170" s="18">
-        <f>SUMIF(C$1:C$152,"="&amp;C170,B$1:B$152)</f>
+      <c r="I172" s="18">
+        <f>SUMIF(C$1:C$154,"="&amp;C172,B$1:B$154)</f>
         <v>10</v>
       </c>
-      <c r="J170" s="33">
+      <c r="J172" s="33">
         <f t="shared" si="7"/>
         <v>90</v>
       </c>
-      <c r="K170" s="34">
+      <c r="K172" s="34">
         <f t="shared" si="6"/>
         <v>2.09</v>
       </c>
     </row>
-    <row r="171" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B171" s="33">
-        <f t="shared" ref="B171" si="17">ROUNDUP(I171/G171,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C171" s="32" t="s">
-        <v>728</v>
-      </c>
-      <c r="E171" s="29" t="s">
+    <row r="173" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B173" s="33">
+        <f t="shared" ref="B173" si="19">ROUNDUP(I173/G173,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C173" s="32" t="s">
+        <v>726</v>
+      </c>
+      <c r="E173" s="29" t="s">
         <v>618</v>
       </c>
-      <c r="G171">
+      <c r="G173">
         <v>100</v>
       </c>
-      <c r="H171" s="22">
+      <c r="H173" s="22">
         <v>2.09</v>
       </c>
-      <c r="I171" s="18">
-        <f>SUMIF(C$1:C$152,"="&amp;C171,B$1:B$152)</f>
-        <v>16</v>
-      </c>
-      <c r="J171" s="33">
-        <f t="shared" ref="J171" si="18">G171*B171-I171</f>
-        <v>84</v>
-      </c>
-      <c r="K171" s="34">
+      <c r="I173" s="18">
+        <f>SUMIF(C$1:C$154,"="&amp;C173,B$1:B$154)</f>
+        <v>24</v>
+      </c>
+      <c r="J173" s="33">
+        <f t="shared" ref="J173" si="20">G173*B173-I173</f>
+        <v>76</v>
+      </c>
+      <c r="K173" s="34">
         <f t="shared" si="6"/>
         <v>2.09</v>
       </c>
     </row>
-    <row r="172" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B172" s="33">
-        <f t="shared" ref="B172:B175" si="19">ROUNDUP(I172/G172,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C172" s="32" t="s">
-        <v>732</v>
-      </c>
-      <c r="G172">
+    <row r="174" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B174" s="33">
+        <f t="shared" ref="B174:B177" si="21">ROUNDUP(I174/G174,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C174" s="32" t="s">
+        <v>729</v>
+      </c>
+      <c r="G174">
         <v>100</v>
       </c>
-      <c r="H172" s="22">
+      <c r="H174" s="22">
         <v>2.09</v>
       </c>
-      <c r="I172" s="18">
-        <f>SUMIF(C$1:C$152,"="&amp;C172,B$1:B$152)</f>
+      <c r="I174" s="18">
+        <f>SUMIF(C$1:C$154,"="&amp;C174,B$1:B$154)</f>
         <v>12</v>
       </c>
-      <c r="J172" s="33">
-        <f t="shared" ref="J172:J175" si="20">G172*B172-I172</f>
+      <c r="J174" s="33">
+        <f t="shared" ref="J174:J177" si="22">G174*B174-I174</f>
         <v>88</v>
       </c>
-      <c r="K172" s="34">
-        <f t="shared" ref="K172:K175" si="21">B172*H172</f>
+      <c r="K174" s="34">
+        <f t="shared" ref="K174:K177" si="23">B174*H174</f>
         <v>2.09</v>
       </c>
-    </row>
-    <row r="173" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B173" s="33">
-        <f>ROUNDUP(I173/G173,0)</f>
-        <v>4</v>
-      </c>
-      <c r="C173" t="s">
-        <v>835</v>
-      </c>
-      <c r="E173" t="s">
-        <v>723</v>
-      </c>
-      <c r="G173">
-        <v>1</v>
-      </c>
-      <c r="H173" s="22">
-        <v>0.4</v>
-      </c>
-      <c r="I173" s="18">
-        <f>SUMIF(C$1:C$152,"="&amp;C173,B$1:B$152)</f>
-        <v>4</v>
-      </c>
-      <c r="J173" s="33">
-        <f t="shared" ref="J173" si="22">G173*B173-I173</f>
-        <v>0</v>
-      </c>
-      <c r="K173" s="34">
-        <f t="shared" ref="K173" si="23">B173*H173</f>
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="174" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B174" s="33"/>
-      <c r="C174" s="32"/>
-      <c r="H174" s="22"/>
-      <c r="I174" s="18"/>
-      <c r="J174" s="33"/>
-      <c r="K174" s="34"/>
     </row>
     <row r="175" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B175" s="33">
-        <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="C175" s="32" t="s">
-        <v>763</v>
-      </c>
-      <c r="E175" s="29" t="s">
-        <v>626</v>
+        <f>ROUNDUP(I175/G175,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C175" t="s">
+        <v>828</v>
+      </c>
+      <c r="E175" t="s">
+        <v>721</v>
       </c>
       <c r="G175">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="H175" s="22">
-        <v>4.8899999999999997</v>
+        <v>0.4</v>
       </c>
       <c r="I175" s="18">
-        <f>SUMIF(C$1:C$152,"="&amp;C175,B$1:B$152)</f>
-        <v>1</v>
+        <f>SUMIF(C$1:C$154,"="&amp;C175,B$1:B$154)</f>
+        <v>0</v>
       </c>
       <c r="J175" s="33">
-        <f t="shared" si="20"/>
-        <v>49</v>
+        <f t="shared" ref="J175" si="24">G175*B175-I175</f>
+        <v>0</v>
       </c>
       <c r="K175" s="34">
-        <f t="shared" si="21"/>
-        <v>4.8899999999999997</v>
+        <f t="shared" ref="K175" si="25">B175*H175</f>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B176" s="33">
-        <f t="shared" ref="B176" si="24">ROUNDUP(I176/G176,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C176" s="32" t="s">
-        <v>761</v>
-      </c>
-      <c r="E176" s="29" t="s">
-        <v>762</v>
-      </c>
-      <c r="G176">
-        <v>20</v>
-      </c>
-      <c r="H176" s="22">
-        <v>3.89</v>
-      </c>
-      <c r="I176" s="18">
-        <f>SUMIF(C$1:C$152,"="&amp;C176,B$1:B$152)</f>
-        <v>2</v>
-      </c>
-      <c r="J176" s="33">
-        <f t="shared" ref="J176" si="25">G176*B176-I176</f>
-        <v>18</v>
-      </c>
-      <c r="K176" s="34">
-        <f t="shared" ref="K176" si="26">B176*H176</f>
-        <v>3.89</v>
-      </c>
+      <c r="B176" s="33"/>
+      <c r="C176" s="32"/>
+      <c r="H176" s="22"/>
+      <c r="I176" s="18"/>
+      <c r="J176" s="33"/>
+      <c r="K176" s="34"/>
     </row>
     <row r="177" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B177" s="33">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="C177" s="32" t="s">
+        <v>760</v>
+      </c>
+      <c r="E177" s="29" t="s">
+        <v>626</v>
+      </c>
+      <c r="G177">
+        <v>50</v>
+      </c>
+      <c r="H177" s="22">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="I177" s="18">
+        <f>SUMIF(C$1:C$154,"="&amp;C177,B$1:B$154)</f>
+        <v>1</v>
+      </c>
+      <c r="J177" s="33">
+        <f t="shared" si="22"/>
+        <v>49</v>
+      </c>
+      <c r="K177" s="34">
+        <f t="shared" si="23"/>
+        <v>4.8899999999999997</v>
+      </c>
+    </row>
+    <row r="178" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B178" s="33">
+        <f t="shared" ref="B178" si="26">ROUNDUP(I178/G178,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C178" s="32" t="s">
+        <v>758</v>
+      </c>
+      <c r="E178" s="29" t="s">
+        <v>759</v>
+      </c>
+      <c r="G178">
+        <v>20</v>
+      </c>
+      <c r="H178" s="22">
+        <v>3.89</v>
+      </c>
+      <c r="I178" s="18">
+        <f>SUMIF(C$1:C$154,"="&amp;C178,B$1:B$154)</f>
+        <v>2</v>
+      </c>
+      <c r="J178" s="33">
+        <f t="shared" ref="J178" si="27">G178*B178-I178</f>
+        <v>18</v>
+      </c>
+      <c r="K178" s="34">
+        <f t="shared" ref="K178" si="28">B178*H178</f>
+        <v>3.89</v>
+      </c>
+    </row>
+    <row r="179" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B179" s="33">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C177" s="32" t="s">
-        <v>797</v>
-      </c>
-      <c r="E177" s="29" t="s">
+      <c r="C179" s="32" t="s">
+        <v>794</v>
+      </c>
+      <c r="E179" s="29" t="s">
         <v>652</v>
       </c>
-      <c r="G177">
+      <c r="G179">
         <v>100</v>
       </c>
-      <c r="H177" s="22">
+      <c r="H179" s="22">
         <v>1.79</v>
       </c>
-      <c r="I177" s="18">
-        <f>SUMIF(C$1:C$152,"="&amp;C177,B$1:B$152)</f>
+      <c r="I179" s="18">
+        <f>SUMIF(C$1:C$154,"="&amp;C179,B$1:B$154)</f>
         <v>67</v>
       </c>
-      <c r="J177" s="33">
+      <c r="J179" s="33">
         <f t="shared" si="7"/>
         <v>33</v>
       </c>
-      <c r="K177" s="34">
+      <c r="K179" s="34">
         <f t="shared" si="6"/>
         <v>1.79</v>
       </c>
     </row>
-    <row r="178" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B178" s="33">
+    <row r="180" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B180" s="33">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C178" s="32" t="s">
+      <c r="C180" s="32" t="s">
+        <v>665</v>
+      </c>
+      <c r="E180" s="9" t="s">
         <v>666</v>
       </c>
-      <c r="E178" s="9" t="s">
-        <v>667</v>
-      </c>
-      <c r="G178">
+      <c r="G180">
         <v>100</v>
       </c>
-      <c r="H178" s="22">
+      <c r="H180" s="22">
         <v>1.79</v>
       </c>
-      <c r="I178" s="18">
-        <f>SUMIF(C$1:C$152,"="&amp;C178,B$1:B$152)</f>
+      <c r="I180" s="18">
+        <f>SUMIF(C$1:C$154,"="&amp;C180,B$1:B$154)</f>
         <v>6</v>
       </c>
-      <c r="J178" s="33">
-        <f>G178*B178-I178</f>
+      <c r="J180" s="33">
+        <f>G180*B180-I180</f>
         <v>94</v>
       </c>
-      <c r="K178" s="34">
+      <c r="K180" s="34">
         <f t="shared" si="6"/>
         <v>1.79</v>
       </c>
     </row>
-    <row r="179" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B179" s="33">
-        <f t="shared" ref="B179:B180" si="27">ROUNDUP(I179/G179,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C179" s="32" t="s">
-        <v>764</v>
-      </c>
-      <c r="E179" s="9" t="s">
-        <v>792</v>
-      </c>
-      <c r="G179">
-        <v>50</v>
-      </c>
-      <c r="H179" s="22">
-        <v>4.33</v>
-      </c>
-      <c r="I179" s="18">
-        <f>SUMIF(C$1:C$152,"="&amp;C179,B$1:B$152)</f>
-        <v>4</v>
-      </c>
-      <c r="J179" s="33">
-        <f>G179*B179-I179</f>
-        <v>46</v>
-      </c>
-      <c r="K179" s="34">
-        <f t="shared" ref="K179:K180" si="28">B179*H179</f>
-        <v>4.33</v>
-      </c>
-    </row>
-    <row r="180" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B180" s="33">
-        <f t="shared" si="27"/>
-        <v>1</v>
-      </c>
-      <c r="C180" s="32" t="s">
-        <v>796</v>
-      </c>
-      <c r="E180" s="9" t="s">
-        <v>791</v>
-      </c>
-      <c r="G180">
-        <v>10</v>
-      </c>
-      <c r="H180" s="22">
-        <v>1.98</v>
-      </c>
-      <c r="I180" s="18">
-        <f>SUMIF(C$1:C$152,"="&amp;C180,B$1:B$152)</f>
-        <v>8</v>
-      </c>
-      <c r="J180" s="33">
-        <f>G180*B180-I180</f>
-        <v>2</v>
-      </c>
-      <c r="K180" s="34">
-        <f t="shared" si="28"/>
-        <v>1.98</v>
-      </c>
-    </row>
     <row r="181" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B181" s="33">
-        <f>ROUNDUP(I181/G181,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C181" t="s">
-        <v>679</v>
-      </c>
-      <c r="E181" s="26" t="s">
-        <v>646</v>
+        <f t="shared" ref="B181:B182" si="29">ROUNDUP(I181/G181,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C181" s="32" t="s">
+        <v>761</v>
+      </c>
+      <c r="E181" s="9" t="s">
+        <v>789</v>
       </c>
       <c r="G181">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="H181" s="22">
-        <v>4.49</v>
+        <v>4.33</v>
       </c>
       <c r="I181" s="18">
-        <f>SUMIF(C$1:C$152,"="&amp;C181,B$1:B$152)</f>
-        <v>136</v>
+        <f>SUMIF(C$1:C$154,"="&amp;C181,B$1:B$154)</f>
+        <v>4</v>
       </c>
       <c r="J181" s="33">
-        <f t="shared" ref="J181" si="29">G181*B181-I181</f>
-        <v>364</v>
+        <f>G181*B181-I181</f>
+        <v>46</v>
       </c>
       <c r="K181" s="34">
-        <f t="shared" si="6"/>
-        <v>4.49</v>
+        <f t="shared" ref="K181:K182" si="30">B181*H181</f>
+        <v>4.33</v>
       </c>
     </row>
     <row r="182" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B182" s="33">
-        <f>ROUNDUP(I182/G182,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C182" t="s">
-        <v>704</v>
-      </c>
-      <c r="E182" s="26" t="s">
-        <v>604</v>
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="C182" s="32" t="s">
+        <v>793</v>
+      </c>
+      <c r="E182" s="9" t="s">
+        <v>788</v>
       </c>
       <c r="G182">
-        <v>500</v>
+        <v>10</v>
       </c>
       <c r="H182" s="22">
-        <v>2.4900000000000002</v>
+        <v>1.98</v>
       </c>
       <c r="I182" s="18">
-        <f>SUMIF(C$1:C$152,"="&amp;C182,B$1:B$152)</f>
-        <v>50</v>
+        <f>SUMIF(C$1:C$154,"="&amp;C182,B$1:B$154)</f>
+        <v>8</v>
       </c>
       <c r="J182" s="33">
-        <f t="shared" ref="J182:J183" si="30">G182*B182-I182</f>
-        <v>450</v>
+        <f>G182*B182-I182</f>
+        <v>2</v>
       </c>
       <c r="K182" s="34">
-        <f t="shared" si="6"/>
-        <v>2.4900000000000002</v>
+        <f t="shared" si="30"/>
+        <v>1.98</v>
       </c>
     </row>
     <row r="183" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -14967,10 +14956,10 @@
         <v>1</v>
       </c>
       <c r="C183" t="s">
-        <v>750</v>
+        <v>678</v>
       </c>
       <c r="E183" s="26" t="s">
-        <v>751</v>
+        <v>646</v>
       </c>
       <c r="G183">
         <v>500</v>
@@ -14979,15 +14968,15 @@
         <v>4.49</v>
       </c>
       <c r="I183" s="18">
-        <f>SUMIF(C$1:C$152,"="&amp;C183,B$1:B$152)</f>
-        <v>182</v>
+        <f>SUMIF(C$1:C$154,"="&amp;C183,B$1:B$154)</f>
+        <v>136</v>
       </c>
       <c r="J183" s="33">
-        <f t="shared" si="30"/>
-        <v>318</v>
+        <f t="shared" ref="J183" si="31">G183*B183-I183</f>
+        <v>364</v>
       </c>
       <c r="K183" s="34">
-        <f t="shared" ref="K183" si="31">B183*H183</f>
+        <f t="shared" si="6"/>
         <v>4.49</v>
       </c>
     </row>
@@ -14996,179 +14985,179 @@
         <f>ROUNDUP(I184/G184,0)</f>
         <v>1</v>
       </c>
-      <c r="C184" s="32" t="s">
-        <v>832</v>
+      <c r="C184" t="s">
+        <v>703</v>
       </c>
       <c r="E184" s="26" t="s">
-        <v>831</v>
+        <v>604</v>
       </c>
       <c r="G184">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="H184" s="22">
-        <v>1.59</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="I184" s="18">
-        <f>SUMIF(C$1:C$152,"="&amp;C184,B$1:B$152)</f>
-        <v>12</v>
+        <f>SUMIF(C$1:C$154,"="&amp;C184,B$1:B$154)</f>
+        <v>50</v>
       </c>
       <c r="J184" s="33">
-        <f t="shared" ref="J184" si="32">G184*B184-I184</f>
-        <v>88</v>
+        <f t="shared" ref="J184:J185" si="32">G184*B184-I184</f>
+        <v>450</v>
       </c>
       <c r="K184" s="34">
-        <f t="shared" ref="K184" si="33">B184*H184</f>
-        <v>1.59</v>
+        <f t="shared" si="6"/>
+        <v>2.4900000000000002</v>
       </c>
     </row>
     <row r="185" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B185" s="33">
         <f>ROUNDUP(I185/G185,0)</f>
-        <v>4</v>
-      </c>
-      <c r="C185" s="32" t="s">
-        <v>813</v>
-      </c>
-      <c r="E185" t="s">
-        <v>812</v>
+        <v>1</v>
+      </c>
+      <c r="C185" t="s">
+        <v>747</v>
+      </c>
+      <c r="E185" s="26" t="s">
+        <v>748</v>
       </c>
       <c r="G185">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="H185" s="22">
-        <v>0.16</v>
+        <v>4.49</v>
       </c>
       <c r="I185" s="18">
-        <f>SUMIF(C$1:C$152,"="&amp;C185,B$1:B$152)</f>
-        <v>4</v>
+        <f>SUMIF(C$1:C$154,"="&amp;C185,B$1:B$154)</f>
+        <v>182</v>
       </c>
       <c r="J185" s="33">
-        <f t="shared" ref="J185" si="34">G185*B185-I185</f>
-        <v>0</v>
+        <f t="shared" si="32"/>
+        <v>318</v>
       </c>
       <c r="K185" s="34">
-        <f t="shared" ref="K185" si="35">B185*H185</f>
-        <v>0.64</v>
+        <f t="shared" ref="K185" si="33">B185*H185</f>
+        <v>4.49</v>
       </c>
     </row>
     <row r="186" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B186" s="33">
-        <f t="shared" si="0"/>
-        <v>9</v>
+        <f>ROUNDUP(I186/G186,0)</f>
+        <v>1</v>
       </c>
       <c r="C186" s="32" t="s">
-        <v>730</v>
-      </c>
-      <c r="E186" s="9" t="s">
-        <v>671</v>
+        <v>827</v>
+      </c>
+      <c r="E186" s="26" t="s">
+        <v>826</v>
       </c>
       <c r="G186">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="H186" s="22">
-        <v>0.15</v>
+        <v>1.59</v>
       </c>
       <c r="I186" s="18">
-        <f>SUMIF(C$1:C$152,"="&amp;C186,B$1:B$152)</f>
-        <v>9</v>
+        <f>SUMIF(C$1:C$154,"="&amp;C186,B$1:B$154)</f>
+        <v>12</v>
       </c>
       <c r="J186" s="33">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" ref="J186" si="34">G186*B186-I186</f>
+        <v>88</v>
       </c>
       <c r="K186" s="34">
-        <f t="shared" si="6"/>
-        <v>1.3499999999999999</v>
+        <f t="shared" ref="K186" si="35">B186*H186</f>
+        <v>1.59</v>
       </c>
     </row>
     <row r="187" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B187" s="33">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C187" s="32" t="s">
-        <v>828</v>
-      </c>
-      <c r="E187" t="s">
-        <v>827</v>
+        <v>830</v>
+      </c>
+      <c r="E187" s="9" t="s">
+        <v>670</v>
       </c>
       <c r="G187">
         <v>1</v>
       </c>
       <c r="H187" s="22">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="I187" s="18">
-        <f>SUMIF(C$1:C$152,"="&amp;C187,B$1:B$152)</f>
-        <v>6</v>
+        <f>SUMIF(C$1:C$154,"="&amp;C187,B$1:B$154)</f>
+        <v>5</v>
       </c>
       <c r="J187" s="33">
-        <f t="shared" ref="J187" si="36">G187*B187-I187</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K187" s="34">
-        <f t="shared" ref="K187" si="37">B187*H187</f>
-        <v>1.7999999999999998</v>
+        <f t="shared" si="6"/>
+        <v>0.75</v>
       </c>
     </row>
     <row r="188" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B188" s="33">
-        <f t="shared" ref="B188" si="38">ROUNDUP(I188/G188,0)</f>
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="C188" s="32" t="s">
+        <v>823</v>
+      </c>
+      <c r="E188" t="s">
+        <v>822</v>
+      </c>
+      <c r="G188">
+        <v>1</v>
+      </c>
+      <c r="H188" s="22">
+        <v>0.3</v>
+      </c>
+      <c r="I188" s="18">
+        <f>SUMIF(C$1:C$154,"="&amp;C188,B$1:B$154)</f>
+        <v>22</v>
+      </c>
+      <c r="J188" s="33">
+        <f t="shared" ref="J188" si="36">G188*B188-I188</f>
         <v>0</v>
       </c>
-      <c r="C188" t="s">
-        <v>798</v>
-      </c>
-      <c r="E188" s="29" t="s">
-        <v>685</v>
-      </c>
-      <c r="G188">
-        <v>1</v>
-      </c>
-      <c r="H188" s="22">
+      <c r="K188" s="34">
+        <f t="shared" ref="K188" si="37">B188*H188</f>
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="189" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B189" s="33">
+        <f t="shared" ref="B189" si="38">ROUNDUP(I189/G189,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C189" t="s">
+        <v>795</v>
+      </c>
+      <c r="E189" s="29" t="s">
+        <v>684</v>
+      </c>
+      <c r="G189">
+        <v>1</v>
+      </c>
+      <c r="H189" s="22">
         <v>0.08</v>
       </c>
-      <c r="I188" s="18">
-        <f>SUMIF(C$1:C$152,"="&amp;C188,B$1:B$152)</f>
+      <c r="I189" s="18">
+        <f>SUMIF(C$1:C$154,"="&amp;C189,B$1:B$154)</f>
         <v>0</v>
       </c>
-      <c r="J188" s="33">
-        <f t="shared" ref="J188" si="39">G188*B188-I188</f>
+      <c r="J189" s="33">
+        <f t="shared" ref="J189" si="39">G189*B189-I189</f>
         <v>0</v>
       </c>
-      <c r="K188" s="34">
+      <c r="K189" s="34">
         <f t="shared" si="6"/>
         <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B189" s="33">
-        <f>ROUNDUP(I189/G189,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C189" t="s">
-        <v>698</v>
-      </c>
-      <c r="E189" s="26" t="s">
-        <v>699</v>
-      </c>
-      <c r="G189">
-        <v>10</v>
-      </c>
-      <c r="H189" s="22">
-        <v>2.59</v>
-      </c>
-      <c r="I189" s="18">
-        <f>SUMIF(C$1:C$152,"="&amp;C189,B$1:B$152)</f>
-        <v>2</v>
-      </c>
-      <c r="J189" s="33">
-        <f t="shared" ref="J189" si="40">G189*B189-I189</f>
-        <v>8</v>
-      </c>
-      <c r="K189" s="34">
-        <f>B189*H189</f>
-        <v>2.59</v>
       </c>
     </row>
     <row r="190" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -15176,96 +15165,96 @@
         <f>ROUNDUP(I190/G190,0)</f>
         <v>1</v>
       </c>
-      <c r="C190" s="32" t="s">
-        <v>830</v>
-      </c>
-      <c r="E190" t="s">
-        <v>829</v>
+      <c r="C190" t="s">
+        <v>697</v>
+      </c>
+      <c r="E190" s="26" t="s">
+        <v>698</v>
       </c>
       <c r="G190">
-        <v>500</v>
+        <v>10</v>
       </c>
       <c r="H190" s="22">
-        <v>1.69</v>
+        <v>2.59</v>
       </c>
       <c r="I190" s="18">
-        <f>SUMIF(C$1:C$152,"="&amp;C190,B$1:B$152)</f>
-        <v>300</v>
+        <f>SUMIF(C$1:C$154,"="&amp;C190,B$1:B$154)</f>
+        <v>2</v>
       </c>
       <c r="J190" s="33">
-        <f t="shared" ref="J190" si="41">G190*B190-I190</f>
-        <v>200</v>
+        <f t="shared" ref="J190" si="40">G190*B190-I190</f>
+        <v>8</v>
       </c>
       <c r="K190" s="34">
         <f>B190*H190</f>
+        <v>2.59</v>
+      </c>
+    </row>
+    <row r="191" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B191" s="33">
+        <f>ROUNDUP(I191/G191,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C191" s="32" t="s">
+        <v>825</v>
+      </c>
+      <c r="E191" t="s">
+        <v>824</v>
+      </c>
+      <c r="G191">
+        <v>500</v>
+      </c>
+      <c r="H191" s="22">
         <v>1.69</v>
       </c>
-    </row>
-    <row r="191" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B191" s="33"/>
-      <c r="H191" s="22"/>
-      <c r="I191" s="18"/>
-      <c r="J191" s="33"/>
-      <c r="K191" s="34"/>
+      <c r="I191" s="18">
+        <f>SUMIF(C$1:C$154,"="&amp;C191,B$1:B$154)</f>
+        <v>300</v>
+      </c>
+      <c r="J191" s="33">
+        <f t="shared" ref="J191" si="41">G191*B191-I191</f>
+        <v>200</v>
+      </c>
+      <c r="K191" s="34">
+        <f>B191*H191</f>
+        <v>1.69</v>
+      </c>
     </row>
     <row r="192" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B192" s="33">
-        <f t="shared" ref="B192:B196" si="42">ROUNDUP(I192/G192,0)</f>
+      <c r="B192" s="33"/>
+      <c r="H192" s="22"/>
+      <c r="I192" s="18"/>
+      <c r="J192" s="33"/>
+      <c r="K192" s="34"/>
+    </row>
+    <row r="193" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B193" s="33">
+        <f t="shared" ref="B193:B197" si="42">ROUNDUP(I193/G193,0)</f>
         <v>4</v>
       </c>
-      <c r="C192" t="s">
+      <c r="C193" t="s">
         <v>632</v>
       </c>
-      <c r="E192" s="29" t="s">
+      <c r="E193" s="29" t="s">
         <v>637</v>
       </c>
-      <c r="G192">
-        <v>1</v>
-      </c>
-      <c r="H192" s="22">
+      <c r="G193">
+        <v>1</v>
+      </c>
+      <c r="H193" s="22">
         <v>5.0999999999999996</v>
       </c>
-      <c r="I192" s="18">
-        <f>SUMIF(C$1:C$152,"="&amp;C192,B$1:B$152)</f>
+      <c r="I193" s="18">
+        <f>SUMIF(C$1:C$154,"="&amp;C193,B$1:B$154)</f>
         <v>4</v>
       </c>
-      <c r="J192" s="33">
-        <f t="shared" ref="J192" si="43">G192*B192-I192</f>
+      <c r="J193" s="33">
+        <f t="shared" ref="J193" si="43">G193*B193-I193</f>
         <v>0</v>
       </c>
-      <c r="K192" s="34">
+      <c r="K193" s="34">
         <f t="shared" si="6"/>
         <v>20.399999999999999</v>
-      </c>
-    </row>
-    <row r="193" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B193" s="33">
-        <f t="shared" si="42"/>
-        <v>1</v>
-      </c>
-      <c r="C193" t="s">
-        <v>639</v>
-      </c>
-      <c r="E193" s="29" t="s">
-        <v>638</v>
-      </c>
-      <c r="G193">
-        <v>1</v>
-      </c>
-      <c r="H193" s="22">
-        <v>5.44</v>
-      </c>
-      <c r="I193" s="18">
-        <f>SUMIF(C$1:C$152,"="&amp;C193,B$1:B$152)</f>
-        <v>1</v>
-      </c>
-      <c r="J193" s="33">
-        <f t="shared" ref="J193:J195" si="44">G193*B193-I193</f>
-        <v>0</v>
-      </c>
-      <c r="K193" s="34">
-        <f t="shared" si="6"/>
-        <v>5.44</v>
       </c>
     </row>
     <row r="194" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -15274,28 +15263,28 @@
         <v>1</v>
       </c>
       <c r="C194" t="s">
-        <v>680</v>
+        <v>639</v>
       </c>
       <c r="E194" s="29" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="G194">
         <v>1</v>
       </c>
       <c r="H194" s="22">
-        <v>4.46</v>
+        <v>5.44</v>
       </c>
       <c r="I194" s="18">
-        <f>SUMIF(C$1:C$152,"="&amp;C194,B$1:B$152)</f>
+        <f>SUMIF(C$1:C$154,"="&amp;C194,B$1:B$154)</f>
         <v>1</v>
       </c>
       <c r="J194" s="33">
-        <f t="shared" si="44"/>
+        <f t="shared" ref="J194:J196" si="44">G194*B194-I194</f>
         <v>0</v>
       </c>
       <c r="K194" s="34">
         <f t="shared" si="6"/>
-        <v>4.46</v>
+        <v>5.44</v>
       </c>
     </row>
     <row r="195" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -15304,19 +15293,19 @@
         <v>1</v>
       </c>
       <c r="C195" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="E195" s="29" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="G195">
         <v>1</v>
       </c>
       <c r="H195" s="22">
-        <v>5.01</v>
+        <v>4.46</v>
       </c>
       <c r="I195" s="18">
-        <f>SUMIF(C$1:C$152,"="&amp;C195,B$1:B$152)</f>
+        <f>SUMIF(C$1:C$154,"="&amp;C195,B$1:B$154)</f>
         <v>1</v>
       </c>
       <c r="J195" s="33">
@@ -15325,7 +15314,7 @@
       </c>
       <c r="K195" s="34">
         <f t="shared" si="6"/>
-        <v>5.01</v>
+        <v>4.46</v>
       </c>
     </row>
     <row r="196" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -15334,58 +15323,58 @@
         <v>1</v>
       </c>
       <c r="C196" t="s">
-        <v>722</v>
-      </c>
-      <c r="E196" s="26" t="s">
-        <v>721</v>
+        <v>680</v>
+      </c>
+      <c r="E196" s="29" t="s">
+        <v>640</v>
       </c>
       <c r="G196">
         <v>1</v>
       </c>
       <c r="H196" s="22">
-        <v>6.34</v>
+        <v>5.01</v>
       </c>
       <c r="I196" s="18">
-        <f>SUMIF(C$1:C$152,"="&amp;C196,B$1:B$152)</f>
+        <f>SUMIF(C$1:C$154,"="&amp;C196,B$1:B$154)</f>
         <v>1</v>
       </c>
       <c r="J196" s="33">
-        <f t="shared" ref="J196" si="45">G196*B196-I196</f>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="K196" s="34">
-        <f t="shared" ref="K196" si="46">B196*H196</f>
-        <v>6.34</v>
+        <f t="shared" si="6"/>
+        <v>5.01</v>
       </c>
     </row>
     <row r="197" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B197" s="33">
+        <f t="shared" si="42"/>
         <v>1</v>
       </c>
       <c r="C197" t="s">
-        <v>754</v>
-      </c>
-      <c r="D197" s="32"/>
+        <v>720</v>
+      </c>
       <c r="E197" s="26" t="s">
-        <v>753</v>
+        <v>719</v>
       </c>
       <c r="G197">
         <v>1</v>
       </c>
       <c r="H197" s="22">
-        <v>11.6</v>
+        <v>6.34</v>
       </c>
       <c r="I197" s="18">
-        <f>SUMIF(C$1:C$152,"="&amp;C197,B$1:B$152)</f>
-        <v>2</v>
+        <f>SUMIF(C$1:C$154,"="&amp;C197,B$1:B$154)</f>
+        <v>1</v>
       </c>
       <c r="J197" s="33">
-        <f t="shared" ref="J197:J198" si="47">G197*B197-I197</f>
-        <v>-1</v>
+        <f t="shared" ref="J197" si="45">G197*B197-I197</f>
+        <v>0</v>
       </c>
       <c r="K197" s="34">
-        <f t="shared" ref="K197:K198" si="48">B197*H197</f>
-        <v>11.6</v>
+        <f t="shared" ref="K197" si="46">B197*H197</f>
+        <v>6.34</v>
       </c>
     </row>
     <row r="198" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -15393,239 +15382,239 @@
         <v>1</v>
       </c>
       <c r="C198" t="s">
-        <v>774</v>
+        <v>751</v>
       </c>
       <c r="D198" s="32"/>
-      <c r="E198" s="29" t="s">
-        <v>775</v>
+      <c r="E198" s="26" t="s">
+        <v>750</v>
       </c>
       <c r="G198">
         <v>1</v>
       </c>
       <c r="H198" s="22">
+        <v>11.6</v>
+      </c>
+      <c r="I198" s="18">
+        <f>SUMIF(C$1:C$154,"="&amp;C198,B$1:B$154)</f>
+        <v>2</v>
+      </c>
+      <c r="J198" s="33">
+        <f t="shared" ref="J198:J199" si="47">G198*B198-I198</f>
+        <v>-1</v>
+      </c>
+      <c r="K198" s="34">
+        <f t="shared" ref="K198:K199" si="48">B198*H198</f>
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="199" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B199" s="33">
+        <v>1</v>
+      </c>
+      <c r="C199" t="s">
+        <v>771</v>
+      </c>
+      <c r="D199" s="32"/>
+      <c r="E199" s="29" t="s">
+        <v>772</v>
+      </c>
+      <c r="G199">
+        <v>1</v>
+      </c>
+      <c r="H199" s="22">
         <v>5.66</v>
       </c>
-      <c r="I198" s="18">
-        <f>SUMIF(C$1:C$152,"="&amp;C198,B$1:B$152)</f>
+      <c r="I199" s="18">
+        <f>SUMIF(C$1:C$154,"="&amp;C199,B$1:B$154)</f>
         <v>4</v>
       </c>
-      <c r="J198" s="33">
+      <c r="J199" s="33">
         <f t="shared" si="47"/>
         <v>-3</v>
       </c>
-      <c r="K198" s="34">
+      <c r="K199" s="34">
         <f t="shared" si="48"/>
         <v>5.66</v>
       </c>
     </row>
-    <row r="199" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B199" s="33">
-        <v>1</v>
-      </c>
-      <c r="C199" t="s">
-        <v>756</v>
-      </c>
-      <c r="D199" s="32"/>
-      <c r="E199" s="29" t="s">
-        <v>755</v>
-      </c>
-      <c r="G199">
-        <v>1</v>
-      </c>
-      <c r="H199" s="22">
-        <v>5.23</v>
-      </c>
-      <c r="I199" s="18">
-        <f>SUMIF(C$1:C$152,"="&amp;C199,B$1:B$152)</f>
-        <v>0</v>
-      </c>
-      <c r="J199" s="33">
-        <f t="shared" ref="J199" si="49">G199*B199-I199</f>
-        <v>1</v>
-      </c>
-      <c r="K199" s="34">
-        <f t="shared" ref="K199" si="50">B199*H199</f>
-        <v>5.23</v>
-      </c>
-    </row>
     <row r="200" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B200" s="33">
         <v>1</v>
       </c>
-      <c r="C200" s="32" t="s">
-        <v>780</v>
+      <c r="C200" t="s">
+        <v>753</v>
       </c>
       <c r="D200" s="32"/>
       <c r="E200" s="29" t="s">
-        <v>657</v>
+        <v>752</v>
       </c>
       <c r="G200">
         <v>1</v>
       </c>
       <c r="H200" s="22">
-        <v>4.96</v>
+        <v>5.23</v>
       </c>
       <c r="I200" s="18">
-        <f>SUMIF(C$1:C$152,"="&amp;C200,B$1:B$152)</f>
-        <v>1</v>
+        <f>SUMIF(C$1:C$154,"="&amp;C200,B$1:B$154)</f>
+        <v>0</v>
       </c>
       <c r="J200" s="33">
-        <f>G200*B200-I200</f>
-        <v>0</v>
+        <f t="shared" ref="J200" si="49">G200*B200-I200</f>
+        <v>1</v>
       </c>
       <c r="K200" s="34">
-        <f>B200*H200</f>
-        <v>4.96</v>
+        <f t="shared" ref="K200" si="50">B200*H200</f>
+        <v>5.23</v>
       </c>
     </row>
     <row r="201" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B201" s="33">
         <v>1</v>
       </c>
-      <c r="C201" t="s">
-        <v>781</v>
+      <c r="C201" s="32" t="s">
+        <v>777</v>
       </c>
       <c r="D201" s="32"/>
       <c r="E201" s="29" t="s">
-        <v>683</v>
+        <v>656</v>
       </c>
       <c r="G201">
         <v>1</v>
       </c>
       <c r="H201" s="22">
-        <v>4.24</v>
+        <v>4.96</v>
       </c>
       <c r="I201" s="18">
-        <f>SUMIF(C$1:C$152,"="&amp;C201,B$1:B$152)</f>
+        <f>SUMIF(C$1:C$154,"="&amp;C201,B$1:B$154)</f>
         <v>1</v>
       </c>
       <c r="J201" s="33">
-        <f t="shared" ref="J201" si="51">G201*B201-I201</f>
+        <f>G201*B201-I201</f>
         <v>0</v>
       </c>
       <c r="K201" s="34">
         <f>B201*H201</f>
-        <v>4.24</v>
+        <v>4.96</v>
       </c>
     </row>
     <row r="202" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B202" s="33">
-        <f>ROUNDUP(I202/G202,0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C202" t="s">
-        <v>784</v>
-      </c>
-      <c r="E202" s="26" t="s">
-        <v>706</v>
+        <v>778</v>
+      </c>
+      <c r="D202" s="32"/>
+      <c r="E202" s="29" t="s">
+        <v>682</v>
       </c>
       <c r="G202">
         <v>1</v>
       </c>
       <c r="H202" s="22">
-        <v>4.4400000000000004</v>
+        <v>4.24</v>
       </c>
       <c r="I202" s="18">
-        <f>SUMIF(C$1:C$152,"="&amp;C202,B$1:B$152)</f>
-        <v>2</v>
+        <f>SUMIF(C$1:C$154,"="&amp;C202,B$1:B$154)</f>
+        <v>1</v>
       </c>
       <c r="J202" s="33">
-        <f t="shared" ref="J202" si="52">G202*B202-I202</f>
+        <f t="shared" ref="J202" si="51">G202*B202-I202</f>
         <v>0</v>
       </c>
       <c r="K202" s="34">
         <f>B202*H202</f>
-        <v>8.8800000000000008</v>
+        <v>4.24</v>
       </c>
     </row>
     <row r="203" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B203" s="33">
-        <v>1</v>
+        <f>ROUNDUP(I203/G203,0)</f>
+        <v>2</v>
       </c>
       <c r="C203" t="s">
-        <v>782</v>
-      </c>
-      <c r="D203" s="32"/>
-      <c r="E203" s="29" t="s">
-        <v>772</v>
+        <v>781</v>
+      </c>
+      <c r="E203" s="26" t="s">
+        <v>705</v>
       </c>
       <c r="G203">
         <v>1</v>
       </c>
       <c r="H203" s="22">
-        <v>7.44</v>
+        <v>4.4400000000000004</v>
       </c>
       <c r="I203" s="18">
-        <f>SUMIF(C$1:C$152,"="&amp;C203,B$1:B$152)</f>
+        <f>SUMIF(C$1:C$154,"="&amp;C203,B$1:B$154)</f>
         <v>2</v>
       </c>
       <c r="J203" s="33">
-        <f t="shared" ref="J203" si="53">G203*B203-I203</f>
-        <v>-1</v>
+        <f t="shared" ref="J203" si="52">G203*B203-I203</f>
+        <v>0</v>
       </c>
       <c r="K203" s="34">
-        <f t="shared" ref="K203" si="54">B203*H203</f>
-        <v>7.44</v>
-      </c>
-    </row>
-    <row r="204" spans="2:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <f>B203*H203</f>
+        <v>8.8800000000000008</v>
+      </c>
+    </row>
+    <row r="204" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B204" s="33">
         <v>1</v>
       </c>
       <c r="C204" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="D204" s="32"/>
       <c r="E204" s="29" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="G204">
         <v>1</v>
       </c>
       <c r="H204" s="22">
-        <v>8.8699999999999992</v>
+        <v>7.44</v>
       </c>
       <c r="I204" s="18">
-        <f>SUMIF(C$1:C$152,"="&amp;C204,B$1:B$152)</f>
-        <v>1</v>
+        <f>SUMIF(C$1:C$154,"="&amp;C204,B$1:B$154)</f>
+        <v>2</v>
       </c>
       <c r="J204" s="33">
-        <f t="shared" ref="J204" si="55">G204*B204-I204</f>
-        <v>0</v>
+        <f t="shared" ref="J204" si="53">G204*B204-I204</f>
+        <v>-1</v>
       </c>
       <c r="K204" s="34">
-        <f t="shared" ref="K204" si="56">B204*H204</f>
-        <v>8.8699999999999992</v>
-      </c>
-    </row>
-    <row r="205" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" ref="K204" si="54">B204*H204</f>
+        <v>7.44</v>
+      </c>
+    </row>
+    <row r="205" spans="2:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B205" s="33">
         <v>1</v>
       </c>
       <c r="C205" t="s">
-        <v>805</v>
+        <v>780</v>
       </c>
       <c r="D205" s="32"/>
       <c r="E205" s="29" t="s">
-        <v>804</v>
+        <v>769</v>
       </c>
       <c r="G205">
         <v>1</v>
       </c>
       <c r="H205" s="22">
-        <v>7.88</v>
+        <v>8.8699999999999992</v>
       </c>
       <c r="I205" s="18">
-        <f>SUMIF(C$1:C$152,"="&amp;C205,B$1:B$152)</f>
+        <f>SUMIF(C$1:C$154,"="&amp;C205,B$1:B$154)</f>
         <v>1</v>
       </c>
       <c r="J205" s="33">
-        <f t="shared" ref="J205" si="57">G205*B205-I205</f>
+        <f t="shared" ref="J205" si="55">G205*B205-I205</f>
         <v>0</v>
       </c>
       <c r="K205" s="34">
-        <f t="shared" ref="K205" si="58">B205*H205</f>
-        <v>7.88</v>
+        <f t="shared" ref="K205" si="56">B205*H205</f>
+        <v>8.8699999999999992</v>
       </c>
     </row>
     <row r="206" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -15633,11 +15622,11 @@
         <v>1</v>
       </c>
       <c r="C206" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="D206" s="32"/>
       <c r="E206" s="29" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="G206">
         <v>1</v>
@@ -15646,15 +15635,15 @@
         <v>7.88</v>
       </c>
       <c r="I206" s="18">
-        <f>SUMIF(C$1:C$152,"="&amp;C206,B$1:B$152)</f>
+        <f>SUMIF(C$1:C$154,"="&amp;C206,B$1:B$154)</f>
         <v>1</v>
       </c>
       <c r="J206" s="33">
-        <f t="shared" ref="J206" si="59">G206*B206-I206</f>
+        <f t="shared" ref="J206" si="57">G206*B206-I206</f>
         <v>0</v>
       </c>
       <c r="K206" s="34">
-        <f t="shared" ref="K206" si="60">B206*H206</f>
+        <f t="shared" ref="K206" si="58">B206*H206</f>
         <v>7.88</v>
       </c>
     </row>
@@ -15663,124 +15652,125 @@
         <v>1</v>
       </c>
       <c r="C207" t="s">
-        <v>782</v>
+        <v>803</v>
       </c>
       <c r="D207" s="32"/>
       <c r="E207" s="29" t="s">
-        <v>772</v>
+        <v>804</v>
       </c>
       <c r="G207">
         <v>1</v>
       </c>
       <c r="H207" s="22">
+        <v>7.88</v>
+      </c>
+      <c r="I207" s="18">
+        <f>SUMIF(C$1:C$154,"="&amp;C207,B$1:B$154)</f>
+        <v>1</v>
+      </c>
+      <c r="J207" s="33">
+        <f t="shared" ref="J207" si="59">G207*B207-I207</f>
+        <v>0</v>
+      </c>
+      <c r="K207" s="34">
+        <f t="shared" ref="K207" si="60">B207*H207</f>
+        <v>7.88</v>
+      </c>
+    </row>
+    <row r="208" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B208" s="33">
+        <v>1</v>
+      </c>
+      <c r="C208" t="s">
+        <v>779</v>
+      </c>
+      <c r="D208" s="32"/>
+      <c r="E208" s="29" t="s">
+        <v>769</v>
+      </c>
+      <c r="G208">
+        <v>1</v>
+      </c>
+      <c r="H208" s="22">
         <v>7.13</v>
       </c>
-      <c r="I207" s="18">
-        <f>SUMIF(C$1:C$152,"="&amp;C207,B$1:B$152)</f>
+      <c r="I208" s="18">
+        <f>SUMIF(C$1:C$154,"="&amp;C208,B$1:B$154)</f>
         <v>2</v>
       </c>
-      <c r="J207" s="33">
-        <f t="shared" ref="J207" si="61">G207*B207-I207</f>
+      <c r="J208" s="33">
+        <f t="shared" ref="J208" si="61">G208*B208-I208</f>
         <v>-1</v>
       </c>
-      <c r="K207" s="34">
-        <f t="shared" ref="K207" si="62">B207*H207</f>
+      <c r="K208" s="34">
+        <f t="shared" ref="K208" si="62">B208*H208</f>
         <v>7.13</v>
       </c>
     </row>
-    <row r="208" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B208" s="33"/>
-      <c r="D208" s="32"/>
-      <c r="H208" s="22"/>
-      <c r="I208" s="18"/>
-      <c r="J208" s="33"/>
-      <c r="K208" s="34"/>
-    </row>
     <row r="209" spans="2:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B209" s="33">
-        <v>1</v>
-      </c>
-      <c r="C209" s="32" t="s">
+      <c r="B209" s="33"/>
+      <c r="D209" s="32"/>
+      <c r="H209" s="22"/>
+      <c r="I209" s="18"/>
+      <c r="J209" s="33"/>
+      <c r="K209" s="34"/>
+    </row>
+    <row r="210" spans="2:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B210" s="33">
+        <v>1</v>
+      </c>
+      <c r="C210" s="32" t="s">
         <v>647</v>
       </c>
-      <c r="E209" s="26" t="s">
+      <c r="E210" s="26" t="s">
         <v>649</v>
       </c>
-      <c r="G209">
-        <v>1</v>
-      </c>
-      <c r="H209" s="22">
+      <c r="G210">
+        <v>1</v>
+      </c>
+      <c r="H210" s="22">
         <v>14.5</v>
       </c>
-      <c r="I209" s="18">
-        <f>SUMIF(C$1:C$152,"="&amp;C209,B$1:B$152)</f>
-        <v>1</v>
-      </c>
-      <c r="J209" s="33">
+      <c r="I210" s="18">
+        <f>SUMIF(C$1:C$154,"="&amp;C210,B$1:B$154)</f>
+        <v>1</v>
+      </c>
+      <c r="J210" s="33">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K209" s="34">
+      <c r="K210" s="34">
         <f t="shared" si="6"/>
         <v>14.5</v>
       </c>
     </row>
-    <row r="210" spans="2:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B210" s="33">
-        <v>1</v>
-      </c>
-      <c r="C210" s="32" t="s">
-        <v>717</v>
-      </c>
-      <c r="E210" s="26" t="s">
-        <v>718</v>
-      </c>
-      <c r="G210">
-        <v>1</v>
-      </c>
-      <c r="H210" s="22">
-        <v>8.5</v>
-      </c>
-      <c r="I210" s="18">
-        <f>SUMIF(C$1:C$152,"="&amp;C210,B$1:B$152)</f>
-        <v>1</v>
-      </c>
-      <c r="J210" s="33">
-        <f t="shared" ref="J210" si="63">G210*B210-I210</f>
-        <v>0</v>
-      </c>
-      <c r="K210" s="34">
-        <f t="shared" ref="K210" si="64">B210*H210</f>
-        <v>8.5</v>
-      </c>
-    </row>
     <row r="211" spans="2:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B211" s="33">
         <v>1</v>
       </c>
       <c r="C211" s="32" t="s">
-        <v>779</v>
+        <v>715</v>
       </c>
       <c r="E211" s="26" t="s">
-        <v>778</v>
+        <v>716</v>
       </c>
       <c r="G211">
         <v>1</v>
       </c>
       <c r="H211" s="22">
-        <v>54.2</v>
+        <v>8.5</v>
       </c>
       <c r="I211" s="18">
-        <f>SUMIF(C$1:C$152,"="&amp;C211,B$1:B$152)</f>
+        <f>SUMIF(C$1:C$154,"="&amp;C211,B$1:B$154)</f>
         <v>1</v>
       </c>
       <c r="J211" s="33">
-        <f t="shared" ref="J211" si="65">G211*B211-I211</f>
+        <f t="shared" ref="J211" si="63">G211*B211-I211</f>
         <v>0</v>
       </c>
       <c r="K211" s="34">
-        <f t="shared" ref="K211" si="66">B211*H211</f>
-        <v>54.2</v>
+        <f t="shared" ref="K211" si="64">B211*H211</f>
+        <v>8.5</v>
       </c>
     </row>
     <row r="212" spans="2:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -15788,178 +15778,176 @@
         <v>1</v>
       </c>
       <c r="C212" s="32" t="s">
-        <v>815</v>
+        <v>776</v>
       </c>
       <c r="E212" s="26" t="s">
-        <v>816</v>
+        <v>775</v>
       </c>
       <c r="G212">
         <v>1</v>
       </c>
       <c r="H212" s="22">
-        <v>37</v>
+        <v>54.2</v>
       </c>
       <c r="I212" s="18">
-        <f>SUMIF(C$1:C$152,"="&amp;C212,B$1:B$152)</f>
+        <f>SUMIF(C$1:C$154,"="&amp;C212,B$1:B$154)</f>
         <v>1</v>
       </c>
       <c r="J212" s="33">
-        <f t="shared" ref="J212" si="67">G212*B212-I212</f>
+        <f t="shared" ref="J212" si="65">G212*B212-I212</f>
         <v>0</v>
       </c>
       <c r="K212" s="34">
-        <f t="shared" ref="K212" si="68">B212*H212</f>
-        <v>37</v>
+        <f t="shared" ref="K212" si="66">B212*H212</f>
+        <v>54.2</v>
       </c>
     </row>
     <row r="213" spans="2:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B213" s="33">
-        <f t="shared" ref="B213:B223" si="69">ROUNDUP(I213/G213,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C213" s="32" t="s">
+        <v>810</v>
+      </c>
+      <c r="E213" s="26" t="s">
+        <v>811</v>
+      </c>
+      <c r="G213">
+        <v>1</v>
+      </c>
+      <c r="H213" s="22">
+        <v>37</v>
+      </c>
+      <c r="I213" s="18">
+        <f>SUMIF(C$1:C$154,"="&amp;C213,B$1:B$154)</f>
+        <v>1</v>
+      </c>
+      <c r="J213" s="33">
+        <f t="shared" ref="J213" si="67">G213*B213-I213</f>
+        <v>0</v>
+      </c>
+      <c r="K213" s="34">
+        <f t="shared" ref="K213" si="68">B213*H213</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="214" spans="2:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B214" s="33">
+        <f t="shared" ref="B214:B224" si="69">ROUNDUP(I214/G214,0)</f>
         <v>4</v>
       </c>
-      <c r="C213" s="32" t="s">
-        <v>660</v>
-      </c>
-      <c r="E213" s="9" t="s">
+      <c r="C214" s="32" t="s">
+        <v>659</v>
+      </c>
+      <c r="E214" s="9" t="s">
         <v>562</v>
       </c>
-      <c r="G213">
-        <v>1</v>
-      </c>
-      <c r="H213" s="22">
+      <c r="G214">
+        <v>1</v>
+      </c>
+      <c r="H214" s="22">
         <v>14.53</v>
       </c>
-      <c r="I213" s="18">
-        <f>SUMIF(C$1:C$152,"="&amp;C213,B$1:B$152)</f>
+      <c r="I214" s="18">
+        <f>SUMIF(C$1:C$154,"="&amp;C214,B$1:B$154)</f>
         <v>4</v>
       </c>
-      <c r="J213" s="33">
+      <c r="J214" s="33">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K213" s="34">
+      <c r="K214" s="34">
         <f t="shared" si="6"/>
         <v>58.12</v>
       </c>
-      <c r="L213" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="214" spans="2:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B214" s="33">
+      <c r="L214" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="215" spans="2:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B215" s="33">
         <f t="shared" si="69"/>
         <v>1</v>
       </c>
-      <c r="C214" s="32" t="s">
-        <v>785</v>
-      </c>
-      <c r="E214" s="9" t="s">
-        <v>787</v>
-      </c>
-      <c r="G214">
-        <v>1</v>
-      </c>
-      <c r="H214" s="22">
+      <c r="C215" s="32" t="s">
+        <v>782</v>
+      </c>
+      <c r="E215" s="9" t="s">
+        <v>784</v>
+      </c>
+      <c r="G215">
+        <v>1</v>
+      </c>
+      <c r="H215" s="22">
         <v>36.42</v>
       </c>
-      <c r="I214" s="18">
-        <f>SUMIF(C$1:C$152,"="&amp;C214,B$1:B$152)</f>
-        <v>1</v>
-      </c>
-      <c r="J214" s="33">
-        <f t="shared" ref="J214" si="70">G214*B214-I214</f>
+      <c r="I215" s="18">
+        <f>SUMIF(C$1:C$154,"="&amp;C215,B$1:B$154)</f>
+        <v>1</v>
+      </c>
+      <c r="J215" s="33">
+        <f t="shared" ref="J215" si="70">G215*B215-I215</f>
         <v>0</v>
       </c>
-      <c r="K214" s="34">
-        <f t="shared" ref="K214" si="71">B214*H214</f>
+      <c r="K215" s="34">
+        <f t="shared" ref="K215" si="71">B215*H215</f>
         <v>36.42</v>
       </c>
-      <c r="L214" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="215" spans="2:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B215" s="33"/>
-      <c r="C215" s="32"/>
-      <c r="E215" s="9"/>
-      <c r="H215" s="22"/>
-      <c r="I215" s="18"/>
-      <c r="J215" s="33"/>
-      <c r="K215" s="34"/>
+      <c r="L215" t="s">
+        <v>821</v>
+      </c>
     </row>
     <row r="216" spans="2:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B216" s="33">
+      <c r="B216" s="33"/>
+      <c r="C216" s="32"/>
+      <c r="E216" s="9"/>
+      <c r="H216" s="22"/>
+      <c r="I216" s="18"/>
+      <c r="J216" s="33"/>
+      <c r="K216" s="34"/>
+    </row>
+    <row r="217" spans="2:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B217" s="33">
         <f t="shared" si="69"/>
         <v>2</v>
       </c>
-      <c r="C216" s="32" t="s">
-        <v>670</v>
-      </c>
-      <c r="D216" s="32"/>
-      <c r="E216" s="29" t="s">
-        <v>668</v>
-      </c>
-      <c r="G216">
-        <v>1</v>
-      </c>
-      <c r="H216" s="22">
+      <c r="C217" s="32" t="s">
+        <v>669</v>
+      </c>
+      <c r="D217" s="32"/>
+      <c r="E217" s="29" t="s">
+        <v>667</v>
+      </c>
+      <c r="G217">
+        <v>1</v>
+      </c>
+      <c r="H217" s="22">
         <v>1.54</v>
       </c>
-      <c r="I216" s="18">
-        <f>SUMIF(C$1:C$152,"="&amp;C216,B$1:B$152)</f>
+      <c r="I217" s="18">
+        <f>SUMIF(C$1:C$154,"="&amp;C217,B$1:B$154)</f>
         <v>2</v>
       </c>
-      <c r="J216" s="33">
+      <c r="J217" s="33">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K216" s="34">
+      <c r="K217" s="34">
         <f t="shared" si="6"/>
         <v>3.08</v>
       </c>
     </row>
-    <row r="217" spans="2:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B217" s="33">
-        <f t="shared" ref="B217" si="72">ROUNDUP(I217/G217,0)</f>
-        <v>8</v>
-      </c>
-      <c r="C217" s="32" t="s">
-        <v>771</v>
-      </c>
-      <c r="D217" s="32"/>
-      <c r="E217" s="29" t="s">
-        <v>788</v>
-      </c>
-      <c r="G217">
-        <v>1</v>
-      </c>
-      <c r="H217" s="22">
-        <v>1.54</v>
-      </c>
-      <c r="I217" s="18">
-        <f>SUMIF(C$1:C$152,"="&amp;C217,B$1:B$152)</f>
-        <v>8</v>
-      </c>
-      <c r="J217" s="33">
-        <f t="shared" ref="J217" si="73">G217*B217-I217</f>
-        <v>0</v>
-      </c>
-      <c r="K217" s="34">
-        <f t="shared" ref="K217" si="74">B217*H217</f>
-        <v>12.32</v>
-      </c>
-    </row>
     <row r="218" spans="2:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B218" s="33">
-        <f t="shared" ref="B218" si="75">ROUNDUP(I218/G218,0)</f>
+        <f t="shared" ref="B218" si="72">ROUNDUP(I218/G218,0)</f>
         <v>8</v>
       </c>
       <c r="C218" s="32" t="s">
-        <v>790</v>
+        <v>768</v>
       </c>
       <c r="D218" s="32"/>
       <c r="E218" s="29" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="G218">
         <v>1</v>
@@ -15968,367 +15956,370 @@
         <v>1.54</v>
       </c>
       <c r="I218" s="18">
-        <f>SUMIF(C$1:C$152,"="&amp;C218,B$1:B$152)</f>
+        <f>SUMIF(C$1:C$154,"="&amp;C218,B$1:B$154)</f>
         <v>8</v>
       </c>
       <c r="J218" s="33">
-        <f t="shared" ref="J218" si="76">G218*B218-I218</f>
+        <f t="shared" ref="J218" si="73">G218*B218-I218</f>
         <v>0</v>
       </c>
       <c r="K218" s="34">
-        <f t="shared" ref="K218" si="77">B218*H218</f>
+        <f t="shared" ref="K218" si="74">B218*H218</f>
         <v>12.32</v>
       </c>
     </row>
     <row r="219" spans="2:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B219" s="33">
-        <f t="shared" si="69"/>
-        <v>6</v>
-      </c>
-      <c r="C219" t="s">
-        <v>644</v>
-      </c>
-      <c r="E219" s="26" t="s">
-        <v>643</v>
+        <f t="shared" ref="B219" si="75">ROUNDUP(I219/G219,0)</f>
+        <v>8</v>
+      </c>
+      <c r="C219" s="32" t="s">
+        <v>787</v>
+      </c>
+      <c r="D219" s="32"/>
+      <c r="E219" s="29" t="s">
+        <v>786</v>
       </c>
       <c r="G219">
         <v>1</v>
       </c>
       <c r="H219" s="22">
-        <v>1.95</v>
+        <v>1.54</v>
       </c>
       <c r="I219" s="18">
-        <f>SUMIF(C$1:C$152,"="&amp;C219,B$1:B$152)</f>
-        <v>6</v>
+        <f>SUMIF(C$1:C$154,"="&amp;C219,B$1:B$154)</f>
+        <v>8</v>
       </c>
       <c r="J219" s="33">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="J219" si="76">G219*B219-I219</f>
         <v>0</v>
       </c>
       <c r="K219" s="34">
-        <f t="shared" si="6"/>
-        <v>11.7</v>
+        <f t="shared" ref="K219" si="77">B219*H219</f>
+        <v>12.32</v>
       </c>
     </row>
     <row r="220" spans="2:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B220" s="33">
         <f t="shared" si="69"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C220" t="s">
-        <v>620</v>
-      </c>
-      <c r="E220" s="29" t="s">
-        <v>622</v>
+        <v>644</v>
+      </c>
+      <c r="E220" s="26" t="s">
+        <v>643</v>
       </c>
       <c r="G220">
         <v>1</v>
       </c>
       <c r="H220" s="22">
-        <v>1.39</v>
+        <v>1.95</v>
       </c>
       <c r="I220" s="18">
-        <f>SUMIF(C$1:C$152,"="&amp;C220,B$1:B$152)</f>
-        <v>2</v>
+        <f>SUMIF(C$1:C$154,"="&amp;C220,B$1:B$154)</f>
+        <v>6</v>
       </c>
       <c r="J220" s="33">
-        <f t="shared" ref="J220" si="78">G220*B220-I220</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K220" s="34">
         <f t="shared" si="6"/>
-        <v>2.78</v>
+        <v>11.7</v>
       </c>
     </row>
     <row r="221" spans="2:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B221" s="33">
         <f t="shared" si="69"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C221" t="s">
-        <v>613</v>
+        <v>620</v>
       </c>
       <c r="E221" s="29" t="s">
-        <v>557</v>
+        <v>622</v>
       </c>
       <c r="G221">
         <v>1</v>
       </c>
       <c r="H221" s="22">
-        <v>3.29</v>
+        <v>1.39</v>
       </c>
       <c r="I221" s="18">
-        <f>SUMIF(C$1:C$152,"="&amp;C221,B$1:B$152)</f>
-        <v>5</v>
+        <f>SUMIF(C$1:C$154,"="&amp;C221,B$1:B$154)</f>
+        <v>2</v>
       </c>
       <c r="J221" s="33">
-        <f t="shared" ref="J221" si="79">G221*B221-I221</f>
+        <f t="shared" ref="J221" si="78">G221*B221-I221</f>
         <v>0</v>
       </c>
       <c r="K221" s="34">
         <f t="shared" si="6"/>
-        <v>16.45</v>
+        <v>2.78</v>
       </c>
     </row>
     <row r="222" spans="2:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B222" s="33">
         <f t="shared" si="69"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C222" t="s">
-        <v>694</v>
-      </c>
-      <c r="E222" s="26" t="s">
-        <v>695</v>
+        <v>613</v>
+      </c>
+      <c r="E222" s="29" t="s">
+        <v>557</v>
       </c>
       <c r="G222">
         <v>1</v>
       </c>
       <c r="H222" s="22">
-        <v>1</v>
+        <v>3.29</v>
       </c>
       <c r="I222" s="18">
-        <f>SUMIF(C$1:C$152,"="&amp;C222,B$1:B$152)</f>
-        <v>2</v>
+        <f>SUMIF(C$1:C$154,"="&amp;C222,B$1:B$154)</f>
+        <v>5</v>
       </c>
       <c r="J222" s="33">
-        <f t="shared" ref="J222" si="80">G222*B222-I222</f>
+        <f t="shared" ref="J222" si="79">G222*B222-I222</f>
         <v>0</v>
       </c>
       <c r="K222" s="34">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>16.45</v>
       </c>
     </row>
     <row r="223" spans="2:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B223" s="33">
         <f t="shared" si="69"/>
-        <v>4</v>
-      </c>
-      <c r="C223" s="32" t="s">
-        <v>702</v>
+        <v>2</v>
+      </c>
+      <c r="C223" t="s">
+        <v>693</v>
       </c>
       <c r="E223" s="26" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="G223">
         <v>1</v>
       </c>
       <c r="H223" s="22">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="I223" s="18">
-        <f>SUMIF(C$1:C$152,"="&amp;C223,B$1:B$152)</f>
-        <v>4</v>
+        <f>SUMIF(C$1:C$154,"="&amp;C223,B$1:B$154)</f>
+        <v>2</v>
       </c>
       <c r="J223" s="33">
-        <f t="shared" ref="J223" si="81">G223*B223-I223</f>
+        <f t="shared" ref="J223" si="80">G223*B223-I223</f>
         <v>0</v>
       </c>
       <c r="K223" s="34">
         <f t="shared" si="6"/>
-        <v>4.2</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="2:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B224" s="33">
-        <f t="shared" ref="B224:B225" si="82">ROUNDUP(I224/G224,0)</f>
+        <f t="shared" si="69"/>
         <v>4</v>
       </c>
       <c r="C224" s="32" t="s">
-        <v>817</v>
+        <v>701</v>
       </c>
       <c r="E224" s="26" t="s">
-        <v>818</v>
+        <v>700</v>
       </c>
       <c r="G224">
         <v>1</v>
       </c>
       <c r="H224" s="22">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="I224" s="18">
-        <f>SUMIF(C$1:C$152,"="&amp;C224,B$1:B$152)</f>
+        <f>SUMIF(C$1:C$154,"="&amp;C224,B$1:B$154)</f>
         <v>4</v>
       </c>
       <c r="J224" s="33">
-        <f t="shared" ref="J224" si="83">G224*B224-I224</f>
+        <f t="shared" ref="J224" si="81">G224*B224-I224</f>
         <v>0</v>
       </c>
       <c r="K224" s="34">
-        <f t="shared" ref="K224" si="84">B224*H224</f>
-        <v>4</v>
+        <f t="shared" si="6"/>
+        <v>4.2</v>
       </c>
     </row>
     <row r="225" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B225" s="33">
+        <f t="shared" ref="B225:B227" si="82">ROUNDUP(I225/G225,0)</f>
+        <v>4</v>
+      </c>
+      <c r="C225" s="32" t="s">
+        <v>812</v>
+      </c>
+      <c r="E225" s="26" t="s">
+        <v>813</v>
+      </c>
+      <c r="G225">
+        <v>1</v>
+      </c>
+      <c r="H225" s="22">
+        <v>1</v>
+      </c>
+      <c r="I225" s="18">
+        <f>SUMIF(C$1:C$154,"="&amp;C225,B$1:B$154)</f>
+        <v>4</v>
+      </c>
+      <c r="J225" s="33">
+        <f t="shared" ref="J225" si="83">G225*B225-I225</f>
+        <v>0</v>
+      </c>
+      <c r="K225" s="34">
+        <f t="shared" ref="K225" si="84">B225*H225</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="226" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B226" s="33">
         <f t="shared" si="82"/>
         <v>2</v>
       </c>
-      <c r="C225" t="s">
+      <c r="C226" t="s">
         <v>599</v>
       </c>
-      <c r="E225" s="29" t="s">
-        <v>554</v>
-      </c>
-      <c r="G225">
-        <v>1</v>
-      </c>
-      <c r="H225" s="22">
+      <c r="E226" s="29" t="s">
+        <v>834</v>
+      </c>
+      <c r="G226">
+        <v>1</v>
+      </c>
+      <c r="H226" s="22">
         <v>26.88</v>
       </c>
-      <c r="I225" s="18">
-        <f>SUMIF(C$1:C$152,"="&amp;C225,B$1:B$152)</f>
+      <c r="I226" s="18">
+        <f>SUMIF(C$1:C$154,"="&amp;C226,B$1:B$154)</f>
         <v>2</v>
       </c>
-      <c r="J225" s="33">
-        <f t="shared" ref="J225" si="85">G225*B225-I225</f>
+      <c r="J226" s="33">
+        <f t="shared" ref="J226" si="85">G226*B226-I226</f>
         <v>0</v>
       </c>
-      <c r="K225" s="34">
-        <f t="shared" ref="K225" si="86">B225*H225</f>
+      <c r="K226" s="34">
+        <f t="shared" ref="K226" si="86">B226*H226</f>
         <v>53.76</v>
       </c>
     </row>
-    <row r="226" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B226" s="33">
-        <f t="shared" ref="B226" si="87">ROUNDUP(I226/G226,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C226" t="s">
-        <v>821</v>
-      </c>
-      <c r="E226" s="29" t="s">
-        <v>822</v>
-      </c>
-      <c r="G226">
-        <v>1</v>
-      </c>
-      <c r="H226" s="22">
+    <row r="227" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B227" s="33">
+        <f t="shared" si="82"/>
+        <v>1</v>
+      </c>
+      <c r="C227" t="s">
+        <v>836</v>
+      </c>
+      <c r="E227" s="29" t="s">
+        <v>835</v>
+      </c>
+      <c r="G227">
+        <v>1</v>
+      </c>
+      <c r="H227" s="22">
+        <v>24.22</v>
+      </c>
+      <c r="I227" s="18">
+        <f>SUMIF(C$1:C$154,"="&amp;C227,B$1:B$154)</f>
+        <v>1</v>
+      </c>
+      <c r="J227" s="33">
+        <f t="shared" ref="J227" si="87">G227*B227-I227</f>
+        <v>0</v>
+      </c>
+      <c r="K227" s="34">
+        <f t="shared" ref="K227" si="88">B227*H227</f>
+        <v>24.22</v>
+      </c>
+    </row>
+    <row r="228" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B228" s="33">
+        <f t="shared" ref="B228" si="89">ROUNDUP(I228/G228,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C228" t="s">
+        <v>816</v>
+      </c>
+      <c r="E228" s="29" t="s">
+        <v>817</v>
+      </c>
+      <c r="G228">
+        <v>1</v>
+      </c>
+      <c r="H228" s="22">
         <v>19.899999999999999</v>
       </c>
-      <c r="I226" s="18">
-        <f>SUMIF(C$1:C$152,"="&amp;C226,B$1:B$152)</f>
-        <v>1</v>
-      </c>
-      <c r="J226" s="33">
-        <f t="shared" ref="J226" si="88">G226*B226-I226</f>
+      <c r="I228" s="18">
+        <f>SUMIF(C$1:C$154,"="&amp;C228,B$1:B$154)</f>
         <v>0</v>
       </c>
-      <c r="K226" s="34">
-        <f t="shared" ref="K226" si="89">B226*H226</f>
-        <v>19.899999999999999</v>
-      </c>
-      <c r="L226" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="227" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C227" s="6"/>
-      <c r="D227" s="29"/>
-      <c r="E227"/>
-      <c r="G227" s="22"/>
-      <c r="H227" s="22"/>
-      <c r="I227" s="18"/>
-      <c r="J227" s="33"/>
-      <c r="K227" s="34"/>
-    </row>
-    <row r="228" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A228" s="6" t="s">
-        <v>760</v>
-      </c>
-      <c r="B228" s="33"/>
-      <c r="E228"/>
-      <c r="H228" s="22"/>
-      <c r="I228" s="18"/>
-      <c r="J228" s="33"/>
-      <c r="K228" s="34"/>
+      <c r="J228" s="33">
+        <f t="shared" ref="J228" si="90">G228*B228-I228</f>
+        <v>0</v>
+      </c>
+      <c r="K228" s="34">
+        <f t="shared" ref="K228" si="91">B228*H228</f>
+        <v>0</v>
+      </c>
+      <c r="L228" t="s">
+        <v>820</v>
+      </c>
     </row>
     <row r="229" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B229" s="33">
-        <v>1</v>
-      </c>
-      <c r="C229" t="s">
-        <v>748</v>
-      </c>
-      <c r="E229" s="29" t="s">
-        <v>749</v>
-      </c>
-      <c r="G229">
-        <v>1</v>
-      </c>
-      <c r="H229" s="22">
-        <v>4.09</v>
-      </c>
-      <c r="I229" s="18">
-        <f>SUMIF(C$1:C$152,"="&amp;C229,B$1:B$152)</f>
-        <v>3</v>
-      </c>
-      <c r="J229" s="33">
-        <f t="shared" ref="J229:J230" si="90">G229*B229-I229</f>
-        <v>-2</v>
-      </c>
-      <c r="K229" s="34">
-        <f t="shared" ref="K229:K230" si="91">B229*H229</f>
-        <v>4.09</v>
-      </c>
+      <c r="C229" s="6"/>
+      <c r="D229" s="29"/>
+      <c r="E229"/>
+      <c r="G229" s="22"/>
+      <c r="H229" s="22"/>
+      <c r="I229" s="18"/>
+      <c r="J229" s="33"/>
+      <c r="K229" s="34"/>
     </row>
     <row r="230" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B230" s="33">
-        <v>1</v>
-      </c>
-      <c r="C230" t="s">
+      <c r="A230" s="6" t="s">
         <v>757</v>
       </c>
-      <c r="E230" s="29" t="s">
-        <v>793</v>
-      </c>
-      <c r="G230">
-        <v>1</v>
-      </c>
-      <c r="H230" s="22">
-        <v>2.8</v>
-      </c>
-      <c r="I230" s="18">
-        <f>SUMIF(C$1:C$152,"="&amp;C230,B$1:B$152)</f>
-        <v>1</v>
-      </c>
-      <c r="J230" s="33">
-        <f t="shared" si="90"/>
-        <v>0</v>
-      </c>
-      <c r="K230" s="34">
-        <f t="shared" si="91"/>
-        <v>2.8</v>
-      </c>
+      <c r="B230" s="33"/>
+      <c r="E230"/>
+      <c r="H230" s="22"/>
+      <c r="I230" s="18"/>
+      <c r="J230" s="33"/>
+      <c r="K230" s="34"/>
     </row>
     <row r="231" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B231" s="33">
         <v>1</v>
       </c>
       <c r="C231" t="s">
-        <v>758</v>
+        <v>745</v>
       </c>
       <c r="E231" s="29" t="s">
-        <v>793</v>
+        <v>746</v>
       </c>
       <c r="G231">
         <v>1</v>
       </c>
       <c r="H231" s="22">
-        <v>2.8</v>
+        <v>4.09</v>
       </c>
       <c r="I231" s="18">
-        <f>SUMIF(C$1:C$152,"="&amp;C231,B$1:B$152)</f>
-        <v>2</v>
+        <f>SUMIF(C$1:C$154,"="&amp;C231,B$1:B$154)</f>
+        <v>3</v>
       </c>
       <c r="J231" s="33">
-        <f t="shared" ref="J231" si="92">G231*B231-I231</f>
-        <v>-1</v>
+        <f t="shared" ref="J231:J232" si="92">G231*B231-I231</f>
+        <v>-2</v>
       </c>
       <c r="K231" s="34">
-        <f t="shared" ref="K231" si="93">B231*H231</f>
-        <v>2.8</v>
+        <f t="shared" ref="K231:K232" si="93">B231*H231</f>
+        <v>4.09</v>
       </c>
     </row>
     <row r="232" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -16336,10 +16327,10 @@
         <v>1</v>
       </c>
       <c r="C232" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="E232" s="29" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="G232">
         <v>1</v>
@@ -16348,31 +16339,75 @@
         <v>2.8</v>
       </c>
       <c r="I232" s="18">
-        <f>SUMIF(C$1:C$152,"="&amp;C232,B$1:B$152)</f>
+        <f>SUMIF(C$1:C$154,"="&amp;C232,B$1:B$154)</f>
+        <v>1</v>
+      </c>
+      <c r="J232" s="33">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+      <c r="K232" s="34">
+        <f t="shared" si="93"/>
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="233" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B233" s="33">
+        <v>1</v>
+      </c>
+      <c r="C233" t="s">
+        <v>755</v>
+      </c>
+      <c r="E233" s="29" t="s">
+        <v>790</v>
+      </c>
+      <c r="G233">
+        <v>1</v>
+      </c>
+      <c r="H233" s="22">
+        <v>2.8</v>
+      </c>
+      <c r="I233" s="18">
+        <f>SUMIF(C$1:C$154,"="&amp;C233,B$1:B$154)</f>
+        <v>2</v>
+      </c>
+      <c r="J233" s="33">
+        <f t="shared" ref="J233" si="94">G233*B233-I233</f>
+        <v>-1</v>
+      </c>
+      <c r="K233" s="34">
+        <f t="shared" ref="K233" si="95">B233*H233</f>
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="234" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B234" s="33">
+        <v>1</v>
+      </c>
+      <c r="C234" t="s">
+        <v>756</v>
+      </c>
+      <c r="E234" s="29" t="s">
+        <v>790</v>
+      </c>
+      <c r="G234">
+        <v>1</v>
+      </c>
+      <c r="H234" s="22">
+        <v>2.8</v>
+      </c>
+      <c r="I234" s="18">
+        <f>SUMIF(C$1:C$154,"="&amp;C234,B$1:B$154)</f>
         <v>3</v>
       </c>
-      <c r="J232" s="33">
-        <f t="shared" ref="J232" si="94">G232*B232-I232</f>
+      <c r="J234" s="33">
+        <f t="shared" ref="J234" si="96">G234*B234-I234</f>
         <v>-2</v>
       </c>
-      <c r="K232" s="34">
-        <f t="shared" ref="K232" si="95">B232*H232</f>
+      <c r="K234" s="34">
+        <f t="shared" ref="K234" si="97">B234*H234</f>
         <v>2.8</v>
       </c>
-    </row>
-    <row r="233" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B233" s="33"/>
-      <c r="H233" s="22"/>
-      <c r="I233" s="18"/>
-      <c r="J233" s="33"/>
-      <c r="K233" s="34"/>
-    </row>
-    <row r="234" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B234" s="33"/>
-      <c r="H234" s="22"/>
-      <c r="I234" s="18"/>
-      <c r="J234" s="33"/>
-      <c r="K234" s="34"/>
     </row>
     <row r="235" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B235" s="33"/>
@@ -16381,30 +16416,30 @@
       <c r="J235" s="33"/>
       <c r="K235" s="34"/>
     </row>
-    <row r="236" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B236" s="33"/>
-      <c r="E236" s="26"/>
       <c r="H236" s="22"/>
       <c r="I236" s="18"/>
       <c r="J236" s="33"/>
-      <c r="K236" s="35">
-        <f>SUM(K154:K232)</f>
-        <v>564.56999999999982</v>
-      </c>
+      <c r="K236" s="34"/>
     </row>
     <row r="237" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B237" s="33"/>
-      <c r="E237" s="26"/>
       <c r="H237" s="22"/>
       <c r="I237" s="18"/>
       <c r="J237" s="33"/>
-    </row>
-    <row r="238" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K237" s="34"/>
+    </row>
+    <row r="238" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B238" s="33"/>
       <c r="E238" s="26"/>
       <c r="H238" s="22"/>
       <c r="I238" s="18"/>
       <c r="J238" s="33"/>
+      <c r="K238" s="35">
+        <f>SUM(K156:K234)</f>
+        <v>580.4899999999999</v>
+      </c>
     </row>
     <row r="239" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B239" s="33"/>
@@ -16413,69 +16448,75 @@
       <c r="I239" s="18"/>
       <c r="J239" s="33"/>
     </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D240" s="6"/>
+    <row r="240" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B240" s="33"/>
+      <c r="E240" s="26"/>
       <c r="H240" s="22"/>
-      <c r="I240" s="22"/>
-    </row>
-    <row r="241" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="E241" s="30"/>
-      <c r="I241" s="22"/>
-    </row>
-    <row r="243" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="E243" s="26"/>
+      <c r="I240" s="18"/>
+      <c r="J240" s="33"/>
+    </row>
+    <row r="241" spans="2:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B241" s="33"/>
+      <c r="E241" s="26"/>
+      <c r="H241" s="22"/>
+      <c r="I241" s="18"/>
+      <c r="J241" s="33"/>
+    </row>
+    <row r="242" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="D242" s="6"/>
+      <c r="H242" s="22"/>
+      <c r="I242" s="22"/>
+    </row>
+    <row r="243" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="E243" s="30"/>
       <c r="I243" s="22"/>
     </row>
-    <row r="244" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="E244" s="26"/>
-      <c r="I244" s="22"/>
-    </row>
-    <row r="245" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D245" s="6"/>
+    <row r="245" spans="2:10" x14ac:dyDescent="0.3">
       <c r="E245" s="26"/>
       <c r="I245" s="22"/>
     </row>
-    <row r="246" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D246" s="8"/>
+    <row r="246" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="E246" s="26"/>
       <c r="I246" s="22"/>
     </row>
-    <row r="247" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="247" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="D247" s="6"/>
       <c r="E247" s="26"/>
       <c r="I247" s="22"/>
     </row>
-    <row r="248" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="E248" s="30"/>
+    <row r="248" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="D248" s="8"/>
       <c r="I248" s="22"/>
     </row>
-    <row r="249" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="249" spans="2:10" x14ac:dyDescent="0.3">
       <c r="E249" s="26"/>
       <c r="I249" s="22"/>
     </row>
-    <row r="250" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="250" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="E250" s="30"/>
       <c r="I250" s="22"/>
     </row>
-    <row r="251" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="251" spans="2:10" x14ac:dyDescent="0.3">
       <c r="E251" s="26"/>
       <c r="I251" s="22"/>
     </row>
-    <row r="252" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D252" s="6"/>
-      <c r="E252" s="26"/>
+    <row r="252" spans="2:10" x14ac:dyDescent="0.3">
       <c r="I252" s="22"/>
     </row>
-    <row r="253" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="E253" s="25"/>
+    <row r="253" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="E253" s="26"/>
       <c r="I253" s="22"/>
     </row>
-    <row r="254" spans="4:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="D254" s="6"/>
       <c r="E254" s="26"/>
       <c r="I254" s="22"/>
     </row>
-    <row r="255" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="255" spans="2:10" x14ac:dyDescent="0.3">
       <c r="E255" s="25"/>
       <c r="I255" s="22"/>
     </row>
-    <row r="256" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="256" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E256" s="26"/>
       <c r="I256" s="22"/>
     </row>
@@ -16483,30 +16524,38 @@
       <c r="E257" s="25"/>
       <c r="I257" s="22"/>
     </row>
-    <row r="258" spans="5:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E258" s="25"/>
+    <row r="258" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E258" s="26"/>
       <c r="I258" s="22"/>
     </row>
-    <row r="259" spans="5:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E259" s="25"/>
       <c r="I259" s="22"/>
     </row>
-    <row r="260" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="260" spans="5:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E260" s="25"/>
       <c r="I260" s="22"/>
     </row>
-    <row r="261" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="H261" s="22"/>
+    <row r="261" spans="5:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E261" s="25"/>
       <c r="I261" s="22"/>
     </row>
     <row r="262" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="H262" s="23"/>
+      <c r="E262" s="25"/>
       <c r="I262" s="22"/>
+    </row>
+    <row r="263" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="H263" s="22"/>
+      <c r="I263" s="22"/>
+    </row>
+    <row r="264" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="H264" s="23"/>
+      <c r="I264" s="22"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E219" r:id="rId1"/>
-    <hyperlink ref="E213" r:id="rId2"/>
+    <hyperlink ref="E220" r:id="rId1"/>
+    <hyperlink ref="E214" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1842" uniqueCount="838">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1854" uniqueCount="842">
   <si>
     <t>Bauteilnummer</t>
   </si>
@@ -1965,9 +1965,6 @@
     <t>https://www.conrad.de/de/silberstahl-welle-500-mm-6-mm-237086.html</t>
   </si>
   <si>
-    <t>NEMA 17 - 42x42x21</t>
-  </si>
-  <si>
     <t>Motor</t>
   </si>
   <si>
@@ -2073,9 +2070,6 @@
     <t>http://www.cncshop.at/index.php?a=10273</t>
   </si>
   <si>
-    <t>Zylinderkopfschraube Innensechskant M3 22mm</t>
-  </si>
-  <si>
     <t>https://www.reichelt.de/Distanzhuelsen-etc-/DI-5MM/3/index.html?&amp;ACTION=3&amp;LA=2&amp;ARTICLE=7123&amp;GROUPID=3365&amp;artnr=DI+5MM</t>
   </si>
   <si>
@@ -2169,9 +2163,6 @@
     <t>GehäuseVerbindung Mittendrin</t>
   </si>
   <si>
-    <t>NEMA 17 - 42x42x33</t>
-  </si>
-  <si>
     <t>http://eu.stepperonline.com/nema-17-stepper-motor-34mm-12v-04a-26ncm37ozin-17hs130404s-p-166.html</t>
   </si>
   <si>
@@ -2352,9 +2343,6 @@
     <t>http://de.nanotec.com/produkte/541-st6018-schrittmotor-nema-24/</t>
   </si>
   <si>
-    <t xml:space="preserve">NEMA 24 - 60x60x57 1.9Nm ST6018M2008 </t>
-  </si>
-  <si>
     <t>Zahnriemen T2,5 230mm 6mm Breite</t>
   </si>
   <si>
@@ -2454,9 +2442,6 @@
     <t>Gabel/Basis Befestigung</t>
   </si>
   <si>
-    <t xml:space="preserve">NEMA 24 - 60x60x87 3.1Nm </t>
-  </si>
-  <si>
     <t>http://eu.stepperonline.com/nema-24-dual-shaft-cnc-stepper-motor-31nm439-ozin-24hs343008d-p-275.html</t>
   </si>
   <si>
@@ -2466,30 +2451,18 @@
     <t>https://www.kugellager-express.de/miniatur-kugellager-608-608z-608rs-8x22x7-mm.html?XTCsid=jn6do78lmla6nb2l5bmaiarad4</t>
   </si>
   <si>
-    <t>5 bestellt bei digikey</t>
-  </si>
-  <si>
     <t>Oberarm-Kugellager</t>
   </si>
   <si>
     <t>Drehkranz 80mm/140mm</t>
   </si>
   <si>
-    <t>http://www.ebay.de/itm/252339311458?_trksid=p2060353.m2749.l2649&amp;ssPageName=STRK%3AMEBIDX%3AIT</t>
-  </si>
-  <si>
     <t>Hip</t>
   </si>
   <si>
     <t>Hüftdrehgelenk</t>
   </si>
   <si>
-    <t>bestellt bei ebay</t>
-  </si>
-  <si>
-    <t>bestellt</t>
-  </si>
-  <si>
     <t>https://www.conrad.de/de/abstandsbolzen-2-x-innengewinde-m3-messing-abstandsmass-20-mm-ii-ms-3-55-20-1-st-526533.html</t>
   </si>
   <si>
@@ -2536,6 +2509,45 @@
   </si>
   <si>
     <t>Befestigung DrehlagerDeckel/Drehlager/Basis</t>
+  </si>
+  <si>
+    <t>gekauft</t>
+  </si>
+  <si>
+    <t>Befestigung HüftMotorBasis</t>
+  </si>
+  <si>
+    <t>RiemenSpanner HüftMotor</t>
+  </si>
+  <si>
+    <t>XXXXX Zylinderkopfschraube Innensechskant M3 22mm</t>
+  </si>
+  <si>
+    <t>http://eu.stepperonline.com/nema-23-cnc-stepper-motor-28a-126nm1785ozin-23hs222804s-p-108.html</t>
+  </si>
+  <si>
+    <t>HüftMotor</t>
+  </si>
+  <si>
+    <t>NEMA 24 - 57x57x56 - 1,26Nm - 6,35mm Achse</t>
+  </si>
+  <si>
+    <t>NEMA 24 - 60x60x87 - 3.1Nm - 8mm Achse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEMA 24 - 60x60x57 - 1.9Nm ST6018M2008 </t>
+  </si>
+  <si>
+    <t>NEMA 17 - 42x42x21 - 1,2Nm - 5mm Achse</t>
+  </si>
+  <si>
+    <t>NEMA 17 - 42x42x33 - 0,26Nm - 5mm Achse</t>
+  </si>
+  <si>
+    <t>Zahnriemenscheibe T2,5, 12 Zähne</t>
+  </si>
+  <si>
+    <t>http://www.cncshop.at/index.php?a=10117</t>
   </si>
 </sst>
 </file>
@@ -3732,7 +3744,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
       <c r="E42" t="s">
         <v>624</v>
@@ -3764,7 +3776,7 @@
   <dimension ref="A3:AD113"/>
   <sheetViews>
     <sheetView topLeftCell="A58" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I84" sqref="I84"/>
+      <selection activeCell="E74" sqref="E74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3865,7 +3877,7 @@
       </c>
       <c r="C10" s="5">
         <f>C14/C12</f>
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="D10" t="s">
         <v>325</v>
@@ -3887,7 +3899,7 @@
         <v>341</v>
       </c>
       <c r="C12" s="6">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D12" t="s">
         <v>338</v>
@@ -3899,7 +3911,7 @@
       </c>
       <c r="C13" s="4">
         <f>C12*C11/PI()</f>
-        <v>23.8732414637843</v>
+        <v>19.098593171027442</v>
       </c>
       <c r="D13" t="s">
         <v>340</v>
@@ -4275,7 +4287,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="C46" s="5">
         <f>C50/C48*(C54/C52)</f>
@@ -4497,7 +4509,7 @@
       </c>
       <c r="C67" s="2">
         <f>C62/C10</f>
-        <v>1.4641425000000001</v>
+        <v>1.171314</v>
       </c>
       <c r="D67" t="s">
         <v>322</v>
@@ -4529,7 +4541,7 @@
     </row>
     <row r="70" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="C70" s="2">
         <f>C66/C46</f>
@@ -4541,7 +4553,7 @@
     </row>
     <row r="71" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="C71" s="2">
         <f>C65/C46</f>
@@ -4622,7 +4634,7 @@
       </c>
       <c r="C74" s="2">
         <f>C67*(1+C57)</f>
-        <v>1.9033852500000001</v>
+        <v>1.5227082000000001</v>
       </c>
       <c r="D74" t="s">
         <v>322</v>
@@ -4827,7 +4839,7 @@
     </row>
     <row r="78" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="C78" s="2">
         <f>C71*(1+C57)</f>
@@ -8335,7 +8347,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -11888,7 +11900,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -11944,10 +11956,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L264"/>
+  <dimension ref="A1:L274"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A167" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P162" sqref="P162"/>
+    <sheetView tabSelected="1" topLeftCell="A143" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C151" sqref="C151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11987,8 +11999,8 @@
         <v>4</v>
       </c>
       <c r="C3" t="str">
-        <f>C161</f>
-        <v>Zylinderkopfschraube Innensechskant M3 22mm</v>
+        <f>C170</f>
+        <v>XXXXX Zylinderkopfschraube Innensechskant M3 22mm</v>
       </c>
       <c r="D3" t="s">
         <v>610</v>
@@ -12021,7 +12033,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="str">
-        <f>C222</f>
+        <f>C233</f>
         <v>Rillenkugellager DIN 625 SKF - 61807 35x47x7mm</v>
       </c>
       <c r="D6" t="s">
@@ -12036,7 +12048,7 @@
         <v>4</v>
       </c>
       <c r="C7" t="str">
-        <f>C169</f>
+        <f>C178</f>
         <v>Senkkopfschraube Innensechskant M3 10mm</v>
       </c>
       <c r="D7" t="s">
@@ -12051,7 +12063,7 @@
         <v>4</v>
       </c>
       <c r="C8" t="str">
-        <f>C159</f>
+        <f>C168</f>
         <v>Zylinderkopfschraube Innensechskant M3 20mm</v>
       </c>
       <c r="D8" t="s">
@@ -12063,7 +12075,7 @@
         <v>4</v>
       </c>
       <c r="C9" t="str">
-        <f>C173</f>
+        <f>C182</f>
         <v>Muttern M3, Schlüsselweite 5.5 mm</v>
       </c>
       <c r="D9" t="s">
@@ -12075,7 +12087,7 @@
         <v>2</v>
       </c>
       <c r="C10" t="str">
-        <f>C221</f>
+        <f>C232</f>
         <v>Rillenkugellager DIN 625 SKF - 61902 15x28x7mm</v>
       </c>
       <c r="D10" t="s">
@@ -12087,16 +12099,16 @@
         <v>1</v>
       </c>
       <c r="C11" t="str">
-        <f>C215</f>
+        <f>C226</f>
         <v xml:space="preserve">Herkulex Servo DRS - 0201 </v>
       </c>
       <c r="D11" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -12104,7 +12116,7 @@
         <v>1</v>
       </c>
       <c r="C13" t="str">
-        <f>C193</f>
+        <f>C202</f>
         <v>Zahnriemenscheibe T2,5, 16 Zähne</v>
       </c>
       <c r="D13" t="s">
@@ -12118,7 +12130,7 @@
         <v>1</v>
       </c>
       <c r="C14" t="str">
-        <f>C194</f>
+        <f>C204</f>
         <v>Zahnriemenscheibe T2,5, 44 Zähne</v>
       </c>
       <c r="D14" t="s">
@@ -12132,7 +12144,7 @@
         <v>1</v>
       </c>
       <c r="C15" t="str">
-        <f>C193</f>
+        <f>C202</f>
         <v>Zahnriemenscheibe T2,5, 16 Zähne</v>
       </c>
       <c r="D15" t="s">
@@ -12146,11 +12158,11 @@
         <v>1</v>
       </c>
       <c r="C16" t="str">
-        <f>C195</f>
+        <f>C205</f>
         <v>Zahnriemenscheibe T2,5, 18 Zähne</v>
       </c>
       <c r="D16" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="H16" s="22"/>
       <c r="I16" s="22"/>
@@ -12160,11 +12172,11 @@
         <v>1</v>
       </c>
       <c r="C17" t="str">
-        <f>C196</f>
+        <f>C206</f>
         <v>Zahnriemenscheibe T2,5, 14 Zähne</v>
       </c>
       <c r="D17" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="H17" s="22"/>
       <c r="I17" s="22"/>
@@ -12174,7 +12186,7 @@
         <v>1</v>
       </c>
       <c r="C18" t="str">
-        <f>C202</f>
+        <f>C212</f>
         <v>Zahnriemen T2,5 160mm 6mm Breite</v>
       </c>
       <c r="D18" t="s">
@@ -12188,7 +12200,7 @@
         <v>46</v>
       </c>
       <c r="C19" t="str">
-        <f>C183</f>
+        <f>C192</f>
         <v>Silberstahlwelle 6mm Durchmesser</v>
       </c>
       <c r="D19" t="s">
@@ -12203,7 +12215,7 @@
         <v>1</v>
       </c>
       <c r="C20" t="str">
-        <f>C233</f>
+        <f>C243</f>
         <v>Metallbohrer 6mm</v>
       </c>
       <c r="D20" t="s">
@@ -12218,7 +12230,7 @@
         <v>1</v>
       </c>
       <c r="C21" t="str">
-        <f>C234</f>
+        <f>C244</f>
         <v>Metallbohrer 2.3mm (für M3 Gewinde)</v>
       </c>
       <c r="D21" t="s">
@@ -12233,7 +12245,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="str">
-        <f>C231</f>
+        <f>C241</f>
         <v>Gewindeschneider M3</v>
       </c>
       <c r="D22" t="s">
@@ -12248,7 +12260,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="str">
-        <f>C220</f>
+        <f>C231</f>
         <v>Rillenkugellager 6x10x3</v>
       </c>
       <c r="D23" t="s">
@@ -12263,11 +12275,11 @@
         <v>1</v>
       </c>
       <c r="C24" s="32" t="str">
-        <f>C210</f>
-        <v>NEMA 17 - 42x42x21</v>
+        <f>C220</f>
+        <v>NEMA 17 - 42x42x21 - 1,2Nm - 5mm Achse</v>
       </c>
       <c r="D24" s="32" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E24" s="26"/>
       <c r="H24" s="22"/>
@@ -12278,11 +12290,11 @@
         <v>2</v>
       </c>
       <c r="C25" s="32" t="str">
-        <f>C163</f>
+        <f>C172</f>
         <v>Zylinderkopfschraube Innensechskant M3 14mm</v>
       </c>
       <c r="D25" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H25" s="22"/>
       <c r="I25" s="22"/>
@@ -12292,11 +12304,11 @@
         <v>2</v>
       </c>
       <c r="C26" s="32" t="str">
-        <f>C179</f>
+        <f>C188</f>
         <v>Unterlegscheiben M3 Dicke 0,5mm, Außendurchmesser 7mm</v>
       </c>
       <c r="D26" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H26" s="22"/>
       <c r="I26" s="22"/>
@@ -12306,11 +12318,11 @@
         <v>1</v>
       </c>
       <c r="C27" s="32" t="str">
-        <f>C201</f>
+        <f>C211</f>
         <v>Zahnriemen T2,5 230mm 6mm Breite</v>
       </c>
       <c r="D27" s="32" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="H27" s="22"/>
       <c r="I27" s="22"/>
@@ -12320,11 +12332,11 @@
         <v>1</v>
       </c>
       <c r="C28" s="32" t="str">
-        <f>C162</f>
+        <f>C171</f>
         <v>XXXXX Zylinderkopfschraube Innensechskant M3 16mm</v>
       </c>
       <c r="D28" s="32" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="H28" s="22"/>
       <c r="I28" s="22"/>
@@ -12334,11 +12346,11 @@
         <v>2</v>
       </c>
       <c r="C29" s="32" t="str">
-        <f>C179</f>
+        <f>C188</f>
         <v>Unterlegscheiben M3 Dicke 0,5mm, Außendurchmesser 7mm</v>
       </c>
       <c r="D29" s="32" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="H29" s="22"/>
       <c r="I29" s="22"/>
@@ -12348,11 +12360,11 @@
         <v>2</v>
       </c>
       <c r="C30" s="32" t="str">
-        <f>C217</f>
+        <f>C228</f>
         <v>Rillenkugellager  3.967 x 7.938 x 3.175 mm</v>
       </c>
       <c r="D30" s="32" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H30" s="22"/>
       <c r="I30" s="22"/>
@@ -12362,11 +12374,11 @@
         <v>1</v>
       </c>
       <c r="C31" s="32" t="str">
-        <f>C172</f>
+        <f>C181</f>
         <v>Vierkant Mutter M3 Breite 5.5mm</v>
       </c>
       <c r="D31" s="32" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E31"/>
       <c r="H31" s="22"/>
@@ -12377,11 +12389,11 @@
         <v>4</v>
       </c>
       <c r="C32" s="32" t="str">
-        <f>C165</f>
+        <f>C174</f>
         <v>Zylinderkopfschraube Innensechskant M2 6mm</v>
       </c>
       <c r="D32" s="32" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E32"/>
       <c r="H32" s="22"/>
@@ -12392,11 +12404,11 @@
         <v>4</v>
       </c>
       <c r="C33" s="32" t="str">
-        <f>C174</f>
+        <f>C183</f>
         <v>Muttern M2</v>
       </c>
       <c r="D33" s="32" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E33"/>
       <c r="H33" s="22"/>
@@ -12407,11 +12419,11 @@
         <v>1</v>
       </c>
       <c r="C34" s="32" t="str">
-        <f>C214</f>
+        <f>C225</f>
         <v>Rotary Sensor</v>
       </c>
       <c r="D34" s="32" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E34" s="9"/>
       <c r="H34" s="22"/>
@@ -12422,11 +12434,11 @@
         <v>2</v>
       </c>
       <c r="C35" s="32" t="str">
-        <f>C180</f>
+        <f>C189</f>
         <v>Unterlegscheiben M2 Dicke 0,5mm</v>
       </c>
       <c r="D35" s="32" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E35" s="9"/>
       <c r="H35" s="22"/>
@@ -12437,11 +12449,11 @@
         <v>2</v>
       </c>
       <c r="C36" s="32" t="str">
-        <f>C187</f>
+        <f>C196</f>
         <v>XXXX Distanzbolzen M3 20mm, Schlüsselweite 5mm</v>
       </c>
       <c r="D36" s="32" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E36" s="9"/>
       <c r="H36" s="22"/>
@@ -12452,11 +12464,11 @@
         <v>4</v>
       </c>
       <c r="C37" s="32" t="str">
-        <f>C179</f>
+        <f>C188</f>
         <v>Unterlegscheiben M3 Dicke 0,5mm, Außendurchmesser 7mm</v>
       </c>
       <c r="D37" s="32" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H37" s="22"/>
       <c r="I37" s="22"/>
@@ -12466,10 +12478,10 @@
         <v>4</v>
       </c>
       <c r="C38" s="32" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D38" s="32" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="H38" s="22"/>
       <c r="I38" s="22"/>
@@ -12479,11 +12491,11 @@
         <v>4</v>
       </c>
       <c r="C39" s="32" t="str">
-        <f>C159</f>
+        <f>C168</f>
         <v>Zylinderkopfschraube Innensechskant M3 20mm</v>
       </c>
       <c r="D39" s="32" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="E39" s="9"/>
       <c r="H39" s="22"/>
@@ -12494,11 +12506,11 @@
         <v>4</v>
       </c>
       <c r="C40" s="32" t="str">
-        <f>C179</f>
+        <f>C188</f>
         <v>Unterlegscheiben M3 Dicke 0,5mm, Außendurchmesser 7mm</v>
       </c>
       <c r="D40" s="32" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="H40" s="22"/>
       <c r="I40" s="22"/>
@@ -12511,17 +12523,17 @@
     </row>
     <row r="42" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="B42">
         <v>2</v>
       </c>
       <c r="C42" s="32" t="str">
-        <f>C222</f>
+        <f>C233</f>
         <v>Rillenkugellager DIN 625 SKF - 61807 35x47x7mm</v>
       </c>
       <c r="D42" s="32" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E42" s="9"/>
       <c r="H42" s="22"/>
@@ -12532,11 +12544,11 @@
         <v>2</v>
       </c>
       <c r="C43" s="32" t="str">
-        <f>C223</f>
+        <f>C234</f>
         <v>RillenKugellager 6x19x6</v>
       </c>
       <c r="D43" s="32" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="H43" s="22"/>
       <c r="I43" s="22"/>
@@ -12546,11 +12558,11 @@
         <v>4</v>
       </c>
       <c r="C44" s="32" t="str">
-        <f>C220</f>
+        <f>C231</f>
         <v>Rillenkugellager 6x10x3</v>
       </c>
       <c r="D44" s="32" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="E44" s="9"/>
       <c r="H44" s="22"/>
@@ -12561,11 +12573,11 @@
         <v>4</v>
       </c>
       <c r="C45" s="32" t="str">
-        <f>C224</f>
+        <f>C235</f>
         <v>Rillenkugellager 3x10x4</v>
       </c>
       <c r="D45" s="32" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E45" s="9"/>
       <c r="H45" s="22"/>
@@ -12576,11 +12588,11 @@
         <v>2</v>
       </c>
       <c r="C46" s="32" t="str">
-        <f>C190</f>
+        <f>C199</f>
         <v>Distanzhülsen M6 10mm</v>
       </c>
       <c r="D46" s="32" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="H46" s="22"/>
       <c r="I46" s="22"/>
@@ -12590,11 +12602,11 @@
         <v>40</v>
       </c>
       <c r="C47" s="32" t="str">
-        <f>C183</f>
+        <f>C192</f>
         <v>Silberstahlwelle 6mm Durchmesser</v>
       </c>
       <c r="D47" s="32" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="H47" s="22"/>
       <c r="I47" s="22"/>
@@ -12605,11 +12617,11 @@
         <v>50</v>
       </c>
       <c r="C48" s="32" t="str">
-        <f>C183</f>
+        <f>C192</f>
         <v>Silberstahlwelle 6mm Durchmesser</v>
       </c>
       <c r="D48" s="32" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="H48" s="22"/>
       <c r="I48" s="22"/>
@@ -12619,11 +12631,11 @@
         <v>50</v>
       </c>
       <c r="C49" s="32" t="str">
-        <f>C184</f>
+        <f>C193</f>
         <v>Silberstahlwelle 3mm Durchmesser</v>
       </c>
       <c r="D49" s="32" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="E49" s="9"/>
       <c r="H49" s="22"/>
@@ -12634,7 +12646,7 @@
         <v>1</v>
       </c>
       <c r="C50" t="str">
-        <f>C233</f>
+        <f>C243</f>
         <v>Metallbohrer 6mm</v>
       </c>
       <c r="D50" t="s">
@@ -12649,7 +12661,7 @@
         <v>1</v>
       </c>
       <c r="C51" t="str">
-        <f>C231</f>
+        <f>C241</f>
         <v>Gewindeschneider M3</v>
       </c>
       <c r="D51" t="s">
@@ -12664,7 +12676,7 @@
         <v>1</v>
       </c>
       <c r="C52" t="str">
-        <f>C234</f>
+        <f>C244</f>
         <v>Metallbohrer 2.3mm (für M3 Gewinde)</v>
       </c>
       <c r="D52" t="s">
@@ -12679,11 +12691,11 @@
         <v>1</v>
       </c>
       <c r="C53" s="32" t="str">
-        <f>C203</f>
+        <f>C213</f>
         <v>Zahnriemen T2,5 200mm 6mm Breite</v>
       </c>
       <c r="D53" s="32" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="H53" s="22"/>
       <c r="I53" s="22"/>
@@ -12693,11 +12705,11 @@
         <v>1</v>
       </c>
       <c r="C54" s="32" t="str">
-        <f>C203</f>
+        <f>C213</f>
         <v>Zahnriemen T2,5 200mm 6mm Breite</v>
       </c>
       <c r="D54" s="32" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="H54" s="22"/>
       <c r="I54" s="22"/>
@@ -12707,11 +12719,11 @@
         <v>4</v>
       </c>
       <c r="C55" s="32" t="str">
-        <f>C161</f>
-        <v>Zylinderkopfschraube Innensechskant M3 22mm</v>
+        <f>C170</f>
+        <v>XXXXX Zylinderkopfschraube Innensechskant M3 22mm</v>
       </c>
       <c r="D55" s="32" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="H55" s="22"/>
       <c r="I55" s="22"/>
@@ -12721,11 +12733,11 @@
         <v>4</v>
       </c>
       <c r="C56" s="32" t="str">
-        <f>C173</f>
+        <f>C182</f>
         <v>Muttern M3, Schlüsselweite 5.5 mm</v>
       </c>
       <c r="D56" s="32" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="E56" s="9"/>
       <c r="H56" s="22"/>
@@ -12736,11 +12748,11 @@
         <v>2</v>
       </c>
       <c r="C57" s="32" t="str">
-        <f>C161</f>
-        <v>Zylinderkopfschraube Innensechskant M3 22mm</v>
+        <f>C170</f>
+        <v>XXXXX Zylinderkopfschraube Innensechskant M3 22mm</v>
       </c>
       <c r="D57" s="32" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="H57" s="22"/>
       <c r="I57" s="22"/>
@@ -12750,11 +12762,11 @@
         <v>2</v>
       </c>
       <c r="C58" s="32" t="str">
-        <f>C173</f>
+        <f>C182</f>
         <v>Muttern M3, Schlüsselweite 5.5 mm</v>
       </c>
       <c r="D58" s="32" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="E58" s="9"/>
       <c r="H58" s="22"/>
@@ -12765,11 +12777,11 @@
         <v>2</v>
       </c>
       <c r="C59" s="32" t="str">
-        <f>C164</f>
+        <f>C173</f>
         <v>XXXXX Zylinderkopfschraube Innensechskant M3 12mm</v>
       </c>
       <c r="D59" s="32" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="H59" s="22"/>
       <c r="I59" s="22"/>
@@ -12779,11 +12791,11 @@
         <v>2</v>
       </c>
       <c r="C60" s="32" t="str">
-        <f>C173</f>
+        <f>C182</f>
         <v>Muttern M3, Schlüsselweite 5.5 mm</v>
       </c>
       <c r="D60" s="32" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="E60" s="9"/>
       <c r="H60" s="22"/>
@@ -12794,11 +12806,11 @@
         <v>6</v>
       </c>
       <c r="C61" s="32" t="str">
-        <f>C160</f>
+        <f>C169</f>
         <v>Zylinderkopfschraube Innensechskant M3 25mm</v>
       </c>
       <c r="D61" s="32" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="E61" s="9"/>
       <c r="H61" s="22"/>
@@ -12809,11 +12821,11 @@
         <v>3</v>
       </c>
       <c r="C62" s="32" t="str">
-        <f>C187</f>
+        <f>C196</f>
         <v>XXXX Distanzbolzen M3 20mm, Schlüsselweite 5mm</v>
       </c>
       <c r="D62" s="32" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="E62" s="9"/>
       <c r="H62" s="22"/>
@@ -12824,11 +12836,11 @@
         <v>1</v>
       </c>
       <c r="C63" s="32" t="str">
-        <f>C211</f>
-        <v>NEMA 17 - 42x42x33</v>
+        <f>C221</f>
+        <v>NEMA 17 - 42x42x33 - 0,26Nm - 5mm Achse</v>
       </c>
       <c r="D63" s="32" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E63" s="9"/>
       <c r="H63" s="22"/>
@@ -12839,11 +12851,11 @@
         <v>1</v>
       </c>
       <c r="C64" s="32" t="str">
-        <f>C193</f>
+        <f>C202</f>
         <v>Zahnriemenscheibe T2,5, 16 Zähne</v>
       </c>
       <c r="D64" s="32" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="E64" s="9"/>
       <c r="H64" s="22"/>
@@ -12854,11 +12866,11 @@
         <v>1</v>
       </c>
       <c r="C65" s="32" t="str">
-        <f>C193</f>
+        <f>C202</f>
         <v>Zahnriemenscheibe T2,5, 16 Zähne</v>
       </c>
       <c r="D65" s="32" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="E65" s="9"/>
       <c r="H65" s="22"/>
@@ -12869,11 +12881,11 @@
         <v>1</v>
       </c>
       <c r="C66" s="32" t="str">
-        <f>C197</f>
+        <f>C207</f>
         <v>Zahnriemenscheibe T2,5, 60 Zähne</v>
       </c>
       <c r="D66" s="32" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="E66" s="9"/>
       <c r="H66" s="22"/>
@@ -12884,11 +12896,11 @@
         <v>1</v>
       </c>
       <c r="C67" s="32" t="str">
-        <f>C166</f>
+        <f>C175</f>
         <v>Zylinderkopfschraube Innensechskant M6 55mm</v>
       </c>
       <c r="D67" s="32" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="E67" s="9"/>
       <c r="H67" s="22"/>
@@ -12899,10 +12911,10 @@
         <v>1</v>
       </c>
       <c r="C68" s="32" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="D68" s="32" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="E68" s="9"/>
       <c r="H68" s="22"/>
@@ -12913,11 +12925,11 @@
         <v>1</v>
       </c>
       <c r="C69" s="32" t="str">
-        <f>C214</f>
+        <f>C225</f>
         <v>Rotary Sensor</v>
       </c>
       <c r="D69" s="32" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E69" s="9"/>
       <c r="H69" s="22"/>
@@ -12932,17 +12944,17 @@
     </row>
     <row r="71" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="B71">
         <v>4</v>
       </c>
       <c r="C71" s="32" t="str">
-        <f>C165</f>
+        <f>C174</f>
         <v>Zylinderkopfschraube Innensechskant M2 6mm</v>
       </c>
       <c r="D71" s="32" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E71" s="9"/>
       <c r="H71" s="22"/>
@@ -12953,11 +12965,11 @@
         <v>4</v>
       </c>
       <c r="C72" s="32" t="str">
-        <f>C174</f>
+        <f>C183</f>
         <v>Muttern M2</v>
       </c>
       <c r="D72" s="32" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E72" s="9"/>
       <c r="H72" s="22"/>
@@ -12968,11 +12980,11 @@
         <v>1</v>
       </c>
       <c r="C73" s="32" t="str">
-        <f>C214</f>
+        <f>C225</f>
         <v>Rotary Sensor</v>
       </c>
       <c r="D73" s="32" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E73" s="9"/>
       <c r="H73" s="22"/>
@@ -12983,11 +12995,11 @@
         <v>2</v>
       </c>
       <c r="C74" s="32" t="str">
-        <f>C180</f>
+        <f>C189</f>
         <v>Unterlegscheiben M2 Dicke 0,5mm</v>
       </c>
       <c r="D74" s="32" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E74" s="9"/>
       <c r="H74" s="22"/>
@@ -12998,11 +13010,11 @@
         <v>2</v>
       </c>
       <c r="C75" s="32" t="str">
-        <f>C222</f>
+        <f>C233</f>
         <v>Rillenkugellager DIN 625 SKF - 61807 35x47x7mm</v>
       </c>
       <c r="D75" s="32" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="E75" s="9"/>
       <c r="H75" s="22"/>
@@ -13013,11 +13025,11 @@
         <v>4</v>
       </c>
       <c r="C76" t="str">
-        <f>C169</f>
+        <f>C178</f>
         <v>Senkkopfschraube Innensechskant M3 10mm</v>
       </c>
       <c r="D76" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="E76" s="9"/>
       <c r="H76" s="22"/>
@@ -13028,11 +13040,11 @@
         <v>4</v>
       </c>
       <c r="C77" t="str">
-        <f>C169</f>
+        <f>C178</f>
         <v>Senkkopfschraube Innensechskant M3 10mm</v>
       </c>
       <c r="D77" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="E77" s="9"/>
       <c r="H77" s="22"/>
@@ -13043,11 +13055,11 @@
         <v>4</v>
       </c>
       <c r="C78" s="32" t="str">
-        <f>C157</f>
+        <f>C166</f>
         <v>Zylinderkopfschraube Innensechskant M3 40mm</v>
       </c>
       <c r="D78" s="32" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="E78" s="9"/>
       <c r="H78" s="22"/>
@@ -13058,11 +13070,11 @@
         <v>4</v>
       </c>
       <c r="C79" s="32" t="str">
-        <f>C158</f>
+        <f>C167</f>
         <v>Zylinderkopfschraube Innensechskant M3 30mm</v>
       </c>
       <c r="D79" s="32" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="E79" s="9"/>
       <c r="H79" s="22"/>
@@ -13073,11 +13085,11 @@
         <v>8</v>
       </c>
       <c r="C80" s="32" t="str">
-        <f>C173</f>
+        <f>C182</f>
         <v>Muttern M3, Schlüsselweite 5.5 mm</v>
       </c>
       <c r="D80" s="32" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="E80" s="9"/>
       <c r="H80" s="22"/>
@@ -13088,11 +13100,11 @@
         <v>12</v>
       </c>
       <c r="C81" s="32" t="str">
-        <f>C179</f>
+        <f>C188</f>
         <v>Unterlegscheiben M3 Dicke 0,5mm, Außendurchmesser 7mm</v>
       </c>
       <c r="D81" s="32" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="E81" s="9"/>
       <c r="H81" s="22"/>
@@ -13103,11 +13115,11 @@
         <v>4</v>
       </c>
       <c r="C82" s="32" t="str">
-        <f>C156</f>
+        <f>C165</f>
         <v>Zylinderkopfschraube Innensechskant M3 45mm</v>
       </c>
       <c r="D82" s="32" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="E82" s="9"/>
       <c r="H82" s="22"/>
@@ -13118,11 +13130,11 @@
         <v>8</v>
       </c>
       <c r="C83" s="32" t="str">
-        <f>C218</f>
+        <f>C229</f>
         <v>Rillenkugellager  4 x13 x 5 mm mit Flansch</v>
       </c>
       <c r="D83" s="32" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="E83" s="9"/>
       <c r="H83" s="22"/>
@@ -13133,11 +13145,11 @@
         <v>12</v>
       </c>
       <c r="C84" s="32" t="str">
-        <f>C179</f>
+        <f>C188</f>
         <v>Unterlegscheiben M3 Dicke 0,5mm, Außendurchmesser 7mm</v>
       </c>
       <c r="D84" s="32" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="E84" s="9"/>
       <c r="H84" s="22"/>
@@ -13148,11 +13160,11 @@
         <v>1</v>
       </c>
       <c r="C85" s="32" t="str">
-        <f>C177</f>
+        <f>C186</f>
         <v>Madenschraube M3 16mm</v>
       </c>
       <c r="D85" s="32" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="E85" s="9"/>
       <c r="H85" s="22"/>
@@ -13163,11 +13175,11 @@
         <v>72</v>
       </c>
       <c r="C86" s="32" t="str">
-        <f>C185</f>
+        <f>C194</f>
         <v>Silberstahlwelle 8mm Durchmesser</v>
       </c>
       <c r="D86" s="32" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="E86" s="9"/>
       <c r="H86" s="22"/>
@@ -13178,11 +13190,11 @@
         <v>1</v>
       </c>
       <c r="C87" s="32" t="str">
-        <f>C198</f>
+        <f>C208</f>
         <v>Zahnriemenscheibe T5, 48 Zähne</v>
       </c>
       <c r="D87" s="32" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="E87" s="9"/>
       <c r="H87" s="22"/>
@@ -13193,11 +13205,11 @@
         <v>1</v>
       </c>
       <c r="C88" s="32" t="str">
-        <f>C199</f>
+        <f>C209</f>
         <v>Zahnriemenscheibe T5, 16 Zähne</v>
       </c>
       <c r="D88" s="32" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="E88" s="9"/>
       <c r="H88" s="22"/>
@@ -13208,11 +13220,11 @@
         <v>1</v>
       </c>
       <c r="C89" t="str">
-        <f>C232</f>
+        <f>C242</f>
         <v>Metallbohrer 8mm</v>
       </c>
       <c r="D89" s="32" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="E89" s="9"/>
       <c r="H89" s="22"/>
@@ -13223,11 +13235,11 @@
         <v>1</v>
       </c>
       <c r="C90" t="str">
-        <f>C231</f>
+        <f>C241</f>
         <v>Gewindeschneider M3</v>
       </c>
       <c r="D90" s="32" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="E90" s="9"/>
       <c r="H90" s="22"/>
@@ -13238,11 +13250,11 @@
         <v>1</v>
       </c>
       <c r="C91" t="str">
-        <f>C234</f>
+        <f>C244</f>
         <v>Metallbohrer 2.3mm (für M3 Gewinde)</v>
       </c>
       <c r="D91" s="32" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="E91" s="9"/>
       <c r="H91" s="22"/>
@@ -13253,11 +13265,11 @@
         <v>2</v>
       </c>
       <c r="C92" t="str">
-        <f>C178</f>
+        <f>C187</f>
         <v>Madenschraube M3 5mm</v>
       </c>
       <c r="D92" s="32" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="E92" s="9"/>
       <c r="H92" s="22"/>
@@ -13268,11 +13280,11 @@
         <v>2</v>
       </c>
       <c r="C93" t="str">
-        <f>C225</f>
+        <f>C236</f>
         <v>Rillenkugellager 8x22x7</v>
       </c>
       <c r="D93" s="32" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="E93" s="9"/>
       <c r="H93" s="22"/>
@@ -13283,11 +13295,11 @@
         <v>4</v>
       </c>
       <c r="C94" t="str">
-        <f>C181</f>
+        <f>C190</f>
         <v>Unterlegscheiben 8mm Innendurchmesser</v>
       </c>
       <c r="D94" s="32" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="E94" s="9"/>
       <c r="H94" s="22"/>
@@ -13298,11 +13310,11 @@
         <v>4</v>
       </c>
       <c r="C95" t="str">
-        <f>C156</f>
+        <f>C165</f>
         <v>Zylinderkopfschraube Innensechskant M3 45mm</v>
       </c>
       <c r="D95" s="32" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="E95" s="9"/>
       <c r="H95" s="22"/>
@@ -13313,11 +13325,11 @@
         <v>4</v>
       </c>
       <c r="C96" t="str">
-        <f>C179</f>
+        <f>C188</f>
         <v>Unterlegscheiben M3 Dicke 0,5mm, Außendurchmesser 7mm</v>
       </c>
       <c r="D96" s="32" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="E96" s="9"/>
       <c r="H96" s="22"/>
@@ -13328,11 +13340,11 @@
         <v>4</v>
       </c>
       <c r="C97" t="str">
-        <f>C172</f>
+        <f>C181</f>
         <v>Vierkant Mutter M3 Breite 5.5mm</v>
       </c>
       <c r="D97" s="32" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="E97" s="9"/>
       <c r="H97" s="22"/>
@@ -13343,11 +13355,11 @@
         <v>1</v>
       </c>
       <c r="C98" t="str">
-        <f>C156</f>
+        <f>C165</f>
         <v>Zylinderkopfschraube Innensechskant M3 45mm</v>
       </c>
       <c r="D98" s="32" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="E98" s="9"/>
       <c r="H98" s="22"/>
@@ -13358,11 +13370,11 @@
         <v>4</v>
       </c>
       <c r="C99" t="str">
-        <f>C179</f>
+        <f>C188</f>
         <v>Unterlegscheiben M3 Dicke 0,5mm, Außendurchmesser 7mm</v>
       </c>
       <c r="D99" s="32" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="E99" s="9"/>
       <c r="H99" s="22"/>
@@ -13373,11 +13385,11 @@
         <v>1</v>
       </c>
       <c r="C100" t="str">
-        <f>C172</f>
+        <f>C181</f>
         <v>Vierkant Mutter M3 Breite 5.5mm</v>
       </c>
       <c r="D100" s="32" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="E100" s="9"/>
       <c r="H100" s="22"/>
@@ -13388,11 +13400,11 @@
         <v>2</v>
       </c>
       <c r="C101" t="str">
-        <f>C219</f>
+        <f>C230</f>
         <v xml:space="preserve">Rillenkugellager  4 x13 x 5 mm </v>
       </c>
       <c r="D101" s="32" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="E101" s="9"/>
       <c r="H101" s="22"/>
@@ -13403,11 +13415,11 @@
         <v>4</v>
       </c>
       <c r="C102" t="str">
-        <f>C182</f>
+        <f>C191</f>
         <v>Unterlegscheiben M3 Kunststoff 0,8mm, Außendurchmesser 7mm</v>
       </c>
       <c r="D102" s="32" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="E102" s="9"/>
       <c r="H102" s="22"/>
@@ -13418,7 +13430,7 @@
         <v>4</v>
       </c>
       <c r="C103" t="str">
-        <f>C170</f>
+        <f>C179</f>
         <v>Senkkopfschraube Innensechskant M3 25mm</v>
       </c>
       <c r="D103" s="32" t="s">
@@ -13433,11 +13445,11 @@
         <v>8</v>
       </c>
       <c r="C104" t="str">
-        <f>C160</f>
+        <f>C169</f>
         <v>Zylinderkopfschraube Innensechskant M3 25mm</v>
       </c>
       <c r="D104" s="32" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="E104" s="9"/>
       <c r="H104" s="22"/>
@@ -13448,11 +13460,11 @@
         <v>4</v>
       </c>
       <c r="C105" t="str">
-        <f>C188</f>
+        <f>C197</f>
         <v>Distanzbolzen 2x Innen M3 20mm, Schlüsselweite 5,5mm</v>
       </c>
       <c r="D105" s="32" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="E105" s="9"/>
       <c r="H105" s="22"/>
@@ -13463,11 +13475,11 @@
         <v>8</v>
       </c>
       <c r="C106" t="str">
-        <f>C179</f>
+        <f>C188</f>
         <v>Unterlegscheiben M3 Dicke 0,5mm, Außendurchmesser 7mm</v>
       </c>
       <c r="D106" s="32" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="E106" s="9"/>
       <c r="H106" s="22"/>
@@ -13478,11 +13490,11 @@
         <v>4</v>
       </c>
       <c r="C107" t="str">
-        <f>C158</f>
+        <f>C167</f>
         <v>Zylinderkopfschraube Innensechskant M3 30mm</v>
       </c>
       <c r="D107" s="32" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="E107" s="9"/>
       <c r="H107" s="22"/>
@@ -13493,11 +13505,11 @@
         <v>4</v>
       </c>
       <c r="C108" t="str">
-        <f>C179</f>
+        <f>C188</f>
         <v>Unterlegscheiben M3 Dicke 0,5mm, Außendurchmesser 7mm</v>
       </c>
       <c r="D108" s="32" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="E108" s="9"/>
       <c r="H108" s="22"/>
@@ -13508,11 +13520,11 @@
         <v>1</v>
       </c>
       <c r="C109" t="str">
-        <f>C204</f>
+        <f>C214</f>
         <v>Zahnriemen T5 340mm 10mm Breite</v>
       </c>
       <c r="D109" s="32" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="E109" s="9"/>
       <c r="H109" s="22"/>
@@ -13523,11 +13535,11 @@
         <v>1</v>
       </c>
       <c r="C110" t="str">
-        <f>C199</f>
+        <f>C209</f>
         <v>Zahnriemenscheibe T5, 16 Zähne</v>
       </c>
       <c r="D110" s="32" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="E110" s="9"/>
       <c r="H110" s="22"/>
@@ -13538,11 +13550,11 @@
         <v>1</v>
       </c>
       <c r="C111" t="str">
-        <f>C205</f>
+        <f>C215</f>
         <v>Zahnriemen T5 510mm 10mm Breite</v>
       </c>
       <c r="D111" s="32" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="E111" s="9"/>
       <c r="H111" s="22"/>
@@ -13553,11 +13565,11 @@
         <v>1</v>
       </c>
       <c r="C112" t="str">
-        <f>C212</f>
-        <v xml:space="preserve">NEMA 24 - 60x60x57 1.9Nm ST6018M2008 </v>
+        <f>C222</f>
+        <v xml:space="preserve">NEMA 24 - 60x60x57 - 1.9Nm ST6018M2008 </v>
       </c>
       <c r="D112" s="32" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E112" s="9"/>
       <c r="H112" s="22"/>
@@ -13571,17 +13583,17 @@
     </row>
     <row r="114" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="6" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="B114">
         <v>4</v>
       </c>
       <c r="C114" t="str">
-        <f>C165</f>
+        <f>C174</f>
         <v>Zylinderkopfschraube Innensechskant M2 6mm</v>
       </c>
       <c r="D114" s="32" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E114" s="9"/>
       <c r="H114" s="22"/>
@@ -13592,11 +13604,11 @@
         <v>4</v>
       </c>
       <c r="C115" t="str">
-        <f>C174</f>
+        <f>C183</f>
         <v>Muttern M2</v>
       </c>
       <c r="D115" s="32" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E115" s="9"/>
       <c r="H115" s="22"/>
@@ -13607,11 +13619,11 @@
         <v>1</v>
       </c>
       <c r="C116" t="str">
-        <f>C214</f>
+        <f>C225</f>
         <v>Rotary Sensor</v>
       </c>
       <c r="D116" s="32" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E116" s="9"/>
       <c r="H116" s="22"/>
@@ -13622,11 +13634,11 @@
         <v>2</v>
       </c>
       <c r="C117" t="str">
-        <f>C180</f>
+        <f>C189</f>
         <v>Unterlegscheiben M2 Dicke 0,5mm</v>
       </c>
       <c r="D117" s="32" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E117" s="9"/>
       <c r="H117" s="22"/>
@@ -13637,11 +13649,11 @@
         <v>6</v>
       </c>
       <c r="C118" t="str">
-        <f>C219</f>
+        <f>C230</f>
         <v xml:space="preserve">Rillenkugellager  4 x13 x 5 mm </v>
       </c>
       <c r="D118" s="32" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="E118" s="9"/>
       <c r="H118" s="22"/>
@@ -13652,11 +13664,11 @@
         <v>4</v>
       </c>
       <c r="C119" t="str">
-        <f>C182</f>
+        <f>C191</f>
         <v>Unterlegscheiben M3 Kunststoff 0,8mm, Außendurchmesser 7mm</v>
       </c>
       <c r="D119" s="32" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="E119" s="9"/>
       <c r="H119" s="22"/>
@@ -13667,11 +13679,11 @@
         <v>4</v>
       </c>
       <c r="C120" t="str">
-        <f>C172</f>
+        <f>C181</f>
         <v>Vierkant Mutter M3 Breite 5.5mm</v>
       </c>
       <c r="D120" s="32" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="E120" s="9"/>
       <c r="H120" s="22"/>
@@ -13682,11 +13694,11 @@
         <v>2</v>
       </c>
       <c r="C121" t="str">
-        <f>C161</f>
-        <v>Zylinderkopfschraube Innensechskant M3 22mm</v>
+        <f>C170</f>
+        <v>XXXXX Zylinderkopfschraube Innensechskant M3 22mm</v>
       </c>
       <c r="D121" s="32" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="E121" s="9"/>
       <c r="H121" s="22"/>
@@ -13697,11 +13709,11 @@
         <v>3</v>
       </c>
       <c r="C122" t="str">
-        <f>C179</f>
+        <f>C188</f>
         <v>Unterlegscheiben M3 Dicke 0,5mm, Außendurchmesser 7mm</v>
       </c>
       <c r="D122" s="32" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="E122" s="9"/>
       <c r="H122" s="22"/>
@@ -13712,11 +13724,11 @@
         <v>1</v>
       </c>
       <c r="C123" t="str">
-        <f>C157</f>
+        <f>C166</f>
         <v>Zylinderkopfschraube Innensechskant M3 40mm</v>
       </c>
       <c r="D123" s="32" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="E123" s="9"/>
       <c r="H123" s="22"/>
@@ -13727,11 +13739,11 @@
         <v>1</v>
       </c>
       <c r="C124" t="str">
-        <f>C156</f>
+        <f>C165</f>
         <v>Zylinderkopfschraube Innensechskant M3 45mm</v>
       </c>
       <c r="D124" s="32" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="E124" s="9"/>
       <c r="H124" s="22"/>
@@ -13742,11 +13754,11 @@
         <v>1</v>
       </c>
       <c r="C125" t="str">
-        <f>C160</f>
+        <f>C169</f>
         <v>Zylinderkopfschraube Innensechskant M3 25mm</v>
       </c>
       <c r="D125" s="32" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="E125" s="9"/>
       <c r="H125" s="22"/>
@@ -13757,11 +13769,11 @@
         <v>2</v>
       </c>
       <c r="C126" t="str">
-        <f>C225</f>
+        <f>C236</f>
         <v>Rillenkugellager 8x22x7</v>
       </c>
       <c r="D126" s="32" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="E126" s="9"/>
       <c r="H126" s="22"/>
@@ -13772,11 +13784,11 @@
         <v>110</v>
       </c>
       <c r="C127" t="str">
-        <f>C185</f>
+        <f>C194</f>
         <v>Silberstahlwelle 8mm Durchmesser</v>
       </c>
       <c r="D127" s="32" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="E127" s="9"/>
       <c r="H127" s="22"/>
@@ -13787,11 +13799,11 @@
         <v>1</v>
       </c>
       <c r="C128" t="str">
-        <f>C198</f>
+        <f>C208</f>
         <v>Zahnriemenscheibe T5, 48 Zähne</v>
       </c>
       <c r="D128" s="32" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="E128" s="9"/>
       <c r="H128" s="22"/>
@@ -13802,11 +13814,11 @@
         <v>1</v>
       </c>
       <c r="C129" t="str">
-        <f>C199</f>
+        <f>C209</f>
         <v>Zahnriemenscheibe T5, 16 Zähne</v>
       </c>
       <c r="D129" s="32" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="E129" s="9"/>
       <c r="H129" s="22"/>
@@ -13817,11 +13829,11 @@
         <v>1</v>
       </c>
       <c r="C130" t="str">
-        <f>C206</f>
+        <f>C216</f>
         <v>Zahnriemen T5 500mm 10mm Breite</v>
       </c>
       <c r="D130" s="32" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="E130" s="9"/>
       <c r="H130" s="22"/>
@@ -13832,11 +13844,11 @@
         <v>1</v>
       </c>
       <c r="C131" t="str">
-        <f>C207</f>
+        <f>C217</f>
         <v>Zahnriemen T5 480mm 10mm Breite</v>
       </c>
       <c r="D131" s="32" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="E131" s="9"/>
       <c r="H131" s="22"/>
@@ -13847,11 +13859,11 @@
         <v>1</v>
       </c>
       <c r="C132" t="str">
-        <f>C199</f>
+        <f>C209</f>
         <v>Zahnriemenscheibe T5, 16 Zähne</v>
       </c>
       <c r="D132" s="32" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="E132" s="9"/>
       <c r="H132" s="22"/>
@@ -13862,11 +13874,11 @@
         <v>1</v>
       </c>
       <c r="C133" t="str">
-        <f>C208</f>
+        <f>C218</f>
         <v>Zahnriemen T5 340mm 10mm Breite</v>
       </c>
       <c r="D133" s="32" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="E133" s="9"/>
       <c r="H133" s="22"/>
@@ -13877,11 +13889,11 @@
         <v>4</v>
       </c>
       <c r="C134" t="str">
-        <f>C159</f>
+        <f>C168</f>
         <v>Zylinderkopfschraube Innensechskant M3 20mm</v>
       </c>
       <c r="D134" s="32" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="E134" s="9"/>
       <c r="H134" s="22"/>
@@ -13892,11 +13904,11 @@
         <v>4</v>
       </c>
       <c r="C135" t="str">
-        <f>C173</f>
+        <f>C182</f>
         <v>Muttern M3, Schlüsselweite 5.5 mm</v>
       </c>
       <c r="D135" s="32" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="E135" s="9"/>
       <c r="H135" s="22"/>
@@ -13907,11 +13919,11 @@
         <v>4</v>
       </c>
       <c r="C136" t="str">
-        <f>C179</f>
+        <f>C188</f>
         <v>Unterlegscheiben M3 Dicke 0,5mm, Außendurchmesser 7mm</v>
       </c>
       <c r="D136" s="32" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="E136" s="9"/>
       <c r="H136" s="22"/>
@@ -13922,11 +13934,11 @@
         <v>4</v>
       </c>
       <c r="C137" t="str">
-        <f>C156</f>
+        <f>C165</f>
         <v>Zylinderkopfschraube Innensechskant M3 45mm</v>
       </c>
       <c r="D137" s="32" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="E137" s="9"/>
       <c r="H137" s="22"/>
@@ -13937,11 +13949,11 @@
         <v>4</v>
       </c>
       <c r="C138" t="str">
-        <f>C179</f>
+        <f>C188</f>
         <v>Unterlegscheiben M3 Dicke 0,5mm, Außendurchmesser 7mm</v>
       </c>
       <c r="D138" s="32" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="E138" s="9"/>
       <c r="H138" s="22"/>
@@ -13952,11 +13964,11 @@
         <v>4</v>
       </c>
       <c r="C139" t="str">
-        <f>C188</f>
+        <f>C197</f>
         <v>Distanzbolzen 2x Innen M3 20mm, Schlüsselweite 5,5mm</v>
       </c>
       <c r="D139" s="32" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="E139" s="9"/>
       <c r="H139" s="22"/>
@@ -13968,11 +13980,11 @@
         <v>300</v>
       </c>
       <c r="C140" t="str">
-        <f>C191</f>
+        <f>C200</f>
         <v>Gewindestange M3</v>
       </c>
       <c r="D140" s="32" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="E140" s="9"/>
       <c r="H140" s="22"/>
@@ -13983,11 +13995,11 @@
         <v>6</v>
       </c>
       <c r="C141" t="str">
-        <f>C186</f>
+        <f>C195</f>
         <v>Unterlegscheiben M3 Stahl  0,8mm, Außendurchmesser 9mm</v>
       </c>
       <c r="D141" s="32" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="E141" s="9"/>
       <c r="H141" s="22"/>
@@ -13998,11 +14010,11 @@
         <v>6</v>
       </c>
       <c r="C142" t="str">
-        <f>C188</f>
+        <f>C197</f>
         <v>Distanzbolzen 2x Innen M3 20mm, Schlüsselweite 5,5mm</v>
       </c>
       <c r="D142" s="32" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="E142" s="9"/>
       <c r="H142" s="22"/>
@@ -14013,11 +14025,11 @@
         <v>1</v>
       </c>
       <c r="C143" t="str">
-        <f>C213</f>
-        <v xml:space="preserve">NEMA 24 - 60x60x87 3.1Nm </v>
+        <f>C223</f>
+        <v>NEMA 24 - 60x60x87 - 3.1Nm - 8mm Achse</v>
       </c>
       <c r="D143" s="32" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E143" s="9"/>
       <c r="H143" s="22"/>
@@ -14028,720 +14040,615 @@
         <v>2</v>
       </c>
       <c r="C144" t="str">
-        <f>C226</f>
+        <f>C237</f>
         <v>Rillenkugellager DIN 625 SKF - SKF 61818 - 90x115x13</v>
       </c>
       <c r="D144" s="32" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="E144" s="9"/>
       <c r="H144" s="22"/>
       <c r="I144" s="22"/>
     </row>
-    <row r="145" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D145" s="32"/>
       <c r="E145" s="9"/>
       <c r="H145" s="22"/>
       <c r="I145" s="22"/>
     </row>
-    <row r="146" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="6" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
       <c r="B146">
         <v>1</v>
       </c>
       <c r="C146" t="str">
-        <f>C227</f>
+        <f>C238</f>
         <v>Rillenkugellager DIN 625 SKF - SKF 61818 - 85x110x13</v>
       </c>
       <c r="D146" s="32" t="s">
-        <v>819</v>
+        <v>812</v>
       </c>
       <c r="E146" s="9"/>
       <c r="H146" s="22"/>
       <c r="I146" s="22"/>
     </row>
-    <row r="147" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B147">
         <v>6</v>
       </c>
       <c r="C147" t="str">
-        <f>C157</f>
+        <f>C166</f>
         <v>Zylinderkopfschraube Innensechskant M3 40mm</v>
       </c>
       <c r="D147" s="32" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="E147" s="9"/>
       <c r="H147" s="22"/>
       <c r="I147" s="22"/>
     </row>
-    <row r="148" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B148">
         <v>6</v>
       </c>
       <c r="C148" t="str">
-        <f>C186</f>
+        <f>C195</f>
         <v>Unterlegscheiben M3 Stahl  0,8mm, Außendurchmesser 9mm</v>
       </c>
       <c r="D148" s="32" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="E148" s="9"/>
       <c r="H148" s="22"/>
       <c r="I148" s="22"/>
     </row>
-    <row r="149" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B149">
         <v>8</v>
       </c>
       <c r="C149" t="str">
-        <f>C169</f>
+        <f>C178</f>
         <v>Senkkopfschraube Innensechskant M3 10mm</v>
       </c>
       <c r="D149" s="32" t="s">
-        <v>837</v>
+        <v>828</v>
       </c>
       <c r="E149" s="9"/>
       <c r="H149" s="22"/>
       <c r="I149" s="22"/>
     </row>
-    <row r="150" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B150">
         <v>8</v>
       </c>
       <c r="C150" t="str">
-        <f>C188</f>
+        <f>C197</f>
         <v>Distanzbolzen 2x Innen M3 20mm, Schlüsselweite 5,5mm</v>
       </c>
       <c r="D150" s="32" t="s">
-        <v>837</v>
+        <v>828</v>
       </c>
       <c r="E150" s="9"/>
       <c r="H150" s="22"/>
       <c r="I150" s="22"/>
     </row>
-    <row r="151" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B151">
         <v>8</v>
       </c>
       <c r="C151" t="str">
-        <f>C163</f>
-        <v>Zylinderkopfschraube Innensechskant M3 14mm</v>
+        <f>C167</f>
+        <v>Zylinderkopfschraube Innensechskant M3 30mm</v>
       </c>
       <c r="D151" s="32" t="s">
-        <v>837</v>
+        <v>828</v>
       </c>
       <c r="E151" s="9"/>
       <c r="H151" s="22"/>
       <c r="I151" s="22"/>
     </row>
-    <row r="152" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D152" s="32"/>
+    <row r="152" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B152">
+        <v>1</v>
+      </c>
+      <c r="C152" t="str">
+        <f>C225</f>
+        <v>Rotary Sensor</v>
+      </c>
+      <c r="D152" s="32" t="s">
+        <v>662</v>
+      </c>
       <c r="E152" s="9"/>
       <c r="H152" s="22"/>
       <c r="I152" s="22"/>
     </row>
-    <row r="153" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D153" s="32"/>
+    <row r="153" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B153">
+        <v>4</v>
+      </c>
+      <c r="C153" t="str">
+        <f>C174</f>
+        <v>Zylinderkopfschraube Innensechskant M2 6mm</v>
+      </c>
+      <c r="D153" s="32" t="s">
+        <v>662</v>
+      </c>
       <c r="E153" s="9"/>
       <c r="H153" s="22"/>
       <c r="I153" s="22"/>
     </row>
-    <row r="154" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C154" s="32"/>
+    <row r="154" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B154">
+        <v>4</v>
+      </c>
+      <c r="C154" t="str">
+        <f>C183</f>
+        <v>Muttern M2</v>
+      </c>
+      <c r="D154" s="32" t="s">
+        <v>662</v>
+      </c>
       <c r="E154" s="9"/>
       <c r="H154" s="22"/>
       <c r="I154" s="22"/>
     </row>
-    <row r="155" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B155" t="s">
-        <v>829</v>
-      </c>
-      <c r="C155" s="32"/>
+    <row r="155" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B155">
+        <v>4</v>
+      </c>
+      <c r="C155" t="str">
+        <f>C182</f>
+        <v>Muttern M3, Schlüsselweite 5.5 mm</v>
+      </c>
+      <c r="D155" s="32" t="s">
+        <v>830</v>
+      </c>
       <c r="E155" s="9"/>
-      <c r="G155" t="s">
-        <v>662</v>
-      </c>
-      <c r="H155" s="22" t="s">
+      <c r="H155" s="22"/>
+      <c r="I155" s="22"/>
+    </row>
+    <row r="156" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B156">
+        <v>4</v>
+      </c>
+      <c r="C156" t="str">
+        <f>C168</f>
+        <v>Zylinderkopfschraube Innensechskant M3 20mm</v>
+      </c>
+      <c r="D156" s="32" t="s">
+        <v>830</v>
+      </c>
+      <c r="E156" s="9"/>
+      <c r="H156" s="22"/>
+      <c r="I156" s="22"/>
+    </row>
+    <row r="157" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B157">
+        <v>4</v>
+      </c>
+      <c r="C157" t="str">
+        <f>C188</f>
+        <v>Unterlegscheiben M3 Dicke 0,5mm, Außendurchmesser 7mm</v>
+      </c>
+      <c r="D157" s="32" t="s">
+        <v>830</v>
+      </c>
+      <c r="E157" s="9"/>
+      <c r="H157" s="22"/>
+      <c r="I157" s="22"/>
+    </row>
+    <row r="158" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B158">
+        <v>6</v>
+      </c>
+      <c r="C158" t="str">
+        <f>C230</f>
+        <v xml:space="preserve">Rillenkugellager  4 x13 x 5 mm </v>
+      </c>
+      <c r="D158" s="32" t="s">
+        <v>831</v>
+      </c>
+      <c r="E158" s="9"/>
+      <c r="H158" s="22"/>
+      <c r="I158" s="22"/>
+    </row>
+    <row r="159" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B159">
+        <v>8</v>
+      </c>
+      <c r="C159" t="str">
+        <f>C191</f>
+        <v>Unterlegscheiben M3 Kunststoff 0,8mm, Außendurchmesser 7mm</v>
+      </c>
+      <c r="D159" s="32" t="s">
+        <v>831</v>
+      </c>
+      <c r="E159" s="9"/>
+      <c r="H159" s="22"/>
+      <c r="I159" s="22"/>
+    </row>
+    <row r="160" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B160">
+        <v>1</v>
+      </c>
+      <c r="C160" t="str">
+        <f>C203</f>
+        <v>Zahnriemenscheibe T2,5, 12 Zähne</v>
+      </c>
+      <c r="D160" s="32" t="s">
+        <v>834</v>
+      </c>
+      <c r="E160" s="9"/>
+      <c r="H160" s="22"/>
+      <c r="I160" s="22"/>
+    </row>
+    <row r="161" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B161">
+        <v>1</v>
+      </c>
+      <c r="C161" t="str">
+        <f>C224</f>
+        <v>NEMA 24 - 57x57x56 - 1,26Nm - 6,35mm Achse</v>
+      </c>
+      <c r="D161" s="32" t="s">
+        <v>834</v>
+      </c>
+      <c r="E161" s="9"/>
+      <c r="H161" s="22"/>
+      <c r="I161" s="22"/>
+    </row>
+    <row r="162" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D162" s="32"/>
+      <c r="E162" s="9"/>
+      <c r="H162" s="22"/>
+      <c r="I162" s="22"/>
+    </row>
+    <row r="163" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A163" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C163" s="32"/>
+      <c r="E163" s="9"/>
+      <c r="H163" s="22"/>
+      <c r="I163" s="22"/>
+    </row>
+    <row r="164" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B164" t="s">
+        <v>820</v>
+      </c>
+      <c r="C164" s="32" t="s">
+        <v>664</v>
+      </c>
+      <c r="E164" s="9"/>
+      <c r="G164" t="s">
+        <v>661</v>
+      </c>
+      <c r="H164" s="22" t="s">
+        <v>674</v>
+      </c>
+      <c r="I164" s="22" t="s">
         <v>675</v>
       </c>
-      <c r="I155" s="22" t="s">
+      <c r="J164" t="s">
         <v>676</v>
       </c>
-      <c r="J155" t="s">
-        <v>677</v>
-      </c>
-      <c r="K155" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="156" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B156" s="33">
-        <f t="shared" ref="B156:B188" si="0">ROUNDUP(I156/G156,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C156" s="32" t="s">
-        <v>744</v>
-      </c>
-      <c r="E156" t="s">
-        <v>798</v>
-      </c>
-      <c r="G156">
+      <c r="K164" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B165" s="33">
+        <f t="shared" ref="B165:B197" si="0">ROUNDUP(I165/G165,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C165" s="32" t="s">
+        <v>741</v>
+      </c>
+      <c r="E165" t="s">
+        <v>794</v>
+      </c>
+      <c r="G165">
         <v>25</v>
       </c>
-      <c r="H156" s="22">
+      <c r="H165" s="22">
         <v>7.45</v>
       </c>
-      <c r="I156" s="18">
-        <f>SUMIF(C$1:C$154,"="&amp;C156,B$1:B$154)</f>
+      <c r="I165" s="18">
+        <f>SUMIF(C$1:C$163,"="&amp;C165,B$1:B$163)</f>
         <v>14</v>
       </c>
-      <c r="J156" s="33">
-        <f t="shared" ref="J156:J161" si="1">G156*B156-I156</f>
+      <c r="J165" s="33">
+        <f t="shared" ref="J165:J170" si="1">G165*B165-I165</f>
         <v>11</v>
       </c>
-      <c r="K156" s="34">
-        <f>B156*H156</f>
+      <c r="K165" s="34">
+        <f>B165*H165</f>
         <v>7.45</v>
       </c>
     </row>
-    <row r="157" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B157" s="33">
+    <row r="166" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B166" s="33">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C157" s="32" t="s">
-        <v>738</v>
-      </c>
-      <c r="E157" s="9" t="s">
-        <v>674</v>
-      </c>
-      <c r="G157">
+      <c r="C166" s="32" t="s">
+        <v>735</v>
+      </c>
+      <c r="E166" s="9" t="s">
+        <v>673</v>
+      </c>
+      <c r="G166">
         <v>100</v>
       </c>
-      <c r="H157" s="22">
+      <c r="H166" s="22">
         <v>2.63</v>
       </c>
-      <c r="I157" s="18">
-        <f>SUMIF(C$1:C$154,"="&amp;C157,B$1:B$154)</f>
+      <c r="I166" s="18">
+        <f>SUMIF(C$1:C$163,"="&amp;C166,B$1:B$163)</f>
         <v>11</v>
       </c>
-      <c r="J157" s="33">
+      <c r="J166" s="33">
         <f t="shared" si="1"/>
         <v>89</v>
       </c>
-      <c r="K157" s="34">
-        <f>B157*H157</f>
+      <c r="K166" s="34">
+        <f>B166*H166</f>
         <v>2.63</v>
       </c>
     </row>
-    <row r="158" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B158" s="33">
-        <f t="shared" ref="B158" si="2">ROUNDUP(I158/G158,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C158" s="32" t="s">
-        <v>739</v>
-      </c>
-      <c r="E158" s="9" t="s">
-        <v>674</v>
-      </c>
-      <c r="G158">
+    <row r="167" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B167" s="33">
+        <f t="shared" ref="B167" si="2">ROUNDUP(I167/G167,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C167" s="32" t="s">
+        <v>736</v>
+      </c>
+      <c r="E167" s="9" t="s">
+        <v>673</v>
+      </c>
+      <c r="G167">
         <v>100</v>
       </c>
-      <c r="H158" s="22">
+      <c r="H167" s="22">
         <v>2.63</v>
       </c>
-      <c r="I158" s="18">
-        <f>SUMIF(C$1:C$154,"="&amp;C158,B$1:B$154)</f>
-        <v>8</v>
-      </c>
-      <c r="J158" s="33">
+      <c r="I167" s="18">
+        <f>SUMIF(C$1:C$163,"="&amp;C167,B$1:B$163)</f>
+        <v>16</v>
+      </c>
+      <c r="J167" s="33">
         <f t="shared" si="1"/>
-        <v>92</v>
-      </c>
-      <c r="K158" s="34">
-        <f>B158*H158</f>
+        <v>84</v>
+      </c>
+      <c r="K167" s="34">
+        <f>B167*H167</f>
         <v>2.63</v>
       </c>
     </row>
-    <row r="159" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B159" s="33">
+    <row r="168" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B168" s="33">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C159" s="32" t="s">
+      <c r="C168" s="32" t="s">
         <v>616</v>
       </c>
-      <c r="E159" s="9" t="s">
-        <v>674</v>
-      </c>
-      <c r="G159">
+      <c r="E168" s="9" t="s">
+        <v>673</v>
+      </c>
+      <c r="G168">
         <v>100</v>
       </c>
-      <c r="H159" s="22">
+      <c r="H168" s="22">
         <v>1.79</v>
       </c>
-      <c r="I159" s="18">
-        <f>SUMIF(C$1:C$154,"="&amp;C159,B$1:B$154)</f>
+      <c r="I168" s="18">
+        <f>SUMIF(C$1:C$163,"="&amp;C168,B$1:B$163)</f>
+        <v>16</v>
+      </c>
+      <c r="J168" s="33">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="K168" s="34">
+        <f>B168*H168</f>
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B169" s="33">
+        <f t="shared" ref="B169" si="3">ROUNDUP(I169/G169,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C169" s="32" t="s">
+        <v>711</v>
+      </c>
+      <c r="E169" s="9" t="s">
+        <v>673</v>
+      </c>
+      <c r="G169">
+        <v>100</v>
+      </c>
+      <c r="H169" s="22">
+        <v>1.71</v>
+      </c>
+      <c r="I169" s="18">
+        <f>SUMIF(C$1:C$163,"="&amp;C169,B$1:B$163)</f>
+        <v>15</v>
+      </c>
+      <c r="J169" s="33">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="K169" s="34">
+        <f t="shared" ref="K169" si="4">B169*H169</f>
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B170" s="33">
+        <f t="shared" ref="B170" si="5">ROUNDUP(I170/G170,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C170" s="32" t="s">
+        <v>832</v>
+      </c>
+      <c r="E170" s="9" t="s">
+        <v>673</v>
+      </c>
+      <c r="G170">
+        <v>100</v>
+      </c>
+      <c r="H170" s="22">
+        <v>1.71</v>
+      </c>
+      <c r="I170" s="18">
+        <f>SUMIF(C$1:C$163,"="&amp;C170,B$1:B$163)</f>
         <v>12</v>
       </c>
-      <c r="J159" s="33">
+      <c r="J170" s="33">
         <f t="shared" si="1"/>
         <v>88</v>
       </c>
-      <c r="K159" s="34">
-        <f>B159*H159</f>
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="160" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B160" s="33">
-        <f t="shared" ref="B160" si="3">ROUNDUP(I160/G160,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C160" s="32" t="s">
-        <v>713</v>
-      </c>
-      <c r="E160" s="9" t="s">
-        <v>674</v>
-      </c>
-      <c r="G160">
+      <c r="K170" s="34">
+        <f t="shared" ref="K170:K235" si="6">B170*H170</f>
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B171" s="33">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C171" s="32" t="s">
+        <v>823</v>
+      </c>
+      <c r="D171" s="32"/>
+      <c r="E171" s="29" t="s">
+        <v>652</v>
+      </c>
+      <c r="G171">
         <v>100</v>
       </c>
-      <c r="H160" s="22">
-        <v>1.71</v>
-      </c>
-      <c r="I160" s="18">
-        <f>SUMIF(C$1:C$154,"="&amp;C160,B$1:B$154)</f>
-        <v>15</v>
-      </c>
-      <c r="J160" s="33">
-        <f t="shared" si="1"/>
-        <v>85</v>
-      </c>
-      <c r="K160" s="34">
-        <f t="shared" ref="K160" si="4">B160*H160</f>
-        <v>1.71</v>
-      </c>
-    </row>
-    <row r="161" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B161" s="33">
-        <f t="shared" ref="B161" si="5">ROUNDUP(I161/G161,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C161" s="32" t="s">
-        <v>683</v>
-      </c>
-      <c r="E161" s="9" t="s">
-        <v>674</v>
-      </c>
-      <c r="G161">
-        <v>100</v>
-      </c>
-      <c r="H161" s="22">
-        <v>1.71</v>
-      </c>
-      <c r="I161" s="18">
-        <f>SUMIF(C$1:C$154,"="&amp;C161,B$1:B$154)</f>
-        <v>12</v>
-      </c>
-      <c r="J161" s="33">
-        <f t="shared" si="1"/>
-        <v>88</v>
-      </c>
-      <c r="K161" s="34">
-        <f t="shared" ref="K161:K224" si="6">B161*H161</f>
-        <v>1.71</v>
-      </c>
-    </row>
-    <row r="162" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B162" s="33">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C162" s="32" t="s">
-        <v>832</v>
-      </c>
-      <c r="D162" s="32"/>
-      <c r="E162" s="29" t="s">
-        <v>653</v>
-      </c>
-      <c r="G162">
-        <v>100</v>
-      </c>
-      <c r="H162" s="22">
+      <c r="H171" s="22">
         <v>1.96</v>
       </c>
-      <c r="I162" s="18">
-        <f>SUMIF(C$1:C$154,"="&amp;C162,B$1:B$154)</f>
-        <v>1</v>
-      </c>
-      <c r="J162" s="33">
-        <f t="shared" ref="J162:J220" si="7">G162*B162-I162</f>
+      <c r="I171" s="18">
+        <f>SUMIF(C$1:C$163,"="&amp;C171,B$1:B$163)</f>
+        <v>1</v>
+      </c>
+      <c r="J171" s="33">
+        <f t="shared" ref="J171:J231" si="7">G171*B171-I171</f>
         <v>99</v>
       </c>
-      <c r="K162" s="34">
+      <c r="K171" s="34">
         <f t="shared" si="6"/>
         <v>1.96</v>
       </c>
     </row>
-    <row r="163" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B163" s="33">
+    <row r="172" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B172" s="33">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C163" s="32" t="s">
-        <v>650</v>
-      </c>
-      <c r="E163" t="s">
-        <v>710</v>
-      </c>
-      <c r="G163">
+      <c r="C172" s="32" t="s">
+        <v>649</v>
+      </c>
+      <c r="E172" t="s">
+        <v>708</v>
+      </c>
+      <c r="G172">
         <v>100</v>
       </c>
-      <c r="H163" s="22">
+      <c r="H172" s="22">
         <v>1.79</v>
       </c>
-      <c r="I163" s="18">
-        <f>SUMIF(C$1:C$154,"="&amp;C163,B$1:B$154)</f>
-        <v>10</v>
-      </c>
-      <c r="J163" s="33">
-        <f t="shared" ref="J163" si="8">G163*B163-I163</f>
-        <v>90</v>
-      </c>
-      <c r="K163" s="34">
+      <c r="I172" s="18">
+        <f>SUMIF(C$1:C$163,"="&amp;C172,B$1:B$163)</f>
+        <v>2</v>
+      </c>
+      <c r="J172" s="33">
+        <f t="shared" ref="J172" si="8">G172*B172-I172</f>
+        <v>98</v>
+      </c>
+      <c r="K172" s="34">
         <f t="shared" si="6"/>
         <v>1.79</v>
       </c>
     </row>
-    <row r="164" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B164" s="33">
-        <f t="shared" ref="B164:B168" si="9">ROUNDUP(I164/G164,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C164" s="32" t="s">
-        <v>831</v>
-      </c>
-      <c r="E164" t="s">
-        <v>710</v>
-      </c>
-      <c r="G164">
+    <row r="173" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B173" s="33">
+        <f t="shared" ref="B173:B177" si="9">ROUNDUP(I173/G173,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C173" s="32" t="s">
+        <v>822</v>
+      </c>
+      <c r="E173" t="s">
+        <v>708</v>
+      </c>
+      <c r="G173">
         <v>100</v>
       </c>
-      <c r="H164" s="22">
+      <c r="H173" s="22">
         <v>1.63</v>
       </c>
-      <c r="I164" s="18">
-        <f>SUMIF(C$1:C$154,"="&amp;C164,B$1:B$154)</f>
+      <c r="I173" s="18">
+        <f>SUMIF(C$1:C$163,"="&amp;C173,B$1:B$163)</f>
         <v>2</v>
       </c>
-      <c r="J164" s="33">
-        <f t="shared" ref="J164:J168" si="10">G164*B164-I164</f>
+      <c r="J173" s="33">
+        <f t="shared" ref="J173:J177" si="10">G173*B173-I173</f>
         <v>98</v>
       </c>
-      <c r="K164" s="34">
+      <c r="K173" s="34">
         <f t="shared" si="6"/>
         <v>1.63</v>
       </c>
     </row>
-    <row r="165" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B165" s="33">
-        <f>ROUNDUP(I165/G165,0)</f>
+    <row r="174" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B174" s="33">
+        <f>ROUNDUP(I174/G174,0)</f>
         <v>2</v>
       </c>
-      <c r="C165" s="32" t="s">
-        <v>657</v>
-      </c>
-      <c r="E165" t="s">
-        <v>660</v>
-      </c>
-      <c r="G165">
+      <c r="C174" s="32" t="s">
+        <v>656</v>
+      </c>
+      <c r="E174" t="s">
+        <v>659</v>
+      </c>
+      <c r="G174">
         <v>10</v>
       </c>
-      <c r="H165" s="22">
+      <c r="H174" s="22">
         <v>0.99</v>
       </c>
-      <c r="I165" s="18">
-        <f>SUMIF(C$1:C$154,"="&amp;C165,B$1:B$154)</f>
-        <v>12</v>
-      </c>
-      <c r="J165" s="33">
-        <f>G165*B165-I165</f>
-        <v>8</v>
-      </c>
-      <c r="K165" s="34">
-        <f>B165*H165</f>
+      <c r="I174" s="18">
+        <f>SUMIF(C$1:C$163,"="&amp;C174,B$1:B$163)</f>
+        <v>16</v>
+      </c>
+      <c r="J174" s="33">
+        <f>G174*B174-I174</f>
+        <v>4</v>
+      </c>
+      <c r="K174" s="34">
+        <f>B174*H174</f>
         <v>1.98</v>
       </c>
     </row>
-    <row r="166" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B166" s="33">
-        <f>ROUNDUP(I166/G166,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C166" t="s">
-        <v>728</v>
-      </c>
-      <c r="E166" t="s">
-        <v>721</v>
-      </c>
-      <c r="G166">
-        <v>1</v>
-      </c>
-      <c r="H166" s="22">
-        <v>0.4</v>
-      </c>
-      <c r="I166" s="18">
-        <f>SUMIF(C$1:C$154,"="&amp;C166,B$1:B$154)</f>
-        <v>1</v>
-      </c>
-      <c r="J166" s="33">
-        <f>G166*B166-I166</f>
-        <v>0</v>
-      </c>
-      <c r="K166" s="34">
-        <f>B166*H166</f>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="167" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B167" s="33"/>
-      <c r="C167" s="32"/>
-      <c r="E167"/>
-      <c r="H167" s="22"/>
-      <c r="I167" s="18"/>
-      <c r="J167" s="33"/>
-      <c r="K167" s="34"/>
-    </row>
-    <row r="168" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B168" s="33">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="C168" s="32" t="s">
-        <v>725</v>
-      </c>
-      <c r="E168" t="s">
-        <v>724</v>
-      </c>
-      <c r="G168">
-        <v>10</v>
-      </c>
-      <c r="H168" s="22">
-        <v>2.35</v>
-      </c>
-      <c r="I168" s="18">
-        <f>SUMIF(C$1:C$154,"="&amp;C168,B$1:B$154)</f>
-        <v>0</v>
-      </c>
-      <c r="J168" s="33">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="K168" s="34">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B169" s="33">
-        <f t="shared" ref="B169" si="11">ROUNDUP(I169/G169,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C169" s="32" t="s">
-        <v>734</v>
-      </c>
-      <c r="E169" t="s">
-        <v>735</v>
-      </c>
-      <c r="F169" t="s">
-        <v>737</v>
-      </c>
-      <c r="G169">
-        <v>50</v>
-      </c>
-      <c r="H169" s="22">
-        <v>3.65</v>
-      </c>
-      <c r="I169" s="18">
-        <f>SUMIF(C$1:C$154,"="&amp;C169,B$1:B$154)</f>
-        <v>20</v>
-      </c>
-      <c r="J169" s="33">
-        <f t="shared" ref="J169" si="12">G169*B169-I169</f>
-        <v>30</v>
-      </c>
-      <c r="K169" s="34">
-        <f t="shared" ref="K169" si="13">B169*H169</f>
-        <v>3.65</v>
-      </c>
-    </row>
-    <row r="170" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B170" s="33">
-        <f t="shared" ref="B170" si="14">ROUNDUP(I170/G170,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C170" s="32" t="s">
-        <v>764</v>
-      </c>
-      <c r="E170" t="s">
-        <v>765</v>
-      </c>
-      <c r="F170" t="s">
-        <v>737</v>
-      </c>
-      <c r="G170">
-        <v>10</v>
-      </c>
-      <c r="H170" s="22">
-        <v>2.41</v>
-      </c>
-      <c r="I170" s="18">
-        <f>SUMIF(C$1:C$154,"="&amp;C170,B$1:B$154)</f>
-        <v>4</v>
-      </c>
-      <c r="J170" s="33">
-        <f t="shared" ref="J170" si="15">G170*B170-I170</f>
-        <v>6</v>
-      </c>
-      <c r="K170" s="34">
-        <f t="shared" ref="K170" si="16">B170*H170</f>
-        <v>2.41</v>
-      </c>
-    </row>
-    <row r="171" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B171" s="33">
-        <v>4</v>
-      </c>
-      <c r="C171" t="s">
-        <v>833</v>
-      </c>
-      <c r="E171" t="s">
-        <v>721</v>
-      </c>
-      <c r="G171">
-        <v>10</v>
-      </c>
-      <c r="H171" s="22">
-        <v>2.41</v>
-      </c>
-      <c r="I171" s="18">
-        <f>SUMIF(C$1:C$154,"="&amp;C171,B$1:B$154)</f>
-        <v>0</v>
-      </c>
-      <c r="J171" s="33">
-        <f t="shared" ref="J171" si="17">G171*B171-I171</f>
-        <v>40</v>
-      </c>
-      <c r="K171" s="34">
-        <f t="shared" ref="K171" si="18">B171*H171</f>
-        <v>9.64</v>
-      </c>
-    </row>
-    <row r="172" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B172" s="33">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C172" s="32" t="s">
-        <v>727</v>
-      </c>
-      <c r="E172" t="s">
-        <v>606</v>
-      </c>
-      <c r="G172">
-        <v>100</v>
-      </c>
-      <c r="H172" s="22">
-        <v>2.09</v>
-      </c>
-      <c r="I172" s="18">
-        <f>SUMIF(C$1:C$154,"="&amp;C172,B$1:B$154)</f>
-        <v>10</v>
-      </c>
-      <c r="J172" s="33">
-        <f t="shared" si="7"/>
-        <v>90</v>
-      </c>
-      <c r="K172" s="34">
-        <f t="shared" si="6"/>
-        <v>2.09</v>
-      </c>
-    </row>
-    <row r="173" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B173" s="33">
-        <f t="shared" ref="B173" si="19">ROUNDUP(I173/G173,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C173" s="32" t="s">
-        <v>726</v>
-      </c>
-      <c r="E173" s="29" t="s">
-        <v>618</v>
-      </c>
-      <c r="G173">
-        <v>100</v>
-      </c>
-      <c r="H173" s="22">
-        <v>2.09</v>
-      </c>
-      <c r="I173" s="18">
-        <f>SUMIF(C$1:C$154,"="&amp;C173,B$1:B$154)</f>
-        <v>24</v>
-      </c>
-      <c r="J173" s="33">
-        <f t="shared" ref="J173" si="20">G173*B173-I173</f>
-        <v>76</v>
-      </c>
-      <c r="K173" s="34">
-        <f t="shared" si="6"/>
-        <v>2.09</v>
-      </c>
-    </row>
-    <row r="174" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B174" s="33">
-        <f t="shared" ref="B174:B177" si="21">ROUNDUP(I174/G174,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C174" s="32" t="s">
-        <v>729</v>
-      </c>
-      <c r="G174">
-        <v>100</v>
-      </c>
-      <c r="H174" s="22">
-        <v>2.09</v>
-      </c>
-      <c r="I174" s="18">
-        <f>SUMIF(C$1:C$154,"="&amp;C174,B$1:B$154)</f>
-        <v>12</v>
-      </c>
-      <c r="J174" s="33">
-        <f t="shared" ref="J174:J177" si="22">G174*B174-I174</f>
-        <v>88</v>
-      </c>
-      <c r="K174" s="34">
-        <f t="shared" ref="K174:K177" si="23">B174*H174</f>
-        <v>2.09</v>
-      </c>
-    </row>
-    <row r="175" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B175" s="33">
         <f>ROUNDUP(I175/G175,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C175" t="s">
-        <v>828</v>
+        <v>725</v>
       </c>
       <c r="E175" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="G175">
         <v>1</v>
@@ -14750,21 +14657,22 @@
         <v>0.4</v>
       </c>
       <c r="I175" s="18">
-        <f>SUMIF(C$1:C$154,"="&amp;C175,B$1:B$154)</f>
+        <f>SUMIF(C$1:C$163,"="&amp;C175,B$1:B$163)</f>
+        <v>1</v>
+      </c>
+      <c r="J175" s="33">
+        <f>G175*B175-I175</f>
         <v>0</v>
       </c>
-      <c r="J175" s="33">
-        <f t="shared" ref="J175" si="24">G175*B175-I175</f>
-        <v>0</v>
-      </c>
       <c r="K175" s="34">
-        <f t="shared" ref="K175" si="25">B175*H175</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+        <f>B175*H175</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B176" s="33"/>
       <c r="C176" s="32"/>
+      <c r="E176"/>
       <c r="H176" s="22"/>
       <c r="I176" s="18"/>
       <c r="J176" s="33"/>
@@ -14772,909 +14680,889 @@
     </row>
     <row r="177" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B177" s="33">
-        <f t="shared" si="21"/>
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="C177" s="32" t="s">
-        <v>760</v>
-      </c>
-      <c r="E177" s="29" t="s">
-        <v>626</v>
+        <v>722</v>
+      </c>
+      <c r="E177" t="s">
+        <v>721</v>
       </c>
       <c r="G177">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="H177" s="22">
-        <v>4.8899999999999997</v>
+        <v>2.35</v>
       </c>
       <c r="I177" s="18">
-        <f>SUMIF(C$1:C$154,"="&amp;C177,B$1:B$154)</f>
-        <v>1</v>
+        <f>SUMIF(C$1:C$163,"="&amp;C177,B$1:B$163)</f>
+        <v>0</v>
       </c>
       <c r="J177" s="33">
-        <f t="shared" si="22"/>
-        <v>49</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="K177" s="34">
-        <f t="shared" si="23"/>
-        <v>4.8899999999999997</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B178" s="33">
-        <f t="shared" ref="B178" si="26">ROUNDUP(I178/G178,0)</f>
+        <f t="shared" ref="B178" si="11">ROUNDUP(I178/G178,0)</f>
         <v>1</v>
       </c>
       <c r="C178" s="32" t="s">
-        <v>758</v>
-      </c>
-      <c r="E178" s="29" t="s">
-        <v>759</v>
+        <v>731</v>
+      </c>
+      <c r="E178" t="s">
+        <v>732</v>
+      </c>
+      <c r="F178" t="s">
+        <v>734</v>
       </c>
       <c r="G178">
+        <v>50</v>
+      </c>
+      <c r="H178" s="22">
+        <v>3.65</v>
+      </c>
+      <c r="I178" s="18">
+        <f>SUMIF(C$1:C$163,"="&amp;C178,B$1:B$163)</f>
         <v>20</v>
       </c>
-      <c r="H178" s="22">
-        <v>3.89</v>
-      </c>
-      <c r="I178" s="18">
-        <f>SUMIF(C$1:C$154,"="&amp;C178,B$1:B$154)</f>
-        <v>2</v>
-      </c>
       <c r="J178" s="33">
-        <f t="shared" ref="J178" si="27">G178*B178-I178</f>
-        <v>18</v>
+        <f t="shared" ref="J178" si="12">G178*B178-I178</f>
+        <v>30</v>
       </c>
       <c r="K178" s="34">
-        <f t="shared" ref="K178" si="28">B178*H178</f>
-        <v>3.89</v>
+        <f t="shared" ref="K178" si="13">B178*H178</f>
+        <v>3.65</v>
       </c>
     </row>
     <row r="179" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B179" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B179" si="14">ROUNDUP(I179/G179,0)</f>
         <v>1</v>
       </c>
       <c r="C179" s="32" t="s">
-        <v>794</v>
-      </c>
-      <c r="E179" s="29" t="s">
-        <v>652</v>
+        <v>761</v>
+      </c>
+      <c r="E179" t="s">
+        <v>762</v>
+      </c>
+      <c r="F179" t="s">
+        <v>734</v>
       </c>
       <c r="G179">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="H179" s="22">
-        <v>1.79</v>
+        <v>2.41</v>
       </c>
       <c r="I179" s="18">
-        <f>SUMIF(C$1:C$154,"="&amp;C179,B$1:B$154)</f>
-        <v>67</v>
+        <f>SUMIF(C$1:C$163,"="&amp;C179,B$1:B$163)</f>
+        <v>4</v>
       </c>
       <c r="J179" s="33">
-        <f t="shared" si="7"/>
-        <v>33</v>
+        <f t="shared" ref="J179" si="15">G179*B179-I179</f>
+        <v>6</v>
       </c>
       <c r="K179" s="34">
-        <f t="shared" si="6"/>
-        <v>1.79</v>
+        <f t="shared" ref="K179" si="16">B179*H179</f>
+        <v>2.41</v>
       </c>
     </row>
     <row r="180" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B180" s="33">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C180" s="32" t="s">
-        <v>665</v>
-      </c>
-      <c r="E180" s="9" t="s">
-        <v>666</v>
+        <v>4</v>
+      </c>
+      <c r="C180" t="s">
+        <v>824</v>
+      </c>
+      <c r="E180" t="s">
+        <v>718</v>
       </c>
       <c r="G180">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="H180" s="22">
-        <v>1.79</v>
+        <v>2.41</v>
       </c>
       <c r="I180" s="18">
-        <f>SUMIF(C$1:C$154,"="&amp;C180,B$1:B$154)</f>
-        <v>6</v>
+        <f>SUMIF(C$1:C$163,"="&amp;C180,B$1:B$163)</f>
+        <v>0</v>
       </c>
       <c r="J180" s="33">
-        <f>G180*B180-I180</f>
-        <v>94</v>
+        <f t="shared" ref="J180" si="17">G180*B180-I180</f>
+        <v>40</v>
       </c>
       <c r="K180" s="34">
-        <f t="shared" si="6"/>
-        <v>1.79</v>
+        <f t="shared" ref="K180" si="18">B180*H180</f>
+        <v>9.64</v>
       </c>
     </row>
     <row r="181" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B181" s="33">
-        <f t="shared" ref="B181:B182" si="29">ROUNDUP(I181/G181,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C181" s="32" t="s">
-        <v>761</v>
-      </c>
-      <c r="E181" s="9" t="s">
-        <v>789</v>
+        <v>724</v>
+      </c>
+      <c r="E181" t="s">
+        <v>606</v>
       </c>
       <c r="G181">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H181" s="22">
-        <v>4.33</v>
+        <v>2.09</v>
       </c>
       <c r="I181" s="18">
-        <f>SUMIF(C$1:C$154,"="&amp;C181,B$1:B$154)</f>
-        <v>4</v>
+        <f>SUMIF(C$1:C$163,"="&amp;C181,B$1:B$163)</f>
+        <v>10</v>
       </c>
       <c r="J181" s="33">
-        <f>G181*B181-I181</f>
-        <v>46</v>
+        <f t="shared" si="7"/>
+        <v>90</v>
       </c>
       <c r="K181" s="34">
-        <f t="shared" ref="K181:K182" si="30">B181*H181</f>
-        <v>4.33</v>
+        <f t="shared" si="6"/>
+        <v>2.09</v>
       </c>
     </row>
     <row r="182" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B182" s="33">
-        <f t="shared" si="29"/>
+        <f t="shared" ref="B182" si="19">ROUNDUP(I182/G182,0)</f>
         <v>1</v>
       </c>
       <c r="C182" s="32" t="s">
-        <v>793</v>
-      </c>
-      <c r="E182" s="9" t="s">
-        <v>788</v>
+        <v>723</v>
+      </c>
+      <c r="E182" s="29" t="s">
+        <v>618</v>
       </c>
       <c r="G182">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="H182" s="22">
-        <v>1.98</v>
+        <v>2.09</v>
       </c>
       <c r="I182" s="18">
-        <f>SUMIF(C$1:C$154,"="&amp;C182,B$1:B$154)</f>
-        <v>8</v>
+        <f>SUMIF(C$1:C$163,"="&amp;C182,B$1:B$163)</f>
+        <v>28</v>
       </c>
       <c r="J182" s="33">
-        <f>G182*B182-I182</f>
-        <v>2</v>
+        <f t="shared" ref="J182" si="20">G182*B182-I182</f>
+        <v>72</v>
       </c>
       <c r="K182" s="34">
-        <f t="shared" si="30"/>
-        <v>1.98</v>
+        <f t="shared" si="6"/>
+        <v>2.09</v>
       </c>
     </row>
     <row r="183" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B183" s="33">
-        <f>ROUNDUP(I183/G183,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C183" t="s">
-        <v>678</v>
-      </c>
-      <c r="E183" s="26" t="s">
-        <v>646</v>
+        <f t="shared" ref="B183:B186" si="21">ROUNDUP(I183/G183,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C183" s="32" t="s">
+        <v>726</v>
       </c>
       <c r="G183">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="H183" s="22">
-        <v>4.49</v>
+        <v>2.09</v>
       </c>
       <c r="I183" s="18">
-        <f>SUMIF(C$1:C$154,"="&amp;C183,B$1:B$154)</f>
-        <v>136</v>
+        <f>SUMIF(C$1:C$163,"="&amp;C183,B$1:B$163)</f>
+        <v>16</v>
       </c>
       <c r="J183" s="33">
-        <f t="shared" ref="J183" si="31">G183*B183-I183</f>
-        <v>364</v>
+        <f t="shared" ref="J183:J186" si="22">G183*B183-I183</f>
+        <v>84</v>
       </c>
       <c r="K183" s="34">
-        <f t="shared" si="6"/>
-        <v>4.49</v>
+        <f t="shared" ref="K183:K186" si="23">B183*H183</f>
+        <v>2.09</v>
       </c>
     </row>
     <row r="184" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B184" s="33">
         <f>ROUNDUP(I184/G184,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C184" t="s">
-        <v>703</v>
-      </c>
-      <c r="E184" s="26" t="s">
-        <v>604</v>
+        <v>819</v>
+      </c>
+      <c r="E184" t="s">
+        <v>718</v>
       </c>
       <c r="G184">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="H184" s="22">
-        <v>2.4900000000000002</v>
+        <v>0.4</v>
       </c>
       <c r="I184" s="18">
-        <f>SUMIF(C$1:C$154,"="&amp;C184,B$1:B$154)</f>
-        <v>50</v>
+        <f>SUMIF(C$1:C$163,"="&amp;C184,B$1:B$163)</f>
+        <v>0</v>
       </c>
       <c r="J184" s="33">
-        <f t="shared" ref="J184:J185" si="32">G184*B184-I184</f>
-        <v>450</v>
+        <f t="shared" ref="J184" si="24">G184*B184-I184</f>
+        <v>0</v>
       </c>
       <c r="K184" s="34">
-        <f t="shared" si="6"/>
-        <v>2.4900000000000002</v>
+        <f t="shared" ref="K184" si="25">B184*H184</f>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B185" s="33">
-        <f>ROUNDUP(I185/G185,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C185" t="s">
-        <v>747</v>
-      </c>
-      <c r="E185" s="26" t="s">
-        <v>748</v>
-      </c>
-      <c r="G185">
-        <v>500</v>
-      </c>
-      <c r="H185" s="22">
-        <v>4.49</v>
-      </c>
-      <c r="I185" s="18">
-        <f>SUMIF(C$1:C$154,"="&amp;C185,B$1:B$154)</f>
-        <v>182</v>
-      </c>
-      <c r="J185" s="33">
-        <f t="shared" si="32"/>
-        <v>318</v>
-      </c>
-      <c r="K185" s="34">
-        <f t="shared" ref="K185" si="33">B185*H185</f>
-        <v>4.49</v>
-      </c>
+      <c r="B185" s="33"/>
+      <c r="C185" s="32"/>
+      <c r="H185" s="22"/>
+      <c r="I185" s="18"/>
+      <c r="J185" s="33"/>
+      <c r="K185" s="34"/>
     </row>
     <row r="186" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B186" s="33">
-        <f>ROUNDUP(I186/G186,0)</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="C186" s="32" t="s">
-        <v>827</v>
-      </c>
-      <c r="E186" s="26" t="s">
-        <v>826</v>
+        <v>757</v>
+      </c>
+      <c r="E186" s="29" t="s">
+        <v>626</v>
       </c>
       <c r="G186">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H186" s="22">
-        <v>1.59</v>
+        <v>4.8899999999999997</v>
       </c>
       <c r="I186" s="18">
-        <f>SUMIF(C$1:C$154,"="&amp;C186,B$1:B$154)</f>
-        <v>12</v>
+        <f>SUMIF(C$1:C$163,"="&amp;C186,B$1:B$163)</f>
+        <v>1</v>
       </c>
       <c r="J186" s="33">
-        <f t="shared" ref="J186" si="34">G186*B186-I186</f>
-        <v>88</v>
+        <f t="shared" si="22"/>
+        <v>49</v>
       </c>
       <c r="K186" s="34">
-        <f t="shared" ref="K186" si="35">B186*H186</f>
-        <v>1.59</v>
+        <f t="shared" si="23"/>
+        <v>4.8899999999999997</v>
       </c>
     </row>
     <row r="187" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B187" s="33">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <f t="shared" ref="B187" si="26">ROUNDUP(I187/G187,0)</f>
+        <v>1</v>
       </c>
       <c r="C187" s="32" t="s">
-        <v>830</v>
-      </c>
-      <c r="E187" s="9" t="s">
-        <v>670</v>
+        <v>755</v>
+      </c>
+      <c r="E187" s="29" t="s">
+        <v>756</v>
       </c>
       <c r="G187">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="H187" s="22">
-        <v>0.15</v>
+        <v>3.89</v>
       </c>
       <c r="I187" s="18">
-        <f>SUMIF(C$1:C$154,"="&amp;C187,B$1:B$154)</f>
-        <v>5</v>
+        <f>SUMIF(C$1:C$163,"="&amp;C187,B$1:B$163)</f>
+        <v>2</v>
       </c>
       <c r="J187" s="33">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" ref="J187" si="27">G187*B187-I187</f>
+        <v>18</v>
       </c>
       <c r="K187" s="34">
-        <f t="shared" si="6"/>
-        <v>0.75</v>
+        <f t="shared" ref="K187" si="28">B187*H187</f>
+        <v>3.89</v>
       </c>
     </row>
     <row r="188" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B188" s="33">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="C188" s="32" t="s">
-        <v>823</v>
-      </c>
-      <c r="E188" t="s">
-        <v>822</v>
+        <v>790</v>
+      </c>
+      <c r="E188" s="29" t="s">
+        <v>651</v>
       </c>
       <c r="G188">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="H188" s="22">
-        <v>0.3</v>
+        <v>1.79</v>
       </c>
       <c r="I188" s="18">
-        <f>SUMIF(C$1:C$154,"="&amp;C188,B$1:B$154)</f>
-        <v>22</v>
+        <f>SUMIF(C$1:C$163,"="&amp;C188,B$1:B$163)</f>
+        <v>71</v>
       </c>
       <c r="J188" s="33">
-        <f t="shared" ref="J188" si="36">G188*B188-I188</f>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>29</v>
       </c>
       <c r="K188" s="34">
-        <f t="shared" ref="K188" si="37">B188*H188</f>
-        <v>6.6</v>
+        <f t="shared" si="6"/>
+        <v>1.79</v>
       </c>
     </row>
     <row r="189" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B189" s="33">
-        <f t="shared" ref="B189" si="38">ROUNDUP(I189/G189,0)</f>
-        <v>0</v>
-      </c>
-      <c r="C189" t="s">
-        <v>795</v>
-      </c>
-      <c r="E189" s="29" t="s">
-        <v>684</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C189" s="32" t="s">
+        <v>664</v>
+      </c>
+      <c r="E189" s="9" t="s">
+        <v>665</v>
       </c>
       <c r="G189">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="H189" s="22">
-        <v>0.08</v>
+        <v>1.79</v>
       </c>
       <c r="I189" s="18">
-        <f>SUMIF(C$1:C$154,"="&amp;C189,B$1:B$154)</f>
-        <v>0</v>
+        <f>SUMIF(C$1:C$163,"="&amp;C189,B$1:B$163)</f>
+        <v>6</v>
       </c>
       <c r="J189" s="33">
-        <f t="shared" ref="J189" si="39">G189*B189-I189</f>
-        <v>0</v>
+        <f>G189*B189-I189</f>
+        <v>94</v>
       </c>
       <c r="K189" s="34">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="190" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B190" s="33">
-        <f>ROUNDUP(I190/G190,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C190" t="s">
-        <v>697</v>
-      </c>
-      <c r="E190" s="26" t="s">
-        <v>698</v>
+        <f t="shared" ref="B190:B191" si="29">ROUNDUP(I190/G190,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C190" s="32" t="s">
+        <v>758</v>
+      </c>
+      <c r="E190" s="9" t="s">
+        <v>785</v>
       </c>
       <c r="G190">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="H190" s="22">
-        <v>2.59</v>
+        <v>4.33</v>
       </c>
       <c r="I190" s="18">
-        <f>SUMIF(C$1:C$154,"="&amp;C190,B$1:B$154)</f>
-        <v>2</v>
+        <f>SUMIF(C$1:C$163,"="&amp;C190,B$1:B$163)</f>
+        <v>4</v>
       </c>
       <c r="J190" s="33">
-        <f t="shared" ref="J190" si="40">G190*B190-I190</f>
-        <v>8</v>
+        <f>G190*B190-I190</f>
+        <v>46</v>
       </c>
       <c r="K190" s="34">
-        <f>B190*H190</f>
-        <v>2.59</v>
+        <f t="shared" ref="K190:K191" si="30">B190*H190</f>
+        <v>4.33</v>
       </c>
     </row>
     <row r="191" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B191" s="33">
-        <f>ROUNDUP(I191/G191,0)</f>
-        <v>1</v>
+        <f t="shared" si="29"/>
+        <v>2</v>
       </c>
       <c r="C191" s="32" t="s">
-        <v>825</v>
-      </c>
-      <c r="E191" t="s">
-        <v>824</v>
+        <v>789</v>
+      </c>
+      <c r="E191" s="9" t="s">
+        <v>784</v>
       </c>
       <c r="G191">
+        <v>10</v>
+      </c>
+      <c r="H191" s="22">
+        <v>1.98</v>
+      </c>
+      <c r="I191" s="18">
+        <f>SUMIF(C$1:C$163,"="&amp;C191,B$1:B$163)</f>
+        <v>16</v>
+      </c>
+      <c r="J191" s="33">
+        <f>G191*B191-I191</f>
+        <v>4</v>
+      </c>
+      <c r="K191" s="34">
+        <f t="shared" si="30"/>
+        <v>3.96</v>
+      </c>
+    </row>
+    <row r="192" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B192" s="33">
+        <f>ROUNDUP(I192/G192,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C192" t="s">
+        <v>677</v>
+      </c>
+      <c r="E192" s="26" t="s">
+        <v>646</v>
+      </c>
+      <c r="G192">
         <v>500</v>
       </c>
-      <c r="H191" s="22">
-        <v>1.69</v>
-      </c>
-      <c r="I191" s="18">
-        <f>SUMIF(C$1:C$154,"="&amp;C191,B$1:B$154)</f>
-        <v>300</v>
-      </c>
-      <c r="J191" s="33">
-        <f t="shared" ref="J191" si="41">G191*B191-I191</f>
-        <v>200</v>
-      </c>
-      <c r="K191" s="34">
-        <f>B191*H191</f>
-        <v>1.69</v>
-      </c>
-    </row>
-    <row r="192" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B192" s="33"/>
-      <c r="H192" s="22"/>
-      <c r="I192" s="18"/>
-      <c r="J192" s="33"/>
-      <c r="K192" s="34"/>
+      <c r="H192" s="22">
+        <v>4.49</v>
+      </c>
+      <c r="I192" s="18">
+        <f>SUMIF(C$1:C$163,"="&amp;C192,B$1:B$163)</f>
+        <v>136</v>
+      </c>
+      <c r="J192" s="33">
+        <f t="shared" ref="J192" si="31">G192*B192-I192</f>
+        <v>364</v>
+      </c>
+      <c r="K192" s="34">
+        <f t="shared" si="6"/>
+        <v>4.49</v>
+      </c>
     </row>
     <row r="193" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B193" s="33">
-        <f t="shared" ref="B193:B197" si="42">ROUNDUP(I193/G193,0)</f>
-        <v>4</v>
+        <f>ROUNDUP(I193/G193,0)</f>
+        <v>1</v>
       </c>
       <c r="C193" t="s">
-        <v>632</v>
-      </c>
-      <c r="E193" s="29" t="s">
-        <v>637</v>
+        <v>701</v>
+      </c>
+      <c r="E193" s="26" t="s">
+        <v>604</v>
       </c>
       <c r="G193">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="H193" s="22">
-        <v>5.0999999999999996</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="I193" s="18">
-        <f>SUMIF(C$1:C$154,"="&amp;C193,B$1:B$154)</f>
-        <v>4</v>
+        <f>SUMIF(C$1:C$163,"="&amp;C193,B$1:B$163)</f>
+        <v>50</v>
       </c>
       <c r="J193" s="33">
-        <f t="shared" ref="J193" si="43">G193*B193-I193</f>
-        <v>0</v>
+        <f t="shared" ref="J193:J194" si="32">G193*B193-I193</f>
+        <v>450</v>
       </c>
       <c r="K193" s="34">
         <f t="shared" si="6"/>
-        <v>20.399999999999999</v>
+        <v>2.4900000000000002</v>
       </c>
     </row>
     <row r="194" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B194" s="33">
+        <f>ROUNDUP(I194/G194,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C194" t="s">
+        <v>744</v>
+      </c>
+      <c r="E194" s="26" t="s">
+        <v>745</v>
+      </c>
+      <c r="G194">
+        <v>500</v>
+      </c>
+      <c r="H194" s="22">
+        <v>4.49</v>
+      </c>
+      <c r="I194" s="18">
+        <f>SUMIF(C$1:C$163,"="&amp;C194,B$1:B$163)</f>
+        <v>182</v>
+      </c>
+      <c r="J194" s="33">
+        <f t="shared" si="32"/>
+        <v>318</v>
+      </c>
+      <c r="K194" s="34">
+        <f t="shared" ref="K194" si="33">B194*H194</f>
+        <v>4.49</v>
+      </c>
+    </row>
+    <row r="195" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B195" s="33">
+        <f>ROUNDUP(I195/G195,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C195" s="32" t="s">
+        <v>818</v>
+      </c>
+      <c r="E195" s="26" t="s">
+        <v>817</v>
+      </c>
+      <c r="G195">
+        <v>100</v>
+      </c>
+      <c r="H195" s="22">
+        <v>1.59</v>
+      </c>
+      <c r="I195" s="18">
+        <f>SUMIF(C$1:C$163,"="&amp;C195,B$1:B$163)</f>
+        <v>12</v>
+      </c>
+      <c r="J195" s="33">
+        <f t="shared" ref="J195" si="34">G195*B195-I195</f>
+        <v>88</v>
+      </c>
+      <c r="K195" s="34">
+        <f t="shared" ref="K195" si="35">B195*H195</f>
+        <v>1.59</v>
+      </c>
+    </row>
+    <row r="196" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B196" s="33">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C196" s="32" t="s">
+        <v>821</v>
+      </c>
+      <c r="E196" s="9" t="s">
+        <v>669</v>
+      </c>
+      <c r="G196">
+        <v>1</v>
+      </c>
+      <c r="H196" s="22">
+        <v>0.15</v>
+      </c>
+      <c r="I196" s="18">
+        <f>SUMIF(C$1:C$163,"="&amp;C196,B$1:B$163)</f>
+        <v>5</v>
+      </c>
+      <c r="J196" s="33">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K196" s="34">
+        <f t="shared" si="6"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="197" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B197" s="33">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="C197" s="32" t="s">
+        <v>814</v>
+      </c>
+      <c r="E197" t="s">
+        <v>813</v>
+      </c>
+      <c r="G197">
+        <v>1</v>
+      </c>
+      <c r="H197" s="22">
+        <v>0.3</v>
+      </c>
+      <c r="I197" s="18">
+        <f>SUMIF(C$1:C$163,"="&amp;C197,B$1:B$163)</f>
+        <v>22</v>
+      </c>
+      <c r="J197" s="33">
+        <f t="shared" ref="J197" si="36">G197*B197-I197</f>
+        <v>0</v>
+      </c>
+      <c r="K197" s="34">
+        <f t="shared" ref="K197" si="37">B197*H197</f>
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="198" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B198" s="33">
+        <f t="shared" ref="B198" si="38">ROUNDUP(I198/G198,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C198" t="s">
+        <v>791</v>
+      </c>
+      <c r="E198" s="29" t="s">
+        <v>682</v>
+      </c>
+      <c r="G198">
+        <v>1</v>
+      </c>
+      <c r="H198" s="22">
+        <v>0.08</v>
+      </c>
+      <c r="I198" s="18">
+        <f>SUMIF(C$1:C$163,"="&amp;C198,B$1:B$163)</f>
+        <v>0</v>
+      </c>
+      <c r="J198" s="33">
+        <f t="shared" ref="J198" si="39">G198*B198-I198</f>
+        <v>0</v>
+      </c>
+      <c r="K198" s="34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B199" s="33">
+        <f>ROUNDUP(I199/G199,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C199" t="s">
+        <v>695</v>
+      </c>
+      <c r="E199" s="26" t="s">
+        <v>696</v>
+      </c>
+      <c r="G199">
+        <v>10</v>
+      </c>
+      <c r="H199" s="22">
+        <v>2.59</v>
+      </c>
+      <c r="I199" s="18">
+        <f>SUMIF(C$1:C$163,"="&amp;C199,B$1:B$163)</f>
+        <v>2</v>
+      </c>
+      <c r="J199" s="33">
+        <f t="shared" ref="J199" si="40">G199*B199-I199</f>
+        <v>8</v>
+      </c>
+      <c r="K199" s="34">
+        <f>B199*H199</f>
+        <v>2.59</v>
+      </c>
+    </row>
+    <row r="200" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B200" s="33">
+        <f>ROUNDUP(I200/G200,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C200" s="32" t="s">
+        <v>816</v>
+      </c>
+      <c r="E200" t="s">
+        <v>815</v>
+      </c>
+      <c r="G200">
+        <v>500</v>
+      </c>
+      <c r="H200" s="22">
+        <v>1.69</v>
+      </c>
+      <c r="I200" s="18">
+        <f>SUMIF(C$1:C$163,"="&amp;C200,B$1:B$163)</f>
+        <v>300</v>
+      </c>
+      <c r="J200" s="33">
+        <f t="shared" ref="J200" si="41">G200*B200-I200</f>
+        <v>200</v>
+      </c>
+      <c r="K200" s="34">
+        <f>B200*H200</f>
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="201" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B201" s="33"/>
+      <c r="H201" s="22"/>
+      <c r="I201" s="18"/>
+      <c r="J201" s="33"/>
+      <c r="K201" s="34"/>
+    </row>
+    <row r="202" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B202" s="33">
+        <f t="shared" ref="B202:B207" si="42">ROUNDUP(I202/G202,0)</f>
+        <v>4</v>
+      </c>
+      <c r="C202" t="s">
+        <v>632</v>
+      </c>
+      <c r="E202" s="29" t="s">
+        <v>637</v>
+      </c>
+      <c r="G202">
+        <v>1</v>
+      </c>
+      <c r="H202" s="22">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="I202" s="18">
+        <f>SUMIF(C$1:C$163,"="&amp;C202,B$1:B$163)</f>
+        <v>4</v>
+      </c>
+      <c r="J202" s="33">
+        <f t="shared" ref="J202" si="43">G202*B202-I202</f>
+        <v>0</v>
+      </c>
+      <c r="K202" s="34">
+        <f t="shared" si="6"/>
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="203" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B203" s="33">
+        <f t="shared" ref="B203" si="44">ROUNDUP(I203/G203,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C203" t="s">
+        <v>840</v>
+      </c>
+      <c r="E203" s="29" t="s">
+        <v>841</v>
+      </c>
+      <c r="G203">
+        <v>1</v>
+      </c>
+      <c r="H203" s="22">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="I203" s="18">
+        <f>SUMIF(C$1:C$163,"="&amp;C203,B$1:B$163)</f>
+        <v>1</v>
+      </c>
+      <c r="J203" s="33">
+        <f t="shared" ref="J203" si="45">G203*B203-I203</f>
+        <v>0</v>
+      </c>
+      <c r="K203" s="34">
+        <f t="shared" ref="K203" si="46">B203*H203</f>
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="204" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B204" s="33">
         <f t="shared" si="42"/>
         <v>1</v>
       </c>
-      <c r="C194" t="s">
+      <c r="C204" t="s">
         <v>639</v>
       </c>
-      <c r="E194" s="29" t="s">
+      <c r="E204" s="29" t="s">
         <v>638</v>
       </c>
-      <c r="G194">
-        <v>1</v>
-      </c>
-      <c r="H194" s="22">
+      <c r="G204">
+        <v>1</v>
+      </c>
+      <c r="H204" s="22">
         <v>5.44</v>
       </c>
-      <c r="I194" s="18">
-        <f>SUMIF(C$1:C$154,"="&amp;C194,B$1:B$154)</f>
-        <v>1</v>
-      </c>
-      <c r="J194" s="33">
-        <f t="shared" ref="J194:J196" si="44">G194*B194-I194</f>
+      <c r="I204" s="18">
+        <f>SUMIF(C$1:C$163,"="&amp;C204,B$1:B$163)</f>
+        <v>1</v>
+      </c>
+      <c r="J204" s="33">
+        <f t="shared" ref="J204:J206" si="47">G204*B204-I204</f>
         <v>0</v>
       </c>
-      <c r="K194" s="34">
+      <c r="K204" s="34">
         <f t="shared" si="6"/>
         <v>5.44</v>
       </c>
     </row>
-    <row r="195" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B195" s="33">
+    <row r="205" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B205" s="33">
         <f t="shared" si="42"/>
         <v>1</v>
       </c>
-      <c r="C195" t="s">
-        <v>679</v>
-      </c>
-      <c r="E195" s="29" t="s">
+      <c r="C205" t="s">
+        <v>678</v>
+      </c>
+      <c r="E205" s="29" t="s">
         <v>642</v>
       </c>
-      <c r="G195">
-        <v>1</v>
-      </c>
-      <c r="H195" s="22">
+      <c r="G205">
+        <v>1</v>
+      </c>
+      <c r="H205" s="22">
         <v>4.46</v>
       </c>
-      <c r="I195" s="18">
-        <f>SUMIF(C$1:C$154,"="&amp;C195,B$1:B$154)</f>
-        <v>1</v>
-      </c>
-      <c r="J195" s="33">
-        <f t="shared" si="44"/>
+      <c r="I205" s="18">
+        <f>SUMIF(C$1:C$163,"="&amp;C205,B$1:B$163)</f>
+        <v>1</v>
+      </c>
+      <c r="J205" s="33">
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="K195" s="34">
+      <c r="K205" s="34">
         <f t="shared" si="6"/>
         <v>4.46</v>
       </c>
     </row>
-    <row r="196" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B196" s="33">
+    <row r="206" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B206" s="33">
         <f t="shared" si="42"/>
         <v>1</v>
       </c>
-      <c r="C196" t="s">
-        <v>680</v>
-      </c>
-      <c r="E196" s="29" t="s">
+      <c r="C206" t="s">
+        <v>679</v>
+      </c>
+      <c r="E206" s="29" t="s">
         <v>640</v>
       </c>
-      <c r="G196">
-        <v>1</v>
-      </c>
-      <c r="H196" s="22">
+      <c r="G206">
+        <v>1</v>
+      </c>
+      <c r="H206" s="22">
         <v>5.01</v>
       </c>
-      <c r="I196" s="18">
-        <f>SUMIF(C$1:C$154,"="&amp;C196,B$1:B$154)</f>
-        <v>1</v>
-      </c>
-      <c r="J196" s="33">
-        <f t="shared" si="44"/>
+      <c r="I206" s="18">
+        <f>SUMIF(C$1:C$163,"="&amp;C206,B$1:B$163)</f>
+        <v>1</v>
+      </c>
+      <c r="J206" s="33">
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="K196" s="34">
+      <c r="K206" s="34">
         <f t="shared" si="6"/>
         <v>5.01</v>
       </c>
     </row>
-    <row r="197" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B197" s="33">
-        <f t="shared" si="42"/>
-        <v>1</v>
-      </c>
-      <c r="C197" t="s">
-        <v>720</v>
-      </c>
-      <c r="E197" s="26" t="s">
-        <v>719</v>
-      </c>
-      <c r="G197">
-        <v>1</v>
-      </c>
-      <c r="H197" s="22">
-        <v>6.34</v>
-      </c>
-      <c r="I197" s="18">
-        <f>SUMIF(C$1:C$154,"="&amp;C197,B$1:B$154)</f>
-        <v>1</v>
-      </c>
-      <c r="J197" s="33">
-        <f t="shared" ref="J197" si="45">G197*B197-I197</f>
-        <v>0</v>
-      </c>
-      <c r="K197" s="34">
-        <f t="shared" ref="K197" si="46">B197*H197</f>
-        <v>6.34</v>
-      </c>
-    </row>
-    <row r="198" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B198" s="33">
-        <v>1</v>
-      </c>
-      <c r="C198" t="s">
-        <v>751</v>
-      </c>
-      <c r="D198" s="32"/>
-      <c r="E198" s="26" t="s">
-        <v>750</v>
-      </c>
-      <c r="G198">
-        <v>1</v>
-      </c>
-      <c r="H198" s="22">
-        <v>11.6</v>
-      </c>
-      <c r="I198" s="18">
-        <f>SUMIF(C$1:C$154,"="&amp;C198,B$1:B$154)</f>
-        <v>2</v>
-      </c>
-      <c r="J198" s="33">
-        <f t="shared" ref="J198:J199" si="47">G198*B198-I198</f>
-        <v>-1</v>
-      </c>
-      <c r="K198" s="34">
-        <f t="shared" ref="K198:K199" si="48">B198*H198</f>
-        <v>11.6</v>
-      </c>
-    </row>
-    <row r="199" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B199" s="33">
-        <v>1</v>
-      </c>
-      <c r="C199" t="s">
-        <v>771</v>
-      </c>
-      <c r="D199" s="32"/>
-      <c r="E199" s="29" t="s">
-        <v>772</v>
-      </c>
-      <c r="G199">
-        <v>1</v>
-      </c>
-      <c r="H199" s="22">
-        <v>5.66</v>
-      </c>
-      <c r="I199" s="18">
-        <f>SUMIF(C$1:C$154,"="&amp;C199,B$1:B$154)</f>
-        <v>4</v>
-      </c>
-      <c r="J199" s="33">
-        <f t="shared" si="47"/>
-        <v>-3</v>
-      </c>
-      <c r="K199" s="34">
-        <f t="shared" si="48"/>
-        <v>5.66</v>
-      </c>
-    </row>
-    <row r="200" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B200" s="33">
-        <v>1</v>
-      </c>
-      <c r="C200" t="s">
-        <v>753</v>
-      </c>
-      <c r="D200" s="32"/>
-      <c r="E200" s="29" t="s">
-        <v>752</v>
-      </c>
-      <c r="G200">
-        <v>1</v>
-      </c>
-      <c r="H200" s="22">
-        <v>5.23</v>
-      </c>
-      <c r="I200" s="18">
-        <f>SUMIF(C$1:C$154,"="&amp;C200,B$1:B$154)</f>
-        <v>0</v>
-      </c>
-      <c r="J200" s="33">
-        <f t="shared" ref="J200" si="49">G200*B200-I200</f>
-        <v>1</v>
-      </c>
-      <c r="K200" s="34">
-        <f t="shared" ref="K200" si="50">B200*H200</f>
-        <v>5.23</v>
-      </c>
-    </row>
-    <row r="201" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B201" s="33">
-        <v>1</v>
-      </c>
-      <c r="C201" s="32" t="s">
-        <v>777</v>
-      </c>
-      <c r="D201" s="32"/>
-      <c r="E201" s="29" t="s">
-        <v>656</v>
-      </c>
-      <c r="G201">
-        <v>1</v>
-      </c>
-      <c r="H201" s="22">
-        <v>4.96</v>
-      </c>
-      <c r="I201" s="18">
-        <f>SUMIF(C$1:C$154,"="&amp;C201,B$1:B$154)</f>
-        <v>1</v>
-      </c>
-      <c r="J201" s="33">
-        <f>G201*B201-I201</f>
-        <v>0</v>
-      </c>
-      <c r="K201" s="34">
-        <f>B201*H201</f>
-        <v>4.96</v>
-      </c>
-    </row>
-    <row r="202" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B202" s="33">
-        <v>1</v>
-      </c>
-      <c r="C202" t="s">
-        <v>778</v>
-      </c>
-      <c r="D202" s="32"/>
-      <c r="E202" s="29" t="s">
-        <v>682</v>
-      </c>
-      <c r="G202">
-        <v>1</v>
-      </c>
-      <c r="H202" s="22">
-        <v>4.24</v>
-      </c>
-      <c r="I202" s="18">
-        <f>SUMIF(C$1:C$154,"="&amp;C202,B$1:B$154)</f>
-        <v>1</v>
-      </c>
-      <c r="J202" s="33">
-        <f t="shared" ref="J202" si="51">G202*B202-I202</f>
-        <v>0</v>
-      </c>
-      <c r="K202" s="34">
-        <f>B202*H202</f>
-        <v>4.24</v>
-      </c>
-    </row>
-    <row r="203" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B203" s="33">
-        <f>ROUNDUP(I203/G203,0)</f>
-        <v>2</v>
-      </c>
-      <c r="C203" t="s">
-        <v>781</v>
-      </c>
-      <c r="E203" s="26" t="s">
-        <v>705</v>
-      </c>
-      <c r="G203">
-        <v>1</v>
-      </c>
-      <c r="H203" s="22">
-        <v>4.4400000000000004</v>
-      </c>
-      <c r="I203" s="18">
-        <f>SUMIF(C$1:C$154,"="&amp;C203,B$1:B$154)</f>
-        <v>2</v>
-      </c>
-      <c r="J203" s="33">
-        <f t="shared" ref="J203" si="52">G203*B203-I203</f>
-        <v>0</v>
-      </c>
-      <c r="K203" s="34">
-        <f>B203*H203</f>
-        <v>8.8800000000000008</v>
-      </c>
-    </row>
-    <row r="204" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B204" s="33">
-        <v>1</v>
-      </c>
-      <c r="C204" t="s">
-        <v>779</v>
-      </c>
-      <c r="D204" s="32"/>
-      <c r="E204" s="29" t="s">
-        <v>769</v>
-      </c>
-      <c r="G204">
-        <v>1</v>
-      </c>
-      <c r="H204" s="22">
-        <v>7.44</v>
-      </c>
-      <c r="I204" s="18">
-        <f>SUMIF(C$1:C$154,"="&amp;C204,B$1:B$154)</f>
-        <v>2</v>
-      </c>
-      <c r="J204" s="33">
-        <f t="shared" ref="J204" si="53">G204*B204-I204</f>
-        <v>-1</v>
-      </c>
-      <c r="K204" s="34">
-        <f t="shared" ref="K204" si="54">B204*H204</f>
-        <v>7.44</v>
-      </c>
-    </row>
-    <row r="205" spans="2:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B205" s="33">
-        <v>1</v>
-      </c>
-      <c r="C205" t="s">
-        <v>780</v>
-      </c>
-      <c r="D205" s="32"/>
-      <c r="E205" s="29" t="s">
-        <v>769</v>
-      </c>
-      <c r="G205">
-        <v>1</v>
-      </c>
-      <c r="H205" s="22">
-        <v>8.8699999999999992</v>
-      </c>
-      <c r="I205" s="18">
-        <f>SUMIF(C$1:C$154,"="&amp;C205,B$1:B$154)</f>
-        <v>1</v>
-      </c>
-      <c r="J205" s="33">
-        <f t="shared" ref="J205" si="55">G205*B205-I205</f>
-        <v>0</v>
-      </c>
-      <c r="K205" s="34">
-        <f t="shared" ref="K205" si="56">B205*H205</f>
-        <v>8.8699999999999992</v>
-      </c>
-    </row>
-    <row r="206" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B206" s="33">
-        <v>1</v>
-      </c>
-      <c r="C206" t="s">
-        <v>802</v>
-      </c>
-      <c r="D206" s="32"/>
-      <c r="E206" s="29" t="s">
-        <v>801</v>
-      </c>
-      <c r="G206">
-        <v>1</v>
-      </c>
-      <c r="H206" s="22">
-        <v>7.88</v>
-      </c>
-      <c r="I206" s="18">
-        <f>SUMIF(C$1:C$154,"="&amp;C206,B$1:B$154)</f>
-        <v>1</v>
-      </c>
-      <c r="J206" s="33">
-        <f t="shared" ref="J206" si="57">G206*B206-I206</f>
-        <v>0</v>
-      </c>
-      <c r="K206" s="34">
-        <f t="shared" ref="K206" si="58">B206*H206</f>
-        <v>7.88</v>
-      </c>
-    </row>
     <row r="207" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B207" s="33">
+        <f t="shared" si="42"/>
         <v>1</v>
       </c>
       <c r="C207" t="s">
-        <v>803</v>
-      </c>
-      <c r="D207" s="32"/>
-      <c r="E207" s="29" t="s">
-        <v>804</v>
+        <v>717</v>
+      </c>
+      <c r="E207" s="26" t="s">
+        <v>716</v>
       </c>
       <c r="G207">
         <v>1</v>
       </c>
       <c r="H207" s="22">
-        <v>7.88</v>
+        <v>6.34</v>
       </c>
       <c r="I207" s="18">
-        <f>SUMIF(C$1:C$154,"="&amp;C207,B$1:B$154)</f>
+        <f>SUMIF(C$1:C$163,"="&amp;C207,B$1:B$163)</f>
         <v>1</v>
       </c>
       <c r="J207" s="33">
-        <f t="shared" ref="J207" si="59">G207*B207-I207</f>
+        <f t="shared" ref="J207" si="48">G207*B207-I207</f>
         <v>0</v>
       </c>
       <c r="K207" s="34">
-        <f t="shared" ref="K207" si="60">B207*H207</f>
-        <v>7.88</v>
+        <f t="shared" ref="K207" si="49">B207*H207</f>
+        <v>6.34</v>
       </c>
     </row>
     <row r="208" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -15682,343 +15570,358 @@
         <v>1</v>
       </c>
       <c r="C208" t="s">
-        <v>779</v>
+        <v>748</v>
       </c>
       <c r="D208" s="32"/>
-      <c r="E208" s="29" t="s">
+      <c r="E208" s="26" t="s">
+        <v>747</v>
+      </c>
+      <c r="G208">
+        <v>1</v>
+      </c>
+      <c r="H208" s="22">
+        <v>11.6</v>
+      </c>
+      <c r="I208" s="18">
+        <f>SUMIF(C$1:C$163,"="&amp;C208,B$1:B$163)</f>
+        <v>2</v>
+      </c>
+      <c r="J208" s="33">
+        <f t="shared" ref="J208:J209" si="50">G208*B208-I208</f>
+        <v>-1</v>
+      </c>
+      <c r="K208" s="34">
+        <f t="shared" ref="K208:K209" si="51">B208*H208</f>
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="209" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B209" s="33">
+        <v>1</v>
+      </c>
+      <c r="C209" t="s">
+        <v>768</v>
+      </c>
+      <c r="D209" s="32"/>
+      <c r="E209" s="29" t="s">
         <v>769</v>
       </c>
-      <c r="G208">
-        <v>1</v>
-      </c>
-      <c r="H208" s="22">
-        <v>7.13</v>
-      </c>
-      <c r="I208" s="18">
-        <f>SUMIF(C$1:C$154,"="&amp;C208,B$1:B$154)</f>
+      <c r="G209">
+        <v>1</v>
+      </c>
+      <c r="H209" s="22">
+        <v>5.66</v>
+      </c>
+      <c r="I209" s="18">
+        <f>SUMIF(C$1:C$163,"="&amp;C209,B$1:B$163)</f>
+        <v>4</v>
+      </c>
+      <c r="J209" s="33">
+        <f t="shared" si="50"/>
+        <v>-3</v>
+      </c>
+      <c r="K209" s="34">
+        <f t="shared" si="51"/>
+        <v>5.66</v>
+      </c>
+    </row>
+    <row r="210" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B210" s="33">
+        <v>1</v>
+      </c>
+      <c r="C210" t="s">
+        <v>750</v>
+      </c>
+      <c r="D210" s="32"/>
+      <c r="E210" s="29" t="s">
+        <v>749</v>
+      </c>
+      <c r="G210">
+        <v>1</v>
+      </c>
+      <c r="H210" s="22">
+        <v>5.23</v>
+      </c>
+      <c r="I210" s="18">
+        <f>SUMIF(C$1:C$163,"="&amp;C210,B$1:B$163)</f>
+        <v>0</v>
+      </c>
+      <c r="J210" s="33">
+        <f t="shared" ref="J210" si="52">G210*B210-I210</f>
+        <v>1</v>
+      </c>
+      <c r="K210" s="34">
+        <f t="shared" ref="K210" si="53">B210*H210</f>
+        <v>5.23</v>
+      </c>
+    </row>
+    <row r="211" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B211" s="33">
+        <v>1</v>
+      </c>
+      <c r="C211" s="32" t="s">
+        <v>773</v>
+      </c>
+      <c r="D211" s="32"/>
+      <c r="E211" s="29" t="s">
+        <v>655</v>
+      </c>
+      <c r="G211">
+        <v>1</v>
+      </c>
+      <c r="H211" s="22">
+        <v>4.96</v>
+      </c>
+      <c r="I211" s="18">
+        <f>SUMIF(C$1:C$163,"="&amp;C211,B$1:B$163)</f>
+        <v>1</v>
+      </c>
+      <c r="J211" s="33">
+        <f>G211*B211-I211</f>
+        <v>0</v>
+      </c>
+      <c r="K211" s="34">
+        <f>B211*H211</f>
+        <v>4.96</v>
+      </c>
+    </row>
+    <row r="212" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B212" s="33">
+        <v>1</v>
+      </c>
+      <c r="C212" t="s">
+        <v>774</v>
+      </c>
+      <c r="D212" s="32"/>
+      <c r="E212" s="29" t="s">
+        <v>681</v>
+      </c>
+      <c r="G212">
+        <v>1</v>
+      </c>
+      <c r="H212" s="22">
+        <v>4.24</v>
+      </c>
+      <c r="I212" s="18">
+        <f>SUMIF(C$1:C$163,"="&amp;C212,B$1:B$163)</f>
+        <v>1</v>
+      </c>
+      <c r="J212" s="33">
+        <f t="shared" ref="J212" si="54">G212*B212-I212</f>
+        <v>0</v>
+      </c>
+      <c r="K212" s="34">
+        <f>B212*H212</f>
+        <v>4.24</v>
+      </c>
+    </row>
+    <row r="213" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B213" s="33">
+        <f>ROUNDUP(I213/G213,0)</f>
         <v>2</v>
       </c>
-      <c r="J208" s="33">
-        <f t="shared" ref="J208" si="61">G208*B208-I208</f>
+      <c r="C213" t="s">
+        <v>777</v>
+      </c>
+      <c r="E213" s="26" t="s">
+        <v>703</v>
+      </c>
+      <c r="G213">
+        <v>1</v>
+      </c>
+      <c r="H213" s="22">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="I213" s="18">
+        <f>SUMIF(C$1:C$163,"="&amp;C213,B$1:B$163)</f>
+        <v>2</v>
+      </c>
+      <c r="J213" s="33">
+        <f t="shared" ref="J213" si="55">G213*B213-I213</f>
+        <v>0</v>
+      </c>
+      <c r="K213" s="34">
+        <f>B213*H213</f>
+        <v>8.8800000000000008</v>
+      </c>
+    </row>
+    <row r="214" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B214" s="33">
+        <v>1</v>
+      </c>
+      <c r="C214" t="s">
+        <v>775</v>
+      </c>
+      <c r="D214" s="32"/>
+      <c r="E214" s="29" t="s">
+        <v>766</v>
+      </c>
+      <c r="G214">
+        <v>1</v>
+      </c>
+      <c r="H214" s="22">
+        <v>7.44</v>
+      </c>
+      <c r="I214" s="18">
+        <f>SUMIF(C$1:C$163,"="&amp;C214,B$1:B$163)</f>
+        <v>2</v>
+      </c>
+      <c r="J214" s="33">
+        <f t="shared" ref="J214" si="56">G214*B214-I214</f>
         <v>-1</v>
       </c>
-      <c r="K208" s="34">
-        <f t="shared" ref="K208" si="62">B208*H208</f>
-        <v>7.13</v>
-      </c>
-    </row>
-    <row r="209" spans="2:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B209" s="33"/>
-      <c r="D209" s="32"/>
-      <c r="H209" s="22"/>
-      <c r="I209" s="18"/>
-      <c r="J209" s="33"/>
-      <c r="K209" s="34"/>
-    </row>
-    <row r="210" spans="2:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B210" s="33">
-        <v>1</v>
-      </c>
-      <c r="C210" s="32" t="s">
-        <v>647</v>
-      </c>
-      <c r="E210" s="26" t="s">
-        <v>649</v>
-      </c>
-      <c r="G210">
-        <v>1</v>
-      </c>
-      <c r="H210" s="22">
-        <v>14.5</v>
-      </c>
-      <c r="I210" s="18">
-        <f>SUMIF(C$1:C$154,"="&amp;C210,B$1:B$154)</f>
-        <v>1</v>
-      </c>
-      <c r="J210" s="33">
-        <f t="shared" si="7"/>
+      <c r="K214" s="34">
+        <f t="shared" ref="K214" si="57">B214*H214</f>
+        <v>7.44</v>
+      </c>
+    </row>
+    <row r="215" spans="2:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B215" s="33">
+        <v>1</v>
+      </c>
+      <c r="C215" t="s">
+        <v>776</v>
+      </c>
+      <c r="D215" s="32"/>
+      <c r="E215" s="29" t="s">
+        <v>766</v>
+      </c>
+      <c r="G215">
+        <v>1</v>
+      </c>
+      <c r="H215" s="22">
+        <v>8.8699999999999992</v>
+      </c>
+      <c r="I215" s="18">
+        <f>SUMIF(C$1:C$163,"="&amp;C215,B$1:B$163)</f>
+        <v>1</v>
+      </c>
+      <c r="J215" s="33">
+        <f t="shared" ref="J215" si="58">G215*B215-I215</f>
         <v>0</v>
       </c>
-      <c r="K210" s="34">
-        <f t="shared" si="6"/>
-        <v>14.5</v>
-      </c>
-    </row>
-    <row r="211" spans="2:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B211" s="33">
-        <v>1</v>
-      </c>
-      <c r="C211" s="32" t="s">
-        <v>715</v>
-      </c>
-      <c r="E211" s="26" t="s">
-        <v>716</v>
-      </c>
-      <c r="G211">
-        <v>1</v>
-      </c>
-      <c r="H211" s="22">
-        <v>8.5</v>
-      </c>
-      <c r="I211" s="18">
-        <f>SUMIF(C$1:C$154,"="&amp;C211,B$1:B$154)</f>
-        <v>1</v>
-      </c>
-      <c r="J211" s="33">
-        <f t="shared" ref="J211" si="63">G211*B211-I211</f>
+      <c r="K215" s="34">
+        <f t="shared" ref="K215" si="59">B215*H215</f>
+        <v>8.8699999999999992</v>
+      </c>
+    </row>
+    <row r="216" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B216" s="33">
+        <v>1</v>
+      </c>
+      <c r="C216" t="s">
+        <v>798</v>
+      </c>
+      <c r="D216" s="32"/>
+      <c r="E216" s="29" t="s">
+        <v>797</v>
+      </c>
+      <c r="G216">
+        <v>1</v>
+      </c>
+      <c r="H216" s="22">
+        <v>7.88</v>
+      </c>
+      <c r="I216" s="18">
+        <f>SUMIF(C$1:C$163,"="&amp;C216,B$1:B$163)</f>
+        <v>1</v>
+      </c>
+      <c r="J216" s="33">
+        <f t="shared" ref="J216" si="60">G216*B216-I216</f>
         <v>0</v>
       </c>
-      <c r="K211" s="34">
-        <f t="shared" ref="K211" si="64">B211*H211</f>
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="212" spans="2:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B212" s="33">
-        <v>1</v>
-      </c>
-      <c r="C212" s="32" t="s">
-        <v>776</v>
-      </c>
-      <c r="E212" s="26" t="s">
-        <v>775</v>
-      </c>
-      <c r="G212">
-        <v>1</v>
-      </c>
-      <c r="H212" s="22">
-        <v>54.2</v>
-      </c>
-      <c r="I212" s="18">
-        <f>SUMIF(C$1:C$154,"="&amp;C212,B$1:B$154)</f>
-        <v>1</v>
-      </c>
-      <c r="J212" s="33">
-        <f t="shared" ref="J212" si="65">G212*B212-I212</f>
-        <v>0</v>
-      </c>
-      <c r="K212" s="34">
-        <f t="shared" ref="K212" si="66">B212*H212</f>
-        <v>54.2</v>
-      </c>
-    </row>
-    <row r="213" spans="2:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B213" s="33">
-        <v>1</v>
-      </c>
-      <c r="C213" s="32" t="s">
-        <v>810</v>
-      </c>
-      <c r="E213" s="26" t="s">
-        <v>811</v>
-      </c>
-      <c r="G213">
-        <v>1</v>
-      </c>
-      <c r="H213" s="22">
-        <v>37</v>
-      </c>
-      <c r="I213" s="18">
-        <f>SUMIF(C$1:C$154,"="&amp;C213,B$1:B$154)</f>
-        <v>1</v>
-      </c>
-      <c r="J213" s="33">
-        <f t="shared" ref="J213" si="67">G213*B213-I213</f>
-        <v>0</v>
-      </c>
-      <c r="K213" s="34">
-        <f t="shared" ref="K213" si="68">B213*H213</f>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="214" spans="2:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B214" s="33">
-        <f t="shared" ref="B214:B224" si="69">ROUNDUP(I214/G214,0)</f>
-        <v>4</v>
-      </c>
-      <c r="C214" s="32" t="s">
-        <v>659</v>
-      </c>
-      <c r="E214" s="9" t="s">
-        <v>562</v>
-      </c>
-      <c r="G214">
-        <v>1</v>
-      </c>
-      <c r="H214" s="22">
-        <v>14.53</v>
-      </c>
-      <c r="I214" s="18">
-        <f>SUMIF(C$1:C$154,"="&amp;C214,B$1:B$154)</f>
-        <v>4</v>
-      </c>
-      <c r="J214" s="33">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K214" s="34">
-        <f t="shared" si="6"/>
-        <v>58.12</v>
-      </c>
-      <c r="L214" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="215" spans="2:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B215" s="33">
-        <f t="shared" si="69"/>
-        <v>1</v>
-      </c>
-      <c r="C215" s="32" t="s">
-        <v>782</v>
-      </c>
-      <c r="E215" s="9" t="s">
-        <v>784</v>
-      </c>
-      <c r="G215">
-        <v>1</v>
-      </c>
-      <c r="H215" s="22">
-        <v>36.42</v>
-      </c>
-      <c r="I215" s="18">
-        <f>SUMIF(C$1:C$154,"="&amp;C215,B$1:B$154)</f>
-        <v>1</v>
-      </c>
-      <c r="J215" s="33">
-        <f t="shared" ref="J215" si="70">G215*B215-I215</f>
-        <v>0</v>
-      </c>
-      <c r="K215" s="34">
-        <f t="shared" ref="K215" si="71">B215*H215</f>
-        <v>36.42</v>
-      </c>
-      <c r="L215" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="216" spans="2:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B216" s="33"/>
-      <c r="C216" s="32"/>
-      <c r="E216" s="9"/>
-      <c r="H216" s="22"/>
-      <c r="I216" s="18"/>
-      <c r="J216" s="33"/>
-      <c r="K216" s="34"/>
-    </row>
-    <row r="217" spans="2:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K216" s="34">
+        <f t="shared" ref="K216" si="61">B216*H216</f>
+        <v>7.88</v>
+      </c>
+    </row>
+    <row r="217" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B217" s="33">
-        <f t="shared" si="69"/>
-        <v>2</v>
-      </c>
-      <c r="C217" s="32" t="s">
-        <v>669</v>
+        <v>1</v>
+      </c>
+      <c r="C217" t="s">
+        <v>799</v>
       </c>
       <c r="D217" s="32"/>
       <c r="E217" s="29" t="s">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="G217">
         <v>1</v>
       </c>
       <c r="H217" s="22">
-        <v>1.54</v>
+        <v>7.88</v>
       </c>
       <c r="I217" s="18">
-        <f>SUMIF(C$1:C$154,"="&amp;C217,B$1:B$154)</f>
-        <v>2</v>
+        <f>SUMIF(C$1:C$163,"="&amp;C217,B$1:B$163)</f>
+        <v>1</v>
       </c>
       <c r="J217" s="33">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="J217" si="62">G217*B217-I217</f>
         <v>0</v>
       </c>
       <c r="K217" s="34">
-        <f t="shared" si="6"/>
-        <v>3.08</v>
-      </c>
-    </row>
-    <row r="218" spans="2:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" ref="K217" si="63">B217*H217</f>
+        <v>7.88</v>
+      </c>
+    </row>
+    <row r="218" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B218" s="33">
-        <f t="shared" ref="B218" si="72">ROUNDUP(I218/G218,0)</f>
-        <v>8</v>
-      </c>
-      <c r="C218" s="32" t="s">
-        <v>768</v>
+        <v>1</v>
+      </c>
+      <c r="C218" t="s">
+        <v>775</v>
       </c>
       <c r="D218" s="32"/>
       <c r="E218" s="29" t="s">
-        <v>785</v>
+        <v>766</v>
       </c>
       <c r="G218">
         <v>1</v>
       </c>
       <c r="H218" s="22">
-        <v>1.54</v>
+        <v>7.13</v>
       </c>
       <c r="I218" s="18">
-        <f>SUMIF(C$1:C$154,"="&amp;C218,B$1:B$154)</f>
-        <v>8</v>
+        <f>SUMIF(C$1:C$163,"="&amp;C218,B$1:B$163)</f>
+        <v>2</v>
       </c>
       <c r="J218" s="33">
-        <f t="shared" ref="J218" si="73">G218*B218-I218</f>
-        <v>0</v>
+        <f t="shared" ref="J218" si="64">G218*B218-I218</f>
+        <v>-1</v>
       </c>
       <c r="K218" s="34">
-        <f t="shared" ref="K218" si="74">B218*H218</f>
-        <v>12.32</v>
-      </c>
-    </row>
-    <row r="219" spans="2:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B219" s="33">
-        <f t="shared" ref="B219" si="75">ROUNDUP(I219/G219,0)</f>
-        <v>8</v>
-      </c>
-      <c r="C219" s="32" t="s">
-        <v>787</v>
-      </c>
+        <f t="shared" ref="K218" si="65">B218*H218</f>
+        <v>7.13</v>
+      </c>
+    </row>
+    <row r="219" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B219" s="33"/>
       <c r="D219" s="32"/>
-      <c r="E219" s="29" t="s">
-        <v>786</v>
-      </c>
-      <c r="G219">
-        <v>1</v>
-      </c>
-      <c r="H219" s="22">
-        <v>1.54</v>
-      </c>
-      <c r="I219" s="18">
-        <f>SUMIF(C$1:C$154,"="&amp;C219,B$1:B$154)</f>
-        <v>8</v>
-      </c>
-      <c r="J219" s="33">
-        <f t="shared" ref="J219" si="76">G219*B219-I219</f>
-        <v>0</v>
-      </c>
-      <c r="K219" s="34">
-        <f t="shared" ref="K219" si="77">B219*H219</f>
-        <v>12.32</v>
-      </c>
-    </row>
-    <row r="220" spans="2:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H219" s="22"/>
+      <c r="I219" s="18"/>
+      <c r="J219" s="33"/>
+      <c r="K219" s="34"/>
+    </row>
+    <row r="220" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B220" s="33">
-        <f t="shared" si="69"/>
-        <v>6</v>
-      </c>
-      <c r="C220" t="s">
-        <v>644</v>
+        <v>1</v>
+      </c>
+      <c r="C220" s="32" t="s">
+        <v>838</v>
       </c>
       <c r="E220" s="26" t="s">
-        <v>643</v>
+        <v>648</v>
       </c>
       <c r="G220">
         <v>1</v>
       </c>
       <c r="H220" s="22">
-        <v>1.95</v>
+        <v>14.5</v>
       </c>
       <c r="I220" s="18">
-        <f>SUMIF(C$1:C$154,"="&amp;C220,B$1:B$154)</f>
-        <v>6</v>
+        <f>SUMIF(C$1:C$163,"="&amp;C220,B$1:B$163)</f>
+        <v>1</v>
       </c>
       <c r="J220" s="33">
         <f t="shared" si="7"/>
@@ -16026,536 +15929,817 @@
       </c>
       <c r="K220" s="34">
         <f t="shared" si="6"/>
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="221" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B221" s="33">
+        <v>1</v>
+      </c>
+      <c r="C221" s="32" t="s">
+        <v>839</v>
+      </c>
+      <c r="E221" s="26" t="s">
+        <v>713</v>
+      </c>
+      <c r="G221">
+        <v>1</v>
+      </c>
+      <c r="H221" s="22">
+        <v>8.5</v>
+      </c>
+      <c r="I221" s="18">
+        <f>SUMIF(C$1:C$163,"="&amp;C221,B$1:B$163)</f>
+        <v>1</v>
+      </c>
+      <c r="J221" s="33">
+        <f t="shared" ref="J221" si="66">G221*B221-I221</f>
+        <v>0</v>
+      </c>
+      <c r="K221" s="34">
+        <f t="shared" ref="K221" si="67">B221*H221</f>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="222" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B222" s="33">
+        <v>1</v>
+      </c>
+      <c r="C222" s="32" t="s">
+        <v>837</v>
+      </c>
+      <c r="E222" s="26" t="s">
+        <v>772</v>
+      </c>
+      <c r="G222">
+        <v>1</v>
+      </c>
+      <c r="H222" s="22">
+        <v>54.2</v>
+      </c>
+      <c r="I222" s="18">
+        <f>SUMIF(C$1:C$163,"="&amp;C222,B$1:B$163)</f>
+        <v>1</v>
+      </c>
+      <c r="J222" s="33">
+        <f t="shared" ref="J222" si="68">G222*B222-I222</f>
+        <v>0</v>
+      </c>
+      <c r="K222" s="34">
+        <f t="shared" ref="K222" si="69">B222*H222</f>
+        <v>54.2</v>
+      </c>
+    </row>
+    <row r="223" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B223" s="33">
+        <v>1</v>
+      </c>
+      <c r="C223" s="32" t="s">
+        <v>836</v>
+      </c>
+      <c r="E223" s="26" t="s">
+        <v>806</v>
+      </c>
+      <c r="G223">
+        <v>1</v>
+      </c>
+      <c r="H223" s="22">
+        <v>37</v>
+      </c>
+      <c r="I223" s="18">
+        <f>SUMIF(C$1:C$163,"="&amp;C223,B$1:B$163)</f>
+        <v>1</v>
+      </c>
+      <c r="J223" s="33">
+        <f t="shared" ref="J223" si="70">G223*B223-I223</f>
+        <v>0</v>
+      </c>
+      <c r="K223" s="34">
+        <f t="shared" ref="K223" si="71">B223*H223</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="224" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B224" s="33">
+        <v>1</v>
+      </c>
+      <c r="C224" s="32" t="s">
+        <v>835</v>
+      </c>
+      <c r="E224" s="26" t="s">
+        <v>833</v>
+      </c>
+      <c r="G224">
+        <v>1</v>
+      </c>
+      <c r="H224" s="22">
+        <v>18</v>
+      </c>
+      <c r="I224" s="18">
+        <f>SUMIF(C$1:C$163,"="&amp;C224,B$1:B$163)</f>
+        <v>1</v>
+      </c>
+      <c r="J224" s="33">
+        <f t="shared" ref="J224" si="72">G224*B224-I224</f>
+        <v>0</v>
+      </c>
+      <c r="K224" s="34">
+        <f t="shared" ref="K224" si="73">B224*H224</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="225" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B225" s="33">
+        <f t="shared" ref="B225:B235" si="74">ROUNDUP(I225/G225,0)</f>
+        <v>5</v>
+      </c>
+      <c r="C225" s="32" t="s">
+        <v>658</v>
+      </c>
+      <c r="E225" s="9" t="s">
+        <v>562</v>
+      </c>
+      <c r="G225">
+        <v>1</v>
+      </c>
+      <c r="H225" s="22">
+        <v>14.53</v>
+      </c>
+      <c r="I225" s="18">
+        <f>SUMIF(C$1:C$163,"="&amp;C225,B$1:B$163)</f>
+        <v>5</v>
+      </c>
+      <c r="J225" s="33">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K225" s="34">
+        <f t="shared" si="6"/>
+        <v>72.649999999999991</v>
+      </c>
+      <c r="L225" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="226" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B226" s="33">
+        <f t="shared" si="74"/>
+        <v>1</v>
+      </c>
+      <c r="C226" s="32" t="s">
+        <v>778</v>
+      </c>
+      <c r="E226" s="9" t="s">
+        <v>780</v>
+      </c>
+      <c r="G226">
+        <v>1</v>
+      </c>
+      <c r="H226" s="22">
+        <v>36.42</v>
+      </c>
+      <c r="I226" s="18">
+        <f>SUMIF(C$1:C$163,"="&amp;C226,B$1:B$163)</f>
+        <v>1</v>
+      </c>
+      <c r="J226" s="33">
+        <f t="shared" ref="J226" si="75">G226*B226-I226</f>
+        <v>0</v>
+      </c>
+      <c r="K226" s="34">
+        <f t="shared" ref="K226" si="76">B226*H226</f>
+        <v>36.42</v>
+      </c>
+      <c r="L226" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="227" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B227" s="33"/>
+      <c r="C227" s="32"/>
+      <c r="E227" s="9"/>
+      <c r="H227" s="22"/>
+      <c r="I227" s="18"/>
+      <c r="J227" s="33"/>
+      <c r="K227" s="34"/>
+    </row>
+    <row r="228" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B228" s="33">
+        <f t="shared" si="74"/>
+        <v>2</v>
+      </c>
+      <c r="C228" s="32" t="s">
+        <v>668</v>
+      </c>
+      <c r="D228" s="32"/>
+      <c r="E228" s="29" t="s">
+        <v>666</v>
+      </c>
+      <c r="G228">
+        <v>1</v>
+      </c>
+      <c r="H228" s="22">
+        <v>1.54</v>
+      </c>
+      <c r="I228" s="18">
+        <f>SUMIF(C$1:C$163,"="&amp;C228,B$1:B$163)</f>
+        <v>2</v>
+      </c>
+      <c r="J228" s="33">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K228" s="34">
+        <f t="shared" si="6"/>
+        <v>3.08</v>
+      </c>
+    </row>
+    <row r="229" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B229" s="33">
+        <f t="shared" ref="B229" si="77">ROUNDUP(I229/G229,0)</f>
+        <v>8</v>
+      </c>
+      <c r="C229" s="32" t="s">
+        <v>765</v>
+      </c>
+      <c r="D229" s="32"/>
+      <c r="E229" s="29" t="s">
+        <v>781</v>
+      </c>
+      <c r="G229">
+        <v>1</v>
+      </c>
+      <c r="H229" s="22">
+        <v>1.54</v>
+      </c>
+      <c r="I229" s="18">
+        <f>SUMIF(C$1:C$163,"="&amp;C229,B$1:B$163)</f>
+        <v>8</v>
+      </c>
+      <c r="J229" s="33">
+        <f t="shared" ref="J229" si="78">G229*B229-I229</f>
+        <v>0</v>
+      </c>
+      <c r="K229" s="34">
+        <f t="shared" ref="K229" si="79">B229*H229</f>
+        <v>12.32</v>
+      </c>
+    </row>
+    <row r="230" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B230" s="33">
+        <f t="shared" ref="B230" si="80">ROUNDUP(I230/G230,0)</f>
+        <v>14</v>
+      </c>
+      <c r="C230" s="32" t="s">
+        <v>783</v>
+      </c>
+      <c r="D230" s="32"/>
+      <c r="E230" s="29" t="s">
+        <v>782</v>
+      </c>
+      <c r="G230">
+        <v>1</v>
+      </c>
+      <c r="H230" s="22">
+        <v>1.54</v>
+      </c>
+      <c r="I230" s="18">
+        <f>SUMIF(C$1:C$163,"="&amp;C230,B$1:B$163)</f>
+        <v>14</v>
+      </c>
+      <c r="J230" s="33">
+        <f t="shared" ref="J230" si="81">G230*B230-I230</f>
+        <v>0</v>
+      </c>
+      <c r="K230" s="34">
+        <f t="shared" ref="K230" si="82">B230*H230</f>
+        <v>21.560000000000002</v>
+      </c>
+    </row>
+    <row r="231" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B231" s="33">
+        <f t="shared" si="74"/>
+        <v>6</v>
+      </c>
+      <c r="C231" t="s">
+        <v>644</v>
+      </c>
+      <c r="E231" s="26" t="s">
+        <v>643</v>
+      </c>
+      <c r="G231">
+        <v>1</v>
+      </c>
+      <c r="H231" s="22">
+        <v>1.95</v>
+      </c>
+      <c r="I231" s="18">
+        <f>SUMIF(C$1:C$163,"="&amp;C231,B$1:B$163)</f>
+        <v>6</v>
+      </c>
+      <c r="J231" s="33">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K231" s="34">
+        <f t="shared" si="6"/>
         <v>11.7</v>
       </c>
     </row>
-    <row r="221" spans="2:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B221" s="33">
-        <f t="shared" si="69"/>
+    <row r="232" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B232" s="33">
+        <f t="shared" si="74"/>
         <v>2</v>
       </c>
-      <c r="C221" t="s">
+      <c r="C232" t="s">
         <v>620</v>
       </c>
-      <c r="E221" s="29" t="s">
+      <c r="E232" s="29" t="s">
         <v>622</v>
       </c>
-      <c r="G221">
-        <v>1</v>
-      </c>
-      <c r="H221" s="22">
+      <c r="G232">
+        <v>1</v>
+      </c>
+      <c r="H232" s="22">
         <v>1.39</v>
       </c>
-      <c r="I221" s="18">
-        <f>SUMIF(C$1:C$154,"="&amp;C221,B$1:B$154)</f>
+      <c r="I232" s="18">
+        <f>SUMIF(C$1:C$163,"="&amp;C232,B$1:B$163)</f>
         <v>2</v>
       </c>
-      <c r="J221" s="33">
-        <f t="shared" ref="J221" si="78">G221*B221-I221</f>
+      <c r="J232" s="33">
+        <f t="shared" ref="J232" si="83">G232*B232-I232</f>
         <v>0</v>
       </c>
-      <c r="K221" s="34">
+      <c r="K232" s="34">
         <f t="shared" si="6"/>
         <v>2.78</v>
       </c>
     </row>
-    <row r="222" spans="2:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B222" s="33">
-        <f t="shared" si="69"/>
+    <row r="233" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B233" s="33">
+        <f t="shared" si="74"/>
         <v>5</v>
       </c>
-      <c r="C222" t="s">
+      <c r="C233" t="s">
         <v>613</v>
       </c>
-      <c r="E222" s="29" t="s">
+      <c r="E233" s="29" t="s">
         <v>557</v>
       </c>
-      <c r="G222">
-        <v>1</v>
-      </c>
-      <c r="H222" s="22">
+      <c r="G233">
+        <v>1</v>
+      </c>
+      <c r="H233" s="22">
         <v>3.29</v>
       </c>
-      <c r="I222" s="18">
-        <f>SUMIF(C$1:C$154,"="&amp;C222,B$1:B$154)</f>
+      <c r="I233" s="18">
+        <f>SUMIF(C$1:C$163,"="&amp;C233,B$1:B$163)</f>
         <v>5</v>
       </c>
-      <c r="J222" s="33">
-        <f t="shared" ref="J222" si="79">G222*B222-I222</f>
+      <c r="J233" s="33">
+        <f t="shared" ref="J233" si="84">G233*B233-I233</f>
         <v>0</v>
       </c>
-      <c r="K222" s="34">
+      <c r="K233" s="34">
         <f t="shared" si="6"/>
         <v>16.45</v>
       </c>
     </row>
-    <row r="223" spans="2:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B223" s="33">
-        <f t="shared" si="69"/>
+    <row r="234" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B234" s="33">
+        <f t="shared" si="74"/>
         <v>2</v>
       </c>
-      <c r="C223" t="s">
-        <v>693</v>
-      </c>
-      <c r="E223" s="26" t="s">
-        <v>694</v>
-      </c>
-      <c r="G223">
-        <v>1</v>
-      </c>
-      <c r="H223" s="22">
-        <v>1</v>
-      </c>
-      <c r="I223" s="18">
-        <f>SUMIF(C$1:C$154,"="&amp;C223,B$1:B$154)</f>
+      <c r="C234" t="s">
+        <v>691</v>
+      </c>
+      <c r="E234" s="26" t="s">
+        <v>692</v>
+      </c>
+      <c r="G234">
+        <v>1</v>
+      </c>
+      <c r="H234" s="22">
+        <v>1</v>
+      </c>
+      <c r="I234" s="18">
+        <f>SUMIF(C$1:C$163,"="&amp;C234,B$1:B$163)</f>
         <v>2</v>
       </c>
-      <c r="J223" s="33">
-        <f t="shared" ref="J223" si="80">G223*B223-I223</f>
+      <c r="J234" s="33">
+        <f t="shared" ref="J234" si="85">G234*B234-I234</f>
         <v>0</v>
       </c>
-      <c r="K223" s="34">
+      <c r="K234" s="34">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
-    <row r="224" spans="2:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B224" s="33">
-        <f t="shared" si="69"/>
+    <row r="235" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B235" s="33">
+        <f t="shared" si="74"/>
         <v>4</v>
       </c>
-      <c r="C224" s="32" t="s">
-        <v>701</v>
-      </c>
-      <c r="E224" s="26" t="s">
-        <v>700</v>
-      </c>
-      <c r="G224">
-        <v>1</v>
-      </c>
-      <c r="H224" s="22">
+      <c r="C235" s="32" t="s">
+        <v>699</v>
+      </c>
+      <c r="E235" s="26" t="s">
+        <v>698</v>
+      </c>
+      <c r="G235">
+        <v>1</v>
+      </c>
+      <c r="H235" s="22">
         <v>1.05</v>
       </c>
-      <c r="I224" s="18">
-        <f>SUMIF(C$1:C$154,"="&amp;C224,B$1:B$154)</f>
+      <c r="I235" s="18">
+        <f>SUMIF(C$1:C$163,"="&amp;C235,B$1:B$163)</f>
         <v>4</v>
       </c>
-      <c r="J224" s="33">
-        <f t="shared" ref="J224" si="81">G224*B224-I224</f>
+      <c r="J235" s="33">
+        <f t="shared" ref="J235" si="86">G235*B235-I235</f>
         <v>0</v>
       </c>
-      <c r="K224" s="34">
+      <c r="K235" s="34">
         <f t="shared" si="6"/>
         <v>4.2</v>
       </c>
     </row>
-    <row r="225" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B225" s="33">
-        <f t="shared" ref="B225:B227" si="82">ROUNDUP(I225/G225,0)</f>
+    <row r="236" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B236" s="33">
+        <f t="shared" ref="B236:B238" si="87">ROUNDUP(I236/G236,0)</f>
         <v>4</v>
       </c>
-      <c r="C225" s="32" t="s">
-        <v>812</v>
-      </c>
-      <c r="E225" s="26" t="s">
-        <v>813</v>
-      </c>
-      <c r="G225">
-        <v>1</v>
-      </c>
-      <c r="H225" s="22">
-        <v>1</v>
-      </c>
-      <c r="I225" s="18">
-        <f>SUMIF(C$1:C$154,"="&amp;C225,B$1:B$154)</f>
+      <c r="C236" s="32" t="s">
+        <v>807</v>
+      </c>
+      <c r="E236" s="26" t="s">
+        <v>808</v>
+      </c>
+      <c r="G236">
+        <v>1</v>
+      </c>
+      <c r="H236" s="22">
+        <v>1</v>
+      </c>
+      <c r="I236" s="18">
+        <f>SUMIF(C$1:C$163,"="&amp;C236,B$1:B$163)</f>
         <v>4</v>
       </c>
-      <c r="J225" s="33">
-        <f t="shared" ref="J225" si="83">G225*B225-I225</f>
+      <c r="J236" s="33">
+        <f t="shared" ref="J236" si="88">G236*B236-I236</f>
         <v>0</v>
       </c>
-      <c r="K225" s="34">
-        <f t="shared" ref="K225" si="84">B225*H225</f>
+      <c r="K236" s="34">
+        <f t="shared" ref="K236" si="89">B236*H236</f>
         <v>4</v>
       </c>
     </row>
-    <row r="226" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B226" s="33">
-        <f t="shared" si="82"/>
+    <row r="237" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B237" s="33">
+        <f t="shared" si="87"/>
         <v>2</v>
       </c>
-      <c r="C226" t="s">
+      <c r="C237" t="s">
         <v>599</v>
       </c>
-      <c r="E226" s="29" t="s">
-        <v>834</v>
-      </c>
-      <c r="G226">
-        <v>1</v>
-      </c>
-      <c r="H226" s="22">
+      <c r="E237" s="29" t="s">
+        <v>825</v>
+      </c>
+      <c r="G237">
+        <v>1</v>
+      </c>
+      <c r="H237" s="22">
         <v>26.88</v>
       </c>
-      <c r="I226" s="18">
-        <f>SUMIF(C$1:C$154,"="&amp;C226,B$1:B$154)</f>
+      <c r="I237" s="18">
+        <f>SUMIF(C$1:C$163,"="&amp;C237,B$1:B$163)</f>
         <v>2</v>
       </c>
-      <c r="J226" s="33">
-        <f t="shared" ref="J226" si="85">G226*B226-I226</f>
+      <c r="J237" s="33">
+        <f t="shared" ref="J237" si="90">G237*B237-I237</f>
         <v>0</v>
       </c>
-      <c r="K226" s="34">
-        <f t="shared" ref="K226" si="86">B226*H226</f>
+      <c r="K237" s="34">
+        <f t="shared" ref="K237" si="91">B237*H237</f>
         <v>53.76</v>
       </c>
     </row>
-    <row r="227" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B227" s="33">
-        <f t="shared" si="82"/>
-        <v>1</v>
-      </c>
-      <c r="C227" t="s">
-        <v>836</v>
-      </c>
-      <c r="E227" s="29" t="s">
-        <v>835</v>
-      </c>
-      <c r="G227">
-        <v>1</v>
-      </c>
-      <c r="H227" s="22">
+    <row r="238" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B238" s="33">
+        <f t="shared" si="87"/>
+        <v>1</v>
+      </c>
+      <c r="C238" t="s">
+        <v>827</v>
+      </c>
+      <c r="E238" s="29" t="s">
+        <v>826</v>
+      </c>
+      <c r="G238">
+        <v>1</v>
+      </c>
+      <c r="H238" s="22">
         <v>24.22</v>
       </c>
-      <c r="I227" s="18">
-        <f>SUMIF(C$1:C$154,"="&amp;C227,B$1:B$154)</f>
-        <v>1</v>
-      </c>
-      <c r="J227" s="33">
-        <f t="shared" ref="J227" si="87">G227*B227-I227</f>
+      <c r="I238" s="18">
+        <f>SUMIF(C$1:C$163,"="&amp;C238,B$1:B$163)</f>
+        <v>1</v>
+      </c>
+      <c r="J238" s="33">
+        <f t="shared" ref="J238" si="92">G238*B238-I238</f>
         <v>0</v>
       </c>
-      <c r="K227" s="34">
-        <f t="shared" ref="K227" si="88">B227*H227</f>
+      <c r="K238" s="34">
+        <f t="shared" ref="K238" si="93">B238*H238</f>
         <v>24.22</v>
       </c>
     </row>
-    <row r="228" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B228" s="33">
-        <f t="shared" ref="B228" si="89">ROUNDUP(I228/G228,0)</f>
-        <v>0</v>
-      </c>
-      <c r="C228" t="s">
-        <v>816</v>
-      </c>
-      <c r="E228" s="29" t="s">
-        <v>817</v>
-      </c>
-      <c r="G228">
-        <v>1</v>
-      </c>
-      <c r="H228" s="22">
-        <v>19.899999999999999</v>
-      </c>
-      <c r="I228" s="18">
-        <f>SUMIF(C$1:C$154,"="&amp;C228,B$1:B$154)</f>
-        <v>0</v>
-      </c>
-      <c r="J228" s="33">
-        <f t="shared" ref="J228" si="90">G228*B228-I228</f>
-        <v>0</v>
-      </c>
-      <c r="K228" s="34">
-        <f t="shared" ref="K228" si="91">B228*H228</f>
-        <v>0</v>
-      </c>
-      <c r="L228" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="229" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C229" s="6"/>
-      <c r="D229" s="29"/>
-      <c r="E229"/>
-      <c r="G229" s="22"/>
-      <c r="H229" s="22"/>
-      <c r="I229" s="18"/>
-      <c r="J229" s="33"/>
-      <c r="K229" s="34"/>
-    </row>
-    <row r="230" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A230" s="6" t="s">
-        <v>757</v>
-      </c>
-      <c r="B230" s="33"/>
-      <c r="E230"/>
-      <c r="H230" s="22"/>
-      <c r="I230" s="18"/>
-      <c r="J230" s="33"/>
-      <c r="K230" s="34"/>
-    </row>
-    <row r="231" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B231" s="33">
-        <v>1</v>
-      </c>
-      <c r="C231" t="s">
-        <v>745</v>
-      </c>
-      <c r="E231" s="29" t="s">
-        <v>746</v>
-      </c>
-      <c r="G231">
-        <v>1</v>
-      </c>
-      <c r="H231" s="22">
-        <v>4.09</v>
-      </c>
-      <c r="I231" s="18">
-        <f>SUMIF(C$1:C$154,"="&amp;C231,B$1:B$154)</f>
-        <v>3</v>
-      </c>
-      <c r="J231" s="33">
-        <f t="shared" ref="J231:J232" si="92">G231*B231-I231</f>
-        <v>-2</v>
-      </c>
-      <c r="K231" s="34">
-        <f t="shared" ref="K231:K232" si="93">B231*H231</f>
-        <v>4.09</v>
-      </c>
-    </row>
-    <row r="232" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B232" s="33">
-        <v>1</v>
-      </c>
-      <c r="C232" t="s">
-        <v>754</v>
-      </c>
-      <c r="E232" s="29" t="s">
-        <v>790</v>
-      </c>
-      <c r="G232">
-        <v>1</v>
-      </c>
-      <c r="H232" s="22">
-        <v>2.8</v>
-      </c>
-      <c r="I232" s="18">
-        <f>SUMIF(C$1:C$154,"="&amp;C232,B$1:B$154)</f>
-        <v>1</v>
-      </c>
-      <c r="J232" s="33">
-        <f t="shared" si="92"/>
-        <v>0</v>
-      </c>
-      <c r="K232" s="34">
-        <f t="shared" si="93"/>
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="233" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B233" s="33">
-        <v>1</v>
-      </c>
-      <c r="C233" t="s">
-        <v>755</v>
-      </c>
-      <c r="E233" s="29" t="s">
-        <v>790</v>
-      </c>
-      <c r="G233">
-        <v>1</v>
-      </c>
-      <c r="H233" s="22">
-        <v>2.8</v>
-      </c>
-      <c r="I233" s="18">
-        <f>SUMIF(C$1:C$154,"="&amp;C233,B$1:B$154)</f>
-        <v>2</v>
-      </c>
-      <c r="J233" s="33">
-        <f t="shared" ref="J233" si="94">G233*B233-I233</f>
-        <v>-1</v>
-      </c>
-      <c r="K233" s="34">
-        <f t="shared" ref="K233" si="95">B233*H233</f>
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="234" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B234" s="33">
-        <v>1</v>
-      </c>
-      <c r="C234" t="s">
-        <v>756</v>
-      </c>
-      <c r="E234" s="29" t="s">
-        <v>790</v>
-      </c>
-      <c r="G234">
-        <v>1</v>
-      </c>
-      <c r="H234" s="22">
-        <v>2.8</v>
-      </c>
-      <c r="I234" s="18">
-        <f>SUMIF(C$1:C$154,"="&amp;C234,B$1:B$154)</f>
-        <v>3</v>
-      </c>
-      <c r="J234" s="33">
-        <f t="shared" ref="J234" si="96">G234*B234-I234</f>
-        <v>-2</v>
-      </c>
-      <c r="K234" s="34">
-        <f t="shared" ref="K234" si="97">B234*H234</f>
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="235" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B235" s="33"/>
-      <c r="H235" s="22"/>
-      <c r="I235" s="18"/>
-      <c r="J235" s="33"/>
-      <c r="K235" s="34"/>
-    </row>
-    <row r="236" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B236" s="33"/>
-      <c r="H236" s="22"/>
-      <c r="I236" s="18"/>
-      <c r="J236" s="33"/>
-      <c r="K236" s="34"/>
-    </row>
-    <row r="237" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B237" s="33"/>
-      <c r="H237" s="22"/>
-      <c r="I237" s="18"/>
-      <c r="J237" s="33"/>
-      <c r="K237" s="34"/>
-    </row>
-    <row r="238" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B238" s="33"/>
-      <c r="E238" s="26"/>
-      <c r="H238" s="22"/>
-      <c r="I238" s="18"/>
-      <c r="J238" s="33"/>
-      <c r="K238" s="35">
-        <f>SUM(K156:K234)</f>
-        <v>580.4899999999999</v>
-      </c>
-    </row>
     <row r="239" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B239" s="33"/>
-      <c r="E239" s="26"/>
+      <c r="C239" s="6"/>
+      <c r="D239" s="29"/>
+      <c r="E239"/>
+      <c r="G239" s="22"/>
       <c r="H239" s="22"/>
       <c r="I239" s="18"/>
       <c r="J239" s="33"/>
+      <c r="K239" s="34"/>
     </row>
     <row r="240" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A240" s="6" t="s">
+        <v>754</v>
+      </c>
       <c r="B240" s="33"/>
-      <c r="E240" s="26"/>
+      <c r="E240"/>
       <c r="H240" s="22"/>
       <c r="I240" s="18"/>
       <c r="J240" s="33"/>
-    </row>
-    <row r="241" spans="2:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B241" s="33"/>
-      <c r="E241" s="26"/>
-      <c r="H241" s="22"/>
-      <c r="I241" s="18"/>
-      <c r="J241" s="33"/>
-    </row>
-    <row r="242" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="D242" s="6"/>
-      <c r="H242" s="22"/>
-      <c r="I242" s="22"/>
-    </row>
-    <row r="243" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="E243" s="30"/>
-      <c r="I243" s="22"/>
-    </row>
-    <row r="245" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="E245" s="26"/>
-      <c r="I245" s="22"/>
-    </row>
-    <row r="246" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="E246" s="26"/>
-      <c r="I246" s="22"/>
-    </row>
-    <row r="247" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="D247" s="6"/>
-      <c r="E247" s="26"/>
-      <c r="I247" s="22"/>
-    </row>
-    <row r="248" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="D248" s="8"/>
-      <c r="I248" s="22"/>
-    </row>
-    <row r="249" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="K240" s="34"/>
+    </row>
+    <row r="241" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B241" s="33">
+        <v>1</v>
+      </c>
+      <c r="C241" t="s">
+        <v>742</v>
+      </c>
+      <c r="E241" s="29" t="s">
+        <v>743</v>
+      </c>
+      <c r="G241">
+        <v>1</v>
+      </c>
+      <c r="H241" s="22">
+        <v>4.09</v>
+      </c>
+      <c r="I241" s="18">
+        <f>SUMIF(C$1:C$163,"="&amp;C241,B$1:B$163)</f>
+        <v>3</v>
+      </c>
+      <c r="J241" s="33">
+        <f t="shared" ref="J241:J242" si="94">G241*B241-I241</f>
+        <v>-2</v>
+      </c>
+      <c r="K241" s="34">
+        <f t="shared" ref="K241:K242" si="95">B241*H241</f>
+        <v>4.09</v>
+      </c>
+    </row>
+    <row r="242" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B242" s="33">
+        <v>1</v>
+      </c>
+      <c r="C242" t="s">
+        <v>751</v>
+      </c>
+      <c r="E242" s="29" t="s">
+        <v>786</v>
+      </c>
+      <c r="G242">
+        <v>1</v>
+      </c>
+      <c r="H242" s="22">
+        <v>2.8</v>
+      </c>
+      <c r="I242" s="18">
+        <f>SUMIF(C$1:C$163,"="&amp;C242,B$1:B$163)</f>
+        <v>1</v>
+      </c>
+      <c r="J242" s="33">
+        <f t="shared" si="94"/>
+        <v>0</v>
+      </c>
+      <c r="K242" s="34">
+        <f t="shared" si="95"/>
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="243" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B243" s="33">
+        <v>1</v>
+      </c>
+      <c r="C243" t="s">
+        <v>752</v>
+      </c>
+      <c r="E243" s="29" t="s">
+        <v>786</v>
+      </c>
+      <c r="G243">
+        <v>1</v>
+      </c>
+      <c r="H243" s="22">
+        <v>2.8</v>
+      </c>
+      <c r="I243" s="18">
+        <f>SUMIF(C$1:C$163,"="&amp;C243,B$1:B$163)</f>
+        <v>2</v>
+      </c>
+      <c r="J243" s="33">
+        <f t="shared" ref="J243" si="96">G243*B243-I243</f>
+        <v>-1</v>
+      </c>
+      <c r="K243" s="34">
+        <f t="shared" ref="K243" si="97">B243*H243</f>
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="244" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B244" s="33">
+        <v>1</v>
+      </c>
+      <c r="C244" t="s">
+        <v>753</v>
+      </c>
+      <c r="E244" s="29" t="s">
+        <v>786</v>
+      </c>
+      <c r="G244">
+        <v>1</v>
+      </c>
+      <c r="H244" s="22">
+        <v>2.8</v>
+      </c>
+      <c r="I244" s="18">
+        <f>SUMIF(C$1:C$163,"="&amp;C244,B$1:B$163)</f>
+        <v>3</v>
+      </c>
+      <c r="J244" s="33">
+        <f t="shared" ref="J244" si="98">G244*B244-I244</f>
+        <v>-2</v>
+      </c>
+      <c r="K244" s="34">
+        <f t="shared" ref="K244" si="99">B244*H244</f>
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="245" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B245" s="33"/>
+      <c r="H245" s="22"/>
+      <c r="I245" s="18"/>
+      <c r="J245" s="33"/>
+      <c r="K245" s="34"/>
+    </row>
+    <row r="246" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B246" s="33"/>
+      <c r="H246" s="22"/>
+      <c r="I246" s="18"/>
+      <c r="J246" s="33"/>
+      <c r="K246" s="34"/>
+    </row>
+    <row r="247" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B247" s="33"/>
+      <c r="H247" s="22"/>
+      <c r="I247" s="18"/>
+      <c r="J247" s="33"/>
+      <c r="K247" s="34"/>
+    </row>
+    <row r="248" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B248" s="33"/>
+      <c r="E248" s="26"/>
+      <c r="H248" s="22"/>
+      <c r="I248" s="18"/>
+      <c r="J248" s="33"/>
+      <c r="K248" s="35">
+        <f>SUM(K165:K244)</f>
+        <v>629.33999999999992</v>
+      </c>
+    </row>
+    <row r="249" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B249" s="33"/>
       <c r="E249" s="26"/>
-      <c r="I249" s="22"/>
-    </row>
-    <row r="250" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="E250" s="30"/>
-      <c r="I250" s="22"/>
-    </row>
-    <row r="251" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H249" s="22"/>
+      <c r="I249" s="18"/>
+      <c r="J249" s="33"/>
+    </row>
+    <row r="250" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B250" s="33"/>
+      <c r="E250" s="26"/>
+      <c r="H250" s="22"/>
+      <c r="I250" s="18"/>
+      <c r="J250" s="33"/>
+    </row>
+    <row r="251" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B251" s="33"/>
       <c r="E251" s="26"/>
-      <c r="I251" s="22"/>
-    </row>
-    <row r="252" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H251" s="22"/>
+      <c r="I251" s="18"/>
+      <c r="J251" s="33"/>
+    </row>
+    <row r="252" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="D252" s="6"/>
+      <c r="H252" s="22"/>
       <c r="I252" s="22"/>
     </row>
-    <row r="253" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="E253" s="26"/>
+    <row r="253" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="E253" s="30"/>
       <c r="I253" s="22"/>
     </row>
-    <row r="254" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="D254" s="6"/>
-      <c r="E254" s="26"/>
-      <c r="I254" s="22"/>
-    </row>
-    <row r="255" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="E255" s="25"/>
+    <row r="255" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="E255" s="26"/>
       <c r="I255" s="22"/>
     </row>
-    <row r="256" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="2:11" x14ac:dyDescent="0.3">
       <c r="E256" s="26"/>
       <c r="I256" s="22"/>
     </row>
-    <row r="257" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E257" s="25"/>
+    <row r="257" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D257" s="6"/>
+      <c r="E257" s="26"/>
       <c r="I257" s="22"/>
     </row>
-    <row r="258" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E258" s="26"/>
+    <row r="258" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D258" s="8"/>
       <c r="I258" s="22"/>
     </row>
-    <row r="259" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E259" s="25"/>
+    <row r="259" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="E259" s="26"/>
       <c r="I259" s="22"/>
     </row>
-    <row r="260" spans="5:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E260" s="25"/>
+    <row r="260" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="E260" s="30"/>
       <c r="I260" s="22"/>
     </row>
-    <row r="261" spans="5:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E261" s="25"/>
+    <row r="261" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="E261" s="26"/>
       <c r="I261" s="22"/>
     </row>
-    <row r="262" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E262" s="25"/>
+    <row r="262" spans="4:9" x14ac:dyDescent="0.3">
       <c r="I262" s="22"/>
     </row>
-    <row r="263" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="H263" s="22"/>
+    <row r="263" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="E263" s="26"/>
       <c r="I263" s="22"/>
     </row>
-    <row r="264" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="H264" s="23"/>
+    <row r="264" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D264" s="6"/>
+      <c r="E264" s="26"/>
       <c r="I264" s="22"/>
+    </row>
+    <row r="265" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="E265" s="25"/>
+      <c r="I265" s="22"/>
+    </row>
+    <row r="266" spans="4:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E266" s="26"/>
+      <c r="I266" s="22"/>
+    </row>
+    <row r="267" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="E267" s="25"/>
+      <c r="I267" s="22"/>
+    </row>
+    <row r="268" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="E268" s="26"/>
+      <c r="I268" s="22"/>
+    </row>
+    <row r="269" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="E269" s="25"/>
+      <c r="I269" s="22"/>
+    </row>
+    <row r="270" spans="4:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E270" s="25"/>
+      <c r="I270" s="22"/>
+    </row>
+    <row r="271" spans="4:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E271" s="25"/>
+      <c r="I271" s="22"/>
+    </row>
+    <row r="272" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="E272" s="25"/>
+      <c r="I272" s="22"/>
+    </row>
+    <row r="273" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H273" s="22"/>
+      <c r="I273" s="22"/>
+    </row>
+    <row r="274" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H274" s="23"/>
+      <c r="I274" s="22"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E220" r:id="rId1"/>
-    <hyperlink ref="E214" r:id="rId2"/>
+    <hyperlink ref="E231" r:id="rId1"/>
+    <hyperlink ref="E225" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -11958,8 +11958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L274"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A143" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C151" sqref="C151"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11996,11 +11996,11 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" t="str">
-        <f>C170</f>
-        <v>XXXXX Zylinderkopfschraube Innensechskant M3 22mm</v>
+        <f>C168</f>
+        <v>Zylinderkopfschraube Innensechskant M3 20mm</v>
       </c>
       <c r="D3" t="s">
         <v>610</v>
@@ -12011,7 +12011,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
         <v>611</v>
@@ -14447,11 +14447,11 @@
       </c>
       <c r="I168" s="18">
         <f>SUMIF(C$1:C$163,"="&amp;C168,B$1:B$163)</f>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J168" s="33">
         <f t="shared" si="1"/>
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="K168" s="34">
         <f>B168*H168</f>
@@ -14507,11 +14507,11 @@
       </c>
       <c r="I170" s="18">
         <f>SUMIF(C$1:C$163,"="&amp;C170,B$1:B$163)</f>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J170" s="33">
         <f t="shared" si="1"/>
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="K170" s="34">
         <f t="shared" ref="K170:K235" si="6">B170*H170</f>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1854" uniqueCount="842">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1855" uniqueCount="841">
   <si>
     <t>Bauteilnummer</t>
   </si>
@@ -1980,9 +1980,6 @@
     <t>https://www.conrad.de/de/unterlegscheiben-innen-durchmesser-32-mm-m3-din-125-stahl-verzinkt-100-st-toolcraft-814628-814628.html</t>
   </si>
   <si>
-    <t>http://www.amazon.de/Zylinderkopfschrauben-Edelstahl-Zylinderschrauben-Inbusschrauben-Innensechskant/dp/B018XL6434/ref=sr_1_1?ie=UTF8&amp;qid=1458909560&amp;sr=8-1&amp;keywords=zylinderkopfschraube+Innensechskant+M3+16mm</t>
-  </si>
-  <si>
     <t>RiemenSpanner Schraube</t>
   </si>
   <si>
@@ -2040,9 +2037,6 @@
     <t xml:space="preserve">Gabelbefestigung </t>
   </si>
   <si>
-    <t>Distanzbolzen M3 20mm</t>
-  </si>
-  <si>
     <t>http://www.amazon.de/Zylinderkopfschrauben-Edelstahl-Zylinderschrauben-Inbusschrauben-Innensechskant/dp/B018XL6B6O/ref=sr_1_1?ie=UTF8&amp;qid=1458914864&amp;sr=8-1&amp;keywords=zylinderkopfschraube+Innensechskant+M3+20mm</t>
   </si>
   <si>
@@ -2148,6 +2142,9 @@
     <t>GehäuseVerbindung am Heck</t>
   </si>
   <si>
+    <t>Zylinderkopfschraube Innensechskant M3 12mm</t>
+  </si>
+  <si>
     <t>http://www.amazon.de/Zylinderkopfschrauben-Edelstahl-Zylinderschrauben-Inbusschrauben-Innensechskant/dp/B018XL5XNG/ref=sr_1_1?ie=UTF8&amp;qid=1459036461&amp;sr=8-1&amp;keywords=zylinderkopfschraube+Innensechskant+M3+12mm</t>
   </si>
   <si>
@@ -2490,12 +2487,6 @@
     <t>XXXX Distanzbolzen M3 20mm, Schlüsselweite 5mm</t>
   </si>
   <si>
-    <t>XXXXX Zylinderkopfschraube Innensechskant M3 12mm</t>
-  </si>
-  <si>
-    <t>XXXXX Zylinderkopfschraube Innensechskant M3 16mm</t>
-  </si>
-  <si>
     <t>Senkkopfschraube Innensechskant M6 16mm</t>
   </si>
   <si>
@@ -2548,6 +2539,12 @@
   </si>
   <si>
     <t>http://www.cncshop.at/index.php?a=10117</t>
+  </si>
+  <si>
+    <t>Sensordeckel Schrauben</t>
+  </si>
+  <si>
+    <t>Schraube KabelkanalDeckel</t>
   </si>
 </sst>
 </file>
@@ -3744,7 +3741,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E42" t="s">
         <v>624</v>
@@ -4287,7 +4284,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="C46" s="5">
         <f>C50/C48*(C54/C52)</f>
@@ -4541,7 +4538,7 @@
     </row>
     <row r="70" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="C70" s="2">
         <f>C66/C46</f>
@@ -4553,7 +4550,7 @@
     </row>
     <row r="71" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C71" s="2">
         <f>C65/C46</f>
@@ -4839,7 +4836,7 @@
     </row>
     <row r="78" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="C78" s="2">
         <f>C71*(1+C57)</f>
@@ -8347,7 +8344,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -11859,7 +11856,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A65" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="A53" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="K83" sqref="K83"/>
     </sheetView>
   </sheetViews>
@@ -11900,7 +11897,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -11956,10 +11953,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L274"/>
+  <dimension ref="A1:L277"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A139" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11999,7 +11996,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="str">
-        <f>C168</f>
+        <f>C172</f>
         <v>Zylinderkopfschraube Innensechskant M3 20mm</v>
       </c>
       <c r="D3" t="s">
@@ -12033,7 +12030,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="str">
-        <f>C233</f>
+        <f>C236</f>
         <v>Rillenkugellager DIN 625 SKF - 61807 35x47x7mm</v>
       </c>
       <c r="D6" t="s">
@@ -12048,8 +12045,8 @@
         <v>4</v>
       </c>
       <c r="C7" t="str">
-        <f>C178</f>
-        <v>Senkkopfschraube Innensechskant M3 10mm</v>
+        <f>C176</f>
+        <v>Zylinderkopfschraube Innensechskant M3 12mm</v>
       </c>
       <c r="D7" t="s">
         <v>615</v>
@@ -12063,7 +12060,7 @@
         <v>4</v>
       </c>
       <c r="C8" t="str">
-        <f>C168</f>
+        <f>C172</f>
         <v>Zylinderkopfschraube Innensechskant M3 20mm</v>
       </c>
       <c r="D8" t="s">
@@ -12075,7 +12072,7 @@
         <v>4</v>
       </c>
       <c r="C9" t="str">
-        <f>C182</f>
+        <f>C185</f>
         <v>Muttern M3, Schlüsselweite 5.5 mm</v>
       </c>
       <c r="D9" t="s">
@@ -12087,7 +12084,7 @@
         <v>2</v>
       </c>
       <c r="C10" t="str">
-        <f>C232</f>
+        <f>C235</f>
         <v>Rillenkugellager DIN 625 SKF - 61902 15x28x7mm</v>
       </c>
       <c r="D10" t="s">
@@ -12099,16 +12096,16 @@
         <v>1</v>
       </c>
       <c r="C11" t="str">
-        <f>C226</f>
+        <f>C229</f>
         <v xml:space="preserve">Herkulex Servo DRS - 0201 </v>
       </c>
       <c r="D11" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -12116,7 +12113,7 @@
         <v>1</v>
       </c>
       <c r="C13" t="str">
-        <f>C202</f>
+        <f>C205</f>
         <v>Zahnriemenscheibe T2,5, 16 Zähne</v>
       </c>
       <c r="D13" t="s">
@@ -12130,7 +12127,7 @@
         <v>1</v>
       </c>
       <c r="C14" t="str">
-        <f>C204</f>
+        <f>C207</f>
         <v>Zahnriemenscheibe T2,5, 44 Zähne</v>
       </c>
       <c r="D14" t="s">
@@ -12144,7 +12141,7 @@
         <v>1</v>
       </c>
       <c r="C15" t="str">
-        <f>C202</f>
+        <f>C205</f>
         <v>Zahnriemenscheibe T2,5, 16 Zähne</v>
       </c>
       <c r="D15" t="s">
@@ -12158,11 +12155,11 @@
         <v>1</v>
       </c>
       <c r="C16" t="str">
-        <f>C205</f>
+        <f>C208</f>
         <v>Zahnriemenscheibe T2,5, 18 Zähne</v>
       </c>
       <c r="D16" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="H16" s="22"/>
       <c r="I16" s="22"/>
@@ -12172,11 +12169,11 @@
         <v>1</v>
       </c>
       <c r="C17" t="str">
-        <f>C206</f>
+        <f>C209</f>
         <v>Zahnriemenscheibe T2,5, 14 Zähne</v>
       </c>
       <c r="D17" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="H17" s="22"/>
       <c r="I17" s="22"/>
@@ -12186,7 +12183,7 @@
         <v>1</v>
       </c>
       <c r="C18" t="str">
-        <f>C212</f>
+        <f>C215</f>
         <v>Zahnriemen T2,5 160mm 6mm Breite</v>
       </c>
       <c r="D18" t="s">
@@ -12200,7 +12197,7 @@
         <v>46</v>
       </c>
       <c r="C19" t="str">
-        <f>C192</f>
+        <f>C195</f>
         <v>Silberstahlwelle 6mm Durchmesser</v>
       </c>
       <c r="D19" t="s">
@@ -12215,7 +12212,7 @@
         <v>1</v>
       </c>
       <c r="C20" t="str">
-        <f>C243</f>
+        <f>C246</f>
         <v>Metallbohrer 6mm</v>
       </c>
       <c r="D20" t="s">
@@ -12230,7 +12227,7 @@
         <v>1</v>
       </c>
       <c r="C21" t="str">
-        <f>C244</f>
+        <f>C247</f>
         <v>Metallbohrer 2.3mm (für M3 Gewinde)</v>
       </c>
       <c r="D21" t="s">
@@ -12245,7 +12242,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="str">
-        <f>C241</f>
+        <f>C244</f>
         <v>Gewindeschneider M3</v>
       </c>
       <c r="D22" t="s">
@@ -12260,7 +12257,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="str">
-        <f>C231</f>
+        <f>C234</f>
         <v>Rillenkugellager 6x10x3</v>
       </c>
       <c r="D23" t="s">
@@ -12275,7 +12272,7 @@
         <v>1</v>
       </c>
       <c r="C24" s="32" t="str">
-        <f>C220</f>
+        <f>C223</f>
         <v>NEMA 17 - 42x42x21 - 1,2Nm - 5mm Achse</v>
       </c>
       <c r="D24" s="32" t="s">
@@ -12290,7 +12287,7 @@
         <v>2</v>
       </c>
       <c r="C25" s="32" t="str">
-        <f>C172</f>
+        <f>C175</f>
         <v>Zylinderkopfschraube Innensechskant M3 14mm</v>
       </c>
       <c r="D25" s="32" t="s">
@@ -12304,7 +12301,7 @@
         <v>2</v>
       </c>
       <c r="C26" s="32" t="str">
-        <f>C188</f>
+        <f>C191</f>
         <v>Unterlegscheiben M3 Dicke 0,5mm, Außendurchmesser 7mm</v>
       </c>
       <c r="D26" s="32" t="s">
@@ -12318,11 +12315,11 @@
         <v>1</v>
       </c>
       <c r="C27" s="32" t="str">
-        <f>C211</f>
+        <f>C214</f>
         <v>Zahnriemen T2,5 230mm 6mm Breite</v>
       </c>
       <c r="D27" s="32" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="H27" s="22"/>
       <c r="I27" s="22"/>
@@ -12332,11 +12329,11 @@
         <v>1</v>
       </c>
       <c r="C28" s="32" t="str">
-        <f>C171</f>
-        <v>XXXXX Zylinderkopfschraube Innensechskant M3 16mm</v>
+        <f>C172</f>
+        <v>Zylinderkopfschraube Innensechskant M3 20mm</v>
       </c>
       <c r="D28" s="32" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H28" s="22"/>
       <c r="I28" s="22"/>
@@ -12346,11 +12343,11 @@
         <v>2</v>
       </c>
       <c r="C29" s="32" t="str">
-        <f>C188</f>
+        <f>C191</f>
         <v>Unterlegscheiben M3 Dicke 0,5mm, Außendurchmesser 7mm</v>
       </c>
       <c r="D29" s="32" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H29" s="22"/>
       <c r="I29" s="22"/>
@@ -12360,11 +12357,11 @@
         <v>2</v>
       </c>
       <c r="C30" s="32" t="str">
-        <f>C228</f>
+        <f>C231</f>
         <v>Rillenkugellager  3.967 x 7.938 x 3.175 mm</v>
       </c>
       <c r="D30" s="32" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H30" s="22"/>
       <c r="I30" s="22"/>
@@ -12374,11 +12371,11 @@
         <v>1</v>
       </c>
       <c r="C31" s="32" t="str">
-        <f>C181</f>
+        <f>C184</f>
         <v>Vierkant Mutter M3 Breite 5.5mm</v>
       </c>
       <c r="D31" s="32" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E31"/>
       <c r="H31" s="22"/>
@@ -12389,11 +12386,11 @@
         <v>4</v>
       </c>
       <c r="C32" s="32" t="str">
-        <f>C174</f>
+        <f>C177</f>
         <v>Zylinderkopfschraube Innensechskant M2 6mm</v>
       </c>
       <c r="D32" s="32" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E32"/>
       <c r="H32" s="22"/>
@@ -12404,11 +12401,11 @@
         <v>4</v>
       </c>
       <c r="C33" s="32" t="str">
-        <f>C183</f>
+        <f>C186</f>
         <v>Muttern M2</v>
       </c>
       <c r="D33" s="32" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E33"/>
       <c r="H33" s="22"/>
@@ -12419,11 +12416,11 @@
         <v>1</v>
       </c>
       <c r="C34" s="32" t="str">
-        <f>C225</f>
+        <f>C228</f>
         <v>Rotary Sensor</v>
       </c>
       <c r="D34" s="32" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E34" s="9"/>
       <c r="H34" s="22"/>
@@ -12431,14 +12428,14 @@
     </row>
     <row r="35" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C35" s="32" t="str">
-        <f>C189</f>
-        <v>Unterlegscheiben M2 Dicke 0,5mm</v>
+        <f>C181</f>
+        <v>Senkkopfschraube Innensechskant M3 10mm</v>
       </c>
       <c r="D35" s="32" t="s">
-        <v>663</v>
+        <v>839</v>
       </c>
       <c r="E35" s="9"/>
       <c r="H35" s="22"/>
@@ -12446,14 +12443,14 @@
     </row>
     <row r="36" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C36" s="32" t="str">
-        <f>C196</f>
-        <v>XXXX Distanzbolzen M3 20mm, Schlüsselweite 5mm</v>
+        <f>C184</f>
+        <v>Vierkant Mutter M3 Breite 5.5mm</v>
       </c>
       <c r="D36" s="32" t="s">
-        <v>670</v>
+        <v>839</v>
       </c>
       <c r="E36" s="9"/>
       <c r="H36" s="22"/>
@@ -12461,28 +12458,31 @@
     </row>
     <row r="37" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C37" s="32" t="str">
-        <f>C188</f>
-        <v>Unterlegscheiben M3 Dicke 0,5mm, Außendurchmesser 7mm</v>
+        <f>C192</f>
+        <v>Unterlegscheiben M2 Dicke 0,5mm</v>
       </c>
       <c r="D37" s="32" t="s">
-        <v>671</v>
-      </c>
+        <v>662</v>
+      </c>
+      <c r="E37" s="9"/>
       <c r="H37" s="22"/>
       <c r="I37" s="22"/>
     </row>
     <row r="38" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38">
-        <v>4</v>
-      </c>
-      <c r="C38" s="32" t="s">
-        <v>672</v>
+        <v>2</v>
+      </c>
+      <c r="C38" s="32" t="str">
+        <f>C200</f>
+        <v>Distanzbolzen 2x Innen M3 20mm, Schlüsselweite 5,5mm</v>
       </c>
       <c r="D38" s="32" t="s">
-        <v>689</v>
-      </c>
+        <v>669</v>
+      </c>
+      <c r="E38" s="9"/>
       <c r="H38" s="22"/>
       <c r="I38" s="22"/>
     </row>
@@ -12491,13 +12491,12 @@
         <v>4</v>
       </c>
       <c r="C39" s="32" t="str">
-        <f>C168</f>
-        <v>Zylinderkopfschraube Innensechskant M3 20mm</v>
+        <f>C191</f>
+        <v>Unterlegscheiben M3 Dicke 0,5mm, Außendurchmesser 7mm</v>
       </c>
       <c r="D39" s="32" t="s">
-        <v>690</v>
-      </c>
-      <c r="E39" s="9"/>
+        <v>670</v>
+      </c>
       <c r="H39" s="22"/>
       <c r="I39" s="22"/>
     </row>
@@ -12506,36 +12505,41 @@
         <v>4</v>
       </c>
       <c r="C40" s="32" t="str">
-        <f>C188</f>
-        <v>Unterlegscheiben M3 Dicke 0,5mm, Außendurchmesser 7mm</v>
+        <f>C200</f>
+        <v>Distanzbolzen 2x Innen M3 20mm, Schlüsselweite 5,5mm</v>
       </c>
       <c r="D40" s="32" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="H40" s="22"/>
       <c r="I40" s="22"/>
     </row>
     <row r="41" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C41" s="32"/>
-      <c r="D41" s="32"/>
+      <c r="B41">
+        <v>4</v>
+      </c>
+      <c r="C41" s="32" t="str">
+        <f>C172</f>
+        <v>Zylinderkopfschraube Innensechskant M3 20mm</v>
+      </c>
+      <c r="D41" s="32" t="s">
+        <v>688</v>
+      </c>
+      <c r="E41" s="9"/>
       <c r="H41" s="22"/>
       <c r="I41" s="22"/>
     </row>
     <row r="42" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="6" t="s">
-        <v>727</v>
-      </c>
       <c r="B42">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C42" s="32" t="str">
-        <f>C233</f>
-        <v>Rillenkugellager DIN 625 SKF - 61807 35x47x7mm</v>
+        <f>C191</f>
+        <v>Unterlegscheiben M3 Dicke 0,5mm, Außendurchmesser 7mm</v>
       </c>
       <c r="D42" s="32" t="s">
-        <v>688</v>
-      </c>
-      <c r="E42" s="9"/>
+        <v>687</v>
+      </c>
       <c r="H42" s="22"/>
       <c r="I42" s="22"/>
     </row>
@@ -12544,98 +12548,92 @@
         <v>2</v>
       </c>
       <c r="C43" s="32" t="str">
-        <f>C234</f>
-        <v>RillenKugellager 6x19x6</v>
+        <f>C184</f>
+        <v>Vierkant Mutter M3 Breite 5.5mm</v>
       </c>
       <c r="D43" s="32" t="s">
-        <v>693</v>
+        <v>840</v>
       </c>
       <c r="H43" s="22"/>
       <c r="I43" s="22"/>
     </row>
     <row r="44" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C44" s="32" t="str">
-        <f>C231</f>
-        <v>Rillenkugellager 6x10x3</v>
+        <f>C181</f>
+        <v>Senkkopfschraube Innensechskant M3 10mm</v>
       </c>
       <c r="D44" s="32" t="s">
-        <v>694</v>
-      </c>
-      <c r="E44" s="9"/>
+        <v>840</v>
+      </c>
       <c r="H44" s="22"/>
       <c r="I44" s="22"/>
     </row>
     <row r="45" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45">
-        <v>4</v>
-      </c>
-      <c r="C45" s="32" t="str">
-        <f>C235</f>
-        <v>Rillenkugellager 3x10x4</v>
-      </c>
-      <c r="D45" s="32" t="s">
-        <v>700</v>
-      </c>
-      <c r="E45" s="9"/>
+      <c r="C45" s="32"/>
+      <c r="D45" s="32"/>
       <c r="H45" s="22"/>
       <c r="I45" s="22"/>
     </row>
     <row r="46" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="6" t="s">
+        <v>726</v>
+      </c>
       <c r="B46">
         <v>2</v>
       </c>
       <c r="C46" s="32" t="str">
-        <f>C199</f>
-        <v>Distanzhülsen M6 10mm</v>
+        <f>C236</f>
+        <v>Rillenkugellager DIN 625 SKF - 61807 35x47x7mm</v>
       </c>
       <c r="D46" s="32" t="s">
-        <v>697</v>
-      </c>
+        <v>686</v>
+      </c>
+      <c r="E46" s="9"/>
       <c r="H46" s="22"/>
       <c r="I46" s="22"/>
     </row>
     <row r="47" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="C47" s="32" t="str">
-        <f>C192</f>
-        <v>Silberstahlwelle 6mm Durchmesser</v>
+        <f>C237</f>
+        <v>RillenKugellager 6x19x6</v>
       </c>
       <c r="D47" s="32" t="s">
-        <v>702</v>
+        <v>691</v>
       </c>
       <c r="H47" s="22"/>
       <c r="I47" s="22"/>
     </row>
     <row r="48" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48">
-        <f>2*25</f>
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="C48" s="32" t="str">
-        <f>C192</f>
-        <v>Silberstahlwelle 6mm Durchmesser</v>
+        <f>C234</f>
+        <v>Rillenkugellager 6x10x3</v>
       </c>
       <c r="D48" s="32" t="s">
-        <v>788</v>
-      </c>
+        <v>692</v>
+      </c>
+      <c r="E48" s="9"/>
       <c r="H48" s="22"/>
       <c r="I48" s="22"/>
     </row>
     <row r="49" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="C49" s="32" t="str">
-        <f>C193</f>
-        <v>Silberstahlwelle 3mm Durchmesser</v>
+        <f>C238</f>
+        <v>Rillenkugellager 3x10x4</v>
       </c>
       <c r="D49" s="32" t="s">
-        <v>787</v>
+        <v>698</v>
       </c>
       <c r="E49" s="9"/>
       <c r="H49" s="22"/>
@@ -12643,60 +12641,59 @@
     </row>
     <row r="50" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50">
-        <v>1</v>
-      </c>
-      <c r="C50" t="str">
-        <f>C243</f>
-        <v>Metallbohrer 6mm</v>
-      </c>
-      <c r="D50" t="s">
-        <v>636</v>
-      </c>
-      <c r="E50" s="26"/>
+        <v>2</v>
+      </c>
+      <c r="C50" s="32" t="str">
+        <f>C202</f>
+        <v>Distanzhülsen M6 10mm</v>
+      </c>
+      <c r="D50" s="32" t="s">
+        <v>695</v>
+      </c>
       <c r="H50" s="22"/>
       <c r="I50" s="22"/>
     </row>
     <row r="51" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B51">
-        <v>1</v>
-      </c>
-      <c r="C51" t="str">
-        <f>C241</f>
-        <v>Gewindeschneider M3</v>
-      </c>
-      <c r="D51" t="s">
-        <v>636</v>
-      </c>
-      <c r="E51" s="26"/>
+        <v>40</v>
+      </c>
+      <c r="C51" s="32" t="str">
+        <f>C195</f>
+        <v>Silberstahlwelle 6mm Durchmesser</v>
+      </c>
+      <c r="D51" s="32" t="s">
+        <v>700</v>
+      </c>
       <c r="H51" s="22"/>
       <c r="I51" s="22"/>
     </row>
     <row r="52" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52">
-        <v>1</v>
-      </c>
-      <c r="C52" t="str">
-        <f>C244</f>
-        <v>Metallbohrer 2.3mm (für M3 Gewinde)</v>
-      </c>
-      <c r="D52" t="s">
-        <v>636</v>
-      </c>
-      <c r="E52" s="26"/>
+        <f>2*25</f>
+        <v>50</v>
+      </c>
+      <c r="C52" s="32" t="str">
+        <f>C195</f>
+        <v>Silberstahlwelle 6mm Durchmesser</v>
+      </c>
+      <c r="D52" s="32" t="s">
+        <v>787</v>
+      </c>
       <c r="H52" s="22"/>
       <c r="I52" s="22"/>
     </row>
     <row r="53" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B53">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="C53" s="32" t="str">
-        <f>C213</f>
-        <v>Zahnriemen T2,5 200mm 6mm Breite</v>
+        <f>C196</f>
+        <v>Silberstahlwelle 3mm Durchmesser</v>
       </c>
       <c r="D53" s="32" t="s">
-        <v>704</v>
-      </c>
+        <v>786</v>
+      </c>
+      <c r="E53" s="9"/>
       <c r="H53" s="22"/>
       <c r="I53" s="22"/>
     </row>
@@ -12704,98 +12701,99 @@
       <c r="B54">
         <v>1</v>
       </c>
-      <c r="C54" s="32" t="str">
-        <f>C213</f>
-        <v>Zahnriemen T2,5 200mm 6mm Breite</v>
-      </c>
-      <c r="D54" s="32" t="s">
-        <v>705</v>
-      </c>
+      <c r="C54" t="str">
+        <f>C246</f>
+        <v>Metallbohrer 6mm</v>
+      </c>
+      <c r="D54" t="s">
+        <v>636</v>
+      </c>
+      <c r="E54" s="26"/>
       <c r="H54" s="22"/>
       <c r="I54" s="22"/>
     </row>
     <row r="55" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B55">
-        <v>4</v>
-      </c>
-      <c r="C55" s="32" t="str">
-        <f>C170</f>
-        <v>XXXXX Zylinderkopfschraube Innensechskant M3 22mm</v>
-      </c>
-      <c r="D55" s="32" t="s">
-        <v>706</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C55" t="str">
+        <f>C244</f>
+        <v>Gewindeschneider M3</v>
+      </c>
+      <c r="D55" t="s">
+        <v>636</v>
+      </c>
+      <c r="E55" s="26"/>
       <c r="H55" s="22"/>
       <c r="I55" s="22"/>
     </row>
     <row r="56" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56">
-        <v>4</v>
-      </c>
-      <c r="C56" s="32" t="str">
-        <f>C182</f>
-        <v>Muttern M3, Schlüsselweite 5.5 mm</v>
-      </c>
-      <c r="D56" s="32" t="s">
-        <v>706</v>
-      </c>
-      <c r="E56" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="C56" t="str">
+        <f>C247</f>
+        <v>Metallbohrer 2.3mm (für M3 Gewinde)</v>
+      </c>
+      <c r="D56" t="s">
+        <v>636</v>
+      </c>
+      <c r="E56" s="26"/>
       <c r="H56" s="22"/>
       <c r="I56" s="22"/>
     </row>
     <row r="57" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C57" s="32" t="str">
-        <f>C170</f>
-        <v>XXXXX Zylinderkopfschraube Innensechskant M3 22mm</v>
+        <f>C216</f>
+        <v>Zahnriemen T2,5 200mm 6mm Breite</v>
       </c>
       <c r="D57" s="32" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="H57" s="22"/>
       <c r="I57" s="22"/>
     </row>
     <row r="58" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C58" s="32" t="str">
-        <f>C182</f>
-        <v>Muttern M3, Schlüsselweite 5.5 mm</v>
+        <f>C216</f>
+        <v>Zahnriemen T2,5 200mm 6mm Breite</v>
       </c>
       <c r="D58" s="32" t="s">
-        <v>707</v>
-      </c>
-      <c r="E58" s="9"/>
+        <v>703</v>
+      </c>
       <c r="H58" s="22"/>
       <c r="I58" s="22"/>
     </row>
     <row r="59" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B59">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C59" s="32" t="str">
-        <f>C173</f>
-        <v>XXXXX Zylinderkopfschraube Innensechskant M3 12mm</v>
+        <f>C174</f>
+        <v>XXXXX Zylinderkopfschraube Innensechskant M3 22mm</v>
       </c>
       <c r="D59" s="32" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="H59" s="22"/>
       <c r="I59" s="22"/>
     </row>
     <row r="60" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B60">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C60" s="32" t="str">
-        <f>C182</f>
+        <f>C185</f>
         <v>Muttern M3, Schlüsselweite 5.5 mm</v>
       </c>
       <c r="D60" s="32" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="E60" s="9"/>
       <c r="H60" s="22"/>
@@ -12803,29 +12801,28 @@
     </row>
     <row r="61" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B61">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C61" s="32" t="str">
-        <f>C169</f>
-        <v>Zylinderkopfschraube Innensechskant M3 25mm</v>
+        <f>C174</f>
+        <v>XXXXX Zylinderkopfschraube Innensechskant M3 22mm</v>
       </c>
       <c r="D61" s="32" t="s">
-        <v>712</v>
-      </c>
-      <c r="E61" s="9"/>
+        <v>705</v>
+      </c>
       <c r="H61" s="22"/>
       <c r="I61" s="22"/>
     </row>
     <row r="62" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B62">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C62" s="32" t="str">
-        <f>C196</f>
-        <v>XXXX Distanzbolzen M3 20mm, Schlüsselweite 5mm</v>
+        <f>C185</f>
+        <v>Muttern M3, Schlüsselweite 5.5 mm</v>
       </c>
       <c r="D62" s="32" t="s">
-        <v>712</v>
+        <v>705</v>
       </c>
       <c r="E62" s="9"/>
       <c r="H62" s="22"/>
@@ -12833,29 +12830,28 @@
     </row>
     <row r="63" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C63" s="32" t="str">
-        <f>C221</f>
-        <v>NEMA 17 - 42x42x33 - 0,26Nm - 5mm Achse</v>
+        <f>C176</f>
+        <v>Zylinderkopfschraube Innensechskant M3 12mm</v>
       </c>
       <c r="D63" s="32" t="s">
-        <v>647</v>
-      </c>
-      <c r="E63" s="9"/>
+        <v>708</v>
+      </c>
       <c r="H63" s="22"/>
       <c r="I63" s="22"/>
     </row>
     <row r="64" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C64" s="32" t="str">
-        <f>C202</f>
-        <v>Zahnriemenscheibe T2,5, 16 Zähne</v>
+        <f>C185</f>
+        <v>Muttern M3, Schlüsselweite 5.5 mm</v>
       </c>
       <c r="D64" s="32" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="E64" s="9"/>
       <c r="H64" s="22"/>
@@ -12863,14 +12859,14 @@
     </row>
     <row r="65" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B65">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C65" s="32" t="str">
-        <f>C202</f>
-        <v>Zahnriemenscheibe T2,5, 16 Zähne</v>
+        <f>C173</f>
+        <v>Zylinderkopfschraube Innensechskant M3 25mm</v>
       </c>
       <c r="D65" s="32" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="E65" s="9"/>
       <c r="H65" s="22"/>
@@ -12878,14 +12874,14 @@
     </row>
     <row r="66" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B66">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C66" s="32" t="str">
-        <f>C207</f>
-        <v>Zahnriemenscheibe T2,5, 60 Zähne</v>
+        <f>C199</f>
+        <v>XXXX Distanzbolzen M3 20mm, Schlüsselweite 5mm</v>
       </c>
       <c r="D66" s="32" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="E66" s="9"/>
       <c r="H66" s="22"/>
@@ -12896,11 +12892,11 @@
         <v>1</v>
       </c>
       <c r="C67" s="32" t="str">
-        <f>C175</f>
-        <v>Zylinderkopfschraube Innensechskant M6 55mm</v>
+        <f>C224</f>
+        <v>NEMA 17 - 42x42x33 - 0,26Nm - 5mm Achse</v>
       </c>
       <c r="D67" s="32" t="s">
-        <v>719</v>
+        <v>647</v>
       </c>
       <c r="E67" s="9"/>
       <c r="H67" s="22"/>
@@ -12910,11 +12906,12 @@
       <c r="B68">
         <v>1</v>
       </c>
-      <c r="C68" s="32" t="s">
-        <v>720</v>
+      <c r="C68" s="32" t="str">
+        <f>C205</f>
+        <v>Zahnriemenscheibe T2,5, 16 Zähne</v>
       </c>
       <c r="D68" s="32" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="E68" s="9"/>
       <c r="H68" s="22"/>
@@ -12925,36 +12922,41 @@
         <v>1</v>
       </c>
       <c r="C69" s="32" t="str">
-        <f>C225</f>
-        <v>Rotary Sensor</v>
+        <f>C205</f>
+        <v>Zahnriemenscheibe T2,5, 16 Zähne</v>
       </c>
       <c r="D69" s="32" t="s">
-        <v>662</v>
+        <v>714</v>
       </c>
       <c r="E69" s="9"/>
       <c r="H69" s="22"/>
       <c r="I69" s="22"/>
     </row>
     <row r="70" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C70" s="32"/>
-      <c r="D70" s="32"/>
+      <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="C70" s="32" t="str">
+        <f>C210</f>
+        <v>Zahnriemenscheibe T2,5, 60 Zähne</v>
+      </c>
+      <c r="D70" s="32" t="s">
+        <v>714</v>
+      </c>
       <c r="E70" s="9"/>
       <c r="H70" s="22"/>
       <c r="I70" s="22"/>
     </row>
     <row r="71" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="6" t="s">
-        <v>728</v>
-      </c>
       <c r="B71">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C71" s="32" t="str">
-        <f>C174</f>
-        <v>Zylinderkopfschraube Innensechskant M2 6mm</v>
+        <f>C178</f>
+        <v>Zylinderkopfschraube Innensechskant M6 55mm</v>
       </c>
       <c r="D71" s="32" t="s">
-        <v>657</v>
+        <v>718</v>
       </c>
       <c r="E71" s="9"/>
       <c r="H71" s="22"/>
@@ -12962,14 +12964,13 @@
     </row>
     <row r="72" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B72">
-        <v>4</v>
-      </c>
-      <c r="C72" s="32" t="str">
-        <f>C183</f>
-        <v>Muttern M2</v>
+        <v>1</v>
+      </c>
+      <c r="C72" s="32" t="s">
+        <v>719</v>
       </c>
       <c r="D72" s="32" t="s">
-        <v>657</v>
+        <v>718</v>
       </c>
       <c r="E72" s="9"/>
       <c r="H72" s="22"/>
@@ -12980,41 +12981,36 @@
         <v>1</v>
       </c>
       <c r="C73" s="32" t="str">
-        <f>C225</f>
+        <f>C228</f>
         <v>Rotary Sensor</v>
       </c>
       <c r="D73" s="32" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E73" s="9"/>
       <c r="H73" s="22"/>
       <c r="I73" s="22"/>
     </row>
     <row r="74" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B74">
-        <v>2</v>
-      </c>
-      <c r="C74" s="32" t="str">
-        <f>C189</f>
-        <v>Unterlegscheiben M2 Dicke 0,5mm</v>
-      </c>
-      <c r="D74" s="32" t="s">
-        <v>663</v>
-      </c>
+      <c r="C74" s="32"/>
+      <c r="D74" s="32"/>
       <c r="E74" s="9"/>
       <c r="H74" s="22"/>
       <c r="I74" s="22"/>
     </row>
     <row r="75" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="6" t="s">
+        <v>727</v>
+      </c>
       <c r="B75">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C75" s="32" t="str">
-        <f>C233</f>
-        <v>Rillenkugellager DIN 625 SKF - 61807 35x47x7mm</v>
+        <f>C177</f>
+        <v>Zylinderkopfschraube Innensechskant M2 6mm</v>
       </c>
       <c r="D75" s="32" t="s">
-        <v>729</v>
+        <v>656</v>
       </c>
       <c r="E75" s="9"/>
       <c r="H75" s="22"/>
@@ -13024,12 +13020,12 @@
       <c r="B76">
         <v>4</v>
       </c>
-      <c r="C76" t="str">
-        <f>C178</f>
-        <v>Senkkopfschraube Innensechskant M3 10mm</v>
-      </c>
-      <c r="D76" t="s">
-        <v>730</v>
+      <c r="C76" s="32" t="str">
+        <f>C186</f>
+        <v>Muttern M2</v>
+      </c>
+      <c r="D76" s="32" t="s">
+        <v>656</v>
       </c>
       <c r="E76" s="9"/>
       <c r="H76" s="22"/>
@@ -13037,14 +13033,14 @@
     </row>
     <row r="77" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B77">
-        <v>4</v>
-      </c>
-      <c r="C77" t="str">
-        <f>C178</f>
-        <v>Senkkopfschraube Innensechskant M3 10mm</v>
-      </c>
-      <c r="D77" t="s">
-        <v>733</v>
+        <v>1</v>
+      </c>
+      <c r="C77" s="32" t="str">
+        <f>C228</f>
+        <v>Rotary Sensor</v>
+      </c>
+      <c r="D77" s="32" t="s">
+        <v>661</v>
       </c>
       <c r="E77" s="9"/>
       <c r="H77" s="22"/>
@@ -13052,14 +13048,14 @@
     </row>
     <row r="78" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B78">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C78" s="32" t="str">
-        <f>C166</f>
-        <v>Zylinderkopfschraube Innensechskant M3 40mm</v>
+        <f>C192</f>
+        <v>Unterlegscheiben M2 Dicke 0,5mm</v>
       </c>
       <c r="D78" s="32" t="s">
-        <v>737</v>
+        <v>662</v>
       </c>
       <c r="E78" s="9"/>
       <c r="H78" s="22"/>
@@ -13067,14 +13063,14 @@
     </row>
     <row r="79" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B79">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C79" s="32" t="str">
-        <f>C167</f>
-        <v>Zylinderkopfschraube Innensechskant M3 30mm</v>
+        <f>C236</f>
+        <v>Rillenkugellager DIN 625 SKF - 61807 35x47x7mm</v>
       </c>
       <c r="D79" s="32" t="s">
-        <v>738</v>
+        <v>728</v>
       </c>
       <c r="E79" s="9"/>
       <c r="H79" s="22"/>
@@ -13082,14 +13078,14 @@
     </row>
     <row r="80" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B80">
-        <v>8</v>
-      </c>
-      <c r="C80" s="32" t="str">
-        <f>C182</f>
-        <v>Muttern M3, Schlüsselweite 5.5 mm</v>
-      </c>
-      <c r="D80" s="32" t="s">
-        <v>738</v>
+        <v>4</v>
+      </c>
+      <c r="C80" t="str">
+        <f>C181</f>
+        <v>Senkkopfschraube Innensechskant M3 10mm</v>
+      </c>
+      <c r="D80" t="s">
+        <v>729</v>
       </c>
       <c r="E80" s="9"/>
       <c r="H80" s="22"/>
@@ -13097,14 +13093,14 @@
     </row>
     <row r="81" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B81">
-        <v>12</v>
-      </c>
-      <c r="C81" s="32" t="str">
-        <f>C188</f>
-        <v>Unterlegscheiben M3 Dicke 0,5mm, Außendurchmesser 7mm</v>
-      </c>
-      <c r="D81" s="32" t="s">
-        <v>739</v>
+        <v>4</v>
+      </c>
+      <c r="C81" t="str">
+        <f>C181</f>
+        <v>Senkkopfschraube Innensechskant M3 10mm</v>
+      </c>
+      <c r="D81" t="s">
+        <v>732</v>
       </c>
       <c r="E81" s="9"/>
       <c r="H81" s="22"/>
@@ -13115,11 +13111,11 @@
         <v>4</v>
       </c>
       <c r="C82" s="32" t="str">
-        <f>C165</f>
-        <v>Zylinderkopfschraube Innensechskant M3 45mm</v>
+        <f>C170</f>
+        <v>Zylinderkopfschraube Innensechskant M3 40mm</v>
       </c>
       <c r="D82" s="32" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="E82" s="9"/>
       <c r="H82" s="22"/>
@@ -13127,14 +13123,14 @@
     </row>
     <row r="83" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B83">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C83" s="32" t="str">
-        <f>C229</f>
-        <v>Rillenkugellager  4 x13 x 5 mm mit Flansch</v>
+        <f>C171</f>
+        <v>Zylinderkopfschraube Innensechskant M3 30mm</v>
       </c>
       <c r="D83" s="32" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="E83" s="9"/>
       <c r="H83" s="22"/>
@@ -13142,14 +13138,14 @@
     </row>
     <row r="84" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B84">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C84" s="32" t="str">
-        <f>C188</f>
-        <v>Unterlegscheiben M3 Dicke 0,5mm, Außendurchmesser 7mm</v>
+        <f>C185</f>
+        <v>Muttern M3, Schlüsselweite 5.5 mm</v>
       </c>
       <c r="D84" s="32" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="E84" s="9"/>
       <c r="H84" s="22"/>
@@ -13157,14 +13153,14 @@
     </row>
     <row r="85" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B85">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C85" s="32" t="str">
-        <f>C186</f>
-        <v>Madenschraube M3 16mm</v>
+        <f>C191</f>
+        <v>Unterlegscheiben M3 Dicke 0,5mm, Außendurchmesser 7mm</v>
       </c>
       <c r="D85" s="32" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="E85" s="9"/>
       <c r="H85" s="22"/>
@@ -13172,14 +13168,14 @@
     </row>
     <row r="86" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B86">
-        <v>72</v>
+        <v>4</v>
       </c>
       <c r="C86" s="32" t="str">
-        <f>C194</f>
-        <v>Silberstahlwelle 8mm Durchmesser</v>
+        <f>C169</f>
+        <v>Zylinderkopfschraube Innensechskant M3 45mm</v>
       </c>
       <c r="D86" s="32" t="s">
-        <v>746</v>
+        <v>739</v>
       </c>
       <c r="E86" s="9"/>
       <c r="H86" s="22"/>
@@ -13187,14 +13183,14 @@
     </row>
     <row r="87" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B87">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C87" s="32" t="str">
-        <f>C208</f>
-        <v>Zahnriemenscheibe T5, 48 Zähne</v>
+        <f>C232</f>
+        <v>Rillenkugellager  4 x13 x 5 mm mit Flansch</v>
       </c>
       <c r="D87" s="32" t="s">
-        <v>746</v>
+        <v>739</v>
       </c>
       <c r="E87" s="9"/>
       <c r="H87" s="22"/>
@@ -13202,14 +13198,14 @@
     </row>
     <row r="88" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B88">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C88" s="32" t="str">
-        <f>C209</f>
-        <v>Zahnriemenscheibe T5, 16 Zähne</v>
+        <f>C191</f>
+        <v>Unterlegscheiben M3 Dicke 0,5mm, Außendurchmesser 7mm</v>
       </c>
       <c r="D88" s="32" t="s">
-        <v>746</v>
+        <v>739</v>
       </c>
       <c r="E88" s="9"/>
       <c r="H88" s="22"/>
@@ -13219,12 +13215,12 @@
       <c r="B89">
         <v>1</v>
       </c>
-      <c r="C89" t="str">
-        <f>C242</f>
-        <v>Metallbohrer 8mm</v>
+      <c r="C89" s="32" t="str">
+        <f>C189</f>
+        <v>Madenschraube M3 16mm</v>
       </c>
       <c r="D89" s="32" t="s">
-        <v>746</v>
+        <v>739</v>
       </c>
       <c r="E89" s="9"/>
       <c r="H89" s="22"/>
@@ -13232,14 +13228,14 @@
     </row>
     <row r="90" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B90">
-        <v>1</v>
-      </c>
-      <c r="C90" t="str">
-        <f>C241</f>
-        <v>Gewindeschneider M3</v>
+        <v>72</v>
+      </c>
+      <c r="C90" s="32" t="str">
+        <f>C197</f>
+        <v>Silberstahlwelle 8mm Durchmesser</v>
       </c>
       <c r="D90" s="32" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="E90" s="9"/>
       <c r="H90" s="22"/>
@@ -13249,12 +13245,12 @@
       <c r="B91">
         <v>1</v>
       </c>
-      <c r="C91" t="str">
-        <f>C244</f>
-        <v>Metallbohrer 2.3mm (für M3 Gewinde)</v>
+      <c r="C91" s="32" t="str">
+        <f>C211</f>
+        <v>Zahnriemenscheibe T5, 48 Zähne</v>
       </c>
       <c r="D91" s="32" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="E91" s="9"/>
       <c r="H91" s="22"/>
@@ -13262,14 +13258,14 @@
     </row>
     <row r="92" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B92">
-        <v>2</v>
-      </c>
-      <c r="C92" t="str">
-        <f>C187</f>
-        <v>Madenschraube M3 5mm</v>
+        <v>1</v>
+      </c>
+      <c r="C92" s="32" t="str">
+        <f>C212</f>
+        <v>Zahnriemenscheibe T5, 16 Zähne</v>
       </c>
       <c r="D92" s="32" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="E92" s="9"/>
       <c r="H92" s="22"/>
@@ -13277,14 +13273,14 @@
     </row>
     <row r="93" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B93">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C93" t="str">
-        <f>C236</f>
-        <v>Rillenkugellager 8x22x7</v>
+        <f>C245</f>
+        <v>Metallbohrer 8mm</v>
       </c>
       <c r="D93" s="32" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="E93" s="9"/>
       <c r="H93" s="22"/>
@@ -13292,14 +13288,14 @@
     </row>
     <row r="94" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B94">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C94" t="str">
-        <f>C190</f>
-        <v>Unterlegscheiben 8mm Innendurchmesser</v>
+        <f>C244</f>
+        <v>Gewindeschneider M3</v>
       </c>
       <c r="D94" s="32" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="E94" s="9"/>
       <c r="H94" s="22"/>
@@ -13307,14 +13303,14 @@
     </row>
     <row r="95" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B95">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C95" t="str">
-        <f>C165</f>
-        <v>Zylinderkopfschraube Innensechskant M3 45mm</v>
+        <f>C247</f>
+        <v>Metallbohrer 2.3mm (für M3 Gewinde)</v>
       </c>
       <c r="D95" s="32" t="s">
-        <v>760</v>
+        <v>745</v>
       </c>
       <c r="E95" s="9"/>
       <c r="H95" s="22"/>
@@ -13322,14 +13318,14 @@
     </row>
     <row r="96" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B96">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C96" t="str">
-        <f>C188</f>
-        <v>Unterlegscheiben M3 Dicke 0,5mm, Außendurchmesser 7mm</v>
+        <f>C190</f>
+        <v>Madenschraube M3 5mm</v>
       </c>
       <c r="D96" s="32" t="s">
-        <v>760</v>
+        <v>745</v>
       </c>
       <c r="E96" s="9"/>
       <c r="H96" s="22"/>
@@ -13337,14 +13333,14 @@
     </row>
     <row r="97" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B97">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C97" t="str">
-        <f>C181</f>
-        <v>Vierkant Mutter M3 Breite 5.5mm</v>
+        <f>C239</f>
+        <v>Rillenkugellager 8x22x7</v>
       </c>
       <c r="D97" s="32" t="s">
-        <v>760</v>
+        <v>745</v>
       </c>
       <c r="E97" s="9"/>
       <c r="H97" s="22"/>
@@ -13352,14 +13348,14 @@
     </row>
     <row r="98" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B98">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C98" t="str">
-        <f>C165</f>
-        <v>Zylinderkopfschraube Innensechskant M3 45mm</v>
+        <f>C193</f>
+        <v>Unterlegscheiben 8mm Innendurchmesser</v>
       </c>
       <c r="D98" s="32" t="s">
-        <v>759</v>
+        <v>745</v>
       </c>
       <c r="E98" s="9"/>
       <c r="H98" s="22"/>
@@ -13370,8 +13366,8 @@
         <v>4</v>
       </c>
       <c r="C99" t="str">
-        <f>C188</f>
-        <v>Unterlegscheiben M3 Dicke 0,5mm, Außendurchmesser 7mm</v>
+        <f>C169</f>
+        <v>Zylinderkopfschraube Innensechskant M3 45mm</v>
       </c>
       <c r="D99" s="32" t="s">
         <v>759</v>
@@ -13382,11 +13378,11 @@
     </row>
     <row r="100" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B100">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C100" t="str">
-        <f>C181</f>
-        <v>Vierkant Mutter M3 Breite 5.5mm</v>
+        <f>C191</f>
+        <v>Unterlegscheiben M3 Dicke 0,5mm, Außendurchmesser 7mm</v>
       </c>
       <c r="D100" s="32" t="s">
         <v>759</v>
@@ -13397,11 +13393,11 @@
     </row>
     <row r="101" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B101">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C101" t="str">
-        <f>C230</f>
-        <v xml:space="preserve">Rillenkugellager  4 x13 x 5 mm </v>
+        <f>C184</f>
+        <v>Vierkant Mutter M3 Breite 5.5mm</v>
       </c>
       <c r="D101" s="32" t="s">
         <v>759</v>
@@ -13412,14 +13408,14 @@
     </row>
     <row r="102" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B102">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C102" t="str">
-        <f>C191</f>
-        <v>Unterlegscheiben M3 Kunststoff 0,8mm, Außendurchmesser 7mm</v>
+        <f>C169</f>
+        <v>Zylinderkopfschraube Innensechskant M3 45mm</v>
       </c>
       <c r="D102" s="32" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E102" s="9"/>
       <c r="H102" s="22"/>
@@ -13430,11 +13426,11 @@
         <v>4</v>
       </c>
       <c r="C103" t="str">
-        <f>C179</f>
-        <v>Senkkopfschraube Innensechskant M3 25mm</v>
+        <f>C191</f>
+        <v>Unterlegscheiben M3 Dicke 0,5mm, Außendurchmesser 7mm</v>
       </c>
       <c r="D103" s="32" t="s">
-        <v>615</v>
+        <v>758</v>
       </c>
       <c r="E103" s="9"/>
       <c r="H103" s="22"/>
@@ -13442,14 +13438,14 @@
     </row>
     <row r="104" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B104">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C104" t="str">
-        <f>C169</f>
-        <v>Zylinderkopfschraube Innensechskant M3 25mm</v>
+        <f>C184</f>
+        <v>Vierkant Mutter M3 Breite 5.5mm</v>
       </c>
       <c r="D104" s="32" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="E104" s="9"/>
       <c r="H104" s="22"/>
@@ -13457,14 +13453,14 @@
     </row>
     <row r="105" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B105">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C105" t="str">
-        <f>C197</f>
-        <v>Distanzbolzen 2x Innen M3 20mm, Schlüsselweite 5,5mm</v>
+        <f>C233</f>
+        <v xml:space="preserve">Rillenkugellager  4 x13 x 5 mm </v>
       </c>
       <c r="D105" s="32" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="E105" s="9"/>
       <c r="H105" s="22"/>
@@ -13472,14 +13468,14 @@
     </row>
     <row r="106" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B106">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C106" t="str">
-        <f>C188</f>
-        <v>Unterlegscheiben M3 Dicke 0,5mm, Außendurchmesser 7mm</v>
+        <f>C194</f>
+        <v>Unterlegscheiben M3 Kunststoff 0,8mm, Außendurchmesser 7mm</v>
       </c>
       <c r="D106" s="32" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="E106" s="9"/>
       <c r="H106" s="22"/>
@@ -13490,11 +13486,11 @@
         <v>4</v>
       </c>
       <c r="C107" t="str">
-        <f>C167</f>
-        <v>Zylinderkopfschraube Innensechskant M3 30mm</v>
+        <f>C182</f>
+        <v>Senkkopfschraube Innensechskant M3 25mm</v>
       </c>
       <c r="D107" s="32" t="s">
-        <v>764</v>
+        <v>615</v>
       </c>
       <c r="E107" s="9"/>
       <c r="H107" s="22"/>
@@ -13502,14 +13498,14 @@
     </row>
     <row r="108" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B108">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C108" t="str">
-        <f>C188</f>
-        <v>Unterlegscheiben M3 Dicke 0,5mm, Außendurchmesser 7mm</v>
+        <f>C173</f>
+        <v>Zylinderkopfschraube Innensechskant M3 25mm</v>
       </c>
       <c r="D108" s="32" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="E108" s="9"/>
       <c r="H108" s="22"/>
@@ -13517,14 +13513,14 @@
     </row>
     <row r="109" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B109">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C109" t="str">
-        <f>C214</f>
-        <v>Zahnriemen T5 340mm 10mm Breite</v>
+        <f>C200</f>
+        <v>Distanzbolzen 2x Innen M3 20mm, Schlüsselweite 5,5mm</v>
       </c>
       <c r="D109" s="32" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="E109" s="9"/>
       <c r="H109" s="22"/>
@@ -13532,14 +13528,14 @@
     </row>
     <row r="110" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B110">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C110" t="str">
-        <f>C209</f>
-        <v>Zahnriemenscheibe T5, 16 Zähne</v>
+        <f>C191</f>
+        <v>Unterlegscheiben M3 Dicke 0,5mm, Außendurchmesser 7mm</v>
       </c>
       <c r="D110" s="32" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="E110" s="9"/>
       <c r="H110" s="22"/>
@@ -13547,14 +13543,14 @@
     </row>
     <row r="111" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B111">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C111" t="str">
-        <f>C215</f>
-        <v>Zahnriemen T5 510mm 10mm Breite</v>
+        <f>C171</f>
+        <v>Zylinderkopfschraube Innensechskant M3 30mm</v>
       </c>
       <c r="D111" s="32" t="s">
-        <v>770</v>
+        <v>763</v>
       </c>
       <c r="E111" s="9"/>
       <c r="H111" s="22"/>
@@ -13562,38 +13558,44 @@
     </row>
     <row r="112" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B112">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C112" t="str">
-        <f>C222</f>
-        <v xml:space="preserve">NEMA 24 - 60x60x57 - 1.9Nm ST6018M2008 </v>
+        <f>C191</f>
+        <v>Unterlegscheiben M3 Dicke 0,5mm, Außendurchmesser 7mm</v>
       </c>
       <c r="D112" s="32" t="s">
-        <v>647</v>
+        <v>763</v>
       </c>
       <c r="E112" s="9"/>
       <c r="H112" s="22"/>
       <c r="I112" s="22"/>
     </row>
     <row r="113" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D113" s="32"/>
+      <c r="B113">
+        <v>1</v>
+      </c>
+      <c r="C113" t="str">
+        <f>C217</f>
+        <v>Zahnriemen T5 340mm 10mm Breite</v>
+      </c>
+      <c r="D113" s="32" t="s">
+        <v>766</v>
+      </c>
       <c r="E113" s="9"/>
       <c r="H113" s="22"/>
       <c r="I113" s="22"/>
     </row>
     <row r="114" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="6" t="s">
-        <v>792</v>
-      </c>
       <c r="B114">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C114" t="str">
-        <f>C174</f>
-        <v>Zylinderkopfschraube Innensechskant M2 6mm</v>
+        <f>C212</f>
+        <v>Zahnriemenscheibe T5, 16 Zähne</v>
       </c>
       <c r="D114" s="32" t="s">
-        <v>657</v>
+        <v>766</v>
       </c>
       <c r="E114" s="9"/>
       <c r="H114" s="22"/>
@@ -13601,14 +13603,14 @@
     </row>
     <row r="115" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B115">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C115" t="str">
-        <f>C183</f>
-        <v>Muttern M2</v>
+        <f>C218</f>
+        <v>Zahnriemen T5 510mm 10mm Breite</v>
       </c>
       <c r="D115" s="32" t="s">
-        <v>657</v>
+        <v>769</v>
       </c>
       <c r="E115" s="9"/>
       <c r="H115" s="22"/>
@@ -13620,40 +13622,34 @@
       </c>
       <c r="C116" t="str">
         <f>C225</f>
-        <v>Rotary Sensor</v>
+        <v xml:space="preserve">NEMA 24 - 60x60x57 - 1.9Nm ST6018M2008 </v>
       </c>
       <c r="D116" s="32" t="s">
-        <v>662</v>
+        <v>647</v>
       </c>
       <c r="E116" s="9"/>
       <c r="H116" s="22"/>
       <c r="I116" s="22"/>
     </row>
     <row r="117" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B117">
-        <v>2</v>
-      </c>
-      <c r="C117" t="str">
-        <f>C189</f>
-        <v>Unterlegscheiben M2 Dicke 0,5mm</v>
-      </c>
-      <c r="D117" s="32" t="s">
-        <v>663</v>
-      </c>
+      <c r="D117" s="32"/>
       <c r="E117" s="9"/>
       <c r="H117" s="22"/>
       <c r="I117" s="22"/>
     </row>
     <row r="118" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="6" t="s">
+        <v>791</v>
+      </c>
       <c r="B118">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C118" t="str">
-        <f>C230</f>
-        <v xml:space="preserve">Rillenkugellager  4 x13 x 5 mm </v>
+        <f>C177</f>
+        <v>Zylinderkopfschraube Innensechskant M2 6mm</v>
       </c>
       <c r="D118" s="32" t="s">
-        <v>793</v>
+        <v>656</v>
       </c>
       <c r="E118" s="9"/>
       <c r="H118" s="22"/>
@@ -13664,11 +13660,11 @@
         <v>4</v>
       </c>
       <c r="C119" t="str">
-        <f>C191</f>
-        <v>Unterlegscheiben M3 Kunststoff 0,8mm, Außendurchmesser 7mm</v>
+        <f>C186</f>
+        <v>Muttern M2</v>
       </c>
       <c r="D119" s="32" t="s">
-        <v>793</v>
+        <v>656</v>
       </c>
       <c r="E119" s="9"/>
       <c r="H119" s="22"/>
@@ -13676,14 +13672,14 @@
     </row>
     <row r="120" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B120">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C120" t="str">
-        <f>C181</f>
-        <v>Vierkant Mutter M3 Breite 5.5mm</v>
+        <f>C228</f>
+        <v>Rotary Sensor</v>
       </c>
       <c r="D120" s="32" t="s">
-        <v>793</v>
+        <v>661</v>
       </c>
       <c r="E120" s="9"/>
       <c r="H120" s="22"/>
@@ -13694,11 +13690,11 @@
         <v>2</v>
       </c>
       <c r="C121" t="str">
-        <f>C170</f>
-        <v>XXXXX Zylinderkopfschraube Innensechskant M3 22mm</v>
+        <f>C192</f>
+        <v>Unterlegscheiben M2 Dicke 0,5mm</v>
       </c>
       <c r="D121" s="32" t="s">
-        <v>793</v>
+        <v>662</v>
       </c>
       <c r="E121" s="9"/>
       <c r="H121" s="22"/>
@@ -13706,14 +13702,14 @@
     </row>
     <row r="122" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B122">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C122" t="str">
-        <f>C188</f>
-        <v>Unterlegscheiben M3 Dicke 0,5mm, Außendurchmesser 7mm</v>
+        <f>C233</f>
+        <v xml:space="preserve">Rillenkugellager  4 x13 x 5 mm </v>
       </c>
       <c r="D122" s="32" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="E122" s="9"/>
       <c r="H122" s="22"/>
@@ -13721,14 +13717,14 @@
     </row>
     <row r="123" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B123">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C123" t="str">
-        <f>C166</f>
-        <v>Zylinderkopfschraube Innensechskant M3 40mm</v>
+        <f>C194</f>
+        <v>Unterlegscheiben M3 Kunststoff 0,8mm, Außendurchmesser 7mm</v>
       </c>
       <c r="D123" s="32" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="E123" s="9"/>
       <c r="H123" s="22"/>
@@ -13736,14 +13732,14 @@
     </row>
     <row r="124" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B124">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C124" t="str">
-        <f>C165</f>
-        <v>Zylinderkopfschraube Innensechskant M3 45mm</v>
+        <f>C184</f>
+        <v>Vierkant Mutter M3 Breite 5.5mm</v>
       </c>
       <c r="D124" s="32" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="E124" s="9"/>
       <c r="H124" s="22"/>
@@ -13751,14 +13747,14 @@
     </row>
     <row r="125" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B125">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C125" t="str">
-        <f>C169</f>
-        <v>Zylinderkopfschraube Innensechskant M3 25mm</v>
+        <f>C174</f>
+        <v>XXXXX Zylinderkopfschraube Innensechskant M3 22mm</v>
       </c>
       <c r="D125" s="32" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="E125" s="9"/>
       <c r="H125" s="22"/>
@@ -13766,14 +13762,14 @@
     </row>
     <row r="126" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B126">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C126" t="str">
-        <f>C236</f>
-        <v>Rillenkugellager 8x22x7</v>
+        <f>C191</f>
+        <v>Unterlegscheiben M3 Dicke 0,5mm, Außendurchmesser 7mm</v>
       </c>
       <c r="D126" s="32" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="E126" s="9"/>
       <c r="H126" s="22"/>
@@ -13781,14 +13777,14 @@
     </row>
     <row r="127" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B127">
-        <v>110</v>
+        <v>1</v>
       </c>
       <c r="C127" t="str">
-        <f>C194</f>
-        <v>Silberstahlwelle 8mm Durchmesser</v>
+        <f>C170</f>
+        <v>Zylinderkopfschraube Innensechskant M3 40mm</v>
       </c>
       <c r="D127" s="32" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="E127" s="9"/>
       <c r="H127" s="22"/>
@@ -13799,11 +13795,11 @@
         <v>1</v>
       </c>
       <c r="C128" t="str">
-        <f>C208</f>
-        <v>Zahnriemenscheibe T5, 48 Zähne</v>
+        <f>C169</f>
+        <v>Zylinderkopfschraube Innensechskant M3 45mm</v>
       </c>
       <c r="D128" s="32" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="E128" s="9"/>
       <c r="H128" s="22"/>
@@ -13814,11 +13810,11 @@
         <v>1</v>
       </c>
       <c r="C129" t="str">
-        <f>C209</f>
-        <v>Zahnriemenscheibe T5, 16 Zähne</v>
+        <f>C173</f>
+        <v>Zylinderkopfschraube Innensechskant M3 25mm</v>
       </c>
       <c r="D129" s="32" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="E129" s="9"/>
       <c r="H129" s="22"/>
@@ -13826,14 +13822,14 @@
     </row>
     <row r="130" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B130">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C130" t="str">
-        <f>C216</f>
-        <v>Zahnriemen T5 500mm 10mm Breite</v>
+        <f>C239</f>
+        <v>Rillenkugellager 8x22x7</v>
       </c>
       <c r="D130" s="32" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="E130" s="9"/>
       <c r="H130" s="22"/>
@@ -13841,14 +13837,14 @@
     </row>
     <row r="131" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B131">
-        <v>1</v>
+        <v>110</v>
       </c>
       <c r="C131" t="str">
-        <f>C217</f>
-        <v>Zahnriemen T5 480mm 10mm Breite</v>
+        <f>C197</f>
+        <v>Silberstahlwelle 8mm Durchmesser</v>
       </c>
       <c r="D131" s="32" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="E131" s="9"/>
       <c r="H131" s="22"/>
@@ -13859,11 +13855,11 @@
         <v>1</v>
       </c>
       <c r="C132" t="str">
-        <f>C209</f>
-        <v>Zahnriemenscheibe T5, 16 Zähne</v>
+        <f>C211</f>
+        <v>Zahnriemenscheibe T5, 48 Zähne</v>
       </c>
       <c r="D132" s="32" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="E132" s="9"/>
       <c r="H132" s="22"/>
@@ -13874,11 +13870,11 @@
         <v>1</v>
       </c>
       <c r="C133" t="str">
-        <f>C218</f>
-        <v>Zahnriemen T5 340mm 10mm Breite</v>
+        <f>C212</f>
+        <v>Zahnriemenscheibe T5, 16 Zähne</v>
       </c>
       <c r="D133" s="32" t="s">
-        <v>802</v>
+        <v>794</v>
       </c>
       <c r="E133" s="9"/>
       <c r="H133" s="22"/>
@@ -13886,14 +13882,14 @@
     </row>
     <row r="134" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B134">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C134" t="str">
-        <f>C168</f>
-        <v>Zylinderkopfschraube Innensechskant M3 20mm</v>
+        <f>C219</f>
+        <v>Zahnriemen T5 500mm 10mm Breite</v>
       </c>
       <c r="D134" s="32" t="s">
-        <v>803</v>
+        <v>795</v>
       </c>
       <c r="E134" s="9"/>
       <c r="H134" s="22"/>
@@ -13901,14 +13897,14 @@
     </row>
     <row r="135" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B135">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C135" t="str">
-        <f>C182</f>
-        <v>Muttern M3, Schlüsselweite 5.5 mm</v>
+        <f>C220</f>
+        <v>Zahnriemen T5 480mm 10mm Breite</v>
       </c>
       <c r="D135" s="32" t="s">
-        <v>803</v>
+        <v>795</v>
       </c>
       <c r="E135" s="9"/>
       <c r="H135" s="22"/>
@@ -13916,14 +13912,14 @@
     </row>
     <row r="136" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B136">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C136" t="str">
-        <f>C188</f>
-        <v>Unterlegscheiben M3 Dicke 0,5mm, Außendurchmesser 7mm</v>
+        <f>C212</f>
+        <v>Zahnriemenscheibe T5, 16 Zähne</v>
       </c>
       <c r="D136" s="32" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="E136" s="9"/>
       <c r="H136" s="22"/>
@@ -13931,14 +13927,14 @@
     </row>
     <row r="137" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B137">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C137" t="str">
-        <f>C165</f>
-        <v>Zylinderkopfschraube Innensechskant M3 45mm</v>
+        <f>C221</f>
+        <v>Zahnriemen T5 340mm 10mm Breite</v>
       </c>
       <c r="D137" s="32" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="E137" s="9"/>
       <c r="H137" s="22"/>
@@ -13949,11 +13945,11 @@
         <v>4</v>
       </c>
       <c r="C138" t="str">
-        <f>C188</f>
-        <v>Unterlegscheiben M3 Dicke 0,5mm, Außendurchmesser 7mm</v>
+        <f>C172</f>
+        <v>Zylinderkopfschraube Innensechskant M3 20mm</v>
       </c>
       <c r="D138" s="32" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E138" s="9"/>
       <c r="H138" s="22"/>
@@ -13964,11 +13960,11 @@
         <v>4</v>
       </c>
       <c r="C139" t="str">
-        <f>C197</f>
-        <v>Distanzbolzen 2x Innen M3 20mm, Schlüsselweite 5,5mm</v>
+        <f>C185</f>
+        <v>Muttern M3, Schlüsselweite 5.5 mm</v>
       </c>
       <c r="D139" s="32" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E139" s="9"/>
       <c r="H139" s="22"/>
@@ -13976,15 +13972,14 @@
     </row>
     <row r="140" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B140">
-        <f>50*6</f>
-        <v>300</v>
+        <v>4</v>
       </c>
       <c r="C140" t="str">
-        <f>C200</f>
-        <v>Gewindestange M3</v>
+        <f>C191</f>
+        <v>Unterlegscheiben M3 Dicke 0,5mm, Außendurchmesser 7mm</v>
       </c>
       <c r="D140" s="32" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="E140" s="9"/>
       <c r="H140" s="22"/>
@@ -13992,14 +13987,14 @@
     </row>
     <row r="141" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B141">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C141" t="str">
-        <f>C195</f>
-        <v>Unterlegscheiben M3 Stahl  0,8mm, Außendurchmesser 9mm</v>
+        <f>C169</f>
+        <v>Zylinderkopfschraube Innensechskant M3 45mm</v>
       </c>
       <c r="D141" s="32" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="E141" s="9"/>
       <c r="H141" s="22"/>
@@ -14007,14 +14002,14 @@
     </row>
     <row r="142" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B142">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C142" t="str">
-        <f>C197</f>
-        <v>Distanzbolzen 2x Innen M3 20mm, Schlüsselweite 5,5mm</v>
+        <f>C191</f>
+        <v>Unterlegscheiben M3 Dicke 0,5mm, Außendurchmesser 7mm</v>
       </c>
       <c r="D142" s="32" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="E142" s="9"/>
       <c r="H142" s="22"/>
@@ -14022,14 +14017,14 @@
     </row>
     <row r="143" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B143">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C143" t="str">
-        <f>C223</f>
-        <v>NEMA 24 - 60x60x87 - 3.1Nm - 8mm Achse</v>
+        <f>C200</f>
+        <v>Distanzbolzen 2x Innen M3 20mm, Schlüsselweite 5,5mm</v>
       </c>
       <c r="D143" s="32" t="s">
-        <v>647</v>
+        <v>803</v>
       </c>
       <c r="E143" s="9"/>
       <c r="H143" s="22"/>
@@ -14037,38 +14032,45 @@
     </row>
     <row r="144" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B144">
-        <v>2</v>
+        <f>50*6</f>
+        <v>300</v>
       </c>
       <c r="C144" t="str">
-        <f>C237</f>
-        <v>Rillenkugellager DIN 625 SKF - SKF 61818 - 90x115x13</v>
+        <f>C203</f>
+        <v>Gewindestange M3</v>
       </c>
       <c r="D144" s="32" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="E144" s="9"/>
       <c r="H144" s="22"/>
       <c r="I144" s="22"/>
     </row>
     <row r="145" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D145" s="32"/>
+      <c r="B145">
+        <v>6</v>
+      </c>
+      <c r="C145" t="str">
+        <f>C198</f>
+        <v>Unterlegscheiben M3 Stahl  0,8mm, Außendurchmesser 9mm</v>
+      </c>
+      <c r="D145" s="32" t="s">
+        <v>804</v>
+      </c>
       <c r="E145" s="9"/>
       <c r="H145" s="22"/>
       <c r="I145" s="22"/>
     </row>
     <row r="146" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="6" t="s">
-        <v>811</v>
-      </c>
       <c r="B146">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C146" t="str">
-        <f>C238</f>
-        <v>Rillenkugellager DIN 625 SKF - SKF 61818 - 85x110x13</v>
+        <f>C200</f>
+        <v>Distanzbolzen 2x Innen M3 20mm, Schlüsselweite 5,5mm</v>
       </c>
       <c r="D146" s="32" t="s">
-        <v>812</v>
+        <v>804</v>
       </c>
       <c r="E146" s="9"/>
       <c r="H146" s="22"/>
@@ -14076,14 +14078,14 @@
     </row>
     <row r="147" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B147">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C147" t="str">
-        <f>C166</f>
-        <v>Zylinderkopfschraube Innensechskant M3 40mm</v>
+        <f>C226</f>
+        <v>NEMA 24 - 60x60x87 - 3.1Nm - 8mm Achse</v>
       </c>
       <c r="D147" s="32" t="s">
-        <v>805</v>
+        <v>647</v>
       </c>
       <c r="E147" s="9"/>
       <c r="H147" s="22"/>
@@ -14091,44 +14093,38 @@
     </row>
     <row r="148" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B148">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C148" t="str">
-        <f>C195</f>
-        <v>Unterlegscheiben M3 Stahl  0,8mm, Außendurchmesser 9mm</v>
+        <f>C240</f>
+        <v>Rillenkugellager DIN 625 SKF - SKF 61818 - 90x115x13</v>
       </c>
       <c r="D148" s="32" t="s">
-        <v>805</v>
+        <v>808</v>
       </c>
       <c r="E148" s="9"/>
       <c r="H148" s="22"/>
       <c r="I148" s="22"/>
     </row>
     <row r="149" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B149">
-        <v>8</v>
-      </c>
-      <c r="C149" t="str">
-        <f>C178</f>
-        <v>Senkkopfschraube Innensechskant M3 10mm</v>
-      </c>
-      <c r="D149" s="32" t="s">
-        <v>828</v>
-      </c>
+      <c r="D149" s="32"/>
       <c r="E149" s="9"/>
       <c r="H149" s="22"/>
       <c r="I149" s="22"/>
     </row>
     <row r="150" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="6" t="s">
+        <v>810</v>
+      </c>
       <c r="B150">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C150" t="str">
-        <f>C197</f>
-        <v>Distanzbolzen 2x Innen M3 20mm, Schlüsselweite 5,5mm</v>
+        <f>C241</f>
+        <v>Rillenkugellager DIN 625 SKF - SKF 61818 - 85x110x13</v>
       </c>
       <c r="D150" s="32" t="s">
-        <v>828</v>
+        <v>811</v>
       </c>
       <c r="E150" s="9"/>
       <c r="H150" s="22"/>
@@ -14136,14 +14132,14 @@
     </row>
     <row r="151" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B151">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C151" t="str">
-        <f>C167</f>
-        <v>Zylinderkopfschraube Innensechskant M3 30mm</v>
+        <f>C170</f>
+        <v>Zylinderkopfschraube Innensechskant M3 40mm</v>
       </c>
       <c r="D151" s="32" t="s">
-        <v>828</v>
+        <v>804</v>
       </c>
       <c r="E151" s="9"/>
       <c r="H151" s="22"/>
@@ -14151,14 +14147,14 @@
     </row>
     <row r="152" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B152">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C152" t="str">
-        <f>C225</f>
-        <v>Rotary Sensor</v>
+        <f>C198</f>
+        <v>Unterlegscheiben M3 Stahl  0,8mm, Außendurchmesser 9mm</v>
       </c>
       <c r="D152" s="32" t="s">
-        <v>662</v>
+        <v>804</v>
       </c>
       <c r="E152" s="9"/>
       <c r="H152" s="22"/>
@@ -14166,14 +14162,14 @@
     </row>
     <row r="153" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B153">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C153" t="str">
-        <f>C174</f>
-        <v>Zylinderkopfschraube Innensechskant M2 6mm</v>
+        <f>C181</f>
+        <v>Senkkopfschraube Innensechskant M3 10mm</v>
       </c>
       <c r="D153" s="32" t="s">
-        <v>662</v>
+        <v>825</v>
       </c>
       <c r="E153" s="9"/>
       <c r="H153" s="22"/>
@@ -14181,14 +14177,14 @@
     </row>
     <row r="154" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B154">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C154" t="str">
-        <f>C183</f>
-        <v>Muttern M2</v>
+        <f>C200</f>
+        <v>Distanzbolzen 2x Innen M3 20mm, Schlüsselweite 5,5mm</v>
       </c>
       <c r="D154" s="32" t="s">
-        <v>662</v>
+        <v>825</v>
       </c>
       <c r="E154" s="9"/>
       <c r="H154" s="22"/>
@@ -14196,14 +14192,14 @@
     </row>
     <row r="155" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B155">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C155" t="str">
-        <f>C182</f>
-        <v>Muttern M3, Schlüsselweite 5.5 mm</v>
+        <f>C171</f>
+        <v>Zylinderkopfschraube Innensechskant M3 30mm</v>
       </c>
       <c r="D155" s="32" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="E155" s="9"/>
       <c r="H155" s="22"/>
@@ -14211,14 +14207,14 @@
     </row>
     <row r="156" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B156">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C156" t="str">
-        <f>C168</f>
-        <v>Zylinderkopfschraube Innensechskant M3 20mm</v>
+        <f>C228</f>
+        <v>Rotary Sensor</v>
       </c>
       <c r="D156" s="32" t="s">
-        <v>830</v>
+        <v>661</v>
       </c>
       <c r="E156" s="9"/>
       <c r="H156" s="22"/>
@@ -14229,11 +14225,11 @@
         <v>4</v>
       </c>
       <c r="C157" t="str">
-        <f>C188</f>
-        <v>Unterlegscheiben M3 Dicke 0,5mm, Außendurchmesser 7mm</v>
+        <f>C177</f>
+        <v>Zylinderkopfschraube Innensechskant M2 6mm</v>
       </c>
       <c r="D157" s="32" t="s">
-        <v>830</v>
+        <v>661</v>
       </c>
       <c r="E157" s="9"/>
       <c r="H157" s="22"/>
@@ -14241,14 +14237,14 @@
     </row>
     <row r="158" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B158">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C158" t="str">
-        <f>C230</f>
-        <v xml:space="preserve">Rillenkugellager  4 x13 x 5 mm </v>
+        <f>C186</f>
+        <v>Muttern M2</v>
       </c>
       <c r="D158" s="32" t="s">
-        <v>831</v>
+        <v>661</v>
       </c>
       <c r="E158" s="9"/>
       <c r="H158" s="22"/>
@@ -14256,14 +14252,14 @@
     </row>
     <row r="159" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B159">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C159" t="str">
-        <f>C191</f>
-        <v>Unterlegscheiben M3 Kunststoff 0,8mm, Außendurchmesser 7mm</v>
+        <f>C185</f>
+        <v>Muttern M3, Schlüsselweite 5.5 mm</v>
       </c>
       <c r="D159" s="32" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="E159" s="9"/>
       <c r="H159" s="22"/>
@@ -14271,14 +14267,14 @@
     </row>
     <row r="160" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B160">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C160" t="str">
-        <f>C203</f>
-        <v>Zahnriemenscheibe T2,5, 12 Zähne</v>
+        <f>C172</f>
+        <v>Zylinderkopfschraube Innensechskant M3 20mm</v>
       </c>
       <c r="D160" s="32" t="s">
-        <v>834</v>
+        <v>827</v>
       </c>
       <c r="E160" s="9"/>
       <c r="H160" s="22"/>
@@ -14286,267 +14282,206 @@
     </row>
     <row r="161" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B161">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C161" t="str">
-        <f>C224</f>
-        <v>NEMA 24 - 57x57x56 - 1,26Nm - 6,35mm Achse</v>
+        <f>C191</f>
+        <v>Unterlegscheiben M3 Dicke 0,5mm, Außendurchmesser 7mm</v>
       </c>
       <c r="D161" s="32" t="s">
-        <v>834</v>
+        <v>827</v>
       </c>
       <c r="E161" s="9"/>
       <c r="H161" s="22"/>
       <c r="I161" s="22"/>
     </row>
     <row r="162" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D162" s="32"/>
+      <c r="B162">
+        <v>6</v>
+      </c>
+      <c r="C162" t="str">
+        <f>C233</f>
+        <v xml:space="preserve">Rillenkugellager  4 x13 x 5 mm </v>
+      </c>
+      <c r="D162" s="32" t="s">
+        <v>828</v>
+      </c>
       <c r="E162" s="9"/>
       <c r="H162" s="22"/>
       <c r="I162" s="22"/>
     </row>
     <row r="163" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C163" s="32"/>
+      <c r="B163">
+        <v>8</v>
+      </c>
+      <c r="C163" t="str">
+        <f>C194</f>
+        <v>Unterlegscheiben M3 Kunststoff 0,8mm, Außendurchmesser 7mm</v>
+      </c>
+      <c r="D163" s="32" t="s">
+        <v>828</v>
+      </c>
       <c r="E163" s="9"/>
       <c r="H163" s="22"/>
       <c r="I163" s="22"/>
     </row>
     <row r="164" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B164" t="s">
-        <v>820</v>
-      </c>
-      <c r="C164" s="32" t="s">
-        <v>664</v>
+      <c r="B164">
+        <v>1</v>
+      </c>
+      <c r="C164" t="str">
+        <f>C206</f>
+        <v>Zahnriemenscheibe T2,5, 12 Zähne</v>
+      </c>
+      <c r="D164" s="32" t="s">
+        <v>831</v>
       </c>
       <c r="E164" s="9"/>
-      <c r="G164" t="s">
-        <v>661</v>
-      </c>
-      <c r="H164" s="22" t="s">
+      <c r="H164" s="22"/>
+      <c r="I164" s="22"/>
+    </row>
+    <row r="165" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B165">
+        <v>1</v>
+      </c>
+      <c r="C165" t="str">
+        <f>C227</f>
+        <v>NEMA 24 - 57x57x56 - 1,26Nm - 6,35mm Achse</v>
+      </c>
+      <c r="D165" s="32" t="s">
+        <v>831</v>
+      </c>
+      <c r="E165" s="9"/>
+      <c r="H165" s="22"/>
+      <c r="I165" s="22"/>
+    </row>
+    <row r="166" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D166" s="32"/>
+      <c r="E166" s="9"/>
+      <c r="H166" s="22"/>
+      <c r="I166" s="22"/>
+    </row>
+    <row r="167" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A167" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C167" s="32"/>
+      <c r="E167" s="9"/>
+      <c r="H167" s="22"/>
+      <c r="I167" s="22"/>
+    </row>
+    <row r="168" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B168" t="s">
+        <v>819</v>
+      </c>
+      <c r="C168" s="32" t="s">
+        <v>663</v>
+      </c>
+      <c r="E168" s="9"/>
+      <c r="G168" t="s">
+        <v>660</v>
+      </c>
+      <c r="H168" s="22" t="s">
+        <v>672</v>
+      </c>
+      <c r="I168" s="22" t="s">
+        <v>673</v>
+      </c>
+      <c r="J168" t="s">
         <v>674</v>
       </c>
-      <c r="I164" s="22" t="s">
-        <v>675</v>
-      </c>
-      <c r="J164" t="s">
-        <v>676</v>
-      </c>
-      <c r="K164" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="165" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B165" s="33">
-        <f t="shared" ref="B165:B197" si="0">ROUNDUP(I165/G165,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C165" s="32" t="s">
-        <v>741</v>
-      </c>
-      <c r="E165" t="s">
-        <v>794</v>
-      </c>
-      <c r="G165">
+      <c r="K168" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B169" s="33">
+        <f t="shared" ref="B169:B200" si="0">ROUNDUP(I169/G169,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C169" s="32" t="s">
+        <v>740</v>
+      </c>
+      <c r="E169" t="s">
+        <v>793</v>
+      </c>
+      <c r="G169">
         <v>25</v>
       </c>
-      <c r="H165" s="22">
+      <c r="H169" s="22">
         <v>7.45</v>
       </c>
-      <c r="I165" s="18">
-        <f>SUMIF(C$1:C$163,"="&amp;C165,B$1:B$163)</f>
+      <c r="I169" s="18">
+        <f>SUMIF(C$1:C$167,"="&amp;C169,B$1:B$167)</f>
         <v>14</v>
       </c>
-      <c r="J165" s="33">
-        <f t="shared" ref="J165:J170" si="1">G165*B165-I165</f>
+      <c r="J169" s="33">
+        <f t="shared" ref="J169:J174" si="1">G169*B169-I169</f>
         <v>11</v>
       </c>
-      <c r="K165" s="34">
-        <f>B165*H165</f>
+      <c r="K169" s="34">
+        <f>B169*H169</f>
         <v>7.45</v>
       </c>
     </row>
-    <row r="166" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B166" s="33">
+    <row r="170" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B170" s="33">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C166" s="32" t="s">
-        <v>735</v>
-      </c>
-      <c r="E166" s="9" t="s">
-        <v>673</v>
-      </c>
-      <c r="G166">
+      <c r="C170" s="32" t="s">
+        <v>734</v>
+      </c>
+      <c r="E170" s="9" t="s">
+        <v>671</v>
+      </c>
+      <c r="G170">
         <v>100</v>
       </c>
-      <c r="H166" s="22">
+      <c r="H170" s="22">
         <v>2.63</v>
       </c>
-      <c r="I166" s="18">
-        <f>SUMIF(C$1:C$163,"="&amp;C166,B$1:B$163)</f>
+      <c r="I170" s="18">
+        <f>SUMIF(C$1:C$167,"="&amp;C170,B$1:B$167)</f>
         <v>11</v>
       </c>
-      <c r="J166" s="33">
+      <c r="J170" s="33">
         <f t="shared" si="1"/>
         <v>89</v>
       </c>
-      <c r="K166" s="34">
-        <f>B166*H166</f>
+      <c r="K170" s="34">
+        <f>B170*H170</f>
         <v>2.63</v>
       </c>
     </row>
-    <row r="167" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B167" s="33">
-        <f t="shared" ref="B167" si="2">ROUNDUP(I167/G167,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C167" s="32" t="s">
-        <v>736</v>
-      </c>
-      <c r="E167" s="9" t="s">
-        <v>673</v>
-      </c>
-      <c r="G167">
+    <row r="171" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B171" s="33">
+        <f t="shared" ref="B171" si="2">ROUNDUP(I171/G171,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C171" s="32" t="s">
+        <v>735</v>
+      </c>
+      <c r="E171" s="9" t="s">
+        <v>671</v>
+      </c>
+      <c r="G171">
         <v>100</v>
       </c>
-      <c r="H167" s="22">
+      <c r="H171" s="22">
         <v>2.63</v>
       </c>
-      <c r="I167" s="18">
-        <f>SUMIF(C$1:C$163,"="&amp;C167,B$1:B$163)</f>
+      <c r="I171" s="18">
+        <f>SUMIF(C$1:C$167,"="&amp;C171,B$1:B$167)</f>
         <v>16</v>
       </c>
-      <c r="J167" s="33">
+      <c r="J171" s="33">
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
-      <c r="K167" s="34">
-        <f>B167*H167</f>
+      <c r="K171" s="34">
+        <f>B171*H171</f>
         <v>2.63</v>
-      </c>
-    </row>
-    <row r="168" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B168" s="33">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C168" s="32" t="s">
-        <v>616</v>
-      </c>
-      <c r="E168" s="9" t="s">
-        <v>673</v>
-      </c>
-      <c r="G168">
-        <v>100</v>
-      </c>
-      <c r="H168" s="22">
-        <v>1.79</v>
-      </c>
-      <c r="I168" s="18">
-        <f>SUMIF(C$1:C$163,"="&amp;C168,B$1:B$163)</f>
-        <v>19</v>
-      </c>
-      <c r="J168" s="33">
-        <f t="shared" si="1"/>
-        <v>81</v>
-      </c>
-      <c r="K168" s="34">
-        <f>B168*H168</f>
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="169" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B169" s="33">
-        <f t="shared" ref="B169" si="3">ROUNDUP(I169/G169,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C169" s="32" t="s">
-        <v>711</v>
-      </c>
-      <c r="E169" s="9" t="s">
-        <v>673</v>
-      </c>
-      <c r="G169">
-        <v>100</v>
-      </c>
-      <c r="H169" s="22">
-        <v>1.71</v>
-      </c>
-      <c r="I169" s="18">
-        <f>SUMIF(C$1:C$163,"="&amp;C169,B$1:B$163)</f>
-        <v>15</v>
-      </c>
-      <c r="J169" s="33">
-        <f t="shared" si="1"/>
-        <v>85</v>
-      </c>
-      <c r="K169" s="34">
-        <f t="shared" ref="K169" si="4">B169*H169</f>
-        <v>1.71</v>
-      </c>
-    </row>
-    <row r="170" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B170" s="33">
-        <f t="shared" ref="B170" si="5">ROUNDUP(I170/G170,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C170" s="32" t="s">
-        <v>832</v>
-      </c>
-      <c r="E170" s="9" t="s">
-        <v>673</v>
-      </c>
-      <c r="G170">
-        <v>100</v>
-      </c>
-      <c r="H170" s="22">
-        <v>1.71</v>
-      </c>
-      <c r="I170" s="18">
-        <f>SUMIF(C$1:C$163,"="&amp;C170,B$1:B$163)</f>
-        <v>8</v>
-      </c>
-      <c r="J170" s="33">
-        <f t="shared" si="1"/>
-        <v>92</v>
-      </c>
-      <c r="K170" s="34">
-        <f t="shared" ref="K170:K235" si="6">B170*H170</f>
-        <v>1.71</v>
-      </c>
-    </row>
-    <row r="171" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B171" s="33">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C171" s="32" t="s">
-        <v>823</v>
-      </c>
-      <c r="D171" s="32"/>
-      <c r="E171" s="29" t="s">
-        <v>652</v>
-      </c>
-      <c r="G171">
-        <v>100</v>
-      </c>
-      <c r="H171" s="22">
-        <v>1.96</v>
-      </c>
-      <c r="I171" s="18">
-        <f>SUMIF(C$1:C$163,"="&amp;C171,B$1:B$163)</f>
-        <v>1</v>
-      </c>
-      <c r="J171" s="33">
-        <f t="shared" ref="J171:J231" si="7">G171*B171-I171</f>
-        <v>99</v>
-      </c>
-      <c r="K171" s="34">
-        <f t="shared" si="6"/>
-        <v>1.96</v>
       </c>
     </row>
     <row r="172" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -14555,10 +14490,10 @@
         <v>1</v>
       </c>
       <c r="C172" s="32" t="s">
-        <v>649</v>
-      </c>
-      <c r="E172" t="s">
-        <v>708</v>
+        <v>616</v>
+      </c>
+      <c r="E172" s="9" t="s">
+        <v>671</v>
       </c>
       <c r="G172">
         <v>100</v>
@@ -14567,635 +14502,635 @@
         <v>1.79</v>
       </c>
       <c r="I172" s="18">
-        <f>SUMIF(C$1:C$163,"="&amp;C172,B$1:B$163)</f>
+        <f>SUMIF(C$1:C$167,"="&amp;C172,B$1:B$167)</f>
+        <v>20</v>
+      </c>
+      <c r="J172" s="33">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="K172" s="34">
+        <f>B172*H172</f>
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B173" s="33">
+        <f t="shared" ref="B173" si="3">ROUNDUP(I173/G173,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C173" s="32" t="s">
+        <v>710</v>
+      </c>
+      <c r="E173" s="9" t="s">
+        <v>671</v>
+      </c>
+      <c r="G173">
+        <v>100</v>
+      </c>
+      <c r="H173" s="22">
+        <v>1.71</v>
+      </c>
+      <c r="I173" s="18">
+        <f>SUMIF(C$1:C$167,"="&amp;C173,B$1:B$167)</f>
+        <v>15</v>
+      </c>
+      <c r="J173" s="33">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="K173" s="34">
+        <f t="shared" ref="K173" si="4">B173*H173</f>
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B174" s="33">
+        <f t="shared" ref="B174" si="5">ROUNDUP(I174/G174,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C174" s="32" t="s">
+        <v>829</v>
+      </c>
+      <c r="E174" s="9" t="s">
+        <v>671</v>
+      </c>
+      <c r="G174">
+        <v>100</v>
+      </c>
+      <c r="H174" s="22">
+        <v>1.71</v>
+      </c>
+      <c r="I174" s="18">
+        <f>SUMIF(C$1:C$167,"="&amp;C174,B$1:B$167)</f>
+        <v>8</v>
+      </c>
+      <c r="J174" s="33">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="K174" s="34">
+        <f t="shared" ref="K174:K238" si="6">B174*H174</f>
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B175" s="33">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C175" s="32" t="s">
+        <v>649</v>
+      </c>
+      <c r="E175" t="s">
+        <v>707</v>
+      </c>
+      <c r="G175">
+        <v>100</v>
+      </c>
+      <c r="H175" s="22">
+        <v>1.79</v>
+      </c>
+      <c r="I175" s="18">
+        <f>SUMIF(C$1:C$167,"="&amp;C175,B$1:B$167)</f>
         <v>2</v>
       </c>
-      <c r="J172" s="33">
-        <f t="shared" ref="J172" si="8">G172*B172-I172</f>
+      <c r="J175" s="33">
+        <f t="shared" ref="J175" si="7">G175*B175-I175</f>
         <v>98</v>
       </c>
-      <c r="K172" s="34">
+      <c r="K175" s="34">
         <f t="shared" si="6"/>
         <v>1.79</v>
       </c>
     </row>
-    <row r="173" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B173" s="33">
-        <f t="shared" ref="B173:B177" si="9">ROUNDUP(I173/G173,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C173" s="32" t="s">
-        <v>822</v>
-      </c>
-      <c r="E173" t="s">
-        <v>708</v>
-      </c>
-      <c r="G173">
+    <row r="176" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B176" s="33">
+        <f t="shared" ref="B176:B180" si="8">ROUNDUP(I176/G176,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C176" s="32" t="s">
+        <v>706</v>
+      </c>
+      <c r="E176" t="s">
+        <v>707</v>
+      </c>
+      <c r="G176">
         <v>100</v>
       </c>
-      <c r="H173" s="22">
+      <c r="H176" s="22">
         <v>1.63</v>
       </c>
-      <c r="I173" s="18">
-        <f>SUMIF(C$1:C$163,"="&amp;C173,B$1:B$163)</f>
-        <v>2</v>
-      </c>
-      <c r="J173" s="33">
-        <f t="shared" ref="J173:J177" si="10">G173*B173-I173</f>
-        <v>98</v>
-      </c>
-      <c r="K173" s="34">
+      <c r="I176" s="18">
+        <f>SUMIF(C$1:C$167,"="&amp;C176,B$1:B$167)</f>
+        <v>6</v>
+      </c>
+      <c r="J176" s="33">
+        <f t="shared" ref="J176:J180" si="9">G176*B176-I176</f>
+        <v>94</v>
+      </c>
+      <c r="K176" s="34">
         <f t="shared" si="6"/>
         <v>1.63</v>
       </c>
     </row>
-    <row r="174" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B174" s="33">
-        <f>ROUNDUP(I174/G174,0)</f>
-        <v>2</v>
-      </c>
-      <c r="C174" s="32" t="s">
-        <v>656